--- a/Game simulations/Week 16/Giants at Eagles.xlsx
+++ b/Game simulations/Week 16/Giants at Eagles.xlsx
@@ -57,16 +57,16 @@
     <t>EaglesAvg. FPTS</t>
   </si>
   <si>
-    <t>NIG(164.30362487324214, -36.82335226819802, 31.905621757896057, 149.14678756804403)</t>
-  </si>
-  <si>
-    <t>-6 -5 -15 -15 25 9 16 -14 -18 15 3 -17 11 18 4 -6 -11 -7 -6 -4 -7 11 6 -13 5 -23 -14 -22 -3 5 -12 -3 -7 1 20 3 17 -13 -22 8 -8 -6 -2 -25 6 -5 4 -21 -6 -6 -4 -18 -7 3 -3 -17 3 1 7 -27 -3 -6 -2 27 5 13 -11 3 -9 -5 -21 -14 -25 -17 -20 5 -3 -3 -9 3 -7 -3 3 6 -25 7 5 -3 -1 3 8 -14 10 9 -3 -10 -10 -3 -10 7 -24 3 3 -12 21 2 10 3 -5 19 11 -20 10 3 -6 -14 3 5 -14 -14 5 9 -28 10 3 14 10 -4 -11 -33 -22 12 11 -3 -5 11 -7 -17 -7 3 22 27 -17 3 1 -10 23 -12 -9 3 -1 -19 -11 21 -9 -4 20 -3 1 -7 -20 3 -16 8 -5 -11 -3 -5 -3 -9 6 7 -8 -31 3 -3 21 10 -14 15 -8 3 8 6 -7 -3 -4 -6 -3 -1 6 16 -5 0 -13 -14 -25 12 0 -9 -3 15 9 5 -10 3 -15 -18 7 -7 -19 -1 -4 6 -19 2 4 -1 -10 -4 -25 3 7 -4 -4 -4 5 14 16 18 -1 -6 23 11 7 -3 -18 9 15 -10 14 -5 -3 17 -11 -18 -13 -27 -31 4 -11 -7 -9 -6 3 -3 3 -3 6 -13 -5 28 10 -7 4 -3 24 -6 6 -1 -3 -12 -18 -11 -4 -3 -9 2 -6 7 -15 -9 -5 3 -11 10 15 8 -34 3 -14 2 12 23 -18 -4 -7 -13 -6 -6 -25 -3 -6 -3 5 10 14 -10 -9 -3 -6 3 11 4 28 -7 -22 -7 -6 -17 -2 -7 -4 -3 9 21 9 -3 -10 14 -15 -14 7 -11 -8 -3 18 -6 -29 5 1 13 -6 -19 4 -3 1 2 3 -4 2 24 -23 -2 -16 -3 -18 17 6 -6 10 22 3 -5 -14 -7 6 -21 16 -1 -6 21 6 9 -8 -7 -10 -8 5 -11 -19 -14 6 14 -20 3 21 -24 -31 3 6 5 -15 6 -8 -12 13 -27 -24 3 14 -13 -5 7 7 31 6 -10 14 -17 -13 -31 -8 -6 -2 -7 -8 9 6 -27 -3 -23 11 -7 3 -3 0 -8 -3 -6 -14 -7 7 6 6 -24 -19 -4 -8 -6 -26 -9 8 -10 13 3 -14 4 14 6 -13 8 7 3 -15 -9 -14 17 -10 8 -6 -21 -17 -6 -14 5 5 -3 -2 5 -5 -4 4 -24 -13 -35 7 9 -14 5 -8 -14 -20 -10 -27 -24 -24 -10 6 -18 3 3 10 -18 -3 -3 -1 -1 6 3 32 -23 -29 -1 18 12 -8 -6 7 -21 -11 -8 -8 -14 -17 8 -1 3 3 -19 -7 -3 17 -41 -27 -13 12 -37 4 -14 -3 7 7 -9 -7 1 -20 -7 7 -5 -7 -5 4 -3 -12 8 7 -17 -3 -7 -15 -3 -12 3 9 6 -10 -3 21 -6 14 -9 3 2 -18 16 18 13 -10 -23 6 -3 -7 -3 -21 12 -5 -3 -24 -7 -3 -2 -20 -18 7 3 -5 -18 -4 5 -7 -11 1 35 -3 8 -15 12 -2 -3 10 13 4 -3 -2 -2 -6 -7 -10 5 6 -8 -3 6 21 -7 -18 17 32 3 6 3 -18 -28 -3 -2 -8 6 2 3 -3 9 3 3 -5 9 -10 -7 -20 7 -7 3 0 6 -4 5 -4 -13 -18 6 7 -11 3 -3 13 11 6 5 -14 -5 -5 8 -7 5 -1 -3 -15 1 -18 -15 -6 -1 9 -10 -1 5 -21 -14 -11 4 12 -31 -13 -3 -14 9 3 5 -20 14 -8 5 -3 11 -7 1 -14 -9 -5 -25 17 -9 -16 6 -12 -7 17 -15 3 7 -3 -3 -8 -4 7 5 -3 -4 -6 -8 14 3 -2 3 4 -13 9 -11 -14 17 -24 3 10 6 7 3 -14 -7 20 4 4 12 -19 -30 -10 -4 10 -10 -30 -4 -11 3 11 36 6 -7 8 10 -4 -17 -43 7 -3 -19 -6 3 -25 18 -6 -6 12 -5 -3 15 14 -3 -19 4 26 9 11 23 -16 6 -15 3 -6 7 -4 10 -8 -10 -39 -3 -11 -7 6 -13 -11 -31 -15 8 9 -1 23 -16 -15 -21 3 7 -20 -18 29 -25 -5 5 -7 9 -11 -25 -13 13 -10 -12 6 -10 -5 -22 6 -16 -3 -11 -3 -3 7 -15 5 -11 4 -11 -3 -3 -2 -10 24 -13 -17 3 -7 -39 -28 -7 7 -10 -10 7 -4 5 6 -20 5 -16 -15 -6 6 -8 -1 15 3 -35 11 -6 -6 9 -1 -10 20 -12 -3 -23 -5 -7 -6 -28 -9 -14 37 -14 -8 -14 18 3 -4 -7 -7 15 -14 4 2 -7 -15 2 -3 2 12 -3 3 6 17 -14 28 -17 -2 4 -4 17 10 28 3 24 4 -24 -11 -6 3 0 -26 14 12 1 -19 10 -4 23 3 -6 -28 -11 -17 17 11 17 3 7 3 -1 -10 -10 -7 6 -18 -7 -13 8 3 -10 -3 -8 44 -16 23 -3 25 -14 -28 7 12 4 -12 -1 -6 -7 -13 14 13 1 -8 -22 3 -3 3 16 26 5 -14 6 4 3 -3 7 8 23 5 7 -3 3 -31 5 -3 3 -34 -13 1 -13 -12 -2 -6 -20 -16 -1 3 13 -21 -7 3 -3 3 -3 16 8 0 0 10 -6 -3 -6 -10 9 -7 -5 4 -11 -14 6 -8 3 -11 -13 -18 -21 14 -3 1 -15 -20 -4 15 8 -6 -6 13 8 7 -14 -7 -2 7 -15 9 -23 10 15 2 -4 -18 -11 -7 -1 7 4 12 10 -1 2 -3 10 -12 27 -21 -3 -6 -5 6 -3 14 -10 9 -3 -22 3 -12 -17 -12 -8 -9 -24 8 -12 3 -7 -10 18 11 4 2 -19 17 -2 -16 3 -24 11 -3 -5 1 -5 11 -24 32 5 18 -21 -19 22 -4 3 20 3 12 -3 9 5 -10 -10 -18 -4 4 5 21 -3 -10 30 -11 7 -4 11 -6 -3 -12 -2 -20 -11 3 -20 12 -14 4 13 10 2 -3 -10 -7 23 -20 -3 -13 -3 4 3 -8 -3 -9 -14 1 -3 11 8 7 -18 -30 -3 4 -10 13 -23 -28 -11 15 -4 -1 10 -8 -3 11 -7 -26 -1 -14 -34 -4 18 -6 -17 -4 -31 -12 -20 16 1 -7 -14 -22 -10 -4 -14 -11 2 -18 3 -13 10 -11 -7 7 -20 5 -25 16 3 -10 6 5 -3 -8 -6 -16 -6 -6 -14 -7 -17 9 6 -14 7 7 -8 -21 -10 14 2 -17 2 0 -7 3 7 10 19 5 -24 -2 6 -11 -24 8 2 -6 -9 -9 -13 2 3 -20 -14 -5 -4 -5 -13 -8 -17 -3 -7 -1 7 7 -14 -14 4 -18 14 -11 -14 -17 11 -21 -4 3 -24 -17 22 3 4 12 -8 3 -9 -11 -17 6 -14 -7 -18 11 5 -3 19 6 4 -10 29 -14 12 19 3 8 -20 4 -4 -3 -6 -17 -5 20 -14 -19 12 -7 -4 4 -3 -6 14 -8 3 4 -28 -3 -20 2 9 3 8 22 -31 -2 10 3 -11 12 3 -6 4 -4 -14 -3 27 -14 -7 13 -11 -10 3 -18 19 9 -14 -21 -4 1 -15 6 3 8 7 6 34 -17 -8 18 28 -3 8 -8 -5 14 -10 -8 -4 -5 3 8 -3 -3 17 4 17 -27 10 3 -14 -4 -6 -9 1 -18 -6 -25 21 -23 8 -19 7 14 4 15 -5 -4 -14 -17 10 -3 -21 -13 21 -24 11 17 -7 -10 3 -3 6 11 -14 -9 -11 -6 -8 10 3 -8 13 -9 -7 11 -21 17 2 -3 5 7 -6 6 -13 -3 18 7 -1 7 4 15 -7 -3 -3 -14 -7 11 -3 2 6 -6 -8 7 13 0 -18 -10 17 8 -26 14 9 -10 24 -4 -7 -6 -24 -7 -3 -20 -6 12 4 10 -4 10 11 -7 -11 -18 -6 -21 -7 7 7 -10 -1 -11 0 -1 21 -13 -7 3 -8 15 -24 -39 -11 17 -4 7 -6 -16 -4 -10 34 -6 -10 -14 5 -2 -13 24 -12 -15 -13 -28 11 3 6 -11 -19 7 -5 -5 2 -17 11 16 11 3 -7 7 1 -11 6 3 9 -3 -22 6 -30 18 -3 11 6 -20 26 -7 24 -16 -17 -18 5 -3 -14 6 10 -24 6 13 3 17 -9 -16 -6 2 -6 5 7 6 8 -8 10 -17 10 -4 -4 -28 -17 2 -1 3 8 3 -28 6 -19 -13 -14 8 -7 2 10 12 -32 3 -23 -2 7 -7 -6 -28 -7 7 -14 14 3 11 5 -7 -7 -7 4 -21 4 5 6 -14 5 6 2 -5 25 4 17 -3 -17 5 -38 21 -21 6 -20 8 -10 -8 -16 13 -7 16 20 -6 5 -18 1 -3 4 -6 -7 3 -26 -3 8 16 -17 -12 -19 -6 -1 -3 -13 -2 -5 -10 -10 -14 4 -6 2 -4 7 -2 9 19 3 -3 -11 -6 -14 -6 -3 10 3 13 -1 -6 -7 -13 -4 10 -3 5 -24 18 -3 28 -13 -6 -24 -34 -7 3 -14 -18 17 15 3 3 -8 2 7 7 -7 17 -19 6 -27 6 -9 10 -7 -35 -15 -2 3 -9 21 -8 -21 5 21 -4 -1 -7 -28 7 3 -20 -6 -15 -12 -1 -3 -9 -19 34 6 3 -11 -2 -11 -3 -3 10 -1 -10 -4 -8 -3 -17 -4 -6 -16 3 -27 -16 6 -8 9 -4 -13 -10 11 -9 -10 -22 8 2 3 -35 11 -5 14 -4 7 -3 -6 11 -12 -3 -14 -28 1 -11 -11 -13 -10 1 -16 -30 -25 -3 18 5 -3 -4 3 -3 -6 16 7 -14 15 3 -5 -2 -5 3 7 7 -11 -7 -7 7 24 -3 -11 7 -21 3 -20 7 -22 -22 15 -13 3 -20 -7 -7 -22 10 -3 7 -5 -2 -1 5 16 19 -1 -22 -5 -4 -16 -4 -7 3 14 -19 -6 -24 3 -17 -17 -6 -6 -11 -3 -6 -6 -20 7 -5 -13 -3 -3 -7 11 5 -34 -4 7 -5 -5 -4 11 -21 0 5 -15 -4 -8 3 -5 7 7 7 -6 -25 -14 -8 -11 -3 -16 4 -7 -14 -16 4 -20 4 1 -18 -2 -8 3 -10 3 -17 3 6 9 4 -14 -3 -15 8 -4 -31 15 5 7 -3 9 30 -6 5 4 -24 -24 -4 -7 -4 -13 -3 13 -3 4 -3 6 -8 -7 10 10 -32 -9 3 -34 -4 3 -21 14 -11 3 -6 0 -3 3 -4 -4 -2 -14 4 7 -7 -8 -15 -4 4 -11 -26 -25 -17 -6 -3 4 6 4 -2 -10 11 -3 -17 -16 3 -10 11 14 12 3 -13 -4 7 -7 -4 -18 -5 19 -6 -16 5 3 10 -13 -13 3 5 2 -7 -3 -6 -13 14 -4 -3 17 -4 -3 -21 18 12 -17 2 -14 -30 -5 -11 13 -1 7 -4 5 3 -27 -7 -8 -2 -7 -7 -21 20 3 5 -21 -17 6 3 3 -10 -10 -10 7 -6 -4 -6 -8 -7 -17 -10 -8 -13 -7 -1 3 -21 12 20 -3 5 6 0 -3 18 -9 -21 -21 2 6 -7 17 6 9 -5 3 3 -3 7 -8 -8 8 2 -8 7 -24 -17 -4 -6 -13 -4 7 6 -17 -23 -10 -10 6 -4 -5 -7 3 -17 17 -5 -7 3 11 -3 10 -7 3 7 6 20 -7 6 -11 -2 6 10 14 7 -3 -22 -6 -3 -11 -7 -20 -42 -11 3 -5 -4 7 -6 7 -15 -13 11 -12 6 -1 2 -10 -12 8 -7 -8 -3 10 1 -7 -12 -13 4 -1 -19 -27 8 -10 -11 -5 3 11 -3 6 -18 -13 10 4 5 24 17 -11 7 -10 14 4 -7 -7 8 32 1 -17 6 -15 -4 -22 -21 6 14 1 -4 4 -7 4 10 -11 -7 12 14 -6 10 2 6 18 -9 4 7 3 -3 1 23 -8 14 -3 -3 -12 9 -7 -3 -16 -3 -5 3 -5 -7 -10 0 14 7 17 13 -4 7 -13 -9 -7 -11 -6 9 -3 7 -4 -7 3 16 12 -22 -2 -13 -14 18 -13 -6 -5 9 18 -5 9 -4 0 8 0 -2 -19 14 -11 5 -15 -11 -6 2 -3 -7 -25 -6 11 3 -8 -7 -24 -4 10 -14 3 -3 -7 -3 -6 -27 -14 17 14 3 -10 6 -7 14 -8 7 -7 5 2 14 -30 5 -23 -24 3 -2 -12 18 11 -11 6 -8 -22 10 -3 14 2 -6 13 8 -8 -17 9 -3 17 -3 -14 3 6 -17 -17 15 1 -21 10 9 -2 -22 -11 -12 7 -16 6 -30 17 -13 -14 -20 -6 -10 -20 1 -16 -3 3 2 -21 5 -17 5 7 8 -7 -17 -14 -2 -9 23 -3 -29 19 -13 8 4 -20 11 -24 15 -10 -8 -11 2 3 14 5 -4 28 -5 -3 -4 -4 -4 -17 -7 -21 -12 9 6 10 -17 -6 -9 2 3 7 -10 -15 24 -11 11 3 13 5 19 -24 2 -11 -7 6 -28 14 -6 24 -7 -20 12 -8 -3 -7 14 -3 2 9 -30 -4 -13 20 -1 -19 -4 -11 -20 7 5 -13 9 -2 -3 15 -3 -26 -7 -7 -12 -14 -10 -9 -28 -7 -17 -4 13 14 5 6 -18 -13 4 -18 -14 -7 -11 -25 -5 -3 6 16 -3 -3 10 -9 -2 -5 3 -21 -10 3 -5 -25 13 10 -20 -15 -8 -17 -3 -25 20 10 -5 6 7 -4 7 -11 -7 -3 -3 -12 -9 -14 3 -3 -1 -18 1 -3 28 -16 -4 1 3 -8 -20 -1 4 -22 4 -11 -10 1 -5 -13 0 3 -11 6 11 7 11 -14 14 -12 -17 12 -24 5 -4 -21 4 9 -6 7 25 -13 -8 -11 -3 28 -2 -8 -3 10 -18 22 -19 -21 3 3 18 12 3 2 -6 6 6 -10 18 21 7 3 -18 -11 21 -11 14 10 -8 2 17 -38 -4 -10 10 -10 -6 -1 -16 14 7 7 7 3 -3 22 -22 1 7 -14 10 -3 -12 -5 -17 3 6 10 13 -3 7 -6 1 2 -3 -10 -5 -18 -8 -21 -7 7 -7 -1 6 -7 -3 12 7 -9 -11 -10 8 2 5 3 11 -13 7 25 -3 -9 -7 -3 12 -3 -23 3 -13 5 23 -3 -8 -4 3 9 -3 6 10 9 -12 -7 -8 3 -35 -2 18 -4 -8 -6 17 7 8 24 -1 -19 -14 3 8 -18 3 -2 -21 3 4 8 -1 4 -14 -28 14 -14 17 7 -20 -7 19 14 11 11 17 -3 -7 -20 -15 12 14 18 -1 24 12 -6 -7 -5 -7 3 -3 6 15 18 7 1 -1 -9 15 -8 -1 24 -2 15 14 -3 30 -22 -5 -7 6 6 7 -6 -3 -14 -9 3 13 2 -4 -4 -2 -18 -4 -1 3 10 3 -10 -20 12 -2 9 0 14 -24 5 -18 8 -1 3 -7 3 -1 -21 5 -17 -13 -4 18 13 -7 14 2 11 -17 -11 -4 -6 -28 -13 14 10 15 -15 10 14 -6 -3 -3 4 -7 10 -15 -9 -14 7 4 -14 17 -3 -5 -3 -8 -3 5 7 4 10 -14 -10 -9 -3 -6 -6 1 6 5 14 14 0 9 -2 -11 -10 3 10 3 -10 24 -8 -3 -3 5 3 9 2 -7 -3 -13 -13 -16 3 -23 -10 -18 -6 -3 6 -31 8 -5 -4 -11 24 -15 3 -10 9 -17 -11 -25 -4 4 6 -7 5 11 15 -3 19 -2 -11 -5 -3 3 -14 11 -7 17 -3 1 -11 -12 4 17 3 3 -9 -13 3 10 9 -7 20 -7 -3 9 -17 6 -12 10 -25 1 17 -8 -7 -21 -4 -22 -14 -21 8 14 -4 -7 -17 2 3 11 32 -16 -17 -7 7 5 10 26 13 -10 -6 6 -1 -2 -2 -23 -10 -8 9 24 -2 6 -3 -7 -6 -10 -34 17 -6 4 -6 -2 23 -11 18 12 1 3 -17 -10 11 -3 -3 19 -14 16 -3 -17 -6 -27 8 -17 10 -5 8 -3 8 4 -15 -14 -18 -7 -13 -11 5 -14 5 6 -2 -3 -8 12 3 -3 -4 -13 -1 -13 -23 -5 -7 -7 6 11 -3 -7 -20 -2 -21 -21 -5 -3 -8 10 18 -4 5 -10 -11 -7 -5 8 -12 7 -18 -17 -8 -12 -5 22 -5 6 -16 -12 -15 6 -8 7 -10 -7 -12 4 21 -16 -2 12 -1 -6 3 -25 -2 15 30 -11 -25 -1 9 -1 4 2 11 14 -9 14 -13 -10 -5 -3 -18 12 -21 6 -2 -7 -6 -18 4 17 -12 6 4 3 6 -27 -17 8 -11 -3 -17 -28 15 10 -7 6 -7 -21 -6 -16 3 4 -14 -2 -11 -1 11 3 -11 -20 18 3 -24 -5 4 -9 7 2 -6 3 -7 7 -10 -7 -1 24 -24 -30 -3 9 3 6 -8 -5 17 3 14 6 -6 21 17 11 -6 18 10 -3 6 -29 11 -21 21 -18 -23 -4 -3 19 -7 14 6 -8 27 -15 7 -12 17 10 9 -4 -17 -18 -18 12 -7 3 -3 -10 11 4 14 -19 3 10 13 -7 -3 -24 14 -3 -14 -14 -4 -6 -20 -1 -17 -10 5 -7 -3 9 -18 -13 3 -13 3 8 7 4 17 12 -39 5 4 -10 -6 -12 3 -7 -1 12 1 -26 17 -3 -26 -20 -11 -3 -1 4 -18 -21 -3 -14 3 -7 10 1 -30 -10 -6 -9 13 -14 -27 6 6 4 -14 -1 -10 6 -39 -3 -8 -17 -5 4 -12 -11 4 -8 14 7 9 -3 -1 3 19 19 13 -5 -14 -1 -15 9 -6 -14 -3 4 -13 -13 22 18 -3 -10 -13 -3 10 4 4 13 14 1 9 3 -23 5 -10 -8 -3 -21 11 -11 -15 17 -3 -33 -16 -5 4 -3 -21 -13 5 -3 12 2 6 -30 18 -19 -8 18 -20 3 -5 5 -7 23 -6 -7 -5 -10 -19 4 12 -13 -22 -13 -2 3 -14 17 1 2 -4 -1 8 -4 -17 -14 11 4 -3 -24 -5 -2 -16 6 -10 8 6 -20 -19 0 -3 -9 5 -7 -21 7 -8 -14 -13 18 4 -4 4 -13 14 4 8 -2 -11 3 13 -10 15 -6 -20 -3 -22 -3 -12 6 -13 -3 -21 -6 3 -3 -27 17 -5 3 20 -4 -3 -14 -6 0 7 -7 14 3 12 -2 -6 23 -3 -9 -10 -1 29 1 -4 -1 11 -4 3 3 4 -18 17 -2 -6 -14 9 -1 21 27 19 -8 10 8 3 -1 -4 3 5 3 2 -4 8 -17 -1 -10 3 -12 5 7 -15 -11 2 3 9 -10 12 -2 -11 -9 -18 -6 8 22 7 8 -4 16 -10 9 -32 -25 22 3 3 -10 14 -30 31 -3 2 3 1 -19 0 18 -9 -6 12 14 3 6 -3 -14 -10 -22 14 -2 -18 -17 -10 -11 -5 -6 -10 1 -21 -1 -1 -3 -5 -21 -11 7 -4 -11 -3 -9 -12 -10 -1 -11 -3 5 14 -14 3 -14 -19 -1 -13 -9 2 4 -17 -14 -5 7 7 -6 -10 1 3 -2 -8 7 13 3 -8 6 -11 -28 -13 3 1 0 -3 -7 -1 15 -8 -3 -10 -4 35 1 -2 1 5 -14 -23 16 -2 7 4 -9 -7 5 5 -7 5 18 -37 -3 -5 4 16 5 7 -8 14 -14 -11 1 -21 23 14 -29 -6 7 1 7 -18 4 -4 -3 2 -3 -10 7 10 -14 -4 -1 -6 13 -7 -5 -3 -6 -15 -3 -6 8 -10 13 5 -2 -6 -27 12 10 -34 -3 10 3 11 17 -4 -14 -9 -14 -3 -8 10 -32 -20 -3 4 -2 -12 -16 10 -10 -2 -3 -3 3 9 -18 -22 14 -9 4 3 -10 -3 1 -3 -19 -2 -25 -28 1 -21 -11 7 15 -1 9 -25 6 -3 7 16 7 3 12 10 1 -11 5 -3 -35 -3 -3 -14 6 -1 27 -6 -6 -17 -3 7 20 -10 6 -18 15 -3 7 17 -19 -11 1 8 -5 -15 -13 -5 23 -15 10 -13 -10 -3 -14 11 35 -12 3 3 15 11 6 -3 21 7 -14 20 -7 4 -10 -14 -3 27 1 6 -14 -2 -3 -6 -7 -4 -28 -4 -14 -1 -7 -5 -5 5 -7 4 3 -10 3 -14 -3 -3 -3 19 9 -10 20 -17 1 -6 -13 -7 24 6 7 -17 -6 -6 -12 7 8 -6 19 5 -2 9 -8 -9 7 22 -21 17 4 -19 3 -35 3 -17 13 -2 12 -3 -6 -14 1 4 34 30 16 6 -7 -10 -4 6 -13 -3 14 6 -16 -19 -17 -5 15 -9 -7 -14 3 -10 19 -23 -3 -7 -24 -3 10 17 1 -13 10 4 -10 7 -20 -6 -11 -13 -9 13 -13 6 1 -15 -30 -7 -26 5 4 6 -9 -3 11 -6 -3 -7 -3 13 6 -10 20 3 -11 4 10 -3 17 -14 -6 -6 15 14 -7 0 9 1 3 -3 9 -5 -14 -2 -21 -2 -13 3 -6 -3 -15 2 12 -4 11 14 4 3 -3 -13 9 10 6 -8 -11 0 22 11 -7 -6 -29 30 8 -24 -4 -7 7 -5 13 -10 11 8 2 -4 4 -1 -1 7 -11 -17 -31 -6 15 -9 -4 8 -17 3 -20 -9 -35 -8 0 -3 -10 -22 4 -3 5 7 2 10 2 13 -18 -3 8 1 -14 14 -4 38 4 7 -7 3 -3 -2 -20 -6 -6 5 3 -14 -3 -21 -15 7 -32 -6 -28 3 -17 6 -10 -10 -1 7 11 -6 -20 -4 6 -17 28 10 3 -13 3 -9 -21 -13 -3 4 -18 3 -13 3 -4 3 -19 -11 -4 -4 -4 10 7 3 -1 -3 -3 -5 17 -3 -16 6 -3 3 7 0 -7 10 -20 -11 13 -14 -19 -18 4 10 3 3 11 3 -21 -6 -3 7 12 -9 6 2 4 -3 -21 -9 -7 5 6 -15 11 -3 3 -7 -10 -3 -1 -7 3 9 -7 -3 -8 18 -22 1 -17 13 -3 -5 7 -20 6 -7 -35 11 6 -21 -1 -23 -4 -15 3 -13 14 -5 14 -21 11 -5 3 7 12 -16 6 -3 4 -6 8 -4 10 -7 -5 4 -14 -3 9 -13 5 -3 -14 5 -14 -17 -14 -13 -16 -3 3 3 -11 7 -27 -27 -3 11 11 -16 -18 -10 -7 3 6 -7 -11 17 13 -20 -13 -2 -6 -17 4 2 -6 13 -6 -4 5 -23 -6 8 11 3 -8 3 -8 -18 -5 -17 -10 -18 2 18 4 -12 8 -12 -6 4 14 -7 -10 -5 3 4 -17 9 6 25 -7 17 -3 -5 -1 -20 10 5 -7 -7 -6 3 3 -15 7 -3 2 6 -23 -7 15 5 14 14 3 4 -4 3 -1 3 -3 18 -9 -17 -9 -23 -3 -8 -14 -12 6 -3 4 0 -11 -8 -10 14 -14 7 -19 -2 -20 19 0 15 7 3 -17 -21 -7 -6 -4 -7 -6 27 4 3 -14 -2 -24 -6 -10 -13 8 3 -6 6 -1 6 11 9 2 5 -4 -7 3 -19 4 10 21 -14 -17 -4 -3 -3 -7 2 -7 -3 -3 2 -20 -17 -5 -3 -20 -7 -3 -7 -4 3 -6 9 -22 5 16 9 -14 -7 -8 6 -11 24 7 5 -16 -6 -1 -11 -11 -17 10 14 6 3 7 -6 -25 6 14 -6 5 -10 -3 -1 4 -8 13 -8 -11 -9 -1 3 -11 3 2 -3 -14 -5 7 6 -3 -2 -20 -17 -6 6 9 -14 -7 -17 8 -13 -7 -3 3 -5 -8 -3 14 2 -3 -6 -27 9 -15 -12 6 -2 -12 -5 -4 -17 8 -8 35 14 -5 11 -7 -10 -29 3 -3 -10 -22 -18 19 -23 -2 -3 -20 -21 19 -6 -1 18 11 9 -7 -3 -3 -11 -3 -6 10 25 -10 1 -7 9 3 2 15 -6 -20 -4 -7 -19 -4 -2 3 -12 -3 10 -6 -8 -15 6 4 11 -3 9 -16 -7 3 -17 5 -7 -23 -13 7 3 -31 10 5 -7 -15 9 -20 -18 -13 4 -1 -12 -6 -6 1 6 -3 7 -3 -6 28 -4 5 -26 -3 -14 3 0 8 -3 3 3 14 -13 22 14 -1 -7 -10 -5 -10 3 3 -1 -6 7 21 -21 -1 1 -7 -5 -12 6 -3 -7 -17 7 8 -10 -7 -2 2 -3 -11 -5 -23 4 10 -3 7 -3 -4 24 -4 -11 21 20 7 -23 -20 -5 10 13 9 -22 -19 15 -3 -11 -6 -23 4 -5 10 -8 -9 4 -28 28 -1 -3 -1 -9 -6 5 24 20 -10 11 5 -3 -3 10 -12 4 -5 -10 -8 -7 3 25 -10 -4 -23 -12 -21 17 -8 -12 -18 -21 -7 -18 -8 15 6 -9 3 -6 7 14 -15 -3 24 9 3 -3 -20 8 7 -27 -13 7 -14 -17 4 -7 -14 17 -13 3 -4 -9 14 2 7 -1 -8 28 -16 24 -3 -10 -1 -14 -11 21 -6 9 7 21 -4 13 -12 -19 10 7 -18 7 4 2 -25 -9 -23 -3 -3 -17 3 -7 -7 -15 -3 -10 2 17 4 4 2 -24 -18 3 -34 -2 -21 3 -19 13 -3 -8 -10 5 13 -14 3 6 -7 12 -17 -22 -7 -1 -20 -6 -4 3 -7 4 -1 -30 5 6 -9 -7 3 -20 -4 -33 13 -21 -10 33 -6 5 -13 16 3 -10 -7 -10 -11 3 3 15 -14 -7 26 4 3 -3 -16 -18 -6 -8 14 -5 -17 -18 -15 13 -3 -1 -13 18 3 0 6 13 -25 -11 24 3 -5 15 11 -9 6 -16 -6 -4 -1 -8 4 12 -11 -7 16 -38 11 -3 -10 -21 -4 -32 -7 -15 -6 3 -12 -28 5 4 -11 -2 6 16 -14 10 6 -4 16 -16 3 6 26 -9 -17 -24 -3 -3 -4 -3 3 -16 -5 8 -13 6 -10 -3 -3 -7 21 -13 -3 6 10 23 -13 20 -3 -4 -4 -17 -8 -3 3 -4 10 -7 3 -6 -17 -18 -6 5 8 15 3 7 1 -3 -10 -38 -7 11 6 -15 -3 -20 6 3 -15 10 14 -3 -1 6 -25 -5 18 -10 -2 6 -13 -2 -29 -17 -21 3 -17 -1 12 -7 -3 12 -10 -11 -5 -7 7 5 -3 -13 -10 20 -3 -21 3 -21 20 -18 -5 -14 -11 7 -8 -1 -18 -14 -7 -5 -7 -12 -9 -17 9 -3 26 3 -7 6 11 -7 -7 -4 -10 14 -12 2 -7 -5 -8 -3 -8 17 5 -12 -3 -10 -6 -8 -15 -10 6 -6 7 -14 17 -24 -6 -24 3 -2 21 5 20 -7 -13 10 7 3 3 -11 6 -17 5 10 3 4 -10 4 4 -19 -6 1 -18 -2 6 -11 -1 11 -27 -9 -8 -7 -27 17 3 -3 20 14 -15 7 -4 6 -14 -3 15 17 8 11 13 -6 8 8 7 -8 -9 14 4 10 -14 -5 -3 -6 7 14 5 8 -6 -3 -19 -2 -36 1 28 20 11 -8 19 8 -27 1 -16 3 -10 -4 -14 -25 -6 -8 11 -10 3 -10 -8 -15 22 8 8 -5 -15 3 3 13 -18 -11 -11 -13 -25 7 -14 21 -24 1 -3 -6 -12 17 -10 3 -5 -5 8 19 -3 -9 -17 21 -21 -24 -21 -17 -4 -5 -17 3 -2 7 -12 9 -4 9 -11 8 4 -23 -7 -13 -3 3 10 9 -7 -1 4 3 -3 -15 2 5 -3 -9 4 4 -18 3 -25 -10 -19 -6 -10 -6 -18 21 5 10 -8 -13 -3 1 -6 -21 -17 -12 -12 3 11 -1 -38 11 -14 14 20 8 15 -13 10 -8 -23 -12 2 10 7 -3 3 -27 -18 -10 -17 3 17 1 -3 -3 -13 13 -12 8 -6 5 -2 -4 -11 -7 31 -20 1 -17 6 -8 3 -3 -7 -2 7 3 -13 -5 -6 5 1 7 -13 -6 3 -15 27 -14 -20 -5 -23 3 17 20 -7 -14 -15 -22 -6 -7 3 3 3 -16 3 -6 -3 -35 -3 14 -17 -6 -19 -5 21 4 18 -3 -6 -28 8 -11 -7 1 17 -20 -13 4 12 18 -11 -7 -7 -10 -11 -1 -20 -21 -6 -7 33 -5 3 -8 -4 3 -7 -2 -15 10 14 18 2 21 3 20 -7 5 -6 -14 11 -3 -3 7 3 4 -17 6 -6 22 17 -9 -3 -6 11 -6 -18 6 10 -5 -24 -17 21 -8 -6 3 -4 3 -9 -6 -3 -2 14 -3 -6 14 -13 6 -7 3 -41 -4 7 -4 0 -6 -3 -6 -12 -6 -3 2 -8 -3 4 -5 7 -25 6 -28 -11 14 -6 -15 7 -6 -14 7 -16 -5 0 4 -7 -3 -3 6 7 -18 10 -7 3 -5 -3 5 15 5 -4 6 14 -14 7 -7 -4 -14 -17 -23 7 0 14 -3 -13 -11 6 6 3 8 4 -4 8 -4 -1 -10 4 16 -6 -7 -12 -13 23 -2 -20 1 -16 7 19 14 -3 5 -9 -20 17 -14 3 10 -6 11 12 9 3 20 -1 -23 3 -21 -6 -10 10 10 7 -21 6 -7 3 6 7 9 26 -3 14 15 9 3 15 -5 -19 18 22 -31 -3 -13 -17 12 -8 -15 -16 -6 -8 9 3 7 10 5 -7 24 13 35 4 -9 7 5 3 -7 -21 -9 -2 -5 -8 -24 -2 -5 4 -7 -6 3 -8 -3 6 -26 13 2 -21 20 0 8 3 13 -4 -12 5 -6 -14 2 8 -28 -27 6 -18 3 -14 11 7 -1 17 -24 2 -17 -3 -9 3 -6 3 5 11 -11 12 6 -5 -5 -23 -4 -3 -3 7 6 -6 15 9 24 18 3 31 -27 -24 -34 -25 -6 11 -4 21 6 -6 6 -13 7 -13 3 8 -20 7 3 8 -22 -7 -9 5 -11 -3 4 -11 -7 -14 14 -9 -13 -12 -7 2 -3 -13 3 -1 3 -12 -4 -1 -11 8 15 -13 15 12 -8 3 -3 21 5 -18 -3 7 3 -3 8 -10 7 4 -6 1 -4 -17 -27 -22 6 3 -6 11 -13 3 10 4 17 13 -10 -5 -9 -2 -7 8 6 4 -7 6 -26 17 -3 -6 4 15 21 -7 5 -14 -6 21 -21 -2 25 3 -18 -3 -3 21 -3 27 -4 4 -1 -7 -10 7 -4 -6 -3 -3 -18 3 1 -4 -4 13 -10 4 -18 -4 -1 11 -13 -6 -5 -4 -2 -16 -3 28 -27 -14 -8 -8 -10 2 -1 -14 -7 0 9 -4 -22 -6 28 -5 9 9 -14 -8 -25 -17 -6 -26 -14 15 -24 -3 17 -3 5 1 -3 -13 -6 -18 20 -21 -21 -24 13 -10 3 -8 4 4 8 6 6 -24 2 -23 -6 -3 3 3 -4 4 15 -24 -13 -12 3 11 -18 -21 -12 -14 7 -3 -31 10 -3 -6 13 7 3 13 -3 -7 4 10 -18 -4 6 -1 3 -17 4 11 9 -15 4 19 -13 31 6 6 -3 -23 7 -4 2 -9 18 13 -19 6 9 14 3 14 2 1 -14 3 6 -6 -13 -11 9 -3 -8 -5 6 14 4 -12 7 -15 -5 -11 5 -12 30 -16 6 -4 -25 -10 -4 -6 -15 16 -3 -6 8 -7 3 -10 10 9 21 -3 -3 6 12 -18 14 -15 5 3 -4 -3 11 -9 5 20 11 17 -18 3 5 4 15 3 -27 -18 3 5 -17 -3 3 3 10 -26 -22 -18 -25 20 4 16 -14 -16 5 -7 -4 -4 -13 -4 3 -6 9 7 9 -4 5 13 -11 -14 -10 -29 -5 6 -12 -9 -1 -25 -11 10 22 -3 -3 0 -28 1 3 5 -2 1 25 -18 -1 -7 -3 -6 16 8 4 -5 -6 -6 3 9 -24 -7 -21 4 -20 -2 -5 7 -9 7 11 4 -9 11 -2 -3 21 7 -25 6 -7 -3 9 18 23 -5 -3 16 3 3 -11 -15 -17 7 -13 7 4 7 -4 -3 15 -12 -10 -9 -45 -8 -3 13 6 -8 -3 10 -28 -4 -7 -10 -10 4 -3 6 -3 18 6 -14 -8 -9 -1 -10 9 6 -3 12 8 24 7 -5 -18 5 -4 6 -6 -13 -10 1 -23 8 -19 -4 -24 3 -13 -1 -4 4 -15 -18 14 7 -35 -3 14 -4 -33 -4 -17 10 -11 -10 9 -21 2 10 28 -17 -18 -14 -3 -12 -24 3 -9 7 8 7 -18 12 -3 -6 -7 -14 -17 -26 6 -4 -14 6 24 -10 4 -1 4 17 -7 -8 -7 -2 -18 -8 -4 -19 3 -3 3 -15 6 23 -7 4 -5 24 -14 13 6 -5 -14 9 -12 -19 -3 -24 -31 -8 5 -14 -11 -8 -25 -19 -11 16 -18 -13 -17 -3 7 -8 -5 10 -14 -27 6 7 -21 7 17 7 -28 -31 -16 -18 -13 -14 -7 -11 1 -7 5 3 15 7 -15 -7 4 -17 -37 17 16 -16 -4 5 -9 -14 -1 -4 6 -13 10 -3 -10 20 14 -11 -4 -4 3 18 17 6 -18 -7 -4 -14 -3 -33 13 -3 -8 -11 16 7 -1 9 33 3 -15 -9 7 13 29 10 -4 7 15 -7 4 1 -7 1 -7 25 -4 10 -6 7 3 -9 10 -9 -7 6 -8 -3 3 3 -23 -10 -3 -14 3 -18 -24 -2 9 -2 -14 3 -3 -11 -4 -3 3 -10 -14 1 3 3 3 -3 -17 -10 -3 -2 -5 3 -3 -7 -11 -11 -11 -2 -8 18 -10 -3 -15 10 7 -2 -28 3 -20 5 -3 1 -19 3 -10 -13 3 -13 5 -3 17 -10 -3 -1 12 3 3 -7 17 -17 15 17 12 -25 -18 -7 -14 6 32 -2 3 -1 14 -6 13 13 3 -11 19 -6 18 6 -8 -6 -2 -13 -13 -10 -8 -18 3 1 -3 -9 -1 -5 13 3 6 -16 -12 6 -4 -20 -5 35 13 6 13 -7 -13 -3 -5 -9 -7 -10 -14 21 8 -28 -14 -3 -10 -4 -4 4 -7 3 -21 -7 -7 12 -23 2 -26 -17 5 28 13 8 -10 3 11 -4 17 -9 8 5 -11 -24 4 7 -29 -14 -15 -23 11 9 -1 14 -4 -4 -4 -4 3 27 -9 -13 -5 -28 -7 -3 1 -4 3 -24 -14 -3 5 12 -6 8 -20 -14 -21 -4 1 -11 6 -24 -15 11 -19 -22 -11 14 9 -12 3 -5 -3 -4 -3 -24 3 11 -7 19 -11 5 10 7 7 -7 2 22 -17 -3 2 -3 -9 8 3 38 -20 -1 -7 -11 11 9 -11 -18 -5 6 -5 3 -5 16 -5 -21 5 10 -13 7 -4 10 -7 -18 27 -14 -7 20 -3 -6 12 12 -7 -4 14 -18 3 -14 3 -6 -18 -11 4 -9 -22 2 -5 -3 1 -32 -12 13 -16 17 -6 -2 -6 -7 -7 7 -3 -16 6 -9 -26 5 -5 -3 3 7 -20 6 10 -11 -21 3 3 13 -4 6 7 -3 -7 -8 6 -3 -10 -41 -8 28 -7 3 -14 10 -11 3 3 10 -8 1 -13 -11 28 6 3 7 -1 -10 4 4 -20 -19 5 -18 7 -33 -26 4 -3 14 -23 -18 -14 2 3 -14 -27 -7 -32 -3 2 1 -18 -11 3 -23 -3 -1 5 -4 17 7 -24 -13 -17 -13 6 -2 -3 17 -14 -14 -10 -1 -2 20 -11 -10 10 10 14 -21 5 -3 -10 14 11 -19 -1 -18 8 7 -13 1 -5 -24 7 -18 -7 -10 -17 -20 -4 -8 -2 -8 16 -16 -21 -10 17 10 18 -7 35 -7 -7 -17 -19 -6 -12 -14 -21 11 -14 7 -11 -8 4 14 6 -16 7 6 14 11 -2 8 -7 7 -11 7 2 3 3 -13 -10 13 -10 -17 5 3 -10 3 -4 1 -21 -7 -8 10 2 10 -5 -16 -5 -9 -14 26 10 -6 11 -19 18 -17 -21 3 6 -11 7 -6 7 -4 -11 3 2 -6 -3 -3 -13 7 25 -7 1 -27 15 -14 2 14 -11 9 -2 15 -7 -9 -26 -17 11 -15 -15 -5 24 -15 -17 5 7 -10 -10 3 -20 -8 -7 -16 -3 -13 -19 -3 3 -7 1 -18 3 3 -6 -5 -25 -6 -17 -8 5 -24 -3 -3 3 -11 5 -25 -14 -16 21 -24 10 -15 11 -31 -10 7 10 -6 7 -10 26 -13 -8 9 -12 4 -6 -9 -11 14 -15 11 -8 -3 -7 2 10 -3 22 4 6 4 -2 14 -13 1 26 -9 5 -2 -3 4 9 11 4 -21 3 11 -10 21 9 -12 -7 -7 -3 -8 -7 11 8 1 20 9 27 2 20 6 10 -7 -18 -7 -18 3 -3 -12 3 -3 3 1 -3 -2 8 -7 17 4 8 -3 -16 8 7 17 -7 4 7 -25 -14 -3 -10 11 6 -14 7 3 6 -3 -3 -23 -14 -6 7 -11 3 -15 -19 -24 -7 -7 -4 10 2 -7 13 -9 2 2 3 -5 -6 -5 -19 -22 -11 17 12 3 -35 8 5 19 20 -1 5 -10 5 8 11 14 12 -6 -4 -3 15 20 27 5 13 -14 -15 -6 4 19 12 -7 -21 -18 -2 -18 -16 34 -14 -21 3 -14 -1 -13 4 -3 7 7 -10 19 -11 -10 7 -1 4 -4 -5 -20 5 -10 -23 7 -5 -14 1 11 3 -17 -15 -3 -23 -15 5 16 4 -9 -14 3 -29 6 -14 11 -11 -6 -7 -3 -14 -14 -10 -11 -3 6 2 -8 17 -17 16 8 -14 -7 -4 -6 1 -5 4 -4 -3 3 14 -10 -8 10 -6 13 3 -17 -3 20 -12 -14 -8 3 -3 -13 7 -17 2 -18 -6 3 10 -18 -8 10 -6 14 -8 24 4 -1 -13 -4 -11 3 -10 13 -10 1 -8 3 -7 7 -9 -7 2 6 8 -5 6 -3 -17 -14 -4 -7 6 -4 2 -3 1 10 -16 -8 8 -23 -5 -8 -26 10 3 -11 8 11 -15 -17 -3 6 -8 -14 18 21 20 -6 3 10 -25 6 1 -5 6 -5 -26 3 -7 -10 4 -6 -3 15 3 -3 5 -2 -4 -3 -10 5 -3 -5 -32 -12 11 25 11 -23 13 11 -10 3 -7 17 -7 -1 3 -18 14 -22 -19 -20 6 20 -19 -27 11 -3 3 17 -20 4 -4 12 26 -4 -7 -19 7 11 -4 10 -7 18 8 5 -7 -7 -17 -3 -9 -21 9 7 -4 -24 -18 3 4 -3 2 -3 -27 3 17 5 -4 -3 -26 -14 10 30 -8 8 -29 7 -6 -13 -14 2 -13 0 3 -3 -13 -15 -6 -24 6 11 -13 -1 1 -17 1 -21 4 -10 -17 11 -3 3 -19 3 -21 -7 7 -11 -2 2 -14 10 -3 -24 -11 -13 7 4 -18 13 -19 1 4 6 -15 -20 3 6 -2 1 -5 -11 -8 -2 -14 4 -16 -10 1 -11 1 14 -3 -8 18 3 3 20 5 1 7 14 2 9 -16 -7 -16 3 -15 2 -7 6 -5 10 -2 -13 -1 -7 -18 10 3 -7 3 7 -6 -29 11 -4 3 -13 -14 3 6 -6 7 -17 -15 -7 -7 -13 -17 -42 -21 -3 -26 -4 6 -11 -12 7 6 3 -10 10 6 -3 20 7 -17 13 -14 11 5 -32 16 -3 -10 -23 -16 -18 -13 -5 -21 22 -17 -18 10 -3 3 -17 3 -3 7 7 -6 -9 -11 -18 -12 -14 -3 7 3 -6 13 -5 3 -18 -17 19 11 14 -5 -4 6 -6 -14 10 -1 -4 -16 -5 -11 -2 -1 21 -13 6 -13 -2 -31 10 -3 17 10 -10 -9 17 -10 19 -24 8 -3 -2 -6 -3 -6 -3 18 -4 -24 -12 -11 -9 -4 -7 12 12 -24 -6 -17 -19 3 17 12 13 6 -28 -10 6 -4 -3 -11 -6 -8 -11 -20 -14 7 3 5 2 4 7 -19 -13 -3 -7 -3 -22 17 3 -7 -31 -14 11 7 -23 22 7 -19 -25 5 -14 3 4 -3 8 4 22 -4 -11 -7 -8 3 -17 -12 -6 6 -2 4 -20 -5 3 -1 -13 18 14 -14 -4 3 -10 4 -3 7 17 -15 -11 -7 -11 6 -4 -24 14 3 -9 -34 -3 -5 -4 -20 -10 -10 -1 13 21 -48 -4 -14 -28 -4 15 -13 4 4 -10 2 -4 -10 -4 -11 20 -12 -6 13 -17 17 -11 25 -16 7 10 -23 -7 -4 -4 3 -20 6 4 6 4 -29 7 -6 -3 -29 -7 2 -9 14 -27 3 6 4 -5 13 -1 -26 -24 11 -6 -1 -17 -1 7 -22 2 18 -20 -3 5 -16 19 3 -3 -10 8 3 5 3 -7 6 -3 3 -6 -3 3 -6 3 -3 -30 -7 -16 5 -24 -1 13 3 -11 3 18 9 -4 -12 -7 -4 -3 -21 0 5 4 -28 8 4 7 -10 -11 -16 -11 -14 37 7 33 4 -21 10 -13 3 6 -9 4 -5 23 -14 -10 2 -3 16 -18 7 5 -8 -6 21 8 -11 -7 -13 5 -3 -7 -1 -11 -11 31 -7 -11 -8 -24 7 -10 14 -14 -2 -15 7 -11 9 -17 -20 -14 -10 -3 -6 -3 -8 -7 -4 5 -8 1 -21 -5 -1 -10 7 -4 -13 -8 -13 -5 1 -8 10 10 6 -18 8 -7 -10 -10 1 -1 -6 -11 7 24 -3 8 -8 -14 0 -8 -4 25 3 -19 -7 -5 9 1 -20 -2 6 -5 -1 -9 5 -3 -18 6 6 3 3 -2 4 -24 -10 -4 -19 5 -17 -1 -3 -16 9 -14 -8 15 18 -21 -16 -6 -3 -4 7 -14 12 -22 9 3 -11 24 11 19 -4 -3 -18 -10 -18 17 3 -9 12 -4 11 -5 -24 -18 16 -9 -4 -30 -17 -9 3 10 -6 -7 15 -5 7 -4 -3 -4 -17 7 21 2 -2 -11 -29 14 3 -14 5 -15 -2 17 -32 -7 -10 2 -8 -13 5 -24 -25 -14 8 -28 3 -3 -2 -13 -3 -5 -10 -13 13 -27 -3 3 8 -11 -5 -21 -3 -11 -7 -10 -7 -28 -5 10 -3 2 -3 -26 -11 -7 3 -20 -15 -3 -25 9 15 -6 -31 -3 -9 -1 -7 4 -5 -2 21 -14 1 17 17 -4 -18 -10 16 17 -18 -3 -17 10 -21 -7 3 -6 3 -17 -6 3 -17 -28 -4 -8 -5 11 -9 -3 -20 -14 5 3 -3 -7 -8 3 -11 -3 4 -27 19 -16 -16 5 -4 22 10 -26 -7 4 -12 -4 21 14 3 3 7 3 4 -5 4 -7 0 14 -10 18 -2 -10 14 3 9 13 -5 -4 -6 -9 -19 -3 -3 5 9 -3 -3 -3 3 -13 7 -7 5 3 -31 3 -7 -14 -4 -1 5 16 -12 -1 -23 -11 -3 -21 1 -8 11 6 6 -24 3 -15 -7 -29 30 -6 -2 10 17 -16 10 14 -5 5 -16 8 -3 -13 -7 21 7 11 8 -15 -14 10 -20 11 -1 -22 13 3 14 -5 13 7 -5 3 10 17 -3 1 -11 -17 -5 -14 -3 16 -15 6 8 3 -8 1 4 -9 -6 1 -4 -3 7 -22 2 7 -10 -8 5 -3 30 1 6 -4 -1 -4 -3 1 -13 -6 2 27 19 -21 14 -6 4 -24 -6 -11 -33 -5 -1 -16 4 -28 38 16 -14 17 4 -6 7 8 -13 -12 -7 -6 -29 -10 -9 3 -7 -28 -4 11 -4 22 8 -19 -13 -7 -10 -11 -1 -3 16 -8 -4 -14 -4 7 24 -14 -2 -24 -10 -2 22 -14 11 -17 11 6 17 -3 -12 -2 -6 -3 10 -6 -3 -18 7 -8 3 15 -19 -14 -14 -6 15 7 13 7 -3 -7 5 10 -3 -11 -16 -7 -8 3 -10 -11 -5 -3 -15 3 -3 6 -3 7 -3 -21 3 17 -24 -3 -3 -3 11 -18 -28 -30 6 14 -3 7 -14 14 -12 -17 -23 -6 1 -31 -24 3 -23 -13 -4 4 11 -43 -18 -26 -17 -3 -3 -16 17 -14 -18 -7 -21 -19 10 -18 0 12 -11 21 -6 18 -13 3 7 -13 24 -3 34 12 -25 -17 23 -9 -23 -17 3 1 -6 -5 -7 -13 -3 -17 -15 5 3 7 7 -17 3 3 -3 7 -13 3 -7 7 -20 13 -17 7 5 14 7 -24 -14 3 -16 -6 10 -6 -19 12 -11 3 7 -14 3 17 -18 -6 10 -26 -11 -1 5 1 -14 -4 -1 -7 5 -21 -10 -3 4 18 -7 -6 -9 13 -3 11 -20 12 -18 -10 7 4 -7 8 23 12 3 4 3 -7 3 13 10 4 -14 -5 -14 3 -24 -12 -6 -16 -7 -14 -24 4 -11 0 -18 -23 -3 24 14 -4 3 -13 -2 3 36 -23 -4 -16 27 10 -28 12 2 -28 -19 -10 -3 7 -11 10 -6 -3 -2 -28 3 -6 -28 -20 -4 -7 17 -4 6 3 10 3 -7 2 -7 -9 -30 2 -5 -7 3 -28 -7 -21 4 3 -13 -7 7 20 14 6 14 -8 -4 -10 22 -24 -20 12 0 -26 -3 21 3 -25 -14 -6 -6 -17 15 -12 -3 -2 -4 -14 2 -3 3 -6 3 -10 -4 -3 -8 12 8 10 12 -7 7 -4 -24 -10 13 -20 -1 14 -3 -31 -43 10 10 5 1 10 3 -17 10 3 -7 10 -4 -17 5 -19 -10 -10 3 -7 10 14 -4 -3 6 -7 3 13 4 -21 -5 6 5 6 -1 13 -7 -3 13 -10 -3 3 15 5 11 18 -14 6 -5 -7 16 7 -7 -7 11 14 3 6 -7 -3 7 -21 4 -10 -11 2 -3 1 12 -10 22 10 -7 -10 -13 17 10 3 -11 3 -7 12 -19 12 -2 -2 -3 5 3 -21 3 4 -3 4 -10 -28 -6 -17 -4 -7 -6 -7 -13 -24 -28 -5 -10 2 3 -7 -3 -17 4 4 -14 -1 13 -24 4 -8 -3 -10 -14 3 4 -7 -2 12 6 3 2 -11 4 -5 17 -6 -2 -12 7 7 10 6 -4 11 2 -17 10 -8 14 -28 15 16 -6 2 1 -12 -7 7 3 6 9 4 -17 -32 -14 -3 -7 5 -8 -3 -3 17 20 -11 -11 -17 30 16 -11 -25 -22 7 -10 7 -23 3 3 23 -7 3 -4 28 10 -3 18 13 21 3 10 3 -15 -9 -8 -19 -11 -3 3 -7 3 8 -33 -3 -8 8 -11 3 -13 3 -3 -10 -4 -24 15 22 -2 -5 -16 1 5 -17 -6 11 -3 -5 -4 -2 -21 3 3 -8 21 -23 0 3 -15 9 15 -21 14 -17 -9 -3 -5 11 7 7 -3 -2 -39 -24 -3 -3 -18 7 -7 6 2 7 5 -32 -7 11 4 -17 -20 7 14 -6 -4 -7 27 -3 10 5 -12 5 -6 1 -9 9 -4 1 -18 14 -10 7 -7 -3 19 -29 2 -1 5 4 13 -6 7 -10 3 5 -1 2 -6 -18 -3 10 3 -1 17 -11 -27 19 -22 0 -3 20 3 -26 -7 -20 -5 -6 7 -4 -3 -6 3 5 -7 -3 14 11 7 4 4 -7 5 -32 -8 -5 -1 -8 3 -15 3 -5 13 7 -10 12 -3 3 3 -17 -6 -3 14 2 4 -18 0 -4 -1 6 3 -3 6 -11 12 -25 0 -9 3 -6 23 -14 3 3 -14 -2 10 14 -5 17 -14 -32 -20 -6 3 -10 -11 12 -19 7 -31 6 -3 -5 -10 -4 -29 -4 11 20 11 2 3 19 -8 -10 5 -38 -3 12 -7 -2 -10 14 7 -3 -10 -4 14 -2 8 4 4 3 -10 -11 -17 -1 -14 14 13 -17 -18 -6 -18 -5 -8 3 -3 -8 -11 7 -6 -6 -3 7 7 18 3 6 -18 -6 4 -7 6 6 11 -24 7 10 1 -3 -30 -3 -3 4 -10 0 10 -27 6 -3 -11 -3 -6 -6 7 6 4 -8 6 -4 6 -6 -29 -7 -11 -2 -3 4 17 -2 -19 3 7 1 -6 -9 -8 10 10 -24 7 8 -10 -3 4 13 4 -4 6 -3 22 13 3 -7 -1 -24 -7 5 11 -6 -19 14 -24 2 -13 -7 -12 -4 7 -31 8 -6 -6 -34 -3 22 -8 6 11 10 -10 -1 -8 -3 10 3 3 -2 12 12 -25 -15 10 9 -15 -13 13 -7 3 -10 4 4 -8 8 15 18 6 10 -14 4 -3 13 -1 -3 -10 -35 3 14 -7 -17 2 -3 11 -10 -6 -13 6 5 -4 -3 6 26 27 -5 -6 14 -14 3 8 8 38 13 -28 -25 -9 8 -11 1 7 8 1 -3 -7 14 -26 -18 -21 4 -5 -24 7 3 -2 -6 -6 3 -1 14 8 -14 -20 -6 -14 -16 5 -13 2 -10 -4 -10 6 -6 0 21 -11 -9 0 4 -2 27 -3 6 14 -3 -36 -3 7 -11 22 5 -10 16 -17 -3 9 -16 -14 5 2 7 -4 6 3 3 3 17 -14 1 10 -7 11 8 -7 -2 2 10 7 -14 1 -25 3 1 -6 -27 -4 10 -18 6 -9 -3 13 -6 2 -11 -17 -8 3 -17 9 15 -3 3 -4 4 14 15 -14 -3 -17 -4 6 -9 -21 11 -18 19 14 3 -11 21 -20 10 3 -3 5 1 3 6 6 -1 -2 21 -2 3 12 -10 21 -17 4 -1 -9 -34 2 -3 -9 11 13 -16 10 3 3 14 -6 -1 2 -11 -8 -23 -7 14 3 3 -7 0 14 -34 -3 -7 -8 31 -17 -4 -18 -1 -16 14 -9 -22 -7 -2 1 -17 5 10 11 6 -10 -7 -7 5 3 -4 4 -21 -7 -14 -18 -11 -3 6 -3 -30 -26 7 -14 3 -3 3 7 -17 -14 3 -8 -26 -10 3 -21 14 0 14 -3 10 -14 -20 -3 -5 7 6 -9 -14 25 -6 -14 23 14 3 -24 5 16 -21 -6 7 -24 24 -6 1 -15 7 -17 3 27 -2 -6 -1 -7 11 -7 3 -17 -6 -9 18 -19 -4 6 10 -8 -17 3 21 -22 -10 -10 21 10 1 13 30 19 11 -23 2 -4 -7 7 -2 -19 7 -9 -5 15 13 4 1 -7 -3 18 7 1 20 -25 2 -6 20 22 6 -6 -4 -2 3 -2 1 6 13 14 3 -3 -1 19 -17 -14 -18 -21 -3 -15 3 10 3 7 -3 -17 -8 -28 17 -11 6 3 -28 -6 15 5 19 6 -27 5 -6 5 -11 -3 -20 -10 12 -25 -3 -13 -8 4 11 -25 3 14 2 -36 13 24 -2 14 -26 25 14 3 -15 9 -18 5 -21 3 -11 -15 -32 3 -8 10 -22 -15 3 17 6 1 2 7 -2 -16 13 -1 -17 -2 2 3 13 -17 -4 -4 6 -18 6 3 -7 -8 -7 12 -2 -8 -10 4 -2 -6 -13 -10 6 -3 -7 -34 -10 -3 -10 14 12 -9 2 3 8 -3 -10 -6 24 -5 -17 -6 -6 -1 -13 -5 -8 4 4 -14 4 -3 12 14 -14 16 -2 -4 10 -10 -3 -10 -4 -4 3 2 -24 -6 2 -19 12 2 -14 7 -5 -12 -20 12 10 3 6 -16 11 -4 -4 -20 2 -6 -3 -6 11 -19 -7 3 6 6 -17 11 -5 -2 -6 -11 -28 -7 -3 -4 -3 -13 7 6 -6 -1 -4 -3 -10 -24 7 -4 -3 2 -3 16 1 -1 12 -3 -4 14 -10 -5 -18 14 6 -2 10 -3 1 -7 -12 -5 1 3 -4 -7 -24 -14 3 -11 4 1 3 13 -9 6 -3 -19 -4 -11 -10 -23 -18 -3 -16 -3 -16 -8 6 15 -3 -4 3 -6 4 -7 3 -37 -7 -8 4 -18 -22 -4 3 -10 6 -13 -17 22 -2 2 -7 -17 -4 -11 -11 -19 6 -7 31 -11 15 21 -14 20 10 -6 -5 7 -4 -9 -6 -10 16 3 -11 3 4 10 -30 8 -18 -4 10 17 3 2 -14 -10 3 -24 -7 -3 10 -8 -4 13 16 3 -14 24 6 -17 -4 -15 8 11 3 -7 13 6 4 -31 0 3 7 -15 -15 -6 3 -3 -13 -34 -24 10 2 -7 -3 1 -28 -12 14 -21 6 15 3 -13 -11 10 -5 -19 4 -3 -10 -7 17 3 4 9 -3 20 4 3 7 6 1 7 27 1 -5 -12 -9 2 -14 -5 7 -17 -11 13 -6 10 3 -20 -12 -6 -4 -1 -7 12 -14 -5 6 4 -9 -3 -3 -8 -7 -4 10 -7 21 3 7 -3 -5 -16 -3 -10 -3 13 8 9 -3 -8 -15 3 6 12 3 3 16 -17 2 -9 -21 -3 -5 8 3 -32 2 -6 10 -8 -20 -12 -18 6 -21 -5 0 -30 7 -5 4 -3 2 4 2 6 -3 -8 7 6 -17 14 -4 14 9 3 -7 -9 -16 3 -17 1 10 -9 -24 4 -7 -6 6 3 -13 3 -8 12 2 -11 1 -16 3 6 -10 2 3 -17 6 -7 -14 -5 -17 3 17 -5 7 7 7 3 4 -3 17 -3 -24 3 -4 8 -3 10 -7 11 17 11 8 7 -8 10 -6 7</t>
-  </si>
-  <si>
-    <t>JSB(1.5124835184409386, 4.9107967552562375, -47.62050295437298, 206.9621052322583)</t>
-  </si>
-  <si>
-    <t>46 29 31 47 45 29 36 28 38 47 45 37 23 44 16 50 51 51 48 58 35 17 46 41 21 57 46 54 43 35 40 51 33 35 26 29 43 27 54 40 54 44 30 37 46 49 52 47 40 28 38 24 13 45 49 51 53 39 27 53 45 28 46 41 47 27 23 49 35 51 27 54 43 31 40 47 23 51 43 43 35 49 65 42 65 13 43 29 27 59 48 28 30 43 31 36 44 37 44 41 38 37 31 48 27 44 30 51 31 59 37 48 30 31 54 54 31 43 54 32 43 31 48 38 29 58 38 44 43 47 48 30 51 51 43 23 27 51 33 51 54 33 51 37 41 38 29 36 29 37 31 49 51 27 37 36 40 45 33 39 48 29 36 48 53 43 31 41 37 37 28 33 48 37 29 23 27 36 26 31 54 37 40 20 41 37 44 40 45 19 34 38 33 32 47 20 39 58 34 29 31 33 43 25 42 37 41 44 35 27 49 43 38 40 41 50 44 27 44 30 43 37 41 42 44 22 25 34 40 64 47 32 37 51 33 31 56 45 29 50 34 45 43 43 37 44 41 41 51 36 31 47 45 26 57 39 15 51 34 53 49 28 24 55 52 43 38 42 54 27 35 44 50 23 44 23 29 46 26 41 41 39 25 45 43 44 33 38 54 23 46 36 32 51 44 36 49 27 26 34 51 49 52 51 25 22 54 38 29 31 40 37 43 36 54 27 40 33 62 23 36 49 30 51 23 49 51 31 36 48 27 34 27 17 34 25 50 60 61 29 43 55 26 45 24 37 35 30 37 30 58 44 37 48 44 43 48 37 54 34 10 68 59 57 34 33 40 41 30 43 38 39 32 45 48 49 30 34 33 31 37 40 48 34 48 57 39 30 43 43 42 47 33 46 38 40 41 47 44 43 40 47 39 35 27 63 20 42 40 31 41 31 20 46 42 27 34 37 46 39 51 53 29 27 41 45 42 62 45 26 30 41 47 48 12 36 55 44 46 34 44 29 34 30 47 45 26 30 42 26 33 46 35 45 41 43 46 47 58 26 12 27 37 26 48 37 51 61 36 39 49 38 50 58 25 41 35 23 26 35 42 56 34 24 47 36 30 30 48 58 31 37 44 36 53 43 53 25 26 37 44 49 35 43 50 48 26 50 47 41 43 38 42 28 31 40 53 37 51 49 33 43 37 55 47 41 30 65 38 48 51 41 35 53 19 43 34 41 27 47 41 37 50 31 46 46 41 31 37 53 35 29 50 51 23 40 44 29 41 26 54 51 43 46 52 50 48 41 44 53 40 57 55 59 33 40 33 37 36 41 37 46 46 36 27 45 47 44 22 51 27 37 39 47 57 44 47 36 42 57 44 19 38 43 26 38 48 39 40 51 56 46 29 54 35 55 36 29 44 43 46 43 52 34 49 56 40 36 22 17 37 29 45 21 33 23 38 35 32 69 41 43 32 60 28 51 30 33 24 48 41 59 45 65 43 31 28 35 46 33 35 62 47 49 33 59 33 35 50 45 32 67 65 38 43 39 47 34 51 30 26 51 13 43 40 23 51 39 46 40 52 33 51 43 55 35 48 25 37 37 45 55 38 20 30 27 23 41 37 33 37 59 40 44 33 35 49 42 40 26 34 31 30 45 30 33 43 49 34 29 50 43 50 40 33 37 42 27 40 36 44 54 37 60 30 36 30 28 60 36 43 57 37 50 42 25 40 38 42 43 57 55 51 37 34 37 49 58 48 50 32 47 45 41 34 45 49 44 54 29 31 43 40 46 39 45 34 55 30 58 38 36 55 51 17 29 60 41 29 45 55 26 53 33 43 30 55 47 51 39 40 42 43 43 25 47 39 53 31 43 27 31 58 54 54 48 51 40 40 60 37 43 29 51 27 47 37 37 58 45 17 37 16 36 50 47 29 65 21 59 40 47 39 30 44 33 30 33 26 46 37 58 27 46 54 40 33 41 51 63 23 46 40 45 39 38 40 36 23 45 45 33 46 40 37 70 51 48 36 34 52 37 50 19 69 61 42 30 22 19 33 44 51 30 52 57 51 42 37 54 34 29 54 24 22 43 58 46 37 58 30 52 37 20 23 26 54 46 32 47 49 36 44 23 17 46 42 31 51 49 31 37 31 47 45 33 38 44 39 46 46 41 37 22 43 44 17 26 44 52 43 59 43 44 56 47 36 36 40 31 46 47 19 26 75 33 20 38 43 49 43 30 40 47 34 32 30 31 29 47 36 51 51 25 37 57 51 29 29 51 56 41 33 33 44 36 54 32 44 47 37 47 41 35 49 59 29 51 44 34 48 34 36 40 37 40 38 37 41 19 38 37 60 26 26 43 35 47 42 35 20 37 57 51 32 44 29 34 32 40 33 34 41 26 41 36 41 31 43 45 24 39 30 22 44 51 61 41 55 36 38 36 45 36 31 36 38 41 47 59 48 47 28 47 48 44 49 45 36 37 34 31 30 40 67 24 38 26 35 33 44 42 31 32 30 37 51 44 44 43 52 37 39 53 33 33 43 38 32 33 44 47 63 22 38 23 32 37 12 43 43 51 28 46 42 24 22 43 27 37 38 58 51 35 46 23 48 23 32 58 34 37 43 56 38 34 22 55 36 36 29 30 33 43 26 37 55 37 30 31 36 43 45 34 25 29 57 40 41 58 58 51 36 36 33 43 28 45 33 42 41 36 34 43 59 41 48 37 40 48 58 46 56 45 24 51 40 40 48 33 41 34 34 38 30 40 37 30 44 15 33 36 23 33 47 56 29 51 44 43 52 48 39 51 62 34 50 38 32 40 41 57 37 32 48 25 41 40 55 44 48 40 37 50 46 31 51 27 30 49 37 60 50 54 57 44 52 30 40 43 39 27 28 45 34 48 55 38 45 63 40 29 65 39 41 41 47 46 56 30 54 40 57 48 55 37 55 16 65 52 65 60 31 44 30 32 31 39 35 43 26 48 41 44 37 25 17 63 42 50 38 43 28 40 59 29 62 34 30 30 47 48 31 29 40 48 47 54 55 44 52 37 56 40 40 45 30 62 45 26 66 23 29 54 50 45 30 52 35 29 36 51 50 22 44 56 31 39 26 39 55 37 44 45 30 35 39 40 39 52 47 29 32 31 36 47 48 34 45 50 38 48 43 42 40 43 40 38 34 22 29 37 40 23 51 51 28 45 33 58 39 34 30 50 15 45 48 40 31 41 37 48 43 41 34 24 33 43 22 32 37 30 59 49 61 47 40 31 37 41 22 29 17 54 37 32 31 43 40 34 44 41 26 25 33 33 45 33 43 50 57 53 47 32 38 55 43 50 49 51 41 22 29 41 29 51 54 19 43 51 16 34 34 32 13 33 34 30 30 43 40 42 26 37 52 50 50 27 20 46 41 35 40 56 32 44 66 30 44 51 33 35 52 32 35 27 33 41 36 25 23 28 31 67 19 41 45 40 29 44 79 45 37 44 49 34 28 30 30 60 48 30 54 33 36 55 30 30 35 27 40 37 31 32 29 39 35 29 39 42 59 17 16 37 59 47 25 35 17 46 65 49 37 34 34 44 36 43 51 52 34 56 41 60 44 53 50 47 57 40 54 58 56 26 41 45 51 49 50 42 40 48 39 53 46 38 48 30 57 30 44 44 40 43 30 47 49 50 45 48 40 45 33 20 38 33 40 30 52 52 45 51 30 27 27 32 40 41 53 40 56 43 37 33 41 41 33 30 41 38 43 46 34 51 40 26 37 51 30 37 29 29 53 52 41 41 48 34 46 30 40 28 27 41 50 26 34 43 30 33 17 52 48 27 43 50 37 34 30 69 32 61 40 33 51 41 46 47 38 30 38 66 40 30 38 45 40 33 35 53 31 57 40 56 56 57 44 35 39 47 40 47 63 28 52 45 55 44 62 29 40 41 38 48 34 33 65 40 44 59 43 37 29 46 42 27 19 33 45 37 40 49 26 45 36 41 49 37 30 45 37 41 62 35 31 47 44 33 41 42 41 43 42 40 39 54 43 43 43 35 40 54 29 31 30 35 51 23 30 35 30 44 44 37 45 30 40 30 51 41 22 46 46 29 50 39 44 37 25 50 40 40 30 23 47 43 43 48 52 47 45 26 37 48 41 40 42 35 43 37 57 44 19 36 30 37 51 44 33 45 52 51 37 34 22 47 28 41 43 51 50 49 37 33 33 37 55 27 41 38 61 37 33 27 37 40 47 40 36 33 55 31 34 33 49 38 50 37 47 33 40 27 37 44 57 39 34 51 38 60 30 49 37 40 65 48 24 31 29 37 44 20 43 49 40 48 60 41 35 31 43 43 31 51 39 40 44 33 43 53 38 51 55 42 39 33 38 34 23 29 55 27 69 34 59 14 52 31 37 16 30 47 42 30 44 56 36 39 24 16 68 45 16 51 31 49 58 41 22 34 51 41 44 58 49 45 37 41 51 47 44 42 37 36 38 36 28 27 36 41 21 47 37 44 51 46 26 27 42 44 58 37 45 48 42 23 41 62 37 45 40 46 45 47 38 38 44 40 44 33 27 46 41 44 38 51 68 31 45 34 39 38 42 44 54 30 23 35 31 58 45 44 43 40 46 23 33 30 27 27 30 44 43 43 34 22 47 45 22 25 55 29 53 64 33 17 34 27 34 52 31 37 24 25 53 40 30 23 42 40 44 23 37 19 39 27 30 51 15 33 35 52 44 49 39 35 62 37 33 41 73 34 45 51 24 66 58 33 40 30 34 46 33 29 38 40 41 33 57 51 33 40 48 45 43 32 40 29 50 47 33 33 44 26 49 31 40 37 37 45 31 35 35 48 22 38 40 20 41 30 45 52 48 27 38 51 34 23 43 44 30 28 44 51 35 49 45 37 33 55 39 31 29 16 61 45 31 54 40 55 34 37 44 34 44 40 35 51 48 40 29 29 33 40 54 45 23 43 14 49 48 41 37 47 37 40 56 13 36 58 30 46 35 20 37 10 39 47 46 27 58 33 43 55 34 52 23 41 43 37 51 28 52 53 36 38 19 38 31 31 27 38 28 42 41 51 34 38 19 37 32 47 30 40 35 62 40 17 48 30 35 42 44 29 47 40 48 34 36 28 42 30 35 22 33 45 43 45 53 34 20 35 51 48 31 33 51 50 37 33 45 61 27 24 48 40 33 65 13 30 47 55 29 49 65 60 43 45 33 30 47 23 60 36 54 36 27 46 50 55 34 47 53 44 63 47 52 54 48 54 44 51 40 45 33 35 23 40 32 67 25 51 40 45 43 26 33 38 36 36 32 57 23 27 37 34 55 40 31 46 37 30 54 61 26 40 33 41 43 22 32 44 35 45 30 51 36 58 44 37 37 34 40 62 30 37 26 30 52 25 38 52 57 35 29 57 41 34 43 40 23 37 35 33 39 44 39 16 54 37 40 33 36 28 46 51 27 26 34 46 58 26 19 36 37 37 42 41 47 45 53 47 44 39 45 48 44 43 59 59 47 61 45 46 36 50 37 38 41 30 34 49 36 31 26 29 50 42 57 51 58 38 50 37 41 33 40 29 62 38 37 40 15 36 37 41 38 33 44 37 59 37 41 29 33 44 30 29 39 34 34 40 34 44 19 46 44 44 71 47 34 23 36 37 52 42 41 60 41 63 22 23 50 49 43 27 51 36 45 33 47 40 49 39 64 26 46 35 34 39 43 16 19 34 23 44 58 47 44 56 40 33 37 51 35 23 44 44 45 37 30 33 30 29 29 41 22 35 53 31 55 44 48 41 42 37 37 49 48 30 37 40 39 30 67 37 47 35 51 42 45 26 45 23 33 42 41 15 34 44 38 39 43 32 48 45 38 40 24 37 16 41 35 33 46 55 39 34 37 33 35 48 32 26 43 44 50 33 36 39 30 23 40 25 25 69 34 23 29 46 30 46 37 38 48 40 51 49 25 37 36 30 65 52 34 34 48 38 36 41 41 43 58 59 35 41 28 36 38 36 31 44 30 38 36 30 48 47 66 26 33 33 41 37 51 50 46 43 47 34 38 35 22 39 37 49 34 44 61 15 19 34 69 50 37 56 37 30 50 47 47 41 41 33 48 41 17 32 39 23 37 30 34 22 35 53 43 39 55 31 65 43 41 51 32 37 39 37 57 51 49 35 38 30 37 37 45 42 30 43 72 53 46 37 49 42 32 24 32 48 45 47 54 44 47 43 28 43 32 38 29 34 47 43 44 28 47 50 40 40 26 48 43 47 42 55 47 20 51 23 37 43 55 46 47 12 28 44 43 58 54 46 33 33 41 51 29 34 47 30 39 39 33 45 35 32 41 52 44 27 34 65 36 76 33 55 52 46 47 40 27 38 35 37 33 42 38 44 30 44 38 55 39 52 37 38 48 32 36 45 20 48 24 29 64 44 35 43 41 37 33 27 51 51 25 30 22 41 41 34 46 51 43 47 30 48 46 41 48 30 55 47 44 54 38 51 29 34 25 44 41 47 34 55 24 56 45 31 49 43 34 43 37 21 24 38 48 44 35 53 36 44 45 18 29 40 34 46 33 36 49 48 43 30 53 36 44 38 53 45 43 51 47 36 55 29 47 33 28 43 53 44 44 46 51 56 43 36 33 38 23 48 37 35 10 53 29 35 43 38 30 40 41 37 45 35 45 37 36 51 37 45 51 48 45 47 59 17 47 29 44 22 37 45 37 57 51 57 30 47 47 38 19 23 49 31 20 46 44 37 41 43 36 33 35 44 48 56 27 40 42 30 55 51 30 43 37 44 30 43 49 47 29 36 32 47 32 32 32 33 30 56 57 52 60 41 38 46 36 21 33 32 30 40 43 26 46 40 40 57 23 30 22 33 29 37 30 43 57 37 43 32 44 39 59 40 53 48 37 34 53 44 21 34 52 55 56 44 47 45 45 31 40 39 34 48 43 46 26 51 29 52 43 27 47 45 47 31 27 46 37 41 33 48 30 41 55 47 49 26 38 50 44 39 60 43 49 39 46 38 33 38 45 40 46 41 54 25 62 28 44 33 40 54 27 44 37 40 30 49 50 36 40 55 26 37 43 46 41 46 43 37 31 29 41 44 44 43 34 51 46 19 30 43 37 52 40 47 46 66 55 40 30 36 59 32 48 50 37 40 55 37 68 31 51 43 42 39 36 47 34 37 41 40 36 35 44 26 30 51 31 53 41 43 48 44 51 36 43 44 37 41 54 40 31 35 49 52 27 35 24 30 44 57 25 45 48 46 33 23 57 48 20 48 41 29 31 26 58 52 51 40 35 43 55 27 42 29 44 37 41 41 34 54 54 33 55 49 50 43 44 41 38 45 50 30 68 63 37 59 16 45 36 14 33 35 50 41 41 53 52 40 29 48 48 24 60 48 45 59 38 29 47 23 35 50 33 37 27 53 26 29 52 65 26 59 41 30 24 58 46 51 55 41 32 47 40 29 51 26 32 37 51 39 52 36 39 51 34 53 27 52 19 44 28 48 37 39 42 33 34 44 38 28 35 52 48 59 43 30 45 39 38 40 43 52 44 54 47 37 51 53 37 53 49 41 49 42 39 57 29 50 40 29 38 27 41 38 30 23 24 27 29 44 36 38 33 26 49 35 57 57 51 28 34 37 55 45 49 55 39 45 39 42 35 44 23 33 39 43 45 38 22 40 46 44 55 40 38 26 37 43 39 33 35 48 27 43 52 31 30 42 33 62 33 48 39 48 57 49 44 50 27 24 48 29 48 43 30 43 36 33 22 44 48 24 44 34 56 33 56 29 33 35 41 47 25 48 20 33 50 38 36 24 55 60 64 40 54 45 17 39 36 29 32 48 31 38 37 44 62 61 51 41 32 43 41 61 53 47 45 26 16 59 26 48 34 25 51 40 41 50 30 32 37 31 35 52 47 47 33 50 57 49 36 55 51 44 52 29 22 40 20 21 27 53 41 43 40 58 46 45 33 42 43 33 31 42 44 34 37 43 58 43 26 51 41 55 35 48 37 39 36 52 52 43 25 42 34 46 46 41 46 38 50 22 37 44 51 50 39 73 52 20 36 37 37 22 61 49 47 60 46 51 32 44 36 43 34 43 56 30 48 28 40 56 31 44 45 49 48 22 33 63 35 19 29 43 27 37 57 24 43 37 43 40 36 33 17 29 57 28 40 29 48 43 55 39 23 28 22 43 26 47 41 41 38 30 45 37 28 48 59 33 39 22 32 37 34 29 45 45 40 31 27 47 57 48 37 28 30 41 27 58 47 35 34 47 16 50 55 50 53 39 35 37 41 43 36 51 49 47 30 46 39 41 32 54 42 37 27 47 47 32 33 34 33 27 33 50 30 36 45 44 43 24 27 30 40 58 41 48 47 41 53 51 20 35 41 48 40 16 33 43 44 34 47 36 60 48 45 38 57 37 41 46 34 23 34 31 30 44 58 40 59 44 48 44 22 36 52 46 17 37 37 23 58 46 32 37 44 37 36 37 27 27 77 36 51 62 27 59 37 13 35 19 39 37 26 37 27 22 39 37 32 52 19 51 51 57 41 45 45 34 34 27 27 42 20 37 37 43 26 44 34 38 29 37 41 57 49 29 47 36 39 55 39 23 29 33 44 41 38 37 26 51 47 36 45 17 47 35 42 31 47 21 70 70 27 36 38 28 51 33 55 34 56 58 37 32 35 28 34 28 26 53 49 37 35 43 27 24 43 64 43 42 45 31 31 47 35 66 34 31 29 32 19 53 38 54 63 57 34 48 50 41 42 38 35 39 44 55 48 43 41 48 33 37 44 25 23 41 35 45 33 58 44 31 48 34 53 44 46 60 50 52 27 36 24 46 49 37 28 26 56 19 45 29 31 45 45 40 37 16 47 37 45 21 38 43 30 45 41 33 28 52 38 27 34 42 37 41 31 53 55 48 29 61 36 41 76 29 38 54 29 45 45 46 57 41 51 41 24 38 46 29 57 30 42 43 31 62 50 54 39 46 41 34 35 35 37 45 45 45 40 50 55 44 53 47 46 29 41 30 40 38 37 48 58 43 37 55 45 36 40 46 37 42 40 31 33 48 51 44 48 30 28 33 33 31 33 50 43 46 30 28 30 47 55 33 43 37 51 46 43 41 44 54 37 37 40 39 49 38 46 37 38 54 28 37 35 41 30 58 36 33 30 51 36 43 40 20 28 50 30 27 13 43 37 46 52 18 46 39 43 32 53 47 27 27 44 46 40 45 51 40 58 38 43 27 51 46 34 22 26 31 48 22 43 33 23 31 41 33 51 28 38 37 47 51 30 37 53 31 36 36 36 36 33 43 47 51 49 43 49 37 58 34 37 45 13 40 39 52 40 31 47 34 35 36 16 44 37 35 37 27 41 48 23 41 48 29 40 52 22 51 55 37 41 33 54 47 35 43 47 49 28 51 27 41 37 37 27 37 42 36 52 33 57 33 23 43 33 26 46 41 55 45 38 41 43 43 44 47 23 41 20 35 48 33 29 39 37 47 44 50 42 43 36 22 40 58 50 41 35 38 48 65 23 55 63 59 34 45 40 23 34 41 16 31 49 43 23 27 53 55 55 37 73 30 56 36 41 37 34 19 37 51 47 40 45 40 28 51 30 36 32 57 34 44 33 29 40 46 49 39 38 43 44 50 51 35 38 36 52 24 48 30 54 42 40 44 26 55 22 45 49 42 43 43 56 45 33 37 51 53 33 46 38 53 47 35 48 43 43 33 41 45 48 68 51 33 43 37 40 32 43 44 50 45 47 45 51 38 35 31 47 51 41 26 40 30 48 29 30 40 37 40 50 32 20 41 41 44 38 41 54 47 49 37 37 33 27 48 38 27 26 47 44 51 54 44 44 46 42 27 52 41 26 40 59 54 47 43 30 33 44 27 37 47 44 36 41 48 37 36 37 35 27 46 47 53 37 44 42 45 43 51 34 33 35 53 44 41 54 29 34 57 44 37 40 33 40 34 51 50 47 19 36 34 37 45 51 37 52 40 26 45 63 44 65 60 38 46 51 38 37 25 50 32 33 48 23 51 51 45 43 65 22 29 46 33 35 48 39 48 26 43 40 34 55 26 27 31 34 33 39 53 43 43 62 51 34 52 31 34 41 39 47 36 48 44 40 47 42 31 26 26 35 40 49 45 41 36 43 43 35 38 48 50 43 59 32 45 40 27 33 60 19 36 51 43 49 51 23 51 53 40 52 45 34 33 27 15 31 40 31 32 50 50 39 33 24 50 37 36 45 30 34 46 33 38 22 37 47 49 36 27 39 51 19 41 37 25 27 37 37 52 49 55 35 39 54 24 53 38 45 26 34 34 25 40 15 39 37 38 48 58 37 42 23 48 37 46 52 37 43 39 48 39 46 34 19 41 46 47 30 45 31 27 26 27 49 33 39 39 13 47 40 38 59 41 37 27 46 30 41 32 36 31 31 43 65 36 10 39 39 45 30 50 44 29 27 40 47 23 40 35 38 41 61 36 51 41 51 37 48 39 44 51 32 46 43 44 48 42 43 43 27 45 46 47 38 40 38 23 43 49 57 36 42 36 33 22 34 49 51 43 30 36 47 42 27 37 48 58 24 41 41 64 38 53 40 35 21 48 47 48 55 43 30 43 45 31 42 34 53 47 33 33 40 59 38 49 54 37 43 43 36 43 26 16 33 47 32 48 64 36 29 24 33 34 31 41 54 37 35 59 56 41 50 25 16 27 36 41 44 44 31 33 23 43 31 45 31 41 33 33 37 24 36 51 16 16 36 66 50 57 62 62 33 45 47 45 23 26 38 49 69 20 31 26 39 30 67 40 55 39 38 54 24 45 47 48 33 56 31 54 29 41 37 40 52 51 47 27 44 33 34 53 47 32 29 16 47 52 37 23 57 27 40 27 40 44 43 15 30 48 40 38 40 47 37 42 29 33 45 41 33 52 43 32 46 47 57 49 38 37 47 47 31 37 40 44 56 30 39 50 36 38 37 61 32 38 23 15 50 53 28 52 37 47 42 37 44 34 37 10 37 50 48 44 48 52 26 44 30 36 43 18 40 21 37 42 37 41 62 37 35 36 47 60 33 34 44 61 45 33 33 47 43 48 30 51 33 34 37 36 44 43 26 29 37 30 44 41 23 38 51 50 40 39 52 43 43 47 33 37 30 38 37 51 46 51 45 50 46 45 33 36 32 43 41 26 37 37 50 44 30 20 39 40 41 43 47 31 37 39 32 35 43 46 42 31 51 27 41 49 53 35 52 26 31 41 37 33 40 50 51 40 23 35 48 39 36 42 47 29 53 30 15 51 23 45 48 43 31 52 37 55 33 30 22 48 68 50 27 39 26 51 26 43 47 46 55 36 68 34 41 52 40 56 41 56 37 30 34 44 21 58 41 37 32 27 25 42 35 29 65 37 42 23 33 30 51 30 30 30 30 37 54 39 58 30 42 51 39 17 47 29 38 39 55 43 29 43 36 42 53 55 28 46 32 23 55 31 38 51 39 40 54 42 39 46 41 40 30 36 40 47 29 46 13 40 29 48 24 35 51 50 58 43 34 26 31 34 35 40 47 53 32 43 50 24 42 51 34 32 51 52 43 44 48 33 42 46 24 65 41 37 29 47 30 49 51 33 45 53 34 39 38 33 31 48 40 37 52 51 35 51 30 39 49 29 37 47 33 36 33 59 44 43 23 23 40 53 44 27 30 39 45 40 10 37 55 47 43 31 44 43 41 47 58 51 37 55 44 37 31 37 30 36 38 37 39 52 49 42 44 48 36 39 43 24 62 53 37 47 46 47 37 36 42 43 51 47 52 23 52 54 20 38 51 47 30 48 53 30 26 50 27 37 43 53 48 30 45 31 43 53 37 49 41 55 46 34 24 39 36 44 57 55 37 46 19 35 40 40 35 57 27 38 27 51 41 57 26 45 45 39 27 34 51 33 55 40 70 65 37 37 43 48 53 48 47 40 36 41 31 45 53 30 51 32 51 47 29 48 37 46 65 51 47 28 30 37 46 40 40 45 35 43 29 32 41 36 36 38 29 47 33 24 43 47 34 41 20 41 51 39 37 36 22 37 35 22 43 50 62 44 44 47 51 40 47 23 40 42 37 43 23 45 43 24 51 48 40 66 43 45 37 48 35 26 50 32 52 47 36 37 53 24 40 9 38 27 47 26 43 44 46 45 54 48 41 40 27 43 55 22 53 36 48 44 37 46 30 32 31 44 44 37 38 39 33 57 26 56 51 26 38 29 41 40 54 27 28 49 34 30 27 33 29 26 33 44 44 41 31 35 31 33 57 57 44 54 40 48 33 55 36 48 23 23 33 48 40 51 41 29 54 40 33 52 44 36 46 44 27 58 30 44 26 55 42 27 37 50 48 41 44 35 63 46 43 33 27 40 43 40 23 58 34 57 44 57 29 48 41 61 59 41 46 30 36 52 39 55 40 41 17 48 47 37 40 37 40 21 37 37 41 47 49 44 54 57 59 27 29 50 34 27 28 34 34 43 37 33 58 33 55 52 41 47 36 23 27 43 45 53 41 35 40 33 20 38 36 29 44 19 48 23 34 31 48 44 27 30 27 34 40 38 45 41 58 34 33 40 40 42 46 52 33 26 48 43 48 29 47 33 51 38 60 17 43 57 35 46 29 65 37 31 54 38 51 47 29 44 29 51 49 40 48 27 61 44 38 45 37 39 52 34 37 26 23 16 49 60 40 20 33 39 33 37 52 40 25 45 32 46 47 49 57 51 23 44 43 33 48 34 57 41 44 25 30 31 47 31 45 37 44 52 39 27 48 59 27 33 26 38 45 43 41 39 44 39 27 49 51 34 30 47 36 62 41 16 43 47 40 52 37 52 43 41 37 58 52 37 61 42 53 49 38 41 40 46 28 35 26 56 37 23 38 30 39 41 63 61 26 40 33 55 66 55 43 72 45 51 41 59 43 36 36 41 33 24 39 30 54 45 59 30 45 45 44 36 39 38 44 36 42 43 37 47 40 51 30 30 30 39 54 43 34 48 36 52 40 33 40 63 20 37 44 46 20 40 39 51 23 54 38 51 37 34 50 48 43 44 43 23 23 43 41 55 47 48 36 62 41 33 46 33 30 37 40 38 48 40 56 54 58 42 23 42 59 31 37 36 44 45 58 33 40 23 43 30 39 36 40 41 37 51 16 23 34 41 41 65 33 41 19 42 54 58 50 42 47 45 35 16 29 29 53 44 39 39 49 48 42 37 51 55 38 30 41 48 25 37 48 31 26 29 34 46 33 46 35 46 62 57 31 29 45 62 25 28 48 22 30 27 61 39 59 43 32 44 38 26 28 51 36 70 46 47 36 37 32 42 41 51 50 66 51 41 37 29 28 48 64 54 47 47 43 16 43 49 39 37 40 45 37 66 31 35 44 35 37 63 38 51 53 45 15 29 29 36 32 48 52 45 20 44 28 62 30 65 41 24 36 19 44 37 54 23 39 43 24 39 33 43 54 46 53 57 34 24 47 59 43 37 38 34 37 45 48 56 33 51 49 54 33 37 30 41 19 43 54 50 32 28 47 48 26 59 39 44 47 47 42 40 52 23 33 57 41 37 44 33 27 52 45 47 39 45 40 33 45 37 30 35 41 37 16 43 45 43 45 51 41 33 33 30 37 52 45 41 42 44 15 51 48 51 33 46 48 43 30 34 32 47 44 38 24 59 54 73 36 38 34 48 37 39 52 23 40 51 44 40 52 33 51 50 65 44 54 52 31 38 41 43 36 51 30 44 43 27 27 58 30 29 44 48 51 41 23 34 44 51 36 53 36 51 36 23 33 36 38 48 39 52 20 17 32 44 43 29 33 42 33 58 32 43 56 55 38 43 40 32 22 40 34 36 36 44 41 30 17 33 46 63 44 36 52 36 49 31 23 35 43 32 37 33 44 37 44 40 31 18 49 56 37 56 49 31 52 51 34 51 48 37 44 45 47 57 44 24 41 29 65 33 46 35 46 48 27 26 39 41 33 49 53 46 31 44 24 41 54 35 29 25 13 35 45 33 7 41 53 36 51 37 59 32 36 30 39 51 32 45 30 12 27 44 29 44 48 34 31 38 28 37 44 51 28 36 41 36 26 63 51 33 43 42 37 22 41 33 35 53 65 41 51 25 27 47 46 44 19 47 41 42 43 25 45 27 45 44 24 54 35 49 37 30 43 41 38 48 41 37 51 45 52 29 20 23 48 56 36 37 46 48 43 43 37 38 51 49 46 54 31 29 37 29 43 59 38 49 50 39 31 37 41 59 37 29 52 40 54 44 37 49 52 47 54 54 29 34 53 43 49 51 43 42 47 29 41 33 29 37 30 57 75 40 55 37 33 45 29 33 29 44 59 42 33 48 42 50 42 51 47 40 24 33 27 29 43 61 20 44 68 54 26 58 47 27 28 26 44 27 33 49 35 39 47 13 31 46 42 56 34 44 40 37 49 47 52 41 41 25 51 43 23 27 30 40 47 48 42 32 51 56 42 44 44 41 43 35 33 53 58 45 36 26 31 29 34 41 46 44 37 31 36 31 35 50 37 39 46 30 33 45 40 43 29 31 37 27 48 44 38 36 36 37 41 57 47 49 50 27 37 33 30 41 36 32 43 39 38 26 40 40 34 27 44 33 29 42 38 45 37 49 56 31 40 45 18 23 53 51 36 35 58 35 45 47 19 37 33 30 35 47 27 30 48 45 59 36 23 29 40 37 50 26 19 33 23 43 23 31 50 37 34 53 29 19 36 43 47 19 24 41 25 44 30 41 30 33 20 41 46 39 42 58 46 49 32 46 30 29 34 37 46 66 31 44 53 50 30 43 39 57 58 44 41 46 29 32 40 38 55 33 27 45 30 46 59 56 47 23 35 45 41 34 32 22 43 41 45 43 39 52 52 35 57 41 40 48 39 52 59 40 46 35 31 48 44 45 51 43 52 34 41 43 47 40 34 15 33 47 24 32 50 32 43 37 36 53 33 44 44 37 34 59 44 42 44 45 42 43 33 38 35 30 41 58 29 43 23 37 47 37 44 29 41 50 41 31 55 40 54 45 45 40 26 44 33 60 42 23 38 30 30 48 35 39 41 28 28 23 41 39 30 32 41 41 49 47 36 41 50 19 50 43 34 52 26 36 36 44 44 47 22 45 30 40 55 35 39 41 37 47 40 26 40 53 37 48 41 51 40 24 48 20 36 27 46 40 17 36 42 45 39 31 33 32 33 45 41 30 47 38 43 47 59 38 31 30 35 39 41 54 64 44 30 33 38 41 43 26 44 30 40 37 57 52 43 27 45 48 37 49 42 39 50 51 57 30 46 35 39 45 41 31 53 45 55 43 48 46 40 41 29 54 51 55 37 32 29 45 41 47 43 60 47 37 33 41 44 52 59 34 38 27 36 45 33 59 37 45 33 49 44 45 51 48 51 37 40 37 40 49 50 37 45 39 51 33 37 40 36 27 58 44 69 17 51 44 33 44 42 55 58 58 33 48 45 46 38 54 33 45 40 33 51 26 45 27 44 30 59 36 50 40 52 30 48 33 41 44 37 33 34 51 24 43 55 42 35 47 29 30 41 53 32 33 41 43 46 41 37 32 35 34 37 47 32 20 26 50 41 24 47 44 29 43 40 31 29 49 47 37 38 40 41 31 36 46 79 44 36 55 31 47 38 21 51 26 37 44 43 40 42 49 59 42 51 37 37 48 38 27 51 37 29 37 30 47 19 28 38 36 49 47 37 42 36 43 37 40 35 47 34 43 43 36 37 41 48 43 33 54 27 39 30 47 40 51 46 58 32 36 41 35 40 43 33 33 48 39 54 24 49 58 33 39 42 42 50 44 48 40 35 35 40 57 33 44 59 33 27 44 51 57 50 35 47 50 22 39 56 51 46 53 41 43 32 27 43 43 43 55 43 59 33 59 38 24 45 42 33 61 40 40 37 35 54 41 29 54 40 38 37 53 34 30 50 43 37 30 26 48 39 44 32 55 31 44 44 31 59 20 44 38 58 12 47 37 61 35 20 46 34 34 53 51 55 33 45 44 58 54 31 30 44 48 16 32 34 32 44 38 47 19 40 37 37 44 39 44 47 42 29 39 35 51 33 50 56 64 29 40 37 51 32 44 41 34 30 44 49 29 54 54 26 48 51 49 40 58 44 45 43 40 37 43 23 49 26 54 46 42 41 38 26 29 52 37 40 53 35 52 33 38 35 41 44 50 48 21 37 37 31 39 44 56 45 36 33 51 33 44 38 31 31 43 43 25 45 44 49 41 39 41 31 43 44 40 34 55 62 42 34 33 33 51 45 45 23 54 38 36 44 44 44 27 51 33 41 44 34 19 36 28 51 41 35 17 57 45 41 47 33 52 44 40 31 30 37 36 23 49 37 37 29 22 45 42 28 36 44 48 46 59 33 20 53 46 28 41 26 43 51 33 47 34 36 40 23 33 33 35 43 25 55 38 30 45 43 37 57 51 59 33 41 41 45 38 42 46 50 45 66 37 27 35 60 44 33 43 47 38 42 37 48 59 40 46 25 39 43 52 36 40 36 44 52 43 37 41 26 57 36 58 37 57 42 25 33 19 32 40 23 22 13 44 23 55 34 41 26 55 38 30 33 39 41 44 34 37 35 37 63 24 43 51 30 51 41 34 51 54 40 21 43 53 49 55 41 45 42 47 49 40 52 58 31 30 41 34 51 46 36 26 37 42 51 37 47 32 29 39 52 40 51 44 37 30 36 33 43 39 54 37 36 30 17 57 37 33 25 61 41 40 55 51 42 40 40 37 47 39 34 47 45 43 24 37 33 31 48 47 24 18 34 34 36 47 36 32 49 31 48 55 55 41 52 55 36 37 36 57 65 42 44 39 51 44 43 44 32 45 36 18 39 38 31 18 60 36 32 43 21 38 21 36 44 36 26 37 47 51 37 36 39 26 48 30 50 30 43 51 34 38 37 34 42 35 31 43 50 30 55 33 45 43 39 37 40 43 53 35 59 34 51 33 29 62 27 49 43 37 40 35 24 37 32 52 66 22 29 27 68 43 59 42 32 26 22 52 40 25 35 33 41 38 32 54 38 43 42 36 51 35 35 41 49 49 37 48 36 60 28 23 53 34 43 39 50 40 30 58 35 27 47 48 58 46 54 24 37 33 36 16 44 22 38 36 36 31 48 44 32 47 53 23 31 51 36 47 38 29 35 52 30 31 44 54 24 48 44 53 41 50 37 47 45 30 51 20 55 31 34 36 47 19 33 52 44 37 48 41 51 49 33 34 42 30 34 45 51 44 57 37 37 38 68 37 39 59 33 40 31 51 60 29 37 32 29 65 44 47 32 43 44 37 31 61 51 23 38 45 38 32 47 34 23 33 40 43 30 48 40 36 41 38 37 36 45 48 37 27 47 36 53 30 35 43 54 53 44 23 29 34 44 42 37 38 36 33 19 40 54 49 24 31 41 47 75 51 41 39 31 59 37 33 57 34 38 33 52 34 40 50 61 27 45 23 55 34 54 30 37 48 31 40 35 50 45 54 25 41 37 41 48 27 52 27 48 33 45 47 64 30 36 48 36 48 27 38 24 41 27 26 37 35 58 45 26 32 62 32 46 38 37 37 49 41 37 47 37 26 44 62 37 33 21 39 37 50 26 26 31 43 36 22 30 30 38 47 63 43 43 43 44 31 20 26 63 50 39 58 48 59 36 41 20 40 54 51 47 55 36 43 43 30 57 44 50 38 51 31 35 46 30 45 29 50 44 36 59 30 30 43 45 35 52 48 35 43 37 33 60 37 50 43 35 49 44 44 45 47 56 37 26 51 27 36 43 44 55 52 52 32 39 33 58 45 40 50 48 45 51 22 27 45 57 50 55 41 55 37 37 46 37 33 47 37 51 35 32 27 52 37 36 43 44 43 26 51 55 31 36 41 51 45 23 49 28 45 51 47 49 19 36 43 30 53 26 27 37 45 44 38 44 22 51 50 47 53 42 51 33 37 54 45 43 34 39 65 48 30 40 43 57 43 35 48 40 33 51 57 35 46 37 43 45 38 41 33 50 30 33 32 40 52 44 27 42 32 44 47 54 45 51 25 37 42 23 38 27 52 34 38 50 30 16 48 29 37 33 29 34 40 9 33 43 51 47 35 37 43 21 43 27 41 41 25 45 37 49 41 46 28 41 45 22 26 33 43 35 51 39 35 40 37 20 34 24 29 47 31 43 48 40 50 36 37 30 44 48 43 41 62 40 37 19 27 61 47 37 40 33 34 22 40 35 41 38 47 37 26 31 41 27 35 37 30 49 45 41 37 43 33 28 43 30 41 40 32 37 52 33 42 31 44 33 30 45 47 52 34 47 44 40 57 43 54 47 48 38 33 52 45 27 27 38 46 47 49 47 34 48 50 36 26 31 49 29 55 44 46 42 44 42 34 41 30 26 25 32 41 44 19 26 53 44 47 59 49 56 30 37 36 38 44 55 33 39 38 29 27 51 50 40 30 40 24 47 42 48 40 44 36 26 66 20 23 43 37 42 37 37 36 44 34 43 42 56 43 30 47 42 23 53 63 42 38 40 27 39 33 53 43 27 45 22 43 43 30 49 40 37 22 43 63 43 47 43 43 58 59 21 37 33 29 35 30 51 41 23 43 36 48 44 42 38 37 49 34 20 36 37 37 34 27 51 38 51 47 41 30 44 51 43 50 54 23 37 37 50 23 40 44 55 53 45 44 58 54 40 31 27 42 44 53 17 25 41 30 37 34 44 63 45 55 37 57 73 41 55 52 43 41 41 43 67 41 29 57 35 41 45 51 23 59 39 27 37 33 41 40 27 45 27 47 40 47 52 40 37 32 26 24 34 49 30 35 29 67 20 37 37 36 34 32 54 45 33 23 55 40 38 41 55 37 47 58 29 32 44 41 60 37 41 43 31 64 36 60 24 49 44 33 50 23 44 51 36 29 47 43 53 52 26 40 47 48 29 50 50 46 46 35 40 38 42 45 38 32 23 51 24 40 36 31 33 30 45 50 29 50 36 39 36 40 60 44 54 55 56 37 55 37 36 36 35 50 42 45 34 40 26 36 47 51 36 46 23 38 51 39 60 27 45 44 22 43 33 51 48 39 27 34 51 47 55 33 64 20 46 20 34 36 50 34 44 46 30 48 40 49 47 43 43 34 34 38 33 65 52 37 50 38 20 42 31 23 40 37 38 30 29 54 50 38 44 52 49 33 44 38 50 41 40 41 48 57 51 59 48 44 43 27 44 37 37 56 45 55 30 38 33 49 41 44 30 33 27 30 40 58 53 40 27 37 27 38 33 47 60 39 48 43 41 27 53 33 44 37 65 51 33 23 30 40 42 57 55 44 41 41 55 23 34 49 40 47 51 19 35 38 36 29 52 37 41 44 30 54 44 33 44 45 67 64 37 23 37 21 30 55 46 16 58 29 25 37 49 57 30 51 38 42 52 40 37 36 49 48 55 41 36 34 25 52 46 57 45 37 37 44 38 26 29 47 44 44 40 43 42 34 51 16 49 38 44 24 31 36 37 44 37 41 40 38 26 47 27 24 32 28 45 28 29 30 48 46 42 49 36 34 58 33 38 41 25 59 38 29 44 35 38 48 51 49 43 26 45 51 37 48 49 51 53 36 16 37 43 52 47 30 53 43 51 23 55 41 51 38 42 16 53 58 47 61 41 50 23 59 37 62 51 23 37 37 39 45 40 39 37 52 54 37 29 27 37 39 58 42 36 43 34 38 37 36 33 33 51 34 37 51 33 24 44 49 37 31 20 55 59 54 37 51 39 61 47 40 43 27 29 43 37 41 55 35 40 45 36 23 37 58 47 35 54 26 55 47 44 41 43 52 53 46 41 42 46 22 41 57 31 58 33 58 39 76 41 47 37 44 25 30 34 30 41 47 49 29 55 30 47 31 44 33 26 41 38 57 47 41 46 34 38 51 30 43 41 37 45 53 43 48 46 51 64 43 48 33 32 35 56 27 44 29 40 37 49 49 37 38 31 47 44 50 47 47 50 26 33 41 54 31 43 45 53 53 39 36 24 23 51 51 45 26 51 34 50 44 50 54 24 33 38 43 29 32 37 54 45 20 45 31 46 47 32 31 43 48 36 38 48 33 51 56 44 40 38 57 38 23 36 33 27 31 26 49 57 28 30 33 44 37 40 17 42 51 33 46 38 33 52 51 58 27 42 30 46 47 43 28 30 28 46 40 42 16 51 44 29 43 27 34 26 33 29 38 48 38 47 56 45 23 60 37 47 34 42 37 33 41 30 43 54 30 34 36 27 42 32 45 30 33 30 31 23 44 57 45 38 36 54 38 55 26 59 37 31 42 34 33 54 36 32 40 44 48 48 41 25 43 28 29 44 29 44 57 49 33 31 40 45 48 22 30 52 27 32 34 31 44 57 66 30 48 49 42 27 37 35 31 44 27 29 31 64 43 28 50 36 41 41 26 36 33 45 38 38 42 54 37 22 36 34 51 52 46 47 40 37 30 45 29 50 56 40 37 37 36 29 27 41 33 25 57 44 44 36 40 64 59 52 42 52 54 36 45 33 19 45 36 55 59 42 39 37 50 43 45 44 26 41 34 47 50 23 34 26 27 43 46 34 34 37 34 36 44 33 46 37 43 40 35 29 23 48 45 43 41 40 48 36 33 44 39 44 27 37 36 46 48 15 47 32 54 34 46 34 56 38 33 13 56 46 24 30 40 20 32 41 31 39 40 44 30 47 51 32 26 51 54 43 47 31 46 47 44 22 37 31 35 36 48 37 42 33 52 34 31 57 29 37 54 39 36 27 51 36 41 44 40 44 33 32 41 55 45 49 34 33 44 50 52 40 43 35 41 40 28 43 59 54 43 37 29 47 31 23 44 50 62 37 48 43 37 38 18 23 41 45 44 35 32 37 37 21 20 30 43 45 43 33 37 40 34 25 40 39 26 43 40 20 47 29 44 53 49 48 60 37 33 43 71 36 30 37 37 40 30 39 52 43 48 29 27 40 61 45 33 32 34 34 43 47 36 51 53 28 36 53 44 62 35 44 27 54 27 35 33 36 31 44 44 47 41 33 29 36 38 41 33 40 58 51 43 56 23 46 72 41 48 51 59 47 41 41 46 37 42 58 28 29 41 34 20 62 43 32 48 42 31 41 41 60 35 48 37 40 54 37 56 51 58 39 30 41 34 39 30 36 48 43 41 41 43 29 33 46 48 33 25 65 27 53 43 34 59 30 41 44 48 36 46 51 45 47 46 60 36 33 58 47 39 42 25 45 53 54 36 47 47 44 47 43 21 43 33 27 50 47 41 37 36 25 29 40 37 32 26 26 48 20 50 44 54 37 54 55 54 47 62 49 53 47 49 43 20 34 61 55 37 39 30 29 55 45 59 28 40 43 43 32 35 42 26 55 29 25 32 53 37 56 43 29 45 40 24 30 31 53 33 26 30 49 65 37 62 46 36 13 38 36 48 54 43 40 31 55 35 58 33 27 45 51 53 78 37 34 44 48 51 31 45 40 39 38 63 40 46 33 19 37 28 44 45 33 45 36 30 48 44 28 41 47 34 37 46 52 46 30 28 28 26 27 44 42 45 47 40 52 23 28 46 40 29 40 43 40 29 38 54 44 37 45 52 52 41 53 41 40 30 36 62 36 17 38 40 34 44 16 36 28 36 51 44 30 30 43 36 50 48 30 25 40 40 34 55 49 40 26 54 38 31 40 58 37 36 62 32 46 62 51 52 37 41 47 51 26 40 51 23 35 36 40 45 46 37 39 36 43 39 25 34 34 53 44 41 38 36 33 38 37 48 37 56 25 43 32 31 16 34 46 31 44 54 40 44 36 51 25 27 44 35 33 37 36 19 50 48 29 37 30 35 45 31 37 32 37 37 34 51 38 37 46 43 22 31 46 48 46 41 37 36 31 34 22 55 49 43 33 26 38 44 34 44 37 52 54 53 31 42 32 36 39 17 22 35 37 61 48 27 37 45 43 33 46 40 24 30 29 33 30 49 40 44 30 49 43 37 44 52 48 26 42 24 42 35 45 44 32 44 49 36 33 37 24 48 50 33 22 37 44 30 26 43 52 33 48 57 37 27 33 32 30 43 26 45 25 67 27 46 45 45 47 48 44 36 42 33 37 35 34 40 40 39 28 27 37 41 35 30 43 35 44 31 36 35 51 43 24 47 31 46 28 59 13 26 33 27 33 27 29 42 37 22 26 23 63 51 37 45 54 30 43 42 30 38 30 43 33 50 48 33 54 42 43 37 49 20 49 44 38 47 35 23 41 43 43 52 23 44 29 33 32 23 37 24 53 37 40 42 43 29 64 37 44 51 41 51 39 20 43 44 60 40 30 32 34 58 30 40 59 45 32 36 33 37 28 51 36 30 44 28 37 54 33 60 37 42 36 26 53 27 47 35 58 37 43 41 52 53 44 28 33 36 34 57 33 31 52 38 36 49 33 36 31 44 44 42 43 59 48 41 14 39 37 37 45 33 39 27 57 39 38 51 45 23 36 23 36 40 37 58 27 31 51 59 32 41 20 44 54 61</t>
+    <t>NIG(173.3179971735352, -36.70499019404127, 31.2300598558518, 154.73866583640836)</t>
+  </si>
+  <si>
+    <t>-12 21 -3 -14 16 -6 -6 8 -3 -14 -2 -14 -5 2 -2 -14 -21 14 -3 -7 -9 12 -11 7 1 4 9 8 7 16 -3 10 -4 -3 -10 -20 -6 3 2 -5 5 -8 3 -10 -17 -13 -1 6 -14 3 2 -13 17 -7 -7 24 -4 3 -15 4 -12 24 -6 -4 9 3 -6 -10 1 -15 -6 -3 14 -3 6 21 6 -3 24 -38 3 -14 -2 -4 -5 -19 4 3 3 -13 -9 -5 -7 -6 -10 20 -18 3 -7 32 16 -2 8 -4 -23 -1 -20 3 -8 -3 -6 -17 -7 -11 17 14 3 6 -14 -10 16 -17 7 -11 -3 12 -12 18 -19 24 -17 9 -7 3 14 1 -9 15 -3 -1 -8 -15 -2 11 -18 20 -4 -6 -11 7 13 -17 4 -1 -16 -3 -1 -2 -39 -3 -21 -1 10 -12 10 9 3 -18 -7 -2 3 -6 6 3 -41 -4 5 11 3 -7 16 2 -5 14 -1 -7 -22 7 -14 -4 -16 -7 -3 14 -3 -14 1 -10 4 3 18 -9 -10 -6 -3 -12 6 14 -12 -3 3 3 10 25 13 -9 -14 7 -5 17 -10 5 22 3 16 18 -6 -16 -17 -13 -7 21 8 2 11 -14 5 -3 -12 3 -23 21 15 10 -5 3 4 14 -6 2 7 6 6 -7 3 19 1 -7 2 -3 -10 -7 10 12 -6 1 -25 21 11 -4 -12 -7 24 5 6 -7 5 -9 -4 -4 13 18 7 -3 3 3 6 -28 6 -17 6 7 3 12 -19 -17 -6 -4 10 -30 -19 11 14 11 -6 -21 -7 -11 -19 -17 21 8 -7 3 -10 -17 16 -3 -7 6 3 -3 -7 -21 -6 -13 11 3 3 -10 3 -24 -20 -5 7 -18 11 6 -5 6 13 6 17 7 0 -1 14 3 13 10 -12 3 4 -19 14 -11 19 -6 -7 6 -7 4 -18 4 17 -4 -11 -3 3 -12 -4 -23 -25 13 3 11 11 -11 17 -3 6 3 6 3 -12 3 -28 -7 21 11 -6 -9 -6 12 -6 -3 4 2 7 -20 -3 13 -24 -3 -37 5 -4 7 22 8 7 15 -8 18 15 13 9 9 -7 -14 -3 -6 -25 -7 -10 -22 20 25 17 -3 -2 -3 27 1 -5 -4 4 12 0 -7 8 -1 3 -8 -12 6 16 16 7 -10 1 20 7 -6 -14 13 -10 -9 -4 -10 -11 8 3 -14 -3 10 19 -13 -12 14 -24 -3 -32 3 27 -15 4 -12 -7 23 -2 7 -7 -10 10 -6 7 -2 -14 -7 3 -6 3 -7 -8 5 1 -3 21 -21 -22 11 10 -11 8 6 -3 -7 -27 2 -14 -2 -6 9 -20 3 9 21 -5 -16 -3 20 -12 7 -24 23 -8 -10 -14 -12 -14 -7 -14 -14 -5 17 5 -5 7 -8 -9 3 -7 -5 7 -10 -9 -14 -6 -4 -10 14 -2 -3 -12 3 -25 -18 -7 17 -10 -3 4 -3 -15 -19 1 -10 -3 13 -7 6 -7 1 4 -12 -3 -4 -7 -13 -3 -3 -14 -2 2 -6 10 -7 6 3 -11 0 -3 -7 7 -3 39 -3 12 -6 24 -5 -4 -14 -12 16 -4 -21 8 16 -21 0 -4 -3 -10 18 3 -7 6 -8 -4 -3 1 14 -11 11 -15 7 4 -14 -3 7 4 3 -17 -20 7 7 13 13 -3 28 8 14 8 11 -22 3 10 8 13 -11 3 -11 -14 11 -1 9 14 -3 13 21 4 -21 -14 -17 -3 -3 17 -3 -7 4 -3 -8 -5 14 2 10 -20 -14 -3 -4 -14 3 3 -17 -13 -14 4 -11 -4 -5 -22 21 -13 1 -10 -12 27 4 4 -1 -2 -10 -24 7 45 -4 4 -18 7 24 -3 0 -32 6 24 -5 -7 -6 6 -24 -6 1 -7 -3 -14 -14 10 -11 -7 -6 5 -19 -7 -6 20 6 -27 -5 -7 -3 11 -2 -3 -12 29 -8 -14 -15 -2 -21 -8 -3 -11 16 16 -13 8 3 -13 12 10 -9 -10 -8 -17 -3 -10 -9 -49 3 -15 -3 11 11 -2 1 -11 8 -7 -11 4 -1 -10 6 -19 -30 -17 -6 14 9 -21 -2 -6 -11 -9 -11 -16 30 -39 -6 -22 -3 -14 7 5 -20 -8 18 2 -25 1 6 3 16 -3 -9 -18 10 10 -5 -17 -15 -12 -3 -7 -20 -10 1 5 4 -7 -3 16 -7 -18 -13 -20 -5 -14 -3 27 3 9 -11 -20 9 6 -10 -18 -11 -6 18 -5 -11 8 1 -23 -19 -17 -17 7 -6 -17 -5 2 -6 14 -4 0 3 -17 10 -28 6 -9 3 -13 13 -20 -7 -11 -7 -24 -10 -28 3 1 -31 -15 -6 -14 -20 8 3 -30 3 -7 -7 -15 -10 -6 10 -6 6 -24 -4 4 1 -3 6 -27 -21 -25 -19 -11 -3 -10 19 15 3 -8 4 -9 9 -4 -3 2 1 7 2 -7 -13 -21 -30 -3 -3 -13 -3 -22 -11 -3 3 -3 -2 4 -8 -7 20 -2 3 3 -7 -8 -14 -7 -6 10 10 -3 -3 18 -28 -7 -7 -9 -10 -11 -7 -1 21 -17 3 6 -3 -6 6 -13 -10 -7 3 -12 3 13 -13 -4 -17 -5 -8 22 -11 21 14 9 15 -8 17 7 -4 -6 -17 3 -10 -4 3 3 4 -1 13 14 3 10 7 -9 12 -2 -6 9 3 -6 10 20 -17 -21 34 -18 -3 11 4 1 -10 -25 -3 -15 -14 4 -10 -10 -1 -14 7 -10 -5 -28 12 -5 14 1 -11 -19 -1 -20 -22 -23 -10 -5 -4 7 8 -14 -3 -17 -6 2 -19 -5 6 3 -5 14 7 -4 -4 14 -6 2 3 -10 -5 6 1 7 -27 25 -3 -12 14 -9 5 7 -8 -20 1 -11 1 17 -27 12 -4 -6 -11 -26 -4 -8 -10 -16 -6 -15 11 4 -14 13 -9 3 17 16 7 -7 -3 11 -34 9 10 -4 2 -6 -8 21 2 6 -6 -16 -23 -4 2 10 18 -9 3 -8 -3 -6 -17 -6 10 -7 -12 -11 -16 -4 2 -11 17 -31 -4 3 15 -3 -2 -7 -17 -3 23 13 -15 -31 -3 17 6 20 -2 -22 6 -2 -10 -22 -10 10 -4 -13 -5 1 3 3 -16 3 -3 2 -3 -15 -28 2 -14 -7 -17 -8 5 -6 -4 1 -15 -7 -6 3 -6 8 -2 7 14 7 -10 -2 -5 -17 -6 -22 -11 -5 -11 -2 13 4 3 -6 -3 -3 -15 -14 13 3 7 14 -2 -24 -11 -6 29 7 24 3 -2 8 -20 3 -19 14 -3 6 -2 3 -6 -18 -10 -10 6 -4 -6 -13 3 10 -3 3 4 -6 -11 3 -11 -3 1 4 3 -16 -8 -17 15 4 8 1 14 6 -10 -7 -4 -20 -8 -6 -27 1 25 14 -5 -14 34 -6 -10 3 6 -23 11 -15 -10 4 17 3 -21 -14 -27 9 -24 7 -7 -20 3 -16 -11 -4 7 -13 -20 -24 -11 17 -6 -11 3 13 10 7 -15 -2 -14 2 -3 -17 4 11 13 -7 -15 -3 3 -17 -14 -9 4 14 -19 -7 6 -10 -6 10 8 6 7 -35 -20 -28 -10 26 -29 -7 -11 -6 3 -14 -3 -9 -17 -28 -13 5 21 -20 4 -30 -21 14 -24 -3 -4 5 -3 -27 9 4 -5 -14 -6 -16 -13 6 -18 -15 -8 7 -3 -1 -7 3 -6 -11 35 -30 12 10 -5 -7 -32 -7 -4 8 -1 18 14 2 1 -4 -28 -3 3 -2 14 1 2 -22 -2 -6 3 -9 1 -16 3 3 -10 -12 -17 -4 2 11 -4 -12 -22 -4 -29 6 0 -8 4 10 -21 -4 2 14 25 -3 -5 -4 3 -6 15 21 3 -15 -7 11 -3 8 2 22 14 -14 -3 -17 -20 8 2 8 26 -20 3 6 -2 17 13 6 -23 13 5 -3 -4 17 -24 -7 -21 7 3 10 7 -7 -6 -18 -3 14 -6 11 3 -13 4 -32 13 -16 -8 -3 -3 -24 -18 21 -17 -3 -3 1 -11 12 -18 -6 -8 -25 -11 7 6 -12 -3 3 -8 -4 14 1 14 -28 -30 -3 -5 -6 14 -16 -20 -14 3 -8 -10 -14 6 16 1 -27 -21 -30 -10 -1 -19 7 -6 -9 -7 -18 -21 5 -3 -10 3 -9 -3 -9 -30 7 -3 -15 3 -21 -8 -12 10 -22 0 4 4 3 14 -3 5 -21 14 20 -16 -3 -19 -22 -3 -2 -4 6 11 -10 18 11 -5 -21 -14 -14 -14 -3 -3 10 -2 -6 -3 1 4 10 -3 -3 -10 -10 3 20 6 -6 8 21 -15 -14 -11 -20 -10 4 -8 9 -8 -7 -3 31 -1 3 -8 -4 -7 -18 3 -29 -3 -5 -3 28 -12 21 -24 -7 -1 -15 -3 -11 3 -12 6 -14 -18 17 -6 -11 1 4 -25 16 -14 -11 -7 28 -5 -22 10 -25 -3 -31 -6 -11 17 -22 -16 -10 -22 3 3 3 -10 32 -9 14 -6 -1 -17 -7 -3 -1 3 -8 18 -9 -7 -15 -21 2 10 -6 2 3 2 8 -13 -10 3 -7 5 19 -7 -7 12 -1 -1 -3 -3 -7 -21 -4 -14 7 -31 -3 -5 -4 -2 -29 -7 -8 -2 3 -11 3 -3 -9 -18 -11 -5 -3 3 -3 -16 2 10 -7 34 -8 -17 11 13 4 -6 -17 10 -13 -14 -6 -18 -4 3 -5 10 -9 -4 -12 -7 -7 -41 11 -7 -14 11 -26 -20 -4 11 -4 -23 -11 -1 -13 10 3 20 -11 10 0 21 -3 -24 -7 -11 -3 -1 -13 -3 -25 -3 20 -20 1 -8 -6 -6 4 7 9 -3 2 -14 -3 -42 -14 3 -3 -6 3 3 -24 -20 -14 -14 -11 -4 3 -9 -3 -7 -11 -2 -22 11 -15 -17 12 -27 9 3 -3 3 -14 3 4 -8 8 -3 4 14 1 -13 21 18 10 -15 -7 22 21 14 -6 -3 -3 -11 14 3 -18 12 -6 -2 -18 5 6 13 -19 6 -17 -4 9 -4 -20 -4 9 -8 -10 -3 5 10 -6 5 13 -10 17 -14 -21 5 -14 -8 -6 7 13 -3 3 3 -21 18 -16 -15 -7 -20 20 -10 -1 20 -3 22 -4 -13 3 2 -17 -8 3 11 -17 19 -10 -8 -6 -8 14 -6 17 16 5 10 -17 15 -7 -5 1 4 -4 -35 6 17 -22 -28 23 -15 1 -6 -2 19 18 -10 8 -7 3 -8 -8 -10 -22 -7 4 -13 -3 7 -3 -20 -7 12 -13 3 9 -6 -8 8 -6 2 -2 6 3 -3 -3 17 -6 10 -28 -3 30 -11 23 8 -20 -4 3 -13 -24 15 -23 -3 8 -14 13 -5 -24 3 6 -5 -13 3 -6 5 -4 -7 -3 7 -1 2 -17 11 1 20 -16 -6 -15 3 21 3 4 -12 -3 -20 9 -17 -8 -15 -3 -3 4 4 1 -15 -13 3 10 -3 -1 -13 1 -11 -20 -10 3 8 -11 -18 -3 4 3 -1 6 5 7 -6 -3 -12 -13 -4 -12 -17 -4 7 -14 -3 18 -5 -4 13 4 -7 -10 -3 -34 -5 4 8 -17 6 -1 0 14 -7 4 13 -4 -1 -3 3 10 3 12 -11 -17 -9 3 -3 -8 6 -4 -7 -13 14 7 -10 17 -12 -3 -10 4 -4 -3 12 -3 -26 11 -7 2 5 -18 -6 3 17 -7 7 -32 3 -3 -14 -15 -21 -22 -3 -20 10 6 -7 -2 10 7 4 -18 3 -15 -6 -13 -3 -1 -10 11 -4 -5 -5 -14 3 21 -3 3 13 -3 -20 -22 -6 -10 3 7 -21 7 7 -10 2 -14 8 -4 8 7 -10 6 -15 10 -7 4 7 -14 -23 6 6 -7 12 14 -10 6 10 -18 -18 -18 -19 21 35 -6 -17 -5 4 -15 1 3 7 7 -18 5 -3 -3 6 -5 -17 -6 -5 2 -4 -22 10 4 -11 4 17 -6 26 -3 17 20 -27 -9 -9 -36 -9 3 -9 -19 8 -13 2 2 7 7 -3 -20 -13 3 1 1 -7 -3 -13 17 3 20 -11 3 -6 -1 -8 -14 -13 11 -7 1 23 18 -6 22 -11 1 -12 7 14 3 -3 12 -13 -3 14 -14 -17 12 18 -27 -1 10 6 -3 -13 9 -14 -3 -17 -7 -3 -11 -9 -3 -14 14 -7 14 6 -14 -23 23 -2 4 14 -18 -20 -7 14 -21 -13 4 -3 -11 -3 14 7 10 -8 19 -22 21 1 20 -22 -11 -3 -24 7 7 -5 -10 6 21 3 5 -20 17 18 -11 11 -6 -4 -3 0 3 -7 1 -14 -6 -8 -9 -13 -10 -4 -3 -3 27 13 -23 1 -4 -15 13 2 2 -21 -23 -13 6 -10 11 -7 6 -3 6 3 -22 -7 -21 3 -17 10 -19 -23 11 3 5 3 28 14 -4 -3 -5 -10 -6 7 7 -21 -30 4 -21 -2 -5 3 -3 -5 -24 -10 -21 -22 7 12 27 8 -8 -20 18 -3 3 -10 1 1 -10 -14 -13 -10 4 -31 -7 -4 -5 -11 -6 7 -3 -10 7 -4 5 10 6 -13 -3 16 -9 17 -2 4 31 -7 -6 7 11 -11 -14 -10 -4 -17 -8 14 13 7 -7 -17 18 -17 -3 4 -9 -2 -3 -3 7 -5 -6 -6 11 -6 2 20 32 12 20 -7 5 -2 9 -3 -31 -4 -3 3 -7 -6 -12 -6 -2 -25 -4 -25 -9 21 5 2 -31 -13 14 -4 1 14 1 -5 -24 -3 -19 -1 9 13 3 8 -12 -13 -4 -4 -18 14 10 3 4 11 3 8 10 11 -10 8 7 -7 -3 -9 -12 3 -4 -13 -4 -7 -3 17 26 -13 -3 -13 3 1 -7 -6 -17 -10 -12 -3 -3 -7 -13 -5 7 -7 -3 17 -16 -6 21 8 14 -6 -25 -13 -7 -3 17 -9 -3 -3 3 8 -13 -3 -6 3 -10 -23 -33 1 -13 7 -7 1 8 3 -3 -27 14 6 -6 8 -10 15 4 0 -18 3 -15 3 7 -8 18 3 -14 11 -26 7 -31 2 3 -3 3 -3 3 -5 -31 12 4 7 7 11 -19 14 3 -7 -6 -4 -11 -3 6 3 -27 4 -15 -1 -3 -22 -13 2 17 -17 -7 17 -3 -6 -3 -5 8 -17 -23 -9 -11 3 -14 -11 -20 11 5 -6 -5 4 -21 -20 6 1 5 -14 -3 8 -11 6 5 -7 5 -2 13 5 -17 0 15 6 -4 -6 -28 -6 -3 -9 -3 -4 7 10 -13 -6 6 -4 4 -5 3 -6 -3 1 3 -11 3 -15 -11 5 6 -23 -6 9 -12 -28 -3 -16 -1 -11 23 -1 -19 -6 -3 1 -31 -14 -3 -8 16 -11 -3 -3 4 5 13 5 -3 -11 -13 -12 10 -2 12 -8 12 -14 -3 9 -6 -2 -3 14 -14 -26 1 -13 3 -13 -13 3 2 -10 3 -3 -7 -7 3 14 10 -5 -18 8 -9 -3 6 -13 -3 14 -24 19 14 3 19 3 18 10 3 -8 -17 14 -9 -6 -20 -26 -6 -15 21 3 7 -4 4 -9 11 -17 -5 7 -14 -10 9 -3 -6 18 12 21 10 -14 -12 19 8 3 -6 -9 -4 -4 8 18 9 4 -19 -2 -2 -4 1 20 9 -7 -38 -14 -7 8 7 -15 13 3 -1 2 -17 -17 11 -2 2 26 -14 -5 -8 -16 3 -23 -22 1 -24 -10 -3 -8 -40 8 5 4 2 -8 14 3 -10 17 11 29 9 3 -8 13 3 1 9 -2 -1 10 -8 -7 -10 5 2 -17 20 6 -4 12 -31 -6 -1 -13 -17 -14 3 -11 3 -3 3 2 2 -3 6 12 5 -3 5 13 -19 6 -4 16 20 -7 10 17 10 -13 3 -3 -18 -21 -7 -7 10 3 24 11 -14 -27 14 -2 -34 -4 14 4 -3 -5 -3 -6 3 7 5 13 3 24 16 -9 -7 6 0 -7 2 -11 13 -9 7 -19 8 -24 -14 6 4 6 5 -2 -13 3 -13 8 -17 -11 -20 5 15 6 3 -3 -12 -10 7 -12 -14 -13 -10 2 -3 10 -2 -21 3 6 -3 -11 -21 -12 14 -20 11 11 -22 12 -3 -17 3 -22 7 -7 -6 -6 -3 -1 -10 8 10 20 14 6 -17 -13 -35 -3 9 -3 14 -3 -10 17 -3 3 -18 -21 -6 -5 -3 13 7 3 -25 -6 -1 -9 7 10 -8 -17 -6 17 6 -24 -14 -7 -6 7 1 -4 13 -4 7 -1 -8 7 -30 20 18 -3 11 -18 -14 0 -14 -15 6 -13 7 8 6 -6 -2 -32 15 5 21 -4 7 13 -4 18 -14 20 -9 -19 21 -10 -21 2 -14 2 10 -11 -31 -3 -14 11 -4 2 11 2 -10 -20 -5 -4 -26 -5 7 11 -17 -38 8 8 -5 3 6 -3 -1 -10 -7 -4 3 -3 17 -11 -5 -4 6 -6 12 4 -8 7 -10 -6 6 17 -17 3 -7 2 6 -9 -6 8 14 1 -8 30 19 -18 -27 -5 20 23 10 -11 1 3 6 3 7 -14 8 -2 -4 -1 24 19 5 -6 9 -20 27 10 -18 -7 -10 -4 7 2 3 -6 6 -14 7 -6 -6 -9 5 -8 -17 14 2 -10 -1 6 -6 3 3 -11 -16 -14 -17 14 -7 13 -13 -20 -15 -14 2 -10 3 -7 -26 -10 11 -11 -6 -11 -7 3 3 3 6 4 7 9 -7 -8 6 23 -28 -29 -4 3 -3 -3 17 4 -6 3 -6 13 17 -21 -14 -1 11 -3 -3 -3 -11 -22 -27 4 -10 -17 3 18 -10 8 -3 -14 14 21 4 -9 4 -4 6 18 -14 16 2 -3 -17 -20 8 -4 3 -27 6 -3 1 3 -24 -10 -9 -17 -22 -9 17 11 -11 -14 -14 -15 7 -17 -28 6 -5 -8 3 -3 -18 10 -24 25 14 6 22 -7 4 3 17 20 -27 1 -17 -14 -3 -6 -6 4 5 -14 -16 -14 9 -7 -2 -13 -9 6 -17 18 -22 13 -20 -5 4 -14 1 -10 -4 8 5 -4 14 -17 1 -7 5 7 14 -8 -11 17 27 -3 14 15 9 -3 20 6 -14 6 10 6 -5 7 -18 -2 -15 -4 -9 -3 -28 6 -10 22 -13 -7 -4 -17 20 -3 7 -10 -10 -25 0 -28 11 -12 17 3 5 -25 -14 -21 -11 4 -3 -4 -18 8 -29 -3 -2 -2 -10 22 5 0 2 3 -7 7 21 17 -15 6 18 4 5 -2 18 3 -3 -7 10 8 -3 -7 -2 20 4 -25 4 -8 9 6 -3 -2 11 -4 -7 5 -7 8 14 -21 -19 -10 -25 -3 -17 2 -10 -31 -8 -3 3 16 -8 -17 7 -2 17 6 6 -3 19 -10 -5 17 -14 -5 -6 -13 -17 -6 -9 2 -3 -3 -3 12 -22 27 -11 -24 32 13 -3 -3 -18 5 -9 4 -13 -19 -3 -13 -2 -14 -5 -11 -3 -4 5 -11 7 7 14 -5 -12 2 8 -3 -6 19 -28 13 31 -24 -4 -22 -25 -11 14 -7 -4 4 -14 -10 11 11 -20 6 15 6 8 -6 3 -2 -5 -1 -20 -3 -17 13 -12 6 1 -10 -3 -11 -3 -4 -14 -6 16 -3 -16 3 17 2 -14 23 -3 -22 -6 -12 -6 11 -20 -7 4 -17 3 1 -1 -12 5 3 7 3 -14 18 -6 -17 3 -3 9 3 11 14 10 -15 7 -11 -9 -9 -3 -3 -13 2 1 -3 2 13 3 -5 -2 -18 3 -3 -3 10 18 -17 -12 -8 -25 -4 -11 -8 7 -27 3 19 -6 39 8 5 -4 -17 -6 -24 6 -1 8 -7 -7 14 -1 6 -2 -5 -3 4 6 -7 -10 3 -3 -20 -3 6 2 3 12 4 -14 -17 -22 -3 -8 -6 3 3 -4 -17 -25 7 -3 -21 -20 -5 -3 -21 9 -14 18 -16 7 10 -7 6 11 8 -1 21 -2 3 -16 -7 3 -22 8 25 -7 12 6 17 1 8 -3 6 23 3 -7 8 -3 -13 -12 -24 6 17 -4 12 14 20 -31 16 42 -2 12 -17 6 7 -11 30 -49 -24 -20 21 -1 -3 -10 -35 -7 -3 -10 5 -5 -3 8 10 16 -14 -21 -17 8 -11 -6 20 -6 -3 3 -6 7 -3 -18 -13 7 6 7 -2 -2 -8 -13 -14 -14 19 -6 11 4 3 -8 -5 34 7 3 -20 -20 -14 -12 -17 4 -18 -6 -3 14 -14 10 -11 -3 3 -6 11 -7 -10 9 -5 2 9 -4 -14 -27 -3 -5 8 15 6 -17 7 3 5 -5 3 7 -13 -6 4 -8 -4 13 -3 -8 -14 -3 5 14 9 -15 4 2 5 6 3 -23 -17 3 7 -15 -3 4 -21 14 10 13 7 3 -21 -9 7 7 10 4 -7 -4 9 -4 -10 -8 -3 1 3 -10 -2 36 -4 6 -1 -6 5 14 -13 7 -2 -3 -3 -3 -3 7 -2 -28 6 -4 11 18 6 18 18 -16 -8 -11 4 -6 17 -11 17 -13 -16 -7 5 3 4 -10 -14 -7 11 -17 -20 4 7 1 -21 -13 -7 -18 -28 3 27 -37 -3 -17 -3 11 -15 -8 18 -9 4 10 6 -8 -13 4 -11 -7 -14 -7 -2 0 2 -9 -2 3 -20 -2 -23 24 3 3 20 7 -11 -1 -7 22 10 1 3 -18 7 -3 12 20 -5 5 -14 -6 3 -6 6 -8 -19 -7 -12 0 -3 10 -7 6 -7 -4 -34 -10 8 -28 2 2 3 -7 -21 -1 13 -11 10 7 -7 -7 -7 7 -6 4 -10 -4 3 -4 18 -9 -11 -24 2 4 4 -2 7 11 6 15 -3 -4 -3 7 -2 -6 -3 -2 -11 -10 -23 -14 2 17 8 7 4 -3 -4 -18 6 21 7 -4 -5 -6 3 3 -9 22 21 -6 -10 -32 5 -8 13 -16 -34 -30 5 12 -3 14 3 -13 7 -3 -6 -3 -12 7 -7 -4 -3 15 10 3 -3 -3 -3 7 -3 -28 -10 -7 6 4 -6 -19 -20 -2 -7 -5 13 -4 -22 15 6 -10 10 -21 15 13 -25 -8 -10 -5 -7 12 8 6 6 3 -12 -22 8 6 5 -34 -11 11 21 -16 -4 -28 2 -17 -6 14 -15 -3 -1 -15 -14 -4 -20 -21 -3 -28 -14 -26 2 -13 10 12 -20 -18 -3 -1 22 15 -1 -7 -26 2 -9 -13 -3 4 7 -14 6 -6 -3 -8 5 -17 -18 7 7 -14 5 -25 10 3 -7 -7 -16 6 10 -1 2 3 -11 -17 15 -8 3 -3 -4 -7 3 4 -7 12 -3 -14 6 -16 -10 -1 -6 -14 4 8 3 7 13 14 -23 3 -6 -19 -2 4 8 -24 -4 -5 -5 -2 -6 -14 -4 -3 -3 6 -22 10 7 3 24 -3 7 9 4 -7 3 -4 10 0 -6 -10 -1 17 14 27 7 20 6 3 -3 7 8 -9 6 1 -7 6 25 3 0 11 14 -5 21 16 7 -4 7 -3 -4 -4 2 -9 10 0 18 7 -18 21 -14 7 -11 5 -3 -10 1 11 4 -10 11 -8 -10 21 14 -16 9 -3 -3 5 6 17 3 -13 21 -24 -20 -1 3 6 -1 5 -8 -2 12 -14 9 -10 -9 7 3 -17 -27 -2 -15 -2 -7 -25 14 2 15 -17 14 -14 -22 -7 11 4 0 14 9 -3 3 4 24 13 9 -12 -10 6 9 -21 19 -3 -27 -16 -14 -5 -14 -2 -21 -7 -6 -14 -3 -7 -14 -8 -3 3 -6 17 13 -8 -20 18 -30 -3 4 3 -14 1 16 -2 16 -28 -2 19 -6 2 -31 -14 -14 -20 17 -3 6 -11 -6 -3 12 -13 -13 5 40 3 3 8 7 12 25 7 -8 11 -8 -5 -6 7 6 -3 4 8 -28 -4 3 -2 -18 -11 14 -10 -3 -12 -8 -17 -6 7 5 -13 -18 -4 -3 11 -11 -16 -1 -23 -31 -6 -17 -6 -7 -18 3 -37 -3 0 8 -6 13 -18 -16 -14 4 -4 -14 5 14 -14 5 -2 -10 -3 -2 -15 -19 3 -12 8 -10 5 -3 5 -5 -3 3 -8 7 7 -20 -12 -28 -21 -2 -3 -11 3 7 3 -31 -9 -6 3 -4 35 -17 -11 -4 -21 5 -17 -2 -1 8 -13 8 -13 7 13 3 -34 19 -23 17 -7 -12 -28 -5 8 11 -20 -4 -6 12 -11 7 -5 15 20 7 -15 -4 -2 1 16 13 17 17 -7 -13 -4 -16 -5 -7 -24 -5 3 6 4 -3 16 -13 -17 -14 6 -30 -4 -15 3 -4 -4 -12 8 7 -3 18 5 -20 -17 -8 -3 -13 19 24 8 -10 14 3 2 13 3 -6 17 -2 3 14 -15 -10 -3 1 4 -1 14 -3 -14 -24 14 1 -8 -24 4 -8 5 1 -3 -14 -17 -5 9 -3 -7 -1 3 -8 -3 -9 21 -3 -18 -16 -21 9 -8 -5 -5 -7 11 -3 -7 4 -6 -22 -24 -6 7 -8 -13 10 -17 -27 4 -14 1 15 -3 7 -5 7 5 7 -18 7 7 -3 7 -1 -26 -14 -9 6 -19 19 -4 -16 8 -18 -6 -19 27 -20 -7 -19 -3 -15 10 -11 -7 -8 -10 -3 -6 -7 -8 -17 -17 0 -8 -8 1 -6 10 -6 11 7 3 -17 9 -18 -12 -7 -7 -3 4 -6 16 -6 -3 -10 -25 -1 8 14 -3 -26 -4 7 3 -2 6 2 6 11 -22 -24 17 -16 13 11 7 18 1 -9 -5 -4 -4 -5 7 -18 -24 -21 7 -3 1 -7 -8 -23 -7 3 10 -12 -10 8 -8 6 1 -3 -1 7 -6 10 0 0 5 -3 -3 -14 -20 -8 -6 -2 -15 13 -13 9 23 17 6 -9 -7 10 -8 0 3 3 3 -20 -7 10 14 4 -2 -3 5 -3 13 -7 -17 -7 7 -7 -13 17 23 -15 10 -27 11 4 -1 5 -5 -26 17 12 -6 7 14 -31 -7 3 -6 -4 -3 3 -1 -18 -7 -7 8 10 -6 -7 -13 -16 4 -15 -3 -6 -21 -14 -5 4 3 -5 -25 16 -14 10 2 -7 6 -24 -8 -8 5 -21 17 6 9 -3 -12 -3 26 -6 11 1 6 4 -3 -17 19 -11 16 17 21 -6 -7 -20 -3 -4 5 3 23 8 -4 -18 -21 -19 -9 -17 7 8 8 -22 -3 20 11 -10 -5 5 3 -3 -10 -5 9 -16 -8 12 -14 -5 -19 -9 3 -7 -3 -19 -7 -13 -16 -27 3 -26 4 -7 -14 -13 -6 -27 8 -1 1 -9 -1 -15 -10 5 -3 -10 3 -6 -3 3 -10 -10 -3 2 21 4 -11 -14 -1 9 -1 1 -18 6 -15 4 -16 11 2 -21 -20 -12 12 -12 -15 -3 -24 -20 11 -5 10 -6 -5 -16 1 -2 7 15 -6 -11 -13 -5 -14 -9 11 2 6 2 28 -13 -22 5 8 -3 -5 0 6 11 9 4 -4 5 -3 7 12 -8 1 -14 -4 -42 13 -3 -5 -15 6 -2 31 -15 10 -3 2 14 -7 18 3 2 4 17 12 -3 -1 -10 8 -28 4 8 -8 6 -4 3 19 13 8 -21 -3 4 -26 -3 -30 21 3 1 -23 -12 -13 -20 -15 18 -3 -9 -14 -15 22 10 -6 -4 21 3 -11 3 2 17 -13 -13 -9 -21 -3 -22 18 -4 9 -4 21 21 -6 -13 13 -3 11 -3 -9 -7 -7 -15 -4 -6 10 -14 7 -10 10 -7 -2 -8 2 -20 16 -4 -8 -6 6 -14 23 7 -11 19 -3 14 -3 6 4 1 14 14 5 6 -6 -7 -13 10 7 -2 -3 -8 3 -13 -14 -5 -14 -3 -29 8 7 -2 7 10 14 -6 -3 3 12 -10 -22 -24 -2 7 -5 14 9 -11 15 13 9 -22 -5 -3 -6 4 3 -10 -4 -3 3 5 -14 6 -13 15 -10 -1 -14 6 12 17 1 6 14 -9 -8 7 4 -11 6 1 5 0 -10 -10 18 -10 -6 12 -8 6 -22 5 11 12 14 -3 8 -17 14 6 1 -12 -16 6 -21 7 -11 -12 17 -2 -4 -13 -6 8 -9 -11 -6 -3 -16 -3 -12 -25 3 6 -6 -3 5 -14 6 -15 10 -24 19 -3 4 -28 -15 -7 3 -7 -11 -3 7 -3 8 -3 3 -8 12 -4 -11 -12 -4 -4 11 -3 -3 7 4 -18 7 -6 -3 -4 9 6 -9 -4 4 -3 -5 -3 -10 -10 5 18 -3 14 3 -14 -11 3 2 -4 7 -10 7 -3 1 1 -16 -6 6 10 12 -1 17 -7 21 -5 -6 17 4 14 -3 -9 5 6 -14 3 8 -14 14 -3 -2 -7 4 7 11 4 12 -14 8 -9 -28 -3 11 -3 -15 -3 7 -17 -14 -1 -11 -6 21 7 -8 -3 18 -5 3 3 -19 3 -17 -15 -7 -8 -13 -7 -31 -3 -11 -14 7 -6 20 -14 -5 -14 7 4 10 23 7 15 -17 8 -4 -14 -7 -4 2 -13 5 -8 9 -14 3 -4 -24 -8 6 3 -13 6 3 -4 -11 -17 25 6 -1 -17 -3 9 -4 5 -4 -7 -22 27 -17 -17 7 -24 16 1 -10 -7 4 -14 -5 24 1 -10 3 26 28 -14 9 4 -4 22 4 -25 -21 -6 -25 -3 3 20 -15 -1 -3 3 13 7 -4 0 -3 13 3 18 10 -10 -17 -13 -3 -9 1 -2 -4 3 9 22 -10 3 13 7 -3 6 7 -4 -23 -7 -4 -22 0 14 13 -14 -3 1 4 8 3 -12 -30 -4 -5 -25 6 3 -10 16 -24 14 3 8 -21 -3 4 4 -13 -16 2 3 -7 21 9 43 -7 -20 -6 -3 -7 -3 11 -7 -5 -14 -6 -5 -7 -7 -7 14 -17 20 -6 -10 -4 -7 -4 10 -20 20 -6 3 -7 3 -21 -18 -8 3 2 -14 -8 -28 -21 -3 -21 -39 -3 -7 3 7 -30 7 -7 -10 -14 -5 3 21 3 -11 3 4 4 -3 -8 3 -14 17 6 -4 15 6 -14 -16 3 -7 -11 -4 -14 13 -18 -3 -7 -5 4 5 -12 3 7 16 -14 -3 -10 -2 -23 -22 -14 -3 4 -10 7 -7 6 -7 11 -24 4 -24 -3 17 7 0 7 3 -7 4 9 -10 3 -9 8 10 -4 -6 -5 4 -5 -8 0 -33 -3 -28 -4 16 -11 -5 -7 8 -5 7 -8 -18 -4 15 6 2 -3 7 21 -35 28 5 28 1 -17 4 -3 -3 -9 -1 13 6 0 0 6 4 11 -4 -3 -22 -10 9 2 -7 15 -4 -15 -30 1 -7 -3 6 -28 1 -18 -7 3 -4 -2 -6 -3 7 -19 -14 -11 -7 -10 2 3 -8 13 16 -7 -7 8 14 11 0 3 -9 -21 -2 3 -11 1 11 4 4 -18 3 -4 -11 6 -3 -32 8 -6 1 -20 -17 11 -8 -8 -11 -3 -4 14 8 4 -5 3 3 -6 -25 14 -11 8 -6 -3 -19 -25 10 -10 -9 -10 10 -8 -3 -11 4 -10 5 -5 10 3 -3 -13 -3 -11 13 -28 -17 -4 -1 -7 0 21 -10 -17 4 -10 15 3 13 -9 -18 -20 24 -3 8 2 2 -7 -13 11 -16 3 -7 2 -3 -8 -13 -6 -15 -3 -17 5 -6 10 -7 4 -3 -3 -4 -17 -7 15 -14 3 -7 -7 10 5 -6 -23 -1 2 -15 14 -3 14 -21 3 -24 -5 -3 -3 10 -6 -13 -11 -3 -10 14 22 28 6 6 -20 11 -21 -19 -7 -15 10 3 16 7 17 14 -9 17 3 -13 -1 15 19 -19 -3 12 -5 -3 9 8 -10 -3 -6 -11 3 -2 -12 -14 -6 -7 -45 -1 -19 3 19 -3 3 -6 -18 -14 7 -4 6 3 7 12 -10 -6 -17 -11 -5 13 2 3 15 8 1 -3 -3 -8 2 -2 -15 14 -7 -15 -8 -17 7 -13 3 11 -1 21 1 10 21 9 1 3 12 -10 4 -3 19 -6 11 -10 5 -9 -10 13 -3 -2 4 -10 10 -7 -3 -24 -18 17 -13 8 21 7 -3 -3 -17 -6 -5 -2 -3 5 18 -2 8 -23 -21 -7 10 5 -3 -18 -5 6 -3 -3 -21 -8 9 -3 -7 21 -27 3 13 -21 -19 -12 -2 -17 -6 -5 -9 -6 -7 14 -20 -17 -8 -4 -3 -10 6 -10 14 14 -10 8 -3 -31 -1 -18 -14 -7 -23 -19 -17 -14 4 2 7 6 8 -1 3 20 8 27 3 -14 -7 14 -4 -8 -9 -11 -1 3 3 -26 0 -9 -7 7 15 -9 -13 -22 11 -22 -21 8 4 -4 14 -3 5 -20 6 -11 -14 -3 -22 4 20 3 -17 18 -8 6 -11 3 10 -6 -23 -7 15 8 -5 3 14 -4 -6 -3 -11 -16 -3 3 -17 -3 6 14 -21 10 6 -25 7 3 -16 -18 -1 6 -3 -6 -13 -17 -3 -3 -21 -3 -3 3 8 -18 3 -15 16 1 -8 -24 4 4 -13 -15 -19 -17 -9 3 -29 5 -25 3 14 -4 -12 27 -24 -3 -18 -24 -2 7 1 2 -13 15 3 4 3 6 -5 5 -1 -11 -9 -15 4 10 3 9 -3 -10 -10 6 -14 -22 -23 8 6 -16 -4 -8 -7 -4 -11 14 -23 -3 17 6 3 -5 3 -21 2 6 -6 20 -22 14 -3 -31 -17 11 -3 -3 -7 -21 18 25 -8 2 -7 14 -7 -3 -7 -4 -16 9 -6 -3 -4 -17 -1 -6 5 -15 -3 3 -17 -6 8 -7 16 11 -8 -2 -18 -6 -3 -10 7 6 -14 15 -8 7 2 -17 5 -3 14 -6 26 -3 7 -6 -18 -26 21 -21 5 8 13 19 -7 -20 1 3 3 -25 -10 15 22 18 -4 6 -15 -3 10 -3 3 3 -5 -8 3 5 14 -4 6 -18 7 -3 -2 1 11 -10 3 -12 -7 -3 -1 18 -3 -5 13 -10 -5 3 -1 -11 5 -17 15 -6 3 -29 -14 -16 -11 -31 -7 8 -3 -15 11 -3 -10 -8 8 -14 -7 10 -4 10 -16 -4 1 -9 3 -3 7 -4 3 2 3 27 3 3 -10 -11 11 -13 -2 9 -16 21 8 -1 10 -28 -7 -17 3 -3 -6 -11 -28 -7 -17 18 7 -17 -34 -3 13 -6 6 -4 -14 -7 3 3 -17 -3 3 -38 3 14 9 -3 -8 -15 3 -8 4 -8 -19 -8 -9 -3 -20 -7 -17 -3 33 -17 4 6 16 10 6 2 3 -4 11 -7 -5 -5 -5 -34 15 -7 -7 6 -7 7 2 -7 -7 -10 -5 -15 -10 6 -9 -6 14 -3 10 -13 -22 -13 7 2 -3 -9 -7 -8 -21 -17 8 -10 8 -12 14 -4 28 -17 -24 2 -10 -5 -11 -7 -14 7 -13 10 7 -3 -5 -14 -20 -4 -3 8 -3 18 -3 -26 -5 -14 -4 -7 -11 -13 -1 6 3 5 -31 -15 -22 16 1 42 25 3 3 -3 7 19 -14 15 11 10 -16 21 3 -1 -7 -6 16 6 -1 28 -21 -22 12 -3 -8 -25 -7 -2 -27 -11 15 -13 8 -7 5 -6 -4 -5 8 -7 3 -6 2 -6 -10 7 -19 15 -4 -14 5 23 11 -8 -8 -10 -15 3 -10 -7 -17 -11 -14 -17 6 -16 -17 -1 -6 -7 -3 -4 -11 -13 4 -6 7 -9 -18 -6 24 -7 2 -8 8 -17 -11 -5 22 -16 9 -19 -12 -7 8 5 4 -7 4 19 -7 -10 4 -7 3 -7 -28 9 18 7 -18 -5 -14 5 -3 -21 -6 4 7 3 3 8 -5 14 -12 -4 3 6 -1 -14 10 8 3 -3 -7 3 8 18 -15 -4 -2 2 12 7 8 -7 -3 18 -17 6 10 3 7 -21 -24 -27 18 9 -10 6 -7 -17 -9 -5 -4 14 -21 13 10 -4 11 1 20 -5 3 8 -3 -6 -7 -3 -16 6 0 11 12 -3 -10 14 -18 -9 10 -21 -2 -3 0 -13 -21 5 20 -10 -8 0 -3 -15 7 -4 -12 9 4 6 -3 27 -8 -13 7 -3 -6 3 7 -18 -7 -17 8 4 -3 6 6 -10 -7 12 -4 -1 -15 -13 -17 6 3 10 -17 -12 -5 -15 -7 13 -3 10 -9 -3 -8 30 -11 -14 -3 -10 -20 1 -3 10 3 -21 -14 -8 3 -4 -10 -14 8 -9 8 3 -10 -7 -6 3 -12 -13 -3 -8 5 -8 -3 3 5 -3 -1 4 1 -15 -11 17 13 3 -3 -15 -8 4 -28 4 -20 -3 -21 15 3 -14 6 -17 4 3 -19 8 -3 -3 -36 -7 4 6 7 20 -4 -2 -24 2 1 -27 3 1 -4 -3 17 -17 2 -19 -11 -2 -7 -9 10 -2 -5 13 -18 -4 -17 -1 -2 -7 -3 18 13 16 -23 30 -4 9 -3 -8 -7 -17 4 -4 3 25 3 -10 -12 -9 -15 -3 -12 17 -4 -29 -6 -3 -1 14 -6 -13 21 6 -6 3 15 -14 -6 -2 -3 -5 13 7 -2 6 -5 -1 8 3 -2 -17 -17 -7 -14 3 -11 7 -20 10 -8 4 -6 -7 -7 6 12 -10 25 -10 3 -17 9 3 -14 3 -4 12 -7 -3 -16 4 -4 -1 -17 -21 -12 -21 -2 -2 -13 -5 -8 17 11 -6 -6 10 4 14 21 2 -2 -17 5 -9 19 -1 3 -11 -13 -16 -4 15 9 -25 8 -11 -20 -3 -7 13 -6 -13 -1 -3 -3 -5 -9 -4 -11 10 -4 -32 -5 -10 -7 -24 -3 -4 -17 -15 -24 -20 1 7 -20 -11 -18 -5 14 11 6 7 -6 -3 9 -10 7 3 -12 -7 -8 1 -24 -18 -3 4 -4 -8 15 -9 14 -8 -5 -7 -7 -10 10 -7 -3 -5 3 -6 -12 3 -23 -14 -11 6 -16 8 -25 5 4 10 -17 -4 -4 6 6 -3 6 -23 -12 -21 -14 3 -14 6 6 21 16 -27 -10 1 14 -3 -14 -4 -31 -5 -14 -24 13 -15 -14 -3 4 -24 -29 4 4 -17 -2 3 -14 -2 12 3 4 7 -11 -6 -14 -8 23 4 -17 15 -8 3 -3 -24 -2 11 -31 11 -10 -28 28 18 -15 -15 12 -18 -7 -13 -3 -3 -3 -3 -10 -5 0 31 16 11 10 -1 -11 -7 3 7 -3 -20 -14 -42 -3 10 17 10 3 -8 3 -25 3 -6 -3 -6 -21 -7 10 3 -5 32 -3 -21 -2 5 -6 -9 -3 4 -5 -11 4 -31 2 -17 -1 -5 3 25 -10 8 9 -5 3 -3 17 -14 -21 -9 -5 4 18 -5 -6 -3 7 -2 10 -11 3 -15 14 21 -3 -2 -14 -17 3 -6 -13 5 -23 6 -8 -14 -18 -1 13 -7 -3 -19 20 12 -14 -28 6 3 -28 3 -5 -9 -26 1 -20 2 -7 22 -13 -41 3 -18 -4 -7 3 -6 10 7 -21 -11 -10 -28 -21 -11 7 -31 -30 -10 18 -6 -13 14 8 -24 10 -3 -20 -14 -11 1 6 3 -15 -2 -3 14 1 -7 17 -31 -13 3 -4 1 6 -8 -3 -20 -16 -27 -10 -22 -5 -14 -3 -11 -15 -7 3 -17 -6 -3 -4 7 15 14 17 14 -21 -14 7 -24 -1 -34 -14 -21 -8 -5 -11 5 10 -7 25 48 -22 -17 -11 3 11 8 10 -2 -18 1 14 -3 11 -11 -3 18 -10 12 1 15 -9 3 4 -7 -6 -14 5 -15 -24 -14 3 -7 -10 11 -2 -7 -4 -28 -7 -2 6 -4 -28 -32 -39 3 -27 -6 4 -6 -20 9 12 -26 -6 -14 14 -25 -14 -11 -11 -34 -6 -17 -4 14 -18 14 -32 -24 -3 7 -9 -3 -20 -1 7 -10 7 -11 -17 -13 -14 29 8 -15 17 -20 -3 -11 -11 3 6 5 4 -6 -7 4 8 25 21 17 -6 -3 -7 -13 7 23 8 -3 -6 -2 -16 18 14 -17 4 -24 20 -3 -12 -21 -6 -23 -37 -22 10 3 -18 16 8 -16 7 -4 -5 7 -12 -7 -5 -1 15 -7 -10 4 12 17 28 -45 -21 -24 -2 1 -8 -6 -7 3 4 -6 -16 -10 3 2 8 20 3 8 -14 3 7 1 3 -14 -6 -2 20 12 -7 -38 3 -2 1 -13 25 -14 10 -5 -12 5 -12 -32 -7 -21 -17 -1 -16 10 -6 3 -14 0 -4 8 -5 -20 -8 3 -8 -9 3 18 -17 2 13 -8 -14 3 10 4 -8 -14 -5 -4 7 -15 -10 23 14 -9 -6 -13 -27 7 8 -6 14 -3 -21 -6 -3 4 3 16 7 -4 5 -8 -5 -18 -3 9 -3 -3 -24 3 10 7 -4 28 -14 -35 11 12 5 -5 2 -3 -2 13 -3 -3 7 -14 -3 3 10 -31 15 -9 -1 -6 -27 -13 -7 -7 -3 -14 4 7 -2 27 -13 17 15 3 10 -18 2 3 -4 -3 -24 3 -9 -7 -11 2 9 -11 3 0 -14 10 -28 6 -36 -3 -11 -7 7 4 15 -7 -17 -10 -2 3 -10 -11 5 17 -24 1 -9 -10 -7 -3 -17 14 -3 -7 20 -2 -10 8 -3 14 2 26 10 -24 3 -11 3 6 3 6 -21 6 -17 6 -1 21 -11 2 3 7 4 3 -3 -1 -14 -10 13 -16 7 21 -17 -13 -8 21 4 -20 1 6 3 -6 -7 -4 -6 -21 -2 20 4 -4 27 -25 3 11 6 -6 -6 6 17 10 3 -6 -4 6 -2 -23 20 -13 -21 1 -12 -14 17 -20 -12 -14 21 20 -4 3 -3 1 -11 -7 3 -4 -1 -12 2 -10 -6 3 6 -20 -3 7 -20 -11 -14 -18 -21 -9 1 -12 2 14 9 -7 21 -5 6 -3 -17 -6 -3 -17 11 7 6 -3 3 3 -4 -14 11 3 2 -24 17 -14 -21 -5 7 6 -5 11 -29 -7 -13 20 -9 -14 -2 -6 -18 -34 12 -6 -33 -3 -9 -7 -17 -1 12 -4 -25 11 3 -24 23 8 -7 -31 -2 -23 19 16 5 -1 13 13 -3 -35 -4 -3 16 -15 1 12 -13 5 -19 -19 20 20 -9 -6 -10 3 -6 9 -3 5 -10 8 -3 -7 3 -3 -16 3 14 -16 8 4 -3 -3 -10 21 -10 8 -1 14 -3 -11 3 -17 13 11 -20 -7 -3 1 11 -4 -9 -7 3 3 -6 -5 -3 -10 13 -8 -16 -19 -13 18 22 -3 -3 25 -1 6 7 2 -2 20 -20 -41 -8 3 3 5 8 -6 1 -16 3 13 -18 -14 13 -8 -5 4 18 -24 7 1 31 -4 -11 -4 24 -16 -7 3 -18 -17 -2 4 3 -10 -21 -33 -4 9 1 -16 6 -21 3 3 -6 10 -6 3 -5 -2 11 6 -16 15 -6 6 3 6 3 8 -3 -23 11 -4 -17 -3 8 5 -7 2 21 18 3 -14 -1 -11 10 -19 2 -10 -10 25 -11 3 2 17 -14 -17 10 -21 3 15 -17 -4 11 7 3 -13 -11 24 3 -3 3 3 13 -13 24 -7 -29 13 21 5 1 3 17 -12 3 -14 -7 10 -10 6 14 3 -3 -14 13 -7 4 -4 -10 -18 -1 -16 3 7 -1 -13 7 -9 13 -3 15 -8 -1 -9 7 -11 10 -3 6 9 7 7 -19 21 34 -9 -6 3 14 -8 -7 14 14 7 25 -10 -8 -3 -12 8 -31 -30 -20 -12 3 1 -21 -3 10 -20 -8 20 7 9 7 -12 -3 24 -4 -7 -19 -8 -4 3 -3 -14 5 -2 2 0 3 4 -4 14 -6 27 -13 3 8 -9 -23 -4 -12 21 1 6 3 -8 8 -3 2 17 -10 -1 -10 -1 7 -1 -3 -4 1 -4 3 -29 9 7 9 -14 -18 7 16 -16 -3 -10 -14 -10 -18 -13 -4 17 -7 -5 -5 15 -4 4 -7 -7 -3 11 7 -5 -4 4 -1 22 35 -1 -6 -3 1 5 7 5 -16 -3 14 -7 -6 -12 8 -17 -13 6 -2 -9 -7 17 -14 -3 -3 18 3 -5 12 -11 6 18 -22 -7 7 -24 6 -23 6 0 -10 -13 7 20 -15 -16 17 3 9 -4 3 -12 27 -26 -10 19 14 7 7 -15 9 13 20 12 15 3 -6 1 19 24 -13 18 -21 -4 7 -10 -5 7 -5 -21 -10 11 -14 -9 9 4 10 -14 -3 -7 -6 -18 8 2 -6 10 8 -3 -1 7 -5 1 -9 -9 16 7 5 12 13 -2 9 -7 -18 -15 28 7 -13 -11 -8 -6 5 -6 14 9 21 9 3 3 -5 16 -3 -7 14 14 -3 11 -1 5 -6 -21 4 24 -22 -10 -30 -6 -6 -17 0 -11 4 -6 -13 -18 -17 -37 7 -7 18 11 -15 7 -3 -4 10 -10 -9 10 -14 -8 -8 7 -5 -8 -16 3 -5 8 -7 -3 -24 4 -10 2 17 10 -20 -8 1 -3 -6 20 2 -7 -13 5 17 13 7 13 14 -15 1 -21 8 -16 6 -7 11 -18 -4 15 9 1 -10 -19 -3 -4 -3 29 -4 3 5 -6 2 18 -1 4 -13 3 -3 -7 9 -3 2 -10 -7 10 -7 -7 -28 -4 11 18 -6 -6 -4 8 -4 -1 6 4 -12 28 6 24 7 -5 -14 5 7 7 -5 15 3 -3 -14 12 -14 -7 -18 -7 -2 -24 -8 13 -14 3 -7 15 5 -11 8 -14 -6 -1 -6 -18 -4 7 -41 -8 -4 -10 3 -13 10 -14 -25 -5 -7 -9 11 3 -5 -6 -12 -3 -6 -3 -21 3 -10 1 -14 7 -19 18 -12 -4 7 -6 13 6 10 -1 -10 -27 19 11 -10 1 -15 -6 -3 11 -21 -7 -21 -3 24 -6 -19 -9 -12 3 -2 -7 6 1 3 -5 7 17 -7 -6 3 -26 7 -1 1 -34 15 -25 -10 -15 13 -12 -4 -6 -5 2 -5 -11 -10 -26 3 -6 -5 2 7 -4 -14 -14 -8 3 17 16 17 -6 -14 -2 -3 35 -26 -31 -5 -4 -4 2 -3 -11 3 -11 14 6 -9 20 8 3 5 6 2 -10 -3 -17 11 17 -10 -3 4 -6 4 28 4 10 -15 3 -31 8 7 21 7 14 10 -24 -3 21 -20 -9 3 9 3 16 -29 -14 14 10 7 3 8 2 15 4 -1 -6 8 1 -14 -17 -11 6 3 19 9 5 -1 -8 5 -18 12 5 26 7 3 5 -4 7 4 -15 -3 17 -21 -21 7 -17 -3 3 -28 -4 3 -18 8 3 6 3 -3 19 -11 10 -6 -15 8 5 1 13 -2 3 -22 8 30 -7 35 -12 -12 7 2 -5 16 10 -18 8 15 -27 6 1 -13 3 -7 7 2 14 -8 -9 9 -5 7 -5 -3 -3 -10 4 -1 11 -1 3 -3 -9 8 -3 -3 6 -13 -19 -20 14 -3 -8 9 -3 -32 -5 -1 -2 16 -4 -9 -5 25 -12 3 -23 23 4 -14 -14 12 -3 -7 13 -3 9 -12 -4 -12 2 0 -2 -9 18 3 -22 -22 -7 -3 -3 -14 11 13 -1 -14 23 -6 3 -10 15 -5 -28 11 -31 10 21 5 -14 3 -4 -7 7 8 -15 -31 -20 -21 6 26 -2 -17 -4 6 -35 -2 14 -8 -1 -3 18 5 -21 -5 13 1 6 15 -5 -3 19 1 6 -5 14 -18 1 -1 3 3 -7 -17 -14 -17 3 11 14 5 3 6 -1 -21 -3 -7 6 -14 1 -7 7 -22 -12 -20 25 -7 -17 6 -27 13 -21 -6 11 -9 9 -8 4 -6 9 2 -25 5 -3 20 3 -12 11 -3 -17 -3 -7 -19 -9 -11 -14 -4 4 8 -14 -3 11 7 17 -18 8 -14 2 -3 14 6 -17 -21 7 -17 -4 -3 -8 7 -9 3 -41 30 -14 6 -17 -4 -5 6 9 -4 3 -7 8 -13 20 -3 -6 11 -24 -12 -13 9 -13 -27 28 5 -11 -24 -10 19 6 3 -18 -8 -12 17 17 -2 -10 -6 -6 -18 -7 7 -6 -4 11 9 -16 -14 9 -3 -13 -3 -5 -17 3 -9 -4 -11 3 -11 -10 -17 5 -27 6 14 3 10 2 -4 -18 17 -2 11 13 1 -6 -8 -6 -16 10 21 -26 -15 7 -7 10 -12 -18 -11 -6 -1 9 -6 -29 20 -3 -14 -6 -3 -17 8 -2 22 -14 3 16 7 -3 7 3 -23 7 -3 -3 4 4 -5 14 3 -5 -7 21 11 10 -11 18 3 5 -7 -3 -27 3 4 -30 -17 1 -11 5 -15 -3 -26 -3 16 6 -20 21 -10 -3 19 14 14 4 -7 7 -16 -3 2 -3 -10 -23 1 13 -9 -7 7 -7 -12 -11 28 -17 6 -13 6 -10 -11 8 -3 -28 -11 -9 16 -14 -2 -5 3 -1 10 12 11 23 -15 -7 9 -20 -33 4 3 -31 -6 7 -7 2 10 0 -9 -7 -9 11 -7 -3 -3 -6 7 -21 3 -10 -3 18 -4 7 20 -20 3 24 20 -8 -5 6 -5 3 -8 9 -1 -3 3 9 6 7 5 16 -9 -19 7 -10 -7 3 -20 -12 -3 2 8 7 17 22 30 -13 7 2 -17 -16 20 8 4 -4 -18 19 -5 -6 3 -6 7 2 -16 13 -2 6 10 -4 -4 34 14 -13 8 -3 1 -5 10 3 -13 -22 -12 -5 -7 -14 -10 18 -14 15 6 14 29 8 10 25 -21 25 9 -10 4 -14 -16 11 4 -3 -3 -10 -10 -7 3 12 7 -1 -2 -1 -6 -21 1 -10 6 -2 -3 -3 1 13 10 -22 -9 -3 -8 18 13 -17 -6 -8 8 -13 9 -15 -13 -12 13 -6 3 4 -14 6 -8 -14 13 -10 -5 -21 3 -15 -6 -3 -7 30 -13 -2 10 -13 -1 23 4 14 -19 0 -7 9 7 -7 7 -21 3 -3 11 -25 -3 -8 3 3 3 -4 -4 -17 -8 4 -10 3 9 1 -18 9 -7 -18 -17 -24 -7 12 -21 -27 15 3 7 -31 -20 -3 -12 3 -15 4 -9 3 -18 -3 3 -14 3 -4 -25 -5 -17 7 -5 7 -11 -14 -3 1 -31 6 5 -28 -20 32 11 7 -7 -3 -25 3 -7 -2 14 -16 -14 -10 -4 18 -27 10 -2 -3 -7 -24 25 7 8 -6 3 -19 9 -2 1 5 -4 -12 -6 -10 -10 5 -3 12 -1 -5 -3 14 -13 8 10 -4 -6 20 -5 -27 9 19 -7 -28 -5 -1 -8 7 4 -7 6 -23 -16 -27 -3 10 21 2 22 16 3 -2 21 -5 13 4 6 -6 -10 -21 -14 11 -20 15 -10 -10 7 6 3 3 2 -11 -20 10 -14 -13 6 -5 8 7 -14 -6 6 -11 11 -11 -11 -17 6 11 -3 9 -3 -18 -24 -7 -8 -12 6 -12 5 -3 -4 3 13 8 -7 -3 -2 -4 -3 10 -3 8 10 20 -3 32 -10 0 17 -2 -3 -47 17 0 -10 -3 -11 -14 -7 -11 17 -17 -16 -14 9 20 -11 -14 -5 -2 -8 2 7 -4 14 3 10 -1 -22 -14 13 -27 -3 25 -6 -31 -10 -7 1 -10 -3 14 -16 7 -17 -12 3 -1 -15 -18 -2 -6 -6 -16 -3 -17 21 18 -31 10 15 -5 -14 5 15 -24 7 -7 -6 3 -11 28 -13 6 38 -14 -20 -21 -7 -17 13 -31 -3 -4 -1 -24 -14 -3 -14 3 10 -4 2 -1 -3 -15 -10 -16 -12 -4 5 5 -3 -3 7 -7 -5 -10 7 -10 -6 -7 -18 20 -2 5 -23 -4 7 0 -7 -1 2 -7 -17 -25 -7 12 13 -14 35 -4 -4 -5 -4 5 -10 -7 11 -25 5 -3 12 13 -2 -2 -10 -13 6 -9 -4 10 10 -15 -3 4 -14 3 4 -13 -8 15 -11 -3 -22 14 10 4 -4 7 -21 14 -8 5 4 -9 -10 -6 3 -5 3 4 7 14 12 14 33 -9 -7 -4 -14 -13 8 -3 -34 4 4 -19 -17 -7 7 -9 -9 -25 -15 1 -5 -4 3 1 -3 10 -20 -14 -17 7 -14 3 20 3 23 -10 -17 6 9 13 -17 -13 -7 3 3 -5 23 -4 -1 -14 -15 -10 -23 32 11 -13 -11 -22 -3 3 -31 7 3 0 11 -14 -10 7 -5 2 -21 -5 -4 -20 2 -17 -7 -4 -10 3 -18 -12 -3 -7 -1 14 -14 -21 -19 23 -2 -6 6 3 -14 -5 -10 8 -6 10 -9 3 11 -21 -12 12 -6 -14 6 -17 -2 4 13 7 -6 9 -18 4 -26 -3 2 3 -25 -3 -4 -26 -2 -1 -10 -3 7 -11 5 -3 4 -6 -10 -3 8 -3 3 3 16 -6 -7 -15 -3 -2 -1 2 13 -5 13 -20 -19 -9 -27 17 -5 -36 -3 -31 -13 -4 -1 -3 20 -8 17 20 -16 -11 -4 -6 -3 13 -4 6 7 -5 -2 -5 -3 -3 -15 3 -10 -3 7 0 -3 -1 6 -1 -15 -24 -9 -5 -3 1 -2 5 3 -7 15 4 27 -21 17 3 -13 -1 14 -2 -3 -7 -20 7 -3 -5 -17 7</t>
+  </si>
+  <si>
+    <t>JSB(1.3024809122679546, 4.5114391982572695, -43.16847851394449, 193.77871283309415)</t>
+  </si>
+  <si>
+    <t>40 41 51 34 64 32 38 44 39 34 44 26 45 50 44 34 27 34 41 53 29 32 41 47 47 42 37 48 55 42 39 52 44 51 38 48 34 31 44 43 47 52 23 30 29 41 53 40 40 49 50 33 37 33 41 44 42 43 39 36 54 48 50 22 39 45 54 30 47 47 66 43 28 29 26 55 46 35 36 72 37 54 44 36 57 43 50 57 45 55 31 33 27 48 24 40 36 29 41 44 28 36 40 36 45 33 32 31 48 43 26 29 47 37 45 46 57 32 28 44 16 37 19 51 45 52 36 50 55 42 43 43 39 37 40 29 45 53 37 31 40 27 42 37 30 32 44 34 43 47 25 37 30 51 28 29 33 28 57 37 47 39 36 48 24 45 37 44 27 46 29 48 32 37 53 44 33 31 31 35 30 44 29 34 47 27 48 35 40 44 38 41 37 34 37 20 55 24 46 43 48 45 30 52 43 40 54 14 48 43 51 37 44 31 55 37 48 41 37 31 44 31 36 23 58 30 48 52 31 47 55 53 48 36 37 34 35 43 32 29 37 33 45 30 43 37 44 40 50 54 25 38 40 19 49 33 61 45 44 45 50 33 44 30 30 55 65 27 57 58 32 53 44 39 40 39 55 39 56 44 41 44 33 29 37 51 34 28 26 37 28 49 31 40 19 51 54 44 38 50 45 29 34 37 32 41 33 29 37 37 41 18 45 37 44 29 28 45 35 32 59 37 41 33 34 55 23 37 43 44 45 30 26 37 39 36 43 12 33 12 19 40 51 47 62 39 68 53 47 30 26 43 38 51 48 31 43 50 35 32 47 52 32 44 35 38 43 35 35 44 16 59 55 27 23 57 23 23 55 29 34 43 34 51 58 29 48 41 29 29 34 39 40 16 56 45 36 22 35 42 35 55 24 45 49 51 36 21 38 48 41 47 48 66 57 47 45 41 33 40 29 26 43 27 44 52 34 51 23 37 30 57 27 53 29 36 24 46 34 63 40 41 57 46 36 40 22 44 19 52 47 32 63 48 40 39 22 45 38 58 37 28 59 40 37 24 19 49 58 28 36 51 44 33 41 39 30 22 53 47 30 47 35 38 36 28 27 50 26 41 51 40 23 41 32 37 47 51 69 41 34 37 44 29 32 56 25 33 27 40 34 36 76 37 56 35 35 33 51 60 43 40 36 19 44 35 32 38 32 48 40 55 42 28 33 35 51 33 39 48 45 51 33 63 47 50 43 48 40 42 36 48 46 43 42 35 43 44 41 43 38 57 36 43 35 57 47 36 59 27 47 38 49 25 30 40 43 44 41 47 57 31 48 40 16 40 36 19 48 49 37 28 43 49 45 37 51 45 44 20 30 23 44 62 34 38 30 51 68 44 41 40 30 37 52 38 43 19 40 40 30 45 33 26 33 51 33 37 36 40 49 49 36 29 37 40 49 31 39 33 43 28 46 48 40 45 46 43 22 20 47 51 29 45 46 23 39 21 34 41 33 47 30 55 54 31 43 51 29 43 47 38 29 20 25 42 54 36 46 42 59 36 28 37 37 29 47 34 36 17 42 43 54 27 47 47 50 44 45 38 52 33 44 44 30 53 45 38 52 52 19 30 63 58 66 28 42 39 27 32 40 30 28 33 41 45 48 20 22 37 33 26 19 49 35 54 32 40 39 37 27 51 29 46 25 38 75 46 34 55 42 33 26 57 37 30 50 41 38 41 13 56 36 33 22 40 53 49 22 47 55 29 47 39 23 23 22 55 51 46 49 37 38 47 36 40 41 58 31 42 40 29 53 38 40 49 47 23 42 44 51 38 42 45 40 19 43 38 26 62 36 59 37 32 37 44 45 39 66 30 16 51 29 55 60 35 41 46 22 53 29 30 33 31 30 55 30 67 54 43 40 43 69 37 29 29 20 35 34 36 44 31 46 36 25 35 54 31 45 37 29 45 47 38 45 23 22 40 26 30 40 51 37 34 34 26 47 45 33 43 60 27 43 25 38 58 40 39 19 57 69 34 32 64 34 37 44 35 39 35 33 58 62 28 32 46 44 38 58 31 37 40 45 47 43 37 37 9 44 45 47 59 34 44 49 47 48 29 44 33 33 50 41 33 33 36 37 31 47 43 44 47 55 31 59 50 30 20 39 40 42 35 37 35 62 48 55 38 44 36 45 45 42 54 35 35 35 50 51 33 19 47 37 43 20 37 34 28 39 24 47 37 32 45 33 25 34 45 45 32 40 49 41 54 39 51 32 37 47 38 40 37 37 30 52 59 37 44 53 41 48 37 52 33 37 38 42 32 53 37 26 36 34 51 27 68 30 67 29 44 37 44 49 43 33 54 38 44 36 39 26 47 36 53 42 26 49 42 19 17 55 13 42 22 43 38 33 30 47 40 54 37 29 46 22 55 47 34 43 49 34 41 36 16 48 34 28 37 44 25 34 41 33 27 37 43 24 38 61 33 41 40 34 37 23 41 37 61 18 58 26 51 50 30 54 36 38 48 31 41 36 48 47 37 51 45 46 33 55 29 27 40 45 38 22 52 38 52 41 36 34 48 52 51 16 30 30 52 23 57 40 23 42 37 42 52 19 46 45 30 30 50 37 37 59 30 43 29 43 36 47 65 51 57 47 41 43 45 23 40 48 46 54 34 36 24 40 38 22 38 39 33 27 37 43 36 51 69 44 45 41 42 50 32 27 45 32 19 48 38 47 41 27 48 37 40 20 42 41 40 51 16 16 45 43 54 46 51 29 41 50 49 38 37 62 51 51 61 56 33 45 47 48 36 44 45 32 61 41 36 23 38 26 64 49 33 46 29 34 36 37 34 24 28 52 42 44 34 39 31 36 43 31 30 38 59 43 43 37 53 38 37 60 26 51 47 44 26 27 20 34 30 33 28 32 32 40 27 33 51 40 47 40 54 34 52 55 44 61 45 41 44 16 35 39 41 32 33 37 46 41 41 56 31 44 31 42 41 33 50 38 65 51 40 37 45 47 50 7 47 52 34 46 29 37 30 43 47 41 41 45 41 37 48 45 22 48 55 41 34 16 40 36 32 48 27 49 46 56 24 56 47 49 37 40 51 48 57 23 51 46 41 33 35 34 30 46 27 26 36 31 44 57 29 55 37 38 53 40 34 42 33 48 36 57 40 53 29 41 25 23 26 37 41 42 26 24 13 47 32 39 66 26 35 58 34 22 35 44 60 53 45 30 48 61 44 40 26 48 37 27 41 52 51 23 30 42 37 30 42 37 24 58 46 44 55 40 34 36 36 36 49 42 42 40 37 87 49 52 37 48 53 39 57 41 33 51 43 34 44 52 40 26 45 31 56 40 46 34 62 34 37 56 48 37 27 36 37 33 23 43 52 37 36 33 53 31 39 36 47 33 12 36 37 52 50 35 43 41 36 44 19 40 52 45 53 36 30 41 29 31 37 29 37 26 44 52 40 43 45 35 40 30 43 59 50 50 40 41 48 40 42 29 55 34 40 58 34 34 51 32 16 26 40 30 49 47 27 30 24 33 49 33 48 37 49 30 41 37 73 30 23 39 43 33 36 35 37 47 49 33 34 44 30 40 32 30 46 51 42 23 51 41 48 46 30 41 63 66 43 40 60 48 57 36 58 29 37 55 26 48 42 37 45 30 36 18 31 33 38 24 51 35 44 30 37 48 20 32 42 27 33 40 37 34 44 36 42 39 40 41 37 37 39 21 46 58 55 58 39 41 15 51 43 40 46 33 36 49 55 33 43 37 51 42 50 62 44 31 40 45 41 64 37 44 34 37 47 54 37 38 44 43 29 37 40 29 35 54 28 30 40 37 43 37 30 54 51 40 26 27 45 53 37 47 31 40 64 31 55 51 45 30 36 34 16 45 34 40 27 52 51 35 33 33 41 33 36 41 33 23 43 21 27 44 34 33 51 51 39 36 30 55 33 18 30 43 27 35 49 23 52 37 37 59 39 23 22 28 66 47 40 26 45 51 49 24 46 31 38 41 56 40 38 30 43 47 36 37 24 40 61 47 41 29 25 32 43 48 54 36 23 38 51 29 27 27 38 23 48 23 36 40 39 31 36 33 43 37 33 41 37 41 45 34 40 29 26 36 48 30 35 23 45 36 34 35 62 28 41 23 46 23 37 34 56 48 48 49 52 55 37 29 27 23 46 34 57 39 37 54 47 37 17 37 45 28 29 34 38 40 51 44 34 47 49 39 36 44 41 21 64 53 26 48 53 31 45 26 23 34 40 54 30 52 35 40 41 41 48 57 52 29 44 48 30 29 36 52 45 41 30 26 33 39 16 49 46 35 37 26 32 48 25 19 45 45 53 39 56 30 47 55 52 54 60 25 26 29 48 38 55 37 34 37 32 49 51 35 31 30 40 34 32 32 40 57 36 33 38 37 47 27 43 39 36 50 47 44 51 34 46 29 47 27 48 58 61 36 44 52 41 31 40 42 52 42 49 28 53 59 27 15 46 35 32 27 43 59 26 40 58 54 30 26 62 53 55 43 31 34 30 54 57 44 37 43 40 40 52 49 73 46 45 37 37 48 42 33 29 50 43 32 35 41 37 46 35 42 27 41 49 27 22 31 31 47 40 30 48 51 45 47 35 30 26 45 46 29 43 40 61 31 43 16 36 33 59 33 39 30 37 55 27 33 45 34 30 31 32 37 30 43 36 37 25 48 43 33 62 45 28 33 36 60 59 22 41 54 51 50 37 36 47 38 49 38 37 60 43 44 18 35 50 47 40 34 33 44 37 38 45 29 37 58 35 32 37 31 31 29 37 40 40 50 47 33 48 33 50 53 42 41 38 30 50 59 36 43 26 43 33 52 49 30 48 37 45 47 41 50 29 43 20 51 39 34 23 34 42 30 33 44 44 19 16 50 43 53 48 19 37 43 30 23 16 47 19 26 31 55 51 29 27 59 40 40 48 36 37 25 47 41 41 44 30 40 26 38 34 47 30 34 31 44 49 30 39 26 37 32 54 33 40 48 44 26 42 38 38 30 19 47 49 52 39 39 10 21 47 45 27 33 44 33 23 43 60 41 37 44 43 36 52 62 52 44 57 38 43 48 58 29 29 38 27 15 39 48 51 31 55 57 30 33 44 44 27 49 31 44 53 23 53 31 33 37 47 51 51 48 51 23 48 47 32 46 33 29 55 33 47 30 36 22 53 29 30 21 48 37 43 44 41 31 40 40 39 26 36 61 27 38 34 45 33 43 48 47 59 47 29 41 23 37 48 48 49 20 42 48 53 39 36 30 42 44 38 27 40 47 41 44 57 51 37 40 41 40 26 47 40 49 45 48 34 51 39 24 41 37 23 60 42 41 53 71 52 37 50 43 45 36 44 51 20 31 33 39 40 46 40 37 53 38 36 51 31 33 33 45 25 36 41 33 36 44 33 37 27 60 44 23 33 18 37 62 43 40 21 47 51 45 36 49 51 29 31 65 49 40 48 22 35 47 24 54 33 47 53 58 38 59 48 33 45 51 51 52 44 41 40 47 30 39 46 20 34 50 31 51 24 33 33 30 34 47 38 52 59 41 30 49 43 46 55 29 22 49 32 39 36 20 33 45 22 29 37 44 44 45 47 38 27 45 43 40 38 30 45 34 40 41 19 33 37 48 45 51 38 37 34 45 45 55 53 48 40 43 38 44 62 52 32 54 33 33 36 45 37 59 30 43 41 27 32 38 46 54 57 30 45 37 47 49 40 57 33 32 38 47 32 29 37 44 45 33 19 43 47 51 46 40 55 48 30 52 56 44 51 24 23 43 40 50 31 52 22 27 55 37 39 44 17 38 33 38 41 37 47 52 41 37 45 43 27 39 38 37 38 50 29 43 33 13 53 55 41 41 37 32 24 33 40 26 44 57 41 35 37 51 33 37 45 43 32 27 43 50 37 44 39 55 25 39 47 55 47 48 61 73 41 40 34 26 34 30 45 44 40 50 39 29 51 41 46 30 37 42 31 56 47 65 46 35 43 51 41 37 43 51 36 44 33 27 37 33 54 49 55 40 44 49 29 40 51 27 44 39 41 47 52 53 22 45 23 27 45 37 70 43 43 62 17 37 21 51 51 40 23 34 37 47 48 35 30 47 48 38 43 37 40 23 40 37 34 35 33 43 44 47 51 59 38 27 20 30 42 62 76 37 33 43 36 41 30 33 48 18 30 30 19 43 54 37 61 37 51 53 33 37 43 54 61 34 23 36 48 31 36 43 51 29 41 49 40 45 39 49 34 51 44 30 57 39 23 52 39 41 37 49 31 41 36 30 44 44 34 42 34 37 23 40 26 65 32 48 42 37 45 45 33 47 51 44 44 51 45 47 41 29 34 22 51 50 42 31 41 46 33 51 34 60 45 42 37 39 29 50 44 23 40 45 40 51 48 54 42 26 59 39 51 27 24 26 9 37 37 39 41 34 38 43 55 62 58 58 39 52 34 54 41 40 31 26 41 38 30 38 30 39 50 25 52 26 52 43 34 45 41 38 48 33 48 39 41 41 65 47 50 37 45 51 58 36 26 28 37 26 36 51 43 52 43 38 52 43 60 40 48 35 38 30 40 40 51 60 51 37 39 51 35 38 33 35 27 37 44 47 36 20 41 30 37 28 51 34 42 22 40 31 34 41 47 29 20 39 37 31 51 31 30 50 29 32 38 35 23 33 19 49 20 30 44 54 41 44 37 52 19 57 37 60 41 63 33 36 43 42 37 40 33 46 44 54 24 48 30 35 37 37 66 43 41 25 41 45 66 22 53 41 46 48 41 42 37 33 53 33 49 34 36 34 48 54 40 51 38 27 51 27 30 51 35 40 39 51 48 43 45 30 30 49 64 42 43 38 36 45 52 50 41 29 54 31 51 41 40 42 48 29 31 52 26 37 45 45 48 41 41 54 42 57 41 46 40 42 40 48 46 37 61 47 31 51 45 40 15 38 31 23 31 38 41 34 37 29 33 35 43 51 32 33 37 41 38 36 43 40 45 32 38 32 33 18 33 31 30 53 24 49 33 26 35 46 40 42 29 45 44 40 42 34 47 42 55 55 54 48 34 34 44 41 33 63 52 55 47 46 32 34 48 29 39 35 36 61 44 46 40 22 37 51 43 34 31 30 50 29 40 30 56 31 16 44 43 41 29 45 52 40 26 47 17 20 23 27 44 33 24 51 45 37 37 43 30 48 56 26 52 54 47 30 62 60 35 49 37 53 42 12 37 32 40 46 31 40 44 39 58 57 37 50 43 46 29 39 49 56 45 19 42 48 40 24 33 52 41 39 42 9 46 33 52 30 45 30 44 39 46 43 46 48 54 35 26 48 53 29 32 23 34 44 30 27 40 48 31 15 37 30 48 45 40 55 33 33 48 27 28 54 66 15 39 56 38 37 27 34 43 33 51 59 37 48 38 47 45 27 46 30 43 42 53 52 23 37 37 51 24 52 29 26 47 37 41 28 53 23 45 37 53 51 44 33 44 30 29 29 36 52 52 37 46 32 35 10 29 50 24 20 46 34 44 36 29 29 26 24 30 45 33 48 23 47 59 80 50 53 43 34 43 37 49 23 34 14 41 35 63 48 26 29 42 51 43 36 44 24 43 26 48 56 33 52 37 37 34 45 57 31 42 41 54 26 36 43 48 30 34 23 19 46 27 51 46 45 36 40 33 48 39 42 48 43 30 44 34 49 52 20 37 41 65 47 33 20 26 43 45 41 31 34 29 29 45 38 48 48 42 24 42 49 65 44 40 41 38 33 31 42 34 46 36 39 47 22 23 68 43 49 52 38 37 40 54 23 58 45 65 29 43 48 41 37 44 43 30 30 46 59 31 40 62 44 52 43 40 64 37 39 39 21 53 33 48 38 38 25 38 32 37 31 41 44 32 39 27 16 38 44 59 24 26 39 54 43 58 49 24 41 37 19 48 54 63 47 30 37 45 49 58 44 49 38 43 43 36 44 37 55 46 31 42 54 37 51 52 29 51 42 37 34 27 43 48 55 54 29 27 51 44 34 45 45 52 58 33 43 25 58 37 35 30 19 37 37 39 72 60 53 35 37 24 33 29 39 33 40 37 66 24 36 37 40 33 46 33 45 24 30 40 43 23 28 45 36 64 34 30 45 37 48 46 57 34 38 40 57 54 51 33 34 39 45 33 30 40 37 30 43 43 31 28 20 46 16 29 44 57 23 46 48 67 43 48 48 36 28 37 54 41 38 45 43 13 27 30 47 37 55 29 26 44 30 37 51 29 41 57 43 42 44 59 41 49 45 39 31 35 41 50 39 45 38 25 37 25 42 36 35 43 23 44 30 51 46 46 51 44 37 38 41 33 45 31 46 57 40 47 36 31 48 44 34 39 20 35 49 34 47 32 32 43 43 50 56 47 16 37 15 26 45 54 30 37 58 30 34 23 54 43 46 48 79 51 22 45 59 55 45 47 40 47 37 41 51 34 52 36 49 44 27 54 29 54 41 55 44 31 38 33 31 28 34 45 41 26 34 31 33 36 31 38 43 37 57 40 43 25 44 38 44 31 44 42 42 48 51 42 76 30 40 45 34 41 45 44 61 30 48 41 41 27 36 53 41 43 24 53 33 45 38 36 50 32 39 51 26 45 40 26 34 59 29 50 41 51 52 61 35 42 39 32 44 46 41 34 46 33 28 51 44 37 32 37 48 39 31 62 26 26 40 45 44 50 52 31 20 34 44 29 29 31 32 45 63 44 43 57 54 29 22 40 39 43 39 54 43 40 45 41 23 43 29 35 41 33 30 24 40 38 41 29 48 40 15 53 48 23 27 38 38 43 30 37 37 29 57 33 57 47 44 27 56 36 25 41 29 27 49 35 27 30 44 41 44 55 36 24 54 37 41 37 22 32 36 44 42 27 40 43 34 47 47 36 43 43 37 45 35 44 34 42 52 31 30 40 66 44 52 42 43 16 42 51 37 45 39 16 41 57 59 44 36 62 49 43 23 32 36 25 33 61 31 63 48 48 31 39 51 37 45 25 45 27 32 30 27 44 52 36 52 27 36 43 61 54 55 30 46 40 45 36 31 46 16 37 36 23 51 40 41 63 39 33 54 36 53 37 30 27 37 40 34 37 29 54 54 51 60 48 46 49 19 40 20 35 36 41 42 41 38 52 36 46 34 36 16 59 13 49 35 37 31 24 49 35 41 27 41 34 44 36 36 37 52 36 37 51 58 44 44 52 28 27 51 34 15 29 16 29 27 34 40 59 36 57 36 37 54 26 23 48 47 52 57 44 30 40 53 35 30 37 46 37 37 39 56 41 48 50 56 43 60 41 30 54 30 25 36 23 48 37 41 33 31 34 43 36 27 41 36 45 29 22 37 43 43 29 41 43 34 30 43 40 50 56 43 32 32 41 51 41 44 38 27 34 42 22 35 29 41 51 40 28 29 47 32 54 68 48 45 58 48 26 26 37 54 57 37 47 32 30 46 42 31 40 40 29 23 41 39 20 50 48 47 53 42 54 50 36 47 36 54 40 38 59 47 42 35 35 53 40 58 45 41 43 30 19 32 26 42 37 40 35 45 50 41 33 48 33 43 48 49 33 33 16 54 38 25 22 39 31 65 37 46 65 59 22 47 39 36 41 40 37 28 32 22 36 53 42 34 38 38 31 35 27 34 37 23 26 37 42 44 46 42 30 43 39 44 42 42 30 49 51 26 60 24 33 51 50 37 35 37 36 35 51 44 24 56 48 16 27 37 34 55 27 26 52 35 37 27 26 57 44 33 33 40 31 59 48 37 42 51 41 22 13 44 19 41 44 44 44 39 52 44 24 49 50 47 40 35 45 33 45 24 33 37 28 44 49 34 44 27 34 52 45 9 43 61 28 41 37 33 49 42 48 61 59 50 37 61 34 42 50 54 29 44 29 55 57 43 27 44 41 54 49 43 34 30 45 37 28 34 34 35 43 24 42 42 51 51 43 38 52 41 37 26 58 26 37 35 41 43 39 22 54 43 46 36 69 25 40 46 37 41 60 34 29 25 34 51 25 50 38 36 44 31 46 31 56 55 46 42 22 40 36 29 40 32 37 54 28 26 45 37 36 37 40 37 38 41 33 39 54 51 57 46 27 40 53 27 50 23 46 47 34 41 46 43 16 50 48 30 37 50 30 37 40 52 53 40 40 23 44 55 43 27 36 30 29 43 51 22 33 23 51 34 23 52 27 42 49 43 51 46 50 40 39 44 46 40 22 24 28 33 56 32 61 26 30 29 46 45 51 45 52 48 44 47 29 63 35 31 37 48 49 47 26 26 40 21 50 43 43 45 35 37 37 29 40 63 36 41 45 31 44 55 47 49 38 39 52 41 38 39 41 45 45 54 25 37 55 33 50 40 39 34 37 50 30 40 58 37 33 35 43 40 35 45 58 36 27 30 27 43 37 47 47 52 36 33 33 58 47 39 54 16 29 36 27 45 26 54 36 16 27 57 42 50 26 54 27 29 30 53 50 37 32 43 41 33 36 46 52 42 43 44 47 45 40 65 46 65 48 45 38 37 41 38 55 20 37 34 30 34 65 40 50 36 26 49 39 37 34 45 37 39 51 49 31 37 44 17 39 41 31 64 22 33 23 40 29 33 35 31 29 41 44 26 46 42 62 27 54 41 44 49 41 22 34 33 57 43 35 39 41 33 33 30 33 21 51 25 43 70 38 45 46 43 33 30 36 46 56 18 51 47 46 33 35 23 55 38 51 47 26 30 49 26 27 40 35 31 54 20 34 47 26 52 40 37 39 23 43 37 38 50 33 37 37 52 34 16 46 35 30 43 45 58 26 31 44 38 55 37 42 50 32 32 31 58 52 57 44 41 45 55 38 43 37 39 24 36 39 49 44 44 47 53 45 33 27 32 53 27 37 52 50 46 20 34 44 31 23 31 33 40 44 42 38 51 45 31 60 52 52 40 40 49 27 47 51 65 45 42 23 27 44 26 34 51 43 57 34 47 36 56 44 42 35 37 37 55 41 43 27 35 41 55 23 55 41 48 33 43 24 47 39 35 58 29 34 28 27 38 37 25 37 32 44 51 37 41 40 19 55 34 36 40 49 27 22 30 43 39 34 39 26 37 36 43 43 45 50 48 56 50 33 46 38 52 48 51 47 45 26 33 37 58 37 26 32 37 25 46 30 37 49 41 29 42 51 27 34 21 26 23 36 49 71 37 54 30 46 55 57 47 35 33 46 34 40 37 48 37 36 33 19 23 23 36 57 23 46 48 48 28 53 25 45 31 47 45 47 47 47 44 45 35 48 42 33 40 47 46 41 34 41 35 47 33 47 28 23 23 30 35 40 31 51 30 44 23 46 33 38 51 48 39 37 41 39 44 48 39 36 16 23 28 63 26 58 18 32 47 51 52 40 37 37 52 40 51 30 47 32 35 37 48 45 39 43 20 29 45 30 62 52 48 41 48 35 48 23 55 42 54 49 41 42 38 39 31 27 36 44 33 40 60 62 47 29 39 27 40 50 37 55 22 37 26 34 53 44 47 16 36 37 44 37 33 36 34 42 30 38 32 34 38 45 51 47 26 33 45 30 58 51 52 33 35 45 53 32 33 48 53 52 31 51 32 55 42 22 46 38 33 37 39 37 28 29 47 25 47 49 21 34 44 36 51 36 47 35 40 53 41 25 45 23 37 33 27 27 30 44 38 26 39 50 22 41 26 20 44 42 38 30 20 46 40 56 43 41 31 41 37 40 57 34 44 33 26 50 61 46 32 19 41 16 39 50 45 28 63 25 40 19 34 37 43 40 35 30 55 38 48 48 37 57 48 44 52 44 36 41 39 26 57 57 47 13 43 50 53 37 46 38 23 52 44 31 37 33 40 40 33 29 44 47 28 38 26 29 41 26 40 39 34 47 44 43 44 25 47 40 58 38 72 44 48 50 54 20 48 51 17 42 46 35 32 43 62 48 39 42 38 54 33 27 47 52 45 40 36 27 34 46 39 23 46 43 30 57 26 45 29 56 56 45 43 54 48 33 22 44 65 37 44 56 35 13 49 39 65 31 25 35 50 51 37 58 30 58 43 26 52 36 27 37 45 39 30 44 47 24 35 36 49 40 53 30 44 57 49 23 42 24 25 50 43 40 37 46 41 43 28 44 41 36 19 43 55 25 30 40 48 30 46 47 29 41 27 43 40 43 36 40 37 23 25 34 48 35 34 42 54 63 46 27 30 49 51 36 50 26 34 23 56 57 29 45 45 45 47 51 58 61 37 34 55 27 40 43 44 43 45 51 47 37 51 35 41 40 31 33 51 37 59 34 27 32 48 54 33 54 33 30 22 43 41 47 51 54 44 46 47 50 36 33 49 24 43 40 51 16 50 26 46 37 19 46 41 52 59 65 37 40 33 51 45 29 50 43 30 47 42 41 31 53 53 44 58 55 30 27 22 34 43 44 43 44 23 40 50 34 49 38 36 54 22 43 47 46 31 23 29 34 47 47 51 45 39 33 30 48 29 53 37 36 50 38 31 41 45 37 43 36 38 45 49 40 58 37 47 41 43 26 33 28 45 33 44 54 46 20 41 34 51 27 38 48 37 36 30 22 23 51 48 23 50 36 56 56 57 52 47 51 38 50 25 36 30 35 49 55 35 61 27 26 34 29 33 43 37 33 51 34 32 43 47 33 27 28 31 26 20 58 38 41 44 30 50 32 42 49 37 43 33 36 48 51 50 34 48 48 33 45 33 59 45 47 43 27 44 21 41 56 42 35 55 41 31 37 37 52 30 51 40 45 40 37 40 36 43 54 34 36 37 39 37 22 48 27 44 65 21 41 44 45 44 41 39 16 48 43 44 36 37 38 20 35 52 38 13 39 48 49 35 52 52 36 65 45 47 36 19 43 41 44 51 16 29 35 36 44 28 46 51 24 25 46 48 53 49 34 22 36 35 35 49 26 25 27 32 62 60 47 48 30 37 27 61 49 48 41 34 27 29 36 37 51 43 27 47 46 74 56 40 30 51 52 51 62 30 51 42 41 31 30 51 44 33 41 23 48 48 33 48 35 43 50 58 40 9 49 65 40 37 33 24 44 51 26 41 46 25 27 34 40 45 34 37 41 33 44 37 51 49 29 38 50 44 37 38 37 42 51 32 40 26 45 34 53 45 54 48 37 51 50 62 34 36 29 39 57 64 37 40 37 48 40 37 57 43 38 36 45 38 24 34 45 23 44 50 33 37 28 37 37 53 37 45 33 48 65 66 33 27 40 41 44 45 30 30 55 65 61 35 44 48 44 29 32 30 54 35 41 23 44 37 47 30 49 34 19 34 41 45 43 47 34 46 47 44 43 37 36 39 41 47 48 45 41 39 50 37 52 29 33 36 47 20 43 62 33 43 44 29 37 35 28 50 33 37 37 44 40 50 34 54 40 40 37 55 33 41 41 42 37 50 33 37 48 37 37 35 33 39 33 57 25 23 26 49 37 45 30 36 65 40 29 57 36 42 42 40 41 65 25 33 37 33 51 37 48 38 46 55 30 36 37 33 54 36 34 59 37 29 41 32 51 27 36 33 45 45 38 16 36 33 28 41 41 40 29 41 33 45 63 19 41 39 30 63 51 27 37 42 22 30 45 49 48 43 58 43 41 22 55 51 50 44 36 50 41 37 44 58 53 33 48 33 49 51 37 53 54 45 36 53 37 34 22 36 53 39 25 38 53 29 52 25 54 37 23 49 40 43 37 25 41 33 51 57 39 41 64 44 43 34 41 53 26 33 26 56 37 48 30 35 30 34 50 56 34 36 32 37 45 19 44 34 25 35 33 51 56 44 30 41 32 54 33 43 34 40 45 45 48 27 40 44 40 47 43 13 45 43 44 32 27 41 57 39 23 45 54 51 36 41 26 38 52 60 31 49 40 40 43 20 37 48 52 32 59 37 58 38 48 29 49 16 40 23 33 41 36 51 23 32 20 48 53 37 46 65 39 37 43 26 28 33 16 42 51 35 37 44 44 45 46 35 40 53 29 37 37 39 31 51 29 26 38 37 33 50 33 38 38 44 30 47 41 49 49 35 37 47 47 57 51 54 36 32 27 52 31 44 52 38 41 53 16 27 39 51 30 31 26 51 25 51 29 25 57 38 44 29 51 51 60 30 56 32 36 47 40 34 32 44 48 41 30 51 34 29 29 51 28 51 25 37 41 30 60 40 40 40 56 53 43 43 37 45 51 55 41 44 51 26 50 39 42 41 45 41 30 38 43 40 37 30 37 33 18 47 55 35 37 43 46 40 33 30 37 40 30 38 40 29 36 27 56 32 35 62 27 36 53 47 35 26 46 26 29 47 34 52 44 35 35 35 40 55 47 33 32 19 45 45 31 36 41 54 52 46 34 15 51 30 37 51 43 49 54 37 49 34 22 32 52 41 45 32 33 37 44 51 40 27 59 25 58 29 33 27 22 43 37 57 31 43 45 47 42 35 47 34 46 43 31 51 60 41 41 23 35 36 26 38 32 61 30 32 52 30 38 41 37 51 51 55 44 23 50 29 41 57 23 42 45 37 41 30 27 22 65 40 27 36 60 55 37 43 59 38 31 62 41 45 50 41 51 40 29 41 32 46 50 42 33 45 51 31 57 57 50 43 40 49 37 48 45 29 34 28 48 47 40 37 37 50 27 37 37 51 65 30 54 44 38 40 30 23 38 51 39 25 47 29 54 47 35 47 32 47 47 50 33 41 22 49 41 36 48 43 54 34 35 30 33 40 27 41 44 51 39 47 54 35 37 46 22 40 44 54 36 48 57 52 30 44 43 45 47 48 13 47 30 47 37 33 48 46 36 59 54 37 58 37 38 47 40 50 31 31 39 33 56 29 51 49 47 28 28 43 48 45 37 57 37 49 33 48 69 51 38 30 49 23 41 41 42 30 54 27 40 27 52 42 31 40 37 49 42 39 71 33 55 34 41 39 40 36 35 32 33 43 40 20 48 38 41 43 33 50 26 43 51 17 46 30 38 47 37 36 41 37 41 20 29 40 36 17 39 20 33 45 36 37 39 30 20 47 39 38 26 38 47 16 40 42 43 37 39 66 36 47 39 50 47 48 35 44 47 38 19 45 36 38 63 57 25 40 39 24 33 30 43 48 29 29 47 26 36 19 45 37 34 53 40 46 52 45 32 35 40 30 48 57 51 41 37 26 44 41 38 40 44 30 25 32 41 37 36 43 52 50 37 41 39 66 49 50 47 30 54 13 33 43 25 50 48 27 55 64 38 31 13 40 43 49 34 23 34 19 29 52 12 38 51 26 51 52 40 36 45 30 55 30 37 40 33 33 51 50 52 20 32 29 33 33 38 48 41 30 48 29 55 34 19 33 59 44 45 27 36 41 59 40 16 51 32 42 30 41 40 44 27 33 41 31 30 51 28 51 50 37 33 39 41 29 36 37 37 62 44 37 48 43 38 26 29 45 30 15 49 40 34 37 50 30 42 32 37 26 53 48 49 56 37 44 55 43 40 47 34 53 37 45 51 25 30 53 41 23 37 27 29 43 67 36 58 62 42 40 49 39 31 29 34 38 43 36 31 35 38 51 31 48 41 42 28 45 54 30 36 30 50 41 41 45 27 30 45 23 51 30 53 17 46 33 33 38 44 37 33 58 24 43 33 30 41 35 54 13 30 51 50 44 41 17 20 27 37 50 44 29 37 37 30 32 29 55 65 56 37 44 47 40 43 33 32 26 33 35 56 26 51 47 32 54 32 49 51 47 47 32 48 49 19 40 51 40 51 39 47 40 23 51 61 40 66 46 44 42 27 33 40 36 44 37 42 65 37 23 37 40 35 44 36 39 29 38 44 30 47 43 41 46 33 40 62 41 35 40 37 31 54 26 30 16 32 41 16 52 37 37 53 39 47 51 37 53 42 30 55 23 45 40 57 54 43 41 47 40 53 25 45 37 59 61 28 45 24 58 58 25 38 41 36 51 28 57 47 52 26 33 33 40 37 56 15 34 37 36 33 46 67 37 28 33 37 56 27 54 27 36 44 43 58 50 54 39 55 46 40 35 41 13 22 30 27 57 23 23 38 38 37 51 42 43 26 50 46 43 35 46 38 79 52 52 34 26 45 40 59 32 41 34 63 42 44 54 55 56 55 44 39 48 29 46 22 51 29 26 24 41 51 32 43 38 58 41 30 38 51 16 37 40 36 46 31 60 39 43 40 26 40 37 44 49 55 20 37 59 42 44 57 45 23 24 54 28 30 51 41 26 50 27 41 51 51 37 35 50 47 34 37 44 37 16 33 43 47 37 25 29 62 42 56 51 52 31 38 29 20 23 57 43 20 45 34 35 39 38 43 39 44 45 51 32 33 34 51 35 44 29 45 30 31 42 43 31 47 37 35 50 66 37 61 39 23 45 42 39 37 39 24 30 33 26 43 19 50 52 31 37 51 34 41 53 16 34 59 39 26 47 37 53 48 36 32 38 25 27 27 59 41 52 46 28 48 34 43 34 29 29 51 40 25 50 38 27 54 39 55 63 58 50 41 49 32 30 43 27 37 46 34 61 37 55 57 42 48 42 24 33 32 62 38 30 23 64 40 29 33 46 23 37 36 29 48 33 33 37 57 41 43 36 47 46 36 37 26 38 33 30 34 39 40 57 51 47 41 31 29 40 49 50 33 53 40 37 32 35 26 35 44 39 34 34 39 48 47 29 65 30 53 37 48 58 51 51 35 37 32 52 54 36 29 34 37 51 51 37 30 52 44 27 29 37 37 50 49 32 40 41 47 58 26 37 19 52 43 44 63 24 34 39 32 34 42 34 52 45 61 41 48 50 48 40 43 44 44 44 34 34 51 48 23 31 54 56 45 30 26 44 40 60 38 43 47 53 39 32 13 41 30 41 23 51 47 26 47 30 47 55 40 29 37 43 25 54 39 30 48 33 44 54 51 47 53 54 37 33 33 41 43 36 37 32 50 46 38 20 35 38 44 48 59 40 39 40 39 43 62 58 51 44 22 24 16 55 22 23 27 54 41 31 47 33 33 50 30 30 45 56 51 49 44 26 39 40 46 33 31 36 46 36 52 15 42 32 42 37 22 56 31 13 41 31 32 48 44 40 44 39 50 51 40 13 49 31 48 30 43 26 49 58 52 39 41 49 27 22 30 46 37 20 40 52 40 37 46 40 49 40 33 51 30 59 16 45 40 40 23 44 36 46 48 49 44 47 41 44 37 52 29 40 33 43 55 32 48 34 23 47 82 45 30 29 22 41 22 29 40 23 38 41 37 31 57 30 35 36 39 42 34 40 55 45 40 43 43 28 51 36 47 51 73 49 34 53 35 44 59 41 35 41 20 41 47 61 55 45 34 44 33 48 47 27 23 61 35 16 44 36 43 30 43 34 57 37 47 57 44 33 59 45 54 48 28 48 34 48 39 35 49 39 30 51 27 43 52 40 37 50 43 35 43 24 33 31 30 39 43 45 34 41 27 54 44 50 48 45 28 16 44 44 24 45 31 29 28 37 64 47 48 29 34 55 41 51 42 59 41 44 61 51 55 48 30 39 16 33 49 39 63 34 41 22 54 33 52 35 48 41 34 60 47 50 48 52 44 33 49 45 51 32 38 54 42 31 38 29 46 38 26 50 53 48 41 35 33 50 26 39 34 40 40 53 56 30 65 23 33 23 41 29 24 47 56 36 46 34 43 42 50 51 35 48 55 32 38 35 41 39 30 50 40 35 47 49 47 32 57 35 38 37 49 23 33 40 43 63 37 36 48 29 37 44 40 43 32 33 33 19 34 49 43 67 45 33 48 29 46 40 40 46 40 36 34 49 51 37 41 45 53 30 38 57 23 45 50 35 46 41 57 28 51 41 44 29 41 19 33 37 41 24 51 38 53 27 40 37 65 37 39 40 38 37 20 44 35 56 33 37 47 44 54 43 55 59 45 22 59 54 46 34 44 37 39 10 49 58 40 47 40 57 29 45 37 33 37 34 41 49 45 23 30 47 47 57 59 54 43 37 38 33 34 36 53 47 30 62 31 29 45 53 34 65 44 44 26 54 41 44 37 57 37 32 52 25 46 37 27 36 48 27 54 51 44 38 66 49 47 45 64 37 30 36 32 47 51 38 37 50 38 37 44 47 57 16 47 35 30 20 47 23 37 48 38 26 57 39 52 51 34 38 35 40 48 37 26 29 58 37 53 51 44 57 37 48 61 41 26 33 30 43 42 35 51 24 49 58 36 24 57 43 37 28 37 62 45 28 47 37 47 53 36 59 41 15 49 51 44 23 53 43 43 39 67 24 33 41 55 59 39 19 43 49 58 43 40 31 36 56 46 46 53 51 34 47 27 30 36 44 38 27 30 43 33 25 33 69 33 41 45 55 40 49 59 33 31 36 51 40 37 19 39 53 47 40 33 46 37 26 40 31 54 34 35 37 16 52 43 44 54 45 30 34 42 37 27 53 43 38 46 40 48 27 31 33 34 59 50 22 41 51 34 44 31 31 42 49 26 56 26 17 36 32 56 38 47 25 65 40 45 37 44 32 39 43 68 37 40 26 63 40 53 22 35 44 25 25 35 57 44 41 22 29 55 31 55 31 48 44 35 52 30 23 52 34 36 36 47 58 51 33 33 39 35 36 36 27 47 37 55 33 43 52 36 53 66 47 33 48 37 39 39 41 51 52 45 26 47 40 58 46 45 49 34 34 37 47 53 26 39 43 44 31 47 40 37 36 18 34 33 49 50 34 45 36 32 42 45 27 26 47 16 37 45 29 30 17 60 55 56 36 59 28 49 27 43 57 47 34 54 41 35 40 29 39 30 53 36 47 38 41 30 25 27 29 61 30 29 40 29 25 24 36 54 23 41 34 30 48 26 40 42 20 45 33 21 57 47 9 23 56 33 57 36 47 54 67 27 30 33 48 47 39 17 32 46 43 54 34 35 53 51 59 51 59 22 45 39 32 40 31 37 41 43 40 61 16 36 40 34 44 24 56 51 42 45 30 6 47 30 43 43 27 39 42 43 29 33 43 30 16 30 29 32 42 26 34 55 25 40 30 37 29 34 25 43 44 30 30 36 35 44 20 50 33 37 32 40 30 49 47 33 29 41 41 39 40 47 27 53 68 46 40 41 25 58 36 43 43 41 44 51 45 38 37 61 44 29 59 26 26 38 39 52 53 23 23 27 51 29 50 24 39 30 41 33 40 42 43 52 26 32 50 26 44 49 60 38 40 48 38 44 33 33 20 33 33 35 29 31 27 51 26 24 34 35 38 41 44 38 40 55 42 37 55 55 19 29 52 34 40 33 48 34 30 21 47 40 38 52 43 49 30 34 51 19 33 37 51 43 29 28 42 31 36 53 41 51 36 39 40 33 51 44 26 44 35 48 45 26 24 27 38 49 19 43 30 29 55 48 45 31 41 41 41 51 36 42 51 37 26 37 42 47 40 41 37 23 33 37 51 34 37 44 53 19 25 40 55 37 30 27 33 48 44 54 29 16 35 23 44 42 51 26 29 40 39 22 40 40 34 49 45 44 35 38 48 46 37 49 54 37 47 30 44 34 31 35 43 31 40 40 43 40 20 43 25 40 36 44 67 35 43 49 30 51 36 48 44 40 36 38 51 43 43 54 49 41 13 34 52 54 39 61 46 35 43 35 43 52 51 32 40 36 33 23 24 30 43 44 19 34 40 19 40 51 45 54 43 53 37 35 51 48 49 30 32 45 26 27 17 51 52 33 44 41 25 17 41 39 27 29 57 57 54 44 51 48 34 51 54 45 37 37 59 22 34 41 42 43 41 41 42 29 62 52 60 39 47 44 42 27 38 39 42 44 44 38 39 47 48 41 33 23 33 33 44 54 54 43 35 23 33 31 47 51 16 22 27 37 41 51 57 41 40 43 57 24 33 37 48 54 49 54 41 51 56 23 13 28 48 30 43 57 59 28 29 23 49 30 40 28 38 37 45 47 51 49 40 38 60 30 44 64 45 52 47 36 52 27 37 23 70 31 33 45 42 43 44 35 30 43 39 40 37 37 22 49 41 32 49 28 33 33 46 41 31 48 33 20 56 40 43 36 62 41 28 40 48 63 31 40 33 55 47 41 41 48 47 51 45 37 27 48 43 46 30 47 53 35 43 19 35 48 51 45 29 48 43 43 34 59 39 45 33 32 34 25 55 39 34 44 32 37 47 31 32 33 27 49 40 31 41 37 40 42 34 29 26 43 33 55 34 37 40 43 51 37 31 63 39 43 23 26 22 44 42 42 43 47 49 37 44 40 42 22 45 48 26 45 39 19 29 44 17 54 47 31 31 47 36 32 34 45 38 23 34 43 44 73 41 26 39 34 51 38 43 44 32 47 45 39 47 62 23 25 44 28 25 52 53 58 26 32 35 31 50 30 40 40 44 27 35 24 44 31 29 52 48 37 53 41 37 35 37 29 45 28 23 43 45 38 45 25 33 46 40 35 38 36 30 24 23 44 51 47 43 28 48 32 58 30 55 40 43 55 41 36 44 44 37 28 47 49 40 29 48 37 34 54 43 49 58 54 40 40 39 28 33 65 33 43 37 33 57 37 30 24 33 54 37 51 21 47 37 58 45 44 49 59 55 59 53 37 22 36 37 43 29 49 51 29 50 29 30 34 32 61 36 31 51 70 54 30 27 33 30 45 44 31 36 29 33 27 45 33 41 47 24 51 34 51 62 27 34 38 37 68 31 28 43 43 52 34 56 43 35 55 52 54 23 37 29 53 53 26 57 10 37 49 46 35 31 44 36 26 51 33 47 23 35 57 23 54 49 39 43 30 23 44 58 39 40 26 51 30 48 26 25 32 29 23 32 45 47 41 37 43 48 41 65 44 29 55 27 24 33 23 50 36 37 36 48 35 59 48 36 27 47 30 49 52 34 20 42 44 50 55 37 48 51 34 33 30 44 39 46 48 36 36 44 54 34 27 38 23 43 47 30 49 41 40 26 25 41 34 52 50 54 33 24 34 47 22 44 43 41 43 35 38 36 42 44 51 36 31 45 38 30 47 51 42 61 39 30 27 26 49 53 60 40 36 59 51 39 33 48 54 39 43 48 30 27 37 62 44 48 35 23 49 49 50 41 46 21 24 40 34 34 48 39 44 57 27 23 61 48 31 25 36 41 26 44 19 41 43 56 26 61 42 27 57 55 25 41 47 65 37 43 45 29 60 59 49 45 30 44 37 34 36 44 51 23 43 54 35 41 30 37 58 49 46 55 33 47 31 19 53 62 29 12 59 39 30 35 31 66 37 59 40 45 50 45 35 23 33 23 47 25 34 51 49 45 46 39 40 46 38 43 41 41 31 59 37 49 36 34 30 20 36 22 30 47 30 60 37 35 52 37 41 44 32 53 35 37 38 41 39 16 52 32 44 30 35 23 44 47 37 51 28 41 54 36 36 42 36 49 53 23 25 25 48 47 43 26 41 30 33 32 45 36 33 23 30 41 44 54 44 37 26 27 39 55 58 40 60 52 49 48 57 46 43 44 42 35 34 47 51 38 31 46 36 54 19 32 43 52 33 42 48 46 43 29 43 45 51 32 23 51 45 15 30 38 47 44 44 44 40 37 23 44 29 27 46 41 23 58 38 49 30 37 46 38 54 37 50 24 34 31 40 23 65 37 26 52 29 17 40 41 37 43 45 44 46 23 60 37 48 23 40 38 44 39 38 48 37 60 33 54 34 41 27 23 37 56 31 38 39 27 44 41 40 22 41 53 44 45 33 47 30 36 40 38 40 29 35 47 58 31 36 47 25 46 43 31 36 39 53 40 35 37 56 33 20 44 32 46 33 33 29 25 49 53 24 47 52 46 37 48 51 44 52 30 25 37 47 36 44 52 16 43 51 37 45 41 35 53 44 47 66 54 49 36 32 46 37 49 30 41 34 33 57 34 33 29 43 35 46 55 46 47 30 38 45 36 31 30 33 23 45 33 41 52 47 50 58 38 63 26 49 16 52 24 53 39 50 20 43 22 39 40 27 45 53 54 34 36 38 30 33 33 56 26 51 22 41 44 32 55 47 43 16 33 44 60 40 33 39 27 38 28 41 48 53 34 50 44 49 43 31 35 39 33 57 33 41 37 30 29 25 37 44 46 40 37 39 34 45 40 37 23 44 43 40 59 33 37 33 27 37 45 33 37 36 27 48 47 30 39 58 23 55 27 52 45 57 37 41 43 26 43 42 44 41 37 50 41 37 30 40 44 37 27 66 38 39 44 40 57 41 49 40 40 33 53 37 30 32 46 43 26 47 30 34 34 38 25 37 43 55 44 26 26 50 34 43 50 44 41 41 54 41 24 36 48 45 58 35 45 51 52 44 42 51 44 57 19 37 33 59 30 40 30 51 48 41 39 35 30 40 27 27 23 40 57 60 41 29 27 56 33 45 49 45 39 40 45 57 33 30 33 45 34 20 23 68 22 37 16 40 45 41 44 26 49 47 30 35 37 49 33 37 38 29 27 54 51 39 20 41 29 52 51 43 45 43 54 35 37 63 61 50 27 33 41 51 33 33 34 42 51 41 52 41 37 33 59 27</t>
   </si>
   <si>
     <t>PTS</t>
@@ -102,52 +102,52 @@
     <t>List</t>
   </si>
   <si>
-    <t>EXN(0.5547480626576522, 15.196240323853278, 6.688184771032663)</t>
-  </si>
-  <si>
-    <t>20 12 8 16 35 19 26 7 10 31 24 10 17 31 10 22 20 22 21 27 14 14 26 14 13 17 16 16 20 20 14 24 13 18 23 16 30 7 16 24 23 19 14 6 26 22 28 13 17 11 17 3 3 24 23 17 28 20 17 13 21 11 22 34 26 20 6 26 13 23 3 20 9 7 10 26 10 24 17 23 14 23 34 24 20 10 24 13 13 31 28 7 20 26 14 13 17 17 17 24 7 20 17 18 24 23 20 27 13 39 24 14 20 17 24 20 17 24 20 9 24 20 10 24 16 36 24 20 16 7 13 21 31 24 19 17 10 17 13 27 38 30 17 20 21 14 26 12 10 20 15 15 20 24 14 16 30 21 17 16 14 16 10 28 24 16 14 18 17 14 17 20 20 3 16 10 24 23 6 23 23 20 24 13 17 17 20 17 21 9 20 27 14 16 17 3 7 35 17 10 14 24 26 15 16 20 13 13 21 10 15 21 17 23 11 26 24 13 17 13 9 20 24 19 20 9 15 24 28 41 23 13 30 31 20 14 19 27 22 20 24 20 20 30 13 13 14 7 10 20 10 20 18 10 30 18 9 24 20 20 22 28 17 24 28 20 31 18 30 13 16 16 16 6 20 10 10 24 10 24 13 15 10 24 16 27 24 23 10 13 16 19 22 37 13 16 21 7 10 14 13 23 23 24 15 16 34 14 10 14 17 20 27 20 41 10 9 13 28 3 17 21 13 24 16 35 30 14 13 31 6 10 17 3 13 11 34 27 16 17 22 34 10 13 14 17 18 16 20 13 30 34 7 23 14 20 15 27 30 14 10 45 31 26 10 13 23 10 23 21 16 30 19 27 20 21 10 13 19 10 9 13 27 24 14 30 30 3 6 23 24 26 9 26 15 14 27 10 10 23 27 17 17 21 17 47 13 16 27 7 14 0 6 20 20 10 13 23 26 6 24 15 20 10 22 21 21 27 21 10 8 17 27 27 9 6 18 20 19 14 9 10 21 10 30 24 6 17 28 16 10 27 21 24 13 17 16 32 24 17 3 3 10 10 17 21 28 29 17 22 22 17 27 17 6 3 21 16 6 20 17 21 7 7 10 6 3 10 27 20 17 20 27 9 25 20 26 12 16 20 38 13 3 21 34 30 9 22 27 10 16 15 17 7 7 24 26 20 27 15 13 20 27 7 10 14 21 14 21 17 24 24 21 22 6 22 7 17 17 21 17 16 27 14 17 27 24 7 17 23 10 13 19 27 16 23 17 13 31 10 34 21 23 24 17 33 33 27 17 15 23 27 24 28 6 26 14 17 6 17 17 22 13 9 17 24 21 13 9 28 10 13 20 41 27 26 16 24 20 27 27 16 21 20 12 18 21 16 15 28 31 19 13 30 28 24 9 23 38 23 26 23 17 3 23 27 16 21 12 10 17 19 24 12 14 16 14 14 6 38 17 23 16 33 12 28 13 10 3 27 24 24 24 31 28 21 17 20 16 14 15 35 20 27 16 28 9 18 16 15 13 33 37 14 21 22 13 10 20 17 19 10 0 20 13 16 27 22 13 27 22 19 24 27 24 18 17 8 16 6 31 23 11 13 9 10 20 13 20 20 17 28 16 20 20 20 23 19 17 9 24 17 14 24 17 10 26 19 10 23 13 23 30 23 20 20 14 10 30 20 24 33 9 15 10 16 20 9 15 16 16 30 24 43 24 9 24 24 19 13 7 31 24 9 14 20 12 38 21 22 22 21 21 28 24 21 15 24 40 19 21 33 12 26 12 24 14 31 13 34 15 13 8 24 3 11 33 14 9 7 20 17 31 16 33 7 20 13 27 23 10 12 36 9 10 26 16 31 10 9 7 22 24 21 30 19 23 9 23 22 17 16 13 24 17 16 21 13 31 17 7 17 7 13 37 17 6 34 7 10 6 20 23 10 17 20 13 19 16 13 21 21 6 20 30 16 16 28 27 14 17 20 17 27 19 14 30 12 10 11 20 13 20 6 14 28 44 17 14 10 35 20 23 6 31 38 14 17 12 6 9 23 24 16 32 27 27 24 27 20 31 6 26 14 9 30 34 37 20 41 17 14 13 7 13 13 14 30 22 24 15 23 20 23 10 20 7 10 17 33 21 27 17 27 24 16 14 17 16 26 14 17 12 15 23 17 7 9 44 18 33 28 34 15 14 27 24 20 14 15 20 20 3 20 44 17 6 8 23 23 23 23 33 26 10 19 17 17 13 27 22 37 28 16 17 30 10 17 13 27 11 14 17 10 16 17 24 6 14 23 20 30 10 14 26 28 16 24 30 21 24 17 23 17 17 17 14 23 17 7 21 13 23 16 9 23 12 17 12 7 17 17 29 18 6 20 22 21 13 17 23 21 24 6 17 17 24 8 26 11 17 27 16 9 13 20 27 20 31 20 25 23 22 19 14 23 13 34 13 28 21 21 17 22 31 17 29 21 7 20 11 7 9 16 29 0 23 7 19 13 17 30 21 18 16 9 34 21 14 23 14 24 18 24 17 14 27 7 32 19 31 13 22 22 17 13 26 20 12 20 26 28 9 18 12 10 13 24 24 17 14 44 20 21 21 17 21 10 10 28 7 13 23 18 25 10 13 34 23 19 13 10 13 33 3 17 21 17 17 17 14 20 18 10 13 13 34 24 24 20 14 24 20 13 23 10 0 17 24 19 20 23 13 20 35 17 11 18 13 7 27 32 25 14 10 10 14 10 32 17 17 10 6 14 13 13 13 16 13 9 10 23 6 13 27 18 17 13 30 23 21 27 22 24 27 14 17 16 13 13 17 20 23 19 17 16 24 16 17 17 31 21 10 26 23 12 27 17 20 34 21 18 24 30 23 10 30 16 17 17 15 7 15 24 7 17 25 17 20 25 16 6 31 16 20 24 27 16 21 17 18 27 23 17 19 24 17 6 34 14 24 41 17 24 21 12 17 15 12 13 16 17 17 13 24 15 7 41 24 27 14 36 7 26 39 16 35 7 17 13 22 21 7 12 30 17 14 33 24 20 28 17 25 27 16 24 17 17 21 3 34 16 16 31 36 7 14 31 19 9 24 27 22 13 20 21 14 33 6 16 34 13 17 24 6 27 24 13 9 24 24 7 19 17 22 27 27 34 14 21 28 38 20 25 16 19 27 14 13 9 12 20 24 10 24 34 16 31 3 34 21 10 13 22 3 23 15 17 3 31 7 28 12 24 24 14 24 19 9 9 10 20 28 14 24 34 8 21 27 17 6 16 7 30 24 9 11 16 17 13 27 22 9 19 12 13 28 6 30 26 27 29 27 13 22 21 20 34 28 25 24 13 22 17 13 24 20 6 27 24 9 20 14 12 10 23 17 6 10 30 24 8 20 23 21 37 23 10 7 11 17 16 10 25 22 24 38 13 27 31 13 12 17 13 7 10 20 24 13 12 6 14 15 44 3 17 24 16 22 10 20 17 27 20 28 14 6 13 10 47 21 10 20 19 17 21 27 9 10 7 6 24 17 19 9 10 21 12 17 22 21 14 16 24 31 20 16 18 3 26 34 29 17 6 20 7 27 20 31 29 7 41 17 42 14 18 16 26 27 13 30 34 16 16 27 24 34 20 17 18 21 21 22 30 26 23 20 20 20 20 20 20 6 13 16 23 26 29 24 10 23 13 10 3 23 13 21 20 32 10 24 14 14 17 10 13 6 17 30 13 35 23 24 19 17 17 13 17 10 21 24 26 10 28 23 14 16 38 17 27 13 6 29 7 31 10 27 7 27 10 16 6 20 17 33 23 14 24 6 17 7 28 21 10 23 12 17 21 23 26 10 21 17 16 24 14 22 21 14 10 12 35 17 16 17 26 19 21 27 28 14 23 17 21 25 27 27 19 26 23 17 20 25 12 31 21 30 10 40 13 34 14 16 12 0 13 34 13 13 38 29 20 16 19 22 17 13 13 31 9 23 11 16 18 23 17 7 11 14 24 14 31 27 7 18 34 20 16 17 7 24 23 11 17 12 21 21 20 17 8 37 30 16 10 14 12 24 10 20 17 10 20 18 17 14 13 17 7 27 7 3 26 19 19 23 13 17 24 8 20 9 24 16 13 6 27 19 31 24 27 21 10 24 18 19 13 7 18 16 13 22 17 10 10 0 6 24 31 19 21 24 27 17 14 19 27 7 28 23 23 24 22 20 20 20 13 24 10 24 31 29 13 20 3 20 10 27 9 7 24 21 17 7 13 21 8 30 17 27 14 19 13 21 30 38 19 6 23 17 22 13 21 20 27 23 21 0 17 6 10 19 7 16 23 17 21 20 24 15 9 20 20 12 31 22 3 20 20 19 24 17 31 17 21 22 9 17 13 13 12 31 17 38 14 17 0 22 10 17 0 17 20 14 7 24 18 20 20 3 7 30 24 3 27 7 26 32 25 13 10 24 13 26 27 9 30 21 24 24 28 37 18 21 20 7 6 12 10 16 14 9 30 17 24 24 26 9 10 26 27 13 14 24 7 19 13 10 38 13 24 17 23 21 25 17 17 21 13 24 20 10 19 13 20 21 20 21 3 14 14 18 21 24 24 26 10 17 16 7 21 24 17 27 27 29 13 10 13 17 10 13 13 19 31 14 3 26 24 16 6 21 16 29 33 13 7 14 7 24 24 14 27 10 11 16 29 21 3 22 13 7 9 13 16 19 17 13 28 9 3 14 22 21 21 16 7 41 20 19 10 28 20 24 27 7 28 24 20 17 13 14 19 13 6 14 16 14 13 28 27 6 26 34 21 24 19 20 13 34 19 6 6 23 16 21 24 23 23 16 24 17 16 21 20 7 23 21 6 24 3 14 24 21 7 17 29 20 3 10 17 10 17 20 23 14 26 14 27 14 24 21 21 13 13 27 24 19 30 30 24 20 13 21 20 27 27 21 24 13 17 13 9 13 10 6 17 13 19 5 28 21 24 11 17 24 14 31 6 19 24 9 27 14 6 17 10 20 20 17 7 31 16 12 14 21 21 6 18 23 24 24 17 17 20 23 21 12 31 24 10 17 14 21 23 17 22 21 35 10 10 19 16 13 9 7 34 27 9 22 17 14 23 27 9 20 26 31 14 23 15 24 24 13 13 20 24 20 23 38 13 17 16 24 18 20 13 24 17 17 14 24 28 10 7 24 27 20 41 13 13 27 21 10 21 27 27 26 21 20 13 20 13 38 24 16 17 7 16 34 21 14 21 31 31 29 28 24 27 28 27 21 16 27 17 19 10 6 17 17 32 9 13 17 28 23 9 13 7 16 23 9 30 10 10 17 14 14 13 24 30 20 10 30 27 20 16 20 17 24 12 23 7 20 11 3 27 17 23 31 24 13 20 16 20 20 17 20 16 23 19 23 22 20 22 13 37 19 10 23 23 3 10 25 17 9 27 24 7 16 13 14 20 10 17 8 34 7 6 7 20 24 3 10 10 17 20 22 10 26 14 29 27 26 16 14 17 21 17 41 28 9 40 16 27 20 15 24 7 28 10 13 19 19 17 20 17 23 35 26 24 27 17 23 10 17 6 14 19 34 24 10 17 3 19 20 24 14 9 34 13 35 20 27 17 26 10 16 9 16 20 3 27 14 34 6 13 28 18 34 20 24 10 19 23 11 19 14 40 20 22 9 6 15 28 24 7 30 17 21 24 22 7 21 16 26 6 18 13 3 16 13 6 16 24 14 25 20 17 24 19 13 13 13 13 15 10 25 30 21 17 20 12 14 12 16 10 6 19 24 3 34 27 14 13 17 10 17 12 34 20 16 23 23 13 37 13 20 16 24 15 18 6 24 10 16 12 21 6 31 14 17 20 23 12 14 22 21 9 14 13 3 21 15 10 23 29 14 20 24 20 23 17 23 7 13 28 13 19 16 9 17 16 17 16 25 28 13 6 13 37 14 19 17 24 15 31 16 14 14 20 27 21 34 27 14 20 27 14 27 31 24 23 20 24 28 15 21 23 15 19 24 3 13 14 23 10 21 23 25 20 20 20 24 20 24 36 12 22 27 10 24 16 5 17 10 26 20 27 37 6 13 14 35 26 17 23 16 6 21 13 20 24 17 16 27 17 7 22 23 7 13 10 21 12 20 28 27 13 31 28 31 17 17 24 22 17 8 20 22 28 36 16 15 13 20 23 21 24 20 26 30 23 19 20 7 20 25 10 12 21 31 27 31 34 23 12 7 23 20 10 16 16 13 23 24 18 23 27 13 6 20 17 30 27 11 24 33 17 31 17 27 20 24 13 16 12 21 31 21 41 33 20 13 14 17 27 13 20 31 24 23 20 16 18 25 12 20 38 21 21 24 31 33 27 14 24 29 26 27 17 12 12 13 20 23 22 17 20 14 13 17 27 21 31 20 14 14 22 17 27 10 31 0 17 23 26 17 23 17 20 16 3 28 17 6 13 20 27 17 24 24 31 13 18 13 21 9 14 31 20 35 16 27 34 16 24 13 19 9 27 13 19 10 31 14 21 31 14 22 20 13 20 21 14 14 24 17 17 13 25 15 19 23 12 17 27 24 23 21 17 19 19 23 20 28 13 34 15 25 21 24 27 28 19 24 13 17 10 6 23 15 17 13 20 24 31 6 22 14 17 6 36 11 19 0 31 6 12 9 17 17 23 17 21 28 25 21 28 17 20 16 21 27 17 28 20 38 7 24 9 16 13 27 24 20 24 19 30 20 28 20 29 6 10 29 7 13 17 27 6 21 30 14 13 7 20 13 21 3 24 28 13 24 17 16 23 24 38 7 13 21 27 17 23 29 30 11 13 19 16 14 27 17 21 26 25 31 22 21 9 13 13 10 3 30 10 25 17 19 40 6 24 17 17 16 10 10 27 27 17 31 9 30 18 21 17 13 28 10 22 24 26 9 21 28 20 21 13 20 16 17 18 13 22 20 23 20 19 19 27 13 24 15 13 17 11 21 12 10 26 24 19 13 14 14 10 17 21 23 9 24 34 20 22 25 16 21 17 27 13 20 10 14 16 17 18 38 10 34 6 16 9 23 23 17 17 15 14 17 35 17 17 26 27 10 20 9 22 28 38 16 6 15 19 20 24 23 27 24 21 30 3 10 19 17 17 26 13 26 32 24 17 6 20 38 10 27 27 20 23 14 10 38 10 24 13 7 27 23 20 20 15 10 17 10 19 24 6 14 20 15 32 22 16 14 31 27 6 19 24 14 24 28 17 17 14 28 21 10 17 24 3 7 27 17 24 27 19 14 20 30 31 13 21 31 23 21 10 38 31 24 23 3 27 17 24 12 3 20 17 30 17 24 30 23 30 20 28 19 30 27 25 17 14 16 6 40 28 20 28 3 28 20 14 7 19 30 27 17 25 14 27 13 17 17 10 27 14 22 21 14 17 20 10 22 16 10 20 7 28 17 18 28 41 19 10 23 17 7 26 17 27 24 20 22 24 7 23 24 0 6 13 24 19 28 9 9 24 10 28 10 31 10 7 9 21 14 26 14 3 20 25 21 7 17 21 27 10 20 11 14 17 21 14 16 28 18 34 27 23 24 26 20 36 34 27 22 14 19 21 19 22 13 13 21 7 14 30 24 10 7 7 13 27 20 21 23 20 25 22 30 17 28 9 13 17 17 28 19 20 28 21 3 13 15 24 10 6 13 24 21 25 12 23 8 31 18 16 28 3 20 19 22 13 29 21 10 19 21 6 17 27 10 20 10 23 21 17 37 25 23 23 13 16 22 6 17 27 17 20 6 14 10 14 27 7 26 20 18 7 28 13 12 20 17 13 16 20 3 10 34 21 16 14 21 37 34 24 26 17 10 26 13 22 13 14 14 8 17 16 34 24 24 10 13 23 19 17 35 21 24 23 6 28 6 21 17 16 22 27 22 31 14 13 30 14 13 21 23 38 17 23 28 30 16 29 27 24 17 23 10 17 3 15 13 37 34 31 16 34 27 24 16 19 23 19 17 22 20 21 10 21 24 23 7 28 24 20 12 25 20 24 13 32 25 16 8 12 14 27 34 24 27 17 33 6 23 6 13 36 21 38 21 17 3 34 17 12 32 25 14 30 32 21 13 28 25 23 20 20 21 10 13 21 19 19 7 17 17 22 21 6 17 21 17 9 13 19 3 13 32 10 16 17 17 14 13 16 3 13 31 21 13 16 17 12 27 13 7 15 13 13 6 21 24 24 16 10 23 20 13 20 33 23 21 7 19 13 3 8 24 23 20 14 10 23 36 20 17 9 13 38 14 28 24 20 10 12 16 24 31 27 22 16 20 21 17 24 27 7 23 21 17 31 22 24 12 34 14 13 14 13 35 23 2 14 20 14 20 16 17 16 21 23 20 7 17 20 13 27 20 21 30 17 24 24 7 10 19 21 24 3 23 24 21 14 10 24 35 7 21 24 30 24 29 21 10 7 10 14 11 27 13 10 28 24 23 16 3 23 21 22 7 17 20 16 20 12 23 14 24 20 13 17 14 12 29 17 13 17 14 19 13 10 25 9 24 6 16 17 17 19 23 20 22 31 10 20 28 27 3 21 21 10 20 13 27 18 7 10 17 25 23 17 20 10 22 17 24 37 15 9 24 22 17 20 13 9 26 9 27 14 14 17 6 31 41 12 24 10 31 23 24 14 34 14 28 45 10 20 14 7 24 30 28 20 21 28 17 13 14 12 3 12 6 26 21 16 15 24 10 14 23 27 23 14 21 14 14 33 22 28 27 7 15 13 3 23 31 30 35 20 14 21 19 24 25 16 27 22 21 32 20 17 24 35 6 27 24 3 13 3 19 14 23 28 28 14 21 10 27 24 40 45 33 29 10 13 10 26 18 17 21 16 20 0 14 12 23 18 19 13 20 3 33 7 21 7 7 20 20 31 21 10 19 28 14 17 7 18 13 14 11 33 21 27 15 23 3 17 25 17 21 30 10 21 28 20 27 17 24 27 15 14 33 16 23 17 26 20 24 24 22 24 27 30 17 17 22 18 20 21 27 20 13 24 17 21 20 25 20 13 13 16 26 17 24 31 31 23 17 21 27 23 23 19 13 21 31 21 13 21 11 37 28 3 12 13 20 13 23 20 27 27 16 12 17 23 27 20 16 10 10 20 29 16 20 31 10 20 10 15 7 15 23 17 14 16 16 17 20 24 16 34 19 23 6 24 22 22 13 17 12 44 17 17 3 23 17 22 16 6 20 22 23 9 25 13 6 17 6 20 6 24 17 23 24 14 21 17 31 20 7 9 16 7 38 16 23 10 13 11 10 10 24 16 10 20 17 27 13 20 17 10 16 16 16 23 20 23 23 24 23 19 33 17 21 20 17 24 10 20 16 31 10 10 30 10 8 9 10 27 20 19 24 15 10 21 10 24 30 10 23 27 13 24 17 14 17 19 30 16 23 20 25 21 9 24 13 17 20 23 10 17 17 27 15 17 20 23 10 19 20 3 26 17 10 28 22 10 21 10 20 16 13 14 17 15 31 6 20 17 20 27 28 17 24 20 20 8 24 27 30 17 15 21 17 31 16 21 34 28 10 25 13 3 10 14 0 14 26 23 6 17 13 14 26 24 42 7 19 13 17 20 20 6 13 34 30 10 16 19 11 17 17 19 13 35 14 20 19 3 17 27 30 21 15 23 18 16 23 9 14 9 27 21 26 9 31 15 17 24 20 24 6 20 26 23 13 26 31 35 13 27 24 24 16 13 24 29 20 14 21 23 23 9 24 21 25 37 14 13 29 21 27 23 23 24 23 24 23 24 24 28 13 7 19 14 19 9 13 9 27 13 17 20 13 16 20 23 3 24 11 21 9 30 27 31 28 20 10 6 10 21 17 10 10 37 24 27 20 21 10 20 16 7 30 22 10 23 29 30 29 26 16 19 20 10 20 14 24 23 31 17 10 16 17 16 10 24 20 25 17 23 11 14 19 24 7 13 16 23 20 22 24 19 6 31 30 23 13 13 16 20 20 37 27 12 10 14 18 17 20 10 31 27 16 24 35 19 20 33 26 20 28 14 17 12 27 12 23 20 6 21 25 24 16 34 12 13 16 14 21 27 18 23 3 13 17 20 32 6 10 7 21 10 16 25 23 19 27 24 24 27 14 14 7 24 16 12 27 21 14 21 19 7 17 9 35 27 22 28 17 13 7 23 16 14 13 16 31 18 15 21 10 3 26 27 9 27 31 26 21 24 10 20 25 17 31 35 12 17 10 12 17 21 23 13 15 23 16 7 10 24 20 12 21 20 14 19 9 22 13 24 22 29 10 10 21 17 12 17 7 6 17 20 3 31 27 24 10 24 17 3 20 21 22 7 14 14 13 23 6 23 17 16 38 27 21 8 10 17 20 23 30 17 23 21 31 13 34 24 9 17 18 21 10 24 17 13 10 17 35 6 19 20 3 21 14 22 28 17 10 17 27 10 17 15 19 14 10 19 21 20 10 18 23 21 13 37 20 9 24 30 27 0 10 15 24 27 35 7 16 28 24 13 21 8 24 23 21 19 17 24 10 35 21 20 13 18 20 26 31 30 14 17 24 23 27 23 15 20 14 6 13 21 27 34 10 16 12 15 3 27 20 23 3 10 17 23 15 34 23 13 12 21 27 31 20 20 27 26 24 14 11 21 30 10 10 20 13 21 21 21 20 27 15 23 16 17 20 9 20 23 12 38 24 30 13 7 16 10 10 31 24 23 21 40 26 27 19 3 13 17 9 24 24 23 3 12 0 20 14 14 17 17 13 9 17 7 19 34 10 10 19 21 16 30 14 30 6 24 14 29 10 9 14 27 41 3 17 16 16 21 25 9 24 19 9 24 10 24 20 26 16 13 18 30 10 17 20 10 24 9 30 3 17 33 14 29 17 24 16 3 20 21 13 13 30 21 13 10 33 24 23 6 7 15 17 15 27 21 10 12 7 23 21 20 10 35 23 16 26 30 16 19 31 20 21 31 21 14 23 14 25 13 19 21 20 25 13 27 24 0 17 6 20 16 12 10 15 16 18 20 16 3 21 7 13 24 27 30 17 31 16 20 23 10 23 12 33 6 10 9 17 19 29 17 19 10 21 34 10 20 17 29 21 13 27 17 20 27 20 37 10 27 17 16 20 13 9 13 20 13 27 17 13 16 17 16 17 22 30 29 23 27 17 17 10 0 15 31 26 18 21 15 26 24 9 23 23 20 20 16 6 16 34 17 14 13 13 19 6 13 13 17 10 19 22 14 20 29 16 10 23 10 24 27 25 11 21 23 14 10 20 6 30 16 23 13 6 21 20 19 9 14 20 12 23 9 3 17 16 21 37 23 12 29 24 24 13 13 6 31 28 26 10 17 9 24 9 30 26 17 26 13 31 13 13 21 23 25 24 21 27 3 14 10 12 28 31 21 26 10 6 26 21 16 34 13 24 3 19 20 27 17 10 17 17 9 24 20 20 14 24 20 19 14 10 10 15 16 14 30 16 20 28 28 19 31 12 26 9 10 35 24 23 31 26 17 31 25 23 19 16 27 17 23 13 21 13 20 10 27 17 28 9 16 16 24 11 22 31 23 21 13 27 24 10 27 8 23 20 10 14 13 14 12 31 21 23 17 20 9 32 27 16 30 13 20 16 30 6 19 20 10 10 30 10 30 7 17 14 21 14 27 21 27 15 23 19 29 23 10 10 34 6 6 6 21 20 19 3 13 19 30 16 18 13 24 17 24 7 7 24 17 20 17 27 26 17 23 31 27 17 20 23 21 14 14 17 20 10 20 7 21 15 18 17 21 9 30 24 17 27 20 17 24 20 13 10 12 15 23 31 23 7 17 19 34 20 23 33 17 20 20 15 9 14 30 17 17 23 13 15 10 14 17 30 27 17 23 14 34 17 21 9 22 17 20 23 24 34 13 10 9 23 16 19 27 10 18 17 27 14 26 10 25 23 23 7 14 27 9 41 13 25 30 7 20 30 34 23 17 16 9 15 17 17 24 28 7 27 13 24 6 13 31 10 20 23 23 34 16 24 17 20 6 24 17 14 22 23 6 14 20 24 28 9 20 13 7 16 23 7 10 7 17 42 17 20 14 9 20 14 10 14 30 38 31 23 34 27 30 20 14 17 14 24 20 10 26 23 14 17 27 17 44 30 18 17 21 23 10 16 19 31 21 6 10 37 8 17 6 17 15 19 10 20 21 30 21 24 31 14 23 10 23 7 9 30 16 24 19 17 20 9 13 14 23 18 17 21 17 20 16 16 14 20 20 16 7 24 17 20 17 6 22 17 17 10 15 13 16 20 13 27 17 17 15 14 19 36 31 20 30 27 17 20 24 16 17 3 0 20 24 27 24 14 9 30 23 18 30 24 16 27 20 13 24 17 30 10 24 15 7 30 24 14 21 14 21 41 30 20 19 9 10 30 13 13 34 14 34 28 33 16 34 20 19 31 10 20 10 23 31 23 17 23 17 10 27 27 23 33 17 27 18 23 20 28 21 15 31 38 13 28 7 6 31 13 6 6 14 13 26 20 20 34 19 24 38 27 41 20 7 17 24 24 23 10 13 19 14 6 7 17 12 24 6 21 13 13 14 27 9 20 16 3 27 20 23 24 27 27 11 19 17 13 22 27 12 3 16 15 23 17 20 27 16 34 7 31 0 20 24 19 20 16 35 24 10 33 22 23 21 3 20 13 24 28 23 21 21 35 34 28 24 34 6 14 0 6 10 17 6 35 33 17 13 10 23 10 20 30 10 16 24 20 12 20 20 31 20 10 24 16 13 17 24 24 14 16 9 16 14 17 17 22 20 16 24 19 8 28 37 7 24 19 15 24 20 31 22 13 18 17 26 24 21 10 27 20 28 21 6 13 10 9 29 20 23 27 14 20 34 28 27 37 16 24 20 18 17 24 26 16 14 16 15 27 10 16 17 27 31 28 33 6 17 27 17 32 40 23 27 21 24 31 28 35 16 20 20 13 7 23 13 24 21 28 6 24 23 20 16 26 14 24 9 19 21 24 17 17 23 13 14 7 18 41 8 10 20 14 21 21 16 13 28 10 23 20 12 7 34 17 30 16 20 15 13 10 14 12 17 29 10 20 20 10 24 21 26 17 21 9 41 10 6 11 23 10 20 16 21 26 24 31 30 17 22 0 18 28 17 20 16 24 30 17 10 14 13 27 6 9 12 13 24 17 10 13 10 14 27 24 34 23 19 6 23 32 20 23 24 23 24 9 10 20 19 19 24 29 13 40 27 24 17 14 31 17 16 16 33 19 9 27 20 20 16 24 24 17 16 19 26 28 22 10 19 21 27 10 17 31 13 9 17 23 17 24 24 10 37 11 16 12 13 13 33 20 16 26 17 13 25 17 27 20 38 30 31 17 13 17 30 23 34 16 26 23 6 20 30 15 21 30 28 27 24 17 20 24 25 20 18 10 27 29 14 6 16 16 23 3 13 17 10 20 24 22 24 7 35 17 10 16 3 20 20 24 16 23 26 10 22 23 16 20 18 12 26 20 6 19 29 9 13 24 28 17 21 24 14 17 27 27 26 17 31 6 20 6 20 24 33 20 16 21 21 10 31 24 10 20 13 23 10 25 9 20 24 24 24 24 12 19 25 21 34 23 10 23 13 21 23 24 29 18 17 16 23 24 16 15 17 24 10 20 17 22 24 21 28 15 17 3 3 20 24 23 26 20 20 20 3 14 20 17 14 14 28 30 35 27 22 10 20 14 19 21 16 23 24 28 24 38 20 23 16 35 20 30 23 9 14 21 10 22 16 13 10 23 7 13 27 17 7 13 31 29 3 10 24 20 9 16 18 23 20 13 16 6 19 24 38 11 17 3 7 10 10 23 10 20 25 20 20 22 20 25 24 12 13 7 19 9 13 20 30 13 24 20 17 17 13 19 28 21 9 22 16 15 17 10 19 14 19 30 13 24 16 34 13 22 12 22 21 23 22 15 14 14 10 13 28 17 13 18 10 14 23 30 3 14 6 31 20 19 15 28 17 0 16 23 10 20 33 30 9 0 14 3 14 20 14 9 13 3 20 24 24 7 13 23 20 17 0 38 24 10 13 22 21 9 22 13 9 7 27 13 17 34 24 10 17 12 20 31 34 17 9 17 16 6 30 9 23 20 17 13 19 24 16 22 43 34 13 21 16 20 38 28 20 13 31 17 23 22 9 23 10 35 20 17 24 21 26 14 20 17 17 22 20 19 20 27 11 21 13 3 13 15 16 17 23 22 17 23 20 13 17 24 26 18 20 16 16 20 16 20 21 14 23 24 17 17 17 17 24 13 9 25 16 36 17 17 17 31 27 26 13 16 7 29 20 25 16 23 16 17 16 14 19 13 27 10 27 37 26 29 20 13 31 6 24 23 28 17 12 13 17 24 41 20 27 23 27 9 23 20 16 16 40 7 31 37 23 10 28 17 7 9 9 13 15 17 23 13 19 21 13 17 26 13 22 20 20 10 16 42 30 29 27 17 6 24 19 7 10 10 13 34 28 7 9 24 23 19 20 24 17 23 7 13 23 35 11 19 0 7 17 31 27 27 17 20 21 16 24 13 29 21 14 11 17 20 8 13 14 3 21 23 13 31 20 17 16 16 20 34 24 17 22 11 10 17 17 13 22 6 9 20 22 25 10 24 10 10 3 20 17 9 24 7 15 24 15 17 10 27 27 3 13 24 24 16 16 17 19 28 20 19 13 19 20 21 27 10 16 35 14 28 19 10 10 24 20 44 3 9 13 6 27 16 10 16 16 20 24 16 7 26 19 13 12 17 14 16 20 20 17 6 30 3 17 33 18 18 35 29 21 14 30 6 16 10 20 20 24 10 24 22 14 16 19 18 29 13 16 27 15 23 13 19 16 24 13 17 21 7 26 25 15 26 9 16 24 24 7 19 16 16 10 24 23 26 24 29 21 27 17 16 27 18 21 9 16 37 14 17 17 27 17 27 23 31 13 21 15 18 34 20 9 20 23 7 18 27 6 12 21 9 30 0 9 24 17 24 18 13 14 23 24 14 8 13 3 16 16 21 20 9 23 0 17 23 21 20 23 24 13 14 7 21 23 26 21 31 13 6 17 16 29 31 6 14 20 20 31 7 22 19 9 21 17 11 19 6 20 24 14 25 21 6 24 16 6 20 13 7 24 9 17 14 30 14 13 6 31 20 29 24 35 16 17 10 14 17 7 13 16 24 17 24 20 16 14 31 13 10 17 26 27 14 17 25 19 23 10 20 17 18 24 14 10 30 14 13 26 31 14 17 13 18 9 17 23 37 23 20 14 11 18 17 6 35 20 17 24 19 35 13 3 24 27 13 28 18 23 23 20 30 16 20 16 18 16 24 28 23 23 14 29 17 24 27 15 19 26 33 24 14 3 6 28 13 16 19 42 16 10 19 24 17 21 31 7 15 10 10 21 10 20 17 24 13 25 13 24 27 21 23 6 17 10 16 27 13 17 21 21 20 19 6 13 10 24 17 27 27 14 10 17 20 27 18 31 24 42 10 20 27 17 21 24 12 17 27 9 31 9 21 10 23 20 28 29 27 23 28 14 31 10 21 35 14 19 16 24 14 26 33 23 7 25 20 10 31 31 10 13 17 20 19 17 24 20 18 27 23 37 17 20 16 30 17 3 20 13 16 20 14 17 13 26 24 17 18 24 17 24 20 27 38 14 22 31 24 20 21 14 13 6 17 17 27 23 14 28 31 24 24 17 7 17 16 17 20 20 7 9 3 20 6 12 24 19 21 30 14 22 19 23 16 17 15 14 6 16 30 24 20 3 28 24 26 37 13 22 10 26 24 31 30 35 13 16 19 25 30 35 19 23 17 12 24 14 34 35 13 9 12 20 16 14 41 13 7 19 13 28 10 24 28 20 17 17 35 23 20 21 23 27 9 17 18 28 18 15 24 19 9 14 27 23 13 20 20 18 9 32 27 14 18 14 18 16 23 13 24 12 24 17 13 20 13 14 13 25 20 16 21 30 10 23 17 17 16 20 13 28 13 24 20 14 31 17 17 15 34 3 30 20 22 16 20 17 10 13 28 24 21 20 14 23 20 24 17 20 13 20 13 13 24 12 34 21 23 3 18 13 20 17 26 17 24 17 16 16 21 21 13 26 31 36 12 23 17 17 9 20 17 20 13 23 23 15 32 19 9 28 14 22 16 16 27 24 16 24 24 14 3 23 16 23 16 30 31 29 10 16 31 6 23 27 15 29 14 6 19 17 17 27 21 9 26 20 14 22 21 26 21 13 19 24 14 6 13 21 28 27 10 19 28 17 26 17 28 17 15 23 13 27 6 18 21 24 27 7 3 31 21 24 20 17 21 16 28 35 20 10 16 20 26 20 22 6 27 18 28 17 14 0 27 18 10 28 20 24 10 11 17 17 17 19 10 11 20 27 17 9 21 8 7 23 37 20 27 15 20 7 20 16 15 14 13 23 24 10 16 14 6 23 17 10 16 18 13 13 17 21 10 14 27 17 30 16 31 6 17 24 17 18 22 16 30 21 21 13 7 21 32 13 23 12 24 21 24 11 14 31 23 22 13 17 16 22 17 13 20 14 21 22 13 21 20 27 14 38 20 30 31 15 17 13 23 21 16 3 3 14 13 20 18 17 16 25 24 14 10 19 17 13 22 20 14 20 35 9 7 31 13 27 14 10 27 30 17 14 13 19 21 24 14 14 0 13 23 7 24 32 10 9 24 20 27 18 23 16 17 31 29 10 30 9 20 22 10 28 24 17 7 7 9 10 19 9 38 10 9 20 7 30 10 18 11 34 24 17 23 20 12 14 13 17 27 21 14 30 20 23 3 10 26 21 31 21 10 12 14 10 23 23 16 8 22 10 23 27 38 14 29 21 17 3 23 27 41 26 17 15 34 17 31 10 20 21 17 6 18 16 14 18 28 6 10 16 6 17 7 24 28 6 10 10 14 27 27 24 26 16 10 10 28 13 20 20 14 15 13 7 14 21 17 24 26 17 31 7 16 20 16 17 9 30 28 14 14 10 31 20 3 42 17 15 9 21 13 19 14 17 20 28 44 9 9 10 30 23 21 15 13 16 10 28 10 10 19 16 14 28 23 20 17 23 16 20 24 21 26 13 19 21 13 27 16 18 21 13 22 0 20 17 23 10 10 24 17 20 34 0 27 16 13 10 26 10 20 10 17 12 17 13 16 10 34 16 13 30 18 20 10 38 10 27 24 3 14 24 13 17 12 30 14 27 24 12 24 22 17 9 19 16 21 17 14 17 20 20 21 16 16 13 10 24 21 20 17 24 20 6 22 24 7 21 28 14 38 20 17 14 38 20 22 31 13 23 14 27 27 13 20 13 16 31 7 20 8 24 10 18 22 32 20 13 28 27 17 10 20 15 10 6 20 24 17 10 24 20 24 14 13 10 17 17 37 17 40 20 16 20 11 23 30 22 24 9 26 10 17 22 17 27 9 20 12 16 24 35 16 10 17 17 40 24 17 19 10 24 34 13 23 13 7 20 21 24 13 24 23 17 17 16 19 7 20 10 17 21 14 16 14 23 25 23 13 10 16 20 19 17 24 7 20 10 20 24 28 20 23 27 9 28 10 14 7 21 13 10 13 21 41 21 17 12 24 16 19 17 31 20 15 17 16 28 19 3 21 34 16 16 6 22 17 16 16 16 17 23 17 13 3 10 17 14 34 13 21 20 14 20 3 9 39 34 9 21 21 28 16 24 3 26 16 30 25 22 30 27 31 13 27 13 20 10 34 17 13 29 13 28 12 13 13 26 25 13 0 13 18 19 31 21 14 29 16 20 28 17 23 13 21 35 23 21 17 9 35 20 6 28 6 17 30 6 24 21 27 12 13 19 17 10 13 29 10 24 24 10 7 21 26 20 21 27 14 17 20 27 13 14 13 17 20 14 11 10 12 16 23 20 23 20 0 20 24 17 8 13 24 10 16 32 11 7 24 19 24 6 20 19 14 37 6 14 27 31 20 10 17 19 34 16 22 18 26 15 13 20 24 24 13 14 21 24 10 13 16 19 34 17 16 14 13 19 27 27 14 19 20 16 21 21 7 26 17 7 19 14 31 31 9 10 23 10 20 34 34 24 27 16 20 23 9 21 10 26 24 14 34 14 3 31 16 23 23 12 15 17 0 7 20 24 26 22 17 20 9 23 7 24 17 15 24 3 26 17 16 12 20 25 19 7 16 10 12 24 9 18 16 24 13 20 0 16 16 12 7 39 17 24 23 27 7 27 31 19 23 23 24 17 3 10 41 27 24 24 9 10 16 10 23 20 8 30 20 20 13 27 17 15 20 20 33 21 21 13 13 14 7 20 23 13 23 20 20 22 17 23 11 19 17 13 21 27 15 18 27 17 16 31 20 42 24 27 17 16 24 21 14 7 16 24 37 34 13 24 21 27 6 10 10 8 12 27 14 25 7 41 29 10 29 17 10 16 20 14 16 6 10 12 17 19 31 21 14 13 24 16 30 26 18 10 16 14 9 13 24 33 16 13 13 10 27 33 17 19 10 13 12 44 3 17 13 24 24 27 17 12 21 14 20 26 25 20 6 27 17 13 34 22 14 12 17 21 23 23 30 20 10 25 16 20 16 7 21 16 20 6 16 29 20 16 23 20 32 28 14 17 6 16 26 3 24 19 10 27 9 10 7 24 26 17 28 10 17 12 10 7 14 14 10 7 27 12 14 13 24 31 0 16 14 3 17 17 17 20 13 13 24 16 13 27 20 27 26 10 24 18 31 20 10 16 14 27 17 34 28 19 14 39 14 17 28 22 28 23 19 17 14 20 25 13 17 30 21 24 14 27 13 28 23 7 20 13 24 10 20 14 17 26 27 27 14 13 20 8 10 17 14 15 21 12 16 37 3 20 27 9 14 21 14 17 16 14 28 13 17 20 24 21 13 24 13 18 31 17 27 14 27 20 21 22 24 21 7 28 24 13 29 23 28 27 20 16 20 23 33 31 15 13 21 17 16 13 19 20 15 14 13 7 23 17 19 7 0 24 24 27 16 17 10 14 24 43 3 23 10 33 23 6 36 23 13 18 23 17 31 13 23 15 16 24 7 24 14 6 3 16 20 34 16 26 13 24 27 16 31 10 18 7 12 19 13 27 10 16 3 19 27 17 24 20 42 17 26 17 13 16 20 28 10 13 21 24 7 23 34 23 9 10 14 16 8 40 20 17 24 17 3 22 14 13 17 20 14 13 13 23 31 23 27 32 21 20 20 7 20 27 10 20 31 27 10 8 29 27 24 14 27 20 10 33 24 24 20 17 8 27 11 17 10 18 10 20 27 27 25 23 10 20 20 21 6 21 33 22 27 21 27 10 25 23 17 17 34 33 19 17 24 13 24 26 24 30 24 17 24 17 24 26 23 20 24 13 7 21 13 9 27 17 21 28 10 38 27 13 17 16 42 37 20 6 20 7 21 18 29 7 28 13 15 20 14 30 17 24 21 16 12 17 10 16 21 21 24 14 6 3 10 21 24 30 19 17 10 24 21 6 14 30 10 24 16 20 16 10 27 10 21 18 28 15 17 19 13 24 16 29 17 18 7 27 17 17 19 12 28 15 6 20 20 30 7 32 26 14 30 17 13 17 16 31 22 19 24 9 3 17 24 21 24 9 21 24 27 34 19 20 18 33 16 13 9 15 27 10 30 10 27 13 39 17 27 17 35 13 25 38 30 41 22 30 13 22 14 27 16 6 17 20 16 24 24 3 17 22 31 13 16 7 20 18 24 19 6 29 28 18 16 10 17 19 17 14 24 24 14 10 21 14 20 17 6 38 18 27 20 18 24 38 13 27 13 9 13 19 24 24 31 16 19 3 6 10 17 20 27 14 30 14 31 26 6 17 27 28 18 13 24 28 20 9 17 42 14 34 19 23 22 35 21 19 23 20 13 6 24 10 24 20 23 24 13 16 23 18 24 23 10 24 14 30 26 20 24 14 10 24 20 23 20 27 17 13 31 13 23 24 42 23 11 13 6 15 25 17 20 13 17 20 27 21 17 26 21 27 24 27 20 26 9 9 14 20 23 17 14 24 24 33 23 13 18 10 27 27 14 10 24 24 26 24 16 27 10 16 22 23 13 19 13 33 10 10 18 17 20 35 9 17 23 17 17 24 31 14 34 21 6 10 16 30 14 6 24 7 17 0 16 23 26 9 13 2 20 24 30 14 22 27 26 19 14 19 7 24 35 10 20 10 30 27 20 9 13 21 22 24 23 10 27 17 9 13 13 10 20 23 6 10 21 10 21 24 24 10 26 13 27 14 18 17 20 24 24 23 30 6 14 20 10 24 19 28 3 20 20 16 10 7 27 21 21 13 27 24 14 16 28 13 14 18 14 20 30 20 12 23 20 27 21 6 9 16 13 13 24 23 21 19 26 20 16 17 18 20 16 20 14 17 20 12 14 24 35 35 13 27 23 32 20 20 14 15 10 10 17 21 29 12 21 13 19 14 17 7 16 20 7 23 16 18 10 17 22 14 20 31 31 18 23 16 17 20 24 16 24 34 26 6 11 23 19 6 14 23 9 30 17 24 20 16 36 37 35 24 31 20 20 21 23 9 21 13 10 31 28 16 10 26 20 28 17 10 14 20 26 23 10 20 26 27 19 20 24 10 20 21 22 41 23 9 6 17 24 12 15 15 28 23 20 17 27 11 9 6 24 17 10 17 20 17 20 21 9 23 23 31 10 13 14 21 11 19 0 29 18 10 10 23 7 16 31 10 15 20 24 14 37 24 19 20 24 9 20 27 10 34 26 17 19 10 14 22 10 17 21 22 20 24 20 17 30 16 27 20 20 23 10 31 22 17 21 21 27 20 9 21 15 24 25 14 3 20 30 17 23 17 16 27 17 15 16 21 23 23 10 19 31 14 13 20 27 38 26 17 20 10 17 12 7 10 28 13 27 23 20 13 21 0 20 23 21 24 17 20 23 20 12 19 30 12 23 26 5 34 6 24 26 20 7 31 17 12 27 42 10 20 20 20 27 12 19 27 16 20 3 10 27 32 24 13 16 24 0 20 20 14 41 18 12 9 26 14 38 13 11 10 26 14 9 19 23 21 25 17 20 17 19 16 16 21 10 13 13 20 20 20 31 10 8 23 24 17 27 28 25 24 12 16 20 17 16 9 16 10 24 10 38 20 21 17 11 14 18 24 33 13 17 31 17 20 30 35 27 17 22 23 10 14 23 3 30 21 22 13 24 13 16 30 22 21 16 9 38 10 28 13 14 25 24 11 20 27 23 19 17 24 34 12 25 13 27 34 24 26 36 22 28 15 28 16 20 27 21 14 25 6 19 24 20 27 24 17 17 27 16 15 30 6 17 10 23 35 13 22 20 26 20 26 28 30 30 38 26 25 23 34 13 3 8 20 26 11 21 20 16 31 21 21 10 6 30 16 19 19 7 10 35 17 22 19 13 21 25 24 9 21 10 7 21 3 25 10 9 17 30 20 20 38 24 0 13 31 17 31 14 34 27 17 20 22 20 19 3 24 20 19 23 20 13 27 13 18 17 31 23 20 20 35 19 15 23 9 10 13 23 24 23 14 16 13 27 13 17 22 20 13 15 29 25 19 10 16 13 10 7 17 24 21 20 3 21 10 9 30 26 10 21 23 24 13 14 24 34 16 14 23 23 20 20 18 16 17 20 24 20 7 25 27 10 30 7 16 19 13 24 17 13 13 23 19 13 21 16 3 26 21 10 31 22 14 3 33 24 17 23 21 24 16 29 6 24 28 24 23 24 11 20 27 16 23 17 17 15 17 17 17 9 15 18 16 20 13 16 20 14 26 20 19 14 6 20 17 17 25 17 36 13 21 22 14 6 24 18 13 13 34 23 21 23 24 13 10 16 15 17 20 16 6 13 17 16 13 17 18 24 22 14 19 17 9 15 20 14 7 14 20 3 14 15 20 26 28 17 16 17 14 13 24 26 3 13 9 21 13 6 20 20 21 30 20 7 32 15 19 16 0 9 12 13 21 27 10 34 17 29 27 16 30 17 12 12 20 13 20 17 17 23 26 16 20 24 31 9 17 12 10 26 26 24 23 9 17 26 6 13 17 17 20 23 23 19 20 15 27 16 13 24 9 28 34 20 10 23 19 17 6 13 24 16 26 6 20 24 21 17 7 10 23 22 13 17 18 3 14 27 9 17 21 20 14 12 20 19 8 24 14 13 14 34 23 14 28 14 33 16 31 10 16 17 17 30 14 12 15 14 12 6 9 35 17 13 29 24 20 23 11 9 16 13 21 13 31 17 14 30 23 17 17 23 6 21 20 24 20 28 13 24 20 19 18 10 17 13 23 20 16 17 8 19 20 23 27 23 16 40 10 23 21 10 24 17 14 23 6 31 17 20 12 7 23 6 23 19 20 16 3 20 16 16 24 19 17 23 17 17 23 20 33 10 28 16 20 31 15 20 13 21 20 13 21 31 22 10 16 13 15 20 30 10 17 22 25 19 19 17 10 17 25 17 22 23 21 27 17 0 17 10 20 31 14 23 17 32 21 21 24 31 10 6 13 16 24 17 34 10 21 34 35 20 24 6 27 24 34</t>
-  </si>
-  <si>
-    <t>JSB(13.55403018420969, 14.244631854605117, -63.49054122642947, 313.2705437962927)</t>
-  </si>
-  <si>
-    <t>18 20 20 18 28 18 24 15 26 13 23 22 25 29 17 26 32 25 29 20 25 16 25 22 24 24 25 22 21 28 25 26 27 25 26 29 29 12 24 20 18 22 22 26 20 21 26 26 21 24 21 14 22 22 18 29 23 18 21 23 23 25 26 24 16 28 20 23 15 25 16 26 25 26 27 25 21 25 22 22 20 25 29 22 31 22 24 25 23 20 23 24 26 26 22 20 26 26 25 25 28 28 27 36 28 23 19 29 27 33 26 19 22 28 25 20 24 24 30 21 20 21 20 25 24 23 20 26 22 21 24 20 15 26 30 32 21 23 23 30 30 26 15 29 24 20 18 17 23 16 29 25 28 24 34 23 27 28 28 23 22 21 14 26 23 27 19 30 23 24 19 22 26 17 27 28 20 24 24 29 28 24 24 17 22 27 18 25 21 26 27 22 24 26 27 21 25 24 35 16 26 23 25 22 25 21 29 25 30 17 27 23 31 27 27 25 22 20 23 18 34 22 26 25 28 17 20 25 26 25 23 23 26 26 18 28 31 28 29 25 25 19 25 22 25 21 31 21 16 30 24 26 27 16 26 24 15 28 26 28 33 25 24 24 24 22 27 24 33 24 25 25 23 19 27 23 25 20 18 22 20 26 18 19 21 24 27 21 14 18 26 21 15 30 21 19 24 19 26 19 33 30 26 27 27 24 28 27 19 24 21 24 27 16 28 23 22 21 33 23 25 22 17 20 31 24 26 24 18 23 29 32 21 20 23 26 24 25 25 19 18 26 26 19 16 27 24 31 25 22 26 31 28 20 31 22 28 20 32 32 14 25 23 22 24 24 23 20 24 20 26 26 28 26 23 28 16 22 23 28 20 29 28 20 22 26 32 23 19 25 26 28 28 31 18 22 25 23 23 28 26 25 18 24 26 30 24 19 25 24 21 15 19 25 19 23 19 27 20 24 22 30 25 15 32 23 23 34 25 22 21 23 25 24 23 23 26 30 26 21 27 21 25 18 26 23 15 18 29 20 28 17 18 23 25 25 23 25 16 20 18 19 31 21 18 26 19 23 16 24 23 21 22 23 20 21 18 28 23 29 21 22 21 23 18 25 27 20 23 24 22 20 23 28 27 25 22 23 19 27 32 17 25 20 34 29 20 24 24 18 25 19 14 24 22 23 23 27 23 31 21 21 26 22 25 28 20 21 24 21 28 23 29 29 21 28 29 26 24 29 28 29 28 22 18 24 24 31 31 23 25 28 30 24 21 26 24 23 29 21 17 26 18 30 18 29 28 28 24 31 21 31 25 27 27 23 21 30 17 33 28 27 23 25 23 26 26 25 25 25 20 28 21 28 28 24 20 23 23 23 25 25 29 24 22 21 32 32 23 13 29 29 24 21 23 19 20 19 31 28 35 26 26 17 28 28 16 23 25 20 30 30 26 24 19 26 20 26 19 29 22 25 32 29 24 28 23 20 16 18 20 24 29 29 34 27 16 26 25 25 15 33 27 25 32 30 27 22 20 27 18 28 26 23 21 22 27 31 30 33 25 34 23 20 29 21 24 22 22 26 22 20 21 22 24 27 27 25 17 20 23 20 30 17 20 27 26 28 21 21 26 17 26 18 19 21 22 15 30 18 23 20 20 28 23 30 31 25 24 26 23 27 25 30 27 31 24 27 33 19 23 38 28 23 20 20 26 23 16 34 30 21 23 32 20 21 36 21 20 21 16 29 26 19 19 25 29 27 28 19 25 24 24 27 19 26 23 29 29 17 27 27 27 21 26 27 22 23 25 29 22 19 29 19 23 19 34 28 18 23 24 24 27 13 27 18 29 32 19 25 26 29 29 28 23 31 25 27 22 19 34 21 23 27 26 29 22 27 24 29 20 28 26 25 15 19 26 30 16 34 18 25 22 15 22 28 22 21 25 24 22 24 26 23 24 23 28 25 16 18 16 30 12 18 27 23 28 23 27 25 31 27 19 25 20 18 21 21 27 23 23 20 24 31 14 22 27 29 17 22 30 28 26 16 19 29 17 28 16 19 30 25 21 16 24 28 24 21 19 30 30 27 24 20 21 25 28 21 25 28 19 17 20 25 21 32 28 22 23 27 22 23 19 22 31 24 21 22 29 19 26 22 24 21 23 27 21 17 19 35 31 29 21 27 18 27 19 16 32 28 22 26 30 22 18 28 23 21 14 29 22 24 18 27 31 21 23 23 21 23 20 24 36 18 23 19 19 25 22 23 24 30 19 22 25 22 22 26 34 19 25 32 23 20 22 23 17 21 28 29 20 30 19 31 23 27 34 24 29 22 33 27 16 15 24 18 30 24 15 24 19 20 25 26 23 23 26 23 34 23 24 31 21 26 20 23 22 26 22 22 22 25 33 22 18 25 23 19 31 24 16 25 24 24 21 28 25 31 29 21 26 26 27 22 24 28 22 19 28 26 23 19 22 23 31 20 26 22 28 21 14 25 22 25 37 17 19 18 24 22 23 19 23 29 19 21 31 19 24 25 21 21 26 22 11 16 24 19 32 22 25 20 31 30 15 28 24 22 22 26 16 20 26 34 25 22 22 21 25 24 25 34 21 25 20 21 28 23 16 18 30 23 26 24 26 29 23 26 30 22 32 24 20 32 20 20 32 24 25 24 25 29 23 26 17 23 21 32 26 22 29 30 20 18 30 35 26 23 29 25 27 31 26 21 29 22 23 21 20 25 23 25 22 26 24 22 26 19 24 20 29 17 20 24 20 33 27 18 25 20 20 26 24 24 25 25 24 29 24 22 27 24 18 19 31 19 19 24 15 36 29 26 30 26 25 25 23 24 22 22 24 21 23 27 31 21 32 17 19 24 25 31 26 29 22 28 23 23 26 21 26 30 23 21 24 25 22 24 17 24 21 17 31 22 21 17 25 32 30 23 24 29 23 26 30 18 22 24 30 25 16 27 21 30 29 23 22 23 26 28 23 29 28 27 19 26 27 24 25 25 13 36 20 23 29 20 26 22 27 17 26 21 21 19 25 26 16 30 21 18 27 32 25 24 23 24 24 22 24 21 29 25 21 21 22 27 25 25 17 24 21 25 28 27 20 26 24 27 17 25 19 26 22 21 29 22 31 20 24 26 20 20 24 24 30 21 32 40 28 22 23 25 28 23 16 26 28 23 25 13 27 23 26 20 35 31 20 33 24 31 19 23 25 25 22 15 22 25 23 29 27 19 25 24 27 21 27 23 15 14 18 24 26 28 27 21 30 19 27 22 23 18 21 29 25 25 38 25 21 23 25 22 18 26 31 27 25 27 30 31 23 32 20 23 22 20 24 31 28 23 25 22 25 29 23 26 27 16 25 29 26 22 22 26 24 20 27 29 26 26 24 25 28 25 27 29 18 16 21 19 22 19 17 23 26 28 23 20 26 21 19 21 22 22 28 23 20 24 25 24 29 27 19 31 15 25 24 25 25 20 22 18 22 27 25 21 15 20 31 29 24 24 20 19 27 26 25 25 16 16 24 17 30 20 27 21 22 23 21 30 27 17 26 22 27 25 27 28 14 29 24 26 19 19 21 19 30 25 29 29 17 35 23 33 25 32 27 26 33 25 25 26 18 22 21 23 29 23 18 26 22 23 12 35 32 21 26 27 23 16 23 24 17 18 26 27 25 23 31 35 27 17 27 20 27 25 21 24 25 27 22 21 28 20 22 20 20 28 36 24 32 30 30 22 23 25 21 25 20 23 27 34 22 23 24 17 23 30 16 25 20 15 22 21 30 21 25 19 21 14 22 21 26 25 22 24 19 27 21 21 23 23 25 20 28 21 21 21 27 24 24 26 18 26 28 24 23 27 23 19 32 32 20 22 19 23 29 31 22 20 19 31 16 22 24 33 28 28 20 28 25 24 37 18 29 26 27 20 21 25 32 29 27 24 21 16 26 19 21 25 24 27 17 16 18 29 20 23 24 33 18 24 22 18 22 19 16 26 23 25 25 27 28 18 19 27 23 20 21 22 22 19 32 19 17 30 18 24 25 20 26 35 28 23 22 26 19 22 17 12 20 25 21 26 29 16 27 19 26 24 19 31 19 27 26 19 23 21 23 30 18 24 17 19 18 22 23 29 20 26 22 23 23 24 27 20 16 24 22 16 22 21 19 27 27 18 26 31 19 19 28 30 28 30 24 30 14 27 23 36 20 25 24 25 28 29 31 21 24 30 23 28 21 25 18 23 19 24 20 27 25 21 21 22 22 17 26 27 27 19 21 20 22 21 31 27 24 26 18 19 25 20 26 20 30 25 23 21 18 22 19 19 20 22 26 23 32 14 24 26 24 24 16 29 24 22 24 25 34 24 16 33 32 36 30 30 21 20 22 29 21 21 24 20 29 17 34 29 21 15 20 29 24 17 21 22 24 22 27 13 30 33 28 24 22 28 22 21 20 29 26 28 19 21 24 25 26 29 20 22 34 25 28 15 22 25 26 12 18 25 23 27 23 24 25 29 18 20 29 18 30 26 26 27 18 14 20 23 26 27 27 25 22 31 25 25 20 21 18 28 28 27 25 21 20 21 24 19 21 17 19 25 23 23 24 24 21 21 16 23 27 29 26 25 23 18 18 24 22 17 27 20 29 32 28 14 26 24 25 18 20 20 24 27 15 22 26 20 22 25 23 25 22 14 26 31 14 22 21 31 27 15 19 24 26 25 21 23 15 29 22 34 18 24 19 13 28 24 30 22 36 24 29 23 20 26 27 24 25 21 20 22 23 29 32 24 24 19 22 24 20 27 25 24 19 25 24 22 28 32 19 22 21 28 24 29 27 23 26 22 22 23 23 26 13 21 21 18 22 18 22 27 28 25 20 21 31 22 18 24 26 29 16 28 25 30 31 30 21 22 19 20 22 24 22 23 20 28 20 30 18 24 25 22 24 23 22 23 25 24 22 15 25 29 23 25 21 25 18 24 22 26 27 23 20 28 23 18 25 28 19 24 18 24 20 30 20 24 23 19 23 18 25 27 26 26 18 22 27 25 25 26 23 27 16 16 25 27 22 12 27 23 22 21 17 26 19 29 16 26 25 17 24 30 25 24 19 19 31 22 18 21 20 21 27 24 22 25 19 17 27 30 17 22 23 22 12 23 29 23 22 22 27 24 17 29 19 26 19 22 21 32 19 26 30 26 15 25 18 24 23 19 23 19 27 24 26 24 24 26 22 24 24 26 26 20 21 22 30 17 21 29 24 31 25 29 21 30 28 30 21 32 23 30 21 19 18 19 18 22 20 20 20 20 25 19 23 13 22 19 26 29 24 18 23 22 20 23 32 27 23 17 27 21 22 31 19 21 23 23 23 17 17 23 27 25 21 26 25 21 29 20 23 25 21 23 24 28 23 19 20 27 26 31 27 28 25 28 19 26 25 27 28 23 34 23 19 23 21 21 14 21 20 21 26 35 18 18 24 16 33 20 21 22 23 20 35 27 24 27 21 24 22 23 23 27 18 19 33 25 25 29 25 29 22 26 22 28 31 26 20 27 27 19 20 26 23 32 28 27 27 22 32 19 25 20 14 18 29 22 19 20 23 20 26 26 26 24 27 28 31 29 24 24 26 33 23 16 21 23 24 28 27 30 21 25 19 25 34 24 26 21 19 32 28 23 22 25 33 31 26 22 28 26 24 26 27 19 26 22 24 23 24 26 30 15 27 27 20 17 15 16 21 30 22 26 27 20 32 27 22 19 21 34 33 22 25 22 28 15 15 28 24 24 20 12 19 21 25 19 22 24 21 30 23 30 34 23 29 20 25 26 22 20 22 23 19 22 22 32 28 22 23 21 24 23 28 25 26 23 30 23 16 27 22 18 25 16 22 30 25 20 18 26 28 25 25 28 21 30 21 25 27 24 19 19 25 20 24 23 30 28 26 25 26 29 19 24 20 27 18 27 24 24 23 28 23 24 23 23 26 25 31 25 19 23 24 24 22 23 19 26 23 30 29 25 25 30 23 27 18 32 27 26 20 27 22 23 27 20 19 27 22 16 23 31 20 21 22 27 28 20 18 29 19 29 24 19 22 16 27 20 28 22 20 27 14 32 27 23 19 25 29 19 23 30 24 23 22 25 20 22 21 30 23 23 21 24 25 31 29 26 22 21 22 26 22 21 33 20 30 23 28 21 28 26 20 19 24 25 20 25 23 21 21 24 25 26 20 25 21 16 21 30 24 23 26 30 20 29 19 23 27 27 26 26 25 27 28 20 22 19 33 27 20 25 30 20 23 20 27 24 25 23 24 22 24 25 21 24 29 24 25 26 20 26 24 26 21 21 25 25 21 28 26 25 23 33 19 14 30 22 32 39 19 22 29 33 19 17 22 23 24 29 27 24 30 17 26 20 26 22 21 27 26 27 31 18 19 28 27 34 33 18 30 24 19 30 22 22 18 29 23 29 24 22 20 23 20 24 18 30 22 32 27 28 28 18 24 25 26 17 25 24 24 19 17 30 24 24 20 29 20 23 22 28 23 23 20 20 18 30 21 18 19 32 28 30 25 31 26 19 20 22 18 25 32 30 21 21 23 23 29 22 27 24 28 22 26 19 20 30 23 29 31 18 27 21 25 19 22 26 23 27 22 24 19 28 16 18 9 28 25 24 16 26 21 24 22 26 29 38 27 22 20 26 22 30 27 29 20 29 30 37 24 25 27 16 21 14 28 24 24 26 28 29 31 24 20 23 20 28 20 19 26 22 23 24 26 20 22 21 28 20 26 26 30 30 20 27 25 20 29 27 23 26 23 32 18 23 23 30 26 32 31 24 28 23 23 27 22 26 23 27 22 20 25 27 27 20 26 16 19 18 29 27 33 18 32 34 23 19 15 24 20 32 26 30 20 32 28 19 25 31 26 21 19 21 21 18 24 27 23 17 24 27 38 18 22 22 21 18 22 28 18 31 28 32 22 18 21 23 28 28 23 34 28 21 16 31 21 28 16 25 27 24 26 21 28 25 19 35 15 21 31 28 31 20 15 26 20 27 31 26 19 23 27 19 34 22 31 16 22 30 36 19 22 34 23 31 26 30 30 26 26 27 21 27 26 29 33 19 30 25 16 25 24 19 22 24 30 21 19 21 22 30 20 18 31 37 17 24 25 15 27 25 22 26 23 16 22 24 28 26 24 25 16 28 29 23 23 28 19 29 18 25 28 23 20 32 28 23 30 23 25 27 19 24 23 25 27 22 14 27 22 29 26 21 16 17 27 25 23 32 25 23 34 21 13 22 30 22 20 26 32 24 28 19 26 27 23 25 14 20 22 20 26 22 20 21 32 22 21 27 30 28 32 23 25 18 26 17 30 23 21 22 30 26 19 32 13 19 28 25 19 25 25 29 20 20 34 22 19 21 29 24 28 27 17 26 20 29 23 16 30 20 22 28 22 30 19 20 32 28 20 22 20 23 20 27 22 24 28 20 19 22 15 28 26 23 26 30 34 16 23 27 21 22 20 21 20 17 16 25 20 28 16 24 22 19 24 18 22 20 26 22 19 22 22 18 17 20 19 21 26 23 28 24 27 23 24 21 20 23 28 19 25 22 26 23 19 25 25 16 24 22 27 28 21 17 27 17 29 23 29 31 22 26 28 21 27 25 23 32 17 24 17 22 28 26 19 26 20 17 19 29 24 25 19 26 20 20 21 17 21 30 27 20 30 20 28 22 24 15 28 25 31 24 26 28 25 22 28 30 16 20 24 30 21 19 17 26 27 22 20 25 24 26 26 25 21 14 15 24 22 20 20 32 21 17 23 17 25 22 19 24 28 20 18 26 32 25 27 20 19 26 28 23 24 23 23 24 18 18 15 28 14 26 21 23 25 21 31 27 20 23 17 24 33 16 23 25 23 33 23 30 26 30 20 27 26 31 26 24 29 18 19 23 24 21 18 24 26 26 22 33 30 30 21 20 17 23 25 18 29 23 26 28 24 26 19 23 28 24 25 23 22 27 26 20 21 27 25 25 28 27 20 34 20 26 24 25 29 23 29 27 16 20 24 25 26 29 26 18 26 16 35 22 27 25 26 25 23 21 19 35 28 18 33 29 27 28 26 30 19 22 28 22 26 25 20 22 28 19 18 28 13 21 28 28 19 20 16 26 20 19 28 22 25 26 27 18 26 22 23 18 28 21 24 20 30 24 29 22 24 28 27 27 31 17 19 27 20 21 20 19 18 23 24 29 21 24 29 29 18 23 26 18 16 28 24 17 34 23 24 27 28 25 24 19 22 28 24 31 23 15 21 29 28 21 25 17 21 15 23 22 20 25 31 30 22 19 16 24 26 23 26 29 30 19 23 24 35 22 13 18 21 22 20 22 21 21 28 26 23 19 22 18 22 26 23 18 32 24 28 19 23 21 28 28 20 21 30 21 21 17 15 25 27 21 26 24 30 28 28 25 25 19 20 22 25 27 21 15 32 24 34 22 17 24 30 27 19 27 29 19 26 20 23 27 28 33 23 26 20 17 35 18 19 27 23 24 21 18 23 22 28 28 30 18 26 21 21 19 28 25 23 20 30 22 17 21 24 18 18 16 35 26 27 12 19 23 20 27 23 14 18 25 27 27 27 16 27 25 16 28 17 20 24 22 21 28 18 23 22 30 29 26 24 30 24 17 26 29 28 23 28 27 17 21 14 17 27 26 27 22 36 26 27 19 16 20 15 18 18 28 30 22 21 24 19 31 23 30 29 28 24 19 18 36 19 28 24 16 30 23 16 32 26 28 26 22 21 21 36 25 22 20 25 31 32 24 21 26 18 33 14 21 29 20 23 24 17 25 22 18 20 25 26 20 25 28 26 27 24 24 20 15 25 35 37 24 29 17 21 17 15 20 22 26 26 28 23 27 30 27 23 16 32 21 26 26 24 26 24 28 29 19 21 27 21 31 29 29 26 23 21 31 26 25 25 22 21 24 21 21 12 20 28 21 23 27 25 19 21 18 18 17 26 24 24 29 31 26 28 22 19 25 18 26 25 27 21 20 36 26 30 26 21 17 20 20 26 25 19 20 24 26 25 24 25 26 36 27 31 22 27 28 25 22 22 17 24 25 32 16 24 15 19 17 19 23 23 27 24 23 26 21 27 21 23 21 18 28 21 27 16 19 14 26 25 23 30 28 28 29 26 24 22 28 21 20 26 30 21 14 27 20 20 25 18 25 33 35 22 22 22 28 25 23 19 15 27 25 22 22 22 20 24 21 25 24 34 27 25 26 23 22 27 18 23 24 15 19 26 23 30 23 21 23 25 33 25 23 21 26 23 20 22 20 17 29 27 20 24 19 17 26 27 20 19 22 26 24 28 22 20 21 28 19 26 27 24 29 21 23 18 17 27 26 25 25 18 21 28 21 33 23 21 20 22 15 22 27 19 19 23 20 27 20 31 24 29 30 23 29 17 29 27 24 21 18 20 27 23 20 23 21 22 24 24 29 25 21 29 26 33 24 27 26 24 20 22 19 28 21 23 26 30 19 34 22 25 25 26 23 28 25 21 16 22 28 23 27 19 24 30 27 21 32 32 26 28 26 22 22 17 26 19 23 31 24 23 29 23 26 28 29 28 18 17 30 29 22 26 15 26 24 20 28 28 25 18 15 18 23 20 25 27 22 16 8 23 19 24 17 21 27 32 23 18 25 22 16 26 25 31 24 22 23 23 29 20 21 22 15 24 26 23 22 25 26 20 26 26 24 24 22 18 24 25 18 25 21 26 21 28 24 24 26 21 20 27 13 23 30 22 24 26 23 24 22 20 23 24 21 27 22 26 22 30 26 26 30 15 27 24 25 27 22 22 27 19 26 21 25 24 24 23 18 29 17 13 20 23 22 15 26 23 29 22 25 27 22 28 22 28 25 20 30 25 18 19 13 19 25 19 29 18 24 18 27 23 22 25 21 14 20 22 31 23 31 23 15 21 24 19 26 19 26 25 26 31 24 21 22 22 31 27 23 19 18 21 23 34 29 24 22 20 26 25 20 23 22 23 29 25 25 27 22 30 27 36 18 30 24 26 24 19 21 25 19 18 32 21 21 22 32 17 26 19 24 23 24 26 25 24 23 24 29 27 30 22 24 25 27 23 27 25 33 26 27 28 27 27 24 24 22 24 29 27 17 20 23 26 24 25 16 33 24 24 32 24 27 13 24 28 22 21 27 24 33 25 29 23 24 29 27 22 31 22 25 19 31 26 29 23 26 23 30 18 28 24 18 22 23 21 22 25 24 23 21 20 18 22 25 24 23 25 21 27 23 21 31 21 23 18 26 22 24 24 26 31 23 25 12 17 25 22 28 24 31 25 16 26 23 19 18 23 20 22 29 21 28 20 24 25 19 21 24 19 17 26 23 25 23 25 25 21 23 21 25 23 25 18 28 23 21 25 23 17 12 32 15 24 22 25 21 15 20 27 21 19 21 27 21 19 15 24 23 17 26 24 19 18 21 16 23 21 28 20 31 26 28 20 14 22 19 25 24 24 29 25 31 21 27 25 28 22 29 28 28 22 21 27 25 27 26 20 25 27 26 35 30 20 19 14 23 24 25 38 20 20 28 19 25 22 31 23 19 28 22 27 25 18 25 17 24 23 23 26 34 26 24 20 23 33 30 23 23 34 29 22 20 25 24 35 22 19 20 21 24 23 23 20 21 25 23 16 25 27 16 23 23 28 23 27 24 26 30 21 15 17 26 26 25 25 29 28 26 32 12 22 24 22 22 26 29 21 23 22 24 25 22 29 22 22 21 23 16 28 26 21 29 26 30 27 29 21 29 36 24 17 22 19 19 23 28 24 13 29 22 17 23 31 23 24 22 19 19 16 24 24 27 27 28 18 27 19 21 28 29 21 22 25 31 22 26 22 23 28 33 20 27 24 29 28 22 26 23 28 20 31 26 27 32 20 23 22 32 33 30 22 35 19 26 25 26 24 19 30 26 33 19 32 26 25 17 26 29 24 25 34 24 30 23 24 22 29 28 22 25 29 23 23 20 20 24 24 19 28 23 35 21 24 22 28 17 28 30 27 27 25 27 23 17 23 21 22 20 25 13 20 23 24 29 27 24 15 18 26 24 26 23 14 24 20 26 24 20 26 24 21 31 21 30 20 20 23 28 22 27 29 26 11 24 21 34 24 26 22 25 26 16 22 21 26 26 28 15 19 27 25 32 24 27 25 26 28 25 29 21 28 26 21 23 25 18 17 27 21 18 23 28 19 22 27 21 20 20 25 25 23 21 34 18 27 24 23 17 26 22 20 20 23 22 31 24 39 25 24 27 29 27 25 28 23 23 26 22 17 27 22 31 25 28 23 30 23 22 21 21 22 26 24 19 18 19 19 20 25 22 20 20 20 23 24 24 21 14 28 27 31 33 23 28 23 21 20 28 22 22 25 19 12 29 26 16 22 30 23 22 19 24 25 23 18 26 16 24 20 23 25 24 26 19 20 23 23 22 23 20 19 28 23 24 27 27 28 19 18 35 10 19 20 20 23 28 24 29 18 23 24 27 24 26 20 21 27 22 25 22 19 27 23 25 29 21 28 21 24 21 27 25 18 26 33 23 22 19 27 31 23 19 16 23 20 25 21 27 27 27 23 29 29 25 21 31 25 24 22 26 12 18 23 21 30 24 26 19 23 26 22 22 21 25 21 34 27 24 24 23 25 18 21 32 22 20 18 26 30 26 15 21 26 33 29 28 21 19 28 23 20 19 29 22 25 23 25 29 21 18 30 28 15 23 29 26 21 23 17 19 24 22 8 26 25 18 18 19 13 29 14 23 31 29 19 21 24 25 26 22 22 23 22 27 29 26 24 25 22 26 28 28 22 30 33 28 16 20 22 22 24 23 26 18 27 25 23 22 23 33 22 30 13 20 23 28 25 19 24 32 24 21 12 19 20 27 25 19 22 24 21 29 23 33 25 23 22 27 26 20 13 16 38 23 33 26 14 25 18 29 26 19 23 26 31 19 20 19 33 25 25 22 18 22 26 24 19 23 29 25 22 17 25 27 27 19 28 29 21 30 26 15 26 22 25 19 26 25 22 14 28 27 25 25 19 20 25 28 21 22 20 17 23 20 24 28 25 24 21 24 21 29 25 23 23 33 23 22 31 29 25 27 30 28 22 23 21 23 21 32 21 19 31 20 29 28 22 27 30 20 24 13 28 30 20 23 20 18 27 22 28 28 26 21 21 19 24 21 24 25 29 25 23 26 19 21 24 18 22 15 20 21 30 27 19 24 27 15 22 17 20 22 29 28 17 30 27 19 19 22 20 25 25 28 35 23 25 32 21 28 31 31 28 22 27 25 21 24 21 28 28 27 13 30 19 25 29 22 28 19 18 27 26 18 20 23 25 29 23 25 26 29 22 22 27 29 21 22 27 22 26 25 21 23 18 23 27 30 24 29 20 27 22 24 17 36 26 28 24 27 22 26 24 24 21 32 17 24 15 20 22 31 29 25 23 26 19 22 26 26 20 24 33 30 27 19 25 25 18 18 21 27 22 24 23 22 27 25 19 27 27 35 23 22 18 26 24 25 25 32 21 29 24 24 19 26 24 24 26 28 25 25 26 11 24 30 15 25 29 26 28 29 28 23 20 23 17 33 29 14 20 23 29 25 23 26 22 20 27 22 27 18 25 22 21 26 25 32 17 19 24 21 32 22 24 23 21 23 24 19 22 25 21 28 28 24 28 25 28 19 23 26 18 27 33 29 21 25 18 26 24 25 25 28 14 23 22 19 24 25 31 22 19 22 26 24 26 21 22 18 32 16 24 26 27 22 20 21 21 22 22 20 21 28 24 19 21 25 26 26 31 21 21 23 24 28 22 30 32 26 21 29 21 19 18 32 23 30 27 27 31 17 22 22 22 27 28 17 30 21 20 19 23 27 19 29 16 22 18 23 20 24 27 28 31 24 25 20 25 26 38 25 28 25 24 22 27 29 23 23 25 23 17 23 18 25 23 27 26 25 30 19 27 23 24 23 20 23 19 27 27 25 25 28 26 25 18 17 28 21 28 20 25 35 14 26 17 25 30 30 25 27 17 35 24 24 19 29 28 24 25 23 29 26 19 20 18 27 21 24 28 21 22 20 24 25 23 28 20 19 30 23 28 25 26 24 23 24 26 30 23 22 25 22 16 26 26 25 30 20 27 21 23 33 22 21 24 25 24 27 26 26 19 26 25 28 21 18 16 22 30 24 25 18 19 20 27 17 23 22 21 20 33 28 32 26 24 16 22 27 29 26 27 28 15 29 26 18 22 22 22 29 19 20 21 21 25 25 27 23 15 17 20 16 25 22 31 26 23 27 21 23 20 28 34 19 20 26 21 27 24 18 22 22 15 23 15 28 28 19 28 25 17 21 22 26 30 27 19 28 28 15 17 27 22 23 28 25 34 19 20 17 22 24 20 34 26 28 26 23 23 20 24 23 22 26 26 19 24 26 26 32 26 29 26 20 17 21 28 19 29 21 28 27 19 24 21 24 25 31 26 28 19 15 30 21 21 11 28 27 20 24 28 29 23 29 22 27 23 24 23 24 26 22 21 29 18 16 22 21 24 27 23 24 27 25 21 18 26 19 28 32 24 27 23 20 23 31 20 31 30 30 26 15 22 24 26 21 26 21 21 29 33 22 26 28 26 23 17 26 15 28 22 28 21 31 16 22 26 36 19 22 35 33 22 24 18 22 26 19 17 24 24 26 24 26 27 27 19 18 25 27 28 28 28 28 30 28 26 27 22 21 24 27 22 25 25 21 29 32 23 26 28 21 17 27 21 22 27 26 23 23 16 31 23 26 18 25 22 26 23 18 21 25 18 23 21 29 27 25 21 15 21 20 30 23 28 31 22 23 11 24 22 30 17 26 24 28 32 25 19 26 26 24 24 17 20 29 21 17 20 21 25 21 22 20 30 23 26 22 25 25 29 24 16 26 29 23 29 27 22 28 20 23 21 18 19 20 17 19 28 27 34 21 18 28 29 30 20 22 25 24 13 22 23 23 20 25 24 18 19 16 21 30 25 24 22 25 20 21 26 23 25 28 25 18 30 12 26 23 17 20 27 23 19 25 24 25 21 22 21 23 28 25 17 24 22 20 29 27 23 21 25 21 17 33 14 26 23 25 24 22 22 19 21 27 29 31 25 22 24 27 25 23 19 29 30 18 23 20 22 24 33 16 26 23 17 25 24 23 35 25 24 19 22 26 28 26 27 22 16 17 35 22 18 24 16 25 31 23 26 27 21 16 29 28 28 22 22 28 24 21 28 29 24 19 25 16 23 35 24 18 25 23 21 22 20 19 26 23 28 23 27 25 25 24 21 22 25 27 27 26 30 20 32 30 23 27 24 24 28 24 25 28 22 21 25 30 27 20 17 23 24 32 23 27 29 24 24 27 26 19 24 30 26 28 26 20 17 27 27 20 21 19 24 24 23 24 22 20 26 26 23 26 26 27 25 27 19 25 27 35 24 24 26 20 26 25 18 30 21 31 32 28 18 22 23 26 25 27 32 19 20 28 23 29 29 25 19 29 22 19 36 24 22 28 29 25 23 28 23 25 19 24 19 20 21 34 29 19 25 21 26 26 28 22 20 21 26 24 25 23 21 18 21 19 22 23 34 21 22 15 25 22 20 23 30 23 18 17 24 22 16 29 32 24 23 29 26 22 30 25 19 21 26 24 24 20 20 20 23 25 26 23 24 28 31 21 19 21 22 23 28 23 26 19 27 21 26 23 17 27 20 30 19 29 25 20 24 31 26 16 21 24 18 24 19 20 18 20 23 15 24 27 22 22 25 27 19 27 31 20 23 19 21 19 17 28 28 22 22 22 28 17 29 22 25 26 23 16 23 30 23 27 23 30 26 23 25 29 18 30 29 26 27 26 20 30 32 21 26 28 23 26 30 27 24 27 24 31 31 31 25 24 26 25 23 22 31 18 30 33 25 26 25 31 25 26 14 29 25 34 18 21 20 25 21 26 24 26 25 27 20 23 19 27 14 27 25 21 18 26 25 32 28 29 18 23 19 22 27 28 20 19 21 24 25 29 20 26 24 27 19 18 21 27 20 27 24 25 17 25 25 28 23 28 19 25 18 19 19 23 23 22 22 20 17 23 25 20 26 26 26 17 20 21 29 19 23 20 28 29 21 20 21 35 19 23 24 27 24 26 28 31 27 23 26 24 18 19 24 23 25 30 22 29 14 24 21 18 19 21 26 27 23 22 22 20 28 23 23 25 18 30 23 24 26 20 31 27 27 29 21 21 23 19 21 24 27 21 22 21 18 27 23 25 32 26 19 28 22 17 22 23 23 23 24 23 29 24 21 24 26 22 23 21 24 15 19 29 27 34 16 21 23 21 29 33 25 25 19 21 24 22 25 24 25 20 26 36 28 21 26 18 30 23 29 27 18 22 21 25 20 25 18 15 20 17 27 25 29 22 20 23 22 24 27 22 27 25 30 19 27 28 31 15 21 25 28 21 29 25 28 24 24 27 22 30 24 30 21 20 27 27 29 30 13 29 27 18 32 21 23 21 23 18 28 33 30 28 29 16 28 22 25 32 21 17 27 31 25 26 28 23 22 21 19 29 27 33 20 29 24 23 28 24 20 30 25 21 29 27 23 21 20 22 22 19 26 26 27 23 22 27 21 26 22 27 21 16 26 27 21 23 34 23 25 31 26 31 21 27 25 19 31 21 25 27 20 21 28 21 30 14 26 17 23 21 22 23 17 30 24 21 16 27 24 18 21 27 21 21 23 20 24 24 21 25 16 29 33 20 23 30 23 23 28 30 22 22 24 25 15 27 24 24 13 25 21 17 22 25 25 22 27 22 24 22 26 30 22 20 27 22 20 25 33 23 14 22 22 25 19 25 20 24 18 24 30 28 18 24 24 25 18 23 28 30 27 33 23 27 16 19 31 23 20 25 26 25 20 28 27 13 27 18 24 26 27 19 22 22 23 25 17 23 20 18 23 30 26 26 18 19 29 22 23 25 16 21 23 25 24 22 26 22 25 20 23 25 29 12 21 28 27 25 20 13 22 18 19 22 33 21 22 31 22 24 22 27 24 22 24 25 29 19 29 21 15 15 15 29 24 27 20 23 23 20 23 27 25 23 22 15 17 29 25 25 22 24 18 23 28 22 16 20 28 15 31 31 21 23 17 34 32 23 27 23 22 21 17 21 20 24 23 31 28 28 22 26 25 17 23 21 26 23 21 18 21 17 32 19 18 21 24 15 26 26 15 32 21 26 26 21 23 17 18 23 19 26 28 23 21 27 29 25 26 24 25 16 25 23 15 26 28 25 27 28 30 19 22 18 22 25 30 23 20 29 22 22 25 18 19 22 28 21 23 25 30 20 28 20 28 23 29 26 18 17 24 29 15 20 22 26 23 25 25 27 22 29 18 25 19 32 26 25 32 24 25 25 17 16 22 17 22 30 24 23 21 26 20 26 24 22 27 15 26 22 24 17 18 16 25 30 24 19 25 25 24 20 25 22 21 24 27 25 27 25 33 17 23 14 25 18 23 33 27 16 24 24 24 24 17 37 22 17 31 24 23 27 20 15 20 25 14 25 27 26 21 22 26 32 25 27 18 23 20 18 25 19 24 22 20 24 28 27 17 29 25 22 23 23 12 26 26 25 24 25 32 22 19 20 17 24 28 28 23 28 21 26 25 24 25 22 20 24 20 25 29 29 28 36 25 23 24 30 28 20 27 23 23 25 22 24 33 16 20 27 24 26 27 26 22 17 25 22 32 19 31 21 17 23 18 35 25 18 24 29 20 22 28 25 28 12 24 20 27 19 16 33 17 24 22 25 31 19 31 23 12 24 18 23 25 25 20 19 19 19 23 29 26 27 30 24 18 29 20 27 30 25 23 21 33 21 24 23 27 27 17 19 22 20 15 25 27 23 17 22 25 23 14 27 23 23 23 13 19 26 22 23 22 23 25 15 26 19 32 39 24 26 21 14 16 27 22 28 30 24 24 17 33 20 17 23 16 24 20 21 29 16 27 19 20 29 24 28 24 25 18 21 25 20 25 24 31 22 24 21 27 23 27 35 25 23 23 24 24 20 18 21 23 24 29 31 23 28 26 26 33 25 27 26 25 25 21 26 32 26 28 22 27 18 23 14 25 19 20 18 20 31 21 22 23 20 22 25 27 31 22 20 26 21 28 31 24 26 30 21 21 17 23 15 18 32 22 24 26 25 23 30 24 24 25 26 24 33 23 29 26 28 18 27 24 27 26 24 33 21 20 19 23 21 25 26 26 25 25 27 27 29 28 29 24 30 21 20 23 29 21 24 18 27 27 20 26 26 21 28 16 23 30 21 21 22 26 26 27 21 26 26 19 21 22 26 33 23 27 21 22 25 28 22 24 21 29 24 24 26 23 22 26 22 23 22 22 33 33 19 26 19 25 19 19 21 30 24 23 15 30 28 27 17 20 27 28 16 22 23 27 27 18 22 16 17 22 28 23 28 20 28 33 21 19 24 24 21 22 18 21 20 27 24 25 23 27 14 27 18 21 24 18 29 25 25 22 25 14 30 20 31 26 24 26 21 32 23 26 23 25 26 21 19 29 21 17 23 21 19 21 21 22 23 34 21 15 26 25 27 21 17 27 28 16 17 20 17 18 22 24 37 26 27 23 26 29 22 20 29 15 31 18 18 26 25 21 26 25 22 22 13 22 18 29 21 26 27 21 31 21 25 34 28 20 25 35 25 26 28 27 31 24 26 25 27 28 22 22 24 26 30 21 19 17 26 24 28 23 16 30 27 30 23 22 20 17 20 24 24 30 25 23 26 26 30 23 23 31 22 26 24 18 27 24 19 30 23 29 17 25 19 30 28 21 22 21 14 31 23 24 14 22 27 26 21 27 24 22 21 28 24 28 9 23 27 25 30 22 11 21 32 12 21 21 28 18 26 32 21 32 19 20 26 24 27 24 24 31 21 32 21 24 21 20 31 23 28 27 27 23 29 29 26 21 20 27 19 20 29 23 25 20 26 26 24 27 26 20 21 28 20 22 17 19 26 22 18 23 26 27 29 27 25 26 31 21 23 21 17 21 19 29 26 30 22 20 26 23 32 23 20 26 27 18 28 20 20 23 32 15 26 25 23 18 30 18 27 23 21 25 24 16 22 25 29 25 27 18 21 21 33 20 25 16 25 23 20 30 24 20 17 22 28 32 15 26 29 28 18 19 25 27 29 25 22 26 25 35 25 19 32 31 20 27 26 21 25 20 19 25 28 24 21 20 25 31 27 20 29 23 23 19 22 26 19 26 32 26 29 17 26 20 26 25 25 35 23 17 13 21 25 23 23 23 27 34 29 26 17 21 28 20 19 20 27 25 26 30 17 31 37 20 32 26 29 28 29 25 19 22 21 19 24 19 20 30 29 28 24 25 16 27 18 24 16 19 28 29 30 15 29 30 24 28 20 20 23 23 28 23 21 29 18 21 23 21 23 26 28 22 24 26 25 30 25 28 24 28 25 24 29 23 26 30 23 21 26 21 21 22 19 26 30 32 18 26 23 21 19 24 25 31 28 25 24 27 21 27 25 19 24 28 21 27 24 23 25 23 25 23 17 23 30 23 23 27 19 23 22 16 11 21 39 22 28 25 23 27 25 23 26 17 22 24 17 26 22 18 20 31 17 26 29 28 27 24 25 21 35 16 24 23 24 26 31 26 19 19 20 29 29 16 29 23 20 23 26 22 24 18 23 25 17 16 26 33 32 24 19 23 30 23 19 23 24 20 28 18 32 26 25 26 23 26 22 30 24 27 26 27 24 22 20 25 22 21 32 25 24 33 30 25 24 21 19 23 25 23 22 28 13 22 26 22 33 18 25 18 23 13 20 17 24 17 21 31 22 24 20 27 22 21 29 24 34 17 21 21 26 31 20 25 24 19 18 15 25 25 20 25 20 32 20 18 32 26 23 28 20 24 20 24 28 25 19 27 22 28 22 32 37 18 20 25 29 18 20 24 17 26 30 23 27 29 28 25 19 26 28 30 26 26 23 22 16 21 35 14 23 14 27 31 25 26 30 34 18 29 22 30 24 23 21 27 32 23 25 20 20 20 25 28 29 30 22 16 19 29 19 24 27 24 21 23 17 25 32 25 26 25 26 25 29 22 24 21 23 31 35 25 23 24 27 27 17 25 37 35 28 29 18 25 22 21 18 22 32 24 29 17 29 26 23 18 20 23 27 34 30 30 26 22 32 32 28 24 25 20 24 17 22 24 17 30 34 11 24 14 21 20 27 25 23 23 31 27 27 33 25 24 19 30 28 21 17 19 26 26 25 27 26 23 32 19 19 20 24 26 24 29 20 24 21 24 26 25 27 19 25 25 25 21 23 31 21 28 18 14 26 34 19 24 25 27 18 26 19 24 22 21 21 22 26 29 33 38 19 25 21 25 26 25 27 24 22 26 21 17 18 29 21 25 26 24 23 25 22 19 25 19 24 26 26 17 25 27 33 21 28 23 18 17 26 20 26 22 24 22 27 21 24 19 31 16 22 24 21 17 20 30 18 15 23 26 20 31 25 24 28 23 24 24 22 22 30 21 26 24 27 27 16 23 23 28 26 27 29 28 29 30 22 28 24 15 20 24 26 26 23 27 19 28 28 26 12 31 26 28 37 27 27 26 27 23 21 22 23 25 20 19 20 26 25 37 21 23 18 29 17 25 31 25 30 29 28 21 35 17 27 25 21 25 31 20 20 25 22 26 24 31 24 21 20 17 24 27 22 26 24 26 25 26 20 21 22 31 26 19 18 27 27 26 28 28 18 17 25 31 24 25 23 24 26 30 29 18 25 26 28 22 20 24 20 18 22 18 30 27 28 22 18 30 24 25 24 21 22 20 25 27 23 22 26 24 14 23 27 26 34 20 24 23 34 26 29 29 26 21 17 26 18 25 22 31 31 26 29 22 26 27 29 28 23 21 36 21 17 24 22 22 21 22 25 22 24 18 25 31 21 32 33 34 34 27 18 23 28 22 19 23 22 19 30 22 26 32 25 27 20 21 17 25 29 14 17 26 26 33 22 25 24 16 25 20 21 24 25 18 21 20 22 32 26 22 29 30 32 24 25 33 28 19 24 26 29 28 21 24 28 17 29 22 16 23 36 24 22 24 24 23 21 19 26 14 22 23 20 29 22 26 20 20 24 20 24 22 21 31 28 30 21 14 29 27 18 21 21 21 19 27 21 20 25 23 20 28 28 17 23 25 29 19 19 25 32 25 31 19 23 18 24 20 30 23 25 23 23 18 20 23 29 29 19 34 26 27 27 22 20 30 22 27 21 22 17 18 24 22 23 26 20 18 32 24 24 23 26 31 16 17 29 26 20 25 22 21 21 32 18 15 25 21 25 24 26 18 24 13 18 22 23 25 32 23 29 21 26 26 24 29 27 21 21 26 28 17 25 30 32 21 28 21 29 21 15 25 22 19 25 22 24 15 19 23 20 24 19 24 22 22 18 28 27 25 21 26 23 28 20 20 31 29 21 28 14 21 25 22 16 27 23 26 27 22 23 29 22 24 27 24 33 21 26 23 19 20 32 31 24 25 22 17 23 23 25 23 23 18 33 22 21 23 24 26 36 24 19 27 33 28 20 24 22 28 26 30 27 19 22 24 22 24 26 21 26 26 31 27 14 27 20 25 24 27 23 15 18 21 19 21 27 23 30 21 21 24 33 27 28 21 27 22 24 18 32 24 25 16 28 27 19 23 28 20 26 24 30 26 25 24 15 32 24 18 22 28 21 28 26 29 31 27 24 29 17 22 24 21 29 20 20 24 22 25 16 31 21 21 23 29 23 20 28 29 25 23 21 32 21 22 23 22 25 22 16 22 28 32 22 31 24 22 27 27 33 28 23 31 28 28 24 31 22 22 22 31 25 26 25 24 21 20 22 21 17 29 23 26 28 26 22 24 14 29 23 27 23 25 29 25 24 17 24 20 21 23 32 26 25 17 28 26 22 27 25 25 24 18 25 20 23 21 15 27 26 26 28 12 21 19 25 20 29 19 22 30 27 20 23 26 24 33 27 28 19 29 27 30 30 22 14 28 20 26 23 28 22 25 20 22 17 14 25 19 21 25 24 24 25 26 25 23 19 26 24 25 24 32 25 30 26 20 27 20 19 29 26 23 21 24 32 33 23 24 26 28 24 22 21 30 21 20 30 19 25 33 20 25 26 22 16 15 25 20 22 22 23 16 23 18 25 29 23 26 19 19 25 26 17 22 21 22 32 28 27 22 24 27 20 22 33 23 22 31 28 30 26 19 26 34 25 30 29 19 22 22 29 29 27 23 8 19 22 25 21 23 25 15 30 24 21 19 24 29 13 27 32 21 21 25 24 24 21 25 28 30 31 26 28 29 31 25 18 24 36 31 20 20 23 22 29 18 29 26 19 28 25 24 20 18 16 17 22 27 19 22 25 22 20 22 29 21 19 26 19 31 24 19 27 33 25 24 29 25 19 21 23 24 20 29 21 23 27 26 13 34 21 16 18 22 17 23 26 22 24 24 22 22 23 27 25 30 27 26 24 24 22 21 26 29 24 23 31 14 21 24 28 16 24 20 25 25 23 30 23 24 21 20 25 16 15 23 25 21 29 30 17 22 22 22 28 21 26 22 23 30 30 33 23 22 23 29 27 24 23 29 31 23 28 28 22 21 27 18 20 24 23 20 22 21 31 24 20 21 24 24 25 24 14 20 23 22 23 21 27 29 27 28 23 27 21 22 20 25 22 24 30 25 26 27 27 29 30 21 20 26 22 21 24 24 22 24 19 25 18 24 20 18 24 25 27 30 26 23 29 21 18 26 21 26 20 28 16 30 21 16 30 32 20 27 26 23 22 23 28 21 27 26 17 22 22 23 21 21 14 29 18 26 31 22 27 23 27 26 21 17 26 23 18 21 22 26 22 31 21 37 22 30 27 19 25 33 24 25 19 25 19 24 20 14 25 25 24 37 24 20 26 22 21 22 19 23 27 24 24 21 18 26 24 26 21 16 23 24 21 25 20 30 20 18 23 24 24 23 22 33 27 20 17 28 25 25 31 25 29 28 29 33 23 19 24 25 28 28 26 25 23 21 27 20 32 40 15 28 24 33 25 24 27 24 18 29 24 24 28 21 27 19 22 19 14 27 25 26 24 25 12 19 20 20 26 22 22 26 26 17 21 19 23 23 24 17 23 29 23 16 25 27 23 24 25 21 21 23 26 28 24 18 21 22 20 23 18 28 22 19 29 24 23 29 21 24 21 19 20 26 25 27 22 25 19 31 32 26 17 19 24 28 27 24 29 22 26 18 30 19 27 20 15 25 27 23 19 37 22 21 30 25 26 31 21 26 29 28 17 27 23 26 24 25 24 21 29 19 28 19 26 30 22 26 19 23 23 30 28 24 26 30 18 24 24 18 37 22 34 27 29 19 18 27 17 28 33 27 17 25 23 22 19 12 22 28 24 27 17 20 18 29 28 26 20 25 22 18 25 33 24 24 31 17 23 24 24 26 20 25 17 30 24 25 27 27 22 17 18 26 21 24 25 17 18 26 31 15 29 28 28 22 20</t>
-  </si>
-  <si>
-    <t>JSU(-7.638604296707361, 8.873068008079162, -1.0953468964985853, 37.07185024728948)</t>
-  </si>
-  <si>
-    <t>32 33 28 31 38 29 29 28 39 22 33 37 33 36 28 35 42 37 35 27 37 29 38 35 30 45 50 36 37 39 39 45 40 37 36 41 42 32 32 25 32 38 32 37 30 29 34 40 32 32 35 34 37 29 28 43 27 27 31 35 36 48 37 32 31 32 39 33 24 32 33 40 46 37 39 34 30 34 36 32 29 42 38 32 46 31 33 37 36 28 29 36 37 36 32 32 35 41 37 36 40 37 34 49 38 32 27 42 34 42 38 42 32 34 41 33 40 29 48 32 25 32 34 31 36 33 31 42 34 39 34 25 27 40 44 47 32 35 38 43 40 33 29 40 32 27 23 24 38 23 46 43 44 31 45 31 41 34 38 35 36 31 26 30 33 35 33 40 32 33 31 30 38 29 36 36 31 33 41 42 36 38 33 24 34 40 32 44 33 37 40 36 38 34 42 38 42 35 47 31 42 34 28 42 41 35 42 38 38 38 44 31 41 37 42 34 28 30 33 30 57 29 37 32 39 33 30 29 36 34 39 33 34 35 24 43 48 37 40 35 31 28 39 36 44 35 44 38 32 41 36 40 34 25 31 34 25 39 36 42 49 33 35 38 36 38 30 32 41 33 38 41 39 34 37 33 38 30 25 32 35 42 30 25 36 34 36 34 34 32 37 29 21 39 34 36 36 33 32 34 46 41 34 42 43 29 37 41 30 28 33 28 39 23 41 36 37 30 47 41 36 33 27 31 51 29 38 30 27 26 40 42 27 32 35 43 37 38 36 32 35 35 37 29 25 38 40 41 31 32 33 42 38 30 47 35 43 33 46 51 27 30 33 32 34 31 32 34 33 30 33 30 37 36 35 40 32 34 35 35 32 42 37 31 34 33 41 39 33 34 35 37 45 42 35 36 36 35 40 40 42 38 30 36 36 42 33 30 38 37 32 25 29 38 28 39 36 41 26 45 29 50 35 24 43 40 36 47 34 28 35 29 39 34 29 40 40 39 39 31 38 30 34 32 34 27 32 24 33 30 43 23 26 32 40 32 37 34 27 30 37 35 46 38 30 31 26 33 23 35 31 33 25 34 30 38 30 40 43 30 30 34 30 35 30 45 39 32 33 35 36 32 29 41 40 38 37 30 34 42 42 34 46 23 40 40 33 34 36 35 38 35 17 36 34 35 26 39 36 44 34 32 35 38 42 38 29 42 33 33 39 35 41 43 34 41 42 39 33 44 41 51 36 34 30 34 30 47 42 36 37 38 43 38 28 36 33 29 38 27 28 38 28 40 31 39 43 39 29 47 30 43 36 37 48 35 37 45 32 43 51 38 35 40 35 45 37 33 37 35 29 40 34 35 49 35 39 29 36 38 39 41 40 34 37 31 46 46 40 21 38 35 36 30 31 34 29 30 41 37 49 36 37 29 40 40 26 35 32 33 42 40 36 35 36 37 30 38 31 35 36 37 47 43 38 32 33 29 28 28 29 34 43 46 42 40 22 34 42 32 27 37 36 35 43 39 40 34 28 40 27 40 33 29 30 28 48 46 43 46 37 46 42 28 42 33 34 31 30 38 31 26 35 31 35 46 40 37 27 34 31 33 47 23 35 39 40 44 28 30 32 27 43 25 29 29 36 26 35 30 34 27 26 42 35 47 40 44 42 38 38 40 35 37 37 40 37 42 45 33 33 58 39 39 33 30 34 37 30 42 43 38 32 43 33 30 43 26 36 36 37 35 37 35 30 29 41 36 37 26 36 36 32 41 28 35 37 40 37 26 39 38 41 30 37 37 37 30 34 38 36 30 45 31 38 26 39 38 37 46 39 36 38 20 37 25 38 50 27 36 43 43 43 38 37 36 48 35 32 34 49 29 35 35 39 45 28 41 32 39 31 35 39 34 24 34 35 46 25 51 30 36 35 22 33 42 34 33 38 43 48 32 36 36 41 30 35 35 29 35 18 47 23 29 41 35 37 28 34 48 43 38 32 35 28 30 34 32 37 29 27 31 36 41 25 33 38 42 22 34 38 42 34 35 35 40 28 38 28 26 46 31 28 21 29 39 39 28 28 42 39 41 35 38 30 31 39 35 34 31 27 35 34 40 32 47 44 28 37 34 36 30 29 34 46 37 33 36 50 35 40 35 38 27 34 39 30 24 32 43 43 44 36 39 29 42 28 25 44 42 33 38 33 33 28 40 30 30 18 36 35 36 27 37 39 30 38 32 34 34 34 34 50 27 37 30 26 34 34 32 26 41 26 30 36 29 39 33 41 28 35 45 36 38 35 31 25 45 35 34 34 43 34 45 36 32 43 34 45 35 47 41 28 27 33 26 47 34 26 40 31 33 38 33 40 32 41 36 45 39 35 44 29 40 31 32 36 36 38 40 41 36 43 36 27 35 34 31 43 44 24 30 40 33 36 42 38 44 45 29 36 38 38 32 37 43 44 31 35 35 28 27 32 33 40 24 34 32 45 28 35 38 37 37 55 38 28 27 38 36 32 29 31 45 29 34 39 25 42 36 32 32 41 31 16 21 34 30 42 28 41 34 47 47 29 34 38 34 33 38 26 28 36 46 41 37 34 29 38 33 34 47 32 36 31 35 34 38 32 28 40 36 40 32 36 43 34 37 45 34 47 35 30 43 31 30 48 38 38 30 38 46 38 44 32 36 25 45 42 38 37 42 29 23 41 42 37 31 37 37 36 41 35 31 32 33 42 33 29 36 28 39 28 39 36 30 42 32 32 34 41 28 33 32 28 47 43 33 37 35 35 32 38 35 32 39 33 36 38 29 38 29 26 26 46 29 38 36 23 48 39 42 43 39 32 30 32 35 40 44 33 27 32 39 43 32 41 28 32 32 36 44 33 36 35 45 36 29 39 39 43 47 32 28 41 42 38 35 27 35 33 29 41 35 26 29 35 47 39 35 39 37 33 35 49 27 31 39 34 37 24 37 30 38 42 33 29 34 44 48 32 42 39 38 25 38 42 32 34 36 28 48 32 30 44 27 36 33 43 26 37 28 34 31 42 40 31 39 29 31 34 40 35 34 29 30 32 35 30 28 36 42 32 31 36 39 36 31 29 40 36 32 41 43 25 34 35 38 31 32 32 40 33 34 46 33 40 34 45 33 26 31 40 36 38 28 38 51 45 33 31 35 39 31 25 40 34 37 36 21 43 29 40 28 53 38 30 46 42 40 31 39 37 35 35 28 29 30 37 37 39 31 49 32 38 29 34 36 26 27 34 34 34 42 44 28 45 26 36 33 34 33 30 35 36 37 51 31 36 37 39 32 28 37 44 41 30 42 41 41 32 40 32 34 34 36 32 37 36 39 38 37 36 36 38 43 34 31 34 36 34 38 36 36 38 26 37 49 36 30 31 44 41 34 45 34 28 25 34 30 33 27 34 35 33 35 30 31 43 30 32 33 39 29 39 34 34 33 37 36 47 40 31 40 28 41 35 35 27 34 37 31 33 38 32 33 29 34 48 39 33 30 37 30 33 49 34 41 27 28 35 27 41 31 38 34 34 31 31 36 45 22 35 31 37 35 36 37 19 41 33 32 26 40 30 38 39 36 35 39 31 49 29 46 41 43 37 35 51 38 32 32 27 35 28 35 34 31 34 37 31 37 21 41 49 37 30 35 36 26 36 36 29 30 38 34 38 40 41 46 35 31 40 32 38 41 29 35 39 33 26 34 42 31 36 31 33 42 50 38 43 45 42 27 37 32 35 38 31 35 39 47 38 35 35 27 36 42 31 37 34 22 38 37 40 42 30 36 33 27 42 35 33 35 30 34 28 36 35 32 29 30 31 29 38 38 31 29 35 34 33 45 27 38 34 29 39 34 39 29 50 45 26 31 27 32 43 41 35 30 29 41 32 32 34 38 37 38 29 40 38 34 50 32 36 40 34 35 31 32 50 37 38 39 28 29 35 28 38 33 37 37 26 35 28 42 26 30 32 47 28 36 30 26 31 27 33 39 39 36 41 40 40 27 29 34 33 35 31 40 30 31 50 29 26 37 23 38 41 35 35 45 41 30 31 37 26 31 25 26 34 39 35 42 39 25 34 31 32 40 39 49 34 36 37 32 33 35 44 40 29 32 27 23 36 37 37 42 32 37 29 35 31 35 36 31 34 38 29 23 32 28 29 38 44 36 37 36 30 27 36 41 39 36 31 35 23 34 37 47 28 41 34 31 38 39 45 28 33 41 39 47 30 45 24 36 26 32 43 41 32 25 29 37 27 41 42 36 38 35 30 33 30 30 39 37 38 36 29 28 41 32 46 25 38 40 34 35 31 31 28 31 31 35 34 33 52 25 44 38 36 32 34 33 38 38 37 40 48 34 29 47 47 50 40 41 33 33 32 42 31 31 30 29 41 36 51 45 33 22 30 38 32 32 32 31 34 31 39 24 45 41 46 36 35 35 29 27 29 44 32 54 34 29 36 39 37 45 28 30 51 32 35 29 39 32 36 28 30 38 33 37 39 30 43 38 30 29 44 24 42 39 33 40 24 18 29 30 39 40 41 34 30 43 30 38 31 30 26 40 40 37 38 31 30 33 39 30 34 28 28 34 32 29 39 30 35 38 29 36 36 42 34 35 32 28 30 37 36 29 36 36 43 39 45 26 34 36 36 27 37 34 37 36 27 33 36 24 34 39 36 35 35 21 41 43 24 32 31 47 41 30 31 34 37 41 35 29 24 39 34 47 30 31 27 20 33 38 42 36 52 36 40 32 32 35 39 32 34 32 31 35 36 39 49 33 32 37 32 33 30 41 38 38 30 37 36 35 37 44 38 37 41 37 38 47 42 34 35 32 33 35 34 36 23 30 34 32 28 37 36 32 34 33 31 29 47 40 31 32 36 39 25 36 35 45 47 41 33 31 27 32 26 31 33 31 32 36 31 37 24 34 34 29 34 28 29 37 43 37 34 23 37 39 41 39 34 39 31 30 30 30 37 35 26 40 41 32 36 33 27 34 28 40 31 47 25 36 29 29 37 25 33 44 35 32 30 38 39 32 37 35 39 40 25 19 29 35 31 24 42 35 31 29 28 31 28 38 28 47 43 31 35 57 45 31 25 34 39 30 30 32 30 33 40 31 28 42 26 30 37 41 33 35 31 32 17 40 37 29 31 32 37 40 24 38 29 38 32 33 29 42 24 40 50 36 30 35 25 33 31 25 34 28 42 34 40 33 33 34 32 32 33 33 43 33 45 34 35 21 31 43 34 37 31 41 29 48 42 37 30 44 30 42 30 36 30 30 30 37 35 37 27 22 33 32 44 19 36 29 33 38 31 25 29 30 38 41 40 35 37 25 31 27 33 47 34 36 30 36 30 29 25 35 44 30 32 41 33 25 44 35 35 37 37 37 37 37 31 29 31 45 41 40 36 36 41 49 27 35 41 43 34 32 50 31 26 32 35 31 34 34 32 32 44 41 35 27 37 32 51 31 29 33 33 30 47 39 34 39 26 34 36 34 36 38 24 28 40 36 42 40 34 35 31 41 34 46 38 42 34 45 48 25 33 38 41 47 40 39 37 35 41 28 39 32 23 25 40 30 35 33 38 31 34 36 35 33 31 44 46 38 33 32 38 47 33 29 31 30 39 37 39 38 33 43 25 33 44 37 33 28 29 43 43 34 38 32 44 47 35 35 39 31 35 36 38 37 32 29 37 38 33 36 41 30 37 43 31 26 31 24 32 38 32 33 40 34 47 45 31 31 36 51 46 28 39 31 43 20 23 42 34 37 35 19 34 31 35 32 31 38 30 47 28 46 45 35 35 28 36 42 33 30 31 34 28 32 31 53 40 33 34 31 33 44 40 43 33 38 38 29 22 35 32 24 31 30 31 49 37 24 30 41 39 38 35 37 32 47 33 36 35 30 32 29 31 29 38 37 44 34 34 35 42 35 31 36 29 41 26 34 38 29 37 39 37 45 32 34 37 33 40 35 31 33 32 39 30 30 28 38 31 41 45 35 32 39 32 37 27 46 45 35 26 38 28 38 40 34 23 38 33 23 34 42 33 28 31 33 37 39 32 42 34 39 30 26 35 30 35 27 46 32 30 49 25 52 40 40 27 32 44 29 32 44 42 36 26 38 28 31 29 50 35 32 32 36 32 41 38 39 38 33 33 35 38 36 52 31 37 35 48 36 44 34 37 25 33 32 31 34 32 30 31 34 38 38 27 36 31 23 29 41 39 36 45 40 32 38 37 38 40 37 34 45 42 37 40 34 38 29 43 33 32 30 43 27 32 35 41 38 38 32 36 34 34 28 29 29 40 35 34 34 35 32 35 38 30 35 41 33 38 37 39 44 32 42 30 21 38 29 38 53 29 28 48 44 28 25 36 38 38 40 38 35 36 27 37 32 33 35 28 36 37 41 41 27 28 39 30 46 52 33 54 34 25 38 30 33 31 40 37 51 35 34 30 33 29 36 27 39 39 51 38 42 40 28 30 33 35 26 35 32 34 31 27 41 46 31 30 45 31 31 35 44 29 33 27 28 34 42 36 26 31 44 43 41 41 41 36 25 28 31 27 30 37 48 29 29 38 37 43 29 32 40 39 32 41 36 24 42 32 40 44 32 41 34 41 26 28 36 29 34 28 31 33 35 22 25 20 37 37 33 34 33 34 33 38 42 40 56 44 34 26 37 35 40 40 38 38 40 35 53 31 35 37 27 29 23 39 35 32 40 35 38 39 31 35 30 29 35 36 33 36 32 33 37 30 35 33 28 40 29 40 37 45 48 46 43 29 32 38 41 31 41 30 45 25 32 35 46 36 42 43 33 41 37 28 37 31 44 41 39 30 31 32 37 33 30 36 29 27 39 37 38 43 26 44 44 37 30 24 32 30 43 39 41 30 44 38 32 37 40 34 35 35 31 33 30 33 39 36 31 36 36 53 34 33 37 28 29 39 40 25 48 35 42 31 30 32 41 38 36 36 44 33 31 25 41 38 38 31 40 42 39 36 32 40 38 29 40 24 31 45 41 45 28 19 34 29 39 49 38 29 34 37 30 52 35 44 32 34 50 42 30 32 45 36 38 44 43 38 37 33 39 36 39 31 36 40 34 43 36 28 35 35 27 28 31 41 35 33 32 39 39 31 29 44 51 32 37 43 25 34 34 33 33 30 23 36 29 39 40 33 44 25 42 43 37 33 40 35 43 19 38 40 41 28 43 46 34 47 40 43 37 30 45 32 37 40 27 23 48 35 44 39 35 30 24 34 47 40 44 39 31 48 35 23 36 37 34 27 40 39 35 36 26 33 37 37 39 28 29 36 27 37 38 36 33 44 34 34 30 48 40 47 36 34 32 40 26 38 30 35 40 44 31 29 45 18 27 36 45 33 34 37 34 35 31 49 31 31 34 40 37 40 38 25 31 34 45 36 26 46 30 41 34 28 39 25 39 38 38 27 39 32 37 32 34 37 33 36 31 34 34 28 39 35 36 43 49 45 25 31 35 35 40 35 28 31 26 26 38 38 40 27 34 34 30 28 30 34 28 31 37 30 40 36 30 28 32 38 27 41 33 42 36 38 38 40 39 24 33 42 28 37 36 36 32 29 44 46 24 40 34 40 40 34 34 38 34 38 33 41 40 33 37 37 35 33 37 31 54 26 36 29 34 41 39 34 32 37 22 32 41 36 33 31 35 29 31 34 25 32 43 39 32 37 31 43 35 33 26 36 34 45 40 41 36 39 33 44 43 28 26 42 46 32 30 30 38 35 36 32 41 39 37 35 33 34 25 33 32 32 34 31 48 35 28 38 27 34 31 30 44 41 29 33 42 40 33 36 31 28 32 36 31 36 37 31 34 35 27 25 45 27 44 32 37 34 32 44 39 29 30 31 39 43 22 31 35 36 42 42 46 33 41 34 34 41 39 40 29 40 26 37 35 33 32 27 33 38 35 31 44 41 41 32 28 34 35 41 30 44 32 41 42 34 29 22 33 42 39 37 31 33 41 36 26 35 33 37 30 44 32 25 46 38 36 32 39 44 35 47 36 29 35 39 37 36 44 43 33 38 35 47 36 43 33 39 31 35 26 34 51 44 33 37 40 38 40 38 44 30 34 33 31 34 37 31 39 37 31 28 42 25 33 40 40 31 30 34 36 31 30 42 33 37 42 37 35 37 37 34 26 38 35 36 32 38 37 37 33 38 43 38 33 48 27 29 40 26 26 27 29 31 33 38 38 32 34 42 40 25 36 36 27 27 42 32 23 49 33 35 41 38 36 39 32 35 37 29 38 35 26 34 42 40 37 38 28 29 29 31 29 30 35 47 50 33 30 29 33 41 32 34 45 43 30 45 41 43 36 30 31 29 30 27 30 34 37 38 36 35 30 31 27 28 37 30 22 46 33 39 28 34 31 43 35 27 32 39 32 28 28 25 35 35 42 33 35 42 39 39 32 32 30 30 36 37 34 41 30 47 34 48 42 32 36 38 39 32 41 40 34 38 39 31 39 39 38 32 43 28 29 42 25 29 43 33 32 34 26 36 38 39 37 46 29 35 28 30 26 38 34 33 38 39 29 30 32 38 27 29 30 51 33 39 25 28 38 32 39 37 24 28 36 34 35 41 28 40 35 27 46 31 31 30 34 36 54 33 31 33 40 37 40 36 43 36 26 36 42 39 32 38 35 30 28 25 29 39 40 31 33 51 38 36 26 29 34 32 29 30 39 40 32 32 35 28 42 33 43 48 36 43 32 34 48 28 35 28 26 40 38 32 42 34 41 34 34 30 27 54 29 38 29 36 42 41 32 28 38 28 45 26 27 35 35 31 39 27 45 29 21 40 30 39 35 36 39 36 37 37 31 30 25 32 47 57 33 34 32 34 34 28 34 35 33 35 38 29 40 39 43 28 32 52 33 38 33 27 49 36 34 44 37 32 38 29 45 41 42 44 28 39 42 40 33 34 31 33 37 36 38 18 29 48 29 29 35 38 31 31 28 27 26 36 38 35 40 36 33 35 29 27 36 32 32 36 37 26 28 48 38 45 37 30 31 29 31 39 32 23 29 33 36 32 38 32 40 48 40 44 31 44 36 34 33 36 24 32 34 42 35 36 30 28 26 29 35 32 36 36 46 34 29 43 34 34 35 28 40 32 42 22 24 27 37 40 33 48 31 40 45 38 50 32 35 27 25 34 34 32 23 40 30 31 41 34 34 45 46 32 34 37 38 40 37 33 25 37 29 31 37 35 31 37 28 41 31 53 35 43 36 36 31 39 24 35 32 34 33 33 37 43 33 37 31 39 52 36 40 27 34 38 22 33 27 31 43 41 29 38 34 31 41 40 26 29 30 36 37 39 29 27 30 36 28 36 44 34 39 32 36 26 32 44 40 34 32 27 33 37 28 51 32 35 32 31 22 32 36 27 33 42 33 37 29 41 37 43 41 33 39 33 41 39 35 31 24 29 41 32 33 49 35 34 37 33 46 34 30 43 34 49 31 40 40 38 37 32 30 41 33 37 40 39 34 42 30 35 35 36 31 34 31 31 26 29 35 31 33 33 28 49 34 31 43 40 40 38 39 33 35 27 40 34 32 41 34 34 36 38 36 36 40 31 26 32 42 41 36 37 24 47 30 30 42 42 36 31 25 30 30 26 35 38 32 26 19 36 23 33 27 29 40 44 37 32 39 30 25 35 34 40 34 35 34 33 37 25 32 34 24 34 31 37 35 37 36 35 38 34 37 39 39 25 30 36 35 39 33 38 32 35 33 45 36 42 29 37 18 32 36 30 35 39 31 35 25 30 33 40 31 41 32 34 32 43 38 40 41 28 36 35 34 38 34 45 36 32 36 38 36 37 36 30 26 53 32 22 30 30 31 31 34 30 37 34 39 44 39 45 37 42 34 27 43 39 25 32 26 27 29 31 42 33 39 24 35 30 38 36 34 17 28 33 43 36 49 31 25 34 44 33 33 37 35 50 33 38 38 27 35 35 43 36 34 28 29 35 33 46 36 32 35 32 37 37 34 38 38 30 39 31 33 38 31 40 44 50 26 42 44 37 38 30 31 29 26 31 51 32 28 41 41 29 41 28 37 38 34 36 35 33 40 31 37 35 39 34 36 38 33 39 38 36 39 31 35 36 39 34 35 39 32 37 42 33 25 27 35 37 39 35 29 44 31 34 36 32 42 20 35 42 35 39 37 29 49 33 42 39 43 41 38 31 44 31 37 36 39 37 40 37 36 28 42 32 39 32 31 34 32 31 36 37 42 35 31 28 23 32 36 34 31 43 33 42 25 30 48 29 27 28 43 36 39 35 38 39 34 36 18 27 28 35 34 36 40 43 31 38 30 31 32 28 29 27 38 34 44 31 37 33 31 31 41 35 30 43 37 36 38 32 39 31 35 28 31 40 31 29 47 36 30 33 31 31 23 44 21 32 26 38 30 26 30 37 31 29 31 37 35 30 24 35 41 27 32 44 23 25 29 29 31 37 33 26 40 35 40 34 23 41 34 28 35 31 37 36 40 31 43 38 44 31 39 37 43 33 31 45 31 39 40 36 40 39 40 44 39 35 32 26 36 37 36 52 26 40 38 26 38 32 44 39 28 50 37 37 34 29 43 26 32 37 33 40 46 36 34 34 34 46 40 34 35 43 42 32 28 46 35 40 33 28 30 27 32 36 33 29 36 38 41 31 39 33 29 30 32 36 33 47 37 35 39 29 28 24 32 35 35 33 38 36 31 44 24 39 36 38 31 33 37 40 32 35 42 39 39 40 31 34 33 38 29 39 34 28 36 43 41 38 43 33 35 49 35 30 26 32 30 36 37 29 21 35 31 27 27 45 33 33 34 34 28 29 35 36 35 38 49 24 34 31 29 37 43 30 46 32 41 32 35 30 32 46 42 32 42 33 44 41 32 32 33 45 31 36 34 37 42 27 43 32 44 42 35 33 54 31 36 40 33 34 33 45 38 48 29 47 35 33 29 38 40 30 33 54 35 47 35 34 37 35 33 36 42 35 33 35 28 33 32 42 29 40 35 50 31 40 38 42 32 42 42 43 37 45 37 33 26 30 31 32 37 35 21 34 38 34 41 34 35 25 32 32 28 37 36 21 34 29 38 33 30 34 37 30 42 37 43 27 28 32 47 28 38 39 40 20 32 31 46 38 44 31 32 34 30 28 25 31 32 41 27 31 37 33 45 40 41 31 38 38 32 41 32 44 39 34 35 33 31 25 36 32 32 40 40 31 32 40 25 31 32 35 33 38 32 42 26 37 40 27 33 43 35 29 37 34 37 42 38 60 42 31 42 41 45 43 40 29 36 37 40 31 38 40 47 40 40 36 42 35 33 33 35 37 32 32 28 32 33 29 30 32 27 27 29 27 39 29 32 34 27 32 37 40 46 40 44 31 37 29 41 33 30 32 28 26 39 34 30 30 48 29 30 31 30 34 35 33 34 23 32 27 30 35 36 35 32 29 34 38 30 37 27 36 38 33 31 35 37 38 28 27 50 18 31 24 27 31 39 39 44 26 33 33 40 36 37 25 28 49 31 36 29 26 35 38 32 37 38 36 32 38 25 34 38 30 40 43 32 36 23 44 44 34 32 27 30 36 37 28 47 39 34 34 43 35 36 32 44 38 37 34 32 29 33 32 36 43 36 39 29 35 36 36 38 30 38 31 44 40 36 41 29 37 34 34 45 32 36 32 38 40 35 31 25 35 39 47 34 31 30 39 34 31 33 40 34 34 36 36 37 29 25 37 39 24 31 44 33 25 33 26 25 35 34 22 45 40 27 30 27 28 38 24 32 51 48 33 32 36 42 41 29 39 32 29 35 43 41 34 31 36 39 38 44 35 39 50 42 28 23 34 30 33 36 41 28 40 38 33 31 38 41 34 38 27 33 39 35 34 28 35 42 35 41 29 37 32 33 37 34 33 39 32 43 30 46 34 32 41 34 41 28 24 25 52 32 50 35 22 36 29 35 37 33 33 40 47 31 35 36 43 43 35 36 29 33 36 31 37 38 41 36 26 28 40 34 42 32 41 42 30 39 39 26 45 29 34 28 37 29 40 27 44 42 36 36 26 29 32 37 29 30 29 25 31 29 34 39 35 32 28 32 28 43 28 32 39 54 30 28 46 35 36 37 45 33 35 38 28 39 32 41 37 28 41 28 38 40 34 37 39 33 29 31 39 37 31 28 31 31 34 30 36 42 36 32 32 28 43 29 37 40 42 39 33 36 27 30 34 34 35 23 30 30 42 45 29 36 44 24 34 27 33 32 39 39 31 39 38 32 28 30 27 31 37 34 48 28 33 40 31 36 40 42 43 37 38 37 31 33 29 41 47 43 22 44 30 37 46 37 41 30 31 31 39 26 30 29 30 43 34 35 37 38 33 37 39 38 42 31 42 35 35 36 31 33 30 33 35 40 37 36 33 36 30 33 31 49 38 46 28 35 34 35 34 36 32 42 29 35 27 29 25 46 44 42 29 37 32 34 33 34 32 29 44 50 40 31 46 31 30 35 29 41 34 27 33 27 39 34 35 34 35 42 28 37 26 36 40 34 35 43 33 49 33 39 29 35 39 38 33 36 35 33 43 33 30 37 26 36 44 35 38 39 37 35 38 34 26 42 37 23 37 32 47 33 36 37 35 31 38 37 36 32 39 34 33 38 36 37 27 31 35 34 42 37 39 30 34 30 28 30 29 35 33 39 40 39 42 43 41 34 42 37 25 36 39 40 35 32 26 37 35 32 28 45 19 32 29 36 34 39 42 31 27 32 36 42 41 33 32 32 47 32 32 43 41 32 29 26 31 27 32 30 31 38 38 30 29 38 38 41 38 30 32 34 37 38 25 38 43 39 28 32 27 34 31 48 35 47 36 43 46 30 31 25 31 32 37 26 37 34 37 37 30 35 33 44 22 37 27 38 31 33 36 39 43 37 44 30 34 38 48 39 39 40 32 32 41 43 29 36 31 38 28 36 27 37 39 40 33 40 37 26 40 33 37 33 31 36 26 33 39 47 43 38 34 41 29 26 39 36 48 34 34 51 22 36 25 32 42 38 38 38 23 42 42 35 23 38 42 41 47 34 45 41 31 37 25 42 39 34 30 33 35 30 39 34 36 54 37 34 43 29 43 37 37 38 27 33 47 41 36 32 36 35 26 32 32 39 47 30 44 42 38 45 36 32 34 31 35 45 35 44 30 32 31 41 35 33 27 34 39 40 36 31 28 37 41 33 33 31 30 34 41 40 53 33 37 24 33 38 38 35 33 40 18 42 35 25 34 34 29 41 27 31 28 29 32 41 44 37 21 25 32 25 41 29 43 33 31 42 34 34 34 37 49 33 32 41 33 38 36 31 36 37 27 36 27 34 45 31 35 36 26 27 31 40 47 37 31 43 39 30 24 39 35 34 44 37 46 28 35 25 37 36 33 48 36 39 36 37 34 30 37 32 34 37 46 32 35 38 41 45 39 36 32 35 25 40 33 28 41 31 40 32 32 35 30 40 42 46 43 39 23 26 42 27 40 28 35 35 30 33 45 51 35 42 39 35 34 36 42 37 38 34 28 38 26 30 32 32 35 39 37 39 40 43 29 35 33 30 39 43 35 36 33 35 35 49 29 38 37 45 37 26 34 41 38 34 37 28 34 34 45 35 38 50 39 41 27 35 26 36 31 32 34 42 34 41 40 50 27 32 49 42 35 38 28 35 34 29 25 32 37 34 34 36 40 42 25 29 35 41 34 35 38 39 42 34 32 40 33 29 33 38 30 37 34 40 36 54 33 36 43 36 29 35 25 36 41 29 33 38 25 43 30 45 26 43 28 42 36 28 34 33 22 32 34 41 44 34 31 24 35 28 34 36 33 43 29 37 22 34 33 42 32 38 34 38 46 36 26 35 38 33 37 30 35 43 33 29 31 40 39 33 36 32 48 36 33 30 30 34 40 40 26 36 47 34 36 41 30 40 26 33 25 25 27 29 32 38 38 39 46 40 28 39 38 45 35 32 32 34 29 32 27 35 28 31 34 32 32 29 36 51 44 30 32 36 27 29 32 38 36 44 32 26 48 29 35 27 34 31 35 30 41 37 36 35 30 33 38 34 36 34 28 34 34 32 32 38 30 34 39 31 31 45 26 31 34 41 33 37 31 32 40 38 39 41 28 28 34 37 34 32 31 37 43 30 35 36 29 38 42 31 36 31 25 35 39 41 48 36 34 29 32 34 36 49 38 29 28 25 50 37 30 34 26 35 41 32 38 41 34 28 45 38 44 37 33 44 42 39 36 35 30 27 37 26 35 54 34 31 36 36 34 31 30 35 38 35 41 35 40 43 36 39 31 33 33 42 34 33 43 33 38 38 43 36 29 38 34 32 37 37 33 34 37 38 33 32 30 41 34 39 33 43 36 34 32 35 40 29 36 38 43 38 34 32 25 36 42 30 33 30 35 33 33 33 34 35 39 38 31 34 39 39 40 45 40 35 38 43 32 35 36 35 40 39 27 44 31 45 41 38 30 33 29 42 38 36 43 30 24 38 36 42 42 43 29 40 36 30 45 36 28 39 46 39 33 33 33 37 32 36 30 28 27 54 49 35 42 36 41 35 34 34 27 31 42 34 36 34 31 33 37 30 32 34 45 26 38 30 34 34 31 32 36 39 32 31 36 35 27 38 45 36 29 42 44 29 42 40 31 30 37 34 33 33 39 33 32 35 36 32 35 36 51 32 30 30 25 37 41 37 33 29 37 35 32 40 27 40 36 38 34 40 34 29 31 42 40 25 36 39 28 35 30 32 29 32 36 24 41 38 40 33 31 38 29 34 43 34 31 30 33 23 28 40 39 33 32 33 41 25 43 34 35 32 35 28 34 52 32 43 32 39 35 32 39 45 33 45 43 43 37 38 34 37 40 38 33 43 37 39 46 44 29 36 32 44 43 43 32 29 36 37 35 39 41 32 40 47 31 42 34 39 34 38 22 37 35 45 33 37 30 33 37 37 34 45 42 33 34 28 29 44 19 41 30 37 32 35 36 41 45 46 27 33 35 34 40 41 36 24 35 35 36 35 27 34 32 38 29 31 36 38 29 37 34 40 32 42 42 38 35 41 33 37 31 30 34 28 34 31 35 33 22 31 44 27 36 42 34 28 35 24 49 33 31 34 41 40 38 26 31 50 28 38 33 31 35 37 43 40 38 36 38 39 27 33 33 38 30 42 33 44 32 29 29 25 29 30 37 35 31 26 28 35 42 40 36 30 24 41 42 32 37 36 47 37 33 38 33 33 31 31 33 29 41 36 29 33 30 43 36 32 40 37 27 38 35 26 34 37 33 30 37 37 43 37 34 34 35 32 32 31 36 26 28 40 37 45 34 33 37 27 38 51 34 35 29 32 36 33 33 30 35 34 40 42 43 35 37 24 45 36 35 35 26 40 34 38 30 46 26 22 31 25 41 37 43 34 32 33 30 34 36 28 46 38 39 29 42 37 38 26 34 35 46 27 42 37 40 39 27 36 34 37 33 38 37 34 37 42 38 37 24 41 37 30 43 31 33 34 34 30 39 39 44 47 34 30 37 32 29 41 33 22 36 41 32 33 37 39 45 29 29 41 38 45 32 48 35 30 56 40 28 38 32 36 47 33 37 36 25 33 35 33 42 43 40 31 35 37 33 38 33 42 34 22 37 39 32 32 50 37 32 38 33 40 29 38 45 31 41 35 31 43 28 34 36 27 47 27 34 24 37 24 32 33 25 45 41 30 28 34 34 30 31 33 36 28 35 29 30 31 30 37 25 39 42 29 31 42 32 37 41 34 30 32 36 43 25 34 36 31 26 38 34 29 30 32 35 35 42 38 34 30 34 34 33 36 41 36 31 32 44 38 33 36 42 36 31 34 27 36 27 32 42 39 32 32 32 36 30 33 45 39 37 46 31 39 29 28 41 35 31 38 38 39 28 41 35 26 41 30 39 46 33 30 36 33 28 33 29 34 34 33 47 42 31 35 31 31 47 27 34 36 29 33 30 31 37 35 35 31 41 31 40 40 40 24 37 42 42 31 32 24 35 31 29 30 47 34 37 48 32 41 35 36 32 38 37 36 40 28 35 28 21 25 20 40 37 46 27 31 32 33 38 39 39 37 35 22 30 37 35 36 40 40 41 37 37 33 27 33 49 23 40 44 38 32 24 44 41 33 40 34 31 30 26 34 34 43 31 41 42 36 36 36 37 30 30 34 40 32 33 30 28 35 49 29 27 27 35 24 33 37 22 45 32 31 39 32 38 29 29 33 34 35 45 34 36 32 37 40 37 34 34 27 39 29 23 37 42 41 33 39 40 28 39 29 36 32 38 30 24 39 35 31 36 26 30 33 39 34 30 45 42 35 36 31 44 36 41 39 30 27 34 46 24 34 29 40 40 36 36 39 32 41 27 45 31 47 40 33 41 34 39 39 26 27 36 24 32 47 33 35 30 40 35 40 38 28 33 29 35 33 33 24 29 21 42 49 35 28 28 37 28 32 35 29 29 31 34 38 40 32 44 26 28 18 35 31 31 45 33 21 33 40 37 37 28 47 33 25 49 31 30 43 27 27 31 39 29 32 42 33 30 34 32 44 30 40 23 32 25 26 42 30 38 27 27 34 38 42 27 39 34 34 34 31 18 40 35 33 37 36 38 35 31 29 27 33 45 41 27 38 26 33 35 34 36 32 27 35 33 38 45 42 37 43 43 44 37 39 44 38 39 37 33 41 28 39 40 29 31 38 31 35 36 37 33 29 42 35 42 34 42 45 25 31 26 46 38 33 42 33 29 39 37 35 40 25 37 30 40 32 33 40 30 41 35 34 43 28 46 29 19 34 28 37 29 30 34 32 29 38 29 42 36 40 34 37 33 40 30 35 42 37 35 31 43 37 40 37 38 39 25 26 35 32 26 42 34 43 31 31 41 36 28 41 32 35 33 26 26 35 34 36 40 42 43 30 35 26 51 57 37 31 31 27 27 43 39 38 44 34 34 31 40 32 27 39 29 33 27 35 45 28 34 29 34 36 33 38 36 35 30 33 32 36 34 30 50 31 34 31 38 35 32 49 32 28 36 33 40 35 29 28 35 36 37 46 33 34 43 37 40 31 40 41 33 35 35 31 48 34 39 31 41 29 31 22 34 31 38 35 31 43 29 35 31 39 41 37 34 42 29 29 39 31 32 44 36 39 41 32 33 25 35 29 32 40 36 32 39 42 32 38 41 39 38 35 36 39 30 47 33 39 28 39 35 37 39 33 50 32 32 32 30 29 40 45 48 37 41 40 43 32 37 43 29 44 31 28 33 43 32 37 29 38 32 32 34 37 35 46 26 30 39 33 36 34 39 38 50 35 46 38 32 34 31 38 46 27 41 30 37 38 36 33 39 38 47 32 36 43 33 29 32 33 40 39 37 52 45 24 31 23 32 33 30 30 40 34 34 26 40 40 38 25 30 34 52 27 32 33 42 37 33 36 34 28 28 34 35 41 29 43 42 31 35 40 39 30 27 33 32 31 34 34 44 38 43 27 40 31 31 32 39 37 38 31 33 36 23 41 37 39 40 34 38 33 40 32 37 38 34 36 28 28 44 28 26 31 34 29 36 29 33 30 43 29 22 34 36 37 30 28 39 37 27 28 34 25 23 42 29 47 38 32 38 33 40 36 27 36 22 42 31 25 52 36 31 41 34 35 33 24 29 25 42 31 34 37 38 49 30 35 43 38 37 37 49 36 36 41 35 40 36 43 41 35 35 36 29 35 38 40 34 30 28 39 35 40 34 29 53 38 48 39 34 29 27 30 39 37 36 35 29 40 35 38 32 37 48 41 41 38 36 37 41 29 45 35 47 30 37 30 41 36 41 35 33 22 42 28 32 20 33 36 36 34 37 35 36 30 34 30 37 20 39 37 39 36 38 30 37 44 22 30 30 44 32 33 40 34 43 31 29 48 35 39 40 40 43 28 39 32 39 28 29 41 36 40 35 36 35 45 43 34 33 35 45 42 28 43 29 40 31 35 39 36 34 38 32 35 40 30 28 25 22 37 35 30 38 38 42 36 38 35 41 44 37 32 33 30 34 29 40 38 58 38 28 41 30 43 30 25 36 40 30 42 26 30 37 44 26 38 31 31 32 40 27 37 29 35 35 37 25 32 45 39 34 37 26 26 36 43 38 31 23 36 35 39 39 35 35 38 32 35 47 24 37 48 36 27 35 33 38 42 33 32 40 37 45 41 31 46 47 30 38 36 31 35 27 31 36 41 33 35 35 39 44 40 29 39 47 34 28 40 32 24 43 45 32 36 32 35 25 38 40 34 44 32 26 24 40 32 34 31 27 39 51 38 43 26 30 42 40 33 30 37 33 35 40 27 43 55 32 40 34 43 47 35 29 27 31 32 23 33 31 26 42 38 50 31 36 28 39 29 33 27 35 46 39 44 32 45 40 33 38 30 32 37 37 44 31 31 35 33 37 36 29 29 37 35 33 37 36 39 43 38 39 34 40 38 36 42 31 39 39 33 38 41 26 29 38 37 38 39 46 31 39 33 29 27 37 37 42 35 42 33 39 28 47 34 32 33 39 31 46 33 32 33 36 39 28 23 32 43 36 38 42 32 34 32 24 23 34 52 37 38 37 33 32 34 30 37 34 38 34 35 32 35 27 29 49 29 42 44 38 33 35 39 26 49 32 38 32 29 36 43 37 32 33 32 37 40 31 46 37 37 37 39 35 36 30 41 38 27 37 45 45 41 31 38 32 43 33 31 32 35 34 39 30 42 36 43 39 37 35 37 49 34 38 40 41 41 30 31 36 36 32 46 34 38 48 40 36 36 36 25 35 32 32 38 40 24 33 38 28 37 31 37 32 31 20 35 27 39 23 33 48 29 32 28 32 31 32 43 42 43 28 33 31 43 43 28 30 38 32 26 26 36 33 33 43 34 43 33 23 53 30 37 47 29 27 29 32 37 31 28 39 37 45 35 43 47 30 39 32 40 27 34 33 23 40 43 37 39 39 47 41 41 44 38 37 38 34 35 33 22 29 43 28 34 28 32 41 48 36 38 54 31 41 31 40 35 31 34 39 42 36 35 29 34 31 41 35 37 41 33 24 30 45 26 29 36 36 34 35 28 34 43 42 41 46 39 32 44 32 34 30 29 43 41 34 36 46 36 47 29 34 47 51 40 39 38 37 36 39 25 36 38 33 38 29 36 34 34 34 33 36 36 44 41 37 34 28 41 40 38 32 38 28 39 34 32 35 27 35 47 30 47 27 34 32 38 31 30 38 41 38 38 44 34 41 26 46 39 35 29 28 38 34 37 41 39 35 41 34 30 27 32 34 36 36 30 34 40 30 35 38 35 28 39 34 31 30 36 43 38 38 28 24 33 44 23 34 35 36 24 32 32 33 33 23 33 30 34 40 41 47 28 34 35 36 38 41 31 33 38 38 28 23 26 39 25 33 37 31 28 47 30 24 39 26 41 41 34 28 38 39 46 32 47 35 33 28 34 27 39 34 30 33 43 32 36 28 43 27 26 35 35 29 31 47 30 25 31 33 27 47 30 45 33 36 31 37 33 33 39 29 36 36 38 35 32 41 30 38 37 38 37 38 35 42 31 40 35 21 27 34 46 32 34 44 29 35 39 36 23 47 32 41 47 45 39 40 38 32 34 40 43 35 25 33 38 37 44 51 36 31 27 39 30 34 42 34 39 43 34 32 45 25 40 41 36 37 39 34 28 33 45 36 39 38 34 37 38 25 37 44 23 45 34 40 36 33 34 35 30 47 33 30 24 43 45 32 40 37 27 24 35 47 35 38 40 29 34 43 43 36 37 31 42 35 29 36 33 29 36 27 38 41 37 32 25 46 33 35 35 38 32 31 38 47 46 29 36 31 25 38 34 38 45 33 29 32 45 36 43 40 39 31 33 36 36 30 34 45 36 39 41 30 43 38 36 39 34 31 47 27 31 35 35 35 36 40 36 39 36 27 34 36 30 45 44 45 45 36 32 37 47 28 31 37 33 26 44 30 36 46 37 37 28 28 28 36 34 25 32 43 40 45 33 39 38 23 32 27 39 35 37 36 38 30 35 45 35 34 36 45 48 37 38 42 37 32 33 38 37 43 29 37 34 26 42 29 24 39 47 37 29 27 36 29 32 31 42 29 24 43 31 38 39 41 39 27 40 31 29 34 39 46 39 43 36 21 39 39 31 30 30 36 40 31 36 26 46 29 34 37 43 22 31 34 33 33 31 35 46 42 55 34 39 29 33 32 45 39 34 33 32 28 30 38 37 38 37 48 38 36 40 30 27 34 37 41 29 32 31 33 28 30 35 37 26 33 49 32 36 31 39 42 22 32 43 38 40 38 29 31 30 38 34 28 34 33 38 34 42 31 37 20 33 29 32 38 43 33 41 31 37 38 28 36 38 32 30 40 45 19 36 41 45 29 33 36 43 36 22 38 37 32 37 32 37 22 36 30 38 32 31 34 36 33 28 40 34 38 32 36 40 36 30 28 41 36 31 35 27 31 38 28 29 34 35 35 38 35 30 44 41 32 37 41 47 30 32 30 29 29 41 35 35 36 40 22 29 30 40 27 33 32 40 31 34 43 33 40 41 38 33 40 43 40 30 38 35 40 31 45 41 30 30 32 26 32 43 30 35 42 41 38 27 36 33 31 41 40 35 29 35 35 33 33 43 38 40 31 30 33 43 40 36 30 36 29 40 25 54 42 34 28 32 38 32 34 42 32 40 37 44 37 37 34 23 42 43 33 29 38 33 33 41 45 39 36 41 41 22 32 37 38 39 27 29 30 31 37 28 39 31 28 30 41 30 24 36 41 39 36 30 39 29 36 37 35 32 29 28 39 38 37 33 39 32 26 40 40 49 41 33 41 36 42 47 37 36 40 35 39 31 36 40 32 36 29 35 34 32 35 38 43 43 40 33 31 31 35 33 34 31 34 42 30 34 28 32 36 31 32 43 39 32 33 37 31 34 39 31 35 37 25 33 36 31 30 24 40 41 35 44 23 34 35 39 27 38 32 35 39 39 32 37 36 34 45 41 36 34 37 39 41 40 42 26 42 33 38 30 40 31 44 27 39 27 20 45 32 28 40 33 40 39 41 38 33 31 39 45 34 34 37 35 35 31 36 36 27 26 43 46 37 32 35 48 45 31 30 43 43 38 35 34 38 29 33 37 30 38 40 25 33 40 32 32 26 42 32 33 36 40 23 32 27 38 47 36 36 27 32 40 32 25 28 35 34 47 39 34 25 32 41 36 36 47 36 40 42 39 36 37 30 35 42 32 41 45 26 29 39 39 38 44 28 18 34 34 33 29 36 38 24 43 42 37 31 44 46 20 37 46 34 34 34 35 42 32 34 36 41 38 41 41 41 45 42 27 35 47 43 37 24 29 30 40 22 49 35 38 37 40 38 27 28 28 24 31 43 30 37 35 29 28 33 44 37 32 34 34 41 37 31 34 39 43 38 39 34 43 26 31 34 29 40 34 33 37 41 22 45 32 27 24 36 25 35 34 38 31 34 36 35 29 40 32 43 33 38 40 33 38 35 38 41 30 31 48 27 28 36 42 30 31 32 37 35 31 40 28 38 35 30 36 29 28 28 38 34 45 42 31 29 33 30 38 29 37 27 35 48 39 45 34 36 31 42 38 37 30 46 42 29 41 38 32 33 37 32 27 34 33 27 29 34 44 38 32 33 35 36 32 37 28 26 27 34 30 33 40 45 34 39 33 39 31 29 33 42 36 32 47 36 37 37 41 42 40 33 29 36 33 35 29 41 33 41 31 31 32 32 29 30 34 37 34 46 45 36 49 40 30 35 33 36 29 39 28 43 32 27 37 42 28 39 37 32 34 33 36 31 41 39 28 34 31 40 33 32 30 42 29 33 42 33 40 34 37 35 35 24 40 36 30 43 33 39 36 43 34 48 36 37 37 30 46 39 32 28 39 34 29 31 30 24 36 31 38 49 37 34 38 31 34 32 30 36 44 33 42 30 27 34 35 37 33 31 38 34 31 35 34 40 32 29 36 37 35 34 31 45 34 37 25 41 40 37 40 31 39 46 43 37 39 29 34 38 49 38 40 37 32 43 35 34 46 53 25 39 32 48 35 32 42 42 34 43 38 28 38 36 34 24 35 35 28 41 33 31 40 34 21 31 32 30 36 32 26 32 44 25 38 24 37 33 38 28 30 36 32 23 33 46 33 35 38 31 30 32 30 38 31 30 35 35 35 32 31 32 36 28 36 41 33 40 38 38 27 32 28 39 35 40 31 38 25 40 43 35 23 35 35 42 43 35 44 34 43 29 48 31 36 31 30 32 36 33 24 51 35 32 38 40 31 39 36 40 40 47 29 38 32 35 46 35 34 30 48 27 35 35 33 44 30 37 34 30 32 35 39 33 34 39 31 32 36 31 41 34 44 36 38 25 31 38 29 44 43 34 30 28 36 29 31 24 34 43 30 38 26 35 23 44 37 35 25 31 31 27 32 46 33 34 38 27 31 41 32 33 42 34 31 43 37 35 43 41 37 27 26 38 30 36 30 32 31 34 44 28 39 36 42 37 34</t>
-  </si>
-  <si>
-    <t>JSB(10.942041261906368, 11.124258297994885, -482.3673983797041, 2655.1461613544907)</t>
-  </si>
-  <si>
-    <t>204 202 179 193 289 201 265 158 294 149 228 235 254 319 182 251 334 238 308 217 258 164 299 222 225 260 245 202 203 254 241 281 295 246 272 302 273 112 262 187 201 240 215 241 209 195 265 254 196 227 202 148 237 207 180 293 247 200 215 225 207 235 260 282 196 271 236 244 125 273 148 239 251 262 260 301 211 243 245 206 275 263 279 242 310 210 242 259 265 206 266 253 248 241 215 173 248 311 243 275 261 304 321 348 272 227 214 277 266 329 271 176 185 273 242 187 234 246 291 193 199 189 195 278 253 229 194 277 205 213 264 184 150 290 280 368 229 236 243 298 268 266 169 303 253 192 210 162 215 198 272 222 302 300 311 228 280 276 282 254 236 240 115 245 240 308 226 287 216 216 182 252 266 205 245 243 208 245 222 273 291 252 226 161 221 246 175 254 201 259 264 212 245 233 251 245 263 233 381 157 255 221 246 211 239 202 287 238 303 182 240 188 282 303 267 266 248 196 213 197 326 244 264 279 282 161 165 217 301 266 243 249 303 262 196 273 332 299 296 250 249 188 228 232 262 193 313 217 160 304 195 295 278 168 280 276 153 325 263 265 323 250 236 229 232 221 260 245 336 231 254 235 249 180 258 179 253 208 178 246 206 274 163 216 229 244 286 194 136 210 247 183 163 296 218 195 247 213 265 209 279 335 265 255 309 245 274 271 186 270 189 252 299 161 290 235 213 239 356 229 239 233 170 236 322 226 269 196 188 209 278 294 193 197 236 251 268 272 246 178 205 289 234 161 165 285 239 303 277 239 290 302 252 227 283 209 313 200 349 328 139 252 275 223 227 218 219 190 224 223 284 268 248 280 242 298 193 228 268 313 205 289 282 188 236 236 283 245 172 234 276 255 251 334 171 211 257 236 234 296 249 229 176 242 281 325 287 191 290 258 211 143 188 258 195 215 206 271 204 235 242 293 249 161 330 249 241 320 235 205 206 240 249 238 230 232 267 311 261 199 237 232 227 187 249 221 135 189 262 231 293 191 198 219 268 242 200 257 157 210 205 177 369 204 184 247 189 220 172 227 227 236 231 228 165 189 231 243 217 291 195 217 237 212 175 267 295 210 243 277 194 212 233 266 279 246 285 215 198 261 333 194 307 214 340 317 202 278 226 219 261 202 153 259 216 242 226 283 252 313 184 238 236 204 268 296 211 233 233 248 304 243 289 302 204 296 284 231 243 261 289 295 307 227 200 245 236 316 265 217 229 292 285 262 208 274 277 260 281 209 162 298 211 331 198 282 300 284 279 341 215 277 266 331 266 240 226 337 174 293 316 284 229 216 200 281 264 276 281 250 203 331 195 297 282 285 222 218 238 237 239 264 310 220 240 222 307 315 274 159 319 284 210 214 219 224 207 194 341 307 342 267 296 177 271 312 169 215 247 169 262 327 238 208 203 246 198 286 153 304 237 258 285 311 233 280 245 202 182 167 233 255 302 349 337 241 154 284 272 256 152 343 242 237 318 281 272 232 189 243 169 295 293 225 223 228 282 282 285 338 298 324 227 196 274 226 278 217 238 272 215 211 222 252 245 265 264 238 176 215 214 212 297 154 184 262 285 271 218 247 248 168 245 185 201 226 256 169 281 163 206 214 208 265 225 284 336 205 228 263 243 263 294 301 266 288 226 292 335 213 218 387 283 253 224 244 256 236 152 350 307 246 230 334 211 197 325 237 192 206 150 326 274 197 189 248 323 281 277 194 276 225 240 303 182 234 230 264 337 207 269 245 256 233 267 318 207 225 233 303 188 196 280 219 244 199 332 327 209 191 249 225 279 170 295 147 283 326 204 274 254 268 289 290 215 311 286 283 236 189 325 232 194 270 278 361 216 243 249 245 207 270 237 235 136 184 267 299 165 334 164 247 251 160 223 271 209 214 221 269 239 259 265 237 230 281 288 236 158 179 158 306 112 197 272 251 273 189 315 256 322 254 183 266 241 169 211 258 301 252 229 201 254 274 155 197 273 299 160 222 322 307 251 133 213 292 191 282 148 197 302 237 183 175 249 322 276 214 181 294 300 246 258 212 223 258 312 229 236 295 194 169 217 258 237 316 255 249 244 266 222 228 205 221 322 239 200 204 269 205 245 241 220 200 216 281 227 201 183 372 301 322 198 286 180 229 209 149 369 285 243 229 316 241 185 295 230 233 144 289 223 228 197 261 288 205 219 212 179 244 221 229 321 186 223 197 229 231 215 230 264 268 198 244 253 223 231 215 325 193 257 292 241 216 212 220 174 227 244 305 224 317 180 288 201 257 325 238 292 230 311 293 148 164 240 190 285 224 152 234 187 199 263 264 220 272 249 240 305 212 236 311 211 256 205 227 214 291 203 215 223 256 328 214 190 268 230 180 347 234 164 276 231 207 219 291 259 326 274 245 285 271 269 236 194 267 197 185 297 259 251 171 186 239 359 194 269 249 277 241 147 205 211 237 389 171 154 196 246 207 226 203 264 284 189 233 285 174 244 267 212 197 241 224 111 183 233 170 320 228 292 176 316 274 184 262 252 242 185 261 146 198 264 338 237 206 204 210 244 244 232 404 230 263 189 213 295 216 162 189 321 273 272 246 299 325 224 254 278 238 330 221 190 321 179 200 307 245 246 242 237 298 232 245 190 229 235 309 261 206 295 309 218 210 288 337 296 238 290 254 259 301 260 176 308 236 220 211 204 207 250 277 202 281 223 192 284 208 238 192 288 177 196 227 209 345 283 195 277 194 205 256 245 260 268 253 246 300 271 217 305 271 172 180 293 186 212 252 127 392 285 288 319 251 238 277 253 273 201 203 243 187 253 279 325 229 348 179 228 233 272 337 257 308 220 282 253 216 242 207 248 310 226 214 255 296 224 259 160 250 203 162 335 249 191 176 238 359 283 265 260 320 243 257 264 201 217 254 269 270 151 318 195 249 314 251 236 203 294 285 227 304 313 245 219 248 277 231 265 294 118 341 158 248 307 209 283 236 294 180 249 187 221 221 263 283 161 300 243 175 280 295 280 259 214 261 271 243 200 214 311 268 201 227 235 285 245 274 189 255 186 245 279 299 194 263 207 308 156 208 187 252 247 203 268 208 349 213 234 260 211 200 242 227 311 251 331 395 289 203 244 252 282 213 177 230 262 241 247 149 259 233 266 207 346 297 182 321 205 301 184 229 240 232 224 154 238 224 242 277 281 209 243 240 297 208 286 233 150 139 163 241 277 266 285 231 283 189 305 234 219 176 241 309 279 239 357 243 182 227 258 244 192 275 278 294 260 251 316 298 243 327 213 265 246 220 237 306 281 240 240 227 241 346 264 262 288 163 266 301 270 225 187 285 216 216 260 268 257 249 220 231 269 225 246 315 202 166 210 183 230 197 183 266 241 292 252 195 246 196 167 196 198 218 291 244 219 266 264 235 266 281 210 354 158 268 257 276 263 197 228 185 189 249 318 221 127 213 292 298 258 223 229 193 250 278 267 275 171 158 222 187 351 201 254 219 198 243 210 314 284 156 226 243 282 245 275 281 110 291 287 242 209 229 217 191 302 256 299 311 169 391 270 371 238 310 248 287 355 260 267 237 179 237 200 210 290 251 172 265 187 230 149 355 322 205 256 271 245 157 235 237 179 184 246 282 264 249 305 323 270 175 282 191 272 238 201 264 302 306 204 233 288 236 221 203 221 305 344 254 306 318 298 202 209 255 224 238 199 215 269 365 213 254 270 146 250 332 184 241 206 144 212 205 275 182 257 164 221 127 196 205 268 236 256 233 180 260 220 203 213 254 243 171 320 220 234 196 266 227 240 264 203 253 289 253 228 306 248 167 282 332 159 222 169 239 291 294 195 207 181 277 177 212 263 327 319 272 191 249 280 258 372 190 285 219 283 204 208 198 330 232 253 211 195 140 288 200 210 263 218 281 160 162 176 264 188 213 251 340 166 245 226 212 216 157 187 217 249 279 259 320 309 169 177 281 231 182 222 251 231 198 359 222 179 307 176 256 241 202 268 376 285 222 228 231 183 229 179 117 184 236 227 243 282 172 265 215 281 204 218 326 200 264 227 187 266 196 194 292 198 222 166 210 183 202 231 323 210 296 238 225 220 252 261 209 175 234 189 170 223 187 203 296 312 167 222 304 196 199 272 293 315 274 233 339 139 302 228 354 211 261 241 241 275 271 321 228 258 266 265 286 213 216 193 235 219 246 190 262 235 227 206 213 218 184 240 274 309 196 223 189 266 217 309 264 260 269 187 200 278 188 275 212 318 265 216 204 188 223 189 190 235 223 263 233 301 133 249 247 223 219 182 298 263 196 266 269 369 219 183 352 317 339 313 296 241 200 242 346 233 223 275 236 266 169 331 267 234 125 208 288 229 168 196 226 292 252 272 135 330 322 318 240 220 291 259 221 203 287 225 327 203 250 250 258 269 281 228 195 390 257 267 163 207 231 298 100 174 263 240 305 266 257 229 241 185 176 237 181 305 245 257 245 207 141 180 261 268 280 289 276 192 312 255 206 226 181 187 267 270 275 220 213 202 231 241 191 195 164 210 281 221 221 263 218 240 207 165 279 287 293 297 245 231 188 189 231 199 173 275 226 270 328 302 149 272 227 244 162 205 198 218 293 158 202 247 172 237 256 220 245 212 151 277 326 141 198 234 322 269 153 190 261 238 249 233 241 161 294 217 337 194 226 203 141 283 219 304 229 363 225 260 239 207 270 245 216 262 200 217 240 205 289 308 230 232 230 222 243 181 275 276 274 184 264 225 216 254 299 186 265 202 281 207 292 295 229 246 235 228 215 222 289 143 198 201 173 230 189 197 270 264 273 173 200 330 202 169 224 255 272 206 257 242 340 329 285 192 223 204 195 194 225 219 199 210 273 182 313 161 264 221 213 255 256 219 190 253 229 252 149 235 264 266 238 233 240 188 244 215 257 263 232 208 251 236 177 245 257 209 256 198 255 238 291 222 276 201 194 263 190 221 315 233 254 165 203 303 246 265 278 217 282 150 147 250 283 251 136 235 219 212 176 158 250 187 264 157 276 241 202 233 275 273 258 186 194 275 246 184 229 209 213 247 222 222 246 153 178 274 290 200 224 207 229 132 222 275 205 237 229 213 248 196 290 210 265 197 213 191 329 151 275 318 263 188 279 187 250 207 194 266 184 304 263 268 210 237 294 219 247 262 262 270 186 226 266 349 183 203 315 275 298 261 303 210 295 324 349 272 282 235 305 185 211 182 199 138 238 176 229 207 209 264 203 257 142 218 211 256 298 217 187 229 233 211 235 325 313 225 155 271 219 247 306 211 241 225 244 205 161 200 211 219 248 183 260 234 233 266 233 215 266 223 235 237 306 237 184 211 275 284 314 253 273 270 245 189 247 226 286 266 232 372 234 207 216 198 209 149 225 240 249 260 338 177 165 222 145 307 173 189 230 209 218 322 273 235 283 206 239 246 220 231 282 194 200 286 223 268 346 259 281 246 254 250 265 337 255 208 275 288 187 180 267 241 299 272 244 283 257 320 191 264 190 130 202 269 249 207 185 232 207 262 257 258 240 309 287 271 303 250 225 261 330 223 184 209 264 189 282 258 272 207 242 203 263 312 228 249 191 195 334 276 222 242 246 334 322 212 246 294 249 231 268 277 196 270 226 276 202 253 291 321 161 257 259 223 166 180 171 221 330 230 272 289 231 312 310 244 215 253 321 301 249 234 256 278 157 169 307 235 229 220 122 185 206 302 198 241 232 200 258 224 308 367 253 273 185 241 251 268 206 230 243 201 203 227 271 302 234 250 243 241 234 304 235 251 243 315 252 168 255 209 170 252 153 200 295 248 195 195 250 318 289 262 244 216 313 219 275 261 229 198 202 224 202 251 201 334 270 270 270 275 296 180 220 208 312 204 260 251 240 223 269 260 223 207 254 262 248 344 253 205 227 251 215 242 254 193 275 206 331 301 242 244 296 243 244 191 331 270 270 195 226 241 224 275 195 213 260 252 153 222 338 203 212 216 263 233 230 157 284 196 299 252 178 267 123 236 192 304 244 214 266 135 291 250 231 191 232 310 193 236 275 216 268 234 266 153 227 239 274 232 278 207 206 280 320 308 268 248 216 219 233 193 232 317 209 312 264 271 227 293 253 216 200 250 239 231 270 250 222 193 264 262 250 201 238 217 164 202 271 239 225 237 274 193 273 199 243 265 258 257 254 259 286 270 183 242 209 302 283 181 237 299 224 262 207 273 263 284 264 234 214 261 241 233 253 278 252 242 288 235 280 245 270 233 213 267 247 194 281 235 234 279 334 179 172 316 217 326 391 168 237 306 325 188 135 230 230 232 295 272 193 301 184 283 196 275 248 232 265 297 265 345 192 203 275 250 323 322 194 298 236 176 279 226 249 185 287 268 285 232 211 169 238 199 218 171 296 213 290 267 259 250 173 250 256 280 219 240 252 233 184 162 283 258 248 208 289 202 247 241 265 252 211 193 220 184 297 229 200 196 353 308 312 215 305 259 180 194 251 204 270 340 271 196 213 205 209 281 229 271 264 315 258 262 183 210 280 195 280 316 194 244 198 230 201 214 244 183 255 236 224 195 273 135 197 89 297 255 257 192 257 219 251 215 249 293 427 264 231 209 210 220 292 305 290 221 334 302 339 252 249 288 141 225 110 284 262 233 315 288 278 258 247 182 263 225 262 208 180 258 226 239 289 322 186 239 228 283 203 266 273 298 276 220 291 212 213 304 277 234 295 237 321 163 236 271 319 265 289 325 233 287 279 232 246 221 234 258 231 239 216 269 281 241 197 270 190 191 172 302 249 357 195 311 352 236 177 172 253 183 290 279 344 197 327 286 180 234 303 287 198 172 231 213 193 223 257 232 185 223 302 372 177 225 206 223 175 234 304 194 342 283 315 193 198 209 229 261 284 236 302 284 210 159 317 236 292 153 245 275 245 276 187 302 235 187 325 164 204 318 332 292 150 151 255 185 211 305 232 163 234 260 180 329 175 277 186 230 330 397 195 215 325 232 317 246 277 303 252 264 248 220 266 235 264 321 210 270 234 160 213 244 216 242 223 304 210 167 239 227 338 189 193 348 382 190 241 224 186 275 206 227 240 215 181 216 270 285 246 243 232 156 302 269 202 200 260 203 314 175 243 278 248 188 305 285 224 323 247 260 302 194 254 207 264 275 200 120 268 253 290 278 215 186 158 285 233 236 306 246 246 319 222 107 219 289 225 204 282 411 258 294 177 272 310 232 238 137 223 210 212 292 208 202 228 299 197 214 265 330 249 324 209 271 198 265 185 289 189 224 226 313 302 231 323 144 169 288 260 188 222 264 310 219 199 320 234 190 205 301 228 306 270 168 261 202 262 253 149 291 201 237 285 241 260 190 184 325 297 186 226 191 224 212 292 237 225 261 249 202 235 181 236 309 202 249 285 371 167 266 306 212 214 207 239 164 193 137 221 212 247 158 292 208 199 253 196 228 227 256 222 218 225 247 175 217 199 199 259 258 227 262 270 285 284 244 213 188 251 322 206 260 207 218 221 190 247 257 183 281 193 242 259 228 158 263 185 325 258 313 344 203 246 277 217 277 214 232 342 174 252 160 227 297 271 197 263 229 139 221 292 242 224 185 288 194 189 214 188 225 325 309 195 325 193 297 237 268 145 303 248 322 235 267 263 223 247 243 298 174 199 243 271 230 225 150 258 292 226 202 254 239 232 277 272 221 120 132 235 240 159 224 331 228 169 217 160 241 220 173 249 269 221 164 292 339 233 293 217 188 264 286 204 269 244 244 270 184 213 159 269 149 296 211 209 249 206 310 307 247 215 187 232 314 136 216 271 232 334 218 289 268 306 171 300 262 282 269 229 280 175 210 212 246 224 180 231 222 307 234 368 321 292 189 199 162 290 240 179 299 242 260 317 230 307 187 228 311 267 244 242 209 276 280 176 207 233 231 264 265 261 195 349 219 257 263 270 274 218 289 264 155 210 226 254 247 318 273 192 280 166 353 211 221 276 271 266 246 201 171 348 248 186 344 296 234 332 270 259 196 227 261 207 254 252 210 191 252 175 158 298 121 222 281 286 166 208 164 262 204 199 291 241 229 276 276 200 248 215 204 158 271 216 227 212 259 267 309 236 245 288 306 307 270 185 156 283 214 207 211 206 202 242 215 265 253 254 282 274 214 211 238 172 156 287 242 178 348 194 269 317 253 260 237 194 196 311 245 333 307 163 180 275 280 223 244 156 171 165 236 217 202 237 319 301 215 197 151 251 300 234 281 307 278 193 238 269 357 202 122 180 222 204 213 194 212 205 281 242 241 159 216 171 277 299 236 171 309 233 294 188 217 189 299 287 201 191 348 237 230 144 149 257 311 211 259 270 270 291 278 314 237 194 183 205 232 266 204 141 318 258 346 178 208 261 307 256 193 258 242 212 259 190 244 274 271 343 234 244 221 200 334 183 212 292 235 226 213 176 249 252 278 259 303 164 266 208 212 209 292 255 252 177 323 250 171 208 256 183 189 149 393 260 275 145 217 275 198 271 226 131 203 236 269 253 274 160 272 263 165 299 146 188 266 211 203 247 179 230 219 313 280 266 231 315 256 175 252 285 349 212 279 300 171 232 135 139 284 275 281 250 365 224 231 182 175 211 170 193 189 262 248 207 223 237 188 292 236 289 344 274 265 215 195 374 182 294 228 135 301 232 158 284 252 314 249 207 260 239 366 234 172 202 254 320 324 261 196 274 158 331 156 221 305 202 248 213 160 227 247 218 193 270 284 200 253 291 310 307 232 232 237 155 245 323 345 229 330 183 195 133 159 236 226 220 287 281 256 217 298 299 214 176 309 204 276 255 235 239 229 296 292 198 185 261 216 299 286 287 214 235 235 332 288 252 289 209 207 255 204 225 131 207 260 203 206 261 232 204 259 175 193 160 260 244 226 310 309 267 261 219 204 251 201 254 236 279 224 208 324 241 309 286 247 180 225 199 262 253 172 181 236 292 232 244 256 260 331 289 328 213 291 260 287 247 233 198 234 260 304 162 231 117 185 183 204 262 227 301 232 236 297 220 292 253 227 208 172 258 221 298 175 206 121 258 216 230 297 246 260 280 277 262 242 258 217 191 262 292 214 173 247 215 214 243 201 253 316 359 212 211 204 307 275 231 206 171 274 222 208 219 226 215 211 202 234 212 355 288 257 262 248 219 303 154 234 231 144 170 247 196 338 250 228 239 246 299 289 222 230 250 230 211 229 203 171 323 250 217 230 192 159 251 280 213 231 230 291 233 265 242 193 228 294 221 252 273 260 273 241 257 189 170 236 275 224 263 188 214 237 226 395 217 171 245 238 149 175 290 179 195 218 187 277 231 344 254 251 314 263 299 184 259 279 273 229 190 191 265 211 213 224 217 240 247 264 272 264 217 284 252 323 211 266 251 245 194 219 200 288 211 237 270 293 216 329 212 259 252 228 219 295 253 203 140 254 303 233 280 174 224 314 282 229 348 320 260 230 253 239 236 166 232 160 196 304 239 242 304 198 272 272 279 300 161 165 307 258 219 304 132 274 271 209 281 329 289 200 167 176 199 211 249 241 247 156 80 241 195 231 179 197 288 318 239 181 269 200 153 303 240 307 218 196 214 244 282 208 228 196 168 259 247 212 236 276 275 191 271 251 285 273 252 208 253 252 181 256 235 241 206 288 238 255 284 240 216 242 145 200 296 217 245 266 228 221 233 206 270 247 213 293 229 307 184 329 272 283 294 146 248 237 239 281 203 217 267 179 244 195 237 254 262 221 169 308 186 141 209 236 211 160 269 237 350 189 233 266 216 247 229 296 254 218 320 287 204 219 163 182 263 194 306 206 245 192 301 231 244 259 250 134 216 230 317 273 315 225 147 229 211 181 282 164 265 289 268 317 248 229 276 211 298 248 270 196 191 203 218 329 288 240 209 195 255 270 210 247 268 244 292 240 225 287 251 314 293 342 193 287 227 267 264 198 204 245 187 176 306 245 248 224 314 190 269 170 243 218 228 273 251 220 215 253 304 268 289 224 270 266 248 224 270 239 277 274 258 269 255 243 224 234 238 257 290 258 172 204 221 277 231 237 163 327 237 228 321 227 251 120 285 257 223 211 296 212 339 226 291 253 241 273 255 200 341 237 229 221 315 248 278 226 253 253 293 179 293 236 163 232 250 227 213 264 231 201 203 201 183 202 257 200 256 281 228 264 255 211 303 200 259 182 262 245 256 217 239 308 223 268 107 160 272 190 253 224 343 229 180 279 264 194 168 211 173 232 315 218 266 185 247 251 179 213 260 199 196 289 237 258 197 248 237 220 269 251 215 237 222 222 249 226 203 280 250 172 117 345 132 256 191 290 193 147 203 270 207 175 200 271 189 198 171 256 221 171 249 243 188 182 201 153 246 203 297 204 258 275 290 216 130 199 208 268 250 265 276 225 326 212 255 248 281 230 307 281 279 216 204 303 236 279 290 192 244 240 283 341 328 200 194 156 208 275 262 318 197 216 302 182 221 217 337 211 201 274 200 280 254 182 255 195 271 247 221 261 338 299 256 155 253 310 283 255 233 350 280 213 168 292 230 333 213 151 210 256 232 223 237 181 229 253 225 175 272 294 171 237 235 291 241 270 251 245 284 226 152 172 269 265 264 229 286 278 247 301 105 207 259 231 219 267 270 190 215 240 202 246 218 305 237 221 217 194 164 307 297 201 299 258 306 263 329 230 285 373 270 178 213 165 184 265 290 253 142 313 209 189 211 303 230 244 237 199 184 141 270 245 286 321 263 179 260 211 223 292 269 231 242 238 280 232 239 206 256 284 331 194 280 241 312 271 203 292 218 284 209 273 280 272 295 175 204 218 325 341 290 227 340 187 246 282 259 260 217 310 289 299 189 305 276 254 170 278 273 206 252 346 263 312 239 243 261 341 260 223 273 260 206 216 221 207 251 248 224 246 218 374 220 238 255 287 160 264 322 329 261 273 254 220 178 217 209 250 209 226 118 194 241 207 268 242 257 171 184 275 286 272 238 123 240 216 255 246 218 250 226 244 323 189 291 236 200 235 266 204 303 298 265 117 242 232 348 283 246 225 247 276 157 216 246 308 278 268 139 211 302 252 317 264 297 243 223 258 246 279 221 303 281 241 270 265 197 174 263 243 171 219 246 213 212 252 199 208 202 254 278 196 219 309 181 241 253 221 171 212 214 199 201 217 185 331 283 392 238 197 296 301 252 265 261 202 246 278 240 206 285 222 314 259 277 231 339 230 210 250 192 228 287 267 185 162 196 172 216 226 236 214 217 182 211 222 235 240 165 261 244 293 367 256 259 233 236 215 339 239 197 248 177 135 253 244 176 219 336 214 225 180 247 264 207 193 272 192 205 176 227 274 220 259 179 196 199 201 222 258 213 183 251 232 233 277 278 284 213 155 351 94 174 198 212 212 331 224 279 210 251 268 242 260 286 205 200 260 235 284 249 184 299 235 262 282 237 301 221 258 188 233 241 192 273 323 217 229 225 233 304 221 185 161 242 222 291 234 301 268 246 246 266 299 271 234 312 264 276 256 261 126 179 228 205 281 245 264 211 210 293 213 229 208 280 189 345 264 240 249 209 274 175 235 340 222 192 188 250 325 284 158 236 255 322 274 289 240 251 270 226 169 173 294 195 229 217 258 260 202 180 303 250 126 229 299 268 208 235 165 208 247 210 89 296 266 189 202 240 134 289 143 226 323 304 186 201 241 243 282 238 204 238 223 299 287 298 223 243 222 286 308 247 230 289 312 256 170 229 217 222 260 249 227 189 298 254 223 208 224 323 220 286 149 203 249 264 282 165 255 331 249 239 132 187 222 247 219 196 232 203 219 331 207 311 257 245 234 303 225 218 145 151 389 198 294 275 149 245 180 310 260 168 211 244 292 186 205 193 321 237 255 229 200 202 279 231 175 279 259 249 246 165 227 263 274 182 267 278 231 306 249 136 278 224 240 206 260 244 195 138 248 253 257 251 198 193 266 282 192 170 195 167 222 194 231 319 237 269 239 239 234 312 257 271 216 350 242 270 321 302 230 271 278 303 237 273 223 201 227 343 174 220 300 227 281 276 204 276 321 212 217 151 342 300 253 244 204 201 268 235 287 277 247 185 191 204 277 204 224 242 296 232 243 262 180 249 210 171 244 160 215 205 275 295 173 262 273 166 245 179 196 205 259 274 180 330 262 217 176 193 186 293 235 290 340 237 244 313 203 312 305 298 270 231 261 252 212 234 188 302 281 252 106 287 192 236 306 244 295 193 223 287 264 194 239 234 218 281 190 276 254 302 213 227 273 290 227 197 275 208 265 277 262 240 167 248 266 289 227 321 217 279 228 261 172 373 250 327 249 306 233 242 225 250 213 338 192 196 149 260 237 309 342 269 260 244 210 211 293 246 177 229 326 313 250 216 266 260 212 214 205 254 191 234 241 249 294 239 181 300 287 370 237 200 194 255 242 253 266 310 233 257 199 229 198 265 269 254 268 307 251 207 265 104 263 287 165 276 248 301 286 355 311 209 203 238 162 294 305 149 185 200 250 230 235 261 240 235 267 209 283 160 268 240 207 272 280 356 192 174 230 219 290 216 222 215 232 231 264 207 198 251 232 301 280 235 329 273 278 186 213 245 163 296 311 287 230 268 198 246 240 244 268 259 146 221 193 202 232 279 309 216 202 209 260 224 284 211 213 204 293 176 257 264 292 201 199 196 225 225 218 198 206 319 208 211 207 261 273 286 315 189 214 223 221 309 221 303 293 283 221 294 228 185 180 306 261 286 244 280 304 224 226 224 227 247 271 161 349 218 200 188 269 270 189 293 154 208 180 232 240 243 271 281 292 272 301 208 256 229 398 277 266 246 252 219 291 275 273 226 216 234 180 252 171 270 229 251 300 241 290 177 280 232 273 272 179 238 199 275 256 255 235 267 285 246 166 194 310 209 287 191 261 319 126 284 175 251 318 301 231 270 164 345 227 263 176 331 308 257 223 219 279 284 181 208 168 249 240 229 272 245 211 207 214 250 211 296 199 184 283 208 307 250 314 284 231 238 264 281 205 211 257 201 169 295 262 262 349 185 285 213 253 329 212 198 282 273 213 276 269 249 188 244 255 273 225 199 168 185 333 258 253 187 175 205 251 190 235 223 276 227 336 279 288 284 232 183 210 280 280 251 281 300 145 286 247 202 230 234 244 267 228 199 175 243 258 228 244 224 167 157 228 173 229 227 317 262 237 289 179 238 196 302 288 191 226 271 210 280 263 149 224 217 153 243 185 278 314 190 312 289 172 191 238 286 302 247 168 308 322 176 162 280 204 250 291 289 316 198 225 165 275 257 190 369 221 326 281 221 195 186 204 195 190 245 256 182 265 270 225 420 258 303 250 215 198 192 315 198 288 217 307 276 202 273 244 232 251 329 279 295 172 143 274 189 220 120 307 266 235 224 309 314 217 287 222 280 266 210 256 259 258 234 203 324 201 185 190 213 287 273 227 263 265 242 230 179 241 221 279 318 237 253 218 205 189 345 226 330 273 273 260 164 232 263 242 189 240 247 212 272 309 254 289 292 255 259 167 278 163 316 225 279 235 307 159 230 248 360 221 242 323 315 221 232 178 254 238 190 149 260 246 282 245 235 300 282 179 182 256 277 276 307 306 284 291 286 267 277 254 207 308 254 243 229 266 231 281 313 237 263 267 204 204 301 187 261 247 284 265 225 194 294 249 248 192 261 238 232 229 185 176 292 224 216 212 285 235 244 195 151 236 208 299 242 286 296 260 216 103 236 219 300 149 247 259 287 323 275 204 276 255 233 222 198 197 312 208 184 195 182 224 188 251 203 273 226 289 275 281 220 329 243 166 267 288 241 251 284 220 244 205 224 191 236 207 182 176 202 253 271 367 191 195 276 325 336 208 242 237 251 135 267 197 204 187 259 267 167 196 163 200 267 260 204 190 218 184 193 282 247 254 292 260 215 272 98 263 246 157 206 266 225 183 242 221 254 189 222 188 246 304 258 149 286 253 220 268 283 219 216 278 215 179 323 130 217 226 249 240 250 239 213 224 302 377 297 237 255 230 288 268 226 191 277 326 171 251 180 212 234 317 158 259 210 157 255 233 257 316 261 243 218 228 235 319 232 252 252 166 169 334 206 185 210 179 265 268 235 263 259 207 155 290 272 293 216 228 267 245 209 259 291 278 182 249 178 247 318 227 169 273 222 199 238 214 213 252 236 271 239 269 211 284 233 201 233 256 264 253 245 263 209 274 300 262 298 254 254 255 274 260 318 253 219 299 342 237 196 156 233 217 320 212 294 303 219 236 256 256 197 255 312 268 275 244 223 159 270 292 229 223 183 242 270 211 313 223 221 273 275 210 271 276 310 230 278 194 249 272 368 246 221 242 162 289 219 153 302 180 300 285 278 186 180 246 255 267 267 342 191 229 302 201 295 308 236 180 289 212 227 369 269 272 276 306 272 223 308 245 273 160 242 216 197 222 343 310 202 224 202 292 260 286 217 194 186 265 248 246 251 203 210 237 207 244 217 351 243 212 158 247 189 199 237 280 231 151 171 229 206 151 307 317 235 221 269 263 204 304 262 208 209 240 304 234 196 198 173 246 240 259 293 224 247 307 233 178 187 201 216 279 222 252 156 267 206 272 219 164 284 220 300 216 287 263 208 245 310 267 131 253 242 176 266 179 193 169 204 234 182 267 316 215 232 242 280 189 290 370 209 241 196 201 172 161 275 284 225 198 223 279 177 314 233 245 258 237 164 243 246 260 242 249 292 260 237 264 279 167 305 297 297 260 250 189 296 308 199 238 265 241 240 312 272 249 295 215 280 298 291 222 289 265 251 218 238 319 182 328 287 231 260 248 327 263 249 155 268 265 336 171 227 213 234 201 254 238 261 245 299 174 240 180 299 127 265 249 203 190 229 249 332 282 272 199 252 192 225 266 266 208 185 178 218 258 259 211 247 244 248 168 214 194 272 221 289 234 226 177 249 241 239 258 248 191 268 185 213 210 265 225 196 221 192 139 240 226 194 288 264 288 162 233 235 319 179 211 234 295 280 178 198 210 315 189 214 217 288 237 270 272 329 261 260 267 226 150 161 228 242 255 306 217 294 144 214 176 174 200 211 272 266 229 210 214 235 311 230 224 217 194 311 221 234 248 170 295 273 275 288 221 223 255 178 236 247 283 229 213 222 172 290 227 242 330 257 182 262 227 193 208 271 220 238 236 259 282 281 233 226 256 231 229 205 238 112 220 294 266 324 165 262 223 269 332 361 255 280 189 205 221 202 226 250 231 262 285 340 251 203 236 216 279 222 288 261 204 203 228 246 223 268 188 156 181 157 294 269 304 205 217 223 193 247 258 198 270 243 295 204 282 285 325 150 170 245 277 210 285 243 265 240 218 258 218 311 264 297 225 210 240 248 277 314 121 287 291 186 359 202 222 212 228 166 285 306 340 279 289 140 295 226 264 324 209 179 280 314 219 244 293 223 226 230 215 314 274 346 182 278 226 239 270 256 207 284 279 233 270 307 255 194 202 210 233 198 280 217 237 245 236 268 248 252 240 255 190 163 309 289 244 266 331 233 252 284 245 329 198 268 229 233 336 218 267 247 202 207 298 204 321 124 286 162 220 200 203 227 193 255 251 207 152 278 216 183 232 252 204 217 239 203 228 257 196 235 149 271 338 241 278 279 251 232 287 335 227 220 246 264 161 287 251 229 181 285 220 157 226 229 272 217 305 209 232 211 266 327 226 220 272 208 203 243 355 224 148 238 214 253 181 251 218 242 157 235 316 261 165 235 227 260 179 203 277 304 260 293 238 257 177 204 281 261 207 273 243 258 183 283 266 157 291 196 254 246 298 187 208 194 227 253 179 215 179 198 241 296 251 290 210 165 274 223 222 261 160 223 227 280 242 210 235 208 226 191 224 217 316 100 228 271 286 251 218 128 241 166 185 217 320 225 197 309 217 277 216 258 237 234 242 247 287 177 314 237 173 152 162 282 237 274 222 231 226 226 263 258 248 236 218 176 151 273 236 252 241 234 209 219 240 208 167 185 303 150 301 299 174 257 177 327 300 243 293 243 223 206 164 197 201 233 197 288 270 319 238 271 234 176 235 192 248 259 233 196 189 198 354 218 196 183 204 131 271 256 156 323 204 266 274 212 260 243 174 259 147 282 305 241 213 298 255 242 305 241 278 158 287 228 186 278 276 280 258 301 303 203 192 192 241 264 289 247 237 272 247 230 239 178 172 226 260 236 230 227 263 208 274 196 257 221 313 257 196 152 246 291 158 210 226 242 261 224 240 271 211 303 179 245 175 270 213 266 335 243 281 251 183 175 229 171 216 282 254 228 248 248 199 264 254 238 281 160 275 228 253 177 172 167 225 322 249 212 239 221 235 222 250 211 194 244 285 258 279 251 331 145 242 179 278 180 231 311 298 179 214 237 248 251 159 374 240 161 280 254 241 303 231 166 233 238 145 272 267 261 203 225 263 324 262 236 198 217 175 187 252 158 278 227 244 273 287 245 176 308 254 216 241 252 121 241 245 250 229 198 324 243 170 204 166 287 296 257 221 302 197 245 263 270 274 237 195 257 174 226 297 318 331 326 274 220 270 309 306 215 287 212 208 256 235 232 325 196 199 299 278 298 271 252 216 162 293 203 299 195 346 227 165 231 184 385 228 201 240 284 196 237 237 233 269 118 271 201 300 187 150 319 153 261 214 234 309 217 292 229 97 229 188 225 244 249 191 199 195 178 230 298 260 258 314 212 166 264 216 256 332 269 223 182 314 251 242 244 283 265 171 189 235 227 145 264 283 249 181 203 208 218 159 265 257 240 217 127 184 274 226 254 264 221 260 163 280 195 302 388 267 255 207 164 141 318 244 283 323 230 205 173 312 183 172 254 180 261 208 257 318 155 311 186 193 310 245 260 232 279 178 220 236 244 300 241 315 229 207 219 304 233 284 397 235 234 206 238 252 212 213 233 226 274 274 306 261 269 206 251 322 241 283 257 255 252 199 234 291 236 280 213 277 185 222 146 259 191 207 184 208 307 236 218 245 207 226 227 265 293 223 188 271 223 308 295 250 279 304 240 227 176 211 169 168 319 222 252 263 246 214 307 272 218 254 294 240 345 256 248 271 300 195 278 269 226 273 233 353 229 206 216 245 206 241 245 269 266 222 262 288 263 295 315 230 293 196 218 264 310 246 259 191 285 265 193 251 260 194 283 168 228 283 190 188 218 253 257 273 220 262 269 183 232 222 244 296 235 242 257 191 261 280 192 260 182 305 285 233 279 247 221 316 228 259 220 243 309 361 203 284 215 237 213 183 215 285 243 205 143 298 255 260 179 198 294 263 175 208 256 278 253 201 245 171 172 235 271 230 295 210 317 327 193 233 232 230 233 223 171 212 207 291 254 249 247 252 167 258 177 206 219 180 275 218 253 232 242 126 280 202 278 250 234 301 241 314 247 265 229 277 290 209 220 271 209 149 234 230 199 214 218 235 218 357 213 145 250 257 230 196 182 309 258 183 138 175 176 193 219 240 369 252 255 234 268 278 233 188 281 163 323 215 187 243 270 214 275 254 222 221 123 217 192 264 208 270 248 188 291 203 274 313 309 202 283 357 258 252 290 291 313 238 270 235 292 324 261 203 259 271 280 205 206 190 263 214 293 238 180 290 289 330 270 244 214 156 206 206 206 303 200 216 252 271 309 224 259 351 217 289 238 180 288 219 195 321 194 284 201 274 193 279 245 261 206 227 146 338 234 265 123 238 252 257 224 257 219 224 224 247 268 300 92 221 314 281 303 215 96 205 314 140 234 221 271 187 253 290 207 291 234 226 262 258 280 261 229 307 194 323 274 247 239 184 326 200 252 242 296 250 286 276 204 202 245 269 208 206 284 222 259 196 283 239 225 276 242 223 197 313 222 220 172 173 245 222 216 215 281 246 302 280 248 255 311 180 285 223 175 242 174 264 285 283 237 222 241 219 301 226 198 276 249 184 301 182 203 199 365 141 268 251 252 147 301 154 288 268 203 245 268 139 245 215 290 306 265 182 196 241 294 202 235 181 297 243 208 273 263 223 179 203 294 312 161 258 265 264 143 188 248 244 319 245 279 247 281 321 236 193 296 311 214 294 268 191 255 195 190 257 270 211 207 196 292 323 269 237 351 226 226 201 220 276 188 253 298 249 250 202 283 201 250 246 237 350 212 160 136 238 267 228 258 198 258 339 284 295 154 175 263 219 201 238 263 271 240 325 191 311 334 218 300 272 341 267 281 247 210 245 192 170 222 198 191 295 300 307 241 275 169 269 180 239 184 205 270 271 274 143 340 335 252 279 219 215 207 229 284 229 204 298 202 273 233 228 240 251 293 205 223 283 258 278 265 279 218 259 232 203 283 226 282</t>
-  </si>
-  <si>
-    <t>GAM(0.348972666534325, -3.2107407529687033e-12, 2.0790718910796055)</t>
-  </si>
-  <si>
-    <t>1 1 1 1 3 0 1 1 1 1 2 1 0 0 0 1 2 2 1 2 2 1 1 2 0 1 1 2 0 1 1 2 1 1 1 2 3 1 0 2 2 1 1 1 0 2 2 0 2 1 2 0 0 2 2 1 3 2 1 1 2 1 1 2 1 1 0 2 1 2 0 1 1 0 1 2 1 0 1 1 0 3 4 1 1 0 3 1 1 2 0 1 2 1 1 1 1 0 2 1 1 2 1 2 1 2 1 0 1 2 1 1 2 0 2 1 1 2 2 0 2 0 1 1 1 3 2 2 1 1 1 2 1 3 1 2 1 2 0 3 5 1 2 1 2 2 2 1 0 0 1 2 0 2 1 1 0 2 2 1 1 1 0 3 2 1 1 1 1 2 2 1 2 0 1 1 2 0 0 1 3 1 0 1 2 1 2 2 1 0 2 1 1 1 2 0 0 2 1 0 2 0 1 2 1 2 1 1 3 0 1 3 1 2 1 2 3 0 1 1 0 2 2 1 3 0 1 1 1 3 3 1 1 2 0 1 3 2 1 3 2 2 1 1 1 0 2 1 1 2 1 1 2 1 2 2 0 2 1 3 2 1 1 2 3 1 2 1 3 1 0 0 0 0 2 1 0 3 0 3 1 1 1 1 1 2 2 1 1 0 1 1 0 2 0 1 2 1 0 1 2 1 2 2 1 0 3 1 0 2 1 2 2 0 3 0 0 1 4 0 2 2 0 1 2 2 1 2 1 4 0 1 1 0 0 1 1 2 2 0 2 2 1 1 0 1 1 1 1 1 4 3 1 1 2 1 2 2 2 2 0 3 3 1 1 1 1 1 2 2 0 2 1 2 1 3 0 1 1 1 0 1 3 0 1 2 2 0 0 2 2 3 0 0 0 2 2 1 0 2 2 2 1 1 1 3 0 1 2 1 1 0 0 2 2 0 1 1 1 0 1 2 2 1 0 0 2 2 3 1 1 2 3 3 0 0 2 0 3 1 1 1 2 1 1 0 0 1 3 1 1 0 1 2 1 2 1 3 1 1 0 0 1 1 0 2 2 0 0 1 2 2 2 0 1 0 0 1 0 1 2 2 1 1 1 0 0 1 3 2 1 1 3 1 2 1 0 0 0 1 1 0 0 1 3 3 0 2 3 0 2 1 0 0 0 1 2 2 2 2 1 2 1 1 1 2 3 2 2 0 3 1 2 2 0 2 1 1 2 3 2 1 3 1 2 2 1 1 1 1 1 1 0 2 0 2 1 1 3 1 2 3 2 3 1 3 1 1 0 1 2 2 3 1 1 1 2 1 0 2 2 1 1 1 1 1 3 1 0 4 0 0 2 2 2 1 1 2 1 1 2 1 2 1 0 1 1 1 1 0 4 2 0 2 2 3 0 2 1 2 1 1 2 0 2 3 0 2 0 1 2 1 2 0 2 1 1 0 0 5 1 1 0 2 0 4 1 1 0 2 2 2 0 3 3 2 1 2 1 1 0 3 2 3 1 2 1 0 1 1 0 3 2 1 2 1 1 1 2 0 2 1 0 2 1 0 0 0 1 1 2 2 2 2 2 2 2 1 1 0 2 2 1 1 1 1 2 0 2 1 1 3 1 1 2 1 2 1 2 0 1 1 0 2 1 1 2 2 1 1 2 2 1 2 2 2 2 1 3 1 2 1 0 2 0 0 0 1 2 1 2 0 2 2 1 0 3 2 1 1 1 3 2 0 1 0 2 3 2 1 2 2 2 3 1 2 1 3 3 0 3 0 1 2 1 2 1 3 0 5 1 1 1 1 0 1 3 1 0 0 2 1 4 1 2 0 2 1 2 1 0 0 3 1 0 2 0 1 0 1 1 2 2 0 1 1 3 0 0 3 1 1 1 1 0 0 2 1 2 2 1 0 1 0 2 1 0 2 0 0 0 1 2 1 0 1 1 0 0 0 1 3 0 1 2 1 1 4 4 2 0 1 1 1 0 2 3 0 1 1 2 0 2 0 0 4 4 1 1 1 1 0 1 0 2 3 2 1 1 0 0 1 2 1 1 2 2 2 1 3 2 0 3 1 0 1 3 1 2 2 1 1 0 1 1 1 2 1 1 2 2 2 0 1 1 1 1 0 2 2 1 0 2 2 0 1 1 1 1 3 2 2 1 0 1 2 1 1 4 2 0 2 3 2 2 2 2 1 1 1 1 2 0 1 2 1 0 1 1 2 0 2 2 1 1 2 2 2 0 2 2 2 2 0 0 2 1 1 1 2 1 2 1 1 0 2 3 0 2 1 1 1 1 1 2 2 1 2 3 1 2 1 2 1 1 2 1 0 1 0 1 0 3 1 0 1 1 1 1 1 1 2 3 1 0 2 1 2 1 2 2 3 1 0 2 1 3 1 2 1 1 1 1 1 1 2 2 0 3 1 2 2 2 0 1 1 1 2 0 1 3 1 2 1 2 0 2 2 0 0 0 1 0 0 3 0 0 1 0 0 2 1 1 1 1 1 3 2 2 3 2 2 0 2 1 1 2 1 2 1 2 1 3 2 2 1 1 0 0 2 1 4 1 2 1 1 0 3 3 2 1 2 2 2 0 1 2 0 1 2 1 1 2 2 0 1 0 4 0 0 1 0 1 1 0 2 2 2 1 2 1 1 1 0 1 1 1 3 1 1 2 2 2 1 2 1 0 1 3 1 2 1 2 2 3 2 1 1 1 1 1 1 3 0 0 1 2 0 3 2 2 0 0 0 0 1 2 1 1 0 0 2 0 1 2 2 2 2 2 1 2 1 1 3 3 1 1 1 1 1 2 1 1 2 2 0 3 0 1 2 4 2 0 1 1 0 1 1 0 2 1 2 2 2 3 1 2 1 0 2 1 1 1 1 0 2 1 2 1 3 0 0 3 1 0 0 3 1 3 2 2 2 0 1 3 0 1 0 5 1 1 3 2 2 1 1 0 1 0 2 1 2 1 1 1 1 1 4 1 1 1 2 0 3 4 1 2 0 1 0 1 0 1 1 2 2 1 3 2 1 2 1 2 3 2 3 1 1 2 0 2 1 1 2 2 1 1 3 1 0 3 2 2 1 1 1 0 2 0 1 2 1 0 1 1 2 2 0 0 2 2 0 0 2 2 2 3 2 1 2 3 4 2 1 1 1 1 2 2 0 1 1 2 0 2 3 1 1 0 4 2 1 1 2 0 1 2 0 0 1 1 1 0 2 1 1 2 1 0 0 0 2 2 0 3 1 0 2 1 1 0 0 0 3 2 0 1 1 1 0 2 3 0 0 0 1 2 0 3 0 3 4 3 0 1 1 1 2 3 3 2 1 0 2 1 2 2 0 0 2 0 0 1 1 1 1 2 0 1 3 1 1 2 1 2 2 1 0 1 1 1 1 1 3 0 1 4 1 0 2 1 0 1 1 1 1 0 0 1 1 0 1 0 4 0 2 2 2 2 0 1 1 1 1 3 1 0 1 1 1 2 1 1 0 1 2 1 1 0 1 1 2 1 1 1 0 1 1 1 2 2 2 1 2 2 1 0 1 0 2 4 2 2 0 2 1 2 2 2 3 1 3 2 2 1 1 2 2 3 1 1 2 2 0 1 2 0 1 0 2 3 2 0 3 2 2 1 2 2 0 3 0 0 1 1 1 2 2 2 1 2 0 0 0 1 1 1 1 4 1 2 1 1 1 1 0 0 2 3 0 2 2 3 1 2 0 0 1 1 2 3 2 0 2 1 1 1 3 0 1 0 0 3 0 3 1 2 1 2 1 2 0 1 0 1 1 1 2 1 1 0 1 2 1 2 0 2 1 2 1 1 1 2 0 2 1 2 1 2 1 1 4 1 1 2 2 1 2 1 2 1 2 2 2 2 3 3 1 0 1 0 2 2 0 4 2 1 1 1 1 3 2 1 0 0 1 2 0 1 2 2 2 0 0 1 2 1 0 3 1 1 1 0 2 1 1 1 1 2 1 2 3 2 1 1 2 2 0 2 1 2 2 1 1 0 2 1 2 2 1 2 1 1 1 1 2 2 0 0 1 0 0 1 2 1 1 1 1 3 1 0 0 0 1 2 1 1 2 1 2 1 2 1 1 0 2 1 2 0 1 1 1 1 2 2 1 1 0 2 1 2 1 1 1 0 0 2 1 3 2 3 1 2 2 2 2 1 3 2 2 3 2 1 0 2 1 3 1 3 3 2 0 2 0 2 0 2 1 0 2 2 1 1 1 3 0 1 1 2 0 0 1 2 0 3 1 0 2 0 1 0 2 2 0 2 3 0 2 1 0 1 0 1 0 2 2 3 1 1 1 2 0 0 3 1 0 1 1 1 3 2 3 2 2 1 0 0 0 1 2 2 1 2 1 2 0 2 1 1 0 1 0 1 1 3 2 2 2 0 1 3 3 0 2 0 1 3 1 1 0 2 1 1 2 0 1 0 2 2 3 3 2 2 0 1 1 1 0 1 2 0 1 1 2 3 0 0 1 2 2 1 0 3 1 1 0 1 1 1 1 2 2 1 2 2 0 1 0 1 2 1 2 1 1 1 1 2 0 2 1 1 2 1 1 2 1 2 1 0 3 0 0 1 2 2 1 0 1 1 0 1 1 2 4 2 0 1 2 1 0 0 2 2 3 0 1 1 1 0 0 1 1 1 0 2 2 0 0 2 1 1 0 1 0 1 2 1 4 0 0 2 2 3 2 1 1 2 1 2 0 3 2 2 1 1 2 3 1 0 1 1 1 1 0 1 2 2 1 2 3 0 0 2 1 2 1 2 0 2 1 0 0 2 0 1 3 2 0 1 1 2 1 1 1 1 1 1 0 2 0 1 2 3 1 1 2 1 0 1 1 1 2 2 2 2 2 2 1 1 1 2 2 0 0 2 2 0 1 1 3 0 1 2 1 3 3 1 2 2 0 1 0 1 1 1 2 1 2 0 1 3 2 1 2 1 1 1 0 2 2 1 3 1 0 1 1 1 1 1 1 3 0 1 1 2 2 0 1 2 0 2 1 0 2 1 0 0 4 1 1 0 0 0 1 2 0 2 3 0 1 0 0 1 0 0 3 2 0 3 2 1 1 0 0 3 1 3 1 1 0 2 3 1 0 3 1 0 0 3 1 1 1 3 2 1 1 3 1 1 1 2 3 1 0 2 2 0 4 1 1 2 2 1 2 2 2 2 2 1 0 2 1 4 3 1 2 0 1 2 3 1 1 3 3 2 1 1 3 1 2 1 2 1 2 1 0 0 2 1 2 0 0 1 1 1 0 0 1 0 1 0 1 0 0 2 0 1 0 2 1 1 1 2 2 0 1 1 2 3 0 1 1 1 1 0 2 1 2 3 2 1 0 2 2 0 1 2 0 2 1 2 3 2 2 1 3 1 1 2 1 0 1 3 2 1 1 2 0 2 0 1 0 1 1 0 4 1 0 1 1 2 0 1 1 1 0 2 1 1 1 0 3 2 0 2 2 1 2 4 2 0 2 2 2 2 2 2 1 1 1 0 1 1 1 2 1 1 3 3 2 2 2 1 0 1 0 1 0 4 1 0 1 0 1 1 1 1 0 2 1 3 0 1 2 2 1 2 0 1 2 0 2 2 2 0 1 3 2 2 3 3 1 0 1 1 1 1 3 1 3 0 0 2 2 1 1 2 1 1 2 2 1 2 2 4 0 2 1 0 1 1 0 1 1 0 2 2 1 2 2 0 0 1 2 2 1 3 0 1 0 0 0 0 1 0 0 0 0 1 0 4 2 2 1 2 0 1 1 2 1 1 1 2 0 3 1 0 1 2 2 1 0 1 1 1 1 3 0 1 2 0 0 1 1 1 1 2 1 2 1 0 1 1 1 2 2 2 2 1 1 2 1 3 1 1 3 2 1 0 0 2 2 1 1 0 2 2 0 0 3 1 2 1 2 2 3 1 1 2 2 0 2 1 3 2 0 3 2 2 1 1 1 2 3 2 2 3 2 1 1 1 0 1 1 0 1 1 1 3 1 1 1 1 1 3 3 1 2 3 1 3 1 0 2 1 2 2 2 2 0 0 0 3 1 1 0 0 0 2 0 2 1 2 0 2 1 1 1 2 1 1 1 1 0 1 1 1 1 3 2 3 0 2 1 0 2 1 1 1 2 3 2 1 1 0 1 2 2 0 0 2 2 1 2 0 1 1 1 0 2 1 0 3 2 2 1 1 1 1 1 1 0 1 2 2 0 0 3 1 0 1 0 2 0 1 2 3 0 2 2 1 2 1 1 1 0 2 4 2 3 4 2 0 2 2 1 1 2 2 3 0 2 1 1 2 0 2 3 2 0 3 3 3 2 2 2 1 3 2 1 0 0 0 2 1 1 0 2 2 1 2 2 2 1 0 2 2 1 0 2 1 1 0 0 2 0 2 2 2 2 1 0 3 2 0 2 2 1 1 2 1 0 1 2 1 2 1 0 4 2 1 2 0 3 1 1 0 1 0 2 1 2 0 3 1 2 3 2 3 1 0 1 1 1 1 2 2 1 0 3 2 1 1 0 1 0 3 2 2 1 0 0 2 2 2 1 2 0 2 0 2 2 2 1 3 0 1 1 0 2 2 1 2 2 2 3 0 1 0 1 0 2 1 1 0 4 0 1 1 2 1 1 2 1 2 2 2 3 2 2 0 2 1 2 2 2 3 1 1 0 2 1 2 3 2 3 2 2 0 0 1 3 0 1 2 0 0 2 2 0 1 0 1 1 1 2 1 2 0 3 2 0 2 1 0 1 2 2 0 1 1 2 2 2 1 3 1 1 0 2 2 2 1 3 3 0 2 2 2 0 0 1 1 0 1 1 0 2 0 3 0 1 0 1 1 1 1 2 1 2 3 1 1 2 1 2 0 2 1 2 3 1 0 3 1 2 2 1 1 1 1 0 1 1 2 2 2 1 1 2 1 2 1 0 1 1 0 1 0 2 3 2 0 2 2 1 1 3 1 0 2 3 2 1 3 1 1 2 2 1 1 1 2 2 1 2 3 1 3 0 1 0 2 2 2 0 1 2 1 3 2 0 2 2 1 1 0 1 2 4 2 0 0 1 1 3 2 2 1 2 3 0 0 2 2 1 1 0 0 3 0 2 0 2 5 0 0 3 0 0 2 0 4 1 3 0 1 2 1 0 1 2 1 2 1 1 1 1 2 1 0 3 1 2 1 0 2 0 2 2 1 2 2 1 0 1 1 2 0 1 2 0 1 3 1 1 3 1 2 1 2 3 0 3 4 2 0 1 4 1 1 2 0 0 2 1 1 0 1 1 2 2 3 2 1 3 3 3 2 2 1 1 2 2 2 1 4 4 1 3 0 2 1 2 0 1 1 0 2 2 1 1 1 1 2 1 3 2 0 2 0 1 2 0 1 1 1 2 1 3 0 2 2 3 1 0 2 1 0 1 1 2 2 0 1 1 0 2 2 0 0 1 3 1 2 0 0 2 0 1 1 0 0 1 0 2 0 1 1 0 1 0 2 1 2 2 2 1 1 1 1 1 1 1 1 3 2 3 2 1 3 1 2 2 2 2 3 0 2 3 1 2 1 1 2 1 1 3 2 1 1 1 1 2 2 1 1 0 1 1 4 2 2 0 1 2 2 3 0 1 1 2 0 1 1 3 1 1 1 2 2 1 1 1 1 2 2 2 3 0 1 1 3 1 1 1 1 2 0 1 2 1 1 1 0 1 0 2 2 3 2 2 1 0 1 0 2 3 1 2 0 1 0 1 2 1 1 1 2 1 2 1 1 1 0 1 1 1 0 1 3 2 0 1 3 3 3 3 1 2 1 1 0 0 1 2 1 1 1 0 3 3 2 0 0 2 0 2 3 2 2 1 0 3 0 3 0 0 2 1 0 3 1 0 2 0 0 2 2 1 1 2 2 3 1 1 2 3 2 1 0 0 0 1 1 2 3 1 1 1 3 1 2 1 1 1 1 2 0 2 1 3 2 0 0 3 2 3 0 2 2 2 0 2 2 2 0 1 1 2 3 2 2 0 1 0 1 0 1 2 2 2 2 1 0 2 1 0 4 2 2 1 2 2 1 3 2 2 1 0 2 1 2 2 1 2 0 1 2 3 1 1 1 2 2 0 0 2 0 1 4 1 1 0 1 2 1 1 0 0 3 3 0 0 2 2 2 1 1 0 0 2 0 2 0 2 1 0 1 1 0 1 2 1 1 1 1 1 0 0 3 0 1 1 0 1 3 1 1 0 1 0 1 3 3 1 1 1 1 0 2 3 2 1 3 1 2 2 3 1 2 1 1 1 1 1 1 3 2 0 1 1 3 1 0 1 1 1 1 0 1 2 2 1 0 1 2 1 0 3 1 3 3 2 1 1 1 1 0 3 2 0 3 2 2 2 0 3 2 1 2 0 3 1 2 1 0 1 0 2 1 1 1 1 2 0 2 0 0 1 1 2 0 2 1 0 3 0 2 1 2 0 1 2 2 0 4 2 2 1 1 2 1 1 0 0 1 0 2 2 1 1 1 1 1 3 1 1 3 2 0 2 3 1 1 0 3 2 1 0 1 1 0 1 1 0 0 2 3 3 1 0 3 1 1 0 1 0 0 0 1 1 0 1 0 2 3 1 2 1 3 1 2 2 2 2 4 4 1 2 1 1 3 1 3 2 3 3 2 1 1 0 0 1 0 2 2 2 1 3 1 2 2 1 2 2 2 2 2 3 1 2 0 1 0 1 0 1 1 3 2 2 2 2 2 1 2 1 1 2 3 1 2 2 1 3 0 2 2 0 1 0 1 1 2 1 3 1 3 1 2 2 0 2 3 3 0 1 1 3 2 0 2 0 0 0 0 0 2 1 1 1 0 0 2 1 2 0 1 2 1 1 1 1 2 3 2 2 1 2 0 2 1 2 3 2 1 3 0 0 2 1 2 3 1 1 1 1 3 1 2 2 0 2 2 1 2 1 2 2 2 2 3 1 2 1 1 1 0 2 1 1 3 2 1 2 2 2 1 1 1 1 0 0 2 2 3 2 3 1 2 2 2 1 3 1 1 2 1 1 1 2 1 2 4 0 1 1 1 1 1 2 1 2 1 0 1 3 1 1 0 0 0 2 0 0 1 2 1 2 0 1 1 2 2 1 0 1 2 1 2 1 0 0 0 1 0 1 1 1 0 2 0 4 1 1 0 2 1 0 1 0 2 1 0 0 0 1 0 2 0 2 1 2 2 2 3 2 2 1 2 1 1 0 2 1 1 1 1 1 1 1 1 1 3 1 0 1 1 1 0 1 1 1 0 1 0 0 1 0 1 2 2 1 3 1 2 2 1 1 0 2 0 3 0 1 2 1 1 0 1 1 2 1 2 0 1 2 0 3 1 1 2 1 1 2 1 0 1 1 1 2 2 0 2 2 0 3 1 1 1 2 1 2 2 2 1 0 0 1 0 2 2 0 3 2 1 3 2 1 2 1 1 0 0 1 0 1 4 0 2 2 0 3 3 1 2 1 1 1 2 2 3 1 1 2 2 3 1 3 5 2 0 1 0 0 1 1 0 1 1 0 0 0 1 1 2 1 4 0 2 1 2 2 0 0 1 2 2 0 1 1 1 0 1 0 1 2 2 2 1 0 1 1 1 2 1 1 2 1 2 0 1 0 2 2 1 0 3 0 2 3 1 1 0 1 0 2 0 3 3 3 1 2 2 2 0 1 2 2 1 2 2 1 2 1 1 0 2 3 2 1 2 2 2 2 1 2 2 3 2 2 2 2 1 1 1 1 0 1 1 0 2 1 2 1 1 1 2 0 0 3 1 3 0 0 1 1 3 1 1 0 0 3 2 1 1 2 2 1 2 2 1 0 1 0 2 3 1 1 4 2 2 0 1 1 0 1 0 2 0 2 1 2 1 0 0 1 0 3 2 3 1 1 1 2 1 2 1 0 1 1 3 1 1 1 0 3 2 1 0 1 1 0 1 3 2 1 1 2 1 2 3 1 1 2 1 0 3 1 3 2 2 2 4 2 2 0 1 1 1 0 0 2 2 2 1 4 0 0 1 1 0 2 2 0 0 1 1 2 4 1 1 1 2 1 1 2 2 2 1 2 3 1 2 2 1 1 1 0 1 3 2 2 1 1 2 1 4 3 2 3 1 1 0 1 0 1 2 2 1 2 2 0 1 0 1 2 0 1 1 1 2 3 1 3 2 2 3 3 0 1 1 1 2 3 0 1 1 2 1 0 0 2 1 1 2 2 1 0 0 2 1 2 0 2 1 0 0 1 0 1 0 0 0 1 0 2 2 3 0 2 1 0 1 0 2 1 1 2 0 1 0 3 2 0 4 1 1 1 0 2 1 1 2 1 2 1 0 1 2 0 0 1 1 2 1 2 0 1 1 1 2 1 2 1 0 2 2 1 4 0 1 0 2 1 2 1 1 2 1 2 2 1 1 2 0 2 1 1 0 0 0 2 2 0 1 0 2 2 3 1 1 4 2 1 3 0 1 2 1 2 0 2 1 3 2 1 1 1 1 1 2 2 0 2 3 2 1 1 1 2 2 0 0 2 1 1 1 2 1 1 0 2 0 1 0 0 0 2 2 3 1 0 0 2 3 4 0 1 3 1 0 1 1 3 3 1 1 0 1 2 2 1 1 2 2 2 1 2 2 0 2 0 0 2 2 2 1 1 1 1 1 1 2 1 2 1 2 3 2 0 1 1 0 3 1 1 0 0 0 1 2 1 2 1 1 0 2 1 2 1 0 0 0 2 2 2 1 2 0 2 0 3 1 1 2 1 4 0 2 0 2 3 2 1 3 1 0 2 1 1 1 1 1 2 0 1 1 2 2 1 1 0 3 0 1 3 1 2 2 3 0 0 0 2 1 0 3 1 1 0 3 2 1 0 1 2 2 1 1 3 1 1 1 2 2 1 1 3 1 1 2 2 2 1 2 0 2 4 2 1 2 0 2 0 0 2 2 3 1 2 2 0 1 0 0 2 0 1 2 1 1 1 1 0 3 0 2 2 3 2 1 3 0 2 1 1 1 0 2 0 1 0 1 1 1 0 0 0 2 0 1 0 1 0 1 0 3 2 1 2 2 4 1 2 0 0 2 1 1 1 1 0 0 1 0 1 0 1 0 2 2 1 2 1 1 1 1 0 1 2 2 2 2 1 3 2 0 2 2 0 2 1 0 1 1 2 1 1 0 1 0 1 1 0 1 0 1 2 0 2 1 0 2 0 2 2 2 0 1 1 1 0 2 1 2 1 2 0 0 2 1 2 0 2 2 1 3 0 0 2 1 3 3 1 1 2 1 3 1 1 0 3 3 1 0 2 0 2 1 1 2 1 2 1 3 0 1 2 2 2 3 3 0 0 2 1 1 2 2 1 1 1 0 2 1 0 1 1 1 0 1 1 1 1 1 2 2 0 3 0 2 0 2 1 1 1 1 1 1 1 0 2 1 2 4 3 1 3 0 3 0 0 3 1 2 2 3 2 3 0 1 1 0 3 1 2 0 3 0 2 0 2 2 2 0 1 2 2 1 2 2 2 2 1 3 1 1 2 1 1 1 1 1 1 1 0 2 3 1 0 1 0 0 3 1 3 1 1 0 0 0 1 1 1 1 1 1 1 1 1 2 2 1 3 1 3 1 2 1 1 3 0 1 2 0 0 0 1 2 1 0 0 1 4 1 2 0 2 1 1 1 0 2 0 0 2 2 3 0 1 3 3 1 2 1 1 2 1 1 2 1 2 0 1 1 1 1 1 0 3 3 2 2 3 0 2 2 0 1 1 1 1 3 3 1 2 2 3 0 2 1 2 0 0 2 0 2 0 1 1 1 1 1 1 0 1 1 3 1 2 1 4 1 2 0 2 0 0 2 3 2 1 1 1 2 1 1 1 1 1 1 0 2 3 0 2 1 3 1 1 2 0 3 0 3 3 1 2 0 2 1 1 1 1 2 1 1 1 2 1 2 1 1 0 1 4 1 3 3 1 3 1 2 1 1 0 3 2 2 2 2 1 2 2 2 1 1 2 0 1 1 1 1 1 0 1 4 2 1 1 0 2 0 0 1 2 2 2 2 2 0 2 1 1 2 2 1 0 0 2 2 1 2 2 2 3 1 2 1 3 1 0 1 1 3 2 0 1 3 1 2 0 2 0 1 0 0 2 1 2 2 3 2 2 0 1 0 1 2 1 1 1 1 2 1 1 1 2 1 0 1 1 2 2 0 1 2 0 1 1 1 2 2 1 0 3 1 1 1 1 1 0 1 1 3 0 2 2 1 2 4 3 2 2 2 1 1 3 1 2 0 0 0 1 1 3 2 0 1 1 1 3 2 1 1 0 1 3 1 1 1 3 1 1 3 1 2 2 1 2 2 2 0 1 0 1 2 1 0 2 1 3 1 0 0 2 0 2 2 0 2 0 1 1 2 2 2 2 1 1 2 2 3 1 3 1 1 1 4 3 2 2 4 1 2 1 0 3 1 0 0 1 0 1 1 1 2 1 2 2 2 1 1 1 0 1 1 1 1 0 1 0 0 1 1 1 0 0 3 1 1 2 1 0 1 0 0 2 0 1 2 1 2 1 1 1 1 1 2 1 0 1 1 2 2 2 1 0 3 1 3 0 1 1 1 1 0 3 2 0 4 2 3 3 0 1 0 3 2 2 2 2 1 2 3 1 4 0 1 0 0 1 1 1 3 0 1 1 0 1 0 1 2 1 2 3 2 1 1 2 4 2 1 2 1 1 2 2 1 1 1 0 2 1 2 2 1 1 1 1 0 0 3 2 0 2 0 2 1 0 4 1 0 0 2 2 3 3 1 2 1 3 2 0 1 0 0 2 2 0 1 0 1 3 2 3 3 0 1 2 0 1 2 1 1 1 1 2 2 1 1 1 2 3 4 2 0 2 2 2 4 2 2 3 3 2 3 3 1 0 2 0 1 0 0 1 2 3 4 0 2 3 1 1 3 1 2 0 1 2 1 2 2 2 0 2 0 0 5 1 1 1 1 3 2 1 0 2 1 1 2 1 0 3 2 0 1 2 1 0 1 2 1 2 2 1 1 0 1 2 2 0 0 1 0 3 0 0 1 1 1 2 2 2 3 2 2 3 0 0 0 1 2 0 1 1 2 2 2 0 1 1 2 1 1 1 1 2 1 1 1 0 1 2 1 1 2 2 0 1 3 3 2 2 2 1 0 0 2 0 2 2 2 1 3 2 2 0 1 3 2 1 0 1 0 1 2 2 0 0 2 2 1 2 1 3 3 3 0 0 0 2 0 1 2 1 1 1 2 2 1 1 0 3 1 0 0 1 0 2 0 1 1 1 1 0 1 2 2 2 0 2 1 1 0 3 3 3 1 3 2 0 2 2 1 2 4 2 2 3 1 1 2 1 2 1 1 1 2 0 0 1 1 2 0 0 2 0 1 1 1 3 1 4 2 0 2 0 2 2 2 1 2 2 0 2 1 1 2 1 0 3 3 0 2 2 0 0 2 4 0 3 1 2 2 1 1 4 1 1 0 1 0 1 3 4 2 1 2 3 1 2 0 1 1 1 2 1 3 0 1 2 2 3 3 0 0 2 2 4 2 0 1 0 2 2 2 2 1 1 0 2 3 0 2 2 2 1 2 1 0 1 2 4 0 2 0 0 0 3 2 2 2 2 1 0 1 1 0 1 1 3 2 3 2 1 0 1 1 0 2 0 2 2 2 2 2 1 2 0 3 1 2 0 0 2 1 0 1 1 0 1 2 0 0 3 1 1 1 3 4 0 1 2 1 1 1 2 2 2 1 0 1 2 1 2 1 0 0 0 0 1 1 0 2 2 0 3 0 2 1 1 0 1 1 1 0 1 2 2 2 2 2 2 1 1 1 3 1 1 2 2 1 1 1 1 2 0 2 1 2 2 2 1 2 1 2 3 1 2 2 2 1 1 1 1 1 1 1 0 1 3 2 0 0 0 1 2 0 0 2 1 0 1 2 1 2 2 4 1 0 1 0 1 2 1 0 0 0 1 2 2 1 1 2 0 2 0 2 2 1 1 2 1 0 1 1 0 1 1 1 1 3 1 0 2 0 0 4 2 2 0 1 2 0 2 1 2 2 2 1 1 3 1 1 3 4 1 3 1 0 2 0 1 1 3 1 2 1 0 2 1 4 0 1 2 2 1 1 1 2 0 3 1 1 3 2 1 2 1 0 1 0 2 1 0 1 2 2 1 0 0 2 0 2 2 2 1 0 1 1 1 1 1 2 1 2 1 1 3 1 0 2 1 1 1 1 1 3 1 2 1 0 1 1 2 2 2 2 1 2 2 2 0 1 1 1 2 5 0 1 1 1 1 1 3 1 2 1 1 1 2 1 4 2 2 2 2 0 2 2 2 0 1 1 2 4 0 1 3 1 1 0 0 1 0 0 2 1 0 1 0 1 1 0 2 2 2 0 1 4 3 3 2 2 0 1 1 1 1 1 1 1 3 0 0 1 3 1 2 1 1 0 1 0 1 2 1 2 0 1 1 3 1 1 2 0 1 1 2 0 2 1 2 1 1 2 1 1 1 0 1 2 1 2 1 2 1 2 0 3 2 1 0 1 0 1 2 0 1 0 0 1 1 0 0 2 0 1 0 1 1 0 2 0 1 1 2 1 0 3 0 0 0 2 1 1 1 2 1 3 1 0 0 2 1 0 1 0 1 4 0 3 1 1 1 2 1 1 0 0 1 0 3 1 0 2 1 0 3 1 1 1 1 1 0 1 2 1 1 2 0 0 4 0 0 4 0 2 4 2 2 1 1 0 1 1 2 2 2 1 2 3 0 1 1 1 3 2 1 2 2 1 1 1 1 1 1 2 2 1 2 2 2 3 0 0 2 1 1 0 0 1 1 2 2 1 2 3 2 1 1 2 1 1 2 1 0 3 1 0 1 2 1 1 2 3 1 1 1 1 3 1 0 2 1 1 1 2 0 1 1 0 2 0 0 1 2 3 2 1 1 1 2 2 1 1 0 0 1 2 0 0 1 0 1 3 3 1 2 1 2 1 1 3 2 1 3 3 0 0 2 1 4 2 0 2 1 1 1 0 2 0 1 1 1 0 1 1 2 2 1 1 1 0 1 1 0 3 1 1 3 0 2 2 2 1 1 1 2 2 0 2 3 2 1 1 1 2 1 1 2 1 1 1 1 0 1 0 0 1 0 1 2 2 2 1 0 1 1 2 1 1 2 2 1 2 2 1 2 3 1 0 1 0 1 1 2 3 1 0 2 0 1 0 0 1 1 2 3 2 0 1 0 2 1 1 2 2 2 0 2 3 1 1 0 1 1 2 4 2 1 1 1 1 1 3 2 1 3 2 2 2 0 0 3 1 1 0 5 1 1 1 0 2 2 0 0 2 1 0 2 0 1 2 1 0 1 2 2 1 2 2 0 2 1 1 3 2 1 1 0 1 1 1 1 1 3 2 2 3 2 1 1 1 0 2 3 2 5 0 2 2 2 3 0 1 2 3 0 4 0 2 0 1 1 2 1 1 1 2 1 3 1 2 4 1 0 1 3 1 3 3 1 1 2 2 0 0 2 1 0 1 2 2 1 1 2 2 1 2 4 2 1 0 2 1 0 2 1 1 1 2 1 0 2 3 1 1 1 0 1 2 2 3 1 0 3 1 2 2 2 1 0 1 2 2 1 1 1 0 1 3 1 1 2 1 1 2 1 0 1 0 1 0 0 2 1 1 3 2 0 2 1 2 0 2 1 0 2 3 2 0 0 2 1 1 3 0 1 1 0 1 2 2 2 1 0 0 2 0 2 0 2 2 1 0 2 2 3 1 0 1 1 2 1 3 1 1 0 1 2 1 2 3 2 2 2 2 2 2 1 0 3 0 1 1 3 1 2 2 1 0 1 2 1 1 2 2 2 1 1 2 0 2 1 1 2 2 0 2 1 1 1 1 1 0 0 2 3 1 1 1 1 1 1 1 2 1 3 0 3 1 1 2 1 2 2 2 0 4 0 2 1 3 0 1 1 0 0 1 0 2 2 0 1 1 2 1 2 2 2 1 0 1 1 2 2 1 0 0 1 0 2 1 1 1 0 0 1 1 2 1 2 2 3 1 0 0 1 0 1 2 0 0 1 3 1 1 1 1 3 1 2 2 1 1 2 0 3 3 0 0 0 1 2 1 2 3 3 1 1 2 0 1 1 0 3 1 0 1 1 1 1 1 0 2 0 2 1 2 0 1 2 1 2 2 0 0 1 0 0 1 2 3 2 1 1 2 0 1 0 1 3 1 1 2 3 2 1 0 2 2 2 1 1 3 0 3 2 1 0 1 1 1 0 2 0 1 0 3 0 1 0 2 2 1 3 1 2 0 1 2 1 1 1 1 1 2 3 2 0 2 0 1 2 2 3 2 1 3 0 1 1 0 2 1 1 1 1 1 2 0 2 1 0 2 1 2 1 0 2 1 1 2 1 2 1 3 0 2 3 2 1 2 1 2 2 1 1 1 0 0 0 1 0 3 2 2 0 2 2 0 2 0 1 2 2 1 1 2 1 3 0 0 2 2 1 1 2 2 2 2 1 2 1 2 1 1 0 0 1 1 1 2 2 1 3 2 2 1 1 0 1 2 1 1 1 2 0 1 2 0 2 2 0 3 2 1 1 1 0 2 1 1 2 0 1 2 1 2 4 1 0 3 1 1 1 1 2 0 2 3 1 3 0 0 0 0 4 2 2 0 1 0 0 2 0 5 0 0 1 0 2 1 0 1 1 1 2 2 1 0 2 0 0 2 1 0 4 3 2 0 1 1 2 2 2 0 0 1 1 0 0 1 0 2 1 0 2 4 2 3 3 1 0 1 1 3 1 1 0 3 1 0 0 2 3 0 0 1 1 1 1 3 0 1 1 0 2 1 3 3 0 0 1 2 1 0 1 1 1 0 0 3 1 0 2 1 1 1 1 1 2 1 1 3 2 3 0 2 1 0 2 1 3 3 1 2 1 3 1 0 3 2 1 1 1 1 0 2 2 0 2 2 0 0 0 3 1 2 2 0 0 1 3 1 1 1 1 1 2 1 2 1 1 1 1 3 1 1 0 2 3 0 3 1 2 2 0 2 0 1 0 3 1 1 2 1 2 3 0 2 1 1 1 1 1 2 0 1 0 1 1 0 1 3 0 2 1 1 1 0 4 1 3 2 0 2 1 0 2 1 2 1 3 2 1 2 3 2 1 1 1 1 1 1 2 0 1 1 1 1 1 1 1 3 2 1 3 2 0 1 2 1 2 3 2 3 1 1 2 4 1 1 2 0 2 1 2 3 1 0 0 1 3 1 2 1 3 0 1 1 3 2 1 4 3 2 0 1 1 0 0 0 3 2 1 2 1 2 0 0 1 1 2 3 1 2 1 1 2 1 0 1 3 3 1 3 0 2 2 2 2 0 1 0 1 1 2 1 0 1 1 1 2 1 0 1 1 3 1 1 1 1 1 1 2 0 2 2 1 2 2 0 0 3 1 0 2 1 2 0 1 2 2 1 1 0 1 2 1 2 0 2 1 1 2 4 2 1 1 0 2 1 0 0 1 1 0 0 1 4 1 1 1 2 1 0 0 1 2 1 2 2 3 1 0 2 3 2 2 0 1 1 1 1 2 2 1 1 1 0 1 2 1 2 1 2 1 2 1 0 1 1 4 0 2 3 3 1 1 0 0 1 1 1 2 1 1 3 2 3 2 0 0 2 2 1 2 1 3 0 0 1 2 3 0 0 0 1 1 3 1 2 2 1 2 4 2 1 1 1 4 1 2 1 0 3 3 0 2 0 1 2 0 3 1 2 0 1 2 2 0 0 2 1 1 0 1 0 2 1 1 3 2 2 0 2 2 1 2 1 2 2 2 1 0 1 0 1 2 1 2 0 2 3 0 1 1 2 1 1 1 1 1 3 1 3 0 1 0 2 3 0 0 2 2 1 1 0 1 3 2 0 1 0 0 0 1 2 2 2 1 1 2 0 1 1 1 1 2 1 0 1 1 2 0 2 2 2 1 2 3 1 1 1 1 0 1 3 3 0 1 2 1 1 2 0 3 1 0 0 2 1 2 0 2 0 2 2 1 0 3 2 1 0 0 2 2 0 0 1 3 2 2 1 2 0 2 1 2 2 1 3 0 3 2 1 0 1 2 2 1 0 1 1 2 0 1 1 2 1 1 0 0 2 0 0 3 2 1 2 2 1 3 3 0 1 2 2 1 0 1 3 2 1 3 0 0 1 0 2 2 1 2 2 1 0 1 2 0 1 1 3 2 3 1 0 1 0 1 1 1 2 1 1 2 2 2 1 0 0 0 2 3 1 2 1 2 1 4 2 3 1 3 2 0 3 1 1 0 0 1 1 4 1 2 3 2 1 1 1 1 1 2 1 2 1 1 0 1 2 0 1 1 2 2 0 0 1 0 1 1 1 3 2 1 3 1 2 1 2 0 1 2 1 0 3 3 1 1 1 0 3 3 2 0 1 1 0 3 0 2 0 2 0 1 2 0 2 2 1 1 3 2 0 2 1 1 3 3 0 0 1 1 2 2 1 2 1 1 0 2 2 0 1 0 0 0 1 4 0 1 1 1 3 3 2 2 0 0 1 0 2 0 1 2 0 1 1 2 2 2 1 0 1 1 0 1 2 1 0 1 0 1 2 1 1 1 0 2 1 0 2 2 0 1 1 2 1 1 0 1 1 3 1 1 1 0 1 1 1 0 1 2 1 2 2 2 1 0 1 1 2 2 3 1 2 2 1 0 3 1 1 1 2 2 2 1 0 3 1 1 1 0 3 1 2 1 1 2 2 3 1 1 2 1 0 0 1 2 1 1 0 2 0 1 3 0 1 2 1 1 1 2 3 1 2 1 2 2 1 0 0 0 4 0 3 1 2 2 1 1 1 1 1 4 3 1 3 1 2 3 1 0 2 0 3 4 0 0 3 1 0 1 2 1 2 1 1 1 1 2 1 0 0 2 2 2 1 1 1 1 0 3 0 1 0 1 3 0 2 1 2 1 3 2 4 2 0 2 1 3 1 2 0 0 0 0 2 3 1 2 0 0 3 2 2 1 1 1 0 0 1 3 1 1 0 1 2 1 2 2 2 1 3 0 1 1 1 2 1 2 2 1 1 2 2 1 0 0 0 2 1 2 0 1 1 2 0 1 2 0 2 1 2 1 1 2 1 1 1 4 0 2 1 1 2 2 1 0 4 2 1 1 1 2 3 2 0 2 1 1 3 2 2 2 1 1 1 1 1 0 0 0 2 3 0 1 0 1 2 2 1 1 3 2 2 1 1 1 1 2 1 1 2 2 0 1 2 1 3 2 3 1 1 2 3 2 1 0 2 2 3 1 1 0 2 0 3 1 1 3 1 2 2 1 1 1 3 1 1 0 0 1 1 2 0 1 3 1 1 1 1 2 0 2 1 1 1 1 1 2 2 2 2 2 0 0 1 2 2 2 1 1 1 2 2 0 1 2 0 2 0 2 1 1 1 1 1 1 2 1 1 1 1 2 1 2 2 0 1 1 2 1 1 1 3 0 1 2 1 2 0 4 2 2 3 2 0 1 1 1 1 0 3 0 0 1 2 2 2 0 2 1 1 3 1 2 2 2 0 1 1 0 1 1 3 1 2 1 4 2 0 0 1 0 2 3 2 2 2 3 0 2 2 4 2 0 1 0 1 2 2 0 1 1 2 1 1 1 1 2 3 1 0 1 2 0 2 1 2 1 1 1 1 1 1 1 1 2 1 1 0 2 2 1 2 2 1 5 2 2 1 0 1 1 0 3 2 1 1 0 0 1 2 1 0 0 3 2 2 0 1 0 1 1 0 1 2 3 1 0 1 1 1 3 2 1 0 5 2 1 1 1 1 0 1 1 1 1 2 3 1 0 1 1 2 1 1 1 1 1 3 1 2 2 1 2 2 1 2 1 1 1 4 1 2 2 3 2 1 0 0 2 3 1 0 1 1 1 2 3 2 1 3 2 2 1 1 4 0 0 2 1 3 1 2 3 1 3 2 0 2 1 1 2 0 1 2 1 2 2 1 3 1 1 2 2 1 2 1 1 1 0 2 2 1 3 0 1 2 2 1 1 4 2 1 2 0 1 0 2 2 0 2 1 1 0 1 1 2 1 1 0 1 3 1 0 2 3 2 1 2 0 0 1 4 1 1 1 2 1 1 0 1 2 3 3 2 1 2 1 0 1 0 1 2 2 0 1 2 1 2 2 2 1 2 1 2 2 1 0 0 1 2 2 2 0 0 1 0 0 0 2 0 1 1 0 1 1 2 2 1 0 0 2 2 1 2 0 2 1 1 0 1 2 0 0 2 2 2 0 0 1 1 1 2 0 2 1 0 1 0 1 2 2 1 2 1 1 1 0 1 1 2 4 1 3 2 3 2 1 1 0 0 1 1 2 3 1 2 1 1 2 0 0 0 2 0 2 1 1 1 1 1 1 1 2 4 0 2 1 1 0 1 1 1 1 1 0 1 0 0 0 1 2 0 2 1 1 1 1 2 3 3 2 3 1 1 3 1 0 2 1 1 3 3 0 1 2 0 3 1 1 2 2 2 1 0 2 1 1 1 1 2 1 2 2 2 2 1 1 0 0 2 0 1 1 3 0 0 2 2 1 1 0 2 1 1 2 1 1 2 2 0 2 0 3 1 1 1 3 1 1 0 2 1 0 1 1 1 1 2 1 1 3 0 1 3 3 0 1 3 1 2 3 1 3 3 1 1 0 1 3 1 2 2 1 1 3 1 1 1 0 3 2 1 2 1 1 1 1 2 1 2 0 0 3 2 1 3 2 0 2 3 1 1 1 1 2 2 0 2 2 3 0 1 2 3 2 0 1 2 1 1 1 1 1 1 1 1 1 3 1 1 2 0 0 2 0 2 1 3 1 1 2 0 0 1 1 2 0 0 1 0 1 0 2 2 2 1 3 1 1 1 3 1 0 1 2 0 0 2 3 0 2 0 1 0 1 1 1 1 1 0 2 1 0 3 2 0 0 3 1 3 1 0 0 2 0 1 1 2 2 2 1 1 1 1 1 0 1 1 1 1 3 2 1 4 1 1 2 2 1 2 2 2 3 1 1 2 2 1 0 1 1 2 0 2 2 2 2 1 2 1 2 4 0 1 2 1 1 3 0 1 2 0 1 0 0 2 0 1 3 2 1 0 1 1 2 2 0 1 0 3 1 3 1 2 3 3 1 2 2 1 2 1 3 1 1 3 1 2 3 3 0 2 0 3 1 3 0 1 3 2 1 2 1 1 1 2 3 1 0 1 3 0 0 0 0 2 1 0 3 0 1 2 2 1 2 1 2 3 3 2 1 1 3 1 0 1 3 2 0 2 2 0 4 2 2 1 0 1 1 1 1 0 1 2 0 1 1 1 3 1 1 0 2 1 1 1 0 2 1 0 1 3 2 1 2 1 0 1 2 1 1 2 2 3 2 1 2 3 1 0 1 2 1 3 1 0 2 1 2 1 0 2 1 2 3 0 2 0 0 0 1 1 2 2 1 0 1 2 2 2 2 2 1 1 3 3 2 1 1 1 1 0 2 2 0 2 0 1 1 1 3 1 0 2 2 2 1 2 2 2 1 2 2 1 1 2 1 1 2 1 1 2 1 1 3 1 2 1 0 1 1 0 1 0 1 1 1 0 3 0 0 3 0 0 3 0 2 0 3 2 1 3 3 1 1 2 0 2 4 2 1 2 1 2 2 0 1 2 0 0 0 1 1 1 0 1 0 2 0 0 2 2 2 2 1 1 0 1 0 0 0 1 2 1 2 1 1 0 2 2 0 1 3 0 3 1 2 1 1 1 0 2 0 1 0 1 1 1 1 2 0 1 1 2 0 1 1 1 2 1 1 1 0 0 1 1 1 3 2 1 0 0 1 0 1 3 0 1 1 2 0 0 1 0 3 4 1 1 3 1 1 0 0 0 0 1 2 2 1 3 1 0 1 1 2 2 0 1 2 1 2 1 2 1 1 1 1 3 1 1 2 1 1 2 2 1 2 1 2 4 0 0 1 1 2 2 1 1 0 1 3 1 1 3 0 4 4 1 1 1 2 1 0 0 0 1 1 0 1 2 0 2 0 1 1 2 1 1 0 0 1 2 1 0 2 0 2 0 2 2 1 1 1 1 2 3 1 2 3 1 3 0 2 0 1 2 0 2 1 1 1 2 1 0 0 2 1 1 2 2 2 1 1 0 2 0 1 0 2 0 2 3 1 1 0 2 0 2 1 2 3 1 0 2 1 1 2 1 1 0 1 2 0 1 1 2 2 3 3 2 0 3 1 1 2 1 2 1 2 1 0 3 2 3 1 0 3 0 2 0 0 2 0 2 2 1 2 0 2 2 1 1 2 1 4 0 2 1 1 2 1 1 1 1 2 2 0 2 2 1 0 0 0 1 3 1 2 0 2 1 3 0 1 2 1 2 2 0 2 2 1 0 2 1 0 2 0 2 2 3 0 3 2 2 1 0 0 1 1 2 2 1 1 4 2 1 2 0 2 1 0</t>
-  </si>
-  <si>
-    <t>NIG(0.3251618753477032, 0.3251193534098747, 0.003785865504153431, 0.00655935997031021)</t>
-  </si>
-  <si>
-    <t>0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 1 0 1 0 0 3 1 2 1 0 0 1 1 0 1 0 0 1 0 0 0 1 0 1 1 1 0 0 1 1 1 0 2 1 1 0 0 1 0 1 0 4 0 0 1 0 0 0 2 0 1 0 0 1 1 1 1 0 1 1 0 0 0 1 1 1 0 0 0 0 1 2 0 1 1 0 0 0 0 0 2 1 0 1 1 1 0 0 0 0 1 0 0 0 1 1 0 4 1 0 0 0 0 0 1 1 0 0 2 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 2 0 0 0 0 0 0 0 1 0 0 1 1 1 1 0 0 1 0 0 0 0 0 1 0 1 0 0 0 0 1 0 0 0 0 0 0 0 1 1 0 0 0 0 2 0 0 0 1 0 0 0 1 0 0 0 1 0 0 0 0 0 0 2 0 0 1 0 0 0 1 0 0 0 1 0 0 1 0 0 0 1 1 0 0 1 0 1 0 0 0 2 1 1 0 0 0 0 2 1 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 1 0 0 1 0 0 0 1 1 1 0 1 1 1 1 1 3 0 0 1 0 0 1 0 1 0 0 1 1 1 1 0 2 0 1 1 0 3 0 1 0 0 1 0 0 1 2 0 0 0 0 0 0 0 1 1 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 1 1 0 0 0 0 0 1 1 0 0 1 0 1 2 0 0 0 0 1 0 1 0 1 0 0 0 0 1 0 0 0 0 1 0 1 0 0 1 2 0 2 0 0 1 0 0 0 0 0 1 0 3 0 0 1 0 0 0 0 0 0 2 1 2 0 0 1 1 2 0 0 0 0 0 0 1 0 0 1 1 0 0 0 1 0 0 0 0 0 0 1 1 0 0 0 0 2 0 0 1 1 0 0 0 0 0 0 1 0 0 0 0 1 0 1 0 0 0 0 0 0 1 2 1 2 0 0 2 0 0 1 0 0 0 0 0 0 1 0 1 0 0 1 0 1 1 0 1 0 1 1 0 0 0 1 0 3 1 0 0 1 0 2 2 1 2 0 0 0 0 0 1 0 0 0 0 0 1 1 0 0 0 0 1 0 0 0 1 0 1 0 1 0 0 0 0 0 1 2 1 0 0 1 1 1 1 1 0 0 0 0 0 1 1 0 3 0 0 0 0 2 0 0 0 0 1 0 1 0 0 0 0 1 2 0 0 1 1 2 0 0 0 0 1 1 0 0 1 1 1 0 0 0 1 0 0 1 0 0 1 0 0 0 0 0 0 1 0 0 0 1 1 1 0 0 1 1 0 0 0 2 0 0 1 0 1 0 1 1 0 0 0 1 0 0 0 0 0 2 0 1 1 0 1 0 0 0 0 0 0 1 1 1 0 0 0 1 0 0 0 1 0 0 1 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 1 1 0 1 1 2 0 1 1 0 0 3 0 0 0 1 0 0 2 0 0 0 0 0 0 1 1 0 0 0 0 0 2 0 0 0 0 1 0 0 0 1 0 0 1 1 0 1 1 0 0 2 0 1 0 0 0 1 0 0 0 0 0 0 2 0 2 1 0 0 0 0 0 0 3 1 0 0 1 0 0 2 1 0 0 0 0 1 0 1 1 0 0 0 0 2 0 0 1 1 0 0 0 0 0 0 0 1 1 0 0 2 0 1 0 3 0 1 1 0 1 0 0 1 0 0 0 0 0 0 1 0 0 2 0 0 1 1 0 0 0 0 2 1 0 0 0 0 1 0 0 1 1 1 0 1 0 0 0 0 0 0 1 0 0 1 1 0 0 2 0 0 0 1 2 1 3 0 0 0 0 0 2 0 1 0 0 1 0 0 1 1 1 0 0 0 0 0 0 0 0 2 1 0 2 1 1 1 0 0 1 0 0 0 1 1 1 1 0 0 0 0 1 1 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 1 1 0 3 0 0 0 0 0 0 0 1 0 1 0 0 1 1 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 2 1 0 1 0 0 0 0 0 0 0 1 1 0 1 0 0 2 0 0 0 0 0 1 0 2 1 1 0 0 0 0 1 1 1 0 1 0 0 1 0 0 0 1 0 0 0 1 1 0 0 0 1 0 1 0 0 0 3 1 0 2 0 0 1 0 1 0 0 1 0 0 1 1 1 0 0 0 0 0 0 0 1 0 0 0 1 1 1 2 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 1 0 0 1 0 0 0 0 1 1 0 0 0 0 1 0 1 1 1 3 0 1 0 0 0 0 0 2 1 0 1 0 0 0 0 1 0 0 0 1 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 2 1 0 0 0 0 1 1 1 0 0 2 2 1 0 1 3 0 0 0 1 0 0 0 0 1 0 1 0 0 1 1 0 0 0 0 1 0 0 0 1 1 0 0 0 0 1 0 1 0 1 0 0 2 0 1 0 0 0 0 1 0 0 0 1 0 0 2 0 1 1 0 0 0 1 0 2 1 0 1 1 0 0 1 1 0 1 0 1 0 0 1 0 0 0 0 0 0 0 0 0 1 1 0 0 1 0 1 0 0 1 0 0 1 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 3 0 1 1 0 0 0 1 0 0 0 2 0 0 1 0 1 2 0 0 0 1 1 0 0 1 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 2 0 0 0 0 0 0 0 1 0 0 1 0 1 1 0 1 0 0 1 1 0 0 0 1 1 1 0 1 1 0 0 1 1 0 2 1 0 0 0 0 0 1 1 0 0 0 1 0 0 0 2 1 0 1 0 0 0 0 0 0 0 0 1 1 0 1 0 0 0 1 1 1 0 0 1 0 0 0 0 1 0 0 0 2 0 0 2 1 1 0 0 0 1 0 0 0 0 0 1 1 1 3 0 0 0 0 0 0 2 0 0 0 1 0 0 1 0 0 0 0 0 1 1 1 0 1 0 0 1 1 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 2 0 1 0 0 1 0 0 0 0 0 1 1 0 0 1 1 1 0 0 1 0 0 0 0 1 0 0 0 1 0 1 2 0 0 0 1 1 0 2 1 1 0 0 0 0 0 1 0 2 0 1 0 1 3 0 0 0 0 0 1 0 0 3 0 0 0 1 1 1 0 0 0 1 0 0 0 1 2 0 1 1 0 1 0 0 1 0 1 0 0 1 0 2 0 0 0 1 2 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 1 0 0 2 0 1 0 3 0 0 0 0 0 0 0 0 3 1 1 0 1 0 0 0 1 0 0 0 0 0 1 1 0 1 1 1 0 0 0 1 0 1 1 1 1 0 3 2 2 1 0 0 1 0 0 1 1 0 3 0 1 0 1 0 1 2 1 0 0 1 0 1 1 0 0 1 0 1 1 0 0 0 1 0 0 0 0 0 0 0 1 0 0 1 0 0 0 1 0 1 0 1 1 1 0 0 0 0 0 1 0 0 1 0 0 0 1 1 1 0 0 0 2 0 1 0 1 0 0 0 1 0 0 1 1 0 0 0 0 0 0 0 0 2 1 0 0 0 0 0 0 2 1 0 0 0 1 2 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 2 1 0 1 0 1 0 2 1 1 0 1 1 1 0 2 0 1 1 0 1 1 0 1 2 1 1 1 1 0 0 0 1 2 0 0 0 0 0 0 0 1 2 2 0 0 1 0 1 1 0 0 0 0 0 0 0 0 0 0 1 0 1 2 0 0 0 2 0 0 0 2 0 1 1 2 0 1 0 0 0 1 1 3 1 1 0 1 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 1 1 1 0 0 2 0 0 0 2 0 1 1 1 0 0 1 0 0 1 0 0 0 0 0 1 1 0 0 1 0 1 0 1 0 0 0 0 1 0 1 1 0 0 0 0 0 0 0 1 1 0 0 1 0 1 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 1 0 1 0 0 0 0 0 0 1 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 1 0 0 1 0 0 1 1 0 0 2 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 1 0 0 2 0 0 0 0 0 1 0 0 0 0 0 0 1 0 2 0 0 0 0 1 1 1 0 1 1 1 1 0 0 1 0 0 2 0 2 0 0 1 0 0 1 0 1 0 0 1 0 0 1 1 0 0 0 0 0 0 0 0 1 0 1 0 0 0 1 0 1 0 1 0 1 2 0 1 1 0 0 3 1 1 0 0 0 1 0 1 0 0 0 0 0 2 1 0 0 0 0 0 1 1 0 0 0 0 1 0 1 1 0 2 0 0 1 0 0 1 0 0 0 0 1 1 0 0 0 0 0 0 1 0 1 0 1 0 0 1 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 2 0 0 0 0 0 2 0 0 1 1 0 0 1 0 1 1 2 2 0 0 2 0 0 1 0 0 0 1 0 1 1 2 0 0 0 1 0 1 0 1 0 1 0 1 0 2 1 1 0 0 0 2 1 0 2 0 0 1 1 0 0 0 0 1 1 0 1 0 0 3 0 0 1 2 0 0 0 0 2 0 0 0 2 2 0 0 0 0 1 1 0 0 0 1 1 0 0 0 1 0 1 1 1 0 0 1 0 0 1 0 0 0 0 1 1 0 0 0 1 0 0 1 0 0 2 0 0 0 1 0 1 0 1 1 1 1 0 0 1 0 0 0 0 1 0 1 0 0 0 1 0 0 0 1 0 1 1 1 0 0 0 0 1 1 0 2 0 0 1 0 0 1 0 0 0 0 1 0 0 0 1 0 0 2 1 0 0 0 1 0 0 1 0 2 0 0 1 1 1 0 0 2 0 0 0 1 0 0 0 0 2 0 0 0 1 2 0 0 1 1 0 0 0 1 1 0 2 0 0 0 0 0 0 0 0 0 0 2 1 1 0 0 0 1 0 0 0 1 1 0 0 1 1 0 1 0 2 0 1 0 0 0 1 0 0 0 0 0 1 1 0 0 1 0 1 0 1 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 1 0 0 0 0 0 0 0 0 1 1 2 0 0 2 0 1 0 1 1 1 0 0 0 0 2 1 0 0 0 0 0 1 1 0 0 1 0 0 0 1 0 1 0 0 0 0 0 1 1 1 0 0 0 0 0 0 1 0 0 3 0 0 1 2 0 1 0 2 1 1 1 0 0 1 0 0 0 1 0 0 0 0 0 1 0 0 1 0 2 1 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 1 0 3 2 0 0 0 0 0 0 0 0 0 2 0 0 2 0 0 0 0 1 0 0 0 1 0 1 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 2 1 0 1 1 0 0 2 0 0 0 0 0 0 2 0 0 1 0 1 0 1 2 0 0 0 1 0 1 0 0 1 0 0 0 1 1 0 0 0 1 0 1 1 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 2 0 0 0 0 0 0 1 1 1 0 0 1 0 2 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 1 0 0 0 1 1 0 0 0 1 1 1 0 0 0 0 2 1 1 0 0 0 0 1 0 0 0 0 0 0 0 1 0 1 3 1 0 0 1 1 0 0 0 1 0 0 0 0 0 1 0 0 1 0 0 1 1 1 0 0 0 0 0 1 0 1 1 0 0 0 0 0 0 0 1 0 1 0 1 1 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 2 0 0 0 0 1 0 0 2 0 0 0 0 1 0 1 0 0 0 0 0 2 1 0 0 0 1 0 1 1 1 1 2 1 0 2 0 0 0 0 0 0 0 0 0 1 0 0 2 0 0 0 0 1 0 1 0 0 1 0 0 0 0 0 2 1 0 1 2 0 0 0 0 0 0 1 0 0 0 1 0 0 0 1 0 2 1 0 0 2 0 0 0 1 1 0 0 2 0 0 0 1 0 1 1 1 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 2 1 1 0 1 0 0 1 0 1 0 0 0 2 1 0 0 0 0 0 1 0 0 0 1 0 1 0 0 0 0 1 1 0 1 0 1 2 0 0 1 0 0 0 1 0 0 1 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 2 1 0 0 0 0 0 0 0 0 1 0 1 0 1 0 0 0 0 0 0 1 0 0 1 0 0 1 1 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 1 0 0 1 1 1 1 0 0 0 1 1 0 0 0 0 1 0 1 0 0 1 1 1 0 2 0 0 1 0 0 0 0 0 0 1 0 1 0 1 0 0 0 1 1 2 1 0 0 0 0 1 0 0 1 1 0 0 0 0 0 0 1 1 1 0 1 0 2 0 0 1 0 1 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 1 1 4 0 0 1 0 1 0 1 0 0 0 0 1 0 2 0 0 2 0 0 0 0 0 1 0 0 0 0 1 0 1 0 0 0 0 1 1 0 1 1 0 1 1 3 1 1 0 0 0 0 0 0 0 2 1 0 1 3 0 0 1 0 0 0 1 1 1 0 1 2 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 3 1 2 1 1 0 0 0 0 0 2 0 2 1 1 0 0 1 0 0 0 1 0 0 1 2 0 0 0 0 0 0 0 0 0 1 0 1 0 1 1 0 0 2 2 1 2 1 0 1 1 0 0 0 0 2 0 1 1 0 1 1 1 1 0 0 0 0 0 0 0 1 2 0 0 0 0 0 0 0 1 0 2 0 1 0 0 1 0 0 0 0 0 0 0 0 0 1 1 2 1 1 0 2 1 0 1 2 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 1 0 0 0 1 0 0 2 0 1 1 0 1 1 2 0 0 1 0 0 1 1 0 0 0 0 1 0 0 0 0 2 1 0 0 1 0 0 0 2 0 0 1 0 1 1 0 0 0 1 1 0 0 0 2 1 0 0 0 2 0 0 0 1 0 0 0 0 0 0 0 1 2 1 1 0 0 0 2 1 0 1 0 0 1 0 3 1 0 1 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 3 1 0 1 1 0 0 0 1 0 0 1 0 0 0 0 1 0 1 0 0 0 1 0 1 0 0 0 1 0 0 1 1 0 0 0 0 1 1 0 1 1 0 0 0 0 0 1 0 1 0 2 0 0 0 0 1 0 1 1 0 0 0 1 0 1 0 0 0 0 1 0 1 0 0 0 1 0 0 0 1 1 0 0 1 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 1 0 0 2 0 2 1 1 0 0 0 0 0 1 0 0 0 2 0 0 0 0 2 0 1 0 1 1 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 2 1 1 0 0 0 0 1 1 3 0 0 1 1 0 1 0 0 1 0 2 2 3 0 0 0 0 0 0 0 0 0 1 1 0 2 0 0 0 0 0 0 1 1 0 0 1 0 1 0 0 0 0 1 0 1 1 2 0 1 0 0 0 0 0 0 2 2 0 0 0 1 1 0 1 0 1 0 1 0 0 0 1 0 2 1 1 0 0 1 1 0 0 2 1 0 0 0 0 0 0 1 0 0 1 1 0 2 0 1 0 0 0 0 0 1 0 0 0 1 1 0 1 1 0 0 0 0 0 1 0 1 0 1 0 1 0 0 0 0 1 0 1 0 1 0 1 0 0 0 0 1 0 1 2 0 0 2 1 0 0 0 0 0 0 0 1 0 1 0 1 1 0 0 0 0 2 0 0 0 1 0 0 0 0 0 0 1 0 0 1 1 0 0 1 0 0 2 1 0 0 0 0 0 1 1 0 2 0 0 1 1 0 0 2 0 0 0 1 0 0 1 1 1 1 2 1 0 1 0 0 1 1 2 0 0 0 0 1 0 1 1 0 0 0 1 0 0 0 0 2 0 1 0 1 1 0 1 0 1 1 0 0 1 0 2 0 0 1 1 1 0 0 1 1 0 2 0 0 1 0 1 0 0 0 0 0 0 1 1 1 0 1 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 3 0 0 0 1 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 1 1 0 0 0 1 0 0 0 1 0 0 1 0 1 0 0 0 1 0 1 1 0 0 0 1 1 1 1 0 0 0 2 0 0 0 0 0 0 0 0 2 0 0 1 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 1 0 1 2 0 0 0 0 0 1 0 2 0 1 0 1 0 0 0 0 0 0 0 0 0 1 2 0 0 0 0 1 0 1 0 1 0 0 1 2 0 0 2 1 0 0 1 0 0 0 0 0 0 0 0 1 1 1 0 0 1 0 0 1 0 1 2 1 2 1 0 2 0 0 1 0 1 0 0 3 0 0 1 0 0 0 0 0 1 0 1 1 0 0 2 1 1 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 1 0 2 1 3 2 0 1 1 0 1 0 2 0 0 2 1 0 1 0 0 1 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 1 1 0 1 0 0 0 1 0 0 1 0 0 1 1 0 0 0 0 1 0 0 0 1 1 0 0 0 0 0 2 0 1 0 0 1 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 1 0 0 1 0 1 0 1 0 0 1 0 1 0 0 2 0 0 2 1 1 1 0 0 1 0 1 1 1 1 0 0 0 1 1 1 0 2 0 2 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 1 0 1 0 1 0 0 2 0 1 1 0 0 0 1 0 0 0 2 0 0 1 1 1 3 0 1 0 1 0 0 1 0 0 0 1 2 0 0 0 0 0 0 1 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 1 1 1 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 1 1 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 1 0 0 2 1 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 1 0 1 1 1 0 0 0 0 1 1 0 0 0 0 0 0 0 1 1 1 1 0 0 1 0 2 0 0 1 1 1 2 0 0 0 1 1 1 0 0 1 1 0 0 1 1 0 1 1 0 0 0 0 0 1 2 2 0 0 0 1 0 0 1 1 0 0 0 0 0 1 0 0 1 1 0 1 0 1 0 0 0 1 0 1 0 0 1 0 0 0 0 0 0 0 0 1 0 1 0 0 0 1 1 1 1 0 0 1 1 1 0 2 0 0 0 0 0 1 1 1 0 1 1 0 0 0 0 0 0 1 0 0 0 0 1 1 1 0 1 0 0 0 0 0 0 2 1 0 0 0 1 0 0 1 0 0 0 0 0 1 0 0 1 0 0 0 0 1 1 0 0 0 0 1 0 1 1 0 0 0 1 0 0 1 1 0 0 1 0 0 0 0 1 0 0 2 0 0 1 0 1 1 0 2 1 1 0 0 0 1 0 1 1 0 0 0 0 1 0 0 0 0 0 2 0 1 0 0 0 0 1 0 0 0 0 0 0 0 1 2 0 0 1 0 2 0 1 0 1 0 0 0 1 1 0 1 0 1 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 1 1 0 1 0 0 0 0 0 0 0 0 0 0 1 1 2 0 0 0 1 1 0 1 1 0 1 0 1 1 1 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 2 0 1 0 0 1 0 0 0 0 1 0 1 0 0 1 0 0 1 1 1 1 0 0 1 0 0 1 1 0 0 1 0 0 0 0 0 0 1 0 0 1 0 0 0 1 0 1 0 2 0 0 2 0 0 0 1 0 2 0 0 1 1 1 1 1 0 2 0 0 2 0 1 1 0 1 1 3 0 0 0 1 0 0 0 0 0 1 1 0 0 0 1 1 0 1 0 0 0 0 1 1 0 0 0 0 0 1 0 0 0 0 0 0 2 0 1 0 2 0 0 1 0 2 0 1 0 0 0 0 0 1 0 1 1 1 0 0 0 0 1 1 0 1 0 0 1 0 0 3 1 0 1 0 0 1 0 0 0 0 0 2 0 0 1 0 0 0 0 1 0 0 1 1 0 0 1 1 2 0 1 0 1 0 0 0 2 0 0 1 1 0 0 1 0 3 0 2 1 0 0 0 0 0 1 1 0 0 0 0 0 1 1 0 0 0 0 0 0 1 1 0 1 0 1 1 0 0 0 1 0 0 0 1 0 0 0 1 2 0 0 0 0 0 1 0 0 1 0 0 3 1 0 0 1 1 0 0 1 0 1 0 0 1 0 0 0 1 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 1 0 0 0 1 1 0 0 2 1 0 0 5 0 1 0 1 3 0 0 3 0 0 0 0 0 0 1 0 1 0 0 1 0 0 1 0 0 0 0 0 1 1 0 1 1 0 1 0 1 1 0 2 1 0 1 0 0 1 0 2 0 0 0 0 0 2 0 1 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 3 0 0 0 0 1 0 1 0 0 1 1 0 1 0 1 1 2 2 1 0 0 1 0 2 0 0 0 2 2 1 1 0 2 1 0 0 0 0 0 0 0 2 0 0 2 0 1 0 1 0 1 0 0 0 0 1 0 0 1 1 1 0 0 2 0 1 0 0 0 0 0 0 0 0 1 0 0 1 2 0 1 0 0 2 0 0 0 2 0 1 0 0 0 0 0 0 1 1 2 1 0 2 0 0 0 0 0 0 1 0 1 0 0 0 1 1 1 1 1 0 0 0 1 2 0 0 1 0 0 0 0 1 1 1 0 0 1 0 0 0 0 1 0 0 0 1 0 1 0 0 1 0 0 0 1 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 1 0 0 0 1 1 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 1 2 2 1 0 1 1 0 1 0 1 0 0 0 0 0 0 0 0 0 2 0 1 0 0 1 0 1 0 0 0 0 1 0 1 2 1 0 0 1 0 1 0 1 0 1 0 0 2 0 0 0 0 1 0 0 0 0 0 0 0 0 0 2 1 2 0 0 0 0 1 2 0 1 0 1 1 1 1 0 1 1 0 0 0 0 0 1 0 0 0 0 0 2 0 0 1 0 1 0 0 0 0 0 1 0 1 0 0 0 1 0 0 0 1 0 1 1 0 1 0 1 1 1 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 1 2 2 0 0 0 0 0 0 0 0 0 0 1 2 1 0 0 0 0 0 0 1 1 0 0 0 0 0 1 0 0 2 0 0 1 1 1 0 0 1 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 3 0 1 0 0 0 1 1 0 0 0 0 0 0 2 2 0 0 1 1 1 0 0 0 0 0 1 1 1 0 1 0 0 0 1 1 0 1 0 0 0 1 0 1 1 1 0 0 0 0 0 0 1 0 0 0 0 1 2 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 1 0 0 1 0 0 0 1 0 0 1 0 1 0 1 0 1 0 0 0 0 1 0 1 0 1 0 1 1 0 0 0 0 1 1 0 0 1 2 0 1 0 1 0 0 0 1 0 1 0 2 0 0 1 0 1 0 1 0 1 0 0 0 0 0 0 0 1 1 1 2 0 1 0 0 1 0 0 1 0 0 1 1 0 1 0 0 0 2 1 1 0 1 0 0 0 0 0 0 0 1 0 1 0 0 1 0 2 1 0 0 1 0 0 0 0 0 0 0 0 0 0 2 0 0 1 0 0 0 1 0 0 0 1 2 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 1 0 1 1 0 1 2 1 0 1 0 1 1 2 2 1 0 0 0 1 1 0 0 0 1 0 1 1 1 0 0 0 0 0 1 1 0 1 1 0 0 2 0 0 0 0 0 0 0 1 0 1 0 1 0 0 0 1 0 0 2 0 0 1 0 1 0 1 0 2 0 2 2 0 0 0 2 0 0 0 1 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 2 0 0 0 1 1 1 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 1 0 0 1 0 2 0 0 1 0 0 0 0 0 0 3 0 0 0 2 0 1 0 0 0 1 0 0 0 0 1 0 1 0 0 0 2 0 3 0 0 0 0 0 0 0 1 1 0 0 1 0 0 3 0 0 0 1 0 1 1 0 0 0 0 1 0 0 0 0 1 0 0 0 0 1 1 0 0 0 0 0 2 0 0 3 0 1 1 0 2 0 0 0 2 2 0 2 0 0 1 0 0 1 0 0 0 0 0 1 0 2 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 2 1 0 1 0 0 1 0 0 2 0 0 0 0 1 0 3 0 0 1 1 1 2 0 0 0 3 1 0 1 1 0 0 0 0 1 0 2 0 1 1 0 1 0 1 0 0 0 0 1 0 0 1 1 0 0 0 1 0 0 0 0 0 0 0 2 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 1 1 0 0 0 0 1 0 0 1 1 0 0 2 0 0 0 0 2 1 1 1 0 0 0 0 0 2 0 0 2 0 0 2 0 1 0 1 0 0 0 0 0 0 1 0 0 1 1 0 1 1 0 1 0 1 0 0 0 0 0 1 1 0 1 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 1 2 0 0 0 0 0 1 2 1 0 1 0 0 0 0 0 1 0 0 0 1 0 1 1 0 0 0 0 1 1 0 0 2 0 1 0 0 2 1 0 0 0 0 1 1 0 2 0 1 1 0 1 1 0 0 0 0 1 0 0 0 0 1 0 0 1 1 0 1 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 2 0 0 1 0 0 0 0 1 0 0 0 0 0 1 0 0 0 1 0 0 2 0 0 0 1 0 0 0 1 2 2 0 0 2 1 0 1 0 1 0 0 0 1 1 0 0 1 0 1 1 0 1 1 0 0 0 1 0 1 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 1 0 0 1 0 0 0 0 1 1 1 1 0 0 0 0 0 0 0 0 0 1 1 0 0 0 1 0 0 1 1 2 0 0 0 0 0 0 0 0 1 0 0 1 3 0 0 0 0 0 0 0 1 0 1 1 0 0 0 1 0 0 2 1 2 0 3 0 0 1 1 0 0 1 0 1 0 0 0 3 0 1 1 1 0 0 1 1 1 0 0 0 1 0 0 1 0 0 1 0 0 1 0 1 0 1 0 1 0 1 0 1 0 1 1 0 0 0 0 1 1 0 0 0 0 0 1 0 0 1 0 0 1 1 0 1 1 0 1 0 0 0 0 1 0 1 1 0 0 0 0 2 0 0 0 1 0 1 0 0 0 0 1 0 0 1 0 2 0 0 0 0 0 0 0 0 0 2 0 1 0 0 0 0 0 1 1 0 0 0 0 0 0 0 1 0 0 0 1 0 0 1 0 0 1 0 1 1 1 0 0 1 0 1 0 0 1 3 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 1 0 1 0 1 1 0 0 0 3 0 0 1 0 0 0 0 1 2 1 0 1 0 0 2 0 0 1 1 0 0 1 0 0 1 1 0 0 0 0 1 0 0 0 0 0 1 0 2 2 0 0 1 0 1 0 1 0 1 0 0 0 1 1 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 1 2 0 1 2 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 2 0 0 0 1 0 0 0 0 0 1 0 0 0 2 1 0 2 0 0 0 0 0 0 0 1 1 0 0 0 0 0 1 0 0 0 0 0 0 1 1 0 1 0 0 1 0 0 0 0 2 0 0 2 0 0 0 0 0 0 1 0 0 0 2 0 0 1 0 0 0 0 0 1 0 1 0 0 1 0 0 0 1 0 1 0 1 0 0 1 0 1 0 0 3 1 0 0 1 0 1 0 1 0 1 0 1 0 0 0 0 1 2 0 1 0 0 1 0 1 2 1 0 0 1 0 0 2 1 0 1 0 0 0 0 0 0 0 0 1 1 0 1 0 0 0 0 1 0 0 1 0 0 2 0 0 0 0 2 0 0 0 0 0 0 0 1 1 0 2 0 0 0 0 0 0 0 0 1 0 0 0 1 1 0 0 0 0 0 1 2 0 0 0 0 0 0 0 0 0 1 0 0 0 2 0 1 1 1 1 1 0 1 0 0 0 1 1 0 0 1 2 1 0 1 1 0 1 1 0 0 1 0 0 0 0 0 1 0 0 0 1 0 1 1 1 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 1 0 1 1 0 0 0 2 1 0 1 0 0 0 0 2 1 0 1 0 0 1 0 0 1 1 1 1 0 0 1 0 0 1 1 0 1 1 1 0 0 0 0 1 2 0 0 0 0 0 1 1 2 0 1 2 0 0 0 1 1 0 0 4 0 0 0 0 0 0 0 0 0 0 1 0 0 1 1 0 0 0 1 2 1 0 1 0 2 2 0 0 1 1 0 1 1 0 0 0 0 1 2 0 2 1 0 1 1 0 0 0 0 0 0 0 0 0 1 0 1 0 0 1 1 0 0 0 0 0 0 0 0 1 0 1 0 0 0 1 0 1 0 0 0 1 0 1 0 0 1 0 0 0 1 0 0 0 0 1 0 0 0 0 0 1 0 0 2 0 1 0 0 0 2 0 0 1 1 0 1 0 0 0 1 0 0 2 0 0 0 0 1 0 1 0 0 1 0 0 1 1 0 0 1 0 0 2 1 0 1 0 0 0 1 1 0 0 2 0 1 0 2 0 0 1 0 3 0 0 1 0 0 0 0 1 0 0 0 0 1 0 0 0 0 1 0 0 0 1 0 0 0 0 1 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 1 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 2 1 0 0 0 0 0 2 0 0 2 1 1 0 0 1 1 2 0 0 0 0 0 0 0 1 1 0 0 0 1 0 0 0 0 2 0 0 0 0 0 2 1 0 1 0 0 0 0 1 0 0 0 1 0 0 1 1 2 0 0 1 0 0 2 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 2 0 0 0 0 0 0 1 1 1 1 0 1 0 0 0 2 0 0 0 1 0 0 0 1 0 0 0 0 0 1 0 0 0 1 0 0 1 0 0 1 0 0 0 1 0 1 1 0 1 0 0 0 0 1 1 0 1 0 0 0 0 0 1 0 1 1 0 1 0 0 0 0 1 1 0 1 0 2 0 0 0 0 0 1 1 0 0 0 1 1 0 3 1 0 0 0 0 0 0 0 0 1 1 1 2 0 0 0 0 0 2 0 1 2 0 0 1 0 0 1 0 0 0 0 0 1 0 0 1 1 1 0 0 1 0 2 0 2 0 0 0 0 0 1 0 0 0 0 0 0 2 1 0 1 0 0 2 0 0 1 1 0 0 1 0 0 0 0 0 2 0 1 1 0 0 1 1 0 1 0 0 1 2 1 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 1 1 1 1 0 1 0 1 0 1 0 0 0 1 1 0 0 1 0 0 0 1 1 0 1 0 2 0 0 1 0 1 1 1 0 0 0 0 2 0 1 0 0 0 1 0 1 1 1 0 1 1 0 0 1 1 2 0 1 0 0 0 0 1 1 0 1 0 1 0 1 0 0 1 0 0 0 0 0 1 0 1 2 0 2 0 1 0 0 2 0 0 1 0 1 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 2 0 1 0 2 0 0 0 0 0 1 1 0 0 0 0 0 0 1 1 0 1 0 1 1 0 0 0 0 0 0 1 0 0 0 0 0 0 2 0 0 0 0 2 1 1 2 0 0 0 1 0 0 0 0 0 2 0 1 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 1 0 1 2 0 0 2 1 0 0 1 2 2 2 0 1 3 1 0 0 2 0 0 0 0 2 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 2 1 1 0 0 0 0 1 0 1 0 0 1 0 1 0 2 1 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 1 1 0 1 0 0 2 0 1 1 1 0 2 2 0 0 0 1 0 0 1 0 0 0 0 2 0 0 0 0 0 0 1 0 3 0 1 0 3 1 2 0 0 1 1 0 0 1 1 1 1 2 0 0 1 1 1 0 2 2 0 0 0 0 0 0 0 0 1 2 0 0 0 0 1 1 0 0 1 1 0 0 0 1 0 1 0 0 1 0 0 0 1 1 1 0 1 1 0 0 1 0 0 0 2 0 0 1 1 1 0 0 2 1 0 0 0 0 0 0 0 0 0 1 0 1 1 1 1 1 0 1 1 0 0 0 0 0 1 0 1 0 1 0 0 1 0 0 2 0 1 0 0 2 0 1 0 1 0 0 1 0 0 1 0 1 0 0 0 0 0 0 1 1 1 0 0 0 0 0 0 0 0 0 2 0 0 0 0 1 1 0 0 0 0 1 0 0 0 2 0 1 1 0 0 0 0 0 0 0 0 0 0 0 1 2 1 0 0 0 0 0 0 0 0 0 0 1 2 0 2 1 1 1 0 0 0 0 1 2 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 1 1 0 0 0 0 2 0 1 1 0 0 1 0 0 0 1 1 1 0 1 0 1 0 0 0 1 1 0 1 0 1 0 0 0 0 1 0 1 1 1 1 1 0 0 0 1 0 1 1 0 0 1 1 0 0 0 1 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 1 0 1 1 0 0 0 1 0 0 0 0 1 1 0 0 0 0 1 0 1 0 0 1 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 3 0 0 1 0 1 1 0 0 0 1 0 0 1 0 0 2 0 0 1 0 0 1 1 0 0 1 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 1 1 0 0 0 0 1 1 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 1 1 1 0 0 0 0 0 0 0 1 1 0 0 0 0 1 2 0 1 0 2 0 1 0 0 2 1 2 0 1 0 2 0 0 0 0 1 0 1 0 0 0 2 1 1 0 1 1 0 1 0 0 0 0 1 0 0 1 0 1 1 2 0 0 1 0 1 0 0 0 0 1 1 0 0 2 1 0 0 0 0 1 0 2 2 0 1 1 0 0 0 1 0 0 0 0 1 0 0 1 0 0 1 0 0 0 1 0 2 2 0 0 0 0 0 0 0 1 0 0 1 1 0 1 1 1 1 0 0 0 1 0 2 0 1 0 0 0 0 0 0 1 1 0 1 0 1 0 0 0 0 1 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 1 0 1 0 2 0 2 0 1 0 1 0 1 0 1 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 2 0 0 0 0 0 0 0 0 1 0 1 1 1 1 1 0 1 1 0 0 1 0 1 0 0 0 0 1 0 0 0 2 0 1 0 0 0 1 2 0 1 1 0 0 1 0 0 0 0 1 0 0 0 1 0 1 0 1 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 1 0 2 0 1 0 0 0 0 0 0 0 0 0 1 0 1 0 1 2 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 1 1 0 1 0 0 0 2 0 0 1 1 1 1 1 0 2 0 1 1 2 1 0 0 1 0 0 2 0 1 1 1 0 1 0 1 0 0 0 1 0 2 2 0 1 1 0 0 2 0 0 1 1 1 0 0 1 0 0 0 0 1 0 0 0 0 0 0 1 1 0 0 0 2 1 0 0 1 0 1 0 1 3 0 0 1 0 0 0 0 0 1 0 0 1 0 1 1 0 1 0 0 2 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 1 1 0 1 0 0 0 0 1 1 0 0 1 0 0 0 1 0 0 0 2 0 0 1 0 1 0 1 1 1 0 1 0 0 0 0 0 2 1 1 1 0 0 0 0 1 1 0 1 0 0 0 0 0 1 0 0 0 0 1 0 0 1 0 1 0 0 2 0 0 1 0 0 1 0 2 0 1 2 0 0 1 0 0 0 0 3 0 2 1 1 1 0 0 0 0 1 1 2 1 0 1 0 1 0 1 1 2 1 1 0 1 2 0 0 1 1 0 0 0 2 3 0 0 0 0 0 0 0 0 2 0 0 0 0 1 1 0 1 0 0 0 0 0 2 2 0 1 0 0 4 0 0 0 0 2 0 0 0 0 0 0 2 1 0 0 0 1 0 0 0 0 0 1 1 1 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 1 2 0 0 0 0 0 2 0 1 1 1 1 0 0 1 0 0 1 1 0 0 0 0 1 0 0 3 0 0 1 1 0 0 1 2 0 1 1 0 0 0 0 1 0 2 0 0 0 0 1 0 1 1 0 0 0 0 1 0 2 2 0 0 0 0 2 0 0 0 0 1 0 0 0 1 0 1 1 0 0 0 0 0 2 0 0 2 0 1 0 0 0 1 1 0 0 2 0 1 0 0 1 0 0 1 0 0 1 0 0 1 1 1 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 2 1 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 1 0 0 0 2 1 1 0 0 0 0 0 0 1 1 0 0 0 2 0 1 1 0 0 0 2 0 0 0 1 1 1 0 0 1 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 1 1 0 0 0 0 0 1 0 0 0 1 0 0 0 1 0 0 0 0 0 0 1 0 1 0 0 0 1 0 1 1 0 1 1 0 0 0 1 1 0 0 0 0 0 1 0 1 0 0 1 0 0 0 0 0 0 0 0 1 1 0 0 1 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 1 1 0 0 1 0 0 2 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 1 0 0 1 0 0 1 0 1 0 0 1 0 1 0 0 0 0 0 1 2 1 0 1 1 0 0 2 1 0 0 2 0 2 0 2 0 2 0 0 0 0 0 0 1 2 0 0 0 1 0 0 1 0 0 0 1 3 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 1 1 0 0 1 1 4 0 0 0 0 0 0 1 0 0 0 2 0 0 0 0 0 0 0 1 0 1 0 1 0 0 1 0 0 2 0 0 1 1 0 0 0 2 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 2 0 0 0 1 0 0 0 0 0 1 0 1 0 1 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 2 1 0 0 0 0 0 0 1 1 1 1 0 0 0 0 0 1 2 0 0 0 2 1 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 1 0 1 1 0 3 0 1 1 0 0 0 0 1 1 0 1 0 0 0 0 1 0 0 1 1 1 0 1 1 0 0 0 1 0 1 0 1 0 0 0 1 1 0 0 1 0 0 0 0 0 0 1 0 0 0 1 2 0 2 0 1 0 0 0 0 0 1 0 0 1 1 0 0 0 0 0 0 0 0 0 1 1 0 0 0 1 0 1 2 0 1 0 1 0 1 0 0 0 0 0 1 2 0 0 1 0 1 2 0 0 0 0 1 0 0 0 1 0 1 1 1 1 0 0 1 1 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 1 2 0 0 0 0 0 0 0 0 1 0 0 1 0 0 1 1 0 1 0 0 0 1 0 0 3 1 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 1 0 0 0 1 0 0 1 1 1 0 0 0 0 1 1 1 0 1 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 2 0 0 0 2 0 0 0 0 0 1 1 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 2 1 0 2 0 1 1 0 0 0 0 1 0 0 0 1 0 0 0 1 1 0 1 0 1 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 1 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 1 1 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 1 1 0 1 0 0 0 0 0 1 1 1 1 0 0 1 0 0 1 1 0 0 0 1 0 0 1 0 0 1 0 1 0 1 1 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 2 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 1 0 2 1 0 0 2 0 0 0 0 0 1 0 1 0 0 0 0 1 0 0 1 0 0 0 1 1 0 1 1</t>
-  </si>
-  <si>
-    <t>JSB(1.6117206806444297, 2.6004915659294623, -57.65085508418149, 427.57782430625537)</t>
-  </si>
-  <si>
-    <t>93 113 53 106 159 191 98 80 110 162 98 117 81 98 72 75 34 91 80 127 130 127 69 97 87 41 48 17 170 82 114 50 72 92 89 90 131 150 58 114 77 129 95 54 150 85 113 40 146 83 135 83 83 82 123 71 69 95 85 71 77 125 113 99 112 81 69 129 116 107 25 94 31 126 3 111 126 115 100 76 76 169 103 165 33 128 65 110 80 163 85 37 84 112 141 53 99 61 94 143 41 96 79 54 106 93 103 93 121 150 131 70 135 125 84 78 89 113 51 58 87 106 74 92 101 148 175 102 66 69 65 79 187 65 78 56 79 78 91 68 75 161 130 68 72 70 100 141 105 96 62 39 89 87 49 44 101 104 69 104 108 91 77 94 96 44 93 71 67 81 83 106 85 34 97 105 96 125 75 144 58 118 183 82 131 93 119 42 83 102 82 104 54 125 71 40 31 170 122 115 74 136 166 87 51 94 58 137 93 97 33 149 80 67 46 143 59 142 82 74 28 117 114 94 86 122 98 105 91 175 141 93 105 100 157 48 34 88 75 27 146 125 174 123 66 109 54 51 53 94 65 86 47 105 102 66 74 53 131 90 48 142 122 85 127 62 127 120 115 101 73 84 124 36 50 76 53 158 51 77 46 82 133 102 99 99 77 163 32 108 44 152 178 112 164 66 94 49 127 152 29 101 150 72 42 80 63 65 83 81 127 54 111 85 207 103 83 112 28 80 152 111 85 124 122 167 131 99 101 109 68 102 108 66 61 97 177 170 136 91 156 90 91 104 73 82 123 94 88 111 112 167 70 103 21 137 46 109 128 56 134 161 159 122 80 103 169 65 170 68 68 61 87 86 121 60 66 77 129 58 82 78 113 86 18 114 120 29 18 72 91 144 43 134 123 74 139 72 132 168 80 56 135 187 91 148 41 65 80 41 98 32 73 63 120 157 42 118 168 33 37 21 102 93 131 152 123 77 86 115 54 93 117 157 68 56 61 102 56 98 5 103 106 34 135 90 77 141 106 67 54 139 119 90 60 110 94 139 59 87 46 114 15 83 107 62 163 161 85 97 107 59 78 71 43 76 113 165 42 93 88 105 15 61 59 36 11 91 103 27 65 173 85 41 87 78 109 110 138 108 179 50 39 67 128 83 115 112 106 63 70 66 136 45 78 105 173 101 102 26 102 65 133 30 60 36 168 49 128 118 86 79 109 34 102 134 56 73 108 87 74 39 99 119 51 146 107 106 124 93 83 83 69 138 55 124 108 48 89 53 170 69 68 82 67 114 133 127 39 69 93 107 120 142 125 112 73 64 94 74 41 115 31 47 120 123 46 26 88 85 113 59 120 174 138 102 76 107 92 136 142 75 62 84 92 78 84 93 57 149 105 54 50 56 154 164 68 135 126 122 90 119 60 54 148 99 147 115 117 84 96 89 39 80 63 127 112 108 52 137 79 73 70 74 126 46 87 72 41 117 76 96 195 109 80 68 112 93 56 109 84 73 99 80 114 62 84 107 76 49 69 111 116 100 90 87 30 31 72 92 75 18 98 94 78 110 147 143 105 112 125 118 129 79 76 114 93 59 74 58 200 109 14 92 130 103 97 76 83 98 105 147 106 79 136 108 95 121 43 160 120 91 124 101 157 46 103 128 70 128 31 111 80 63 61 61 75 61 109 123 144 40 76 14 108 40 116 52 27 74 51 113 114 120 91 82 62 125 100 59 38 46 106 64 75 74 28 154 54 149 99 104 89 102 105 93 68 159 134 172 142 164 78 109 43 46 135 133 111 85 105 81 29 88 74 24 137 84 63 85 97 136 93 58 95 39 69 55 143 101 78 62 117 67 147 93 103 141 86 78 21 145 87 72 143 99 73 41 81 71 130 49 63 183 114 83 126 63 136 64 70 99 100 91 157 34 88 178 111 40 10 102 148 46 76 97 44 103 124 68 107 78 40 102 108 59 118 119 70 69 103 101 118 85 90 50 159 114 77 46 85 68 87 42 117 98 104 56 105 69 115 117 72 52 144 81 19 71 126 105 82 88 108 117 121 100 91 110 130 45 175 60 119 58 52 86 72 156 154 174 87 52 28 57 76 43 37 88 73 145 15 103 100 193 95 125 67 105 64 217 107 189 81 125 99 64 119 78 117 104 22 78 79 71 99 95 83 137 119 24 148 98 90 56 54 87 106 115 111 57 79 73 44 109 114 74 96 49 147 108 112 106 87 79 69 113 84 130 64 112 112 139 158 100 60 104 36 108 65 68 15 32 68 67 85 95 129 57 77 78 81 125 52 94 100 108 90 53 184 130 141 117 186 166 140 75 94 83 123 109 134 94 91 77 71 145 50 98 44 68 135 116 127 86 104 105 111 83 141 61 102 66 117 79 104 86 133 47 83 20 85 97 134 49 31 86 102 74 75 74 132 33 100 86 69 96 80 157 94 102 66 57 124 111 72 108 111 82 60 63 89 73 83 66 35 70 138 17 106 96 80 147 96 91 105 47 136 75 60 87 132 117 127 124 74 99 92 106 75 126 113 84 80 83 126 127 131 87 65 123 125 99 66 80 48 123 92 120 128 152 79 101 91 52 75 170 84 62 113 154 80 42 59 41 129 71 113 135 75 53 71 111 83 116 67 101 47 69 67 92 55 110 100 63 155 112 177 91 96 64 33 84 111 75 70 67 64 67 119 52 67 82 67 93 96 141 77 93 44 91 107 84 106 58 118 58 61 81 127 103 85 53 53 89 58 25 107 83 53 65 110 100 51 112 112 54 92 24 91 68 91 111 127 158 57 99 39 97 154 53 71 63 54 109 52 120 120 111 88 26 169 62 87 95 105 116 74 100 132 133 108 20 110 182 57 39 120 75 61 105 42 33 105 127 25 71 73 63 104 89 89 72 92 129 153 73 104 53 73 73 47 92 109 83 94 147 48 113 125 89 100 102 89 121 100 92 169 53 71 24 81 31 69 88 179 57 83 220 131 109 96 134 100 123 127 82 85 77 66 106 126 112 57 89 217 57 86 150 94 104 98 85 72 120 131 165 77 129 124 97 113 59 106 161 150 47 86 152 59 50 165 93 60 46 75 140 80 188 60 114 156 67 91 89 41 88 47 137 38 70 180 75 83 32 119 108 82 75 21 123 104 71 38 98 106 92 115 71 53 111 98 52 99 66 60 97 106 53 25 72 97 53 53 120 91 96 49 107 47 207 15 106 102 147 114 91 120 139 118 63 41 95 88 104 65 187 83 113 86 90 70 83 88 105 169 111 10 91 116 86 108 77 67 80 89 38 85 80 142 80 139 117 124 89 83 88 104 111 128 147 145 63 129 108 94 82 63 128 126 162 75 122 93 43 57 123 167 68 77 115 74 53 81 143 28 132 101 72 123 51 104 104 94 140 93 113 136 69 153 183 85 72 95 79 55 128 148 83 61 123 40 132 117 100 81 67 136 78 136 46 63 75 126 95 76 123 122 129 25 203 74 55 176 107 54 54 106 49 90 54 25 145 43 127 52 28 103 112 63 58 75 113 85 93 105 118 54 104 51 117 108 113 103 60 124 83 143 109 156 160 73 117 48 132 65 24 37 79 95 36 125 130 66 171 98 129 148 59 93 76 147 45 157 103 42 110 75 77 142 97 70 58 56 119 93 118 104 168 67 52 134 80 89 66 89 83 106 145 162 19 156 49 89 143 88 68 59 48 83 53 112 153 91 139 124 61 74 54 20 138 150 66 46 114 115 91 124 124 61 105 81 80 87 60 64 70 132 60 153 83 74 71 135 91 146 100 68 97 32 60 101 118 62 92 86 64 93 91 107 120 40 36 128 113 128 80 88 60 66 73 54 128 149 150 95 121 50 90 98 144 133 76 132 83 73 99 76 127 150 81 86 121 22 135 132 70 125 46 182 68 71 62 68 68 13 114 96 83 138 134 90 99 70 124 119 89 101 78 141 56 170 32 74 73 99 69 43 68 60 120 46 110 86 44 65 81 113 147 72 28 105 107 20 162 108 86 207 121 143 30 153 171 92 101 86 29 97 107 128 107 100 119 54 63 32 57 107 87 114 35 36 126 118 50 102 82 88 111 17 83 81 148 121 134 39 139 55 135 148 92 104 69 194 45 71 87 24 113 59 63 93 119 85 89 57 54 62 122 120 107 116 115 24 45 94 66 44 56 122 39 109 93 84 60 108 69 34 102 136 197 90 61 105 64 70 89 92 66 76 82 58 121 45 90 104 64 111 83 120 52 37 125 94 133 82 112 31 132 92 106 64 41 45 204 51 45 48 105 68 64 136 87 52 150 70 52 19 157 38 29 156 96 110 98 150 14 86 107 65 151 82 77 50 77 41 84 122 120 87 89 178 56 127 64 74 73 55 71 96 53 96 72 96 142 127 61 86 139 51 58 27 65 35 129 76 96 127 130 98 59 81 7 106 66 26 189 109 80 97 73 98 89 131 130 52 50 67 84 83 84 77 98 104 50 53 173 92 106 93 158 14 79 76 69 81 116 63 185 43 80 99 102 87 112 67 135 129 70 120 85 87 48 72 95 139 144 31 74 92 98 61 59 134 78 80 75 110 89 87 84 97 127 118 100 70 151 83 101 82 80 131 32 79 143 59 66 101 163 101 81 119 121 73 107 124 79 44 85 96 112 96 92 69 124 72 85 126 114 134 97 27 91 95 145 56 78 108 117 77 32 140 45 81 130 128 40 153 135 78 47 95 113 123 113 75 74 81 103 117 35 56 100 60 27 50 65 101 76 146 108 39 138 124 115 144 77 76 119 120 71 62 47 114 76 69 105 120 136 111 113 77 72 103 73 88 89 92 116 153 62 53 73 78 74 125 75 79 17 49 141 39 96 115 91 120 100 36 111 128 126 149 104 117 88 117 140 170 126 175 53 133 70 133 110 79 147 68 92 63 170 78 98 91 37 29 55 50 90 77 113 108 115 38 150 79 55 109 89 125 90 110 102 102 64 56 88 137 97 90 102 94 102 61 76 49 91 96 89 76 118 100 99 110 95 140 170 65 75 129 117 136 112 122 86 98 64 143 122 101 49 82 97 48 27 53 108 108 100 92 70 111 116 91 59 68 174 192 82 142 80 123 104 70 167 64 102 117 132 144 160 66 69 84 55 125 103 108 54 88 54 114 160 103 116 104 68 154 198 68 112 137 49 44 98 84 120 84 99 99 156 110 144 125 65 54 107 91 45 110 133 78 56 74 172 119 90 142 135 61 107 115 46 93 45 99 61 111 116 68 142 126 55 95 181 105 64 65 81 54 114 86 125 66 105 53 102 62 109 121 102 105 132 89 120 111 78 113 95 107 108 86 43 85 58 53 115 65 56 181 157 59 140 108 37 85 58 103 88 107 137 99 73 86 87 105 133 64 50 162 152 27 28 100 123 45 151 71 85 56 60 36 73 56 96 89 55 38 76 139 111 120 45 148 27 119 120 64 32 132 60 103 98 145 67 36 33 57 101 148 115 34 101 51 83 17 48 98 2 97 101 85 62 89 110 104 113 69 163 115 96 45 100 93 77 57 78 100 85 168 96 68 138 57 98 88 62 61 61 122 43 131 94 86 110 104 28 96 55 124 72 67 93 68 128 49 53 175 52 139 81 118 42 137 70 30 110 63 191 106 52 81 84 82 153 129 86 175 90 75 50 101 78 122 48 85 31 64 90 49 80 50 74 143 95 161 79 75 61 68 14 59 112 81 4 36 56 71 157 65 88 75 46 109 103 91 51 67 145 119 69 117 94 73 70 73 86 101 11 97 114 112 158 104 56 161 56 88 98 112 13 45 26 97 54 161 49 64 95 162 66 97 147 122 88 89 122 98 126 98 56 71 162 73 85 104 80 78 111 120 85 104 78 73 35 75 144 20 136 97 82 41 78 103 70 135 78 100 113 196 141 149 150 73 149 114 140 79 22 64 99 158 114 114 113 76 76 120 57 69 95 172 142 77 26 222 49 79 127 57 69 95 42 103 42 139 43 109 98 5 123 48 74 96 86 129 101 65 156 150 44 95 77 33 68 52 115 60 149 104 96 63 133 157 106 114 89 162 77 100 61 86 101 88 79 95 80 79 114 97 55 155 96 41 85 97 76 111 108 146 139 143 67 136 88 116 139 88 98 53 90 79 101 41 97 113 89 133 53 112 132 122 135 68 77 66 91 113 132 81 68 130 173 123 113 101 52 86 88 81 81 81 96 58 85 55 100 100 86 154 56 76 89 124 102 59 54 215 70 107 74 87 94 70 83 39 58 107 144 57 205 96 107 101 65 121 119 119 112 140 143 107 65 92 116 146 55 84 85 141 124 80 150 51 71 140 105 61 56 137 141 85 61 131 111 91 152 99 162 58 56 127 117 96 85 81 52 71 111 83 159 101 104 35 69 113 124 129 37 78 80 108 28 114 52 73 60 118 120 59 137 107 127 94 32 119 70 86 176 87 69 142 65 49 102 108 109 124 142 112 119 78 60 124 58 107 114 89 54 146 115 152 92 114 147 72 63 77 83 104 43 55 119 125 85 60 109 97 96 92 110 123 94 118 67 73 69 105 107 92 133 91 106 141 68 38 70 62 25 50 89 80 128 38 98 126 75 45 69 105 86 102 115 44 113 45 170 49 18 32 109 77 71 122 122 118 113 71 119 83 81 131 83 62 34 127 159 157 101 107 82 81 87 139 101 77 118 79 179 136 135 114 130 52 82 117 61 81 100 154 52 105 88 60 54 24 64 31 43 24 50 145 149 123 74 141 146 127 166 77 72 57 109 107 139 110 98 75 110 145 53 57 112 51 134 83 145 124 64 64 145 40 87 109 25 75 53 115 86 73 103 67 159 97 112 80 16 64 118 142 110 71 72 127 60 125 33 113 131 62 61 92 96 89 137 139 87 45 87 119 71 79 121 60 167 96 73 97 56 141 141 73 103 98 107 108 23 79 98 113 106 127 78 56 56 63 24 77 44 90 76 159 79 101 172 19 74 87 79 127 78 110 47 82 78 90 72 143 54 179 66 87 74 179 24 80 152 63 34 111 117 56 82 119 63 89 78 64 63 129 127 51 19 118 91 78 75 122 159 69 111 68 103 55 94 110 31 94 134 77 49 81 119 70 82 91 87 159 122 96 66 96 51 129 51 112 111 43 89 79 87 70 56 70 68 114 167 97 44 83 76 88 106 101 62 41 125 148 48 46 66 63 130 118 130 131 44 122 143 91 98 144 63 48 75 117 155 123 109 75 141 117 96 80 75 80 57 159 65 174 113 146 87 45 141 64 92 36 67 80 56 92 111 124 145 54 114 55 140 66 131 73 151 99 85 55 33 77 108 71 103 57 179 50 108 23 112 125 95 95 149 58 109 103 103 58 89 141 33 169 54 124 52 97 54 74 85 85 121 96 83 164 134 94 107 127 88 98 57 75 111 95 160 103 175 75 67 33 101 74 54 73 11 62 103 94 52 50 97 100 134 63 129 159 48 65 91 102 90 116 57 156 170 126 38 69 77 79 78 75 119 126 51 85 68 60 141 78 144 162 120 65 151 120 123 176 182 72 103 57 90 80 48 22 121 74 58 90 183 142 78 109 37 101 154 98 76 130 101 101 145 81 120 151 98 93 72 17 72 44 81 175 96 17 68 108 32 98 22 123 106 100 150 67 84 35 105 8 109 90 37 40 69 111 78 109 111 112 123 60 9 63 202 120 77 96 97 158 44 156 67 115 83 97 133 75 8 68 101 79 118 45 83 61 93 118 78 135 72 44 36 139 102 97 75 136 37 136 68 66 41 88 77 138 96 84 135 83 136 133 65 85 113 118 82 66 76 97 9 59 99 103 84 111 108 79 187 96 107 155 138 125 154 98 60 59 55 101 80 124 82 106 127 42 92 138 100 99 77 102 149 73 123 136 83 78 77 114 50 60 168 84 96 103 84 63 136 114 98 45 188 146 127 98 97 116 136 66 99 130 141 29 58 118 124 75 85 143 15 90 44 68 91 72 137 57 29 57 99 79 108 122 89 140 106 106 72 53 38 81 148 51 108 68 108 30 81 65 67 157 128 37 116 110 68 140 143 71 150 102 96 136 55 11 151 88 40 65 70 111 61 171 55 121 68 143 111 191 67 61 59 122 118 77 80 63 45 112 144 87 75 85 73 64 68 77 30 56 32 40 85 85 60 73 90 137 161 60 43 78 95 82 115 91 60 170 83 147 80 42 57 65 139 112 51 115 63 151 53 57 60 88 132 102 66 87 133 35 37 88 128 154 140 100 128 48 45 86 110 86 43 99 50 105 182 72 78 132 98 71 135 66 28 112 122 63 140 80 141 104 80 108 72 111 163 59 49 93 142 76 147 91 129 127 99 102 141 64 105 117 87 80 72 128 117 134 105 79 137 124 34 98 113 141 98 86 75 93 94 112 96 57 163 71 76 86 120 71 108 44 93 72 77 103 78 113 108 98 79 151 77 95 130 68 109 43 123 21 95 47 45 95 42 64 97 128 119 147 47 81 132 116 136 98 81 54 165 62 72 108 132 41 102 145 91 74 106 87 62 136 111 143 95 141 101 95 73 84 108 135 105 88 64 91 101 124 130 65 101 135 76 229 47 104 71 103 69 157 39 105 82 148 93 126 48 77 130 25 92 91 147 88 78 97 177 110 75 39 62 64 57 88 98 42 46 72 103 78 90 54 124 52 73 92 93 82 17 122 112 60 98 97 66 159 95 79 77 53 139 150 155 152 146 72 85 31 93 101 68 159 61 62 102 122 74 103 116 77 175 98 17 70 19 135 124 75 156 70 148 97 88 67 108 130 170 135 92 73 38 165 77 46 126 67 92 98 61 97 102 117 87 124 48 134 155 134 25 74 121 40 120 89 132 100 67 162 69 114 67 54 111 60 102 41 92 80 121 105 58 31 79 39 90 147 101 116 111 116 108 151 112 80 75 131 75 155 105 99 115 114 92 109 59 52 71 64 165 120 94 92 89 86 48 135 101 117 65 36 113 104 110 158 52 99 69 160 180 38 85 59 137 113 57 69 117 114 47 54 116 106 109 84 96 21 115 80 63 75 101 112 122 103 68 148 74 166 70 61 81 123 86 113 53 100 98 129 60 126 156 106 106 109 69 83 55 149 90 38 60 87 63 83 123 131 74 151 154 95 134 75 90 89 82 85 102 126 134 108 94 104 128 35 54 54 117 97 79 108 33 28 62 63 88 60 70 85 136 45 107 74 220 153 87 40 102 107 72 136 151 97 76 67 60 15 85 74 47 83 90 67 153 66 90 105 137 80 70 100 92 88 180 65 144 101 66 128 109 93 90 123 109 58 88 75 81 51 87 162 31 43 76 111 120 100 167 128 76 59 73 79 58 98 79 82 122 115 100 41 118 86 60 140 83 89 114 119 83 80 56 92 91 118 106 76 106 126 132 110 113 140 78 81 69 113 50 141 99 43 138 109 74 82 63 60 105 95 26 134 78 86 90 121 97 78 100 112 34 97 100 101 109 49 91 137 81 93 114 83 162 112 43 64 155 43 113 146 69 76 66 64 127 74 146 83 149 26 92 113 58 139 100 98 62 157 67 180 108 86 183 160 44 101 75 61 132 128 126 85 92 81 64 181 16 156 126 83 104 64 82 68 77 117 31 110 66 60 83 132 100 141 65 85 125 163 87 47 87 151 118 78 107 77 133 83 83 115 122 92 89 97 123 156 84 37 119 114 84 37 89 62 106 27 128 81 76 97 93 141 113 123 98 48 92 92 148 113 58 79 43 110 47 76 116 106 81 104 113 104 62 79 135 132 90 70 65 83 115 161 114 111 122 42 36 109 100 150 91 63 146 84 185 71 72 33 180 68 62 100 118 65 103 72 130 157 153 115 80 118 96 136 38 152 71 129 76 44 125 160 106 74 95 62 77 107 117 73 76 152 77 79 100 104 61 71 113 100 74 54 80 84 93 91 73 127 88 34 105 89 126 32 117 81 73 99 46 103 129 109 145 120 94 21 124 65 101 140 73 144 77 92 73 146 143 58 74 104 98 76 54 90 96 77 73 132 191 84 107 33 87 74 64 109 87 120 28 135 111 175 103 134 100 96 56 100 61 68 150 80 125 43 84 74 120 42 106 87 50 106 137 103 104 88 81 56 49 71 82 110 44 76 37 131 76 95 55 91 50 123 99 163 86 99 85 69 110 107 40 109 72 158 89 74 64 91 80 126 82 153 48 62 95 80 60 106 108 117 80 102 107 50 101 92 95 101 58 82 104 116 125 91 35 114 86 56 62 108 188 45 67 128 68 22 84 92 90 35 98 105 99 106 85 129 64 63 133 71 100 211 114 100 54 84 116 72 88 139 71 203 90 134 17 215 146 71 135 110 90 76 147 78 159 59 169 122 63 119 120 50 108 78 143 72 138 100 115 85 72 110 111 106 126 94 87 59 111 92 59 183 72 112 145 147 62 163 63 149 71 59 67 96 116 129 66 96 72 103 82 27 44 106 65 129 72 116 170 53 159 166 136 79 71 140 63 71 158 101 81 103 83 135 89 52 160 77 45 123 78 141 121 50 70 34 39 28 86 129 79 115 67 83 103 56 137 83 78 170 62 74 93 69 106 97 84 158 93 27 79 66 71 45 148 61 80 94 139 87 78 16 108 84 50 65 106 90 95 88 173 53 151 105 111 134 53 88 124 93 85 187 112 131 118 32 86 111 51 105 123 135 74 37 119 66 111 53 63 61 75 98 49 92 129 106 205 132 95 43 57 74 133 33 92 36 75 70 112 63 101 95 99 139 25 35 110 80 112 69 31 107 97 49 84 96 93 105 130 46 55 104 85 97 99 52 27 115 50 91 75 65 137 104 169 44 104 66 45 106 97 69 136 124 155 58 135 126 100 141 120 72 21 112 124 68 53 48 43 55 89 139 132 79 122 112 198 124 210 18 85 125 120 77 131 127 79 129 81 112 110 130 36 111 78 63 86 111 46 65 37 124 36 99 46 70 87 22 81 39 40 69 126 103 77 104 130 123 139 61 92 162 48 121 135 220 59 87 23 113 102 162 136 100 97 69 199 29 98 113 106 67 64 132 65 120 95 84 94 52 83 99 170 119 69 127 100 110 47 158 173 126 74 64 115 141 120 129 162 122 76 93 56 81 43 58 87 118 83 87 53 137 91 95 85 127 138 61 106 48 58 134 106 102 57 63 122 56 58 147 162 33 86 95 100 88 132 86 108 83 66 159 135 69 121 109 136 133 61 96 51 149 94 71 52 131 55 74 83 95 77 120 109 82 90 46 49 128 81 135 115 79 135 61 78 15 92 61 107 138 198 93 120 73 133 95 145 149 84 130 61 116 104 24 113 111 85 123 45 119 58 114 19 127 121 172 115 101 123 89 150 147 149 165 78 131 116 79 59 69 96 129 117 40 66 128 108 67 100 94 97 113 89 112 38 58 62 49 109 108 78 169 76 74 123 53 99 88 110 135 120 120 99 175 69 135 105 77 75 76 85 78 127 60 89 103 92 76 82 59 87 33 90 69 67 33 198 162 113 101 58 89 94 39 133 42 73 91 79 78 84 59 92 136 71 112 94 116 53 139 79 139 99 95 97 94 104 58 97 109 48 1 118 103 163 83 101 68 74 49 89 37 41 86 110 47 144 83 68 68 120 100 56 119 42 84 110 78 123 57 98 60 93 98 81 73 99 101 71 107 98 172 88 129 102 112 140 132 83 113 101 127 141 89 71 129 72 15 54 100 79 55 122 136 79 58 112 131 121 76 72 87 102 82 63 66 50 46 178 81 52 58 71 73 165 115 102 84 57 129 126 36 38 76 104 100 137 117 114 50 98 95 103 166 88 61 78 119 63 110 106 106 76 77 60 45 42 179 36 112 63 110 83 81 141 66 115 109 46 78 91 106 104 137 103 37 134 102 95 76 74 53 97 57 119 175 101 71 113 86 31 44 109 98 116 66 37 126 89 137 37 44 172 49 67 119 96 136 98 133 93 102 51 113 58 68 71 133 67 57 173 88 125 71 107 120 66 68 91 15 85 56 130 172 143 116 119 95 99 97 65 97 72 109 142 169 129 155 78 71 117 134 30 56 67 94 103 119 70 24 156 38 126 129 109 66 51 93 80 85 151 142 90 20 33 89 52 54 107 149 127 43 130 136 139 141 129 137 81 28 179 91 88 71 38 153 105 61 85 54 63 92 56 109 187 85 120 120 142 94 47 154 126 53 134 88 83 176 56 33 94 59 27 98 60 84 79 74 107 89 34 70 118 163 57 63 47 109 84 67 72 119 78 118 71 123 77 87 25 208 112 134 64 14 166 127 126 127 140 111 123 142 112 67 67 137 61 108 61 101 42 80 114 27 140 18 73 175 107 100 75 65 20 140 46 124 127 92 113 108 125 170 99 101 79 117 62 102 76 165 98 138 87 114 49 134 102 159 63 103 57 151 113 112 127 92 104 102 183 172 20 136 107 48 130 74 92 88 81 106 151 91 109 106 111 188 126 90 130 136 64 94 136 88 124 39 101 111 120 95 39 81 80 85 106 27 120 61 78 98 89 112 118 79 69 100 111 101 62 65 75 129 97 170 70 128 87 82 148 27 92 27 71 114 102 144 108 188 76 30 134 117 80 156 80 95 89 121 101 78 66 84 115 47 93 125 70 115 87 189 88 131 60 59 33 23 37 55 113 110 41 155 103 70 110 60 103 44 69 103 22 132 69 101 77 71 131 89 93 66 96 68 103 151 97 103 86 136 78 113 95 76 205 112 87 57 141 140 69 125 88 64 73 99 66 108 68 117 121 104 95 94 106 99 105 51 103 98 104 127 72 44 64 63 158 96 167 119 112 93 129 118 64 109 87 78 114 132 105 83 122 87 106 110 -6 146 95 86 120 163 151 103 117 64 82 89 52 111 181 135 152 108 101 119 141 137 74 115 114 84 98 87 85 128 86 48 57 100 88 80 100 111 43 152 34 126 84 130 67 72 103 88 47 81 95 151 53 67 122 90 39 133 84 67 100 95 112 85 25 111 125 62 66 149 68 97 82 37 74 44 44 83 40 177 92 109 56 115 115 121 79 84 179 33 27 47 131 45 78 98 98 99 96 106 172 51 105 30 69 118 86 125 99 117 105 32 64 79 71 68 24 91 62 45 91 92 34 108 156 161 139 97 146 108 87 67 125 106 74 102 142 127 146 1 108 108 52 67 67 87 53 120 97 151 116 126 83 63 63 152 115 116 90 164 104 93 134 83 91 52 123 129 160 102 45 88 62 146 117 96 195 116 98 64 117 92 120 147 159 81 82 60 154 71 88 59 106 109 70 155 132 62 93 95 118 43 199 85 184 82 70 103 119 41 188 66 101 81 62 125 165 51 52 140 104 44 110 60 158 98 123 119 74 63 119 84 113 65 169 73 154 37 83 82 126 88 74 86 30 24 98 44 74 54 71 78 87 55 192 63 90 59 113 120 101 74 80 47 56 102 61 61 153 67 100 63 111 140 103 100 19 113 102 116 136 62 131 32 109 98 81 130 133 106 99 84 87 113 153 115 23 75 84 93 57 113 71 57 87 146 119 108 105 178 67 143 103 89 38 46 93 31 126 70 75 102 91 97 112 47 117 77 68 53 54 90 84 118 82 183 123 58 72 97 37 86 75 127 123 21 127 61 34 89 155 94 58 135 100 106 147 88 100 59 83 80 133 87 139 56 80 110 144 108 91 106 79 164 126 95 86 125 72 106 53 140 57 65 69 63 55 142 99 147 67 58 116 81 51 62 80 84 51 117 66 172 67 42 72 57 67 98 167 50 86 52 114 165 109 102 53 47 108 138 65 123 79 153 124 65 25 50 151 105 86 132 79 111 80 112 100 121 130 134 102 83 79 104 88 64 81 82 100 34 100 139 96 80 85 140 68 105 111 82 103 122 59 20 47 73 35 60 133 85 104 71 86 84 62 85 38 160 69 111 78 106 79 116 34 37 90 102 39 158 65 121 28 59 37 43 58 75 65 41 45 94 105 157 143 68 74 120 84 61 27 167 102 111 92 112 44 42 137 67 84 113 147 79 79 139 158 104 60 110 90 147 147 160 28 58 110 131 116 59 150 82 80 78 111 129 125 87 109 95 39 78 135 73 91 155 97 111 112 92 88 95 101 132 77 150 163 101 136 99 61 34 68 61 84 153 89 128 145 131 24 81 101 97 130 48 131 89 89 80 57 108 69 102 99 143 175 20 92 91 129 92 125 68 54 38 125 92 62 79 100 69 56 95 151 154 88 146 76 141 99 121 151 93 22 191 13 138 77 135 72 136 97 48 84 44 174 93 98 60 64 105 84 159 82 82 148 66 98 94 96 105 69 88 85 129 157 86 112 69 108 117 93 83 104 135 128 108 162 161 124 118 88 63 104 87 120 54 84 131 80 58 236 47 140 147 151 98 73 89 141 65 89 141 113 168 188 119 30 119 79 84 52 30 24 153 124 56 109 80 77 72 101 111 63 101 59 132 102 138 54 111 43 85 115 78 123 97 63 89 83 98 88 134 109 184 90 91 83 104 17 73 50 27 120 96 74 112 94 123 118 94 103 125 77 72 114 70 113 108 47 75 133 57 46 105 128 147 83 67 95 76 55 78 92 71 102 42 86 119 38 77 52 89 110 103 103 116 123 81 57 37 135 92 129 162 50 64 114 149 79 50 140 109 79 126 144 67 86 90 122 131 25 56 92 27 59 143 62 30 90 109 54 156 83 147 92 66 91 84 20 82 153 104 165 68 144 31 68 135 120 82 165 76 138 78 93 98 135 100 111 63 68 30 125 39 61 72 130 39 102 33 104 110 79 81 58 74 100 68 67 68 55 61 177 78 26 120 43 156 149 90 31 144 110 27 44 65 98 87 128 179 52 137 75 160 110 77 71 16 104 142 129 145 76 93 57 69 71 176 121 168 34 113 74 124 167 89 150 74 90 90 89 89 112 75 123 49 55 213 71 120 47 76 93 183 82 53 32 96 29 72 121 102 53 44 82 45 113 65 128 133 42 147 38 78 83 52 103 96 87 166 115 119 117 88 80 172 46 95 132 153 224 24 68 147 66 101 130 35 101 41 126 73 73 93 159 41 108 28 126 74 44 60 34 45 106 82 96 92 49 143 108 75 167 83 100 78 109 83 56 87 77 106 78 125 75 153 84 77 122 204 92 89 107 106 57 85 63 107 108 101 53 72 129 118 81 95 46 132 56 43 118 124 41 165 71 94 88 67 94 157 143 154 78 45 87 65 60 126 77 118 83 45 204 66 48 139 142 96 103 76 119 113 62 170 125 120 169 50 100 93 113 64 114 106 110 68 129 74 28 87 87 130 68 68 21 27 73 54 45 90 224 65 29 96 125 16 52 109 111 76 99 36 106 114 81 85 94 111 132 28 112 93 74 97 28 72 67 108 113 24 120 116 115 45 77 69 76 110 120 63 124 84 89 65 97 78 132 105 106 67 153 78 88 81 71 100 99 106 37 188 93 37 72 133 90 144 136 69 123 122 127 69 91 108 60 57 134 66 109 87 85 80 71 82 84 68 138 168 49 111 146 71 107 96 53 31 150 102 106 81 124 58 117 77 138 105 176 108 88 108 89 89 107 62 109 80 112 89 59 121 158 132 134 117 124 145 63 120 100 123 58 105 130 55 81 78 121 116 154 101 110 73 131 76 119 57 99 87 155 40 118 87 128 56 166 69 59 95 99 120 139 153 84 61 76 91 108 81 102 43 93 92 83 89 51 104 109 109 139 124 155 99 118 150 146 110 157 63 95 125 128 161 183 112 80 33 76 117 138 190 93 70 59 80 70 30 118 140 53 54 71 56 109 105 98 153 112 69 48 124 107 79 108 100 89 115 117 60 103 90 74 72 107 47 83 82 171 35 114 133 81 61 123 92 160 16 72 90 29 121 100 127 79 140 66 119 51 70 48 69 64 128 98 126 136 62 127 90 40 42 111 104 82 120 134 49 174 130 91 148 100 74 73 159 93 36 152 101 114 97 75 138 133 41 73 84 88 98 126 104 134 26 109 64 86 124 76 102 76 143 57 144 46 98 75 133 78 97 86 75 117 72 153 84 117 201 146 75 99 149 96 114 71 61 87 104 152 104 135 129 83 73 133 55 97 55 76 65 61 135 130 113 97 83 137 77 104 18 107 139 208 61 104 161 53 116 123 81 138 98 21 24 103 113 162 106 100 54 104 160 134 143 87 129 81 86 99 112 57 108 94 78 121 65 109 101 114 60 142 165 134 59 117 70 156 32 100 70 137 73 99 45 155 56 95 125 90 111 81 106 167 71 61 112 102 118 98 161 64 91 141 112 91 40 40 111 69 96 175 116 137 79 42 96 100 71 132 61 32 131 54 82 95 140 36 48 113 105 71 115 54 104 89 86 118 82 59 138 177 75 44 119 25 40 61 63 116 55 91 38 115 121 98 49 25 64 124 172 90 154 49 46 99 73 78 102 52 115 37 71 124 73 108 97 109 121 38 86 121 90 52 75 218 122 56 78 136 96 88 72 81 108 137 77 158 65 65 90 95 75 110 85 119 139 104 112 101 163 123 82 48 80 58 123 84 83 70 92 82 125 127 42 106 148 38 82 89 64 95 98 79 53 135 76 183 5 68 151 128 76 75 76 52 88 121 69 65 38 78 98 35 43 130 92 87 91 109 58 79 95 137 99 136 113 95 94 148 91 67 66 70 85 13 94 110 94 92 54 57 82 79 82 101 89 89 68 167 79 97 187 114 117 60 127 41 73 121 123 161 65 104 137 92 49 21 103 61 125 49 119 109 89 76 103 84 61 80 162 113 116 94 122 32 62 104 128 26 134 154 87 78 114 79 96 58 161 31 102 92 84 54 84 63 127 153 72 5 49 89 68 52 124 115 121 72 109 88 53 138 126 92 107 100 54 96 77 148 50 58 150 88 127 84 51 96 104 86 103 32 83 39 42 88 120 139 35 54 143 70 13 103 96 111 89 151 94 73 34 76 45 109 93 86 118 125 101 106 84 61 91 131 29 3 68 111 87 83 37 61 124 58 59 109 72 51 111 110 113 117 100 114 83 67 82 60 88 102 116 74 49 65 145 18 133 111 83 27 31 80 76 155 118 23 123 51 69 59 87 35 60 74 54 133 66 110 107 86 140 70 80 125 99 79 137 128 64 71 133 8 67 105 91 155 52 110 48 74 60 43 83 53 91 30 102 108 26 125 9 93 95 81 99 112 79 26 13 120 77 96 46 95 118 58 80 91 32 129 77 36 177 118 101 133 156 117 90 94 110 128 87 137 146 110 100 126 156 99 43 137 28 83 82 121 183 97 86 119 81 87 132 94 49 67 87 33 120 85 176 68 109 112 67 127 112 72 76 85 112 106 164 66 95 158 86 114 179 88 93 106 115 69 73 94 101 172 60 132 42 75 138 97 98 34 144 95 181 72 125 96 76 88 131 142 120 116 60 88 111 104 81 93 78 91 103 89 126 50 8 53 142 50 108 54 110 98 111 162 116 62 103 87 34 62 125 68 87 39 109 162 84 64 157 102 79 102 101 41 95 58 135 83 70 114 137 84 133 45 66 139 109 113 141 126 60 133 98 61 90 66 94 98 97 97 88 84 112 137 152 71 125 136 70 179 76 57 117 46 139 62 106 115 65 153 45 143 138 138 41 101 157 85 90 74 84 133 46 108 42 57 85 103 52 51 118 81 99 105 236 59 95 140 95 76 101 56 80 65 68 147 27 81 71 84 146 132 118 121 111 104 67 157 102 35 131 173 85 67 69 47 110 133 45 85 62 113 109 71 79 112 143 77 63 144 70 74 49 131 24 164 90 118 52 76 97 85 62 197 34 118 87 96 58 81 90 71 57 52 68 90 53 46 158 54 142 83 33 52 52 85 59 115 134 88 115 139 100 55 48 122 39 90 108 93 75 115 65 71 117 138 61 61 94 166 127 84 166 86 145 98 60 128 91 65 58 97 76 77 35 108 90 136 142 61 85 20 55 141 153 73 58 50 98 80 59 33 31 151 92 92 114 104 131 135 83 69 55 59 67 138 198 161 132 95 92 86 141 105 61 113 123 68 152 63 75 90 183 59 104 101 89 104 99 51 56 49 140 143 130 148 78 123 50 114 68 86 74 37 100 49 63 101 85 52 42 64 50 45 71 135 47 124 78 78 106 103 31 94 42 84 74 141 42 96 137 103 57 88 161 123 111 146 115 81 31 33 132 130 83 111 43 98 146 77 97 158 59 87 102 119 83 116 184 111 148 85 81 159 125 84 78 109 74 61 166 133 66 77 134 116 111 92 129 94 103 45 50 68 68 163 57 7 51 126 80 103 64 120 94 112 75 91 91 71 81 174 141 150 67 116 102 136 22 89 100 38 138 80 26 42 34 94 130 37 162 103 72 96 57 108 62 137 90 88 103 93 144 92 130 67 150 53 130 113 54 61 133 84 41 65 161 140 66 64 79 55 148 94 40 115 34 13 58 133 74 126 49 76 139 193 89 37 81 77 114 64 17 131 62 105 107 95 179 56 81 112 103 114 131 100 130 88 55 144 74 78 120 61 97 128 152 96 72 66 96 66 136 128 121 98 125 77 73 138 127 37 96 32 106 158 71 68 48 52 93 174 106 40 119 17 75 145 101 72 61 26 124 40 28 61 130 87 36 27 56 29 110 92 126 118 103 19 151 94 100 109 56 109 85 123 137 78 165 39 142 103 35 139 120 131 115 40 50 159 66 119 48 91 141 99 68 95 17 83 92 84 75 89 115 123 68 163 116 161 55 46 205 85 130 48 121 102 83 136 131 118 68 38 174 69 126 105 56 67 161 82 120 119 59 88 141 93 95 92 39 52 77 100 169 85 91 108 100 122 87 87 88 157 96 132 87 52 75 122 184 41 110 97 95 161 82 85 188 123 99 181 126 95 95 146 136 89 115 105 65 117 105 131 53 112 10 69 85 35 99 92 149 89 48 70 163 117 62 110 101 71 107 85 36 129 111 108 78 52 88 112 31 64 84 109 49 80 108 84 106 54 69 135 163 16 55 107 106 95 98 137 84 146 144 134 121 86 38 72 95 125 62 95 65 119 100 52 90 30 141 42 175 82 87 134 66 73 82 148 61 61 138 76 28 135 136 118 107 88 101 106 43 130 89 108 120 72 21 79 90 113 120 79 74 79 73 110 117 78 122 76 102 64 181 79 154 62 32 126 92 81 38 31 149 114 126 117 65 109 58 103 140 92 55 72 29 190 56 104 60 110 79 108 123 91 142 91 98 41 109 131 98 95 165 84 80 120 150 87 82 87 72 72 124 128 101 55 149 67 93 133 139 217 130 36 45 112 93 105 95 87 90 153 34 102 64 64 69 68 82 89 48 191 47 73 43 75 206 110 122 72 80 53 185 44 92 61 128 48 76 113 29 138 130 84 125 108 56 134 73 69 75 43 128 69 29 43 77 69 110 204 74 127 55 79 116 69 121 86 91 93 127 58 124 97 196 98 98 106 99 122 135 104 5 78 101 105 98 99 98 118 95 80 102 96 110 75 75 152 108 153 80 144 61 20 81 97 57 74 85 164 116 140 108 77 38 69 98 69 56 73 68 92 99 89 67 115 85 161 98 126 23 81 132 31 130 65 81 95 116 75 119 102 159 69 95 132 118 209 101 70 92 64 65 141 50 34 83 123 84 163 90 78 177 88 111 50 88 67 96 76 85 83 47 82 117 123 87 46 125 175 60 66 85 71 65 80 112 30 74 107 118 126 45 119 100 22 93 181 45 48 77 78 107 72 125 82 68 53 121 57 78 39 14 80 143 100 117 72 89 136 36 103 135 84 90 69 112 120 106 59 68 179 44 87 71 116 185 123 112 28 85 107 84 42 125 80 81 134 73 135 46 72 139 113 112 109 66 145 111 62 121 119 114 91 98 119 101 93 154 112 39 41 95 84 116 94 162 55 17 105 56 37 83 200 74 51 75 92 109 105 94 91 64 149 124 165 74 112 47 74 76 93 53 108 79 99 152 83 93 81 122 98 101 127 96 105 94 144 134 87 77 105 83 34 87 60 86 73 71 119 49 99 72 118 143 105 77 119 80 29 61 151 110 80 146 51 58 54 179 139 69 107 124 43 133 34 87 97 148 65 146 41 69 69 156 77 124 95 108 151 77 164 61 110 178 127 85 63 143 147 41 46 68 221 96 86 76 118 149 75 132 48 74 54 140 132 10 25 128 26 82 66 124 30 46 68 114 148 17 46 78 78 107 125 139 37 54 114 73 108 126 113 44 75 127 119 118 67 78 100 76 82 76 156 83 198 139 73 53 80 80 135 123 105 67 119 113 98 84 83 93 101 164 95 60 161 64 56 153 155 105 63 53 108 115 76 40 123 88 82 90 109 112 99 123 65 159 173 97 130 41 116 31 106 125 127 166 70 103 54 94 43 99 95 77 153 28 114 74 66 35 45 91 99 94 134 129 52 119 100 99 146 148 110 79 121 116 50 14 173 128 94 135 133 106 116 68 98 88 129 134 113 74 101 99 47 82 79 117 117 119 118 52 136 205 96 93 118 94 84 152 67 35 43 87 160 127 92 106 116 60 93 149 54 142 159 102 154 144 27 16 58 93 133 106 147 135 147 117 101 102 72 32 40 146 58 21 57 124 130 73 86 90 162 179 92 49 18 87 62 32 75 75 105 123 69 62 105 64 120 148 45 80 104 71 86 136 126 142 99 105 29 72 94 30 83 114 49 108 79 85 90 131 57 166 117 111 99 61 138 106 87 165 58 50 103 93 117 58 74 61 127 78 89 72 56 18 52 170 69 20 154 96 89 137 50 65 105 75 58 33 59 32 116 81 72 64 130 76 68 78 204 102 39 107 25 109 79 93 51 87 101 64 118 103 89 139 48 93 126 118 69 104 82 99 88 103 104 133 126 105 90 85 184 33 84 139 104 29 157 73 97 142 132 100 106 80 74 89 96 102 154 181 100 15 90 145 96 164 50 144 109 38 96 117 53 74 44 61 49 59 72 101 99 21 99 91 146 28 68 130 81 152 118 39 76 88 121 164 164 25 106 50 91 71 146 133 149 9 22 200 52 90 97 86 96 89 51 103 50 39 102 76 97 131 117 93 122 114 106 20 59 139 108 120 73 26 123 114 76 61 145 181 54 139 121 109 80 54 87 118 65 174 90 106 87 107 101 109 153 94 49 89 109 108 158 57 51 110 38 109 130 63 123 101 117 156 46 30 40 105 144 120 88 64 112 116 40 76 111 121 68 59 43 111 137 119 123 143 117 115 85 117 117 54 118 177 31 68 88 126 111 116 108 122 74 170 97 109 85 129 128 121 74 75 50 127 71 33 23 102 80 71 97 123 104 114 38 87 22 155 117 184 119 59 98 231 115 76 132 37 58 143 97 71 68 46 111 34 52 42 80 76 79 104 75 81 91 83 41 122 142 67 134 33 119 145 75 55 124 94 120 35 145 57 91 55 112 74 77 38 78 39 182 101 75 100 141 118 55 144 79 55 55 108 97 110 46 132 66 97 91 73 118 63 118 95 136 40 84 68 107 121 46 116 95 148 79 65 47 76 119 118 1</t>
-  </si>
-  <si>
-    <t>GAM(0.7045173202834589, -4.592849095273605e-28, 0.5594704438836184)</t>
-  </si>
-  <si>
-    <t>1 0 0 0 2 1 2 0 0 3 1 0 2 4 1 1 0 0 2 1 0 1 3 0 1 1 0 0 2 1 1 1 0 1 1 0 0 0 2 1 1 1 1 0 2 0 2 1 0 0 0 0 0 1 0 1 1 0 1 0 0 0 2 2 1 1 0 0 0 1 0 1 0 1 0 1 0 3 1 1 2 0 0 2 1 1 0 0 0 2 4 0 0 1 1 0 1 2 0 1 0 0 1 0 2 1 1 2 0 3 2 1 0 2 1 1 0 1 0 0 1 2 0 2 0 1 1 0 0 0 0 1 3 0 1 0 0 0 1 0 0 2 0 1 1 0 0 0 1 2 0 0 2 1 0 0 3 1 0 0 1 0 1 1 1 1 0 0 0 0 0 0 0 0 0 0 1 2 0 1 0 1 3 0 0 1 1 0 1 0 0 2 1 0 0 0 1 3 1 1 0 3 1 0 0 0 0 0 0 1 0 0 0 0 0 1 0 1 1 0 0 0 1 0 0 0 0 2 1 3 0 0 2 2 2 1 0 1 1 0 1 0 1 2 0 1 0 0 0 1 0 1 0 0 2 0 0 1 1 0 1 3 1 1 0 1 2 1 0 0 1 1 2 0 0 0 1 0 1 0 0 0 0 2 1 1 1 1 0 1 0 0 2 2 1 1 1 0 1 0 0 1 0 1 0 1 1 1 1 0 1 0 1 2 2 1 0 0 0 0 0 1 1 2 0 2 2 0 0 0 0 0 1 0 1 0 3 1 0 2 0 2 0 0 2 1 0 0 1 0 0 1 0 2 0 1 0 1 2 0 1 3 1 2 0 0 1 0 0 1 1 1 0 1 1 0 1 0 2 0 0 0 0 3 1 1 1 0 0 0 1 0 0 3 2 0 2 0 1 0 1 0 1 2 1 2 1 0 1 0 1 0 0 1 1 1 0 1 2 0 2 0 0 0 2 1 0 0 0 0 0 0 1 0 0 0 0 2 0 0 0 0 1 0 2 3 0 1 1 0 0 3 2 1 0 0 1 1 2 1 0 0 0 0 2 1 2 3 2 1 1 0 2 2 0 0 2 0 0 1 0 1 0 0 0 0 0 0 0 0 1 1 1 0 1 1 2 0 1 1 4 1 0 2 2 0 1 1 1 1 0 0 2 1 1 1 1 0 1 0 0 0 2 0 0 0 0 0 1 2 0 2 1 1 0 1 0 1 0 0 0 0 1 0 0 1 2 0 1 2 0 1 1 1 1 1 1 0 1 0 2 0 1 0 1 1 2 2 2 1 0 1 0 2 0 1 0 1 0 0 0 1 0 0 1 2 0 1 0 0 1 1 1 3 1 2 0 0 0 2 1 0 1 1 0 0 1 0 0 4 0 1 1 1 2 0 0 0 4 0 2 1 0 0 0 0 1 1 0 0 0 1 1 0 0 0 0 2 0 0 1 1 1 1 0 0 0 0 0 1 1 1 3 1 1 1 1 0 1 1 0 2 0 1 0 1 0 0 1 1 2 1 3 1 1 1 0 0 1 2 0 0 0 0 0 1 3 3 0 2 1 0 1 1 1 0 0 0 0 0 2 0 0 0 0 0 0 1 0 1 0 1 0 1 0 1 0 0 0 1 2 1 2 1 1 0 1 0 0 2 0 0 2 0 0 0 0 0 0 1 1 2 0 0 1 2 2 0 0 0 0 2 1 3 2 0 0 1 0 1 0 1 1 0 1 2 0 2 0 2 1 1 0 0 2 1 1 0 2 2 0 3 0 0 0 1 1 1 1 0 1 0 0 1 0 0 1 1 0 1 0 1 0 0 2 1 0 0 1 1 1 1 1 0 1 1 1 3 1 0 0 0 1 3 3 0 0 1 2 0 1 0 0 2 2 1 1 0 2 0 0 2 0 1 2 1 0 2 1 1 0 1 0 0 2 1 0 1 1 1 2 0 0 1 1 0 0 0 0 0 2 1 1 2 1 0 0 0 0 0 0 1 0 0 1 0 1 1 0 0 3 2 1 0 2 2 0 1 0 0 0 1 1 1 2 1 1 1 2 0 2 0 0 1 0 2 1 3 1 4 1 1 1 0 0 0 0 2 1 1 0 0 2 1 0 1 0 1 0 2 2 3 0 1 3 1 1 1 0 0 0 0 0 0 1 0 0 0 1 0 3 1 1 0 0 1 1 1 1 0 1 0 0 1 4 1 0 0 1 0 2 1 1 2 0 0 0 0 1 1 0 2 2 1 2 1 0 1 0 1 0 0 1 0 1 0 0 0 0 1 1 2 0 1 0 1 0 0 0 2 1 1 0 1 1 0 0 2 1 1 2 1 0 0 0 1 0 1 0 0 1 0 0 1 0 0 0 1 0 0 0 0 2 0 0 1 0 0 0 0 1 2 0 0 0 1 1 2 1 1 0 0 0 1 0 1 0 3 1 2 0 2 0 1 2 2 2 1 1 2 0 0 0 1 1 0 2 0 1 1 0 2 2 0 0 0 1 1 0 0 0 1 2 1 1 1 1 0 1 0 1 0 0 0 0 1 1 2 0 0 1 0 0 0 0 0 1 0 0 0 0 3 0 1 3 1 1 1 0 2 0 0 1 0 3 0 2 0 2 1 0 1 0 2 0 0 1 0 1 0 0 1 1 1 1 0 4 0 2 1 0 1 1 0 0 0 0 1 0 1 0 1 0 0 2 0 0 1 0 0 2 2 0 1 1 0 0 1 1 0 0 1 0 2 1 0 0 0 0 0 1 0 0 0 1 0 0 0 1 1 1 2 1 0 0 1 0 0 0 0 0 1 1 0 0 1 0 1 1 0 0 1 1 2 1 1 2 1 2 2 2 0 1 2 0 0 2 0 1 0 0 0 0 2 1 0 0 0 1 0 1 0 1 0 2 2 0 0 0 0 0 1 3 1 0 3 1 0 0 1 2 2 0 1 1 0 2 1 0 0 0 0 1 0 2 0 0 1 2 2 1 0 0 0 1 0 3 1 1 1 2 3 0 0 1 0 1 1 1 1 2 1 1 0 0 0 1 1 1 0 2 0 0 2 3 0 1 1 0 1 0 1 1 0 1 2 1 2 0 0 2 0 2 2 0 1 1 1 0 1 1 1 1 0 0 1 0 1 0 1 1 1 0 1 1 1 2 0 0 0 0 1 1 1 1 1 0 3 0 1 1 0 0 1 0 1 0 2 0 3 0 3 1 1 2 1 1 1 0 0 1 0 1 2 0 3 1 1 2 1 0 1 1 0 1 0 0 0 1 1 1 0 0 1 0 0 2 0 0 2 0 0 0 1 0 2 1 3 1 0 1 0 2 0 0 1 0 0 3 1 0 2 1 0 0 1 0 0 0 0 2 0 0 1 1 3 1 1 0 0 1 0 0 0 2 2 1 0 3 2 0 0 1 1 0 0 2 3 0 0 0 1 1 1 0 0 1 0 0 1 0 1 2 1 1 0 0 0 0 4 1 0 1 1 1 0 2 0 1 0 0 1 1 1 0 1 1 0 1 0 0 0 0 1 2 2 1 0 0 0 0 2 0 0 0 0 1 0 1 0 0 2 0 4 1 1 0 1 0 0 2 2 0 1 2 1 4 1 2 0 0 1 1 0 1 0 1 0 1 2 0 2 0 0 0 1 0 0 1 0 0 1 1 0 1 0 2 1 0 0 1 0 1 1 0 1 0 0 1 1 3 0 0 1 0 2 1 1 0 1 0 1 1 2 1 1 0 2 2 2 1 0 1 1 1 0 1 0 1 0 0 0 1 2 2 1 0 1 0 1 1 2 1 0 1 0 0 2 0 2 0 1 0 1 0 1 1 2 0 0 0 1 1 1 0 1 0 1 2 2 1 0 0 1 1 0 0 0 2 1 2 0 1 0 0 0 2 0 3 0 1 0 0 0 0 0 2 1 0 3 0 0 1 1 1 0 0 1 0 0 1 0 1 0 2 1 0 0 0 1 0 1 1 0 0 2 0 1 0 0 1 0 0 1 0 1 2 0 0 0 2 3 0 0 1 0 1 1 2 1 1 2 1 0 1 0 1 0 0 0 0 3 2 1 0 0 1 1 0 0 0 1 0 0 0 1 0 2 3 3 2 0 2 0 0 0 0 0 0 0 0 1 0 0 0 0 1 3 0 1 0 2 0 0 0 1 0 1 0 1 0 0 1 2 0 0 0 0 0 1 1 1 1 0 0 1 1 0 1 1 1 1 0 0 0 0 2 1 1 2 1 0 1 3 2 1 0 1 2 2 1 1 0 3 1 0 0 0 0 1 0 1 0 2 0 1 0 2 0 0 0 2 0 1 1 0 1 1 0 0 0 1 0 1 1 0 2 2 0 0 2 1 3 1 0 0 1 0 1 0 1 2 1 0 0 0 0 0 0 0 1 0 0 1 1 2 1 2 0 1 1 0 1 2 0 3 3 1 1 1 2 0 1 2 0 0 0 1 0 0 0 2 1 1 0 3 0 0 0 1 0 2 0 0 1 1 0 4 0 2 0 0 2 0 0 2 2 1 2 0 0 0 0 1 2 2 1 0 0 1 1 0 2 2 1 0 0 0 1 0 2 2 2 1 2 0 1 0 1 1 0 0 1 0 0 0 2 1 0 0 3 0 1 1 1 0 1 0 3 3 1 2 0 1 0 1 2 0 1 0 0 0 0 1 1 0 0 0 0 0 0 1 0 1 0 0 3 1 0 1 1 1 1 2 0 2 0 1 2 0 0 1 0 1 1 0 0 0 1 0 0 2 2 2 1 1 0 1 2 1 0 0 1 1 1 0 0 2 1 2 0 0 0 1 0 1 2 0 1 0 1 1 0 0 1 1 1 0 0 1 0 0 0 0 0 0 0 2 1 2 1 1 1 1 1 1 1 2 3 0 2 0 1 1 0 0 1 1 0 2 0 0 0 0 0 0 0 0 0 2 0 1 0 0 2 1 3 0 0 1 0 0 1 0 1 0 2 1 1 0 1 1 0 1 1 1 0 0 0 3 1 1 2 0 1 3 0 0 2 0 1 2 3 1 0 2 1 2 1 0 1 1 1 0 1 1 1 0 0 0 1 2 2 0 0 2 0 1 1 1 1 0 0 1 0 1 2 2 2 0 1 1 0 0 2 0 0 1 1 1 1 1 0 1 1 1 2 1 0 0 2 1 0 0 1 1 1 1 2 1 0 0 1 0 0 0 1 0 2 0 0 2 1 1 2 2 2 0 2 1 2 0 2 0 1 1 0 0 1 2 0 1 1 3 1 0 1 0 1 1 1 2 1 1 0 2 0 1 1 2 1 0 2 1 2 1 1 0 0 0 1 0 1 0 0 1 1 0 1 1 0 2 0 0 2 1 0 1 0 0 0 0 0 1 0 2 0 0 1 2 0 0 0 0 0 2 1 1 0 1 1 2 0 1 0 1 0 0 0 2 1 0 0 0 1 2 0 0 1 1 3 1 1 1 0 0 2 0 1 2 0 3 0 1 0 0 1 0 3 0 1 1 0 1 0 1 1 2 0 1 1 0 1 1 1 0 1 1 0 2 1 1 0 1 1 2 1 1 2 0 2 2 2 0 0 0 0 0 0 0 0 1 0 2 0 0 1 0 2 0 0 0 1 1 0 0 1 1 1 0 0 0 0 2 2 0 2 1 2 1 1 0 0 0 0 0 0 0 0 1 0 0 0 1 2 1 0 1 1 0 1 1 0 0 0 0 0 3 1 2 2 0 2 0 1 1 0 1 2 0 0 1 0 0 0 1 1 0 2 1 1 1 1 1 2 1 2 0 1 0 0 0 2 0 0 0 0 0 3 0 2 2 1 0 1 1 1 0 0 0 0 2 0 0 0 2 0 0 2 1 1 1 0 0 0 1 0 2 1 0 0 0 1 0 2 2 0 0 1 2 1 1 1 1 0 1 1 1 0 0 3 1 3 1 0 2 0 0 1 3 2 1 0 0 2 0 0 1 1 0 2 0 0 1 2 0 1 1 0 1 1 1 1 1 0 0 0 0 0 0 0 1 0 0 0 1 0 1 2 0 1 2 2 1 1 2 1 0 1 1 0 2 0 1 1 1 0 1 1 0 0 0 2 0 1 2 2 0 1 2 1 2 0 1 2 0 0 1 1 2 1 0 1 0 2 2 0 1 2 3 2 0 1 0 1 1 1 0 1 1 3 3 1 2 0 0 0 0 1 0 0 1 0 0 1 0 2 0 0 0 1 2 1 3 0 1 1 2 2 0 2 0 1 0 0 0 1 0 1 2 0 1 1 0 0 2 0 0 2 0 2 1 0 1 0 0 0 2 1 1 0 1 1 1 0 1 2 1 1 1 0 0 1 0 1 1 2 0 0 0 0 1 1 3 2 0 0 1 2 2 0 3 0 2 1 3 0 0 0 0 1 0 1 0 0 0 0 2 0 1 2 4 0 0 0 0 0 2 0 1 4 0 2 1 0 2 1 0 0 1 0 0 1 1 1 1 1 0 0 1 1 1 2 1 1 1 0 1 1 0 0 0 1 0 1 3 0 0 1 1 2 1 0 0 2 0 2 0 1 1 1 0 2 0 0 1 1 0 0 0 0 1 0 1 1 1 0 0 2 1 0 1 0 0 0 0 0 1 0 0 1 2 0 2 2 0 0 1 0 1 1 0 2 0 2 0 2 0 2 0 0 0 1 0 0 0 1 1 2 4 1 0 0 0 1 1 1 0 1 0 2 3 0 0 0 0 0 1 0 0 2 1 1 1 1 1 1 3 1 0 2 2 0 1 2 1 0 0 2 0 0 1 1 0 0 1 2 0 0 0 1 0 0 0 2 0 2 0 1 1 0 2 2 1 0 0 0 1 2 0 1 0 2 0 2 0 2 2 0 1 0 1 0 0 3 1 1 0 1 1 1 1 0 1 0 1 0 1 1 1 0 1 0 1 1 0 1 0 1 0 0 0 1 0 0 0 1 0 1 0 1 1 0 1 0 0 1 0 2 0 1 0 0 0 1 0 2 0 1 0 0 0 0 1 0 2 0 0 1 2 0 2 1 1 0 1 0 0 2 1 0 0 0 1 1 0 0 1 2 1 0 0 1 0 0 1 2 1 3 0 3 0 0 0 0 1 3 1 2 2 0 1 1 0 0 1 0 1 1 2 1 0 0 0 0 0 2 0 0 1 0 1 1 0 0 4 1 0 1 1 0 1 2 1 2 1 2 1 1 1 1 0 0 0 1 2 0 1 0 1 1 1 1 0 0 0 3 0 1 3 2 0 0 3 0 2 0 0 1 0 1 0 0 1 1 0 0 1 0 2 2 2 0 0 0 0 1 0 1 0 0 2 1 0 1 0 2 3 0 1 1 2 0 1 0 0 0 0 2 1 2 1 0 1 1 1 0 0 0 1 2 0 1 2 1 1 1 1 1 1 1 1 1 2 0 2 1 0 1 0 0 0 0 0 1 0 0 1 1 2 0 4 1 0 0 1 2 2 1 0 2 1 1 0 0 1 2 0 1 0 1 1 2 1 0 1 0 1 1 1 0 1 0 2 2 1 0 2 0 0 1 0 0 0 1 0 1 1 1 0 0 0 0 1 0 2 1 2 1 1 0 0 2 0 0 0 0 1 1 1 3 0 0 1 0 0 0 0 0 1 1 1 0 1 0 2 0 0 1 0 1 1 0 0 2 2 0 0 3 0 0 2 0 1 1 2 1 0 2 0 0 0 0 1 0 0 0 0 1 1 0 1 1 1 1 0 1 1 0 0 1 0 0 1 2 0 0 1 0 0 2 1 1 1 0 1 2 0 2 0 0 1 1 2 0 0 1 0 1 1 1 0 1 1 1 0 2 0 2 1 1 1 0 1 0 0 1 1 1 2 1 1 1 1 2 2 1 0 0 4 1 0 2 0 0 2 1 0 0 1 1 2 0 1 0 2 1 3 0 3 1 2 0 0 1 0 1 0 2 1 0 0 1 3 1 1 1 0 1 0 0 1 1 1 0 0 1 0 1 1 2 1 1 2 3 0 1 0 0 2 1 3 1 1 0 2 1 0 0 1 0 2 1 0 0 1 1 0 1 2 1 0 0 0 1 0 1 1 0 0 2 0 1 1 0 0 1 0 0 0 0 0 0 2 1 0 0 0 0 1 1 0 1 1 0 0 1 0 0 1 1 0 0 1 3 1 0 1 1 1 1 1 2 1 2 0 1 0 0 0 0 2 1 1 1 1 1 1 1 0 0 5 1 1 0 1 0 0 0 3 2 0 0 0 0 2 0 1 0 0 0 2 1 3 1 2 0 1 0 1 1 0 1 1 0 1 2 1 1 1 1 0 1 1 2 0 0 1 1 0 1 0 0 0 0 2 0 0 1 0 1 0 0 1 1 0 1 0 3 0 0 3 0 2 1 2 1 0 1 0 0 2 0 0 2 3 0 1 0 1 2 1 1 0 1 1 0 0 0 1 1 2 0 0 0 1 0 0 0 1 1 0 0 0 2 0 1 1 0 0 1 0 1 1 1 1 0 1 1 1 0 1 0 0 1 1 0 0 0 1 1 2 2 0 1 1 1 0 0 1 0 0 0 1 1 2 0 0 2 1 2 1 2 1 0 2 3 0 1 0 1 1 0 0 2 0 0 2 0 1 1 0 0 2 1 0 0 1 0 0 1 0 0 0 0 1 0 0 0 0 0 0 1 2 0 0 0 0 0 1 2 2 3 0 0 0 0 1 3 1 3 0 0 1 0 2 1 0 2 0 0 3 1 0 2 2 0 1 1 0 0 0 1 1 0 3 1 1 0 0 1 1 4 4 0 1 1 1 0 0 0 2 1 1 1 0 2 0 1 1 0 0 2 0 1 0 1 1 0 0 1 3 2 0 0 1 0 0 0 0 1 0 0 1 0 1 0 0 0 2 1 1 1 0 0 1 3 1 0 1 1 1 0 0 2 0 0 1 1 0 1 1 0 2 1 3 1 0 1 0 1 2 0 0 0 1 0 1 1 1 1 0 1 1 1 0 0 2 1 1 0 0 1 1 0 1 0 0 3 2 0 1 0 2 0 0 0 0 1 0 1 0 2 1 0 0 1 0 2 1 1 1 1 0 3 1 2 2 0 0 1 1 0 0 0 1 1 0 0 1 1 2 1 4 1 1 0 2 0 0 1 0 0 1 1 1 0 1 0 2 1 0 1 1 2 0 2 1 0 0 0 0 0 1 0 0 0 0 1 1 2 1 0 0 0 0 4 0 1 0 0 0 0 0 0 1 1 2 1 2 1 1 1 0 2 1 1 2 0 2 1 1 1 1 1 0 1 0 1 2 1 0 1 1 1 0 2 0 0 0 0 3 0 0 1 0 0 1 1 0 2 0 1 2 0 1 1 2 1 1 2 0 0 2 1 0 0 0 0 1 1 1 0 0 0 1 1 2 2 1 1 0 0 0 0 0 0 1 1 0 0 0 1 1 1 1 2 0 0 0 0 0 2 0 1 1 1 1 1 0 1 2 0 1 0 1 0 1 0 0 0 2 1 1 1 0 0 1 0 0 1 2 0 2 0 1 1 2 2 1 0 1 0 0 2 1 0 2 1 1 0 1 0 2 1 1 0 2 0 0 1 0 1 2 2 1 1 1 0 0 0 0 1 1 1 1 2 0 1 1 0 0 1 2 0 2 2 0 1 0 1 2 0 1 1 1 1 1 1 1 1 0 1 1 1 0 2 2 1 2 0 0 1 1 1 1 1 1 1 0 0 1 1 2 0 0 1 1 1 0 0 1 0 0 0 1 0 0 0 3 0 0 0 0 0 3 2 3 1 1 0 0 1 0 0 0 0 2 1 2 0 0 0 2 1 1 1 0 0 1 0 1 1 2 0 1 2 0 2 0 1 0 3 0 0 1 2 0 1 0 0 0 1 1 0 0 1 1 0 1 1 2 0 0 2 0 0 1 2 1 1 0 0 2 2 2 1 0 0 0 0 0 0 0 3 1 0 3 2 0 0 2 0 0 0 0 0 0 2 0 2 2 1 1 1 1 1 0 0 1 0 1 2 1 0 3 0 0 1 0 0 0 0 0 1 0 0 1 0 0 2 0 0 2 0 0 0 2 0 0 2 0 0 1 1 0 0 0 1 1 0 1 1 0 1 1 1 1 0 0 3 0 0 2 0 0 1 1 0 2 3 2 0 0 0 0 1 0 1 2 0 1 0 0 0 0 3 0 1 0 0 1 1 1 1 0 0 0 1 1 0 1 0 1 3 1 0 1 3 1 1 1 1 0 2 2 0 2 1 0 1 1 1 0 1 3 0 0 1 0 1 1 0 0 0 1 1 2 2 0 1 0 1 1 1 0 1 0 4 0 3 3 0 1 1 0 0 1 2 0 0 1 3 0 0 1 0 1 0 2 0 2 0 2 1 0 0 0 0 0 0 0 0 1 0 0 2 1 0 4 2 0 3 1 1 0 0 1 1 1 1 0 1 0 0 0 0 0 2 1 2 0 2 1 0 2 1 1 0 0 1 2 2 1 2 0 0 1 2 1 0 0 0 0 1 1 2 3 0 0 0 0 0 1 2 1 0 1 2 1 0 1 1 1 0 0 0 0 2 1 0 1 3 1 0 0 1 0 0 2 0 1 1 2 1 1 0 0 1 0 0 0 0 2 1 3 0 1 0 0 0 0 0 3 1 2 1 4 1 0 0 0 0 1 0 0 2 1 0 1 0 1 0 1 0 1 0 0 0 0 0 3 1 1 1 1 0 1 1 1 0 1 2 1 0 0 0 3 1 0 0 1 0 0 1 0 0 1 0 1 0 1 1 2 0 0 1 2 0 0 0 0 2 0 0 0 1 2 0 2 0 0 1 0 2 1 0 1 0 2 0 1 1 1 1 0 0 0 0 0 2 0 0 0 0 0 1 1 0 2 1 0 1 1 0 0 2 2 1 0 1 1 1 2 1 1 1 1 0 0 0 1 1 0 1 0 3 0 0 0 0 0 1 1 0 0 0 1 0 1 0 1 1 1 1 0 1 0 1 0 1 0 0 1 0 0 3 1 2 1 1 4 0 2 1 3 1 1 0 0 1 1 0 0 0 1 2 1 1 0 0 0 1 1 3 1 1 0 2 0 2 1 1 2 0 2 1 1 0 0 1 2 1 0 0 1 0 1 1 0 0 1 0 0 0 1 3 0 1 0 2 0 0 0 0 2 0 1 0 0 2 0 0 1 1 1 1 1 1 0 2 1 1 1 0 0 2 1 1 1 0 1 1 0 0 0 0 0 0 0 0 0 0 0 1 1 0 1 2 0 0 0 0 1 1 1 1 0 0 1 0 2 1 1 1 0 1 1 1 1 1 1 0 0 3 0 0 0 0 1 2 2 2 0 0 0 2 1 3 0 2 0 0 1 2 1 0 0 0 0 0 2 0 2 1 1 0 1 0 0 0 0 2 2 0 0 0 1 1 1 1 0 0 1 2 1 1 2 0 0 1 3 1 1 1 0 1 1 1 0 1 0 1 1 0 2 0 0 0 1 0 1 2 0 1 0 0 2 0 1 0 1 1 0 1 0 1 0 2 0 1 1 1 0 3 0 0 1 0 1 1 3 0 1 1 0 0 2 0 2 0 1 0 0 1 0 2 0 0 0 0 1 0 1 0 2 0 0 0 2 0 1 0 1 1 0 1 0 1 0 1 1 0 1 1 2 2 0 2 0 2 2 1 0 1 0 1 2 0 1 1 0 0 0 1 1 1 1 1 1 0 0 0 0 1 0 2 1 0 1 0 0 0 1 1 0 0 0 0 1 2 0 3 0 2 2 0 0 0 3 1 1 1 1 0 0 2 1 2 1 1 1 1 0 1 1 1 0 2 2 0 0 2 0 0 0 0 1 0 2 0 1 1 3 0 0 1 0 1 0 0 1 1 0 2 1 0 0 0 0 3 2 1 1 0 0 0 1 1 2 2 0 2 0 2 0 0 0 0 0 0 2 1 0 1 1 1 0 0 0 0 0 0 0 0 0 1 3 0 0 1 0 0 1 0 0 1 1 2 0 1 1 0 0 1 1 1 1 3 2 0 2 3 1 2 1 0 0 2 2 1 2 0 1 0 2 0 2 2 0 1 0 1 1 1 1 1 1 0 0 1 0 0 0 0 0 1 1 2 1 2 1 1 0 0 0 1 1 1 0 2 0 2 0 1 0 0 0 1 1 1 2 2 1 0 0 1 1 0 2 1 0 2 0 0 1 0 0 1 1 0 0 0 1 0 1 0 2 0 0 1 0 0 1 1 1 1 1 1 0 0 0 0 0 2 2 2 0 0 0 3 1 1 1 1 0 2 2 0 0 1 2 0 0 0 0 0 2 0 1 0 1 3 2 2 1 0 0 1 0 1 2 1 1 3 3 1 2 2 0 2 1 0 1 1 2 0 0 0 0 0 2 2 0 0 1 0 0 1 1 0 0 0 2 1 0 2 0 0 1 1 0 0 1 1 2 1 1 2 0 1 3 1 4 1 0 2 2 2 1 0 1 1 2 0 0 1 0 3 0 0 0 0 0 2 0 1 1 0 1 2 1 1 2 1 0 1 1 0 0 1 0 0 1 0 1 0 0 2 1 1 0 1 0 2 2 1 1 1 2 1 1 0 1 0 0 0 1 1 0 2 1 1 1 4 2 1 2 0 0 0 0 0 0 1 0 2 4 0 0 1 1 1 1 2 0 0 0 0 1 1 0 0 0 0 1 0 0 0 1 2 1 1 0 0 1 0 0 1 1 1 2 1 1 1 2 1 1 1 0 2 2 0 1 1 2 0 0 0 0 0 2 1 1 1 0 0 1 0 1 0 2 2 2 1 2 2 0 1 1 2 1 1 1 1 2 0 1 0 0 1 0 0 1 1 1 0 1 0 0 1 0 0 2 0 1 0 0 1 1 4 1 0 2 0 1 2 0 1 0 0 0 0 0 1 0 0 1 1 1 0 1 2 0 0 0 1 0 1 2 0 0 0 1 1 0 1 0 1 2 0 1 0 0 1 1 0 3 0 0 0 1 0 0 0 0 1 0 1 1 0 1 1 3 2 2 0 2 1 0 0 1 0 1 0 0 0 1 1 1 2 1 0 1 2 2 1 1 1 1 0 1 1 0 1 0 0 0 0 1 1 0 1 1 1 1 2 4 0 0 0 1 1 0 1 1 1 1 1 1 0 2 0 1 2 0 2 1 1 2 1 0 0 0 1 2 1 0 2 0 2 1 1 1 1 0 0 0 1 0 1 1 3 2 1 1 2 0 0 1 0 0 2 2 1 1 0 1 0 0 1 2 2 1 2 1 0 2 1 1 0 3 3 2 1 0 2 0 0 1 0 0 0 0 0 1 1 1 0 2 1 0 1 1 1 1 0 1 0 2 1 1 0 0 0 1 0 1 0 1 1 2 1 0 0 1 0 1 0 0 0 0 1 1 0 0 1 0 1 0 0 1 1 0 0 0 0 2 0 1 1 0 2 0 2 0 0 2 2 0 1 3 0 1 0 1 0 0 0 0 1 0 0 2 3 0 2 0 1 0 0 0 1 1 1 0 0 0 1 1 0 0 0 1 1 1 0 1 1 1 0 1 1 0 0 1 0 0 0 0 0 1 2 2 1 0 0 0 0 0 2 0 0 1 0 0 1 0 1 1 2 1 1 0 1 2 1 0 1 2 1 1 1 1 1 1 2 1 3 1 0 1 2 1 1 2 1 0 1 1 1 0 1 0 1 1 1 0 1 0 0 1 0 0 0 1 1 0 0 0 1 0 0 1 0 0 1 3 0 2 0 1 1 0 1 1 1 1 2 0 1 0 2 2 0 0 0 0 0 0 0 1 0 1 0 0 1 0 1 0 2 0 1 0 0 1 0 1 0 1 2 0 1 0 2 0 0 0 0 0 1 0 0 0 1 0 0 3 1 0 1 1 1 0 1 0 2 0 3 0 1 1 2 1 0 1 0 0 0 1 0 0 0 1 0 1 1 1 0 1 0 1 1 1 0 0 0 2 0 0 3 1 0 0 0 1 0 0 0 0 0 2 0 1 1 2 1 0 0 2 0 2 0 0 1 0 0 1 0 1 0 0 0 1 0 0 1 2 0 0 0 0 2 3 4 1 0 1 1 0 1 0 0 0 1 2 1 1 1 1 0 1 0 2 0 1 1 0 1 0 1 0 0 0 1 0 1 2 2 0 0 1 1 2 1 2 0 0 0 1 2 0 1 1 0 1 1 1 0 1 1 0 0 0 1 0 3 1 1 1 1 1 1 0 1 0 2 0 1 0 0 0 0 0 0 1 0 2 0 1 0 2 2 1 0 3 0 0 1 1 1 0 0 0 2 1 0 1 0 1 0 0 0 0 1 3 0 2 1 3 0 1 1 0 0 0 0 0 2 0 0 1 2 1 1 2 1 0 0 0 1 0 2 0 0 1 0 0 2 0 0 0 0 0 3 1 1 0 2 0 0 0 2 1 2 0 1 1 3 0 0 0 0 1 1 2 3 0 1 2 0 1 1 0 2 0 0 1 0 0 0 1 0 2 0 0 2 1 0 0 0 2 1 1 1 2 0 1 1 0 1 2 0 0 1 1 2 1 1 1 0 0 1 1 0 1 1 1 2 0 1 1 0 3 0 1 1 1 0 0 0 1 1 1 1 1 1 1 2 2 1 0 1 2 0 1 0 0 1 1 4 0 1 0 0 0 0 1 0 1 2 0 0 0 1 0 0 0 1 0 0 1 0 2 0 0 0 1 0 0 0 1 1 1 1 2 0 0 0 0 0 1 0 1 0 1 1 1 1 1 0 0 1 0 1 0 1 0 2 0 0 1 0 1 1 0 0 0 1 1 1 0 1 2 0 0 0 0 2 1 1 1 2 1 0 2 1 1 0 2 2 1 1 1 1 0 2 1 1 0 2 0 1 1 1 0 0 2 0 1 1 0 0 2 0 1 0 0 2 0 0 0 0 1 1 1 0 0 0 0 1 0 1 2 0 2 0 1 0 0 1 0 1 0 1 0 0 0 2 0 1 1 0 0 1 0 2 0 0 1 1 3 1 0 1 0 2 1 1 1 0 0 0 1 1 2 0 2 0 1 0 1 0 0 0 0 0 1 1 0 0 2 0 2 0 2 0 1 0 1 0 0 0 0 2 1 2 1 1 1 4 1 0 2 1 1 0 0 2 1 1 0 0 1 1 1 0 0 1 0 0 1 1 1 2 0 2 0 1 1 2 0 2 0 1 0 2 0 4 1 0 0 0 5 0 0 1 2 0 1 0 1 2 1 1 1 1 1 1 1 1 0 1 2 1 1 1 2 0 0 0 0 1 1 0 0 0 1 0 0 1 1 1 0 1 3 0 1 4 1 0 0 1 1 1 1 0 2 1 2 0 1 2 0 1 0 0 0 1 0 0 0 2 3 2 1 0 0 0 0 0 2 1 0 0 1 1 3 0 1 1 1 1 0 1 0 0 3 0 0 0 1 0 0 1 1 1 1 1 1 2 2 2 1 1 0 1 1 1 2 0 0 1 1 1 1 0 1 0 1 4 2 0 1 1 0 0 1 2 0 0 2 0 0 0 1 1 2 1 0 0 1 0 1 0 1 1 1 0 1 1 2 2 2 0 1 1 0 2 1 2 0 1 0 1 0 1 0 1 1 1 2 4 2 0 1 0 0 0 1 0 1 1 0 0 2 0 0 1 0 2 1 0 1 0 1 0 2 0 1 0 0 1 1 2 0 2 2 2 2 1 1 0 4 1 2 1 3 0 1 1 0 3 3 2 0 0 0 3 0 2 2 0 1 0 1 0 1 2 1 0 1 0 2 0 1 1 0 0 0 3 1 0 1 2 0 0 1 0 1 0 0 0 1 0 1 1 1 0 1 0 0 0 3 1 2 0 1 1 0 0 1 1 0 2 1 0 1 1 2 0 0 1 0 2 2 0 1 1 0 0 0 1 1 0 2 0 1 2 0 0 0 0 0 2 1 0 1 1 1 1 1 3 3 1 0 1 1 2 1 1 0 0 0 0 1 2 0 2 1 2 0 2 0 2 0 1 1 2 2 1 0 1 1 0 1 2 1 0 2 2 1 0 1 0 2 1 1 0 0 3 1 0 1 1 1 0 0 2 1 1 0 0 1 0 2 1 0 0 2 1 1 0 1 2 0 1 2 1 1 1 0 0 1 1 3 2 0 1 2 0 0 1 3 2 0 0 1 0 0 1 2 1 3 0 0 1 0 1 1 2 2 0 3 0 0 0 1 0 0 1 0 0 2 0 1 1 1 0 1 1 3 1 1 1 1 1 2 0 0 2 0 1 2 1 0 1 0 0 1 1 1 1 0 0 1 1 0 0 0 0 0 0 0 1 0 0 0 3 0 1 1 0 1 1 1 0 0 0 2 2 0 0 0 0 0 1 1 0 1 0 0 2 1 0 1 1 1 1 0 1 0 0 0 0 1 0 0 1 1 2 0 0 3 4 1 1 1 0 1 1 0 0 2 2 1 1 1 0 1 1 0 0 1 0 3 1 1 0 2 1 3 0 1 2 1 0 0 1 2 0 0 0 0 0 1 0 0 0 0 1 0 0 0 2 0 1 1 1 1 3 0 0 2 1 1 0 1 0 1 1 0 0 2 1 2 1 0 0 1 0 0 1 0 0 0 0 1 2 1 1 0 2 2 0 0 1 1 2 2 1 0 1 0 1 0 0 1 0 0 0 1 0 1 1 1 0 1 0 3 2 0 0 1 1 0 1 2 2 2 2 0 0 0 0 0 1 1 2 1 1 0 0 0 2 2 0 0 1 0 3 1 1 0 1 0 1 0 1 2 2 2 1 1 2 1 4 1 0 0 2 0 0 0 1 0 1 0 0 0 0 0 0 0 1 0 1 0 0 2 2 2 1 0 1 1 0 0 2 0 1 1 0 0 1 1 1 2 1 0 1 1 0 1 1 0 0 0 1 1 0 0 1 1 0 2 0 1 0 2 0 1 0 0 2 1 3 0 0 1 1 1 0 0 1 1 0 1 0 0 0 0 1 2 1 0 1 2 0 1 0 1 2 1 0 0 1 1 1 0 0 1 1 0 1 2 0 0 0 1 1 0 1 0 2 0 0 0 1 0 0 1 1 0 1 0 1 0 2 2 0 3 1 1 1 1 0 0 1 0 0 2 1 0 0 2 1 0 1 0 1 0 0 0 1 0 1 1 0 0 2 1 2 0 0 0 0 2 0 0 1 0 0 0 0 1 0 1 0 0 2 1 1 0 1 1 2 2 1 1 1 1 0 0 2 1 0 0 0 0 0 0 1 1 1 1 1 0 0 1 0 1 1 0 1 0 2 0 0 0 1 1 1 2 1 0 1 0 1 1 3 1 1 0 0 2 3 0 0 0 0 1 0 1 0 1 0 1 0 1 2 3 0 1 1 1 4 1 1 2 0 2 1 0 2 0 0 1 2 1 1 1 1 1 0 0 2 1 0 0 2 0 1 0 2 2 0 1 0 0 1 1 0 1 1 1 0 0 1 1 0 0 1 2 1 1 0 2 1 2 0 1 1 1 1 2 1 0 1 0 2 2 3 0 1 0 0 0 1 0 1 2 0 0 0 0 1 0 0 0 0 1 1 1 0 0 0 0 2 0 1 1 0 1 0 0 4 0 0 1 0 1 0 1 0 2 0 2 2 1 2 2 1 0 0 0 2 1 3 0 0 0 0 1 0 1 0 0 0 1 0 1 0 0 1 2 0 2 0 0 0 0 2 0 1 1 1 1 1 0 2 0 0 2 0 1 1 0 0 2 1 0 0 0 0 1 1 1 0 2 3 0 1 1 2 2 0 1 0 2 0 1 0 0 0 0 0 0 0 1 0 1 2 0 1 0 0 1 0 1 0 0 1 0 1 3 0 0 0 1 0 0 1 2 0 2 0 2 1 2 1 0 2 1 1 0 2 1 3 1 1 1 1 1 0 0 2 1 1 0 0 1 3 0 0 1 0 1 0 3 0 0 0 1 1 0 0 1 1 0 2 1 1 1 0 0 0 0 1 2 4 0 2 1 2 1 0 1 1 1 3 0 2 1 0 1 0 1 2 0 0 0 0 1 1 0 1 0 1 0 0 0 0 1 0 0 0 0 0 0 1 0 1 0 0 0 2 0 0 1 0 0 1 1 0 1 0 1 0 2 1 1 0 2 1 1 0 0 1 1 1 1 1 1 0 0 2 1 2 0 0 1 0 1 0 0 0 1 0 1 1 2 0 0 1 1 1 1 0 0 1 1 1 1 1 0 0 1 1 1 0 1 0 1 2 1 0 0 0 0 2 0 1 0 0 3 2 1 0 1 0 2 1 1 1 2 3 0 0 1 0 1 0 0 0 0 0 1 1 1 0 4 3 0 2 2 0 0 0 0 1 0 0 1 1 1 3 0 0 0 0 0 1 1 0 1 0 0 0 1 0 1 0 0 0 1 0 0 0 2 0 0 0 2 0 0 1 1 3 2 0 1 1 0 1 1 0 0 0 2 1 0 1 0 1 1 1 2 0 0 2 1 0 1 1 0 0 1 1 1 2 0 0 0 2 0 1 1 1 1 0 0 0 1 1 0 1 2 0 2 1 0 0 1 1 0 3 1 1 0 1 0 0 1 0 0 3 0 0 0 2 3 0 0 1 0 0 0 2 1 0 0 2 0 1 2 1 0 1 0 2 2 3 1 0 1 1 1 1 2 2 0 0 4 1 1 1 1 0 2 0 0 0 2 0 0 1 2 0 1 0 2 1 0 1 0 1 1 0 0 0 1 1 1 1 0 0 0 0 0 1 2 0 0 2 0 1 3 0 1 0 0 1 1 1 1 0 0 1 0 0 1 1 1 0 3 1 0 0 2 0 1 1 0 2 2 2 2 0 0 0 0 0 1 2 0 1 1 0 2 1 0 0 1 0 1 1 1 0 1 0 1 0 0 2 0 0 1 0 1 1 1 0 1 0 1 3 3 0 1 1 3 0 0 2 1 0 1 0 0 0 0 2 0 0 0 0 1 2 0 0 1 1 1 0 1 1 2 0 0 2 0 1 0 0 2 0 0 0 0 0 0 1 1 1 0 3 1 1 2 0 1 1 2 0 0 1 2 0 0 2 1 0 1 1 0 0 4 2 1 2 0 0 1 0 1 0 1 0 0 0 1 3 1 2 0 3 0 1 0 0 1 0 2 0 1 0 0 1 1 0 0 3 0 0 3 0 1 0 0 0 2 0 1 0 0 1 2 1 0 2 1 1 1 0 1 0 2 2 1 1 2 2 0 2 0 1 1 2 1 1 1 1 0 0 0 0 2 2 0 0 0 2 2 0 1 0 0 0 3 0 0 0 1 0 1 0 3 1 0 1 0 2 4 1 0 2 0 2 0 3 0 1 0 0 1 0 1 2 1 2 1 1 1 0 0 1 1 0 0 0 0 0 1 1 2 1 1 0 1 1 0 1 1 1 1 1 0 1 0 2 0 1 0 2 1 1 1 0 1 1 0 0 1 0 2 0 1 1 0 1 1 0 0 1 2 1 0 0 0 0 0 1 1 0 3 0 1 0 1 0 1 1 1 1 1 1 2 2 1 1 0 0 1 1 0 0 1 2 0 0 0 1 0 1 0 3 2 2 1 1 2 1 3 0 0 1 1 0 0 0 0 0 2 0 1 1 0 1 1 2 0 0 0 1 0 0 1 0 3 2 2 0 0 0 0 1 0 2 2 1 0 2 0 1 1 0 3 0 2 0 0 2 0 0 1 0 0 0 1 3 0 1 0 1 0 0 0 0 1 2 2 1 0 1 2 0 2 2 3 1 0 1 1 1 0 1 5 1 1 0 1 2 0 1 0 1 1 0 1 2 0 2 1 1 0 0 1 1 0 1 1 0 2 1 2 0 1 1 0 0 1 0 1 0 2 1 0 0 0 0 1 3 0 0 1 0 0 0 1 2 0 1 1 1 0 0 1 0 1 1 2 1 0 0 0 0 2 0 1 0 0 2 1 1 1 0 0 2 1 2 0 1 2 0 1 1 0 0 1 1 0 0 0 0 3 0 1 0 0 1 2 0 1 0 0 1 2 0 0 4 1 0 0 1 2 0 0 1 0 1 0 0 1 1 0 0 0 1 0 2 2 0 0 0 1 0 1 1 1 1 0 1 0 2 2 1 0 0 1 0 0 0 0 1 1 0 1 1 0 0 0 0 0 1 0 1 1 1 0 1 0 1 0 1 2 2 1 1 1 1 1 2 2 1 3 1 2 0 1 1 1 0 0 1 1 2 1 3 1 0 1 1 1 0 1 1 1 3 0 1 2 0 1 1 0 0 1 1 0 1 2 1 0 2 1 1 0 0 1 1 0 1 1 1 0 1 2 3 1 0 0 0 0 0 1 1 1 1 0 1 1 1 0 1 0 0 0 2 1 1 0 1 0 0 1 0 1 1 1 2 2 0 2 0 0 1 2 1 0 2 3 2 0 0 2 1 0 1 0 0 2 1 2 1 1 2 1 2 1 1 1 1 0 1 0 1 0 0 1 1 1 0 0 2 1 1 0 0 0 1 1 1 0 1 2 1 1 1 0 0 1 0 3 2 0 0 2 1 1 0 0 1 2 2 0 1 0 0 0 1 1 0 0 1 1 0 0 1 0 2 1 0 0 1 0 0 1 0 2 1 1 0 2 0 0 2 0 0 0 3 1 2 0 1 1 0 0 1 0 0 1 0 0 0 1 0 0 0 0 1 0 1 0 2 1 2 1 1 0 1 1 0 3 0 1 0 1 1 2 0 0 0 2 0 0 0 0 0 1 2 1 1 1 0 0 0 1 0 2 0 1 1 0 1 1 1 4 3 1 1 0 1 0 0 0 1 0 2 0 2 1 1 0 0 1 0 2 1 0 3 2 0 0 1 1 2 1 0 3 0 1 1 0 0 1 1 0 2 3 0 2 1 0 3 0 0 0 2 0 0 0 3 2 2 0 0 2 0 0 1 2 2 0 0 0 0 1 2 0 1 1 1 2 0 1 0 1 0 1 1 1 0 0 1 2 0 0 0 0 0 1 0 0 0 1 1 1 1 2 1 0 0 0 0 0 1 0 1 0 1 1 3 1 1 0 0 0 0 1 0 1 1 2 1 1 0 5 2 0 2 1 1 1 0 0 2 0 1 0 2 0 0 1 1 3 0 0 2 0 1 1 0 0 0 0 0 1 1 0 1 0 3 0 0 0 1 1 0 2 2 1 1 1 1 1 1 0 1 0 1 0 1 2 0 0 2 2 1 0 1 0 3 0 0 0 2 2 1 0 0 0 0 1 2 2 0 2 1 2 1 2 0 0 0 0 1 0 0 0 1 0 1 1 0 0 3 0 1 1 1 0 3 2 1 0 0 0 1 2 0 1 0 0 1 0 1 0 0 1 1 0 1 3 2 0 0 2 1 3 0 2 0 0 1 1 0 1 0 2 0 1 0 1 2 1 0 0 1 3 1 1 0 2 1 0 3 0 1 0 1 1 1 0 1 0 1 0 0 1 0 0 1 1 0 1 0 1 0 0 1 0 1 3 0 0 2 0 0 1 2 1 1 0 1 0 0 1 2 1 0 0 1 1 1 1 0 0 1 2 0 0 2 1 0 2 0 1 0 0 3 1 1 0 1 0 1 0 1 0 0 3 1 1 2 0 0 1 1 1 0 0 2 0 1 0 1 0 1 1 1 0 0 1 1 2 0 2 0 2 1 1 0 0 0 1 0 1 1 0 0 1 0 0 1 0 1 2 2 1 1 2 0 1 0 1 0 1 0 1 0 1 2 0 0 1 0 0 1 1 0 1 0 0 0 1 1 0 0 1 2 1 0 1 1 0 0 0 1 0 1 2 0 0 1 1 0 2 1 1 2 0 2 2 0 0 0 0 1 1 0 1 2 0 0 1 0 0 0 1 1 0 0 0 0 0 1 0 1 1 3 2 0 1 0 1 0 0 0 0 1 0 1 1 1 1 0 3 0 0 0 0 0 0 2 0 0 0 0 0 1 0 1 0 0 1 0 2 0 1 0 0 0 1 0 1 1 0 1 0 1 0 1 3 1 1 0 1 1 2 0 1 0 1 1 0 1 1 0 1 1 0 2 1 2 0 1 0 0 0 2 0 0 0 1 1 0 1 1 1 1 2 1 0 0 2 1 1 0 0 0 0 0 0 3 1 0 1 1 0 1 0 0 0 1 2 1 2 2 0 1 1 1 2 1 1 1 1 1 0 3 1 1 1 1 0 0 1 1 1 0 1 1 0 0 0 0 1 0 1 2 0 1 0 0 1 1 0 2 0 1 0 0 0 1 0 0 1 1 2 0 0 1 0 0 1 1 0 0 1 1 0 1 1 1 2 0 1 2 0 1 1 1 0 0 2 2 1 0 1 1 0 1 1 0 0 3 0 0 0 2 0 0 2 0 0 2 1 1 1 0 0 0 2 2 2 1 0 0 2 0 1 2 0 0 1 1 2 0 3 0 2 0 3 1 1 0 1 2 3</t>
+    <t>EXN(0.62225611022489, 14.736079016799088, 6.605454763707302)</t>
+  </si>
+  <si>
+    <t>14 31 24 10 40 13 16 26 18 10 21 6 20 26 21 10 3 24 19 23 10 22 15 27 24 23 23 28 31 29 18 31 20 24 14 14 14 17 23 19 26 22 13 10 6 14 26 23 13 26 26 10 27 13 17 34 19 23 12 20 21 36 22 9 24 24 24 10 24 16 30 20 21 13 16 38 26 16 30 17 20 20 21 16 26 12 27 30 24 21 11 14 10 21 7 30 9 16 17 38 22 17 24 16 11 16 6 17 20 20 10 6 20 13 31 30 30 19 7 17 16 10 13 20 21 32 12 34 18 33 13 26 16 20 27 15 18 34 17 15 16 6 20 24 6 26 20 14 16 27 19 10 17 25 6 13 16 13 9 17 13 19 23 18 17 27 20 13 10 22 16 21 19 20 6 20 19 21 17 14 23 23 12 24 23 10 13 21 13 20 11 17 17 24 17 3 28 7 25 23 33 18 10 23 20 14 30 14 18 20 27 20 27 28 34 14 17 24 16 24 17 18 29 13 37 24 21 18 7 17 24 37 28 19 24 10 20 20 10 16 7 27 30 20 19 20 24 27 22 28 16 22 23 6 26 26 31 19 23 21 20 13 27 21 12 28 20 24 34 27 10 23 34 22 23 16 30 15 26 20 27 31 20 13 20 27 20 0 16 10 17 28 17 26 0 17 24 20 24 10 13 20 24 24 13 10 13 9 9 10 31 13 19 20 17 6 22 21 14 19 31 17 17 6 14 21 17 20 23 17 24 3 3 16 23 9 27 9 14 9 16 23 34 27 31 19 41 28 30 20 7 23 21 16 31 10 31 22 14 19 20 28 7 24 26 17 16 16 19 16 6 18 15 20 13 34 17 6 36 13 20 23 20 27 23 16 10 17 25 20 14 15 17 14 25 21 20 12 21 11 16 34 0 21 6 28 16 14 30 28 24 31 20 42 36 30 27 25 13 13 13 10 9 10 17 15 27 38 20 17 14 27 27 27 12 16 14 29 17 28 24 20 30 19 12 23 19 30 13 21 24 26 35 21 13 26 6 18 17 24 13 18 31 13 17 17 19 18 23 21 6 24 6 18 34 12 17 5 23 35 14 27 14 14 23 11 17 24 6 17 27 17 13 17 12 21 24 24 45 10 6 24 27 9 20 31 11 13 0 21 10 17 35 23 18 19 22 27 23 22 20 30 12 13 10 29 12 14 9 18 13 24 14 7 14 26 28 14 23 20 18 27 13 29 27 20 17 17 17 19 13 31 22 20 15 19 9 13 17 30 14 27 20 20 10 19 24 13 28 20 20 22 21 13 17 14 20 20 17 17 27 14 17 19 9 17 23 6 27 26 13 14 20 21 26 17 45 21 28 7 27 9 20 24 11 27 13 15 38 30 10 20 13 17 21 28 23 6 23 16 13 21 17 20 11 31 9 22 20 13 23 28 20 16 10 10 28 19 26 23 20 28 27 31 24 28 12 23 16 14 30 20 16 17 16 17 19 15 24 19 23 34 17 17 20 7 20 24 23 20 20 21 13 6 10 28 28 23 13 14 28 16 7 20 20 6 17 10 20 3 19 19 16 24 17 24 20 16 36 21 28 16 21 17 3 30 45 17 28 17 13 27 30 29 17 17 33 17 10 13 23 3 11 17 17 21 17 3 16 13 13 10 12 15 14 24 26 23 6 16 10 24 20 22 11 13 52 19 10 20 20 6 9 27 13 23 33 14 23 22 0 34 23 12 6 16 18 23 6 19 3 16 16 18 17 17 10 28 20 27 21 13 21 23 13 23 11 14 7 18 27 19 16 18 17 19 19 6 13 37 6 16 10 21 13 13 24 9 9 40 19 17 19 19 20 30 21 15 24 20 13 23 6 20 24 16 17 13 6 27 17 17 13 14 23 24 6 27 17 19 13 20 48 20 19 9 0 22 20 13 13 10 20 27 10 12 31 16 11 9 6 14 27 16 14 9 12 17 20 13 20 27 10 22 3 16 19 24 10 28 20 10 16 9 7 24 6 21 10 13 27 14 9 22 21 20 7 19 16 14 9 24 28 19 13 26 10 17 31 16 17 23 9 13 9 9 13 3 17 32 31 31 13 24 20 28 22 13 23 17 20 26 17 10 6 3 17 14 17 20 11 18 26 17 28 24 17 6 16 30 20 19 20 14 27 17 24 16 27 23 21 21 30 13 14 14 13 20 20 13 9 34 10 23 13 17 14 17 13 7 20 20 10 24 23 6 15 14 20 12 31 19 31 34 24 33 12 27 27 17 17 10 20 10 24 31 20 24 26 27 31 20 31 20 14 25 20 13 31 20 10 23 27 17 3 51 6 32 20 24 19 17 12 20 9 20 21 17 13 19 6 27 13 24 7 19 22 28 10 3 18 6 11 0 10 14 14 13 27 24 20 17 6 20 12 18 21 20 23 22 24 24 16 6 31 14 15 20 17 10 20 21 20 0 31 20 6 26 26 19 24 16 7 19 6 21 27 17 15 27 10 20 12 13 23 13 11 21 8 26 20 17 30 14 27 31 31 20 24 13 19 3 27 24 9 27 16 22 31 19 20 21 18 14 6 16 20 35 7 30 16 10 18 10 18 31 6 17 17 7 13 26 13 27 14 13 23 22 20 17 20 24 24 40 30 13 6 21 20 23 34 22 16 20 17 7 9 14 16 17 13 14 14 20 23 10 27 33 23 21 13 7 26 9 10 14 12 12 21 17 24 13 10 21 20 17 14 20 24 27 29 3 7 20 13 24 12 20 12 15 24 31 21 20 28 24 24 23 21 23 24 27 31 17 10 17 13 45 24 30 13 18 17 22 26 7 30 13 20 17 20 14 3 9 21 24 20 14 13 17 23 20 17 17 16 24 23 16 17 27 21 20 22 9 17 31 24 17 14 17 20 10 13 12 6 12 17 0 17 38 27 21 13 44 14 21 29 25 19 28 13 17 10 26 21 10 9 3 23 11 24 17 18 17 14 10 19 24 10 15 7 27 34 17 13 24 30 30 7 16 25 10 24 13 10 17 27 30 17 13 21 22 10 17 18 13 31 18 17 20 3 17 23 20 27 17 7 13 14 7 41 9 21 13 17 27 17 27 7 17 9 14 19 28 7 17 8 3 20 6 14 20 31 13 14 23 21 24 13 14 13 10 27 9 21 16 30 13 20 9 13 10 13 38 6 19 17 4 20 0 16 31 17 17 38 24 12 18 20 16 25 24 14 31 31 23 9 12 21 20 9 21 18 27 13 10 15 10 13 22 24 10 23 12 20 13 23 17 14 20 23 14 19 22 27 31 42 22 24 20 21 34 30 30 13 13 31 20 21 23 37 27 6 21 7 18 24 24 21 44 7 20 31 23 27 20 21 7 23 14 20 24 27 6 13 16 19 21 23 27 13 3 9 17 33 22 23 23 14 20 6 16 12 22 21 25 6 6 31 6 14 17 15 13 19 13 23 16 9 17 21 23 9 20 31 21 23 27 21 31 6 6 13 25 14 27 21 7 10 27 12 3 6 23 23 25 10 3 0 7 16 15 20 21 14 21 6 10 21 35 10 13 15 20 12 3 21 17 16 26 6 13 16 20 9 16 17 25 27 28 10 28 10 31 33 7 19 22 22 20 19 28 27 34 13 38 20 16 17 6 17 14 17 21 20 17 6 14 17 21 17 24 16 17 10 20 34 13 13 25 24 9 13 13 7 17 20 17 24 16 17 17 34 19 12 19 27 24 20 21 6 6 23 20 34 17 27 6 21 27 9 20 13 27 15 28 24 13 24 17 17 21 34 6 30 10 13 20 41 16 8 27 9 13 3 17 9 26 16 6 10 9 20 23 20 10 43 21 27 10 13 14 23 17 23 17 16 41 11 24 18 12 16 23 14 9 24 18 24 7 21 27 14 19 26 17 13 24 20 16 10 20 7 3 20 10 20 10 24 17 16 14 13 13 5 14 23 8 19 23 7 17 13 16 28 21 10 3 15 38 20 37 9 14 31 31 14 20 7 24 14 21 17 10 13 23 21 23 14 10 14 27 20 0 20 9 9 27 11 17 16 17 17 14 9 13 7 24 13 34 6 23 20 30 14 6 13 16 17 16 14 17 8 21 27 10 15 9 15 21 17 21 16 21 19 10 16 10 7 22 10 20 13 20 5 18 17 17 19 24 29 14 13 10 6 22 6 34 12 10 33 10 23 10 17 24 7 16 19 15 24 24 24 24 24 18 30 27 27 13 7 43 37 20 21 25 14 17 20 13 8 26 24 14 17 20 23 27 11 27 20 24 19 20 14 13 19 14 21 21 23 20 10 19 26 3 33 16 7 21 6 12 21 16 16 21 24 28 9 37 7 16 24 16 37 25 12 23 13 35 17 21 20 18 10 12 26 31 9 25 10 16 14 12 23 17 37 26 19 24 10 31 10 19 20 20 23 6 25 34 6 9 26 16 14 21 28 40 27 17 30 17 17 16 17 21 10 21 16 20 28 17 6 13 14 22 7 23 34 10 16 33 24 16 12 34 28 26 20 24 14 20 13 27 37 13 33 24 10 24 26 30 11 30 7 17 28 14 23 12 13 23 19 15 14 20 20 20 19 10 19 28 13 12 7 21 24 30 7 21 18 24 34 19 17 7 21 13 19 13 16 23 14 20 10 20 17 22 10 21 20 17 27 7 17 17 7 10 17 20 13 6 20 20 20 12 27 24 20 28 21 8 10 16 24 21 9 24 20 24 34 16 16 30 21 21 14 17 13 19 24 13 9 28 23 20 24 13 24 25 17 22 13 20 34 19 22 13 7 11 16 17 16 23 23 20 10 31 20 20 35 15 19 14 17 23 28 24 20 0 27 13 27 27 6 21 20 31 20 24 9 16 20 3 18 9 6 10 7 26 18 13 21 27 13 10 16 23 19 21 3 17 21 10 17 6 21 7 6 17 38 24 16 20 28 10 9 21 13 20 16 13 24 24 17 16 13 17 17 21 27 10 20 8 27 21 17 23 6 7 19 30 13 26 31 17 16 26 10 10 6 0 34 42 23 11 17 7 3 24 24 17 20 13 19 10 20 33 18 10 19 19 19 24 20 31 24 23 21 30 21 42 13 23 29 0 3 15 6 21 17 23 19 19 10 23 23 17 28 14 12 20 13 27 16 13 17 17 34 27 34 20 13 21 23 12 16 10 20 24 17 35 24 15 22 21 15 9 14 31 20 20 28 14 14 27 13 11 19 27 17 13 24 20 21 10 26 17 22 21 20 13 15 7 17 17 31 21 17 24 17 15 31 17 17 28 13 9 10 27 13 14 24 27 20 17 27 24 25 9 33 9 35 23 34 6 20 18 0 24 22 9 25 24 31 28 38 16 27 34 16 28 15 20 24 10 17 13 20 13 20 16 14 20 14 16 24 14 30 23 11 13 16 13 23 19 23 6 7 7 33 17 17 13 12 17 34 23 9 7 13 27 14 23 15 14 20 17 35 26 34 31 9 16 21 7 24 20 27 16 14 21 19 23 14 24 24 23 14 17 10 9 27 21 33 27 6 7 34 14 27 7 17 17 10 10 17 14 28 14 17 13 22 16 20 31 13 6 28 14 22 23 13 10 21 19 10 27 21 24 38 20 16 17 28 16 13 14 13 14 13 27 27 13 13 10 33 14 24 21 14 16 21 21 31 24 21 17 27 16 23 41 42 22 37 13 19 17 27 17 14 13 20 22 10 13 13 20 26 16 13 10 14 34 27 21 13 10 23 17 24 23 15 16 10 21 7 9 26 30 27 27 14 21 22 13 17 35 27 27 14 17 23 24 30 21 21 15 17 24 17 15 16 10 17 10 17 17 17 32 39 14 17 16 23 14 16 16 10 14 19 13 20 13 0 24 31 17 19 27 8 9 27 24 20 19 16 14 14 17 34 12 17 21 23 20 7 20 22 20 17 8 11 13 13 27 24 24 28 32 35 7 27 20 10 21 10 30 24 20 16 21 7 27 24 19 24 20 14 21 15 27 17 24 19 20 27 19 20 19 10 24 24 20 17 24 7 34 26 24 17 20 19 13 23 27 0 24 12 20 22 15 20 12 31 3 10 31 17 32 20 19 35 0 7 6 20 27 13 6 7 24 26 21 15 17 13 14 22 22 21 13 10 24 13 20 20 13 24 21 30 28 21 19 21 13 13 18 17 35 17 12 20 16 24 20 10 21 12 13 17 7 23 24 17 31 20 20 28 9 13 24 30 19 14 16 12 10 14 10 21 20 26 20 15 17 21 20 9 10 24 18 23 23 18 10 28 22 27 21 23 10 14 12 20 21 28 13 27 10 17 16 17 12 31 23 17 8 19 16 24 10 17 27 23 17 27 21 20 17 16 24 16 23 16 25 11 19 26 10 24 24 18 32 28 20 29 16 34 27 13 16 14 27 21 21 17 8 10 22 30 27 17 10 15 0 24 10 17 24 10 14 26 26 28 38 35 30 31 10 21 30 24 17 10 16 17 13 23 24 24 27 3 25 12 24 22 27 27 17 0 17 13 28 23 13 27 34 23 26 10 14 31 28 19 26 7 16 9 10 27 10 15 22 7 21 20 26 0 28 20 21 16 16 27 27 25 34 24 34 30 19 15 23 19 14 23 21 23 23 6 17 10 21 15 17 27 24 9 26 0 14 20 17 6 3 21 13 17 24 17 16 26 13 19 25 20 10 19 16 15 13 13 30 37 17 27 27 31 3 30 17 21 10 28 13 23 23 33 24 13 3 30 21 10 10 31 17 16 16 17 30 23 24 15 27 24 45 19 22 17 26 24 17 22 13 23 22 20 15 21 6 10 27 29 23 28 18 7 27 7 19 17 12 10 22 33 27 23 21 9 10 28 26 14 15 14 19 21 31 24 10 16 30 14 20 10 14 28 14 20 21 15 19 17 14 24 13 24 17 24 18 27 20 18 24 26 30 31 26 10 24 6 14 30 21 27 6 14 24 10 17 10 10 14 16 13 23 21 23 13 13 16 14 24 24 14 13 17 31 19 7 9 13 6 20 16 13 33 10 28 16 9 21 8 30 30 13 28 13 13 21 10 16 24 21 31 31 27 14 16 6 28 19 42 24 31 30 21 25 10 34 10 10 28 13 20 23 16 21 16 13 10 20 10 21 13 26 20 21 10 18 13 6 9 19 24 20 14 7 24 17 21 10 13 10 13 17 13 10 27 21 27 13 19 13 27 25 19 28 23 27 10 28 33 26 16 20 23 22 9 14 13 24 30 16 16 37 29 20 15 16 35 33 28 9 20 26 31 24 13 14 28 19 10 16 38 30 22 18 9 13 30 31 6 19 10 20 23 24 23 20 27 20 21 10 21 22 17 12 3 24 23 10 13 23 21 17 9 13 7 17 14 27 24 23 10 14 6 7 28 28 9 16 15 14 24 8 14 16 13 27 31 20 27 21 27 27 10 19 18 33 7 12 24 13 17 17 34 14 23 16 10 30 27 10 7 26 17 21 17 25 20 11 3 24 10 6 16 27 21 30 17 16 23 28 7 10 27 10 13 32 10 30 19 13 6 3 16 13 24 3 27 10 24 31 28 20 22 13 6 17 27 30 6 10 0 13 21 23 10 16 12 17 27 20 9 27 0 34 20 27 39 13 28 20 27 27 9 29 7 14 19 24 10 20 24 17 7 10 16 6 22 7 21 26 14 27 9 23 14 17 23 17 22 10 20 21 27 24 17 10 21 29 26 20 17 9 16 31 34 14 24 22 19 21 29 27 17 24 17 24 22 36 13 19 13 17 12 14 7 20 18 29 13 20 9 3 44 20 28 21 14 6 20 13 17 23 31 34 17 9 17 10 13 24 20 13 6 27 15 14 19 30 17 37 24 20 33 20 16 23 21 35 9 27 28 21 15 18 25 20 14 17 27 20 18 10 7 29 24 17 14 9 24 30 20 28 30 10 17 21 6 28 34 21 14 10 6 21 16 30 17 9 15 20 23 26 18 10 31 22 24 24 30 17 35 21 12 34 14 16 14 7 13 21 23 28 13 12 24 28 6 36 17 14 45 23 20 11 20 21 13 17 3 9 17 13 35 23 24 12 17 10 19 9 23 20 27 16 27 13 22 17 17 26 9 23 38 0 13 9 9 6 21 19 16 34 10 10 28 24 14 26 36 20 23 17 30 26 23 16 7 18 14 23 9 23 19 10 20 16 14 12 3 20 16 13 14 30 20 24 17 45 20 13 21 12 11 24 17 17 21 14 23 7 13 9 26 20 31 16 6 31 12 10 27 13 25 30 27 28 27 22 24 19 18 15 14 16 14 26 20 21 20 19 20 10 20 9 19 20 10 27 24 17 17 19 13 20 13 15 24 3 24 25 20 48 24 26 16 7 21 10 20 19 14 14 21 24 23 19 15 19 20 27 31 20 3 20 6 3 21 30 16 20 35 17 10 3 16 20 19 21 41 27 9 14 17 31 21 13 10 21 17 10 30 10 35 10 28 27 10 30 20 31 20 38 21 17 11 13 17 3 21 35 17 19 20 24 17 22 14 22 33 20 25 24 20 6 16 7 25 24 20 27 28 34 10 29 59 14 26 14 20 24 17 37 6 3 14 31 20 12 13 9 17 20 7 29 14 21 23 23 33 9 9 17 17 17 17 23 14 28 16 22 24 24 17 24 21 24 23 15 21 19 14 10 16 26 11 31 24 20 12 16 41 23 17 21 3 6 14 14 24 16 23 14 17 10 27 9 13 17 13 28 28 17 26 26 28 19 9 13 6 20 17 31 29 23 14 24 13 24 12 19 24 10 12 14 16 17 27 13 20 13 6 29 31 16 6 21 20 24 18 20 7 6 30 20 21 22 24 3 35 23 19 24 16 3 20 21 17 20 24 17 20 32 16 7 23 17 21 20 6 15 36 20 24 13 17 24 24 17 27 17 20 20 17 21 21 21 3 24 24 21 24 23 42 31 18 17 16 10 18 34 13 31 13 0 17 31 31 24 13 24 21 27 3 6 20 16 17 20 9 28 15 10 17 33 7 17 14 11 28 6 12 24 9 24 31 21 22 7 20 16 27 20 24 14 23 21 18 17 17 13 7 7 30 13 27 30 24 26 19 13 38 23 27 20 6 17 17 26 27 16 17 20 24 27 27 27 19 15 6 14 10 16 23 17 24 17 17 9 13 27 3 19 9 31 3 14 17 25 10 17 28 14 17 10 24 14 24 13 16 20 24 27 14 20 17 23 24 28 13 17 31 20 15 13 6 13 17 16 17 28 17 23 13 7 20 14 20 28 27 28 27 20 6 23 37 21 13 16 20 20 20 15 39 31 21 20 12 24 26 27 7 10 0 15 24 10 31 20 14 20 14 14 20 12 17 17 16 21 22 16 20 20 20 13 24 20 3 10 18 23 27 25 12 6 15 17 23 27 20 8 21 20 16 16 7 22 27 13 16 9 12 20 22 31 37 27 24 23 13 17 16 21 10 23 24 34 8 13 9 22 7 17 27 7 10 20 12 3 23 14 13 25 7 20 12 19 17 23 33 10 10 28 23 32 25 17 23 7 30 18 14 20 17 13 9 16 18 17 16 20 14 16 24 20 17 19 9 29 26 13 13 0 30 24 12 12 21 10 24 26 19 34 28 9 20 21 20 17 26 17 7 19 3 13 26 18 10 21 23 17 21 20 24 7 13 10 9 20 24 27 9 13 19 17 21 18 14 13 23 24 16 19 17 20 27 37 17 21 23 20 14 27 20 17 28 21 3 13 27 24 41 17 23 29 19 17 17 17 24 25 17 13 23 28 31 24 24 28 23 31 19 10 20 13 19 20 20 23 15 31 22 21 28 16 34 13 21 17 19 21 7 17 24 16 17 30 13 17 24 24 18 27 3 20 33 17 29 20 10 35 9 14 30 31 28 18 33 13 20 31 20 19 17 10 31 30 13 0 21 13 26 21 9 24 16 30 10 21 10 6 14 27 14 21 28 30 24 23 21 38 27 23 7 24 16 23 7 30 20 6 3 20 19 16 17 24 9 17 16 17 17 23 13 13 14 14 34 19 21 9 27 7 14 25 17 21 28 31 20 19 6 17 24 17 17 3 20 7 3 31 17 21 13 17 17 25 14 10 22 47 27 30 27 17 26 39 17 21 17 19 21 14 24 26 20 10 29 10 13 20 24 6 13 27 21 25 14 16 3 19 31 24 7 9 13 13 27 20 3 16 0 10 14 3 23 10 12 26 3 24 23 29 17 26 13 15 13 13 10 7 19 35 9 33 12 10 13 22 15 16 24 20 28 17 26 13 34 15 14 20 20 28 27 3 7 6 0 24 20 16 24 21 20 3 10 17 33 16 38 14 10 20 17 26 16 18 19 30 14 23 13 24 29 24 10 22 7 36 13 19 6 17 21 24 15 13 17 35 13 20 15 29 30 21 15 27 17 14 23 20 30 27 20 17 24 10 14 13 17 21 21 30 10 13 26 7 14 6 30 3 6 6 30 19 23 7 31 17 13 24 29 15 10 12 20 14 26 30 27 21 28 23 23 30 24 17 41 22 34 31 15 14 17 21 21 27 17 17 10 3 24 33 16 13 20 9 27 20 17 10 14 16 24 24 21 15 20 18 7 15 31 14 23 3 6 16 16 12 14 14 21 13 17 24 10 12 9 28 17 23 14 27 16 7 13 10 17 36 20 21 17 24 19 20 6 20 14 24 16 21 22 12 18 26 12 26 13 10 27 19 6 16 37 13 13 8 10 20 24 20 20 9 10 23 10 10 16 9 7 27 6 13 24 10 31 17 24 23 13 13 23 10 19 13 15 17 28 14 16 20 16 10 9 22 33 20 14 9 17 31 20 20 28 17 19 21 18 14 37 14 27 28 31 28 22 14 17 10 16 17 28 13 10 13 30 21 17 10 12 15 10 20 31 19 18 14 13 25 16 10 15 20 17 27 21 19 28 21 14 23 16 22 17 19 17 20 17 30 44 31 24 7 10 27 9 17 27 23 30 7 20 23 35 24 20 16 21 17 34 17 13 10 21 17 21 20 39 13 29 3 27 14 23 22 15 16 23 23 11 17 26 3 9 20 13 20 24 20 20 11 6 24 21 23 17 21 7 3 17 14 18 14 9 6 16 20 23 19 10 33 17 33 26 13 26 7 22 20 28 13 31 16 21 17 23 17 26 13 24 13 26 17 17 16 30 9 29 34 24 14 7 3 10 16 27 37 30 31 13 14 17 19 19 9 20 27 21 9 17 34 24 13 14 12 13 10 13 26 16 15 20 30 7 24 3 18 17 20 21 14 20 17 14 9 19 11 23 13 13 17 20 7 21 20 18 19 16 16 9 14 10 10 19 17 14 27 10 17 10 24 27 21 20 17 19 23 20 20 13 27 12 20 0 17 15 21 3 23 15 10 16 24 14 10 24 16 31 17 23 7 24 15 21 26 21 17 13 19 3 10 28 16 34 27 38 14 13 20 28 10 25 21 30 30 25 23 17 22 14 17 24 18 17 13 28 10 30 13 17 6 23 24 34 20 16 17 14 24 23 31 25 9 20 27 28 17 16 13 21 7 17 23 12 20 17 24 35 30 17 6 21 17 16 24 11 27 19 23 15 10 10 14 19 35 14 21 9 20 32 16 20 17 27 20 14 20 15 23 17 6 19 14 9 6 31 16 30 16 34 28 17 20 27 11 28 10 14 13 10 6 13 19 24 6 23 20 16 17 12 6 23 11 27 13 6 20 23 21 33 24 10 30 17 27 27 20 24 17 20 32 33 26 13 6 14 13 23 24 21 10 33 6 13 7 10 17 7 24 21 14 31 24 31 21 17 30 30 17 15 10 17 24 17 20 33 23 31 13 26 14 24 17 20 21 13 21 20 14 20 19 13 23 10 22 17 23 7 22 19 23 21 16 27 15 13 27 24 16 25 13 26 20 24 14 45 17 21 31 23 13 13 28 14 27 30 16 20 13 38 27 20 15 11 30 6 17 18 20 31 19 16 7 14 27 15 6 20 20 7 27 7 10 16 31 25 21 24 20 27 9 16 10 42 17 24 14 10 3 26 16 27 14 16 16 29 24 20 25 21 27 16 7 24 16 19 17 21 23 17 13 27 9 16 16 29 23 22 13 24 27 22 10 16 7 15 34 20 27 20 16 15 23 15 20 24 13 13 20 28 13 7 17 27 20 29 23 23 17 24 19 17 30 20 27 17 7 15 20 17 19 21 14 34 30 22 10 17 28 31 20 31 6 21 7 14 27 20 21 15 21 27 17 22 30 13 14 38 17 16 20 31 19 24 27 14 20 17 10 17 16 9 13 10 17 24 10 17 13 34 20 14 20 20 17 16 33 24 31 17 31 20 16 20 23 19 10 27 8 26 13 27 6 13 9 26 20 3 26 22 24 24 24 31 23 16 17 21 19 23 24 13 20 10 34 7 18 30 10 37 28 10 10 13 10 19 34 22 17 13 33 39 10 29 21 16 38 13 9 13 20 3 10 16 27 16 23 24 24 26 20 13 24 13 33 20 27 30 14 7 14 21 14 22 17 17 24 29 31 24 20 30 24 20 16 20 12 11 13 20 16 23 17 27 10 24 14 21 28 20 12 0 9 9 13 27 13 20 26 16 35 30 30 13 24 21 27 6 10 16 19 21 38 22 52 10 3 14 13 13 20 24 13 23 10 13 19 20 13 10 21 7 23 7 24 17 17 20 20 15 26 18 26 15 23 6 9 20 27 26 10 20 10 6 21 6 10 21 20 23 17 7 14 17 23 14 15 29 31 17 13 20 28 17 24 16 24 13 27 23 16 29 30 10 10 20 16 13 9 17 20 13 31 7 18 24 25 16 22 23 16 17 20 17 17 7 8 3 16 28 14 10 16 27 21 23 14 28 6 31 31 27 18 13 23 17 24 30 3 16 13 22 27 12 20 23 14 10 19 24 10 23 3 9 26 12 15 21 17 10 17 12 22 28 31 27 16 17 17 41 7 38 23 31 14 6 20 17 24 17 13 30 26 37 28 23 17 31 24 24 20 10 30 22 17 23 13 18 7 17 17 10 27 10 17 15 14 23 23 28 17 3 28 23 13 13 13 7 23 27 9 27 31 9 10 21 27 28 17 20 16 6 21 20 20 25 20 21 27 13 20 17 13 24 24 0 24 10 23 7 18 28 23 20 13 24 23 38 21 20 12 21 30 29 6 27 13 28 17 17 19 9 24 13 18 14 17 13 21 6 24 20 19 16 19 20 17 20 17 17 23 10 24 31 16 10 20 31 17 14 17 10 35 34 37 13 13 14 34 13 20 16 28 14 14 17 14 20 20 16 23 13 3 14 13 21 13 26 14 28 20 24 20 17 16 11 17 31 17 24 17 16 30 21 23 3 16 19 16 17 20 38 6 23 10 12 17 16 19 22 10 13 17 17 27 36 31 30 23 10 24 17 7 17 13 26 20 33 20 27 31 14 27 19 10 19 24 38 3 10 19 22 17 27 19 13 31 17 9 30 17 15 14 17 17 10 12 7 20 26 24 20 21 10 16 31 13 21 20 20 33 13 14 21 13 12 27 17 27 21 22 17 21 21 15 9 17 9 21 17 13 16 6 24 10 24 37 9 31 20 20 42 30 14 20 27 6 17 21 34 21 27 24 24 16 6 34 24 24 24 13 30 17 17 10 20 35 10 28 27 28 24 17 18 24 20 17 25 21 26 10 22 15 9 9 24 29 13 17 10 30 17 10 14 16 26 17 9 31 3 27 35 9 11 26 21 13 14 18 22 10 13 20 18 10 20 13 16 10 20 20 35 24 13 20 17 7 9 13 10 9 6 7 17 21 24 16 24 19 31 16 23 27 24 36 24 17 10 27 20 16 19 16 6 24 23 9 16 9 17 32 27 7 16 16 31 7 10 17 21 24 37 14 27 10 23 16 3 17 13 28 26 31 10 38 15 27 9 26 13 17 0 13 28 22 23 13 23 8 21 25 13 15 31 21 10 20 16 21 6 13 24 13 21 20 14 13 22 26 16 17 20 6 17 17 9 14 24 16 17 10 20 9 33 17 15 7 24 17 17 13 15 16 13 20 9 26 16 27 34 16 10 27 14 14 13 14 18 24 27 9 7 27 27 17 17 16 23 15 25 9 8 21 21 27 16 30 24 25 10 31 9 7 12 24 20 8 20 20 17 13 20 24 3 13 34 17 27 10 20 10 16 33 17 30 9 35 25 6 13 24 21 24 24 10 31 38 9 26 16 28 17 21 17 13 11 26 17 17 13 10 16 6 26 20 16 20 13 20 24 13 23 24 16 14 10 17 13 13 17 31 9 25 27 17 19 18 26 16 20 20 26 13 27 14 17 9 28 7 20 24 34 33 13 6 10 24 24 3 13 28 38 35 21 20 0 24 20 17 27 23 22 23 20 27 24 9 19 17 24 21 15 17 24 17 27 14 10 28 12 38 13 14 20 6 19 20 28 10 24 14 31 18 19 9 10 15 16 0 22 34 19 13 17 16 13 9 23 9 27 20 14 31 7 17 21 14 27 24 31 20 13 26 16 34 30 13 16 17 24 14 14 18 3 43 24 13 23 16 24 10 23 28 16 10 17 17 14 34 24 17 3 13 27 13 26 23 14 13 24 27 7 27 30 6 23 27 29 17 20 15 16 13 16 20 14 16 14 17 15 10 10 17 42 24 17 30 30 24 23 16 13 17 31 16 10 21 12 10 31 14 20 19 20 27 26 13 17 6 22 13 13 27 17 24 24 16 20 10 9 7 24 23 24 15 20 23 7 10 27 6 24 16 34 16 38 20 14 16 17 19 17 20 17 10 17 20 27 17 14 17 13 16 28 31 17 38 17 6 21 13 23 12 10 13 16 31 16 28 9 16 3 22 22 45 35 20 30 17 28 26 17 42 31 24 7 35 13 20 17 18 23 30 13 34 3 15 27 14 16 6 21 20 6 30 24 21 21 17 22 17 16 15 20 13 23 17 11 21 14 24 12 24 23 6 24 37 14 19 11 14 16 20 13 17 10 15 3 6 23 10 0 19 7 13 21 16 13 13 17 7 27 15 10 10 31 20 9 16 25 13 13 17 44 10 28 10 19 20 28 20 24 20 21 19 19 13 21 28 30 9 6 24 21 20 6 19 17 17 13 13 10 20 13 24 20 21 24 27 17 24 24 19 17 13 20 28 30 24 17 20 17 31 13 17 19 23 21 16 20 17 17 27 13 29 30 20 24 9 21 11 34 28 10 30 3 8 17 10 23 31 3 34 37 17 21 7 30 19 26 21 10 14 6 13 18 9 19 31 19 24 21 27 9 18 20 17 14 17 20 10 6 28 35 21 6 16 13 9 20 17 18 25 17 27 13 41 13 3 20 28 19 24 17 9 17 21 24 10 24 19 24 10 17 26 20 13 9 14 7 18 27 19 17 19 16 9 16 27 13 23 14 17 27 37 13 17 20 14 3 15 21 20 9 14 13 13 20 23 10 14 20 14 17 28 19 21 25 20 16 21 20 16 26 13 25 20 25 24 12 17 27 13 6 27 20 16 20 26 14 31 17 23 10 23 9 23 16 10 22 13 20 17 8 23 24 14 6 17 23 17 26 37 13 17 3 26 21 7 24 14 13 21 20 17 16 17 3 22 13 12 24 21 16 23 20 10 13 16 14 17 16 36 13 23 14 40 20 25 7 6 10 10 27 20 16 31 20 10 10 10 20 31 22 27 20 9 17 20 16 23 10 10 28 31 10 27 31 9 24 15 23 23 30 27 15 27 22 9 24 27 19 17 11 20 13 13 20 34 10 38 19 24 18 10 13 23 24 17 31 16 34 10 16 20 13 19 20 24 16 13 11 24 13 23 13 10 17 6 19 30 14 15 16 27 21 24 10 20 10 23 31 9 25 10 21 22 29 23 27 13 20 13 13 35 16 10 24 23 17 20 17 30 17 20 12 21 17 27 26 12 17 17 27 13 10 14 17 6 24 12 20 16 14 3 17 20 10 13 19 5 24 24 21 20 20 32 23 9 20 20 22 10 23 14 6 13 20 31 23 23 27 23 30 16 15 17 3 6 20 10 27 9 13 16 13 20 14 14 16 16 17 27 9 20 25 24 31 24 24 20 16 21 23 18 10 10 10 33 14 25 30 38 36 14 17 20 31 13 16 9 10 12 6 0 27 18 9 20 21 17 6 17 21 17 7 20 13 17 29 17 32 23 16 17 6 16 30 24 16 35 6 20 28 9 21 34 7 17 7 13 28 24 18 13 19 16 10 14 24 24 17 16 20 21 17 34 30 24 13 16 16 20 20 16 13 21 14 7 24 31 24 24 16 6 13 16 23 7 21 14 7 16 24 23 17 38 21 15 15 19 14 21 16 24 12 17 17 0 22 13 15 21 20 30 20 37 23 28 21 10 31 14 9 14 17 14 24 14 10 20 13 24 31 10 20 18 24 31 25 7 10 21 21 10 17 21 15 27 14 9 10 12 20 10 28 11 36 29 7 10 20 23 3 16 12 21 7 13 15 20 10 38 13 7 33 20 23 17 26 13 20 25 3 13 18 3 20 13 31 13 6 19 30 9 10 23 35 7 20 10 22 13 9 17 26 13 11 17 13 31 17 13 27 13 14 23 16 24 26 14 17 3 11 3 10 6 17 13 27 20 16 17 17 6 17 23 23 20 34 27 27 23 7 6 21 10 19 0 10 9 20 21 9 35 20 23 31 48 18 17 20 19 24 20 31 26 9 15 24 17 31 20 17 24 21 28 14 22 14 20 27 21 13 13 23 16 17 6 20 6 21 27 21 28 10 3 16 15 20 19 3 10 3 32 7 21 27 21 10 26 28 9 19 10 24 13 17 6 10 10 25 14 13 20 13 27 14 7 20 27 22 18 6 6 24 10 24 6 17 17 6 38 19 16 36 10 13 13 16 14 30 22 17 21 13 24 31 38 34 35 24 17 13 10 24 33 22 17 13 24 15 28 17 9 21 10 34 28 14 9 17 8 3 20 34 27 13 19 16 0 31 9 9 17 21 17 13 23 24 13 20 17 21 31 42 3 14 10 12 20 16 20 13 17 20 20 10 21 9 22 20 31 20 15 21 17 10 21 17 9 21 21 30 28 16 6 27 19 7 18 28 17 20 19 7 27 23 10 16 10 16 13 3 20 20 20 3 20 24 24 16 13 16 26 16 12 27 24 21 9 29 16 13 13 27 20 19 17 22 20 27 13 17 30 33 10 17 10 8 31 20 21 24 10 13 38 21 17 16 19 24 9 17 16 9 10 19 23 14 27 3 19 23 23 19 31 13 10 28 26 24 19 15 24 17 30 24 35 28 10 25 19 27 14 28 13 20 7 7 17 27 24 21 10 24 20 23 37 7 20 38 19 13 13 19 23 13 20 5 30 14 20 23 23 21 24 24 27 17 19 10 20 6 18 12 21 23 17 33 10 13 21 19 20 20 16 20 30 0 17 11 10 16 20 14 24 19 10 37 21 20 28 21 21 9 35 27 0 24 10 16 17 20 35 13 27 6 20 27 31 20 22 31 24 24 32 24 27 17 10 26 0 20 35 11 25 13 31 13 17 17 29 19 21 17 15 27 13 24 34 28 20 30 12 24 31 19 16 24 24 24 24 16 20 17 16 24 15 34 14 7 17 19 6 28 7 14 13 37 38 13 34 10 17 6 17 16 10 23 22 19 18 14 23 24 15 24 21 14 22 9 10 7 16 20 9 26 27 22 20 35 21 19 27 9 16 17 16 17 20 23 20 33 20 16 17 20 20 23 8 30 9 6 14 13 20 22 27 19 19 10 34 10 16 19 17 14 3 24 14 8 24 14 17 14 26 21 17 16 17 24 13 29 27 17 13 13 14 30 30 17 20 16 23 17 3 10 24 27 19 14 26 12 35 9 10 30 29 14 7 17 19 25 21 17 26 17 31 20 24 31 21 3 31 34 15 21 24 17 18 0 35 24 24 23 27 27 9 24 10 23 24 7 17 23 23 17 13 19 20 30 31 24 19 17 14 23 13 10 17 17 24 42 14 13 35 26 20 36 23 21 23 17 0 18 20 30 21 20 23 13 15 20 20 9 17 20 23 23 24 28 21 28 24 38 30 13 13 30 8 20 27 10 10 24 21 20 17 13 12 6 28 18 7 13 13 13 20 21 24 10 30 17 25 31 20 11 25 17 27 20 16 16 33 17 15 31 20 20 17 28 33 17 14 27 24 23 14 17 20 17 15 30 13 7 41 16 20 15 27 24 14 19 13 20 31 18 16 35 24 9 18 20 34 13 25 23 23 26 27 24 13 6 34 40 22 10 23 33 23 23 13 12 23 23 26 30 28 24 10 30 10 17 16 17 10 13 7 23 20 12 10 38 12 27 21 35 16 24 25 20 10 23 24 23 23 13 23 17 34 37 12 20 20 20 16 12 34 24 21 31 3 22 20 16 31 7 0 7 15 20 14 16 20 24 13 16 34 17 20 20 11 28 37 9 17 16 13 20 17 14 14 27 12 29 13 10 20 14 35 16 37 6 34 24 18 7 20 10 30 22 37 20 16 17 30 21 35 6 17 17 12 16 17 27 20 21 9 16 13 20 31 20 17 13 21 34 7 10 21 10 13 9 17 27 34 13 14 17 25 16 20 10 20 17 33 20 19 24 20 26 44 41 16 21 17 20 22 24 28 18 21 20 20 17 23 27 14 18 20 16 14 20 35 6 18 20 31 17 21 26 13 21 18 6 13 28 13 20 11 21 16 16 16 17 23 16 0 27 24 19 13 10 24 41 15 13 39 21 28 17 14 33 30 27 33 28 19 17 15 29 27 20 27 13 17 24 10 10 17 12 20 10 20 13 10 17 14 23 20 10 17 14 6 28 14 17 26 14 21 16 14 26 24 0 7 36 20 31 24 30 26 38 10 6 9 38 27 13 3 12 20 24 24 24 22 37 30 31 27 27 19 21 16 23 27 14 24 20 24 17 20 10 30 9 12 7 9 25 17 21 17 17 0 17 6 13 3 17 16 30 27 7 20 20 13 13 10 10 21 14 9 13 31 10 16 7 20 12 21 9 20 10 17 10 19 26 27 0 21 17 17 13 30 16 21 17 19 23 27 24 26 27 16 14 16 38 15 23 17 18 20 16 29 26 21 17 16 21 17 17 45 20 16 32 10 14 28 19 28 20 13 10 10 30 13 26 7 16 20 17 13 6 19 27 35 10 13 23 17 20 24 33 21 14 38 22 34 20 14 3 19 20 21 12 23 15 24 6 18 10 14 10 17 21 7 16 34 14 20 24 35 12 9 30 10 17 16 21 8 13 14 3 16 17 21 23 18 20 10 13 7 13 14 31 23 12 11 15 14 15 25 10 27 13 20 13 20 16 31 7 20 21 21 29 16 17 13 14 11 19 27 10 15 20 21 21 21 10 17 10 24 30 18 16 14 7 20 20 20 23 21 20 9 20 27 22 14 20 9 30 9 13 3 35 6 10 6 23 18 20 24 12 9 15 6 17 8 27 10 12 21 23 9 13 13 13 26 31 30 26 16 17 22 17 42 14 3 21 13 20 18 14 12 23 10 27 23 17 30 14 23 15 23 19 17 32 9 27 33 10 24 20 21 24 34 20 24 18 23 6 31 28 31 10 24 31 15 18 41 13 13 23 22 23 34 11 9 27 23 20 13 16 16 29 24 9 14 24 10 13 17 17 30 23 36 23 20 25 20 27 6 22 25 26 17 10 28 24 20 24 13 11 17 10 9 17 6 27 30 13 20 27 15 21 27 30 24 17 28 24 16 14 13 25 24 21 27 20 16 20 30 45 16 41 16 15 17 20 17 29 27 13 23 27 10 27 21 10 13 13 20 23 34 23 17 22 9 20 13 22 24 3 13 13 24 20 27 27 16 24 20 27 15 10 9 14 34 23 23 25 24 12 9 6 13 32 13 17 26 42 8 16 0 36 17 13 7 25 17 19 30 24 29 14 17 24 16 22 31 18 35 25 7 15 10 17 10 28 21 23 22 14 33 19 19 10 29 17 6 24 3 16 35 23 9 26 12 13 20 27 13 0 14 6 13 41 19 13 16 34 3 13 27 20 31 14 29 19 17 21 27 21 27 31 23 21 28 14 27 19 30 6 24 26 19 23 6 9 17 17 24 20 31 24 23 20 29 9 21 13 19 10 13 24 23 6 16 6 31 20 7 19 3 20 14 17 21 16 23 16 23 14 19 14 9 19 26 27 20 14 27 24 10 14 28 10 17 6 6 9 24 25 14 20 29 28 27 13 24 14 12 21 31 16 14 9 13 6 20 7 23 27 11 17 3 33 9 20 14 17 9 20 26 20 38 17 17 13 27 24 16 27 10 10 17 27 13 10 45 14 7 10 9 22 29 28 20 9 10 26 24 24 10 17 17 13 10 21 9 20 21 19 18 17 23 25 14 17 15 10 16 18 12 6 23 17 14 14 15 3 26 27 19 24 19 13 3 20 21 31 30 22 11 20 13 21 20 38 7 14 31 17 23 16 13 13 11 23 29 17 0 34 17 10 24 20 16 33 26 31 13 21 22 20 31 20 23 7 20 27 17 17 14 14 34 20 23 7 34 24 34 17 31 26 32 24 28 13 20 13 3 10 22 9 27 18 13 12 13 23 20 6 41 13 14 35 42 34 17 10 20 7 21 23 14 13 3 17 20 18 13 24 20 6 20 31 17 34 7 20 14 13 38 14 0 16 17 34 10 27 19 19 27 31 33 17 30 7 23 31 3 12 7 20 9 20 21 12 23 23 13 21 13 19 17 14 27 10 24 28 9 23 10 10 31 27 23 30 3 27 27 34 9 10 19 12 13 12 27 23 19 20 26 27 24 35 30 10 18 17 7 13 13 15 12 17 19 28 21 38 35 33 7 27 16 16 18 27 14 23 20 16 37 16 21 27 14 20 16 14 26 22 27 23 16 20 44 24 7 23 10 22 21 20 26 14 9 7 10 17 10 21 34 20 24 15 24 38 15 27 34 10 34 22 14 20 14 14 31 20 14 21 14 10 20 27 27 34 19 14 13 10 14 27 25 23 17 28 24 20 23 29 16 15 20 20 24 20 10 28 18 28 11 16 17 18 19 27 20 12 14 13 20 13 17 26 17 26 3 13 23 21 14 9 33 14 12 27 3 20 33 30 20 21 21 10 33 31 9 24 13 34 17 27 10 13 26 31 26 24 13 20 10 13 20 17 27 16 22 18 22 17 6 10 17 21 29 17 3 31 17 13 11 21 13 0 31 12 17 13 17 24 17 31 13 24 23 10 15 3 20 9 27 7 10 24 25 7 26 22 6 13 35 27 24 17 14 17 20 21 17 24 7 3 13 9 24 10 20 29 17 14 14 31 24 26 13 28 8 23 18 21 22 6 20 13 17 10 20 10 28 23 16 24 21 14 31 23 16 18 28 22 13 16 22 9 10 21 21 9 24 17 13 19 11 10 3 10 20 31 23 38 30 20 12 24 17 34 31 23 27 21 14 17 34 13 29 17 16 21 20 25 27 20 10 13 23 20 3 19 19 30 20 14 21 26 16 20 16 17 17 19 17 24 27 6 6 7 20 18 16 25 14 21 10 20 16 20 27 17 10 28 17 23 20 17 27 24 37 17 41 7 17 24 19 10 9 27 13 21 13 3 13 17 13 30 14 14 16 16 40 13 17 9 19 15 23 23 17 31 20 35 16 16 10 27 0 10 31 25 0 14 16 14 17 19 27 3 24 18 16 24 16 16 6 17 17 16 12 13 9 34 38 0 23 31 10 16 24 23 6 23 23 17 19 13 42 10 13 41 9 13 6 13 6 19 9 25 10 23 14 16 17 17 27 27 24 16 12 17 16 13 14 20 6 24 28 17 21 24 14 24 17 27 28 24 21 9 26 22 21 13 13 24 17 13 28 18 13 6 9 14 29 34 16 41 13 17 20 16 18 10 13 17 10 19 19 32 30 24 28 14 25 16 20 6 31 17 19 18 27 3 23 13 13 16 21 17 25 16 24 23 21 13 20 6 35 9 28 13 16 17 13 29 21 23 10 20 29 36 27 33 15 10 17 7 14 28 25 0 27 24 15 13 12 21 15 12 16 9 21 16 13 16 13 17 27 13 13 10 23 10 24 30 20 23 17 13 23 34 23 10 10 10 20 24 14 30 16 13 17 16 10 8 45 17 21 8 15 21 30 3 24 23 13 27 14 17 24 16 26 10 16 13 10 23 10 10 31 14 21 13 14 27 17 24 27 13 6 17 30 14 13 26 23 6 21 10 21 14 24 8 20 27 17 16 19 10 18 20 13 24 24 27 24 24 25 3 20 11 21 30 19 10 24 24 9 20 25 17 27 13 13 19 28 17 17 10 24 28 19 21 19 23 17 10 6 10 19 28 31 27 12 20 18 7 18 11 31 17 2 21 13 10 13 16 21 27 6 20 44 3 13 6 17 21 27 20 16 28 21 14 15 17 23 9 20 14 13 17 27 24 19 13 20 7 14 21 19 21 22 26 20 20 28 38 27 27 6 29 27 10 16 24 20 24 17 16 24 17 14 21 17</t>
+  </si>
+  <si>
+    <t>JSU(-7.386931720047507, 12.370485054575397, -5.481678392637598, 46.23007703612964)</t>
+  </si>
+  <si>
+    <t>27 26 28 19 33 20 19 26 20 18 23 18 22 24 24 20 23 29 26 20 17 31 35 26 27 22 22 28 28 21 26 26 26 25 19 35 21 17 27 24 23 24 22 20 21 32 25 30 29 22 24 19 25 16 20 22 19 20 22 26 21 32 29 30 28 23 25 20 25 26 31 29 27 29 24 30 24 17 22 26 26 23 29 27 25 25 17 29 29 22 20 24 17 24 26 21 27 19 24 30 23 29 18 28 30 22 23 26 31 30 24 26 17 17 30 32 39 29 23 25 23 17 22 20 26 24 31 27 22 33 24 25 20 22 19 20 25 30 21 24 19 19 22 23 28 25 20 28 28 28 30 21 27 28 24 17 25 19 22 24 27 23 23 34 20 32 27 20 22 20 22 25 23 34 23 24 23 22 20 23 26 26 31 31 18 30 25 26 31 20 28 22 26 33 27 22 24 23 25 24 34 19 18 20 25 23 29 23 23 30 28 29 19 27 26 23 22 23 23 29 20 25 20 28 30 22 23 22 20 25 31 32 28 21 18 30 18 22 14 24 21 29 17 23 29 30 24 24 32 22 24 21 29 19 30 29 26 34 31 26 20 19 18 25 22 26 25 27 26 39 19 17 19 24 16 18 21 24 29 28 30 24 27 17 23 23 29 25 25 25 23 25 26 34 15 27 23 16 27 29 24 20 24 17 17 23 18 23 32 19 30 26 22 21 24 16 28 22 26 27 32 22 29 26 24 20 19 24 22 25 26 25 19 19 24 27 34 29 32 17 23 26 25 24 27 25 26 25 23 25 25 20 23 24 33 28 26 22 26 21 28 26 18 25 20 25 31 22 21 18 23 21 33 30 28 24 18 18 23 24 28 23 27 30 25 21 26 25 21 22 20 30 26 25 32 25 27 23 22 18 25 25 21 24 22 26 18 21 25 20 27 23 28 33 28 27 23 21 15 27 18 22 27 22 21 30 31 29 23 18 21 21 28 25 28 27 26 25 30 27 24 22 33 26 23 23 23 24 18 28 22 23 20 26 31 19 30 22 20 25 20 28 23 23 22 24 30 28 28 22 21 33 25 24 30 18 22 33 25 22 19 21 20 22 18 25 20 27 19 27 24 20 20 21 30 20 20 21 28 22 24 21 23 20 18 23 18 20 22 25 34 23 27 25 22 24 26 24 30 22 27 26 24 24 18 30 20 25 25 24 14 26 30 25 24 24 24 22 24 20 21 25 18 32 24 20 25 21 21 28 20 32 21 19 27 30 25 20 25 25 29 29 19 27 27 28 26 20 19 21 24 24 22 21 23 21 20 26 21 20 24 26 30 23 30 24 26 21 27 32 23 26 15 22 20 19 26 24 19 19 35 26 20 32 26 25 17 33 16 26 23 30 26 28 22 26 30 15 21 29 19 24 23 20 21 28 16 19 24 22 29 21 22 24 26 26 24 23 21 24 22 23 27 29 21 25 32 25 21 16 23 33 21 25 21 16 29 20 22 26 26 29 20 19 24 17 22 24 34 23 20 23 24 30 26 25 27 19 30 22 27 26 17 25 21 18 11 15 19 11 18 27 29 24 23 28 20 30 28 28 32 15 19 23 21 24 30 20 32 23 21 28 28 31 21 27 37 26 23 22 23 28 24 26 25 18 29 22 24 29 22 17 19 19 18 21 32 31 30 26 16 28 22 26 27 23 31 20 24 33 26 20 20 27 23 19 22 25 19 26 22 26 32 25 28 16 30 30 25 29 22 25 26 26 23 21 21 26 25 26 23 22 27 23 24 21 26 15 28 28 26 19 30 23 25 22 29 19 28 34 19 20 27 19 29 19 32 20 15 29 16 24 21 21 22 35 20 20 36 25 20 30 21 23 31 23 18 25 22 27 24 14 21 21 24 17 22 24 24 16 25 17 38 25 29 19 15 17 24 24 21 24 18 28 22 18 23 10 28 20 21 22 22 23 19 22 20 18 24 24 36 29 25 20 21 25 22 30 16 28 34 25 32 20 20 26 19 20 22 33 28 21 28 20 22 28 23 22 27 15 20 21 24 23 22 26 30 21 27 21 24 24 42 27 27 29 23 18 24 28 20 32 15 20 24 24 28 21 28 20 22 25 24 24 26 28 25 26 26 20 23 24 33 21 26 24 19 18 20 18 20 29 21 17 29 26 29 19 31 28 33 27 26 22 28 22 24 22 27 17 18 29 20 30 25 19 18 28 29 31 28 26 21 24 32 12 20 24 21 24 25 35 30 26 23 25 20 28 26 25 23 21 23 24 24 34 12 26 25 33 30 26 30 31 16 26 13 23 21 22 21 17 31 23 18 31 16 29 23 25 19 27 23 23 15 21 24 24 15 25 23 23 25 26 19 20 23 28 17 24 22 21 23 23 22 21 22 22 23 23 24 19 24 23 29 28 21 25 26 29 21 27 19 15 25 20 17 24 30 20 24 21 26 20 22 21 26 18 28 22 19 25 23 21 24 18 26 34 21 21 16 20 22 20 21 17 26 23 28 17 25 26 23 24 29 22 31 22 21 17 27 17 24 33 19 21 20 23 27 28 20 25 27 23 18 19 22 28 20 22 25 17 21 19 23 27 23 20 28 25 26 24 29 26 26 28 23 20 26 25 22 29 29 26 29 30 25 22 23 21 26 25 33 20 18 24 25 21 28 18 31 24 18 21 27 17 34 25 19 28 21 23 25 26 14 23 22 18 24 19 16 20 17 26 26 24 26 26 23 27 28 21 17 21 21 24 29 34 21 22 29 28 20 27 33 22 28 26 24 22 24 22 25 24 20 31 19 38 26 26 25 17 22 35 25 19 18 16 20 28 25 20 22 22 24 23 28 24 21 20 18 28 27 24 18 26 22 22 19 19 21 20 27 26 25 26 22 19 22 21 24 19 21 23 19 21 20 18 20 25 30 25 19 23 22 30 27 28 31 28 27 30 21 20 23 24 28 12 17 33 24 22 22 21 23 24 21 22 21 30 22 36 30 26 25 24 27 35 20 27 27 16 24 25 27 26 24 28 30 14 25 24 19 19 23 22 30 30 18 22 22 20 25 25 28 24 23 18 30 27 24 17 18 25 26 30 24 23 28 28 21 21 25 22 21 17 25 20 23 18 22 25 29 17 23 24 23 33 23 24 24 19 27 21 32 20 16 30 23 20 20 24 25 28 22 23 25 21 18 20 22 31 23 24 25 20 22 24 25 24 32 28 23 29 34 27 22 22 31 30 23 24 20 22 14 23 26 24 27 26 24 19 29 21 24 27 21 29 19 24 21 25 19 22 24 27 33 27 22 29 20 25 22 28 25 20 24 22 21 22 26 26 17 28 30 34 21 23 26 33 23 23 23 16 34 23 21 17 27 15 31 31 31 23 27 33 19 27 28 24 14 17 22 22 26 21 23 24 24 26 29 23 25 28 23 23 22 25 26 24 21 23 24 23 28 16 23 23 27 26 25 17 20 20 27 20 21 24 20 29 24 25 21 25 23 26 29 19 19 21 22 17 29 29 29 33 27 26 20 21 24 31 18 23 22 23 26 22 23 31 20 17 24 23 22 22 18 30 28 23 16 19 24 27 18 30 18 18 24 27 24 24 22 26 23 18 21 26 38 23 25 22 24 24 19 27 19 25 32 11 22 23 19 27 19 24 18 27 21 31 25 23 16 26 20 22 29 19 19 21 27 21 29 28 25 22 22 19 26 29 17 19 30 26 10 31 17 26 27 22 23 18 27 22 28 17 23 29 26 26 17 19 22 20 26 23 25 17 23 24 21 23 31 30 27 20 15 26 25 29 27 24 19 22 21 26 15 27 25 14 30 20 18 26 24 22 24 32 24 23 20 26 17 23 23 24 21 25 24 31 23 22 21 21 24 17 21 20 23 24 30 24 25 22 23 21 19 21 26 22 19 21 12 31 22 27 28 21 25 26 19 24 24 15 21 25 28 25 24 26 20 22 17 26 27 23 27 22 25 32 18 28 20 32 26 26 23 19 17 25 21 27 23 16 16 16 29 25 20 21 19 23 22 17 24 22 23 22 26 15 25 30 31 24 23 18 24 27 27 24 20 30 29 30 27 20 23 32 17 23 31 23 17 24 24 20 26 19 19 22 23 24 24 34 27 26 21 29 18 34 11 20 22 16 17 44 27 27 25 31 23 23 19 20 22 25 33 29 27 18 28 24 28 21 23 28 19 14 21 19 22 19 28 21 23 20 25 24 28 23 18 28 33 26 21 24 17 25 23 29 21 21 20 15 26 22 20 25 21 27 33 28 21 22 26 31 25 20 19 21 19 21 22 26 28 26 25 28 20 27 13 15 26 30 22 29 25 19 24 23 23 36 22 27 28 23 21 19 30 28 27 29 17 23 25 20 21 29 30 28 29 20 26 15 24 27 19 27 23 29 24 30 21 21 24 20 20 16 28 28 22 14 26 27 17 20 25 31 23 19 28 21 26 18 21 28 22 25 18 26 28 18 18 24 20 23 19 25 25 17 24 16 23 17 18 25 33 25 27 21 24 21 22 32 31 25 27 17 25 22 20 27 27 33 22 19 18 32 19 16 19 30 28 24 27 29 23 18 19 25 20 24 26 20 25 29 26 24 27 31 21 19 19 28 25 11 24 21 26 22 27 24 29 24 25 26 20 23 28 26 28 17 18 24 17 26 27 22 19 32 22 26 20 17 20 20 27 18 26 25 24 23 20 23 26 31 24 23 25 19 25 28 21 31 29 23 29 21 23 29 25 19 25 26 24 28 23 9 29 25 20 22 30 16 22 21 24 22 23 24 22 21 20 15 29 30 21 25 20 24 36 26 28 23 20 18 30 24 32 20 27 27 23 27 18 29 22 28 15 24 26 24 29 20 28 17 26 22 22 24 28 24 26 26 23 24 18 25 25 24 20 21 22 20 15 21 18 13 20 24 36 30 23 31 19 29 26 16 21 26 19 22 22 21 32 26 27 17 16 22 27 23 29 18 23 24 16 18 23 21 32 19 27 25 20 25 22 21 29 28 20 19 24 30 19 30 20 15 14 23 19 26 18 22 23 19 24 28 32 21 17 21 22 13 22 19 32 30 26 30 25 29 23 28 27 14 21 30 25 24 24 21 30 24 22 21 26 19 19 23 19 28 23 25 18 24 22 19 31 24 25 30 15 18 21 25 22 27 23 29 18 29 21 18 28 16 28 23 22 20 22 24 26 22 24 30 26 21 19 23 23 22 26 33 22 18 24 20 26 33 24 23 26 19 31 28 27 34 21 25 32 17 30 22 24 20 22 27 18 26 19 23 18 26 33 25 22 27 27 19 20 21 26 22 28 33 32 28 28 29 28 27 27 23 22 25 27 30 19 22 24 24 19 22 22 30 24 27 27 29 25 25 23 26 23 19 25 28 27 26 23 23 21 19 24 24 25 20 14 23 25 19 24 21 27 28 31 22 23 21 30 22 21 27 24 25 19 29 28 31 27 24 19 21 26 19 21 20 14 30 24 22 22 24 16 27 25 29 27 29 14 20 25 19 24 19 22 21 32 24 28 23 19 21 19 24 24 17 25 24 24 19 19 28 19 22 23 19 27 16 31 24 27 22 26 14 23 27 20 21 26 19 18 20 17 15 25 26 21 26 21 29 35 28 32 27 26 24 22 21 28 21 35 17 27 24 19 17 25 27 23 21 41 23 27 21 20 26 24 25 30 24 22 19 22 24 28 19 25 20 17 32 18 32 17 18 21 25 18 23 38 23 23 20 28 18 19 20 24 21 18 28 24 26 23 21 23 27 24 28 20 28 27 19 33 21 20 24 23 35 20 30 26 21 23 19 31 22 22 26 22 27 14 24 23 15 26 24 26 22 33 19 28 25 21 21 23 14 24 29 23 26 27 27 30 20 28 25 20 28 24 32 24 32 27 23 26 20 31 27 33 19 27 32 22 24 22 26 33 29 27 14 30 23 20 31 23 25 20 26 27 22 19 24 25 24 17 21 20 24 25 26 25 30 20 29 27 21 30 34 18 24 18 22 24 22 24 23 23 23 22 25 26 26 26 25 17 23 25 22 20 23 26 27 25 20 21 23 28 28 19 24 31 19 16 19 27 22 22 20 20 24 25 18 26 24 31 19 17 23 19 19 18 18 17 22 18 23 19 28 28 28 24 24 25 20 25 23 21 26 25 30 21 22 24 24 22 27 19 21 29 13 33 32 26 28 30 33 27 23 22 26 32 30 24 19 22 21 24 36 26 23 25 24 31 25 18 22 23 20 18 25 27 23 22 24 30 20 31 22 28 24 15 27 26 27 28 13 26 31 20 28 22 24 24 24 26 29 23 27 22 20 27 20 25 15 18 30 25 19 25 23 22 29 25 19 29 23 26 30 19 22 28 28 26 24 29 23 30 26 15 24 27 28 22 21 22 32 17 26 24 31 23 26 20 15 21 16 18 22 15 29 33 29 32 31 30 29 26 27 24 30 28 20 19 22 21 16 28 27 14 23 17 28 27 32 25 21 32 16 26 22 21 27 30 26 24 25 17 31 18 30 30 24 25 25 25 20 24 23 33 19 23 22 23 23 26 27 17 30 20 20 23 20 25 23 34 27 31 31 22 23 23 25 21 28 30 22 21 23 21 21 28 20 21 32 25 26 19 20 29 26 26 16 25 21 25 21 18 24 28 24 25 19 21 23 17 20 32 26 32 20 21 23 29 22 24 27 22 21 27 24 31 20 20 23 28 23 24 24 23 18 31 22 29 25 31 22 19 25 22 21 33 23 18 20 22 26 17 22 27 26 34 21 17 23 19 23 20 29 19 24 22 35 22 23 20 26 21 25 18 28 19 19 24 25 24 27 30 28 24 17 19 27 22 20 21 31 29 25 17 20 18 13 18 30 25 17 21 20 28 20 26 24 25 27 16 20 25 29 27 26 24 27 18 24 25 24 26 29 25 25 30 20 19 27 25 18 21 26 22 26 18 31 29 30 25 27 25 28 24 20 26 35 20 24 25 19 29 32 22 19 18 18 19 20 26 25 26 16 29 22 18 24 26 27 26 25 29 30 20 31 30 23 20 19 23 30 28 24 21 20 27 24 31 21 28 22 25 33 20 31 20 16 24 16 30 23 31 23 23 25 24 23 15 19 25 31 27 17 25 25 25 23 22 28 26 21 27 21 22 16 22 24 28 23 21 27 25 17 25 25 23 28 25 28 31 23 19 24 28 24 25 21 34 21 31 23 27 28 22 17 24 29 24 23 34 28 19 22 21 23 32 27 22 25 19 25 29 26 18 18 21 29 23 23 31 24 28 30 21 20 21 24 21 29 25 28 27 18 22 24 30 24 27 28 28 23 22 20 16 28 27 18 26 25 23 25 24 30 19 28 29 24 22 25 20 19 19 17 24 30 20 21 27 23 28 23 22 27 9 29 25 24 23 25 26 24 28 24 19 31 21 19 16 25 24 20 27 28 25 23 19 23 26 16 21 34 19 24 22 28 28 34 10 19 21 26 25 21 28 30 29 27 18 32 23 23 20 20 23 23 25 29 20 22 20 20 25 23 25 23 26 26 25 26 35 28 22 23 29 27 26 28 24 24 16 32 28 28 24 26 24 21 24 19 21 30 27 27 23 24 32 26 28 24 23 28 17 22 18 22 16 33 22 20 29 18 19 15 18 31 27 25 21 25 22 28 21 18 30 24 20 32 25 18 22 18 30 26 18 20 24 19 28 21 22 20 20 22 31 27 22 31 29 25 33 21 21 20 24 24 25 34 21 25 21 30 29 18 26 25 26 19 16 26 15 18 24 12 20 16 20 19 27 27 25 30 26 25 25 16 31 28 29 17 12 23 16 24 31 20 27 23 25 33 26 20 30 22 34 25 23 28 23 26 30 25 25 20 20 29 22 24 27 19 19 22 19 28 27 19 18 18 23 27 28 25 26 25 21 21 18 28 29 24 23 19 23 19 15 29 28 22 17 19 23 25 25 26 28 24 18 20 25 21 30 21 32 22 26 29 32 27 20 14 31 27 16 22 17 24 21 30 20 31 33 27 26 19 26 23 26 22 23 15 26 23 28 31 18 28 20 19 39 23 22 25 28 26 32 16 22 30 28 28 19 27 36 25 18 27 24 19 27 24 22 28 25 22 27 24 21 21 26 30 25 23 21 25 26 23 18 24 25 23 25 28 28 26 23 26 26 22 22 24 18 28 23 28 24 25 24 28 21 22 19 13 15 24 25 22 26 23 29 16 21 21 32 24 23 21 18 31 20 20 26 24 28 23 22 20 30 18 25 30 23 26 34 23 27 20 22 22 20 30 30 22 19 14 31 24 20 21 19 29 20 27 24 28 17 21 28 15 26 30 19 32 21 23 17 18 25 20 23 23 23 24 21 22 22 26 22 17 28 22 19 21 25 23 22 17 28 31 14 24 21 19 23 12 22 22 25 25 22 24 23 23 31 22 19 25 26 20 25 24 32 24 27 27 27 21 24 31 19 29 30 19 20 28 27 17 19 28 18 32 13 27 22 27 22 25 21 29 27 28 29 25 21 19 17 34 25 30 21 27 35 26 19 23 33 27 28 33 23 21 33 32 24 22 31 24 22 20 22 26 23 20 24 33 24 16 24 26 27 23 22 23 19 27 19 30 23 25 26 24 25 21 29 26 27 27 17 25 22 31 18 25 23 24 17 23 19 19 28 23 39 24 20 24 22 21 23 26 28 30 28 27 24 20 24 30 18 14 26 18 27 23 30 25 21 25 23 23 22 12 22 23 30 28 24 27 20 32 28 28 21 28 24 23 25 22 28 24 18 26 18 25 27 22 20 24 24 20 24 27 21 18 27 29 28 24 15 25 28 22 24 25 29 15 28 24 22 27 26 28 24 24 23 30 29 19 22 32 22 29 35 24 18 19 21 21 18 22 22 21 21 22 22 24 16 25 25 26 20 21 23 29 25 21 29 19 18 20 24 31 24 18 21 5 19 23 24 26 22 19 27 28 18 17 21 16 21 19 17 22 17 34 28 29 20 28 30 22 24 26 18 21 15 25 21 28 36 21 27 28 21 28 22 28 31 20 19 28 25 21 18 22 25 19 21 31 32 33 23 26 27 26 26 26 29 23 19 22 29 18 23 23 24 27 26 19 21 24 20 32 24 22 26 24 25 25 24 21 17 25 23 23 18 24 20 24 18 19 28 22 28 20 19 18 25 22 18 25 22 23 33 22 23 22 22 29 26 25 27 24 23 24 22 23 15 22 24 30 20 22 26 27 22 20 26 24 30 26 23 21 25 25 15 16 29 22 17 23 19 32 24 27 30 25 26 28 25 25 28 19 14 23 22 25 25 29 25 24 27 23 24 29 22 24 22 28 23 22 27 23 15 26 18 20 26 26 23 20 20 25 26 27 25 36 18 22 32 28 22 27 23 24 17 15 17 28 28 28 20 18 16 22 24 30 32 27 31 24 15 18 23 28 17 30 23 31 19 23 15 26 24 24 21 27 21 22 28 14 23 33 24 26 18 33 30 23 23 22 23 30 22 24 20 32 31 29 22 21 20 29 24 23 20 22 21 21 23 24 23 25 22 28 26 27 24 23 24 28 24 19 21 19 23 24 20 25 23 26 18 24 21 26 31 28 27 15 26 21 28 27 14 22 19 26 24 21 25 23 25 21 28 27 27 21 23 17 21 27 19 23 17 25 23 17 20 24 25 17 23 27 28 28 21 27 22 33 19 22 23 21 24 25 30 27 24 25 30 21 20 23 28 30 24 29 20 27 21 25 23 22 21 22 28 30 22 31 28 31 28 28 21 23 20 14 21 32 22 16 23 26 32 32 23 35 29 23 22 25 22 26 34 20 20 27 19 22 22 27 25 22 28 19 27 24 23 18 24 28 18 24 21 20 29 26 28 21 23 22 27 26 29 17 23 21 25 25 22 16 25 18 22 33 28 27 24 24 25 30 19 29 18 22 12 29 28 26 28 29 25 29 24 25 23 26 25 25 28 25 26 26 20 34 20 32 25 25 25 22 24 28 25 33 31 19 17 22 23 26 26 20 26 17 28 27 28 30 23 23 26 19 20 16 28 18 23 23 25 16 17 24 15 20 22 27 21 23 26 25 28 22 31 27 28 24 28 25 24 27 19 29 25 21 22 30 23 22 26 18 24 24 15 14 24 21 19 23 18 27 17 21 22 19 23 18 25 21 26 35 21 24 23 21 31 20 23 19 24 32 22 29 32 20 22 25 30 30 22 24 19 19 27 21 21 24 18 22 22 26 20 29 21 31 27 21 20 26 26 30 27 25 28 31 30 21 20 18 19 21 17 23 26 21 32 21 17 19 27 20 31 22 24 30 32 33 30 26 22 24 24 28 22 25 22 25 28 19 23 25 17 26 21 22 24 24 24 19 23 28 31 21 24 25 24 26 26 29 21 22 24 17 26 26 23 27 25 25 22 21 27 20 27 25 26 15 27 22 22 18 26 14 22 29 32 23 28 19 18 25 21 26 25 26 19 21 27 23 23 33 22 27 30 22 23 25 26 19 26 25 29 28 30 18 29 26 28 25 20 26 17 26 22 29 20 27 25 25 22 21 30 20 29 25 28 22 13 25 22 20 18 27 27 29 28 16 27 24 17 25 22 13 20 19 23 22 21 24 20 27 21 27 20 36 22 31 23 19 21 22 19 33 22 22 26 24 24 21 28 30 26 28 34 22 23 26 23 29 21 21 25 32 23 28 27 21 19 20 19 18 24 37 22 24 26 25 16 26 24 21 20 21 22 30 24 14 25 23 24 27 21 22 22 23 22 24 21 16 25 24 23 20 18 22 20 24 29 26 22 29 26 27 26 22 20 25 24 19 27 23 34 23 33 33 24 27 22 29 28 31 27 21 30 26 19 26 30 21 12 24 24 32 20 18 26 33 24 13 21 30 17 21 19 27 25 29 20 27 34 32 19 29 21 28 20 27 27 20 19 29 35 31 23 22 14 24 29 27 27 27 33 26 24 29 28 28 22 23 23 25 32 22 29 25 28 21 32 24 28 15 22 13 24 24 32 30 17 34 26 14 21 27 25 17 21 31 23 25 32 19 29 33 24 14 27 21 24 29 22 16 21 23 27 23 23 24 24 26 22 27 21 22 27 28 22 27 25 24 28 21 26 23 30 23 19 25 24 21 24 19 24 19 24 23 28 25 23 17 21 34 30 31 25 20 21 22 26 30 29 27 29 24 24 28 21 28 18 25 22 25 20 25 20 27 21 18 25 25 17 26 25 28 25 27 19 28 18 30 23 21 25 18 20 30 27 22 25 32 28 22 24 28 25 27 32 21 22 32 26 34 16 19 32 24 19 22 22 22 28 23 21 27 25 28 24 26 24 17 25 23 23 27 24 21 12 19 24 26 16 28 27 20 29 28 21 31 24 25 25 24 24 19 19 23 25 31 28 25 29 24 24 22 23 15 29 24 26 28 36 25 24 26 26 31 25 26 23 22 22 30 22 25 20 33 22 17 23 16 32 21 19 22 23 26 30 23 24 17 17 20 19 23 23 23 18 28 27 18 29 16 30 21 31 25 17 24 18 24 24 26 29 27 28 26 24 26 28 23 23 19 24 23 15 16 22 24 24 20 18 25 25 21 27 29 26 20 22 24 22 27 22 24 23 19 18 21 25 23 22 30 29 29 24 27 34 21 29 20 21 19 13 14 25 29 24 9 22 25 19 20 24 25 23 23 31 32 18 25 26 24 31 24 22 31 22 26 31 21 25 18 24 25 24 29 16 22 29 29 24 19 28 20 23 19 19 13 21 25 24 21 20 18 25 24 33 27 18 22 25 25 18 20 23 24 19 26 22 29 22 26 27 22 27 23 21 20 22 22 33 24 22 27 17 28 22 30 24 20 23 25 21 24 28 23 26 26 21 21 19 19 25 28 29 30 30 26 29 28 20 25 33 24 24 19 26 27 22 26 22 21 33 20 29 29 21 27 15 22 24 21 29 22 26 11 20 26 25 15 26 26 18 25 21 25 27 24 26 21 26 25 22 21 25 21 35 24 22 28 27 15 29 25 28 27 27 30 28 30 27 30 22 22 19 23 32 14 26 16 32 25 19 25 21 22 17 18 23 26 28 15 18 28 27 24 20 13 24 26 36 18 23 23 25 24 17 25 24 16 15 24 31 20 20 28 25 29 30 26 27 24 23 29 20 32 28 25 15 22 24 21 28 22 20 23 26 22 26 17 22 28 21 28 31 24 21 15 25 26 23 31 27 22 26 21 34 19 21 26 26 21 12 23 23 25 31 30 32 26 30 25 27 21 20 22 29 16 28 24 29 18 27 31 19 19 28 17 20 23 30 21 16 28 24 28 15 31 19 22 20 25 24 27 25 16 19 26 26 25 24 27 24 21 30 35 29 21 24 21 26 22 23 23 35 29 19 31 22 23 18 18 24 25 19 23 19 17 26 22 22 19 19 26 33 22 22 24 27 30 27 27 22 24 21 23 19 28 23 31 22 24 30 23 26 24 23 25 27 22 16 27 19 15 21 22 22 24 25 22 24 25 29 27 25 25 27 18 20 15 26 21 27 25 34 21 30 29 23 18 24 17 27 19 15 17 23 27 24 20 26 27 28 32 28 20 19 20 22 23 23 20 20 22 27 27 22 31 28 22 23 24 25 19 19 19 26 25 19 28 31 17 26 33 18 21 17 29 23 26 25 17 26 25 26 23 21 28 21 26 21 26 27 27 24 21 30 22 22 21 26 20 21 21 17 17 24 26 20 23 31 31 22 26 27 23 23 25 28 29 20 31 23 23 28 33 20 27 27 21 20 14 19 27 22 35 17 22 24 28 18 22 18 27 21 29 19 20 21 25 23 24 22 28 25 21 26 25 28 19 32 14 33 20 27 25 17 23 22 22 30 19 20 23 22 24 19 25 27 19 18 19 29 18 24 21 19 22 19 26 22 23 16 20 20 18 21 31 28 21 18 26 23 26 25 25 37 23 19 20 28 23 23 18 25 26 34 24 27 22 31 26 25 22 23 25 22 21 22 16 23 23 20 20 20 22 21 22 17 24 20 29 23 25 17 26 22 26 24 21 28 20 26 23 21 21 23 21 23 23 22 30 22 22 25 26 22 24 30 20 28 28 24 16 24 20 17 28 15 18 18 18 17 23 28 23 33 19 15 25 36 25 23 20 21 30 26 21 18 20 24 20 26 29 29 29 28 19 25 24 31 28 14 23 29 26 27 29 24 20 27 20 22 21 17 28 20 17 15 26 27 24 25 24 20 32 26 20 28 20 25 28 24 21 23 25 24 29 17 19 26 23 31 21 25 19 21 23 29 27 24 17 16 21 31 26 29 31 22 20 30 29 33 24 19 30 25 19 24 20 23 18 30 21 27 25 32 15 25 23 31 20 26 26 27 29 29 23 33 30 16 21 23 26 24 20 25 21 22 29 27 30 24 25 22 28 29 24 29 21 27 23 22 20 29 31 27 33 15 26 24 22 30 20 24 15 18 19 25 18 19 27 30 20 24 21 25 29 25 25 20 24 22 26 25 23 23 28 31 19 22 19 23 29 26 25 22 18 29 16 31 20 27 24 28 23 28 15 23 29 19 29 19 21 26 19 19 21 19 19 25 19 28 28 28 28 24 27 21 24 18 25 21 26 29 22 24 23 33 32 27 26 28 20 26 21 31 38 20 24 21 20 27 20 23 31 18 22 21 24 34 30 16 30 28 20 19 17 24 29 13 30 24 26 28 25 27 30 27 28 20 31 25 22 26 25 23 17 24 25 15 18 24 28 29 23 25 25 31 26 22 19 32 18 20 20 28 25 21 26 24 25 29 24 20 26 24 32 22 18 23 23 20 27 21 27 23 22 34 25 26 28 23 25 28 14 28 28 21 23 19 23 29 25 32 23 25 23 30 28 24 33 33 27 25 30 26 34 30 22 24 31 29 24 12 18 25 27 24 22 22 19 20 24 25 22 29 25 19 24 29 26 23 26 31 19 21 20 22 17 20 18 21 27 23 21 30 22 19 23 26 26 21 20 22 18 19 26 25 21 21 29 26 24 19 25 21 23 30 26 30 28 26 27 20 33 24 22 15 27 22 26 20 28 14 30 26 26 17 19 27 20 24 23 19 27 24 32 15 30 21 21 20 20 26 27 32 21 23 21 21 20 26 22 21 23 14 21 30 32 20 21 20 25 25 24 10 32 21 28 32 19 25 30 24 24 32 18 30 31 24 30 22 30 29 27 21 17 24 25 27 26 24 21 21 22 28 26 22 23 18 31 22 24 16 27 20 28 22 20 20 28 20 25 21 26 34 25 24 25 22 23 27 32 28 16 30 24 25 30 23 18 19 21 29 31 20 22 21 21 25 17 23 23 37 31 16 26 18 28 29 14 28 31 26 16 26 24 18 29 26 25 22 24 18 23 26 25 20 25 19 31 30 25 19 27 24 20 26 19 21 23 18 24 32 19 28 18 23 31 26 24 29 28 24 23 15 28 27 23 24 22 28 23 11 26 21 21 18 26 18 22 27 22 19 26 20 30 26 29 22 23 26 26 20 23 14 33 24 20 26 22 28 33 20 28 25 18 32 14 19 23 21 18 15 29 28 23 21 29 17 16 22 28 27 26 28 30 27 28 21 20 24 20 21 26 24 31 21 24 25 24 22 21 27 22 34 23 21 28 20 25 25 28 16 21 26 14 18 26 18 24 25 24 24 27 18 23 24 23 22 14 28 30 24 24 23 21 16 13 18 22 29 28 21 26 22 27 26 33 23 28 32 16 28 32 36 24 33 22 20 28 20 22 28 17 21 20 39 25 25 23 27 23 24 23 33 26 26 22 33 17 17 24 27 30 25 19 26 32 23 26 22 32 19 19 19 39 25 23 24 31 30 23 21 34 26 26 25 25 18 21 26 23 23 24 24 31 19 38 22 16 18 25 23 28 25 27 23 34 17 22 23 26 24 28 24 20 23 23 20 28 25 26 17 27 30 30 21 34 27 24 19 29 29 20 24 23 20 27 15 27 29 29 15 18 18 14 22 20 24 17 23 17 28 23 19 20 27 31 20 20 19 23 25 21 32 28 22 22 32 28 27 12 24 22 19 22 19 27 22 32 37 20 18 22 21 23 21 30 23 16 18 28 21 23 22 25 20 21 26 33 22 30 23 25 27 28 29 34 27 24 25 22 23 21 28 20 21 23 21 15 21 20 25 26 24 21 28 23 24 25 26 17 22 25 19 22 19 25 24 20 24 20 20 29 22 27 23 29 30 20 25 26 17 18 20 29 27 20 24 30 24 23 23 23 19 24 27 28 15 22 36 18 28 20 35 31 19 24 22 21 21 18 31 22 30 23 23 34 31 20 25 23 17 29 27 26 20 28 20 22 32 21 25 18 16 27 23 19 30 19 19 18 28 26 23 25 23 28 23 27 22 27 26 26 26 27 31 27 21 22 19 19 19 29 15 21 16 25 20 19 11 24 30 22 23 23 19 18 22 29 24 31 25 18 30 23 33 21 23 22 21 21 24 17 17 31 31 22 20 35 21 24 22 19 25 26 27 19 16 22 14 21 25 25 20 21 32 29 19 27 24 23 31 32 24 24 16 27 20 17 29 22 20 21 25 28 22 18 9 27 20 20 22 27 27 21 25 28 22 21 19 29 25 29 26 29 30 32 24 21 31 21 16 22 32 24 17 21 27 19 23 13 32 24 15 27 27 19 24 22 17 20 14 24 23 26 23 23 23 18 24 24 23 29 24 34 26 29 23 17 23 22 29 23 24 24 27 22 20 27 19 30 26 28 24 21 21 27 28 27 23 28 33 19 31 21 18 23 31 26 26 25 24 21 29 30 25 26 21 23 20 29 18 20 29 22 22 27 16 21 26 20 28 29 17 36 21 29 27 19 28 19 33 22 22 31 24 22 20 30 27 27 18 32 27 35 22 22 23 20 28 21 22 16 30 26 24 18 25 26 26 22 24 23 19 25 25 19 20 20 17 20 19 23 28 20 18 31 20 28 27 26 22 21 22 24 22 26 24 25 19 25 23 23 21 23 22 24 18 22 20 22 23 21 21 24 22 23 20 28 27 25 22 24 18 25 23 25 32 23 29 17 27 29 22 30 22 21 26 29 24 37 32 36 20 30 28 25 31 28 22 22 27 28 15 23 19 29 24 23 22 31 21 26 24 33 20 26 21 23 26 25 22 22 18 17 21 24 24 19 21 22 26 21 29 24 23 26 18 32 27 25 28 32 29 27 24 28 16 19 27 25 19 26 24 26 34 37 26 27 25 21 24 22 20 22 25 27 30 18 25 19 29 25 24 21 19 23 21 20 20 17 21 24 18 25 28 32 27 24 23 26 22 12 31 21 28 27 18 32 28 26 27 27 22 31 18 25 31 27 30 15 28 33 24 19 21 22 24 22 15 33 17 21 27 21 32 23 25 31 27 17 15 34 33 25 25 22 25 31 21 18 20 22 28 25 23 29 33 24 29 23 24 27 34 23 18 25 21 26 23 27 20 31 19 27 30 22 17 15 34 16 21 28 16 27 32 23 27 23 24 28 14 27 30 26 17 21 26 14 28 24 23 26 23 18 28 19 21 22 17 27 22 21 30 16 30 21 20 19 21 27 21 15 34 20 22 23 24 27 33 28 21 20 26 19 22 31 21 28 26 27 25 31 25 19 22 20 19 16 22 23 24 20 25 27 24 20 30 33 26 24 29 23 17 14 35 18 22 18 19 23 27 18 22 20 20 25 24 26 23 22 22 26 25 26 26 21 25 16 21 29 24 25 24 21 21 20 24 18 17 21 24 26 30 25 31 30 27 22 16 23 27 15 25 21 23 19 23 24 23 21 31 24 30 26 22 27 19 22 22 22 31 28 20 25 24 23 24 15 20 26 15 37 26 28 28 33 29 21 22 26 23 18 17 17 27 22 22 26 32 30 25 26 19 23 31 30 27 22 18 25 26 29 24 25 21 25 31 34 22 25 22 22 21 24 28 21 28 22 20 17 30 18 17 23 22 20 22 20 26 22 19 23 19 26 25 17 29 22 15 21 31 17 27 28 28 26 23 29 22 27 24 23 28 24 20 23 22 22 15 18 26 25 31 28 17 19 31 27 16 21 32 25 20 30 17 19 27 18 20 33 23 21 14 22 27 21 29 28 26 16 27 24 20 25 21 32 27 28 31 23 27 21 26 21 30 24 16 27 20 26 29 19 23 28 19 21 24 27 23 31 17 23 22 24 26 22 33 22 23 29 22 25 19 22 17 27 23 23 28 19 28 23 26 27 31 25 23 30 34 27 25 29 24 26 25 29 16 32 24 24 25 25 26 23 22 23 26 22 21 19 17 26 24 25 25 22 30 30 27 23 27 26 21 18 23 19 25 23 21 32 19 23 32 27 25 23 27 30 21 24 30 23 21 29 28 24 25 21 28 24 28 23 26 29 26 22 24 23 29 22 14 21 25 27 32 25 22 15 30 24 26 24 23 23 21 27 25 19 31 25 19 24 24 26 24 32 24 23 28 23 31 33 19 24 28 25 30 25 27 24 25 18 22 28 29 28 20 28 20 24 17 28 25 23 20 21 28 21 25 23 18 25 30 20 33 29 25 22 18 23 27 28 25 27 19 26 21 27 30 27 18 29 30 27 26 17 22 24 26 25 21 21 19 23 23 25 18 20 27 30 21 19 16 23 21 23 24 28 22 22 22 24 19 24 22 19 22 26 29 27 31 27 20 24 25 22 24 30 25 21 27 21 24 23 23 22 32 27 25 21 26 24 25 24 21 27 23 29 30 22 29 32 24 29 23 32 23 11 20 20 33 27 20 27 21 27 22 22 33 16 18 22 32 27 27 23 21 28 23 31 23 24 32 29 26 14 26 32 29 25 14 28 28 27 27 20 25 29 22 17 24 22 25 19 19 24 18 22 23 26 28 31 18 29 27 24 25 30 17 23 25 36 32 26 24 26 21 21 11 23 22 28 21 21 27 21 24 22 25 22 23 32 18 17 23 30 26 24 18 25 17 23 29 21 28 29 28 26 31 30 18 25 29 21 23 24 23 23 22 19 19 27 24 24 25 24 31 23 27 19 26 26 22 29 26 30 27 13 22 31 26 22 25 28 20 28 21 23 22 25 25 28 19 15 27 24 27 28 21 29 26 28 20 26 24 27 32 26 26 25 27 25 21 30 20 20 23 29 25 24 27 25 18 21 28 23 23 25 23 30 22 33 28 27 15 33 25 23 18 28 32 23 33 25 25 29 27 23 28 27 25 30 31 25 20 27 29 25 31 32 33 28 18 31 31 26 20 26 27 25 22 29 24 23 24 23 23 24 21 24 24 23 23 23 24 21 23 29 24 21 19 20 32 33 31 25 28 21 21 31 28 20 23 28 22 24 20 23 30 31 29 23 18 18 22 23 20 37 29 24 22 14 30 21 28 23 25 22 21 32 26 22 28 23 26 24 24 20 20 22 18 26 32 30 21 21 31 16 21 32 23 32 23 26 31 28 18 19 28 28 16 26 25 30 19 24 14 28 27 20 23 37 28 28 22 29 28 31 25 19 27 15 18 25 26 25 29 18 20 23 25 30 25 22 22 23 29 24 19 32 17 24 25 27 27 29 31 22 17 33 19 25 25 21 25 27 28 33 26 23 29 20 32 23 22 22 22 31 21 26 27 26 30 20 20 32 27 20 20 23 19 23 23 29 20 25 24 29 23 22 20 25 20 27 26 26 24 27 25 37 22 22 23 25 26 32 19 18 24 27 25 24 16 27 28 27 16 23 24 26 21 21 26 27 30 25 27 22 19 23 28 25 21 25 30 23 22 21 15 18 16 28 24 23 22 24 25 24 27 31 23 26 25 28 26 20 19 25 22 32 21 19 30 27 16 19 23 23 24 27 33 28 31 22 29 18 29 20 19 20 29 16 22 22 23 20 25 24 28 40 23 22 21 25 12 23 23 23 23 22 21 27 22 21 21 26 18 17 23 26 27 20 21 17 26 26 22 22 21 21 23 26 16 21 22 22 27 20 20 16 21 20 22 25 14 21 25 23 18 29 16 20 25 13 24 23 24 15 22 23 18 26 20 30 23 21 22 14 23 28 23 20 23 19 13 25 27 31 22 23 21 23 21 20 29 21 20 30 27 26 21 22 25 25 29 24 14 25 28 16 24 28 31 22 24 22 20 20 24 16 25 19 28 22 26 26 15 25 29 20 25 18 29 30 18 33 29 32 19 26 15 24 23 28 19 32 20 27 16 24 30 26 21 28 22 19 26 25 29 31 22 27 29 22 26 26 27 22 27 20 24 19 21 20 28 23 27 23 23 23 24 19 23 24 19 23 17 18 30 26 19 20 20 21 21 23 21 25 28 33 19 22 32 16 24 21 24 29 29 16 21 24 18 28 25 24 16 29 23 23 14 31 26 26 29 26 14 28 23 27 20 20 26 25 22 25 25 27 23 31 22 16 18 27 23 28 23 18 25 27 20 22 30 24 23 17 21 26 21 18 24 26 21 19 27 22 24 24 29 26 25 23 28 20 21 28 26 28 22 15 26 27 19 18 24 19 25 29 18 31 22 23 25 25 21 27 31 29 21 28 14 19 17 25 17 21 23 30 23 21 18 25 25 35 28 25 22 28 26 31 16 23 24 19 27 25 22 21 21 28 29 23 19 20 22 20 26 15 23 17 19 28 25 21 20 33 30 26 20 26 32 23 17 23 30 19 32 26 26 26 20 20 26 26 20 23 22 24 28 28 16 27 22 20 20 33 32 24 24 26 25 23 16 23 25 23 23 32 19 24 24 27 28 20 37 35 19 29 23 20 25 21 25 17 25 19 27 22 23 20 22 27 23 33 25 23 28 23 25 19 29 18 23 13 26 23 25 29 18 20 24 20 29 21 26 26 31 34 29 19 25 29 16 25 30 20 28 23 24 26 33 19 21 27 30 27 27 26 25 21 18 26 27 34 24 23 25 33 22 29 21 24 22 22 24 24 24 15 31 19 28 17 36 36 28 24 28 24 19 25 20 23 22 30 23 24 24 21 27 23 16 22 21 25 24 23 31 22 20 24 29 20 19 23 19 14 21 26 23 25 21 19 25 20 26 31 28 25 23 24 27 28 23 20 28 22 26 20 26 24 23 31 27 25 21 21 27 24 22 24 17 28 17 18 22 28 19 21 23 26 23 22 22 22 24 28 24 24 28 23 22 29 24 24 20 24 27 25 31 30 17 22 30 21 20 22 20 24 20 21 21 26 17 28 20 26 19 25 18 26 21 29 23 25 19 27 18 23 27 21 31 26 23 20 26 24 23 23 23 19 22 22 25 23 33 25 25 19 23 29 36 31 24 25 24 30 26 32 25 36 21 17 24 24 19 28 26 30 13 23 28 21 24 26 27 27 12 26 26 17 20 22 21 36 20 31 21 24 22 26 26 23 31 22 22 23 30 26 21 19 14 26 22 26 18 20 23 27 25 24 24 26 27 21 20 20 28 25 26 15 20 24 20 21 29 23 31 23 27 28 20 23 32 14 21 21 26 33 29 30 18 23 23 29 23 26 30 24 25 27 27 18 21 25 25 25 24 25 16 20 26 25 29 29 22 27 28 28 19 24 18 21 30 27 21 22 29 13 26 25 23 18 22 28 20 25 28 30 30 18 23 28 17 26 22 20 19 18 22 28 27 28 20 21 23 27 28 27 23 26 23 27 22 24 26 28 28 30 21 17 24 34 20 20 26 18 21 25 23 26 29 22 29 15 22 25 16 23 16 21 19 22 24 25 26 21 26 25 19 19 30 27 25 25 28 32 25 29 25 24 31 27 25 27 14 21 26 16 16 28 26 18 27 25 29 27 26 22 17 26 31 22 17 23 23 21 28 17 30 23 27 24 27 26 29 21 27 30 27 15 26 35 24 24 28 26 20 21 21 24 28 26 23 25 22 21 31 32 28 21 22 19 24 22 16 24 26 25 27 27 22 24 25 29 29 22 22 26 30 21 24 31 24 27 23 26 25 24 16 19 18 17 19 26 27 21 28 24 26 23 21 18 25 27 16 28 21 17 30 25 28 28 29 21 21 24 21 25 23 19 31 19 19 16 24 27 21 26 26 25 23 20 20 30 21 29 23 26 26 20 18 35 17 25 23 24 19 24 20 15 23 18 20 22 36 25 17 19 33 21 25 27 32 26 25 29 26 30 26 31 27 23 30 23 21 18 19 34 28 24 31 26 15 19 27 20 29 21 27 26 21 14 18 25 19 23 22 33 29 18 30 23 23 19 27 17 22 27 15 26 19 28 25 16 18 14 26 32 22 26 23 20 24 20 20 23 21 24 27 24 21 19 20 20 18 27 19 27 17 17 36 18 20 21 32 20 27 13 23 36 19 26 26 23 25 27 30 32 16 21 17 27 19 25 27 29 23 23 27 29 14 27 24 18 21 26 20 21 21 29 13 21 20 18 33 23 16 17 25 28 29 22 29 27 19 24 22 22 32 22 19 22 37 22 17 28 19 20 22 28 25 27 30 27 22 19 27 19 26 17 27 25 22 21 17 25 20 27 28 26 25 27 22 20 21 23 12 25 19 17 23 22 28 18 21 19 27 26 16 27 19 21 26 21 25 25 18 23 32 23 18 28 21 24 25 24 25 27 21 26 28 24 23 20 15 26 24 15 19 31 25 29 24 18 29 21 24 17 18 20 24 20 25 21 22 19 24 27 21 29 21 20 17 24 24 24 26 21 17 25 22 23 23 23 25 19 22 25 23 26 21 26 28 24 23 17 26 23 23 26 23 21 21 27 28 23 27 32 27 28 37 21 24 34 20 22 24 21 28 25 22 19 27 25 31 24 23 25 23 15 22 26 23 20 19 23 24 20 17 28 27 26 22 25 28 19 28 25 22 26 25 20 20 23 26 31 23 31 28 16 23 23 20 28 23 20 26 26 22 21 18 18 18 20 24 20 27 31 17 28 22 27 22 36 27 25 26 27 24 23 20 26 27 21 14 19 20 20 30 23 25 23 27 25 17 25 27 29 25 23 19 23 39 18 38 25 22 25 29 29 29 14 26 21 19 29 26 25 28 19 19 24 19 22 25 22 24 27 19 22 24 22 27 28 24 13 21 21 21 19 21 27 23 30 21 26 27 22 22 24 24 32 21 29 20 22 17 18 25 26 27 32 32 23 25 31 22 36 25 22 28 28 27 22 25 26 27 22 19 23 20 22 26 25 22 24 29 22 19 24 26 20 18 17 34 28 25 23 18 29 25 30 15 17 32 27 29 29 20 21 20 24 18 19 21 24 21 28 16 27 26 23 20 20 29 25 26 25 17 24 25 23 26 25 19 22 30 20 18 22 21 24 17 22 17 32 22 24 26 22 27 26 24 24 18 18 23 23 16 28 20 21 32 23 25 23 25 23 21 26 29 24 31 29 17 22 27 21 25 20 25 25 19 19 16 20 20 26 24 28 28 20 26 28 21 27 20 20 20 25 20 25 27 20 20 28 15 29 25 22 21 19 27 21 25 22 18 27 22 20 29 22 18 22 29 21 31 23 30 23 30 23 24 22</t>
+  </si>
+  <si>
+    <t>EXN(0.5699096596049389, 32.2701020145007, 5.0488701014490545)</t>
+  </si>
+  <si>
+    <t>41 39 34 35 42 33 31 34 24 34 30 31 32 37 35 28 39 40 36 33 30 44 45 36 37 36 30 32 37 25 35 32 38 30 42 46 33 23 39 39 32 33 35 29 38 48 38 40 44 32 35 35 38 29 28 32 32 29 36 35 35 40 38 46 37 32 35 27 34 41 42 46 34 46 39 39 32 25 28 44 40 42 36 41 41 40 25 48 40 33 31 32 28 42 38 32 40 30 41 42 36 35 32 41 43 35 46 38 41 41 44 43 29 32 40 38 55 40 37 35 35 28 38 38 40 31 42 38 38 40 38 37 30 32 29 31 38 41 34 29 30 24 35 28 45 37 28 36 38 40 33 33 34 39 36 26 35 28 40 41 41 30 30 43 28 46 36 29 37 33 35 38 31 41 39 40 33 30 28 39 37 36 42 35 30 42 35 32 44 34 43 32 40 43 36 37 32 36 36 38 43 31 30 24 37 34 39 36 40 42 36 42 27 38 32 33 30 36 34 41 31 40 31 41 43 33 31 32 36 40 49 46 37 31 33 47 25 34 23 36 33 38 24 34 36 39 31 32 51 29 38 32 41 37 48 43 34 45 43 36 30 32 26 33 33 33 40 37 33 48 36 30 29 31 28 26 31 40 37 34 43 35 40 34 28 33 38 42 29 38 35 31 37 49 28 39 33 22 34 47 35 27 34 23 29 37 23 32 49 30 38 31 32 28 37 30 37 37 40 37 47 36 41 35 40 31 31 42 34 41 38 44 28 26 29 40 49 39 41 31 35 34 32 33 37 41 37 34 33 35 39 31 30 36 43 44 40 34 36 30 38 36 28 37 31 35 51 38 33 33 38 35 43 36 45 29 25 27 34 31 37 35 32 40 44 41 38 33 34 36 33 45 40 30 44 34 37 37 29 34 39 35 34 39 31 37 32 26 34 27 37 28 45 37 42 40 35 28 23 39 27 36 40 34 33 48 39 35 37 33 27 37 37 30 34 38 32 41 43 36 38 30 45 32 33 31 36 37 30 38 30 36 25 44 45 25 39 38 31 36 36 40 33 36 34 27 50 44 45 31 41 52 41 35 41 30 27 46 37 28 31 28 28 35 31 34 35 38 32 38 34 33 35 38 45 31 29 30 44 29 38 30 28 35 28 33 30 36 32 38 52 40 39 33 34 33 34 38 39 33 41 31 36 33 33 43 34 34 40 34 26 33 40 44 34 34 29 31 33 34 31 38 22 49 32 29 40 47 32 37 32 47 30 32 45 44 40 41 42 35 39 39 26 44 34 41 30 33 28 25 35 37 31 33 29 40 40 40 31 37 32 39 56 27 40 35 31 34 35 44 34 47 26 33 27 29 38 35 24 29 43 39 28 43 38 32 25 44 26 34 40 44 32 33 35 33 38 24 28 45 34 32 31 26 32 32 30 31 35 32 36 28 28 39 45 43 35 36 38 37 35 33 36 35 35 32 44 39 33 27 33 45 33 38 26 20 37 32 34 37 31 38 27 27 40 27 34 35 48 38 29 30 37 39 33 36 39 32 48 30 40 36 32 36 32 35 16 25 40 24 31 39 40 37 32 39 37 45 36 34 40 28 28 31 37 34 42 28 37 36 29 39 43 40 28 37 42 38 35 36 31 53 32 35 39 23 40 39 35 41 32 30 31 33 28 35 50 45 54 36 31 43 30 33 42 32 38 33 31 51 32 32 33 40 38 28 31 35 33 37 34 33 40 38 42 25 41 43 39 42 38 38 37 41 35 34 30 40 41 40 35 34 33 33 38 36 41 24 47 40 35 29 44 35 32 35 42 40 46 45 34 39 37 34 40 34 40 36 26 37 24 40 25 29 31 47 29 36 54 33 38 41 35 38 51 40 26 49 33 38 35 26 34 34 32 25 48 39 38 25 38 27 46 36 45 33 26 31 35 32 39 35 28 36 31 30 28 16 43 34 36 34 33 33 28 42 34 22 36 35 51 38 40 29 36 35 32 35 21 36 50 32 49 34 39 37 28 30 33 41 40 33 44 27 34 42 38 32 41 25 37 28 31 36 33 37 43 27 39 31 36 28 65 37 41 47 30 28 35 40 26 42 25 27 45 33 43 32 38 28 33 35 40 38 41 36 33 33 42 27 37 36 46 30 40 34 26 30 35 27 30 47 34 27 37 37 34 30 42 40 50 42 35 34 36 32 33 38 41 34 25 40 29 43 33 38 31 37 44 38 44 29 34 38 39 24 27 32 26 45 32 58 34 34 34 26 21 37 37 39 32 32 38 34 36 43 23 39 38 47 41 35 33 45 28 34 25 33 29 34 32 19 39 42 29 41 25 42 31 35 29 40 35 36 29 33 32 32 25 41 36 38 34 38 29 29 39 36 32 40 41 32 32 38 32 34 40 35 29 33 37 27 35 30 47 38 32 34 38 41 35 41 38 24 32 30 30 32 42 26 34 31 40 36 31 38 41 29 41 32 29 42 36 30 28 21 32 55 37 30 30 32 28 29 26 31 39 36 46 25 32 42 33 40 43 30 44 32 26 27 37 34 34 41 27 32 32 33 33 38 34 42 45 36 32 29 29 38 34 31 31 34 30 36 37 36 36 28 42 42 30 36 35 36 39 46 34 31 41 39 33 40 44 34 39 39 42 35 31 38 41 37 43 26 31 37 42 34 41 25 45 33 27 30 37 35 47 37 28 34 38 34 35 41 23 36 38 33 34 27 33 28 27 32 33 36 47 41 32 37 38 35 34 32 36 36 39 51 29 35 36 37 31 37 50 26 44 47 35 28 34 24 38 34 31 39 27 50 32 41 32 23 32 64 38 25 25 21 29 42 39 36 33 35 33 38 38 38 32 32 29 39 39 39 30 42 23 39 34 25 26 34 41 42 40 37 34 26 28 37 33 29 33 44 35 33 28 31 29 32 48 33 27 32 24 41 40 37 46 37 42 41 29 25 29 39 45 21 25 46 37 30 33 28 33 42 29 34 39 41 43 49 43 37 34 31 32 45 32 41 42 25 31 35 40 38 38 44 37 27 32 33 29 30 43 35 37 43 27 28 45 28 34 39 37 30 47 28 41 36 33 34 29 38 33 41 39 33 37 41 44 34 41 33 29 25 39 46 34 33 38 33 41 35 41 36 31 45 35 36 37 33 40 35 41 30 22 41 34 31 29 31 42 37 39 32 38 31 29 31 41 37 32 35 35 32 34 32 37 36 45 40 32 36 44 31 40 37 41 43 39 34 30 32 24 40 39 43 37 34 33 31 38 36 35 42 28 41 38 34 24 45 30 33 37 39 46 40 29 40 32 35 29 42 42 32 34 24 28 32 37 32 29 40 45 56 29 34 32 42 36 32 27 26 40 42 30 31 39 22 44 40 48 39 39 52 28 34 33 35 26 34 35 31 38 28 35 39 37 38 48 35 42 41 34 34 35 46 34 39 30 35 33 34 50 28 35 34 42 32 39 30 29 32 36 25 32 32 31 39 42 43 39 35 33 37 38 34 25 29 38 34 46 40 40 44 36 41 37 28 33 44 26 39 34 35 40 36 36 42 28 34 42 33 37 40 32 46 40 30 33 28 36 39 28 43 29 23 35 31 34 37 32 30 35 28 32 36 50 34 42 32 30 31 32 40 36 33 51 21 35 33 27 36 33 33 30 36 29 39 38 36 28 39 41 28 38 33 29 33 31 37 39 42 42 31 40 29 40 37 31 33 39 38 22 44 23 38 38 29 36 33 36 36 42 28 40 49 41 41 28 32 33 29 42 30 39 28 31 35 32 33 39 47 36 43 24 38 31 42 40 42 28 35 35 37 22 38 41 27 42 32 28 37 34 31 41 43 31 32 33 39 28 38 39 33 40 33 43 44 36 33 32 31 37 28 29 35 31 40 38 30 36 35 33 28 27 36 39 35 32 31 29 45 33 42 33 34 32 37 22 35 45 25 30 33 41 32 40 37 32 34 21 37 37 38 34 37 39 42 27 39 27 49 33 33 28 28 34 36 31 41 37 28 28 26 34 36 38 27 29 37 34 30 32 32 37 30 32 29 32 39 44 33 38 32 36 33 42 34 32 39 43 39 38 33 33 42 26 37 46 30 26 35 34 35 43 38 27 35 32 37 36 43 34 43 35 38 31 44 21 33 30 25 32 55 36 44 35 41 37 35 33 30 38 33 47 40 39 35 41 34 37 32 39 36 28 19 31 36 33 32 36 28 31 32 32 34 33 38 33 34 44 34 28 35 28 35 31 43 35 30 25 25 38 33 31 33 32 35 46 42 29 31 37 43 34 37 27 33 27 26 31 39 35 39 37 39 33 37 23 26 30 35 30 40 37 26 33 38 34 48 35 39 35 35 32 33 46 34 35 46 24 41 38 35 30 36 46 39 41 28 38 30 30 34 25 38 34 35 41 41 34 34 33 28 32 28 34 35 31 31 35 46 26 31 31 42 39 34 36 26 36 32 35 41 35 40 29 40 40 29 28 33 29 34 29 34 37 25 34 23 39 31 31 32 41 34 37 29 36 29 36 41 44 33 34 27 40 28 30 39 44 37 38 33 23 41 29 22 34 41 47 39 42 39 37 25 34 31 37 31 33 25 38 38 35 32 46 37 41 29 30 39 42 20 30 34 40 30 36 32 41 37 32 34 26 43 45 39 39 27 22 41 31 40 39 32 27 45 39 39 30 22 29 38 42 25 38 40 32 36 35 33 45 46 34 34 39 30 33 41 40 41 38 34 42 36 43 42 29 27 35 36 34 50 31 16 38 36 33 35 48 30 32 29 33 32 33 36 34 35 28 23 41 35 36 31 41 33 44 42 36 37 26 31 35 34 43 34 37 38 34 35 31 41 32 38 21 33 40 41 40 31 36 30 38 29 37 39 37 32 37 38 32 35 32 38 42 35 23 29 33 33 24 30 26 25 38 27 38 37 31 35 29 49 44 26 38 40 28 39 28 30 41 37 40 27 23 30 40 35 39 33 40 32 20 30 33 37 44 27 40 32 38 40 33 32 44 44 34 31 30 40 33 46 27 22 28 31 27 40 28 34 31 33 39 39 47 35 33 27 34 19 38 30 38 40 41 38 34 39 41 36 42 24 37 35 40 33 28 33 41 35 35 29 35 27 30 34 31 37 34 32 28 40 32 27 42 32 38 41 25 27 30 45 34 37 37 37 29 35 32 26 45 29 38 38 31 25 26 36 35 36 38 38 33 32 30 29 35 36 35 39 34 35 26 32 39 46 33 39 37 32 39 45 36 47 26 33 46 31 39 32 30 28 34 38 30 35 28 38 25 39 55 36 29 39 36 29 31 41 36 28 36 50 50 37 35 40 41 34 40 27 32 30 36 44 31 27 40 36 27 37 33 39 33 38 34 41 36 39 42 39 36 27 40 45 34 39 33 31 33 29 35 37 34 33 25 36 36 26 39 35 33 40 40 30 41 28 43 32 30 42 41 38 27 46 33 40 35 32 32 35 37 31 33 29 20 46 45 29 37 38 27 36 39 40 41 43 30 33 31 29 30 27 28 31 37 33 40 39 32 34 28 35 30 27 34 43 35 31 33 44 30 27 31 31 35 26 39 39 40 37 40 24 36 30 28 29 34 27 29 25 28 28 36 43 30 41 32 38 48 38 40 32 34 38 37 28 37 28 48 26 36 31 26 21 34 37 38 31 51 39 38 31 37 39 33 34 48 38 31 28 29 34 42 31 30 32 28 48 31 40 27 25 37 37 34 28 51 27 30 29 44 25 21 33 26 35 24 42 40 38 33 32 33 36 36 34 32 42 35 27 42 29 38 32 36 44 31 43 39 34 34 32 44 30 32 34 44 40 23 32 33 27 34 36 39 32 47 25 37 33 31 27 38 22 33 41 40 41 30 33 41 27 41 38 29 44 28 44 39 49 40 31 42 39 44 32 46 35 48 49 41 29 33 36 40 39 42 26 43 32 27 40 35 29 28 43 37 30 32 31 36 34 26 28 27 30 40 34 38 35 32 43 38 26 35 52 35 35 26 29 30 32 44 33 39 31 32 35 39 36 33 40 35 31 38 37 33 36 37 38 34 35 28 29 41 36 31 35 35 34 29 36 39 29 45 33 35 34 30 29 38 31 47 32 25 37 26 34 32 26 28 28 27 32 25 39 39 35 35 39 36 30 39 32 34 38 35 42 34 34 39 30 36 32 34 34 35 26 41 43 40 41 43 44 35 35 31 34 45 41 35 30 36 33 31 52 32 43 43 33 44 34 29 37 34 27 26 43 38 36 29 39 40 34 39 31 33 41 19 36 37 37 39 26 40 44 32 36 34 31 35 40 37 41 32 43 37 27 38 27 34 27 33 39 39 28 35 34 33 44 31 27 40 33 34 42 28 28 39 37 37 39 38 30 39 36 24 34 43 37 35 30 33 51 25 42 37 41 32 36 29 32 35 28 30 29 29 50 41 39 40 42 38 37 40 40 38 40 37 29 28 34 31 25 29 38 25 35 37 40 35 46 36 35 40 30 43 32 32 33 38 35 37 39 23 37 28 42 38 37 34 41 37 32 41 32 42 38 33 33 38 36 36 39 40 40 30 28 39 31 31 34 39 38 41 39 34 36 39 33 31 39 38 36 32 31 32 33 43 26 29 46 33 32 31 27 40 35 32 27 37 38 31 39 24 35 44 37 32 33 32 35 30 30 38 32 45 24 32 33 39 34 33 40 32 33 38 31 48 33 35 36 40 39 36 32 33 35 43 30 36 34 39 29 27 44 30 28 43 31 30 29 30 33 22 36 38 35 48 35 32 35 28 38 28 37 29 39 32 48 25 35 30 33 33 31 33 39 32 35 39 42 33 41 44 38 32 31 27 44 35 31 35 40 36 33 32 34 28 29 29 48 43 23 30 39 32 30 43 36 40 44 29 32 34 35 35 39 34 44 33 32 30 31 41 36 39 33 41 28 26 41 33 28 37 35 29 40 28 53 42 38 37 34 39 41 38 30 39 53 27 30 36 33 41 42 40 33 31 34 34 29 36 43 35 26 37 30 28 35 34 43 34 35 41 50 28 45 35 42 31 29 36 41 38 36 32 40 38 41 39 31 33 31 27 42 32 39 30 32 35 23 45 29 43 33 36 37 42 28 24 25 33 39 34 22 39 36 30 34 31 38 35 32 39 33 32 25 30 37 36 40 35 40 39 25 35 42 31 37 35 39 39 41 30 38 35 31 38 33 47 33 42 32 40 39 37 24 33 36 40 38 52 41 26 32 34 37 38 41 29 41 29 38 40 40 28 24 30 40 33 34 40 36 34 42 36 36 34 34 40 41 35 46 40 26 28 38 41 33 38 44 41 34 32 33 31 37 36 35 37 31 35 36 37 41 30 37 38 41 33 33 37 41 36 25 35 46 35 32 49 32 40 32 45 46 21 39 33 35 34 34 33 35 37 29 27 40 32 41 31 32 34 29 36 34 39 33 30 25 35 27 29 42 28 39 31 46 36 51 20 26 35 52 36 30 38 36 43 38 26 42 34 39 27 32 37 38 44 35 29 32 32 34 34 43 33 40 35 36 34 32 49 39 40 39 49 41 33 33 36 38 28 49 37 37 37 39 36 31 35 34 31 38 49 40 28 30 37 39 32 32 34 40 35 35 28 38 22 50 33 35 35 30 33 32 27 41 38 40 28 36 30 36 34 32 40 34 33 41 33 33 35 27 41 37 32 34 34 35 41 35 34 27 33 34 37 39 32 43 43 35 49 31 32 28 35 34 34 43 34 34 32 35 51 26 37 41 39 33 26 50 30 32 34 19 35 22 31 34 46 41 37 49 32 34 31 30 47 40 39 26 28 29 32 35 49 35 36 32 41 48 34 31 39 36 41 34 40 39 38 37 40 32 41 30 31 38 31 38 36 29 31 36 24 39 39 33 33 26 33 34 40 33 38 43 30 27 30 40 34 37 33 29 35 32 23 38 38 41 25 29 31 33 37 36 35 35 28 28 36 34 37 30 47 30 45 41 42 50 37 21 38 37 29 33 22 30 36 40 27 53 45 36 35 30 37 28 38 29 37 27 35 41 35 38 30 41 31 35 51 32 29 37 38 36 46 26 29 43 42 41 34 35 47 39 34 43 44 31 35 39 31 37 33 38 34 32 36 29 44 44 33 34 38 33 42 37 30 39 32 34 45 33 39 34 38 39 33 30 38 33 25 41 38 41 32 32 40 35 35 33 31 20 27 36 38 29 35 33 41 26 33 38 42 35 33 28 27 38 31 38 38 40 35 32 34 27 41 32 32 46 32 40 53 33 41 28 30 28 28 40 42 36 35 26 47 36 30 29 25 42 32 36 46 34 30 32 37 22 36 45 27 42 36 31 27 32 39 39 34 38 36 32 35 27 30 32 32 32 34 35 35 29 40 33 31 26 41 39 22 35 27 33 36 26 32 34 37 37 31 32 40 34 38 33 29 35 47 24 35 37 45 36 32 38 34 32 32 37 24 35 40 24 24 38 44 26 29 44 25 40 19 33 29 38 32 36 31 41 37 43 42 36 40 30 38 44 35 40 33 36 45 37 38 32 42 39 42 45 33 29 46 39 44 42 45 30 33 37 32 40 26 32 35 42 39 25 35 34 35 36 35 40 32 44 29 38 30 32 35 32 39 30 43 37 37 34 24 35 31 40 30 39 42 35 31 33 29 31 39 35 45 34 31 43 39 34 34 42 40 46 37 38 33 28 40 38 34 28 45 26 32 34 47 39 29 36 39 39 36 17 36 28 41 36 35 34 25 42 38 38 34 39 34 35 44 33 35 32 29 45 28 34 34 31 28 35 37 26 35 35 37 32 33 38 44 35 30 36 34 34 37 33 44 33 39 29 32 37 44 45 34 31 30 44 38 32 30 39 41 38 43 32 31 30 39 31 28 31 32 34 36 33 25 31 23 34 48 34 24 29 35 40 30 35 45 27 31 36 39 44 37 30 40 16 26 26 33 37 37 35 39 41 34 27 30 36 37 32 36 28 26 48 40 42 38 39 41 26 34 44 32 29 28 32 30 34 47 32 38 39 25 45 30 38 43 27 26 41 33 29 31 38 33 29 34 39 45 51 39 40 37 37 36 37 46 37 31 32 36 25 37 34 36 40 38 33 36 38 39 48 34 37 39 28 38 34 41 41 28 30 34 37 29 38 31 34 28 29 39 29 32 25 35 36 40 35 27 38 32 31 41 33 34 34 36 42 33 30 36 35 30 36 34 32 27 34 35 38 32 35 32 32 35 28 38 28 39 34 34 28 39 36 31 27 35 29 28 37 26 40 29 40 36 31 40 36 39 31 41 32 26 40 37 36 33 39 30 33 41 36 34 42 36 38 32 35 28 34 42 36 30 36 26 30 33 38 41 31 31 36 36 39 36 49 29 35 43 38 32 43 33 30 28 23 23 39 35 41 32 34 23 38 31 41 39 35 41 33 32 29 33 36 30 44 31 37 31 28 32 35 40 32 29 40 34 32 43 24 37 50 36 38 30 43 46 29 38 29 31 43 36 31 29 45 41 40 35 34 28 36 35 35 27 32 30 28 29 36 36 37 29 42 35 38 35 27 50 36 33 27 34 30 27 30 36 39 25 37 27 39 35 35 38 40 36 23 34 31 37 40 25 27 28 39 34 31 38 35 34 34 34 36 39 41 36 23 38 38 32 33 31 38 32 27 33 40 41 31 37 41 48 40 29 37 32 48 32 37 31 32 37 33 39 37 40 39 46 33 34 37 35 39 30 35 32 42 31 35 41 27 30 30 43 40 32 40 37 39 40 33 32 33 32 24 34 46 29 25 38 35 50 48 28 46 39 32 30 39 36 42 47 25 30 39 36 32 33 42 35 32 45 32 42 34 33 29 30 40 32 33 37 28 38 38 41 35 28 33 38 33 41 24 34 34 33 36 37 29 34 33 34 42 50 32 37 37 36 33 30 43 29 29 31 40 39 32 42 41 35 37 33 37 30 45 34 36 42 36 31 33 33 45 27 43 34 33 40 38 36 40 34 48 46 29 22 35 31 37 32 34 34 27 35 38 35 44 30 38 40 30 32 31 38 26 34 41 30 28 35 28 21 28 35 43 32 33 40 37 41 36 42 35 41 36 34 36 33 38 30 46 33 27 33 42 29 31 35 28 31 34 29 29 35 28 33 32 26 39 35 34 32 30 36 29 37 26 34 49 37 36 44 32 44 36 38 28 37 37 42 41 49 26 31 33 42 40 35 34 28 33 32 26 40 33 30 31 35 31 33 40 28 48 32 31 30 40 33 45 37 38 41 38 39 36 33 25 30 26 28 36 34 33 48 45 24 34 39 32 35 36 34 35 49 49 37 36 34 36 40 38 39 36 33 34 41 33 40 33 28 46 33 33 37 35 39 31 32 35 43 31 38 40 29 36 35 43 27 32 37 28 33 40 31 40 34 36 33 35 36 26 35 35 41 20 37 35 33 32 37 36 35 44 40 30 38 23 28 36 30 34 33 40 31 38 35 35 34 40 43 42 37 29 36 38 35 35 37 45 37 39 44 29 42 36 36 37 30 37 35 38 33 39 24 43 35 38 29 27 37 32 41 35 42 35 23 35 34 38 23 39 35 38 43 30 39 29 29 34 37 20 30 31 33 33 36 38 35 33 27 37 27 49 38 47 32 30 33 31 32 43 28 26 36 31 39 36 36 44 43 39 40 29 39 37 44 44 29 32 38 51 44 41 35 29 32 39 28 36 33 51 34 43 42 33 38 40 33 31 31 31 31 36 31 20 33 34 37 44 30 35 31 40 35 40 34 30 31 36 36 33 28 36 35 30 40 35 37 46 37 42 40 31 32 35 31 28 45 38 41 32 41 45 30 35 32 37 38 47 42 31 36 28 32 47 38 33 20 33 33 51 30 24 32 40 44 22 35 44 26 40 28 32 35 40 30 43 40 38 30 41 35 44 36 39 36 31 27 40 45 40 38 32 22 35 43 38 41 40 43 38 41 45 36 33 33 40 37 31 42 31 40 30 37 33 43 36 37 20 30 29 34 31 40 43 26 47 42 25 34 37 30 35 32 40 34 33 43 27 40 48 36 20 37 28 33 36 33 26 32 35 34 35 41 35 36 39 31 38 34 33 47 41 37 40 40 38 38 36 33 35 36 35 31 32 32 34 39 32 35 29 35 31 39 36 27 33 29 38 35 46 34 38 35 37 40 41 37 35 42 32 32 38 34 40 27 33 34 41 35 37 30 38 29 26 32 36 27 38 30 40 35 35 36 42 34 42 29 34 32 32 34 42 38 30 38 50 38 41 47 43 35 44 46 29 36 43 36 49 24 35 41 39 33 32 33 31 40 35 32 39 29 42 38 41 36 33 42 42 36 35 36 26 31 31 42 39 28 38 36 32 49 31 39 49 31 39 31 35 36 25 26 31 31 42 41 35 50 31 38 39 32 34 38 33 31 39 44 33 30 34 40 49 35 31 29 31 33 41 34 42 35 47 28 27 31 24 39 28 33 35 34 35 36 34 33 28 27 28 23 31 32 35 20 34 30 28 37 26 43 33 43 39 33 34 24 31 31 32 40 43 37 43 45 32 41 40 31 26 33 33 29 25 38 34 36 34 31 45 36 28 33 44 36 31 28 31 37 39 30 40 34 32 36 34 39 35 30 44 36 39 45 47 44 29 37 32 27 28 25 28 33 42 38 23 26 34 32 30 34 38 33 39 46 42 33 33 37 33 42 32 39 41 30 37 42 31 31 28 33 36 30 45 26 33 42 46 36 26 37 37 33 33 32 26 29 38 42 28 30 29 31 36 40 41 25 31 31 39 29 35 35 30 28 40 31 43 34 41 39 32 40 32 35 36 32 38 47 39 32 36 26 41 31 35 36 34 34 42 31 33 39 31 43 40 30 37 25 26 34 39 35 38 44 37 39 38 31 31 48 36 43 33 35 36 29 36 37 33 40 21 43 40 37 39 28 31 38 40 34 32 43 20 33 32 36 23 34 39 29 38 37 38 41 34 36 30 37 38 33 38 39 36 44 33 32 40 40 24 44 32 37 38 35 37 34 38 38 39 39 30 32 42 42 25 33 25 39 33 29 44 28 38 31 35 30 39 38 26 29 43 35 38 31 29 37 34 50 28 33 35 39 35 25 34 38 27 25 36 43 31 31 34 29 38 41 35 35 34 30 40 33 49 36 37 23 31 36 28 40 33 33 38 34 32 34 24 28 37 33 43 40 40 32 32 38 38 31 47 38 28 34 38 47 29 31 42 34 31 23 34 30 40 39 40 46 34 45 38 40 34 37 31 43 22 36 36 39 28 40 43 23 32 38 27 31 30 37 27 26 34 33 47 28 44 33 34 26 43 35 43 35 32 30 33 34 33 37 40 40 36 45 52 40 30 33 34 34 33 32 28 46 37 28 37 28 37 24 31 36 36 31 28 27 28 38 33 35 29 32 40 48 30 32 33 44 37 39 48 38 31 35 39 30 37 36 45 37 39 37 33 40 39 35 39 34 34 29 35 29 27 25 32 30 33 35 26 40 35 41 34 35 34 32 23 31 24 31 35 35 38 51 29 43 41 31 27 32 24 37 34 27 32 33 50 34 32 36 42 38 41 39 30 30 32 32 38 40 32 34 34 45 33 34 37 40 37 31 44 37 32 28 25 39 34 34 39 51 30 37 38 36 32 26 48 36 39 33 33 46 30 37 40 32 40 39 41 29 41 32 50 35 38 38 34 28 38 37 37 35 30 30 26 34 35 37 38 42 41 35 34 37 34 34 31 39 43 31 47 34 31 35 43 36 44 34 30 31 27 26 38 33 46 32 30 31 38 30 35 28 41 32 42 29 26 31 35 35 38 29 38 40 36 38 35 41 24 39 27 45 30 41 44 30 34 30 27 42 29 30 38 40 34 32 39 38 27 25 28 40 39 36 35 29 33 31 41 29 37 30 34 30 26 33 40 32 33 30 32 30 41 39 35 44 39 37 31 39 37 36 30 33 41 44 29 44 30 45 45 33 32 33 32 36 29 33 23 37 42 32 33 29 31 39 29 32 38 28 43 33 32 33 40 32 36 31 35 41 29 33 41 31 30 35 37 37 26 35 41 26 35 43 34 39 34 38 36 43 38 42 24 35 29 28 37 27 32 27 24 30 42 33 42 49 29 23 39 45 35 34 32 28 48 40 35 24 35 34 30 35 42 49 34 41 32 40 32 40 35 28 31 42 37 40 42 34 28 44 37 30 32 34 40 28 28 21 40 39 36 35 36 34 40 43 28 43 40 42 39 30 32 32 31 30 42 26 39 40 29 40 36 34 32 37 39 37 41 38 28 24 33 39 44 43 39 32 32 40 46 41 36 30 41 34 26 33 36 33 27 41 36 38 37 45 25 40 33 43 32 41 39 45 47 43 31 41 35 25 29 36 39 39 34 42 30 36 34 39 36 28 32 30 39 40 37 45 34 39 32 30 30 41 41 36 45 26 35 34 37 43 39 37 23 29 33 45 32 28 35 42 24 33 31 37 44 33 39 31 39 36 34 38 35 27 45 44 28 28 25 35 45 36 37 37 35 41 33 41 30 39 39 42 40 39 23 34 39 31 38 26 26 30 25 22 33 24 31 35 28 37 39 37 40 32 41 36 31 29 34 29 42 37 36 33 30 53 39 45 33 40 36 35 36 45 51 33 30 30 29 39 39 40 47 39 40 36 33 45 43 31 42 37 32 26 35 38 45 20 45 39 36 35 46 40 38 35 38 30 46 42 30 47 29 37 31 39 35 26 24 34 44 37 38 38 38 36 42 30 31 47 28 38 35 47 36 31 32 29 34 37 35 31 37 30 43 30 32 33 26 29 37 39 38 34 32 43 38 44 50 37 39 33 20 37 47 32 41 36 27 37 32 37 37 36 35 45 42 34 41 44 34 37 35 39 39 40 32 36 46 38 29 34 33 40 40 36 28 34 30 27 31 41 38 45 33 26 34 43 38 40 41 36 30 27 27 34 32 27 28 30 32 38 35 43 33 32 30 38 34 30 34 33 38 27 36 40 42 29 38 35 40 34 36 31 33 44 39 40 40 30 34 32 41 38 29 22 42 31 35 26 41 21 42 35 36 26 34 38 32 34 39 35 37 32 39 31 37 31 30 33 33 43 41 42 29 29 29 29 25 38 37 39 32 32 29 37 46 32 30 26 43 33 37 15 43 31 41 44 35 35 41 31 32 45 36 38 36 38 33 34 41 35 39 27 22 43 35 39 37 30 36 29 37 42 38 36 30 31 45 30 32 28 34 34 40 36 29 31 38 32 39 31 37 51 35 38 37 28 38 32 53 38 31 39 30 39 47 32 28 26 29 39 41 31 37 30 30 41 28 33 31 47 37 27 34 30 41 37 26 43 45 35 20 36 30 28 43 38 34 26 35 26 32 32 35 31 32 30 38 49 31 29 40 33 28 38 29 28 37 33 43 38 30 40 31 39 42 33 40 38 32 32 41 27 37 32 33 40 39 41 33 27 33 32 32 32 37 27 29 34 30 34 37 29 43 38 41 33 31 38 36 30 34 27 44 31 31 35 35 39 48 24 38 43 22 50 25 34 40 22 26 30 47 34 37 27 38 31 29 31 41 41 31 37 47 38 44 30 27 36 32 30 40 35 49 30 34 37 32 30 32 40 32 44 39 28 35 30 35 37 38 27 30 40 24 29 35 36 42 37 37 33 37 29 32 33 33 35 23 46 38 39 32 36 34 31 23 23 33 44 37 28 33 31 36 33 49 40 39 43 27 30 55 45 34 40 36 39 42 28 37 43 25 34 33 47 35 34 37 39 34 44 40 49 37 40 29 38 31 28 29 41 39 36 37 43 44 38 37 39 49 30 37 31 51 35 36 33 43 40 33 28 38 31 40 41 36 29 36 37 36 36 37 36 40 32 54 32 26 27 38 35 39 39 42 36 44 26 31 30 40 38 40 35 29 31 34 36 37 39 31 27 42 41 46 33 48 44 36 32 41 41 26 38 33 27 38 30 44 36 40 23 27 32 22 37 34 40 29 37 27 33 35 34 33 39 39 31 34 29 35 42 30 39 36 30 40 48 38 32 23 34 35 26 32 26 39 23 41 45 25 27 28 28 32 40 42 41 24 29 38 37 30 29 34 29 28 35 43 38 37 32 35 39 41 48 44 35 33 36 31 29 30 44 25 37 37 31 19 31 32 35 35 36 27 37 36 33 39 40 33 35 39 31 31 32 38 37 30 34 27 37 38 26 31 30 39 41 32 34 37 28 31 33 35 40 31 39 40 33 34 34 35 29 39 34 44 28 29 45 34 40 29 41 44 38 39 32 30 34 27 44 32 40 31 37 48 43 34 42 35 28 38 36 42 33 36 33 36 44 37 36 28 28 40 39 34 40 29 32 31 39 33 36 36 34 46 31 36 33 42 36 41 30 33 44 40 29 34 37 35 28 39 28 35 31 35 27 26 22 28 41 33 32 32 31 28 33 48 33 50 38 27 35 32 43 29 28 26 32 29 31 32 29 43 44 35 30 52 33 30 36 33 47 42 48 26 30 28 23 34 29 34 30 35 40 44 29 36 39 32 45 40 38 38 33 33 31 32 37 30 36 35 35 36 34 31 21 37 32 29 30 34 38 33 32 45 33 32 28 36 35 37 38 49 41 42 38 32 47 38 29 36 43 37 24 32 35 43 32 21 45 39 23 39 40 38 32 32 29 32 20 34 28 33 35 30 30 32 35 36 39 41 34 44 34 42 37 32 32 36 39 38 34 30 43 28 31 39 35 44 42 43 36 33 34 40 37 41 28 42 42 39 44 31 35 33 39 38 38 35 38 31 46 37 35 41 39 35 31 46 29 32 43 42 32 35 29 29 30 31 34 44 28 46 26 40 38 29 35 31 47 37 28 40 33 31 34 46 42 37 27 40 31 52 35 31 37 28 42 33 31 29 37 40 38 33 32 47 35 28 33 29 32 40 37 28 30 32 33 31 31 33 41 32 24 45 27 40 39 39 40 28 31 35 36 35 36 35 26 39 36 35 34 32 32 34 34 42 31 35 36 35 27 33 33 38 36 38 39 40 35 27 32 33 35 27 44 34 36 25 37 40 30 50 36 36 38 38 35 61 40 46 29 50 43 36 41 36 34 36 45 45 30 43 25 41 35 31 34 47 34 39 36 47 31 34 36 42 38 33 32 37 31 29 33 36 31 28 37 28 34 33 39 44 31 36 32 44 42 37 38 42 41 38 34 39 23 39 37 31 34 36 45 33 44 48 38 38 40 34 32 31 28 34 35 41 39 31 38 26 43 35 34 38 33 37 32 34 31 22 38 31 28 30 39 43 40 39 38 37 30 21 45 30 38 47 28 47 41 42 38 40 29 41 28 32 36 38 40 28 40 44 38 26 32 30 37 35 27 48 27 36 35 39 45 36 36 44 41 31 30 44 39 41 41 32 43 39 31 33 25 38 40 32 31 42 47 39 44 35 35 37 47 38 32 35 33 39 36 36 30 33 33 39 43 36 25 24 47 19 30 42 30 36 52 45 42 40 33 46 30 40 37 39 28 26 36 31 38 39 39 37 39 33 36 31 27 35 30 35 33 36 40 28 39 33 31 29 33 42 29 29 50 33 36 35 30 44 43 45 30 27 33 44 32 49 33 41 37 40 33 43 36 32 29 27 32 33 35 40 37 35 35 38 36 29 35 46 36 34 41 34 28 28 40 30 40 28 27 37 33 30 35 36 28 37 28 35 36 35 30 29 37 42 35 36 37 22 36 40 34 32 32 28 27 36 31 35 25 30 32 45 47 32 52 38 32 32 34 32 30 26 40 35 30 37 33 39 37 42 47 34 38 33 32 36 26 34 35 33 47 40 30 46 30 39 34 30 31 41 30 45 37 43 35 53 42 29 29 31 35 27 23 29 41 27 28 33 39 41 32 36 31 38 40 40 37 29 30 36 40 39 34 48 30 35 41 40 40 46 39 37 38 37 35 34 37 36 29 34 39 28 27 33 31 31 28 33 31 31 34 35 28 33 36 37 47 35 33 33 40 28 38 37 37 35 35 43 31 39 37 33 45 39 33 31 31 34 22 29 38 38 41 32 29 33 47 43 24 28 38 36 31 40 26 32 41 33 34 47 39 31 25 35 37 30 43 34 40 27 40 36 31 38 30 49 35 39 52 31 37 26 39 26 35 33 31 47 24 34 38 28 38 45 25 35 33 42 42 42 31 32 32 44 43 30 43 38 31 37 32 37 27 30 27 37 31 29 40 26 41 32 36 38 43 31 36 43 42 43 34 41 36 39 32 34 22 44 32 37 41 38 35 35 30 36 36 31 25 32 30 35 40 46 37 36 41 39 42 37 37 43 28 29 31 34 34 38 33 44 30 35 41 38 34 29 34 39 32 36 39 35 40 38 35 32 30 29 40 37 40 31 39 40 44 36 37 28 48 34 29 28 34 33 49 37 37 23 41 34 42 32 31 31 30 30 36 34 45 42 30 32 30 32 42 42 44 32 38 32 49 48 23 33 35 35 40 37 43 37 38 30 34 34 41 50 30 46 29 38 28 32 40 31 30 34 36 34 33 30 24 34 40 29 48 33 32 26 24 32 36 38 35 43 30 34 29 35 43 38 25 37 49 44 36 28 34 30 36 30 33 28 39 32 36 35 28 28 36 45 36 32 24 33 31 38 34 34 34 34 39 35 32 43 34 32 34 37 41 35 39 36 31 34 48 30 30 47 32 30 31 32 28 34 39 34 44 35 39 37 38 33 40 36 30 38 34 38 53 37 46 40 32 38 30 42 38 27 28 34 48 39 36 36 28 38 33 34 44 25 33 35 39 34 39 35 31 40 33 37 35 30 45 41 32 28 36 44 41 44 27 40 41 32 39 31 36 37 35 31 33 34 42 25 27 25 35 28 35 51 36 38 24 34 34 33 31 39 31 33 44 41 38 33 34 37 28 29 15 34 27 40 43 32 39 29 33 32 43 30 30 42 24 27 36 45 36 43 30 35 31 28 36 31 41 40 44 39 41 36 28 38 45 30 32 38 37 30 31 29 30 38 39 34 42 36 41 30 40 28 37 34 38 37 34 41 39 20 30 43 43 32 39 37 26 39 41 39 34 37 32 37 32 26 35 39 36 37 34 39 37 43 27 35 31 38 49 39 34 31 34 33 30 44 34 35 33 41 34 31 34 32 28 30 43 32 30 29 34 46 30 48 38 41 24 42 35 36 29 35 43 37 44 39 35 39 40 35 33 38 38 40 49 36 32 38 35 35 43 48 42 38 32 39 40 41 27 35 36 34 34 39 36 34 41 30 30 38 31 38 37 35 31 36 37 29 39 40 37 34 31 35 46 53 40 30 39 31 30 40 38 33 35 47 29 31 32 29 50 41 37 35 32 28 37 32 31 45 32 35 30 25 43 28 38 32 40 36 35 47 32 30 39 32 39 34 36 27 32 34 24 42 44 41 32 36 41 24 30 43 37 55 28 33 45 42 30 28 38 38 28 36 40 41 27 42 26 40 42 30 38 47 34 43 33 38 33 40 40 28 35 27 27 32 39 35 39 31 30 43 33 39 32 33 32 42 37 37 27 47 31 40 35 39 37 42 49 37 30 42 23 34 42 29 29 34 40 48 37 37 35 27 42 29 32 32 30 41 30 32 40 42 34 32 33 46 42 37 31 39 31 35 31 37 36 47 35 37 30 28 35 38 29 34 39 35 27 39 35 51 32 33 30 39 36 40 35 24 35 43 37 41 31 38 42 38 25 34 35 38 31 30 35 35 36 36 34 33 32 33 33 34 40 42 45 37 30 37 25 30 28 38 42 33 34 37 35 32 37 48 31 41 39 52 37 33 28 30 34 39 33 33 37 37 27 32 33 33 36 37 48 41 41 31 44 35 42 30 33 31 47 26 32 29 33 27 33 29 31 53 32 33 29 39 22 30 40 32 35 33 36 37 33 37 41 36 27 30 27 42 38 30 31 29 40 38 40 39 31 37 33 33 32 26 37 35 33 28 32 25 26 30 33 33 26 40 49 33 29 38 26 32 41 21 40 34 33 29 35 34 25 40 35 43 31 28 33 31 38 42 33 33 29 29 25 36 38 49 36 34 37 37 37 34 39 33 32 46 38 37 29 30 38 38 41 34 26 31 44 21 47 40 40 37 40 33 33 35 36 23 31 31 44 37 34 34 23 37 40 28 31 26 42 36 35 41 41 42 28 38 36 38 32 37 26 43 37 36 21 38 46 47 35 33 35 31 34 42 38 48 34 35 41 32 34 43 40 35 36 32 32 33 35 31 39 34 41 43 34 38 37 30 39 40 29 33 27 27 44 46 31 27 29 36 36 39 32 36 45 41 28 33 40 28 36 30 31 41 52 26 28 35 29 38 41 42 24 33 35 35 26 43 36 35 47 39 26 40 40 38 27 31 38 37 28 35 41 46 33 41 36 34 28 50 32 38 38 27 33 46 29 28 40 30 31 30 36 42 28 27 37 34 36 31 40 34 35 33 39 31 35 34 37 35 35 39 37 47 30 21 37 37 32 28 34 32 33 39 32 40 35 37 43 40 30 36 42 46 28 42 26 26 27 34 28 26 29 44 36 30 25 34 39 43 34 34 36 46 37 43 39 40 33 29 44 33 33 30 31 36 41 30 26 30 33 30 33 28 29 28 36 38 38 31 27 41 42 36 31 37 40 35 28 36 42 31 47 33 36 32 31 36 47 40 35 42 25 36 37 40 27 44 30 34 26 47 48 34 33 34 40 32 24 34 30 34 31 36 29 34 40 38 37 33 47 62 38 40 33 33 32 33 32 24 27 28 36 37 38 29 32 37 30 39 36 39 35 33 40 33 40 28 37 26 37 33 32 38 24 35 32 32 38 30 31 42 45 47 43 29 33 41 35 37 47 33 48 32 43 31 43 35 33 48 44 39 38 38 33 31 29 34 39 43 32 32 39 40 32 39 35 33 34 34 33 33 36 25 43 34 38 25 48 44 44 39 42 38 31 38 27 39 39 38 29 39 34 30 32 31 25 34 45 39 37 35 39 32 35 36 37 28 28 31 35 27 33 41 37 36 30 30 36 27 35 47 39 38 32 39 39 38 38 25 35 28 33 36 45 34 39 43 38 29 30 33 36 36 40 31 33 40 27 27 34 38 33 38 39 33 28 33 29 44 34 46 29 30 47 33 33 35 38 40 25 32 36 39 40 38 31 35 43 28 35 27 35 35 37 34 43 35 28 46 23 41 25 32 33 36 28 48 34 30 27 35 27 34 38 35 39 39 30 33 35 48 44 38 35 30 30 30 41 34 47 35 32 27 29 35 48 41 35 40 34 46 37 49 41 44 30 35 32 39 33 40 36 38 26 32 37 28 37 39 37 42 29 40 35 31 29 33 31 54 33 34 31 39 38 35 43 34 41 31 34 37 42 36 33 30 29 35 30 36 26 29 32 41 39 37 37 35 36 31 29 33 46 37 32 27 31 35 33 33 36 35 42 32 33 39 24 34 43 27 34 34 34 45 39 40 23 40 34 42 35 38 38 38 34 38 38 33 30 34 37 36 36 34 24 32 36 31 44 39 31 37 36 36 37 34 27 36 40 36 35 32 46 21 36 38 34 31 37 36 35 35 36 38 37 26 37 38 36 31 29 31 28 32 27 38 35 36 28 38 48 48 37 38 31 42 34 44 34 34 41 37 48 42 33 22 34 47 27 30 40 30 39 39 31 37 37 37 40 30 31 47 25 32 27 26 32 35 33 43 34 30 36 37 26 31 37 44 39 37 38 46 37 42 38 39 42 43 35 38 29 33 39 29 27 39 32 27 35 36 37 34 29 29 26 36 43 46 26 33 43 27 40 24 34 31 34 30 38 38 45 36 42 42 36 29 36 49 46 37 36 43 31 30 30 35 46 32 34 35 35 34 43 41 36 41 36 32 33 32 23 33 34 40 38 45 30 38 36 42 39 28 35 34 36 33 31 39 43 37 30 36 33 34 27 23 28 23 33 35 40 27 38 34 34 37 31 28 40 40 22 45 31 29 38 33 36 38 38 39 37 38 29 32 33 36 41 27 25 27 35 41 39 36 40 36 33 31 27 42 37 44 37 33 39 35 28 51 32 31 33 31 37 38 30 29 29 26 27 33 51 41 24 23 45 40 34 49 41 33 31 48 36 42 38 43 30 35 44 39 30 34 28 46 39 38 43 36 24 31 40 36 39 30 35 40 31 18 31 40 39 40 29 42 41 26 48 28 30 33 37 31 33 42 31 38 34 40 36 24 28 24 38 46 34 36 35 36 42 22 29 26 34 36 48 32 30 26 25 35 30 40 32 35 37 31 49 26 32 28 48 32 45 23 33 51 24 41 31 42 37 42 44 44 28 29 29 34 31 30 34 39 27 33 39 45 25 35 40 31 36 32 37 32 30 39 25 29 30 29 50 35 28 33 40 38 47 33 39 36 33 32 39 31 42 30 30 36 52 35 30 38 34 30 40 33 32 42 42 40 28 34 36 28 42 28 42 37 31 36 30 33 34 37 38 42 38 34 31 26 37 31 19 36 29 26 35 39 41 29 26 33 38 34 25 39 24 32 40 36 40 37 30 33 40 32 33 40 33 36 37 35 34 39 30 43 44 30 36 31 28 39 35 25 32 41 33 39 40 30 42 32 34 28 30 30 38 35 29 35 37 27 34 47 36 41 31 38 23 40 30 30 33 30 30 32 35 38 35 35 38 31 31 35 33 43 31 43 40 34 46 26 32 34 41 32 39 41 28 40 38 35 37 40 35 36 42 34 44 45 25 36 36 35 38 32 33 29 40 36 39 33 32 38 38 29 29 38 33 28 29 30 30 29 32 36 37 39 29 39 36 29 38 37 38 35 38 24 33 30 31 42 30 43 40 28 33 33 33 42 30 38 35 37 33 31 24 24 36 29 34 36 35 42 29 35 34 34 35 50 35 39 39 34 36 39 28 35 43 32 26 30 34 27 39 37 35 36 32 34 26 31 45 34 41 35 36 35 57 27 48 35 36 29 36 39 42 20 33 33 31 42 34 36 41 27 33 33 26 29 33 31 34 35 29 37 41 27 36 39 33 32 33 31 35 38 33 40 41 40 28 32 37 35 38 40 32 38 35 40 29 33 30 30 34 35 33 46 50 38 36 39 35 58 41 34 42 39 40 38 41 40 36 32 28 41 27 35 36 43 33 34 37 37 36 32 34 29 35 25 47 35 30 34 30 44 37 42 21 29 39 43 42 45 28 35 30 33 29 28 29 38 30 39 24 41 42 32 29 26 37 36 40 35 23 30 40 30 34 35 33 27 39 35 29 36 34 33 27 33 28 38 31 33 38 32 39 34 32 31 26 32 37 38 28 37 32 30 44 38 35 33 38 35 31 31 38 38 39 44 28 34 38 34 33 29 36 34 34 26 28 29 34 34 34 39 38 32 36 43 32 39 31 22 26 42 29 37 35 35 38 45 27 45 33 36 27 35 36 30 34 35 30 31 32 35 42 31 28 38 38 36 39 35 43 27 37 31 33 31</t>
+  </si>
+  <si>
+    <t>JSB(14.201997978291612, 13.186213623664319, -593.5767976141194, 3282.678620291201)</t>
+  </si>
+  <si>
+    <t>248 258 287 168 322 221 168 289 175 180 219 195 208 251 236 177 230 260 268 185 174 312 331 255 259 225 228 302 279 257 253 260 281 262 181 399 210 141 254 222 231 230 212 199 229 285 290 334 278 233 279 193 238 156 200 198 194 212 217 242 247 359 278 302 301 230 263 179 232 248 298 272 240 254 262 306 231 183 228 225 232 251 306 247 307 279 158 307 272 236 208 269 191 253 251 222 252 195 259 306 220 293 181 301 264 237 218 257 296 278 256 229 184 195 322 323 386 268 233 235 240 157 237 179 249 247 312 254 219 308 191 261 196 213 176 209 244 295 230 245 200 189 219 256 276 267 206 278 256 283 269 200 294 285 244 190 233 181 229 244 271 226 248 324 182 334 282 178 221 199 229 224 230 351 249 253 257 220 168 228 257 297 259 299 175 310 269 282 286 194 284 215 289 341 284 199 256 241 229 234 350 227 170 217 247 222 291 251 234 278 286 308 177 269 257 214 197 240 234 269 210 286 231 262 308 240 234 238 195 228 304 344 259 205 213 339 179 252 134 251 223 311 152 226 291 309 243 259 296 223 247 193 286 181 303 302 266 308 312 263 200 169 191 246 218 279 243 288 265 375 179 152 190 231 161 197 217 247 282 268 302 246 290 182 226 229 269 270 247 251 233 259 245 374 129 291 219 168 283 316 246 217 248 181 187 205 181 234 302 207 297 261 213 201 233 164 252 226 299 289 321 232 290 259 245 232 211 224 244 250 260 223 208 200 273 297 306 282 322 184 237 274 263 265 287 248 298 228 233 191 199 170 262 231 334 290 253 220 282 261 279 275 183 260 187 246 319 218 207 193 221 217 333 275 261 233 173 160 243 259 268 237 261 309 230 204 228 257 218 221 198 307 265 264 315 272 273 264 204 175 226 258 229 247 238 282 211 221 262 209 283 238 293 282 322 234 216 237 153 256 182 252 244 212 217 278 297 342 240 196 212 199 237 312 295 246 230 261 278 268 246 213 304 248 228 238 232 217 192 260 243 245 244 248 279 225 283 239 207 230 190 315 252 211 208 273 319 293 331 193 226 335 236 218 296 169 234 316 258 215 182 227 213 185 156 233 227 277 191 268 252 208 207 183 286 177 189 260 324 168 247 233 259 196 162 213 176 196 202 260 317 259 269 262 239 285 263 262 335 191 280 259 238 217 185 319 182 257 228 218 141 255 307 238 241 262 254 214 236 228 243 280 188 307 247 220 263 211 240 267 201 289 194 204 305 329 260 235 241 239 261 304 229 293 251 294 267 208 218 237 265 259 223 218 248 159 180 290 209 209 241 275 319 223 264 263 262 234 255 325 215 241 145 226 212 201 293 242 208 216 336 252 208 287 244 268 133 341 184 264 240 284 276 265 234 248 277 147 219 289 210 270 217 193 219 289 172 160 227 226 283 226 225 232 245 240 262 252 216 247 204 221 307 307 242 265 309 251 215 159 251 330 226 230 198 176 284 212 217 274 295 289 220 174 219 177 251 222 356 229 215 238 250 292 238 254 276 188 324 213 248 228 196 311 219 173 135 167 220 105 178 258 255 224 244 302 187 304 272 267 332 168 227 220 193 262 310 223 319 230 210 272 297 298 166 284 346 224 212 222 225 254 228 217 263 190 289 196 226 325 222 184 196 190 202 211 375 309 310 264 149 261 225 229 243 274 357 204 233 340 228 210 177 280 235 197 243 261 195 265 213 281 348 238 283 170 272 303 247 279 211 218 260 267 188 240 225 252 270 282 230 238 318 214 245 189 270 160 277 291 294 216 360 270 250 237 255 176 282 352 181 201 253 244 279 193 326 222 162 308 142 245 238 229 246 349 194 219 329 257 223 267 206 225 368 222 183 250 222 247 230 177 206 233 258 175 217 232 251 175 249 172 427 272 263 196 154 164 249 233 223 224 186 296 234 184 261 111 271 233 182 196 184 203 188 207 166 175 248 226 355 322 244 204 220 275 253 300 160 252 330 274 291 251 226 277 188 214 211 339 278 208 287 195 239 269 236 218 275 195 178 202 255 230 223 243 319 233 273 252 263 260 398 247 255 260 215 178 234 295 220 324 138 223 228 220 254 191 296 233 229 263 238 246 303 254 251 293 232 215 244 256 306 189 260 240 210 172 202 183 203 330 209 144 305 262 287 210 322 281 342 247 258 224 276 211 215 241 283 206 161 301 176 291 244 191 183 249 272 291 272 263 203 213 311 124 169 227 201 256 282 351 303 254 247 254 211 289 283 267 201 203 240 282 228 373 153 262 252 314 335 254 312 304 161 278 117 244 230 228 194 166 311 237 165 323 161 317 245 262 190 259 230 192 155 226 253 249 154 214 227 254 236 305 190 187 216 298 156 226 232 214 228 219 250 244 209 229 255 242 251 183 277 238 289 282 196 239 280 278 189 275 226 186 240 230 199 242 262 190 234 247 251 182 189 212 261 203 284 232 192 252 217 200 245 181 258 385 225 201 147 202 256 228 249 183 248 213 309 172 264 269 256 264 267 195 353 221 213 147 259 153 267 315 204 213 204 212 268 306 209 262 262 259 166 194 212 268 169 235 261 123 197 201 243 252 254 210 300 242 258 216 293 248 236 265 234 200 315 241 238 282 286 291 306 288 254 209 235 248 256 246 322 188 196 230 256 228 297 180 282 230 199 219 262 179 356 238 206 266 203 203 243 243 144 270 235 181 248 206 167 181 180 250 272 230 232 274 240 264 276 177 166 214 239 244 272 314 202 229 267 235 221 305 362 199 272 249 259 227 203 206 282 225 203 283 162 398 241 298 239 186 225 363 236 181 170 185 203 264 235 206 211 219 224 233 299 257 212 228 187 327 257 281 173 269 184 253 203 201 226 202 299 273 245 270 271 206 215 208 241 191 196 224 180 196 217 179 201 238 280 257 198 246 190 341 300 299 301 294 244 270 226 219 231 243 282 124 164 345 243 223 195 201 216 235 183 317 204 306 221 393 323 275 277 229 288 345 185 266 319 173 229 253 252 252 259 297 313 147 233 220 219 201 204 207 315 348 176 197 237 197 247 236 292 230 217 185 278 223 257 159 149 269 264 301 261 209 270 237 237 225 229 257 198 162 260 196 263 173 199 239 290 173 201 225 249 365 226 228 220 189 229 189 333 178 167 287 227 217 197 231 240 271 219 224 250 193 178 206 229 315 218 257 249 203 228 246 278 259 291 270 221 294 343 294 228 202 334 299 232 244 189 230 127 230 269 265 287 282 258 177 310 229 227 254 196 272 187 254 241 221 227 190 243 252 369 305 216 306 207 285 214 314 290 198 275 226 236 240 283 270 190 312 262 269 250 205 270 311 252 230 270 148 334 245 168 155 282 154 282 301 340 240 248 316 200 257 267 247 125 144 196 232 259 228 249 248 216 242 301 225 259 267 263 218 232 231 273 228 227 250 265 252 286 157 220 234 245 278 218 200 207 231 290 180 239 237 203 269 237 249 192 229 232 253 309 170 170 248 248 190 296 298 286 328 244 209 219 200 229 314 187 242 222 261 237 226 247 328 202 167 232 276 250 194 191 326 288 246 153 170 229 297 172 285 195 189 231 266 242 267 240 296 250 183 222 285 367 245 275 242 236 282 174 304 191 235 325 120 234 258 186 295 220 269 166 289 226 286 269 200 171 266 220 239 302 187 190 231 256 210 268 266 261 205 228 173 257 223 150 197 335 249 98 342 168 301 276 241 220 202 259 239 316 181 247 278 270 266 184 224 221 219 291 241 225 179 199 244 214 244 304 294 288 192 146 267 272 316 261 213 182 210 225 251 159 255 248 133 288 164 183 290 243 219 243 327 240 253 229 266 192 240 226 238 265 243 237 340 236 203 203 232 263 159 197 218 223 253 305 235 217 227 229 216 198 215 258 229 153 205 130 295 265 275 266 185 307 295 161 252 271 159 226 230 314 247 251 257 193 212 168 256 284 241 288 246 246 341 165 294 210 339 243 290 202 163 186 270 233 247 267 167 174 180 266 226 175 233 192 255 181 177 208 222 257 272 255 157 227 312 315 245 254 188 240 231 239 214 205 312 290 312 252 206 236 346 160 213 302 257 162 247 266 191 240 224 205 250 217 214 272 349 277 219 256 246 175 343 123 204 228 154 173 438 280 263 260 272 213 223 208 179 246 254 309 302 265 175 303 225 285 234 234 267 183 149 214 197 239 189 284 230 236 220 235 217 314 237 188 295 336 286 193 266 197 253 229 338 190 230 193 130 262 237 194 285 238 245 355 267 186 209 255 353 240 201 178 214 201 204 227 265 263 258 266 294 187 281 119 144 247 289 237 293 269 199 231 217 240 347 227 233 292 251 234 205 305 290 255 284 171 234 234 214 191 264 344 280 275 231 281 139 257 285 212 284 250 291 238 289 213 201 259 219 222 152 264 326 204 153 254 299 194 230 221 314 249 156 288 211 253 173 214 284 201 241 200 295 258 174 179 265 183 221 223 286 240 168 299 169 227 192 164 286 303 261 274 182 243 226 238 323 294 243 246 164 246 205 188 273 276 330 214 165 179 348 199 143 233 344 278 255 255 299 258 201 220 232 212 219 269 213 257 313 270 257 246 327 231 208 178 284 247 91 266 221 246 212 256 259 311 244 282 240 193 223 299 270 295 160 182 218 175 278 268 242 201 342 214 271 206 162 199 218 232 177 274 230 208 244 216 239 265 312 256 222 274 186 255 243 218 318 297 231 278 271 260 249 262 205 236 271 241 302 236 76 269 277 186 246 306 163 230 213 222 254 243 272 224 214 244 138 248 302 224 244 236 249 360 244 240 209 198 172 294 215 332 218 287 279 214 257 166 288 219 305 162 242 254 248 281 194 287 172 254 206 223 237 314 233 222 284 233 237 198 262 235 229 192 212 229 217 161 216 198 132 206 253 382 337 219 300 201 267 229 169 200 265 198 250 228 183 330 264 270 172 155 257 266 222 263 182 266 237 157 236 211 227 313 194 317 253 206 253 246 200 309 305 207 192 260 332 183 281 199 146 146 228 195 263 180 234 219 185 241 299 283 211 176 224 237 147 253 205 302 333 283 275 234 287 214 295 266 108 175 294 238 228 234 219 283 267 254 197 286 191 193 248 140 277 246 268 159 207 239 215 311 262 279 300 139 172 173 213 227 276 260 287 193 365 206 143 284 185 307 198 222 168 225 249 243 213 222 303 252 238 227 227 191 216 282 308 237 161 279 215 280 331 200 239 270 168 280 260 286 349 229 262 319 181 317 215 226 236 226 253 168 248 231 237 193 262 330 260 241 258 296 210 215 198 258 219 309 291 335 273 277 288 248 241 272 239 239 226 278 257 175 217 232 220 192 228 240 281 225 313 269 269 269 227 195 300 215 176 230 288 259 245 229 222 198 212 240 255 299 188 153 204 268 165 226 210 264 262 313 231 190 218 340 232 220 263 232 215 168 283 300 316 272 246 199 243 276 179 205 180 152 315 238 244 195 229 160 283 259 271 231 295 148 170 248 191 227 205 215 200 281 249 291 202 196 195 227 250 219 179 224 247 231 189 196 265 185 209 214 189 289 182 361 223 296 248 230 152 224 274 209 195 293 212 196 209 182 182 247 253 239 279 221 299 318 301 330 258 264 234 204 215 305 232 334 172 258 221 152 176 251 277 241 226 407 259 279 215 195 268 255 264 257 244 215 216 206 238 297 204 256 221 164 341 170 316 202 175 220 222 225 215 373 208 224 168 298 166 184 200 260 242 213 286 259 251 226 188 261 277 244 304 223 294 294 177 309 229 214 235 265 371 238 303 281 236 262 191 282 241 216 250 211 301 117 263 280 159 232 243 260 209 295 202 254 304 161 235 232 143 225 279 213 252 283 275 294 222 279 249 224 252 255 383 250 309 245 305 296 176 300 275 304 155 264 291 242 280 221 272 309 333 290 142 295 257 207 297 235 204 200 268 254 206 177 250 244 274 216 226 196 271 230 284 245 303 226 303 279 215 299 345 186 240 185 234 239 214 236 250 246 216 172 266 262 236 286 209 171 218 266 232 216 213 295 244 258 195 184 257 287 289 203 218 324 179 179 206 287 250 191 164 217 241 256 206 298 241 272 174 179 215 225 186 148 203 169 246 178 264 210 304 300 297 251 227 243 230 268 227 194 294 233 295 248 210 245 279 234 265 218 198 302 116 319 307 288 295 279 307 275 246 203 294 330 279 229 168 217 171 268 345 264 231 221 216 294 258 198 248 272 208 215 247 267 221 214 210 298 189 286 219 258 224 128 293 271 267 286 130 267 251 186 309 226 239 224 261 257 282 260 271 226 190 275 260 231 152 219 278 273 178 242 230 198 289 261 202 258 234 293 300 174 182 261 274 300 260 270 196 294 273 174 229 241 273 247 222 201 309 163 245 254 343 251 278 206 128 226 146 191 234 132 287 333 282 309 294 309 255 313 264 262 305 256 172 202 190 206 131 291 258 142 234 174 294 276 364 231 225 331 171 259 226 190 267 292 241 222 253 168 289 193 297 280 244 252 258 199 208 235 243 338 192 252 204 250 241 290 289 147 279 180 176 217 229 263 217 327 280 306 308 253 235 225 270 203 298 292 270 220 235 218 201 264 172 194 364 233 261 197 178 253 241 235 150 283 206 235 231 199 277 297 207 275 197 215 220 193 198 305 252 322 190 209 246 312 248 253 259 222 175 315 252 283 181 209 226 269 267 228 237 236 172 315 224 273 256 304 228 187 258 223 230 306 228 195 221 220 287 180 254 282 304 282 195 187 198 188 230 190 300 194 239 216 351 228 229 187 280 201 261 161 321 178 194 238 262 266 289 295 280 242 161 200 272 236 176 232 281 305 233 161 196 192 133 193 295 245 190 239 229 277 205 305 255 247 312 178 195 242 298 261 277 256 281 169 247 251 239 286 269 275 259 281 216 199 271 235 183 221 277 226 239 193 305 290 280 233 260 272 272 221 170 282 328 222 223 228 189 308 337 230 188 173 166 203 227 246 237 269 157 313 232 170 260 253 242 267 273 243 295 197 303 274 243 220 191 228 282 254 222 192 203 337 253 338 213 287 203 259 360 199 282 179 147 241 136 289 205 276 201 219 228 254 251 148 176 262 316 236 186 250 228 264 248 233 279 236 239 287 212 199 164 235 296 257 265 245 274 271 182 239 270 223 263 243 282 303 213 173 226 256 239 234 206 342 238 306 227 255 287 244 185 249 281 240 216 343 281 184 237 215 262 324 239 273 226 181 289 255 267 154 176 185 292 259 217 291 243 287 307 234 172 226 265 200 308 210 306 298 199 233 215 292 226 275 271 299 272 220 179 197 283 293 189 262 252 233 250 231 344 176 289 285 203 210 248 193 182 185 136 231 305 194 215 286 196 251 250 209 276 93 302 246 241 211 262 267 229 277 227 188 295 199 193 171 248 248 221 274 253 279 240 196 247 280 170 227 361 199 269 230 277 292 325 91 232 212 273 252 223 281 279 293 235 175 336 223 231 208 176 176 219 236 304 209 241 200 203 212 195 232 236 290 277 279 218 342 248 251 201 314 236 293 276 254 217 176 341 271 258 238 260 248 214 217 179 220 300 269 223 240 260 298 258 288 224 246 292 195 254 180 224 163 323 223 186 294 194 184 150 182 302 274 249 246 294 209 249 232 183 296 224 226 339 253 192 226 162 324 291 195 190 236 203 281 218 239 211 173 222 290 225 209 333 274 240 331 220 222 165 227 257 272 374 222 257 202 299 262 178 280 241 314 164 191 303 194 167 280 120 210 180 186 193 270 277 267 303 257 283 221 189 296 239 306 171 142 221 146 253 280 213 277 275 263 307 239 195 318 221 353 218 263 298 213 221 297 224 248 208 185 286 252 265 247 206 209 213 170 273 252 202 192 187 260 279 282 263 263 245 189 215 192 294 282 252 202 205 244 177 201 270 274 201 181 189 222 235 253 274 288 241 162 228 260 192 314 221 333 227 278 288 310 235 172 127 284 283 172 232 155 231 185 302 197 315 343 225 285 178 225 232 283 204 229 125 243 240 285 324 174 253 198 193 432 220 235 248 288 241 307 160 217 286 274 269 197 287 357 210 168 242 237 190 268 219 210 310 251 233 235 216 219 217 271 287 242 246 249 241 256 230 201 230 218 210 252 297 241 280 238 259 260 244 212 223 155 278 204 313 269 263 272 348 250 240 198 129 155 285 235 230 248 236 239 185 209 252 323 258 257 252 177 295 212 193 272 214 278 238 215 226 302 191 252 283 234 282 342 205 249 214 225 244 191 295 308 200 183 125 298 239 218 201 204 282 241 276 305 301 175 231 257 159 259 292 167 312 229 250 201 154 259 207 235 235 260 250 219 203 198 283 194 192 289 220 207 204 219 230 191 198 251 286 156 257 228 212 249 136 208 241 246 237 225 242 240 235 336 239 202 233 256 233 216 290 308 221 289 268 267 227 205 309 203 315 307 167 180 278 243 163 204 235 146 326 148 256 215 231 206 251 231 300 274 243 283 252 239 229 158 322 261 340 243 271 343 289 194 195 322 271 265 316 242 185 319 315 207 197 315 204 235 237 201 285 217 200 240 356 238 128 243 230 304 215 200 234 184 252 200 283 214 279 264 253 275 207 285 268 269 276 156 233 212 305 167 233 213 241 175 253 185 183 263 255 420 249 194 250 193 193 248 273 308 291 260 240 237 203 237 316 201 157 279 207 279 200 329 244 217 241 254 247 216 120 213 244 304 288 247 245 181 309 267 292 240 288 243 209 259 234 308 256 180 266 192 261 257 207 216 250 231 217 260 268 213 174 308 311 277 240 173 235 273 234 227 290 294 153 257 253 206 264 282 305 278 223 242 269 265 193 186 365 234 271 354 223 213 172 233 210 175 223 220 252 225 268 204 251 152 261 255 271 202 213 224 308 294 220 278 163 198 207 259 301 225 177 189 48 185 200 279 235 216 234 289 248 179 149 189 169 222 220 170 213 187 339 282 278 201 272 292 207 245 282 184 204 152 257 238 266 338 216 275 322 210 287 216 237 321 199 183 284 215 202 178 226 273 176 218 293 322 358 263 238 291 253 267 232 309 195 180 204 302 180 203 247 241 261 265 227 213 219 189 322 223 230 291 242 292 245 268 186 167 232 218 262 172 243 162 234 208 210 298 222 252 200 201 200 240 185 217 258 229 286 334 222 255 223 220 288 257 269 288 241 232 236 220 209 171 234 268 305 208 235 245 267 187 232 228 214 246 260 254 208 302 290 159 166 293 207 177 220 172 328 266 301 306 241 265 310 264 250 311 202 132 216 213 285 250 293 252 231 269 219 235 277 232 251 229 288 237 253 258 201 155 248 194 196 261 259 214 185 206 244 248 257 251 317 189 205 332 278 216 269 241 265 176 159 180 301 263 277 221 196 176 210 250 252 326 278 293 255 117 189 237 270 203 323 252 317 181 216 145 251 267 258 207 258 172 217 285 183 243 334 220 278 185 316 299 241 251 199 234 277 201 238 188 323 325 272 219 194 201 273 224 227 172 219 210 199 218 261 207 252 192 312 262 235 270 266 226 289 259 179 193 179 238 253 204 265 225 255 182 263 199 282 299 288 324 121 246 198 266 273 111 231 210 263 253 205 252 241 253 239 261 281 267 241 236 168 223 263 213 274 200 238 223 173 237 220 292 184 232 260 266 271 204 282 230 311 218 259 227 187 232 239 292 291 290 251 320 209 192 239 284 306 256 358 232 304 224 229 213 235 200 223 287 272 203 306 262 279 283 292 219 238 238 150 203 349 209 157 208 298 334 291 235 336 319 219 229 236 232 271 293 234 191 279 181 229 218 256 267 225 266 195 246 246 245 175 224 290 189 261 204 195 303 293 303 194 244 241 272 303 290 166 207 224 232 266 226 179 234 170 226 318 296 263 263 229 272 315 216 291 204 226 125 280 277 279 303 295 253 311 238 276 237 285 245 270 303 250 268 250 168 275 186 308 250 276 270 256 252 236 265 355 302 206 152 202 225 303 242 181 275 161 260 282 312 281 224 216 261 201 229 186 299 159 226 232 297 150 169 272 146 234 200 226 199 229 257 203 273 259 350 262 243 217 260 244 278 298 251 302 277 212 203 288 250 221 282 181 240 270 148 136 254 196 192 222 182 256 195 241 214 200 240 178 258 203 290 356 218 257 219 197 323 196 221 194 257 336 202 299 328 182 236 258 270 300 204 242 196 173 267 219 200 269 157 216 180 273 176 251 220 304 272 221 202 248 270 290 279 278 284 335 309 194 198 142 172 228 132 260 278 211 328 205 208 162 305 195 366 244 264 293 314 313 259 246 211 288 214 284 243 230 212 209 254 217 244 277 186 243 188 213 236 219 244 199 221 292 320 207 257 232 231 249 266 309 225 230 261 191 276 293 194 278 271 273 216 246 275 189 257 222 290 139 277 181 235 166 261 126 231 284 304 246 299 211 202 239 200 246 243 268 180 194 274 221 237 356 223 268 279 232 243 268 214 183 261 236 297 277 321 186 285 281 263 283 192 247 174 227 208 311 185 272 263 265 221 230 284 204 282 222 287 206 109 279 221 187 167 222 275 267 284 155 282 277 143 239 227 139 222 207 263 239 172 239 227 298 206 267 196 333 234 336 232 198 209 249 184 343 226 227 290 255 218 236 262 328 251 310 295 216 201 246 244 320 232 177 287 315 254 323 286 212 186 201 156 173 221 366 229 236 201 225 163 246 250 242 201 250 259 275 254 155 300 259 239 309 223 260 237 228 242 253 219 154 268 242 253 201 186 227 211 265 243 240 187 284 237 279 263 228 195 251 241 197 298 243 328 216 316 312 297 287 238 292 236 284 257 217 296 259 180 264 335 194 131 224 268 309 199 205 265 297 223 115 203 279 173 197 204 279 247 339 229 266 317 291 212 287 228 322 203 280 300 217 189 276 372 336 247 192 158 234 258 264 306 260 350 247 256 288 304 312 235 247 238 251 308 218 279 227 310 201 344 226 298 178 224 134 225 203 316 328 169 322 249 174 214 258 259 168 209 299 219 243 333 176 266 334 230 127 265 185 251 287 211 180 212 232 219 232 219 267 225 272 236 239 228 213 297 274 239 252 263 262 300 228 243 250 283 229 209 286 204 193 248 207 250 212 261 233 280 251 226 153 202 328 305 297 237 207 186 253 304 301 310 258 266 265 225 268 202 259 173 258 220 245 214 265 162 233 199 203 227 243 180 327 271 270 308 310 192 270 195 280 220 209 288 154 144 311 287 214 258 293 254 246 236 281 255 304 326 220 240 278 277 337 137 149 343 209 185 232 250 231 280 264 210 280 240 285 265 261 233 178 257 237 268 272 252 215 105 233 227 256 150 271 282 189 292 263 213 298 239 253 247 257 271 197 212 234 272 334 295 281 302 206 232 249 228 125 273 255 283 265 361 255 249 235 275 372 268 282 222 239 221 322 191 302 220 359 200 165 235 153 295 197 199 237 248 268 288 240 265 155 158 202 215 225 221 227 176 290 279 193 309 195 319 176 310 254 167 217 187 236 253 245 310 279 253 252 220 281 286 220 206 177 243 210 164 181 242 223 235 197 217 234 249 193 235 303 265 246 265 261 216 261 259 242 220 173 179 208 234 255 265 270 301 297 238 283 378 193 292 225 235 192 134 129 239 345 256 90 250 255 236 191 229 230 223 254 331 343 178 249 268 225 292 257 219 309 244 250 353 213 251 153 230 291 211 319 160 229 270 309 229 181 291 234 248 190 160 112 220 256 217 196 198 195 261 235 314 259 178 217 246 274 175 209 261 249 196 245 247 320 230 269 266 207 275 204 225 201 206 258 324 263 244 263 179 274 210 277 231 186 230 262 226 213 279 219 294 250 208 230 209 188 245 291 325 275 295 256 289 288 194 253 314 229 243 190 265 300 228 230 236 232 363 224 283 345 173 288 171 268 232 200 295 225 260 97 219 256 243 141 255 260 186 264 209 254 271 240 245 221 250 306 253 197 326 205 316 251 246 285 229 155 285 253 277 248 302 296 283 285 266 277 214 220 178 241 294 133 257 184 292 260 196 244 229 241 179 172 208 279 325 165 182 275 286 234 192 154 266 253 336 180 235 231 225 255 179 248 271 145 182 249 299 207 216 297 303 313 279 236 301 233 207 297 214 331 256 246 134 233 198 246 289 188 216 260 271 241 252 179 220 271 171 299 292 243 197 167 269 275 276 255 276 204 286 213 340 221 229 272 308 239 97 246 265 258 309 315 312 260 256 216 263 222 161 229 300 177 317 231 270 192 275 312 209 192 274 168 202 207 301 213 140 272 255 293 151 314 189 229 214 277 239 282 276 161 180 297 256 273 256 280 237 235 251 351 301 186 242 226 256 209 233 221 363 264 180 334 203 230 199 193 265 293 180 212 189 178 258 251 231 197 186 255 337 230 242 266 253 306 255 237 192 244 222 239 179 299 209 316 232 274 312 238 254 234 231 255 245 260 146 257 158 154 222 212 201 246 241 238 228 280 311 276 256 269 266 202 187 181 296 205 266 284 320 225 305 288 217 175 230 197 244 187 138 156 224 306 247 176 274 300 275 333 281 211 210 179 229 207 265 180 198 225 266 231 233 324 253 195 209 208 252 206 215 206 269 254 186 296 316 165 264 303 203 212 142 243 231 277 267 182 260 250 239 231 213 274 196 254 242 253 276 283 215 214 272 215 244 234 256 244 245 202 153 177 227 263 195 225 317 302 231 244 230 260 235 254 269 300 207 313 242 233 294 341 182 247 267 178 213 146 193 277 217 346 208 243 222 305 175 214 185 285 238 299 207 174 180 263 222 217 238 251 253 202 251 247 273 177 349 152 340 224 275 246 154 218 194 213 282 211 184 274 262 224 199 242 260 224 187 187 302 175 238 223 208 227 188 252 243 212 165 205 217 174 230 316 300 237 179 260 211 256 244 236 356 210 201 194 278 243 244 201 283 241 365 271 270 220 340 298 249 196 206 293 224 203 221 152 212 207 194 203 234 237 213 252 209 264 185 346 252 234 171 278 209 266 224 197 253 186 280 243 210 229 241 196 272 208 222 302 240 196 242 285 229 236 237 236 267 278 241 167 255 217 191 272 107 206 159 188 145 238 268 218 288 178 165 268 380 264 256 196 229 320 260 206 187 201 226 216 284 286 294 270 265 214 252 264 285 251 143 224 279 251 278 280 244 212 283 192 250 253 174 298 236 200 137 266 289 228 250 228 170 301 273 218 289 179 257 308 229 208 216 296 273 280 169 190 299 236 337 252 265 201 232 236 271 301 261 163 209 197 302 263 305 312 229 193 323 276 290 251 195 332 254 236 204 213 220 212 289 217 290 271 340 154 268 250 271 188 296 266 232 306 293 269 360 301 196 218 190 260 240 216 251 207 245 300 292 282 264 259 222 326 279 240 291 229 282 225 231 198 299 324 223 345 119 273 259 216 342 228 226 151 203 177 243 173 189 286 290 214 254 211 270 304 288 266 205 228 217 279 255 224 244 263 314 230 249 179 235 308 260 247 230 197 275 149 313 220 288 258 268 231 241 142 238 357 177 260 208 200 299 195 195 195 233 182 234 182 325 279 248 276 234 296 216 231 187 244 196 282 306 220 250 175 338 323 262 285 283 182 301 190 296 345 205 257 188 232 287 219 253 338 165 233 234 227 335 309 176 287 278 195 174 158 227 289 150 336 208 263 288 268 259 319 263 272 192 287 224 241 242 258 240 159 260 266 151 162 238 305 315 213 241 277 328 243 200 234 322 177 186 207 306 238 241 258 241 250 293 231 186 271 274 340 248 151 259 246 203 265 228 285 231 224 340 263 263 259 241 256 322 133 277 304 204 216 211 195 292 248 306 220 228 229 323 309 199 325 330 250 269 289 285 355 329 218 283 332 276 264 105 188 246 271 245 203 246 192 167 230 248 217 304 233 182 238 290 247 224 266 318 185 205 203 222 173 248 157 227 293 224 243 288 192 166 222 244 297 216 179 239 184 199 246 282 231 193 284 257 238 193 252 213 247 286 256 302 275 299 293 210 332 243 246 152 236 181 244 198 261 133 302 258 261 185 183 259 187 239 279 174 261 235 302 153 311 201 237 198 222 238 259 305 193 238 204 225 187 249 216 217 227 141 224 271 297 182 200 198 246 231 262 98 328 194 264 350 184 251 283 262 241 354 215 296 312 240 298 230 259 287 276 196 172 253 249 285 251 267 181 190 210 278 270 201 262 168 303 220 222 142 233 209 267 263 176 211 256 203 277 220 289 309 234 248 240 212 268 272 331 279 183 310 241 248 301 224 167 204 258 318 309 209 230 236 214 254 164 221 206 394 296 171 249 171 304 289 144 291 304 252 185 234 252 169 307 256 242 209 249 191 233 285 288 206 248 185 324 286 266 202 286 236 194 254 187 224 237 169 249 326 194 271 164 217 313 251 218 294 324 231 276 165 271 262 221 255 217 272 212 116 265 212 209 210 250 209 229 246 266 190 321 197 313 280 274 224 236 261 259 200 238 149 318 210 223 278 241 333 322 194 271 251 170 285 159 189 222 233 206 145 274 299 279 194 306 181 182 217 305 268 268 308 311 273 282 214 250 238 202 205 266 224 322 219 206 231 224 216 211 298 240 350 238 201 267 238 269 264 298 184 201 260 138 189 289 169 219 246 250 230 245 185 197 243 204 210 132 281 273 265 211 208 198 170 121 183 209 283 267 190 256 234 269 272 322 213 293 322 146 306 306 325 278 323 239 197 260 195 205 292 182 206 189 393 247 237 196 280 233 231 253 351 269 218 206 330 154 176 213 267 322 272 192 256 343 227 273 213 312 204 211 208 364 238 234 305 305 306 242 240 339 282 266 257 280 164 236 254 231 258 232 253 325 173 379 220 137 186 221 243 291 248 308 238 323 181 221 239 254 279 268 224 187 217 239 177 271 274 268 146 258 339 315 219 362 263 226 200 304 265 193 217 240 205 268 165 237 284 301 153 167 185 142 212 193 247 185 257 175 288 203 210 199 258 305 228 187 210 223 225 230 302 259 240 247 315 256 252 136 234 227 201 247 201 276 220 313 378 195 183 235 232 201 220 292 260 140 201 249 226 208 208 225 206 198 266 334 190 317 243 256 274 262 261 306 260 254 275 190 234 199 257 183 205 219 221 160 231 197 280 244 226 244 311 227 251 259 215 187 202 299 202 212 173 254 214 186 245 210 216 325 224 291 232 306 296 195 274 286 181 187 204 265 257 193 226 273 251 225 226 233 190 217 258 295 137 227 350 166 315 194 330 277 198 251 278 206 202 182 301 220 293 226 215 348 315 184 263 199 156 261 284 211 199 265 201 208 350 197 264 169 167 295 257 192 298 190 195 183 286 263 204 270 242 300 244 267 236 267 259 257 247 246 309 248 171 210 211 178 181 289 159 194 166 268 196 179 87 252 288 193 220 243 171 162 221 308 225 305 270 169 273 254 317 196 234 244 192 215 237 193 193 277 310 199 201 361 222 240 207 170 265 261 274 186 179 207 140 190 237 244 191 213 310 242 152 262 235 252 336 307 241 242 163 267 191 163 299 225 190 222 270 289 209 175 73 293 210 197 228 242 285 204 239 268 233 205 179 271 282 280 232 280 295 335 235 251 290 222 158 216 326 238 157 224 297 193 235 112 315 251 135 266 258 207 239 215 187 230 122 254 257 239 229 219 258 184 223 278 241 274 274 319 277 311 265 194 239 245 310 265 249 252 301 189 208 266 191 293 254 287 226 214 229 245 296 277 246 320 347 163 274 189 158 249 364 230 296 258 214 208 283 288 224 256 201 221 211 294 203 219 308 235 199 248 143 235 236 202 289 281 164 349 200 267 217 197 260 187 296 222 223 362 255 212 208 300 277 225 180 299 270 356 217 225 194 219 294 218 218 166 288 232 262 198 228 278 268 221 241 272 175 241 238 195 186 198 195 213 194 238 260 207 217 342 195 259 298 262 227 213 224 255 254 261 229 264 189 281 247 233 213 234 211 235 167 216 199 200 236 206 219 219 242 226 231 265 263 270 216 283 195 259 238 242 320 249 261 178 277 269 220 302 227 216 277 315 247 398 327 329 229 262 311 227 309 257 235 213 250 278 152 221 210 295 236 213 231 337 204 263 271 318 203 247 209 230 238 263 250 237 202 204 194 252 255 182 201 255 260 190 275 228 232 255 181 295 268 273 321 307 288 272 229 339 184 216 272 275 226 252 226 263 330 350 277 288 258 239 232 226 211 210 192 290 295 190 243 192 299 262 222 203 195 232 192 188 221 181 189 240 204 214 276 315 241 240 249 199 219 110 286 181 255 295 205 306 277 263 303 291 233 298 161 279 349 289 283 136 304 292 237 214 198 251 214 196 162 326 152 216 249 210 321 226 249 314 263 181 144 292 351 251 239 237 267 307 212 189 190 239 300 249 214 286 345 233 268 259 261 295 311 221 198 240 192 263 234 269 201 294 198 283 291 216 192 173 309 168 222 307 146 250 310 230 260 216 257 292 134 284 303 230 151 230 256 146 270 212 236 225 226 219 302 190 193 201 188 264 215 208 264 163 301 216 200 234 202 281 209 146 328 194 247 222 252 264 348 296 200 220 251 211 210 328 207 326 295 269 263 320 221 192 223 207 168 152 239 238 220 226 203 276 224 233 303 385 234 246 279 261 168 153 354 182 206 184 206 250 258 173 232 209 223 243 237 250 243 238 231 255 233 259 240 257 244 176 242 311 243 208 246 202 238 199 247 171 193 207 236 251 261 292 288 318 269 220 167 260 286 169 281 195 245 192 250 272 203 196 337 281 299 239 236 293 209 214 208 222 302 342 229 242 239 227 259 161 232 261 166 391 229 300 268 302 276 222 225 249 281 210 151 198 294 219 236 269 345 268 263 269 187 216 348 338 235 224 216 295 271 305 234 259 184 246 312 336 238 222 220 239 210 251 294 199 255 254 220 187 324 209 203 242 231 217 204 215 244 227 182 228 182 263 277 171 285 254 153 222 349 200 294 272 272 229 246 269 223 312 261 244 306 240 202 253 206 234 155 154 265 252 321 292 172 193 316 260 191 225 299 235 231 310 156 199 280 194 202 322 304 225 156 215 253 244 267 285 274 184 247 242 208 256 202 305 262 302 321 215 283 192 233 193 323 246 157 287 220 271 283 182 251 317 196 249 255 268 224 289 191 235 222 282 290 215 303 223 233 260 220 256 188 257 147 255 231 250 295 215 312 251 297 312 319 258 216 299 313 287 209 306 235 260 251 315 176 322 227 232 235 237 278 208 235 291 249 249 181 200 188 290 247 263 234 219 305 301 287 206 253 234 223 164 227 213 230 243 207 329 215 243 302 285 286 239 311 312 197 247 282 208 234 297 256 227 242 222 291 253 271 183 278 292 244 223 240 243 259 217 132 219 257 270 280 263 269 163 341 271 238 234 210 212 194 307 234 191 308 275 199 289 214 265 219 318 247 209 293 244 296 323 205 256 273 244 287 259 272 245 254 154 241 249 303 264 217 301 204 247 169 242 260 216 215 203 265 228 279 245 179 271 296 196 315 334 258 223 158 257 267 290 259 289 180 229 212 236 342 286 157 314 310 270 247 201 275 232 287 256 201 204 206 232 214 281 184 229 297 293 198 209 165 201 216 224 255 271 193 225 215 219 207 228 249 175 232 276 292 263 319 271 205 240 242 223 253 284 238 245 294 196 249 255 218 226 277 297 247 218 271 254 230 235 229 291 209 314 302 203 289 270 259 264 258 349 223 105 213 195 308 296 219 273 223 302 214 205 327 164 199 215 340 299 277 252 214 263 240 316 217 255 298 290 281 144 251 342 286 236 160 294 311 266 252 207 269 284 253 160 256 219 249 223 200 246 194 207 226 273 250 303 180 351 268 233 250 294 154 243 240 375 293 241 246 286 233 195 148 207 215 285 214 199 292 220 224 221 265 233 229 341 183 170 261 311 247 227 165 260 190 264 326 243 261 305 290 247 341 266 183 249 291 214 203 237 237 231 217 201 182 243 258 243 272 261 300 257 280 222 283 303 229 301 240 293 305 131 226 284 245 237 275 264 240 301 226 227 235 252 227 316 214 174 258 209 302 304 235 266 229 260 202 236 273 249 339 261 263 240 272 249 187 311 210 212 235 302 250 258 278 270 211 202 281 231 250 254 271 316 206 286 298 264 137 333 274 245 197 322 293 209 285 276 284 264 306 235 275 334 264 338 314 266 216 304 320 283 314 300 347 243 163 309 327 274 222 260 248 275 245 244 225 240 229 217 224 266 259 218 239 201 274 258 228 205 220 295 268 216 234 194 306 330 328 229 269 176 200 309 289 177 237 292 187 216 217 232 307 315 282 259 190 175 241 208 205 333 291 261 231 139 284 203 280 271 266 220 175 325 262 203 318 233 288 237 248 174 192 233 174 257 344 290 214 232 313 150 228</t>
+  </si>
+  <si>
+    <t>MIE(0.6128152453752599, 1.8260782157541242, -1.8395275514359503e-30, 1.9275281725034237)</t>
+  </si>
+  <si>
+    <t>1 2 1 1 5 1 2 1 1 1 2 0 2 1 3 0 0 3 1 1 1 1 2 1 2 0 2 3 3 1 1 3 2 1 2 1 0 0 2 2 2 3 0 0 0 2 1 1 1 2 1 0 1 0 0 1 0 0 1 2 2 1 1 1 3 2 3 1 2 0 2 1 3 1 0 2 2 1 2 2 2 1 3 0 1 0 0 1 3 0 1 0 1 1 1 3 0 0 1 3 0 2 2 1 0 0 0 1 3 2 1 0 1 0 2 2 3 2 1 2 1 1 1 1 2 3 1 3 2 2 1 2 1 3 1 0 2 3 0 1 1 0 2 3 0 0 2 1 1 3 0 1 1 2 1 1 1 0 1 1 2 1 2 2 1 1 2 0 0 2 1 2 1 1 0 1 2 2 1 1 1 1 1 2 1 1 2 2 0 2 1 2 1 2 2 0 2 0 1 2 2 2 1 2 2 2 1 1 1 1 1 1 4 3 4 0 1 2 0 2 1 1 1 1 3 1 1 2 0 2 1 3 1 2 1 1 0 1 0 0 1 2 2 2 2 1 3 1 1 3 1 1 1 0 0 2 2 2 2 2 1 1 2 1 0 2 2 1 3 4 1 2 1 1 2 1 3 0 1 1 2 2 0 0 2 2 1 0 2 1 0 3 2 1 0 1 2 1 3 1 1 2 1 0 1 1 0 1 1 1 2 1 0 0 1 0 0 3 1 1 1 2 1 0 2 1 1 1 2 2 1 0 0 1 2 0 2 0 2 0 0 1 2 3 2 0 3 3 2 2 1 1 2 1 3 0 3 2 0 0 2 3 0 1 2 1 1 0 1 1 0 2 2 2 1 3 1 0 2 0 1 1 1 2 2 1 1 1 1 1 1 2 2 2 3 1 2 0 1 1 2 2 0 3 0 1 1 0 1 2 2 2 2 4 4 2 2 1 0 2 1 0 1 0 1 1 2 1 1 1 1 0 2 1 0 1 1 0 1 1 1 1 3 2 0 1 0 2 1 2 3 2 1 2 1 2 0 1 1 2 1 1 2 1 1 0 0 3 2 3 0 2 0 1 3 1 1 0 2 1 0 0 2 1 0 1 1 2 0 0 2 1 1 1 1 2 2 1 4 1 1 1 3 0 0 2 0 0 0 2 1 1 3 1 1 0 2 3 1 3 2 1 0 0 0 2 0 2 0 2 0 0 2 1 2 0 2 1 2 2 1 3 1 4 2 1 2 2 2 2 1 3 0 2 1 0 0 1 2 2 1 2 1 1 1 2 0 2 1 1 1 1 3 1 2 2 1 2 1 1 2 2 2 1 0 2 1 1 1 0 0 1 2 1 2 0 3 2 2 1 3 0 1 3 0 3 1 1 3 3 1 0 1 1 2 1 0 0 2 0 1 3 2 2 1 3 1 2 3 1 2 3 0 1 1 0 1 1 1 3 1 2 1 2 0 3 1 3 1 1 1 1 0 2 1 0 2 0 0 2 2 2 2 0 3 0 1 2 2 2 1 2 1 0 0 4 0 0 0 2 3 2 0 2 2 0 1 0 1 0 1 2 2 2 0 2 1 2 3 2 3 1 2 2 0 3 4 2 1 1 0 2 1 1 1 2 2 2 0 1 1 0 1 1 2 0 1 0 1 1 1 0 0 2 1 1 2 3 0 2 1 1 0 2 1 0 4 2 1 2 2 0 0 1 1 1 1 1 1 0 0 2 0 1 0 1 2 1 0 0 0 1 1 1 2 1 1 2 2 2 2 1 0 0 1 0 0 2 0 1 2 1 2 2 1 1 0 0 2 2 0 1 0 2 1 1 2 0 0 4 2 1 2 0 1 2 2 0 3 0 0 1 1 2 3 1 2 2 1 2 1 2 0 0 1 1 0 3 1 0 1 1 5 0 1 0 0 1 0 0 0 1 1 3 1 0 2 0 1 1 0 2 1 1 1 0 0 2 1 0 1 2 1 1 0 1 0 3 1 3 3 0 1 0 1 1 1 1 1 1 3 1 0 2 1 1 0 3 2 1 0 3 3 1 1 0 1 1 4 1 0 2 1 2 1 0 1 0 2 3 2 2 0 2 2 3 2 1 2 1 1 0 2 1 0 0 1 1 2 1 0 2 2 2 3 1 1 0 1 0 1 2 1 2 3 2 2 1 2 2 3 3 1 1 0 1 0 0 1 0 0 2 1 1 0 1 1 2 1 0 2 2 1 0 2 0 0 1 1 1 1 2 3 1 2 1 0 1 3 2 0 1 1 1 3 2 1 2 2 2 3 1 4 0 2 0 2 1 3 0 1 2 1 2 0 5 0 3 1 2 1 1 0 1 0 1 1 2 1 1 0 2 1 2 1 1 2 2 0 0 2 0 1 0 0 2 1 1 1 2 2 1 0 1 0 2 1 2 1 2 1 2 1 0 2 2 1 1 2 0 1 0 2 0 2 3 0 2 3 1 0 0 1 2 0 1 2 2 1 1 0 2 1 0 2 0 1 1 0 1 1 1 0 1 2 3 1 0 2 1 1 0 0 1 1 2 1 2 2 0 2 2 1 1 0 1 2 2 1 3 1 1 2 0 2 2 0 0 1 0 1 0 1 2 2 0 1 1 0 2 2 3 3 4 2 1 0 2 1 2 1 1 2 1 1 0 0 2 0 1 2 1 2 2 0 0 3 3 1 2 1 1 1 0 0 2 1 0 2 2 1 1 1 3 1 0 2 2 2 2 4 0 1 1 1 2 1 2 1 1 3 2 2 1 4 2 3 1 1 2 2 1 1 1 1 0 1 5 2 1 1 0 1 3 3 0 2 1 2 1 1 1 0 0 1 2 2 1 2 1 0 1 2 0 1 3 2 0 1 2 1 0 3 0 1 1 1 1 0 1 2 1 1 0 1 1 1 0 1 4 1 3 1 1 2 3 2 1 1 3 1 2 1 0 3 1 1 0 0 1 3 2 2 1 1 0 1 1 1 2 0 3 2 1 1 2 1 2 0 1 3 0 3 1 1 1 2 0 2 0 1 1 0 1 1 0 2 2 2 0 0 1 2 2 1 2 1 1 2 0 2 0 0 1 2 1 1 3 0 1 0 2 2 2 1 2 1 0 1 0 0 2 4 1 1 1 1 2 1 0 0 1 2 1 3 0 2 1 1 0 1 1 1 2 1 0 1 0 1 0 1 3 0 2 3 1 0 1 2 2 3 2 1 3 3 2 0 0 2 1 1 2 1 2 0 0 1 1 0 1 2 1 2 1 1 1 1 1 2 1 2 1 1 0 1 4 3 3 3 1 1 2 1 2 1 1 1 2 2 1 5 2 0 2 1 2 1 1 3 3 1 0 3 0 2 2 2 1 1 2 1 2 1 0 1 2 1 2 2 1 1 0 1 2 4 2 1 1 2 1 1 1 1 2 1 3 0 0 3 0 0 2 1 1 2 1 2 2 0 1 2 2 0 1 1 2 1 2 3 2 1 0 1 3 1 2 3 1 1 0 1 0 0 1 2 1 1 0 0 1 0 1 2 2 0 3 0 0 1 3 0 1 2 2 0 0 1 2 1 1 0 1 1 2 0 0 2 2 1 2 1 3 0 3 1 0 1 2 2 1 1 2 0 1 0 4 0 1 1 0 1 1 1 2 0 1 0 2 1 3 0 2 1 2 1 0 3 1 1 1 1 1 1 1 1 1 2 0 2 1 1 2 2 2 0 3 2 2 2 2 0 0 2 1 2 0 2 1 1 2 0 3 0 1 2 2 2 0 2 0 0 3 2 1 1 1 0 1 3 1 1 1 0 1 0 1 0 2 1 0 1 0 2 1 2 0 2 1 1 0 0 2 1 1 1 2 0 3 0 3 2 1 1 1 1 0 1 0 3 1 2 2 2 1 0 2 0 3 2 2 0 1 0 0 0 1 0 1 1 0 1 2 1 1 0 2 2 1 1 1 1 1 0 1 3 3 0 0 1 2 2 1 0 2 3 2 1 1 1 0 1 1 1 0 0 1 1 1 2 1 2 2 2 0 2 0 1 2 1 0 1 2 2 1 0 1 1 3 1 3 0 2 1 1 1 0 1 2 1 1 2 2 0 2 3 1 1 1 1 2 2 2 1 2 0 1 0 1 1 1 1 1 1 0 0 2 2 2 2 2 1 1 1 1 0 2 0 2 0 1 4 0 1 0 2 2 1 1 1 0 2 2 1 2 3 2 3 2 2 1 0 4 2 2 1 3 1 2 2 1 1 2 2 0 2 2 1 2 1 2 2 2 0 2 2 1 1 2 3 3 0 1 1 1 0 0 2 1 1 3 0 0 1 0 1 1 0 0 0 3 1 1 1 2 1 2 0 0 0 4 0 3 2 0 1 1 2 4 1 1 1 1 0 1 2 2 3 1 1 2 1 2 0 2 1 2 2 0 1 3 0 0 2 1 1 0 3 2 1 0 1 2 1 1 1 2 1 1 1 1 3 2 0 1 2 1 0 2 4 0 1 3 2 1 0 3 4 2 2 0 0 2 2 3 3 1 3 3 1 2 2 3 1 3 1 2 3 2 2 1 0 1 1 1 1 1 1 1 1 0 1 2 1 0 1 2 2 1 1 3 1 0 1 1 1 0 2 1 1 0 1 1 2 1 1 0 1 1 0 3 1 1 2 1 0 0 0 0 2 0 1 0 1 1 0 1 2 2 2 4 2 0 0 1 2 3 0 1 2 3 3 1 0 2 1 3 2 1 1 2 2 2 0 2 1 1 2 0 3 1 1 0 1 0 1 1 1 1 0 1 1 1 1 1 2 1 1 2 1 2 5 2 1 2 1 1 3 2 1 0 1 1 2 3 0 2 1 3 1 2 1 1 2 0 1 1 0 1 1 1 2 0 3 1 1 1 1 2 1 0 0 0 1 1 2 0 3 1 0 1 2 2 1 2 1 1 0 2 2 1 0 2 2 2 2 1 1 1 0 1 3 1 2 0 1 2 1 1 0 0 2 3 0 2 3 1 0 2 1 1 0 0 2 3 1 1 1 1 0 1 3 1 2 0 1 1 1 2 2 1 1 1 1 3 1 1 3 1 3 2 3 2 1 3 1 0 0 2 0 2 0 1 1 2 1 1 1 1 2 1 1 1 0 3 0 1 1 2 2 1 3 1 0 2 1 0 1 1 1 2 1 1 1 2 0 2 1 0 1 3 0 0 2 2 1 3 1 1 0 1 2 1 1 2 1 1 2 1 3 3 2 0 2 1 1 2 3 2 2 2 2 2 2 2 1 3 2 1 1 1 1 2 3 2 1 1 2 3 1 1 1 0 4 2 3 0 1 1 0 3 1 1 3 1 2 2 4 2 2 3 1 1 1 1 2 0 1 1 2 1 1 2 1 1 1 0 2 0 3 1 1 1 1 1 1 1 0 0 1 1 2 1 1 2 0 2 1 1 0 1 0 0 1 1 0 1 2 1 1 3 3 2 0 2 1 0 1 1 3 2 2 1 1 2 1 2 3 3 2 2 0 1 2 2 2 0 0 1 3 2 1 0 1 2 1 1 1 1 3 1 2 0 2 2 1 2 1 0 3 1 1 2 1 1 2 0 0 2 1 1 2 1 2 2 2 1 1 0 0 1 1 1 3 1 0 0 2 1 3 1 2 0 2 2 1 2 2 0 3 1 1 0 5 3 2 1 0 1 2 1 2 0 1 0 1 1 2 2 2 1 0 1 1 4 1 2 1 1 0 2 2 1 1 1 1 1 1 0 2 0 3 3 2 1 2 0 2 3 0 1 1 1 2 1 2 2 2 0 0 3 1 2 1 1 2 0 2 0 2 1 1 1 2 2 1 0 1 0 1 2 2 1 0 1 0 1 3 1 2 2 1 0 2 1 1 1 2 2 1 1 3 0 2 2 0 1 1 0 3 1 2 1 1 0 1 3 1 2 3 3 3 1 3 2 1 3 1 3 2 1 1 1 0 2 1 2 2 0 0 2 0 3 2 2 1 1 0 0 2 2 0 2 2 1 2 1 1 2 2 3 1 1 2 1 1 1 0 2 1 1 0 1 1 0 3 0 1 2 2 4 1 2 4 0 1 0 2 2 1 0 0 1 2 1 1 2 2 2 1 2 2 1 1 1 0 1 1 0 1 3 3 3 2 1 2 1 1 1 1 3 2 1 0 1 2 2 1 2 1 0 2 1 2 2 1 3 2 2 1 0 1 3 1 3 2 1 1 1 0 1 2 1 0 2 2 2 2 2 1 1 1 2 2 1 2 1 4 1 3 0 2 0 1 1 1 3 3 0 1 1 1 1 1 0 1 2 1 1 1 0 2 0 2 1 1 2 1 0 1 1 1 3 1 3 2 1 1 1 4 1 2 3 2 2 3 1 1 1 4 2 1 1 0 3 0 1 2 1 1 3 2 1 2 1 2 0 2 0 0 1 1 2 1 1 3 3 4 2 3 1 2 2 2 1 1 2 2 1 1 2 1 1 0 2 1 1 2 1 3 2 0 2 1 2 2 1 2 3 2 2 1 1 1 1 1 0 1 1 0 0 1 1 1 2 0 2 2 4 0 3 1 3 1 2 2 2 3 2 1 2 2 1 1 2 0 1 2 1 2 0 0 1 1 2 0 2 2 1 1 1 0 1 1 0 0 0 1 1 1 1 0 1 2 0 2 1 2 0 2 1 2 1 0 1 4 1 1 3 4 0 2 1 1 0 2 1 1 1 3 0 1 0 2 0 1 1 4 2 0 0 0 1 2 3 1 2 1 3 0 2 1 2 3 2 1 1 1 3 1 2 2 0 1 3 2 2 1 1 1 2 0 1 2 0 0 1 2 3 1 2 1 1 2 3 2 1 0 1 2 2 0 1 0 1 1 2 1 2 1 1 2 2 2 0 2 1 0 0 3 1 3 0 3 2 1 1 1 2 2 2 1 2 1 1 1 2 1 0 1 2 1 0 1 1 1 2 1 1 2 0 1 0 1 2 2 2 2 2 2 3 0 1 0 1 0 0 1 1 3 0 3 0 0 1 1 1 2 1 1 1 1 1 1 1 0 2 2 3 1 1 1 0 1 0 2 1 4 2 2 2 1 4 1 1 2 2 2 1 2 3 0 1 1 1 0 2 1 2 1 1 0 0 1 0 0 1 3 2 1 0 2 0 1 1 1 0 1 2 1 0 2 2 2 1 1 0 2 3 1 1 1 1 1 2 1 1 2 1 2 2 0 1 1 2 2 1 1 1 2 1 2 2 2 2 2 1 1 1 3 3 1 1 3 1 1 1 2 3 2 2 0 1 3 3 0 0 1 3 3 2 1 1 1 1 1 0 3 1 1 0 0 2 1 1 1 2 2 1 0 1 1 2 1 2 1 1 1 2 0 1 3 3 0 1 2 1 1 0 2 2 0 3 3 0 2 1 2 1 1 2 2 3 1 1 0 0 2 1 1 2 2 1 1 3 2 1 1 0 0 1 1 3 3 1 0 1 1 0 1 1 1 4 2 2 1 4 1 0 2 1 1 3 1 2 0 0 1 0 1 2 2 0 2 0 2 4 1 2 0 1 0 1 2 3 0 1 0 1 2 3 1 1 1 1 2 1 0 3 0 2 0 3 2 1 0 2 2 0 0 2 1 0 1 2 1 1 3 0 1 1 0 0 2 1 0 1 1 2 0 0 1 1 1 2 1 1 1 2 2 1 1 0 1 3 3 1 1 0 1 3 2 2 3 3 1 1 2 2 2 1 2 1 2 3 1 1 0 2 1 0 1 0 1 1 0 1 0 0 0 0 2 2 2 0 1 2 2 2 1 2 2 1 1 1 0 2 2 1 0 1 2 1 2 2 2 2 3 1 1 1 2 2 2 2 0 2 3 2 0 1 3 1 2 1 3 1 0 1 1 1 2 1 1 0 2 3 2 2 2 0 0 2 0 2 4 0 2 0 0 0 0 2 1 0 2 1 2 2 1 1 0 2 1 1 2 1 3 2 1 2 1 2 2 1 1 1 2 3 0 1 1 3 0 3 1 1 4 2 2 1 1 2 1 0 0 0 1 1 4 2 2 1 1 0 2 0 1 2 2 2 3 1 1 2 2 1 0 2 4 0 1 1 0 0 1 2 1 5 1 1 4 2 1 1 1 1 0 2 1 2 3 1 1 1 1 0 1 2 1 0 2 1 2 1 0 2 1 1 1 2 1 2 2 2 1 1 0 1 1 1 1 1 0 2 1 1 0 0 3 1 2 1 0 4 0 0 2 1 3 1 3 2 2 1 1 2 0 1 1 0 2 0 2 0 2 2 1 0 1 0 0 2 1 1 2 1 0 0 1 1 0 1 1 0 3 1 0 6 2 2 0 1 2 0 0 2 2 2 1 2 1 1 1 1 3 1 2 1 0 1 0 0 2 4 0 1 2 1 1 0 1 1 1 3 4 2 0 0 1 2 2 1 1 1 1 1 2 1 0 1 3 2 1 3 1 4 1 3 1 1 1 1 1 0 3 3 0 1 1 2 1 1 1 1 1 2 3 0 2 0 0 1 0 2 1 3 3 2 1 2 6 2 1 2 1 2 2 3 1 0 2 2 1 0 1 0 2 2 1 1 0 1 2 1 3 0 0 1 1 2 2 1 2 2 1 1 1 1 2 3 3 0 1 1 3 3 1 1 1 0 1 1 1 0 0 1 4 2 2 2 0 0 2 1 1 2 1 2 1 1 2 0 0 2 1 1 2 2 2 3 2 1 0 1 0 1 1 3 3 1 1 1 1 3 0 2 3 0 1 0 0 1 2 1 2 1 0 1 3 0 0 2 2 2 0 2 1 1 0 1 3 2 1 0 4 1 0 1 1 0 2 3 2 1 1 1 1 3 1 1 3 1 3 1 0 1 0 1 0 1 1 2 1 2 3 1 2 1 1 1 1 1 0 3 1 2 0 2 2 1 1 2 0 0 1 4 0 1 0 0 1 2 3 1 1 1 1 1 0 0 2 1 1 0 0 3 1 1 1 3 1 0 2 1 3 0 0 2 0 1 2 3 3 0 1 2 3 0 2 2 2 3 2 2 1 1 0 0 2 1 1 3 2 3 0 0 4 2 1 1 0 2 0 2 2 1 1 2 2 1 1 1 1 2 0 2 0 1 1 1 1 2 0 0 1 1 0 0 0 1 0 0 1 1 1 1 4 1 1 1 2 0 2 1 1 1 3 2 1 2 2 2 2 3 1 2 2 0 0 1 0 0 1 1 0 3 1 2 1 1 2 2 1 3 1 3 1 1 0 1 4 1 0 1 2 1 1 0 2 2 1 2 0 2 3 2 1 1 0 1 2 0 2 1 2 2 1 0 1 1 2 2 0 2 1 2 2 1 2 0 1 1 0 1 0 2 3 2 2 0 0 1 3 3 2 0 2 1 1 0 0 2 2 0 2 0 0 2 2 4 3 2 3 1 1 1 1 1 1 1 3 1 1 1 0 1 1 1 2 1 1 2 1 0 1 1 0 1 0 3 0 0 2 0 3 1 0 4 1 3 1 0 2 0 4 1 1 1 1 1 0 2 1 1 1 1 1 1 2 2 1 1 1 2 2 1 0 0 1 1 0 0 2 1 2 1 1 2 2 0 0 1 2 0 1 0 1 1 0 1 2 1 1 3 1 0 2 1 1 0 1 1 0 2 0 1 0 0 2 1 1 1 1 0 1 2 1 2 1 2 2 4 1 0 1 1 1 2 2 2 2 2 0 1 2 1 3 1 2 1 1 1 1 2 2 1 1 1 2 2 2 2 2 4 1 3 0 0 1 0 0 1 3 1 2 3 0 2 0 2 3 0 1 1 0 1 1 0 2 1 1 2 1 1 1 1 2 2 0 2 3 2 3 1 0 3 1 0 2 2 1 0 2 1 2 2 2 1 2 0 4 2 2 0 3 0 1 2 1 1 1 1 1 2 1 1 0 2 0 1 3 1 3 2 1 3 2 2 0 1 0 2 1 2 1 1 0 2 2 1 1 3 0 2 0 1 2 2 1 2 1 2 1 1 1 1 4 0 2 3 2 2 3 2 2 0 0 0 1 0 2 0 0 1 0 1 1 1 1 2 1 2 2 1 1 2 2 1 3 1 1 3 1 2 0 2 2 2 2 1 1 1 1 0 1 1 1 0 1 3 0 2 1 0 0 1 2 3 1 1 1 1 3 0 0 0 0 0 1 0 2 1 1 1 0 2 2 1 2 2 2 1 1 0 1 0 2 2 0 2 0 1 0 3 1 2 1 2 1 0 2 1 4 1 0 2 1 1 2 0 0 0 0 2 2 1 0 1 1 0 1 1 3 1 3 1 0 1 2 3 2 0 1 2 1 0 0 1 1 2 1 1 1 2 1 2 1 2 1 3 2 0 1 3 1 1 1 1 2 1 1 1 1 2 1 1 2 2 2 1 2 1 2 0 1 2 3 3 0 1 2 1 1 0 2 0 0 0 4 0 1 1 1 2 0 2 1 2 1 1 1 2 2 1 2 2 4 2 0 2 3 1 0 1 3 4 2 1 2 1 3 1 1 2 0 0 2 1 2 1 1 1 1 2 1 1 2 2 3 2 2 0 2 2 1 2 1 1 2 0 0 1 1 1 0 0 2 1 2 2 1 1 1 3 2 3 1 3 2 1 1 1 1 3 1 2 2 1 0 0 0 2 2 3 1 3 3 1 2 1 0 2 1 1 1 3 0 1 1 1 1 0 0 1 2 2 2 0 1 3 1 0 2 1 0 2 0 1 3 0 3 1 2 2 0 0 1 1 1 1 0 1 1 2 0 1 1 1 0 2 4 1 1 1 2 2 2 1 2 2 1 2 2 2 4 2 0 2 1 3 2 1 2 1 1 1 4 0 0 1 1 2 0 0 0 1 0 0 2 2 2 1 1 3 0 0 1 2 2 3 1 1 4 3 1 2 1 1 2 2 2 1 1 3 4 3 0 0 0 1 1 1 2 0 1 1 1 2 3 1 0 1 2 1 4 2 2 0 2 1 3 1 1 0 1 0 3 1 2 1 1 1 1 0 1 2 1 0 0 1 0 3 1 1 2 1 1 0 2 2 2 3 1 0 2 2 1 1 1 0 2 2 2 2 1 2 2 3 1 1 1 1 3 2 4 1 2 1 1 1 2 1 2 1 2 1 1 0 2 2 2 0 1 3 2 1 1 0 1 1 1 2 2 4 0 1 2 2 2 1 2 1 2 1 0 3 1 1 2 0 1 1 1 2 1 2 2 2 0 3 0 2 1 1 2 1 1 2 1 1 2 1 1 1 1 2 0 1 3 2 1 2 1 1 0 2 1 1 1 1 1 3 0 1 1 2 1 2 2 1 0 1 2 2 1 1 1 0 0 0 0 3 0 2 0 1 1 1 2 1 1 2 4 1 2 1 2 0 2 0 2 2 1 2 0 1 3 1 3 1 2 2 1 2 4 1 3 1 1 3 3 2 2 1 1 2 2 1 2 1 2 1 3 1 1 0 1 1 1 2 0 1 1 1 2 3 1 0 2 2 3 1 1 1 2 0 2 2 1 2 1 1 3 3 1 0 2 1 1 2 1 2 1 3 1 1 1 2 2 2 2 0 0 2 3 1 2 1 3 0 2 1 0 2 0 0 2 1 1 1 2 2 1 1 2 2 1 2 2 1 3 1 0 1 0 0 0 0 1 0 2 3 1 0 0 1 1 1 3 1 0 2 2 1 3 3 1 2 1 2 2 1 2 2 2 1 3 1 0 0 2 1 1 2 1 0 2 0 0 0 1 2 1 1 1 2 2 2 3 2 0 2 3 2 2 1 0 1 2 2 1 1 0 0 2 2 2 2 2 2 0 2 1 1 1 1 1 2 1 1 2 2 0 2 1 0 1 2 0 1 0 3 1 1 2 1 3 1 2 1 3 1 1 3 3 1 0 2 1 1 1 2 2 1 5 2 1 1 1 2 0 2 2 2 2 2 1 0 2 1 1 0 3 1 0 2 0 0 0 1 2 2 2 1 3 0 0 0 6 0 1 1 1 0 1 0 3 1 2 2 1 3 2 2 1 1 0 0 2 1 1 1 1 1 1 0 0 0 1 0 3 1 2 1 1 1 1 1 1 1 0 3 2 4 0 0 2 0 0 2 2 2 1 1 2 1 1 1 3 2 3 1 2 1 3 1 2 1 2 0 0 1 0 1 1 0 1 1 3 1 1 1 1 1 1 0 3 0 1 0 2 2 2 3 2 2 3 2 2 2 0 2 2 1 1 1 3 2 3 3 1 1 1 1 2 1 1 0 1 2 3 1 1 1 2 1 2 2 2 1 0 1 3 4 1 3 2 1 0 1 1 1 1 1 1 1 3 0 1 1 1 1 0 2 1 1 1 2 1 2 1 2 3 1 1 2 1 3 0 3 0 2 2 1 2 1 0 1 0 0 2 3 2 2 0 1 3 1 0 2 1 4 1 0 0 0 0 0 0 1 1 2 3 1 3 2 0 1 0 2 2 1 1 1 1 0 2 1 0 2 1 1 1 2 3 1 2 2 1 1 2 0 0 1 1 2 3 2 3 1 2 1 1 0 0 1 0 0 0 1 3 0 2 2 2 3 2 1 0 2 3 3 0 1 1 0 2 4 2 4 1 0 1 0 1 1 0 1 2 0 1 1 2 1 1 2 1 1 1 2 2 1 2 0 2 2 2 1 1 2 0 0 0 1 2 1 0 1 0 1 0 1 1 1 2 1 1 2 2 2 1 0 4 3 2 0 1 3 2 3 2 1 0 2 0 1 2 3 1 1 0 1 1 0 2 2 2 3 1 2 2 2 1 2 2 0 2 2 0 2 1 1 0 2 2 1 1 0 2 1 2 1 4 0 3 2 2 1 0 1 1 0 2 0 0 1 2 1 1 2 3 1 1 1 2 1 0 0 0 1 1 2 0 2 0 2 1 1 2 3 1 0 2 2 3 1 2 1 3 2 0 1 2 3 2 1 4 2 3 4 1 1 1 2 2 2 0 1 1 1 2 1 1 1 2 2 1 1 1 1 2 1 1 2 2 1 0 1 2 1 1 0 1 1 1 0 0 1 0 0 1 3 2 1 2 2 0 1 0 2 1 2 3 3 1 0 0 1 2 1 0 0 1 2 0 0 4 1 2 1 0 2 4 1 2 0 1 2 2 0 0 0 2 0 2 2 1 2 1 1 1 1 1 1 0 1 2 2 2 0 1 0 2 2 2 1 1 1 2 0 0 1 3 2 2 2 1 3 1 2 1 0 2 3 2 2 1 1 2 2 1 1 2 1 1 3 1 0 1 0 2 2 1 0 2 2 2 0 0 1 1 1 2 2 1 1 0 2 2 0 0 1 0 2 2 1 4 0 2 1 1 2 1 1 2 1 1 1 1 1 3 4 3 1 0 2 1 1 2 1 1 2 3 2 1 3 2 1 1 0 1 1 2 0 1 0 2 0 3 0 0 2 1 1 3 2 2 2 2 2 1 0 0 2 1 1 2 3 1 1 3 1 2 2 2 2 1 2 2 2 2 2 1 2 2 1 1 1 3 0 0 0 1 2 1 1 1 0 2 1 1 3 0 3 1 1 1 1 1 1 1 0 2 2 2 1 1 1 3 0 0 4 1 2 1 1 4 1 2 1 3 1 0 2 3 1 2 0 2 3 2 1 2 3 2 0 1 1 0 1 1 3 1 2 1 1 1 0 2 1 2 1 0 2 0 3 2 0 1 3 3 1 1 1 2 0 0 1 2 1 1 1 0 1 2 1 4 0 1 2 2 1 1 1 1 0 0 0 2 2 3 0 3 0 3 0 1 2 3 2 1 2 1 2 2 1 1 0 0 3 1 0 0 0 2 0 2 1 1 2 2 1 0 1 3 2 3 2 1 0 2 2 0 1 1 2 2 0 1 2 1 1 0 3 0 2 0 1 1 1 1 1 0 0 3 2 0 2 3 1 0 2 1 1 0 0 2 0 1 1 2 0 0 2 1 2 1 0 2 0 0 1 1 0 2 1 0 0 2 2 1 1 1 1 2 1 1 1 0 2 1 2 1 2 3 2 0 1 1 1 0 1 2 2 1 0 1 2 3 1 1 1 3 0 1 0 1 2 1 3 1 2 1 2 0 2 0 1 2 2 1 0 2 2 1 0 1 0 0 1 3 2 1 1 1 1 2 3 0 2 1 2 2 0 1 2 2 2 2 0 2 4 0 3 1 3 2 1 0 1 1 2 1 1 1 1 0 0 3 2 1 0 1 2 2 1 1 2 2 2 0 1 0 1 1 2 1 2 3 1 1 2 3 1 2 2 1 1 2 1 2 1 1 1 0 1 2 3 1 0 1 2 1 0 1 2 3 0 1 2 0 3 1 1 2 1 2 0 0 2 2 1 1 2 1 1 1 2 1 1 3 2 0 2 0 3 2 0 1 0 2 1 1 1 3 1 2 2 2 0 1 2 1 0 2 2 1 1 0 1 1 0 1 0 3 1 0 4 1 2 2 1 1 3 3 1 1 3 1 2 3 1 0 0 3 2 2 1 0 3 1 0 1 0 2 1 1 2 1 1 2 0 1 2 2 1 0 0 1 1 0 3 0 0 1 2 1 1 2 0 2 2 2 2 2 1 0 1 0 2 0 2 2 1 1 1 1 2 5 3 1 4 1 1 2 0 1 2 2 0 0 2 0 0 1 0 3 0 2 2 1 1 0 0 2 1 0 2 1 1 2 1 1 1 0 1 2 2 2 0 0 2 1 1 2 0 2 2 2 0 4 1 2 1 1 2 1 1 2 1 2 0 1 0 2 1 0 1 3 3 2 2 0 0 2 2 2 2 1 0 0 2 1 3 1 2 0 0 2 4 3 1 1 1 3 1 2 5 3 1 1 3 1 2 1 2 2 1 1 1 0 2 0 2 0 0 2 0 0 3 2 2 2 0 1 1 1 1 1 1 0 2 1 3 0 2 1 3 2 1 2 3 1 2 1 1 2 1 1 1 0 1 0 0 2 1 0 1 1 1 2 1 0 0 1 1 2 2 1 0 2 2 0 2 1 1 1 0 5 1 2 1 2 0 4 1 2 2 2 2 0 0 0 4 3 1 0 1 2 1 0 2 1 0 1 1 0 1 1 2 0 2 2 2 0 3 3 1 1 0 2 3 4 1 1 1 1 1 1 0 1 1 1 1 0 2 2 1 1 2 3 2 3 0 2 1 3 3 0 2 0 1 2 0 3 1 0 2 3 1 3 0 1 2 2 2 0 1 0 1 1 0 1 3 1 1 2 1 1 1 2 1 0 2 2 0 1 1 2 2 0 1 1 1 3 0 2 2 1 1 1 4 1 0 1 3 0 2 0 1 1 2 0 0 2 0 2 1 2 2 1 1 0 1 0 2 1 1 1 1 2 0 1 1 0 1 1 2 3 3 1 2 2 2 0 0 3 1 0 1 0 1 2 2 0 2 2 2 1 2 1 2 1 1 1 3 1 1 3 0 3 1 1 3 1 0 3 1 0 2 2 1 1 3 2 2 2 0 0 1 0 1 0 0 1 1 1 1 1 0 3 2 0 2 1 1 2 2 1 1 0 1 2 1 3 0 1 3 3 2 0 0 0 0 0 0 1 3 0 0 3 1 0 1 0 1 1 2 1 1 2 3 1 1 0 0 1 0 2 1 1 0 2 1 0 0 2 2 2 2 1 0 0 2 0 1 0 1 2 2 0 2 2 0 3 0 1 2 1 3 0 2 2 0 2 1 2 2 1 0 1 1 1 4 1 2 2 1 1 0 1 2 2 2 0 2 1 1 1 1 0 1 1 2 1 1 1 2 1 3 1 1 0 0 1 3 1 1 2 1 2 1 0 1 1 0 1 0 0 1 3 3 1 1 2 2 3 1 2 5 1 1 2 3 1 2 2 3 2 2 0 3 1 2 2 0 1 2 2 1 1 0 2 0 2 1 2 2 0 0 1 0 1 1 2 0 2 0 2 1 2 3 2 0 2 1 2 1 2 1 0 0 2 3 1 1 0 2 2 1 1 1 0 1 1 0 3 0 0 1 1 0 1 2 1 1 2 1 0 2 1 3 2 1 2 0 0 1 2 2 1 1 0 2 2 1 2 4 2 2 1 1 3 2 0 0 1 1 0 0 2 2 0 0 2 1 0 2 2 2 0 2 1 2 2 2 2 2 1 1 0 2 1 1 0 3 0 1 4 1 3 3 1 0 1 1 3 2 2 0 1 2 0 2 2 2 1 1 2 2 2 4 2 2 0 0 1 1 2 1 1 2 1 1 1 3 2 2 1 0 1 1 1 1 3 1 1 1 2 1 1 3 2 1 1 0 2 0 1 2 2 2 2 0 2 1 1 3 1 1 0 4 2 4 3 1 1 0 0 1 1 1 3 1 0 2 0 3 3 0 2 2 1 3 3 1 0 3 1 1 2 3 2 2 2 0 1 0 2 1 3 1 2 1 1 0 2 1 0 1 0 3 1 0 2 2 0 3 1 0 3 1 1 2 2 0 2 3 0 0 2 0 2 0 2 1 0 1 2 0 0 2 5 1 1 0 0 1 1 0 2 0 1 0 1 3 1 0 3 1 2 0 0 1 2 2 2 0 1 0 1 0 1 1 3 1 1 1 1 0 1 2 1 1 1 2 2 2 0 0 2 1 1 0 0 1 2 0 1 4 1 1 2 3 2 2 2 0 1 1 3 2 1 0 1 0 2 2 2 1 2 0 1 2 1 1 2 3 1 1 1 1 2 0 2 0 0 1 2 3 1 0 2 1 1 0 0 1 0 3 0 3 1 2 0 0 4 0 1 0 1 2 1 0 1 1 1 1 1 1 1 1 2 1 0 1 3 0 0 0 2 1 3 0 1 2 0 3 1 1 2 1 1 1 1 2 2 0 0 1 0 3 3 4 4 4 2 2 0 0 2 1 2 1 0 3 1 1 2 0 3 0 0 4 2 1 1 1 0 3 4 2 0 0 0 0 3 0 1 1 1 1 1 1 2 1 1 2 1 2 3 0 1 0 0 0 2 3 1 0 1 2 1 3 0 2 1 1 1 0 2 0 1 3 1 0 2 1 2 2 0 0 2 1 1 3 4 1 0 1 1 3 2 1 0 1 1 0 0 2 1 0 0 1 3 0 1 0 1 2 0 1 2 1 2 0 1 1 1 0 2 1 1 2 1 2 3 1 1 2 1 0 1 1 1 3 2 0 2 1 1 2 2 2 1 2 1 0 1 2 0 0 1 2 2 1 0 0 1 1 2 2 1 1 4 0 3 2 1 3 2 1 1 2 2 1 2 1 2 2 2 2 0 1 0 1 2 2 2 1 1 2 2 4 0 2 2 1 0 0 1 1 1 3 0 2 0 1 2 2 2 3 2 3 2 1 0 3 0 1 1 1 1 2 3 0 2 2 2 1 2 1 1 1 0 1 0 1 0 1 2 1 1 1 2 2 0 4 2 1 0 5 2 0 2 1 1 1 2 3 0 4 0 2 3 1 1 2 1 1 1 2 1 1 2 0 2 0 1 3 1 3 1 3 1 2 1 3 1 2 2 0 4 1 3 2 2 3 1 0 2 2 2 1 1 2 3 3 1 0 2 2 2 2 3 0 0 2 2 0 2 1 1 1 1 3 1 1 0 2 0 1 0 0 0 2 1 1 1 1 2 0 1 3 1 3 0 1 0 2 1 0 2 3 2 3 3 3 0 2 0 2 2 2 2 0 0 2 1 1 2 2 2 1 1 0 2 0 0 2 0 3 0 2 2 1 1 2 1 2 2 1 2 0 2 2 1 0 1 2 2 2 2 1 1 0 1 1 2 2 2 2 1 1 2 3 2 1 0 2 2 0 0 0 2 2 1 2 1 2 1 1 3 1 0 1 2 1 3 2 0 2 2 2 1 1 4 3 0 1 4 1 1 3 2 0 0 3 2 2 1 3 2 0 1 0 2 1 1 1 0 1 1 0 2 1 3 2 2 1 1 2 1 2 1 2 1 0 3 1 1 3 1 2 2 2 2 2 1 0 2 1 3 1 1 2 1 1 1 0 0 1 3 3 2 0 2 1 2 2 2 4 1 0 2 1 1 3 1 1 1 2 1 1 1 1 0 3 0 1 1 1 0 2 3 3 0 3 2 3 2 1 1 0 1 2 2 0 1 4 0 1 2 2 1 2 3 2 2 2 2 1 2 2 1 2 1 1 2 1 0 2 1 1 0 2 3 1 1 1 1 4 1 0 4 0 0 2 2 2 1 1 1 2 2 3 2 2 0 2 4 1 1 2 2 3 1 2 1 1 2 0 2 3 1 1 2 1 2 0 2 1 1 1 1 1 0 1 3 0 2 1 2 1 2 2 2 0 2 2 1 2 0 1 2 2 4 1 0 1 1 1 1 3 2 1 3 0 3 2 2 2 1 0 0 1 2 1 2 1 3 1 1 2 1 1 0 1 2 4 0 2 0 1 3 2 2 2 2 0 3 0 1 1 2 3 1 1 0 4 1 1 0 1 1 2 2 4 2 2 2 2 3 2 0 1 1 2 0 1 0 1 2 1 1 0 1 1 2 1 0 1 2 1 1 2 1 1 1 1 3 0 1 2 0 2 0 0 0 1 2 3 2 1 1 2 2 2 3 1 3 1 3 2 2 3 1 2 2 2 2 1 1 2 1 2 1 1 1 1 0 2 2 4 0 1 1 0 0 0 0 1 3 1 1 1 1 0 1 2 1 1 0 0 1 1 0 0 0 3 4 1 1 2 3 2 1 2 4 2 1 1 4 1 1 0 1 3 1 1 1 0 2 1 1 2 0 2 1 1 1 1 0 1 2 3 0 2 0 0 4 1 1 1 1 3 2 0 2 3 0 1 3 1 3 2 2 2 2 0 0 0 3 3 1 0 1 1 0 1 1 1 3 2 4 1 1 3 2 1 2 2 1 1 1 2 1 2 0 1 0 1 0 0 2 2 1 1 1 0 0 1 1 0 1 1 3 1 0 1 1 1 1 1 0 1 2 0 1 1 1 0 1 2 1 3 1 1 1 0 1 0 1 1 0 3 0 2 1 2 1 2 1 0 2 1 1 1 0 1 2 2 3 0 1 1 0 2 1 2 2 1 1 1 2 0 0 3 1 1 2 0 1 2 2 2 2 1 1 1 2 0 1 1 1 1 0 0 0 1 1 3 1 1 2 2 0 1 3 2 1 4 0 2 0 2 0 0 1 2 1 1 0 1 0 1 0 1 1 2 1 1 2 3 2 2 0 1 1 0 2 1 1 0 2 1 1 1 0 1 2 2 2 1 2 1 1 1 1 2 3 0 1 1 1 1 2 3 0 3 0 1 2 0 2 3 0 1 2 2 1 1 2 1 2 0 1 1 1 1 2 2 3 3 1 0 1 2 2 2 2 1 0 1 1 2 1 2 1 0 1 1 2 0 1 1 2 0 1 0 3 0 1 0 2 2 0 0 0 0 2 0 2 1 1 1 1 2 2 0 1 1 0 2 3 1 2 1 2 2 1 3 2 0 1 0 2 2 1 1 1 1 2 2 1 0 2 2 0 2 0 1 4 0 2 1 1 2 1 2 1 1 1 3 2 0 0 3 1 4 0 2 3 2 1 3 0 1 2 1 2 3 1 0 2 1 2 1 1 1 0 2 0 0 2 1 1 2 2 3 1 2 2 1 1 1 3 0 0 1 1 2 0 3 1 1 1 1 0 1 0 0 1 0 1 2 1 1 2 1 1 2 2 3 1 3 2 1 1 1 0 3 3 3 1 1 1 4 4 1 4 2 1 2 1 2 3 2 1 1 2 1 3 3 0 1 0 2 2 3 1 0 1 0 1 0 2 2 0 1 1 2 0 2 2 1 1 2 2 2 1 0 2 3 3 2 3 1 1 0 0 1 2 0 1 3 4 0 1 0 2 1 2 1 3 2 1 1 0 3 1 0 2 0 2 3 2 1 1 1 2 0 1 1 3 1 0 1 2 1 2 1 0 1 0 0 2 0 1 3 1 1 3 0 2 0 0 0 0 2 0 0 3 1 2 2 2 0 0 0 0 1 1 0 2 2 2 1 2 1 3 3 2 0 2 2 1 2 1 3 2 0 1 0 0 2 2 1 1 3 2 1 2 3 0 2 0 1 1 1 2 2 0 1 0 2 1 1 0 0 1 1 1 2 1 1 1 2 1 1 1 0 0 1 2 3 1 2 3 0 2 0 1 2 0 0 0 2 0 2 1 1 1 2 1 1 0 0 1 2 0 1 0 0 0 2 1 3 1 1 1 0 0 0 1 1 2 0 1 2 2 2 2 1 1 2 1 2 2 0 1 2 1 2 0 4 1 1 1 1 0 2 3 2 0 1 1 3 2 0 1 0 0 1 2 0 1 2 0 2 2 2 1 2 2 1 1 1 2 0 0 1 1 1 0 1 0 2 3 0 3 1 1 0 1 1 2 2 1 0 1 1 2 2 3 0 1 3 0 2 1 0 2 1 1 3 1 0 2 1 1 1 2 1 1 3 3 1 2 1 1 3 1 1 1 2 2 1 1 2 2 4 1 2 0 3 2 2 1 2 2 2 3 2 1 0 0 0 1 3 0 2 2 0 0 0 0 2 0 4 1 1 2 4 3 1 1 2 1 2 1 2 2 0 1 2 1 1 2 1 0 2 1 2 4 1 0 1 1 4 2 0 0 2 2 1 3 1 0 2 2 3 1 2 1 1 1 0 0 1 1 1 1 1 1 0 0 0 3 0 2 0 2 3 0 2 2 0 2 1 1 4 3 0 1 0 3 1 2 1 1 0 1 1 1 3 2 0 1 2 2 2 3 1 1 1 2 1 1 1 2 1 1 0 3 2 2 1 1 1 3 0 1 0 3 2 3 3 1 2 2 1 3 1 0 1 2 2 1 3 2 1 2 4 2 1 2 1 0 2 1 2 2 1 0 1 2 0 2 2 2 2 0 2 3 0 4 2 1 5 2 2 1 2 2 1 2 0 1 1 1 2 2 2 5 1 1 0 1 1 2 1 2 1 2 3 1 2 4 1 0 1 2 3 0 0 2 0 2 1 1 2 2 2 2 2 1 2 1 2 1 1 0 2 2 0 1 1 0 1 0 0 2 1 2 0 1 1 2 2 2 0 0 2 4 0 0 1 2 1 1 0 1 2 3 2 2 1 2 0 1 1 1 1 1 2 2 1 1 0 1 0 1 2 2 0 1 0 1 1 1 1 0 4 0 2 1 2 2 1 3 1 2 2 0 1 0 1 0 0 0 1 1 2 1 2 2 0 1 4 2 1 2 1 2 2 3 2 1 0 0 1 0 2 1 0 2 0 2 2 3 1 2 0 0 0 0 0 2 0 0 2 1 2 1 2 1 2 2 2 3 1 1 2 2 1 2 3 2 1 2 2 0 0 2 2 0 3 1 0 0 1 1 0 1 2 3 1 2 1 1 1 0 1 2 3 2 3 3 1 1 2 0 1 1 2 1 3 2 0 2 1 1 1 1 0 0 2 3 1 0 2 1 1 1 2 2 1 1 1 2 2 0 0 0 1 1 0 3 1 2 1 1 0 2 3 2 1 2 0 0 1 2 4 3 3 2 1 1 1 2 1 0 1 3 0 2 2 0 1 1 1 1 1 2 1 1 4 2 1 1 1 1 1 2 1 3 1 4 0 1 1 1 0 1 3 0 0 1 2 1 2 1 2 0 3 1 0 0 1 1 0 2 1 1 0 0 1 1 2 0 1 3 0 1 3 1 0 2 2 2 1 1 5 1 1 4 0 1 0 0 1 1 1 3 1 1 0 1 1 1 3 2 2 1 0 1 2 1 2 1 0 2 2 1 1 0 2 2 1 2 4 2 3 1 0 1 0 1 1 3 1 0 2 0 1 0 1 1 2 4 2 1 0 1 2 1 1 1 1 2 1 2 2 3 3 2 2 1 1 1 1 0 2 1 0 2 1 0 1 1 2 2 1 1 2 1 1 1 3 0 2 0 3 1 3 1 2 2 1 3 2 1 1 1 1 3 1 2 1 1 2 1 1 3 1 0 2 2 2 2 0 1 1 0 1 0 3 0 0 1 1 1 2 1 1 1 1 1 1 1 2 1 1 1 2 3 2 0 1 1 1 1 1 1 1 1 2 2 1 0 2 2 2 1 2 0 2 0 0 2 0 2 1 0 2 1 1 0 1 1 1 0 1 1 3 2 1 1 1 3 1 3 2 0 0 2 1 1 0 2 1 1 2 1 1 2 2 1 2 1 1 2 1 0 2 0 0 2 3 2 2 1 1 0 1 1 2 2 1 0 2 1 0 1 3 2 1 1 1 0 3 0 2 1 2 4 1 3 1 1 2 1 0 0 1 1 2 3 0 1 2 1 2 1 3 1 0 1 2 0 0 1 2 3 0 2 2 0 0 0 0 3 3 1 0 0 2 2 0 1 2 0 2 2 1 1 2 2 0 0 2 1 2 1 2 2 0 2 2 0 0 2 2 2 0 2 2 1 1 3 1 2 2 1 2 2 2 1 2</t>
+  </si>
+  <si>
+    <t>GAM(0.5314161077859378, -5.1599666655455054e-30, 0.48020328775017773)</t>
+  </si>
+  <si>
+    <t>1 0 0 0 0 1 0 0 0 1 1 0 1 0 0 0 1 0 0 0 0 1 0 0 0 1 0 1 1 0 1 0 0 0 2 2 0 1 0 0 1 0 1 0 1 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 1 0 1 1 0 0 1 0 0 1 0 0 0 0 0 0 0 0 1 1 1 0 2 0 0 0 1 2 0 1 1 0 0 1 1 0 0 0 1 0 1 0 0 0 0 0 2 0 0 0 0 0 0 1 1 1 1 0 3 1 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 2 2 0 2 0 0 0 0 1 2 0 0 1 0 2 0 1 1 0 0 0 1 0 0 0 1 0 0 0 0 0 0 1 0 0 0 2 0 0 1 1 1 0 0 0 0 0 0 1 1 1 1 0 0 0 1 0 0 2 1 0 1 0 1 0 1 0 1 1 0 0 0 0 0 0 0 1 0 1 1 0 1 1 0 1 0 1 0 0 0 1 0 0 0 0 0 1 0 0 0 2 0 0 1 1 1 1 0 0 1 0 0 0 0 0 1 2 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 1 0 0 0 0 2 1 0 0 0 4 1 1 1 0 0 1 0 1 1 1 2 0 0 0 0 0 0 1 1 0 0 2 2 1 2 1 0 0 1 0 0 1 0 0 0 1 0 0 1 0 0 2 1 0 0 0 1 0 0 0 0 0 0 0 0 1 0 1 0 0 1 0 1 0 0 1 0 1 0 1 1 2 0 0 1 0 0 0 0 0 0 0 0 0 0 1 2 0 0 0 0 0 0 0 0 0 0 0 0 1 2 0 1 0 1 0 1 0 0 0 2 1 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 1 0 0 0 2 1 0 0 1 3 0 2 0 0 1 1 0 0 0 0 1 0 0 0 2 0 1 0 0 0 0 2 1 1 1 0 0 0 0 1 0 0 1 0 0 3 1 0 0 0 1 1 1 1 0 1 1 0 0 1 0 2 1 0 0 1 1 1 0 0 1 0 2 1 1 1 0 1 0 0 0 1 1 0 2 0 1 0 0 0 0 0 1 0 1 0 0 0 1 1 0 0 1 0 1 1 0 1 3 0 1 0 1 0 0 2 0 1 1 2 1 0 0 0 1 0 2 1 0 1 0 0 1 0 0 1 0 0 2 1 0 2 0 0 2 0 0 2 0 1 0 0 0 0 0 0 0 0 1 1 0 1 0 0 1 1 0 0 1 1 1 1 1 0 1 0 1 0 0 2 0 0 0 1 1 0 0 0 2 0 0 1 0 0 0 0 0 1 1 1 1 0 0 0 0 1 0 0 2 0 1 1 0 0 0 0 0 0 1 0 0 0 0 0 1 2 1 0 1 0 1 0 1 0 0 0 0 0 2 1 1 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 1 2 1 1 0 1 0 1 0 0 1 0 1 1 2 0 0 0 2 0 0 0 0 2 0 1 0 1 0 0 1 0 1 1 1 0 1 0 0 1 0 0 0 1 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 1 0 0 1 0 0 0 0 0 0 1 0 0 0 0 1 1 0 0 0 0 1 0 0 1 1 1 1 1 0 0 0 1 0 0 0 0 0 0 0 1 0 1 2 0 0 0 0 0 0 0 0 0 1 1 0 1 0 2 0 0 1 3 0 1 1 0 0 1 2 3 0 0 0 0 0 1 1 0 0 0 0 1 0 1 0 0 1 1 0 1 0 0 0 2 0 0 1 0 1 0 0 0 2 1 0 0 1 0 1 1 0 0 0 0 0 1 0 0 1 0 1 0 1 0 3 0 0 0 2 0 1 1 0 0 1 1 0 0 2 0 1 1 0 1 0 0 0 1 0 0 1 0 1 1 0 1 0 0 0 0 0 1 1 0 1 0 0 0 1 1 0 2 1 0 0 1 0 0 0 0 1 0 1 0 1 1 0 1 0 0 0 0 1 0 2 0 0 0 0 0 1 0 1 0 0 0 1 0 0 1 0 1 1 0 0 0 0 1 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 2 0 0 0 2 1 0 0 1 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 1 1 0 2 1 1 0 0 2 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 1 0 0 1 0 0 0 0 1 1 1 0 1 1 0 0 1 1 0 1 0 1 0 0 0 0 0 0 0 0 1 1 0 2 0 0 1 0 0 0 0 0 0 1 1 0 0 0 1 1 1 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 2 1 0 0 1 0 1 0 0 1 1 1 0 1 1 1 0 1 0 0 1 0 1 0 1 1 1 1 0 0 0 0 1 0 0 0 0 1 1 0 0 1 0 0 0 0 0 1 0 0 0 3 1 0 0 3 0 0 0 0 1 0 0 2 0 0 1 2 0 1 0 0 0 2 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 1 0 1 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 1 0 1 0 0 0 0 0 1 0 0 2 1 2 2 0 0 1 1 2 1 0 1 0 0 0 0 0 1 0 0 3 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 2 1 1 1 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 1 1 0 1 0 0 0 3 2 0 0 0 0 1 1 0 0 1 0 2 0 0 0 0 0 0 2 1 0 0 1 1 0 0 2 0 0 1 1 0 0 0 1 0 1 0 0 2 1 0 0 0 0 0 1 1 0 1 1 1 0 0 0 0 2 0 0 2 0 2 1 0 0 0 0 1 1 0 2 0 2 0 0 0 0 0 0 1 1 0 2 1 1 1 0 0 1 0 0 0 0 0 0 0 0 2 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 2 1 1 0 0 0 1 1 0 0 0 0 0 0 0 0 1 1 0 0 0 1 0 1 0 0 1 0 0 1 0 0 0 0 0 0 0 1 3 1 1 0 0 1 0 0 0 1 1 0 0 1 0 1 0 0 1 2 0 1 3 1 0 0 0 0 1 0 0 0 0 0 1 0 0 0 1 1 1 1 1 0 0 0 1 0 0 0 1 2 0 0 1 1 0 0 0 1 0 1 0 0 0 0 0 0 2 1 3 0 0 0 1 0 0 0 3 1 0 0 1 1 0 0 0 0 1 1 0 0 0 1 0 1 0 0 0 0 0 0 2 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 2 0 0 1 1 0 0 0 0 0 0 1 0 1 0 0 0 1 0 0 1 0 0 1 0 0 1 2 0 0 2 0 0 0 0 1 2 1 1 0 0 0 0 0 1 0 0 0 2 1 1 1 0 0 1 0 0 0 1 1 0 1 1 0 0 0 0 0 1 0 0 1 1 2 0 0 2 1 0 0 0 0 0 1 0 0 0 1 1 0 0 1 0 1 1 0 1 2 1 1 1 0 0 0 0 1 0 0 0 0 1 1 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 2 2 1 1 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 2 2 0 0 0 0 1 0 1 0 0 0 0 1 1 0 0 2 1 0 1 0 1 0 0 0 0 0 1 1 0 0 1 0 1 3 0 1 1 1 2 0 1 1 0 0 0 0 0 0 0 0 1 1 0 1 0 0 1 0 0 0 0 0 1 1 1 0 1 4 1 0 0 0 0 0 0 1 0 2 1 0 0 0 1 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 1 0 1 0 1 0 0 0 0 0 2 0 0 0 1 2 1 1 0 0 0 0 1 0 0 2 0 0 0 1 2 0 0 0 1 0 0 1 1 2 0 1 1 1 0 0 0 1 2 0 0 1 0 1 0 0 0 1 0 1 1 0 0 0 1 1 1 0 0 0 1 0 0 0 0 0 0 1 1 1 2 0 0 0 1 1 0 1 1 1 0 0 2 1 0 2 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 1 1 0 0 0 1 0 1 1 0 0 1 0 0 0 0 0 0 1 2 0 0 3 0 0 0 0 0 0 0 1 1 0 1 0 0 0 2 1 0 0 1 1 0 0 0 0 1 0 0 0 1 0 1 0 1 0 1 1 0 1 0 1 0 1 1 0 0 0 0 0 1 1 2 0 1 0 1 0 2 0 0 0 0 1 0 0 0 0 0 0 2 2 0 0 0 1 0 0 1 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 1 1 2 0 1 0 0 0 0 3 0 1 0 0 0 0 1 0 1 0 1 0 1 0 0 0 0 0 0 0 0 0 1 2 1 0 4 1 1 1 1 1 0 0 0 0 0 2 0 2 1 1 1 1 2 0 1 2 0 1 0 0 0 0 1 0 1 1 1 0 0 1 0 0 3 0 0 0 0 0 0 0 2 0 1 0 1 0 0 0 1 1 0 0 0 0 0 0 0 0 0 2 0 0 1 0 0 0 1 1 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 1 1 0 0 0 1 1 0 0 1 0 0 0 1 0 0 1 0 1 2 1 0 0 0 0 0 0 1 1 1 0 0 0 1 0 1 0 0 2 0 0 0 0 0 0 1 2 0 1 0 0 1 2 0 1 0 0 0 0 0 1 0 0 1 0 0 0 2 2 0 0 0 0 0 1 2 0 1 1 1 0 1 1 0 0 0 0 1 0 0 0 0 0 0 1 1 0 2 0 1 1 0 2 1 1 0 1 0 1 0 0 1 1 1 0 2 0 0 1 2 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 1 1 0 0 1 1 1 0 0 0 0 1 0 0 0 1 3 0 0 0 2 0 0 1 0 0 0 1 0 1 1 1 1 1 1 1 1 0 0 0 1 0 0 0 1 0 0 0 0 0 2 3 0 1 2 0 2 0 0 1 1 2 2 0 0 0 1 1 0 0 0 1 1 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 2 0 0 1 0 1 1 1 0 1 1 1 1 2 0 0 0 0 1 0 0 0 0 1 1 1 0 0 0 2 0 0 1 0 1 0 0 0 0 0 1 0 0 0 0 3 1 0 0 0 2 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 2 1 1 1 0 0 0 1 1 0 0 0 0 1 0 1 0 1 0 1 1 2 1 1 0 0 0 0 0 0 0 0 0 1 0 2 2 0 1 1 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 1 1 3 0 1 0 0 2 0 0 0 0 0 0 0 2 0 0 0 0 1 2 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 1 0 0 3 1 0 1 0 0 0 0 2 2 0 0 0 0 1 0 1 1 0 1 0 3 0 1 0 0 1 0 1 0 1 0 0 0 0 1 1 0 1 1 0 0 0 1 0 0 0 0 0 1 0 0 2 0 1 2 1 0 0 0 1 0 1 0 0 0 0 2 0 2 0 0 0 0 0 0 0 1 0 0 1 0 2 1 1 2 0 2 0 0 0 0 1 0 0 0 1 1 1 0 0 2 1 0 0 1 1 0 1 1 0 0 3 0 1 0 0 0 0 1 0 0 2 1 1 1 0 0 0 0 0 1 0 0 0 1 1 2 1 0 2 0 1 0 0 0 0 0 1 0 1 0 0 1 1 0 0 0 0 0 0 0 0 0 2 0 1 1 0 1 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 3 0 0 0 0 0 0 0 2 2 0 1 0 2 1 0 1 1 0 2 1 0 1 0 1 1 1 0 0 0 0 0 0 0 0 2 0 2 0 0 1 2 0 1 0 0 0 0 0 0 1 0 0 2 1 2 2 0 0 1 0 2 0 0 0 1 0 1 3 0 1 3 1 0 1 0 1 0 0 0 0 1 0 0 0 0 0 0 1 1 0 0 0 0 1 2 1 0 1 1 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 1 0 0 0 1 0 0 1 0 1 0 0 1 0 1 1 1 0 0 2 0 1 0 0 3 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 1 0 0 1 0 0 0 0 1 0 1 0 1 0 1 0 2 1 1 1 2 1 1 1 0 0 0 2 0 0 0 0 0 0 0 0 1 0 0 0 2 0 0 1 1 0 0 0 0 0 0 1 1 0 1 0 0 0 0 0 0 0 0 0 0 1 2 0 1 1 0 0 0 1 0 0 0 1 1 1 1 0 0 0 1 1 1 1 0 0 0 1 0 1 0 0 1 0 0 1 1 0 1 0 0 2 1 0 0 1 2 0 0 0 0 2 3 0 0 0 1 2 1 0 1 1 1 0 0 0 0 0 0 0 0 1 1 0 0 0 3 1 1 0 0 0 0 1 0 0 0 0 1 0 0 0 1 1 0 0 2 0 0 2 0 2 0 0 0 1 1 2 0 0 0 1 0 0 0 0 0 1 0 0 1 2 1 0 0 1 0 0 1 1 0 0 0 0 0 0 0 1 1 0 0 0 1 0 0 0 1 0 1 0 1 2 0 1 1 0 0 1 0 0 0 1 0 1 0 0 1 0 0 1 1 1 0 0 0 0 1 0 0 1 0 0 0 0 0 2 0 0 1 1 0 1 1 1 1 0 0 0 0 2 0 1 0 0 0 1 1 1 0 0 2 0 0 0 0 0 0 0 0 0 0 0 2 0 2 1 0 0 1 0 0 2 1 0 0 0 0 0 1 0 1 0 2 0 0 2 2 0 3 0 0 1 0 1 0 1 0 0 1 0 0 0 1 0 0 0 0 0 0 1 0 1 0 1 0 1 0 0 1 1 0 0 1 0 0 0 1 1 1 1 0 0 2 1 1 0 0 1 0 0 1 0 0 0 0 0 0 1 0 1 0 1 2 1 0 1 1 0 1 0 2 1 0 1 0 2 0 0 1 0 1 0 1 1 0 1 0 0 0 1 0 0 1 1 2 1 1 1 1 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 2 0 0 0 1 0 1 1 1 0 2 1 0 0 0 0 0 1 1 2 1 0 1 3 0 0 0 0 0 1 0 1 0 0 1 1 1 0 2 2 2 1 1 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 1 1 1 2 1 0 1 0 0 1 0 0 0 0 0 0 2 1 0 0 0 0 0 1 0 1 0 0 1 2 0 0 0 0 0 0 0 1 2 1 1 0 0 0 1 1 0 1 0 1 0 0 0 0 1 0 0 0 1 0 1 0 0 2 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 2 1 0 0 0 0 3 0 0 1 1 4 2 1 0 1 1 0 0 0 0 0 0 0 0 1 1 1 0 0 1 0 2 1 1 1 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 1 1 0 0 1 0 1 0 1 1 1 0 1 0 1 2 1 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 1 1 1 1 2 0 1 1 0 1 2 1 2 1 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 2 0 0 1 0 0 1 1 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 2 1 0 2 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 1 1 0 0 2 2 0 1 1 0 0 1 1 1 1 0 1 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 2 0 0 0 0 2 0 1 0 0 0 0 1 0 3 2 1 2 1 1 0 1 0 0 1 0 1 0 0 1 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 1 1 0 2 0 0 1 1 1 1 1 0 1 0 0 1 0 1 0 0 1 1 1 0 1 0 0 0 1 0 1 0 0 0 3 0 2 1 1 1 1 0 1 0 0 0 2 0 2 0 0 2 0 0 0 0 0 1 0 0 0 1 0 0 1 0 1 0 1 0 0 1 0 2 1 0 0 0 1 3 1 0 0 0 2 1 0 2 0 2 0 0 3 1 0 1 0 2 0 0 0 0 0 1 0 0 0 0 0 0 1 0 1 0 0 1 0 0 0 1 1 0 0 0 0 1 0 0 0 0 0 1 0 0 0 1 2 0 0 1 1 0 0 1 1 0 1 1 1 1 1 2 0 0 1 1 0 1 2 0 0 0 0 0 0 1 0 0 1 1 0 0 0 0 2 1 0 1 0 0 0 0 1 2 1 0 0 1 1 0 0 0 0 1 0 0 1 1 2 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 1 0 0 0 0 1 0 0 1 1 1 1 1 1 0 1 0 1 1 0 0 1 1 0 0 3 0 0 1 1 0 0 2 0 0 1 0 1 1 0 0 0 0 0 0 0 1 1 1 0 2 0 0 1 0 1 1 0 0 1 0 0 1 0 0 1 1 0 1 0 0 0 0 1 0 0 0 0 0 2 1 0 0 0 1 2 0 0 0 0 0 0 2 0 1 0 0 0 1 0 1 1 1 0 0 0 1 0 1 1 0 1 2 1 2 1 0 0 0 0 1 0 0 0 0 0 0 1 1 0 0 1 0 1 1 0 0 2 0 0 1 0 1 0 1 0 1 1 0 0 0 1 0 0 0 0 1 1 0 0 3 1 0 1 0 0 0 0 0 0 2 0 0 2 0 0 0 0 1 0 1 0 0 0 1 0 1 0 1 0 0 0 1 0 1 0 0 0 1 0 1 0 0 0 1 0 0 0 0 0 0 0 1 1 0 0 0 1 0 1 0 1 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 1 0 0 0 1 0 0 1 0 1 0 1 0 0 0 1 1 0 1 0 0 0 0 0 1 0 0 0 1 2 0 1 0 0 1 0 0 0 0 2 0 0 0 1 2 0 2 0 0 1 0 1 1 2 0 1 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 1 1 1 0 1 2 0 0 0 1 0 0 1 0 0 0 0 0 2 0 0 0 0 0 0 1 0 0 0 0 0 0 2 0 0 1 0 0 1 1 0 0 0 3 1 0 0 0 1 1 0 0 0 0 0 0 0 1 1 1 0 1 0 1 0 0 0 1 0 1 0 0 0 0 2 0 1 0 0 0 1 0 0 1 0 3 1 0 1 1 0 0 0 0 0 1 1 0 0 0 0 0 2 1 0 1 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 2 0 0 1 0 1 0 1 0 1 1 0 0 0 1 0 0 0 2 2 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 2 0 0 0 1 0 0 0 1 2 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 1 0 1 1 0 0 0 2 1 0 0 0 0 0 0 1 0 1 0 1 0 0 0 0 2 0 0 0 0 1 1 0 2 0 2 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 2 0 0 1 0 1 0 1 0 0 0 2 1 0 1 0 0 0 0 1 0 0 1 0 0 0 0 1 0 0 0 0 1 1 0 0 3 0 1 0 0 2 1 1 1 0 0 0 0 0 0 0 1 0 0 1 0 2 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 1 0 0 2 3 1 2 0 1 0 1 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 2 1 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 1 2 1 0 0 0 0 0 0 0 2 1 1 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 1 0 1 0 1 1 0 0 0 0 1 0 0 0 0 0 3 1 0 0 0 0 2 1 0 0 0 0 0 1 0 1 1 0 2 0 2 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 2 0 1 0 0 2 1 0 1 0 0 1 0 0 1 1 1 1 2 2 0 0 0 0 0 0 0 2 1 3 0 0 0 0 3 0 1 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 1 1 2 0 0 0 1 0 1 1 0 0 0 0 1 0 1 1 0 1 0 1 0 1 1 0 1 1 1 1 1 1 0 0 0 2 0 0 1 0 1 0 0 0 1 1 0 1 1 1 0 0 1 0 1 0 0 1 0 1 1 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 1 1 2 0 1 0 1 0 0 0 1 0 0 0 1 1 0 0 0 1 0 0 0 1 1 0 0 1 1 0 0 0 0 0 0 0 0 0 1 0 0 1 0 1 2 0 1 0 1 0 2 0 1 0 1 0 2 1 1 0 1 0 1 0 1 0 1 0 1 0 1 2 0 0 0 0 0 1 0 0 1 0 1 0 1 0 0 0 0 0 0 0 0 0 1 0 1 0 0 1 0 0 0 0 0 0 0 1 1 1 1 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 2 2 0 0 2 0 0 1 1 1 0 1 0 0 1 0 0 0 0 1 1 1 0 0 0 0 0 0 1 1 1 1 1 1 0 0 0 0 0 0 1 0 1 0 0 1 0 0 0 0 1 0 3 2 0 0 0 1 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 4 2 0 1 0 0 0 0 1 0 1 0 1 0 1 0 0 1 1 0 0 0 1 0 0 0 1 1 0 0 1 1 1 1 1 0 0 0 0 0 2 0 0 0 0 1 1 0 0 3 0 0 0 0 0 1 1 0 1 0 0 0 0 0 0 1 1 2 0 0 1 0 0 1 0 0 0 0 0 1 0 1 0 0 0 1 0 0 0 0 0 1 1 0 0 0 1 2 0 1 0 1 0 0 0 0 1 0 2 1 1 1 0 1 0 1 0 1 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 1 0 0 1 0 0 0 0 0 1 1 0 0 0 0 2 0 0 1 0 0 1 0 1 0 1 0 0 0 0 0 1 0 0 1 0 1 0 1 0 0 1 1 0 0 1 0 0 1 0 0 0 0 0 0 0 0 1 1 0 0 0 1 0 0 0 0 1 0 1 0 1 1 0 0 0 0 0 1 0 1 0 0 0 0 0 0 3 0 0 1 0 2 2 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 1 0 1 0 0 0 1 0 0 0 0 2 0 1 0 0 0 0 0 0 0 1 0 1 2 0 0 0 1 0 1 0 0 1 1 1 1 0 0 1 0 1 1 0 0 0 0 0 0 0 2 2 0 1 0 1 0 0 1 0 0 0 1 1 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 2 1 0 0 0 1 1 1 0 0 1 0 1 0 0 2 0 0 0 2 1 0 1 1 0 1 0 0 0 1 1 0 2 0 0 1 1 0 0 0 0 0 0 1 0 0 1 1 0 1 2 1 2 0 0 0 0 0 0 1 1 1 0 0 0 0 0 0 0 0 0 1 2 0 1 0 1 0 0 1 1 1 0 0 0 1 1 0 1 1 1 0 1 1 1 1 0 0 0 0 0 0 0 2 1 0 0 1 0 0 2 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 3 0 0 0 0 0 0 0 0 1 3 0 0 0 0 0 2 0 0 0 0 0 1 0 0 0 1 0 0 0 1 0 1 0 2 1 0 1 1 0 1 0 0 0 0 3 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 1 1 0 0 0 0 1 0 1 2 1 0 1 1 0 0 0 0 0 0 0 2 0 0 1 0 0 1 1 0 0 0 0 2 2 0 0 0 2 0 0 0 0 0 1 0 1 0 0 1 0 1 0 0 1 0 0 1 0 0 2 1 0 0 0 0 0 1 1 1 0 1 0 1 0 0 0 1 1 0 0 0 0 0 0 0 0 2 1 1 0 0 0 0 0 0 0 0 0 0 0 0 1 1 2 0 0 0 0 0 0 0 0 2 0 0 0 0 1 0 0 3 2 1 0 0 2 0 2 2 2 1 0 0 0 1 1 0 1 1 1 0 1 0 1 0 1 1 0 0 0 0 1 0 0 0 0 0 0 1 0 0 1 1 0 2 0 1 2 1 0 0 0 0 1 0 0 0 1 1 1 1 1 0 0 1 0 0 1 0 0 0 2 0 2 0 0 0 0 0 0 0 1 1 0 1 0 0 1 1 1 0 0 1 1 0 0 0 2 1 1 2 0 0 0 0 0 1 1 1 0 0 0 0 1 0 1 0 3 1 2 0 0 1 1 0 0 0 1 0 2 0 1 1 1 0 0 0 0 0 0 1 1 0 1 1 0 0 0 1 1 1 0 2 0 1 1 1 1 1 0 1 0 1 1 0 0 2 1 0 0 1 1 0 0 1 2 1 0 1 1 0 0 1 0 0 1 0 0 0 1 0 0 0 1 2 0 1 1 0 0 0 1 0 3 1 1 0 1 0 0 0 0 1 0 0 0 1 0 1 0 2 0 0 1 0 0 0 0 0 1 1 0 0 1 0 0 0 2 1 0 1 0 2 1 2 1 0 0 0 0 1 0 1 0 0 0 0 0 1 1 0 2 0 0 0 1 1 0 0 3 0 0 1 1 0 0 0 0 0 0 0 1 0 0 1 2 0 1 0 0 0 1 0 0 0 1 1 1 2 1 0 1 1 0 1 0 0 0 0 0 2 0 0 0 0 2 0 0 1 0 0 2 1 0 0 0 1 1 0 2 0 2 0 0 1 0 0 2 0 3 1 0 1 0 2 0 0 0 0 0 2 0 0 0 0 0 1 2 0 0 0 0 0 0 1 0 1 1 0 1 1 0 1 0 0 0 0 1 1 2 0 0 2 2 1 0 0 0 1 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 1 1 0 0 0 1 0 1 0 1 1 0 1 0 1 0 1 0 0 0 2 0 0 0 0 1 1 0 2 1 0 1 0 1 0 0 0 0 0 0 2 1 0 0 1 0 0 0 0 0 0 0 1 2 1 0 0 0 0 0 0 0 0 1 0 2 0 0 1 0 0 0 2 1 1 1 0 0 1 1 0 0 0 0 0 0 0 0 1 0 1 1 0 1 0 1 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 1 0 0 2 0 0 0 1 0 0 1 0 0 0 1 0 0 0 0 0 1 0 2 0 0 1 1 1 0 1 2 1 0 0 0 0 0 1 1 0 1 0 0 0 1 0 1 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 2 2 0 0 0 1 0 0 1 0 1 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 1 0 0 0 2 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 1 0 1 0 0 2 1 0 1 0 0 0 1 0 0 0 2 0 1 0 0 2 2 0 1 1 0 1 0 0 1 1 0 2 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 2 0 0 1 0 0 1 0 0 0 0 1 0 1 0 0 1 0 1 0 1 1 0 1 1 0 0 0 0 1 1 0 0 0 1 0 0 1 0 0 0 1 0 0 0 0 1 0 0 1 0 1 1 1 0 0 1 0 0 3 0 0 0 0 1 1 0 2 0 0 0 2 2 0 0 0 1 1 0 0 0 0 1 1 1 0 0 0 0 0 1 1 0 0 0 1 0 1 0 0 1 2 1 0 0 0 0 1 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 1 0 0 0 0 0 0 1 0 1 1 0 0 1 0 0 0 0 1 1 0 0 0 1 0 0 1 1 0 0 0 0 1 0 0 0 0 1 0 1 0 0 1 2 0 0 0 1 1 1 0 1 0 1 0 3 0 0 0 0 1 0 1 0 0 1 0 0 0 0 0 0 0 0 0 1 1 0 0 0 1 0 0 0 1 0 0 1 0 0 1 0 1 2 0 2 1 0 0 1 0 0 1 1 0 0 1 1 0 1 0 1 0 0 0 0 1 1 0 1 0 1 0 0 1 1 1 1 1 0 0 1 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 1 2 0 0 0 0 0 0 0 0 1 0 0 1 1 0 0 0 0 0 0 1 1 1 0 1 0 0 1 1 0 0 1 1 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 1 0 0 0 0 0 0 0 2 0 0 0 0 0 3 0 1 0 1 3 1 0 0 0 0 0 1 0 1 0 2 0 0 1 0 0 1 0 1 0 1 0 0 0 0 0 2 0 0 0 0 2 0 1 1 0 1 0 1 0 0 1 0 0 0 2 1 1 0 1 1 0 0 1 2 2 1 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 1 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 1 0 0 0 1 0 0 1 0 1 0 0 0 0 1 0 1 1 1 0 0 0 0 1 1 0 1 0 0 0 0 1 0 0 1 0 1 0 1 2 0 0 0 1 0 0 1 1 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 2 0 3 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 1 0 0 1 1 0 0 0 0 0 1 1 3 0 0 0 1 0 1 0 2 1 1 1 2 1 1 0 1 1 0 0 0 1 0 0 1 0 0 0 2 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 1 0 0 1 0 0 0 1 1 0 1 0 0 0 0 0 0 0 1 1 0 1 0 1 1 0 0 0 1 0 1 0 1 0 1 0 0 0 0 0 0 1 1 0 0 0 0 1 0 0 1 0 0 1 2 1 0 0 1 0 0 1 0 0 0 0 0 1 1 1 0 0 0 0 1 0 0 0 0 1 1 0 1 1 1 1 1 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 2 1 0 1 1 0 0 1 2 1 1 0 0 1 0 0 0 0 0 2 0 0 0 0 0 0 0 2 0 0 1 1 0 0 1 1 0 0 0 1 1 0 0 0 0 0 0 0 0 0 1 1 0 2 1 0 0 0 1 0 1 0 1 0 2 0 0 0 0 0 1 0 0 1 0 1 1 0 1 0 1 0 0 1 1 0 0 0 1 1 2 1 1 0 0 0 1 0 0 0 0 1 0 0 1 0 1 0 0 0 2 0 0 0 1 1 0 0 2 0 1 1 0 1 2 1 1 0 1 0 0 0 2 0 0 1 0 0 2 0 0 0 1 2 1 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 1 1 1 0 0 1 0 1 0 1 0 1 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 1 2 0 0 3 0 1 0 1 1 0 1 0 1 0 1 0 0 0 0 0 1 1 1 0 1 0 1 1 0 0 0 0 0 1 0 0 0 0 0 0 2 0 1 0 0 0 2 0 0 0 2 2 1 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 1 1 1 1 1 0 0 1 0 0 0 1 0 0 0 0 0 1 0 1 0 0 0 0 1 0 0 0 0 0 0 2 1 0 0 0 0 0 1 1 2 1 0 1 0 1 0 1 0 1 1 0 1 0 0 1 0 1 0 1 0 1 0 1 0 0 0 0 0 1 0 0 0 1 0 1 1 0 1 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 2 0 2 0 0 0 2 0 0 0 0 0 0 2 1 0 0 0 0 0 0 0 2 0 0 0 1 0 0 0 0 0 1 0 0 1 0 1 0 0 0 0 2 0 0 1 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 1 1 0 1 0 0 0 0 1 0 0 2 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 1 0 0 0 0 0 0 1 0 1 0 0 0 2 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 1 0 1 1 1 0 0 2 0 2 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 1 0 1 0 1 1 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 1 0 0 3 0 1 0 0 0 1 1 0 0 0 0 0 0 1 0 0 0 0 1 0 0 1 0 0 0 1 0 0 0 0 0 1 2 0 1 2 0 1 0 1 0 0 0 0 1 0 1 1 1 2 0 0 1 0 0 0 1 1 0 0 1 0 0 1 1 0 0 1 0 0 0 0 0 1 0 0 1 0 0 2 0 0 0 0 1 0 0 0 3 3 0 0 0 0 0 3 0 0 2 1 0 2 1 0 0 0 1 1 0 0 1 0 2 0 1 0 0 0 1 3 0 0 3 0 0 0 0 0 2 1 1 0 2 1 0 0 0 0 0 0 1 0 0 0 1 0 0 1 0 0 0 0 0 1 1 1 1 1 0 0 1 0 0 0 0 3 0 1 0 0 0 0 1 1 0 0 0 1 0 2 0 0 1 0 0 0 1 1 0 1 0 0 0 0 0 1 1 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 1 0 1 0 1 0 0 0 0 0 0 0 0 0 0 1 1 0 0 1 5 1 0 2 0 0 1 0 1 0 0 0 1 0 1 0 1 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 2 0 0 0 0 0 1 1 1 1 0 0 0 0 0 3 0 0 0 0 0 1 0 0 0 0 1 1 1 1 0 1 0 0 0 0 1 1 0 1 0 0 1 0 0 2 0 0 2 1 0 0 0 0 0 0 1 1 1 0 0 0 1 0 0 0 1 0 1 1 0 0 0 1 1 0 0 0 0 0 1 0 0 2 1 1 0 0 0 2 0 1 0 0 0 0 1 0 0 2 0 0 1 0 0 0 0 1 0 0 0 2 1 0 0 0 0 1 1 0 0 1 0 0 0 0 0 1 0 2 1 0 0 0 1 1 0 0 0 1 0 0 0 2 0 1 2 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 2 1 0 1 0 0 1 1 1 1 0 1 1 0 1 0 0 0 0 0 0 1 0 1 2 1 0 0 0 0 1 2 0 0 0 0 2 0 2 0 0 0 1 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 2 0 0 0 0 0 0 0 1 1 0 0 0 0 0 3 0 0 1 1 0 0 1 0 1 0 0 0 0 1 2 2 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 2 1 0 0 0 0 0 1 0 0 0 0 1 0 1 2 0 0 0 0 0 0 1 2 0 0 1 1 0 0 1 1 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 1 3 0 1 0 0 1 0 0 0 1 2 0 1 1 0 0 0 2 0 0 0 0 1 0 0 0 0 0 1 0 0 0 1 0 0 1 1 1 0 1 1 0 0 0 1 0 0 0 0 1 1 0 0 0 2 3 0 0 0 0 1 2 0 1 1 1 0 0 1 1 0 0 0 0 1 1 0 2 0 0 0 0 2 0 1 0 0 0 1 0 0 1 0 0 0 1 2 1 0 0 0 1 0 0 0 1 1 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 1 0 1 0 2 1 0 0 0 1 0 0 0 2 1 4 0 0 1 1 1 2 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 1 1 1 0 1 0 0 0 1 0 0 1 0 0 0 0 0 1 0 1 0 0 0 0 0 0 1 0 0 1 1 3 0 1 1 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 1 2 0 0 1 0 1 0 0 0 1 1 1 0 0 1 2 0 0 0 1 0 0 0 1 0 1 0 0 0 1 0 0 0 0 0 1 2 0 1 2 0 1 0 1 1 0 1 0 0 1 0 0 0 0 2 1 1 0 0 0 0 1 1 1 0 0 0 1 1 0 0 0 1 0 0 0 1 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 1 1 1 1 0 0 0 0 1 0 0 0 1 1 0 3 0 0 1 1 0 2 1 0 0 0 1 2 0 0 0 1 2 2 0 0 1 0 2 1 0 0 0 0 0 1 1 0 2 0 0 0 0 0 1 0 1 1 0 0 1 2 0 1 0 0 0 1 1 0 2 0 1 0 1 0 0 0 0 0 0 1 0 0 1 0 0 2 0 0 1 0 0 0 1 1 1 1 0 0 1 1 0 0 0 0 0 0 0 0 3 3 0 0 1 0 0 0 1 0 0 0 0 0 1 0 0 2 0 1 2 2 0 1 0 1 0 0 1 0 0 1 1 1 2 0 0 0 0 0 0 0 1 0 1 0 0 0 1 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 2 0 4 0 1 0 0 1 0 0 0 0 0 0 1 0 0 1 0 1 0 1 0 0 0 1 0 1 1 0 0 0 0 0 1 0 0 2 1 0 0 2 1 0 0 1 1 1 1 0 1 0 1 2 0 0 0 1 1 1 0 1 1 0 0 0 0 1 0 0 0 0 2 0 0 0 1 1 0 0 0 0 0 1 4 0 0 1 0 1 0 1 2 1 0 0 0 0 0 0 1 0 0 1 0 0 2 1 0 1 2 0 0 1 0 2 0 0 0 0 0 1 0 1 0 1 0 1 0 0 0 0 1 0 0 1 0 0 0 1 2 2 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 1 0 3 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 1 0 1 1 0 1 0 1 1 0 0 0 0 1 0 0 0 0 0 1 1 1 0 0 0 0 1 2 1 0 1 1 0 0 1 2 0 1 2 0 0 2 0 1 0 0 1 0 1 2 0 0 0 0 0 1 0 1 1 1 2 0 0 0 0 2 0 1 0 0 1 0 1 0 1 0 0 1 0 2 1 0 0 0 1 2 0 1 0 0 1 0 0 0 0 0 1 1 0 0 0 0 1 0 0 2 1 0 0 0 0 1 0 0 0 1 0 1 0 1 1 0 0 0 1 1 1 1 0 0 0 0 0 2 4 1 0 1 0 0 1 0 0 0 1 0 0 0 0 1 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 1 2 2 1 0 0 0 1 0 0 1 0 1 1 1 0 0 0 0 1 0 0 2 0 0 0 0 0 0 0 0 1 0 0 0 1 1 0 0 0 0 0 1 0 1 1 0 0 0 0 0 0 2 0 0 0 0 0 2 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 1 0 0 2 2 1 0 0 0 1 0 0 0 0 0 0 1 2 1 1 0 0 0 1 0 1 0 0 0 2 0 0 0 0 0 0 0 1 0 2 1 1 0 0 1 0 0 0 0 2 0 1 0 0 1 0 0 1 0 1 0 0 1 0 0 0 0 1 0 0 0 1 0 1 0 0 0 0 2 0 0 0 1 0 0 0 0 0 0 0 0 2 0 2 1 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 1 0 0 1 0 0 0 0 0 1 0 0 1 1 0 2 0 1 0 0 0 1 3 1 0 0 0 0 0 1 0 0 2 1 0 1 1 1 1 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 2 2 1 0 0 0 0 0 0 1 1 1 1 0 0 0 2 0 1 1 0 0 0 1 0 0 0 0 1 0 1 0 1 1 0 1 0 1 1 0 1 0 1 0 0 1 2 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 1 0 0 1 1 0 2 0 0 0 0 1 0 0 0 2 1 0 0 0 1 0 0 0 3 0 0 0 0 0 0 0 1 0 0 1 0 1 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 1 0 1 1 1 0 0 0 0 0 0 0 1 1 0 2 1 0 1 0 0 1 1 0 0 0 0 0 0 0 0 1 0 1 0 0 1 1 0 0 0 0 0 0 1 0 0 1 0 2 0 0 0 1 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 1 0 0 0 0 0 0 1 1 1 0 0 0 0 1 0 0 1 1 0 1 1 0 2 1 0 0 0 0 0 0 3 0 0 1 0 0 0 0 0 1 0 0 1 1 0 1 0 0 1 0 0 0 0 0 3 0 1 0 1 0 0 0 0 2 0 4 1 2 0 0 0 0 1 0 0 1 1 1 0 0 0 1 0 1 0 1 0 0 0 1 0 0 1 1 0 1 0 0 0 0 1 1 1 3 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 1 2 0 0 0 0 0 0 0 1 2 1 1 1 0 0 1 0 0 2 0 0 2 0 1 0 1 0 0 0 0 0 1 2 1 1 0 1 1 1 0 0 0 0 0 0 1 0 0 1 2 0 1 0 1 0 0 1 0 1 0</t>
+  </si>
+  <si>
+    <t>JSB(2.1728028257192253, 2.8184479286391224, -62.94725792271694, 490.41208961663347)</t>
+  </si>
+  <si>
+    <t>83 144 91 121 131 115 95 131 113 119 70 112 38 99 90 75 17 92 97 119 59 33 36 155 69 122 130 98 100 157 78 64 141 97 46 24 52 186 104 67 151 75 111 98 67 48 111 86 22 139 111 78 90 108 135 171 151 111 95 133 114 118 64 144 77 83 58 63 59 27 93 90 98 109 110 106 155 126 144 58 106 59 151 44 70 36 147 100 82 47 51 78 77 110 31 58 67 134 103 161 123 133 148 55 51 66 65 134 77 80 48 58 113 82 93 68 93 133 42 39 92 83 131 55 109 117 44 139 143 85 100 98 78 133 125 97 87 114 145 83 98 113 87 142 99 120 109 90 61 105 114 109 58 103 29 130 134 73 35 85 18 125 138 64 114 93 132 89 119 161 85 118 212 34 60 104 92 81 117 45 72 32 37 66 119 51 38 88 32 14 70 71 105 113 83 69 160 94 85 174 70 84 82 186 78 65 91 102 97 130 91 106 218 124 158 92 72 90 65 55 86 56 151 95 49 56 118 89 64 56 77 97 94 96 154 19 116 111 83 112 75 109 176 173 30 96 73 84 57 53 112 143 103 58 111 75 75 70 83 85 100 78 152 97 73 135 42 83 129 78 77 170 122 111 218 117 175 70 84 58 106 140 93 89 84 91 87 69 60 46 76 92 62 66 47 28 126 167 139 43 28 121 122 67 88 27 87 81 27 52 83 55 101 84 55 92 51 42 104 62 159 91 60 35 48 146 91 75 89 56 121 48 -3 101 111 19 47 69 30 120 59 100 180 63 191 61 116 83 178 66 46 164 84 86 70 74 142 93 135 91 85 59 95 131 87 97 87 91 173 130 107 56 13 82 109 165 107 79 97 97 104 91 126 142 37 92 66 72 182 94 90 22 62 94 49 108 90 124 147 63 104 181 13 43 33 123 185 123 142 136 101 129 131 130 180 140 82 103 102 42 71 56 49 57 62 27 97 118 115 53 97 166 156 96 67 168 154 103 102 75 114 147 98 83 167 161 113 119 96 48 124 162 90 110 19 103 74 90 65 100 76 114 129 36 138 90 109 50 46 112 53 107 50 158 158 110 91 56 90 131 136 161 74 67 108 69 153 61 112 88 130 78 122 80 99 82 161 104 112 36 8 127 164 91 141 157 110 108 33 76 78 93 146 98 54 43 75 108 75 73 64 82 70 55 56 171 81 120 67 65 83 103 28 66 55 116 112 113 139 116 127 72 76 62 100 105 115 63 103 110 88 88 181 159 104 85 28 37 77 138 97 88 105 54 53 104 162 81 126 95 156 121 68 109 87 115 94 75 199 82 74 88 18 80 54 43 119 37 87 129 98 72 61 70 120 106 213 77 134 51 151 93 102 51 76 144 112 47 151 121 54 131 92 130 98 131 130 76 113 65 91 80 41 131 62 106 75 98 77 70 149 97 127 58 11 46 102 64 66 84 86 147 126 64 123 138 93 84 39 63 162 43 137 78 105 127 72 89 72 75 89 118 140 113 79 69 116 92 92 141 110 85 50 56 120 175 131 142 44 38 152 79 90 93 131 71 138 94 92 124 78 63 23 157 137 76 69 44 67 89 119 154 69 125 50 114 98 67 99 84 83 113 102 136 71 69 88 125 134 58 159 34 44 107 76 157 69 55 124 45 85 70 144 98 53 124 90 108 44 81 92 71 124 101 84 67 154 75 89 74 127 21 103 130 55 102 174 88 148 99 63 189 84 105 64 71 85 72 111 73 78 101 16 137 145 79 72 64 116 113 74 98 89 119 147 154 34 54 25 84 68 94 54 57 117 63 171 113 32 99 77 58 29 131 55 81 83 24 96 140 73 45 190 137 89 63 114 137 67 75 87 155 24 76 58 118 107 28 47 129 95 115 115 153 153 112 84 108 47 109 77 117 72 108 115 70 39 59 105 63 73 72 150 139 54 115 105 85 40 72 39 121 202 107 85 76 95 66 140 87 128 127 19 75 30 169 64 121 111 147 90 94 124 70 53 122 36 90 47 42 87 98 124 26 150 173 49 85 58 130 110 74 68 113 55 156 17 114 69 91 153 74 35 46 85 40 77 65 47 38 188 107 95 115 79 129 106 75 117 83 108 134 131 47 27 59 129 116 38 93 71 84 60 99 94 83 110 100 99 188 90 93 111 119 118 16 73 180 58 73 119 119 161 63 58 89 69 55 72 89 157 138 66 116 96 117 104 125 62 91 51 93 106 114 106 54 93 86 170 97 84 63 133 116 134 153 71 131 104 48 102 43 135 32 107 125 104 119 84 91 108 159 116 152 84 98 163 79 74 109 111 121 130 89 57 169 88 104 118 106 119 131 90 196 81 65 93 47 88 72 98 84 95 86 35 122 94 116 81 77 25 119 14 31 73 30 69 132 88 118 66 92 92 127 32 41 61 130 76 52 106 64 87 37 76 77 110 108 94 77 120 131 96 43 118 102 59 97 91 90 59 163 32 139 39 150 201 19 123 110 146 37 26 79 102 118 43 125 27 105 110 32 110 84 132 92 139 99 139 94 76 31 180 105 104 177 92 97 148 78 79 43 80 48 129 86 142 162 96 112 53 62 49 44 70 98 83 91 33 29 66 70 111 121 28 69 96 166 69 71 96 69 55 122 118 61 34 137 160 124 152 99 61 178 59 57 39 68 100 92 40 123 67 77 136 48 67 170 174 60 34 39 106 98 56 48 84 73 49 122 90 45 120 115 130 86 82 136 138 48 77 78 72 161 50 73 40 10 123 98 81 88 103 64 69 164 80 88 66 92 87 116 132 111 63 79 109 127 181 147 201 167 109 26 172 115 154 70 147 80 95 111 32 65 73 111 120 89 41 89 133 99 94 102 93 67 204 97 92 93 160 119 70 96 73 77 112 112 141 143 103 91 76 47 23 80 88 25 93 191 164 97 85 167 73 33 112 70 26 130 59 59 121 114 60 56 20 47 137 38 72 58 96 76 39 100 123 68 76 73 54 44 99 77 87 94 124 72 83 87 47 70 138 77 46 123 65 138 103 50 80 79 48 111 79 30 78 26 92 98 46 108 62 149 124 170 37 72 43 45 206 27 132 74 61 103 98 92 39 35 46 103 127 91 99 64 30 32 85 65 87 93 78 138 46 121 91 61 69 75 53 85 85 65 47 90 155 88 97 67 100 84 36 134 37 153 112 81 91 31 86 100 69 86 167 119 76 101 46 45 35 166 81 115 126 118 78 96 42 136 95 116 101 130 155 71 67 40 36 120 77 88 28 94 107 61 115 108 124 79 116 60 120 69 129 140 104 39 99 49 88 124 184 132 44 71 118 89 89 129 158 170 63 90 68 49 127 130 124 170 48 192 99 106 92 109 140 16 95 68 81 78 62 48 112 39 96 99 52 115 78 85 72 47 103 66 123 70 92 100 31 102 56 18 102 134 23 73 142 75 81 49 85 56 100 38 130 115 32 55 81 110 95 99 130 160 98 146 48 157 26 34 125 79 91 105 21 131 152 89 59 38 102 148 115 41 42 22 69 79 74 44 130 76 119 100 80 90 119 116 76 99 127 40 91 60 125 106 90 137 52 126 75 110 34 76 94 140 109 121 93 95 104 114 131 65 118 70 25 93 111 135 115 212 173 132 139 94 80 81 130 86 117 109 85 103 37 55 124 99 93 129 115 78 73 92 142 139 61 95 132 123 79 56 74 76 79 110 115 44 33 26 146 83 65 52 150 67 110 101 59 66 174 81 107 133 129 31 78 101 70 131 91 169 16 156 55 66 166 71 111 77 51 36 143 46 72 90 156 109 24 109 45 92 33 93 71 79 47 127 72 44 128 119 146 105 168 78 137 96 101 39 96 54 154 126 104 144 76 97 75 64 71 105 106 116 127 109 80 60 115 138 135 62 125 85 115 217 39 55 99 96 58 36 173 73 32 40 80 91 89 122 41 110 73 95 77 25 114 113 98 54 94 81 97 147 63 22 105 96 127 130 61 28 89 106 100 170 43 119 36 73 90 90 108 160 61 79 89 71 48 75 89 1 101 81 83 109 36 93 88 162 80 22 35 82 61 179 95 176 78 173 92 108 68 33 100 65 137 101 69 116 101 148 130 104 76 47 88 110 78 155 80 94 78 50 77 36 61 55 134 54 145 158 88 21 46 19 101 114 183 86 77 63 72 71 26 137 88 90 90 63 114 81 47 105 79 98 143 97 117 111 120 99 138 81 111 133 59 56 66 109 130 86 141 50 68 72 177 118 29 152 103 147 11 67 126 97 66 218 33 48 89 134 54 69 109 69 123 82 92 111 78 74 104 45 146 34 57 81 158 106 83 95 53 75 153 140 54 241 60 47 114 24 161 98 97 121 123 102 165 57 152 105 18 73 144 87 62 160 79 68 100 130 139 104 191 57 125 146 59 79 85 79 83 78 87 47 63 93 40 80 98 83 197 98 90 90 173 156 117 72 78 108 92 81 56 143 105 27 106 55 96 34 97 101 48 110 99 95 83 145 83 105 85 93 114 69 108 180 105 108 11 125 107 51 87 87 78 127 178 120 29 120 60 83 130 60 168 61 58 144 100 81 43 113 125 81 121 142 103 93 144 73 98 121 95 90 61 56 108 179 148 69 85 96 69 49 83 72 82 91 40 89 146 134 71 111 68 108 78 137 167 43 122 103 56 70 124 55 35 70 61 118 103 112 155 85 76 111 129 40 83 135 80 79 51 75 34 97 109 101 90 93 85 124 44 82 45 126 112 64 72 63 101 81 168 172 84 128 166 112 106 124 148 77 127 47 106 71 110 160 106 190 119 80 99 134 105 110 107 119 98 52 62 75 107 104 52 56 44 52 43 94 33 20 128 122 171 108 56 93 54 74 85 76 78 79 57 73 51 98 68 132 74 101 75 144 59 87 95 139 170 103 120 102 116 63 112 130 132 61 131 132 172 55 45 128 57 122 133 33 134 147 65 113 38 97 96 69 121 135 93 82 48 79 95 121 47 71 83 134 117 126 132 84 104 83 37 108 31 83 169 170 188 61 79 125 63 107 114 84 101 63 86 66 98 150 60 25 132 83 86 199 78 154 106 69 132 115 61 125 142 158 144 101 112 82 24 97 81 182 77 106 65 131 160 148 106 77 50 24 163 120 101 65 96 88 103 97 84 114 107 49 95 124 56 78 118 117 79 78 104 93 156 121 90 104 80 156 169 127 148 40 83 62 42 88 120 178 68 134 137 63 169 27 95 79 103 21 137 159 37 104 85 51 123 78 93 90 72 65 190 75 153 116 55 16 123 85 95 92 132 74 70 91 148 78 120 52 235 77 134 109 154 53 50 120 25 105 138 88 90 121 113 93 126 18 178 108 50 142 122 83 93 98 45 114 164 88 59 57 108 51 92 126 139 98 121 117 72 86 35 125 95 142 105 62 80 81 130 146 112 71 57 66 121 104 123 83 19 128 94 167 78 94 133 104 118 70 138 112 59 82 108 71 121 146 97 43 46 64 119 131 158 110 107 67 52 89 84 29 163 95 159 97 79 39 80 65 85 81 124 67 64 39 86 92 140 57 52 78 67 97 125 167 67 80 113 143 74 88 121 54 106 107 100 132 113 155 195 118 125 70 157 100 81 56 93 91 83 75 73 87 48 75 134 70 80 140 92 87 43 178 145 75 142 107 134 56 102 220 125 92 123 80 75 41 151 89 76 135 122 112 76 73 55 92 101 71 105 38 124 126 78 119 34 71 133 88 93 131 105 131 24 112 77 41 133 101 86 95 144 92 92 118 82 144 81 78 84 86 83 131 61 120 122 135 106 79 77 19 50 58 73 51 91 97 55 104 103 46 118 92 81 82 130 109 29 108 63 110 89 47 93 69 77 77 122 110 42 77 100 93 47 135 63 74 68 97 159 52 116 110 137 93 63 103 97 83 41 56 36 68 49 169 94 121 121 133 128 49 122 118 135 49 98 162 115 167 44 150 41 154 64 59 104 169 75 117 34 56 61 86 116 60 87 131 75 47 56 178 127 94 76 105 51 126 108 121 65 100 76 38 106 162 59 126 55 134 128 120 49 97 120 68 66 174 74 75 93 79 105 37 39 62 71 117 71 74 47 86 144 94 106 98 17 105 139 170 101 74 114 93 113 104 147 138 116 76 119 104 113 161 105 90 61 98 103 141 102 36 84 105 100 56 52 94 94 109 111 47 100 20 113 157 129 52 85 61 88 81 121 33 46 120 73 37 110 30 89 37 95 97 33 137 97 105 13 56 95 90 80 70 110 96 64 185 161 127 85 150 91 116 103 78 79 120 88 36 64 82 68 104 143 69 69 41 88 97 163 85 24 155 89 105 116 93 65 57 106 166 152 86 42 93 25 109 143 47 97 123 66 106 68 102 149 96 118 106 120 83 76 79 61 150 86 37 81 94 133 138 109 82 78 90 164 140 73 103 100 68 96 113 92 83 151 94 96 59 111 143 110 129 89 123 82 103 84 91 175 103 16 117 141 79 159 122 85 30 16 111 92 132 139 33 100 150 162 99 67 39 183 107 35 96 69 104 87 42 97 28 25 164 109 83 47 63 40 95 133 116 92 85 113 140 73 109 102 130 108 98 86 112 178 68 86 103 90 166 107 95 62 158 130 13 103 96 99 133 48 78 77 122 76 78 116 39 109 66 83 120 96 86 107 112 131 54 89 75 60 115 72 145 249 111 140 125 135 110 102 76 115 98 175 99 84 64 135 111 70 72 80 160 43 72 112 79 138 144 94 138 58 133 115 109 121 138 108 55 91 100 178 102 144 71 206 87 150 18 113 72 48 135 108 102 73 96 95 134 57 102 74 125 96 60 147 88 100 51 39 119 136 77 99 126 117 134 79 160 133 64 106 157 105 70 36 138 181 63 76 116 58 132 19 25 109 78 90 111 107 89 109 118 82 150 132 141 87 182 87 68 29 102 80 97 195 114 59 97 121 97 152 91 50 43 144 123 136 118 40 62 62 59 105 90 37 64 60 59 173 59 32 71 46 92 98 46 154 85 67 87 86 89 42 132 137 58 119 52 101 110 99 93 101 100 129 139 158 153 74 40 91 126 137 95 113 131 70 145 77 145 82 91 155 95 70 150 58 86 112 79 38 78 83 74 107 105 87 206 29 48 85 104 76 54 98 108 68 83 145 146 142 88 102 66 89 26 77 61 134 114 169 87 52 75 57 73 130 123 73 149 71 123 110 142 29 119 64 61 42 92 124 85 166 137 39 150 101 75 9 88 169 208 128 81 119 77 107 133 152 55 183 85 62 72 129 121 90 52 107 84 201 140 54 113 108 57 59 95 132 137 93 126 68 83 66 58 76 43 54 71 107 99 95 105 127 108 36 41 69 35 83 89 87 95 28 25 101 36 91 38 101 106 31 85 98 82 69 87 135 111 79 137 114 96 123 104 130 77 63 91 58 104 105 150 115 83 166 98 105 128 79 103 117 53 76 107 197 84 125 56 51 50 116 72 112 69 61 88 91 76 90 43 75 125 56 68 117 136 129 175 46 116 105 40 81 35 104 114 101 42 97 77 92 103 77 76 124 88 74 122 134 98 66 97 70 46 55 92 62 106 121 88 114 104 77 97 97 164 147 115 125 70 106 65 123 82 23 133 117 111 162 43 96 118 68 117 80 82 117 48 78 48 102 77 62 136 70 150 68 67 91 48 144 78 85 109 67 86 131 78 93 64 76 38 143 98 101 112 111 91 98 71 65 79 62 103 104 80 98 92 144 97 90 77 92 71 80 113 40 117 75 184 104 81 86 62 150 144 159 104 91 112 104 34 76 30 153 165 107 41 69 93 79 87 200 160 38 113 47 96 126 105 59 190 147 158 109 87 61 97 87 143 113 171 94 57 81 107 197 127 37 86 125 158 105 120 113 126 79 46 53 55 104 190 104 51 125 69 73 77 41 100 101 54 87 79 87 124 43 92 71 69 84 145 137 144 51 21 139 127 172 128 162 106 132 94 102 111 82 96 61 30 80 137 65 114 129 92 147 96 67 55 111 46 116 78 104 100 102 62 92 124 71 109 108 77 129 43 116 98 134 90 54 90 128 92 151 111 71 92 121 70 42 104 90 55 147 57 132 99 58 117 124 133 157 96 36 73 121 127 68 158 182 105 113 121 150 131 55 70 43 126 94 125 19 71 93 93 92 60 90 87 47 73 165 104 66 170 168 48 96 188 80 56 108 103 115 102 87 136 122 32 90 83 89 68 91 104 119 149 26 86 71 60 46 169 28 154 101 129 85 108 114 60 27 48 102 118 45 133 170 144 101 126 139 108 109 147 77 68 87 190 116 62 73 72 59 121 78 62 111 38 52 116 132 88 127 48 167 49 97 85 156 43 126 93 103 140 131 85 88 56 88 113 186 113 69 94 81 44 80 246 130 72 144 54 41 63 96 114 118 98 176 116 66 62 32 142 96 101 48 94 116 38 109 92 156 62 90 94 88 112 83 91 103 110 120 84 25 115 114 39 123 117 142 34 138 198 107 153 59 141 131 61 62 114 78 53 83 21 135 98 73 86 93 165 51 170 208 56 129 126 113 45 35 140 39 47 35 200 100 64 63 44 80 76 54 71 75 104 73 76 124 80 24 127 88 69 138 177 100 121 75 102 103 132 45 57 121 115 130 139 125 61 109 128 51 132 75 87 123 144 88 87 57 108 123 32 27 127 59 75 72 29 93 43 90 91 96 64 79 57 78 108 71 120 77 55 110 111 83 31 7 146 87 160 125 65 92 118 99 70 89 83 118 49 107 116 38 95 142 28 89 42 95 106 123 100 53 118 156 151 92 76 53 36 89 121 83 142 127 77 142 94 87 78 101 72 83 92 193 37 65 89 51 112 88 69 99 77 108 115 64 93 80 126 122 76 79 132 184 108 108 141 72 113 78 118 118 85 39 97 168 52 163 83 155 135 44 159 71 76 87 117 112 108 126 64 51 102 132 156 100 112 101 100 51 26 187 85 128 89 52 102 72 36 103 94 42 116 75 65 98 65 75 103 112 136 83 69 16 62 74 73 132 100 111 58 135 109 80 68 119 82 88 96 108 96 121 121 46 20 127 83 106 110 34 117 36 109 83 144 111 86 95 33 119 124 133 115 111 53 87 61 105 73 91 70 80 126 87 77 105 130 48 61 85 220 100 102 100 140 80 163 133 83 116 88 95 143 113 75 100 92 50 122 77 150 85 81 107 135 84 81 163 92 105 54 80 78 73 90 104 115 67 132 59 67 49 142 158 96 114 122 58 98 57 150 133 103 86 106 93 50 89 81 113 94 42 67 57 76 66 147 90 40 25 47 116 63 147 134 30 61 86 84 91 116 122 60 87 170 88 140 125 86 98 86 102 128 46 56 79 120 91 84 50 44 113 71 59 120 121 21 143 80 135 105 57 67 139 56 32 71 135 47 151 89 98 103 128 107 147 147 162 90 30 46 147 161 37 82 70 92 77 84 139 65 83 111 62 70 141 37 40 101 31 82 50 61 126 126 144 29 42 111 116 89 80 113 93 101 137 77 88 136 67 137 84 112 130 84 107 82 85 27 124 89 76 132 52 161 129 128 106 33 130 111 110 64 116 26 38 99 107 134 99 109 148 80 149 110 87 78 96 88 103 81 79 89 75 65 84 91 70 94 116 26 69 62 72 122 172 88 56 150 108 80 129 65 128 95 87 92 100 57 114 53 110 111 96 125 54 154 122 145 86 69 160 74 66 69 112 149 95 91 194 136 83 80 68 98 102 118 102 62 84 146 132 109 144 125 76 138 83 130 170 121 100 39 129 96 61 75 115 63 111 42 92 52 138 69 124 84 57 76 108 83 87 158 114 48 97 128 75 151 64 81 112 110 126 104 84 137 81 54 73 137 87 125 183 64 55 101 62 141 51 68 116 137 46 61 140 117 141 79 36 135 76 123 76 106 96 73 87 121 123 133 104 85 150 83 118 135 156 140 91 99 90 93 44 100 105 47 56 14 90 87 128 41 69 77 76 97 72 59 103 97 105 67 179 145 162 28 97 42 62 86 46 64 127 113 98 114 21 137 108 130 109 39 78 88 52 150 202 61 94 90 94 138 53 111 74 219 85 117 128 145 83 158 104 32 137 31 91 89 101 125 84 55 71 43 74 82 112 80 41 146 91 112 76 74 120 118 166 118 64 101 75 71 143 75 19 111 26 46 51 85 123 47 19 94 35 101 115 90 72 100 19 45 69 141 131 89 125 159 134 134 88 82 110 135 30 61 121 80 84 125 168 112 163 58 74 118 72 130 99 82 57 101 73 90 154 74 98 144 139 59 81 60 77 65 58 44 92 94 77 63 48 143 122 103 70 120 83 133 93 85 57 120 34 139 111 29 71 90 87 124 63 90 87 122 50 101 144 163 129 125 52 133 82 109 137 72 111 152 49 103 98 76 61 42 77 67 136 125 113 70 51 69 115 97 109 79 79 72 147 123 57 128 145 106 126 138 142 56 61 71 90 65 177 170 73 104 127 170 107 140 94 100 188 76 126 123 31 70 104 48 61 118 90 74 69 27 148 90 124 38 120 96 198 108 91 44 15 116 80 99 91 68 121 31 81 69 91 45 84 80 26 81 144 86 113 77 73 68 52 101 45 25 47 137 108 50 81 60 47 62 115 82 119 90 66 102 107 64 103 137 52 114 125 48 87 57 32 83 37 106 46 145 115 62 58 60 80 53 148 75 78 74 84 88 124 42 157 86 117 191 82 106 72 58 102 163 67 68 72 99 103 34 140 127 87 112 135 61 85 83 122 126 154 93 137 95 86 99 83 113 66 86 77 14 137 135 57 91 131 91 119 98 19 34 64 123 87 110 71 143 136 88 53 69 82 65 116 86 66 38 101 137 99 58 93 31 74 176 120 29 87 118 115 202 128 115 103 97 113 98 155 86 94 69 106 64 55 87 69 86 68 118 61 134 100 92 134 51 95 86 37 82 73 105 59 53 159 86 122 74 91 139 70 62 44 60 57 150 84 133 37 54 86 109 116 48 66 98 127 89 111 62 137 126 74 80 75 33 123 101 61 69 138 99 111 58 32 165 91 106 70 97 62 47 124 59 93 100 44 75 86 104 122 74 47 144 50 111 140 83 84 43 61 80 62 96 131 93 143 129 124 101 90 78 113 80 122 82 49 66 152 119 117 125 87 62 107 72 121 101 55 100 128 87 118 39 21 44 92 31 122 120 129 46 79 107 134 59 75 82 120 81 130 45 80 47 79 99 56 74 50 28 84 115 137 93 73 58 12 53 94 51 133 62 73 78 73 1 86 81 77 48 120 50 66 111 40 77 118 86 125 95 125 90 50 84 120 77 73 52 142 105 105 93 21 89 74 200 48 127 124 68 79 128 77 48 40 91 83 26 133 74 137 139 104 51 122 66 69 140 52 63 26 97 66 59 139 118 160 114 114 54 57 109 96 124 11 138 87 180 129 137 68 116 63 64 78 74 99 143 155 73 75 89 104 31 49 71 134 80 127 84 83 85 95 110 150 109 157 77 163 150 97 100 91 64 69 60 86 63 134 115 134 122 98 9 84 83 49 87 30 120 112 99 88 69 110 86 147 164 57 149 115 101 156 151 76 57 86 101 29 93 142 98 55 123 72 75 84 45 102 78 157 88 115 130 46 90 96 58 77 55 93 145 112 48 92 101 137 15 136 74 114 122 86 73 119 37 81 77 57 109 47 144 92 146 44 125 79 112 99 99 160 133 89 107 153 122 101 76 60 68 162 117 61 60 113 81 75 108 46 55 27 92 151 77 115 126 110 66 126 138 107 92 85 69 64 131 119 115 119 95 183 93 99 52 83 89 151 122 27 115 77 83 64 108 127 112 90 134 49 195 37 99 118 105 64 143 98 38 106 114 133 60 166 106 123 145 71 47 101 79 123 72 53 113 57 197 144 81 123 97 75 52 94 148 84 38 69 109 39 110 71 117 100 73 116 80 104 148 154 90 70 88 125 131 65 24 128 97 84 83 77 80 167 90 60 75 118 117 127 27 37 62 131 98 57 58 90 107 106 85 54 102 118 79 76 94 66 137 97 108 84 99 105 54 103 88 74 133 150 87 64 67 138 161 145 66 80 35 119 174 70 96 99 92 35 103 122 101 77 87 55 132 87 103 64 55 102 105 71 102 130 63 60 98 84 115 62 124 135 48 111 131 39 136 98 119 168 93 93 132 72 161 151 73 111 57 70 81 64 90 92 59 41 107 99 17 57 140 86 64 171 118 130 78 137 79 142 69 43 197 119 80 74 99 59 94 52 77 98 101 88 115 139 99 112 87 83 95 156 179 37 152 83 130 69 19 100 111 103 73 84 97 96 70 53 68 64 99 175 108 30 158 157 116 52 33 139 144 171 22 94 127 115 139 64 55 32 135 50 93 109 63 161 104 114 92 107 93 106 108 120 144 102 133 129 73 149 117 76 109 125 46 56 91 37 109 120 136 76 104 100 99 112 87 135 143 81 156 105 116 132 71 75 101 164 59 51 40 142 125 119 78 61 109 107 145 128 100 167 86 54 83 36 50 99 74 106 93 128 107 141 124 75 67 25 95 139 47 141 80 90 115 96 55 117 139 162 195 75 116 94 84 130 101 78 149 59 207 99 105 74 87 63 48 123 85 88 69 70 46 82 115 108 44 45 141 114 63 70 73 132 138 26 121 63 114 85 114 106 69 108 108 120 62 155 52 44 108 80 17 91 66 126 117 123 120 89 126 107 102 52 176 85 87 99 91 105 61 54 107 92 79 169 145 44 136 114 57 114 110 118 114 88 100 19 112 86 96 148 115 58 95 183 110 75 132 101 41 73 14 74 69 141 111 80 91 118 111 70 51 77 51 95 118 119 100 86 129 115 208 85 48 152 58 107 126 74 95 71 114 26 70 181 50 112 78 102 130 86 76 42 74 96 119 167 118 121 118 80 67 49 46 286 48 128 139 143 108 50 88 72 103 65 157 115 161 158 117 45 95 102 111 103 124 92 105 100 164 144 95 29 70 110 75 90 140 61 95 68 100 206 81 80 138 78 139 148 71 72 79 71 112 140 68 155 144 154 84 140 126 100 127 126 101 64 53 109 54 122 79 97 82 62 109 106 46 121 162 19 82 89 102 65 45 135 95 34 50 190 103 109 133 107 101 144 78 163 28 109 83 145 63 84 52 44 107 80 78 74 100 77 74 181 122 75 74 70 66 101 102 50 90 104 58 58 99 133 118 39 162 101 103 83 125 82 132 111 115 73 94 35 91 128 81 63 68 77 42 138 74 92 127 91 109 149 62 69 81 77 52 87 109 148 99 89 103 158 94 41 59 69 105 88 107 73 107 65 87 59 136 140 123 147 146 150 52 105 34 112 31 63 97 42 66 92 127 10 103 79 110 214 106 78 125 70 48 123 92 190 88 121 91 85 132 41 90 157 51 66 86 129 59 106 107 91 118 152 39 120 99 106 91 103 42 34 88 69 123 31 67 63 180 123 149 81 33 64 83 78 55 111 110 148 101 70 70 78 140 88 145 167 140 70 108 114 98 105 115 124 141 75 119 87 75 68 51 93 91 136 95 120 90 116 103 133 131 122 141 99 89 61 79 99 83 81 114 98 84 31 115 152 95 161 21 72 125 84 64 40 121 43 128 70 142 92 103 45 25 83 84 102 94 97 74 83 42 137 55 135 66 117 95 106 83 126 116 77 171 144 60 86 122 51 105 165 104 110 69 100 59 75 91 62 88 136 186 34 131 72 95 151 47 89 54 120 142 79 79 69 77 113 48 30 54 42 100 55 114 162 117 110 77 129 72 110 134 66 129 99 103 132 104 95 92 74 59 81 91 101 46 113 120 65 101 48 44 73 78 150 85 77 109 54 80 90 80 116 38 142 91 93 80 46 103 192 152 66 123 71 59 98 50 110 63 74 115 85 75 69 100 131 65 108 100 76 97 64 140 58 84 40 143 57 80 93 66 82 96 51 58 81 173 101 81 113 57 93 77 80 154 93 47 137 75 118 73 167 74 80 30 138 114 44 103 106 66 152 125 32 112 27 122 149 72 68 113 54 90 131 42 66 96 163 90 94 89 100 91 165 100 78 127 100 62 52 67 116 105 82 75 115 107 98 138 79 22 38 73 86 52 36 155 29 95 53 134 30 91 131 109 156 108 118 64 93 143 127 87 45 107 48 25 71 55 74 126 70 79 100 158 71 117 144 126 45 79 123 113 22 76 84 117 56 46 148 106 130 77 111 82 112 56 150 81 167 172 146 119 68 103 114 34 140 121 46 109 99 102 87 65 111 79 44 73 114 76 97 36 57 33 140 60 82 115 165 145 102 61 125 151 123 72 51 142 122 144 109 105 34 67 55 149 127 89 82 107 110 80 171 141 132 49 157 132 122 46 117 74 220 43 48 54 59 135 69 104 184 95 118 138 126 52 109 73 134 76 90 122 93 60 41 69 76 128 122 98 101 142 34 46 125 63 87 183 96 157 132 103 161 93 159 99 136 90 67 84 42 122 265 86 107 70 60 45 140 123 97 141 140 111 116 32 98 62 190 100 116 75 54 103 116 97 116 88 24 121 155 109 109 96 116 108 106 79 58 63 84 20 69 130 102 66 40 60 89 49 48 77 97 74 73 119 80 100 58 135 118 57 97 98 156 154 114 111 79 176 127 216 80 80 98 39 189 122 136 121 102 147 93 98 135 55 78 52 83 137 86 81 125 166 178 55 38 62 123 162 88 77 89 104 75 78 97 93 60 42 112 112 139 120 67 134 53 108 36 88 103 119 35 89 155 132 103 104 86 31 62 90 86 177 120 26 147 52 89 92 65 80 96 134 121 79 27 81 56 104 96 115 126 84 185 55 86 95 73 79 75 117 62 131 77 132 96 65 85 134 54 140 76 6 109 81 189 60 97 72 37 50 175 64 99 132 85 109 114 96 127 80 113 83 118 71 130 102 48 85 118 29 95 106 76 103 59 66 21 100 79 94 47 91 77 87 69 114 37 115 59 146 116 88 90 99 88 100 136 38 98 120 135 133 118 109 130 49 84 85 157 62 85 42 104 140 142 121 130 118 117 178 107 69 80 92 124 111 38 149 82 104 16 79 27 94 71 40 92 69 115 75 128 129 72 89 80 56 62 84 72 66 104 86 88 131 51 131 107 140 74 181 172 114 148 108 90 120 98 74 64 192 85 75 116 54 23 48 157 102 112 159 113 55 61 117 129 171 42 98 161 66 105 37 115 106 160 107 95 73 83 62 89 75 101 167 67 186 78 94 56 58 133 81 109 96 127 50 60 122 126 42 72 117 47 51 86 75 12 92 63 88 65 79 87 76 105 154 147 109 101 39 100 44 61 97 60 130 50 101 147 92 75 153 83 96 44 118 92 94 94 60 122 60 90 145 92 63 88 64 87 206 39 33 115 78 26 119 167 81 100 35 145 117 86 97 79 80 74 62 86 76 116 78 100 87 68 20 87 114 105 76 41 74 107 70 127 138 85 64 70 103 81 94 169 62 77 89 78 107 90 64 46 161 194 66 97 62 91 143 24 99 71 93 47 128 145 91 74 119 100 55 67 40 128 12 97 121 169 55 124 99 63 138 97 112 129 120 142 126 115 179 40 52 34 129 88 94 60 153 90 103 26 114 122 74 40 82 106 85 75 131 106 95 88 80 97 94 45 111 139 67 109 53 103 119 74 120 156 117 146 119 81 171 76 157 154 87 67 87 181 87 54 130 75 105 127 145 55 39 62 86 75 69 120 142 78 65 97 60 84 19 46 87 144 69 127 65 100 59 80 132 141 134 60 121 91 96 63 134 69 152 44 76 104 67 93 126 81 62 38 65 130 106 64 93 54 113 134 83 179 15 85 82 70 121 86 115 22 89 131 37 92 66 146 53 53 76 177 134 80 64 52 73 88 123 29 44 115 117 46 20 68 61 120 4 80 138 55 23 97 70 105 176 76 48 155 126 141 126 116 115 210 60 99 62 132 121 118 87 124 115 40 65 67 87 76 128 76 76 89 117 96 100 102 31 84 52 78 112 156 90 87 129 50 59 50 67 74 139 71 82 62 126 93 140 102 77 88 64 101 12 100 94 40 81 94 165 151 135 152 31 68 90 87 80 101 140 75 88 92 44 154 79 84 110 57 31 36 83 109 33 57 86 59 85 120 85 197 98 78 106 27 107 139 131 82 144 81 101 83 47 107 143 84 62 18 57 159 58 102 69 139 83 103 77 75 118 77 88 80 119 117 137 104 103 46 99 124 94 145 58 61 23 54 16 129 103 120 171 137 86 93 147 99 56 125 85 63 71 72 114 40 156 51 53 123 129 121 170 93 99 46 20 57 5 145 83 86 68 105 67 84 138 119 72 83 95 80 75 74 59 77 120 131 129 87 56 123 127 145 106 44 32 79 126 77 86 60 49 114 116 96 57 30 82 93 29 98 113 128 93 118 65 129 109 54 79 62 69 15 115 90 71 61 109 72 75 65 146 71 19 93 153 108 121 128 87 130 93 48 45 56 67 29 65 103 43 54 86 70 101 82 117 135 74 77 124 99 100 79 103 96 127 50 186 76 140 123 95 98 76 19 115 88 133 171 56 101 70 21 43 20 103 116 85 51 69 106 56 162 25 93 37 126 82 135 75 115 87 45 66 130 45 78 32 70 31 114 62 32 128 121 71 116 171 104 34 72 151 117 145 88 125 65 127 135 128 143 67 95 86 64 125 77 156 136 175 126 122 74 58 95 72 31 73 65 62 109 157 106 155 98 38 74 128 64 118 61 33 37 110 44 34 124 74 68 98 97 73 69 39 120 16 50 48 76 34 31 92 95 97 66 145 62 37 58 144 21 93 42 90 137 62 76 129 87 71 55 140 135 85 61 56 52 106 94 108 106 103 78 93 68 117 182 156 102 140 105 48 77 80 79 122 127 84 78 78 23 133 114 42 80 57 127 124 18 48 80 43 35 52 126 148 116 58 88 83 106 66 47 106 84 80 99 134 140 109 80 37 157 126 140 56 61 33 82 59 49 89 40 137 107 93 57 68 68 71 79 144 93 76 63 50 147 86 164 143 83 84 128 146 104 99 99 45 175 57 140 64 83 79 44 98 115 81 127 73 72 165 25 93 95 111 61 98 56 123 91 70 69 96 46 76 77 108 90 67 96 77 75 69 155 101 135 58 127 81 150 77 81 156 138 107 146 55 16 137 123 94 132 82 64 159 89 68 107 83 123 56 177 106 101 77 57 64 72 96 42 41 94 85 102 143 72 79 67 110 120 47 109 91 83 86 82 164 97 55 75 132 87 24 159 47 103 67 52 129 85 104 89 43 187 127 67 117 38 144 131 196 100 96 97 142 99 68 34 87 120 125 63 76 95 136 77 107 76 91 62 123 87 29 51 132 112 77 129 83 41 61 82 96 59 93 119 168 94 93 103 49 130 56 66 52 106 113 98 66 115 128 158 80 99 149 106 58 65 49 120 93 100 181 71 84 32 84 116 152 89 73 160 124 87 172 60 99 77 91 97 58 112 95 69 34 97 138 113 30 67 84 65 82 82 74 71 47 39 129 160 64 160 27 74 96 93 53 180 85 123 44 124 85 118 101 138 80 112 106 95 75 82 66 71 37 99 57 147 148 77 202 170 53 79 92 192 74 94 119 64 80 89 90 40 92 47 155 108 84 113 69 51 98 73 131 109 117 64 65 148 77 98 86 89 44 94 47 85 127 97 102 118 156 134 107 137 125 113 27 173 41 93 110 86 120 92 121 30 187 31 136 137 88 141 60 50 66 114 87 48 95 95 50 62 54 66 97 17 136 118 86 78 132 37 44 103 34 170 156 85 165 77 76 61 44 88 95 155 50 146 125 20 73 157 77 110 115 36 53 124 42 111 79 119 105 116 157 148 94 65 60 66 151 223 98 110 77 71 110 86 113 96 73 124 94 115 51 150 96 167 159 55 93 101 96 68 86 94 120 79 154 114 129 80 35 109 64 77 66 80 128 88 79 72 131 56 138 102 96 153 128 42 66 90 134 137 57 110 57 58 119 107 126 62 84 84 118 86 118 147 46 173 91 121 51 34 150 106 88 115 96 54 41 135 114 104 134 41 27 94 85 151 75 96 29 111 98 114 82 142 120 71 115 132 83 50 105 112 107 132 85 106 132 140 81 120 113 86 117 108 123 142 123 117 150 74 75 67 74 118 40 59 81 73 124 79 133 117 154 57 99 65 71 123 105 73 97 114 83 68 35 46 135 142 110 73 100 66 72 101 70 69 87 100 117 78 41 146 45 87 58 51 110 119 167 168 81 123 59 134 86 117 86 63 56 78 78 87 119 118 95 155 26 129 112 104 115 187 51 66 95 111 82 87 102 66 141 27 123 144 72 89 200 131 110 97 99 100 103 121 52 50 130 62 138 49 50 51 30 77 75 64 104 77 81 79 218 96 119 128 76 43 138 55 129 77 103 66 78 103 38 180 144 81 169 98 89 91 132 116 131 84 115 169 49 97 61 80 146 155 86 68 99 112 120 49 86 86 105 58 126 110 73 145 102 87 95 112 98 187 80 91 92 46 97 103 41 94 44 62 105 71 69 130 52 72 50 111 72 99 128 104 97 112 127 62 51 68 97 137 169 74 90 53 124 107 68 116 114 40 63 92 159 110 114 80 140 64 109 85 47 104 128 112 78 148 84 62 46 125 120 145 125 68 59 183 43 100 34 67 162 95 62 88 130 100 51 108 100 117 90 110 95 137 48 81 160 144 134 90 38 103 99 128 146 86 122 62 97 122 101 87 91 33 75 111 54 81 136 52 75 54 78 29 84 88 95 133 49 84 112 103 50 83 118 81 98 152 102 88 88 83 96 97 31 106 111 144 62 129 101 105 92 75 80 121 69 92 172 52 95 142 154 176 106 175 129 82 71 110 121 128 63 168 112 69 70 60 64 167 72 116 194 63 70 51 64 120 47 114 98 130 79 168 22 88 39 161 34 125 135 36 113 119 82 125 114 62 189 47 81 89 146 177 52 50 57 89 83 64 94 47 108 53 119 180 173 25 78 119 88 90 118 173 95 65 145 183 159 88 180 151 91 117 59 108 32 137 114 113 57 97 197 99 121 143 91 64 108 74 156 116 115 112 33 142 184 56 131 53 87 48 121 129 121 98 74 101 132 79 100 18 81 67 142 46 94 68 146 66 135 132 75 73 102 114 125 71 40 85 100 118 78 100 116 90 90 68 142 64 82 113 81 144 84 56 133 74 110 170 116 82 72 167 29 65 106 93 49 122 129 31 91 87 131 101 147 147 61 109 67 68 99 140 114 92 61 57 117 46 99 69 101 73 56 62 84 71 98 30 71 78 93 98 84 141 87 34 41 128 169 112 66 21 61 61 77 57 101 105 111 90 76 34 69 85 85 39 65 136 136 72 121 188 115 61 52 96 66 93 94 30 73 114 62 85 27 106 84 92 116 92 71 74 65 77 37 167 45 84 53 130 95 84 25 101 118 83 147 146 55 104 117 165 174 24 57 118 113 76 106 80 67 90 26 105 141 71 54 102 82 39 97 91 117 78 16 117 109 99 94 173 92 167 111 28 87 66 110 54 118 148 72 63 75 167 19 99 112 134 92 130 171 115 183 24 135 131 98 58 101 90 58 155 79 69 122 166 94 51 87 74 151 108 179 92 106 141 102 73 41 133 81 131 88 44 96 138 58 137 76 88 108 79 49 168 45 127 148 113 66 140 30 83 79 128 92 80 108 39 117 139 71 96 98 85 85 89 110 110 32 158 80 211 48 73 86 106 64 86 112 122 122 67 42 101 131 49 87 133 64 160 130 81 79 125 46 95 129 112 127 46 110 126 36 81 89 89 142 74 142 111 102 68 42 0 48 61 104 79 96 117 125 119 129 55 89 83 100 162 119 103 -14 173 122 43 31 97 131 180 144 181 87 60 153 97 79 164 97 57 189 126 72 56 91 107 81 75 172 114 81 34 84 101 114 44 156 104 76 92 13 64 134 108 46 96 143 73 63 140 104 68 96 84 106 115 85 94 49 161 55 137 107 66 151 102 161 52 73 114 101 113 163 174 51 75 132 62 73 98 84 55 107 168 108 117 98 28 82 27 123 89 83 138 200 128 99 105 75 95 93 98 84 106 69 37 98 53 137 69 16 110 23 52 47 117 89 83 62 84 76 67 118 91 63 111 125 155 65 85 118 80 113 62 108 71 65 75 78 72 43 142 58 87 139 158 104 85 138 117 109 71 130 118 84 75 70 43 95 73 52 170 57 92 57 120 48 63 67 85 31 57 100 90 139 87 61 91 88 71 63 84 51 28 41 109 35 72 91 94 41 73 76 125 78 141 48 70 64 137 110 129 85 122 87 123 64 76 82 90 98 76 35 72 56 95 27 84 51 62 64 54 91 68 132 93 98 43 57 44 125 107 105 104 130 39 50 96 94 106 145 104 68 101 44 75 109 135 63 73 142 110 93 123 94 71 89 128 54 104 51 122 140 118 112 106 27 170 71 177 30 150 139 97 135 84 129 65 79 84 79 65 88 79 170 138 93 44 86 147 91 77 175 127 122 52 110 74 84 116 60 58 34 45 118 105 82 62 87 74 134 112 111 115 96 128 86 108 125 81 58 37 120 156 87 75 89 119 62 77 90 114 94 74 29 129 37 120 16 98 41 64 122 103 81 90 64 155 116 122 62 148 119 90 67 133 129 52 93 96 20 90 157 117 29 111 67 128 65 104 88 32 88 46 108 107 132 119 90 133 103 128 40 53 78 121 102 82 73 100 98 147 32 103 135 56 67 55 139 36 166 113 140 138 102 78 105 76 106 101 62 70 131 53 80 100 117 175 79 156 148 190 58 80 50 34 55 236 127 113 51 84 117 95 113 143 83 118 75 60 71 134 163 81 132 57 161 92 47 137 96 133 102 136 187 96 19 76 102 107 57 42 116 60 137 97 121 222 147 127 135 61 122 128 54 128 59 118 158 97 90 108 134 51 139 102 142 146 145 82 150 67 31 143 76 53 113 69 44 45 111 144 93 121 91 132 120 105 84 87 66 76 89 114 47 109 69 148 84 85 100 98 118 98 39 159 86 74 60 41 68 125 73 60 134 74 54 132 77 98 193 106 108 39 177 115 164 122 113 149 114 190 87 122 73 98 60 98 119 120 84 65 100 77 144 85 93 48 96 -5 57 131 74 63 82 117 101 66 68 143 104 75 92 73 109 49 154 88 139 195 24 105 96 130 120 127 104 100 128 47 117 108 188 31 89 93 86 63 74 107 99 56 167 153 94 84 65 72 113 84 33 182 101 74 67 97 119 118 177 109 152 82 54 129 98 102 58 151 18 153 115 150 180 108 51 27 28 68 129 77 92 176 138 112 109 108 109 79 55 102 128 116 141 89 43 97 44 111 85 83 112 95 124 102 56 66 42 44 46 111 113 88 94 79 61 125 118 112 123 154 94 54 78 98 143 58 210 73 83 126 121 75 140 82 83 91 154 89 65 89 60 156 74 159 72 96 59 119 38 124 46 99 129 70 149 84 104 81 147 93 90 94 131 174 143 64 102 84 1</t>
+  </si>
+  <si>
+    <t>MIE(0.30778398335904744, 2.243430736920084, -5.60728461989455e-30, 1.5711815305562853)</t>
+  </si>
+  <si>
+    <t>1 2 1 0 0 0 0 1 1 0 1 0 0 2 0 1 0 0 0 2 0 1 0 2 1 2 0 1 1 3 1 0 0 2 0 0 0 2 1 0 1 0 1 1 0 0 1 2 0 1 1 1 2 1 2 3 1 2 0 0 1 2 2 0 0 1 0 0 1 2 2 1 0 0 1 3 1 0 1 0 0 1 0 2 3 1 3 2 0 3 0 2 0 2 0 1 0 1 1 2 1 0 1 0 1 1 0 1 0 0 0 0 1 1 2 2 0 0 0 0 0 0 0 0 1 1 0 1 0 1 0 0 1 0 2 1 0 1 2 0 0 0 1 0 0 2 1 1 0 0 1 0 1 0 0 0 0 2 0 1 0 1 0 0 1 2 0 1 1 0 0 0 1 1 0 1 0 1 1 1 1 1 0 1 1 0 0 1 1 0 0 0 1 1 0 0 2 1 0 0 1 0 0 0 0 0 2 1 0 1 2 1 0 1 1 2 1 1 1 1 1 0 2 0 1 2 2 0 1 0 1 1 3 0 2 0 2 1 1 1 0 1 1 0 0 1 0 1 0 1 0 2 2 0 2 0 2 0 0 1 1 0 1 2 0 2 1 2 1 0 0 1 3 1 1 0 1 0 2 1 1 2 2 1 0 1 1 0 0 0 2 1 0 1 0 1 1 1 0 0 0 0 2 3 0 0 1 0 0 0 2 0 1 2 1 0 1 0 1 0 3 0 1 0 0 2 1 1 0 0 2 0 0 0 1 1 1 0 0 0 1 1 2 0 2 1 2 1 1 0 0 1 1 1 1 1 1 1 2 1 0 1 1 2 1 1 1 1 0 1 0 0 0 0 0 1 1 0 1 1 1 2 1 1 1 0 0 1 1 1 1 0 0 0 0 2 0 0 2 0 0 2 0 0 0 2 0 2 2 2 1 2 0 2 0 1 1 2 1 0 0 1 0 1 1 1 1 4 1 1 1 3 1 2 1 0 1 2 1 3 2 1 0 1 1 1 1 1 0 1 0 1 4 1 0 1 0 1 1 1 1 0 2 0 1 2 1 0 0 0 0 1 0 0 1 0 1 0 0 2 2 2 0 1 2 0 1 1 0 2 1 1 0 1 0 1 1 2 2 0 0 2 0 0 2 2 1 1 0 0 0 1 2 2 1 2 1 0 2 0 0 2 0 2 1 1 0 0 0 0 1 3 0 0 0 2 2 1 0 0 0 0 0 0 1 1 0 0 0 0 0 1 2 0 0 1 0 0 0 1 1 1 1 0 0 0 3 0 3 1 1 1 0 0 0 0 1 0 1 1 1 0 0 0 0 0 1 0 2 1 1 1 0 1 1 1 3 0 2 0 0 0 1 0 0 0 0 1 2 1 0 2 0 1 1 3 2 0 0 2 0 0 0 0 0 1 0 1 0 0 1 1 2 0 0 1 2 1 1 0 1 2 2 2 2 1 0 0 0 1 3 1 1 0 0 2 0 0 3 0 1 2 0 2 0 1 1 1 0 0 1 1 0 0 1 0 4 2 1 0 0 0 1 0 0 0 1 1 1 0 1 0 0 1 2 1 1 0 1 1 1 0 1 0 0 0 2 0 3 1 1 1 3 1 1 0 2 0 1 0 2 0 0 1 0 3 1 0 0 0 1 1 0 0 0 2 0 0 0 0 0 2 2 0 0 1 3 0 0 0 1 0 0 2 0 2 2 1 1 1 0 2 2 0 0 1 0 1 0 2 0 0 0 0 0 1 0 2 0 1 1 0 3 2 0 2 1 0 1 1 1 1 0 0 0 0 2 0 0 3 0 0 1 1 0 0 0 0 0 1 0 1 0 2 1 1 1 1 0 2 1 2 0 0 0 0 0 0 0 1 1 0 1 1 2 2 0 0 0 1 0 2 1 2 0 0 0 0 2 1 1 0 1 1 0 0 2 1 0 0 0 0 3 0 1 0 0 0 1 1 1 1 0 0 0 0 2 0 0 1 0 1 1 0 0 2 0 1 0 1 1 1 0 1 2 1 1 0 0 1 0 0 1 0 0 3 0 1 0 0 2 0 0 0 0 1 0 0 0 0 2 2 1 1 1 1 0 0 0 1 1 2 0 0 0 0 1 1 0 1 1 0 0 0 1 2 1 0 1 3 1 0 1 0 1 0 1 0 1 1 0 0 2 1 1 1 1 2 1 1 0 2 0 1 1 0 1 0 0 1 0 1 0 2 0 0 0 1 1 0 3 0 1 3 1 3 1 1 0 0 2 0 1 0 0 2 1 1 1 1 1 1 0 2 0 2 1 0 1 2 0 1 2 0 0 1 0 1 1 1 1 1 1 1 0 1 2 0 0 0 0 1 0 1 0 0 0 1 1 0 0 0 0 0 1 0 1 0 2 1 0 1 0 1 0 0 2 1 1 0 2 1 0 0 2 0 0 1 0 1 1 2 0 0 2 0 0 0 0 1 2 2 0 0 0 2 1 0 0 2 1 0 0 1 0 1 0 1 1 1 1 1 3 1 1 1 3 2 1 0 1 0 3 1 0 1 0 1 2 2 0 1 1 1 0 1 0 3 0 1 0 0 0 1 0 2 0 2 1 1 0 2 0 1 0 1 1 1 2 0 0 0 0 1 1 0 0 1 2 1 3 1 0 2 1 1 0 0 1 1 0 1 0 0 3 1 1 1 1 1 0 0 2 0 1 0 0 0 1 0 2 0 0 0 1 1 0 0 1 1 0 0 0 1 0 1 0 1 0 0 0 2 1 0 0 1 0 1 2 0 1 3 3 1 0 2 0 1 1 2 0 1 1 0 0 1 1 0 0 1 1 1 0 0 1 1 0 1 0 1 2 1 0 2 0 0 0 1 1 1 2 2 0 0 1 3 2 1 2 1 0 0 0 0 0 0 1 0 1 1 1 0 0 4 0 0 1 1 1 1 0 0 0 3 0 0 0 0 2 0 0 0 0 1 1 1 0 2 0 0 1 0 2 1 0 1 3 1 1 0 0 1 0 0 0 1 1 3 0 1 2 2 1 1 1 1 2 0 0 2 0 1 0 0 2 0 0 0 0 1 3 0 3 0 0 2 1 0 1 0 0 0 0 2 0 0 0 0 1 0 1 0 0 0 0 1 2 1 0 2 1 0 1 0 0 1 1 0 1 0 0 0 0 3 0 2 1 0 1 0 0 1 2 0 2 2 0 0 0 0 0 1 1 1 1 0 0 1 0 1 0 1 0 1 1 1 0 0 1 1 1 0 1 0 1 0 1 0 0 1 1 0 1 2 1 0 3 0 0 1 1 2 2 1 0 0 3 0 1 1 0 1 0 1 0 0 2 2 0 2 0 2 1 2 1 0 0 0 1 0 2 1 2 0 0 0 1 1 0 3 0 0 0 0 0 1 1 1 0 1 0 1 0 1 1 0 0 0 1 0 1 0 0 0 0 0 1 0 0 1 1 0 0 1 3 1 2 1 0 2 0 0 0 0 0 1 0 0 0 3 0 0 0 2 1 1 0 0 0 0 1 0 0 1 2 0 0 1 2 2 1 0 0 0 0 0 0 0 0 2 0 1 0 0 1 1 0 1 2 2 0 1 1 1 3 1 1 0 1 1 1 1 3 3 1 1 2 1 1 0 1 1 1 1 2 1 0 0 1 0 2 0 1 0 0 2 2 0 0 1 2 0 0 0 0 1 0 2 1 1 1 0 2 0 0 0 1 1 0 0 0 0 0 1 2 2 1 0 1 2 0 0 1 2 0 1 1 1 1 1 2 0 2 0 2 0 1 1 3 0 0 2 0 0 0 1 0 1 1 0 0 0 0 1 0 1 3 2 2 1 1 0 1 1 1 0 1 2 0 0 0 0 0 1 1 0 2 0 0 0 1 1 0 1 3 0 1 0 0 0 1 1 1 0 2 0 2 0 2 2 0 0 0 1 0 0 0 0 0 1 0 1 1 1 1 0 1 0 0 3 0 3 0 0 1 2 1 1 0 3 1 2 1 1 1 1 2 1 0 0 0 1 0 0 0 0 0 1 0 2 0 0 0 0 0 0 0 0 0 1 0 0 1 2 0 0 0 0 1 0 0 0 1 1 0 0 0 0 0 1 0 1 0 1 1 0 1 0 0 1 0 1 0 2 0 0 0 0 0 1 2 1 0 0 0 0 0 2 0 0 0 1 1 1 0 1 0 0 0 0 1 1 2 1 0 0 0 1 1 0 1 1 2 0 2 0 0 0 0 0 0 1 1 2 0 0 1 1 0 1 1 1 1 0 0 0 0 0 0 0 2 1 0 0 3 0 2 0 0 0 0 1 2 1 0 1 2 4 1 1 0 0 2 0 4 1 0 2 1 1 2 0 0 0 0 0 0 0 0 1 0 1 2 0 0 0 2 1 1 1 0 2 1 0 1 1 0 0 2 1 0 0 1 1 1 3 1 3 2 2 3 0 1 0 1 1 0 2 0 1 1 0 0 0 0 1 1 0 0 1 0 1 1 0 0 1 0 1 1 3 1 0 0 0 1 0 1 0 0 0 0 1 0 1 0 0 1 0 0 0 2 1 0 0 1 1 1 1 0 1 0 2 0 0 0 1 1 2 0 0 1 3 3 0 1 1 1 1 0 1 1 2 0 1 0 2 1 2 1 0 1 1 1 0 2 2 1 1 0 2 0 0 1 1 2 0 1 1 0 0 1 0 1 0 1 0 0 2 0 0 1 0 1 1 1 0 0 1 0 1 1 0 0 2 1 1 1 1 0 0 1 1 0 2 3 1 2 0 1 0 0 1 1 1 1 1 0 2 1 1 0 0 1 0 1 1 1 1 1 0 2 0 1 0 0 0 1 1 1 1 0 1 0 0 1 0 0 0 0 2 0 1 0 2 0 0 0 1 1 3 0 2 2 0 0 0 0 0 0 1 3 1 0 0 3 0 0 1 0 1 1 0 1 1 0 0 0 1 2 2 0 0 0 0 2 1 1 1 0 1 0 0 1 0 1 1 1 1 0 0 0 0 2 3 1 0 1 0 0 2 0 0 0 1 1 0 1 2 0 0 0 1 0 0 1 3 0 1 0 1 0 4 0 0 1 0 0 0 0 1 1 1 1 0 0 1 1 1 1 0 0 1 1 0 1 0 1 0 2 2 1 1 1 0 1 1 0 0 1 1 1 4 2 0 1 1 0 0 0 1 2 2 2 0 1 0 0 0 2 2 0 0 2 1 2 0 0 1 0 0 0 1 0 0 1 0 1 0 0 1 0 0 2 0 1 1 0 0 0 2 0 0 0 1 1 1 1 0 1 0 2 0 1 0 1 0 1 1 0 0 1 0 0 0 2 2 1 0 0 1 1 3 1 1 1 1 1 0 1 0 1 0 1 1 1 1 1 1 1 1 0 0 0 0 1 0 2 0 0 0 2 1 1 0 0 0 3 1 0 0 1 3 1 1 2 1 0 0 4 0 1 2 0 0 2 1 2 1 1 0 0 2 1 1 1 1 0 0 0 0 1 0 1 1 2 3 0 0 1 0 2 1 1 0 0 0 1 0 1 0 0 1 1 0 1 2 0 0 1 1 0 1 0 0 0 1 1 1 2 2 3 1 0 0 2 0 0 1 1 1 0 2 0 0 1 1 2 1 0 2 0 1 0 1 3 1 1 2 0 0 1 6 1 0 2 0 1 1 1 1 0 1 1 2 0 0 0 0 1 1 1 0 1 0 2 1 0 0 3 0 1 2 0 1 0 2 0 0 1 3 0 0 0 2 0 1 0 2 3 2 1 1 1 2 1 1 1 0 2 0 1 0 1 0 0 1 0 2 0 2 2 1 0 0 1 2 1 1 0 0 0 0 2 0 0 1 1 1 0 1 0 0 1 2 1 0 0 0 1 0 1 0 0 1 2 1 0 2 0 1 0 0 0 1 0 0 2 1 1 0 2 0 0 0 0 0 0 1 1 1 1 0 1 1 2 0 1 2 2 1 2 0 0 1 0 1 3 1 0 0 1 1 1 1 0 2 0 2 0 0 1 1 0 0 1 2 0 1 0 1 2 0 1 0 1 0 0 2 0 0 1 0 1 0 0 0 0 1 0 0 1 2 1 2 1 0 0 0 1 0 1 0 0 2 1 1 1 1 2 0 0 1 1 0 1 0 0 1 1 2 0 0 2 0 1 1 0 0 0 1 0 0 0 1 1 1 0 1 3 1 0 0 3 0 0 0 0 0 2 0 1 1 2 0 0 0 1 0 0 0 2 0 0 2 0 0 0 1 0 3 1 1 1 0 1 0 1 1 2 0 1 0 1 1 3 0 1 0 1 1 0 1 0 2 1 0 2 3 0 1 0 0 1 0 0 1 0 1 0 0 1 0 0 1 0 1 2 1 0 1 0 1 2 0 3 1 0 0 0 0 1 1 0 0 0 0 1 1 2 2 0 0 1 2 1 2 1 1 1 0 1 1 1 0 0 0 0 0 1 1 2 2 0 1 0 1 0 2 1 0 0 0 0 2 0 0 2 2 0 1 0 1 3 2 0 2 0 1 0 1 2 0 0 1 1 1 0 0 0 1 1 0 0 0 0 1 0 3 2 2 1 0 0 1 2 1 1 2 0 2 0 1 0 1 1 0 1 2 0 2 0 1 1 2 0 0 2 0 1 2 1 0 0 1 0 0 0 1 0 0 0 0 1 3 1 1 2 0 0 0 2 1 1 1 2 0 1 1 0 3 0 0 1 3 0 0 0 0 1 1 2 3 1 0 0 1 2 3 2 0 1 0 0 0 0 0 2 0 1 0 1 0 0 0 2 0 3 0 0 1 1 0 0 0 1 0 2 0 1 1 0 0 2 0 0 1 2 0 0 2 3 0 1 2 1 1 0 0 3 1 0 1 0 1 0 1 3 1 0 1 0 0 0 0 1 2 2 1 2 1 0 0 0 1 2 1 2 1 0 1 0 1 0 0 0 0 0 2 1 2 0 1 0 0 1 1 0 0 0 0 1 0 0 0 0 2 0 0 1 1 0 1 0 1 0 2 2 0 1 0 1 2 0 0 3 1 2 1 2 1 0 0 3 2 4 2 0 2 1 1 0 0 0 0 2 0 0 1 0 0 1 0 0 1 1 1 0 1 1 2 1 2 0 0 0 1 0 0 1 1 1 2 2 0 0 1 0 0 0 1 2 1 2 0 1 1 1 0 1 3 1 2 0 2 3 1 0 1 0 0 0 1 0 1 1 0 1 3 1 1 0 0 3 1 2 0 1 1 1 0 0 1 1 1 0 0 3 1 1 0 0 0 0 1 0 1 0 0 0 1 1 2 1 1 1 1 0 1 1 0 0 1 1 0 0 0 1 1 0 0 0 0 0 1 1 1 0 0 0 0 1 1 0 0 0 1 2 0 0 0 1 0 1 2 1 0 1 2 0 1 0 0 0 0 3 1 0 1 3 0 0 0 0 1 1 0 0 3 0 1 1 0 0 0 0 2 0 0 0 2 2 0 0 0 1 0 0 1 1 0 0 0 0 2 2 1 0 0 0 0 1 0 1 1 1 0 2 1 2 1 0 1 1 0 0 0 0 0 1 0 0 0 0 1 1 1 1 0 0 2 2 0 3 0 4 0 1 3 0 2 0 2 0 1 0 1 0 2 0 0 1 0 1 0 3 2 1 1 0 2 0 1 1 0 1 0 1 1 1 2 1 1 2 1 0 1 1 0 1 0 2 0 0 0 0 1 0 2 0 2 0 2 1 2 0 0 1 0 0 2 0 2 1 2 1 1 0 0 6 3 2 1 0 0 0 0 0 0 3 3 0 0 1 0 1 1 1 0 0 2 0 1 1 2 0 2 0 1 3 1 0 1 1 3 0 2 1 1 1 0 0 1 0 1 0 1 0 0 0 1 1 1 1 0 0 1 1 2 1 1 1 1 0 2 1 3 0 1 0 2 1 1 1 0 0 2 0 1 1 0 4 0 1 2 1 1 2 1 0 2 1 0 0 0 0 2 0 1 1 0 2 1 0 1 1 0 2 0 0 0 1 1 0 2 0 0 0 1 1 0 1 0 1 1 0 0 1 0 2 0 0 0 1 0 0 2 1 0 1 0 0 0 0 0 1 0 1 0 0 0 0 1 1 1 2 1 2 0 2 1 0 0 0 1 1 2 0 0 0 1 0 1 0 0 0 0 0 0 1 1 1 1 0 4 1 0 3 0 0 2 1 1 2 0 1 0 1 0 0 1 2 0 0 0 0 1 1 0 0 2 0 2 1 2 2 0 1 1 1 1 0 2 0 3 0 0 1 1 2 0 1 0 0 2 1 1 2 2 0 1 1 0 2 0 0 1 3 0 1 1 1 0 1 1 2 0 0 0 1 1 1 1 0 0 0 2 1 1 0 1 0 0 1 0 1 1 3 1 0 0 1 1 1 0 1 1 0 2 0 2 1 0 0 2 1 0 1 0 5 0 1 1 0 1 1 0 1 2 2 0 0 0 1 0 0 2 2 0 2 1 1 1 1 2 3 0 0 3 0 0 1 0 2 1 1 0 1 3 0 1 2 0 1 0 1 0 0 1 0 0 0 2 1 0 0 0 0 0 0 2 2 2 0 1 1 0 0 1 1 0 0 1 0 2 0 0 1 2 0 0 0 3 1 0 0 0 1 0 0 2 0 3 2 2 1 0 1 0 0 0 0 0 0 0 2 0 1 0 1 0 1 1 1 0 0 3 2 0 1 0 2 0 0 0 0 1 1 1 0 1 1 1 0 0 1 0 0 1 0 2 1 1 1 0 0 0 0 2 1 1 0 1 0 1 2 0 0 0 3 1 0 0 2 0 1 1 2 2 0 0 0 0 0 1 2 1 1 1 0 0 0 1 0 1 1 0 3 1 3 0 1 1 2 0 0 1 0 1 1 2 2 2 0 0 2 1 2 0 4 3 1 0 1 1 1 1 1 3 1 0 1 2 1 2 0 2 2 2 0 1 1 0 1 2 0 1 1 0 1 0 0 2 0 0 1 0 0 1 0 2 2 0 0 1 1 0 0 2 1 0 0 0 0 0 1 0 1 1 2 0 2 0 1 0 1 1 1 0 2 1 0 0 2 1 1 0 1 0 1 1 2 2 1 0 0 0 1 0 1 1 2 0 2 1 0 3 0 1 0 3 0 2 1 2 0 1 0 1 1 0 1 2 1 0 1 1 0 1 0 1 0 0 1 1 0 0 2 2 0 0 0 1 1 0 2 1 1 1 0 0 0 0 1 1 2 1 2 1 0 2 0 1 1 0 1 1 1 2 2 2 2 0 1 1 0 1 0 0 0 0 1 1 2 1 0 0 1 2 1 0 0 0 1 1 1 0 0 1 0 1 2 1 0 0 2 1 0 1 0 0 1 1 0 0 1 1 1 1 1 1 1 0 1 1 0 0 1 0 0 0 2 1 0 1 0 1 0 0 0 1 0 3 0 0 0 1 0 1 1 0 0 0 0 0 1 0 1 1 1 0 1 1 0 2 1 0 1 0 1 0 1 2 0 1 0 0 1 1 1 0 1 0 1 1 1 1 1 1 1 0 1 0 0 2 1 0 1 0 3 2 0 0 1 0 0 1 1 2 2 0 2 2 0 2 2 2 0 0 0 0 1 1 0 0 1 2 1 1 1 1 0 0 1 0 3 2 0 1 0 1 2 1 1 2 1 1 1 0 1 0 1 0 1 2 1 1 1 1 0 0 1 0 0 0 1 1 2 1 0 2 1 1 1 0 1 2 1 0 1 2 2 1 1 0 1 1 1 1 1 1 2 1 0 1 0 1 1 1 4 0 1 1 2 1 1 2 0 2 1 0 1 1 0 1 2 2 0 1 0 0 1 0 1 1 1 2 0 2 2 2 3 0 2 0 0 2 0 1 0 1 0 1 0 0 0 1 2 0 0 2 0 2 0 1 0 0 1 1 2 1 0 2 0 0 2 2 1 0 1 1 1 0 0 1 1 0 0 0 1 1 1 0 0 0 1 1 0 0 0 0 1 0 3 0 2 0 0 1 0 0 0 1 1 2 0 1 0 2 2 2 0 0 2 0 0 3 1 1 0 0 1 0 0 0 0 3 1 2 0 1 1 2 0 0 2 0 1 0 1 1 1 0 2 1 0 1 2 0 0 0 3 1 1 1 0 0 2 0 0 0 1 0 0 2 0 1 0 1 1 0 1 0 0 1 0 0 0 1 0 0 0 1 0 1 0 1 0 2 0 2 0 0 1 0 1 0 2 0 3 2 1 0 0 0 1 0 1 3 1 0 1 0 0 1 0 0 2 1 1 0 0 0 0 0 2 1 1 1 0 0 0 1 0 1 1 2 1 2 1 1 0 1 0 3 0 0 0 0 1 0 0 1 1 2 0 1 0 2 1 2 1 2 1 0 1 1 2 1 0 1 1 0 0 1 1 1 0 1 1 0 0 0 1 0 2 0 0 0 0 1 1 0 3 0 1 1 2 0 0 0 1 0 0 3 1 0 0 1 2 1 0 1 5 0 1 0 0 1 0 2 0 2 0 0 1 0 1 3 0 1 1 0 2 0 1 0 0 0 0 1 1 1 0 0 0 0 3 1 0 0 0 0 0 0 2 1 1 0 0 1 0 0 0 1 0 0 1 0 0 0 0 0 1 0 1 1 0 2 1 2 0 0 0 0 0 0 0 0 0 1 0 0 0 0 2 0 0 1 3 0 0 0 1 1 1 0 0 0 0 0 0 1 0 0 1 1 0 1 0 1 1 1 1 0 1 1 1 0 1 0 0 1 3 0 1 1 0 0 0 0 0 1 1 0 0 2 0 1 2 0 0 1 0 0 0 0 3 2 3 1 0 1 0 0 0 1 0 1 1 0 2 1 2 1 0 0 1 2 2 0 0 1 0 0 1 1 1 0 0 0 1 1 0 0 1 0 0 2 0 0 0 1 1 1 2 1 3 1 1 2 0 1 1 2 2 0 1 0 2 2 2 0 0 1 0 0 0 1 1 1 0 1 4 1 1 0 0 1 0 1 0 0 1 2 0 0 2 0 0 1 1 0 2 1 0 0 0 3 1 1 0 0 0 0 0 0 1 1 0 0 0 0 1 0 0 1 0 1 1 0 2 0 0 0 0 0 2 0 0 1 1 1 0 0 1 0 2 2 0 0 1 0 2 1 1 1 0 0 0 0 2 2 2 0 1 1 0 0 0 0 0 2 1 0 2 1 2 0 0 1 0 0 0 1 1 0 0 2 1 0 0 0 1 1 1 1 2 0 0 0 0 0 2 0 0 0 2 0 0 1 1 0 0 1 0 0 0 0 0 1 1 0 1 1 0 1 2 1 0 1 1 2 0 0 0 2 0 3 0 2 1 0 0 1 0 0 0 2 0 0 2 0 0 1 1 0 1 1 1 3 1 0 1 0 0 0 1 0 2 2 3 0 1 0 0 0 0 2 2 1 0 0 0 1 0 0 1 1 0 1 2 0 0 0 1 1 1 2 3 1 1 0 1 2 1 1 1 0 0 1 1 1 0 1 1 1 0 0 0 0 1 2 2 0 1 0 1 1 0 1 0 1 1 0 1 0 0 0 0 3 0 3 0 0 1 0 0 1 0 2 0 1 0 0 2 0 0 1 0 0 2 0 3 0 3 2 1 0 1 0 1 0 2 0 1 0 1 1 2 0 1 0 0 2 1 0 2 0 0 0 0 0 0 2 1 0 0 2 1 1 1 1 1 0 0 3 1 2 1 0 0 0 1 1 1 1 1 0 1 1 0 0 0 2 1 0 2 1 1 1 2 1 0 0 0 0 2 2 0 0 3 1 4 1 1 0 1 0 0 1 1 0 1 1 1 1 0 0 0 1 0 0 1 1 0 2 2 0 3 1 1 1 2 0 0 0 0 1 1 1 3 1 1 1 0 0 1 2 1 2 2 0 0 0 0 1 1 0 0 2 0 0 0 1 1 0 0 1 0 2 0 0 0 1 1 1 1 1 1 3 1 1 1 1 0 1 1 1 0 2 2 0 0 0 1 1 0 1 0 0 1 0 0 1 2 2 1 1 1 0 1 1 1 1 1 1 3 0 0 1 1 1 0 0 2 2 1 0 0 0 0 1 0 0 2 1 0 2 0 0 1 0 0 1 2 0 0 1 0 0 1 1 1 0 0 1 0 2 0 3 2 0 0 1 1 1 2 1 1 2 1 0 1 3 3 2 1 0 2 1 0 1 1 0 0 1 0 0 0 1 1 0 3 1 0 1 1 0 0 1 1 1 1 0 0 0 0 1 0 0 0 0 1 0 2 1 0 0 0 1 1 3 0 0 1 1 0 0 2 2 0 0 2 0 2 0 0 0 0 0 2 1 0 1 1 2 2 1 3 0 0 0 0 0 1 1 0 0 1 1 1 0 2 0 2 3 1 0 1 1 0 1 0 0 1 2 1 0 3 1 0 1 0 0 1 2 0 1 1 2 0 1 0 2 0 0 1 1 1 1 0 2 2 1 0 2 1 0 3 0 1 2 2 2 0 1 2 1 1 0 0 0 1 0 1 0 0 0 0 0 1 0 2 4 2 0 0 0 0 0 1 1 0 0 0 2 1 2 1 1 0 1 0 0 0 2 1 1 1 3 0 0 0 1 0 0 3 1 0 1 0 1 0 0 0 1 0 1 0 1 0 1 0 2 0 0 0 1 0 0 0 0 2 2 1 0 2 0 1 2 0 0 1 0 0 1 0 0 0 1 1 2 0 1 0 1 1 1 0 0 0 1 1 1 2 1 2 1 0 0 2 1 0 0 0 0 0 1 0 0 1 0 0 1 0 1 0 0 2 0 0 0 0 0 2 1 0 1 2 2 0 0 0 0 1 2 1 1 1 1 1 3 1 0 1 0 0 3 0 0 0 1 0 1 1 0 2 0 0 0 0 0 3 0 1 0 0 2 2 1 1 1 0 0 2 0 3 1 1 0 0 1 0 0 0 0 0 1 1 0 1 1 3 1 0 0 1 2 1 1 0 0 1 0 0 0 0 2 0 1 0 1 1 0 2 1 0 3 0 0 0 1 0 1 2 0 3 3 0 1 1 0 2 1 0 0 0 2 2 0 1 0 0 0 0 2 2 0 1 2 0 3 0 1 1 2 0 1 1 0 3 0 1 2 0 0 2 1 2 0 3 1 2 2 0 0 0 1 0 0 0 1 0 2 0 2 1 0 0 1 1 2 0 0 0 1 0 2 2 1 1 1 1 0 0 0 0 2 2 2 0 1 0 1 0 0 0 3 0 0 1 0 0 1 0 0 0 0 1 1 1 0 2 2 2 0 1 2 2 1 0 0 2 0 2 1 1 2 1 2 0 1 1 0 0 1 1 0 0 0 0 0 0 0 1 0 0 1 0 2 1 0 0 1 1 1 0 0 0 0 2 0 1 0 1 1 0 2 1 1 1 2 3 0 0 2 1 2 0 1 1 1 1 0 0 0 0 0 0 0 0 0 1 0 1 2 0 0 0 0 1 0 0 0 0 2 0 0 1 0 0 1 1 1 1 1 1 2 0 0 0 2 0 1 1 0 1 0 1 0 1 2 0 1 1 1 5 2 1 1 2 0 0 1 2 1 2 2 0 2 0 0 2 1 1 0 0 1 0 0 0 4 1 2 1 2 1 2 0 0 0 1 1 0 0 1 1 0 0 0 2 0 0 0 0 2 1 1 0 0 0 1 0 2 0 1 3 0 0 0 0 0 1 0 1 1 1 1 0 0 1 0 1 0 0 1 1 3 0 0 0 0 0 0 0 0 0 1 0 1 0 1 0 1 1 1 1 1 0 2 2 0 0 1 0 1 1 1 0 0 1 0 1 1 0 2 1 0 0 0 2 0 1 1 0 1 1 0 2 1 1 0 0 1 0 2 0 4 0 3 0 2 0 0 1 0 0 0 3 0 1 0 2 0 0 1 1 0 1 0 1 0 0 2 0 1 1 1 1 1 0 1 2 0 1 0 1 0 0 2 0 1 2 1 0 0 2 0 2 0 1 0 2 1 0 0 0 1 1 0 0 0 1 1 1 0 1 2 1 1 1 0 0 1 2 0 0 1 0 1 1 1 0 0 1 1 0 1 2 0 1 1 2 1 0 2 0 0 0 1 1 1 0 1 1 1 1 3 0 0 1 0 2 0 1 0 0 1 2 1 0 3 1 0 0 1 1 1 1 1 2 1 1 0 0 1 0 2 2 0 0 0 1 1 0 0 1 0 0 0 0 2 0 0 1 0 1 1 0 0 1 1 1 0 1 2 0 1 0 1 0 0 0 0 0 0 1 0 1 1 0 0 3 0 2 2 2 0 0 0 0 1 2 0 0 2 2 5 2 0 0 0 1 1 1 1 0 2 2 2 1 0 1 0 2 1 0 0 1 1 0 0 1 2 0 2 0 2 1 0 0 1 3 0 0 0 2 0 0 0 0 0 1 0 0 2 1 0 2 0 0 0 2 1 0 1 2 0 0 0 1 0 2 0 1 1 0 0 0 2 0 0 2 2 0 0 0 0 0 2 2 1 2 2 1 0 1 2 0 0 0 2 1 2 1 1 0 1 2 0 3 0 2 1 2 1 0 2 1 0 0 2 1 0 0 1 1 0 1 0 2 0 0 1 0 0 0 0 1 0 1 0 2 2 1 1 0 0 2 2 1 1 0 1 3 1 0 2 0 2 1 0 2 0 0 1 1 1 1 1 1 0 1 0 0 0 1 0 1 2 2 1 0 0 1 0 1 0 2 1 1 1 0 1 1 0 1 1 0 0 0 2 2 2 0 1 1 0 1 1 0 3 2 0 1 0 0 0 0 1 1 1 0 1 0 0 0 1 0 2 2 1 2 1 0 1 0 1 1 2 0 1 0 0 1 0 0 3 0 3 0 0 3 0 1 0 1 2 0 0 1 1 1 2 2 1 0 0 1 1 2 0 0 0 2 1 0 0 0 0 1 1 1 0 0 0 0 1 0 1 1 1 0 0 1 0 0 0 0 0 1 0 1 1 1 0 1 0 0 1 2 1 1 0 1 0 0 2 1 0 2 0 0 2 0 2 1 0 1 0 1 1 3 0 0 0 0 2 1 1 0 0 1 2 0 0 1 1 0 1 2 1 1 1 2 0 0 1 1 1 0 1 0 1 1 1 1 3 0 2 0 1 2 0 2 0 0 2 0 1 0 1 0 1 0 0 2 1 1 1 0 0 0 1 0 3 0 2 2 1 0 1 3 0 0 1 1 1 0 0 1 1 0 1 1 2 0 1 0 1 0 1 2 0 1 1 0 3 3 0 1 0 0 0 0 2 0 1 1 2 0 1 0 0 1 1 1 1 2 0 1 0 3 1 1 1 0 0 0 0 1 0 0 1 1 0 2 0 1 1 0 0 0 2 1 1 0 0 1 1 0 0 0 0 0 0 0 1 0 0 1 0 0 0 1 0 0 0 1 2 0 0 2 1 0 0 1 1 0 1 0 1 1 0 0 2 0 0 0 1 0 0 1 0 0 2 0 2 1 1 0 1 1 1 2 0 1 0 0 2 0 0 0 0 1 1 1 3 0 1 0 1 1 0 0 2 0 0 0 0 1 2 0 2 1 1 2 0 1 2 0 0 1 0 2 1 0 3 0 1 0 1 1 2 1 0 0 1 1 1 0 4 0 0 1 1 1 2 0 1 1 0 2 1 1 2 1 0 2 2 1 2 2 0 0 1 1 1 2 0 1 1 0 0 1 2 0 0 0 2 0 0 1 0 0 3 0 2 1 1 0 0 1 0 4 0 3 0 0 1 1 0 1 1 1 0 0 1 0 0 0 0 2 0 0 1 1 0 0 1 1 1 1 1 0 2 3 0 1 0 0 0 1 1 1 0 0 0 0 0 1 0 1 0 1 0 0 1 0 0 0 0 1 2 1 0 1 0 1 0 0 2 0 0 1 0 0 0 2 0 1 2 0 0 0 0 1 3 1 1 0 1 0 0 0 1 1 0 0 1 0 1 0 1 2 2 3 1 1 0 0 1 0 0 1 1 1 0 1 0 0 2 0 0 0 0 0 2 0 0 1 0 2 2 1 2 1 1 1 0 0 0 1 2 0 2 2 1 2 0 1 1 1 0 1 0 0 0 0 0 1 0 0 2 0 1 0 0 1 0 1 0 0 0 2 0 2 0 0 1 0 0 2 2 1 2 0 1 0 0 0 1 0 2 0 0 1 1 0 1 1 0 1 0 1 1 1 0 1 1 0 0 1 1 1 1 1 1 1 1 0 0 1 0 2 1 1 1 0 0 0 1 1 0 0 1 0 0 1 1 1 2 1 1 0 1 0 3 0 1 0 0 0 0 0 0 0 0 1 2 3 1 0 0 0 0 3 2 0 1 1 1 0 1 1 1 1 0 1 1 0 0 2 1 0 0 1 0 2 0 0 0 0 2 0 0 0 1 0 0 1 0 1 1 0 1 0 1 0 0 1 0 0 1 0 0 1 2 0 1 1 1 1 0 0 1 0 0 0 1 0 0 0 1 2 0 0 0 1 0 1 1 0 0 1 1 2 0 0 2 1 1 0 2 0 1 1 1 0 0 0 1 1 2 1 0 0 0 0 0 0 0 1 0 0 1 0 0 1 0 1 0 1 1 3 1 1 0 1 0 1 0 1 0 1 0 1 2 0 1 1 1 2 3 0 0 0 1 2 1 1 0 0 1 2 2 2 0 0 2 1 4 1 0 1 1 2 0 0 0 2 1 0 0 0 0 3 3 1 1 0 0 0 0 1 1 0 0 0 1 1 0 3 1 1 2 0 1 0 1 2 0 1 0 0 0 1 1 0 1 0 2 0 0 2 2 0 2 0 0 1 0 0 0 1 0 0 2 0 0 3 0 0 0 0 0 2 2 2 1 1 0 1 1 0 1 1 0 1 1 1 3 0 1 1 0 1 3 0 0 0 1 4 0 0 0 1 0 0 0 1 1 1 1 1 0 1 1 0 0 2 1 0 1 1 0 1 0 2 2 3 0 0 1 1 2 0 0 0 0 1 0 0 0 0 0 1 3 1 0 1 2 0 0 1 0 1 2 1 2 1 0 1 1 0 0 0 1 2 1 0 0 1 0 1 0 0 1 0 0 1 2 0 1 0 2 1 2 0 1 1 0 1 2 0 0 1 0 0 1 1 1 1 0 1 0 0 0 1 1 2 1 1 0 0 1 0 3 1 0 0 3 1 0 0 0 2 0 1 0 0 1 0 1 0 2 0 1 1 0 0 2 0 0 0 2 0 0 0 0 0 2 2 3 2 0 1 0 1 0 2 0 2 0 0 1 1 1 0 0 2 0 0 1 1 0 3 1 1 1 0 1 0 0 0 1 2 1 1 1 1 0 1 0 0 1 1 0 0 1 0 2 2 0 1 1 0 1 0 1 0 0 1 3 0 1 1 0 1 1 0 2 0 0 2 1 2 0 1 2 0 0 1 0 0 0 0 1 0 1 1 0 0 0 0 3 1 0 3 2 2 1 2 2 0 1 1 0 2 2 0 0 0 1 0 0 1 0 0 1 0 0 0 1 0 2 1 0 2 0 1 2 0 0 2 1 0 0 0 2 0 0 1 0 1 2 1 0 0 0 2 0 1 0 3 2 0 3 1 0 0 1 1 1 2 0 0 0 1 2 1 1 2 0 1 0 0 0 1 0 2 0 1 0 0 0 2 0 1 2 0 0 0 0 0 2 2 0 2 1 0 0 0 1 1 0 1 0 0 0 1 0 1 1 1 1 0 3 0 0 0 1 0 0 1 0 0 3 1 0 0 1 1 1 1 2 2 1 1 1 0 0 0 0 2 1 0 1 2 0 0 0 1 3 1 0 1 1 0 3 0 0 0 2 2 0 0 0 0 1 2 1 0 2 1 1 0 0 0 3 0 0 2 0 0 2 0 2 1 1 2 0 2 0 2 1 0 2 0 1 2 2 1 1 0 1 1 2 1 1 1 0 1 0 0 0 1 3 3 0 0 2 1 0 2 1 1 0 1 0 0 1 0 2 1 1 0 1 1 2 0 1 0 0 1 3 2 2 2 1 3 0 0 1 1 0 1 0 0 0 2 0 1 1 0 0 0 0 1 0 0 0 1 0 0 0 1 0 0 0 2 1 0 3 1 1 0 1 0 0 2 1 2 0 1 0 1 2 0 0 1 2 0 0 1 0 1 1 1 0 1 3 0 1 0 1 0 1 1 1 1 0 1 2 1 3 0 0 0 2 0 1 1 0 0 0 1 0 0 2 1 1 0 1 2 0 2 0 0 1 0 3 1 0 2 0 1 0 0 2 0 0 0 0 1 1 0 0 2 0 1 1 2 1 1 1 0 1 0 1 1 1 1 1 0 2 0 0 2 1 1 0 0 2 1 2 1 0 0 0 0 2 0 0 1 0 0 1 0 1 0 0 1 2 1 1 2 0 1 0 0 0 1 0 0 0 0 0 1 0 0 1 0 1 0 2 0 4 0 1 2 1 1 1 0 2 0 0 0 0 0 1 0 3 0 1 0 0 2 1 2 2 1 0 1 1 2 3 1 1 1 2 2 0 0 0 0 0 0 0 0 4 0 0 2 0 1 2 1 2 0 1 0 1 2 0 0 4 2 0 0 1 0 1 1 1 1 1 0 0 0 2 2 0 1 1 0 0 1 4 0 0 0 0 2 2 1 1 2 1 0 0 1 0 1 0 2 1 0 0 1 1 1 0 2 2 1 1 1 0 1 1 1 3 0 2 1 0 0 1 2 3 0 0 1 1 2 1 0 2 0 2 1 0 0 0 0 1 0 1 0 0 2 1 0 0 1 0 2 0 0 0 1 2 1 0 0 1 1 0 0 0 1 1 1 1 2 1 3 1 0 0 2 0 0 0 0 1 3 2 2 0 1 1 0 2 2 0 1 0 0 1 1 2 1 1 1 0 1 2 0 0 1 0 1 0 2 1 1 0 2 0 0 0 1 0 0 2 1 1 1 0 0 0 1 2 0 0 0 3 0 2 0 0 0 0 0 1 0 2 0 1 1 2 0 0 2 0 0 1 0 1 1 1 0 2 2 1 3 0 0 0 2 2 1 1 0 0 0 0 1 2 1 1 1 2 2 3 1 0 2 1 1 2 0 2 0 0 0 0 1 1 1 0 0 1 2 1 0 0 2 2 0 0 1 0 2 2 2 1 1 1 3 2 2 0 0 1 1 1 0 1 1 1 0 0 1 0 0 0 1 0 0 2 0 0 3 4 0 0 1 0 1 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 2 0 0 0 0 0 0 1 0 1 1 0 2 0 1 1 1 1 0 2 0 0 1 0 1 0 2 0 0 0 1 0 0 0 2 0 1 2 0 0 0 1 1 1 0 1 0 1 0 1 2 1 2 1 0 1 0 0 0 2 0 0 0 0 0 2 3 0 0 0 0 0 0 2 0 0 1 0 0 0 0 1 1 1 3 1 0 0 0 1 3 0 0 2 1 0 0 0 0 2 0 1 1 1 3 0 0 1 0 1 1 0 0 2 2 0 1 1 1 2 3 1 0 0 2 0 1 3 0 1 1 1 0 1 2 1 0 0 1 1 1 0 0 1 1 0 0 1 1 2 1 0 2 1 0 0 0 0 1 2 2 0 1 1 1 0 0 1 1 2 0 1 1 2 1 2 0 0 1 1 0 1 0 2 2 0 1 1 0 2 1 2 0 1 0 1 0 1 0 1 0 0 0 2 0 1 0 2 0 2 0 0 0 1 0 0 1 0 1 1 0 0 0 1 0 1 0 1 1 1 2 1 0 1 1 0 1 0 0 1 1 2 1 1 0 2 0 1 0 0 0 0 1 0 1 0 1 0 1 0 0 0 2 1 0 2 0 0 0 2 1 0 0 0 0 0 2 3 0 1 2 1 1 1 1 0 4 2 0 0 1 0 0 1 2 2 2 0 2 0 0 1 1 2 0 1 0 0 2 2 0 0 0 0 2 3 1 0 0 0 1 2 1 0 0 2 0 1 3 1 3 1 3 0 0 1 2 1 2 1 0 1 4 0 1 0 1 0 0 0 1 1 0 0 0 0 2 1 1 1 1 0 0 1 1 1 0 0 0 1 0 0 0 0 2 1 0 2 0 1 1 1 1 0 2 0 0 1 1 1 0 2 2 1 0 1 1 0 1 0 4 0 0 0 0 0 1 2 0 1 2 3 1 0 2 2 0 1 2 1 1 0 1 0 0 0 0 2 0 1 0 3 0 1 1 0 0 1 0 0 3 0 1 0 1 2 0 1 1 0 0 2 0 1 2 1 0 0 0 1 2 1 0 0 0 1 0 0 1 1 2 1 0 0 1 1 1 1 0 0 1 2 0 0 0 0 0 0 1 0 1 0 1 2 0 0 1 0 1 0 0 0 0 1 2 2 1 2 1 1 0 0 0 2 1 0 1 2 0 0 1 0 0 2 1 1 0 2 1 0 2 0 0 3 0 1 0 1 0 1 1 1 1 0 0 2 0 1 0 0 0 1 1 1 1 1 2 1 2 1 2 0 2 0 2 1 0 0 0 0 1 0 1 0 1 2 0 0 1 0 0 3 2 1 1 0 0 0 1 1 0 0 0 1 0 1 0 1 2 0 0 3 0 0 0 2 0 0 1 0 0 1 0 2 0 0 0 1 1 2 0 1 1 0 1 3 0 1 0 1 0 1 1 0 2 2 1 0 1 0 2 0 0 1 0 1 0 0 0 0 0 0 2 2 0 0 2 2 0 0 1 0 0 0 0 1 1 1 0 1 1 2 2 0 1 0 0 1 0 0 0 1 1 1 1 3 4 2 0 0 2 0 2 1 0 0 0 0 2 0 1 0 0 2 0 0 1 1 0 0 1 0 2 1 0 0 0 2 0 1 0 0 0 1 0 0 1 1 2 0 1 0 1 2 0 0 2 0 0 1 0 1 0 0 3 0 2 2 1 0 0 1 1 0 1 1 1 0 0 1 2 1 1 2 0 1 0 0 0 0 1 1 0 2 1 1 1 2 0 0 0 0 0 1 0 0 0 0 1 0 1 2 0 1 0 0 1 3 1 0 3 0 0 1 0 1 3 2 0 0 3 1 1 0 0 2 0 2 1 2 1 0 1 1 1 1 0 0 1 0 1 1 2 0 1 0 1 1 0 0 2 2 2 0 0 3 2 0 0 2 0 0 0 1 0 0 0 1 0 1 0 1 1 1 0 0 1 0 3 1 0 1 0 0 0 1 0 0 1 1 2 0 1 0 0 0 0 2 1 0 0 0 1 0 2 2 2 0 0 1 2 1 1 4 0 2 1 1 1 0 0 0 0 0 0 0 2 1 0 0 0 0 2 1 1 0 1 0 0 0 0 0 1 1 1 0 0 1 1 1 0 0 0 0 0 1 1 3 2 1 0 3 1 2 1 0 0 0 1 1 2 1 2 0 0 1 0 1 3 0 0 1 1 1 0 1 0 1 1 2 0 1 1 1 0 0 1 1 1 1 2 0 0 1 1 1 1 0 1 1 0 1 1 0 0 0 0 2 2 2 1 0 0 0 2 0 4 0 1 1 0 1 0 0 1 1 0 0 0 1 0 2 1 0 1 0 0 0 1 0 0 0 1 0 1 1 1 1 1 1 0 2 0 0 1 3 0 1 0 1 0 1 1 0 0 1 1 3 0 1 0 0 1 0 0 1 0 3 3 0 1 1 1 1 0 1 0 0 0 0 0 0 1 0 0 1 0 0 0 1 0 0 0 0 0 2 2 0 1 1 0 1 1 1 0 1 0 0 0 1 0 1 2 0 2 2 0 1 1 1 0 1 0 0 2 0 3 0 1 0 1 1 2 0 1 0 0 1 0 0 0 4 1 1 0 0 0 0 0 0 0 1 0 1 1 1 2 1 1 0 1 0 2 1 2 0 2 0 1 0 0 0 2 1 1 1 2 1 0 1 1 0 2 0 1 0 0 0 0 1 1 2 0 1 1 2 2 2 0 0 0 0 1 1 2 0 1 1 0 0 0 1 0 0 0 0 0 1 1 0 0 1 1 0 0 0 1 0 2 2 0 1 1 0 0 1 0 1 0 0 1 2 1 2 0 0 0 0 0 1 4 0 1 0 0 3 1 0 3 0 1 1 1 2 1 0 1 1 0 0 0 2 0 0 1 0 1 0 1 0 0 0 1 1 0 0 2 1 1 1 1 0 1 0 2 0 1 0 0 2 1 0 0 1 0 2 1 1 0 1 1 2 1 0 1 0 0 1 0 1 1 2 0 2 0 0 2 0 1 2 1 2 0 0 1 0 1 0 1 1 0 0 0 1 1 3 2 0 0 1 0 0 0 0 1 1 0 1 0 1 1 0 1 0 0 0 3 0 1 0 2 0 0 1 1 4 1 0 0 1 1 0 1 0 0 1 1 1 1 1 0 0 0 1 1 1 3 1 0 2 3 3 1 1 0 1 1 0 0 0 1 0 0 0 1 0 0 1 0</t>
   </si>
   <si>
     <t>Name</t>
@@ -201,15 +201,15 @@
     <t>S.Shepard</t>
   </si>
   <si>
+    <t>D.Slayton</t>
+  </si>
+  <si>
+    <t>K.Toney</t>
+  </si>
+  <si>
     <t>K.Golladay</t>
   </si>
   <si>
-    <t>K.Toney</t>
-  </si>
-  <si>
-    <t>D.Slayton</t>
-  </si>
-  <si>
     <t>K.Rudolph</t>
   </si>
   <si>
@@ -264,52 +264,52 @@
     <t>G.Gano</t>
   </si>
   <si>
-    <t>NIG(37.23057996273583, 16.984545276861827, -0.15602474233908173, 41.853309439568875)</t>
-  </si>
-  <si>
-    <t>26 17 23 31 10 10 10 21 28 16 21 27 6 13 6 28 31 29 27 31 21 3 20 27 8 40 30 38 23 15 26 27 20 17 3 13 13 20 38 16 31 25 16 31 20 27 24 34 23 17 21 21 10 21 26 34 25 19 10 40 24 17 24 7 21 7 17 23 22 28 24 34 34 24 30 21 13 27 26 20 21 26 31 18 45 3 19 16 14 28 20 21 10 17 17 23 27 20 27 17 31 17 14 30 3 21 10 24 18 20 13 34 10 14 30 34 14 19 34 23 19 11 38 14 13 22 14 24 27 40 35 9 20 27 24 6 17 34 20 24 16 3 34 17 20 24 3 24 19 17 16 34 31 3 23 20 10 24 16 23 34 13 26 20 29 27 17 23 20 23 11 13 28 34 13 13 3 13 20 8 31 17 16 7 24 20 24 23 24 10 14 11 19 16 30 17 32 23 17 19 17 9 17 10 26 17 28 31 14 17 34 22 21 17 30 24 20 14 27 17 34 17 17 23 24 13 10 10 12 23 24 19 7 20 13 17 37 18 7 30 10 25 23 13 24 31 27 34 41 16 21 27 27 16 27 21 6 27 14 33 27 0 7 31 24 23 7 24 24 14 19 28 34 17 24 13 19 22 16 17 28 24 15 21 27 17 9 15 44 10 30 17 10 14 31 20 28 20 16 20 38 26 29 27 10 6 20 24 19 17 23 17 16 16 13 17 31 20 34 20 19 28 17 27 7 14 21 17 23 17 21 24 10 14 21 14 16 33 45 12 21 21 16 32 10 20 17 14 17 17 28 10 30 25 30 23 33 10 24 20 0 23 28 31 24 20 17 31 7 22 22 9 13 18 28 28 20 21 14 21 28 27 21 10 34 27 9 27 37 20 18 21 24 20 23 26 14 37 34 20 13 30 22 14 10 16 7 26 13 24 27 31 14 26 22 17 21 14 20 33 27 38 9 17 19 24 21 35 24 16 22 24 20 21 3 30 37 24 27 20 35 19 13 20 17 21 20 13 14 10 23 19 14 21 28 26 30 15 34 9 9 24 27 16 31 16 23 32 19 17 27 21 23 41 19 38 14 7 20 15 25 35 27 17 37 30 27 20 21 38 14 17 17 27 28 23 27 13 10 17 6 36 32 22 16 18 17 28 20 31 27 23 25 21 24 16 27 17 24 34 20 23 10 48 37 27 9 51 17 31 27 17 14 31 13 21 27 24 10 26 24 21 23 17 29 19 17 24 20 30 25 16 31 24 7 17 27 16 10 16 20 30 20 22 35 17 15 14 27 38 17 30 31 31 27 14 19 20 30 24 20 24 33 27 10 21 26 31 13 23 17 24 19 6 30 18 31 12 22 30 17 3 17 23 14 20 27 23 25 23 25 27 16 24 7 31 27 6 6 20 20 20 35 31 26 29 24 15 10 7 20 10 21 9 19 7 24 21 26 31 24 20 16 27 16 23 17 23 21 21 17 35 21 34 15 10 11 15 30 19 20 27 27 22 17 31 24 17 34 30 19 34 28 24 22 17 34 24 31 13 7 41 13 23 27 7 24 17 33 13 30 14 27 16 31 17 31 17 21 31 14 32 27 7 21 17 3 28 17 13 20 31 24 24 13 15 26 23 23 17 10 14 16 21 13 23 17 30 24 6 37 20 20 17 13 17 28 17 10 16 20 21 28 45 20 20 10 19 45 20 27 27 13 7 18 16 16 14 23 30 50 24 27 28 20 17 37 20 27 28 10 26 24 13 10 24 34 20 14 10 10 10 28 20 27 21 20 24 17 24 23 23 47 27 14 18 27 27 20 38 35 9 22 17 10 23 35 34 24 16 30 30 7 34 15 21 23 22 21 34 20 9 34 33 24 29 28 31 17 38 20 27 16 27 10 31 16 24 27 28 10 20 9 23 13 30 23 31 14 49 34 27 16 20 27 13 17 14 10 33 16 37 21 26 24 24 17 13 24 49 6 26 23 18 20 24 10 24 13 34 25 20 26 34 23 42 7 31 22 24 17 17 27 13 38 23 28 13 10 13 24 21 27 14 20 30 24 18 10 34 3 23 28 10 13 13 24 9 17 17 13 38 24 13 10 13 40 16 10 23 34 13 24 0 7 26 35 21 34 16 10 10 14 20 21 17 24 27 23 20 32 24 25 7 20 27 10 17 0 34 10 31 9 29 42 20 12 16 26 16 26 27 16 6 31 16 14 30 20 26 20 7 7 21 24 13 13 14 16 20 14 14 23 9 20 27 41 12 16 24 45 27 16 23 28 19 30 26 30 24 17 17 31 21 23 31 13 27 14 13 24 17 13 23 20 23 24 14 24 12 17 24 37 10 17 20 23 30 30 28 3 20 28 33 26 24 7 13 19 23 10 13 17 20 24 19 17 23 17 34 7 12 14 13 31 31 34 21 24 16 13 13 23 17 17 13 25 7 34 31 27 26 11 25 17 27 20 24 29 17 23 24 21 24 38 24 15 19 16 20 27 12 10 14 14 28 17 23 30 20 38 13 21 29 16 19 16 31 0 14 13 34 41 0 21 10 6 17 0 23 17 23 19 28 30 14 9 19 3 20 24 14 31 14 25 6 27 13 22 30 27 24 20 38 13 24 9 21 13 17 16 20 20 10 23 20 34 20 13 14 22 23 27 24 12 16 23 16 17 38 44 27 16 23 10 33 28 28 9 23 21 13 21 23 24 24 37 19 27 41 31 14 31 31 14 41 26 30 16 16 24 24 28 24 17 27 24 14 31 6 23 13 17 20 20 38 12 38 14 20 31 21 17 27 35 20 33 22 19 27 24 37 14 13 31 9 17 24 38 27 17 19 27 24 23 19 24 10 10 15 16 42 26 24 34 34 22 14 23 26 24 20 13 21 27 31 30 21 25 38 24 23 34 23 21 17 20 30 35 13 36 13 34 31 36 13 38 10 31 38 41 19 14 20 9 20 14 24 23 30 10 31 24 31 13 10 10 22 18 23 24 7 21 14 20 13 27 27 13 17 25 27 24 17 10 31 33 21 31 24 24 20 31 13 24 21 13 45 24 23 32 7 13 23 14 38 16 21 16 20 12 24 28 9 24 35 17 6 20 23 21 24 27 21 24 8 15 27 30 28 23 22 13 14 14 20 21 0 31 29 10 10 23 17 24 24 13 24 21 13 17 17 16 13 27 17 12 14 30 24 18 24 17 28 12 22 33 23 28 10 30 20 31 17 10 10 9 24 13 23 27 10 31 35 37 13 32 10 10 24 16 13 10 24 13 23 20 27 23 21 17 19 17 6 21 20 17 27 13 24 30 24 20 19 16 34 23 16 21 26 17 9 7 24 16 27 34 13 16 27 7 14 20 20 3 10 17 24 20 13 16 34 6 14 31 13 27 17 13 35 24 19 30 31 10 20 28 17 17 20 20 23 35 19 28 17 13 17 23 13 17 14 16 23 16 24 21 24 7 34 59 28 10 24 21 20 22 17 20 13 27 20 34 14 19 34 3 21 25 20 34 13 14 13 20 29 14 17 22 20 38 3 0 13 28 27 9 17 14 20 31 20 20 28 14 37 9 23 20 23 27 15 24 18 30 35 34 21 30 27 24 24 40 10 14 21 17 29 33 24 19 27 17 23 20 15 28 10 37 10 24 24 34 30 14 24 23 21 21 38 17 32 23 17 15 20 19 10 20 42 21 37 16 10 17 19 34 24 23 27 21 20 13 14 24 24 20 13 31 17 19 20 24 23 17 12 21 13 13 10 16 23 24 45 10 31 21 27 19 20 24 22 7 24 17 3 20 19 24 16 10 24 27 17 20 38 20 13 7 43 22 40 23 17 27 27 24 26 24 20 26 31 23 14 21 19 21 12 8 25 17 34 23 35 31 30 17 16 13 24 23 27 38 16 21 24 25 34 22 16 6 27 22 36 34 20 31 27 31 21 14 17 13 27 20 10 6 20 14 28 17 38 10 27 13 24 42 26 16 21 23 10 35 28 13 13 24 17 24 35 17 20 31 23 27 33 22 23 26 27 3 24 13 21 16 23 27 13 10 18 20 24 26 20 31 17 23 23 24 34 19 20 27 10 27 26 27 13 17 30 31 16 14 10 41 16 24 17 28 20 24 16 13 30 22 27 35 17 27 24 35 27 9 26 30 31 27 13 14 24 28 24 20 20 3 20 21 13 20 28 26 27 17 13 13 24 31 17 17 7 32 24 13 24 17 30 20 31 29 9 34 14 27 20 28 30 20 20 20 19 21 14 16 14 19 20 28 28 21 38 17 28 17 13 42 27 24 14 23 27 25 13 27 26 23 27 40 17 20 22 23 23 19 20 17 37 24 13 24 29 21 20 38 21 17 24 21 21 10 17 24 10 31 20 42 14 30 21 20 16 13 27 28 23 20 38 16 19 21 9 38 21 13 24 24 23 26 16 9 24 27 28 18 31 40 15 16 17 27 19 7 24 16 16 31 30 16 17 20 27 12 17 20 20 27 20 17 17 16 17 45 23 21 41 23 10 31 24 24 21 23 23 24 22 21 21 23 27 20 13 17 27 28 24 17 31 47 28 31 20 21 17 18 20 28 20 6 19 24 37 21 27 16 13 17 10 23 17 10 17 17 31 24 12 20 19 21 21 6 19 34 13 24 31 20 10 20 20 10 28 17 10 14 14 37 11 9 20 20 27 37 14 24 3 20 10 17 23 6 30 21 30 23 28 23 28 21 17 14 31 45 14 21 24 17 38 34 13 23 17 20 27 20 23 24 24 27 20 29 24 27 14 14 24 19 13 20 16 16 28 27 27 21 10 28 7 17 14 21 21 14 19 14 28 15 15 19 14 17 27 31 28 27 20 21 22 14 20 33 27 20 11 24 28 21 23 31 10 19 31 18 10 16 3 34 21 12 24 10 31 14 24 23 14 17 13 14 27 35 23 16 20 20 30 48 28 10 24 9 21 27 17 26 30 13 26 25 7 17 34 21 19 21 14 20 0 19 27 29 20 27 17 31 41 13 31 17 23 20 13 27 11 35 33 13 17 7 7 7 21 10 24 7 19 24 29 13 3 9 27 13 31 17 31 28 28 13 8 26 13 21 19 17 20 27 14 17 20 13 13 18 6 22 9 13 21 23 22 15 21 3 19 27 30 11 20 27 33 20 19 21 33 17 17 24 13 13 24 0 17 20 34 19 28 38 33 17 24 13 17 27 10 22 12 38 19 20 30 16 34 20 26 22 13 34 19 28 27 20 27 23 35 13 28 14 25 17 23 15 35 16 38 23 17 20 17 20 31 20 13 23 27 13 17 20 20 41 27 7 16 17 20 24 34 6 24 13 24 19 10 9 37 15 34 27 24 19 35 13 13 24 14 24 42 10 20 6 14 29 6 15 30 37 13 16 20 22 24 20 17 20 27 10 16 30 17 15 9 38 24 26 13 26 11 38 17 20 20 27 26 34 23 9 26 20 17 20 31 21 31 24 20 18 23 31 31 23 26 18 31 38 21 29 19 16 35 13 31 13 20 21 30 17 14 6 12 27 7 31 27 31 21 27 27 24 27 26 10 28 14 27 23 12 17 17 17 24 24 10 24 24 17 14 12 7 34 14 20 23 14 31 13 20 10 13 33 16 26 37 27 10 13 17 14 41 23 27 20 21 41 13 17 35 21 19 20 21 19 24 9 25 33 28 23 38 20 28 22 31 23 30 10 3 10 9 19 38 30 20 37 27 20 24 38 20 13 19 14 24 20 10 21 16 17 13 31 16 16 29 28 21 17 34 28 25 27 20 37 14 10 21 17 16 17 30 24 27 19 27 27 27 20 21 13 17 30 20 9 3 30 21 19 20 20 34 23 17 31 10 24 13 20 20 23 23 26 25 14 13 13 12 31 9 19 30 16 37 14 20 30 13 7 23 9 0 41 21 17 16 9 16 27 20 14 33 9 35 35 11 17 9 9 31 25 20 14 21 24 9 10 17 20 38 35 7 26 7 13 23 17 7 41 17 24 13 20 27 24 41 6 13 13 17 17 27 14 34 21 20 24 14 19 17 22 27 23 14 17 24 9 6 20 34 24 20 33 21 24 29 34 27 17 24 17 21 24 10 10 16 16 24 20 13 10 15 25 16 26 24 3 34 26 24 27 10 20 31 17 35 23 13 19 23 17 17 14 24 18 10 17 42 30 27 17 42 22 7 14 20 27 14 20 23 10 24 31 21 20 12 28 13 18 34 20 20 10 24 23 27 34 6 31 13 20 31 31 14 3 20 6 10 23 31 33 31 0 7 13 22 17 21 26 20 19 24 24 16 14 16 6 16 19 17 27 10 20 21 14 23 6 10 34 3 49 19 31 23 20 20 23 15 26 22 17 10 20 21 24 16 31 21 28 18 21 17 24 34 10 19 18 10 17 24 12 41 18 18 20 24 17 17 24 23 34 19 17 2 14 24 10 22 20 30 29 17 27 37 27 17 10 20 31 17 20 22 27 16 15 16 17 28 28 24 24 10 35 14 17 27 23 21 23 16 7 10 14 31 27 22 28 21 25 22 6 12 13 10 23 12 19 30 29 20 10 25 23 10 23 28 24 19 24 19 17 31 16 30 23 22 20 38 27 31 26 27 25 37 14 19 21 17 12 26 16 10 22 23 23 34 21 13 17 24 16 17 10 24 9 19 31 21 24 24 31 17 27 21 10 23 20 28 9 10 21 17 33 32 27 10 19 27 9 13 13 20 24 7 29 17 31 20 13 22 20 28 24 35 35 24 16 14 17 31 34 14 20 13 6 23 30 28 20 12 13 3 17 21 19 13 17 16 29 40 31 34 16 7 24 15 12 20 19 20 37 13 16 21 23 21 17 17 6 5 16 13 27 20 16 30 20 12 23 14 21 38 23 40 20 27 12 29 18 12 13 24 35 35 31 27 29 28 13 27 17 14 25 23 27 7 24 16 28 28 14 30 34 26 19 17 20 13 22 20 34 16 31 38 26 26 17 14 16 24 17 35 27 28 22 19 25 13 28 31 24 29 23 16 15 28 22 28 24 17 31 10 27 22 26 13 14 33 19 14 28 16 17 34 24 13 8 27 31 16 10 21 20 21 16 10 30 16 16 20 24 20 35 14 34 20 34 31 23 24 16 21 22 21 23 17 17 41 27 30 21 27 30 35 12 13 27 14 22 31 23 26 16 20 20 16 31 16 21 19 27 34 13 24 30 24 20 23 17 26 23 14 21 21 31 17 18 0 27 37 30 8 21 21 27 19 3 27 17 7 27 10 6 10 16 20 21 27 17 32 16 38 3 30 26 24 20 11 24 10 24 31 3 35 21 31 13 17 16 21 31 34 24 28 35 17 31 13 17 16 0 26 16 20 14 24 28 38 13 16 31 31 14 33 34 23 38 24 12 27 13 13 34 23 17 20 25 9 11 24 24 7 49 18 13 17 32 29 24 31 21 10 23 33 6 27 26 26 24 27 20 24 27 30 27 24 25 17 21 9 37 19 27 23 13 28 30 14 19 17 21 18 31 21 49 23 19 31 22 17 26 27 24 26 20 20 14 27 27 17 17 15 14 27 28 20 36 10 28 27 16 17 20 27 8 6 13 17 20 16 17 16 17 10 6 24 13 27 40 23 19 21 20 38 17 30 35 11 24 36 29 20 20 13 27 26 19 24 13 10 17 38 13 37 24 10 23 17 24 17 20 6 27 17 24 31 25 13 15 23 42 23 25 18 31 20 24 21 27 14 8 26 23 31 16 13 23 30 19 12 30 21 17 18 14 38 26 28 16 21 15 24 34 9 28 17 23 16 17 20 10 34 23 30 16 28 28 7 13 23 7 19 34 17 30 20 28 28 37 27 31 19 20 22 44 18 26 21 3 10 31 20 27 17 9 29 13 19 19 16 19 7 17 22 31 24 9 16 27 29 19 20 26 24 20 35 6 12 23 17 6 14 16 7 12 24 24 19 21 17 23 20 14 14 20 24 13 27 22 34 20 19 23 17 35 23 23 17 15 23 20 27 27 17 30 20 19 12 17 19 21 17 16 14 38 38 14 18 35 31 3 33 3 20 10 29 24 33 30 14 30 19 16 11 20 14 23 35 20 35 7 21 37 24 27 28 27 27 16 16 42 18 10 16 24 24 24 25 14 27 20 26 26 23 17 14 16 26 7 27 13 31 31 28 26 16 13 9 30 20 26 17 17 22 20 22 17 15 28 26 10 18 15 13 24 31 21 21 22 20 17 17 24 21 28 20 19 17 3 13 30 23 15 24 35 0 26 24 23 31 23 15 16 24 19 9 44 26 26 13 15 17 17 20 20 28 24 13 34 12 9 31 20 13 13 13 34 13 20 24 21 23 17 10 10 27 31 21 27 17 24 29 27 13 25 22 27 16 13 10 19 23 20 37 12 25 41 24 14 27 13 12 25 24 16 24 17 19 17 45 30 31 20 25 28 19 13 31 24 10 20 17 7 38 34 9 23 20 17 23 20 13 15 48 19 38 45 13 40 24 3 10 10 15 31 10 20 10 3 16 17 10 21 9 31 23 30 38 24 24 24 14 14 0 24 13 27 20 18 3 27 14 28 7 20 17 20 34 20 23 14 22 35 26 14 3 24 17 27 24 20 20 20 6 24 21 7 16 12 18 17 13 7 42 25 17 16 24 21 27 3 27 14 35 30 20 19 21 16 31 16 20 27 28 21 20 19 17 10 20 37 20 28 24 17 17 14 13 38 7 24 14 19 16 30 7 24 28 37 20 27 31 17 17 22 8 17 23 23 28 26 17 13 27 10 20 22 10 38 16 31 10 30 16 17 27 24 26 20 6 15 17 23 17 23 14 20 31 20 7 10 36 19 31 17 8 27 26 27 17 13 14 30 24 14 31 23 10 14 20 23 9 24 24 10 27 24 24 27 20 20 34 21 14 38 33 24 51 12 17 24 19 24 17 26 30 24 27 14 9 24 13 13 34 13 16 23 7 38 28 30 12 16 24 17 13 17 17 24 18 25 27 26 38 23 33 22 26 16 28 14 14 21 13 17 27 20 20 34 18 13 17 27 24 21 9 10 20 27 40 7 20 27 16 20 13 18 10 30 16 19 14 16 13 24 28 13 27 27 41 26 14 25 24 23 27 17 30 24 42 23 23 20 24 38 12 20 15 17 14 24 17 10 24 27 14 21 27 3 16 6 13 10 10 20 20 24 36 12 26 17 20 23 28 34 21 10 38 26 34 21 34 17 34 24 22 10 20 26 27 13 10 24 10 6 20 23 10 20 31 23 27 12 28 17 30 24 17 17 36 21 20 20 20 13 13 20 24 27 26 24 16 20 37 14 20 21 3 20 23 21 30 21 17 24 27 27 6 17 17 16 13 12 31 27 13 17 18 19 17 25 9 27 38 23 24 14 24 31 12 23 22 28 19 27 14 24 17 14 17 20 25 9 37 16 37 10 13 24 13 23 20 24 45 17 16 31 22 33 24 31 10 27 3 20 17 27 9 22 17 20 16 33 18 23 16 14 16 31 20 24 20 17 31 34 7 34 29 31 24 20 27 20 24 27 16 17 23 20 17 10 40 41 29 13 31 23 37 23 24 17 14 13 24 17 17 30 29 21 17 34 13 17 19 22 20 24 14 26 23 19 19 18 23 20 26 34 28 26 24 27 25 3 22 21 23 27 23 20 6 31 16 25 23 19 30 17 25 10 20 10 27 29 17 33 14 24 27 21 27 20 20 24 17 24 23 31 37 20 14 16 13 9 20 20 27 21 24 21 27 10 22 24 28 37 22 17 27 21 21 16 13 20 24 24 30 9 17 17 30 23 29 11 27 16 21 17 27 27 17 27 21 17 16 10 20 24 34 23 34 26 26 20 22 19 16 17 30 24 18 17 14 14 24 17 17 33 20 13 10 31 27 20 20 19 17 22 27 28 20 21 31 31 24 27 27 20 19 30 24 19 30 10 28 26 14 14 27 20 24 14 31 13 20 7 26 20 19 28 31 27 21 13 10 21 28 25 45 27 12 26 23 24 20 13 23 20 10 28 17 30 26 21 27 31 10 16 30 19 14 21 21 25 23 30 23 14 23 20 17 24 13 23 23 28 20 24 35 27 10 25 17 20 34 15 31 24 21 23 26 26 23 24 9 17 0 13 27 17 24 23 36 20 19 24 35 34 12 41 17 24 30 24 7 33 10 9 20 17 28 27 13 31 28 23 21 10 22 16 17 3 14 19 8 19 35 27 23 26 14 26 17 24 24 10 20 27 24 16 9 13 25 20 26 17 18 34 7 24 30 19 10 17 34 21 22 31 25 15 37 21 33 17 23 19 20 20 12 17 9 16 20 22 10 31 16 34 13 31 17 23 22 20 20 18 17 26 12 10 10 24 28 26 20 21 14 14 16 10 14 27 20 19 10 26 26 16 31 24 27 10 19 20 24 17 17 17 21 24 44 16 0 21 16 24 17 13 24 20 3 10 20 23 30 20 14 14 26 29 35 13 27 24 27 31 20 28 11 27 26 20 38 7 22 23 14 27 26 21 7 10 24 6 19 26 30 13 27 16 19 16 21 28 24 9 20 20 35 27 24 10 28 35 21 31 24 41 23 19 17 22 9 27 20 17 35 23 3 17 21 17 31 13 23 37 23 13 27 38 17 28 34 10 28 20 20 26 6 7 13 24 20 10 40 6 16 17 17 24 21 10 30 14 14 19 30 14 31 22 3 10 27 17 20 21 28 21 23 23 17 31 14 24 20 24 20 17 17 17 6 6 17 45 34 27 48 32 27 21 33 16 13 17 24 22 28 17 14 10 23 9 42 31 31 20 29 30 14 21 27 22 17 43 13 24 19 24 17 30 28 42 17 24 27 0 20 24 30 8 13 13 27 31 24 10 27 6 27 17 7 20 20 9 23 33 23 23 13 26 27 30 22 10 24 21 23 17 20 16 20 17 41 30 7 17 26 16 10 23 17 30 31 17 20 29 16 13 24 34 8 38 6 9 30 37 16 42 22 31 24 17 28 31 16 3 24 26 21 14 31 21 10 24 7 26 20 6 7 15 27 33 20 22 33 20 16 26 26 26 23 14 27 32 24 20 6 30 23 21 10 14 23 7 20 20 24 30 17 16 17 17 17 24 10 22 34 34 23 17 22 14 20 20 16 20 20 38 22 20 20 33 24 35 20 21 24 13 9 23 21 10 31 21 16 27 16 7 26 21 35 30 34 14 27 20 10 21 23 17 26 21 28 17 17 22 28 24 31 3 17 31 17 27 10 34 28 27 17 14 28 20 27 28 27 17 30 21 12 34 7 24 11 20 19 23 13 31 20 17 16 17 40 24 17 22 17 27 17 13 21 29 29 23 37 21 28 31 17 31 17 35 10 27 20 34 9 30 10 16 6 17 19 16 14 13 31 24 18 20 14 10 24 13 20 13 13 28 30 19 38 16 18 31 20 3 37 19 23 23 41 13 13 23 8 14 34 24 16 20 23 13 20 7 15 20 13 23 23 17 16 27 25 13 13 13 27 26 16 26 3 13 12 20 15 19 35 26 47 21 3 3 10 21 8 16 37 26 24 20 30 14 28 38 20 20 20 31 20 27 28 24 10 19 8 35 28 17 13 17 24 30 31 23 35 23 24 9 31 16 17 27 26 10 31 24 20 28 11 10 26 19 27 13 27 30 27 38 24 24 20 10 21 23 28 9 17 15 28 16 3 30 31 30 23 14 17 17 24 24 27 24 20 35 21 16 17 23 13 16 28 17 32 31 34 24 27 27 27 9 19 7 35 33 20 23 26 34 27 24 27 20 20 24 45 6 33 20 0 15 18 30 10 28 38 21 12 20 10 20 20 40 33 20 31 14 13 26 20 26 27 21 29 13 15 17 19 24 34 31 3 33 9 26 17 24 16 30 17 20 10 24 27 31 16 20 22 16 20 20 24 24 14 27 45 35 30 17 13 14 30 31 31 31 21 24 14 21 25 23 24 19 27 41 16 17 27 26 42 28 13 12 6 20 26 34 16 28 21 21 6 26 27 16 12 10 20 27 20 17 27 24 27 31 13 24 9 22 17 22 13 17 21 12 29 20 24 13 21 13 24 10 27 9 23 28 13 23 13 19 20 10 34 21 23 22 13 27 20 27 12 16 34 13 21 26 30 27 16 16 23 3 21 12 28 16 23 23 16 24 30 17 27 17 17 20 48 13 23 20 24 25 20 26 21 19 17 21 26 20 17 22 13 41 10 42 31 6 22 22 17 23 34 10 22 27 17 13 17 18 16 10 13 31 17 24 14 20 17 14 21 26 24 24 13 31 13 31 20 31 20 23 13 24 13 27 27 20 24 17 15 22 20 20 19 24 14 34 13 14 16 31 27 20 7 26 34 20 30 14 22 16 23 14 18 30 13 27 10 24 20 23 16 24 13 14 21 42 28 31 26 20 13 21 16 38 17 24 7 21 20 14 7 20 13 3 14 17 13 26 34 13 16 44 31 20 23 19 21 21 22 20 21 17 17 13 24 14 31 14 14 6 16 16 10 19 21 30 31 22 21 19 14 31 19 17 20 13 27 10 21 17 21 35 7 14 24 7 20 15 21 14 31 23 14 23 27 20 19 40 30 10 33 20 31 9 20 17 17 31 29 17 23 33 16 26 13 30 13 21 21 16 28 26 26 24 16 27 21 17 27 6 26 10 10 21 3 33 38 34 31 16 6 10 14 27 23 7 23 16 23 17 22 30 9 21 12 34 27 29 26 31 13 20 27 20 31 10 33 27 28 16 14 17 30 14 23 17 28 28 20 19 20 22 20 9 7 23 21 23 10 17 31 21 10 23 27 13 20 20 16 34 20 10 30 37 31 23 17 29 16 27 17 24 24 10 24 26 29 29 20 24 16 20 12 21 10 41 10 13 22 13 12 10 35 28 20 23 6 38 34 15 20 45 24 27 10 31 8 20 16 21 20 17 16 17 30 24 31 24 21 22 24 20 13 24 20 27 23 22 13 30 23 28 17 16 23 21 13 35 24 28 22 31 19 17 27 35 10 14 24 34 13 6 22 21 7 34 23 38 27 20 38 31 14 34 23 3 13 19 20 29 30 27 27 21 31 27 35 10 20 17 24 17 22 16 25 24 41 20 23 24 31 14 17 20 20 15 41 23 26 10 16 24 30 24 27 17 20 41 3 13 20 14 17 31 10 22 13 19 22 38 27 18 24 21 26 6 9 10 34 20 10 26 9 21 18 20 37 24 21 14 25 15 6 28 21 11 6 13 10 22 16 30 16 20 34 35 21 10 24 35 15 11 17 9 21 10 38 22 35 19 22 7 27 10 16 38 23 37 26 31 10 20 19 17 24 24 30 28 21 10 20 16 11 18 41 20 31 21 20 10 23 19 24 16 10 17 10 42 14 15 20 10 17 45 28 24 24 31 9 13 13 13 29 35 35 35 0 20 6 38 23 30 24 14 20 16 24 17 30 7 16 17 14 17 10 27 34 28 41 31 14 18 28 30 34 24 14 6 20 24 24 42 16 24 22 28 16 6 24 21 13 23 30 17 12 12 26 27 16 28 15 34 27 34 19 30 27 14 13 33 17 13 20 21 8 27 24 13 16 35 17 20 24 14 6 6 23 20 0 20 21 27 30 34 17 23 13 13 15 28 24 13 27 27 12 48 28 27 10 20 28 23 10 31 18 27 27 24 10 31 24 38 9 16 24 28 23 20 31 7 17 27 16 16 14 13 28 34 30 24 24 29 22 24 20 33 14 35 17 34 20 20 14 31 13 22 31 17 22 38 13 10 24 42 20 35 13 31 23 7 27 17 14 10 28 35 17 10 22 34 20 19 13 17 13 38 10 23 31 31 26 30 33 13 13 27 14 6 23 20 21 13 0 20 27 35 23 27 30 20 34 14 13 16 29 13 7 20 20 21 10 27 9 6 27 35 14 34 34 17 38 41 21 23 31 24 26 35 33 34 14 21 27 23 34 13 27 20 18 31 27 10 16 31 13 16 23 37 31 30 21 27 34 21 20 12 10 15 21 9 0 28 30 16 34 37 21 8 26 17 17 30 23 23 17 3 20 17 16 27 14 10 21 21 16 17 13 17 11 27 24 20 20 33 42 10 23 25 24 3 17 17 13 10 31 28 30 9 7 9 18 24 6 16 24 19 21 16 22 17 10 24 7 30 14 23 23 10 26 24 16 28 22 17 24 34 31 16 17 10 33 40 19 14 24 31 20 23 24 21 27 23 28 34 15 13 17 13 23 38 24 26 26 22 14 20 24 35 24 20 27 24 18 27 20 32 21 20 28 41 13 27 24 23 24 35 20 26 30 13 27 14 16 10 20 30 38 14 26 17 20 14 23 9 6 16 42 30 20 31 18 9 22 24 24 13 15 10 7 13 27 21 13 13 31 31 16 30 30 20 19 17 31 12 16 26 22 20 26 0 14 20 29 34 14 24 30 21 7 17 23 14 24 19 27 24 16 17 20 27 13 20 35 23 27 33 23 24 20 24 20 28 20 30 23 34 17 26 24 12 3 14 19 27 17 10 20 7 22 21 16 25 35 13 13 37 27 29 26 10 14 14 17 24 21 20 20 17 7 33 30 27 39 17 20 16 17 19 30 23 23 17 13 16 16 30 24 24 24 16 20 18 31 30 13 34 39 21 13 18 15 10 29 27 20 19 41 16 17 27 0 24 14 10 14 20 17 14 13 31 31 17 13 19 16 17 6 23 10 20 17 16 7 21 34 21 14 29 13 12 10 24 34 7 7 27 9 24 10 24 24 3 17 24 13 21 24 23 17 28 18 16 24 13 24 17 26 42 21 20 31 36 14 24 21 28 45 28 14 31 6 19 21 22 31 20 10 24 23 20 34 41 21 14 19 21 17 27 13 6 27 31 21 20 13 28 23 14 30 24 24 21 21 31 50 24 9 21 14 31 17 28 24 20 21 21 20 28 29 6 14 6 13 24 17 14 23 26 31 16 27 23 33 35 20 20 10 41 31 28 21 21 28 35 20 35 19 14 20 38 20 20 23 20 24 16 24 6 17 37 27 24 34 17 28 24 14 27 20 27 17 31 11 17 24 10 10 17 28 17 22 19 7 6 30 20 24 12 17 27 24 26 30 17 34 13 30 30 27 28 17 19 22 14 30 34 16 14 10 11 31 0 23 24 27 33 23 19 27 37 13 31 17 31 24 10 17 7 26 10 20 13 3 19 17 26 16 21 13 15 15 21 27 20 17 24 30 21 28 24 14 17 17 30 24 31 27 21 10 19 27 23 26 20 9 10 23 13 38 17 30 24 21 21 24 21 24 16 27 31 27 14 26 19 21 29 17 3 30 22 41 14 31 22 13 26 10 28 18 31 23 29 23 17 28 31 24 18 31 27 14 17 27 31 28 27 23 17 26 24 23 39 20 21 20 24 31 21 24 27 28 31 23 27 24 22 37 20 24 18 31 14 31 27 26 3 41 17 42 3 41 27 13 17 24 24 34 16 23 28 18 29 17 30 21 28 13 24 20 17 24 17 21 10 31 7 23 17 24 16 17 23 20 9 23 14 18 27 10 17 22 19 28 22 9 20 10 22 22 20 24 23 27 24 13 12 17 7 14 10 15 0 10 20 24 21 27 31 13 23 26 14 16 23 23 20 20 16 24 7 16 19 41 30 14 24 7 27 17 7 38 20 20 27 16 17 28 21 28 18 27 20 30 31 22 10 31 17 22 28 27 27 13 16 14 17 28 17 23 20 17 20 21 23 20 33 28 27 13 12 17 38 20 19 7 17 14 17 20 21 16 20 16 23 19 20 22 10 10 8 14 10 31 27 30 10 15 23 20 30 30 22 34 30 7 27 28 16 27 29 23 20 31 13 10 27 16 34 30 14 24 23 13 22 38 23 28 38 17 24 23 13 16 20 30 35 23 41 24 27 11 10 27 28 15 45 17 27 13 23 30 24 16 34 27 24 24 28 14 14 29 13 27 7 9 31 23 24 19 27 18 20 24 17 28 3 27 23 24 9 17 17 39 19 0 29 24 21 25 27 34 13 31 21 38 30 14 10 31 28 3 19 10 20 10 17 24 16 22 24 17 27 13 27 23 25 13 23 14 30 20 24 25 28 17 17 20 34 23 24 24 14 17 21 26 14 22 35 17 20 37 27 24 42 17 21 27 16 13 29 20 26 10 31 30 12 10 9 16 13 21 31 17 26 20 23 19 32 16 24 27 23 27 12 11 17 17 17 23 30 24 23 14 27 19 38 25 10 3 16 33 6 17 27 23 24 11 24 16 20 31 13 28 37 41 18 7 26 30 20 24 21 3 37 17 20 16 9 24 17 35 13 15 24 12 13 9 10 23 24 21 17 30 27 31 19 13 28 34 29 14 13 20 17 13 38 17 10 12 13 24 34 21 13 7 28 19 44 13 13 33 30 13 27 13 20 27 23 31 20 30 17 6 23 17 17 30 12 38 17 20 31 16 20 27 35 28 27 24 17 28 20 20 30 20 24 45 24 20 14 28 31 10 31 23 17 18 26 34 28 17 24 12 22 27 30 19 27 16 30 31 21 24 20 6 30 22 20 17 27 11 10 16 6 9 19 7 19 10 30 10 35 16 24 10 30 14 16 23 20 24 31 12 17 21 17 28 15 36 20 17 24 27 24 24 24 23 7 30 34 28 31 27 31 42 34 26 33 28 26 21 21 17 14 24 28 13 10 20 11 22 27 17 23 9 17 42 12 27 27 30 23 27 23 24 30 16 27 27 10 10 27 27 15 14 27 17 23 32 31 30 26 27 20 20 18 20 17 25 20 21 27 7 10 17 26 14 6 20 24 13 24 20 24 27 21 25 28 17 27 23 34 19 34 13 30 24 16 27 24 17 27 12 34 12 24 19 12 21 22 17 0 32 30 22 27 15 21 14 12 16 30 16 27 33 24 10 12 13 10 38 20 22 17 23 31 20 23 24 27 28 14 14 19 24 13 24 26 29 23 23 20 31 13 25 21 45 24 20 13 26 20 10 34 34 16 27 16 10 20 12 24 22 13 20 17 38 20 38 27 19 10 12 24 30 15 16 17 27 10 9 34 21 20 26 16 27 14 9 28 30 28 24 21 20 42 7 10 31 34 23 22 27 30 20 34 18 7 13 48 31 30 41 14 11 23 16 6 27 10 21 23 20 21 14 28 19 17 35 3 21 13 26 20 14 26 21 28 17 14 32 24 10 21 20 41 17 28 20 38 26 14 30 3 41 14 14 16 26 3 17 39 34 13 27 21 34 25 13 28 20 6 27 24 23 30 19 17 20 24 30 17 17 28 20 17 17 24 33 16 17 19 13 34 37 27 24 19 34 19 9 29 31 10 10 18 21 22 27 19 13 27 20 19 13 38 16 16 17 24 24 26 28 31 0 10 7 16 37 10 24 20 24 31 20 14 3 24 27 20 20 11 27 13 7 24 30 14 8 21 24 30 35 27 24 20 21 35 3 20 34 21 31 13 31 10 27 26 38 10 28 7 36 27 34 20 20 27 17 24 21 27 20 31 12 31 21 21 29 10 28 20 28 23 25 23 36 10 13 21 27 20 17 24 17 20 14 16 24 14 17 24 9 20 38 16 27 21 6 17 34 24 21 19 18 23 23 28 21 17 15 17 20 34 10 10 14 20 19 9 27 20 21 33 29 30 22 23 30 11 17 17 24 16 30 37 27 31 20 17 17 14 38 21 22 33 6 16 12 17 30 31 30 28 17 14 22 17 17 17 17 37 31 10 34 17 30 30 27 16 21 27 21 14 21 13 32 20 27 30 14 14 21 23 28 38 21 17 20 23 21 19 13 38 31 31 25 20 26 14 41 35 27 21 38 21 27 12 20 24 31 30 34 14 41 20 17 19 24 19 34 20 31 21 21 17 40 21 13 23 21 23 26 31 31 14 28 28 27 35 7 17 17 38 27 28 25 13 16 24 16 16 20 13 10 14 24 28 27 3 17 34 25 35 16 36 20 17 30 21 30 20 18 41 38 17 24 24 23 26 19 34 27 14 24 30 21 27 17 27 24 17 34 7 33 23 14 18 9 21 35 17 19 22 24 13 20 21 24 9 17 19 14 17 17 26 10 24 16 16 13 17 13 14 10 17 19 23 9 26 23 27 21 13 20 23 12 20 20 17 24 10 21 34 23 24 30 16 21 20 3 19 17 33 23 27 30 17 24 13 7 14 24 13 31 19 36 9 23 26 13 10 23 17 17 24 18 39 16 20 16 17 20 20 13 16 24 24 6 30 12 21 30 17 17 6 18 14 10 20 17 10 16 24 20 24 30 19 21 23 7 28 17 12 17 30 16 19 20 25 16 17 24 20 37 16 20 27 24 26 23 12 23 21 21 17 28 24 13 20 22 22 10 15 34 10 27 23 30 16 21 41 17 28 30 21 35 3 13 24 12 13 16 9 12 27 28 13 16 41 27 28 28 28 42 17 13 20 8 18 37 23 23 24 20 14 27 17 24 17 27 14 20 9 31 21 34 23 14 22 17 6 30 13 18 10 20 24 23 20 23 16 31 23 24 20 25 10 19 41 28 26 23 6 16 10 23 23 17 20 6 23 27 23 28 24 17 16 27 34 23 31 20 23 26 31 7 20 27 13 9 27 27 22 13 16 27 38 37 18 12 20 21 24 3 24 27 30 20 13 41 31 24 35 27 17 20 20 43 34 40 20 20 20 33 3 27 31 31 37 32 17 38 27 14 21 3 24 13 33 7 9 27 3 20 0 16 44 31 16 23 40 45 19 27 29 24 24 27 23 42 28 12 27 14 17 31 24 10 31 16 20 17 20 17 30 7 31 10 21 13 20 38 27 17 24 16 7 20 34 9 23 13 30 17 17 10 27 20 11 40 28 17 9 27 27 21 21 31 16 34 34 16 14 13 24 33 23 14 23 10 42 12 39 17 21 20 20 21 0 16 24 16 13 27 20 20 21 11 27 26 31 13 37 31 26 31 21 27 31 19 28 19 25 23 27 0 13 20 14 23 16 21 7 26 27 26 6 13 34 24 21 41 37 33 20 24 24 13 21 19 26 35 21 20 34 23 20 27 17 20 20 10 14 24 23 29 17 27 37 10 24 20 24 38 23 24 15 24 30 31 13 22 3 20 3 21 20 30 6 34 33 9 24 33 26 13 20 34 24 20 22 25 25 32 20 26 21 17 20 17 10 23 17 24 17 16 31 19 15 17 20 28 13 24 31 30 14 30 21 17 30 41 51 19 17 19 13 17 17 27 23 21 31 10 21 25 22 30 27 20 15 17 10 13 31 28 17 17 17 7 17 27 26 27 17 21 22 14 17 28 10 27 20 31 18 14 6 6 27 18 31 31 14 17 24 31 6 10 23 17 27 27 6 28 17 23 20 25 20 20 16 20 16 17 20 27 29 25 27 17 17 17 14 9 37 17 9 30 16 10 17 35 27 13 27 17 26 40 23 27 20 28 27 31 27 30 31 15 31 22 27 26 20 27 20 17 20 15 17 34 20 24 23 26 24 24 6 28 20 16 9 14 17 24 20 21 12 23 20 19 20 10 7 13 16 17 13 23 10 28 16 35 17 10 20 28 16 25 24 9 28 16 10 20 26 35 31 27 28 19 17 24 27 10 14 30 31 35 3 0 24 34 37 20 20 23 33 24 10 16 24 24 21 7 3 28 20 17 20 19 20 10 37 23 35 35 17 20 17 23 21 16 36 20 30 23 24 13 20 17 21 34 23 30 14 6 20 21 26 16 14 34 20 13 27 19 14 23 35 17 14 14 17 41 27 17 33 15 23 34 13 30 18 16 24 13 17 24 19 21 42 30 13 20 38 20 21 24 12 24 21 38 24 16 24 35 33 17 14 26 13 24 15 17 24 14 35 17 41 20 28 14 24 12 24 10 20 17 27 26 5 42 14 24 13 20 10 16 17 24 27 21 21 22 20 28 27 10 20 21 10 28 40 12 35 23 27 22 20 37 20 26 20 31 10 24 16 23 17 22 28 20 12 10 20 20 23 27 21 41 17 19 21 31 14 29 21 29 20 16 23 6 13 24 24 31 16 27 10 24 20 34 27 14 17 16 20 16 13 24 21 35 10 27 14 26 12 23 14 20 31 19 14 17 19 17 35 38 30 22 27 24 17 12 26 10 31 10 26 31 19 17 31 24 13 10 3 20 24 7 27 24 14 45 27 23 17 22 20 16 20 23 19 17 7 24 16 19 6 24 27 20 30 14 24 6 10 23 28 27 28 26 32 21 13 34 24 20 20 24 20 13 17 6 20 24 24 20 16 17 18 13 17 27 13 10 15 13 37 30 24 17 23 27 14 41 10 31 24 17 24 20 13 24 16 20 17 24 21 27 35 16 27 15 16 20 6 23 38 23 13 15 23 27 28 6 10 38 10 12 22 17 20 22 31 17 21 26 10 7 17 21 16 34 17 12 10 35 31 7 37 17 27 24 19 20 13 38 15 22 24 44 20 0 22 14 20 21 28 24 24 20 10 21 13 26 22 14 31 26 13 10 21 27 10 16 27 27 20 16 24 28 22 17 18 21 34 16 24 10 10 24 23 45 28 14 23 27 24 23 17 27 16 27 14 21 27 13 14 0 0 24 26 10 24 17 13 14 3 10 37 31 26 16 23 14 8 20 22 23 24 13 37 27 27 20 22 34 10 17 19 26 27 6 24 9 23 24 33 20 35 27 14 13 27 28 14 20 17 13 16 10 21 24 20 20 16 10 27 13 6 27 45 23 20 21 12 21 27 3 27 17 13 26 31 16 20 13 28 14 14 27 13 10 34 19 13 17 20 14 24 23 19 17 13 23 20 40 21 24 20 30 24 20 35 17 26 19 14 23 13 27 38 31 20 27 10 16 17 10 24 23 24 11 31 23 27 21 6 16 31 17 31 8 9 17 24 0 20 10 20 24 19 16 17 17 14 13 21 9 14 20 14 15 13 23 20 27 29 41 29 20 21 16 29 26 10 17 17 13 18 20 25 27 28 26 17 13 29 21 20 16 10 34 23 27 22 10 35 16 27 27 30 24 22 33 17 28 13 26 14 13 10 19 27 27 24 14 13 20 17 31 20 27 38 31 23 25 13 38 49 17 31 24 31 22 17 29 30 17 25 42 19 13 31 10 10 24 23 11 31 31 17 23 17 27 22 31 6 23 34 7 21 24 41 17 7 31 20 16 27 6 27 21 28 17 30 13 3 24 27 17 16 27 17 25 30 20 34 6 30 24 21 13 27 34 21 13 34 35 23 6 24 23 13 6 3 17 38 26 20 27 20 23 33 18 15 24 9 7 23 23 24 20 9 9 14 10 31 15 16 3 13 7 28 24 28 17 28 27 24 17 24 23 28 24 15 30 17 26 41 29 26 18 10 13 24 24 38 18 34 13 27 13 16 35 16 20 12 3 13 40 16 31 19 20 24 30 17 9 28 28 23 17 13 19 45 17 24 22 36 0 7 19 17 40 9 13 14 35 13 38 14 24 21 31 34 55 17 21 17 35 33 14 14 17 19 18 28 21 31 10 10 27 15 21 21 10 31 20 17 21 31 11 19 27 21 22 17 27 27 20 12 15 16 20 27 18 24 27 37 31 13 19 16 14 19 19 20 16 16 24 30 10 21 31 29 29 21 33 23 24 13 16 38 16 10 13 13 24 14 9 20 9 23 27 27 17 17 20 17 37 27 14 22 14 19 24 24 27 26 23 21 14 14 17 37 13 20 33 26 22 34 27 29 13 30 27 24 10 17 34 6 20 19 23 28 37 22 21 20 23 26 9 14 20 27 24 22 24 30 13 21 20 23 20 20 12 22 10 17 10 10 28 18 31 20 17 23 13 27 12 17 28 20 16 17 20 13 37 31 13 24 13 17 21 9 23 13 20 28 19 31 24 30 32 23 19 17 31 28 20 13 20 20 14 20 9 31 23 40 20 17 17 31 28 24 17 31 24 33 24 10 17 17 23 17 13 23 24 40 21 17 3 28 14 6 30 10 7 18 17 13 17 29 23 27 7 23 27 17 20 21 39 9 30 14 16 9 21 21 23 27 23 30 20 20 7 28 27 10 3 17 29 3 10 30 28 24 20 23 17 17 10 13 13 37 13 21 9 41 21 26 21 24 30 41 34 13 20 20 20 17 31 26 13 30 11 6 17 27 23 10 24 27 20 17 23 21 17 20 10 19 17 13 12 28 3 10 16 10 3 13 17 27 23 10 20 14 28 34 24 16 30 10 20 31 21 22 17 22 20 19 31 19 24 19 26 20 26 14 28 24 14 27 7 10 17 23 24 34 13 27 16 10 12 7 20 16 34 17 17 15 20 13 24 27 21 30 31 27 22 6 20 38 29 23 10 20 27 35 24 17 40 25 16 33 13 21 12 27 17 13 21 11 20 31 13 27 27 14 20 6 22 12 27 22 37 17 30 20 21 31 34 12 20 21 14 27 23 14 30 13 17 30 16 26 14 19 27 20 20 38 21 24 14 22 27 17 14 19 16 10 25 18 17 27 14 13 30 10 20 16 20 24 17 10 17 24 12 17 14 17 30 27</t>
-  </si>
-  <si>
-    <t>GAM(126.23586544640449, -25.70900978437408, 0.37393183447297274)</t>
-  </si>
-  <si>
-    <t>23 19 20 20 28 15 24 22 21 21 25 24 14 17 26 28 24 25 25 14 17 19 25 20 21 23 23 26 28 22 24 25 21 20 16 18 20 19 23 18 21 17 17 24 20 18 17 27 17 22 23 24 20 22 26 31 27 27 21 26 15 17 22 19 26 27 14 22 21 16 24 20 28 19 24 20 18 21 14 22 20 23 21 14 25 15 20 20 21 17 21 25 17 17 19 21 21 18 23 22 27 18 22 22 11 24 20 18 21 20 17 20 17 14 25 21 12 17 25 21 16 23 21 24 21 26 22 16 28 29 22 18 24 12 14 19 17 31 24 22 31 20 28 17 23 28 20 22 22 20 17 30 17 22 18 17 23 25 15 22 22 19 21 26 28 21 16 24 22 20 15 19 20 21 14 21 28 15 20 20 13 18 19 17 23 20 24 21 24 18 24 25 26 26 23 26 20 23 17 23 21 18 17 20 17 14 24 21 15 21 26 24 16 23 23 20 25 21 25 22 17 19 18 17 20 18 19 26 18 28 19 24 17 26 18 18 32 23 11 22 12 26 27 15 19 22 24 30 33 13 23 16 28 19 20 20 23 21 14 28 19 24 15 23 22 23 30 24 24 12 16 18 25 19 20 20 17 19 18 20 32 19 19 27 22 20 20 25 31 15 28 22 25 14 25 18 21 20 24 11 28 26 21 24 16 17 26 23 26 23 16 22 20 24 23 21 23 20 26 24 17 19 17 23 18 21 25 19 22 19 25 26 19 19 23 18 28 30 24 18 15 27 19 21 19 17 21 20 19 21 27 25 20 22 23 25 27 20 24 16 21 28 26 17 20 14 28 25 15 22 23 18 16 20 15 23 25 16 24 27 19 13 23 20 25 20 20 26 22 20 23 20 24 23 22 23 14 25 27 21 25 21 21 13 22 25 20 26 16 21 21 24 26 26 27 10 20 20 23 26 28 26 19 23 20 23 22 21 24 16 20 26 24 17 18 23 31 24 24 14 26 23 16 25 31 17 24 21 23 21 21 26 24 33 17 16 22 17 25 17 16 25 18 21 27 20 20 19 18 15 18 24 24 28 22 25 24 22 25 15 25 28 31 28 25 19 28 20 30 29 30 22 29 19 23 16 24 13 14 27 19 25 23 25 21 24 16 21 20 30 23 23 23 26 15 24 19 14 24 24 21 29 19 31 21 23 23 27 22 25 27 22 14 19 12 16 24 20 16 21 12 17 23 10 26 20 21 20 14 19 19 20 20 29 22 20 20 20 22 23 24 22 14 20 27 20 26 17 23 27 18 21 28 23 15 24 20 19 21 19 20 22 31 24 21 22 23 24 18 31 19 19 22 14 21 24 16 22 21 25 22 20 25 15 20 21 21 16 16 20 21 30 27 24 22 19 26 21 25 20 20 21 28 27 24 22 15 16 18 23 22 20 16 20 19 20 27 20 30 20 28 22 18 24 17 20 20 28 29 21 21 25 18 32 21 15 26 22 23 20 19 20 19 17 23 15 18 18 27 26 24 24 22 23 30 26 22 25 15 19 21 21 16 22 21 20 27 16 25 32 21 17 27 18 17 22 19 18 16 28 23 26 25 20 28 19 20 21 31 14 14 24 22 22 16 19 26 16 17 17 22 20 21 25 18 27 19 19 19 18 27 20 25 22 14 28 29 20 17 22 17 15 16 30 12 21 26 26 32 24 13 23 27 17 17 25 17 28 14 19 27 24 22 25 20 25 25 29 20 17 13 25 21 20 23 25 26 16 28 21 19 22 24 26 18 23 19 23 18 20 20 20 23 27 22 18 17 17 26 20 26 17 22 31 29 23 21 13 25 21 27 15 26 17 20 21 19 21 22 27 28 25 24 26 20 23 19 22 13 29 23 21 18 21 23 24 15 20 20 24 22 24 19 29 21 25 19 27 21 28 27 14 20 22 18 16 20 20 21 23 29 27 23 25 22 18 21 20 22 30 18 24 26 20 29 26 19 26 20 26 22 18 26 23 20 27 20 24 29 19 18 16 23 19 25 15 27 26 18 17 20 24 20 24 24 20 22 24 17 28 16 19 20 19 20 23 24 25 16 28 21 25 26 22 19 22 30 27 27 21 27 22 25 15 23 20 28 20 28 19 25 24 25 21 27 24 23 27 22 20 19 14 21 13 28 21 21 15 21 26 26 21 28 26 34 18 16 22 23 19 20 20 34 18 26 20 17 21 26 24 25 20 15 23 18 19 9 16 15 17 18 24 23 21 20 29 25 18 18 24 29 20 26 27 27 21 26 23 20 21 20 19 21 17 25 22 12 27 15 17 21 19 15 22 18 21 23 20 26 11 19 21 26 9 22 17 24 24 18 19 20 17 20 25 19 19 21 15 24 20 16 22 18 26 28 16 19 27 27 29 25 16 13 17 24 25 21 24 22 15 17 27 16 19 25 17 14 17 23 25 18 25 20 27 24 14 24 21 20 25 19 17 16 16 22 20 19 23 19 25 19 21 24 20 19 23 17 20 16 21 25 21 17 25 28 19 27 27 16 25 25 28 22 16 26 17 14 21 15 22 21 33 17 21 19 9 17 28 19 18 20 24 26 18 24 20 21 23 22 21 22 25 22 31 22 16 17 26 17 20 24 20 23 21 21 20 19 18 23 23 24 24 26 25 23 20 22 17 18 27 27 21 19 18 21 27 19 22 19 20 20 22 19 16 22 14 27 16 21 31 24 23 24 21 13 22 25 17 17 20 15 23 25 23 28 15 19 22 21 18 20 18 20 17 17 21 24 22 28 28 22 20 25 24 30 24 30 15 16 17 21 27 14 22 23 15 20 24 23 24 15 25 21 18 30 18 22 22 27 28 27 26 25 22 26 27 21 22 21 17 24 23 27 18 23 21 22 23 23 32 23 24 27 18 16 18 18 22 23 22 27 16 22 22 20 30 18 18 20 20 24 22 18 15 15 17 13 26 15 24 17 26 27 24 22 20 11 29 20 20 28 14 20 17 27 20 23 22 19 20 18 20 19 20 15 17 24 19 28 20 22 17 24 21 22 23 17 21 23 21 26 14 21 21 22 26 19 26 24 22 19 26 21 13 25 21 21 17 24 22 24 16 16 24 27 22 23 22 17 22 25 19 18 19 22 24 19 16 26 20 31 19 24 16 19 22 19 21 24 23 14 21 13 24 19 20 15 21 24 32 25 20 27 16 17 26 26 24 17 20 22 24 25 19 22 17 21 19 21 27 25 16 24 17 30 18 21 21 15 27 16 23 19 23 13 17 18 19 20 15 22 24 25 26 17 24 22 23 19 20 21 19 28 19 20 27 22 35 18 24 19 19 16 19 20 22 21 22 24 21 22 24 22 16 20 16 19 22 19 19 15 27 10 16 28 21 25 17 21 30 22 21 25 19 17 17 28 18 18 19 23 18 16 17 22 14 20 17 24 21 12 22 22 26 20 25 16 19 15 21 32 28 29 22 24 24 12 11 25 21 25 24 19 16 19 21 24 24 23 19 30 17 18 19 20 27 23 19 22 19 23 22 12 23 24 18 13 18 22 15 27 26 25 22 13 27 24 25 25 16 15 16 27 19 22 27 21 25 21 23 21 19 23 18 28 24 16 25 28 19 20 28 15 17 14 16 22 17 27 21 25 22 28 19 14 23 16 20 21 19 17 21 17 18 22 15 18 15 23 30 20 18 19 20 18 19 21 24 24 17 21 20 22 22 20 24 18 25 28 14 27 17 18 17 14 21 20 23 22 17 22 27 22 31 31 23 24 21 20 25 20 16 22 22 22 11 22 19 26 22 22 23 20 22 22 21 24 19 17 28 19 25 17 20 23 24 22 22 21 24 19 18 25 20 25 25 22 17 24 30 19 20 19 30 26 22 19 19 28 18 21 14 21 18 21 18 29 23 28 20 20 18 17 15 32 15 32 27 21 16 19 19 22 22 15 22 17 21 13 25 20 29 23 28 18 25 22 23 17 13 21 17 15 26 15 24 17 19 19 20 19 27 23 22 22 23 26 18 24 28 22 19 21 19 17 20 27 16 22 26 24 19 20 13 24 22 23 24 21 25 22 16 31 21 18 21 18 24 20 23 29 23 18 13 28 24 27 19 25 20 19 23 22 22 21 26 26 17 22 24 26 30 22 15 22 20 23 15 22 22 19 30 23 17 24 22 20 24 21 21 24 18 15 22 16 20 22 16 17 12 18 20 17 30 22 22 28 24 17 28 25 21 29 20 23 30 21 17 21 24 25 20 20 22 26 16 26 17 23 32 17 25 24 27 27 27 28 16 25 23 20 29 21 21 27 22 23 19 27 20 20 17 21 20 15 31 19 19 15 23 27 17 21 18 24 17 18 15 23 15 20 21 22 26 20 17 23 19 26 24 13 11 19 17 22 25 18 15 21 21 31 17 14 24 22 24 23 21 24 28 24 23 25 27 26 20 20 22 20 16 23 24 18 19 17 19 20 23 22 25 15 21 20 22 24 23 19 15 15 24 21 23 20 29 20 23 15 27 23 25 27 26 18 15 22 20 27 20 22 18 18 22 26 28 25 25 27 24 26 27 20 22 21 23 25 22 19 23 19 18 25 21 29 23 22 15 25 21 16 19 15 23 24 20 17 13 18 23 18 24 24 17 22 23 23 19 24 20 23 17 23 17 23 15 23 22 26 18 24 20 26 18 12 15 17 17 18 21 20 19 18 27 16 20 24 33 21 19 25 23 25 19 21 19 24 29 25 22 24 21 18 26 27 25 16 28 20 22 23 21 24 14 24 20 24 20 23 22 19 16 19 24 26 19 23 22 18 17 18 21 19 16 16 17 19 28 27 21 19 25 22 17 23 24 16 27 22 26 31 19 17 22 28 20 15 20 20 19 19 22 22 15 20 15 27 23 19 24 18 26 14 24 20 21 22 23 21 21 23 22 15 17 20 21 30 21 21 25 17 23 25 28 22 20 20 23 26 17 19 25 17 21 24 19 28 19 21 23 27 25 21 24 23 27 19 26 24 19 19 17 16 20 27 17 27 17 22 22 27 25 16 20 16 24 25 20 17 22 14 26 21 26 21 22 23 21 19 19 24 23 20 20 18 18 25 23 25 16 19 23 17 16 21 14 18 15 22 15 28 18 27 17 21 28 19 16 23 27 24 23 23 25 25 18 18 13 22 22 22 13 21 24 18 27 19 27 18 19 16 8 21 18 26 22 26 21 22 24 19 26 21 27 26 25 22 19 22 33 21 24 21 25 25 19 24 20 23 14 19 24 12 23 24 23 16 18 14 22 18 21 22 29 21 16 19 23 28 17 24 29 25 17 21 31 15 15 23 22 23 20 22 26 23 24 16 20 23 27 20 18 15 13 21 23 19 24 10 14 25 18 17 25 19 13 16 21 22 21 18 17 22 22 18 23 16 15 24 15 32 22 27 20 21 26 24 21 24 20 23 22 24 19 17 24 22 17 23 28 15 24 27 20 16 24 28 30 20 22 20 17 21 19 24 23 23 26 22 27 19 26 29 24 22 19 18 21 19 20 23 25 31 22 18 18 22 22 24 27 18 30 27 20 22 23 19 20 26 19 19 22 28 21 17 18 21 21 21 22 16 23 31 25 19 25 24 29 20 23 23 22 27 21 19 24 30 21 22 20 24 30 20 18 20 21 19 19 21 30 19 27 31 28 18 21 24 23 22 15 30 19 23 22 15 16 16 19 20 20 18 28 24 21 27 24 16 20 24 32 20 21 26 17 14 16 18 26 27 19 25 25 30 30 31 21 21 12 19 30 17 23 21 21 19 25 26 25 19 17 25 31 22 18 23 23 19 24 25 15 19 27 21 23 26 20 28 24 22 18 15 24 16 23 21 17 24 26 18 16 23 14 23 24 12 19 23 22 32 25 23 16 15 23 15 19 13 15 24 17 20 23 21 23 18 17 27 16 27 30 11 17 14 29 20 25 17 20 23 23 22 18 22 23 23 26 20 20 27 15 21 19 25 27 17 21 16 19 20 16 28 28 20 22 22 26 19 23 29 22 20 17 24 28 20 22 29 15 24 20 25 24 17 18 23 21 21 18 24 17 18 23 25 19 16 22 21 23 14 19 19 29 14 14 19 14 22 23 22 32 23 18 28 29 19 24 19 20 26 17 24 28 30 22 22 17 24 26 16 30 19 19 23 21 24 24 29 23 21 17 23 26 22 24 25 17 21 25 17 21 22 17 21 16 28 18 21 22 19 29 24 20 16 22 20 21 29 26 19 22 30 18 17 28 26 21 19 22 18 28 19 17 19 24 24 17 21 22 16 21 17 20 19 18 21 27 13 22 19 21 15 18 19 23 29 29 28 22 24 18 26 21 19 18 13 19 23 17 19 24 20 24 14 32 34 21 23 23 27 19 20 22 20 20 19 17 24 28 22 20 24 26 20 18 26 21 17 19 20 15 23 20 27 15 22 19 13 24 22 22 31 20 22 18 20 24 20 25 18 16 17 19 21 25 20 26 19 23 30 23 19 24 19 21 20 15 24 20 22 19 18 26 20 21 24 21 28 17 20 16 22 24 16 24 13 21 25 17 26 18 15 17 18 14 21 19 23 23 22 26 15 23 26 18 30 17 22 23 24 23 22 16 24 23 13 19 26 24 20 21 22 22 16 13 20 23 26 21 25 28 25 21 18 20 25 20 18 19 25 17 21 24 31 12 21 19 26 23 19 26 19 21 22 18 25 20 21 24 17 19 19 26 17 21 17 18 18 21 16 18 26 18 26 21 19 24 18 17 20 18 24 25 21 15 26 20 18 26 15 23 17 21 21 25 29 17 25 21 19 23 16 20 21 21 23 34 19 16 15 23 19 24 23 24 24 23 20 28 23 18 22 18 30 20 22 25 24 25 25 25 25 23 22 24 20 21 24 26 21 19 25 22 24 24 18 16 23 23 22 28 12 22 21 18 20 13 27 19 17 22 20 14 20 24 23 24 13 22 22 24 19 11 23 15 29 19 23 16 20 25 22 25 23 24 25 23 26 21 21 24 21 18 21 24 19 21 15 17 21 23 20 20 26 11 16 24 21 21 25 21 17 17 22 23 16 18 22 19 20 20 25 24 32 18 20 16 22 28 23 23 18 21 24 18 25 21 25 15 19 17 10 21 29 20 30 22 25 14 26 27 21 23 24 17 26 21 22 17 14 21 15 21 18 25 20 16 22 16 18 22 13 25 23 23 33 16 20 22 18 25 21 27 15 25 25 31 22 23 22 19 26 20 21 25 24 21 20 23 17 16 24 27 29 24 35 25 17 16 22 25 26 21 17 18 26 24 21 14 20 28 27 33 21 26 26 19 27 26 25 24 31 20 24 22 23 16 28 19 23 29 22 24 25 22 24 26 25 17 30 21 20 28 27 18 21 19 14 26 25 26 21 27 23 15 20 24 20 24 21 28 20 22 21 31 15 20 27 17 37 16 15 22 28 17 24 23 22 22 17 25 28 30 22 22 15 26 22 22 19 15 25 23 27 22 20 20 19 20 18 32 25 21 22 22 18 24 20 25 21 25 23 28 22 22 25 21 25 20 24 22 17 30 23 26 18 24 24 20 21 16 20 20 19 30 20 15 15 14 18 22 14 14 22 34 26 15 20 15 24 21 16 23 24 25 28 21 18 24 23 27 23 22 24 17 17 19 26 15 33 23 25 32 30 18 21 26 16 21 20 24 19 25 18 25 21 26 20 20 18 14 19 29 23 15 16 25 19 23 25 23 22 18 30 19 21 20 21 20 18 17 31 20 32 21 14 21 24 27 15 26 22 22 29 20 22 18 27 25 22 19 20 26 20 27 25 16 21 23 22 24 24 21 24 25 28 17 23 18 26 25 24 21 24 17 19 26 20 21 23 14 22 18 26 20 20 20 21 22 21 29 21 28 23 12 16 21 14 20 19 26 30 18 24 22 12 23 18 33 25 14 16 23 27 20 17 23 18 20 23 17 19 15 21 25 20 21 20 27 23 20 16 23 24 24 21 17 18 23 19 24 20 14 15 17 15 21 23 18 17 25 25 24 17 29 26 14 31 19 18 22 24 18 27 28 20 28 20 28 32 25 11 24 28 22 30 16 23 28 27 26 19 22 20 21 22 26 21 19 21 26 23 20 17 16 23 12 23 25 16 17 25 17 24 20 22 19 22 27 25 23 16 16 17 24 25 20 24 23 21 22 29 13 15 22 23 19 23 20 24 23 31 16 22 28 21 17 16 27 26 22 14 22 23 23 21 29 14 23 25 24 24 16 14 17 18 16 23 23 23 24 29 24 24 29 24 23 19 18 22 21 23 20 15 23 25 26 25 16 19 19 21 23 21 19 20 19 29 18 17 22 25 22 28 24 18 22 20 25 19 18 21 24 30 25 22 30 13 22 24 20 25 26 16 20 20 21 17 21 21 23 19 27 22 19 24 24 25 15 17 27 25 18 24 15 25 19 21 21 22 32 17 19 25 18 25 20 23 23 32 28 26 26 19 33 19 20 18 20 23 31 17 19 12 15 20 15 17 21 18 23 27 28 22 18 17 22 28 22 18 21 27 27 20 14 25 20 18 31 18 20 18 27 21 18 18 15 22 19 23 15 15 18 22 18 28 24 17 32 24 17 24 19 28 25 20 21 22 18 28 37 19 17 18 22 18 17 23 21 29 23 24 22 23 17 22 21 21 19 24 23 23 16 19 20 19 25 26 21 32 17 19 20 23 28 18 23 22 20 15 18 18 15 20 30 12 28 18 20 22 23 15 19 21 24 21 21 20 22 21 20 17 23 31 26 17 14 22 23 20 18 26 22 23 21 23 22 20 23 17 23 16 19 24 24 25 20 25 22 30 19 21 15 19 25 18 16 12 31 24 21 27 21 17 25 21 22 15 24 24 22 21 21 27 21 23 22 25 24 19 19 25 24 29 19 27 20 20 18 20 21 26 20 27 14 16 24 22 25 27 13 24 24 25 23 22 23 16 24 27 23 25 25 24 22 28 21 21 24 22 20 21 22 24 25 21 18 21 21 25 17 24 22 15 23 16 20 19 21 16 27 27 19 15 24 26 27 22 24 18 27 17 19 14 20 21 22 22 18 23 23 20 16 19 25 27 24 25 20 28 27 23 19 22 22 24 23 22 25 20 20 16 19 21 24 21 15 20 22 17 21 20 23 21 15 18 20 14 15 21 18 20 21 25 17 21 19 17 19 19 23 21 19 23 21 22 27 19 15 33 18 27 19 16 24 27 24 14 24 21 15 19 21 16 23 25 19 19 23 20 19 21 20 22 17 28 24 19 27 21 19 16 23 24 22 23 22 23 17 27 19 19 30 18 21 19 24 18 18 27 19 26 26 21 25 21 20 19 22 24 31 19 25 34 24 21 27 17 27 29 23 20 20 17 21 20 21 19 21 26 18 20 27 25 18 17 19 23 21 21 20 17 12 21 20 21 22 15 18 25 20 15 26 20 25 24 21 19 23 12 22 25 19 17 20 25 27 21 19 17 21 22 15 18 23 28 21 17 25 26 28 30 23 31 23 21 32 19 21 24 26 23 12 24 25 20 13 25 30 20 16 22 23 25 16 15 26 14 18 26 18 20 19 26 19 18 22 23 23 24 24 24 23 18 30 15 19 20 19 23 24 18 25 25 22 19 18 25 26 19 16 23 26 22 17 17 20 22 22 15 13 23 22 28 21 23 22 23 27 20 24 21 27 17 21 18 21 19 19 21 23 23 27 23 23 19 26 20 17 29 23 18 24 24 19 21 18 21 25 15 24 19 18 19 18 29 20 17 26 25 15 23 15 22 22 25 23 22 23 22 21 27 21 20 27 25 21 23 21 25 23 25 18 23 18 22 25 18 19 18 22 18 24 27 29 29 23 21 17 22 10 24 31 16 23 22 21 26 26 24 19 17 26 17 21 23 30 28 28 22 21 28 19 24 24 18 22 18 23 20 21 35 24 25 18 24 20 26 17 15 19 23 17 24 22 17 21 32 26 19 20 24 20 29 26 24 21 25 19 22 23 21 15 13 17 19 20 22 22 17 25 18 18 20 18 19 18 15 23 24 22 18 16 18 19 21 27 21 19 16 18 22 15 31 27 21 30 16 16 26 24 24 14 25 20 20 22 22 23 21 24 16 26 22 19 21 23 25 24 23 24 27 21 25 20 21 23 20 22 20 23 15 25 24 14 20 22 25 20 23 21 22 29 17 24 22 19 15 21 16 22 19 23 21 15 20 25 18 22 21 16 20 21 18 19 16 23 35 17 14 18 18 25 24 21 21 23 17 24 27 20 19 23 16 25 20 24 28 20 26 20 22 20 17 20 16 19 23 26 18 28 24 19 20 21 19 25 24 27 16 30 28 26 23 19 24 21 25 23 16 23 22 12 23 21 15 21 23 19 20 20 22 25 27 25 21 17 27 26 24 17 21 17 23 22 26 23 21 26 22 19 18 24 20 19 15 18 16 23 22 19 26 19 23 21 26 16 31 16 15 23 23 18 25 17 21 20 22 28 15 21 18 23 25 18 19 29 16 18 28 15 24 19 13 20 20 22 12 22 25 17 21 18 22 19 22 18 24 28 28 31 19 33 22 31 17 18 18 22 20 14 27 11 18 19 19 12 27 24 15 22 28 17 21 26 17 23 29 17 26 20 26 24 20 22 24 18 19 18 21 16 19 17 25 27 29 23 20 16 16 20 21 21 20 20 13 15 20 20 16 18 26 24 28 17 20 26 16 22 20 27 16 16 24 22 21 23 18 25 22 17 31 29 19 26 26 21 19 24 21 25 31 28 21 20 20 21 22 18 19 24 28 19 22 25 22 18 22 18 27 18 23 19 20 26 18 31 28 15 28 21 22 28 21 15 20 20 30 18 15 13 26 18 23 19 19 19 25 18 21 24 20 18 22 19 23 23 27 22 29 14 18 20 18 23 17 20 31 22 23 19 18 20 17 21 16 23 14 21 16 24 24 21 23 23 21 29 26 23 21 23 16 32 17 17 24 20 19 27 20 16 20 17 30 29 20 26 19 25 23 24 17 19 12 28 24 24 24 18 25 23 25 18 21 26 25 24 25 25 15 18 19 23 24 22 20 18 18 22 23 22 19 25 21 18 18 18 21 17 15 25 19 22 17 21 16 12 20 19 24 23 14 27 25 32 19 25 20 26 28 17 21 26 16 28 22 17 25 20 16 24 22 20 18 21 26 20 21 21 26 25 25 31 21 21 22 16 16 19 22 20 19 15 26 29 12 25 18 24 15 20 19 19 17 21 18 17 20 29 18 18 23 22 21 29 26 14 18 24 19 17 22 23 19 19 23 15 24 20 19 23 21 19 12 18 19 27 23 20 32 24 26 25 21 26 23 25 27 19 20 21 18 25 17 15 20 26 23 24 26 16 20 13 13 20 17 18 20 22 20 15 17 19 29 19 27 20 22 26 22 23 32 19 24 21 23 17 17 23 21 21 18 24 23 25 26 20 22 22 20 24 11 20 38 19 21 18 17 20 17 28 23 19 20 27 20 23 15 24 27 17 26 27 30 24 17 21 25 18 22 18 31 21 27 25 18 20 29 27 25 18 16 24 30 22 24 21 21 24 14 27 30 25 17 15 31 23 25 29 26 23 15 19 31 18 22 20 23 23 28 17 24 23 20 17 21 22 21 23 19 30 23 29 16 19 19 16 24 14 27 15 20 22 17 24 13 24 19 20 14 20 28 14 25 18 19 27 20 22 23 13 30 23 22 26 30 24 36 22 22 16 20 27 30 28 34 13 20 24 18 16 30 26 17 22 26 17 30 16 24 22 26 25 13 14 21 22 14 19 15 20 13 23 20 19 21 22 26 17 20 20 14 24 21 24 18 27 22 21 19 21 17 27 23 26 24 19 22 27 19 22 18 22 15 20 19 21 27 19 17 23 17 23 16 24 25 21 21 21 30 21 26 21 18 23 22 23 28 27 17 23 19 24 23 16 25 14 16 28 21 18 25 25 30 22 22 28 21 24 20 30 22 20 21 20 17 23 22 21 21 26 21 25 19 21 22 18 21 22 20 21 26 14 23 13 24 19 21 21 25 19 19 24 24 21 24 18 24 16 20 18 21 27 12 20 24 13 25 19 29 26 21 20 25 24 31 23 20 19 26 24 25 23 27 14 24 18 22 20 18 16 20 21 23 23 21 18 24 19 20 28 26 24 16 16 28 24 23 31 24 20 14 19 29 21 17 17 19 27 17 22 21 19 16 25 19 19 26 16 18 22 23 15 18 14 19 17 11 24 19 17 16 21 15 22 23 27 23 20 21 21 26 27 18 21 20 22 19 30 16 22 19 20 19 25 24 24 19 27 27 18 22 15 16 21 18 28 19 21 22 19 20 21 22 21 24 13 26 24 20 22 14 22 19 23 22 22 30 22 19 16 17 24 27 19 24 19 17 24 14 21 25 27 11 21 19 27 23 21 18 14 27 27 29 19 20 23 17 21 24 27 20 30 22 22 21 19 24 21 20 21 28 19 23 32 22 21 19 21 31 21 22 17 28 17 20 16 14 21 25 18 25 14 25 20 24 22 21 29 20 17 26 23 26 17 19 22 23 27 21 21 26 23 19 24 25 21 30 28 26 13 15 23 21 18 20 20 21 24 20 19 14 26 14 21 14 21 19 17 27 21 15 19 22 30 23 26 31 26 16 25 25 27 28 25 24 19 21 26 14 23 19 16 22 17 20 18 29 28 20 29 13 33 13 20 18 26 26 23 21 16 19 29 23 22 19 27 23 20 22 19 31 17 26 26 16 24 25 20 17 29 21 20 22 30 18 16 20 17 17 24 21 16 23 17 19 27 20 20 26 18 18 17 24 16 27 25 23 28 23 29 25 26 28 17 20 18 26 23 23 18 24 31 19 17 26 19 17 24 20 24 21 28 21 25 19 24 19 24 17 20 23 22 25 25 18 18 23 25 19 17 30 28 28 19 23 16 24 18 27 26 19 25 25 11 21 22 23 20 21 21 23 22 27 25 27 17 23 16 22 19 22 22 20 14 23 28 18 22 22 24 18 22 23 20 23 22 27 26 23 24 28 13 20 21 30 23 22 23 25 20 18 28 24 18 19 23 17 16 18 21 22 28 25 16 23 24 30 23 24 21 24 22 28 24 24 19 25 25 20 17 22 23 21 25 18 17 18 14 17 30 23 22 23 21 23 26 19 17 27 18 30 16 23 23 24 22 25 21 21 18 18 21 20 24 26 20 20 16 24 21 20 29 22 26 23 21 25 24 17 19 23 20 24 18 13 29 17 19 26 21 19 23 23 20 28 22 14 22 11 18 17 26 23 26 12 24 16 25 30 25 23 21 19 34 17 23 23 20 18 26 29 25 26 13 16 13 22 25 20 23 22 22 24 28 20 17 20 14 22 21 24 25 19 23 24 17 13 25 24 26 24 24 18 21 20 23 19 25 17 19 18 18 26 20 31 15 18 12 19 14 23 23 25 22 24 22 20 22 24 18 26 28 20 23 24 22 22 25 21 20 24 22 23 13 21 23 17 33 21 22 26 24 22 20 20 21 20 22 23 19 18 31 18 20 23 23 15 19 24 16 13 21 22 21 17 34 16 23 27 19 25 30 16 23 19 20 21 23 22 25 19 23 24 20 23 20 19 14 26 16 18 32 23 19 16 23 21 20 20 23 24 21 23 30 19 22 26 26 28 19 15 19 28 17 27 17 18 21 27 20 21 25 20 23 27 20 27 23 19 24 28 24 10 25 27 23 24 30 20 27 22 15 20 25 21 27 20 15 21 25 17 25 22 22 19 22 18 19 23 24 26 23 17 18 19 25 23 27 18 27 13 25 24 27 23 23 19 33 23 16 18 21 15 16 25 12 22 18 22 26 20 17 24 22 25 19 28 17 17 16 27 20 16 21 17 24 25 24 22 16 14 33 22 21 24 19 27 22 20 26 23 24 27 23 11 23 19 26 15 17 24 13 24 23 23 31 35 16 17 30 18 22 23 34 27 25 22 17 26 21 23 15 15 18 21 21 13 23 28 21 21 30 29 21 23 22 20 20 28 20 15 19 21 20 22 21 20 18 24 23 18 20 22 21 20 21 21 25 21 20 26 25 21 22 20 17 17 17 31 23 27 22 30 20 31 25 24 19 15 20 18 30 24 17 20 16 14 22 21 20 22 18 21 20 18 24 23 29 16 18 25 26 24 20 26 19 21 28 20 24 24 31 23 22 22 28 23 23 24 20 18 20 20 21 20 29 23 27 27 23 19 23 16 21 28 14 18 27 24 25 20 18 28 15 16 28 17 28 19 19 20 28 16 20 27 18 26 17 16 25 22 25 23 18 26 18 23 20 21 25 22 19 28 20 25 22 27 20 22 24 17 26 27 14 16 16 19 16 23 17 27 19 23 26 22 20 18 22 23 20 18 22 20 12 20 12 21 18 17 24 18 17 26 17 17 16 19 14 16 19 15 22 21 18 22 22 20 14 23 19 22 24 21 18 24 15 18 29 19 16 22 29 21 18 22 28 17 19 28 20 18 17 15 18 19 19 17 24 30 20 19 28 20 21 21 15 24 19 17 22 18 24 15 16 21 17 25 20 18 19 21 20 22 19 25 22 19 21 19 17 20 19 20 23 20 23 18 12 22 25 24 29 25 20 22 27 18 16 18 21 16 19 29 22 23 19 14 22 26 22 11 22 19 21 26 19 23 14 19 19 19 22 20 24 19 17 20 20 21 20 32 19 17 21 23 21 23 24 26 16 23 25 20 25 19 22 20 22 21 22 25 25 24 19 21 20 23 24 28 17 22 20 28 35 20 19 23 25 21 22 27 26 28 27 20 24 17 15 19 22 17 26 16 24 20 24 21 28 22 20 20 11 19 25 12 16 25 23 27 26 19 19 16 23 21 20 18 23 23 23 29 30 31 23 24 29 27 20 23 14 25 22 30 20 26 17 17 24 16 17 20 10 20 23 18 18 23 23 23 22 23 22 18 27 22 19 14 13 22 29 23 34 25 15 12 24 17 20 24 18 20 13 25 22 18 25 19 21 23 24 27 20 25 21 20 21 21 31 19 20 24 23 17 27 24 24 23 20 24 19 28 10 28 17 17 29 18 19 29 23 21 17 28 26 23 28 24 15 17 18 25 23 18 27 16 23 17 23 17 21 21 22 21 20 20 22 21 21 27 25 19 15 27 18 19 18 22 25 16 25 21 19 23 19 20 16 20 24 19 21 15 24 20 22 26 19 29 18 19 23 21 16 21 18 17 22 26 17 30 17 23 24 23 17 27 28 23 23 24 22 23 21 25 17 26 27 21 16 25 23 25 20 16 21 21 13 29 26 24 21 23 20 17 25 22 26 23 26 25 24 24 22 18 24 17 21 17 18 20 20 20 22 25 27 17 17 22 18 23 25 20 23 24 20 25 26 23 25 23 31 14 32 33 25 17 22 21 20 20 24 17 28 26 25 24 20 25 22 20 21 20 18 25 22 23 19 18 20 19 17 27 21 12 20 20 21 26 19 18 18 21 14 21 11 22 19 25 24 19 22 19 30 24 19 19 30 32 23 23 20 16 19 23 21 23 19 16 18 17 15 20 17 21 17 24 25 16 20 22 25 20 27 23 13 20 22 23 24 25 24 21 17 22 24 14 16 25 26 23 24 17 18 15 20 30 10 28 27 13 20 29 20 21 24 18 21 21 25 28 31 27 17 24 17 18 23 17 21 21 17 27 23 20 19 25 25 16 21 22 22 24 16 26 18 18 22 16 26 28 20 12 21 15 20 24 24 22 20 20 20 20 18 24 13 22 20 21 23 22 19 26 20 17 35 21 31 17 17 28 17 21 27 28 21 16 22 25 24 24 21 23 18 22 19 21 21 20 20 25 26 21 20 24 25 15 18 27 18 28 23 21 20 20 34 28 21 19 18 25 27 17 34 15 25 23 21 24 24 16 22 21 17 20 23 24 17 17 27 27 16 18 24 20 25 21 21 24 24 20 19 21 18 15 21 23 23 24 20 22 16 23 20 24 21 25 28 25 17 22 16 22 21 20 19 21 26 20 17 23 21 12 17 28 22 23 20 20 28 19 25 23 22 18 20 23 24 23 22 23 24 14 21 17 22 24 19 23 21 19 25 24 19 17 22 17 19 25 23 28 29 25 29 14 20 26 22 19 22 25 21 30 19 22 13 23 16 17 22 16 22 21 17 19 29 21 26 17 18 21 17 25 20 24 18 20 23 22 25 33 23 22 30 22 23 13 17 25 17 17 17 25 19 22 21 24 15 30 20 27 20 26 19 24 24 29 24 19 29 19 25 22 18 27 28 19 31 25 22 26 26 15 21 25 16 24 20 23 15 28 25 22 27 19 18 21 29 24 15 23 16 16 22 18 28 18 17 20 18 18 15 20 27 28 27 20 15 21 17 23 16 20 15 25 17 20 20 25 25 17 25 20 24 20 17 24 21 18 21 25 29 22 22 25 22 25 16 20 24 20 25 14 21 25 21 22 28 19 27 24 25 25 26 22 28 23 26 15 21 22 25 23 24 19 19 19 27 25 19 29 19 23 21 21 22 13 27 23 18 19 14 23 19 20 27 21 25 16 22 17 18 17 22 21 17 24 19 20 30 16 18 21 26 18 24 23 26 30 25 22 24 24 20 21 22 22 27 20 20 26 27 30 33 25 24 20 22 23 16 26 16 24 22 26 19 18 24 18 27 19 19 17 22 29 23 20 23 30 29 14 21 16 18 20 21 16 18 20 25 20 22 16 19 16 20 19 28 20 28 18 16 19 24 22 13 22 17 23 27 15 18 21 25 24 16 25 21 11 22 21 16 19 14 23 27 17 19 20 24 20 22 23 24 29 19 18 25 25 24 24 30 18 23 23 23 25 20 25 14 26 20 26 24 20 31 23 25 20 25 23 28 30 20 22 24 22 24 20 25 20 18 23 24 19 22 16 28 28 22 21 20 16 27 31 23 23 19 15 24 29 19 24 29 30 20 24 26 23 33 19 21 24 19 26 19 19 24 14 21 20 14 23 18 26 19 30 17 25 8 21 19 24 17 16 26 27 20 13 22 20 21 17 17 22 19 17 21 20 28 22 23 11 27 22 16 14 33 21 19 15 19 25 33 21 17 26 28 29 29 25 21 18 19 26 21 23 22 19 16 11 14 19 18 19 29 20 18 27 21 22 20 12 25 20 24 14 21 23 21 19 26 19 27 16 15 29 20 18 10 22 15 25 19 22 17 18 14 16 27 22 17 18 23 17 19 21 20 22 23 27 22 23 16 29 18 17 20 31 23 20 20 19 16 18 25 26 22 23 22 15 25 23 26 23 19 26 19 10 26 19 17 14 23 18 24 24 28 19 18 26 18 17 25 14 29 22 20 18 25 18 21 14 17 20 23 25 21 20 16 24 19 30 21 22 21 22 20 27 16 19 15 22 22 13 20 18 17 16 20 26 18 22 20 18 18 16 19 26 17 24 16 26 22 20 23 24 20 20 16 18 22 26 27 21 16 28 21 18 26 18 24 19 27 20 19 19 23 19 23 23 26 18 17 23 15 19 28 24 26 23 20 15 22 9 19 22 16 21 23 22 21 25 16 19 22 19 22 28 25 28 31 18 23 20 16 16 13 15 22 18 20 21 15 26 14 19 17 17 16 25 23 27 32 28 21 19 17 27 16 25 22 26 17 19 23 14 20 16 25 25 13 22 30 27 12 20 24 26 28 17 20 30 28 18 17 25 28 17 23 28 18 22 18 20 22 16 18 26 21 20 19 25 21 21 17 23 27 17 26 21 19 16 26 28 15 25 21 25 17 13 25 27 28 28 21 27 17 26 24 23 23 23 24 21 15 23 18 25 26 30 21 31 26 19 24 20 19 24 25 25 24 20 23 30 17 26 21 27 21 25 22 25 24 19 24 25 21 15 25 26 26 21 15 25 14 15 18 23 20 18 19 16 20 20 22 16 19 30 19 15 20 23 23 21 28 34 24 19 23 16 30 31 13 20 16 21 25 27 17 22 26 20 37 17 25 13 24 15 25 24 15 26 27 22 23 21 34 25 20 20 22 22 21 21 16 23 16 25 26 16 26 17 32 31 20 15 16 16 25 22 22 24 20 20 23 18 25 27 25 16 15 18 18 16 26 18 20 29 23 20 26 22 25 23 17 17 18 14 23 13 19 18 20 26 16 26 16 19 15 17 15 19 13 28 20 19 33 17 25 21 23 23 30 21 17 21 27 19 24 22 20 22 19 24 23 23 23 19 22 25 18 22 22 23 24 17 19 17 15 16 23 22 26 19 24 25 28 15 23 22 17 16 21 22 16 16 21 24 21 19 17 24 23 17 25 25 24 24 19 23 24 21 15 25 22 17 20 19 23 20 25 24 18 23 24 27 23 23 23 16 20 26 25 26 22 22 23 19 23 23 16 18 24 24 16 16 25 20 30 15 22 26 17 19 21 23 20 23 22 22 23 23 11 24 25 18 20 15 22 22 29 24 16 27 25 13 22 15 19 22 24 18 17 17 27 22 23 26 27 34 18 24 26 19 15 27 32 22 19 19 27 13 15 16 22 21 14 16 20 25 24 17 22 23 20 27 25 19 27 24 19 13 20 17 23 24 16 19 21 18 29 26 19 27 24 27 20 21 15 15 23 18 21 21 16 26 23 30 25 20 24 27 18 23 23 35 24 26 26 23 17 23 19 27 28 15 19 26 20 29 24 21 20 21 19 21 20 18 21 25 16 21 27 19 25 23 29 21 26 24 19 23 26 19 24 25 18 28 23 22 27 22 20 25 24 18 27 14 25 20 21 14 21 17 25 20 15 26 21 24 17 21 24 22 27 27 22 24 23 19 28 19 17 11 18 19 24 26 16 23 21 20 17 19 23 22 18 29 25 20 19 26 23 20 26 23 22 28 23 21 26 20 23 25 24 22 13 30 23 20 15 16 24 23 26 16 22 21 19 18 26 34 26 25 22 19 22 16 25 22 23 25 22 16 30 22 20 24 21 27 19 25 24 29 28 35 23 22 22 25 31 17 22 17 19 16 22 22 23 28 17 21 27 25 23 21 20 18 17 19 21 20 18 23 19 18 24 14 20 23 20 24 15 25 22 28 23 22 21 25 15 21 15 27 26 22 19 25 28 15 26 25 28 24 25 19 25 19 27 22 24 25 19 25 24 23 18 18 16 16 16 18 20 18 15 27 14 22 20 18 26 27 28 18 33 24 24 20 25 30 29 19 20 19 16 18 23 24 20 18 20 19 26 25 18 19 21 21 20 23 14 18 23 28 16 23 17 18 16 26 25 24 17 22 20 13 20 20 22 24 16 22 21 20 18 15 26 21 20 25 21 18 30 21 17 23 24 13 27 23 22 20 21 24 16 37 23 20 20 15 23 24 20 24 20 20 33 21 19 20 12 24 24 24 24 21 22 27 27 25 26 23 14 23 26 20 27 24 19 21 20 23 22 23 29 24 25 22 24 25 21 31 21 21 16 21 27 21 27 21 16 25 23 17 18 29 19 22 19 27 19 19 21 22 19 20 19 19 18 21 21 21 14 16 20 23 19 24 16 18 19 18 21 22 18 21 18 17 24 14 19 14 20 29 24 29 23 26 25 17 14 22 20 21 25 23 17 18 23 21 24 22 25 27 25 27 22 16 20 18 19 24 23 16 24 27 21 22 20 16 25 24 15 31 23 24 23 28 20 19 25 17 21 21 18 17 20 20 22 21 24 23 27 23 19 24 27 18 12 21 22 28 22 18 12 23 26 19 26 18 24 31 25 17 22 25 22 24 20 27 20 23 21 15 22 20 24 25 23 25 19 28 25 21 21 18 17 20 19 32 22 26 24 16 19 27 25 23 21 26 18 18 22 26 28 17 23 16 20 19 22 18 22 18 21 15 22 16 21 32 15 22 18 23 16 19 19 21 20 27 16 33 21 16 26 27 19 18 21 27 25 31 23 19 20 25 16 26 21 20 18 18 23 23 18 24 16 21 18 25 24 19 19 23 25 20 20 24 19 18 23 20 19 25 25 27 20 20 22 17 16 25 24 20 28 22 13 18 22 21 26 13 22 16 24 26 22 26 19 21 25 24 16 28 23 26 19 30 21 19 24 18 18 31 25 24 28 23 28 20 18 20 20 14 32 17 27 23 16 22 25 24 15 16 22 20 19 18 24 18 25 23 20 28 17 25 23 23 26 17 20 17 22 23 18 23 16 24 16 12 18 22 19 22 20 24 27 20 27 28 24 28 27 26 20 14 22 13 20 15 17 19 22 27 27 24 23 22 22 22 24 20 19 17 23 19 22 24 18 22 22 27 20 26 17 20 23 22 24 20 19 19 24 28 21 26 23 28 24 15 9 24 22 26 17 23 21 26 19 20 17 32 15 11 22 28 22 25 23 20 19 29 25 24 17 26 22 24 25 19 22 30 25 14 21 29 24 23 23 26 26 19 20 23 18 23 17 29 25 31 20 24 26 18 24 19 25 21 27 24 13 18 18 23 26 22 23 23 19 15 25 21 20 13 27 19 24 18 21 25 26 35 17 30 27 24 30 21 15 16 24 34 23 23 25 20 22 24 17 15 15 24 22 25 18 21 12 20 19 21 29 23 23 19 18 22 23 32 26 27 26 16 13 15 16 23 21 16 19 20 27 28 28 23 13 22 18 14 23 28 28 13 20 12 25 27 26 22 21 22 19 17 21 20 17 25 22 24 26 23 15 20 26 20 22 18 19 20 17 22 24 21 18 22 22 23 25 17 23 19 21 17 19 23 29 21 24 22 25 28 22 26 23 25 24 19 27 16 20 23 21 11 19 19 25 27 23 16 23 33 21 18 19 20 22 17 27 25 18 25 23 20 23 21 13 23 21 20 22 19 29 27 23 18 24 26 15 18 27 17 19 28 17 18 20 22 22 15 19 21 20 15 20 16 22 23 24 18 16 23 19 16 18 30 21 22 19 28 19 23 20 22 20 27 17 23 26 21 17 20 16 22 19 29 22 19 20 21 22 21 17 28 20 22 24 19 25 20 24 23 17 33 17 25 19 25 18 27 21 19 28 20 19 20 19 15 23 12 18 26 16 21 23 20 21 25 16 24 27 19 22 19 21 16 17 22 18 16 24 26 16 20 21 22 26 30 18 23 25 22 13 17 20 19 20 25 22 24 21 23 25 23 24 20 13 22 21 20 22 19 19 20 27 22 19 19 15 17 27 23 15 20 24 29 23 22 21 22 25 19 20 16 23 25 18 20 26 23 19 23 28 27 24 23 8 22 29 29 19 19 21 19 23 23 22 18 14 14 21 17 17 20 19 21 15 15 18 19 27 15 24 14 23 21 22 17 28 17 29 25 29 25 27 20 28 27 21 20 24 24 19 27 25 19 22 23 20 23 33 15 18 15 20 30 21 27 27 9 22 25 22 27 24 20 20 26 20 27 20 22 19 18 17 16 28 26 19 26 33 14 21 24 19 26 16 17 19 20 26 27 15 28 17 28 22 39 23 25 22 22 23 21 17 18 20 28 24 15 28 14 17 21 24 14 24 25 21 19 21 19 19 27 17 26 17 21 18 29 21 26 21 16 20 22 21 23 22 22 28 18 18 22 24 22 18 22 21 27 13 20 21 18 25 25 17 25 24 19 18 19 18 23 23 17 18 24 23 21 28 11 18 18 22 22 16 17 17 22 24 27 19 16 24 23 23 21 21 23 28 22 24 16 19 17 29 22 19 24 28 21 24 24 19 19 27 18 21 16 25 31 19 17 18 20 18 29 20 18 23 19 20 16 21 18 19 22 19 18 25 17 19 27 23 19 21 22 22 17 11 26 20 19 28 27 23 23 23 18 25 15 22 24 25 23 20 20 20 34 20 12 28 18 17 23 21 23 13 17 21 18 22 17 21 25 23 18 16 21 22 21 22 11 17 26 20 17 24 25 22 18 21 17 28 25 16 15 23 24 27 20 19 23 12 17 25 15 18 20 19 22 17 17 16 15 14 26 23 18 26 21 26 18 22 18 26 25 18 20 29 19 27 26 14 21 23 20 11 18 22 19 27 18 22 18 26 14 19 21 29 13 19 23 20 19 22 16 25 20 20 20 21 14 13 16 31 18 18 16 21 22 19 27 27 26 33 26 23 16 22 17 20 31 18 18 17 17 16 16 28 19 20 22 25 28 21 21 17 23 26 26 19 20 16 14 21 20 21 28 19 25 18 18 22 21 23 26 19 25 26 24 22 18 23 22 20 20 22 20 19 14 29 16 26 30 24 24 22 28 17 29 21 16 26 18 13 26 22 19 24 24 21 22 21 15 13 23 21 11 19 19 23 20 17 22 34 19 19 19 27 27 22 18 27 22 28 24 19 19 20 31 24 26 23 27 23 19 22 13 21 16 13 16 17 20 28 18 23 22 16 20 20 26 20 23 21 17 14 24 16 21 27 22 19 20 19 16 21 24 25 18 16 14 27 12 18 21 23 19 21 28 22 19 18 23 24 26 20 24 21 18 18 24 20 20 22 15 21 29 18 29 22 11 26 19 26 17 31 22 22 16 25 26 22</t>
-  </si>
-  <si>
-    <t>GAM(57.081311683329346, -10.012214429824622, 0.7268125551880815)</t>
-  </si>
-  <si>
-    <t>28 27 27 29 37 32 36 33 27 36 38 37 28 27 41 37 36 33 39 22 28 32 36 27 36 36 36 35 44 32 31 32 25 28 29 29 35 26 24 28 35 29 27 34 30 25 26 33 35 26 29 32 31 30 36 40 39 42 31 35 30 24 39 34 34 37 27 30 29 21 36 23 44 25 31 27 27 37 25 34 29 33 31 31 32 23 34 29 26 30 31 38 31 33 30 32 33 28 32 34 34 28 32 29 20 31 39 35 31 35 31 32 29 24 36 31 26 24 36 35 28 36 32 33 29 41 34 33 34 44 32 31 31 22 21 35 23 42 29 27 43 34 38 24 35 33 36 29 27 31 25 41 26 32 28 21 34 41 21 29 33 32 28 32 41 29 23 39 27 25 31 29 42 32 18 28 43 26 30 29 23 24 30 30 37 25 33 33 31 29 35 39 35 40 35 34 36 28 33 31 32 24 26 37 38 23 34 31 27 30 34 36 23 36 31 30 32 34 37 31 25 26 26 24 25 30 27 34 26 42 27 35 28 39 31 27 41 29 19 32 21 35 38 25 23 27 33 36 43 23 26 25 35 28 23 25 35 26 25 34 25 36 23 34 27 33 40 33 37 19 22 26 37 27 33 35 23 34 26 33 41 25 31 39 32 36 37 33 42 25 44 31 36 34 34 26 30 29 29 24 38 37 28 34 27 33 38 30 36 32 22 27 29 34 31 27 30 32 37 36 22 26 32 35 32 29 36 29 28 32 31 33 33 30 27 28 40 36 30 31 20 43 32 30 27 28 38 28 28 33 34 38 30 31 35 35 35 32 30 28 36 38 37 24 25 17 36 30 21 33 32 31 30 34 25 31 40 26 35 36 26 22 31 36 37 32 33 33 35 25 27 28 34 31 31 33 21 37 39 33 37 30 33 22 37 36 38 38 24 25 28 33 38 36 34 23 34 38 34 36 38 36 31 35 35 45 33 26 32 22 30 33 35 25 35 31 38 30 30 23 34 31 26 33 43 24 32 29 36 34 32 36 38 44 24 25 32 30 34 32 26 40 26 27 32 31 37 30 24 24 26 34 28 34 28 32 36 29 40 26 38 36 38 42 34 29 37 29 43 38 44 32 37 24 32 23 36 25 26 40 34 36 36 39 32 35 24 25 30 42 27 37 33 36 23 35 27 26 40 30 29 37 32 38 29 33 34 37 30 33 43 39 28 25 20 20 36 31 31 30 20 24 32 21 33 30 32 34 19 26 27 30 27 39 36 28 27 31 34 35 39 33 28 26 37 33 35 34 34 33 26 32 39 27 21 35 34 31 33 26 33 29 40 41 34 26 30 33 29 43 27 28 36 25 34 42 28 38 35 30 35 33 36 31 27 30 32 25 33 33 33 36 40 34 32 24 35 36 43 25 29 35 33 37 35 30 23 22 27 32 26 28 28 28 38 36 40 32 40 30 36 25 34 28 29 29 27 42 37 34 30 33 23 43 31 26 42 29 32 33 24 32 30 23 34 23 28 26 34 42 33 33 30 28 49 35 33 33 22 34 30 29 25 30 32 32 39 26 30 51 33 26 43 30 28 37 28 25 23 35 42 38 40 29 38 28 32 31 40 25 19 33 36 33 24 31 38 20 21 24 34 32 28 39 34 37 33 29 24 35 38 30 32 30 27 43 36 32 29 38 28 30 25 38 25 29 37 36 44 34 20 40 36 30 32 35 24 40 23 25 34 34 33 35 28 34 36 43 28 18 28 34 29 29 39 34 33 24 41 30 32 30 32 41 26 32 26 36 23 31 33 32 36 36 30 32 27 26 41 29 35 30 29 41 47 35 26 25 36 34 39 26 41 24 36 34 28 35 30 34 38 35 33 36 29 38 31 28 21 40 35 30 31 32 35 33 23 32 38 31 36 29 31 37 28 31 30 33 31 37 40 24 36 33 25 26 28 33 26 33 43 36 31 35 27 23 32 35 31 44 28 34 35 32 37 35 34 35 32 30 29 28 38 30 31 33 36 36 43 27 26 26 31 24 33 26 38 34 22 22 34 33 30 34 35 30 29 29 32 40 31 26 30 22 30 31 37 37 23 38 31 39 31 41 23 30 41 36 46 28 33 29 34 34 33 29 41 28 38 34 32 43 29 31 40 35 35 30 35 32 32 25 34 17 39 27 30 25 46 32 30 29 36 39 40 31 23 30 28 25 28 32 42 32 41 26 23 29 38 36 33 25 32 32 26 36 21 24 26 23 27 33 33 35 25 36 29 30 31 31 38 30 34 39 33 33 41 35 31 28 32 28 31 24 33 31 23 37 23 33 37 28 23 33 27 27 33 35 30 25 33 32 35 18 33 27 37 28 25 26 37 27 32 40 34 23 37 23 34 28 28 38 26 35 37 26 25 36 34 39 37 28 19 27 33 29 27 33 38 27 30 45 24 25 31 28 19 26 30 34 19 30 29 42 32 18 30 26 30 39 30 27 27 24 29 30 27 35 28 31 30 38 36 28 30 34 26 33 29 30 32 43 23 36 38 29 35 34 27 30 31 35 32 35 41 27 27 32 29 31 36 41 25 27 30 18 27 42 37 25 36 31 36 21 37 33 32 29 34 27 29 36 28 43 32 26 34 41 37 26 33 28 37 35 31 29 23 27 31 35 35 35 37 36 31 28 33 25 31 36 34 29 26 25 36 37 23 32 28 28 27 36 27 21 30 25 42 28 27 41 25 36 30 26 22 29 35 25 28 31 25 29 33 31 38 26 27 37 26 30 35 32 25 30 23 33 37 30 36 42 29 30 37 34 39 31 41 22 27 28 32 34 23 30 34 22 27 34 31 30 23 33 30 22 41 24 31 37 34 45 42 32 35 30 33 42 35 31 30 25 34 31 32 27 40 32 33 32 36 44 33 36 35 26 27 30 29 32 30 34 36 30 35 32 30 39 28 28 40 25 33 41 22 24 24 25 21 34 24 41 26 36 38 34 34 31 21 35 30 32 35 25 23 24 45 28 36 28 30 29 36 27 28 28 25 26 35 31 38 29 32 20 31 33 29 30 29 32 31 26 36 24 30 29 30 30 28 37 30 38 29 34 33 24 31 25 26 29 38 31 32 25 28 36 42 46 35 30 28 31 31 30 29 30 36 35 28 29 40 22 49 32 36 24 28 31 32 31 35 34 18 26 19 30 28 34 29 32 41 46 38 28 36 21 32 40 36 33 27 39 35 36 35 24 33 26 29 26 34 37 42 25 29 28 35 25 27 35 31 35 25 41 29 31 21 22 28 31 26 17 35 34 41 36 23 39 35 29 31 35 33 30 40 23 30 37 32 49 28 38 28 31 24 27 32 30 29 29 36 29 35 33 34 32 31 27 32 35 28 30 30 34 25 25 36 35 36 24 35 40 29 40 31 31 24 26 40 27 29 34 31 25 20 29 25 22 35 29 37 27 18 35 27 47 27 39 22 31 23 28 41 36 47 30 37 34 27 22 36 34 33 36 30 23 29 34 36 27 32 31 40 28 31 28 28 33 38 32 37 28 34 30 22 36 34 21 23 24 30 21 35 32 35 29 25 34 38 37 33 20 22 34 40 32 34 36 27 37 31 36 31 26 28 29 40 36 23 34 40 33 29 43 20 29 23 28 30 26 36 37 35 32 33 29 22 26 23 32 34 33 24 33 28 26 31 30 20 24 38 42 28 24 34 36 26 27 34 35 37 23 33 37 35 30 30 36 24 35 39 21 42 28 26 22 21 36 29 40 34 32 31 34 33 41 51 35 32 35 24 35 31 22 45 30 38 26 29 36 37 35 31 37 26 29 32 24 33 27 28 40 29 31 24 26 34 37 28 23 30 33 30 27 38 35 35 41 26 25 37 37 33 30 24 38 35 31 33 31 38 23 27 26 35 31 29 25 48 29 46 27 36 27 28 23 39 27 37 32 31 30 26 25 31 32 31 32 31 28 24 37 29 41 38 37 29 38 28 31 35 23 29 34 23 35 31 46 27 33 31 30 29 39 28 35 26 31 37 23 39 40 42 24 42 24 26 31 33 25 33 33 37 29 31 25 35 32 35 30 26 32 31 28 41 29 30 34 28 42 30 33 39 37 26 22 35 33 33 31 32 30 24 33 34 31 36 33 31 21 30 33 37 42 30 27 28 29 34 20 37 30 20 41 33 25 36 31 29 37 38 30 36 27 27 33 25 26 28 22 28 28 24 29 28 41 31 27 38 29 29 41 31 27 41 33 31 46 34 24 26 36 32 31 31 32 32 24 31 24 24 45 29 29 36 41 34 37 35 29 36 29 24 36 31 33 33 29 28 31 36 23 35 27 29 30 26 47 33 22 22 35 32 30 28 28 30 24 27 25 30 21 26 33 26 36 25 25 40 27 32 36 22 26 24 24 32 29 28 28 28 29 38 22 26 38 31 31 34 30 38 38 33 31 36 44 34 28 32 30 29 30 34 31 25 32 22 25 32 33 29 32 21 35 24 34 35 27 33 23 30 38 27 32 30 41 28 31 25 46 29 36 40 37 22 30 28 29 39 29 36 30 28 36 37 34 34 34 34 35 36 36 34 30 34 30 37 31 30 38 33 25 33 30 36 39 39 23 33 33 33 28 25 35 34 31 28 17 30 37 32 34 34 30 32 33 32 24 34 27 35 26 28 34 31 23 32 34 39 26 36 30 37 32 16 25 33 23 24 31 28 26 28 36 29 26 31 41 33 30 30 27 31 36 29 27 32 35 34 37 35 29 27 36 37 29 19 36 27 24 37 32 29 22 33 32 34 30 34 33 29 21 28 36 32 29 32 36 34 30 27 28 30 27 27 22 26 33 37 34 28 37 28 27 32 30 29 37 34 34 37 30 25 34 36 29 28 33 25 33 29 28 38 32 29 28 39 32 28 34 38 34 34 30 34 36 35 34 28 30 38 38 22 24 28 29 35 29 36 33 23 35 37 37 35 30 29 35 35 30 30 33 22 31 33 29 36 37 29 36 41 31 31 36 27 37 30 30 33 28 28 31 28 36 35 25 39 25 32 41 40 33 25 31 23 35 38 30 25 39 24 35 30 35 27 31 28 29 28 31 29 34 27 31 31 27 34 30 42 23 31 32 28 28 31 22 26 23 29 20 39 24 38 25 28 43 30 21 36 37 41 35 33 37 34 22 34 27 37 39 34 20 29 31 27 37 25 38 31 24 28 16 31 26 40 35 34 35 31 29 26 30 28 37 43 40 32 27 29 48 30 36 33 37 39 31 41 27 37 27 36 35 20 30 30 36 32 28 21 29 33 31 31 38 32 22 24 33 39 26 44 45 37 25 32 41 25 24 38 27 39 29 33 34 31 35 24 31 32 34 33 31 26 26 27 27 32 34 20 20 31 32 28 36 30 24 29 28 35 30 25 20 30 30 29 27 25 26 31 25 38 30 37 28 31 34 28 37 34 24 33 30 40 29 32 31 29 30 32 37 27 28 43 26 26 36 37 34 31 33 35 21 29 33 30 31 35 32 33 34 29 32 33 33 42 28 27 32 24 29 31 34 42 30 27 28 28 27 34 37 30 43 33 30 31 38 29 28 41 28 32 26 44 28 35 31 30 36 31 30 22 36 46 32 30 43 40 42 34 28 30 29 40 30 30 42 34 24 29 35 37 39 26 25 26 31 29 30 30 33 27 40 47 41 26 34 37 29 31 22 38 34 34 31 29 27 29 28 27 35 37 38 30 31 37 30 20 29 35 44 29 33 36 21 25 28 30 33 37 27 34 33 40 44 39 34 31 18 30 36 34 37 26 36 33 29 38 33 25 27 31 41 27 24 32 40 29 32 37 25 29 33 30 32 39 32 37 31 32 26 27 34 26 36 30 25 37 35 24 27 40 23 36 38 25 31 30 35 39 32 32 21 25 31 24 25 29 22 31 26 29 27 36 31 24 31 37 24 36 41 23 23 33 39 22 40 32 30 30 32 34 29 29 33 29 33 33 28 33 23 30 26 41 35 21 29 24 29 26 25 37 39 28 29 32 45 28 27 38 28 37 24 40 42 24 35 39 29 30 29 38 34 28 29 30 37 28 26 34 22 28 35 36 28 26 32 31 33 27 36 33 37 24 25 34 21 40 33 34 42 37 26 36 43 24 28 35 28 32 33 28 32 44 36 36 26 34 38 25 38 28 25 36 32 31 36 35 35 37 27 28 30 35 42 37 24 32 34 26 33 28 24 28 29 38 26 32 38 29 36 31 26 30 28 31 27 35 38 29 40 40 36 28 38 37 29 29 37 29 43 31 28 29 35 36 31 32 34 28 32 27 32 36 27 38 36 24 28 27 33 25 28 33 33 53 38 38 29 34 29 37 28 32 27 25 27 31 29 26 35 32 36 18 42 46 29 33 35 36 27 29 33 30 28 28 36 35 35 32 28 34 36 28 26 36 33 24 33 31 32 26 32 35 18 30 33 24 33 31 31 41 36 32 25 32 34 33 39 29 25 32 31 24 32 34 35 27 29 39 30 30 35 25 30 35 22 41 35 28 26 24 29 27 30 33 34 43 29 28 31 32 30 30 35 25 30 30 23 37 31 19 28 25 19 30 24 33 32 28 37 23 30 34 27 34 25 32 34 36 34 30 19 33 39 19 37 40 29 30 29 32 35 23 21 29 28 38 33 30 42 35 30 24 26 36 24 24 27 36 27 33 34 35 19 31 34 42 32 25 32 30 42 29 31 35 31 31 38 25 32 31 35 30 40 27 24 32 33 24 26 41 35 33 25 30 32 28 31 27 35 32 34 31 26 36 31 36 36 21 34 21 28 31 35 39 28 33 33 36 31 32 33 31 34 33 44 31 24 24 31 23 39 31 37 39 31 34 34 32 26 33 29 41 26 29 34 35 37 40 41 32 36 30 34 26 30 36 37 27 29 37 28 31 32 23 28 31 30 31 38 28 31 36 25 23 22 41 21 24 34 27 22 39 35 29 33 31 28 26 34 33 19 33 28 41 27 31 25 31 37 28 38 33 34 29 32 37 31 36 36 29 30 25 28 31 33 23 23 36 38 27 29 30 17 24 32 29 34 32 36 32 33 31 38 25 30 32 27 33 25 36 38 49 25 34 23 34 37 37 32 27 32 37 21 36 35 43 29 23 22 18 33 39 26 39 32 32 21 35 49 30 30 28 29 38 31 31 24 30 31 22 28 23 29 33 26 33 33 23 26 20 39 31 39 42 24 30 28 27 37 29 38 22 35 32 43 43 31 32 30 44 26 28 40 38 36 29 40 30 29 38 40 40 33 53 36 21 31 31 39 35 24 31 26 38 36 27 24 33 39 35 62 31 38 35 29 34 35 31 37 44 28 29 32 34 31 36 31 35 41 27 32 33 39 30 34 35 28 36 25 29 31 40 30 26 26 27 34 34 38 27 38 35 30 31 42 34 33 31 43 25 34 32 42 22 25 45 31 47 23 21 33 36 24 29 32 32 34 27 32 35 44 30 36 23 35 29 34 27 26 34 31 32 40 32 26 26 33 29 38 37 30 30 29 28 34 30 38 27 35 33 43 28 35 36 34 35 35 36 32 25 35 32 34 28 43 35 28 29 30 29 31 24 40 33 20 24 24 30 32 17 27 34 41 36 23 30 21 34 35 31 31 33 38 35 30 30 29 30 35 35 38 32 32 30 34 32 25 38 30 39 36 41 25 35 34 39 30 36 32 25 36 31 37 34 32 24 27 30 19 27 39 30 21 24 34 28 32 38 31 29 29 43 28 35 29 36 28 29 24 44 32 43 26 24 32 33 33 25 34 29 30 45 31 34 26 37 37 33 25 31 35 33 47 37 25 32 29 32 36 32 30 39 35 40 19 30 27 36 32 32 32 35 29 25 31 30 32 33 25 29 32 37 32 33 31 35 37 27 38 33 43 35 24 26 32 19 27 34 36 36 29 32 33 19 37 27 42 33 31 26 35 44 30 26 30 29 34 31 25 24 24 35 33 28 29 29 34 31 25 22 38 37 33 27 28 29 27 33 34 27 26 23 32 25 28 34 28 28 35 35 37 29 37 35 32 44 33 26 31 29 28 32 36 31 36 30 43 40 33 21 36 33 36 35 27 29 38 41 33 25 33 30 33 32 31 33 25 29 35 29 25 28 22 31 22 32 32 19 30 36 27 40 33 26 30 31 37 30 35 28 29 32 29 35 26 35 33 28 29 44 23 23 28 33 32 33 33 36 30 37 27 32 35 29 28 26 44 36 30 25 37 34 39 28 36 22 34 35 31 32 26 21 27 31 31 34 34 31 27 48 35 37 46 38 32 33 27 25 32 28 26 25 32 38 43 35 29 31 32 31 33 33 24 30 29 42 25 28 40 28 29 39 38 25 28 31 34 31 26 31 28 43 32 38 38 22 35 31 32 36 36 20 28 31 32 29 24 31 36 25 37 30 34 33 32 35 25 32 42 35 30 31 20 39 26 34 35 33 41 28 31 41 25 38 41 32 35 37 36 32 35 23 47 27 32 28 23 35 45 29 29 31 25 28 23 29 38 23 30 37 39 30 27 25 28 41 31 30 26 34 40 30 24 42 29 33 40 31 29 25 43 32 28 25 34 31 27 28 23 27 26 37 28 35 37 25 44 34 30 35 28 34 39 30 28 29 28 31 52 30 29 27 30 26 30 34 30 35 32 37 35 37 28 31 30 31 29 31 34 30 26 31 29 31 28 39 26 39 25 29 34 32 39 30 34 30 32 25 25 27 24 27 39 21 39 25 31 37 34 32 29 28 33 27 30 26 37 30 28 27 37 39 37 33 23 35 32 40 27 38 32 40 29 38 36 30 36 23 30 22 29 32 32 37 31 31 36 43 24 36 23 26 32 31 29 28 39 30 26 35 26 29 44 26 34 31 36 35 36 28 30 34 31 30 32 31 37 34 29 29 34 34 28 37 30 32 30 34 29 30 34 38 23 24 33 32 35 33 28 41 39 37 25 25 31 30 35 42 41 36 36 44 28 39 32 32 26 29 34 28 31 34 39 28 27 29 35 36 31 42 33 27 38 27 33 29 29 27 37 40 33 24 30 42 44 42 34 28 36 33 28 21 26 34 27 37 31 37 33 29 27 24 35 37 36 38 32 33 38 27 29 30 27 32 27 35 37 27 25 33 34 36 33 30 21 33 34 25 26 36 34 33 23 28 35 29 31 30 25 31 29 31 26 33 29 24 33 26 28 31 31 30 26 29 43 25 24 40 27 38 37 22 37 34 31 28 37 31 23 29 26 29 34 32 27 30 33 32 31 33 28 30 24 33 37 32 36 27 24 30 32 35 28 35 28 41 26 37 29 28 41 33 28 28 36 29 33 39 27 37 35 36 36 32 29 32 30 29 42 29 38 49 39 31 41 31 37 39 29 31 30 29 36 35 31 29 26 38 23 28 36 36 30 27 23 30 33 32 31 23 25 29 32 30 27 21 29 35 32 24 39 29 33 34 31 22 39 31 33 34 29 35 28 32 39 30 26 27 28 34 16 22 29 44 32 25 36 38 31 43 34 40 33 29 43 29 33 34 32 28 20 34 36 25 20 39 40 24 28 30 33 37 26 21 38 29 28 37 31 35 28 34 27 23 34 32 39 33 38 32 31 29 38 24 30 37 27 33 40 26 30 30 33 22 22 32 45 30 23 34 32 33 24 26 31 29 35 26 24 35 37 42 36 36 35 31 39 25 31 33 38 24 33 25 32 31 30 37 34 31 37 33 35 30 39 33 29 39 34 26 35 31 25 31 24 32 34 19 28 32 27 23 24 43 33 33 34 34 21 32 31 32 34 33 31 29 39 34 40 39 31 31 38 32 34 34 35 39 36 32 35 31 27 32 35 28 27 31 42 28 30 36 41 42 40 29 21 32 23 34 35 23 30 32 31 35 36 41 32 24 38 25 30 35 41 33 34 32 35 33 31 32 33 24 36 28 31 27 32 50 39 32 27 38 34 38 29 25 27 38 25 32 28 31 31 42 38 29 26 32 28 34 38 35 26 31 26 28 33 30 24 22 23 28 32 34 29 23 37 26 31 28 27 30 33 28 32 35 25 27 29 23 30 31 41 31 28 21 24 29 19 41 34 34 37 27 24 40 33 30 20 34 31 27 30 32 37 34 31 30 39 27 27 29 32 33 37 32 30 36 33 37 27 28 31 32 26 31 36 28 41 32 20 30 35 38 29 30 27 34 49 26 29 29 36 28 29 30 33 25 32 31 27 26 30 24 29 35 24 28 32 32 27 27 32 54 25 25 29 30 30 36 32 32 37 30 40 36 29 33 29 22 32 27 31 38 32 38 29 29 29 28 27 27 30 34 37 29 35 36 32 28 28 37 35 30 35 25 37 41 31 37 29 36 30 33 36 26 33 28 23 35 30 26 33 28 27 28 29 27 37 35 34 25 28 39 35 40 30 34 25 29 26 40 35 35 32 35 25 29 37 26 30 22 28 25 33 36 22 37 35 31 27 34 31 39 27 23 27 36 28 35 28 28 26 34 43 24 29 27 34 33 25 28 43 24 33 45 22 31 29 21 31 28 29 22 29 35 28 32 29 33 32 29 30 31 31 36 40 32 36 31 47 28 22 29 31 28 20 38 19 31 28 21 21 37 36 24 33 38 27 26 36 28 31 43 30 41 34 39 36 30 30 29 29 30 34 30 32 29 23 34 35 42 29 30 30 27 41 29 34 27 26 25 28 31 25 24 28 36 34 43 22 32 34 24 31 27 29 25 23 31 29 32 30 29 34 30 27 36 38 23 33 34 35 29 38 28 43 46 41 31 33 29 33 30 25 24 29 39 29 31 36 36 29 32 33 42 32 29 31 29 34 29 37 46 27 34 36 30 41 28 29 29 26 39 27 20 25 33 27 38 32 30 29 36 25 31 38 28 21 27 22 32 32 40 30 40 18 24 34 26 36 25 28 38 33 37 26 28 35 31 33 24 31 26 29 31 37 30 30 27 32 35 36 38 32 32 31 24 38 26 25 30 28 28 37 31 31 34 25 51 37 31 34 28 32 32 34 27 29 22 35 35 30 37 26 33 31 34 26 24 33 37 33 37 34 29 29 36 29 34 28 33 27 28 33 38 31 27 32 33 29 28 22 33 24 23 32 30 25 23 24 25 20 28 29 39 34 18 34 43 44 31 37 27 30 42 27 30 46 25 42 33 26 36 32 29 37 27 31 33 29 35 28 27 35 34 38 36 37 27 32 34 20 21 25 29 32 23 24 30 41 23 36 24 33 27 31 30 25 25 28 27 24 28 36 28 26 33 32 30 35 40 26 28 28 32 27 36 33 35 23 33 27 35 30 28 35 33 24 21 30 25 33 31 28 46 33 35 37 30 36 30 32 47 28 32 25 28 41 31 24 32 33 28 29 34 30 29 24 24 29 23 28 29 35 31 23 25 27 42 25 31 34 28 36 29 38 42 27 29 37 33 29 28 36 33 29 23 34 34 31 33 31 33 38 32 32 21 29 50 28 29 23 24 38 26 38 35 30 31 37 25 33 30 36 40 24 32 43 40 30 34 36 40 27 37 27 41 31 36 42 28 30 33 32 33 26 21 37 47 31 32 25 28 44 20 33 38 34 24 29 51 30 33 37 35 41 24 31 46 22 31 28 33 34 38 25 40 34 33 30 29 33 29 37 24 40 38 37 20 26 29 23 36 20 34 21 30 33 27 36 28 31 23 29 31 35 39 25 37 24 30 35 29 29 33 25 39 38 29 39 39 39 47 29 30 20 32 32 42 48 43 27 26 33 29 27 42 31 27 34 36 26 45 27 32 34 33 39 25 23 29 27 32 33 20 26 28 32 33 26 30 26 38 26 24 32 23 31 28 35 33 45 31 35 29 36 30 38 33 32 36 30 36 41 31 26 27 30 26 32 30 31 40 26 29 31 29 34 26 32 40 32 36 28 39 27 34 28 27 33 29 34 35 31 22 31 26 37 33 27 29 25 26 39 31 24 37 30 36 28 30 41 41 36 28 42 36 26 35 25 28 34 35 31 29 37 28 36 33 27 31 28 29 30 28 30 32 23 34 22 38 26 29 30 37 30 29 39 29 37 35 33 35 29 32 27 34 37 19 31 37 21 38 33 45 42 35 33 29 32 48 32 29 27 35 33 31 33 38 22 30 34 33 35 24 20 28 30 34 30 30 28 40 27 34 42 40 34 26 24 46 35 28 41 30 30 21 28 36 35 27 27 32 34 33 30 24 30 21 33 29 24 41 32 35 31 40 29 24 19 29 26 26 33 26 25 29 32 21 34 37 36 32 30 26 30 38 36 26 31 33 33 28 48 28 31 25 33 27 40 29 33 32 40 37 30 32 21 23 31 27 37 28 34 38 24 32 32 30 32 31 28 39 31 27 30 29 30 34 35 36 30 42 32 28 29 24 30 38 33 36 26 29 32 22 31 36 33 21 28 30 37 36 32 25 25 36 42 42 23 24 37 29 26 32 32 30 43 29 29 31 33 33 32 32 32 42 24 33 48 36 38 33 25 47 30 31 22 34 23 28 22 21 31 38 27 32 20 34 31 30 34 36 38 33 29 34 37 37 31 26 31 29 41 39 36 33 29 25 35 41 32 38 51 36 21 30 33 32 24 31 31 32 35 33 29 23 35 24 34 24 32 27 29 37 30 21 30 29 36 29 38 45 35 30 35 42 33 33 34 29 30 35 32 32 26 31 21 35 27 28 27 41 31 28 37 20 45 26 28 29 30 39 33 29 22 25 37 31 28 30 38 29 28 33 27 45 25 33 35 28 33 33 37 24 47 34 24 29 40 35 23 27 22 25 34 31 24 33 26 27 36 27 31 40 31 30 26 37 28 46 32 33 46 31 42 41 35 39 23 27 28 37 30 35 22 35 40 39 30 36 28 29 35 24 28 30 39 33 35 24 43 29 28 20 25 36 28 44 37 30 28 41 31 28 27 43 43 35 21 31 31 30 31 45 33 27 34 30 16 28 27 27 23 28 29 38 33 42 32 41 23 37 26 36 26 32 32 33 22 31 37 27 42 32 36 29 31 31 25 30 36 33 31 32 31 36 24 32 38 41 32 39 33 38 34 21 36 36 34 29 34 25 30 33 35 34 40 32 24 32 33 42 32 31 29 34 38 36 33 37 33 43 28 29 23 42 35 30 37 32 27 34 21 26 38 36 33 34 33 38 32 25 28 41 28 41 25 38 36 33 33 42 33 37 25 35 29 26 29 33 27 36 25 34 30 28 43 36 34 38 27 41 31 27 31 30 33 32 30 25 35 27 31 36 31 28 37 35 24 39 33 27 35 18 35 29 34 33 36 19 37 30 36 37 42 31 34 30 47 25 38 27 29 31 44 35 37 36 25 27 20 34 40 26 32 34 38 38 38 31 24 32 25 29 28 35 33 26 27 30 28 19 38 32 33 34 32 27 32 30 30 25 44 21 30 25 30 33 31 45 23 31 28 27 21 37 35 30 26 29 35 33 32 32 24 37 41 27 39 33 35 35 44 33 34 37 30 36 27 29 36 30 51 31 36 36 41 29 27 36 34 27 26 34 28 25 41 26 24 31 30 24 34 29 25 28 29 28 39 27 48 24 35 46 32 41 48 21 36 32 26 37 33 32 36 30 32 30 32 34 34 27 22 37 24 39 38 30 24 25 31 28 30 36 36 30 36 34 38 33 27 38 38 41 28 24 22 34 25 36 24 28 30 42 29 29 32 21 31 39 30 38 27 24 30 43 30 22 31 39 32 36 40 28 37 36 30 27 34 32 35 34 32 33 33 26 37 36 33 27 31 30 24 33 40 35 29 27 27 26 37 31 39 29 43 21 35 34 36 31 38 27 43 36 28 25 26 25 27 32 22 31 31 37 41 31 22 34 30 34 29 36 25 28 28 40 28 28 26 27 31 45 36 30 27 22 38 30 31 31 29 38 29 24 32 32 32 36 32 18 28 31 36 21 22 33 26 37 30 43 38 44 25 27 40 24 33 35 38 38 31 34 35 38 29 34 28 27 29 29 37 21 32 42 29 30 41 47 34 33 31 32 25 35 36 23 28 28 27 35 34 27 26 32 33 33 32 28 31 28 24 26 34 30 26 33 37 40 34 27 32 27 29 41 43 37 27 36 27 43 42 41 30 28 33 24 40 35 24 29 26 29 32 36 29 32 27 27 37 29 27 39 37 29 25 33 32 36 28 37 31 32 38 30 36 39 34 36 28 33 40 37 32 39 27 32 31 27 33 34 35 32 38 36 35 31 33 24 26 38 20 26 32 36 29 27 28 40 21 22 39 21 38 33 28 28 34 26 27 35 35 33 26 25 41 33 33 30 29 38 27 40 27 29 36 38 33 32 30 33 30 34 27 33 33 25 38 38 22 30 29 28 25 29 26 44 27 33 41 30 30 30 31 33 32 29 34 26 17 30 27 33 30 23 33 27 22 35 21 29 22 25 24 27 26 28 29 37 32 33 32 34 19 29 28 34 34 34 33 35 27 29 36 26 24 30 33 28 28 28 41 35 33 42 27 28 32 27 28 27 23 26 38 39 27 30 38 25 37 33 30 43 28 34 27 21 30 26 31 46 27 35 36 36 30 26 35 35 30 35 28 34 27 32 28 29 28 26 35 27 36 29 20 31 35 36 34 34 30 31 41 23 23 27 30 25 27 42 34 31 30 28 35 33 34 15 32 27 33 37 31 26 26 24 26 35 28 26 33 29 24 31 30 34 30 41 21 26 28 35 34 29 35 34 25 37 32 34 34 36 30 34 38 36 33 35 32 34 28 34 26 31 37 41 25 35 31 36 43 29 31 28 31 33 30 36 34 36 32 32 28 30 24 27 31 31 35 24 38 33 32 29 37 34 30 30 21 31 32 19 25 33 37 34 40 25 24 27 28 28 25 25 34 28 35 38 45 51 32 36 34 41 23 30 23 40 30 38 25 31 27 27 34 23 27 30 21 31 28 22 30 32 34 32 36 29 33 30 35 27 27 22 20 32 39 32 44 37 24 20 33 24 23 36 29 25 26 30 35 23 35 28 23 29 36 39 32 40 31 28 31 33 37 33 29 39 36 33 36 28 32 30 27 35 37 38 22 40 26 26 40 27 32 39 31 33 30 38 30 31 41 33 27 29 31 42 32 21 36 29 31 24 31 22 33 32 29 29 28 31 28 31 29 37 31 26 23 45 23 26 30 40 33 26 32 30 30 35 28 36 27 32 34 28 33 24 34 30 26 31 27 34 31 28 33 28 21 35 26 29 31 40 25 40 24 35 30 35 27 33 45 30 31 33 34 31 32 36 26 34 34 31 30 37 30 31 24 29 35 29 23 39 38 32 31 39 28 27 33 32 39 36 37 32 31 38 37 23 35 22 25 26 28 32 33 27 28 34 40 27 27 33 23 31 33 24 27 28 33 35 36 32 32 29 38 21 42 44 38 27 39 27 30 35 33 28 35 32 40 30 38 32 30 29 31 31 28 35 38 35 25 27 31 36 29 33 33 22 30 31 27 35 31 32 29 22 20 28 23 31 27 35 33 28 42 28 43 36 28 29 50 40 40 34 32 28 35 34 29 30 25 24 23 32 29 31 25 33 32 35 35 29 37 34 47 30 36 29 19 28 33 38 31 37 32 28 22 34 38 22 27 37 39 32 33 28 30 27 29 39 16 34 36 25 30 38 34 28 37 30 27 25 34 38 38 34 24 35 26 27 31 24 27 33 26 40 30 28 39 43 34 27 32 34 33 34 23 36 31 31 33 28 33 40 30 24 37 22 25 32 29 31 29 34 33 26 28 34 28 30 34 37 38 30 26 36 35 36 48 29 46 27 26 36 27 31 44 35 31 25 33 31 34 35 34 33 27 30 28 35 29 27 28 35 30 32 32 36 41 21 29 43 30 36 37 32 25 31 42 32 28 35 29 39 33 28 39 25 30 36 31 38 36 29 30 30 29 32 33 39 28 23 41 38 27 32 31 26 38 33 30 33 37 28 29 29 36 31 31 41 37 38 36 31 28 38 32 34 32 35 36 29 29 30 30 27 29 27 28 35 39 31 24 35 28 31 21 38 32 40 31 26 40 31 33 33 35 34 25 29 39 33 31 38 31 19 27 27 29 35 31 31 29 30 36 37 30 29 27 29 25 31 30 43 36 36 37 23 28 42 30 28 39 30 28 41 29 30 24 37 30 28 34 28 29 29 31 24 42 34 33 24 32 26 28 39 27 33 34 34 27 36 36 41 29 34 36 30 38 22 34 35 34 24 19 36 27 32 31 31 25 45 27 32 32 32 29 41 38 41 36 29 38 29 36 34 28 42 49 25 39 37 32 43 40 29 33 43 25 30 27 43 20 36 31 29 39 30 24 29 39 36 29 26 33 26 27 27 38 31 28 31 29 23 20 28 37 43 37 30 25 33 24 30 19 34 20 36 26 32 24 32 37 27 36 26 36 25 28 32 30 29 28 37 39 27 27 28 31 35 28 29 34 34 32 33 27 33 31 31 38 29 34 36 32 35 35 30 36 26 37 22 29 33 35 27 32 26 30 25 33 33 32 35 35 34 29 29 29 22 35 36 22 29 26 38 32 31 39 27 33 24 32 26 26 26 28 27 30 31 30 28 45 26 34 30 38 28 35 35 43 38 34 30 34 35 30 41 32 32 32 31 30 34 32 39 40 29 37 25 27 28 24 34 21 32 32 34 31 35 35 27 34 26 25 29 35 36 33 30 30 42 40 26 30 26 24 32 33 26 27 32 34 25 32 32 36 26 35 23 34 29 39 26 24 29 37 34 22 31 30 33 32 31 29 33 39 30 28 32 30 19 26 36 19 31 22 32 35 35 28 32 30 36 29 38 36 42 33 25 36 35 33 42 46 32 39 30 33 34 31 33 20 35 25 39 34 27 44 36 43 37 32 34 36 39 29 33 40 36 34 29 37 31 26 37 27 28 29 23 35 39 29 33 32 23 36 42 38 33 29 21 34 39 34 35 40 35 28 38 36 29 39 30 28 27 28 34 28 28 40 29 25 42 25 33 27 28 33 36 25 32 15 30 33 27 28 23 36 37 33 25 28 30 37 26 28 29 29 27 27 26 42 28 37 19 39 39 27 25 46 26 27 23 25 34 44 27 29 40 38 37 37 28 31 28 31 33 28 30 30 25 23 19 20 37 30 29 38 25 31 34 36 34 25 23 36 28 31 23 29 35 30 30 37 32 37 28 23 42 31 26 20 29 24 33 25 29 28 34 34 29 33 30 34 24 35 26 29 28 28 36 33 32 31 39 27 47 23 30 27 42 36 30 28 28 23 26 34 38 34 35 29 22 29 33 32 34 28 30 31 25 38 31 25 28 36 22 31 32 37 29 24 37 25 28 33 19 40 34 27 28 37 31 30 29 26 34 32 31 32 26 33 32 24 50 27 35 32 26 29 41 23 23 30 35 29 24 36 30 28 26 31 37 25 28 33 21 24 29 29 30 28 32 28 34 32 32 38 34 26 32 34 25 36 33 41 34 29 43 29 24 32 27 32 24 37 32 23 31 34 25 35 30 33 28 20 34 21 26 36 30 36 36 32 26 36 19 26 29 22 37 31 32 26 33 26 28 29 39 36 35 32 40 43 26 31 30 24 24 24 22 30 32 30 40 26 40 26 32 28 28 24 34 38 36 42 35 35 27 24 35 23 44 29 36 27 24 29 22 29 24 38 33 28 37 40 45 26 38 31 41 33 27 30 41 42 30 25 35 36 28 28 43 37 28 27 32 27 30 30 36 31 31 29 33 31 33 23 30 36 26 41 33 27 23 36 42 26 32 32 35 27 28 29 35 31 39 30 36 27 38 37 31 35 32 35 34 22 29 30 29 35 39 31 38 34 22 43 24 32 31 32 30 33 31 35 39 23 40 32 36 32 38 29 36 35 27 35 39 35 29 40 33 33 32 20 34 19 32 24 27 31 30 31 27 27 32 32 21 32 42 28 24 24 34 36 25 39 41 33 29 36 24 37 38 22 30 24 34 42 35 25 29 32 24 45 27 40 25 29 22 35 30 33 32 33 30 44 32 48 31 28 31 36 33 35 35 22 35 23 46 33 23 42 25 39 44 28 25 23 29 33 31 32 41 32 32 38 28 37 47 34 27 25 27 26 25 33 30 29 37 32 31 31 28 39 34 27 23 27 22 31 28 34 24 25 30 23 32 28 27 26 29 30 24 20 41 33 32 44 28 43 33 32 33 40 33 24 35 37 29 37 34 30 32 27 31 31 28 30 33 27 35 29 32 31 28 35 25 28 25 26 31 29 33 36 32 34 32 38 25 32 31 25 28 30 35 31 24 28 30 33 29 31 36 38 29 33 36 40 34 30 32 32 30 27 33 30 32 32 26 34 37 35 28 30 33 37 33 35 31 31 25 35 32 33 35 37 33 37 35 35 33 23 30 31 29 25 25 36 24 34 23 30 31 21 32 31 34 30 30 27 33 31 35 16 28 37 23 35 21 29 32 43 33 24 34 33 24 36 24 29 32 40 29 28 25 32 32 37 34 43 47 31 34 37 28 20 36 40 32 31 23 39 18 31 28 32 30 26 27 30 34 35 22 24 35 37 38 31 31 35 34 34 23 26 28 32 29 23 35 29 29 35 30 34 39 33 35 30 34 22 26 34 28 30 35 26 35 32 36 32 29 31 38 30 30 28 42 36 39 32 36 32 29 36 36 37 22 26 38 27 37 33 36 23 37 25 34 33 26 33 34 32 36 42 37 32 34 38 28 37 32 28 33 36 28 36 31 24 36 32 35 38 27 31 31 32 35 40 25 31 37 32 21 28 36 32 31 26 49 31 31 25 31 34 27 40 32 30 33 32 27 38 32 26 22 28 27 42 42 24 32 30 35 25 30 33 27 25 41 33 29 27 39 37 27 39 36 30 41 28 39 36 25 31 36 31 27 18 40 31 28 25 19 40 37 40 32 30 33 24 30 34 41 37 36 31 29 26 25 33 36 38 36 30 25 45 31 27 32 30 37 28 37 37 38 34 46 37 35 32 36 42 22 30 28 31 28 30 31 33 34 24 27 39 37 30 32 32 27 29 32 31 33 25 31 28 25 30 21 31 35 33 34 26 33 31 41 28 33 36 32 29 30 23 37 38 30 35 37 34 26 36 37 33 34 34 23 34 25 35 32 28 29 31 36 32 28 28 26 25 28 24 27 27 27 18 37 27 29 34 27 36 32 37 23 40 32 33 34 38 39 34 27 32 33 26 31 31 31 29 31 27 35 31 35 27 30 31 27 31 37 27 28 31 41 26 30 26 37 31 37 31 33 33 37 34 20 39 30 36 35 26 29 36 33 35 31 33 33 28 31 31 31 36 25 22 33 30 29 36 31 35 28 30 30 21 52 33 30 27 28 38 41 27 32 29 32 46 30 29 28 21 34 31 34 32 30 39 41 35 27 34 30 29 29 31 32 43 40 26 25 28 34 35 31 39 32 31 29 31 40 29 41 31 32 29 28 38 30 36 29 31 37 31 27 26 35 28 36 29 41 27 27 29 30 30 27 22 32 28 33 32 35 26 27 37 34 33 31 23 28 26 29 28 27 30 31 25 25 32 33 30 19 38 38 33 42 25 34 34 32 18 33 27 27 35 29 30 34 33 28 32 32 34 40 36 33 36 26 31 25 25 42 35 29 34 41 33 32 30 31 34 31 19 42 32 34 34 39 25 28 36 28 31 34 28 26 25 30 30 34 32 33 39 45 31 34 34 31 23 28 36 40 32 29 19 28 41 29 36 25 38 38 39 25 33 34 28 32 36 36 27 37 30 31 32 33 33 32 27 36 33 35 39 29 37 33 29 26 25 44 26 38 30 27 25 38 35 33 29 33 33 27 30 35 33 23 29 20 28 29 28 24 40 37 34 23 28 25 29 41 27 30 26 37 25 26 32 30 29 37 24 51 33 26 38 44 30 23 34 33 35 52 34 35 29 36 26 35 37 27 25 25 38 29 23 31 27 44 23 44 37 29 27 35 36 23 25 27 33 27 29 28 34 35 32 38 32 27 31 33 23 41 39 30 36 28 22 29 28 30 38 23 30 24 32 37 32 39 31 30 37 33 24 39 36 39 30 46 32 31 35 30 25 46 33 31 32 31 37 31 27 30 30 24 48 23 38 25 24 35 30 31 20 26 38 28 29 27 33 25 32 30 29 35 24 38 30 37 44 25 27 25 38 32 29 34 28 37 20 22 26 33 25 31 34 25 35 30 35 41 31 36 32 35 27 19 33 22 23 23 25 33 31 36 42 29 33 35 34 38 42 29 27 23 34 27 26 38 27 32 31 36 35 33 27 30 35 28 32 26 26 31 36 38 30 36 36 34 27 28 18 30 34 38 25 33 27 42 23 37 28 40 24 16 36 35 33 42 34 26 32 47 32 36 24 42 36 37 39 30 28 37 33 25 37 35 30 35 26 43 34 25 29 31 27 34 23 46 35 45 33 33 33 25 36 30 34 33 36 31 23 22 22 32 42 33 28 31 31 26 36 29 30 23 40 25 35 29 25 36 39 47 28 43 35 36 38 29 22 26 34 40 35 39 32 31 30 36 25 22 28 33 37 33 25 33 22 35 32 32 38 36 31 29 24 35 47 41 33 35 37 23 18 25 26 31 34 28 25 32 41 38 39 33 21 34 29 28 34 35 37 27 25 28 31 39 36 27 28 32 28 25 29 29 28 33 39 32 37 36 28 31 44 30 27 30 26 29 27 27 35 29 26 38 31 29 31 29 31 26 29 26 23 34 38 32 31 33 37 41 32 50 31 36 44 23 37 24 29 38 30 23 32 32 35 40 33 24 33 41 32 25 28 26 27 28 45 32 32 36 29 28 28 30 33 31 28 37 34 33 41 45 39 26 37 37 29 28 40 28 24 46 25 33 32 36 31 23 32 29 36 25 29 28 37 36 33 32 26 30 32 28 27 42 33 32 33 35 29 32 29 35 32 36 28 27 39 32 21 27 23 34 21 42 33 28 32 29 30 31 23 37 28 32 41 36 31 30 29 30 21 47 29 36 26 33 26 40 31 33 40 31 27 33 24 25 35 20 32 35 24 34 32 24 31 35 25 31 36 33 33 27 26 28 29 35 28 24 29 37 30 30 26 33 38 53 25 41 33 28 26 27 31 29 31 32 29 29 34 34 40 35 32 29 27 29 28 28 36 41 34 27 36 35 24 33 27 25 32 35 23 29 31 41 30 36 34 41 33 24 27 28 29 35 30 32 38 25 28 35 39 32 34 38 19 33 31 38 21 28 29 25 33 37 36 26 27 21 33 27 27 26 32 34 25 29 25 37 35 23 39 22 31 25 31 24 37 25 44 34 46 35 34 30 37 39 29 28 32 40 28 33 34 28 30 33 32 34 46 27 28 25 25 37 30 45 34 28 38 32 33 31 30 32 28 35 32 43 29 29 26 23 24 30 35 37 34 39 46 25 37 29 28 34 38 27 30 26 36 40 30 39 30 36 26 46 27 37 34 26 29 30 25 30 34 39 30 23 35 24 24 29 38 23 35 34 31 29 28 31 25 41 24 40 21 33 23 41 29 36 31 32 27 30 29 35 35 32 36 25 28 33 36 33 27 33 33 47 21 31 31 41 36 31 21 34 29 24 26 33 31 36 31 26 28 32 38 33 37 20 32 24 32 34 27 22 23 30 36 32 21 25 31 31 37 30 30 33 38 32 36 28 42 27 33 40 30 37 41 33 37 35 30 41 33 30 35 26 36 40 32 25 34 26 25 38 28 22 30 29 28 24 39 23 25 35 29 23 33 30 21 34 35 25 25 33 31 29 17 36 28 31 39 42 33 34 32 26 33 22 32 33 29 31 37 23 33 40 33 28 40 26 28 30 43 32 27 25 28 25 30 23 27 37 28 29 35 29 28 30 31 17 26 38 30 33 34 30 38 27 28 28 36 32 18 28 34 32 35 30 34 29 25 26 34 24 30 26 28 27 26 34 25 23 26 41 42 29 38 34 40 27 28 30 33 36 28 25 47 28 39 35 23 33 31 33 27 30 34 37 36 27 36 29 37 32 27 32 43 23 22 30 34 34 35 26 31 27 33 30 33 26 19 32 40 27 27 25 26 32 26 36 35 33 42 37 33 26 36 27 26 38 26 28 30 29 24 24 35 27 30 26 38 40 31 28 20 32 38 37 34 28 26 29 31 33 31 34 28 37 25 26 24 30 31 33 30 36 34 32 32 28 32 35 35 27 33 29 28 22 46 21 35 44 39 35 26 39 22 40 28 24 33 26 26 40 34 31 30 39 26 33 44 23 22 31 25 20 28 22 34 31 29 32 42 26 29 23 36 40 38 22 33 34 36 38 28 27 25 43 33 35 33 41 28 26 30 23 35 27 22 26 37 27 35 30 32 29 27 25 38 39 34 28 27 27 25 35 29 31 33 32 25 30 25 21 30 32 31 23 28 22 32 21 31 27 37 31 31 37 28 32 29 34 34 32 30 41 36 32 29 37 29 32 29 19 28 39 25 38 28 24 40 28 45 33 38 36 33 21 42 32 32</t>
-  </si>
-  <si>
-    <t>GAM(103.266977652305, -259.4344792205779, 4.817735400592419)</t>
-  </si>
-  <si>
-    <t>261 208 226 250 336 168 268 238 247 251 274 260 156 195 267 292 281 261 279 154 203 206 253 208 211 260 245 305 337 232 277 294 192 224 153 199 230 237 262 194 235 189 216 269 226 161 200 276 179 255 227 282 211 241 265 363 243 285 244 306 172 225 226 212 269 310 186 263 237 187 237 200 359 200 270 227 209 227 152 241 219 280 238 150 305 180 210 220 226 176 251 248 168 177 201 242 209 181 273 232 350 206 235 266 130 282 212 202 246 218 213 206 172 146 297 237 124 173 216 218 203 267 262 269 215 323 228 193 316 306 225 215 270 135 149 171 168 332 243 265 309 189 281 162 261 320 229 215 249 213 203 368 210 263 208 183 245 285 155 238 247 256 247 285 316 225 177 264 255 217 142 243 284 241 156 193 325 174 228 201 174 194 229 195 268 217 255 264 240 203 235 272 306 254 247 293 219 238 203 277 219 202 170 212 190 176 260 234 157 222 265 265 189 243 245 203 252 260 265 250 188 182 184 177 243 214 185 290 206 310 203 230 194 308 198 227 317 258 105 257 129 271 295 184 201 260 267 302 378 153 246 204 303 209 257 242 220 217 170 291 190 288 165 245 266 279 296 269 280 130 177 207 259 218 198 203 198 210 190 219 367 230 192 289 257 213 213 255 295 176 320 270 292 185 252 192 258 253 244 113 328 293 257 248 177 201 247 244 307 275 209 233 237 285 274 246 281 191 291 262 188 226 218 248 202 229 312 222 250 208 265 320 207 193 229 165 293 336 275 222 215 286 225 210 198 225 257 198 236 223 307 314 197 246 226 243 290 220 291 184 240 317 257 196 247 174 280 264 171 267 274 190 143 220 170 243 251 169 255 302 202 169 245 194 302 210 204 265 275 201 233 225 281 263 268 242 139 278 310 287 324 212 218 144 262 301 194 299 168 211 211 323 244 313 329 133 228 227 259 274 294 308 207 253 245 272 236 206 237 183 214 284 296 173 191 268 351 259 264 160 277 233 181 264 362 194 252 249 239 196 255 282 262 377 190 189 266 169 238 217 178 300 194 227 320 208 222 214 201 166 221 277 275 297 226 338 275 214 275 167 282 324 320 293 250 212 317 207 302 303 315 237 357 218 301 177 272 125 151 308 185 254 243 289 267 266 175 219 218 303 244 217 226 278 163 237 198 153 282 230 223 323 210 336 227 255 221 300 241 293 299 243 153 252 128 177 276 209 159 237 118 221 274 104 290 216 224 232 136 232 200 246 226 316 215 217 251 214 245 286 295 240 158 231 309 242 288 206 267 330 179 235 303 256 168 257 211 206 228 206 226 248 356 251 230 246 244 230 202 354 192 187 266 165 273 261 194 218 243 266 214 212 235 176 223 255 277 183 171 200 242 311 348 286 248 222 258 215 246 215 232 229 293 303 246 255 158 197 207 245 272 205 170 244 223 224 279 185 323 226 336 232 221 233 189 233 215 295 319 220 230 273 188 321 210 182 269 244 262 217 227 271 224 193 220 173 192 211 277 290 273 310 274 225 334 303 245 270 206 222 210 218 175 241 254 211 297 154 275 369 211 171 285 185 183 250 237 173 178 303 237 317 276 217 295 223 257 236 319 174 129 289 242 252 179 207 303 162 212 151 238 234 245 290 212 285 191 248 205 184 290 227 289 238 139 344 279 193 215 244 152 152 142 343 106 244 274 296 351 272 174 228 297 195 239 236 193 312 161 234 332 259 267 268 223 300 269 296 208 211 157 245 206 208 237 272 316 195 276 224 237 237 250 278 199 242 223 251 158 232 229 226 269 316 288 198 199 219 285 204 280 190 227 327 309 291 251 167 293 229 318 166 314 188 234 241 217 248 224 290 320 266 276 269 174 263 199 235 122 319 276 221 209 212 274 257 146 211 220 268 243 208 199 318 199 299 196 318 248 309 299 179 210 233 191 167 184 213 213 275 266 319 255 306 220 245 218 215 249 344 194 246 297 223 318 274 231 285 220 292 255 186 328 270 253 318 229 268 339 209 219 160 262 200 302 226 322 297 203 178 230 249 208 263 294 229 251 278 230 292 155 221 232 191 203 234 274 281 161 253 223 254 276 218 222 231 348 280 293 248 259 229 312 169 215 263 287 242 320 203 272 274 232 257 326 221 246 280 278 230 230 140 246 123 318 202 212 148 202 304 279 199 310 280 380 199 175 248 239 182 223 184 357 168 312 207 174 238 273 280 297 220 167 247 209 200 113 181 135 165 225 231 263 211 236 326 293 204 219 279 310 244 276 319 305 231 307 254 233 248 225 198 248 172 255 254 119 343 147 186 232 216 165 246 197 235 285 237 288 135 236 216 264 99 233 197 255 309 165 215 202 220 218 270 231 187 228 180 242 236 167 227 206 332 336 194 222 290 270 331 280 179 154 177 289 317 195 270 252 171 221 291 196 204 287 177 153 160 274 328 196 265 234 324 205 161 248 208 245 253 190 214 146 178 243 255 222 247 180 261 217 209 278 189 237 238 184 225 199 232 292 252 177 290 303 235 324 274 160 312 229 288 240 150 263 165 173 237 172 267 265 340 187 252 190 107 193 301 208 209 240 235 322 179 235 230 231 254 252 238 244 273 214 338 231 165 186 243 200 217 264 250 232 280 255 232 187 199 263 264 263 279 277 304 245 238 229 181 200 339 314 252 205 167 238 298 200 226 209 229 251 265 207 190 240 135 279 178 221 356 255 242 239 251 124 237 282 166 205 195 161 246 249 254 296 157 213 224 240 192 217 217 235 195 177 260 243 242 267 335 250 209 297 270 328 273 323 187 216 203 221 301 138 258 259 118 196 248 271 290 151 279 248 200 367 219 228 212 310 278 261 259 292 253 287 275 238 221 228 173 302 250 269 174 268 249 276 277 285 346 279 233 314 184 186 225 194 229 244 252 300 162 222 261 221 319 187 213 234 234 248 263 203 183 154 221 177 279 166 297 203 290 304 278 218 212 147 287 242 202 296 165 219 172 282 205 232 275 184 194 221 229 241 191 168 168 308 239 320 243 231 174 242 245 264 235 177 264 258 253 303 149 244 250 243 335 200 303 285 241 239 283 249 167 250 242 240 185 272 223 265 193 179 250 315 250 228 290 188 267 278 208 196 206 242 261 206 161 269 244 353 218 242 188 209 229 220 224 256 243 113 204 150 247 217 213 186 255 284 341 277 205 298 193 166 314 256 281 224 235 245 301 267 194 264 209 215 216 251 290 320 180 289 195 335 216 220 228 165 301 209 238 232 236 123 162 210 224 202 169 265 270 299 279 197 289 234 244 202 265 249 208 291 203 218 335 280 369 209 274 235 194 183 220 208 217 227 195 275 239 242 309 260 187 203 175 202 247 217 221 166 305 111 173 323 232 282 166 235 358 249 225 296 192 172 178 317 192 213 227 261 218 185 154 254 195 198 182 293 215 140 247 256 273 215 255 210 227 174 261 390 322 298 252 254 280 134 111 253 227 305 259 233 183 210 259 288 267 225 235 340 187 186 202 240 295 255 196 236 227 276 222 116 236 275 210 154 185 223 162 295 298 277 265 142 330 255 290 309 153 148 187 299 238 252 313 224 271 268 250 256 223 260 199 313 290 175 265 270 211 264 291 158 188 153 143 222 198 340 254 288 224 333 206 149 257 185 232 223 197 189 250 196 191 251 162 171 155 285 328 195 195 236 244 193 208 240 257 220 155 237 209 265 214 225 278 207 292 302 152 314 202 197 184 133 206 231 275 230 188 251 318 245 402 338 238 235 248 225 277 224 179 208 234 255 120 255 213 289 221 238 272 205 216 228 232 275 201 154 318 231 282 202 222 263 302 245 237 250 219 237 210 293 209 254 256 254 197 254 288 201 184 255 309 281 276 226 205 312 215 234 194 259 173 242 228 318 225 319 224 233 214 166 162 323 165 318 324 228 198 221 180 210 210 156 218 207 220 117 287 213 285 265 335 194 293 254 274 209 130 234 185 172 286 188 269 186 225 182 190 187 263 235 240 243 346 313 219 289 298 256 214 229 178 185 206 314 164 248 278 263 199 239 139 234 248 271 235 241 281 252 164 337 245 217 246 226 261 237 237 330 266 194 131 293 212 320 204 258 217 203 280 271 252 235 306 261 167 220 255 319 357 246 217 247 265 247 184 230 249 209 348 239 199 254 259 224 261 225 227 267 209 140 235 157 211 231 165 215 136 182 236 214 319 236 280 297 285 189 277 303 230 330 219 275 341 214 193 233 254 283 246 207 219 281 181 267 183 265 334 166 285 273 271 302 248 283 195 284 250 220 301 217 219 345 236 276 234 289 224 209 182 219 223 179 349 202 219 201 259 294 218 249 167 271 181 193 158 263 184 220 225 237 288 228 165 272 213 264 289 124 133 207 200 234 308 212 158 223 207 351 180 161 311 228 277 257 226 252 306 282 248 297 281 261 173 201 252 210 206 261 274 207 201 188 195 205 270 221 320 165 211 232 251 262 252 217 166 167 248 230 278 239 329 191 270 173 288 227 303 309 260 224 181 257 222 278 213 221 195 191 233 290 284 267 305 308 257 281 241 227 250 196 230 256 232 224 246 224 197 301 241 286 231 252 177 296 236 183 212 187 241 233 229 237 143 196 236 192 248 286 203 253 268 262 190 247 231 271 195 230 203 248 176 251 256 261 209 257 213 295 197 127 160 186 197 187 233 214 212 207 292 208 232 270 348 266 217 262 268 254 210 251 204 261 326 283 214 266 289 221 282 278 247 203 318 186 222 236 239 253 157 240 214 245 205 287 216 213 177 211 247 266 210 230 258 212 168 220 216 196 196 161 201 176 315 291 232 192 274 253 233 235 275 188 307 230 272 332 260 203 225 332 217 156 236 220 218 185 224 258 142 228 173 294 253 206 278 178 279 166 243 247 238 264 214 255 253 248 240 143 184 256 273 334 224 241 293 218 263 298 278 244 255 196 271 257 142 176 287 212 216 258 206 305 215 242 257 306 259 239 259 261 290 208 262 240 214 250 183 208 190 324 214 279 172 261 241 296 295 149 204 176 232 260 226 222 243 140 284 244 273 243 218 274 283 199 206 271 261 206 208 187 225 299 237 272 175 218 210 195 213 227 178 191 151 221 188 267 185 278 166 241 301 205 191 224 316 251 233 291 286 248 223 184 136 233 255 268 138 206 280 185 321 186 324 218 195 160 95 282 208 289 262 314 233 230 246 179 298 224 293 289 279 232 230 250 399 248 253 217 306 276 223 290 236 251 177 194 261 121 277 240 234 204 181 141 217 203 242 257 314 225 178 213 238 331 171 252 278 249 196 217 369 167 158 250 237 219 225 220 320 227 247 162 227 227 351 212 202 168 118 259 253 173 229 113 152 301 199 191 253 247 147 180 224 276 234 196 184 242 256 217 239 236 137 231 147 387 245 319 263 206 245 275 209 263 248 253 235 284 207 202 299 258 188 250 312 173 277 299 215 175 288 313 329 243 234 209 182 229 215 252 246 240 266 243 273 210 284 340 291 238 221 230 267 213 216 275 257 358 212 189 182 236 243 305 304 202 307 308 210 224 262 227 207 307 192 183 279 296 253 175 220 234 243 250 245 194 267 365 266 227 274 259 319 235 242 268 222 285 226 197 264 311 240 193 245 254 321 208 204 188 240 235 213 236 347 216 278 381 309 229 208 282 249 256 166 322 206 266 226 163 165 158 199 245 255 213 324 278 266 327 290 172 199 267 345 207 247 286 191 130 169 203 308 309 183 327 274 317 309 303 262 247 133 187 353 203 236 224 212 205 312 264 279 206 197 265 333 241 207 247 265 209 282 250 169 209 284 267 281 267 229 312 248 250 196 207 258 163 239 262 216 263 277 204 154 260 179 243 286 134 192 261 248 365 267 235 161 169 251 165 193 167 191 308 188 227 224 250 284 184 187 286 209 284 351 116 194 153 290 175 287 184 216 257 225 238 193 270 256 240 283 205 220 251 150 245 198 275 277 190 265 172 231 245 173 297 297 225 253 213 299 180 255 328 227 253 202 280 292 228 247 267 177 276 215 309 233 224 213 262 264 257 220 287 192 184 247 285 208 185 257 226 272 175 185 210 292 157 174 207 163 250 257 250 357 289 205 311 326 237 273 190 230 272 210 261 285 320 268 241 175 240 281 156 348 231 215 237 268 289 261 313 254 214 213 241 298 239 274 300 140 222 267 211 226 261 223 211 181 285 204 236 260 224 299 305 244 186 259 237 233 318 279 221 206 350 215 236 285 294 225 218 178 197 273 220 201 226 311 269 190 217 215 171 228 193 224 231 213 256 283 153 251 211 257 175 193 189 260 302 355 275 259 263 181 300 233 210 195 145 229 253 181 237 252 225 280 157 344 375 231 251 275 307 186 255 205 237 219 212 200 281 277 201 229 266 264 254 193 293 249 203 211 219 151 234 247 274 158 242 210 123 217 276 262 329 215 227 214 223 253 227 249 172 192 177 203 211 296 242 253 219 257 302 235 175 298 203 226 231 157 269 206 265 174 209 265 208 213 260 210 260 176 206 201 198 287 166 271 145 221 246 200 259 240 187 182 202 176 210 196 267 232 259 273 171 246 285 215 303 189 243 254 249 292 235 198 246 257 135 207 293 232 227 223 244 216 183 176 217 278 268 215 296 286 253 218 199 214 271 222 207 218 293 158 200 299 311 129 265 222 329 248 211 297 184 266 270 197 288 237 246 292 188 209 233 274 186 258 192 195 206 205 175 215 313 196 254 203 205 284 199 177 229 193 277 289 225 140 282 208 202 263 175 260 210 222 223 272 326 182 299 259 219 278 162 234 294 220 243 373 212 180 171 251 200 267 213 250 258 259 217 308 265 218 256 190 344 233 260 270 301 282 300 247 259 292 219 274 219 237 266 272 245 180 269 247 289 314 234 160 235 241 234 274 131 261 233 198 195 145 321 247 196 263 247 172 181 294 255 258 169 262 207 274 219 111 242 179 291 239 257 185 269 279 237 267 242 242 293 261 256 255 265 256 217 183 246 274 179 248 176 203 230 266 204 213 312 130 192 240 224 266 296 240 191 195 248 231 199 212 280 230 227 217 246 284 352 236 215 161 216 367 247 237 189 244 241 215 279 228 278 186 212 226 92 247 323 205 309 253 270 196 304 297 232 244 267 208 290 222 263 189 194 231 168 229 208 298 221 181 241 167 205 243 161 269 270 247 324 187 228 226 202 315 238 280 171 314 282 338 230 251 255 228 266 196 247 253 244 256 210 250 186 191 291 264 313 212 386 262 200 189 252 284 266 201 204 186 238 270 231 152 223 328 313 354 202 261 244 232 297 258 249 259 335 222 228 242 281 169 298 237 272 295 233 265 302 231 241 252 294 204 313 248 241 296 254 216 197 200 134 289 322 331 247 289 238 174 206 284 172 276 198 326 231 240 223 338 176 218 291 207 346 165 198 257 301 147 245 223 210 271 220 297 314 299 224 232 155 291 214 246 232 167 236 233 319 229 230 252 224 177 172 314 266 241 270 256 202 260 262 278 227 311 231 318 264 238 274 221 280 200 254 232 176 335 249 331 237 282 256 161 226 181 209 220 215 313 221 150 163 158 219 236 150 159 224 361 275 160 214 156 269 216 182 234 259 263 328 229 218 268 255 251 243 257 284 191 209 202 275 164 340 254 252 347 344 201 220 296 154 226 231 291 199 280 186 286 231 280 207 215 201 185 200 319 279 165 163 262 221 254 242 238 266 200 287 219 226 234 201 237 193 203 363 230 323 221 175 264 229 279 181 292 225 245 300 189 243 169 269 268 268 228 225 267 230 261 306 175 191 262 236 304 287 249 234 277 335 193 251 185 301 267 258 222 239 196 194 284 213 234 239 161 234 188 273 224 217 234 231 227 235 308 209 263 213 144 201 257 159 250 221 277 327 203 232 228 155 285 219 328 306 169 188 286 279 237 179 246 191 200 285 232 205 171 254 273 207 226 219 267 257 217 191 250 256 261 294 213 226 270 242 252 240 158 198 217 176 239 236 202 170 275 287 267 167 343 294 183 334 203 176 232 261 211 249 301 227 313 232 318 378 275 120 271 337 244 313 152 264 286 267 295 244 256 243 244 292 291 193 186 233 265 262 218 215 156 253 113 263 294 154 203 282 221 320 205 211 206 247 308 264 240 185 167 186 282 260 232 246 271 263 223 285 123 182 220 261 207 262 212 276 294 320 168 219 295 261 202 173 300 299 254 129 254 239 251 228 325 167 265 297 254 246 172 149 191 194 161 262 249 270 261 285 263 249 318 258 229 180 196 267 230 294 270 138 269 234 276 272 171 222 226 257 280 181 198 238 231 326 155 203 226 304 253 283 244 240 226 259 312 212 192 216 229 301 276 218 370 129 213 270 239 269 297 164 211 232 236 206 261 247 247 208 287 251 219 274 294 305 193 180 283 325 169 254 139 308 236 227 195 267 345 215 222 274 183 263 202 245 256 358 316 298 305 191 372 217 241 208 225 263 357 159 210 113 147 184 132 170 249 205 257 332 326 221 202 193 243 302 268 185 271 288 307 214 148 249 239 222 358 174 225 174 291 226 191 202 163 254 206 264 184 140 183 256 217 311 258 181 333 280 195 236 219 315 253 234 189 232 186 329 434 215 231 212 230 198 194 260 242 338 270 248 233 257 176 261 252 202 232 247 232 271 213 214 236 204 253 313 239 330 177 202 240 233 352 189 247 231 234 172 221 173 172 204 324 145 346 214 238 208 244 161 208 264 260 234 235 222 237 245 232 192 245 329 300 224 165 221 211 205 185 261 229 267 199 217 238 238 238 171 264 194 234 287 278 259 241 260 261 294 209 217 178 227 296 188 167 128 337 240 210 332 227 203 242 229 266 179 264 242 256 244 255 257 236 255 260 267 234 198 240 328 237 351 161 278 244 224 180 237 209 264 220 310 160 157 258 263 248 268 138 264 240 272 287 266 296 186 263 331 254 247 296 262 294 293 228 255 257 258 225 211 264 256 266 258 208 234 254 269 182 316 244 166 253 201 241 213 272 166 288 293 176 182 271 290 279 245 301 201 293 201 223 141 248 201 243 276 196 253 242 197 150 225 267 317 258 265 244 320 279 256 215 285 254 273 265 232 272 212 237 162 200 256 289 262 163 219 256 197 227 228 266 235 154 191 232 134 183 213 206 195 233 267 184 268 202 189 203 198 276 201 234 247 255 214 308 224 157 377 198 310 193 191 315 289 294 149 290 244 181 201 250 197 272 276 187 198 241 218 237 227 276 230 152 308 250 218 275 244 226 205 260 243 241 263 240 280 191 286 175 202 337 205 224 238 247 203 208 300 205 297 304 184 274 198 254 218 228 254 334 210 260 386 232 229 267 172 322 302 257 202 245 210 250 225 236 196 234 269 197 238 309 316 159 206 222 267 237 236 248 172 158 236 240 236 262 193 209 286 175 187 258 235 304 214 216 219 245 162 261 239 245 163 233 274 272 235 208 209 246 239 163 194 250 308 226 156 281 331 311 342 244 357 270 243 332 186 225 276 262 276 154 302 283 198 150 308 327 223 179 273 243 299 202 171 297 194 189 289 199 198 220 273 232 189 253 245 263 268 266 231 252 186 310 175 212 227 231 210 299 212 250 288 254 216 213 257 313 208 188 276 285 251 177 186 216 216 225 177 177 232 237 294 212 285 253 261 314 220 254 231 310 196 242 197 260 188 192 246 294 239 301 230 246 227 263 190 184 296 262 196 249 298 209 221 178 218 274 167 279 226 187 206 214 283 223 236 254 245 173 258 178 247 272 265 267 256 294 215 254 275 227 231 259 274 225 277 251 270 297 268 208 271 208 259 297 219 220 206 215 201 252 319 345 275 268 221 148 265 92 292 316 219 230 222 206 271 311 246 201 175 300 216 235 240 337 356 264 221 229 303 226 280 273 194 221 183 223 235 258 406 269 245 197 265 205 295 159 179 198 270 207 268 219 167 238 338 248 172 186 274 208 344 285 260 209 269 230 212 251 233 174 142 175 214 209 256 248 185 275 197 169 226 208 187 173 177 266 297 246 219 196 180 215 203 276 251 203 186 230 252 147 351 301 188 336 184 170 313 261 257 153 279 244 215 259 218 272 211 260 184 274 273 196 227 245 271 228 268 237 296 228 301 219 227 213 207 257 211 281 141 274 246 166 224 261 260 235 278 209 283 322 191 254 223 180 162 228 179 261 244 236 242 160 200 262 200 243 243 176 195 231 178 184 171 255 363 217 155 211 222 253 271 236 214 257 204 259 297 222 207 260 194 298 220 269 300 214 280 243 256 234 178 226 214 209 253 266 186 293 225 231 185 247 205 264 218 287 175 295 312 295 237 195 236 254 255 289 146 205 228 126 233 223 171 246 259 235 215 217 268 266 273 265 239 197 301 289 272 170 235 223 225 233 296 240 232 265 244 213 207 248 206 176 137 187 175 264 215 195 238 201 230 249 290 161 367 175 151 272 224 183 285 184 245 245 287 286 184 245 174 235 263 187 188 301 174 189 273 193 267 204 169 220 200 259 152 257 308 192 249 207 260 213 283 188 259 326 297 304 232 402 225 350 172 215 242 241 224 170 338 124 180 207 198 115 289 291 143 233 272 156 252 279 210 242 312 176 303 210 248 245 195 232 248 216 221 199 215 152 209 194 273 289 327 250 211 184 196 239 222 266 252 238 135 198 224 236 163 202 320 270 322 201 243 288 165 272 240 290 171 167 288 250 236 223 179 322 245 192 334 325 189 245 275 229 233 282 215 332 331 287 215 227 231 240 258 208 188 232 333 245 241 258 265 202 224 189 275 174 249 207 210 332 234 379 310 176 285 219 262 306 250 147 195 231 310 209 167 144 330 193 223 188 232 190 309 174 263 281 212 222 223 232 236 245 310 223 329 133 229 240 186 262 204 229 352 295 253 190 245 241 200 224 210 273 145 227 179 270 225 243 265 223 222 273 267 256 235 292 183 335 199 193 248 225 198 293 236 168 218 239 312 290 201 259 206 301 242 276 195 204 141 274 302 292 266 167 294 263 291 197 255 298 297 244 263 309 177 199 213 242 255 223 205 196 183 242 288 244 204 257 219 223 240 183 215 195 175 247 208 262 187 205 199 132 212 245 248 268 149 297 274 320 206 285 213 265 317 192 210 292 155 321 263 165 258 234 187 284 264 231 165 225 270 233 252 223 307 292 249 334 211 242 215 195 186 215 223 216 201 179 335 289 125 296 219 278 210 203 220 218 188 210 196 150 218 269 211 233 277 244 227 307 307 168 216 267 222 166 200 278 213 198 261 146 343 210 230 296 212 232 131 207 196 275 248 234 379 255 291 271 265 279 253 307 295 216 235 251 202 275 179 157 229 284 262 276 299 178 200 149 176 229 167 174 198 226 230 143 169 206 315 210 320 241 276 280 238 247 345 204 259 274 288 215 209 276 221 265 194 262 261 240 263 228 232 229 216 280 145 215 443 190 263 196 182 226 205 291 281 224 222 279 228 265 179 299 282 198 257 292 358 225 199 197 271 230 250 189 295 261 336 307 211 211 306 322 285 187 175 270 315 278 300 241 269 276 109 316 341 252 181 179 370 233 300 327 298 304 186 216 332 221 202 230 246 268 365 201 250 282 237 172 246 262 245 272 217 361 209 330 166 234 218 184 263 154 322 164 246 255 189 289 162 301 234 258 158 214 318 156 280 180 189 295 257 259 241 169 304 256 256 288 279 285 387 216 257 169 214 295 300 304 382 151 238 293 188 188 323 292 210 281 255 175 335 191 287 211 272 254 124 155 209 222 191 214 172 215 163 223 200 224 242 239 296 168 229 221 155 287 221 282 226 291 266 233 236 215 193 273 251 309 242 236 236 295 212 294 222 256 164 222 228 260 274 211 194 226 189 259 147 255 254 232 244 229 361 240 290 198 213 279 228 285 336 287 187 236 192 279 283 175 264 137 154 352 195 200 287 239 357 214 236 293 248 275 233 334 259 227 223 224 160 260 253 223 209 281 276 278 199 206 260 197 216 239 248 237 271 172 242 140 284 209 230 257 253 222 220 238 271 222 241 185 285 169 228 208 225 291 160 204 263 157 284 207 308 271 182 213 264 280 355 270 241 201 297 276 276 274 302 140 300 195 260 210 213 156 211 231 246 217 227 189 284 198 245 272 311 250 171 207 277 281 245 362 270 212 156 235 324 271 164 224 190 295 187 239 261 196 165 297 220 226 278 179 222 211 237 171 204 146 225 192 129 262 209 192 154 249 184 250 220 305 220 230 198 270 265 297 219 256 236 242 193 355 204 270 195 239 202 285 219 247 211 303 297 197 220 145 166 256 208 310 208 257 258 183 225 176 255 222 276 146 265 282 239 248 147 260 212 265 206 253 295 239 212 199 173 249 307 207 247 193 183 254 160 243 239 288 109 223 170 281 275 283 216 176 270 257 312 225 190 245 200 247 263 317 226 308 265 251 240 197 264 220 210 222 321 200 259 329 244 237 195 258 318 257 238 208 312 182 211 151 148 244 271 210 271 147 246 223 275 226 257 271 213 209 299 234 289 203 228 265 270 274 221 193 254 235 249 277 300 249 329 302 248 141 180 251 227 218 229 190 236 292 216 228 162 280 147 248 111 227 213 213 296 233 166 215 235 321 251 286 359 290 160 238 274 309 341 267 272 220 237 263 148 262 221 168 245 205 231 190 297 331 195 324 155 345 178 255 206 270 272 292 201 156 203 314 234 220 216 298 286 225 217 237 321 197 255 296 182 255 277 184 174 295 241 209 242 355 204 189 215 167 164 261 251 166 256 206 241 300 218 223 313 198 195 237 238 182 275 246 266 315 258 303 278 244 272 189 208 234 280 250 256 200 255 359 186 197 283 221 202 221 236 266 217 325 215 295 228 270 248 245 188 240 267 257 274 294 178 220 241 247 197 193 337 315 341 220 284 177 239 228 262 282 225 278 281 133 229 278 286 194 184 258 280 233 301 270 269 204 267 213 226 231 250 270 225 153 240 340 211 254 215 254 215 218 271 254 285 237 312 295 260 245 307 150 205 275 360 244 248 259 321 245 177 337 287 207 206 265 182 184 204 256 225 324 292 214 258 295 317 253 288 257 281 227 306 226 239 209 256 282 245 214 258 267 214 281 215 169 215 136 199 321 264 251 250 233 280 258 203 190 313 204 363 161 233 282 292 257 272 276 236 192 232 210 209 262 253 193 234 159 271 236 240 344 264 258 254 214 219 274 189 205 297 242 229 232 171 316 172 222 275 199 211 273 274 182 346 249 171 209 112 209 199 296 273 308 140 286 183 282 348 265 247 272 237 381 203 224 270 234 194 300 337 288 257 156 211 148 254 278 211 202 248 250 285 287 236 215 236 146 255 256 242 284 276 272 278 209 155 248 273 276 270 266 202 235 227 254 182 258 212 220 221 169 275 211 328 140 202 165 181 175 239 260 305 243 294 226 217 271 273 200 307 268 231 252 248 249 231 285 204 191 259 277 262 133 215 258 209 383 240 217 286 255 205 235 203 242 192 291 289 233 186 352 194 206 236 279 174 226 238 174 145 197 236 223 215 355 182 232 275 215 286 329 214 241 216 215 255 223 256 325 198 292 265 233 249 265 208 162 288 189 186 340 264 211 157 222 254 219 215 262 232 244 239 308 191 256 305 284 319 223 170 203 288 213 268 184 184 251 352 194 267 271 216 259 310 247 271 266 191 245 282 250 119 321 294 219 259 332 215 299 231 172 255 287 216 315 229 157 226 310 198 245 232 259 192 259 205 206 263 248 265 266 172 172 222 241 258 306 191 290 174 294 256 347 267 226 213 378 268 186 195 207 184 188 243 141 218 196 227 272 208 203 255 245 279 198 316 208 160 208 322 197 160 234 171 257 283 287 241 163 159 348 239 214 244 218 301 230 219 287 247 237 294 235 150 268 220 268 172 184 264 150 314 236 304 343 434 206 180 355 180 270 240 382 240 265 253 219 279 266 228 170 176 229 239 238 154 276 328 223 274 322 321 238 281 238 243 238 341 251 159 211 218 220 258 254 244 191 260 267 215 217 227 231 213 213 222 269 221 222 310 268 222 268 237 211 204 160 331 267 348 264 317 220 375 285 260 202 165 212 230 316 267 191 223 203 141 251 264 234 236 221 240 180 224 248 232 370 172 210 287 262 286 207 273 205 222 318 251 262 271 366 271 226 247 331 261 262 286 232 210 205 198 211 231 275 238 314 313 274 187 267 160 277 348 168 207 351 270 312 232 202 279 148 219 322 158 312 216 247 219 309 170 247 316 190 305 212 208 282 241 273 277 210 268 195 262 196 191 286 251 228 332 196 269 230 297 198 279 273 237 258 281 175 168 183 223 193 225 226 338 205 252 294 203 217 200 255 228 214 184 240 197 134 249 141 208 207 179 266 191 179 258 213 184 203 220 144 156 222 170 233 201 191 247 248 230 131 229 220 228 255 233 201 291 177 214 344 209 158 233 312 226 221 264 265 178 226 274 237 212 167 151 200 216 204 225 254 352 222 193 330 225 253 210 172 290 221 191 237 192 239 167 174 225 190 264 213 190 182 238 244 248 195 281 259 205 255 222 210 216 210 246 263 234 234 210 141 296 262 283 301 303 212 250 272 201 187 198 245 190 240 322 211 238 188 167 205 296 246 104 237 210 229 284 227 239 141 223 208 220 265 212 242 204 179 217 214 203 223 340 209 173 241 253 222 264 244 277 160 258 269 211 296 173 241 232 262 228 259 269 277 251 231 255 256 281 249 340 183 246 206 317 359 198 212 266 273 193 240 301 293 305 287 199 259 201 173 251 224 177 294 177 269 260 242 239 256 219 203 232 131 181 262 130 177 305 272 311 279 229 193 179 260 259 243 191 266 258 277 301 356 350 254 279 274 295 241 239 152 281 223 314 234 265 191 168 301 170 181 227 107 213 262 192 192 266 212 278 208 234 229 193 345 248 200 188 135 226 320 258 400 286 155 159 277 186 248 287 222 193 142 271 227 195 313 216 241 232 272 336 216 272 216 241 250 223 300 203 266 299 282 148 281 286 262 264 208 265 218 298 121 301 171 202 353 198 218 326 235 203 198 298 271 249 263 231 164 206 197 289 237 184 296 187 281 172 275 182 211 215 275 239 217 222 244 223 264 309 260 238 146 310 193 192 190 225 292 170 258 211 239 271 186 201 202 203 277 226 263 169 256 238 230 316 190 299 196 204 270 231 158 240 167 173 201 337 156 376 182 287 264 233 199 363 307 269 265 253 263 247 217 265 214 302 305 240 197 260 242 270 227 182 247 236 170 314 321 249 237 227 226 182 294 241 297 275 323 284 268 237 227 189 267 177 208 194 183 214 236 175 212 291 312 202 178 254 206 263 309 217 252 254 234 266 301 273 330 265 345 172 345 393 267 169 251 277 231 242 278 188 284 318 255 272 211 274 262 239 224 208 173 253 259 285 205 220 202 208 201 318 253 146 210 203 182 297 223 191 210 254 163 241 110 192 226 283 248 187 257 200 332 260 227 223 330 322 234 228 237 165 203 262 266 264 202 154 217 182 164 223 165 246 154 258 237 162 217 283 278 220 275 276 170 210 272 260 213 262 298 220 221 229 298 148 188 239 275 296 305 179 198 171 233 358 84 312 305 153 215 325 239 242 259 198 244 229 241 282 343 304 189 274 187 219 229 216 229 215 184 271 245 210 204 302 278 209 225 248 251 234 173 261 203 207 229 170 288 294 194 158 247 172 202 267 265 248 231 212 231 205 192 261 140 236 231 216 245 224 193 325 219 181 359 249 355 157 201 269 202 219 297 312 233 164 270 283 258 248 227 256 223 261 185 245 229 203 202 289 290 275 207 282 324 188 206 307 198 294 252 265 206 211 375 286 246 206 165 278 276 177 373 177 303 233 205 266 269 188 215 248 199 227 242 256 177 196 272 274 181 196 289 198 246 208 231 298 277 214 185 211 198 222 255 274 266 264 240 223 196 279 250 268 253 288 277 262 196 242 194 275 258 194 190 224 287 195 205 250 220 141 177 295 256 271 201 193 331 210 268 251 258 194 206 262 284 281 245 278 269 154 247 182 253 255 210 249 215 201 272 270 218 164 232 208 200 292 243 313 366 272 309 151 229 275 225 202 245 241 239 307 203 215 172 263 188 226 269 175 209 212 166 233 309 243 287 197 185 239 220 229 195 254 218 265 245 226 236 331 288 244 333 221 300 132 181 284 187 178 187 271 253 244 212 279 194 336 212 271 238 247 239 247 283 319 278 257 317 200 258 237 207 291 283 207 326 285 255 310 266 152 215 243 158 242 228 252 174 330 294 260 280 203 193 235 316 265 145 222 139 173 229 195 286 201 204 246 208 194 155 229 305 296 291 195 184 297 175 236 183 235 184 285 178 224 230 277 298 165 260 246 265 205 157 280 233 182 256 278 278 251 205 283 235 278 166 205 241 215 288 154 203 277 251 219 333 203 277 258 275 260 288 238 313 250 296 170 247 232 291 257 247 208 196 210 311 266 202 297 210 227 272 235 245 148 304 222 194 211 148 266 234 211 285 238 278 171 212 191 207 176 237 224 198 272 204 218 306 169 225 233 308 198 249 276 272 350 293 241 264 250 264 231 256 302 309 243 232 281 265 322 369 287 294 229 221 245 195 305 195 280 245 273 207 251 260 198 307 188 213 198 231 290 244 206 261 327 304 151 227 197 232 198 259 199 203 198 276 226 251 195 222 175 221 236 326 190 305 221 140 224 261 212 159 231 190 250 318 165 210 231 264 244 176 255 235 124 262 261 175 199 170 274 304 195 228 201 271 210 256 265 276 312 224 238 303 273 244 270 324 214 282 266 250 257 245 263 133 257 229 286 265 214 350 223 282 228 294 275 306 327 257 240 291 257 242 214 247 226 186 289 264 194 253 182 330 334 247 230 176 167 274 329 272 216 226 179 234 340 255 251 310 373 205 263 277 246 357 210 212 269 215 292 222 206 292 164 225 201 156 240 212 259 247 322 200 284 93 241 191 257 150 174 267 306 226 151 296 203 228 192 208 283 211 207 243 242 332 240 244 103 321 223 171 151 359 210 191 159 230 263 389 217 186 256 320 329 293 289 238 171 207 277 173 242 237 202 196 121 155 200 198 196 304 212 241 309 185 262 206 123 273 230 232 183 213 279 249 219 320 209 309 174 152 275 233 208 100 227 161 286 188 225 206 212 130 159 299 258 206 187 241 213 210 238 243 263 246 273 263 232 177 292 210 179 240 372 224 234 211 233 199 194 274 304 256 257 226 174 276 233 285 283 224 265 206 122 293 218 193 141 233 227 261 261 278 217 162 333 194 213 259 160 314 231 185 175 233 191 254 160 191 204 226 302 252 205 185 252 194 314 232 243 250 241 235 332 179 237 185 304 221 170 196 206 190 189 224 283 214 253 244 190 261 174 203 258 195 262 168 288 228 221 249 273 222 236 191 217 241 301 336 246 172 306 222 210 331 174 271 208 270 239 221 232 227 256 255 249 269 235 212 289 145 222 293 256 266 259 231 201 207 89 275 273 200 241 259 245 234 296 171 219 241 192 232 333 281 282 367 203 246 206 157 168 161 172 210 225 215 212 186 281 197 201 189 219 181 253 276 306 311 306 236 219 215 294 187 298 205 294 167 184 289 153 180 133 309 305 146 233 349 299 140 227 258 312 307 192 226 311 287 208 148 305 282 181 267 329 195 258 201 221 240 181 210 275 234 200 200 275 236 265 180 281 313 197 282 240 228 200 311 299 185 290 207 268 184 149 302 276 327 294 254 335 195 313 288 240 233 285 247 245 174 251 248 287 326 300 245 346 283 206 244 229 220 286 275 290 272 225 283 313 198 321 226 322 254 258 263 297 238 226 259 218 220 153 258 266 308 224 167 285 165 163 243 271 237 188 201 197 218 204 252 174 191 353 241 175 227 239 271 259 312 346 299 220 246 192 329 332 137 265 173 238 299 294 184 264 249 215 400 177 253 147 226 195 272 314 163 282 315 215 265 207 357 299 231 229 259 264 231 199 160 227 153 271 288 197 255 171 342 317 265 145 172 178 292 214 270 242 218 230 270 194 265 290 296 181 133 199 198 170 253 190 215 327 283 202 273 229 252 220 194 206 188 138 283 141 190 205 238 290 180 255 185 202 192 179 172 221 143 319 220 205 374 196 236 230 251 255 330 244 208 182 281 226 286 239 237 251 210 311 248 247 239 236 233 297 195 244 228 265 268 196 209 187 172 168 249 229 280 228 251 261 309 156 232 229 189 173 203 262 174 171 251 240 212 228 182 251 235 187 247 273 255 261 206 256 253 233 173 256 259 226 202 252 261 222 297 296 169 256 287 281 243 287 246 192 225 259 257 283 224 223 253 202 250 224 186 235 286 244 188 173 320 260 353 152 256 272 193 226 252 229 221 265 257 241 240 232 107 268 287 222 21</t>
-  </si>
-  <si>
-    <t>F(1.4397263716806328, 1.2228878725253847, -1.3243832187893344e-31, 1.3389966018438875)</t>
-  </si>
-  <si>
-    <t>2 0 2 1 1 0 1 2 3 0 2 3 0 0 0 2 2 2 1 0 0 0 2 2 0 4 1 2 2 1 1 2 1 2 0 1 2 2 3 1 1 1 1 2 2 3 2 3 1 2 0 3 0 2 1 2 3 1 1 0 2 2 1 0 2 1 1 0 3 3 2 4 3 2 1 2 1 2 2 1 1 2 2 2 2 0 1 1 1 3 2 1 0 1 0 2 1 1 3 2 4 1 2 1 0 2 1 2 0 3 1 2 0 1 2 3 1 2 3 1 1 0 3 2 0 1 2 1 2 2 1 0 2 2 2 0 2 3 2 1 1 0 2 1 1 2 0 1 0 2 1 5 4 0 2 1 1 3 1 1 2 1 1 1 3 2 0 1 3 2 0 1 2 1 0 1 0 0 1 1 1 2 1 0 2 0 2 2 1 1 1 1 2 1 4 2 1 2 1 0 0 0 0 1 2 1 3 1 1 1 3 1 1 1 1 1 1 1 1 1 3 2 1 1 2 1 1 1 1 3 1 2 1 2 1 0 3 2 0 1 1 3 1 1 1 2 1 2 3 0 1 2 2 1 2 1 0 2 2 2 0 0 0 1 2 0 1 2 3 0 0 1 3 0 1 1 1 0 1 0 3 2 1 3 1 1 0 1 3 1 3 2 1 2 1 0 2 0 2 1 3 2 1 2 1 0 1 1 2 2 2 0 0 0 2 1 1 1 4 1 2 4 1 1 0 1 3 1 1 0 3 3 0 0 2 0 2 3 3 0 2 2 1 2 0 1 1 0 1 0 2 1 2 1 2 1 1 0 3 2 0 2 2 1 1 0 2 3 1 2 1 0 1 0 2 2 2 1 1 3 1 0 3 0 2 0 0 3 2 1 1 3 2 2 0 1 1 4 3 1 1 2 1 1 1 2 1 1 1 2 4 0 1 2 1 0 2 2 2 1 1 2 0 1 0 2 1 5 0 0 1 2 1 3 0 3 5 2 2 2 4 0 1 1 2 1 1 0 1 1 1 1 1 2 0 1 2 1 1 0 1 3 1 1 3 1 2 1 1 1 0 1 0 2 0 3 1 1 1 1 2 4 2 2 4 2 2 2 3 1 2 2 2 2 3 1 3 1 0 2 0 2 1 1 1 1 1 2 2 3 3 2 2 2 0 2 1 2 2 2 0 0 0 3 2 2 1 3 1 3 3 0 1 2 1 1 1 1 1 2 2 1 1 0 1 2 1 2 0 1 2 0 3 3 1 2 1 0 1 0 1 2 1 0 2 1 2 0 3 1 2 3 4 1 3 0 0 2 1 2 2 2 1 2 0 2 0 3 0 2 1 1 0 0 3 2 2 2 1 3 1 0 0 1 1 2 1 2 1 1 0 3 0 2 1 1 1 0 0 1 1 2 5 3 2 3 0 1 1 1 2 1 1 1 2 0 3 2 1 1 3 3 0 3 2 1 1 2 3 1 2 3 2 3 2 1 1 1 2 1 0 2 0 1 1 0 1 2 3 2 2 3 1 1 1 2 2 2 2 0 1 2 0 1 2 1 2 0 1 1 1 1 1 0 2 1 3 0 2 3 1 4 2 1 2 1 0 2 2 0 1 2 2 1 0 1 2 0 1 1 1 1 2 3 1 2 2 2 2 0 3 2 1 1 1 0 2 2 0 1 0 2 4 4 1 1 1 0 3 2 0 1 1 0 1 1 1 2 1 3 3 2 2 2 1 1 3 3 1 2 0 4 3 2 1 1 3 1 2 0 1 0 1 2 1 1 1 2 1 1 1 0 4 2 0 0 1 3 0 4 2 0 1 2 1 1 3 3 2 0 2 1 1 1 1 2 2 3 2 2 2 0 2 2 3 3 3 2 1 4 0 1 1 1 1 3 1 0 1 1 1 2 0 0 1 2 2 3 2 4 4 1 0 1 3 2 1 1 0 2 0 3 1 1 2 0 2 0 1 6 1 1 2 1 2 2 1 3 1 2 2 0 3 3 1 2 1 2 1 1 0 2 2 0 3 1 1 0 1 0 2 3 1 2 1 3 3 2 1 3 0 1 1 1 0 1 2 0 2 2 0 3 2 1 0 1 2 0 1 2 2 0 3 0 0 2 3 1 3 2 1 1 2 2 0 1 1 1 1 2 2 0 0 1 1 0 1 1 0 1 1 4 1 2 3 1 0 1 1 1 3 1 1 0 3 1 1 2 2 0 1 0 0 2 0 0 0 1 1 1 1 2 2 1 0 3 1 0 1 3 3 1 1 2 2 1 4 1 1 2 1 2 3 1 1 3 0 1 0 0 1 0 1 1 0 1 2 1 1 0 2 1 2 0 2 1 2 3 1 2 0 0 1 1 2 2 1 1 2 1 1 0 1 1 3 2 0 1 2 2 1 0 0 1 2 2 2 2 0 1 0 1 2 1 2 1 0 1 2 2 1 0 1 0 0 1 1 3 1 0 2 1 2 2 2 1 0 1 0 1 2 1 1 0 0 1 2 2 0 0 4 0 1 3 0 0 1 3 0 1 2 1 2 0 2 1 0 2 0 0 1 3 0 1 1 0 0 2 0 1 1 1 1 2 1 0 2 1 1 2 0 2 1 4 2 2 0 2 1 1 1 2 1 1 1 0 2 1 0 2 0 2 1 3 1 2 1 2 0 3 3 2 0 1 1 3 3 3 0 0 1 1 0 0 1 0 3 0 2 3 2 1 3 2 1 3 1 2 1 1 2 1 3 1 2 1 1 2 1 0 1 0 1 0 1 2 1 2 1 2 3 3 0 3 3 2 3 2 1 2 3 1 0 0 1 0 0 2 2 1 0 0 1 1 1 1 2 0 0 1 2 2 2 1 2 2 3 2 2 2 0 2 1 3 2 2 1 2 2 3 0 2 3 1 2 0 1 1 2 1 2 0 0 2 3 1 3 0 1 3 4 1 0 2 1 0 1 2 1 2 1 3 2 2 1 1 0 2 1 2 2 0 0 0 3 0 2 3 1 2 0 1 3 0 0 2 1 2 2 0 2 0 3 1 1 3 1 3 2 1 3 0 0 0 1 3 0 3 0 0 1 3 1 0 3 1 2 0 1 1 3 2 0 2 2 0 2 2 2 2 2 0 1 0 1 1 2 0 2 1 1 0 1 0 1 1 0 1 2 1 0 2 0 1 0 1 0 1 2 3 2 2 2 2 0 0 1 0 3 1 3 0 3 2 1 1 0 2 0 1 2 1 2 2 2 0 3 0 0 3 2 1 1 3 1 1 1 1 1 1 1 0 2 0 3 2 1 1 1 2 0 2 2 0 1 3 1 1 0 3 0 0 1 1 0 2 2 1 0 1 1 2 1 0 0 0 1 0 1 1 0 2 0 1 2 1 3 0 0 3 2 0 1 3 0 2 3 1 1 1 1 1 2 1 3 0 0 0 2 2 0 1 1 1 0 1 2 2 1 0 5 3 1 2 2 2 0 0 2 1 3 1 2 1 0 1 0 2 2 0 2 0 2 1 0 1 2 0 0 0 3 0 0 1 2 2 0 0 0 1 3 1 2 0 1 1 1 2 3 1 2 2 2 2 2 2 0 2 1 1 2 1 3 1 2 1 2 0 2 2 1 1 0 2 0 0 2 1 2 0 2 2 2 1 1 3 1 3 2 2 0 2 2 1 2 0 2 0 0 4 2 1 1 1 1 2 1 1 3 2 2 2 1 2 2 2 3 0 3 1 2 1 1 1 1 0 2 1 0 0 0 0 1 3 0 2 1 1 2 2 1 0 1 2 2 0 0 0 1 1 1 1 2 2 1 1 1 1 0 3 0 3 1 1 2 3 3 3 2 2 1 2 2 2 1 2 2 1 1 3 2 2 1 3 2 1 0 0 1 1 2 0 1 2 2 2 3 2 3 1 0 0 0 3 2 0 3 1 3 2 2 1 2 1 2 1 0 2 0 2 2 4 1 2 1 2 2 1 0 1 2 0 2 4 0 1 1 2 1 1 1 1 3 2 1 2 1 1 2 3 0 3 1 2 0 2 1 1 1 1 2 1 1 1 2 0 1 2 2 2 0 0 3 0 2 2 1 1 0 2 4 2 0 1 4 2 2 1 1 2 2 2 1 2 1 2 4 2 3 2 2 2 0 1 3 1 2 1 2 1 0 1 2 1 0 2 2 1 1 0 1 0 1 1 0 3 2 1 1 1 1 2 0 3 1 1 1 4 2 1 1 1 3 1 2 2 2 1 2 1 1 2 0 2 1 2 4 2 3 2 1 4 1 1 4 3 3 0 1 2 3 1 2 3 2 0 1 0 1 1 0 1 2 2 2 2 3 1 0 2 0 1 2 0 2 1 0 1 1 1 3 0 3 1 4 1 2 2 2 0 0 1 2 1 1 3 1 0 2 1 5 0 0 2 0 3 1 1 0 2 2 2 1 2 3 2 1 1 2 2 1 3 1 0 0 1 0 0 1 3 0 1 2 1 2 1 1 0 0 2 2 1 2 2 1 0 1 2 1 2 2 1 2 2 1 2 2 0 1 0 0 3 3 0 1 4 2 2 1 2 1 1 2 1 3 2 0 0 2 3 3 2 1 1 2 1 1 1 0 0 0 4 2 1 1 2 2 1 0 1 2 0 1 2 2 0 2 2 1 3 1 1 1 1 3 1 0 2 2 1 3 1 2 0 2 1 0 2 0 1 1 1 1 1 1 3 1 1 1 3 4 1 1 3 1 4 2 1 0 0 0 2 2 1 3 3 1 1 2 1 2 0 2 1 2 1 2 1 1 1 1 2 1 0 2 1 1 2 2 1 1 0 2 2 0 2 2 1 2 3 2 0 2 0 2 0 2 1 3 0 1 1 3 3 0 2 2 0 1 3 1 1 1 0 4 1 1 1 1 2 0 3 1 1 1 0 1 3 3 1 2 1 0 1 3 2 0 3 0 2 1 1 1 1 0 1 3 1 1 2 2 1 2 0 1 0 0 3 2 2 1 2 3 4 2 3 1 2 1 1 1 1 2 2 1 2 0 1 1 2 0 1 0 2 3 2 2 0 0 1 1 2 2 3 3 1 1 0 2 0 3 2 1 1 3 1 2 1 0 2 0 0 1 0 0 2 2 0 1 2 0 1 2 3 0 1 3 3 1 1 3 2 1 0 1 0 0 1 0 0 0 2 0 2 3 3 0 1 0 1 3 1 2 1 3 0 1 4 1 2 1 2 2 2 0 1 0 1 0 2 1 2 1 2 2 0 2 0 1 4 1 3 1 1 0 1 2 2 1 0 1 1 1 1 0 1 3 1 0 2 0 0 0 1 0 3 1 2 2 1 0 3 0 2 2 3 1 2 1 0 2 1 1 1 1 2 0 2 1 0 2 2 1 2 1 1 2 2 1 1 0 1 1 1 1 1 1 0 3 0 2 0 2 1 3 1 1 0 2 1 2 1 0 1 0 0 2 2 1 2 3 2 2 1 3 1 1 2 2 3 1 1 2 1 1 1 1 3 1 1 1 3 1 1 0 0 1 1 0 1 2 2 1 0 2 1 0 0 3 1 2 1 0 2 2 1 1 1 0 2 3 0 1 1 1 1 1 1 1 1 2 1 1 1 0 3 1 3 3 2 1 0 1 1 5 1 2 2 3 2 0 2 3 3 0 1 1 0 2 1 1 2 2 1 2 1 2 0 4 0 3 1 0 0 0 0 1 2 0 2 2 1 2 2 2 1 1 2 2 0 1 2 1 1 0 3 1 1 2 2 3 1 4 1 1 1 2 3 1 0 1 2 0 2 4 1 2 1 3 2 2 1 2 0 1 3 2 1 0 2 2 1 2 2 2 1 0 3 0 3 1 1 0 0 1 3 2 2 1 0 0 2 0 0 1 1 4 0 1 1 1 1 1 1 0 2 1 1 1 1 1 2 0 2 2 1 2 4 1 0 1 1 3 1 1 1 2 2 0 0 2 2 1 4 1 1 1 1 0 1 0 4 1 2 0 2 3 1 4 0 1 1 1 1 2 1 1 2 1 0 1 0 1 3 2 0 2 0 2 0 0 1 3 2 1 3 2 2 1 2 2 1 2 2 2 2 1 1 0 2 1 1 1 0 1 2 1 3 2 0 2 1 0 2 1 2 1 1 3 1 1 0 2 2 2 2 2 2 1 1 4 4 1 2 3 0 1 2 1 2 1 1 0 0 2 3 2 2 0 2 0 0 4 2 1 0 1 2 4 2 0 3 1 1 3 3 1 0 2 0 0 2 1 2 0 0 1 1 1 2 3 1 1 1 1 2 1 1 0 0 2 1 0 2 1 1 1 1 1 0 1 3 0 4 2 2 0 1 2 0 1 0 2 1 1 0 1 2 0 0 0 2 2 1 1 0 2 1 0 2 0 2 0 0 4 2 0 2 2 1 0 1 1 2 0 2 0 2 1 0 1 1 3 1 0 2 1 2 1 0 2 2 2 1 0 2 1 2 1 1 3 3 0 2 0 3 1 2 2 2 2 1 1 0 1 1 2 2 1 2 1 2 1 1 1 0 1 1 0 0 3 1 0 0 2 1 1 0 1 3 1 1 1 0 1 1 2 2 3 1 1 1 3 1 2 3 3 0 1 0 2 1 0 1 1 2 0 1 0 2 0 0 2 1 2 1 3 1 1 2 0 2 2 1 1 2 3 1 3 1 3 0 0 3 1 3 1 2 0 1 2 0 1 1 1 3 0 2 1 3 1 1 1 1 2 2 1 3 1 1 2 2 3 1 1 0 0 0 1 2 2 1 2 2 0 2 3 1 0 1 1 2 3 1 4 1 0 0 0 0 2 0 1 3 0 0 1 0 0 2 2 0 0 1 0 3 2 0 3 1 0 1 1 1 3 0 4 1 2 0 3 1 0 1 2 2 2 2 0 2 3 0 2 0 0 2 2 4 0 2 1 2 3 0 2 1 2 1 2 1 1 0 0 2 1 3 3 2 0 1 1 0 3 1 2 2 3 2 1 0 0 1 3 1 1 2 0 1 3 1 3 0 2 2 0 3 2 1 0 1 2 1 0 4 1 1 3 2 1 1 2 3 2 0 1 1 3 1 0 2 1 1 1 1 1 3 0 4 2 1 4 1 2 0 2 1 2 1 0 1 6 2 4 2 2 2 2 1 1 1 0 0 2 1 2 0 0 2 0 2 2 2 0 1 3 0 2 2 1 1 2 1 3 1 1 3 0 3 0 1 0 1 0 2 1 2 2 2 0 0 1 1 1 1 0 0 1 0 2 1 2 2 2 1 3 0 2 1 1 1 1 1 0 2 1 0 2 2 3 1 1 2 3 1 3 0 3 2 2 0 0 1 1 0 3 1 1 1 1 4 3 1 2 2 3 2 2 3 1 3 2 1 3 0 0 1 2 0 1 3 1 1 2 0 1 2 2 1 0 3 2 3 2 2 1 1 2 1 1 1 1 3 3 2 3 1 1 1 2 2 1 1 1 2 1 2 1 1 2 3 2 1 1 0 1 2 0 3 0 1 2 1 2 2 0 2 1 1 2 2 1 2 2 1 2 0 3 2 0 4 1 3 1 1 2 1 0 1 0 0 1 2 0 2 0 0 1 0 1 2 1 5 3 0 3 0 2 0 2 2 1 2 2 3 0 1 0 2 2 2 1 1 1 2 0 0 1 2 1 3 2 3 1 1 0 2 0 0 1 1 0 1 2 4 3 1 0 2 1 1 2 2 0 1 2 1 3 1 1 0 0 1 0 1 1 1 2 1 4 1 2 0 2 2 3 2 0 1 0 1 2 1 2 1 2 0 1 1 3 4 1 1 2 1 1 2 0 2 2 2 2 4 2 2 1 2 0 4 2 1 3 0 0 3 2 0 1 0 2 0 0 2 0 0 1 2 1 3 1 1 1 1 1 0 0 2 2 1 3 0 0 1 1 0 2 2 0 1 0 3 2 2 0 2 1 1 1 1 2 0 1 1 3 0 2 2 1 3 0 3 2 1 1 1 2 0 1 3 1 0 0 2 1 1 2 0 0 3 1 2 1 3 2 0 2 0 1 0 0 3 3 2 0 3 2 1 0 1 1 2 1 2 3 1 1 4 2 3 1 2 1 1 1 4 0 0 0 2 2 1 2 1 3 0 2 2 1 0 1 0 2 1 2 1 2 4 2 2 0 1 0 2 3 2 1 0 2 2 3 2 1 0 2 0 1 0 1 0 3 2 2 2 1 1 1 2 3 3 0 2 2 0 0 2 0 1 1 4 0 0 2 1 2 1 1 1 0 2 1 0 1 1 0 2 1 1 2 1 4 1 1 4 1 0 3 2 1 1 1 2 1 2 1 2 1 0 0 1 1 3 1 2 2 2 2 3 0 1 1 1 1 1 1 3 2 1 2 0 1 2 2 2 2 0 1 3 2 0 1 1 1 1 3 1 1 1 2 4 1 1 3 1 0 1 1 0 3 4 0 2 2 0 1 1 1 2 3 1 3 3 1 2 0 0 1 0 2 3 0 0 0 0 2 0 0 3 0 2 3 2 3 2 1 2 1 2 0 0 0 1 2 1 0 1 0 2 1 2 1 2 2 0 2 2 2 3 0 0 0 2 2 2 3 2 1 2 0 1 0 1 2 1 2 2 0 1 4 2 1 0 1 3 1 0 3 1 4 0 2 2 1 0 2 1 1 2 2 2 1 1 2 1 1 4 0 0 3 0 1 2 0 1 1 1 1 1 0 3 0 1 1 4 0 3 3 0 0 1 1 1 0 2 1 1 1 1 1 0 1 0 0 0 0 1 0 2 0 2 1 2 2 2 0 1 1 2 1 0 1 2 3 3 1 1 3 0 2 1 1 1 2 3 1 0 1 2 2 1 1 2 1 2 0 0 0 1 2 1 2 0 3 2 2 2 3 2 1 2 1 3 3 1 1 2 1 2 0 3 2 1 2 0 1 0 0 1 2 0 2 2 1 4 3 3 0 2 1 1 0 2 1 1 1 1 1 3 2 1 3 1 3 1 0 2 0 2 1 1 3 1 1 3 2 1 1 2 2 3 0 1 1 2 2 1 1 1 0 0 0 1 0 1 2 1 1 1 1 2 3 0 1 1 2 3 1 0 1 3 2 1 1 1 4 1 0 2 0 4 0 1 0 0 2 3 2 0 1 2 1 2 1 0 1 1 0 1 1 0 2 0 2 0 1 1 2 1 2 2 1 1 3 2 3 3 2 1 2 3 2 0 1 2 2 0 0 2 0 1 1 0 0 1 3 1 1 1 3 0 4 3 1 2 3 2 1 2 2 0 0 2 1 2 2 2 2 1 1 1 3 2 0 1 0 1 2 0 0 1 2 3 0 1 2 0 1 0 2 1 0 1 3 0 0 2 0 3 4 1 1 1 1 3 0 1 2 2 0 2 1 3 2 1 0 1 1 1 4 1 1 1 1 2 0 1 1 2 2 2 1 2 1 2 2 2 1 3 0 0 2 2 0 2 1 1 1 2 1 2 0 2 1 3 1 2 0 0 3 4 0 3 4 1 3 1 0 0 2 3 2 1 2 0 1 1 1 3 2 1 3 2 1 0 2 1 2 1 3 2 1 0 2 1 1 0 1 1 1 1 2 1 1 1 1 0 0 0 2 2 1 3 3 2 1 1 3 0 2 2 2 1 1 2 0 1 0 1 2 0 3 1 2 1 2 0 1 3 1 3 1 1 2 2 0 2 1 2 1 3 2 3 3 2 1 1 1 0 2 2 2 3 2 1 1 1 2 2 1 1 1 1 2 2 2 1 0 2 2 1 1 0 1 0 2 1 0 1 2 0 1 2 1 2 2 2 2 1 0 0 1 3 2 2 3 3 1 1 2 0 1 2 1 2 2 2 2 1 2 1 1 2 1 2 0 2 3 2 1 0 1 2 2 3 0 2 2 3 3 3 3 1 0 1 1 1 3 1 1 2 1 1 1 1 2 0 4 1 1 1 2 2 1 3 2 2 3 1 1 2 3 1 5 1 1 3 1 2 0 1 1 1 1 1 1 0 1 2 0 1 0 1 1 1 1 2 2 1 1 3 1 1 2 2 2 1 1 1 0 2 1 2 0 1 1 1 0 2 1 1 3 1 3 1 0 1 2 1 1 1 0 1 1 2 2 1 1 2 0 2 3 1 1 2 1 3 2 2 1 3 1 1 2 1 1 1 1 2 2 0 3 1 2 1 1 0 0 0 0 0 3 3 2 1 2 2 0 3 1 1 2 2 2 1 1 1 1 0 0 1 1 3 1 3 1 1 1 1 3 2 2 2 1 1 1 1 2 0 2 0 1 0 0 2 0 1 0 2 0 3 1 4 1 1 2 0 2 0 2 2 2 1 0 0 1 2 3 3 1 2 1 1 2 1 1 1 1 1 0 2 2 1 1 3 0 0 2 1 2 2 1 0 2 1 3 1 0 3 1 1 0 2 1 2 0 1 2 2 2 1 2 1 3 1 3 0 3 2 1 1 1 3 1 2 1 1 2 1 1 0 2 2 2 3 1 1 2 0 1 1 0 2 0 1 0 1 1 1 2 0 1 0 1 1 1 1 2 3 2 1 3 2 1 2 1 1 1 3 1 1 5 1 0 2 3 1 2 2 2 1 1 1 1 3 1 4 4 0 1 1 2 1 0 1 1 2 1 0 1 0 0 1 2 1 2 0 2 1 0 2 3 1 2 0 0 1 0 1 2 2 2 1 1 1 1 1 1 1 1 2 2 1 2 1 0 0 0 4 1 3 3 2 2 1 0 0 0 1 2 2 3 1 0 1 0 0 3 2 2 3 3 1 2 1 3 2 1 2 1 1 0 1 2 1 2 5 2 2 3 0 1 3 3 1 1 1 1 0 1 1 3 0 0 1 0 1 1 0 1 2 1 1 2 2 1 4 2 1 1 1 0 2 2 1 2 2 3 2 1 2 0 0 1 0 0 3 3 2 0 1 2 0 1 3 1 4 0 0 2 2 0 2 1 0 2 1 1 4 1 0 1 0 3 2 2 2 1 2 1 2 0 0 1 0 2 2 0 2 2 1 1 2 3 2 2 1 1 1 1 2 0 2 1 1 0 2 1 1 1 1 3 2 1 0 2 1 2 1 0 3 1 1 0 2 2 1 1 2 1 1 1 2 1 2 1 2 1 4 2 1 1 1 1 1 2 0 1 1 0 2 1 0 2 2 5 1 3 2 2 1 1 1 2 1 2 2 3 2 1 2 2 2 0 0 1 2 1 1 1 2 0 1 1 2 1 2 1 4 1 0 1 1 0 2 1 2 1 1 1 1 0 3 0 0 1 2 2 1 1 1 0 1 2 1 1 2 2 0 4 2 2 4 0 3 1 3 1 2 1 2 0 3 0 2 0 1 1 2 1 1 2 1 1 2 1 0 2 0 1 1 0 2 2 1 1 0 1 4 1 0 1 1 1 1 2 0 1 3 1 1 2 3 2 2 2 0 2 1 0 2 1 2 2 2 1 3 0 1 0 0 2 1 0 2 0 0 1 1 1 0 4 2 2 3 0 0 0 2 1 1 2 1 1 1 2 1 2 5 2 1 1 4 2 1 3 1 1 1 1 4 3 0 1 0 3 2 2 3 3 1 0 1 2 0 0 1 1 0 1 1 2 2 1 1 0 0 0 1 0 3 1 3 1 2 1 1 2 2 2 0 1 1 1 1 0 0 3 2 1 0 2 1 2 1 2 2 2 1 1 0 1 1 1 1 2 2 1 3 2 2 1 3 1 0 2 1 3 2 1 1 2 2 1 1 1 1 2 1 1 1 1 3 0 1 1 1 0 4 1 0 1 1 1 0 1 2 3 2 2 1 0 2 1 1 0 3 1 1 1 2 0 3 3 2 0 2 0 2 1 2 0 2 0 1 1 2 2 1 0 0 1 1 2 1 2 1 2 0 3 2 2 0 0 2 2 3 4 3 1 3 2 3 1 2 3 1 0 3 1 0 1 3 4 2 0 0 0 1 3 4 1 3 0 3 0 1 2 0 0 0 2 1 3 1 2 3 2 1 0 1 1 0 1 2 1 2 2 0 3 2 1 1 1 0 2 1 1 1 1 2 1 1 0 0 2 0 3 2 1 2 1 1 0 1 1 0 2 1 1 1 4 3 2 1 2 0 2 0 1 0 2 2 1 2 2 1 2 1 0 2 3 1 2 2 2 2 1 2 2 1 0 3 0 2 1 0 1 3 1 5 2 0 1 1 2 1 3 1 0 1 2 0 1 1 0 0 1 2 2 0 2 0 1 0 2 2 0 3 1 1 0 2 2 3 0 2 0 2 1 3 2 1 2 1 2 3 1 1 2 0 2 3 1 1 1 2 3 0 1 2 2 2 1 2 1 0 1 0 2 0 0 2 1 2 1 2 2 2 1 1 2 5 3 0 1 1 1 3 1 2 2 2 0 2 2 2 0 1 1 0 1 1 2 1 3 2 1 1 3 2 1 2 1 2 1 1 2 2 1 1 2 1 2 1 1 1 1 1 1 1 2 4 1 2 1 1 1 2 0 1 0 1 2 1 2 0 3 3 1 0 0 0 1 1 1 2 0 2 2 2 1 3 1 2 1 0 4 1 1 0 0 1 1 2 4 1 0 2 0 0 0 3 0 1 3 2 3 1 2 2 0 2 1 2 2 0 3 1 0 1 0 1 3 3 2 1 0 1 1 1 1 1 2 0 1 1 2 2 0 2 0 4 1 1 1 2 1 2 1 2 2 1 4 2 2 1 2 2 3 1 2 2 3 1 0 1 1 1 1 0 1 1 2 1 0 2 1 1 1 2 1 0 2 2 1 3 1 1 2 3 1 0 2 1 2 1 1 3 3 1 1 1 2 3 1 2 1 1 1 2 1 2 1 1 2 1 0 1 3 3 1 1 0 4 2 2 2 5 1 2 0 2 1 1 2 1 2 1 0 1 2 1 4 1 3 0 3 2 1 2 1 2 2 1 1 1 2 4 2 0 1 2 1 2 2 2 1 2 1 1 3 1 0 1 3 1 0 0 0 1 1 2 1 2 2 2 3 3 2 1 2 0 1 0 2 1 4 2 2 1 2 0 3 1 2 2 1 2 0 2 3 0 2 2 1 1 4 1 2 2 1 1 2 1 2 0 2 2 3 0 2 1 1 4 0 1 0 2 0 3 0 1 0 0 3 4 2 1 1 1 0 0 0 0 0 2 1 0 0 1 2 0 0 3 3 1 2 1 0 1 2 1 0 1 1 2 1 2 0 1 3 3 1 0 2 3 0 0 2 0 3 1 2 2 2 1 2 0 1 0 1 4 2 4 0 1 1 2 0 1 1 0 0 4 3 1 1 1 1 2 2 2 0 0 2 0 1 2 0 2 0 1 1 4 1 0 1 0 0 1 3 2 1 3 0 1 1 1 3 4 3 2 0 1 0 3 1 4 0 0 0 1 2 2 3 1 1 1 0 0 0 3 2 3 2 2 2 1 4 3 3 2 1 0 2 0 1 2 0 3 3 2 1 0 1 2 1 1 1 1 1 1 3 0 0 2 2 1 3 1 1 4 2 1 1 1 1 1 2 1 1 1 3 2 1 4 1 1 3 1 0 0 1 3 0 1 1 2 2 3 1 2 0 0 1 1 2 1 2 1 0 3 2 2 0 1 2 1 0 1 0 1 3 3 1 1 2 3 1 2 2 2 2 1 3 1 0 1 1 1 2 1 3 2 3 1 2 2 2 2 1 2 2 5 1 1 1 1 0 3 1 0 1 2 1 3 1 1 2 2 1 3 2 2 0 0 2 2 1 0 3 4 2 1 1 3 1 1 0 1 0 1 1 1 2 1 0 2 3 0 0 2 1 0 2 0 1 1 0 2 0 2 2 2 2 0 4 1 1 1 2 1 1 0 1 2 0 2 0 1 0 4 1 3 1 1 3 2 1 2 3 2 1 2 0 2 1 1 1 0 2 1 2 2 1 2 3 0 1 3 2 2 0 3 3 3 2 2 2 2 1 0 1 0 2 1 0 2 3 0 1 1 2 0 2 2 1 1 1 2 1 0 2 0 1 2 1 1 2 3 1 2 1 1 1 2 0 2 1 2 2 1 2 1 3 0 0 1 1 0 2 3 2 0 1 1 2 2 0 0 0 1 1 0 1 0 0 1 1 0 1 3 2 1 1 3 0 1 2 1 1 4 1 1 2 1 2 3 0 1 2 2 1 1 2 1 3 2 2 2 0 1 2 0 1 2 2 3 2 2 0 1 2 3 1 1 1 1 2 2 0 0 2 1 0 4 1 2 2 1 2 2 2 3 3 0 2 2 0 1 2 1 3 0 2 2 2 2 2 0 0 1 3 2 1 0 1 0 0 3 1 0 2 1 1 1 3 2 1 1 1 1 1 2 3 1 0 2 1 0 0 2 2 1 0 0 1 1 3 4 1 3 1 2 1 1 2 0 0 1 1 3 0 1 0 0 1 1 4 2 4 2 1 2 2 1 1 3 2 2 3 3 1 1 1 1 0 2 2 1 0 1 1 1 1 1 0 1 5 1 1 1 2 2 2 0 1 2 1 1 2 3 1 1 0 2 1 1 1 2 2 0 1 1 2 0 1 0 0 0 2 2 1 1 2 0 0 0 2 0 0 3 3 3 1 2 0 1 3 2 2 1 3 1 1 2 0 2 2 1 1 2 2 1 1 0 3 1 0 0 1 1 0 2 0 1 1 1 1 1 4 2 1 3 0 0 0 2 3 1 1 3 0 1 1 3 1 0 1 1 1 0 1 2 1 3 2 1 2 1 2 1 2 4 2 1 2 3 1 1 1 3 5 1 2 3 0 1 1 2 2 2 0 2 2 1 2 5 2 0 0 1 2 2 0 0 3 2 2 2 0 2 3 1 2 1 3 1 1 2 4 3 0 1 1 3 2 3 0 2 2 2 2 2 2 0 2 0 1 1 1 1 1 1 1 1 2 1 3 3 2 1 1 4 0 2 1 2 3 4 2 3 1 2 0 3 0 2 2 1 1 0 1 0 2 1 2 2 3 1 1 2 1 2 0 1 0 4 1 1 1 1 1 1 3 2 1 1 1 0 2 0 3 1 1 2 1 2 2 2 3 1 1 1 1 3 1 0 2 0 2 2 2 1 1 1 1 0 2 2 1 1 0 0 3 2 1 1 1 3 2 0 1 0 2 0 2 1 0 0 1 1 1 3 0 1 1 1 1 2 0 1 2 1 3 2 0 1 0 0 1 2 2 2 1 1 2 2 2 1 1 1 2 2 3 1 1 2 2 3 2 1 3 1 1 4 1 2 2 0 0 3 1 0 1 0 2 1 1 1 0 1 1 3 0 3 3 3 1 1 3 1 2 1 2 2 1 1 2 2 3 1 1 1 1 0 1 3 0 2 2 1 1 2 1 2 3 1 0 2 2 2 3 2 2 1 1 1 3 1 2 0 4 2 3 0 5 3 1 2 2 1 3 2 1 0 2 1 2 3 0 1 1 3 1 2 2 0 1 1 1 1 2 1 2 1 2 1 2 1 0 1 0 2 0 1 3 2 2 0 0 0 1 3 3 2 3 2 1 1 1 1 2 1 2 0 0 0 1 2 3 2 2 1 1 0 1 1 0 1 1 1 1 2 2 1 1 2 3 2 1 0 1 2 1 1 3 1 1 3 2 1 2 2 1 1 1 1 4 2 2 0 3 2 2 3 0 0 1 0 1 1 0 1 1 1 0 1 2 1 1 4 2 3 2 0 1 1 3 2 0 1 1 1 1 1 2 0 1 2 1 1 1 0 1 1 1 1 2 3 2 0 0 2 2 3 2 2 2 1 1 2 3 0 0 3 1 2 2 1 0 0 1 3 2 1 3 1 0 0 2 2 3 0 1 2 1 0 2 1 3 2 2 3 2 3 1 1 2 3 0 3 0 3 1 1 1 2 0 2 1 2 1 2 2 2 2 0 1 1 0 1 2 3 1 2 2 1 1 2 1 0 1 0 2 0 1 2 1 0 0 2 2 2 2 3 2 1 1 0 2 1 2 1 1 3 0 0 1 0 0 1 1 0 2 1 1 2 0 0 2 0 1 2 2 2 1 1 2 4 1 1 1 2 1 0 2 2 1 2 2 2 2 2 0 1 0 2 2 2 2 0 1 0 0 2 0 0 1 1 1 1 0 0 0 0 2 1 1 1 2 1 2 2 0 2 2 2 2 0 1 2 2 0 2 2 3 2 1 2 1 4 1 0 0 1 3 0 0 2 2 1 1 3 1 2 4 2 2 1 3 2 1 0 3 2 2 1 0 5 0 1 0 1 2 1 2 1 2 2 1 1 1 0 2 2 1 1 2 2 3 2 1 2 1 1 0 1 2 2 1 2 2 0 1 0 1 1 2 0 1 2 2 3 1 0 3 1 0 1 1 1 2 3 0 1 3 1 0 0 1 2 3 1 2 1 1 1 2 2 2 1 2 2 3 0 2 2 1 4 1 0 5 1 2 1 1 3 1 3 2 1 2 2 3 2 1 0 0 2 0 1 0 1 1 1 3 2 2 2 0 1 1 1 0 3 1 1 0 0 0 0 0 1 0 2 1 5 2 2 0 4 2 1 1 1 2 2 1 1 2 2 2 0 3 1 2 2 3 1 3 2 1 0 1 5 2 0 1 2 3 2 2 1 2 2 3 2 1 1 1 3 1 1 1 1 1 3 2 2 0 0 4 1 1 1 2 2 1 2 3 0 2 1 2 1 0 1 0 0 1 3 1 1 1 1 3 1 1 1 1 2 2 1 1 1 2 3 0 0 2 1 2 0 1 2 1 1 1 1 1 1 1 4 2 1 2 1 0 1 1 0 2 2 0 2 2 3 1 3 1 2 1 0 3 2 1 0 3 2 1 2 1 2 2 1 0 2 0 1 4 1 1 0 2 1 2 1 1 1 1 1 2 0 2 3 2 1 2 1 3 1 3 1 3 1 0 0 2 1 2 2 3 2 1 0 2 2 1 1 1 1 2 0 1 2 1 2 1 0 1 1 3 2 3 1 1 1 1 1 4 1 0 1 1 0 0 2 2 2 1 1 2 1 1 4 2 3 1 2 1 2 0 0 1 4 1 1 3 0 0 3 1 0 1 2 3 4 2 1 1 2 0 0 2 1 1 2 1 1 1 1 1 2 2 0 3 1 2 1 2 1 1 3 0 2 3 1 1 3 1 3 0 2 1 4 1 0 1 0 3 1 1 1 3 0 0 3 1 1 2 2 1 1 1 3 2 0 1 2 2 1 2 2 0 3 3 2 0 2 0 1 1 2 2 1 1 1 0 4 4 1 1 2 2 2 0 3 2 0 1 2 1 0 0 3 0 2 1 1 1 1 1 1 2 2 2 1 2 1 0 1 0 0 3 1 3 1 3 1 2 2 0 2 2 2 2 1 1 1 0 3 1 1 1 3 1 1 3 1 2 1 1 2 0 2 1 1 1 0 2 0 1 0 3 1 2 1 0 2 3 2 1 0 0 3 1 2 2 2 0 3 1 3 1 1 0 0 3 1 1 2 1 0 0 2 4 3 2 1 0 1 0 1 0 2 1 3 1 1 1 1 3 2 0 2 2 3 2 0 1 1 0 2 1 2 0 2 1 1 0 0 1 1 1 0 1 1 2 1 2 4 2 2 2 1 1 2 2 2 1 2 2 3 2 2 1 2 2 2 0 2 0 1 0 2 2 3 1 3 2 1 1 2 1 1 1 1 2 0 3 1 1 2 0 1 2 2 2 1 2 1 1 0 3 2 1 0 2 0 2 3 2 1 2 1 3 0 1 2 3 3 3 1 2 1 3 3 2 2 3 2 2 0 1 1 1 0 3 1 3 2 1 1 2 0 2 1 0 2 2 1 3 0 0 1 0 1 2 3 3 2 4 1 2 3 0 2 1 4 3 2 2 1 1 2 0 1 0 0 1 1 0 2 2 0 2 2 3 2 2 3 1 1 1 2 2 1 1 2 3 1 2 1 1 1 1 2 1 2 2 2 0 1 1 1 2 1 2 1 3 2 2 1 1 3 4 2 0 1 1 1 3 2 3 0 1 1 1 2 1 1 1 2 0 1 0 1 0 1 1 0 0 2 0 1 1 1 1 1 0 0 1 1 2 1 1 0 3 2 3 2 2 1 1 2 0 1 0 1 0 1 2 0 2 0 0 1 1 1 1 0 4 1 1 3 1 1 1 0 0 2 2 3 2 2 0 1 1 0 1 1 1 1 0 2 0 1 3 2 1 0 1 1 0 0 1 0 0 0 1 2 2 1 1 2 1 2 2 0 0 2 1 0 1 1 1 2 1 2 2 0 1 2 2 3 1 1 2 1 0 0 3 1 0 1 1 1 1 2 3 0 3 0 2 0 2 4 0 2 1 1 1 0 1 3 0 1 2 1 1 1 2 1 0 3 2 3 0 3 3 2 0 1 1 1 1 0 3 2 1 1 2 1 1 0 3 0 1 1 3 2 3 1 2 2 2 0 2 1 2 0 1 2 3 0 1 2 4 1 2 0 1 0 2 2 1 2 0 0 0 0 2 2 1 2 0 1 2 1 0 2 2 1 1 3 1 3 2 2 1 1 0 2 3 1 1 3 1 2 0 1 1 3 2 2 1 1 3 0 0 2 0 2 1 1 2 2 2 2 2 1 1 1 3 3 2 2 1 1 3 0 2 3 2 0 1 2 3 1 1 2 0 1 1 0 1 1 0 0 1 0 1 4 2 2 2 3 2 0 2 3 2 3 2 2 4 3 0 1 1 2 3 3 0 2 1 0 1 2 0 1 1 3 1 2 1 2 3 2 2 2 2 1 1 2 1 2 0 2 1 1 0 1 0 1 3 1 2 0 2 0 1 2 2 1 3 3 0 2 1 2 2 2 2 2 1 4 0 3 2 3 2 1 3 0 2 2 1 0 2 2 1 2 0 2 1 3 1 4 2 2 3 2 3 3 1 3 1 0 3 1 0 0 2 1 1 1 2 1 1 2 1 1 1 2 3 2 3 3 2 1 1 1 1 3 1 2 3 2 0 1 1 2 1 2 1 0 1 2 1 1 2 2 1 2 1 1 1 3 2 0 2 1 2 2 1 1 2 0 2 0 2 1 1 0 2 1 1 2 3 0 0 2 3 2 2 1 2 3 3 2 2 3 2 0 0 0 0 0 2 1 0 2 1 0 1 3 0 1 2 2 2 2 1 2 1 0 2 3 0 1 1 1 1 1 2 3 0 3 0 2 1 1 2 1 1 2 2 0 1 2 2 1 0 2 1 1 1 0 2 2 1 1 1 2 2 1 0 0 3 0 0 0 0 2 2 2 1 1 0 2 2 0 0 1 0 3 1 0 1 0 2 2 1 2 2 1 1 1 2 2 1 2 3 3 2 1 2 0 0 1 1 0 1 1 0 1 3 3 1 2 2 2 2 2 1 2 2 2 2 0 3 2 1 1 2 2 2 2 2 0 1 0 0 2 3 2 1 1 2 1 0 0 2 2 0 1 1 2 1 1 2 1 1 1 0 1 0 0 1 1 2 0 0 1 2 0 3 1 0 1 1 1 1 2 0 1 1 1 1 1 5 2 3 2 1 0 0 1 0 1 0 1 2 0 0 0 1 1 1 2 0 1 2 1 2 3 0 1 1 0 1 2 1 2 1 1 0 4 1 3 4 2 2 2 2 2 2 2 1 1 2 2 0 1 0 1 2 2 3 2 0 2 1 1 0 2 2 0 1 1 1 0 2 5 1 2 2 2 5 2 1 3 1 2 3 0 3 1 0 1 1 2 3 0 1 4 2 1 2 1 1 3 1 0 1 1 2 0 2 2 1 2 1 1 3 1 1 2 2 1 1 0 1 2 2 2 0 3 0 2 1 1 1 1 0 0 5 1 1 1 2 1 1 1 2 0 2 2 3 0 2 2 0 2 0 0 4 3 2 2 1 1 1 1 2 1 2 1 1 1 2 0 3 2 1 0 1 0 1 1 1 1 2 1 0 0 0 1 1 1 2 3 2 2 1 1 0 0 1 1 0 2 0 1 3 1 1 0 2 1 1 0 0 0 1 2 0 1 2 1 3 1 3 2 1 2 0 1 1 1 2 5 2 4 2 2 2 1 1 3 1 1 0 0 0 0 1 1 3 1 1 0 1 1 0 2 1 2 1 1 2 0 2 1 1 1 0 0 1 1 1 1 2 0 2 2 0 2 2 0 0 1 2 2 3 1 2 2 2 1 3 1 1 1 1 2 2 2 0 0 2 1 2 1 2 0 1 0 0 1 1 1 1 2 1 2 1 0 3 2 4 1 3 1 2 2 1 0 2 2 2 2 3 2 1 2 1 1 1 1 0 1 2 0 1 2 1 0 3 2 0 1 3 1 0 1 2 1 3 2 2 2 2 1 0 1 1 2 1 1 0 0 1 0 1 4 2 2 2 1 1 1 1 2 1 2 2 2 0 2 2 2 3 3 3 2 1 0 2 1 1 1 0 2 1 1 1 2 2 0 1 2 2 1 1 2 3 1 2 2 2 3 1 1 0 0 1 2 4 4 1 1 2 3 1 2 1 1 2 1 3 2 1 0 0 0 2 3 1 2 2 1 2 0 0 4 4 3 0 1 2 1 1 3 1 2 1 2 1 3 0 2 3 1 1 0 1 2 0 1 0 2 3 1 2 3 1 2 1 1 4 1 3 2 1 1 1 1 2 0 1 0 1 2 1 0 2 1 1 1 3 0 1 3 0 1 1 0 1 2 0 1 1 3 2 1 2 0 1 2 2 1 1 3 1 3 1 2 1 1 1 2 3 1 0 1 1 2 2 3 2 3 0 2 2 0 2 3 1 2 2 0 2 2 0 3 1 2 1 2 1 0 3 0 1 0 1 2 1 0 1 1 0 1 0 2 2 2 0 2 2 2 1 2 0 1 1 2 1 1 1 2 2 2 2 1 1 1 0 1 2 1 1 2 1 2 2 1 1 2 2 1 0 3 1 0 1 1 4 2 1 1 1 3 0 1 3 1 3 2 4 2 1 1 1 2 2 1 1 2 1 0 1 1 1 1 3 2 2 3 2 2 3 1 2 4 2 1 1 1 0 1 2 2 1 1 3 0 1 2 1 1 2 0 1 1 3 1 1 1 2 1 3 0 1 2 0 2 1 5 1 1 2 1 0 0 0 2 2 4 2 2 1 0 2 2 0 0 2 2 2 2 0 2 0 2 2 2 0 1 3 1 1 1 2 1 0 2 0 1 0 0 2 5 3 1 0 1 1 1 1 0 0 0 1 1 0 2 1 1 0 0 1 4 0 1 0 1 0 1 2 2 1 3 1 3 1 2 1 4 3 2 3 2 1 2 1 2 2 1 1 1 2 2 0 1 1 2 0 0 3 1 1 1 0 0 3 0 3 0 2 2 1 2 0 3 2 3 0 2 0 4 0 2 2 3 0 0 0 1 3 0 1 0 2 1 3 2 1 2 3 2 6 2 2 1 3 2 1 2 1 1 2 3 2 2 1 1 2 0 1 2 1 2 1 0 1 0 1 1 2 1 1 1 2 1 2 1 0 1 1 2 2 1 2 3 0 1 0 0 0 0 2 1 1 0 2 0 1 3 0 1 2 2 1 1 2 1 2 2 0 0 0 1 1 2 0 2 1 1 1 1 1 2 1 2 2 3 1 0 0 1 2 2 1 2 1 1 0 1 0 3 0 1 4 2 1 4 1 2 0 3 2 2 0 0 3 0 1 0 3 2 2 1 1 0 1 1 0 1 2 1 2 2 1 1 1 2 2 3 2 2 0 1 1 0 1 0 2 1 4 1 1 2 1 2 0 2 2 2 0 1 2 0 4 2 1 2 1 2 2 0 2 1 1 1 2 1 0 2 1 2 1 1 1 3 2 0 2 1 1 1 0 2 2 1 1 2 0 1 2 2 1 0 3 1 2 1 2 2 2 0 1 2 2 4 1 2 0 1 2 0 3 0 1 0 1 0 0 2 1 2 1 1 1 2 1 3 2 1 1 1 0 0 1 2 1 1 1 2 1 1 0 2 4 1 0 1 3 0 0 1 1 3 2 0 0 1 1 0 1 1 1 1 1 2 2 3 2 2 1 4 2 1 2 2 1 1 4 1 1 1 1 0 1 0 2 1 1 1 2 1 1 0 2 2 0 1 0 1 0 1 0 0 0 0 0 1 1 1 0 1 1 1 3 3 1 1 1 0 1 0 3 2 1 1 0 2 1 1 3 0 2 1 0 1 4 2 2 2 1 0 2 2 3 3 1 2 0 0 1 1 1 0 1 2 2 1 1 0 3 3 1 1 2 1 1 0 2 3 2 1 1 1 2 3 2 1 3 2 2 2 1 1 1 2 1 1 0 1 1 4 1 2 2 2 2 0 3 1 2 1 3 1 1 2 1 2 3 1 1 2 1 2 1 1 1 1 2 3 1 0 2 0 0 2 1 1 1 1 1 1 2 2 2 1 2 1 2 1 2 2 1 1 1 1 1 1 1 3 1 1 1 2 1 1 2 2 2 3</t>
-  </si>
-  <si>
-    <t>GAM(0.1602873210172891, -8.1949085485247e-28, 0.8224669224297039)</t>
-  </si>
-  <si>
-    <t>0 0 0 0 0 0 0 0 0 2 1 0 0 0 1 0 0 0 0 0 1 1 2 0 1 0 0 0 2 2 0 2 0 0 0 1 0 1 0 0 2 1 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 1 0 1 2 1 0 0 1 1 0 0 0 2 0 1 1 1 0 2 0 0 0 1 0 0 0 0 1 0 1 0 0 0 1 1 0 1 0 1 1 0 0 0 0 0 0 1 0 0 2 0 0 0 2 0 2 1 0 0 1 0 0 1 0 1 1 0 2 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 2 0 0 1 0 0 1 0 1 1 0 0 0 1 1 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 1 0 3 0 1 0 0 1 0 0 0 0 0 0 0 0 2 0 0 0 0 1 1 0 0 0 0 0 0 0 1 1 0 0 1 1 0 0 0 0 2 0 0 1 1 0 0 0 0 0 1 0 0 0 2 0 0 0 0 0 1 0 0 1 0 1 1 1 0 0 0 0 1 1 0 0 1 0 0 2 1 1 0 0 0 1 0 0 1 1 0 1 2 0 0 0 0 1 1 1 0 0 1 1 0 1 0 1 1 0 0 0 0 0 0 0 2 0 2 0 1 0 1 1 1 1 1 3 0 0 2 0 1 0 0 0 1 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 1 0 0 2 1 0 0 3 0 0 1 0 1 0 0 1 0 0 0 1 0 0 2 0 0 0 0 0 0 1 0 3 0 1 0 1 0 0 0 0 0 0 1 1 1 0 0 2 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 1 0 0 1 0 1 0 0 0 1 1 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 2 1 0 0 1 0 1 0 1 0 1 0 0 0 1 1 0 0 0 0 0 0 0 1 1 2 0 0 0 0 0 0 0 1 0 0 0 2 1 0 0 0 0 1 0 0 0 2 0 0 1 1 0 0 1 0 0 0 1 1 0 0 0 0 3 0 0 1 1 0 1 0 0 1 1 0 0 0 0 0 1 0 0 0 1 1 0 1 0 1 1 0 0 0 0 0 0 1 0 0 0 0 1 0 1 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 1 1 1 0 0 0 0 3 0 0 1 1 1 1 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 2 2 0 0 0 0 2 0 0 0 0 1 0 0 0 0 0 0 2 0 0 0 1 1 0 0 0 0 1 0 1 0 1 2 0 0 0 0 1 0 0 0 0 1 1 0 0 1 1 0 1 0 0 2 0 0 0 1 1 0 1 0 0 0 0 0 1 0 0 1 0 0 0 2 0 1 0 0 1 2 1 1 0 2 1 0 0 0 0 1 1 0 0 1 0 0 1 0 2 0 0 0 0 0 0 1 1 0 0 0 1 0 0 2 0 0 0 0 1 0 0 0 0 1 0 2 0 0 1 0 1 2 0 0 0 1 1 0 0 0 0 2 0 0 0 1 0 0 0 2 1 0 0 0 0 1 0 1 0 2 0 2 0 0 0 1 1 0 0 0 0 0 0 0 0 1 0 2 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 2 0 3 0 0 0 0 0 0 1 1 2 1 0 1 0 1 0 0 2 0 0 0 0 1 0 0 1 0 0 0 1 0 0 0 1 1 1 0 1 1 0 0 1 1 0 1 2 0 0 0 2 1 1 0 0 0 0 0 0 1 1 0 0 0 0 2 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 1 0 0 1 0 1 0 0 0 0 1 1 0 0 0 0 0 1 0 2 2 1 0 1 0 1 1 0 0 0 0 0 1 0 0 0 1 1 0 0 1 1 0 0 0 1 1 2 1 0 1 1 1 1 1 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 1 1 0 0 1 0 3 0 0 0 0 0 1 1 0 0 1 0 0 0 1 1 0 0 1 0 0 0 0 1 0 2 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 2 0 1 0 1 0 0 0 0 1 0 0 1 0 0 1 1 2 0 0 0 0 0 0 0 0 1 0 1 1 0 2 0 0 1 0 0 2 0 1 1 1 0 0 1 0 0 1 0 0 0 0 0 0 2 2 0 0 0 0 1 0 1 1 0 1 1 0 0 0 0 2 1 0 3 0 0 1 0 1 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 1 0 0 1 2 0 2 0 1 1 0 1 0 0 1 0 1 1 0 0 2 0 0 2 2 1 0 0 0 1 1 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 1 1 0 0 0 0 1 0 0 0 0 0 1 0 1 1 1 0 1 0 0 1 0 0 0 0 1 0 1 0 0 0 0 2 0 1 0 0 0 0 1 1 2 0 0 0 0 0 0 0 0 1 1 0 2 0 0 2 1 0 0 1 0 0 1 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 1 1 0 0 2 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 3 0 0 2 0 0 0 0 0 0 0 0 2 1 1 0 1 1 2 0 0 0 1 0 1 1 0 0 0 0 1 0 1 1 1 1 0 0 0 0 1 0 0 0 0 0 0 0 0 2 0 0 3 1 1 1 0 1 1 0 0 1 0 0 2 0 2 1 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 1 0 0 1 0 0 1 2 1 0 0 1 2 1 0 0 0 0 1 0 0 1 1 0 0 0 0 0 0 1 2 1 0 0 0 1 0 0 0 0 0 1 0 1 0 1 1 0 0 1 0 0 0 0 1 1 0 0 1 0 1 0 1 0 0 1 0 0 0 0 0 0 1 2 0 1 0 3 1 1 1 0 0 0 0 1 0 1 0 0 0 0 1 0 1 0 0 2 1 0 1 0 0 0 0 0 0 1 1 0 0 0 0 0 1 0 2 1 0 0 1 1 0 0 0 1 0 0 3 1 0 0 0 0 0 0 2 0 0 0 0 0 2 0 0 1 0 1 0 0 1 0 0 1 2 1 0 0 1 0 0 0 0 0 0 1 1 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 1 0 1 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 2 1 1 0 1 0 1 1 0 0 0 0 0 0 0 1 1 0 0 2 1 0 0 1 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 2 0 0 0 1 2 0 0 0 2 0 0 0 0 0 2 0 0 0 0 0 1 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 1 0 0 2 0 0 1 1 2 0 1 0 0 0 0 0 1 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 1 1 0 0 0 1 0 0 0 0 1 0 1 0 2 0 0 1 0 0 0 0 0 0 1 1 1 0 0 0 0 0 1 0 1 0 0 0 0 1 0 0 0 1 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 2 1 0 2 1 0 1 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 1 0 0 0 0 1 0 0 1 0 0 0 0 1 0 1 1 0 0 0 0 0 1 1 2 1 0 0 1 0 1 0 0 0 1 0 0 0 0 0 0 1 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 2 2 0 0 0 0 2 0 0 0 1 0 0 0 0 1 0 1 0 1 1 1 0 1 1 1 1 1 2 1 2 1 1 0 1 0 0 0 0 0 0 2 1 0 1 0 1 0 1 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 2 0 1 0 0 1 0 1 0 1 1 1 1 1 0 1 0 0 0 0 0 0 1 0 2 0 0 0 0 1 0 1 1 1 0 1 1 2 1 0 0 0 1 0 0 0 1 1 0 0 1 0 0 1 0 1 0 0 0 0 0 1 1 0 0 0 0 0 1 1 0 0 0 0 0 1 0 1 0 1 1 1 0 0 0 1 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 2 1 1 1 0 0 0 1 0 1 0 0 0 0 1 0 2 0 0 0 1 1 0 0 0 0 1 0 0 1 0 0 1 0 0 0 0 1 0 0 0 0 1 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 1 1 0 0 1 0 0 0 0 0 1 0 0 1 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 3 0 1 1 0 0 0 0 1 1 0 0 0 0 0 1 0 0 0 0 1 1 1 0 1 0 0 0 0 1 0 1 2 0 0 3 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 2 0 0 1 2 0 2 0 1 0 0 0 0 0 2 0 0 1 0 0 1 0 0 0 1 1 1 0 2 0 0 0 0 0 0 0 1 0 0 0 1 0 1 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 1 0 0 0 0 2 0 3 0 1 0 0 1 1 0 0 0 2 1 0 0 1 1 0 1 0 1 0 0 1 1 1 0 0 2 1 0 1 0 2 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 1 0 1 0 0 0 0 1 1 0 0 0 0 3 0 0 0 0 0 1 0 1 3 0 2 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 1 1 0 0 0 0 0 1 1 1 1 1 0 1 0 0 0 0 2 0 1 0 1 0 0 1 0 0 0 0 0 0 0 2 0 0 0 1 0 0 1 0 0 2 0 0 0 0 0 1 0 0 0 0 1 1 1 0 0 1 0 0 0 0 1 0 0 1 0 1 0 1 1 0 1 1 0 0 0 0 0 1 1 0 0 1 0 2 0 0 0 0 0 1 0 0 0 0 0 1 0 1 0 2 0 1 1 1 1 2 1 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 1 1 1 0 0 0 0 0 1 0 1 0 0 1 0 1 0 0 0 1 0 1 0 1 0 0 0 0 0 0 1 0 0 2 0 0 0 1 0 1 0 0 1 0 0 0 0 0 0 0 1 1 0 2 0 0 0 1 0 0 1 0 1 0 0 1 0 1 0 0 0 1 0 1 0 0 0 0 1 0 1 0 0 0 0 0 1 1 0 0 0 0 0 0 1 0 0 1 0 0 0 0 1 1 0 0 0 1 0 0 0 0 1 1 0 1 1 0 0 0 0 0 1 1 0 0 0 0 2 0 0 0 0 1 0 1 0 0 0 1 1 0 0 1 0 0 1 0 0 1 0 0 0 0 0 1 1 0 0 0 0 1 0 1 0 0 0 0 1 1 1 1 0 2 0 0 1 0 0 1 1 0 0 2 0 0 1 0 0 1 1 1 2 0 1 1 0 2 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 1 1 0 0 1 0 0 0 0 1 1 1 1 0 2 2 0 0 1 0 0 0 0 0 0 1 0 0 0 0 1 2 0 0 0 1 0 0 0 3 1 0 0 1 0 0 0 0 1 1 0 0 0 1 0 0 0 0 0 1 0 1 0 0 0 1 0 1 0 0 0 0 0 1 0 0 1 0 0 0 1 0 2 0 0 0 0 0 0 0 1 0 2 2 0 0 0 0 0 0 0 0 0 0 0 0 0 2 1 1 0 0 0 1 0 0 0 0 0 0 0 2 1 1 0 2 2 0 0 0 0 0 0 0 0 1 0 1 0 0 1 1 1 0 1 0 0 0 0 1 0 0 1 0 0 1 0 0 1 0 0 2 1 1 0 1 1 0 0 0 1 2 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 1 2 0 0 0 0 0 0 0 0 0 0 1 0 2 0 1 0 0 0 0 1 1 0 1 0 0 0 0 0 2 0 0 2 0 0 1 0 0 0 0 1 1 1 0 0 0 0 1 0 0 0 0 0 0 1 0 1 0 0 0 0 1 0 0 0 0 1 1 1 1 0 0 0 1 1 0 2 0 0 1 0 0 0 0 0 3 0 0 0 1 0 1 0 0 1 0 0 0 0 2 0 0 1 1 1 0 0 0 0 0 1 1 0 0 2 0 1 0 0 0 2 0 1 0 0 1 0 1 0 0 1 0 0 1 0 0 2 0 1 1 0 1 1 0 1 0 1 0 1 0 0 2 1 0 0 0 1 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 1 0 0 1 0 0 0 0 1 1 0 1 1 0 0 0 0 1 0 1 0 0 2 1 0 0 0 1 0 2 0 0 0 0 0 1 0 0 0 1 0 1 0 0 1 1 0 0 0 0 0 1 2 0 0 0 1 0 1 1 1 0 1 0 0 0 0 0 0 0 1 1 0 1 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 1 1 0 0 1 1 0 1 1 0 2 0 0 0 0 0 0 0 1 1 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 2 0 0 0 0 0 1 0 0 0 1 0 0 1 0 0 0 1 0 0 0 0 0 1 1 0 1 0 1 1 1 0 1 0 0 0 0 0 1 0 0 0 1 1 1 0 0 0 0 2 1 2 0 0 1 2 0 0 0 0 1 1 1 0 0 0 0 0 0 0 0 1 0 0 1 0 1 2 1 0 0 1 1 1 0 1 1 0 0 0 0 1 1 1 0 0 0 0 0 0 0 2 0 1 0 0 0 0 1 2 0 1 0 0 1 1 0 1 0 2 0 2 0 0 0 0 0 0 0 1 0 0 0 0 1 0 1 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 1 0 1 1 1 0 0 0 1 0 0 0 0 0 0 0 1 1 0 1 0 1 1 0 1 0 0 1 0 2 1 2 0 1 0 1 0 1 1 0 0 0 1 0 0 0 0 0 0 0 0 0 2 0 1 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 1 1 0 0 1 1 0 1 0 0 2 0 0 1 1 1 0 0 2 1 0 0 0 0 0 0 0 0 1 0 3 0 0 1 1 1 0 0 1 0 0 1 0 0 0 1 0 0 0 1 0 1 0 2 0 0 0 0 1 0 0 1 3 0 0 0 0 0 1 0 0 0 0 1 1 1 1 0 0 1 1 0 0 0 0 0 0 0 2 1 1 0 0 2 0 0 0 2 1 0 1 0 0 0 0 1 0 0 0 1 0 1 1 0 0 0 0 0 2 0 0 0 0 0 2 0 1 0 1 1 0 1 2 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 2 1 0 2 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 1 0 1 1 0 0 0 3 1 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 1 0 1 0 0 0 1 0 1 0 0 0 0 1 0 1 0 0 1 0 0 0 2 1 0 1 0 0 2 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 2 1 0 0 0 2 0 0 1 0 2 1 1 1 1 1 0 0 0 1 2 0 0 1 1 0 1 0 0 0 0 0 0 0 0 0 0 2 0 0 0 1 0 0 1 0 0 0 0 1 0 1 0 1 0 1 0 1 1 0 0 1 0 2 0 1 0 0 0 2 1 2 0 0 1 0 0 0 0 0 1 2 0 0 0 0 1 0 0 0 1 1 0 0 0 1 1 0 1 0 0 0 0 1 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 1 2 0 0 2 0 2 1 0 0 0 1 0 0 0 0 0 0 0 0 4 0 0 2 0 0 1 0 2 1 2 1 0 0 0 0 0 1 0 0 0 0 0 0 2 0 1 0 0 1 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 1 0 0 2 1 0 0 0 0 1 0 0 0 3 0 0 0 1 1 0 0 0 0 0 2 0 1 0 0 1 1 1 1 0 1 0 1 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 2 0 2 2 1 0 1 0 0 0 0 1 1 1 1 1 0 0 0 0 1 0 1 0 0 1 1 0 0 0 2 0 0 1 0 0 1 1 1 1 0 0 0 0 1 0 0 0 0 0 2 2 0 0 0 0 0 0 0 1 0 1 0 0 1 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 2 0 0 2 0 0 0 0 0 1 0 0 0 0 1 1 0 0 0 0 2 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 2 0 2 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 1 1 2 0 0 0 0 0 0 1 0 1 2 0 1 0 0 0 0 2 0 1 0 2 1 0 1 0 1 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 1 1 0 1 0 0 0 1 3 1 0 0 0 0 0 0 1 1 0 1 0 0 0 0 0 2 0 1 0 0 0 0 0 0 0 0 1 0 0 2 0 1 0 1 0 1 0 1 0 2 0 0 0 0 0 1 0 0 1 0 4 2 1 0 0 1 0 1 1 0 0 0 1 1 1 1 1 0 1 0 0 2 0 0 1 0 1 0 1 0 0 0 0 1 0 0 2 1 2 0 1 0 1 0 0 0 1 0 0 0 0 0 0 0 1 0 2 1 1 0 0 3 0 0 0 0 0 0 1 0 0 1 1 1 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 1 0 1 2 1 0 0 0 2 0 0 0 0 0 0 2 1 1 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 1 0 1 0 0 1 0 0 1 1 0 0 0 0 0 0 3 1 0 0 0 0 0 0 1 0 0 1 0 0 1 0 1 0 1 0 0 0 1 0 2 0 0 1 0 1 0 1 1 0 0 1 0 0 1 0 1 1 0 0 0 0 0 0 1 1 0 0 0 0 1 1 0 0 0 1 0 0 0 0 1 0 0 0 1 1 1 0 0 0 0 0 0 2 0 1 0 1 1 1 0 0 0 0 1 1 0 0 0 1 0 2 2 0 0 0 2 0 0 0 1 0 1 0 1 0 0 0 0 0 1 1 0 0 0 1 0 1 2 0 0 0 2 1 0 0 1 2 0 0 1 0 0 1 2 1 0 0 0 0 0 1 1 0 2 0 0 0 0 1 1 0 0 0 0 0 0 1 0 0 0 1 0 0 0 1 0 0 0 1 0 1 1 1 0 0 0 0 0 0 1 0 0 0 0 2 1 1 0 2 0 0 0 0 1 1 1 0 1 1 1 0 0 0 0 1 1 0 0 0 1 1 0 1 0 1 1 0 0 1 1 1 1 0 0 1 0 0 0 2 0 1 0 1 1 2 0 0 0 1 0 0 1 0 0 2 0 1 0 0 0 3 2 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 2 2 0 0 0 0 0 1 0 0 0 0 0 1 0 1 1 3 1 0 0 0 1 0 1 0 0 0 0 1 1 0 1 0 0 1 1 0 0 1 0 1 0 0 1 0 0 1 1 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 1 0 1 0 1 2 1 0 0 0 0 0 0 1 1 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 3 0 1 0 0 0 0 0 0 0 0 0 0 1 0 1 0 1 0 0 0 0 0 0 0 0 1 0 1 0 1 0 0 1 1 0 1 0 0 1 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 1 1 0 1 0 0 0 0 0 0 0 0 1 0 0 0 1 1 1 0 0 0 0 0 1 1 1 1 1 0 0 0 1 0 0 0 0 0 1 0 0 0 1 0 1 0 0 1 2 0 0 0 0 0 0 0 0 0 2 0 0 1 0 0 0 0 1 1 0 1 0 0 0 0 1 1 0 0 0 4 0 1 1 1 0 0 0 1 0 0 0 0 0 2 0 0 0 1 0 0 0 0 0 0 0 2 1 2 0 1 0 2 0 0 0 0 1 1 0 1 0 1 0 0 0 0 4 0 0 1 0 0 0 1 0 1 0 0 0 0 1 0 0 1 3 0 0 0 0 0 1 0 1 0 1 0 0 1 0 0 1 0 0 1 0 0 0 0 0 1 1 0 0 0 0 0 1 0 0 1 0 1 0 1 0 1 0 0 0 1 0 0 1 2 0 0 0 1 1 2 0 1 0 0 0 0 0 0 0 1 0 1 0 0 1 0 0 0 0 2 0 1 1 0 1 0 0 0 0 1 0 0 1 0 0 0 1 1 0 0 0 0 0 0 0 0 2 0 1 0 0 2 0 0 0 0 0 0 0 0 0 1 0 1 0 1 3 2 0 0 0 1 1 1 0 0 0 0 0 0 1 0 0 1 0 1 1 1 0 0 2 0 0 1 2 0 0 0 1 1 0 0 0 0 0 0 0 1 0 1 0 1 0 0 0 0 2 0 2 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 2 0 0 1 1 1 0 1 0 0 0 0 0 0 1 2 1 0 0 0 2 0 0 1 1 0 0 1 1 0 0 0 0 0 1 0 0 1 0 0 1 1 1 0 0 0 0 0 0 0 0 0 0 1 1 0 0 1 1 0 1 0 0 1 0 1 0 0 2 0 3 0 1 0 1 0 0 0 0 1 0 0 1 0 1 1 0 0 1 0 1 1 0 0 0 0 0 0 0 1 0 0 1 0 0 0 1 1 2 0 0 2 0 0 1 0 0 0 0 0 1 0 0 1 0 0 0 0 1 1 0 0 0 0 0 0 0 1 1 1 0 1 0 1 1 1 0 0 0 0 0 0 1 1 0 1 0 0 1 1 0 0 1 0 0 1 0 0 0 2 0 1 0 0 0 0 1 1 0 0 0 1 0 0 1 0 0 0 2 0 0 1 1 0 1 0 0 0 0 0 0 1 1 1 3 0 0 0 0 1 1 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 1 1 1 0 1 0 0 0 0 1 0 0 1 1 0 0 0 0 1 0 1 0 2 0 0 0 1 0 1 1 0 0 1 0 1 0 0 0 1 0 2 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 1 0 0 0 1 0 0 1 0 2 1 0 0 2 1 1 1 0 1 1 0 1 0 1 0 0 0 0 0 1 1 0 0 2 1 0 0 0 1 0 1 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 1 1 2 0 2 0 0 0 1 0 0 1 0 1 0 1 0 0 0 0 1 0 0 0 0 1 0 2 1 0 0 1 2 0 0 0 2 0 0 0 0 2 0 0 0 0 0 0 0 1 1 0 1 0 0 1 0 1 0 1 1 0 0 1 0 1 2 0 1 0 1 0 0 2 1 0 0 3 0 0 0 0 0 1 2 2 0 0 0 0 0 1 0 0 0 1 0 0 1 1 0 0 0 0 0 0 0 2 0 0 2 3 0 0 0 1 0 1 0 0 1 1 1 0 0 1 1 0 1 0 0 0 1 1 0 1 0 0 1 0 0 0 0 0 0 0 0 2 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 1 1 0 0 1 0 1 1 0 0 1 1 0 0 0 1 0 1 2 0 0 2 0 2 1 0 0 0 0 0 0 1 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 1 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 1 1 0 1 1 1 2 1 0 1 0 0 0 0 1 1 0 0 1 0 1 2 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 2 1 0 0 0 1 1 0 0 0 0 0 0 2 0 0 0 1 1 0 0 0 0 2 0 1 0 0 0 1 0 0 0 0 0 1 0 1 0 1 0 0 0 1 2 0 0 0 1 1 0 0 0 0 0 1 0 2 1 0 0 0 1 0 1 1 0 3 0 0 0 1 0 0 2 0 0 0 0 2 0 1 0 1 0 0 0 1 0 0 1 0 1 0 0 0 0 0 0 0 0 0 1 0 2 1 0 1 0 0 0 0 0 0 1 1 0 1 0 0 0 1 2 0 0 2 0 2 1 2 0 1 0 1 1 0 0 1 2 0 0 1 1 1 0 0 1 1 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 1 1 0 1 0 0 1 0 0 1 1 0 0 0 0 1 0 0 1 0 0 0 1 1 0 0 0 0 0 0 1 1 2 0 0 0 1 1 0 1 1 1 0 0 1 0 0 0 1 0 0 0 0 1 1 0 0 0 0 0 0 0 1 0 1 0 0 1 0 0 1 0 1 0 0 2 0 0 0 0 0 0 1 0 0 1 0 1 0 0 0 0 0 1 3 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 2 0 1 0 0 0 0 0 1 0 0 1 1 0 0 0 1 1 1 0 0 1 0 0 0 0 0 0 1 0 0 0 0 1 0 1 0 0 0 0 0 1 1 0 0 0 0 0 0 2 1 0 0 0 1 0 0 0 0 0 0 0 0 2 1 1 0 0 0 1 0 0 1 0 0 0 1 1 1 0 0 2 0 0 0 0 0 1 1 1 0 0 1 0 0 1 0 0 0 2 1 0 0 0 1 1 1 0 0 0 0 2 1 0 1 0 0 0 1 0 0 1 0 1 0 0 0 1 1 0 0 0 0 0 4 0 0 1 1 2 0 0 0 0 1 0 0 0 2 0 0 0 0 0 0 0 1 0 0 0 1 0 1 2 0 0 2 0 0 0 0 0 0 2 0 0 1 0 2 0 0 1 0 0 0 0 0 0 1 0 0 1 0 1 0 1 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 1 0 1 0 0 0 0 1 0 0 1 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 1 1 0 2 0 0 1 1 1 0 0 0 0 0 1 0 0 0 0 0 0 2 0 0 0 0 1 0 2 0 0 0 0 0 0 1 0 0 0 0 0 0 1 1 1 0 0 0 0 0 0 0 1 0 0 0 0 0 2 0 0 0 1 1 2 1 0 0 1 1 0 0 0 1 1 1 0 1 1 0 0 0 0 0 2 1 0 0 0 1 0 2 0 1 2 0 0 1 1 0 1 0 0 1 0 1 1 1 1 0 0 0 0 0 1 0 1 0 0 1 0 1 1 0 2 0 0 0 0 0 2 3 0 1 0 1 0 0 0 0 0 0 2 1 0 0 0 0 0 1 0 0 2 1 0 0 0 2 1 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 1 0 1 0 1 0 0 1 0 1 0 0 0 0 0 0 1 0 1 0 0 0 1 1 0 0 0 0 0 1 0 1 0 1 1 0 0 0 2 0 1 0 0 0 2 0 0 0 0 0 0 0 0 0 0 1 1 1 0 0 0 0 0 0 3 0 0 0 1 0 2 0 0 1 0 2 1 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 2 0 1 1 0 0 1 0 1 0 1 0 0 0 0 0 1 0 0 1 1 0 1 2 3 1 2 0 0 0 0 1 2 0 0 1 0 0 0 1 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 1 2 1 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 2 1 0 0 0 1 1 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 1 0 1 0 2 0 0 1 1 0 0 1 0 0 1 0 1 1 0 0 0 1 1 0 0 0 0 0 0 1 0 0 2 0 0 0 1 0 0 1 0 0 1 0 1 0 0 1 0 0 1 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 3 2 1 0 0 0 1 0 1 2 0 0 0 2 0 0 1 0 1 0 0 0 0 1 0 0 0 0 1 1 0 0 0 1 0 1 0 0 0 0 0 1 0 1 0 1 1 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 1 2 1 1 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 1 0 1 0 0 0 2 1 0 0 0 0 2 0 2 1 2 0 1 1 0 2 0 1 0 1 0 0 0 0 0 0 0 0 0 2 0 0 2 0 0 1 1 0 0 0 1 0 1 0 1 1 0 1 0 0 0 0 0 0 1 2 0 0 1 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 2 1 0 0 1 1 1 1 0 0 0 0 0 1 0 1 2 0 0 1 1 1 0 0 1 1 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 3 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 1 1 1 0 0 1 0 1 0 2 0 0 0 1 0 1 1 1 0 1 1 1 0 1 0 0 1 0 0 0 0 0 0 0 1 1 1 1 0 0 1 0 0 0 2 0 1 0 1 0 0 0 0 0 2 0 1 0 1 0 0 0 1 0 2 1 0 0 1 0 0 0 1 0 0 1 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 2 0 1 0 1 1 0 0 0 0 0 1 0 0 1 0 1 0 2 1 0 1 2 1 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 2 0 1 0 1 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 1 0 0 0 0 0 1 2 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 1 1 0 0 0 1 0 1 0 2 1 0 0 0 0 0 0 0 1 0 0 0 1 1 0 0 0 0 0 0 0 1 0 0 0 2 0 1 0 0 0 0 1 1 0 1 0 0 0 1 1 0 0 1 0 1 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 1 0 0 1 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 2 0 2 0 1 0 0 1 1 0 2 1 0 0 1 0 1 1 0 0 2 1 0 0 0 0 1 0 0 1 0 0 0 0 0 1 0 1 0 0 0 3 0 1 0 3 0 1 1 0 0 0 1 0 0 2 0 0 0 0 0 0 1 2 0 0 0 0 0 2 0 1 1 1 1 1 0 0 0 1 0 2 1 1 0 0 1 0 0 0 0 0 0 0 2 0 1 0 1 0 0 0 1 0 1 1 0 0 1 0 0 1 0 0 0 0 0 0 0 1 0 1 1 1 0 1 1 1 0 0 0 0 1 0 0 1 0 0 0 1 0 1 1 1 0 0 1 0 0 1 0 1 0 0 0 1 1 1 0 1 0 1 0 0 1 2 0 1 0 0 0 0 0 0 1 0 1 0 1 1 0 1 0 0 1 0 0 0 0 1 1 0 1 1 1 0 0 1 0 1 0 0 1 0 1 2 0 0 0 1 0 0 0 0 1 0 2 0 0 2 0 0 0 1 0 0 0 1 2 0 0 0 1 3 1 0 0 0 1 1 0 2 0 0 1 0 0 1 1 1 1 1 1 0 0 0 1 0 0 1 0 0 1 0 0 0 1 0 1 0 0 1 0 0 0 0 0 0 0 0 1 1 0 0 1 0 1 0 0 2 1 0 1 0 2 0 0 0 1 0 1 0 0 2 1 0 0 1 1 2 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 2 0 1 0 0 0 1 0 0 1 0 1 0 0 0 1 0 1 1 0 1 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 2 2 0 0 0 0 0 0 0 0 0 0 1 1 3 0 1 0 0 0 1 1 1 1 0 0 1 0 0 0 1 0 1 0 0 0 0 1 0 1 1 0 0 1 0 1 0 0 0 0 1 1 1 0 0 0 0 0 1 0 0 1 0 1 1 1 1 1 1 0 0 1 1 0 1 1 1 0 0 0 0 2 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 1 0 1 0 0 0 1 0 0 0 0 0 0 0 1 1 0 0 1 1 1 2 0 1 0 0 1 0 0 0 0 0 1 0 0 1 0 0 0 0 0 1 1 0 1 1 0 1 1 0 1 0 0 0 1 0 0 0 1 1 0 0 1 0 1 0 0 0 0 0 0 0 2 1 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 3 0 0 1 1 0 0 2 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 2 0 0 0 0 0 0 1 0 1 1 2 2 0 1 1 1 0 1 1 0 0 0 2 1 0 0 0 0 1 0 1 0 2 0 1 0 0 0 1 1 1 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 2 0 0 1 1 0 0 0 1 0 0 2 2 0 0 1 1 1 0 1 1 0 0 0 0 0 0 1 0 1 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 1 0 2 1 0 0 0 1 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 1 1 0 0 0 0 0 1 0 0 0 3 2 1 0 0 0 2 1 0 0 0 1 0 1 1 0 0 0 0 0 0 0 0 1 0 1 0 1 0 1 0 0 2 0 2 4 1 0 1 0 0 1 1 0 1 0 0 1 0 0 1 1 0 0 0 0 1 1 0 2 2 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 2 1 0 0 1 1 1 0 0 0 0 0 0 1 2 0 0 0 1 0 0 0 0 0 1 0 1 1 0 0 1 0 0 0 1 0 1 0 0 2 0 1 1 2 0 0 0 0 0 0 1 0 0 0 1 0 0 1 0 2 0 0 0 0 0 1 0 0 2 0 0 0 0 0 0 0 0 1 0 1 1 0 1 1 0 0 1 0 0 0 0 1 0 0 0 0 0 0 1 0 0 2 0 0 0 0 0 1 0 0 1 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 1 0 1 1 1 1 0 0 0 0 1 0 1 0 1 0 0 1 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 1 1 0 1 0 1 0 1 1 0 2 0 0 1 2 0 1 0 0 2 1 1 1 1 0 0 0 2 1 1 0 0 0 0 0 0 1 0 0 0 2 0 0 1 2 0 0 0 0 0 1 0 0 0 2 0 1 0 0 0 1 0 1 1 0 1 0 1 0 0 1 1 0 1 0 0 0 1 1 0 2 1 0 0 0 0 0 2 0 0 0 0 1 1 0 1 0 1 0 1 0 1 1 1 0 0 0 0 0 0 0 0 0 0 1 2 0 0 1 1 0 0 0 0 1 0 0 0 0 0 0 1 1 0 1 1 1 0 1 1 0 2 2 0 0 0 0 0 0 0 1 0 2 1 0 2 0 0 1 0 0 0 0 0 1 2 1 0 0 1 1 1 0 0 0 0 0 0 0 0 0 1 0 0 1 1 1 0 0 1 1 0 0 0 1 0 0 1 0 0 0 0 0 1 0 0 2 0 0 1 3 0 0 0 0 1 1 0 0 0 1 0 0 0 0 0 0 0 1 0 0 1 2 2 1 0 0 1 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 1 0 0 0 2 0 0 0 1 1 0 0 1 1 0 2 0 1 0 1 0 1 1 0 0 1 0 1 0 0 0 0 1 2 0 1 0 1 0 1 0 0 1 0 0 0 0 0 2 0 0 1 0 1 0 0 0 0 0 0 1 0 0 0 0 1 0 1 0 0 0 1 1 1 0 0 0 0 1 0 0 0 0 1 0 0 2 0 1 1 2 0 0 0 0 0 0 1 0 0 0 0 0 0 2 0 0 0 1 0 1 0 0 0 0 0 0 0 1 0 1 1 0 0 0 0 0 0 0 1 1 0 1 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 1 0 0 1 1 0 1 0 0 1 0 0 0 0 0 0 2 0 0 1 2 0 2 0 0 1 0 0 2 0 0 0 0 0 0 0 1 0 1 0 1 2 0 0 0 1 0 1 1 1 1 1 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 1 0 0 1 0 0 0 1 1 0 0 1 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 1 0 1 1 0 0 0 2 0 0 0 0 0 1 1 1 0 0 0 1 0 0 1 0 0 0 0 1 1 0 1 0 0 0 0 1 0 0 0 0 1 0 0 0 1 0 0 2 0 0 0 0 0 0 0 1 0 0 1 0 0 2 0 1 1 0 0 0 1 1 1 0 0 1 0 0 1 0 1 0 1 0 0 1 1 0 0 0 0 0 0 0 0 1 0 0 1 0 1 1 0 0 1 0 0 0 1 1 0 0 0 1 0 0 0 1 0 1 1 0 0 0 1 0 0 2 0 0 3 0 0 0 0 1 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 1 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 1 0 0 0 1 0 0 0 1 1 1 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 3 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 1 2 1 0 1 1 0 0 1 0 0 1 1 0 0 0 0 1 0 2 0 0 1 1 0 0 0 1 0 1 0 0 2 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 3 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 2 0 0 0 0 0 1 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 1 1 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 1 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 1 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 2 1 0 0 1 1 0 0 0 0 0 0 1 0 0 0 0 1 0 2 0 0 0 1 0 0 1 0 0 1 0 1 3 0 0 3 1 0 0 0 0 0 0 0 0 1 1 0 2 0 0 0 2 0 0 1 0 0 0 0 0 0 0 1 1 0 0 0 1 0 0 0 0 0 1 1 0 0 0 0 0 0 0 1 0 1 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 1 0 0 1 1 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 1 1 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 2 0 0 0 1 0 1 1 0 1 0 1 1 0 1 1 0 0 1 0 0 0 0 0 0 0 2 2 0 3 1 0 1 0 0 0 0 0 0 0 1 0 1 0 2 0 1 0 0 0 0 0 0 0 1 0 2 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 1 0 2 1 0 0 0 0 0 0 0 2 1 2 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 1 1 1 0 0 0 0 1 0 0 0 0 1 1 1 1 0 0 0 0 0 0 0 1 0 0 1 0 0 0 1 1 0 1 0 0 0 0 0 0 1 0 1 0 0 1 1 0 0 0 0 0 2 0 0 0 0 1 0 1 0 0 0 0 1 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 2 0 0 0 0 1 0 0 0 1 0 1 0 1 0 0 0 0 0 0 0 0 0 0 1 1 0 1 1 0 1 0 0 0 0 1 0 0 0 0 0 0 0 1 1 0 0 0 0 1 1 1 0 0 0 1 1 0 1 1 0 0 0 0 1 0 0 1 0 0 0 0 0 0 2 2 0 0 0 0 0 1 1 0 0 0 0 2 0 0 0 0 1 0 0 0 1 0 0 0 2 0 2 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 1 1 0 0 1 0 2 0 1 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 1 1 0 1 0 0 0 1 0 0 1 0 0 1 0 2 0 1 0 0 0 0 0 1 0 2 1 0 0 0 0 0 0 0 1 0 1 0 0 1 0 2 0 1 0 1 0 0 0 0 1 0 0 0 0 1 2 0 0 0 0 1 0 0 0 0 1 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 2 3 1 0 0 0 0 1 0 0 0 0 0 0 1 1 1 0 1 0 0 0 1 0 0 2 0 1 1 1 0 0 0 0 0 0 0 1 0 0 1 0 1 1 2 0 0 1 0 0 0 1</t>
-  </si>
-  <si>
-    <t>JSB(2.4064462663262005, 3.6734566232442614, -108.84875289068997, 684.3652085143545)</t>
-  </si>
-  <si>
-    <t>93 118 167 140 38 72 77 185 110 128 126 140 114 78 88 88 102 137 103 216 140 118 123 144 126 196 174 191 117 100 60 140 133 123 56 161 46 130 174 113 124 124 136 180 73 204 115 106 119 107 142 135 140 122 143 120 109 114 53 155 168 139 164 76 118 79 138 204 211 177 134 171 158 163 186 151 144 142 210 161 152 135 117 112 198 119 138 120 191 177 131 128 100 115 118 127 136 154 117 36 104 90 60 116 55 108 109 102 81 54 87 211 117 115 101 222 155 124 164 131 143 140 146 99 94 99 91 170 148 184 91 131 101 194 130 73 123 68 95 143 89 55 170 109 138 116 76 193 157 136 149 89 130 87 141 128 32 78 172 134 176 103 120 114 91 141 106 67 115 129 147 132 97 202 96 97 75 99 98 62 191 127 110 145 113 100 185 154 126 50 125 68 97 143 120 90 180 148 116 103 111 64 137 98 160 187 94 118 161 151 157 105 132 103 168 175 134 130 117 182 255 190 137 155 113 77 97 119 60 53 138 98 115 114 181 130 88 50 76 165 89 124 168 133 156 152 105 173 94 88 158 105 140 151 142 111 116 169 101 170 164 60 108 201 139 168 67 109 61 200 181 111 129 190 125 141 182 135 144 147 84 175 97 134 124 158 70 55 218 114 95 109 83 93 84 190 102 198 93 198 144 137 110 121 126 67 131 115 97 94 152 132 134 70 28 93 119 115 144 86 148 159 129 156 128 71 100 129 155 147 84 88 121 150 76 140 74 120 180 91 111 91 90 174 196 107 70 78 109 119 81 39 141 176 148 140 158 108 82 132 157 117 162 178 112 216 76 169 36 152 144 112 135 80 203 156 127 154 88 61 182 154 90 125 122 167 60 173 237 152 68 94 162 110 91 159 127 200 81 53 114 154 113 130 75 49 142 130 93 177 163 239 95 100 125 146 93 67 111 162 205 217 157 155 155 119 224 187 150 77 160 111 108 147 136 164 99 120 139 160 134 188 165 147 66 80 139 69 89 117 104 92 86 77 194 178 157 126 235 172 109 104 141 75 125 115 154 150 106 124 171 128 154 159 171 189 88 58 132 177 133 169 122 118 173 151 96 136 75 188 105 92 70 218 136 154 97 109 130 61 34 166 221 106 120 77 140 152 129 170 103 126 121 103 221 120 148 66 125 169 111 84 100 194 201 129 111 204 90 129 188 155 108 145 80 163 138 151 109 135 190 148 102 179 165 75 67 130 174 156 195 98 149 137 71 63 106 154 87 124 91 169 230 153 137 70 24 61 170 126 130 141 117 121 171 48 136 72 188 122 125 111 109 169 69 97 136 204 87 84 182 121 106 91 132 52 153 119 134 158 86 20 78 192 121 118 163 73 157 149 91 114 162 106 99 175 135 61 41 135 111 107 102 133 165 142 174 80 75 160 110 95 149 114 125 82 95 169 101 149 121 148 122 157 108 211 100 124 103 157 102 146 142 212 81 128 101 76 174 162 110 133 97 109 113 245 183 114 158 86 92 122 114 190 105 90 194 122 125 66 98 141 129 164 122 136 90 152 131 44 165 88 191 111 182 141 144 197 170 134 79 102 150 187 90 131 22 158 84 116 188 170 76 159 92 114 147 185 155 188 91 99 127 93 104 77 72 152 180 79 209 147 131 117 128 111 210 79 49 101 157 127 172 170 212 171 111 90 156 100 186 113 73 42 169 118 88 47 167 176 218 104 69 123 171 92 136 45 162 133 77 134 97 101 122 153 178 136 87 83 135 87 89 104 151 113 118 113 128 97 143 150 195 146 82 199 124 94 77 200 124 151 121 133 20 142 110 171 162 95 110 169 44 222 80 71 140 69 101 143 80 55 113 172 154 105 194 128 132 153 131 170 161 135 108 155 99 161 148 117 138 120 141 106 64 106 134 165 85 158 178 227 89 168 132 109 107 96 76 189 133 153 184 134 214 167 91 128 128 160 95 118 184 133 92 175 136 96 105 171 162 148 116 133 123 109 76 78 182 142 91 114 95 141 111 150 158 52 130 98 97 89 200 81 87 141 145 120 98 105 50 115 160 142 154 83 128 56 101 54 112 197 124 148 132 138 159 116 69 138 210 92 116 95 106 177 156 124 151 126 85 119 115 121 133 146 161 143 130 130 141 165 102 85 85 150 139 133 51 151 106 154 80 128 168 203 143 62 154 121 142 160 75 65 73 170 91 235 112 142 109 148 10 199 162 110 158 124 209 137 93 50 105 108 108 93 230 82 93 120 130 166 85 171 99 109 105 122 88 91 107 97 193 116 85 143 152 76 124 112 185 183 127 122 168 134 152 93 140 164 48 152 176 124 81 155 82 136 202 105 110 106 174 83 134 219 76 91 143 180 127 166 106 84 99 195 98 117 78 138 116 140 129 160 123 159 146 94 118 189 85 52 114 129 75 64 139 113 126 114 225 234 54 146 145 178 105 182 120 95 179 137 120 97 222 146 194 136 193 96 133 91 93 104 105 140 85 161 175 153 205 45 116 162 110 141 67 178 39 81 53 148 205 62 91 120 94 95 116 142 107 63 190 156 152 154 68 98 52 113 142 43 140 130 139 64 105 203 151 160 126 140 130 157 79 95 100 94 52 82 131 120 90 18 204 129 171 99 89 92 154 121 124 97 111 139 154 41 116 67 195 105 189 197 69 143 179 184 107 175 137 97 132 155 130 149 164 125 190 134 141 57 135 130 108 229 80 252 114 94 126 207 171 154 152 150 167 162 141 89 110 114 123 111 144 153 44 205 72 65 142 93 95 73 153 157 160 144 76 152 169 176 73 125 141 85 145 90 131 182 120 154 127 128 96 124 129 95 95 64 31 140 83 111 188 145 132 60 129 129 147 94 126 187 156 185 110 88 125 115 200 143 227 135 203 141 106 152 95 108 128 145 166 143 137 95 209 76 187 218 235 90 96 171 134 146 118 151 95 187 45 98 91 87 100 100 87 76 138 178 121 66 113 114 89 84 138 183 138 104 95 128 153 187 75 142 148 71 136 198 116 114 152 52 136 131 132 215 99 159 124 119 141 170 107 149 104 52 114 127 81 119 183 125 111 147 136 93 119 125 110 130 112 129 83 121 91 100 154 152 82 164 127 121 116 120 124 34 124 161 36 121 144 106 199 108 95 171 127 98 155 147 131 140 82 97 171 60 205 55 76 147 136 145 158 105 142 95 175 64 163 129 146 175 134 125 107 158 122 112 151 91 116 183 128 121 174 125 77 70 86 185 142 63 106 144 162 155 127 145 115 158 107 70 94 138 96 189 55 101 131 95 64 135 76 118 97 30 139 120 98 105 92 130 102 122 176 110 85 110 112 83 144 147 79 143 205 116 139 107 146 175 140 125 152 86 154 120 115 117 65 137 108 170 127 133 111 220 64 134 72 198 164 155 148 146 165 196 105 103 157 168 78 81 143 168 140 154 75 151 189 122 69 164 113 91 150 170 194 68 88 143 181 115 119 139 59 123 133 146 208 110 96 118 171 142 155 114 121 116 158 136 104 52 156 118 115 80 171 127 95 56 117 187 197 216 73 110 18 182 183 62 109 60 128 148 197 145 166 170 93 121 182 76 111 88 53 180 123 105 75 208 217 115 167 179 132 116 173 77 102 134 180 197 72 86 201 119 103 189 134 177 123 135 52 154 153 83 111 150 112 184 89 101 118 185 163 105 58 171 63 115 50 118 124 77 107 90 153 208 112 119 89 116 155 152 100 55 95 84 160 111 135 121 63 166 59 169 115 169 196 170 32 128 113 116 133 81 109 183 154 124 169 108 180 231 134 187 84 156 87 193 217 100 123 132 176 185 139 139 104 174 102 139 132 97 117 89 121 69 132 169 138 143 198 121 122 146 78 187 145 185 126 94 68 119 30 242 62 111 57 119 108 214 154 108 65 132 119 115 86 136 151 175 117 125 181 94 155 101 101 198 138 113 128 63 248 153 126 180 128 36 122 120 150 44 166 114 147 213 122 105 184 87 170 156 131 130 103 163 41 127 88 157 186 124 148 139 90 143 109 180 144 153 148 172 157 135 106 101 133 120 112 78 164 142 122 78 189 145 145 106 122 123 162 95 82 60 169 100 157 96 104 156 161 141 193 109 156 82 177 65 111 154 121 152 174 56 121 175 86 97 84 172 84 136 153 85 95 101 136 182 117 84 83 179 188 175 150 43 190 68 108 150 106 160 66 175 180 76 146 89 109 200 190 93 84 167 54 129 114 103 177 65 82 125 122 116 146 168 128 164 91 80 179 110 119 157 166 127 156 76 143 164 126 155 193 130 74 198 117 187 153 108 49 179 126 81 161 162 104 100 212 271 132 104 96 129 50 133 119 145 138 112 244 163 167 137 84 132 173 164 154 209 127 209 106 85 118 147 178 176 112 99 126 66 139 112 149 119 152 100 96 118 172 86 100 94 169 142 45 101 82 120 158 118 83 152 131 113 152 119 166 144 127 125 67 127 116 130 236 57 71 152 113 142 183 77 119 94 145 158 143 95 117 136 82 118 171 35 115 140 139 81 116 93 182 186 122 172 114 115 95 110 96 133 53 200 232 226 106 108 40 111 133 72 174 65 106 128 129 164 159 82 83 176 117 39 94 144 137 56 110 122 90 183 64 135 72 144 147 90 106 138 173 53 90 175 97 87 126 135 183 78 117 107 133 118 131 221 169 157 251 147 120 168 99 92 86 225 111 184 165 141 146 105 156 95 78 41 127 186 79 175 121 87 200 130 95 172 171 139 103 123 106 90 152 145 66 143 173 115 134 45 142 83 101 95 107 210 106 145 121 225 209 118 99 143 50 131 174 123 121 115 157 91 114 138 130 147 77 82 126 93 181 93 162 75 80 147 116 159 101 121 120 118 105 122 141 178 114 125 146 103 63 94 170 114 133 188 154 144 91 141 146 109 146 81 132 116 115 89 185 96 123 156 151 145 116 125 142 124 187 125 157 43 120 178 142 166 143 124 106 153 114 104 112 76 133 102 135 63 136 174 91 99 94 61 76 102 138 114 103 102 142 124 191 41 150 99 99 179 152 148 123 205 159 121 110 118 99 149 122 167 115 106 98 153 93 114 66 27 143 124 115 119 157 164 35 98 60 141 107 147 111 184 144 137 110 133 93 118 110 118 166 140 96 121 102 98 129 144 202 103 189 155 123 232 138 194 117 79 67 89 142 182 129 186 147 162 112 196 180 44 132 121 183 119 142 121 122 175 77 130 67 173 72 129 159 154 170 187 160 108 186 119 141 140 95 96 177 101 150 96 176 183 156 231 46 43 113 161 207 126 69 128 94 157 164 72 109 145 107 115 162 92 116 86 94 151 148 183 151 214 110 128 150 116 110 121 139 144 131 77 197 126 172 163 201 85 99 148 116 98 115 130 102 121 168 152 151 167 229 109 142 93 160 139 123 166 67 108 145 152 121 201 77 122 121 140 134 141 85 125 150 76 183 192 58 165 173 77 237 89 154 156 126 202 61 107 100 99 100 117 65 87 174 34 175 126 125 151 102 135 154 163 150 99 133 79 140 89 103 121 134 134 117 104 95 86 60 119 101 193 85 167 83 95 138 98 162 94 146 69 122 140 110 174 161 114 60 86 96 67 228 118 188 26 144 141 106 176 222 100 104 188 27 78 185 79 98 109 168 191 106 158 239 124 175 204 179 132 107 110 88 180 144 184 127 170 102 44 90 174 165 127 177 23 115 130 109 120 130 126 132 156 128 154 121 191 78 85 96 121 160 246 145 135 56 91 154 29 101 107 128 176 151 199 141 198 95 175 137 90 117 152 96 116 83 142 71 40 99 143 140 163 115 187 115 134 170 76 163 99 150 120 230 111 31 225 127 138 95 275 142 81 177 89 103 227 107 59 156 92 62 248 112 119 151 125 119 101 127 104 183 82 111 143 111 126 53 105 211 187 106 119 87 141 136 103 155 138 210 127 62 177 69 108 187 80 62 137 97 138 146 159 177 254 163 91 68 99 99 110 162 76 111 165 70 175 66 220 168 144 103 130 154 133 108 112 81 79 134 122 145 123 121 121 186 170 127 129 144 139 98 106 92 89 110 106 208 121 135 112 83 106 95 73 117 69 169 90 122 113 71 43 165 170 131 173 48 142 170 111 105 153 208 151 115 84 156 126 123 137 179 102 30 122 120 102 113 74 136 72 97 137 94 91 74 172 137 151 122 156 146 79 110 73 96 219 97 128 76 124 218 136 62 89 63 115 138 132 82 211 217 38 62 50 151 107 181 85 148 204 84 135 140 89 131 109 73 99 99 172 53 165 131 71 143 87 111 140 21 220 90 171 167 130 79 108 110 172 150 130 71 118 119 156 122 187 163 86 52 192 85 127 132 118 160 83 145 89 126 132 128 93 148 70 93 97 137 203 98 218 159 146 94 82 154 125 178 80 140 203 201 65 193 121 101 132 127 187 135 118 152 180 154 139 81 109 189 147 110 173 115 136 88 161 146 162 121 191 90 149 119 50 177 179 126 111 201 142 160 82 99 151 87 179 119 79 178 116 169 142 95 129 45 104 155 186 167 142 128 139 166 143 148 169 114 141 190 120 100 149 128 77 165 73 111 154 177 81 185 139 102 108 145 192 241 116 106 64 155 78 95 68 130 45 91 128 122 130 128 180 135 120 43 119 103 148 120 118 91 115 140 96 144 117 97 126 133 68 76 97 147 122 96 107 103 167 117 111 183 169 212 144 225 184 134 145 41 134 137 194 115 142 113 81 144 116 136 99 66 76 35 99 163 139 135 110 120 140 74 167 158 74 71 80 159 135 134 154 161 131 144 92 82 137 181 66 78 71 70 72 204 136 102 50 142 101 39 210 77 78 152 112 107 63 162 122 211 115 109 137 99 129 194 160 115 168 159 65 188 132 116 55 113 103 184 102 147 161 132 124 103 201 212 128 109 153 146 114 159 126 133 194 213 109 160 157 90 101 114 118 162 147 54 87 128 131 81 152 220 115 90 111 57 146 151 151 116 204 70 146 77 168 138 133 100 120 154 129 63 122 134 93 125 116 62 39 105 150 79 77 174 115 143 91 108 145 23 142 94 176 118 140 106 73 109 138 191 146 112 115 77 140 133 200 192 194 95 181 74 138 97 117 160 81 97 142 134 119 162 161 158 165 118 169 169 183 133 148 167 145 174 82 177 125 227 158 136 150 101 126 96 115 90 95 121 73 31 135 160 189 96 86 105 178 117 49 186 122 104 87 79 80 74 165 60 115 146 151 90 76 273 73 158 125 120 177 47 192 79 96 154 58 112 87 145 51 113 52 18 139 134 113 185 144 92 152 184 112 114 70 154 117 90 57 204 127 81 64 163 59 91 138 132 224 127 141 138 102 218 109 188 114 105 34 111 45 59 110 131 115 80 192 137 131 169 170 205 91 169 49 76 173 149 53 154 145 108 202 147 152 155 138 171 127 101 127 182 126 95 130 118 133 177 106 92 177 152 80 139 178 148 209 132 232 204 139 199 129 179 165 128 115 135 99 115 133 150 178 80 80 41 76 151 148 186 149 126 81 220 158 84 113 212 127 82 124 102 111 104 176 106 108 84 97 182 115 164 82 60 136 115 213 194 133 193 163 83 65 143 182 114 113 74 175 130 139 112 137 85 104 215 100 150 143 60 120 169 137 122 133 99 148 115 138 129 100 186 77 94 156 188 153 143 233 104 167 94 171 87 96 125 101 150 64 72 146 162 171 159 134 135 150 109 56 147 174 134 153 133 93 108 148 113 145 186 111 39 148 110 151 145 115 94 165 84 142 100 51 113 105 98 183 237 147 136 186 121 178 111 186 109 166 164 173 31 136 117 62 82 106 68 134 134 96 165 131 159 60 102 96 63 125 96 181 145 65 162 217 180 157 219 150 131 141 124 70 98 211 121 96 114 86 79 107 188 113 56 146 107 89 127 99 111 85 157 134 127 129 189 195 139 134 86 208 125 107 137 95 139 133 176 193 118 131 182 126 164 115 51 162 113 168 93 204 161 83 188 91 167 135 127 47 134 94 115 96 127 170 43 109 122 71 108 108 112 124 156 153 166 128 153 136 142 106 129 126 161 97 73 184 149 131 122 163 117 167 126 104 115 157 136 185 189 71 115 59 71 144 161 58 159 158 131 189 130 81 81 152 92 198 131 103 128 121 89 125 148 147 79 135 88 111 99 158 140 147 127 133 86 190 97 103 69 164 170 157 112 49 68 148 256 99 82 182 84 186 180 186 184 203 149 147 151 158 62 221 94 132 105 103 138 92 122 49 137 91 76 179 38 91 174 140 186 136 87 122 104 178 187 66 151 176 87 79 113 169 94 153 55 194 113 104 87 184 199 131 98 107 58 66 200 130 248 76 108 195 152 88 94 96 64 148 106 61 228 114 60 98 213 135 121 183 95 124 103 120 99 202 70 114 140 156 165 106 84 137 191 106 101 155 62 65 122 126 183 202 163 116 166 118 95 114 45 90 96 136 112 62 151 172 107 84 113 147 75 132 256 162 231 137 104 106 36 94 81 217 107 199 100 174 121 169 138 81 139 55 121 209 169 163 227 122 180 184 42 169 107 162 116 154 137 93 43 155 104 104 57 92 88 88 121 109 172 101 159 158 160 125 172 62 149 142 90 102 137 110 185 160 149 124 139 111 102 154 116 88 175 126 165 144 142 153 153 133 177 93 88 80 102 101 62 73 147 149 92 140 193 103 160 136 152 103 83 128 109 120 159 92 101 156 191 77 92 90 145 150 71 176 116 183 180 189 148 106 96 116 190 103 39 70 92 110 151 180 75 140 118 115 47 124 116 152 110 92 135 180 136 126 91 70 80 154 135 104 131 117 102 35 120 137 60 136 55 71 188 94 97 149 107 123 120 96 150 208 150 107 176 84 103 115 125 175 126 191 145 95 96 140 80 147 79 102 166 114 30 98 56 167 108 139 86 108 124 113 167 63 145 62 112 166 125 148 197 107 248 81 157 116 129 119 175 137 90 80 135 75 151 128 122 51 102 150 135 144 89 85 111 124 139 35 98 221 143 117 220 112 154 168 78 159 26 136 58 132 190 118 178 139 191 143 77 134 139 84 125 87 79 114 164 115 166 80 101 172 115 118 108 114 125 123 70 182 120 155 126 142 146 87 102 48 107 88 58 147 151 174 112 144 112 120 188 134 124 221 182 102 187 190 154 110 162 156 110 155 58 75 180 152 182 85 107 118 55 66 102 107 91 120 201 162 255 136 100 60 192 123 186 154 100 123 122 94 115 70 92 80 157 153 157 97 59 169 183 146 106 91 157 121 94 78 178 129 103 228 173 141 77 69 127 142 77 120 177 96 140 86 69 157 182 71 103 91 176 97 185 122 114 142 140 94 158 143 202 157 51 88 138 132 151 119 113 54 184 75 183 126 91 94 115 105 161 106 180 132 113 127 114 178 121 164 99 137 116 90 93 166 128 74 87 80 73 182 62 97 140 155 98 176 70 90 232 60 59 99 80 137 89 171 106 95 140 126 152 119 120 216 93 134 164 87 156 151 143 135 143 82 112 133 132 77 62 83 75 155 99 140 134 126 180 144 84 93 116 129 113 119 112 176 164 135 132 118 173 88 141 206 124 123 177 159 84 82 124 125 153 116 92 73 132 187 107 159 137 128 197 91 68 28 75 71 96 101 95 126 97 91 196 109 160 115 139 184 102 126 99 119 206 96 128 103 122 119 50 150 129 70 98 146 166 119 126 119 184 216 140 149 208 102 73 156 141 172 79 133 158 113 104 99 93 114 122 58 232 69 89 71 148 188 143 202 99 176 82 111 111 59 200 159 165 145 122 128 128 170 110 59 113 82 67 109 73 189 90 154 127 95 139 100 116 180 119 67 168 148 110 97 161 106 80 76 124 226 140 169 171 85 130 140 147 140 176 93 149 104 19 78 150 135 109 122 172 98 139 121 176 95 134 212 212 193 97 115 71 118 117 106 155 166 42 154 120 184 147 54 196 150 108 158 168 140 137 154 182 146 134 145 207 185 106 137 213 100 139 211 94 98 137 65 92 170 120 115 115 130 135 164 97 114 81 120 98 102 77 71 141 164 72 172 170 78 110 153 64 116 68 85 119 121 148 128 194 157 101 143 130 217 70 163 80 82 161 102 64 142 128 54 114 92 132 83 108 222 119 226 88 99 126 72 112 138 117 162 107 142 196 131 172 173 134 147 105 112 116 135 155 181 96 105 133 87 175 126 154 141 154 161 68 123 121 87 86 110 184 137 125 145 229 35 207 155 114 130 84 136 140 114 97 141 133 112 105 141 53 75 99 186 72 161 83 172 101 73 85 118 72 138 73 121 91 100 170 79 159 168 140 149 160 148 88 134 84 105 78 147 161 116 159 93 171 102 91 74 104 161 103 76 179 138 148 88 133 196 100 124 133 25 128 101 104 93 134 126 195 165 86 73 135 136 119 109 119 110 244 190 126 222 45 151 204 125 110 36 140 276 84 138 163 146 50 46 153 113 132 182 193 106 188 192 130 115 171 148 136 87 109 152 197 154 150 114 133 138 191 104 126 89 133 21 187 174 76 132 167 123 171 216 37 168 117 164 182 86 123 161 156 135 157 128 73 128 138 106 136 107 166 134 51 76 152 176 61 102 167 68 101 108 101 143 115 103 126 141 87 137 100 74 135 165 119 109 167 119 109 156 122 74 99 147 182 147 93 161 108 118 183 161 111 63 105 117 109 141 209 161 144 63 139 79 130 102 116 143 137 70 60 149 139 77 193 105 191 220 175 87 136 143 197 135 160 114 97 204 91 149 140 158 56 133 178 115 73 117 90 41 151 98 149 105 151 154 121 156 139 152 149 67 140 112 109 129 105 142 137 152 159 89 81 160 118 194 100 115 128 179 131 77 161 118 127 76 136 135 45 125 109 84 112 99 92 195 166 124 161 185 89 86 132 242 57 169 94 137 201 168 128 128 186 232 113 90 160 123 110 64 168 146 66 64 144 119 89 135 84 130 129 90 75 125 96 159 74 213 136 189 78 204 150 80 35 100 171 100 184 136 72 169 104 111 138 101 119 69 92 88 124 148 123 111 105 75 170 154 142 101 184 134 172 96 154 145 89 77 49 133 123 217 141 95 150 107 120 139 108 120 112 122 135 147 113 109 126 120 133 154 103 109 224 137 118 173 157 104 146 70 92 90 195 64 150 150 151 163 85 80 191 154 111 151 142 203 178 139 47 157 78 137 127 132 159 183 142 89 156 72 88 100 95 157 60 109 141 144 91 164 84 72 174 126 137 179 155 130 155 156 129 198 177 71 147 164 180 137 174 104 185 174 60 95 125 134 52 160 60 218 93 72 141 96 47 71 135 61 121 62 166 145 110 171 126 93 120 105 139 137 188 149 151 81 121 153 100 105 178 93 171 197 129 120 227 94 172 130 69 94 182 107 113 65 120 128 156 86 107 92 155 164 51 173 88 115 151 85 87 74 95 171 93 166 143 131 133 104 118 153 135 79 134 153 55 55 121 114 88 135 191 190 110 102 172 129 95 158 94 107 144 100 124 145 143 110 61 58 117 166 62 185 148 152 138 163 125 107 143 84 126 95 110 150 102 212 113 95 171 155 126 177 102 117 102 82 180 48 148 118 86 155 145 179 177 109 81 149 79 137 145 88 101 93 141 119 98 115 136 117 70 140 113 130 130 152 124 224 139 109 79 109 97 99 157 84 93 120 132 190 111 131 137 39 88 106 96 129 146 207 127 104 111 153 166 136 136 177 126 66 138 107 80 106 95 115 45 99 237 108 129 111 88 129 132 187 106 148 136 59 107 150 129 110 160 62 146 88 78 120 180 160 158 126 24 188 145 135 167 105 155 177 135 98 109 178 109 156 82 150 108 75 219 103 141 166 70 136 132 204 159 131 95 42 105 107 79 87 128 102 209 96 69 127 123 107 202 121 104 112 140 144 135 160 50 33 87 137 185 128 48 113 138 89 69 144 112 89 106 88 90 80 173 160 140 113 149 173 104 147 44 142 123 156 84 130 88 139 163 112 139 83 91 96 80 119 101 107 106 183 113 100 136 111 203 86 148 108 78 145 51 154 131 106 70 93 189 100 59 113 196 140 69 130 152 105 106 84 209 145 134 150 115 123 155 75 205 118 102 83 153 70 138 174 168 98 87 182 150 63 81 79 135 129 128 166 63 130 118 225 199 149 97 118 159 153 188 83 154 191 133 178 159 139 119 118 138 144 82 126 70 138 169 135 105 138 108 194 119 140 60 109 141 153 128 124 114 112 92 193 157 87 89 110 106 106 178 156 116 139 112 201 164 84 109 103 180 175 51 113 215 131 213 115 78 82 164 166 101 205 82 159 87 81 142 122 66 92 192 68 177 195 107 214 263 143 95 86 88 244 52 101 157 147 145 84 96 127 64 88 112 60 44 210 163 59 54 263 131 95 110 57 165 128 117 128 99 106 143 83 91 84 137 47 66 83 59 104 61 104 105 179 96 157 172 100 173 159 121 125 117 85 186 99 115 104 113 127 66 67 116 50 113 117 141 102 145 143 139 191 157 101 96 179 127 157 126 77 157 90 165 121 57 147 113 98 72 149 93 76 164 98 161 128 183 72 122 190 109 85 195 120 58 105 157 119 51 69 104 99 66 140 132 142 123 128 98 101 77 132 162 70 172 56 158 97 35 86 117 70 113 98 179 152 89 112 87 117 178 103 160 65 171 123 157 66 96 146 97 189 98 109 121 119 193 167 128 102 141 67 85 149 82 62 55 91 166 135 85 104 139 114 108 136 132 136 116 153 116 111 170 152 111 151 46 157 135 136 158 91 64 163 172 140 132 167 123 73 50 114 96 176 145 141 108 86 88 66 127 99 102 93 109 193 164 77 103 216 86 130 83 126 56 138 107 158 185 133 164 123 126 147 71 106 50 169 130 110 89 94 148 185 192 202 51 146 83 123 108 94 97 92 95 199 113 166 154 148 205 123 100 177 135 109 77 154 84 69 125 130 110 130 106 186 140 103 191 135 118 165 182 91 136 129 108 160 175 148 138 75 238 93 164 121 79 103 122 130 137 89 86 149 113 126 155 89 148 109 93 77 74 94 158 158 148 97 63 94 180 168 104 95 165 176 87 164 146 64 126 144 86 137 80 115 47 131 127 104 93 202 184 106 51 71 111 68 46 128 58 124 102 104 146 133 80 149 89 71 85 157 153 92 103 130 85 70 162 135 132 138 160 214 99 129 230 106 78 112 62 172 96 118 119 142 123 65 139 56 212 98 151 172 121 115 169 122 113 175 95 135 156 143 147 46 153 65 108 120 95 51 111 70 144 130 121 217 152 36 157 142 56 93 53 160 152 140 137 99 64 200 183 154 140 186 124 143 84 27 120 137 130 188 78 90 65 203 145 90 162 129 180 175 73 180 114 158 148 146 172 128 98 116 133 157 146 229 138 151 122 218 80 130 105 82 102 131 162 145 119 113 97 77 102 100 284 111 72 138 177 97 72 144 97 193 113 124 88 139 129 170 119 125 131 166 119 148 239 113 138 148 59 205 131 79 124 113 180 200 173 89 45 89 116 168 85 140 86 146 176 152 165 133 105 171 103 132 70 117 85 141 161 173 114 49 98 118 77 127 167 239 132 143 130 89 152 137 78 167 39 107 158 153 71 110 143 122 96 132 46 93 91 105 124 124 153 82 133 90 152 126 121 107 122 119 72 212 179 151 121 91 140 170 154 103 108 210 115 166 136 162 132 126 41 199 138 107 206 182 129 115 149 95 106 121 121 160 134 81 148 166 92 110 80 134 155 168 105 91 155 77 94 141 107 126 93 123 126 161 71 91 103 133 75 154 118 135 123 135 103 99 117 121 129 189 182 140 68 126 165 88 170 90 85 126 253 156 143 159 166 94 166 125 137 191 128 133 94 114 140 92 206 132 122 96 111 90 81 160 129 103 86 73 116 154 160 152 167 119 115 114 119 109 153 148 110 82 129 82 96 84 186 205 67 72 89 78 119 228 105 148 186 105 148 136 168 274 64 70 128 114 147 112 71 134 103 145 164 97 118 204 217 37 110 118 127 104 108 162 112 71 139 147 209 99 100 69 83 118 122 93 93 114 72 144 142 103 61 125 81 131 153 138 159 130 84 49 83 88 135 75 88 137 95 113 89 74 182 189 113 105 161 91 108 143 131 77 159 155 132 204 136 79 184 81 75 161 169 126 78 109 215 96 165 156 151 172 133 95 84 160 162 205 68 134 150 171 115 110 117 125 123 119 172 135 145 95 170 69 120 55 104 160 183 106 84 118 110 109 137 104 95 82 131 222 68 154 73 38 111 174 98 119 102 119 106 192 159 136 131 45 165 148 98 83 104 167 109 140 163 99 123 217 179 106 107 75 171 79 130 184 57 136 216 101 38 169 106 170 155 132 176 103 95 126 182 149 94 117 195 117 181 123 113 165 138 203 80 129 134 225 117 83 108 193 143 111 28 74 164 88 123 114 183 131 115 146 130 113 88 102 145 145 115 130 167 109 19 96 80 144 171 142 168 82 72 195 125 123 150 100 129 94 80 113 121 204 136 108 153 149 94 186 119 169 140 55 130 87 113 156 86 125 123 157 86 76 145 148 173 150 179 124 147 63 185 154 63 144 110 87 101 166 123 102 86 154 144 140 99 169 135 177 68 58 177 111 138 124 129 168 160 174 106 111 133 186 102 88 121 138 69 152 78 136 130 214 129 54 216 108 30 82 87 95 159 126 133 104 107 136 191 148 118 166 94 136 208 167 90 111 79 109 225 160 130 113 50 91 115 62 178 105 111 96 175 138 209 229 100 97 139 147 80 185 104 72 136 140 54 145 81 159 168 50 127 68 122 137 137 91 240 86 10 143 60 86 90 105 115 194 90 101 60 192 107 89 104 122 170 204 165 122 134 107 186 126 173 182 184 209 108 100 87 128 122 183 129 161 178 117 137 112 98 71 167 172 183 176 100 154 132 152 113 111 66 174 219 187 153 83 106 142 78 187 115 121 154 159 66 72 85 47 136 96 167 98 176 112 66 113 153 110 80 100 140 92 178 126 115 184 220 80 100 157 137 120 109 227 157 115 110 143 122 72 107 77 244 72 156 74 132 140 148 192 116 199 93 144 87 151 129 129 99 190 176 88 84 126 111 89 120 125 70 159 92 93 114 77 125 121 155 123 150 140 79 123 93 167 168 189 134 189 64 113 124 171 123 92 62 148 86 80 138 93 161 100 180 111 121 78 97 106 104 104 143 172 146 109 168 97 119 213 102 32 115 79 154 81 164 131 85 153 131 151 81 102 93 137 180 136 119 201 127 41 181 175 106 207 119 191 194 203 192 102 159 163 121 135 160 148 139 145 214 92 130 135 117 146 122 114 141 116 107 112 123 126 197 138 150 139 170 52 119 92 131 87 171 107 111 125 128 196 184 81 179 166 140 134 99 138 92 184 120 152 87 82 126 113 181 100 126 111 108 168 166 166 96 158 164 81 154 140 89 150 90 57 72 96 133 152 71 101 53 87 141 114 176 110 243 180 156 65 62 112 48 63 122 42 50 47 94 93 92 162 118 100 149 131 66 94 98 165 123 61 172 64 117 99 272 139 65 141 52 165 97 91 146 79 202 135 47 139 142 161 159 157 108 130 122 183 194 134 222 135 141 91 107 166 102 132 124 94 242 110 73 101 197 123 137 133 139 242 177 150 44 166 114 187 41 109 131 110 105 132 129 47 128 125 95 167 155 139 141 69 68 66 150 74 176 196 92 67 69 81 98 91 204 100 188 184 64 86 154 171 121 165 156 95 140 134 89 167 39 92 173 136 125 179 143 98 163 148 85 214 214 86 101 114 39 156 110 175 116 128 139 120 51 182 165 170 131 137 106 130 153 138 177 140 226 190 102 138 137 124 51 129 149 86 119 87 153 128 221 137 107 178 140 120 169 59 172 118 106 152 134 59 102 93 142 126 65 185 99 120 99 132 171 191 146 111 166 166 129 73 218 120 99 88 67 141 74 156 93 138 175 176 125 76 126 152 196 143 146 116 131 159 166 150 49 60 139 112 88 167 142 131 110 117 191 100 95 142 118 202 167 141 161 119 44 162 51 111 171 91 124 135 79 146 111 107 119 73 56 83 60 174 85 179 91 189 124 147 150 170 152 140 188 111 170 129 79 109 138 83 137 164 243 99 82 111 113 163 116 99 71 111 158 109 96 155 147 124 80 134 103 118 104 62 151 207 159 144 40 137 161 41 132 94 69 228 105 114 52 99 163 103 156 140 43 84 119 115 42 83 129 150 129 145 171 123 162 137 105 195 214 178 105 202 144 164 95 188 146 128 102 122 178 158 180 119 41 142 86 193 159 158 127 195 195 165 187 139 72 160 193 129 122 77 106 154 88 65 235 170 154 187 218 155 78 90 137 249 167 153 102 126 191 120 88 126 161 136 219 132 175 124 195 140 106 138 86 107 116 120 142 142 127 129 178 105 136 116 149 98 159 120 177 88 142 136 43 169 152 169 195 98 95 134 103 144 85 155 104 86 112 104 130 162 131 164 124 125 77 140 156 159 124 100 157 93 179 84 137 159 163 107 106 127 152 96 87 72 121 64 111 142 137 151 105 146 184 61 178 107 149 125 102 136 111 114 107 172 84 113 132 54 150 116 115 121 94 98 138 105 112 134 156 84 175 135 123 142 104 156 188 83 124 106 124 67 105 108 114 149 121 105 135 104 78 229 102 103 161 76 134 113 124 108 125 158 91 134 136 82 108 196 132 163 122 216 202 144 141 117 110 125 150 180 141 147 57 165 147 74 149 114 79 152 36 161 92 104 203 129 105 133 133 45 168 193 134 103 114 78 108 72 117 131 142 171 149 165 104 103 81 66 225 131 127 109 114 177 118 98 134 162 170 103 106 112 107 122 99 199 165 146 118 213 145 152 60 68 158 239 116 154 156 47 105 176 187 85 133 99 118 115 88 97 150 173 112 101 96 135 149 212 94 135 127 199 158 184 128 137 102 135 121 140 94 142 135 113 149 85 84 185 130 92 100 114 127 198 63 125 180 137 116 151 205 166 167 91 167 46 64 204 119 159 187 117 95 133 96 100 187 102 140 80 177 159 40 131 133 95 175 146 115 122 142 142 187 173 156 78 166 80 154 84 124 65 110 138 198 269 132 223 154 188 169 118 181 109 78 149 131 127 163 190 182 123 192 124 152 199 99 81 91 125 170 131 171 224 54 129 177 82 33 86 112 164 91 190 211 91 94 138 111 145 125 139 167 140 211 95 120 142 112 93 184 90 75 153 105 96 128 95 169 185 102 80 72 111 84 93 73 158 255 130 145 150 66 144 74 71 161 192 172 163 75 199 132 82 63 100 176 143 118 77 173 66 138 113 176 100 108 169 136 148 124 200 114 95 139 183 33 138 205 123 180 144 158 133 196 159 165 142 142 122 165 173 217 81 79 153 174 141 154 68 122 112 162 137 103 137 100 82 93 123 142 108 126 121 120 128 91 114 114 121 144 193 90 204 195 146 150 105 34 77 134 134 151 151 186 69 70 71 128 130 183 122 127 124 202 142 128 124 117 89 159 128 54 119 101 67 198 102 145 189 117 203 92 107 112 219 192 112 76 100 85 60 145 210 142 91 106 183 133 71 107 168 124 125 71 116 140 213 66 139 151 107 33 94 209 168 118 100 172 142 93 143 169 92 161 220 158 204 60 158 118 75 87 102 147 226 103 128 115 26 166 199 161 113 105 123 130 154 113 129 133 200 116 118 114 147 105 93 191 105 221 81 181 116 158 164 120 115 98 149 174 135 175 126 103 58 148 164 122 111 137 105 153 151 242 137 114 151 129 155 169 164 132 98 155 191 207 120 121 88 81 107 120 237 95 147 119 125 143 75 205 77 104 51 191 142 131 67 67 149 155 180 78 134 124 121 113 99 193 172 178 159 143 187 81 146 120 177 142 218 115 76 138 161 170 177 116 147 191 100 195 67 164 127 120 155 88 49 97 140 182 125 50 38 104 180 127 103 112 106 139 121 173 86 98 154 112 151 185 113 120 112 86 85 93 132 97 138 154 77 113 102 130 201 156 113 139 111 123 69 142 108 118 163 164 154 204 152 34 137 113 227 126 137 142 73 141 95 67 121 188 105 134 132 213 55 130 117 88 48 123 109 118 146 75 204 137 111 97 104 39 106 131 106 101 83 56 132 97 101 120 97 93 84 118 92 57 93 124 153 147 117 118 109 177 137 104 120 95 116 25 140 158 203 113 136 138 128 124 61 145 166 137 67 144 118 113 116 100 88 129 102 120 132 145 202 114 84 98 66 102 40 138 118 95 157 176 57 169 278 142 132 149 118 205 43 55 200 34 128 185 122 55 129 149 101 113 196 148 94 195 123 165 209 94 140 54 145 157 100 72 173 92 129 114 45 195 136 132 111 99 75 148 168 176 130 191 99 70 122 140 137 125 38 147 113 85 128 126 96 153 85 162 116 81 70 51 148 150 106 167 36 172 117 154 189 111 152 167 193 168 144 197 148 102 124 147 122 108 122 113 159 212 224 115 150 94 72 117 198 211 151 83 81 66 167 120 130 80 121 129 179 97 139 110 137 122 66 233 188 194 216 143 87 92 122 139 159 187 138 65 191 154 63 133 218 188 203 111 100 108 163 96 80 82 138 167 242 87 93 185 108 96 33 118 216 179 43 170 128 190 137 167 147 156 136 156 171 194 148 136 123 59 76 111 106 119 67 145 127 153 80 171 186 67 168 87 137 58 40 219 145 123 195 204 81 95 151 127 97 183 95 149 152 144 154 170 49 123 162 116 73 97 184 100 114 138 161 67 187 129 71 66 160 164 185 66 147 148 230 117 158 123 102 126 115 122 27 78 73 91 175 163 89 39 111 96 184 174 163 126 181 114 143 180 158 134 192 110 96 194 138 116 120 56 105 122 96 134 103 106 34 132 165 172 57 40 230 136 74 101 219 157 115 192 165 75 145 209 94 128 136 134 252 171 95 168 104 136 131 121 75 211 189 148 65 186 213 120 159 73 116 207 103 162 124 85 141 157 77 89 172 158 28 91 83 154 69 167 186 93 93 139 161 54 58 207 101 172 109 103 110 114 138 141 100 90 115 154 119 192 118 194 72 81 179 71 100 91 124 249 86 75 141 196 63 278 164 48 139 244 157 138 107 126 132 127 107 99 154 98 146 45 99 133 130 206 95 133 161 115 108 105 92 187 109 152 212 114 167 120 127 132 143 107 173 75 160 138 128 129 195 92 90 89 99 83 102 75 144 114 107 188 135 145 86 74 72 150 127 121 48 117 77 88 100 85 90 91 39 113 92 140 158 106 195 90 67 105 121 110 133 140 160 77 126 245 125 97 86 153 119 126 174 121 67 220 108 169 144 188 121 59 76 186 151 83 92 127 131 166 74 111 158 84 142 104 106 136 110 76 154 110 101 160 115 168 147 105 109 125 124 220 136 114 79 157 130 173 59 157 146 108 152 58 106 142 83 139 95 197 131 90 103 140 129 91 148 176 131 139 123 133 129 132 197 67 139 97 123 179 184 83 37 145 115 169 48 89 137 188 175 111 130 134 182 114 146 73 182 198 178 19 111 160 56 20 40 181 136 161 166 204 169 127 130 99 101 97 144 139 210 88 154 76 203 113 148 121 108 170 149 120 92 96 86 156 127 177 76 194 120 40 132 119 199 86 87 160 91 139 74 167 163 137 19</t>
-  </si>
-  <si>
-    <t>JSU(-3.578943912307147, 0.25802768174122415, -1.921477315269264e-09, 1.222818002447631e-09)</t>
-  </si>
-  <si>
-    <t>0 2 1 3 0 1 0 1 1 1 1 0 0 1 0 1 2 2 2 4 2 0 0 1 0 1 2 3 0 1 1 1 1 0 0 0 0 0 2 0 3 2 0 2 0 0 1 2 1 0 3 0 1 1 2 2 0 0 0 4 1 0 2 1 1 0 1 2 0 1 1 1 1 1 2 1 0 2 1 1 2 0 1 0 4 0 0 0 1 1 0 2 1 1 2 0 2 1 0 0 0 1 0 2 0 1 0 1 2 0 0 2 1 1 2 2 1 0 1 1 1 0 2 0 1 2 0 2 1 2 4 0 0 1 1 1 0 1 0 2 0 0 2 1 1 1 0 2 2 0 1 0 0 0 0 1 0 0 0 2 2 0 1 2 0 1 2 2 0 0 1 0 0 3 1 0 0 1 1 0 3 0 0 1 1 2 1 1 2 0 1 0 0 0 0 0 1 0 1 1 2 0 2 0 1 1 1 3 1 1 2 0 2 1 3 2 1 1 2 1 1 0 1 2 1 0 0 0 0 0 2 0 0 0 0 2 1 0 0 2 0 0 2 0 2 2 2 2 2 1 2 1 1 0 1 2 0 1 0 2 3 0 1 3 1 2 0 1 0 2 1 3 1 2 2 0 1 2 0 2 1 1 0 0 2 1 0 1 2 0 0 0 0 0 3 2 1 2 0 1 2 1 3 1 0 0 1 2 0 0 0 2 1 1 0 1 3 1 0 1 0 0 1 2 1 1 0 1 2 2 0 0 1 2 1 2 0 1 3 1 0 1 0 2 1 1 1 2 1 2 2 0 2 1 1 2 2 1 0 0 0 1 1 3 2 2 0 1 0 0 1 0 0 2 2 2 0 2 1 0 3 3 0 1 2 4 0 1 2 1 1 0 1 1 2 1 1 1 1 1 0 2 1 1 0 0 0 2 0 1 0 4 1 0 1 2 1 0 1 2 2 3 0 0 2 1 2 0 3 2 1 1 1 0 0 1 0 1 1 1 1 1 0 1 0 2 1 1 1 0 1 0 1 1 4 1 1 0 3 0 0 0 2 0 1 1 1 3 1 1 3 2 2 3 1 2 1 0 1 0 1 1 1 0 1 2 1 0 0 4 0 0 0 1 1 1 1 0 1 0 0 2 2 0 1 1 1 2 0 1 0 0 1 1 3 0 3 0 1 2 2 2 1 4 2 1 0 3 1 1 0 2 0 2 0 2 2 2 0 0 1 2 1 2 2 1 1 1 2 2 1 1 1 0 0 0 2 1 0 1 1 2 0 3 3 1 0 2 0 4 0 1 0 3 0 2 1 1 2 1 0 1 2 1 1 1 2 1 1 1 1 2 1 0 1 0 2 0 1 1 1 0 2 2 1 0 2 1 1 1 3 1 1 1 0 3 2 0 0 1 1 1 0 1 1 1 3 1 0 0 1 0 2 0 0 1 0 1 2 3 0 0 1 1 0 2 1 0 0 1 0 2 1 1 0 0 0 1 2 1 2 2 3 1 1 4 1 0 1 2 0 1 2 2 1 0 2 1 2 1 0 3 1 1 1 0 0 2 2 0 2 1 1 2 2 1 1 2 1 1 1 0 1 0 1 1 0 2 0 1 1 2 1 2 1 0 1 2 1 1 0 0 0 0 1 0 0 2 1 0 1 0 1 1 0 2 2 0 1 0 2 1 0 2 1 1 0 1 3 0 3 2 0 1 1 0 1 0 2 0 3 1 2 2 1 1 2 0 2 2 1 0 0 0 0 2 1 1 0 1 0 1 3 0 2 1 2 1 1 2 1 2 2 1 2 1 2 0 2 1 3 0 1 0 0 1 2 1 1 1 2 2 0 3 0 1 0 0 1 2 0 0 2 2 0 1 1 2 1 1 2 2 0 2 0 1 1 3 2 3 0 0 0 2 1 1 0 1 0 3 0 2 1 1 1 0 1 1 1 2 1 1 2 1 1 3 0 1 2 1 0 2 1 0 0 1 0 0 0 2 1 3 0 1 1 4 0 2 1 1 2 0 1 1 2 2 3 1 0 1 1 0 2 0 2 1 0 0 0 1 0 2 3 0 1 0 1 0 0 0 1 2 1 0 1 0 3 1 0 0 3 1 0 0 1 1 2 2 1 0 0 0 0 0 3 1 2 2 2 1 1 3 1 0 1 3 0 1 0 3 0 0 0 0 3 1 1 0 2 0 0 1 0 0 1 0 1 1 0 3 2 1 1 0 2 1 1 1 0 1 1 0 0 0 1 1 4 0 0 0 3 2 0 0 2 0 0 2 2 1 1 0 1 2 2 1 1 2 2 1 1 2 0 1 2 1 1 1 2 0 0 2 2 1 0 1 0 0 2 2 0 2 3 3 1 1 0 0 0 1 0 1 1 1 0 1 2 1 0 2 0 0 2 0 2 2 2 1 2 1 2 0 0 1 0 1 3 0 2 2 2 3 0 1 2 3 1 0 2 2 0 2 1 1 3 2 2 0 2 0 1 0 0 2 2 3 0 0 3 2 1 1 2 0 2 1 1 1 0 1 0 3 4 0 1 0 0 0 0 2 1 0 1 3 2 2 0 0 0 1 2 0 3 0 2 0 1 1 2 1 3 1 1 1 0 1 0 1 0 1 0 0 1 0 1 2 2 1 1 0 2 0 3 0 0 0 1 0 2 2 2 1 2 2 0 1 1 1 0 3 2 0 3 2 2 3 1 1 1 2 2 1 1 2 1 2 2 1 0 0 1 2 1 2 0 2 2 0 3 0 1 1 1 2 1 3 0 3 1 0 1 0 2 0 2 0 1 1 0 1 0 4 2 2 3 0 2 1 3 3 2 1 2 2 1 1 1 1 1 1 0 4 1 2 3 2 0 0 0 1 3 0 0 0 1 2 2 1 1 2 3 1 1 2 0 2 1 2 2 0 2 1 4 2 1 0 2 1 2 2 1 1 1 0 0 2 1 1 1 1 0 1 1 2 0 0 1 1 1 1 1 1 2 2 0 1 1 1 0 0 3 2 0 2 1 2 2 1 2 3 1 2 1 0 2 0 0 3 1 2 1 1 1 2 1 2 1 0 1 2 0 0 3 0 0 3 0 0 1 1 0 1 3 0 1 0 0 1 1 2 1 2 0 1 1 1 1 0 2 2 0 1 1 2 2 2 1 2 1 0 2 0 1 0 3 1 0 1 1 0 0 1 0 2 0 2 2 3 1 0 0 2 1 0 0 0 0 1 1 1 1 0 2 3 2 1 1 1 1 0 0 0 0 0 0 2 1 2 1 2 1 1 0 0 0 0 1 2 1 1 3 1 0 2 1 2 2 1 2 1 2 0 0 2 1 2 2 0 1 2 0 0 1 2 0 1 1 3 1 0 1 2 0 1 2 0 0 1 1 2 1 1 2 1 1 0 1 1 1 1 1 1 3 1 1 2 1 2 1 0 2 1 0 2 1 2 1 1 0 4 3 1 0 1 0 0 2 2 0 1 0 1 2 1 1 3 0 1 0 2 2 1 0 0 2 1 0 2 1 3 2 0 0 0 2 1 0 2 2 1 1 2 0 4 1 3 0 0 0 1 1 0 1 0 1 3 4 0 3 2 1 2 2 0 0 1 0 4 2 1 0 2 2 1 2 0 2 0 2 1 1 1 2 2 1 0 1 0 0 3 2 1 0 1 0 2 0 1 2 2 1 3 1 0 1 0 3 2 0 1 1 0 0 0 1 1 0 1 1 1 1 1 2 2 1 1 1 0 1 1 1 2 2 3 1 2 2 2 0 0 2 1 0 1 0 0 2 1 2 0 0 2 2 0 1 4 1 0 1 2 1 3 1 1 1 0 0 0 1 0 1 2 0 0 2 0 1 0 0 0 0 2 2 1 2 2 2 1 1 2 0 3 4 0 0 1 0 2 0 0 0 3 1 1 2 2 1 2 1 1 0 1 0 3 0 0 0 0 2 2 0 1 0 1 0 1 4 1 1 2 1 1 3 0 1 0 2 0 2 4 1 0 1 0 2 2 1 1 1 0 0 0 0 1 1 0 2 0 0 0 0 2 1 1 2 2 1 1 1 2 2 2 0 1 1 0 2 0 2 1 0 0 2 0 0 0 1 1 3 1 1 0 0 1 0 1 1 0 0 1 3 1 0 1 0 3 1 0 0 2 4 2 0 1 0 0 0 0 1 4 2 3 1 0 1 0 2 1 1 0 3 1 1 0 1 3 1 0 2 0 3 1 0 1 2 1 1 1 0 1 0 0 1 0 1 0 0 2 0 3 1 0 0 0 2 0 0 2 1 1 0 0 1 0 0 3 3 2 1 1 2 2 0 0 0 2 0 0 3 1 3 1 3 3 0 2 3 2 0 1 0 1 1 1 2 1 1 1 0 2 1 2 2 2 1 2 0 1 1 0 0 3 1 1 3 0 2 1 1 1 1 2 1 2 2 0 1 1 1 0 0 0 0 1 4 2 1 2 1 1 0 1 0 1 1 1 0 2 1 0 4 1 1 3 1 1 3 1 2 0 1 2 1 1 2 1 1 3 1 1 2 0 1 3 1 0 4 2 2 1 2 1 0 1 0 0 0 2 1 1 0 1 1 0 0 0 1 1 1 2 2 0 1 0 1 0 1 1 0 1 2 1 2 2 0 1 0 0 0 1 1 0 1 1 1 0 0 0 0 2 1 1 1 0 0 0 2 1 0 2 1 2 1 2 1 1 1 0 1 1 2 0 1 0 1 1 2 0 2 2 2 1 0 2 0 0 1 1 1 2 2 2 0 2 0 0 0 0 1 3 2 1 1 1 2 0 1 0 1 2 1 1 0 2 1 0 0 1 0 0 2 4 1 2 0 2 0 1 1 3 1 0 0 1 3 0 2 1 1 1 1 0 0 0 1 2 1 2 0 2 2 0 1 1 1 1 1 0 2 1 0 1 3 3 3 2 1 0 0 1 2 1 2 2 1 2 0 0 1 2 1 1 1 2 1 0 2 0 1 0 2 0 1 1 0 1 1 0 1 0 2 0 3 2 0 0 1 0 0 1 1 2 1 0 0 2 0 0 1 2 0 2 0 1 1 1 0 0 1 1 0 0 1 1 0 1 0 1 1 0 2 1 1 1 1 1 1 2 1 1 0 0 1 0 1 2 0 1 1 0 0 2 1 2 2 1 1 2 0 2 2 2 1 2 2 1 2 2 1 1 0 0 1 0 2 1 1 0 1 3 2 0 1 0 4 1 4 2 2 1 1 3 0 1 0 2 0 2 0 1 0 2 1 0 2 1 0 2 1 1 2 2 0 1 2 2 2 2 1 0 2 2 3 3 1 0 0 1 0 0 1 1 1 2 1 0 0 3 0 1 1 1 2 5 0 0 0 0 2 1 0 2 3 0 0 1 0 1 1 1 2 2 0 0 2 1 0 0 2 3 1 1 1 0 2 1 1 2 1 2 1 1 0 2 2 1 0 2 2 2 0 0 0 1 1 3 1 1 0 1 4 2 1 1 0 4 0 1 0 1 1 1 1 1 0 0 2 0 4 2 2 1 3 3 1 2 2 1 1 1 1 1 0 0 0 1 2 2 1 1 0 2 1 0 0 3 1 1 2 1 2 0 1 0 1 1 0 0 2 1 0 1 1 0 1 1 1 0 0 3 1 0 2 0 2 1 2 1 1 0 0 2 2 1 3 2 2 3 0 3 0 0 0 1 0 1 4 1 2 2 1 1 1 3 0 0 0 0 1 2 0 1 0 1 1 1 0 1 1 2 0 1 0 3 1 2 0 1 0 1 2 0 1 0 0 2 1 0 0 1 2 1 1 1 1 0 0 0 0 1 1 0 0 1 2 1 2 1 1 0 0 1 2 2 1 0 1 0 0 1 0 2 1 1 2 0 1 2 1 2 0 0 2 0 0 3 2 1 0 0 0 1 3 0 2 0 3 1 0 2 0 0 1 2 1 1 0 1 0 1 0 1 4 1 0 2 0 1 2 1 1 2 1 1 1 0 1 2 1 0 0 0 1 1 2 1 3 1 1 3 1 1 1 0 1 2 0 2 1 0 0 2 1 1 2 1 1 1 1 2 1 1 1 0 0 1 0 0 1 0 2 1 0 1 0 0 0 0 1 0 2 1 3 1 0 0 3 1 2 2 0 1 1 0 0 0 1 0 0 1 2 0 2 0 3 2 0 0 1 1 1 0 2 1 1 1 1 0 0 2 1 1 1 1 1 1 2 1 0 2 0 1 0 1 1 1 1 0 0 0 1 1 3 2 4 0 0 0 1 0 0 2 1 1 2 1 0 1 1 0 0 1 2 1 0 2 2 1 1 0 0 1 0 3 0 2 2 1 0 2 1 3 1 1 0 2 2 1 1 4 3 2 0 2 0 3 2 0 1 0 1 0 3 0 1 0 1 0 1 1 2 2 2 3 2 0 0 0 2 1 1 1 0 2 2 1 4 1 1 1 0 2 0 1 2 1 0 0 0 1 1 1 3 1 1 2 1 0 1 0 1 1 0 1 0 1 2 1 1 2 1 1 2 0 0 1 0 1 1 2 0 3 3 1 1 2 0 2 3 0 1 2 1 2 3 0 2 0 0 1 4 2 1 1 1 0 2 2 1 3 0 0 3 1 0 1 2 1 4 0 1 2 1 1 0 0 0 0 0 2 3 1 1 3 1 1 0 0 0 1 1 0 1 0 1 1 3 1 1 1 1 0 0 0 1 0 1 1 1 1 1 0 1 1 2 1 4 2 2 1 0 0 1 3 1 2 1 0 2 1 1 1 0 0 0 0 0 1 1 1 0 1 2 3 1 0 1 3 0 0 0 2 1 1 1 1 2 3 3 0 0 0 0 0 1 0 0 1 1 1 0 1 1 2 2 2 1 1 1 1 0 1 0 0 1 3 3 2 3 1 1 1 1 2 2 0 0 0 1 1 0 2 1 2 1 4 1 0 0 1 0 2 2 2 0 1 2 1 2 1 1 1 0 1 3 1 1 0 0 3 1 3 1 2 3 1 1 0 1 0 1 3 0 2 1 0 0 2 1 1 2 1 2 0 1 1 1 1 0 0 1 1 0 1 2 1 0 1 1 2 0 0 1 2 1 2 2 0 0 3 0 2 1 1 0 0 1 1 2 1 0 1 0 1 1 1 3 0 0 1 2 1 2 1 1 1 2 0 1 2 0 1 1 2 1 1 1 1 1 1 0 1 0 1 1 0 3 1 2 0 0 3 4 2 0 1 1 1 2 0 2 1 0 2 1 0 0 1 0 2 1 0 1 1 2 0 2 1 2 1 0 2 1 1 3 0 3 1 1 0 1 0 0 3 1 3 1 2 0 4 1 1 0 0 0 0 1 0 2 0 2 0 0 2 1 0 3 1 2 2 1 0 1 1 1 3 0 2 2 0 0 0 1 3 0 5 1 0 2 1 2 0 2 1 0 1 1 0 2 1 1 0 0 0 0 2 2 2 1 1 1 2 0 3 0 1 0 0 2 1 0 1 1 3 1 2 3 4 2 0 2 0 0 1 3 1 2 1 0 0 3 1 0 1 0 2 0 2 2 0 0 1 2 0 0 1 3 0 0 1 1 0 1 0 1 2 0 0 2 0 2 0 0 2 0 2 3 2 1 3 0 1 1 0 2 1 1 1 0 0 2 0 0 0 5 0 4 1 0 0 0 0 1 1 0 1 2 3 3 1 1 0 0 2 0 2 2 2 1 2 1 2 2 0 2 2 1 0 1 2 3 0 1 3 1 1 0 1 1 1 0 1 1 0 0 2 1 3 2 1 0 1 0 0 2 2 2 1 1 0 0 0 0 0 0 3 2 1 0 2 1 1 1 2 1 0 1 1 0 1 0 0 1 1 0 3 1 0 1 1 1 0 1 1 0 0 2 1 2 0 0 2 2 2 2 0 1 1 2 0 0 2 1 0 0 0 1 0 3 0 0 1 2 1 1 1 1 1 1 1 2 0 2 2 0 0 1 2 2 0 0 1 1 2 1 3 1 1 1 2 1 0 1 2 0 1 2 2 4 0 1 2 2 0 1 0 1 1 3 0 1 1 2 1 0 1 1 1 1 0 4 0 2 0 2 1 1 0 3 1 2 0 1 2 1 1 1 1 1 2 0 1 0 2 1 1 1 2 1 2 1 0 2 0 2 0 2 1 1 0 0 2 0 1 1 2 0 0 0 0 0 4 0 1 1 1 0 2 1 1 0 1 1 1 1 1 0 1 2 0 0 0 1 1 3 0 2 1 0 3 1 1 2 1 0 0 3 0 0 5 2 1 1 0 1 1 0 1 0 2 0 1 0 0 0 0 0 0 0 2 0 1 2 0 1 2 1 0 3 1 2 1 0 1 1 0 1 1 0 2 0 1 0 0 0 1 2 1 1 3 1 0 1 1 0 0 1 1 2 1 0 1 3 2 3 1 1 0 2 0 0 2 1 1 1 1 2 0 0 0 1 2 1 1 0 0 4 0 2 3 0 3 3 0 0 1 0 1 1 2 1 0 0 2 1 0 0 2 0 1 2 1 2 1 1 0 0 3 1 2 0 0 0 2 2 2 0 0 1 0 2 2 1 0 0 2 2 2 0 1 0 1 0 0 1 0 0 2 3 0 0 0 0 0 1 0 1 1 1 1 2 0 3 0 0 1 1 3 0 0 0 1 2 0 1 1 2 1 1 1 0 0 1 1 2 3 0 2 1 0 1 3 0 2 1 0 1 0 1 2 3 1 2 1 1 2 2 2 0 1 2 0 3 2 1 0 2 1 1 2 1 5 2 3 1 2 1 0 2 1 0 0 1 0 1 1 1 2 1 0 1 0 0 0 2 1 1 1 0 2 1 0 1 1 1 1 1 1 3 1 0 0 2 2 0 2 1 0 1 2 0 1 0 0 1 1 1 3 3 0 3 0 0 1 0 1 2 0 2 2 1 2 0 3 2 0 2 1 0 0 0 1 1 1 0 0 1 1 1 0 1 2 0 2 2 0 3 1 1 1 0 0 4 0 2 1 0 1 1 1 1 1 0 0 1 1 1 0 0 0 1 1 2 0 1 3 1 2 1 0 1 3 0 1 1 0 0 1 1 1 2 2 3 0 1 3 2 0 1 1 2 2 2 1 3 0 3 1 1 1 1 2 0 0 0 1 2 1 1 1 2 0 0 0 1 0 0 2 0 3 2 0 2 1 0 1 2 2 2 0 2 1 2 0 2 1 2 0 0 1 1 1 0 1 1 1 1 0 1 2 1 1 1 1 2 0 1 2 0 0 1 0 1 1 1 0 0 1 1 1 2 1 0 1 0 1 3 1 0 1 0 1 2 2 1 3 2 2 1 0 0 0 0 1 0 1 2 2 1 1 0 1 2 1 0 0 1 1 2 1 2 1 0 1 1 2 2 2 1 0 0 1 1 1 1 0 0 0 3 0 0 1 1 1 2 1 4 0 0 2 2 2 1 2 0 0 0 2 0 1 1 1 1 2 0 2 1 0 2 0 0 1 1 1 2 2 1 1 1 2 0 3 0 1 3 2 1 0 0 1 1 2 1 0 3 2 2 0 1 0 3 2 1 1 0 1 0 0 1 3 1 2 1 4 0 1 0 1 0 2 1 1 2 2 1 1 0 0 1 1 1 1 2 2 0 0 0 1 1 2 2 0 0 3 1 2 1 2 0 1 1 0 1 1 2 0 1 1 1 2 2 0 3 0 1 1 1 0 1 1 1 1 1 0 0 1 0 0 2 0 1 2 2 0 0 1 3 3 1 1 2 1 1 0 1 0 1 2 2 0 1 2 1 1 3 0 2 1 2 0 3 1 0 1 1 1 1 1 1 0 2 0 1 1 2 1 1 2 0 0 2 0 0 0 0 1 1 1 1 2 1 0 1 2 0 1 1 1 1 0 1 1 2 1 2 1 0 0 1 1 1 2 2 1 0 0 3 1 0 1 2 1 1 2 0 1 1 0 1 0 0 1 2 1 0 0 0 0 0 1 1 2 0 0 2 1 2 0 1 1 0 3 1 4 1 1 3 3 1 0 2 1 1 1 1 2 1 1 1 1 1 0 0 2 1 1 3 2 1 1 3 2 0 1 2 0 3 0 1 2 0 1 2 1 1 2 0 1 0 0 2 0 1 2 3 0 1 1 2 3 0 3 1 0 1 1 0 1 0 0 0 1 3 2 0 2 2 3 0 0 1 0 1 0 2 1 0 2 2 1 0 1 0 1 2 0 2 0 0 1 1 0 0 0 1 2 2 1 1 1 0 0 2 0 0 1 1 1 0 2 2 0 3 2 2 2 1 1 1 2 0 0 0 1 2 0 1 1 0 0 0 3 0 2 1 2 0 0 0 1 1 1 0 1 1 0 1 1 0 1 0 0 1 2 1 2 1 1 0 1 2 0 3 1 0 1 1 0 1 2 1 2 3 0 0 0 0 2 2 0 2 0 0 0 0 0 1 1 0 0 0 1 2 1 0 1 2 3 1 1 0 1 1 2 3 0 2 2 0 1 2 0 0 0 1 0 1 2 3 0 3 1 2 0 2 2 1 0 1 2 2 2 2 0 2 2 1 3 0 3 1 0 1 2 0 0 1 1 0 2 0 0 0 1 2 0 1 3 1 0 2 2 1 0 0 1 3 1 0 1 0 0 0 1 1 1 4 0 1 1 0 2 1 1 1 1 2 0 1 1 2 2 0 0 4 1 0 0 2 2 1 1 1 3 1 2 1 1 0 1 0 1 0 0 2 2 3 1 4 2 1 2 3 1 1 1 1 1 1 1 2 0 3 0 3 2 2 0 1 3 0 2 0 0 1 3 0 2 2 2 0 2 2 1 0 1 0 0 2 0 0 0 0 0 2 4 2 0 1 0 3 1 1 2 1 0 1 2 1 1 0 1 2 0 0 0 2 2 2 0 1 0 0 0 2 1 0 0 3 2 0 2 2 1 1 0 3 2 0 1 2 1 0 1 0 0 2 2 1 4 0 4 1 1 3 0 0 0 2 3 0 0 2 1 0 1 0 0 2 0 0 0 1 2 2 1 2 1 0 1 1 2 1 1 2 2 2 1 0 2 1 2 1 0 2 0 1 1 0 1 1 1 0 1 0 2 1 0 3 3 2 0 0 1 1 0 0 1 1 3 1 1 1 2 2 1 0 2 2 0 0 1 1 1 3 2 1 1 1 1 0 0 0 3 1 0 1 1 0 1 1 1 0 1 1 0 1 0 2 1 4 0 1 2 1 2 0 2 4 2 1 0 3 0 2 0 2 2 2 2 0 2 0 1 0 1 1 1 1 1 2 2 1 0 3 2 1 1 2 2 0 0 2 1 1 2 1 1 2 0 2 1 1 2 0 1 1 2 0 0 1 0 0 1 0 0 1 0 2 2 1 0 1 1 1 1 1 0 1 2 2 0 4 1 1 0 1 0 3 1 1 2 4 1 0 0 0 1 2 0 0 0 1 1 0 0 1 1 0 1 0 0 1 0 1 0 1 1 1 2 1 0 0 1 0 1 1 2 1 0 4 0 0 0 1 1 0 0 2 1 2 1 2 1 2 0 0 1 1 0 0 2 1 2 0 1 0 1 1 2 0 2 0 1 2 0 2 1 3 0 2 2 2 2 1 1 3 2 0 2 0 0 2 1 3 0 4 0 2 2 2 1 1 0 1 0 2 0 1 1 3 1 0 3 1 2 1 1 0 1 1 2 1 1 0 4 2 1 1 1 0 0 2 0 2 1 2 1 2 0 2 0 0 0 2 3 1 1 1 2 2 2 2 1 0 2 5 0 2 0 0 0 1 2 1 0 4 3 0 1 0 2 1 2 1 0 2 1 1 1 1 1 3 0 2 0 1 0 2 0 1 2 0 1 0 0 1 1 1 2 2 1 0 1 1 3 1 2 0 0 0 1 1 2 0 3 3 3 1 2 1 0 1 1 0 1 2 0 0 0 2 0 0 0 3 2 0 2 2 0 2 2 1 0 0 1 0 0 1 1 2 0 1 1 1 2 1 1 0 2 0 1 1 0 1 3 1 2 0 2 1 0 0 0 0 0 0 0 1 0 2 1 1 0 1 0 1 2 0 2 1 2 0 1 1 0 1 1 0 2 2 2 0 1 2 0 1 2 0 0 0 0 1 0 1 0 3 2 0 0 0 1 1 1 1 1 1 0 4 0 0 1 1 1 1 1 1 0 2 0 2 0 1 2 0 2 0 1 2 0 2 1 0 1 1 0 1 2 0 1 1 1 1 1 0 2 0 2 0 2 1 2 1 1 3 0 0 3 1 2 0 1 2 0 1 1 0 0 1 1 1 1 0 0 1 1 0 3 0 1 0 1 0 2 0 2 0 0 2 0 2 0 1 1 1 2 0 3 1 1 0 1 1 1 0 1 0 1 1 1 1 4 2 1 0 0 0 3 0 1 1 1 0 0 1 1 0 0 1 1 0 2 1 0 1 4 1 1 2 0 2 1 0 0 1 0 1 0 1 1 2 0 1 0 0 1 0 1 0 0 3 1 2 1 1 2 1 1 2 1 1 0 1 2 0 2 0 2 3 1 1 1 2 0 4 1 0 0 2 0 1 2 2 1 0 2 3 0 2 1 1 2 0 1 2 2 1 2 1 1 1 2 0 0 1 2 0 1 1 1 2 0 1 1 0 0 1 1 0 4 2 1 2 0 0 0 1 2 1 0 0 1 1 1 1 1 0 1 0 0 2 3 2 2 0 0 2 1 2 0 0 1 2 0 0 0 0 1 1 0 0 2 2 1 1 2 1 0 0 2 1 1 1 0 3 2 0 1 2 1 0 0 1 1 1 0 2 1 3 2 0 3 0 2 0 0 0 0 2 2 2 0 1 1 1 1 0 1 0 3 0 0 1 0 1 0 2 1 2 1 0 1 2 0 1 1 2 1 1 2 0 2 0 2 0 1 1 1 2 2 0 2 0 2 0 0 0 1 1 1 1 1 0 2 1 0 0 1 1 1 0 3 1 2 1 2 1 1 0 4 1 1 0 3 1 0 1 2 0 2 1 3 1 0 2 1 0 3 0 0 0 2 0 3 0 1 1 2 2 3 2 0 0 0 2 0 1 0 0 3 3 1 1 2 0 1 0 0 2 1 3 2 0 1 0 1 1 3 1 1 1 1 0 0 2 0 2 1 1 0 1 1 0 1 2 1 2 2 3 0 0 1 5 1 0 2 0 2 0 2 5 0 0 1 1 1 0 3 1 0 0 0 0 0 0 2 2 1 1 0 2 1 1 2 1 0 0 0 0 0 3 1 1 1 0 1 2 1 1 1 0 0 2 3 0 0 2 1 2 3 3 0 0 0 1 0 0 0 4 1 4 3 1 1 1 0 3 0 1 1 0 2 1 1 1 1 2 5 1 1 2 1 0 0 0 0 0 1 2 3 0 1 0 2 1 0 3 2 3 0 1 0 1 0 0 1 2 2 1 0 2 1 4 2 0 1 0 1 1 1 1 0 0 3 2 4 1 0 0 1 0 0 2 1 0 0 3 1 0 0 0 3 1 2 0 3 0 3 1 0 1 1 0 2 1 0 0 2 0 3 0 0 0 1 1 2 0 0 0 0 2 0 0 2 2 1 1 1 1 0 1 1 1 3 1 1 1 3 1 3 2 1 1 1 2 1 1 3 2 3 0 0 0 3 1 2 0 0 1 1 0 1 1 0 2 2 0 1 0 0 1 2 1 2 1 2 1 1 1 1 0 0 1 3 1 1 2 1 0 2 3 0 1 2 0 0 1 4 1 2 0 2 2 1 1 0 1 1 1 1 0 0 1 1 1 1 1 1 1 4 0 1 2 2 2 1 0 1 1 1 1 0 0 2 0 0 0 0 3 3 1 1 1 2 0 1 0 0 1 0 0 2 1 1 1 1 1 0 3 1 1 2 3 1 2 3 1 1 1 1 1 3 4 2 1 2 2 2 2 0 1 0 0 2 0 1 0 1 0 0 3 2 1 0 1 1 2 1 1 0 0 1 1 0 0 2 0 1 3 3 1 0 0 0 1 2 1 0 1 0 0 2 0 1 1 0 1 0 0 0 0 1 0 1 3 0 1 2 4 0 0 1 0 0 2 1 0 1 2 1 2 0 0 0 0 1 0 2 3 1 2 1 2 2 1 2 0 3 1 0 0 0 1 0 1 3 1 1 2 0 3 1 0 0 2 2 1 1 1 2 1 1 1 2 1 1 1 2 1 0 0 1 1 3 1 0 1 0 2 1 1 2 2 1 2 2 0 1 3 4 1 1 4 1 0 1 1 1 1 3 0 0 1 1 2 0 1 0 0 2 2 2 1 0 0 0 0 0 0 1 3 2 1 4 1 0 1 0 2 1 0 0 0 0 1 1 0 1 3 3 1 1 0 1 1 0 3 0 1 1 1 1 3 0 1 1 0 0 1 0 3 1 0 1 1 2 3 1 2 0 1 1 2 3 0 2 1 0 0 2 2 1 0 2 1 1 0 2 0 1 1 1 2 0 0 0 0 2 2 0 1 0 2 2 1 1 0 1 0 4 2 0 1 1 0 0 1 2 1 0 1 1 1 2 2 2 2 0 0 1 1 1 2 3 1 2 1 2 0 2 2 2 1 1 2 2 2 4 1 1 2 0 0 0 1 0 0 1 0 0 2 0 1 1 0 1 0 0 1 0 0 1 0 4 1 1 1 2 0 1 0 0 1 2 1 1 0 2 0 0 1 0 1 1 1 1 1 0 0 0 0 2 0 0 2 0 1 2 0 1 2 0 1 1 0 1 1 0 1 1 1 2 1 1 2 2 1 2 2 1 1 3 0 1 0 0 2 0 2 0 1 1 1 1 2 1 1 2 1 2 0 1 2 0 0 2 1 0 1 2 0 1 2 2 0 1 2 2 3 0 0 1 1 1 0 1 3 0 1 1 0 2 1 0 0 0 0 2 1 1 1 1 3 0 1 1 1 2 0 1 0 1 4 2 1 1 1 1 0 2 0 0 3 2 2 0 0 2 2 1 2 0 0 4 1 1 1 1 3 1 1 1 2 2 2 0 0 1 2 0 0 1 1 0 1 1 0 0 2 2 0 0 1 1 2 1 1 0 1 0 2 3 2 1 1 2 0 2 1 2 0 0 0 0 3 0 0 0 2 3 2 2 0 2 0 3 1 1 1 1 1 1 0 1 0 1 0 1 1 1 1 0 1 0 1 2 2 0 2 2 2 2 1 0 2 1 2 4 2 2 1 1 0 0 1 0 0 1 0 0 1 0 2 0 3 1 1 0 1 2 0 0 2 0 2 0 1 1 3 0 1 0 2 2 3 1 2 2 1 1 0 1 2 1 0 0 1 1 1 3 1 1 2 1 1 1 1 2 1 2 1 1 2 3 1 1 2 1 1 2 3 1 2 2 1 3 3 1 1 0 2 0 1 1 3 1 1 2 1 0 1 0 3 0 0 0 0 0 1 2 2 0 1 4 0 1 0 1 3 3 0 0 1 0 0 2 2 0 3 0 1 1 1 1 0 1 0 0 2 1 1 1 1 1 0 0 1 1 0 2 0 0 0 0 0 0 2 1 0 0 0 0 0 1 1 0 0 0 0 1 2 3 0 2 1 1 1 2 1 1 1 0 1 0 0 0 2 1 1 3 0 2 1 0 2 1 1 0 0 1 2 1 3 1 3 1 0 2 1 1 1 0 0 1 3 3 1 1 1 1 4 1 1 1 2 2 1 2 1 0 2 0 0 1 1 4 0 0 1 1 1 1 1 2 0 3 1 0 0 1 2 1 0 0 1 0 2 1 1 1 0 1 0 0 1 0 2 2 0 1 1 1 3 1 2 0 2 0 1 3 1 1 2 1 0 2 1 2 3 1 1 5 1 1 1 1 0 0 0 3 0 2 1 0 0 0 1 1 0 3 2 0 0 1 3 1 1 2 2 1 2 2 0 0 1 1 2 0 1 3 0 0 1 1 0 1 2 0 2 0 2 2 1 0 1 0 3 1 0 1 1 1 1 0 2 1 3 3 3 2 0 0 3 1 0 1 0 2 1 1 2 1 0 2 1 1 1 3 1 1 0 1 0 1 0 2 1 0 1 0 1 2 1 3 1 0 1 1 0 0 1 3 2 1 4 1 1 4 0 3 2 1 1 2 2 2 0 3 2 0 1 0 1 2 1 3 1 2 0 2 0 1 1 1 1 0 1 0 0 0 0 2 0 1 0 0 1 2 1 1 2 1 0 0 0 0 2 1 1 2 0 0 1 0 0 0 2 3 3 0 0 3 0 0 1 2 0 0 2 1 1 0 1 1 3 0 0 1 0 0 0 1 1 1 1 1 2 1 1 0 0 2 3 2 1 0 0 0 0 3 0 1 0 1 2 3 1 1 0 1 0 3 0 1 0 2 1 2 0 1 1 0 4 1 0 1 0 2 1 0 0 0 3 1 1 3 0 0 1 4 2 1 0 2 2 1 1 0 1 3 1 2 0 1 3 1 0 1 0 1 0 1 1 1 1 3 0 0 3 3 1 3 1 2 1 1 1 0 0 2 1 1 2 1 0 0 1 0 0 2 1 0 1 1 0 0 0 1 1 0 0 0 1 1 0 2 0 1 1 0 1 1 0 1 0 1 0 2 0 1 1 1 2 0 2 4 2 2 3 2 1 3 2 0 0 1 1 1 2 1 0 0 1 0 2 0 0 1 0 2 2 0 2 2 1 0 2 0 0 3 0 3 1 0 1 2 4 1 1 0 1 1 3 3 1 1 2 1 2 0 1 1 1 1 0 0 1 1 0 1 0 0 1 1 1 2 1 2 3 2 1 0 0 2 1 4 1 3 0 3 1 0 4 1 0 0 0 1 0 1 1 1 0 1 1 0 1 1 0 1 1 1 0 0 1 2 2 2 0 2 0 0 0 0 3 1 1 1 1 3 0 2 1 0 2 1 0 1 0 0 0 2 0 1 2 2 2 0 1 1 3 1 1 1 1 1 0 3 3 0 1 1 0 0 0 1 2 2 1 1 2 0 2 2 0 0 0 2 0 1 1 1 2 1 0 2 1 0 1 0 1 1 0 0 1 1 2 1 1 4 1 1 3 0 1 1 1 3 2 1 0 1 0 5 1 0 3 1 0 0 1 0 2 0 2 1 1 2 0 3 0 0 2 0 0 0 1 1 0 1 2 1 2 0 0 2 0 0 1 3 2 2 1 1 2 2 2 0 2 1 1 1 0 0 2 2 3 1 1 1 3 0 0 1 0 0 2 1 0 2 0 0 2 0 1 0 2 2 3 1 1 1 2 0 1 1 1 0 0 2 2 0 2 1 0 1 2 1 0 0 2 2 3 0 1 1 1 1 0 4 0 0 0 1 1 2 2 3 0 0 0 2 2 0 0 1 0 3 1 0 0 1 1 0 0 0 2 0 1 0 2 1 0 0 2 2 2 2 0 2 2 3 0 0 3 2 3 1 2 1 2 2 2 0 2 0 5 1 1 0 1 3 1 0 2 1 0 2 0 1 2 0 1 0 4 2 1 2 2 0 3 1 1 1 0 0 0 2 2 1 2 0 3 0 1 0 0 1 4 0 0 1 0 0 2 0 1 1 0 2 2 2 2 0 0 0 1 3 1 1 1 1 0 0 2 1 1 2 2 0 0 1 1 0 0 0 1 0 2 2 1 1 0 0 1 0 3 1 2 1 0 1 1 0 2 1 3 1 0 1 2 0 1 1 1 4 1 1 1 1 2 2 2 0 1 1 1 1 1 0 3 2 0 2 1 1 1 2 2 2 1 1 0 1 0 1 0 3 1 1 0 1 0 1 2 2 1 1 2 1 2 0 1 2 3 3 1 1 2 0 1 1 1 2 2 1 4 1 1 1 1 3 1 2 2 1 0 1 1 0 0 1 1 2 1 0 1 1 0 2 0 0 0 1 1 1 1 1 0 1 3 1 1 0 0 2 0 3 0 1 1 1 2 1 1 1 1 3 2 1 1 2 2 1 1 2 2 0 1 1 3 2 1 3 1 1 2 0 1 0 0 0 0 0 1 0 2 1 2 0 0 0 0 0 1 0 1 0 1 2 0 1 2 0 1 1 1 1 0 2 2 1 0 1 1 3 2 1 2 2 0 1 1 1 2 1 0 2 0 1 1 0 2 0 0 0 2 2 2 2 1 2 1 1 1 1 2 0 3 1 0 0 1 0 0 0 1 2 2 1 0 2 0 0 1 1 2 2 0 0 2 2 0 2 0 2 1 0 1 0 1 1 1 2 1 1 2 3 1 1 1 1 1 1 0 2 0 1 2 1 0 2 2 2 0 0 2 0 2 1 1 1 1 0 1 0 1 2 3 2 1 2 1 1 1 1 0 0 1 1 0 3 2 1 1 1 2 2 2 2 4 0 0 0 0 1 0 0 0 2 2 1 1 2 1 1 4 0 3 0 1 2 0 1 3 2 0 1 1 1 1 1 2 2 0 2 1 0 1 1 1 2 0 1 0 0 1 0 0 1 1 1 0 2 1 0 0 1 1 3 1 1 0 3 3 0 2 0 2 1 1 0 1 1 0 1 1 1 4 1 0 0 2 1 1 1 1 0 2 3 1 0 0 0 0 0 2 1 1 0 3 2 2 0 0 1 0 3 0 1 3 1 0 0 4 2 1 3 1 1 1 2 2 1 2 0 1 1 1 0 1 1 2 5 2 0 2 2 1 1 0 2 1 4 0 0 3 0 1 0 1 2 2 0 1 2 4 1 1 1 1 0 1 0 2 1 1 2 1 0 1 0 1 2 0 2 1 1 2 2 0 1 0 1 0 0 2 1 0 1 0 0 1 2 0 0 1 2 1 1 1 2 2 0 2 3 0 0 1 3 2 1 2 1 1 1 1 0 1 1 1 0 0 0 0 2 0 1 0 0 0 1 0 0 0 1 0 1 1 0 1 1 0 1 1 1 0 1 2 1 1 1 0 1 1 1 1 1 0 2 0 1 0 1 1 0 1 0 1 2 1 0 1 2 0 1 2 1 1 1 2 2 0 0 0 1 2 1 2 3 1 0 2 0 1 2 0 0 2 2 2 0 1 2 0 2 1 0 3 2 1 1 1 1 3 0 1 0 0 0 1 1 3 0 2 3 0 0 0 2 1 0 1 1 0 2 1 0 1 0 0 0 0 1 2 1 2 2 1 1 1 2 1 1 1 0 3 0 1 2 1 0 2 1 1 3 3 4 2 1 1 0 1 1 1 0 3 1 1 1 2 1 1 2 1 0 0 1 1 2 1 1 2 0 0 1 2 3 1 0 1 2 1 0 2 0 3 2 1 2 2 0 0 1 0 2 3 1 2 1 2 1 1 1 2 0 2 0 3 2 0 0 2 0 1 1 1 0 0 1 2 1 0 0 0 1 0 1 0 4 1 0 2 0 1 1 2 0 0 1 0 1 2 1 2 0 2 1 2 3 1 2 0 3 0 2 0 0 1 2 1 2 0 0 1 0 2 1 0 2 3 0 2 0 1 0 1 0 2 1 1 0 1 1 2 0 1 1 0 1 0 1 2 0 2 2 2 1 1 1 3 0 2 1 0 2 0 0 1 1 0 2 0 2 1 2 3 2 1 0 3 3 3 0 0 3 3 4 1 0 2 3 1 0 0 0 3 2 0 0 3 0 1 0 0 2 1 1 1 2 1 0 0 0 0 1 0 2 1 2 0 1 1 1 2 2 2 0 1 0 0 0 2 1 1 0 3 2 0 2 0 2 1 0 1 0 0 0 1 2 0 1 1 1 1 1 0 1 1 2 0 0 0 1 1 2 1 0 0 4 1 0 2 1 2 2 3 3 0 1 3 1 1 1 0 1 2 0 0 2 1 5 1 4 0 2 2 0 1 1 0 1 1 2 2 0 1 1 2 1 1 0 0 1 1 3 1 1 0 2 2 1 1 0 3 1 0 1 0 3 1 2 2 1 2 1 0 1 3 0 1 1 0 0 1 3 0 1 0 1 1 1 1 2 5 2 1 2 3 1 1 0 1 0 1 1 0 1 1 1 4 0 3 0 0 1 3 3 0 1 1 2 1 1 2 1 5 0 1 1 0 0 0 0 1 2 1 1 1 1 0 0 3 0 1 1 1 1 0 0 0 3 1 2 4 1 1 3 0 0 0 0 1 2 1 1 2 0 5 2 1 2 1 1 0 1 2 1 1 0 2 0 0 0 1 1 2 2 0 3 0 0 0 2 0 3 1 2 1 0 1 2 1 1 2 1 0 0 0 2 1 2 0 0 0 2 1 2 3 0 0 0 0 3 2 1 1 2 0 0 1 0 1 2 0 1 1 1 1 0 0 0 0 1 3 3 0 2 0 0 2 0 0 5 1 0 0 2 1 1 0 0 2 0 0 2 0 1 0 1 0 0 1 0 1 1 1 0 3 1 0 1 3 4 0 1 0 1 1 1 1 0 4 0 1 1 4 0 0 0 0 0 0 1 0 1 1 1 1 0 2 2 2 2 2 0 0 1 1 1 1 1 1 1 0 1 1 2 0 0 0 2 0 2 1 1 2 0 2 0 1 1 1 0 1 0 2 0 1 1 0 1 0 2 0 0 1 1 0 1 0 1 0 0 1 1 0 0 2 1 0 0 1 0 2 1 0 2 2 1 2 0 1 0 1 1 2 1 0 2 0 1 0 3 0 2 2 0 0 3 0 1 0 0 0 0 0 2 1 2 1 1 0 1 0 0 1 5 1 1 0 0 2 0 0 2 1 1 1 2 1 1 0 1 0 1 1 1 0 2 0 0 1 0 1 0 1 1 1 0 1 0 1 1 3 0 2 1 1 2 0 0 1 0 1 1 1 2 3 0 1 1 0 0 1 0 0 1 0 2 1 3 0 0 1 4 1 2 0 0 1 2 0 1 1 0 1 0 1 0 0 0 0 1 0 1 1 0 0 1 1 0 1 0 3 3 2 2 1 3 1 0 1 0 0 0 0 2 2 2 1 1 1 1 2 2 0 0 0 1 2 1 0 2 1 2 1 3 0 0 0 0 3 0 1 0 0 0 2 1 2 3 1 0 1 1 1 0 1 2 2 1 0 0 3 3 0 3 2 3 3 1 1 1 1 1 3 1 0 2 0 0 1 2 0 3 1 1 2 1 1 1 1 0 1 2 1 0 2 1 1 0 2 1 1 3 0 1 1 0 0 1 0 0 1 2 2 1 2 0 1 2 2 2 0 1 1 1 1 2 1 2 1 3 3 1 0 1 2 0 0 0 0 0 0 1 3 2 1 2 0 1 3 0 0 1 3 1 1 0 0 2 0 0 1 1 0 0 1 2 1 2 1 1 2 0 1 1 1 0 0 0 0 0 1 3 1 1 0 0 0 2 1 3 0 3 0 1 1 1 2 0 2 0 0 1 2 1 1 2 0 1 2 0 1 1 2 0 2 0 1 2 2 1 1 1 0 1 1 1 2 0 0 2 3 0 2 0 2 1 1 3 2 0 1 1 2 2 1 0 0 1 0 1 0 2 0 0 1 0 2 1 0 2 1 2 2 4 0 0 1 2 1 1 1 2 0 0 1 0 1 1 0 2 1 2 4 0 1 2 2 1 0 1 0 1 1 4 0 0 4 3 1 1 3 2 1 0 0 3 2 1 1 0 2 0 0 0 0 1 1 2 1 0 1 0 3 0 1 2 2 1 1 1 2 1 1 2 2 1 2 2 1 1 0 1 1 1 2 2 1 0 1 1 1 2 2 0 1 1 0 2 2 2 2 2 1 1 0 1 0 3 1 0 2 3 0 1 0 0 0 1 0 1 0 2 0 1 2 1 0 1 1 0 1 1 0 0 2 1 1 1 0 1 1 1 0 1 0 0 1 0 0 0 1 3 0 3 3 1 2 0 0 1 3 1 0 1 0 1 0 2 0 2 0 3 1 0 2 3 2 1 1 4 0 3 1 0 0 0 0 2 0 0 1 1 2 0 0 3 0 0 0 1 0 1 1 1 2 1 1 1 0 1 2 0 1 0 2 0 2 1 1 1 2 1 1 2 1 1 2 1 1 1 0 0 0 1 1 0 1 2 3 0 0 2 2 1 0 1 0 3 0 2 0 3 1 0 1 1 2 1 2 0 0 0 1 1 0 1 0 2 0 0 1 4 1 0 2 2 0 1 1 3 0 0 1 1 2 1 0 3 0 1 1 1 0 0 1 2 2 0 1 1 1 1 2 1 3 1 1 4 0 0 1 1 2 0 3 1 0 2 0 1 2 1 0 1 0 1 0 1 0 0 0 1 0 1 1 1 0 0 1 1 3 0 0 1 1 1 0 1 2 3 2 3 1 0 0 2 2 2 0 1 1 2 1 1 2 1 0 2 0 2 0 1 1 0 3 0 1 0 0 2 1 0 0 0 0 0 1 1 1 1 2 0 2 2 1 1 1 0 0 1 1 1 2 0 0 1 0 2 0 2 2 0 2 4 1 2 1 1 1 0 0 0 0 0 1 1 0 1 1 0 2 0 1 0 1 0 1 0 1 1 0 1 0 0 2 1</t>
+    <t>EXN(0.5662754864959827, 17.090231622660344, 7.1655342884897655)</t>
+  </si>
+  <si>
+    <t>26 10 27 24 24 19 22 18 21 24 23 20 25 24 23 24 24 10 22 30 19 10 26 20 23 19 14 20 24 13 21 21 24 27 24 34 20 14 21 24 21 30 10 20 23 27 27 17 27 23 24 23 10 20 24 10 23 20 27 16 33 12 28 13 15 21 30 20 23 31 36 23 7 16 10 17 20 19 6 55 17 34 23 20 31 31 23 27 21 34 20 19 17 27 17 10 27 13 24 6 6 19 16 20 34 17 26 14 28 23 16 23 27 24 14 16 27 13 21 27 0 27 6 31 24 20 24 16 37 9 30 17 23 17 13 14 27 19 20 16 24 21 22 13 24 6 24 20 27 20 6 27 13 26 22 16 17 15 48 20 34 20 13 30 7 18 17 31 17 24 13 27 13 17 47 24 14 10 14 21 7 21 17 10 24 17 35 14 27 24 27 24 20 10 20 17 27 17 21 20 15 27 20 29 23 26 24 0 30 23 24 17 17 3 21 23 31 17 21 7 27 13 7 10 21 6 27 34 24 30 31 16 20 17 13 24 15 23 22 13 30 6 15 10 24 17 20 13 28 26 9 16 17 13 23 7 30 26 21 24 30 20 17 9 18 27 45 3 23 31 22 30 10 17 17 23 25 24 30 24 14 13 13 16 17 24 14 28 10 27 11 21 14 14 19 34 30 24 14 40 32 9 10 13 19 31 20 20 28 27 10 5 26 17 27 23 6 24 21 13 28 20 24 27 20 34 6 17 20 27 21 27 23 21 16 27 16 3 19 3 3 17 17 20 31 20 27 25 17 10 19 20 17 35 17 21 12 28 21 13 27 24 25 20 9 21 27 19 16 28 10 41 40 7 10 23 6 17 19 16 14 20 14 24 35 13 38 24 4 9 20 24 23 2 31 24 16 10 14 31 19 21 24 24 43 23 20 7 8 20 17 16 28 24 21 17 18 16 20 27 16 16 34 17 27 37 7 13 3 20 16 30 0 26 17 20 10 17 17 35 16 21 27 27 24 17 3 14 6 31 23 6 28 27 27 13 16 27 21 34 24 10 28 27 20 7 0 31 35 7 30 27 38 15 7 27 13 17 30 12 16 20 21 24 13 17 10 26 20 24 24 23 10 24 20 16 23 27 24 31 28 13 17 20 12 25 14 20 27 19 24 19 41 14 38 16 13 6 28 38 23 10 24 6 34 6 20 24 23 30 27 31 28 21 19 9 23 19 16 28 27 24 20 34 20 30 26 31 23 23 23 17 24 23 27 16 34 31 24 13 24 30 16 23 25 38 23 23 31 7 27 16 28 12 13 26 23 24 24 30 30 17 31 21 7 23 13 13 21 23 24 14 23 28 19 20 6 24 16 13 3 14 24 38 23 11 17 36 30 14 31 20 17 20 31 10 20 13 17 24 17 24 16 6 22 20 24 15 16 27 26 21 16 13 27 30 21 12 13 10 23 0 19 17 16 17 34 20 6 6 17 31 13 28 30 6 20 6 10 22 10 13 13 38 34 24 23 27 6 23 27 17 16 14 15 14 26 13 33 28 31 20 21 17 17 23 30 24 16 14 23 24 38 3 30 23 30 28 9 17 24 17 23 27 27 23 0 21 24 35 6 3 33 29 49 11 9 22 17 19 17 27 17 16 24 24 31 17 6 24 20 16 7 34 21 30 6 17 33 21 17 27 9 24 14 25 23 27 24 35 22 27 17 30 24 7 17 27 15 19 13 22 13 21 16 24 35 26 16 28 52 13 31 21 6 6 12 27 31 19 28 24 17 24 23 17 30 44 24 24 13 10 37 20 23 30 28 17 29 7 45 22 32 24 27 6 19 29 17 22 17 42 18 13 17 14 24 24 42 10 3 28 23 35 36 19 24 33 16 26 12 13 20 17 7 31 24 40 37 24 27 23 21 17 10 20 20 13 14 23 31 21 26 9 15 23 23 15 34 28 23 31 20 22 31 14 10 23 6 17 20 24 27 12 31 10 28 21 23 15 40 17 27 16 31 34 34 18 9 44 42 20 23 42 13 17 37 16 23 21 24 34 34 9 19 20 34 21 27 15 20 17 36 34 34 28 24 6 27 13 16 28 21 20 29 19 26 16 21 16 13 24 24 23 27 33 20 17 30 23 33 29 29 14 31 26 13 14 23 10 22 16 17 21 35 31 31 22 17 13 24 24 12 41 21 21 22 30 31 20 10 13 27 20 7 20 20 11 26 17 27 17 22 21 10 19 19 31 25 20 9 30 10 20 15 18 20 10 20 21 23 27 17 20 28 28 17 20 27 14 17 17 21 13 23 13 22 19 22 17 16 13 7 34 24 17 24 35 9 20 18 27 37 23 24 34 17 27 23 20 20 20 23 29 35 7 27 14 9 14 37 7 31 22 33 24 19 17 20 16 34 20 23 26 10 37 26 14 20 27 10 17 20 10 17 20 13 17 27 15 14 20 13 27 6 23 18 12 35 14 17 24 27 18 17 20 10 44 3 31 16 31 38 17 31 23 27 27 23 15 16 31 17 23 24 14 15 13 31 16 8 37 18 14 13 25 22 30 10 17 14 27 34 37 10 14 10 17 16 27 24 13 24 27 24 21 13 29 28 23 17 24 24 10 45 17 20 7 23 19 27 41 27 17 17 28 37 24 3 17 14 24 38 14 19 17 31 24 6 21 26 19 13 17 20 26 24 36 21 24 28 35 24 23 17 31 20 7 27 21 23 28 17 27 17 23 6 22 17 13 22 13 9 25 30 30 34 31 17 26 26 18 17 17 34 27 27 38 35 10 21 20 17 19 34 28 19 16 17 6 10 20 9 42 23 26 16 16 14 19 17 20 21 19 31 18 24 20 26 14 13 23 14 13 22 35 20 27 20 26 17 17 38 17 34 16 20 9 13 3 14 20 20 16 26 20 23 27 16 13 13 26 27 10 20 31 26 19 42 17 28 27 6 9 18 31 23 30 14 35 17 24 38 14 30 21 23 17 23 35 31 38 17 23 24 21 17 20 0 31 27 24 22 16 27 13 16 17 24 28 24 19 27 31 27 9 17 37 24 14 13 23 13 12 21 10 42 33 42 17 15 38 28 24 23 24 31 30 16 34 37 27 14 7 27 13 38 24 6 30 17 24 26 16 41 14 17 29 27 20 29 23 21 27 36 24 23 16 21 16 10 16 24 3 36 7 7 9 27 32 23 35 9 18 20 10 10 17 24 44 28 21 16 17 30 21 31 14 27 17 18 20 34 24 10 20 27 27 17 20 13 14 35 34 24 42 17 17 22 16 13 35 23 20 13 6 45 27 28 17 27 19 9 27 28 20 20 23 13 21 15 13 20 24 24 38 16 22 13 18 27 17 25 25 10 7 15 30 10 9 23 28 10 30 20 37 12 18 13 20 20 9 27 20 19 28 12 20 27 16 38 3 28 30 24 28 30 24 10 23 17 20 14 24 7 31 29 24 34 28 14 17 21 23 28 29 27 13 20 17 34 36 16 30 20 13 37 27 24 24 20 13 20 17 7 24 37 24 30 17 17 34 13 27 23 28 24 31 16 38 20 10 24 23 21 33 14 20 31 23 27 21 28 10 31 16 13 21 24 14 13 23 31 17 13 23 22 41 44 23 21 32 21 23 23 20 9 21 38 20 31 28 20 24 10 19 12 17 16 17 7 27 19 27 20 17 14 7 19 17 3 24 27 24 27 27 16 25 15 24 24 20 3 20 9 27 31 31 38 18 35 9 28 23 6 29 6 30 28 28 24 23 24 24 27 22 38 31 7 23 28 20 30 31 14 24 24 27 13 21 30 17 34 16 34 23 20 9 38 22 20 31 17 20 17 20 11 30 13 16 14 31 30 20 24 14 24 23 20 31 33 33 14 13 20 7 21 16 16 20 31 24 21 14 7 24 20 12 21 17 13 23 14 24 24 24 13 41 27 22 20 16 42 20 13 16 20 19 16 26 16 35 24 21 31 18 13 19 13 28 27 3 17 31 20 18 10 26 24 14 27 35 23 28 17 20 26 13 23 14 26 34 27 41 9 16 23 16 37 37 20 6 21 37 20 14 20 14 10 14 17 13 20 9 17 30 20 27 20 17 27 20 33 24 7 30 14 17 21 27 13 14 7 24 17 24 19 52 21 19 13 26 10 17 29 38 31 31 30 28 26 23 16 17 17 24 28 23 27 27 21 37 14 7 20 21 21 13 15 23 16 27 20 10 23 31 9 9 17 28 14 21 16 6 27 28 17 28 6 10 26 14 30 16 35 15 17 14 30 21 37 28 10 24 34 17 10 22 31 24 18 10 16 14 13 13 16 30 28 16 20 20 27 9 3 24 21 25 30 19 23 31 31 36 17 35 13 3 16 13 21 34 17 16 27 20 23 20 26 6 20 24 20 20 9 23 20 10 14 14 27 16 17 24 19 16 27 41 19 17 28 37 3 31 13 27 30 21 9 27 22 24 14 24 25 31 32 28 12 33 31 10 9 33 21 10 20 20 25 16 24 25 30 14 14 28 25 29 23 7 20 10 41 30 7 24 10 16 30 28 23 43 35 15 30 20 20 28 10 17 37 20 13 20 27 17 26 15 23 17 22 21 14 10 24 10 23 10 23 27 33 21 13 16 13 19 24 33 10 30 24 38 17 23 6 16 16 37 23 18 10 20 28 20 16 28 27 20 14 12 24 24 23 16 17 13 21 19 13 34 24 20 23 20 36 38 13 17 34 27 16 21 20 17 17 28 24 20 47 24 20 5 26 22 24 20 10 20 20 12 21 23 16 17 24 16 10 24 24 20 13 20 24 17 27 27 23 17 13 30 18 27 22 24 13 27 31 12 23 26 16 20 25 22 24 27 17 14 27 17 41 13 23 17 33 30 28 13 27 16 12 20 23 17 6 6 34 20 34 27 16 20 22 20 6 10 26 12 20 14 17 27 13 7 31 30 31 27 23 17 9 34 17 17 27 14 27 9 21 13 20 20 14 23 17 28 13 16 20 30 13 24 20 14 17 27 10 16 28 28 24 19 13 7 29 28 22 3 18 23 21 10 13 31 14 13 23 27 23 27 25 24 17 28 42 21 20 34 17 13 27 16 16 6 9 27 12 24 42 30 14 32 38 11 23 21 21 10 21 17 32 33 10 26 15 20 20 30 17 24 14 31 10 27 24 20 30 23 9 31 16 12 6 21 0 32 14 21 7 17 17 23 16 27 17 13 27 28 7 9 44 14 14 14 24 23 17 31 25 38 27 16 26 16 20 31 17 28 3 18 31 38 8 19 13 14 31 29 17 13 34 27 20 30 31 20 13 17 15 17 14 31 14 22 14 28 31 21 24 17 15 14 35 18 10 25 33 36 10 16 27 17 21 24 27 10 14 20 19 27 26 24 23 33 24 20 27 17 3 10 34 12 20 28 10 17 21 27 30 20 27 27 6 20 6 20 28 20 31 14 34 24 31 13 34 37 9 14 30 23 6 17 13 19 26 17 30 13 20 37 44 17 40 25 19 21 27 28 38 27 31 31 20 9 6 19 14 27 16 17 24 17 16 16 20 24 30 24 24 45 24 17 27 27 26 24 16 16 21 18 17 13 7 23 24 3 19 10 23 20 7 27 22 10 17 27 27 24 17 31 21 13 14 6 20 27 15 31 27 17 23 18 24 24 24 29 27 23 16 22 21 21 10 10 17 20 14 19 18 20 45 17 23 19 17 19 25 26 28 41 17 35 23 13 22 19 44 23 9 21 23 9 14 21 34 24 26 10 17 17 24 19 26 34 26 17 35 21 17 24 10 6 20 16 20 10 31 7 10 31 20 24 28 7 21 23 21 24 20 15 13 27 20 29 20 13 23 22 27 24 31 16 23 20 13 29 24 24 22 10 24 15 6 16 6 25 41 27 21 20 17 21 20 24 20 12 20 23 28 17 27 31 44 12 26 20 31 23 20 29 38 34 13 14 16 13 20 15 20 20 34 18 22 24 17 27 6 17 28 10 41 20 48 22 16 23 24 22 17 24 41 12 20 13 10 13 26 20 23 31 23 24 30 16 17 24 27 20 27 21 25 37 33 10 14 20 17 14 20 38 23 24 27 17 30 15 31 24 27 17 27 13 21 27 20 13 34 34 16 21 16 27 13 16 24 14 15 20 19 23 17 23 38 19 6 7 17 24 45 41 20 21 23 20 17 10 23 27 6 17 13 12 20 30 20 30 17 31 25 24 24 19 24 42 20 7 24 38 17 26 22 31 3 21 34 23 24 19 40 24 27 26 7 34 21 13 24 17 14 16 26 21 27 24 10 23 16 21 15 24 20 7 23 14 34 9 31 34 18 29 21 23 30 24 21 27 24 24 27 24 13 10 6 28 34 17 20 22 20 23 27 10 42 13 14 17 10 13 16 17 10 24 31 13 30 27 37 34 16 37 9 24 10 14 11 9 13 27 22 17 24 24 17 29 34 20 23 9 21 24 33 11 16 14 16 25 21 17 15 6 15 23 22 27 14 28 21 7 18 24 38 31 20 20 16 28 14 31 24 24 27 31 20 30 17 0 21 21 17 26 24 33 37 21 31 31 23 34 40 20 15 17 14 24 13 24 35 17 13 5 21 16 23 10 16 13 14 23 24 13 14 24 20 16 13 34 7 18 13 14 31 20 21 30 23 17 18 24 14 27 14 14 24 16 13 13 15 13 14 3 34 7 17 14 17 24 17 10 21 16 27 20 39 31 35 20 13 20 9 13 27 30 16 23 44 14 17 13 19 21 20 36 20 17 10 14 21 21 3 31 24 20 24 24 20 24 10 31 13 34 13 30 24 21 25 17 23 20 20 24 20 11 34 23 30 17 18 21 20 24 21 20 21 38 28 28 24 17 24 21 26 31 13 24 17 31 31 26 14 34 9 10 37 7 20 31 21 35 17 24 30 24 30 21 28 16 16 10 17 20 27 37 41 17 21 24 13 9 24 7 13 14 28 31 20 21 16 10 14 20 38 19 17 23 17 14 22 30 23 14 13 31 23 20 12 13 15 17 20 14 21 17 17 14 38 10 12 16 17 31 27 21 24 31 18 34 24 23 21 20 18 38 13 14 21 28 24 17 25 7 24 14 19 29 7 23 41 21 30 19 6 24 41 23 24 10 17 24 9 19 20 38 18 10 35 24 17 9 31 45 16 9 26 7 7 13 14 27 20 14 24 24 10 24 24 17 21 31 7 24 31 20 20 34 27 9 33 17 30 20 3 23 19 16 16 15 24 7 10 38 42 21 15 10 18 20 19 23 25 21 6 28 20 21 14 17 14 11 17 24 0 33 3 21 24 26 20 24 16 22 20 26 21 34 14 16 27 31 12 20 20 10 21 20 14 17 27 14 6 24 23 31 31 13 31 10 23 34 21 21 26 38 6 23 41 24 13 19 20 27 20 24 28 17 21 17 20 18 17 27 12 10 35 41 28 10 20 20 17 10 29 13 16 17 10 31 21 27 6 24 20 28 31 33 30 20 20 23 13 9 31 22 20 30 9 7 3 19 23 14 7 14 24 14 17 16 23 23 8 17 21 30 21 13 23 28 52 30 31 30 28 26 10 19 17 24 14 28 14 40 38 10 17 25 24 23 27 17 24 9 6 21 17 20 24 17 10 7 36 28 24 28 22 30 16 16 19 31 23 24 7 13 24 20 30 20 31 9 31 10 34 22 19 31 21 20 24 13 22 28 3 27 20 36 21 13 3 17 27 14 7 17 10 7 10 24 9 21 31 18 7 18 27 29 31 21 28 21 21 17 35 14 28 7 26 27 13 20 24 23 21 31 24 31 20 41 6 35 14 31 12 34 31 31 24 20 23 17 24 19 44 17 21 32 27 15 19 20 31 17 23 16 0 18 24 21 10 17 10 20 7 17 17 24 17 12 21 17 9 9 20 42 10 17 15 24 23 30 19 14 24 16 13 20 20 42 33 20 31 24 33 28 27 40 23 23 20 10 26 27 24 24 7 18 24 20 16 31 17 17 28 21 20 20 30 27 32 26 16 15 27 16 28 9 28 38 13 10 23 14 38 16 22 13 16 28 20 26 37 37 29 23 20 14 14 20 16 13 13 21 39 11 14 20 23 7 37 10 7 24 17 31 34 17 7 26 20 30 24 20 17 13 34 20 21 14 15 23 27 28 28 17 27 21 31 10 21 17 18 20 23 27 17 16 17 26 0 16 30 27 3 22 31 22 23 35 27 24 17 13 37 24 17 31 20 6 14 21 21 17 24 13 20 13 18 27 24 16 16 27 16 14 17 37 17 30 27 24 17 19 27 24 19 24 18 6 17 15 22 27 16 23 13 17 6 34 29 27 38 24 24 23 17 30 21 6 26 9 16 21 20 24 27 34 14 20 6 21 28 10 24 13 17 24 23 23 25 27 13 17 9 23 24 24 14 17 23 13 24 20 38 23 27 27 38 24 13 31 42 24 24 34 30 26 20 31 21 24 17 26 21 17 17 24 9 23 21 17 23 14 27 20 14 25 13 10 24 7 14 7 16 14 17 16 10 17 32 16 23 19 28 31 19 7 24 15 14 14 41 13 17 16 14 31 14 17 28 7 55 27 34 10 21 15 23 44 24 23 17 24 19 24 15 13 17 23 30 34 9 28 23 3 20 31 13 28 17 27 35 37 14 18 16 17 23 27 27 24 30 7 17 20 20 17 20 21 7 16 14 41 23 20 26 31 20 34 29 17 3 24 17 20 16 14 19 17 35 27 17 31 26 10 13 27 33 23 22 23 14 17 31 17 10 19 17 16 17 23 18 10 24 21 14 16 28 27 9 24 17 7 21 17 18 19 12 17 30 23 27 13 36 25 20 24 21 13 6 17 13 24 29 14 10 10 20 24 24 23 20 17 31 20 20 17 16 17 0 24 18 14 23 19 10 30 20 19 23 23 20 24 14 23 31 18 28 10 6 17 24 13 34 25 27 6 24 17 24 14 26 16 24 26 28 20 23 38 28 16 20 26 16 9 16 41 22 35 33 38 14 6 44 20 31 14 17 21 20 6 18 20 21 15 30 20 16 27 34 34 31 16 23 19 27 19 14 33 9 30 6 10 24 10 17 37 20 20 16 13 26 17 24 10 20 14 7 21 12 34 30 24 33 21 27 34 13 26 10 19 13 24 18 24 21 43 23 19 31 17 7 28 10 35 18 12 21 7 21 21 24 17 17 20 20 23 20 17 28 9 23 31 41 21 20 24 15 10 20 14 0 16 10 16 10 18 23 31 19 34 23 30 34 12 3 20 20 24 30 24 24 17 16 14 17 21 26 17 17 24 17 10 27 30 44 19 34 14 23 44 30 10 12 13 17 17 27 13 17 20 23 24 10 24 20 24 7 6 17 23 23 16 17 23 31 20 25 17 23 31 31 26 17 24 28 14 24 30 6 14 26 6 28 7 14 38 24 19 17 27 10 23 31 21 21 35 35 9 10 16 44 34 13 13 24 17 37 20 24 23 13 22 13 21 27 17 27 34 34 28 35 34 38 17 30 13 21 30 28 31 24 10 10 18 30 33 28 27 27 23 13 6 23 10 24 20 24 15 31 34 17 13 31 14 34 19 23 20 20 16 24 14 13 10 18 21 41 11 27 31 31 13 27 18 16 24 14 20 21 13 19 23 27 24 24 17 15 14 14 7 10 30 10 16 28 22 20 19 33 17 24 22 23 24 28 17 26 27 10 41 7 13 24 13 20 14 14 16 21 24 24 7 28 27 13 14 10 10 14 10 3 23 16 20 10 9 33 19 16 20 17 3 28 24 13 14 28 10 3 3 24 6 22 24 24 21 24 21 22 3 21 34 13 27 14 28 14 24 17 16 13 12 27 19 21 27 3 10 34 18 6 23 28 11 12 17 23 14 33 34 31 28 22 19 28 21 22 19 34 10 27 19 24 27 30 27 23 28 28 28 34 10 14 15 27 7 24 28 21 16 10 21 14 21 27 20 17 14 14 14 19 34 10 14 28 11 23 33 19 34 24 30 19 45 16 23 30 20 24 37 21 16 11 20 17 6 29 29 9 37 17 21 14 35 27 15 22 3 34 19 5 23 15 34 34 21 23 14 20 15 24 23 20 13 27 23 17 7 24 27 19 10 14 14 10 29 6 27 26 20 17 20 23 6 21 38 17 17 26 24 24 13 31 28 26 24 20 25 24 19 20 27 17 16 16 31 19 17 23 41 20 20 29 17 30 23 40 27 23 21 23 13 31 31 27 9 14 21 14 21 23 28 14 20 16 24 30 35 21 32 20 27 21 16 29 20 17 17 28 21 20 23 19 34 21 26 23 27 21 14 17 34 19 23 30 20 3 31 21 24 38 21 33 20 20 22 27 15 26 17 16 21 44 3 30 19 20 31 34 22 13 13 35 17 23 23 24 13 20 14 10 14 30 31 19 13 7 7 13 10 27 30 28 26 19 20 41 26 18 24 6 16 10 20 31 20 24 33 10 21 27 23 27 19 23 10 16 6 24 35 27 20 23 27 7 6 19 31 14 20 21 17 21 23 24 24 31 17 30 24 20 20 17 28 3 20 24 27 10 32 24 37 16 17 22 19 20 24 31 21 15 27 28 16 17 26 10 24 10 17 41 19 27 7 24 17 19 21 10 16 24 20 16 34 33 34 10 31 27 17 33 34 9 24 16 21 23 14 22 17 14 13 24 13 7 27 9 22 48 26 27 20 31 7 17 26 19 37 12 35 10 33 20 27 13 35 14 31 27 17 20 26 16 17 24 26 24 27 14 21 23 16 21 23 13 16 10 30 14 28 31 20 22 20 24 20 0 26 19 20 34 23 25 6 17 35 21 24 17 22 22 15 13 10 40 38 20 30 14 17 24 10 21 23 22 14 20 22 21 31 34 34 23 24 16 17 20 38 17 17 21 31 28 6 21 19 15 13 16 13 23 17 21 19 23 24 17 37 36 30 23 21 32 7 30 21 21 14 18 16 17 17 17 17 24 20 27 27 27 13 21 20 22 19 16 20 21 24 30 17 14 24 34 3 16 28 19 30 16 10 24 17 20 42 6 11 17 10 12 34 16 17 19 24 27 17 21 29 13 31 13 13 23 28 20 19 13 29 21 20 30 20 21 16 20 24 35 17 31 23 24 20 20 31 30 28 23 34 14 10 12 20 35 20 0 19 13 12 20 13 20 33 11 20 13 17 3 20 14 23 13 20 22 34 7 23 17 32 38 38 28 26 13 19 13 31 20 14 13 23 19 7 10 13 23 31 7 31 28 18 21 29 22 27 14 27 24 33 27 30 30 36 16 37 19 20 27 30 26 34 13 21 17 28 17 31 19 9 13 20 16 23 17 24 20 27 13 22 6 17 31 31 20 14 21 19 31 21 27 16 16 6 13 42 23 35 3 22 31 27 38 30 13 21 21 23 28 23 23 17 14 11 27 28 26 24 17 19 17 14 28 25 10 27 35 15 20 13 30 21 24 19 16 19 21 17 17 10 12 26 16 27 32 52 17 16 22 21 17 26 3 35 6 20 12 10 30 13 22 7 16 10 16 20 17 23 13 35 13 15 20 14 21 21 16 17 9 27 24 13 42 27 41 6 16 22 38 22 23 34 34 17 17 30 23 35 10 6 26 21 6 17 25 17 13 6 30 19 28 35 12 28 13 20 21 20 13 7 23 33 14 14 17 13 23 20 17 21 17 25 14 20 16 30 6 24 14 14 21 31 11 17 14 26 17 35 10 17 21 11 20 13 30 14 20 16 6 18 28 20 19 13 27 3 16 26 24 18 30 19 27 12 24 20 36 16 14 16 24 14 17 27 20 27 18 27 37 34 19 17 22 6 24 34 16 0 17 36 29 20 26 17 10 31 24 17 17 14 27 17 23 7 27 24 21 16 7 6 20 10 13 24 21 20 20 27 19 12 21 20 34 24 27 27 27 19 31 7 35 23 3 15 16 19 12 30 24 21 19 27 27 24 27 10 29 32 14 21 20 20 20 19 24 17 26 23 23 30 19 35 13 25 31 24 19 34 21 24 6 34 23 20 20 42 25 10 23 23 38 17 9 19 21 27 17 33 9 31 27 19 28 20 8 20 24 16 13 31 20 15 19 20 20 17 31 17 20 30 27 13 26 17 10 16 23 13 17 30 26 20 13 24 17 23 6 23 27 12 23 23 21 10 17 24 6 24 3 24 23 13 16 13 20 16 10 14 31 16 13 28 20 33 24 17 13 21 20 16 19 20 13 16 42 30 9 24 30 24 20 34 36 31 24 20 17 10 24 23 13 24 21 24 33 17 34 25 24 24 22 20 41 20 35 24 10 19 14 34 19 34 13 13 6 10 17 16 34 23 24 30 27 27 17 23 22 16 17 27 24 10 37 17 20 17 16 20 19 28 35 41 6 17 17 34 24 10 27 19 17 27 32 7 24 35 23 34 21 27 20 17 9 24 24 10 21 27 10 7 11 24 20 17 20 16 9 34 34 26 28 13 13 7 31 24 27 21 13 13 17 24 16 20 17 9 20 24 24 27 24 23 21 19 21 21 20 9 34 17 17 17 23 10 13 16 34 20 24 38 23 3 14 24 27 13 17 20 17 24 30 13 14 38 21 10 30 10 40 21 27 22 34 27 17 23 19 26 14 16 28 17 13 9 17 23 20 16 20 23 13 20 28 24 19 24 27 20 17 7 24 3 13 34 21 24 24 10 35 6 24 23 22 20 27 27 28 24 24 24 28 38 27 24 27 49 24 27 20 10 37 7 24 33 28 20 26 10 14 24 17 24 13 27 24 21 27 10 17 20 14 24 24 26 17 23 24 13 31 7 31 34 14 23 20 20 28 19 16 0 31 23 27 19 30 30 17 19 24 24 3 23 21 28 12 38 24 30 34 14 20 18 6 20 24 20 21 13 13 22 14 17 16 26 28 10 15 27 24 43 26 31 13 10 23 20 28 9 15 10 20 40 32 16 21 14 20 10 20 42 10 18 3 13 23 16 20 27 26 14 17 20 37 28 17 13 20 28 27 42 20 21 20 24 8 17 33 37 16 24 13 21 38 16 33 21 20 27 30 23 6 21 42 27 24 20 17 21 24 17 14 15 16 17 13 13 17 17 17 25 27 23 17 31 24 9 17 23 31 17 21 24 18 27 32 16 16 22 27 35 17 31 28 24 27 27 24 13 16 17 18 27 35 31 13 24 20 23 20 38 34 14 23 27 24 7 21 24 17 20 30 14 21 9 17 20 33 20 28 10 38 41 35 17 17 20 10 27 31 13 20 20 31 24 22 31 34 10 16 12 14 26 21 27 6 30 17 27 14 26 21 16 20 28 24 30 21 20 18 27 20 23 20 20 28 24 16 31 21 24 23 20 16 29 26 17 17 31 3 23 24 27 20 34 17 20 19 9 28 23 24 20 27 13 14 3 24 17 30 13 38 26 24 28 16 17 17 13 10 17 23 10 16 23 20 9 19 22 13 7 27 20 18 11 23 34 23 20 27 19 27 28 23 24 55 13 26 17 7 27 17 27 28 30 24 17 15 17 13 21 23 20 38 24 17 14 15 24 6 14 16 24 24 23 7 19 24 7 24 28 24 23 17 23 21 26 10 10 19 10 21 21 13 17 15 16 13 24 15 27 16 34 19 25 16 21 27 26 20 23 20 24 20 34 38 18 23 20 6 21 27 20 35 30 25 19 28 16 8 12 14 38 30 16 14 24 16 35 15 24 20 13 35 24 17 20 16 10 30 24 22 30 30 38 23 30 20 23 31 16 20 6 38 27 28 17 19 20 14 30 21 10 23 12 20 38 10 31 24 16 29 26 34 35 20 14 17 13 23 17 20 7 16 9 21 31 17 13 24 24 28 27 7 21 20 35 16 18 24 25 12 16 29 38 20 29 31 9 17 28 23 17 22 30 17 27 17 20 35 24 6 28 27 20 23 21 20 23 3 23 23 20 13 14 28 10 9 12 27 28 24 31 34 18 27 23 10 7 27 3 18 38 14 17 30 31 23 20 19 23 33 23 20 20 30 17 27 13 9 28 17 24 17 16 23 31 20 13 30 28 34 33 22 17 38 21 41 24 20 20 22 0 38 17 31 38 20 17 26 7 20 12 24 13 14 10 28 10 26 20 17 36 17 17 13 21 27 35 20 25 23 29 35 16 14 24 24 28 24 17 31 10 26 16 17 11 24 15 17 31 14 27 23 10 31 21 28 37 30 13 24 27 31 31 13 13 17 24 23 14 24 24 24 17 27 17 23 20 17 27 17 12 21 35 19 17 30 26 16 20 7 13 24 16 28 23 16 23 10 25 23 10 35 10 17 35 21 19 6 26 0 16 20 20 35 35 7 28 15 16 21 14 20 26 9 21 21 28 23 13 16 17 25 14 15 27 10 20 24 20 27 31 17 22 10 13 13 35 17 24 17 16 13 27 24 26 17 31 13 20 16 19 7 16 24 17 29 21 19 31 16 24 16 38 24 31 27 31 29 26 22 28 6 19 23 17 15 23 34 10 18 21 23 21 20 23 24 27 24 24 10 24 13 7 27 10 26 28 13 27 16 9 19 22 16 14 13 44 31 27 20 31 22 21 45 24 31 16 17 34 37 16 14 19 20 27 28 20 21 24 24 30 27 44 20 13 20 20 28 30 13 21 12 28 33 24 23 20 35 17 27 20 9 41 13 24 14 14 17 14 10 21 20 23 15 26 17 44 16 21 27 13 27 20 24 20 24 16 27 28 23 21 26 30 10 19 10 23 31 20 17 21 27 24 27 31 28 27 19 16 16 28 20 20 10 37 38 14 27 24 28 27 31 3 30 10 20 20 19 31 33 20 31 23 20 20 20 32 26 27 27 19 21 26 17 25 13 23 40 31 25 6 21 3 10 17 27 20 21 7 31 27 20 14 23 14 10 21 24 24 7 24 14 6 24 37 15 17 24 31 28 22 33 41 9 34 13 24 17 23 20 20 12 20 20 23 9 27 24 17 31 9 27 20 19 14 3 27 19 24 31 17 23 24 27 26 17 23 17 26 17 20 13 20 24 20 24 26 13 13 20 24 28 16 7 27 7 24 17 30 24 22 22 26 19 29 31 27 20 15 20 27 17 0 26 23 17 35 27 16 34 15 3 13 24 24 31 12 16 34 16 16 6 21 17 13 29 13 29 28 21 13 18 27 10 20 27 27 24 17 9 13 28 21 21 21 9 9 12 24 20 9 30 23 20 17 17 30 45 38 16 19 20 24 10 25 26 15 27 17 24 21 27 21 10 6 10 24 23 13 13 20 13 16 34 3 19 20 7 27 31 13 27 27 10 38 16 20 20 23 27 23 15 31 14 16 16 24 13 21 30 16 13 21 16 14 21 16 13 31 25 21 10 27 24 38 16 6 27 13 18 20 24 14 24 14 24 27 24 12 24 9 34 31 21 24 23 14 16 13 23 20 35 7 24 31 23 24 23 14 24 10 6 35 27 21 17 27 20 28 12 23 9 25 29 28 31 17 28 34 23 24 21 21 28 17 20 27 13 13 26 28 17 10 7 13 23 41 22 27 45 19 30 26 30 8 13 24 16 30 16 14 27 15 27 17 42 24 19 11 19 17 17 19 27 24 20 34 21 13 17 24 3 34 14 36 14 24 20 21 14 23 21 10 38 14 30 17 16 24 19 18 0 7 37 10 24 16 10 14 17 27 23 24 13 6 17 20 22 19 35 34 34 10 24 38 23 23 17 9 16 23 7 25 16 24 16 23 30 17 26 28 17 20 17 21 27 10 16 24 21 34 28 27 27 10 31 27 30 28 27 20 24 17 20 17 12 27 6 26 31 27 7 17 27 16 24 12 23 16 27 20 17 24 30 31 29 27 21 32 27 20 24 10 10 30 16 10 6 9 10 7 27 27 16 31 10 24 24 24 33 29 17 20 7 35 16 34 37 23 24 17 23 33 13 24 20 32 35 16 28 7 31 45 15 24 24 30 27 16 37 31 38 23 16 13 30 24 37 10 10 13 15 13 26 35 14 19 13 17 34 17 31 13 30 31 23 27 27 31 12 32 16 24 20 24 10 16 10 17 30 14 10 22 25 17 37 28 27 10 33 19 34 15 21 14 48 28 28 14 10 24 17 41 22 31 24 30 28 19 24 17 20 41 27 19 17 16 30 13 41 17 20 24 14 33 23 23 17 41 35 13 17 34 9 17 27 19 17 14 28 16 27 23 20 24 7 20 33 20 14 17 31 33 23 23 38 6 17 41 0 6 33 28 7 34 17 27 27 27 20 19 30 26 17 3 14 13 3 17 27 27 17 9 16 41 28 49 27 21 7 14 13 14 10 41 20 13 24 20 28 23 14 20 22 6 24 36 17 14 20 30 19 20 17 28 13 31 20 30 16 26 17 5 30 29 14 33 18 13 14 28 30 23 22 10 6 19 16 23 6 26 21 21 17 33 10 10 28 9 24 38 18 16 30 16 38 21 22 23 28 13 7 17 31 30 16 17 21 38 14 20 31 13 17 30 33 12 35 18 17 16 26 48 30 38 27 24 23 19 10 18 24 24 28 31 41 24 24 44 36 29 12 15 23 9 27 31 10 13 42 27 20 16 20 10 26 19 16 17 16 20 10 44 27 20 20 23 20 22 20 23 27 30 20 28 22 27 30 31 31 24 14 23 23 26 27 13 19 13 10 9 28 20 14 34 20 34 24 30 28 26 20 30 10 30 6 0 40 34 31 16 13 12 21 28 27 14 10 20 20 31 20 6 31 16 13 7 23 17 23 28 19 27 18 31 41 20 17 13 31 16 23 35 14 31 23 17 14 23 31 42 42 29 34 27 23 27 30 17 16 35 25 24 10 38 31 17 21 44 31 31 17 6 31 13 46 31 23 20 31 21 26 7 17 20 17 17 34 30 20 9 11 31 19 30 16 24 27 11 24 17 13 27 20 20 23 13 13 18 30 20 20 23 17 10 14 20 19 26 31 10 3 26 17 34 14 31 26 30 23 31 40 42 24 24 31 3 8 16 24 13 14 10 33 24 18 24 9 20 30 13 9 14 14 48 35 34 14 19 24 26 20 14 16 26 26 31 6 20 12 11 17 7 35 14 3 20 14 23 27 23 10 16 23 44 24 21 6 31 3 31 10 24 19 22 35 42 23 31 33 14 19 10 26 17 17 20 28 16 21 33 24 23 24 21 24 6 38 7 16 24 27 10 17 16 27 31 27 24 20 28 27 7 19 19 23 23 35 24 12 27 10 13 34 44 24 13 13 3 17 13 12 24 14 28 22 14 17 30 27 16 13 16 23 3 27 45 17 14 19 24 13 27 19 17 27 38 21 24 28 16 17 45 13 22 21 13 34 30 34 31 24 24 20 13 25 10 20 3 23 16 3 31 17 20 17 23 29 27 23 27 34 21 12 35 21 27 31 9 38 14 42 21 23 28 16 13 18 17 30 31 21 17 30 27 15 13 24 16 20 20 23 23 31 10 22 17 17 23 30 20 24 7 7 9 17 24 21 21 13 11 17 29 34 21 23 14 28 10 31 20 28 17 20 29 27 28 31 20 13 16 13 14 28 38 21 10 9 37 16 23 16 27 24 19 33 34 26 14 24 24 3 37 21 20 13 22 30 18 7 14 13 26 21 10 26 38 14 27 28 16 31 20 11 27 26 27 16 18 17 31 13 16 17 24 13 14 24 34 17 28 20 20 18 35 27 14 34 33 23 28 28 25 19 21 24 13 13 27 14 26 13 30 26 22 20 33 6 13 17 23 30 17 20 31 9 17 21 32 13 23 27 19 6 14 27 16 48 26 23 14 19 30 21 23 32 37 12 20 41 27 23 24 31 27 9 21 41 6 21 37 6 19 24 44 15 37 11 14 12 21 3 10 20 38 14 27 11 34 13 14 25 30 28 29 10 9 23 13 27 16 31 12 20 21 27 23 23 31 28 24 19 28 20 31 13 20 20 21 10 14 34 16 24 13 30 20 21 27 10 13 27 24 26 22 6 17 28 27 27 28 30 24 20 24 10 21 26 36 30 6 20 17 16 10 27 14 29 21 23 3 37 41 26 17 27 16 12 29 12 31 17 7 27 31 7 31 28 20 10 45 21 23 7 34 24 17 6 24 27 24 28 27 26 17 17 27 34 45 10 19 17 23 7 34 10 17 27 14 16 27 22 27 20 14 27 10 23 21 17 10 13 25 20 38 20 24 37 20 20 28 24 12 6 6 20 28 18 31 7 34 28 23 17 16 27 17 13 10 38 31 9 34 17 16 35 20 24 17 6 31 31 10 10 28 20 20 13 40 0 20 35 21 19 17 9 20 16 35 20 27 19 13 33 20 16 25 27 24 17 17 13 20 27 28 14 23 20 13 13 23 31 21 14 24 20 24 25 34 13 21 13 27 17 14 6 16 36 13 3 21 26 17 6 24 19 20 10 14 6 13 30 23 28 23 38 30 27 27 17 13 37 23 14 33 24 14 10 11 13 23 31 13 13 24 35 21 24 14 17 28 22 14 27 13 7 16 18 21 22 10 19 31 16 27 30 24 22 9 21 31 17 24 9 33 19 18 16 18 27 13 9 18 30 24 20 13 13 42 11 24 11 31 31 14 18 23 13 31 24 23 27 30 31 17 20 19 22 10 20 16 17 27 20 22 13 24 28 16 27 22 6 17 27 20 19 17 17 23 34 24 6 27 23 35 19 31 31 14 18 23 27 18 20 21 23 13 14 26 14 24 15 0 28 20 21 37 14 34 15 16 26 29 10 3 31 16 10 21 10 17 7 36 14 41 23 20 7 21 10 29 24 17 7 21 13 16 23 14 10 3 33 9 34 21 17 20 15 10 17 41 20 9 27 19 8 10 13 34 13 24 20 24 20 12 23 16 6 24 17 7 31 23 9 16 20 13 26 12 17 28 29 17 24 24 10 20 26 14 20 26 19 30 10 13 16 21 28 24 32 3 24 23 9 13 17 13 21 19 23 41 6 6 31 22 37 15 31 34 21 28 13 6 30 24 30 40 10 23 12 16 22 13 23 17 3 20 19 11 28 17 21 24 15 24 23 17 17 13 16 23 34 13 20 17 9 17 20 29 16 20 19 10 14 28 30 14 6 14 17 13 13 31 13 37 30 31 17 24 7 38 20 14 17 20 27 35 24 21 20 16 24 13 27 16 12 10 20 24 33 10 13 17 21 16 24 17 23 10 24 20 34 23 16 17 16 19 27 9 24 25 27 17 26 10 16 10 13 19 17 14 13 14 17 8 12 27 20 6 24 21 28 24 23 31 24 21 28 17 31 20 7 20 22 24 23 17 27 26 17 7 44 24 21 31 20 31 10 24 38 12 20 23 20 20 17 17 27 17 21 28 31 24 23 19 27 13 35 13 19 24 14 27 16 10 7 14 24 38 0 16 20 14 35 27 24 10 31 24 31 27 6 24 35 23 19 17 22 27 17 20 17 14 13 10 29 20 17 35 23 10 12 37 20 31 20 21 10 30 24 30 17 7 20 17 27 34 24 16 17 19 16 13 27 27 21 23 14 14 9 22 31 24 20 7 40 34 26 17 24 16 17 23 20 21 13 17 26 10 6 20 10 17 17 27 35 26 16 16 20 27 16 27 20 6 16 14 33 20 37 23 21 10 3 10 21 39 21 20 33 22 20 13 20 18 40 23 13 13 13 10 8 14 14 20 10 20 16 9 27 34 28 24 20 17 14 15 26 28 22 24 10 20 0 10 7 23 28 13 20 28 14 0 31 30 10 23 30 27 41 24 24 33 13 24 24 21 20 9 35 6 20 28 17 19 20 14 22 13 42 22 15 23 6 28 27 10 18 22 13 17 31 15 12 37 21 20 23 10 20 13 21 20 31 26 13 14 13 18 25 27 13 9 14 13 21 24 30 25 16 23 30 9 23 28 34 20 26 31 16 27 44 14 7 15 16 17 26 31 17 20 13 23 13 13 27 21 13 20 26 17 27 20 26 21 36 14 22 33 27 17 22 29 37 17 20 13 42 10 10 23 28 10 25 16 20 14 22 34 13 34 6 14 18 23 23 16 20 13 19 28 31 34 27 7 15 21 30 20 28 38 15 13 28 32 17 11 14 38 26 14 20 21 16 28 24 9 13 21 24 16 24 23 27 16 20 13 26 31 34 21 9 17 19 20 14 30 30 24 20 13 24 12 31 16 28 28 26 6 27 24 13 30 7 35 23 10 25 14 24 19 20 10 12 34 14 29 7 17 26 16 27 27 17 35 29 26 17 20 13 20 17 28 23 18 21 10 31 16 28 10 24 17 10 31 30 6 23 24 10 31 20 20 14 44 3 23 14 31 21 14 14 17 24 35 24 9 26 7 27 22 16 34 22 30 18 26 37 17 9 18 34 19 3 23 25 38 17 22 9 7 26 20 23 23 31 17 14 15 24 10 10 34 31 14 28 27 20 20 27 13 27 16 17 20 28 24 31 10 30 20 13 16 14 17 17 21 3 23 20 17 21 17 28 19 37 10 17 33 29 24 24 13 28 31 24 17 24 20 23 29 14 20 24 30 23 33 25 28 9 27 18 6 13 34 13 20 30 13 30 20 13 10 19 20 17 28 14 13 13 24 28 13 23 27 31 31 40 17 9 33 27 21 20 22 33 16 38 16 7 14 26 20 23 17 16 28 20 13 17 13 23 24 21 17 23 26 16 7 27 20 17 27 18 31 3 34 28 20 14 24 24 30 17 28 27 26 18 24 29 24 16 28 21 21 6 7 22 30 22 23 45 3 17 40 26 14 19 21 13 13 30 20 28 6 21 30 13 30 21 30 20 20 13 13 31 16 10 23 24 3 14 17 15 13 17 10 20 18 24 22 17 17 21 17 30 14 19 37 10 17 20 10 35 24 20 17 20 14 21 13 3 20 20 14 33 34 7 6 19 24 34 18 21 27 24 20 13 14 30 13 24 21 13 20 24 10 10 20 15 13 21 26 10 23 27 31 19 15 24 24 31 16 34 9 9 10 9 7 17 9 31 9 13 24 16 28 30 20 16 17 24 24 20 27 24 15 27 20 16 14 16 35 26 35 17 19 31 27 19 10 19 38 24 23 28 6 7 27 34 26 20 24 7 32 31 31 14 26 9 10 27 14 21 31 13 27 31 24 10 38 27 17 16 3 27 14 17 16 21 10 26 6 40 21 17 24 24 16 17 34 31 20 16 35 16 34 28 23 21 17 24 27 21 16 27 24 7 21 36 13 24 24 27 41 28 17 38 30 16 14 6 42 41 16 12 28 27 13 22 14 42 20 28 27 21 27 35 20 20 13 14 20 18 24 27 24 38 20 17 34 33 3 16 17 24 17 42 17 28 19 10 23 17 23 13 6 37 10 31 20 21 38 6 17 18 19 25 27 14 20 20 17 10 32 19 27 20 15 13 16 24 21 27 7 27 23 13 20 24 8 27 40 7 3 16 38 26 22 17 17 13 20 13 34 26 30 13 10 10 21 16 14 17 14 3 22 21 27 17 33 31 35 31 23 33 14 27 26 14 14 22 24 18 21 33 13 34 16 13 24 22 13 28 27 20 27 9 27 28 34 13 6 27 18 9 24 31 27 26 28 19 26 16 13 24 13 7 19 24 13 30 21 26 10 20 19 14 17 20 9 17 17 7 21 13 56 10 13 31 16 14 27 24 24 13 31 30 30 7 20 24 31 14 21 23 21 16 21 17 17 25 17 38 24 14 27 13 6 31 31 24 23 13 27 22 13 19 17 35 28 21 17 31 24 19 23 22 28 16 26 13 20 31 13 16 15 30 19 8 30 16 30 23 16 24 14 23 7 3 23 33 27 20 23 6 40 28 14 24 38 30 20 31 24 17 28 14 13 20 31 23 30 32 10 19 23 20 24 17 21 29 27 20 38 30 28 27 6 24 16 36 17 17 17 20 29 16 20 23 34 21 17 21 30 6 17 21 25 20 13 20 20 6 35 14 22 20 17 26 30 24 38 10 29 10 21 7 34 21 23 17 20 9 26 24 6 28 28 38 10 13 17 17 13 27 21 17 23 9 25 27 19 26 26 20 6 13 15 24 13 0 24 17 21 21 27 20 28 34 23 20 34 30 19 14 24 21 41 24 20 21 17 13 12 20 17 33 27 27 16 24 21 10 17 0 27 30 17 25 10 27 23 17 17 21 19 7 20 14 31 31 20 31 13 6 34 19 37 24 27 34 17 20 13 16 28 27 17 21 24 31 21 17 30 21 27 17 35 24 18 31 26 30 24 25 13 27 27 36 7 16 19 20 20 20 26 20 13 20 14 17 17 16 38 28 7 16 32 14 30 26 20 14 17 30 16 21 16 37 24 28 16 35 27 28 35 22 26 27 30 6 24 14 31 13 23 20 27 20 22 18 16 7 23 17 21 13 21 29 29 14 17 7 38 26 27 38 14 22 38 24 44 23 17 17 24 7 14 3 24 19 24 10 23 24 14 24 10 21 26 16 20 20 26 24 17 24 16 10 27 27 20 7 21 22 38 30 24 24 21 28 15 17 35 23 23 0 27 12 24 23 17 10 22 27 24 36 17 20 19 38 10</t>
+  </si>
+  <si>
+    <t>N(21.4771, 4.194600766461571)</t>
+  </si>
+  <si>
+    <t>19 23 27 20 21 23 21 26 17 18 19 19 24 19 23 22 27 23 17 25 24 15 24 15 19 21 22 24 22 30 23 20 23 26 30 25 17 19 22 22 24 18 18 19 25 23 21 16 23 19 23 31 23 18 16 13 23 15 21 24 35 20 26 11 21 22 24 20 24 26 18 18 14 19 19 29 22 20 19 29 17 27 20 22 18 19 27 24 25 31 20 25 20 20 23 24 19 20 18 21 11 21 25 18 25 25 17 23 26 26 13 22 22 23 17 21 26 23 21 23 11 19 14 29 19 24 24 17 24 25 21 24 28 18 21 17 27 25 15 28 26 17 22 17 25 19 22 13 22 22 17 22 18 21 22 19 19 22 28 24 28 20 20 17 21 22 20 22 15 22 26 17 18 24 23 20 20 26 12 18 23 16 22 20 19 18 27 14 17 18 17 26 19 22 19 19 20 19 23 22 25 19 22 24 33 16 17 21 21 20 20 16 19 18 22 26 26 20 19 26 21 18 17 14 23 16 21 25 20 23 23 19 28 28 18 24 21 24 25 16 30 22 25 19 20 21 28 20 21 20 18 21 16 17 24 16 21 16 17 18 26 29 25 24 15 24 24 18 18 14 21 22 25 20 21 26 23 22 19 24 28 14 17 16 20 22 19 20 23 23 20 32 22 14 30 18 26 27 27 23 26 29 23 22 23 22 25 23 21 26 24 16 15 21 21 13 16 21 20 16 19 24 20 25 25 20 29 22 28 18 26 27 24 17 20 25 24 11 20 10 16 14 20 19 21 19 27 23 16 18 25 22 30 26 19 24 21 18 21 16 19 24 17 19 16 23 21 24 18 25 16 29 18 16 11 31 20 21 31 19 23 16 21 18 28 16 27 20 26 11 24 25 22 16 22 20 17 15 19 26 17 27 27 20 21 24 22 16 27 17 19 24 20 28 18 25 26 21 22 28 23 13 28 16 23 19 24 23 25 24 25 20 12 30 20 20 13 19 22 19 19 20 27 16 16 20 15 27 19 29 19 17 23 19 22 17 20 21 28 24 21 10 16 27 13 23 15 29 26 20 26 19 23 20 22 18 18 12 20 21 20 16 24 25 25 23 17 25 20 16 25 23 18 27 15 21 20 25 24 26 28 21 21 24 21 25 17 29 23 27 18 17 30 16 24 18 19 21 18 28 19 25 26 24 23 16 16 22 19 21 26 16 17 20 17 26 24 12 17 21 23 23 22 18 22 21 16 20 26 15 26 28 19 18 20 18 25 30 21 22 16 21 19 13 18 20 19 29 29 12 18 17 24 24 23 18 24 22 22 24 24 19 27 12 18 27 23 17 21 25 20 24 24 24 31 25 27 19 23 14 12 17 21 24 18 16 17 30 26 26 25 22 19 16 22 25 16 20 21 17 18 29 22 20 22 26 20 22 20 25 18 16 20 15 19 21 20 16 24 22 19 15 21 26 21 22 22 18 23 19 21 21 18 21 24 21 17 23 21 21 34 23 14 24 19 23 27 28 14 21 19 22 17 17 13 19 27 20 25 23 19 23 17 21 19 19 20 18 19 20 22 17 27 19 17 27 23 21 19 24 18 26 27 17 21 26 15 20 21 29 21 16 23 23 25 24 16 17 21 23 18 23 18 12 25 26 21 12 16 17 21 20 17 26 24 23 12 20 20 19 23 18 19 21 15 20 26 26 17 24 25 24 17 26 22 21 21 26 26 21 17 23 12 26 17 23 22 23 21 23 25 22 28 21 12 24 16 21 25 19 25 19 21 24 23 22 26 32 24 18 19 21 20 22 24 25 18 18 26 12 26 19 22 19 22 15 18 22 13 26 21 25 21 14 22 17 18 14 25 20 19 22 22 17 22 20 25 20 28 20 15 15 19 19 19 18 23 20 25 19 25 24 25 24 16 24 23 19 25 16 26 21 29 22 17 23 25 23 21 22 15 20 18 27 23 14 17 30 16 21 19 16 24 20 20 14 20 24 23 23 20 18 16 18 27 22 30 25 23 23 24 22 15 30 16 28 24 19 19 27 21 26 29 22 20 21 25 25 20 17 16 18 23 26 23 17 25 17 23 28 18 26 24 31 19 24 14 20 18 24 15 16 21 26 20 23 22 10 25 14 28 20 18 21 28 20 18 27 22 20 24 27 22 23 22 21 23 21 21 20 27 20 21 25 19 20 21 21 23 20 14 19 21 27 17 14 21 16 18 17 23 20 26 12 16 23 20 21 29 21 24 27 16 24 21 26 18 22 23 22 28 25 17 17 27 21 23 18 30 28 19 17 27 14 22 26 17 15 28 21 23 24 10 21 22 17 22 30 26 18 19 20 20 16 19 20 20 24 16 23 18 18 19 25 31 23 18 20 29 20 24 21 22 30 23 22 15 17 26 14 24 23 19 27 17 24 23 19 22 23 21 21 20 16 22 24 17 22 24 23 21 18 17 23 27 26 23 26 19 17 21 17 20 11 26 22 23 23 14 18 19 23 18 16 19 27 20 18 20 22 20 22 26 22 26 23 21 18 25 17 18 21 22 13 19 19 26 23 24 18 23 16 24 17 16 19 12 28 18 19 18 22 22 21 20 18 26 23 25 24 19 20 25 18 25 19 21 19 17 20 26 26 21 22 23 17 23 21 21 18 18 25 30 19 25 22 27 19 15 25 20 22 23 32 20 25 18 25 28 29 32 27 19 21 26 24 20 21 25 21 20 16 23 25 14 22 18 14 22 22 18 17 20 19 24 22 28 25 16 17 20 17 31 24 24 24 24 23 32 20 18 17 16 20 26 23 18 25 16 21 13 26 18 30 24 21 24 24 20 13 19 19 24 21 24 22 21 21 32 18 18 24 17 24 30 26 18 25 26 20 16 22 24 15 19 22 17 24 21 20 18 20 13 19 26 21 22 26 22 26 18 17 24 20 24 25 22 25 19 21 17 22 22 20 30 23 25 26 18 24 17 19 34 22 25 18 24 30 19 21 21 20 34 24 25 23 27 23 13 23 22 25 12 25 23 14 19 12 21 31 20 18 24 23 22 24 25 26 20 20 18 20 23 14 19 14 25 23 29 14 30 25 25 22 24 23 20 26 18 26 21 24 20 27 28 22 23 19 14 22 18 23 22 17 23 18 21 24 19 26 20 21 20 21 25 21 22 22 25 23 20 15 12 20 22 14 10 19 29 26 15 20 24 18 25 25 18 25 19 31 23 22 20 18 18 18 16 21 26 21 19 19 27 17 21 25 26 21 28 17 21 23 27 21 26 26 19 23 16 18 17 21 23 29 15 28 22 23 29 17 22 23 19 27 22 20 26 23 27 17 18 18 31 20 19 24 18 19 19 16 24 12 33 29 17 20 23 28 25 24 19 28 16 18 14 17 22 18 18 21 19 23 18 18 23 23 15 24 20 16 23 18 27 26 25 22 30 23 18 17 19 22 16 20 12 23 24 21 24 23 19 23 31 20 24 23 20 21 26 19 24 22 22 21 21 26 20 19 27 21 21 16 15 17 14 22 24 23 22 26 17 27 22 23 21 26 23 29 19 24 20 19 22 20 20 25 20 19 22 23 26 19 26 19 22 24 25 22 25 22 17 20 16 27 17 26 23 21 26 22 21 26 19 25 20 22 19 16 21 24 20 23 21 23 24 22 20 15 21 19 21 27 20 22 22 26 24 13 21 15 19 25 17 21 17 22 22 24 36 24 24 23 16 17 19 22 30 25 16 24 22 17 12 23 22 24 20 17 22 16 24 20 24 20 31 24 29 27 15 15 24 20 31 20 17 23 20 24 28 20 24 17 27 14 31 25 25 21 27 20 18 23 18 22 20 19 22 20 23 23 14 25 19 26 18 22 24 22 21 19 24 16 19 19 23 25 20 18 22 22 23 23 20 17 19 24 22 26 27 29 14 21 29 24 17 23 23 31 25 19 20 16 33 25 14 25 19 18 18 21 22 23 19 21 22 23 19 22 14 21 24 25 20 22 27 28 24 13 21 17 22 19 19 27 25 16 18 17 21 19 36 26 22 30 22 27 27 19 28 18 21 23 16 24 13 13 27 15 17 19 23 16 22 25 13 24 15 15 22 17 28 16 26 21 25 25 24 25 24 26 19 13 15 21 23 22 24 28 25 16 23 20 26 32 23 17 28 29 28 13 31 17 29 18 22 22 27 24 19 27 19 26 17 19 21 25 23 21 17 23 23 21 23 16 22 23 16 14 13 28 29 18 12 14 18 26 25 27 12 22 26 21 17 23 25 31 19 19 26 24 23 21 15 20 27 20 19 22 27 27 19 20 22 15 22 14 28 23 36 18 17 15 24 16 20 24 23 26 19 27 21 28 17 25 22 24 13 20 13 25 18 28 25 25 19 22 29 18 22 24 18 23 29 27 22 31 20 22 23 25 26 16 24 25 24 20 24 31 16 20 21 30 21 20 19 23 27 21 17 24 22 21 15 15 21 21 22 17 19 17 30 14 26 28 28 18 23 21 16 24 20 30 25 20 22 14 16 22 23 17 15 19 38 21 23 24 16 25 29 18 21 24 30 16 30 19 24 26 17 22 25 20 17 21 16 16 23 23 23 24 15 26 16 17 19 9 20 21 22 21 28 21 20 15 21 26 23 28 16 31 21 25 22 24 12 21 23 20 20 21 14 25 16 30 22 19 23 23 25 21 21 21 23 22 23 12 19 22 19 24 23 25 23 22 21 26 21 15 30 24 21 24 19 21 22 22 31 25 27 25 6 24 24 23 25 25 26 26 21 24 20 22 19 22 21 22 19 25 16 17 19 22 21 23 21 20 26 21 19 16 20 18 28 14 23 25 21 25 21 25 17 20 22 17 22 24 21 25 24 14 26 20 21 28 24 25 28 14 24 24 16 22 20 18 19 18 24 21 22 22 18 20 24 22 18 18 21 25 17 23 19 24 15 11 24 24 14 13 24 16 16 31 21 21 19 20 17 24 21 25 20 23 17 23 19 23 24 23 17 20 19 26 21 17 22 18 19 22 24 26 23 22 18 15 26 25 20 20 31 16 22 25 14 29 13 22 22 22 22 28 26 20 17 31 29 25 19 23 18 17 21 26 20 12 16 27 14 20 26 21 18 19 20 13 22 31 17 17 19 24 22 22 20 24 25 19 21 25 21 26 20 22 23 24 28 19 24 22 12 21 26 28 25 25 16 24 16 18 12 27 16 28 19 25 20 17 25 22 19 12 26 15 16 17 22 23 18 22 18 28 24 19 18 19 22 20 24 17 16 26 22 31 22 18 19 23 22 25 20 16 28 22 15 24 23 25 24 22 21 13 22 23 24 20 23 15 22 17 17 16 19 16 23 14 25 25 22 27 21 25 20 20 16 20 19 24 17 23 15 24 21 21 20 24 21 25 22 20 12 28 20 19 27 22 19 19 19 23 32 22 28 21 16 20 15 15 27 16 15 22 24 25 29 20 26 27 27 15 26 19 18 29 19 18 21 18 21 16 26 22 32 19 25 20 26 21 26 23 24 18 22 20 21 25 24 23 16 22 26 22 19 21 15 18 19 24 20 23 20 30 28 20 19 17 24 20 18 24 23 21 30 20 11 26 27 19 16 20 22 21 15 27 21 22 22 17 14 26 23 19 18 25 25 15 19 24 24 22 23 22 20 16 20 26 25 22 23 24 21 22 29 31 13 17 15 24 24 20 17 23 24 21 18 29 20 16 22 32 27 27 20 20 20 19 27 21 25 19 17 20 12 15 23 23 22 27 19 19 23 21 24 25 18 29 22 17 23 15 20 21 21 17 23 22 18 20 24 12 22 24 20 19 17 19 17 19 18 21 17 15 27 22 24 27 20 26 26 22 21 28 21 16 28 20 25 20 28 20 16 18 26 22 27 26 21 16 28 24 21 14 25 14 22 20 16 21 21 26 21 19 20 31 25 19 26 21 25 15 18 23 30 29 16 19 19 22 21 21 20 22 20 19 19 18 23 22 20 20 32 21 23 21 21 19 22 22 24 19 26 17 19 21 21 20 25 29 21 28 23 20 23 21 23 20 19 21 19 25 18 21 17 22 29 9 23 20 25 22 19 29 21 22 29 24 24 24 24 24 21 19 21 24 26 24 11 18 27 23 24 16 27 20 29 16 22 23 26 20 27 14 29 25 25 16 13 19 19 22 25 29 17 16 17 24 22 27 22 22 18 22 17 27 20 23 20 17 21 27 25 21 22 20 17 27 21 20 22 24 18 22 27 29 19 20 20 20 22 20 34 21 23 17 19 26 21 13 25 16 22 11 31 19 27 17 25 18 30 21 19 21 21 12 17 21 23 19 23 22 21 14 15 17 27 24 23 18 25 20 19 24 18 12 18 18 26 23 20 21 26 19 17 21 29 17 15 17 14 14 23 22 17 22 30 23 25 19 21 26 21 34 23 19 14 18 15 10 17 27 19 24 22 21 19 25 26 21 18 24 25 16 26 29 15 18 16 17 20 18 18 20 23 25 29 18 16 20 17 26 21 26 29 23 18 24 12 25 23 31 17 19 25 22 25 19 25 18 23 18 16 21 9 18 26 28 18 17 21 25 25 20 19 23 23 21 20 21 27 27 28 17 19 22 24 17 27 17 12 23 25 12 11 28 18 17 10 31 20 15 17 21 24 16 22 20 17 18 17 16 17 24 18 10 21 17 11 24 15 22 15 15 25 17 22 24 24 19 20 15 25 12 21 18 22 24 21 15 17 24 26 20 21 33 25 19 22 18 20 24 15 20 17 24 26 19 21 21 25 20 18 29 16 24 18 32 22 20 20 23 23 25 24 26 20 22 25 21 24 23 17 20 19 23 19 15 23 24 23 24 16 24 20 23 23 18 23 29 16 14 16 24 21 26 16 29 26 26 21 17 25 30 12 21 28 17 24 22 21 35 17 17 24 18 30 11 22 20 24 21 34 15 22 17 26 22 25 24 20 21 26 20 16 20 17 21 20 19 17 16 19 21 26 18 15 22 16 19 23 27 20 19 18 26 25 27 24 22 16 17 28 24 19 24 27 16 28 18 27 19 26 23 25 24 22 19 23 27 26 18 19 21 22 26 25 12 19 24 18 24 21 15 18 19 18 22 20 26 19 16 20 24 18 19 27 19 24 16 13 26 24 19 21 23 17 20 23 21 17 17 26 24 16 20 15 18 19 17 19 28 30 27 22 22 23 21 25 18 21 18 24 18 19 16 20 23 20 17 27 29 21 21 21 23 18 19 22 20 20 20 23 26 29 21 21 13 22 20 20 16 20 15 17 33 21 18 15 21 19 23 21 21 20 27 15 26 23 18 25 19 21 26 24 27 18 23 15 18 22 25 24 22 24 27 20 23 16 20 28 22 21 19 23 20 22 17 24 21 22 32 20 25 25 25 17 21 18 17 19 21 27 21 29 23 24 25 20 16 22 25 19 23 19 21 33 26 18 21 25 20 24 23 24 23 20 29 14 20 18 16 13 21 25 22 21 22 28 23 24 18 23 24 23 16 25 28 23 18 20 18 20 19 15 24 22 18 18 23 21 24 17 21 23 24 25 22 24 22 20 18 19 27 17 16 16 21 17 19 22 23 20 27 25 20 21 25 21 22 27 20 19 19 17 20 12 17 24 17 24 14 27 20 17 26 25 22 20 30 22 25 23 29 21 15 21 19 29 23 25 15 28 16 22 23 23 24 20 16 16 28 22 23 14 30 21 24 26 24 14 21 24 19 18 19 23 23 16 15 18 33 19 24 15 22 22 17 23 18 27 22 17 17 27 14 15 16 23 24 20 23 30 28 22 29 16 23 31 22 18 23 23 21 22 23 25 15 17 26 24 21 22 24 32 19 20 24 21 19 21 23 18 23 16 19 26 27 15 21 22 14 23 22 17 24 22 23 27 18 17 27 17 15 20 24 21 17 18 26 15 27 20 24 17 23 24 23 24 24 27 19 23 20 26 20 23 25 28 23 23 24 30 27 20 17 13 14 21 17 24 21 15 26 22 22 18 27 17 28 19 18 26 23 24 31 28 23 28 23 16 24 19 21 27 20 23 10 21 24 18 21 17 24 21 15 27 26 17 18 22 18 22 22 16 16 19 22 21 17 22 15 23 22 19 20 23 23 13 23 21 19 26 21 29 25 26 27 19 16 22 18 24 26 23 24 23 22 25 16 24 16 24 18 20 24 22 18 26 19 17 18 27 19 26 21 25 23 26 25 23 16 21 22 26 14 15 19 26 26 21 17 20 21 22 23 26 14 21 14 25 13 22 24 21 22 14 22 18 24 22 23 20 21 24 14 15 20 23 14 17 20 23 20 18 23 19 23 24 17 23 17 27 23 22 19 18 29 19 19 29 28 27 20 22 23 20 21 21 18 15 22 15 19 23 19 19 25 20 24 31 15 24 17 17 27 14 16 23 19 28 16 17 19 15 26 18 22 22 29 14 20 26 17 24 29 22 26 21 21 15 14 26 25 24 24 22 22 23 18 19 30 19 16 31 25 25 19 27 17 29 29 29 13 19 25 19 18 18 21 21 27 30 24 24 23 22 24 25 19 19 27 22 28 21 20 24 22 23 21 27 16 27 25 20 24 21 19 27 32 21 23 28 23 21 22 24 17 20 21 22 20 20 20 16 15 19 21 22 21 25 28 25 18 19 23 24 14 18 22 19 20 23 23 22 27 19 28 15 21 24 13 21 21 29 17 22 23 17 29 17 21 24 24 22 18 28 24 20 21 16 28 13 19 23 18 21 27 33 24 23 25 19 24 30 19 18 28 20 17 22 22 18 21 21 19 22 17 26 27 16 25 24 16 21 20 21 21 19 18 26 24 20 10 20 21 28 26 30 25 25 15 22 20 21 25 18 22 18 20 19 30 22 22 21 24 19 21 22 18 15 20 24 23 15 21 19 28 19 18 22 21 23 22 22 17 30 22 21 28 21 24 20 15 30 19 23 18 21 19 20 20 15 29 27 35 24 17 24 20 18 19 22 25 21 19 23 22 24 26 24 24 15 28 22 25 18 21 24 19 17 20 20 23 36 21 21 22 19 18 20 26 24 19 24 32 22 17 17 26 17 23 15 18 15 11 23 31 26 16 23 23 22 17 23 21 30 23 19 21 20 26 31 20 25 23 22 31 22 18 21 17 15 23 16 20 16 22 17 19 25 19 17 21 18 21 19 22 17 19 19 28 19 17 23 23 28 18 20 17 24 25 24 25 27 20 25 22 20 14 14 23 19 19 29 17 19 24 29 26 25 23 22 23 17 23 21 27 21 26 32 18 19 22 21 22 26 15 21 10 19 24 21 26 25 31 26 18 25 19 28 25 31 22 18 24 18 18 30 24 14 20 27 17 17 23 20 21 17 16 21 23 19 17 25 25 20 26 26 25 21 26 30 17 25 22 24 21 13 24 18 23 13 17 22 19 23 25 23 22 20 23 20 27 27 20 19 27 20 15 14 18 30 22 16 22 30 18 22 22 26 19 25 20 17 21 24 23 20 27 23 18 26 24 17 21 20 26 20 30 18 21 22 21 24 20 20 25 27 16 25 22 22 14 22 21 23 21 19 17 31 27 19 17 21 16 22 19 27 18 21 20 26 18 22 16 15 19 28 17 18 22 16 15 21 20 17 28 20 20 23 16 22 17 28 21 17 20 25 23 18 20 19 31 14 21 17 18 21 28 28 10 23 24 26 16 24 22 26 25 15 23 17 21 21 26 25 22 26 21 22 29 14 18 27 21 13 15 27 21 26 12 15 21 22 20 19 20 24 19 18 28 20 15 24 28 22 16 21 18 25 16 20 19 24 15 25 28 21 23 25 19 25 20 18 17 19 24 19 21 13 23 21 17 20 23 19 22 17 22 22 28 16 20 31 12 23 16 22 24 21 23 28 18 19 20 24 18 20 27 25 16 21 18 22 21 27 25 18 21 20 16 24 11 24 19 24 13 24 18 22 26 28 22 26 27 23 21 17 20 21 18 22 18 18 22 26 21 15 33 21 23 18 19 19 27 15 23 19 25 17 31 17 21 22 22 24 13 16 31 25 29 19 22 21 28 21 27 21 18 27 18 19 28 23 28 26 20 27 20 19 27 18 20 20 15 26 20 24 26 19 22 19 18 18 20 23 23 18 30 20 26 21 23 21 17 20 31 24 21 23 21 23 30 26 23 25 22 17 16 25 22 18 23 23 21 34 21 24 18 26 25 18 17 28 19 29 22 25 26 18 28 21 29 26 28 25 18 19 17 14 29 20 25 26 17 24 20 25 26 20 20 16 19 22 19 24 20 20 23 15 20 22 26 21 25 19 22 23 22 22 19 28 26 19 19 15 23 22 29 16 20 25 20 21 23 24 22 22 18 22 18 20 27 22 19 24 22 20 26 23 24 20 20 21 20 30 22 18 19 18 29 18 17 24 24 22 25 15 18 22 20 23 21 21 19 25 21 23 34 16 39 14 20 21 29 22 20 28 24 21 17 20 21 25 19 23 21 24 22 23 24 24 19 20 25 16 17 24 22 14 26 19 19 18 22 21 24 29 26 30 27 11 21 17 21 12 24 23 31 19 21 22 24 14 20 23 24 26 24 15 21 22 23 21 23 21 27 22 24 24 19 18 21 25 20 20 20 26 27 28 20 25 19 18 30 27 24 19 23 23 21 26 22 18 24 16 31 22 14 20 22 13 18 25 21 12 26 15 22 28 21 25 24 23 18 16 26 23 27 14 23 19 29 29 20 21 29 24 21 26 18 11 16 17 17 14 20 16 28 20 20 25 23 22 23 21 18 17 27 19 31 27 17 22 14 17 14 14 22 20 23 22 17 24 18 17 23 23 25 22 19 25 20 25 18 30 22 24 18 25 22 30 20 14 25 21 17 24 28 17 21 24 23 18 21 24 18 19 23 25 29 23 21 21 21 15 22 20 19 28 25 16 19 25 31 17 24 26 20 23 25 24 20 22 21 27 23 23 19 24 18 37 18 14 26 23 21 24 24 24 10 30 18 16 16 25 17 26 18 31 18 19 19 19 25 30 18 24 23 19 15 25 12 21 26 17 26 27 22 15 32 14 23 28 21 22 21 19 22 20 27 22 17 22 27 17 25 15 25 20 27 25 18 24 26 20 21 23 19 14 26 23 22 22 21 20 27 19 23 25 23 21 19 29 22 15 29 17 14 22 18 18 24 23 22 17 28 11 18 17 19 21 24 25 22 11 18 20 30 24 30 23 24 28 21 24 32 26 30 22 20 20 25 15 20 22 21 22 24 21 25 25 13 24 28 28 22 23 27 19 25 20 31 17 27 22 16 15 30 28 25 14 21 21 19 21 18 22 22 18 20 20 19 23 23 23 26 26 40 23 22 26 25 11 24 17 14 22 21 20 16 18 26 16 24 26 18 13 23 21 17 28 19 19 21 23 13 20 25 18 19 23 17 24 27 20 15 17 20 24 22 23 19 24 28 23 20 22 19 24 26 24 14 19 23 23 15 15 23 27 17 21 20 25 35 25 22 26 28 23 23 13 26 15 20 18 22 26 25 22 16 27 20 21 18 15 21 24 25 19 25 23 20 21 28 24 16 19 24 17 25 24 17 18 20 20 24 27 26 25 26 18 17 21 24 18 20 20 18 19 18 16 23 26 20 15 21 28 17 20 26 19 19 24 14 20 24 31 22 13 22 18 18 27 17 21 23 25 27 23 19 27 30 17 20 19 27 19 13 25 24 21 18 26 20 27 18 19 25 21 23 22 20 29 21 21 11 22 24 22 17 16 17 24 14 22 21 25 19 29 23 26 23 21 16 21 23 20 24 23 17 20 22 20 22 25 16 33 23 17 21 23 19 23 16 23 21 24 25 21 18 18 23 17 28 18 16 17 20 21 21 20 17 24 21 16 21 20 14 27 20 25 22 24 19 22 27 17 14 20 21 20 20 24 21 26 28 23 16 19 17 20 23 25 15 25 27 23 27 18 20 19 23 28 21 30 33 19 21 22 29 18 25 15 20 31 23 21 27 26 19 19 21 28 25 25 20 18 24 13 22 29 19 14 29 23 22 28 21 25 25 20 13 15 19 21 24 18 32 15 19 22 22 16 17 18 17 19 21 22 15 31 15 28 17 23 25 17 17 17 8 21 25 21 18 14 30 17 24 20 17 17 20 14 19 16 28 15 21 19 23 21 21 24 26 22 19 14 21 21 21 21 17 24 19 19 19 20 19 16 26 19 28 22 10 22 19 22 20 25 19 27 21 24 27 22 18 20 17 15 28 22 22 20 17 24 14 19 21 17 19 18 25 24 24 25 24 14 20 20 24 24 26 23 21 16 14 23 25 19 28 23 23 19 24 20 33 24 18 23 26 22 22 23 14 28 22 16 24 18 21 24 17 25 21 20 21 19 25 21 28 19 23 15 25 21 14 23 22 14 26 33 23 26 30 23 25 31 21 28 21 17 21 26 22 28 27 19 23 19 23 19 23 23 25 10 26 17 26 26 23 17 21 24 25 24 20 27 20 18 22 27 26 15 23 22 22 17 27 24 23 25 18 19 25 23 20 19 22 21 18 22 19 20 25 26 22 16 27 21 19 21 25 23 15 18 24 21 21 32 24 19 22 20 22 25 24 24 28 18 27 24 19 27 26 23 21 23 16 22 20 26 19 15 29 25 27 17 20 22 20 18 20 25 28 17 16 22 18 30 21 22 25 23 22 22 24 31 14 19 18 22 16 22 24 23 23 19 20 21 24 27 21 24 27 22 22 27 17 26 26 19 24 27 18 26 21 26 27 21 18 18 19 23 22 21 24 14 15 22 17 14 18 25 28 19 24 31 19 28 30 18 23 20 18 26 26 18 14 21 17 22 23 21 18 26 19 26 20 22 18 25 21 17 36 23 30 27 24 23 21 17 25 24 19 20 20 14 24 21 20 21 26 22 15 22 24 28 24 25 27 21 15 14 21 24 20 22 17 21 26 30 18 24 17 27 24 28 23 26 24 12 20 17 15 25 21 24 22 20 17 28 29 21 18 25 18 18 26 19 13 18 19 22 20 28 24 26 18 18 18 29 22 26 24 22 17 25 23 17 19 22 22 15 16 18 18 23 20 13 25 16 17 21 18 18 23 16 15 24 26 16 21 23 28 19 15 22 25 17 27 19 23 34 19 17 25 30 21 19 18 25 23 28 23 24 18 17 21 21 19 15 32 18 25 26 18 20 21 20 17 20 27 18 18 24 18 23 18 21 18 21 18 24 18 24 19 22 20 27 27 36 21 25 25 20 20 29 18 23 13 19 27 22 28 29 17 26 18 23 24 19 23 16 17 19 17 17 18 20 17 21 19 24 25 17 19 22 17 25 20 19 22 25 28 27 17 21 17 21 12 15 30 20 17 17 27 11 16 19 21 24 30 20 20 22 16 24 19 15 14 20 21 20 19 19 19 20 17 20 18 18 24 15 25 33 13 16 20 23 21 21 16 18 17 30 19 23 29 20 19 24 15 27 27 24 23 28 27 22 25 19 24 31 23 29 18 17 23 15 23 22 19 25 16 23 25 22 24 20 32 23 16 19 25 18 22 25 16 21 22 19 19 19 22 15 20 18 18 19 23 18 22 16 24 20 20 20 17 23 25 22 20 30 25 23 27 28 20 19 25 18 20 20 17 27 21 22 25 27 20 15 26 26 28 18 19 23 22 20 22 24 22 25 24 20 25 20 19 20 23 21 23 20 29 10 17 24 19 17 25 25 25 21 21 17 18 29 25 20 22 23 22 21 22 19 17 20 17 17 18 30 20 25 23 20 22 21 23 27 16 24 18 16 23 18 24 19 23 20 25 27 23 24 18 26 16 20 17 17 25 24 23 16 26 27 23 28 21 22 21 22 19 24 26 24 19 25 29 22 24 19 24 26 23 22 13 21 23 20 21 23 25 16 23 22 21 23 21 20 28 22 26 27 17 15 21 18 25 23 15 24 17 20 17 16 25 27 22 23 25 26 18 21 10 14 20 19 19 24 26 17 19 21 25 23 20 22 14 23 23 17 23 27 19 22 18 19 21 25 22 26 18 21 22 22 14 26 17 22 26 20 21 25 24 23 18 24 22 21 13 27 20 24 25 18 24 18 18 25 19 28 16 14 22 19 12 27 21 24 28 21 24 29 18 25 30 26 25 21 27 29 26 25 18 26 23 18 24 29 19 16 22 25 17 25 21 23 24 20 18 23 21 21 22 26 27 22 20 21 26 16 20 21 23 25 21 22 18 22 17 21 23 28 18 22 22 19 21 20 20 15 19 22 22 23 14 21 20 19 17 17 15 24 21 20 20 16 31 20 18 17 20 16 24 29 18 24 16 15 22 20 26 19 23 19 26 24 23 15 25 17 20 16 16 24 28 20 25 17 18 25 15 29 20 12 24 25 15 19 33 23 23 20 15 16 24 18 17 20 17 28 20 30 27 22 26 22 25 17 15 17 21 24 18 25 19 27 23 19 29 23 23 20 21 25 26 16 25 20 23 20 24 19 26 19 20 23 19 29 22 20 20 19 24 16 21 19 19 23 18 19 22 18 19 19 14 19 27 20 18 26 22 20 17 20 22 26 23 23 17 23 21 22 21 16 24 19 30 31 22 13 18 22 12 26 21 22 24 22 24 33 22 22 20 25 25 23 24 21 21 20 17 20 24 20 20 30 20 25 15 18 26 21 34 23 24 23 14 26 20 20 25 25 16 17 32 19 24 26 23 25 17 18 21 16 23 23 25 24 23 22 31 25 20 14 21 23 17 24 18 21 19 27 22 22 20 15 23 16 25 25 19 18 20 21 13 26 20 27 15 28 13 24 21 24 13 22 16 27 24 19 27 20 27 15 29 21 22 26 18 18 25 18 22 22 25 25 19 27 22 25 10 23 23 27 21 19 12 22 31 21 11 24 18 20 24 23 23 17 23 18 15 21 25 22 28 25 25 21 14 23 26 28 19 24 23 27 14 18 26 15 22 15 30 17 20 22 19 17 19 23 22 15 21 20 22 24 22 24 22 23 22 24 17 24 22 26 24 25 16 19 21 20 25 18 22 22 16 17 28 21 21 23 21 20 24 22 27 18 27 24 22 28 27 15 16 23 19 19 18 31 20 26 22 25 24 23 19 23 26 27 22 22 19 25 25 22 28 23 17 17 23 19 21 29 22 29 25 26 25 20 24 17 22 22 19 22 20 26 15 20 17 12 24 20 20 27 21 23 20 21 24 25 23 16 20 30 29 22 23 22 23 19 22 21 19 25 27 27 20 17 21 16 16 27 20 26 17 26 26 16 23 29 21 30 19 21 26 26 16 29 22 20 26 23 21 20 23 19 28 25 20 21 31 20 25 19 16 23 23 19 22 30 27 18 25 20 23 28 23 18 28 15 26 23 21 16 19 21 22 20 18 24 22 22 20 22 23 19 13 23 19 14 25 23 25 20 25 19 21 13 23 17 22 27 21 28 16 30 19 15 23 22 15 29 20 26 20 15 20 21 30 16 28 23 18 19 19 25 23 19 20 17 23 18 24 16 18 22 25 28 25 27 25 24 21 17 22 28 20 20 26 26 28 14 23 31 26 24 23 26 26 28 15 23 20 18 25 16 19 25 22 22 20 15 23 24 18 20 18 14 21 24 28 23 25 18 24 22 20 17 15 27 18 25 17 21 17 24 17 15 18 28 18 23 25 19 16 19 18 29 19 19 30 14 23 27 23 26 27 28 21 20 22 21 30 27 19 20 20 30 21 29 19 29 21 21 17 14 21 25 17 20 14 19 22 25 18 19 27 21 16 23 21 14 18 23 28 15 20 21 23 22 26 13 22 26 21 26 27 21 17 22 10 18 29 15 17 30 25 18 18 22 20 23 19 24 17 25 21 24 21 16 21 19 24 16 19 22 15 21 21 21 22 17 19 21 26 27 23 21 20 16 25 17 31 27 26 24 18 23 22 20 15 21 21 27 15 21 16 26 29 19 23 23 29 25 19 24 23 23 22 19 12 19 21 30 15 25 18 17 14 21 26 18 19 17 24 17 16 24 17 30 16 23 19 28 28 20 24 20 16 21 25 15 23 26 20 25 16 17 18 24 22 29 16 23 22 21 20 29 16 23 16 19 18 22 25 16 24 12 35 17 25 21 27 22 17 16 19 25 27 22 15 21 21 10 19 25 19 22 26 23 25 14 25 23 22 31 18 18 24 19 13 17 23 23 24 22 20 23 31 24 24 21 15 29 22 21 24 20 28 22 22 32 14 24 24 18 11 19 33 22 23 18 20 21 31 25 19 27 23 23 15 23 19 18 18 18 28 21 22 20 26 20 34 19 26 17 16 27 16 23 26 30 15 20 23 23 21 28 20 21 19 25 24 18 18 18 27 18 25 18 25 20 19 18 25 14 19 21 16 20 24 23 22 22 19 27 16 22 26 23 19 21 17 20 17 17 26 15 18 18 18 16 22 16 18 23 22 22 21 24 22 28 21 18 25 25 22 16 21 26 18 20 21 22 29 20 22 24 23 27 23 27 21 29 23 21 17 24 26 28 19 24 16 26 24 19 18 25 21 22 31 26 23 23 31 20 20 24 18 21 17 21 26 19 16 24 25 20 20 17 17 26 22 28 24 17 23 21 33 25 24 26 26 25 20 20 26 20 28 22 17 23 19 21 23 21 20 21 25 21 19 27 18 20 23 21 18 29 20 20 21 16 27 26 26 19 20 27 21 21 20 22 13 26 21 26 21 22 18 24 23 24 17 19 19 26 23 18 20 23 26 18 15 20 13 20 30 17 18 31 25 27 22 18 21 18 21 18 22 18 24 19 12 27 20 22 22 28 22 26 17 19 17 26 18 19 29 27 19 19 30 22 15 16 29 23 19 20 16 22 18 28 20 22 22 21 19 26 9 15 21 20 21 29 21 22 15 14 18 19 19 21 23 15 13 24 28 27 24 22 22 27 25 16 23 24 22 13 25 14 22 16 26 21 26 24 17 15 20 12 17 20 25 29 23 23 28 24 28 27 22 23 17 17 18 19 22 26 20 24 27 22 20 18 19 18 18 24 16 27 22 27 22 20 21 16 26 22 21 18 17 29 22 16 25 21 31 26 20 28 19 11 27 20 22 21 19 21 19 20 26 19 23 22 31 14 28 27 21 20 24 26 24 27 17 31 14 20 17 16 20 20 23 22 23 20 23 23 17 18 16 20 19 16 20 16 23 22 22 13 12 21 24 18 23 21 21 24 11 25 17 25 16 30 12 21 20 18 20 26 30 16 21 13 16 20 23 19 20 19 19 25 21 23 25 23 25 24 12 20 21 24 28 26 19 24 24 17 17 17 22 27 22 25 24 20 18 24 23 21 23 21 25 24 26 22 29 22 28 12 17 16 23 19 19 27 23 14 25 17 20 17 28 24 18 20 25 22 24 16 18 23 27 24 12 29 29 22 23 23 25 28 21 23 25 27 28 26 16 23 23 22 20 24 15 17 24 24 25 22 19 23 22 27 19 28 19 19 24 22 23 16 19 16 15 20 22 24 19 27 23 22 25 17 24 20 16 31 22 31 31 17 13 24 18 22 22 9 26 24 20 23 21 21 25 22 23 23 32 22 19 27 23 20 19 22 19 17 28 22 22 17 26 31 24 22 23 19 22 27 20 18 22 24 21 21 20 22 16 33 26 24 22 21 25 15 23 16 23 12 23 19 23 21 21 16 20 15 18 23 22 24 19 24 23 18 19 25 23 22 26 20 23 21 23 28 21 17 24 16 20 23 24 27 17 20 29 19 21 14 24 24 24 15 20 20 19 23 22 23 17 21 22 29 21 18 15 23 20 18 25 24 20 22 17 27 21 17 22 19 25 20 18 23 25 27 22 15 18 15 26 20 28 22 19 18 21 16 23 18 32 19 22 20 21 25 16 17 26 14 17 28 15 27 22 24 26 17 26 21 24 20 24 15 23 30 22 20 20 28 24 20 20 28 18 19 14 17 20 24 22 24 16 17 18 25 18 21 22 27 26 20 19 20 25 28 15 27 26 23 23 14 23 26 22 19 12 31 22 19 17 23 22 17 22 24 23 27 26 25 21 23 30 23 27 19 28 16 25 20 19 18 18 18 22 17 27 18 24 27 26 22 21 24 18 19 18 19 22 22 14 20 23 29 32 16 25 21 20 18 24 19 17 23 20 15 25 23 23 24 20 17 20 19 26 28 20 25 27 24 25 25 18 18 22 18 19 18 23 17 22 23 14 21 24 20 23 22 18 23 23 16 16 18 15 25 26 16 25 18 16 24 19 24 20 20 21 26 29 18 23 16 22 13 18 15 19 28 26 31 21 21 24 23 29 18 20 25 17 21 18 17 27 19 24 25 21 18 19 16 28 25 23 24 20 12 16 19 25 21 22 26 20 21 19 14 20 20 27 15 21 16 18 24 21 19 14 28 21 20 25 17 29 15 25 22 15 24 21 29 29 23 19 26 19 23 21 31 20 21 25 25 21 23 23 21 26 17 26 14 18 20 24 20 18 22 22 24 18 24 18 21 23 19 16 28 27 18 20 26 22 21 20 17 16 19 20 21 22 23 32 21 27 20 18 29 19 33 17 26 20 14 20 17 26 12 20 22 24 27 23 24 24 21 25 26 13 20 24 21 19 19 24 23 21 22 18 15 20 23 30 20 12 19 21 19 27 21 18 28 29 20 18 29 25 20 25 21 24 16 21 23 19 25 22 27 25 27 22 21 19 19 24 24 18 23 15 22 19 22 22 21 22 24 25 20 24 21 23 24 17 26 20 24 21 15 19 16 22 16 19 21 20 19 12 19 21 20 23 19 17 22 22 21 15 20 22 15 18 16 14 25 31 17 16 22 29 23 21 24 18 24 18 14 21 16 20 26 19 26 20 23 20 23 20 23 16 19 22 18 23 19 19 15 23 21 19 23 22 21 21 22 25 24 13 19 28 16 27 18 26 28 21 27 17 23 19 19 20 28 22 23 20 21 29 19 23 15 20 19 23 29 22 20 31 28 21 19 23 14 15 22 25 16 18 25 24 19 18 16 19 13 21 20 15 24 19 19 20 26 25 20 19 17 18 24 27 23 30 18 27 23 18 25 24 25 22 22 20 18 22 19 21 16 11 20 18 17 23 24 21 30 18 18 18 18 23 20 22 20 24 22 23 23 19 19 28 15 18 17 14 19 23 23 22 27 18 21 18 26 33 27 21 15 26 17 26 22 16 23 19 22 22 18 24 20 23 23 15 21 22 22 14 21 21 22 16 23 25 21 15 28 27 20 17 14 21 23 23 17 20 24 19 21 16 28 22 15 22 16 30 24 17 15 24 19 14 25 24 16 19 26 19 16 20 27 22 16 22 23 17 21 20 24 14 20 22 20 26 21 22 14 18 17 23 24 29 18 29 21 18 23 19 25 29 16 24 22 10 28 28 27 15 23 20 24 24 22 21 19 19 18 24 28 17 24 18 22 23 16 19 22 16 20 29 16 20 29 26 25 25 18 30 20 17 28 29 12 9 24 25 24 26 25 22 23 21 25 22 17 29 19 23 22 24 11 20 19 20 22 15 28 20 22 23 21 23 21 24 25 33 17 22 22 18 22 26 25 19 20 19 21 14 25 25 26 26 19 23 19 23 16 15 31 22 31 18 22 21 15 20 34 29 20 20 27 19 19 16 21 23 25 18 21 19 15 19 17 21 14 22 18 21 17 16 23 25 11 24 31 20 17 17 28 26 27 21 21 24 17 17 18 31 29 23 22 23 15 19 23 25 14 27 26 18 24 11 26 25 26 15 24 20 12 14 28 14 18 21 22 25 20 21 18 19 22 26 24 25 15 15 21 22 17 19 18 24 27 22 20 28 26 21 23 14 18 21 18 23 21 26 16 15 25 18 19 25 18 27 19 26 22 26 26 21 22 23 24 24 26 25 23 31 24 21 25 20 28 13 13 20 31 16 22 16 16 21 25 23 20 23 22 24 20 23 22 25 22 23 28 19 28 20 27 21 26 17 24 19 25 16 15 20 21 20 21 23 32 21 20 19 19 27 23 22 23 28 19 31 22 28 24 18 13 17 21 23 27 24 24 16 24 25 21 13 24 25 19 25 24 33 24 17 22 29 21 20 21 27 26 23 23 20 25 21 12 26 26 20 21 15 20 18 22 27 26 17 26 24 26 24 18 24 23 21 20 21 23 25 22 21 30 20 21 22 24 27 17 25 19 28 27 21 17 25 22 23 18 15 17 26 18 30 19 27 19 26 25 19 21 19 20 22 20 24 21 17 22 22 28 21 24 19 29 16 29 14 24 16 18 16 29 25 20 25 15 22 25 22 24 21 17 20 24 28 20 23 29 22 17 28 22 27 24 23 25 23 21 23 24 28 20 25 25 21 16 19 23 19 26 20 36 29 24 18 19 20 21 13 19 23 26 20 19 21 22 16 18 21 28 22 25 22 24 17 21 19 18 23 14 19 22 21 33 20 23 16 15 19 23 23 20 24 16 21 22 25 18 20 24 19 21 30 27 23 28 23 23 18 14 22 20 17 24 20 21 22 19 23 24 26 23 25 26 17 28 17 18 12 15 21 18 18 21 21 26 17 23 19 20 23 20 28 24 28 17 27 17 19 24 21 21 19 37 11 19 25 23 25 21 20 19 23 21 14 21 19 22 34 23 20 21 32 25 24 17 20 25 20 18 25 21 16 17 17 21 21 17 23 20 26 17 25 28 23 24 25 23 23 18 24 17 18 25 23 14 18 24 25 17 21 19 22 24 21 25 24 21 15 22 22 26 17 18 25 34 27 23 21 18 15 15 22 22 30 20 24 25 22 16 14 18 19 25 17 21 18 18 19 24 17 24 17 22 21 21 17 18 10 20 23 28 22 24 20 17 23 24 14 24 24 26 20 20 25 29 18 20 22 22 16 23 23 29 15 22 21 21 31 16 13 27 24 27 20 20 17 18 19 19 20 24 20 16 20 18 21 22 22 25 23 25 23 15 23 22 24 27 24 24 27 20 22 20 22 28 21 26 22 20 20 22 23 25 29 18 24 23 16 23 20 26 23 27 19 12 14 22 26 30 23 12 25 26 25 22 12 19 19 21 24 21 24 22 17 24 17 21 21 18 26 23 24 18 18 26 22 27 16 20 21 14 24 21 16 23 16 24 14 15 23 18 14 18 22 22 24 26 14 21 31 11 21 19 19 18 25 21 17 17 21 16 24 20 26 22 19 22 20 24 21 23 21 15 24 25 20 24 20 30 24 25 28 23 19 13 16 15 23 26 20 20 26 23 19 16 29 29 25 21 19 17 22 28 11 19 18 13 22 21 23 20 22 25 19 20 30 29 24 23 25 24 27 26 20 20 25 14 21 19 18 29 20 28 17 26 24 25 25 19 24 14 24 32 19 21 15 21 17 11 27 18 23 22 21 28 26 17 18 26 14 20 22 22 15 27 22 24 32 17 17 17 25 21 22 22 22 18 26 14 22 26 24 22 20 22 27 31 18 23 20 22 21 26 24 22 27 12 24 25 20 19 24 18 24 13 21 25 15 21 20 18 22 24 17 21 23 20 17 21 25 22 20 21 22 21 22 16 17 24 27 22 20 28 18 21 21 19 19 22 24 21 17 24 22 21 19 18 21 30 17 29 27 18 24 22 20 25 23 22 23 13 25 24 19 21 20 16 21 21 23 19 23 21 27 16 26 19 27 20 17 19 28 31 20 22 23 24 17 20 23 13 21 20 14 21 25 18 18 22 19 22 21 21 17 22 20 15 16 27 26 29 14 26 19 20 17 22 24 23 25 24 22 28 23 24 21 29 25 23 15 20 22 24 22 15 23 23 18 19 29 18 26 22 18 18 26 23 25 23 25 20 21 22 13 20 29 13 30 25 21 24 22 20 27 18 22 20 17 29 26 13 23 33 14 18 17 18 15 17 23 18 19 19 26 17 20 19 18 25 30 18 19 23 26 26 23 22 19 19 31 22 18 21 34 24 26 19 21 16 23 23 23 18 24 25 19 20 16 19 25 22 22 17 30 28 18 21 20 15 19 26 21 18 24 22 25 19 18 26 25 26 24 15 17 30 27 19 25 21 17 19 28 22 21 28 13 20 25 21 23 20 16 25 23 24 25 17 17 16 21 23 29 26 25 27 16 21 26 22 24 23 20 23 26 27 15 25 20 15 16 17 20 31 14 17 18 19 21 23 16 17 18 21 28 21 20 26 16 13 24 19 17 23 18 20 19 26 21 18 26 14 20 20 30 19 23 23 24 20 24 27 18 26 22 28 16 20 24 20 19 18 18 18 17 19 18 19 22 30 23 29 14 24 23 21 25 22 25 17 18 21 22 20 16 28 20 27 20 25 26 21 25 28 19 20 26 17 29 18 25 17 22 20 23 25 25 22 20 18 27 17 23 13 22 25 25 15 17 18 28 24 31 24 19 17 24 21 31 26 16 18 21 18 16 18 25 22 22 12 29 23 24 24 14 17 23 17 22 26 28 18 16 25 23 18 26 19 17 23 17 20 24 27 21 24 19 22 26 19 26 33 22 22 27 20 24 28 12 19 24 20 22 24 16 20 17 23 22</t>
+  </si>
+  <si>
+    <t>JSU(-3.3132373743034433, 5.954232964190226, 15.014866551434991, 27.794553241916756)</t>
+  </si>
+  <si>
+    <t>23 39 33 33 37 34 30 35 24 35 28 31 37 26 30 35 37 33 28 38 35 25 29 23 32 33 35 37 33 42 30 32 29 34 38 33 26 30 34 33 35 29 32 24 37 34 28 23 30 28 33 45 36 27 26 25 31 24 32 35 45 26 36 23 41 32 38 28 36 39 31 28 23 30 27 44 34 31 34 33 32 30 29 28 25 28 42 38 33 45 29 39 33 27 29 42 29 36 28 36 26 31 41 25 31 33 30 32 33 38 30 30 26 38 27 43 48 35 31 34 21 27 23 40 29 38 29 30 42 44 30 39 32 27 30 26 39 38 30 39 34 23 32 29 36 32 34 24 35 32 25 31 29 30 34 32 24 30 40 36 43 27 34 27 33 43 35 32 25 29 39 25 28 31 36 30 30 38 18 22 39 21 33 28 30 25 38 23 25 28 26 32 34 30 26 32 27 29 34 35 35 24 38 37 40 26 22 38 26 33 30 23 35 33 36 31 39 35 26 41 33 29 29 21 30 29 32 35 30 34 27 33 37 42 29 35 28 34 34 27 39 36 39 33 26 29 37 34 27 27 26 29 23 25 35 31 32 25 22 22 39 37 38 34 20 36 37 35 27 20 35 47 38 28 31 36 31 30 21 33 46 28 32 24 30 34 32 29 29 35 28 43 29 27 43 25 35 34 37 40 42 44 35 31 33 29 38 30 32 40 36 31 24 32 33 27 24 26 26 23 33 38 29 38 30 31 44 36 40 23 34 35 35 23 35 32 36 23 26 27 23 25 32 31 29 31 44 34 27 34 32 28 47 32 30 31 37 28 35 27 28 30 23 28 33 29 27 35 28 36 23 39 24 37 20 40 30 30 51 29 32 25 29 29 36 29 35 27 45 23 33 37 27 25 33 28 26 25 30 32 24 42 34 32 33 31 32 22 40 30 29 40 25 38 31 40 43 30 34 37 32 18 39 24 33 27 38 36 42 33 34 30 25 39 32 30 22 26 36 30 29 31 39 25 23 30 27 42 28 32 24 38 34 28 35 30 30 25 40 32 26 18 26 34 23 33 27 38 33 32 33 24 28 27 32 24 27 22 29 33 28 21 29 35 34 38 27 36 28 22 29 34 30 34 28 33 31 33 37 35 38 34 29 31 37 35 24 37 34 38 29 35 39 23 29 25 37 35 21 32 33 34 37 36 25 33 21 35 29 27 34 21 26 30 22 38 34 27 31 27 40 36 33 21 26 35 31 30 35 24 34 37 27 30 35 27 33 41 32 36 22 28 30 19 25 25 29 38 41 25 23 23 36 35 31 33 42 33 32 38 39 33 38 16 25 39 39 27 28 39 28 36 44 34 44 39 43 28 33 24 22 26 27 32 24 26 23 38 40 34 30 32 25 25 28 33 27 29 30 28 28 41 37 31 32 44 27 35 38 34 25 33 36 25 26 29 25 23 38 29 30 25 31 37 31 31 32 26 36 30 33 27 31 33 35 35 26 38 35 30 50 36 23 34 28 33 42 36 27 33 30 28 26 28 20 31 38 34 35 31 28 32 26 29 33 31 32 28 32 26 34 31 35 33 18 37 33 30 36 39 27 41 35 29 29 35 37 27 29 38 36 28 34 43 32 33 27 21 29 32 30 30 28 21 40 35 28 25 27 28 27 29 31 40 29 26 33 30 30 33 31 26 32 27 24 28 37 39 22 37 36 34 22 34 35 28 35 35 40 34 35 38 25 36 27 30 27 37 29 32 33 36 30 31 18 33 22 32 38 35 34 27 27 31 29 31 29 40 31 27 32 24 27 32 38 36 31 26 40 25 37 35 30 25 29 30 30 32 21 40 34 28 33 21 34 36 23 23 32 33 25 30 36 29 38 32 36 28 38 32 24 30 31 30 33 28 34 24 33 27 39 34 43 34 30 39 34 36 36 28 36 31 45 34 27 30 33 38 29 30 31 31 31 38 27 28 26 47 33 30 27 23 31 34 26 26 27 33 36 42 25 26 22 31 37 30 41 39 30 32 29 27 24 34 32 39 36 31 33 34 31 35 34 32 26 30 32 34 32 29 31 25 36 31 30 27 37 24 31 44 32 33 35 45 24 30 31 32 27 32 24 29 27 33 29 30 33 21 34 27 34 25 26 28 36 40 35 36 31 34 32 41 32 37 27 33 28 31 34 34 39 31 38 34 25 28 27 32 31 35 22 29 28 38 30 30 30 27 26 27 31 22 35 24 28 36 30 24 36 27 36 33 26 36 30 39 29 31 36 28 30 31 32 23 36 40 33 23 36 36 33 33 46 28 36 33 27 23 39 34 27 35 22 31 32 29 30 40 40 31 29 28 31 24 27 25 31 36 24 30 27 26 28 31 37 33 32 26 37 26 36 32 33 40 32 31 31 24 39 22 34 31 28 39 23 31 35 27 33 30 31 30 30 25 40 33 26 31 31 34 35 30 26 30 46 35 32 42 28 25 27 25 26 16 32 34 31 34 29 28 26 35 25 25 29 38 30 27 25 31 34 28 44 28 40 37 31 25 30 34 29 23 30 25 28 29 40 34 33 25 31 24 34 28 24 36 27 41 26 34 22 27 27 30 30 28 36 30 31 32 25 31 37 32 30 25 33 31 29 28 32 35 37 33 37 24 30 29 35 29 35 31 36 27 32 26 35 29 25 35 27 34 33 41 27 37 27 34 34 35 43 40 34 31 34 34 32 31 34 31 34 28 35 36 22 29 27 23 33 31 28 29 30 33 29 28 37 32 21 25 31 34 45 37 36 32 32 32 42 33 33 24 28 34 35 41 29 35 27 41 26 38 25 34 34 31 38 30 25 26 30 28 41 30 30 34 32 29 41 28 34 34 24 38 40 32 26 35 37 26 20 32 37 23 24 32 29 36 28 33 33 31 23 29 47 27 32 39 37 39 28 20 28 28 33 37 33 32 23 31 31 29 32 29 43 28 34 37 37 30 24 27 47 31 37 26 30 44 27 26 29 28 47 32 31 31 40 27 20 27 34 31 20 38 38 25 30 20 34 43 26 24 27 33 37 45 37 33 27 26 32 33 29 20 34 23 34 35 36 22 40 36 38 29 39 34 27 37 27 33 30 35 31 39 37 34 27 30 25 28 28 33 32 25 30 28 31 32 27 38 28 32 27 30 31 31 36 37 35 37 35 24 16 32 30 23 21 27 36 37 23 26 36 28 36 45 28 36 29 35 32 36 25 32 26 24 29 31 43 30 27 31 30 30 32 34 39 29 40 25 32 31 33 31 38 32 33 34 28 22 30 27 34 37 20 40 27 32 39 29 34 37 30 37 28 27 35 31 40 27 29 31 40 24 25 33 30 31 28 32 31 19 43 38 25 35 38 33 37 34 31 35 26 29 23 23 39 32 30 30 27 30 28 28 34 33 20 33 33 30 35 29 38 34 35 27 36 34 27 24 24 34 23 26 30 35 39 27 39 32 31 35 35 32 31 31 28 27 33 31 33 36 36 30 32 38 26 33 37 34 37 24 26 24 22 39 29 31 33 35 26 31 30 34 36 34 30 44 30 32 30 30 37 28 30 33 33 30 36 39 43 27 40 30 32 41 39 32 32 35 24 33 25 46 30 36 29 24 33 28 25 40 26 46 33 43 36 23 30 30 24 30 32 31 37 32 27 21 33 30 35 41 31 32 29 42 38 26 31 26 25 35 21 27 28 33 34 30 51 28 33 30 30 27 29 31 41 42 24 33 33 28 18 31 32 27 34 32 31 22 33 29 35 30 42 33 37 35 23 25 31 27 41 23 26 33 32 38 43 27 32 33 33 28 39 39 40 37 36 30 29 32 30 30 34 24 38 27 38 27 20 35 27 35 26 28 33 33 31 26 33 26 34 32 33 36 35 26 32 33 32 30 27 26 31 31 29 46 39 35 25 34 39 30 22 33 30 39 41 24 28 32 43 27 23 36 27 32 26 31 30 29 28 26 33 36 26 32 23 29 31 41 30 34 35 45 37 21 32 29 28 30 25 34 34 26 28 30 31 25 45 32 32 38 35 37 43 34 35 29 22 42 22 34 25 23 37 24 26 31 30 26 34 37 22 35 21 21 32 24 34 20 37 30 35 32 28 36 29 39 26 24 30 27 28 28 31 40 35 19 36 26 31 44 35 25 38 39 33 22 35 29 44 24 34 30 35 42 33 41 33 34 30 30 32 32 37 27 28 33 33 27 35 29 30 35 28 24 25 35 43 29 23 28 26 34 32 33 22 37 35 35 25 33 29 37 35 27 36 34 30 28 26 27 37 31 36 34 32 39 28 33 37 21 37 28 43 37 43 27 24 18 33 26 32 35 33 36 25 45 37 35 29 36 35 29 20 34 26 42 30 35 34 34 28 33 37 28 34 38 24 35 36 32 31 41 35 29 29 36 40 29 34 35 27 30 34 39 23 28 34 38 39 31 27 28 32 35 34 31 29 32 24 30 35 31 32 23 38 29 45 22 38 37 35 24 29 29 26 36 31 40 38 30 28 21 25 34 32 27 23 29 47 27 41 29 31 37 39 30 33 33 40 28 40 29 34 36 19 35 33 29 31 29 26 25 37 34 33 34 23 32 24 25 27 19 30 37 36 26 41 28 33 23 31 37 29 37 29 36 34 30 34 31 20 32 31 29 31 27 21 39 24 38 37 29 31 32 34 31 31 31 33 32 33 18 27 34 32 30 31 34 30 31 27 35 32 27 33 36 31 31 30 35 30 33 41 36 31 33 14 37 28 33 34 51 41 39 33 34 27 33 31 33 27 31 28 33 24 25 26 32 27 38 28 28 36 31 29 23 32 24 39 25 34 36 30 35 33 33 29 27 34 25 31 36 36 35 43 18 31 33 28 39 34 31 34 21 35 38 26 29 26 31 32 24 33 34 30 25 23 29 32 31 32 23 25 29 27 29 27 34 24 22 36 35 23 20 36 26 32 42 27 29 26 29 28 34 26 37 32 33 29 32 29 30 37 35 28 29 28 44 33 26 30 32 31 32 32 41 26 34 34 31 51 36 29 28 46 27 30 38 25 40 27 33 31 33 33 36 36 32 34 36 37 35 25 36 31 32 30 37 35 22 32 43 22 28 33 31 29 26 29 23 28 41 24 23 23 39 32 35 28 38 33 27 28 31 39 31 28 29 39 35 37 30 30 29 32 33 41 47 41 32 24 35 23 29 26 36 28 41 27 38 29 29 33 31 28 21 33 24 25 27 32 32 24 27 29 40 29 32 25 37 35 31 33 27 28 33 33 40 43 30 25 34 30 34 27 28 34 31 26 31 28 39 33 26 27 18 34 37 43 27 37 25 35 26 24 28 29 26 33 19 37 32 30 38 37 32 31 32 27 35 28 37 22 29 24 36 25 32 27 30 29 32 34 27 27 40 29 32 41 26 31 32 28 27 44 35 38 31 27 31 25 30 41 27 23 37 34 32 37 30 36 37 43 23 39 32 30 39 26 24 27 25 32 26 40 32 41 31 38 31 39 27 38 27 32 29 36 29 26 42 38 31 25 32 39 29 28 31 25 29 28 37 27 33 31 37 41 25 26 25 34 29 32 38 36 31 48 36 20 39 37 32 27 33 29 27 37 36 28 30 32 28 25 32 31 29 26 36 39 26 28 30 37 30 31 30 24 25 26 29 40 31 31 33 26 35 41 44 29 30 29 37 36 30 31 34 28 26 28 37 28 26 33 46 34 38 31 29 35 30 38 30 37 29 29 25 16 29 31 28 33 34 27 30 31 39 32 44 35 35 32 28 29 26 32 28 27 27 36 36 29 30 33 20 35 30 28 22 23 35 24 26 30 25 24 29 46 35 33 32 35 37 40 29 34 35 26 24 41 26 36 28 35 32 25 33 40 33 45 38 32 25 39 38 32 25 34 23 32 28 23 34 33 39 25 25 27 44 33 25 36 32 30 25 25 31 44 42 26 30 33 29 30 34 34 35 33 30 34 24 32 34 39 24 34 35 33 30 29 26 36 32 33 31 34 25 25 33 25 27 35 38 28 44 38 27 29 33 31 26 31 31 26 34 22 34 22 30 40 19 38 32 35 34 29 35 29 30 51 28 37 34 33 36 27 27 30 31 36 32 20 25 36 34 32 23 36 27 41 22 33 28 32 27 36 22 34 35 34 31 23 25 27 31 37 46 28 21 25 31 35 47 32 32 37 27 24 37 31 35 35 26 27 35 41 29 27 24 32 33 31 31 38 36 25 31 35 37 39 37 34 31 33 26 42 27 28 26 36 35 28 24 37 26 33 26 43 32 39 20 47 28 44 33 28 30 34 24 30 25 43 33 28 30 34 21 24 26 35 35 35 23 34 23 26 31 25 24 30 26 40 34 26 28 41 29 20 30 36 26 28 26 24 21 32 31 24 27 42 39 32 24 33 34 26 41 33 30 27 23 24 23 27 35 32 35 30 31 26 37 36 35 25 40 43 23 32 51 20 25 28 26 26 24 32 34 40 35 37 28 27 24 32 35 34 35 39 34 26 33 22 29 31 38 19 29 36 29 31 25 41 33 29 31 27 27 17 26 35 38 31 24 31 35 33 29 32 33 36 30 30 28 36 34 44 31 35 31 30 31 44 31 24 36 33 17 15 39 30 22 17 40 37 20 28 37 34 22 32 24 26 26 21 28 22 33 29 19 31 26 27 38 28 33 23 30 34 24 30 38 40 30 29 29 37 18 27 27 29 34 31 27 29 32 35 31 29 44 33 32 31 23 34 36 24 35 25 39 35 33 29 25 34 26 28 35 21 32 34 41 29 29 31 30 37 28 36 34 26 26 34 30 33 31 24 31 27 29 28 25 27 35 34 25 26 30 25 35 27 26 33 41 25 24 26 35 30 37 26 41 33 33 28 27 37 36 18 32 39 29 34 29 32 44 29 23 32 31 40 18 27 31 35 31 51 22 32 25 31 35 31 35 32 31 35 37 22 33 24 35 26 24 26 31 35 30 28 27 22 32 23 32 39 34 34 36 36 31 32 39 34 30 28 24 46 37 28 31 36 28 33 34 43 29 38 32 35 29 30 27 37 33 34 24 27 32 32 36 49 23 30 31 27 35 29 27 23 23 28 38 27 38 28 25 29 32 31 27 31 25 33 30 21 32 38 31 32 34 27 32 30 27 29 23 35 30 26 34 26 28 27 30 25 37 41 39 31 35 36 28 39 27 30 25 40 25 25 24 26 34 26 37 34 39 34 28 37 33 25 32 31 31 29 34 36 32 42 27 31 28 37 31 30 23 32 24 27 40 33 31 24 29 29 39 29 30 34 34 38 39 29 24 31 30 34 39 29 39 26 31 20 31 34 36 39 29 27 40 26 31 26 26 32 31 32 24 36 30 28 31 28 30 32 42 26 33 38 32 32 28 27 24 35 30 39 29 39 33 30 47 29 27 34 36 24 28 24 32 43 32 32 31 35 34 37 33 35 41 30 41 19 27 28 20 24 32 39 32 35 32 32 39 35 26 33 41 31 22 33 36 38 31 30 27 31 29 28 37 32 28 23 29 32 39 27 34 34 32 32 34 42 32 29 24 29 39 24 26 22 32 22 36 33 30 29 37 30 31 27 33 32 32 38 32 33 41 31 26 18 25 31 29 43 25 41 29 29 37 36 31 29 41 33 35 28 37 29 28 29 35 37 34 33 34 40 36 28 30 36 39 27 22 28 36 36 31 30 40 33 36 37 37 34 34 34 33 38 25 42 34 31 24 26 42 27 38 26 36 29 25 29 22 31 31 26 28 36 24 22 25 31 33 29 34 47 35 36 39 23 30 45 30 27 28 30 37 36 28 34 21 23 36 36 31 30 41 42 36 32 32 28 29 31 35 23 35 29 33 43 46 19 31 36 21 35 27 25 33 28 33 39 25 26 36 28 25 29 28 31 28 29 33 22 40 38 31 26 32 33 32 35 33 36 28 28 28 39 23 35 32 36 37 37 35 42 39 33 24 24 21 33 22 40 29 22 37 35 28 26 42 28 35 27 30 39 31 32 44 40 31 35 27 26 39 29 31 37 32 31 21 35 33 29 32 24 31 33 21 43 34 23 26 33 28 40 26 26 25 32 36 29 28 29 25 35 33 28 31 32 34 28 28 30 30 31 25 38 43 34 32 35 27 34 27 36 31 32 33 31 30 30 30 36 23 35 21 28 30 32 32 39 36 33 27 37 28 38 34 32 38 36 35 37 23 29 37 36 19 28 24 36 44 27 25 29 29 32 32 41 27 30 22 37 26 30 35 31 27 20 40 25 29 31 27 31 32 37 21 26 31 35 27 31 27 38 27 35 31 27 34 37 28 32 26 35 29 29 26 31 37 29 31 36 51 39 31 28 33 24 29 35 28 26 36 21 32 28 29 33 36 28 38 44 25 32 21 23 35 20 25 30 29 44 27 29 32 20 38 28 30 26 35 21 34 31 28 37 35 37 35 33 31 31 21 34 37 30 35 26 31 37 28 31 49 28 24 40 39 35 26 45 22 34 39 39 24 32 39 30 28 27 31 27 40 47 36 32 31 35 36 29 29 30 44 29 38 38 29 36 30 34 30 37 28 35 37 29 36 27 33 37 43 28 39 34 32 31 32 36 32 31 33 30 31 31 23 29 22 26 26 31 36 35 36 30 25 29 32 34 21 21 30 25 28 35 38 36 40 35 39 27 33 31 22 29 33 44 30 30 32 29 38 21 27 36 35 36 32 35 36 32 33 20 32 31 24 35 25 36 40 43 31 35 36 31 33 39 29 26 38 29 24 29 29 30 28 27 28 35 24 36 38 30 36 34 23 27 36 29 30 30 35 30 32 27 21 32 32 47 33 41 38 42 26 33 34 33 36 27 31 30 33 31 48 30 36 27 36 30 34 31 25 29 31 35 32 20 40 28 40 33 28 29 29 31 34 32 34 43 37 29 44 28 37 33 27 38 31 34 28 32 28 30 39 27 41 34 50 33 30 36 26 28 31 33 33 37 33 34 24 36 34 33 28 21 47 35 33 29 27 41 28 22 34 23 31 48 27 33 33 31 27 30 34 35 28 33 41 37 24 24 36 30 30 23 31 22 20 35 38 45 25 38 33 34 27 33 31 37 35 35 32 29 36 42 31 41 41 35 41 36 24 31 30 27 30 36 23 22 26 27 25 34 29 30 31 25 27 34 35 28 32 28 34 30 31 35 30 40 27 38 27 37 38 32 30 40 29 34 28 29 24 24 35 35 30 39 26 30 36 45 35 36 29 27 28 24 37 28 41 33 42 44 26 26 28 31 32 37 21 31 15 24 32 29 45 37 38 29 21 31 29 40 35 45 32 28 38 26 32 34 40 22 35 35 22 30 33 26 30 25 32 40 31 27 28 31 36 29 35 33 38 32 33 39 27 37 31 32 34 20 39 40 28 19 30 36 31 27 34 36 30 25 31 28 38 37 31 23 29 31 21 22 27 39 31 29 38 42 28 29 31 34 28 36 31 30 31 30 33 38 33 31 28 38 31 27 31 30 41 36 34 29 30 31 36 37 33 28 33 40 27 33 30 36 27 34 34 32 32 27 25 35 40 27 31 28 27 30 30 35 31 39 37 41 36 37 30 27 28 33 30 32 32 23 22 28 27 28 33 28 30 35 29 28 25 39 27 21 32 34 37 26 33 38 41 21 27 27 26 28 41 40 20 28 34 35 27 37 32 34 29 30 32 25 30 34 39 36 28 36 28 33 40 24 25 36 32 19 21 38 31 38 15 24 34 35 29 29 30 30 29 29 39 26 24 31 37 31 33 24 29 39 35 23 30 39 20 33 36 32 31 33 32 35 30 28 24 29 29 31 29 23 30 32 29 31 32 26 27 36 41 33 38 26 28 45 26 34 28 31 32 32 32 33 27 32 34 34 24 27 34 34 27 29 29 27 39 34 29 26 32 24 26 31 19 32 35 32 23 31 27 28 40 41 28 33 36 36 33 25 31 30 28 34 26 33 31 38 28 20 43 31 34 19 27 28 32 32 34 30 40 25 38 24 29 30 27 44 17 25 41 35 35 29 33 31 36 32 46 37 35 38 31 28 38 36 43 29 29 39 27 32 38 32 25 27 24 41 30 32 44 29 32 33 25 32 37 32 31 30 32 26 39 34 29 33 26 28 37 35 33 31 29 30 44 31 26 35 31 30 26 36 41 24 30 37 30 53 29 34 30 36 34 26 31 32 26 35 31 36 34 33 41 25 37 32 36 31 25 28 28 17 39 32 37 34 24 31 26 31 32 29 28 22 27 30 27 36 30 26 31 18 27 26 38 35 36 26 34 30 27 33 28 40 32 25 25 23 30 41 37 24 30 33 31 22 31 34 32 34 29 32 23 35 44 31 34 36 40 24 34 29 31 31 31 26 26 35 30 24 31 25 43 34 24 35 29 31 32 25 27 32 31 31 31 33 24 34 32 32 43 21 55 25 30 32 34 29 30 36 32 34 29 28 26 30 28 44 34 46 42 33 29 33 31 33 37 26 24 32 30 20 39 25 28 30 34 41 33 40 39 40 32 18 32 32 30 20 36 37 41 28 27 31 31 25 35 34 32 35 41 25 31 33 31 31 34 33 39 29 36 36 30 24 30 29 24 26 30 35 35 44 32 42 36 31 37 36 29 31 36 34 31 39 34 25 28 23 41 32 24 28 32 22 32 28 30 27 37 23 32 41 24 29 34 29 28 25 31 35 34 25 36 32 37 51 27 32 40 35 32 31 26 20 20 28 24 24 28 27 41 33 28 33 29 32 31 30 30 30 34 26 39 38 28 28 25 30 25 24 30 27 33 33 22 33 35 33 33 34 27 32 28 39 27 38 26 41 32 38 28 44 29 41 29 22 30 33 30 34 37 26 26 31 28 24 25 38 26 25 29 37 38 34 30 28 34 20 34 32 36 45 35 23 29 34 45 25 35 37 29 33 40 31 28 31 35 37 31 34 33 34 28 47 31 25 44 33 34 33 29 31 22 49 30 28 29 34 25 39 26 39 30 29 32 28 44 48 27 38 30 31 26 38 19 33 35 33 43 38 31 27 43 22 34 40 29 33 28 32 28 32 41 27 31 30 38 27 35 30 38 28 37 29 29 28 40 32 34 33 29 23 32 35 37 34 33 27 40 32 36 40 37 30 26 36 36 31 36 24 25 34 29 32 30 36 30 29 41 22 26 29 30 31 34 34 34 18 23 31 39 33 36 32 32 40 25 32 37 37 47 36 26 30 32 18 26 32 31 34 34 33 40 33 19 37 31 38 30 32 35 31 34 28 39 28 35 38 28 18 43 41 43 28 30 33 25 31 24 37 41 25 28 32 32 37 33 30 36 39 57 40 29 37 34 25 40 29 32 31 26 32 27 33 42 30 38 34 22 25 33 30 24 33 30 32 27 29 21 29 32 25 27 39 33 35 34 29 19 30 25 34 36 32 25 38 39 28 27 39 30 30 42 32 24 32 37 36 26 28 34 42 31 31 21 31 46 37 30 35 36 38 32 30 34 26 31 28 43 38 37 32 35 35 32 31 31 19 25 36 38 31 39 28 30 27 46 36 24 31 35 26 36 30 25 28 35 31 36 38 35 34 35 30 32 28 32 26 23 28 30 27 21 32 34 41 34 21 36 35 26 26 36 36 26 37 25 34 37 47 35 25 28 27 29 39 26 31 35 37 39 26 28 38 43 23 24 30 35 36 23 35 36 34 32 31 32 44 27 35 33 31 34 32 29 41 36 33 17 30 33 30 26 25 30 38 29 33 32 32 29 46 36 35 36 28 29 33 29 29 37 28 27 31 35 30 29 30 22 42 36 24 36 30 27 38 23 31 31 36 33 30 21 25 41 34 37 26 23 28 27 34 33 34 29 37 30 23 32 34 28 36 32 41 30 37 30 33 36 28 27 26 32 27 29 44 30 39 44 32 26 26 24 35 35 36 30 35 38 32 43 26 30 26 34 39 30 40 41 29 33 36 38 23 30 28 30 39 31 28 39 41 26 27 26 32 35 32 25 27 35 21 31 42 28 25 42 29 34 35 27 30 42 31 24 25 26 31 34 36 42 19 33 30 28 27 28 24 26 33 32 33 29 43 29 36 32 31 36 25 22 26 16 29 26 28 20 21 45 24 33 32 30 21 25 24 29 29 37 22 32 28 31 32 32 37 39 41 26 30 34 29 35 31 33 34 26 36 31 31 26 25 30 25 45 28 19 35 27 34 27 36 24 37 32 30 37 32 29 27 28 21 46 31 34 33 27 37 23 27 29 26 28 22 35 31 34 30 41 21 29 31 32 31 32 26 27 25 21 37 35 29 39 40 35 33 37 30 51 36 23 31 36 34 36 32 20 36 33 24 32 29 34 33 23 30 30 28 29 38 34 27 35 30 33 20 35 27 24 36 35 25 36 46 31 43 37 31 33 44 32 33 31 25 31 30 37 37 36 28 40 30 31 29 32 32 33 21 36 25 39 32 35 28 31 33 40 32 30 35 27 31 39 38 36 21 34 36 35 23 36 28 34 34 28 29 40 36 32 26 33 34 32 33 27 29 32 36 31 25 31 42 30 36 37 32 21 27 44 36 27 43 38 32 26 28 31 32 36 32 35 28 37 35 25 40 41 35 30 31 34 33 34 40 38 23 42 31 41 27 30 32 29 25 27 35 32 25 23 36 29 37 32 31 27 30 28 30 37 33 34 31 31 32 25 27 26 26 38 24 25 25 34 34 32 34 34 33 30 40 28 38 36 28 28 36 26 33 37 37 32 32 27 24 25 37 31 33 41 21 30 37 26 21 24 34 33 30 30 39 28 40 41 25 29 30 35 32 35 27 30 28 22 29 38 26 26 38 28 35 31 32 32 35 32 32 43 31 41 32 37 37 35 32 31 31 26 31 27 25 34 31 31 34 34 26 28 32 29 39 29 38 40 26 29 20 30 27 34 31 27 31 36 36 28 35 27 32 30 42 33 41 34 25 36 25 23 36 31 27 29 27 27 47 38 35 28 42 27 21 33 31 21 26 33 36 27 39 33 36 24 27 26 35 36 35 30 34 30 32 31 30 31 29 29 24 25 24 26 41 34 25 38 24 24 29 31 33 37 21 23 31 36 26 32 34 46 24 24 24 35 26 31 26 33 45 30 26 32 39 33 32 28 33 34 37 33 35 33 26 28 33 33 20 35 31 30 35 29 35 25 30 25 30 31 27 29 33 25 34 31 29 29 32 30 30 28 33 32 30 35 35 35 39 32 36 40 37 26 35 32 30 23 33 48 28 39 35 31 43 28 39 30 24 28 23 33 27 30 30 26 32 24 33 30 30 36 25 25 31 29 37 30 30 30 34 43 32 30 26 22 34 20 29 47 31 24 31 36 25 30 36 34 33 37 25 27 30 25 28 31 22 30 30 27 35 32 28 24 30 24 30 27 26 30 32 33 41 25 24 28 27 34 28 27 25 33 37 31 39 41 32 33 38 25 42 35 40 33 41 42 26 28 23 30 39 39 36 25 30 28 29 30 26 29 35 28 33 34 37 39 30 40 31 29 28 33 23 30 39 30 25 32 32 23 32 34 20 35 29 21 35 27 28 32 25 33 30 28 30 29 37 34 32 29 44 37 36 37 44 30 33 32 31 34 31 27 37 32 31 41 45 32 26 35 32 43 28 30 41 31 34 34 33 33 33 32 28 35 28 31 27 29 28 29 33 43 22 22 28 25 23 32 34 34 35 36 32 27 40 39 29 31 34 28 27 29 25 25 27 24 27 31 36 28 31 31 34 31 30 31 36 33 34 30 22 34 26 29 26 29 32 38 39 34 32 30 43 25 30 23 24 40 30 37 23 37 38 37 36 28 28 26 34 26 34 36 37 32 32 45 33 33 26 37 38 39 29 21 36 29 30 29 33 34 28 30 34 28 30 35 33 40 27 38 38 33 22 34 28 32 37 31 37 25 28 28 26 34 35 31 31 35 36 30 31 19 22 30 25 30 32 34 31 31 30 32 32 34 30 25 30 31 27 31 39 27 31 25 31 31 37 34 35 25 28 29 33 30 34 26 31 34 30 26 34 36 35 29 33 28 32 26 33 29 40 34 29 31 25 32 34 37 35 27 26 35 27 26 32 28 35 38 34 33 36 26 35 37 35 32 33 32 38 41 36 24 35 28 34 33 43 31 28 34 39 26 35 31 32 38 26 30 31 35 26 28 32 35 30 27 30 38 21 32 32 37 31 25 33 37 32 23 31 31 40 25 33 34 26 32 27 31 26 29 34 32 28 20 31 27 34 26 31 27 32 31 33 27 33 51 30 30 30 29 28 30 39 26 38 26 27 25 31 36 29 30 28 40 35 36 25 43 33 28 24 24 42 36 29 35 28 30 37 26 41 30 20 41 46 28 22 41 30 32 30 25 25 29 24 25 31 29 41 24 36 38 32 33 31 37 28 27 25 27 36 31 35 32 41 31 31 35 38 30 29 31 34 36 19 35 26 29 40 34 27 34 30 30 28 25 44 30 33 23 24 26 29 31 27 26 35 23 29 40 30 36 34 21 29 37 24 32 36 35 34 27 35 35 36 28 35 21 37 24 27 30 23 42 29 36 43 33 26 29 28 21 30 28 35 33 41 29 41 33 35 30 34 34 36 36 41 27 35 24 32 32 29 33 39 25 37 25 35 32 26 42 31 37 33 20 39 26 31 30 34 23 27 37 31 36 39 36 37 33 22 30 30 32 33 34 31 26 34 36 38 33 28 29 30 27 37 23 30 30 42 30 35 25 25 33 26 35 40 28 32 27 31 23 36 30 32 27 38 21 30 31 40 21 30 21 35 32 22 38 29 40 23 40 31 28 37 28 26 37 24 28 34 35 35 24 38 32 35 21 39 34 43 32 27 19 31 47 32 22 35 29 33 38 34 27 35 34 30 26 37 35 32 40 34 33 26 24 30 34 45 31 36 39 38 24 27 32 27 31 27 41 30 27 27 29 25 33 34 36 26 36 36 30 34 35 33 29 38 32 32 24 37 34 31 34 31 25 23 26 26 36 27 26 32 24 27 37 29 31 37 29 31 28 33 36 25 37 36 32 38 28 27 20 29 32 30 22 46 36 37 28 35 33 26 28 30 36 44 32 34 27 33 35 30 32 33 26 28 32 29 29 40 37 39 36 32 39 27 33 28 38 33 27 31 33 33 29 32 32 16 38 32 28 35 32 32 30 30 36 38 33 24 25 36 40 36 32 36 36 30 32 30 26 35 32 41 26 26 30 28 23 40 25 30 26 37 35 24 33 35 27 40 27 34 40 33 31 37 32 33 37 36 31 32 33 27 40 39 29 31 48 29 37 29 32 29 37 28 33 42 39 26 37 29 31 42 32 31 36 24 37 36 31 26 28 31 32 31 32 34 27 33 32 28 39 35 26 30 27 19 36 29 32 32 36 29 32 19 40 21 31 36 28 42 25 37 29 36 34 30 21 40 28 37 27 34 29 29 42 29 35 31 33 29 29 37 30 27 26 21 34 29 36 33 27 32 36 40 43 39 39 37 31 27 36 32 27 30 31 32 42 26 27 47 40 36 30 31 40 34 23 30 23 34 37 27 28 36 28 33 28 30 26 32 25 31 23 22 40 37 35 32 34 32 29 33 31 23 24 34 27 36 25 31 23 38 28 24 32 44 31 34 42 29 20 28 27 41 30 23 46 28 34 34 36 33 38 35 33 30 31 31 42 40 35 34 29 43 31 38 25 39 31 26 28 25 34 38 25 30 26 27 34 41 27 26 43 24 27 30 28 22 26 31 34 25 38 32 33 35 34 27 26 33 32 41 36 36 25 29 19 26 49 23 27 41 30 28 23 24 30 30 27 37 24 38 30 30 32 31 29 30 38 26 31 34 31 31 33 28 31 34 26 31 34 36 37 29 35 24 33 27 36 33 36 30 25 31 27 27 25 32 30 35 22 30 28 32 39 29 40 30 44 35 26 35 29 30 27 28 28 30 27 38 27 43 37 26 21 29 37 31 23 28 37 27 27 37 29 40 26 36 30 35 36 40 29 31 28 26 34 26 33 40 28 31 22 31 29 36 31 41 28 32 34 33 27 40 26 33 25 27 20 32 37 30 33 19 44 30 38 35 34 32 30 23 36 37 36 35 20 27 29 20 26 35 26 33 32 36 37 19 33 37 29 40 26 24 28 26 22 23 39 38 28 32 34 30 43 35 29 32 27 38 32 27 32 26 35 27 39 36 31 31 33 39 23 26 41 32 35 29 33 26 35 33 26 33 30 36 29 34 35 29 30 20 33 35 37 31 34 29 40 29 44 31 22 38 24 37 35 38 23 35 36 37 36 39 31 33 32 39 31 26 29 26 43 27 38 25 29 38 33 26 32 25 30 29 32 29 34 34 35 32 29 36 24 37 37 34 28 39 27 29 26 26 42 28 24 32 26 31 40 22 33 30 31 34 29 32 35 42 30 27 37 34 32 27 29 31 27 36 35 29 35 29 33 33 35 38 27 42 33 40 31 30 30 37 40 35 24 29 21 35 32 28 33 36 26 25 42 32 30 32 43 32 33 35 29 29 29 27 32 30 27 33 35 27 27 26 29 32 32 33 44 25 33 29 44 29 37 36 36 37 28 24 38 26 43 31 24 29 27 29 34 32 30 29 34 34 30 43 27 31 43 38 35 38 27 31 30 25 44 34 36 27 29 39 30 34 32 32 30 37 29 34 30 31 32 32 26 36 22 25 33 32 34 30 29 31 41 26 25 31 24 31 38 27 26 43 35 33 33 29 30 30 29 22 28 25 35 25 22 37 29 30 26 35 32 34 22 22 25 31 26 29 36 37 29 30 41 35 21 23 38 33 27 22 29 25 35 40 27 32 32 25 25 35 20 23 33 37 30 41 32 26 26 30 24 33 27 34 34 23 23 30 36 41 31 31 33 41 43 29 38 34 31 20 32 29 35 35 30 29 37 32 24 28 27 21 27 29 37 37 37 34 34 35 36 38 36 30 34 33 33 31 30 41 27 33 41 29 26 29 33 27 31 37 29 43 32 38 27 28 33 23 39 29 31 27 31 48 32 26 40 33 47 38 35 37 27 18 35 35 28 29 26 32 30 33 34 26 35 28 38 22 30 38 27 24 38 35 28 36 22 37 22 28 28 22 28 29 32 37 32 31 30 26 27 23 21 33 32 28 34 24 35 34 31 25 27 31 32 27 34 27 33 34 24 41 25 36 28 44 24 36 33 32 33 39 35 28 36 22 29 30 29 31 29 32 24 32 30 39 34 28 41 31 23 36 31 30 36 41 29 33 32 26 25 33 41 37 36 34 34 31 31 38 34 34 38 27 35 30 35 27 43 34 36 22 29 23 34 29 37 43 38 22 32 24 32 26 39 42 29 27 32 35 30 30 24 34 41 36 22 35 43 28 29 34 31 34 34 37 34 40 39 27 28 27 30 38 31 37 20 26 38 33 34 28 33 37 31 37 28 37 25 28 41 27 34 25 29 21 29 35 29 39 28 35 33 34 35 26 36 32 27 43 38 38 40 24 24 33 21 35 28 19 42 31 26 32 47 36 32 32 35 31 39 29 27 32 33 33 27 32 25 30 41 30 31 25 40 43 32 35 43 29 35 35 30 24 26 38 27 23 34 29 28 52 36 33 33 31 34 26 29 26 33 21 33 33 37 30 27 31 24 23 26 33 27 31 30 34 32 29 27 35 34 38 33 27 41 38 30 37 27 28 37 33 28 32 31 41 30 31 40 26 30 24 34 37 33 24 28 41 28 36 31 34 27 34 37 39 30 22 34 35 28 29 34 39 29 33 29 33 28 23 34 26 41 34 24 31 42 36 27 29 24 28 31 30 35 38 40 30 35 25 34 27 45 31 35 32 30 38 28 29 31 24 27 37 27 36 31 37 35 31 33 27 27 27 33 29 35 41 27 27 28 34 32 35 29 43 25 29 29 31 36 30 39 31 23 27 24 34 29 30 37 35 42 30 27 32 29 38 24 36 41 31 33 25 29 34 31 29 23 47 29 31 30 31 30 26 34 31 32 43 31 36 30 33 40 28 38 32 40 32 37 32 28 23 28 27 32 30 36 25 32 42 29 30 24 38 25 28 27 31 29 30 25 35 35 39 38 28 37 30 29 26 33 31 27 34 31 23 37 36 32 29 34 29 32 31 33 43 30 39 39 39 37 30 28 26 35 30 26 30 34 30 36 31 18 32 33 30 34 32 23 35 35 24 26 27 33 31 39 26 32 33 29 33 36 30 25 23 30 37 50 29 28 21 31 24 28 31 29 39 35 39 29 31 43 35 37 28 29 35 26 29 28 27 50 26 32 36 31 25 31 23 36 33 32 37 32 24 26 27 32 24 29 41 28 34 28 27 27 34 38 27 35 22 25 31 35 38 23 36 34 28 37 21 45 25 35 39 22 32 26 36 39 31 32 31 27 38 36 38 30 28 37 33 38 35 35 26 33 26 34 18 32 27 34 25 30 31 29 30 25 31 33 35 32 28 29 35 33 29 24 46 35 28 28 22 27 25 29 27 33 36 48 31 49 38 25 36 28 47 23 36 29 29 31 25 35 22 32 34 31 37 34 31 39 32 37 38 21 30 35 29 33 29 28 34 29 30 28 27 33 33 41 28 24 26 30 31 40 36 26 34 40 27 27 41 34 27 38 37 29 25 27 35 29 32 33 43 34 37 34 31 28 28 40 36 26 36 24 32 32 28 28 27 30 34 34 31 35 28 32 30 28 33 28 39 35 25 30 26 27 35 21 29 32 31 22 32 33 29 36 26 29 35 40 26 22 31 43 25 21 23 23 33 46 34 26 32 42 36 33 32 30 40 28 24 29 25 27 33 32 36 33 32 31 27 25 40 30 29 37 33 35 31 27 29 31 31 32 35 34 25 27 34 44 33 19 26 45 30 40 34 39 36 37 35 26 34 32 28 27 46 28 32 37 28 36 28 29 25 37 34 38 41 33 25 42 40 25 34 39 23 28 36 34 25 25 40 34 28 25 30 30 23 31 24 29 30 26 30 25 39 35 33 27 26 29 32 39 38 43 24 34 38 32 42 29 32 28 34 32 27 30 29 28 25 19 28 27 29 27 37 27 35 29 34 30 32 32 28 39 34 34 32 33 35 27 36 44 22 28 25 22 31 32 35 35 40 27 31 26 39 43 30 32 23 42 25 34 34 28 34 34 29 30 33 34 29 29 34 20 37 36 30 27 32 29 31 29 32 35 26 30 37 38 27 27 21 29 29 30 25 30 34 35 28 26 34 30 23 29 24 38 33 23 19 34 29 26 32 30 28 27 42 41 31 30 36 33 22 32 36 29 38 34 32 25 30 27 29 42 32 37 19 26 24 35 34 39 28 35 39 28 36 30 30 35 34 40 34 15 37 36 37 29 34 33 30 33 32 32 31 27 26 33 39 28 39 26 37 30 27 27 35 23 33 33 22 33 42 37 39 29 25 40 30 23 35 39 22 23 32 33 33 46 37 33 32 35 36 32 25 37 25 35 31 37 19 29 29 32 28 24 39 27 29 35 31 33 29 35 35 43 31 34 30 37 40 39 39 27 31 28 27 18 38 44 35 33 28 25 28 47 26 31 39 32 37 31 40 42 27 35 57 39 33 37 40 24 34 25 31 36 27 23 39 27 21 35 27 32 28 38 25 36 30 28 32 34 17 26 44 31 22 28 40 35 39 33 35 36 39 25 29 41 38 34 35 33 20 23 30 36 16 35 38 29 31 23 35 31 34 28 36 28 22 28 36 32 23 31 31 41 32 32 24 26 27 36 44 38 29 21 28 30 30 28 33 43 34 32 27 36 31 33 30 23 29 27 23 32 29 34 33 23 33 29 28 32 26 41 27 36 32 39 38 25 31 28 33 42 40 37 34 44 33 31 35 34 36 26 29 27 50 23 34 23 28 27 40 40 38 36 32 34 35 38 32 34 31 37 38 25 37 27 37 30 33 28 35 30 35 23 28 33 27 32 39 35 45 34 23 32 27 42 34 28 32 35 28 39 32 41 36 26 20 28 31 29 41 35 38 27 37 39 28 20 36 31 31 37 26 43 33 28 34 37 34 35 28 36 39 31 34 30 34 36 21 37 35 29 33 28 24 32 32 30 32 26 39 37 37 41 27 31 28 29 34 33 34 30 33 35 41 29 31 35 29 34 29 37 36 40 32 37 22 36 31 31 30 27 31 33 29 40 31 41 22 38 39 27 30 28 31 30 31 35 30 24 36 32 37 36 30 30 40 29 35 29 36 25 30 22 40 36 28 35 25 32 30 31 31 30 32 27 38 35 28 38 36 40 22 39 31 39 31 32 37 33 38 39 35 39 29 35 32 37 25 33 32 28 50 36 46 35 34 28 37 39 30 20 28 33 32 30 33 24 28 25 32 31 43 38 32 31 36 27 29 30 24 34 23 31 28 28 44 31 35 29 24 32 37 38 30 37 27 34 33 34 23 31 29 29 33 43 38 32 36 28 28 29 20 33 27 23 29 28 33 30 32 30 27 36 28 37 37 29 43 25 27 25 23 29 29 21 27 32 32 27 37 29 32 34 33 35 29 43 26 45 24 30 35 29 32 27 44 16 31 34 27 38 32 37 29 35 27 29 38 24 33 52 36 28 29 42 31 37 24 31 33 27 26 39 32 21 26 33 25 32 26 37 31 41 29 36 36 30 29 32 32 33 29 35 22 24 32 29 19 25 37 31 24 40 34 30 35 27 43 38 28 26 25 33 36 27 24 31 55 35 33 32 24 22 29 28 27 46 26 32 41 28 27 21 29 26 39 26 34 40 32 29 36 24 29 26 29 29 27 32 24 20 29 36 41 34 30 30 25 35 33 20 36 31 39 32 24 34 47 33 35 34 28 27 29 29 40 25 34 28 26 37 22 24 40 34 39 27 25 26 24 33 32 30 27 43 28 33 24 37 36 33 38 33 35 36 27 34 25 29 32 33 30 42 31 36 34 33 36 36 33 34 35 26 34 31 35 40 28 31 35 19 26 24 42 35 32 29 22 25 30 34 40 32 16 33 38 36 33 21 26 30 28 36 28 43 32 28 28 25 29 27 34 36 32 30 27 23 36 34 35 24 32 28 27 34 27 20 25 21 30 22 18 37 25 21 33 29 31 39 32 29 35 41 16 26 26 32 30 34 30 30 30 25 26 31 35 36 28 27 30 34 33 37 30 33 28 39 37 36 30 32 39 29 36 41 30 26 22 31 32 28 39 30 23 37 30 29 25 36 38 31 32 26 24 28 34 17 29 34 24 34 34 28 25 28 31 30 27 39 35 45 34 28 32 34 41 27 24 41 23 32 29 28 41 32 44 32 31 32 32 37 34 38 24 33 48 27 27 29 36 22 21 33 33 31 36 32 43 36 25 26 38 22 25 31 34 27 31 39 29 39 32 35 20 34 29 31 27 33 30 33 25 29 31 32 31 30 35 38 47 26 35 35 42 32 38 34 30 37 27 30 30 31 32 35 25 34 21 26 37 28 31 31 27 36 32 23 34 29 33 27 29 33 34 29 35 28 31 32 25 31 33 36 29 31 35 27 29 34 30 28 30 31 30 23 43 36 28 27 26 25 38 29 42 40 34 38 30 34 36 34 38 30 17 30 37 30 26 33 24 35 30 33 31 33 31 41 22 41 30 32 30 26 28 34 43 29 37 34 35 27 25 33 28 38 28 33 31 36 26 29 36 36 33 33 28 24 32 28 26 29 37 35 41 25 38 25 34 23 34 40 30 35 40 31 33 33 43 37 34 30 33 28 26 40 34 31 28 35 31 35 25 37 33 34 25 29 31 30 33 37 26 35 29 25 33 24 28 39 16 37 35 28 31 29 33 38 28 31 27 25 44 39 21 35 43 31 26 25 26 19 29 36 28 28 31 35 26 24 34 30 39 41 34 29 27 39 34 32 33 27 35 40 37 22 37 51 32 33 25 33 25 34 36 29 39 31 31 28 24 30 30 31 35 33 24 37 36 26 27 35 21 33 34 28 25 39 35 37 27 27 34 38 34 32 30 27 46 40 33 33 34 26 37 35 27 25 36 22 28 31 29 34 31 24 32 37 34 38 27 26 25 40 33 38 41 36 39 23 38 39 34 29 33 28 33 32 40 28 34 33 24 33 30 27 47 24 27 28 29 22 29 30 28 26 32 33 30 32 38 26 19 34 28 27 33 30 30 29 32 28 23 35 21 25 33 39 33 40 31 30 29 31 34 32 30 30 34 30 33 33 28 28 28 27 28 28 32 25 30 32 42 29 37 27 30 33 36 31 30 35 27 25 33 31 31 23 41 28 39 35 30 33 29 31 41 25 28 34 28 39 29 29 26 31 36 36 34 36 29 29 29 35 28 31 25 30 34 35 24 27 29 34 36 37 29 28 29 34 32 39 34 30 26 32 26 30 31 36 33 27 20 35 36 41 35 24 28 32 31 33 37 40 28 21 30 31 30 34 23 31 35 23 29 34 35 29 37 31 30 38 25 35 47 32 32 39 33 34 36 23 31 42 33 33 38 24 27 26 35 32</t>
+  </si>
+  <si>
+    <t>JSB(1.600082211922294, 3.9474534750376824, -90.9313920531043, 818.378930695379)</t>
+  </si>
+  <si>
+    <t>182 255 331 230 249 266 206 274 175 203 229 225 276 187 261 251 309 249 166 322 248 178 255 173 213 246 266 279 211 334 245 220 254 278 320 286 174 173 228 240 262 193 197 211 316 226 233 185 222 208 241 352 299 201 190 177 242 150 227 233 389 216 291 113 233 259 293 209 267 302 206 231 147 185 212 359 252 193 196 302 188 295 242 232 205 218 256 301 256 390 239 293 269 240 290 240 210 215 198 245 95 231 289 207 299 267 173 256 306 285 154 267 237 267 174 218 331 258 210 241 109 246 137 326 262 259 271 207 257 269 223 268 279 185 226 187 308 262 192 290 298 186 250 217 301 232 261 147 299 261 170 241 185 227 226 192 235 243 323 266 298 203 192 152 219 246 224 236 165 222 280 186 193 265 285 207 199 290 144 156 244 182 269 204 210 201 288 161 225 192 189 292 253 217 173 192 236 231 234 269 250 228 252 270 369 163 171 218 232 241 235 182 223 196 240 298 251 197 217 287 250 196 188 161 237 165 253 270 230 270 251 200 306 291 205 270 216 281 303 179 366 235 303 190 206 246 306 219 242 224 167 249 188 188 238 164 256 184 211 171 282 309 269 257 169 278 275 178 218 166 235 281 288 249 256 292 263 255 196 260 283 133 164 195 227 220 190 205 244 250 231 347 234 113 328 219 266 299 303 257 315 283 272 232 272 285 268 233 277 257 308 131 153 241 237 165 189 232 232 190 213 260 258 255 267 252 272 227 269 177 292 279 232 180 234 245 243 121 219 121 202 171 281 206 237 221 299 258 188 229 297 220 345 302 199 245 193 209 264 177 237 266 192 190 172 260 246 288 223 256 190 313 215 173 112 381 209 238 361 228 216 185 237 213 301 162 302 217 328 128 269 260 199 159 230 201 183 152 202 304 216 311 315 261 217 298 261 186 301 186 191 257 232 358 217 212 291 230 240 335 228 129 357 167 255 236 287 218 304 254 295 232 144 314 239 229 141 192 268 208 218 203 305 173 192 224 141 271 205 303 203 174 273 197 260 193 188 231 301 274 245 111 210 288 138 247 144 335 293 224 285 240 249 224 241 210 230 129 250 231 223 179 249 287 247 252 185 275 228 181 261 251 198 290 170 216 260 263 274 285 324 213 232 248 238 259 187 316 251 286 217 199 383 163 278 178 203 202 182 291 190 256 297 263 243 169 174 249 201 210 260 131 159 190 198 289 244 130 207 246 253 269 256 207 279 256 182 247 295 177 326 317 205 203 225 182 268 312 243 228 172 242 185 147 208 230 198 304 308 156 179 185 271 232 257 198 285 308 239 272 295 209 308 105 184 301 275 174 249 310 261 261 236 255 354 265 238 193 260 144 124 177 226 287 194 196 205 313 272 286 253 225 185 205 247 268 150 183 258 161 208 282 214 207 254 287 222 270 217 258 221 170 236 164 184 277 229 177 275 230 198 175 234 308 181 254 247 202 269 216 230 208 188 205 288 226 181 231 192 246 346 230 146 302 221 266 289 253 127 234 192 267 190 175 165 195 298 225 292 244 213 262 185 231 188 246 238 181 211 231 241 195 271 214 186 280 237 255 239 216 182 283 293 210 231 274 176 197 225 314 224 162 237 218 271 275 203 209 239 283 192 224 214 131 302 294 229 122 194 203 239 195 191 261 270 245 148 223 226 209 268 207 215 265 173 210 284 307 172 263 250 247 184 246 242 284 208 272 288 256 202 258 150 277 155 280 226 218 252 256 321 206 306 188 121 250 189 213 286 210 260 227 247 306 216 253 313 325 239 177 206 225 210 272 267 278 261 215 311 132 293 202 214 235 242 145 187 267 159 324 236 266 246 141 227 185 184 151 293 215 198 242 229 208 243 210 274 238 266 239 164 166 185 218 198 210 279 232 275 211 268 269 224 258 173 297 266 209 236 200 318 260 334 243 196 240 282 263 183 236 170 222 181 288 227 174 212 352 165 206 213 220 292 192 235 166 188 253 311 219 241 174 182 213 335 241 368 276 258 246 256 248 166 313 184 324 265 190 205 292 259 285 299 246 216 217 316 276 213 190 200 191 263 287 282 203 255 189 229 331 222 273 270 343 185 257 166 214 236 320 187 209 269 294 232 302 221 122 286 125 273 230 225 236 292 240 230 293 229 199 248 324 228 231 237 217 242 260 274 197 289 226 252 252 183 190 212 241 247 202 151 218 221 322 173 146 227 180 205 175 284 227 270 134 177 241 244 215 331 255 276 297 180 252 265 275 198 268 246 231 321 260 209 194 309 222 256 230 337 288 257 200 307 161 260 312 181 173 287 263 241 270 128 234 304 175 214 355 242 192 200 207 241 151 244 206 244 260 180 280 193 205 226 281 308 247 202 223 295 182 276 213 222 333 234 215 170 200 292 131 259 259 220 320 200 260 271 204 249 263 220 272 237 150 203 247 172 205 260 257 226 223 170 304 256 328 272 289 203 167 210 205 204 111 276 276 215 334 124 216 182 284 257 181 186 277 198 174 218 243 217 267 282 218 288 191 271 234 272 182 225 249 221 138 207 238 309 260 236 195 259 187 264 202 197 189 109 337 206 224 224 255 213 200 219 180 295 266 247 229 233 216 293 217 276 235 236 205 189 240 321 326 187 239 257 186 267 246 203 200 209 281 318 169 251 248 308 231 150 299 252 248 286 359 193 279 177 341 263 319 361 298 196 237 277 265 239 242 296 244 288 202 243 290 150 238 177 139 271 226 192 174 216 220 306 221 319 246 186 158 251 181 338 285 261 247 261 279 337 225 186 190 179 224 306 266 195 271 210 210 158 294 209 330 252 235 257 235 201 145 198 190 270 223 268 265 266 207 366 175 182 262 199 292 338 317 202 300 288 236 153 202 267 175 205 227 170 277 195 214 180 215 157 208 301 232 250 346 254 270 168 214 294 217 255 264 263 253 219 199 211 229 276 245 311 235 296 313 181 295 211 202 336 238 283 164 239 324 240 233 239 235 365 256 261 251 306 212 132 257 248 267 129 286 296 175 188 139 238 308 209 182 271 247 251 286 280 268 233 203 208 212 236 142 210 142 257 243 331 137 329 321 290 232 284 233 247 248 188 281 243 262 258 280 282 243 239 209 158 245 187 256 243 214 266 197 230 245 220 255 203 228 206 223 256 239 219 284 245 236 237 173 146 218 227 181 117 205 309 303 180 206 332 199 309 268 200 250 197 314 242 235 237 198 258 206 201 226 311 229 204 247 306 231 215 285 305 226 304 166 195 236 324 195 271 238 240 245 182 202 208 227 243 312 154 310 258 228 317 178 260 240 197 308 226 253 304 245 268 191 179 215 297 262 184 309 213 240 240 191 294 118 347 309 197 168 230 275 282 226 221 278 184 239 139 181 214 227 223 222 205 277 189 198 216 277 171 295 221 187 253 189 283 313 289 256 285 206 218 218 187 227 201 248 123 234 288 229 255 229 206 223 306 232 265 261 216 256 330 210 301 274 237 260 233 317 265 212 259 223 222 176 163 166 153 290 260 281 244 275 155 332 235 248 247 275 260 325 222 286 207 200 250 223 225 277 186 210 262 247 278 194 295 222 270 239 274 263 279 229 176 255 196 264 203 278 236 232 310 258 239 288 190 306 222 282 214 197 220 246 215 233 247 251 262 233 229 151 240 186 256 259 226 260 241 283 297 132 238 150 209 265 172 253 160 223 268 294 384 261 295 257 140 176 208 240 317 323 200 289 256 143 149 271 236 280 224 215 230 188 280 234 260 253 350 270 333 322 154 146 241 199 325 235 199 237 232 269 346 221 276 178 302 163 358 266 263 220 295 218 187 254 220 216 193 219 237 233 214 219 148 267 189 290 231 247 286 233 229 240 273 183 188 215 231 287 212 205 216 206 256 276 195 187 217 279 265 292 324 330 158 191 334 238 179 248 270 354 279 206 188 204 405 217 142 247 183 210 207 241 244 252 200 245 238 239 185 241 169 207 257 262 210 280 294 308 250 176 262 188 248 195 210 324 285 190 199 182 222 212 428 301 269 337 261 275 339 166 274 226 212 245 187 255 157 133 243 165 179 223 260 188 235 268 139 281 172 164 255 192 287 188 285 234 266 298 305 278 251 292 216 154 149 197 245 217 269 297 253 190 235 202 272 318 264 190 256 343 290 159 349 210 320 201 253 236 293 270 215 262 189 305 223 214 239 301 259 205 191 246 252 248 266 189 245 241 214 167 159 296 312 222 121 161 225 296 247 287 122 240 273 210 191 237 248 305 198 214 288 272 210 228 172 196 279 212 229 248 307 321 231 229 253 147 231 170 305 267 418 206 206 189 252 193 203 226 246 292 187 320 242 318 139 281 214 263 120 217 162 296 187 308 241 235 204 269 274 174 238 261 187 272 323 305 228 332 234 234 254 271 288 206 275 273 288 237 289 333 152 241 220 381 258 278 225 227 291 218 181 276 271 227 175 166 217 199 248 191 238 196 323 150 296 342 307 202 275 236 193 258 224 299 256 197 251 164 179 248 230 192 176 203 372 230 258 248 173 247 314 192 267 271 335 183 319 208 234 287 199 270 277 241 164 254 169 189 240 238 258 253 153 294 194 199 176 104 220 235 208 253 293 218 223 169 252 284 278 327 177 349 246 271 247 290 126 212 240 228 201 229 122 287 189 315 281 203 251 262 249 234 235 246 231 250 221 142 232 251 182 312 244 263 248 278 236 312 231 173 315 281 214 255 224 227 255 240 328 267 311 256 67 291 240 250 300 273 296 289 264 283 187 256 222 253 256 228 194 292 204 202 210 231 249 279 240 243 242 231 206 167 244 213 312 149 251 261 231 258 253 269 204 215 228 191 248 239 220 249 315 180 322 216 252 311 278 278 290 157 251 249 148 233 199 216 199 229 276 237 265 250 168 229 265 261 201 202 212 286 179 264 233 251 167 89 283 281 200 144 248 162 216 305 247 214 224 247 162 245 237 256 233 252 209 267 188 267 271 256 176 246 241 323 251 199 241 220 222 231 282 300 233 259 222 168 307 232 207 233 347 176 259 297 152 349 133 228 242 240 232 286 274 236 190 321 313 292 225 283 204 167 212 298 248 143 211 290 187 217 289 256 174 234 216 149 245 328 179 186 196 287 267 217 210 265 261 225 210 271 243 284 232 255 246 256 301 238 273 284 163 286 272 305 275 246 205 278 172 235 127 300 204 368 169 250 248 198 268 251 208 125 295 178 168 204 220 257 212 243 204 314 294 196 189 243 238 228 269 167 175 301 264 342 244 201 203 238 229 270 222 196 311 225 169 281 291 264 259 251 211 145 256 277 262 220 235 161 249 178 203 180 227 168 281 144 253 289 212 322 248 258 227 219 179 201 193 309 214 232 163 275 212 216 229 242 218 230 243 230 96 278 227 209 285 267 194 242 239 265 349 245 306 251 149 262 149 170 284 199 178 240 278 245 328 235 255 299 304 159 323 226 194 309 223 209 243 182 238 156 285 234 333 229 271 257 327 253 303 232 275 217 254 218 254 262 249 256 196 262 264 273 214 260 179 190 213 260 240 258 223 342 319 250 228 217 281 207 195 293 274 249 336 217 138 250 326 200 144 208 217 248 160 320 238 223 221 203 144 294 229 177 219 298 257 166 222 237 249 252 223 207 230 186 246 307 284 279 269 246 226 250 343 326 152 158 179 269 282 209 188 237 298 221 202 303 219 187 228 360 288 340 220 214 207 224 281 255 347 254 187 205 162 152 246 255 257 307 188 199 243 240 242 285 239 351 258 228 232 187 228 244 252 198 222 232 201 229 277 108 245 239 233 248 194 190 168 192 187 231 164 168 334 245 247 288 221 302 291 231 241 285 235 214 322 231 249 271 335 193 217 224 269 237 272 274 270 172 337 270 239 157 249 174 278 206 211 245 216 313 234 200 224 339 281 195 298 235 271 196 199 264 315 287 164 233 203 262 286 250 217 241 244 192 199 214 259 244 195 234 344 203 263 291 242 238 258 268 253 227 283 197 226 250 246 238 265 310 216 329 249 243 233 257 271 177 196 235 195 316 196 243 209 266 352 85 250 227 264 270 200 302 212 210 317 275 253 274 266 247 220 184 265 278 305 238 118 177 296 285 251 196 304 203 355 172 232 260 301 230 274 137 296 269 277 154 171 233 209 238 264 341 179 188 200 244 218 291 228 279 205 260 196 252 244 279 232 208 188 307 295 227 214 221 221 318 232 194 242 253 188 241 298 321 190 203 212 230 227 215 392 247 230 209 219 299 227 137 286 197 228 118 360 201 333 220 265 200 343 263 242 238 237 152 201 209 265 199 201 273 276 184 168 204 305 258 287 181 252 235 205 247 219 115 220 218 270 288 204 261 309 205 182 261 289 169 143 179 144 124 249 241 168 247 323 248 280 248 218 279 258 395 251 235 155 224 154 135 180 312 235 278 255 258 214 269 307 219 199 260 289 155 322 318 189 172 177 199 226 188 188 175 283 278 344 182 169 208 195 290 227 294 313 288 204 266 130 263 218 315 181 207 278 228 302 194 286 199 237 208 160 228 126 194 309 335 201 214 241 286 304 216 228 249 224 175 222 221 285 275 310 217 179 220 255 197 300 174 147 275 257 135 115 300 193 183 123 355 217 166 208 270 283 192 228 231 222 181 176 165 185 246 177 124 247 188 116 250 148 229 158 152 320 207 241 304 245 218 227 165 247 124 224 179 283 266 204 171 179 260 287 220 233 357 272 228 231 200 212 259 155 210 169 279 282 212 239 226 264 210 186 311 207 229 236 338 240 202 232 268 250 278 253 301 264 215 308 228 271 234 207 196 196 237 227 170 247 241 262 280 172 265 235 246 266 203 287 298 157 137 164 301 231 322 184 299 239 270 212 187 296 330 115 242 341 163 269 240 220 415 192 201 242 200 340 124 235 240 249 223 349 171 262 176 292 234 266 297 209 234 271 231 220 200 199 254 219 193 201 167 183 206 307 213 143 221 168 214 252 282 252 189 211 292 290 300 274 242 174 162 277 294 197 227 264 149 308 183 297 206 305 293 283 251 263 182 235 321 260 188 191 236 244 293 292 152 239 274 217 234 240 137 202 228 187 261 209 257 240 165 242 265 173 239 310 208 276 191 147 279 237 178 215 244 237 207 279 201 173 173 268 236 140 210 154 190 199 190 204 339 315 284 243 227 232 228 288 208 217 212 251 232 216 167 198 284 253 175 310 295 245 198 226 257 223 216 255 191 225 233 279 289 307 221 244 169 243 220 217 187 235 137 179 360 240 203 151 220 249 212 236 229 218 331 171 271 231 169 270 188 235 272 248 314 182 268 173 254 244 296 272 244 231 276 237 248 195 209 324 207 237 215 295 244 237 183 268 235 257 362 252 263 325 269 194 260 213 203 185 281 274 230 290 282 237 238 221 182 275 263 182 277 246 220 341 285 208 209 285 239 258 234 294 251 236 316 117 203 213 168 157 234 257 212 231 212 313 269 255 197 227 232 280 168 279 334 232 173 208 181 236 187 143 286 225 208 193 249 233 247 165 254 236 272 276 249 261 272 250 197 209 296 216 154 180 249 191 227 187 276 221 317 275 220 210 291 238 268 297 235 193 227 186 231 148 187 234 178 269 157 288 243 210 261 288 255 249 338 215 250 279 339 237 172 221 203 292 266 290 162 304 208 272 244 236 277 238 150 170 306 253 264 157 345 233 258 285 260 145 243 256 189 201 215 258 282 158 155 185 349 215 252 135 233 232 200 257 197 298 246 152 205 299 175 182 185 230 256 209 258 346 313 231 353 177 257 350 259 145 258 258 243 216 243 272 178 226 276 297 237 236 263 364 229 202 250 219 207 233 260 199 280 205 200 274 297 181 240 209 157 228 209 167 276 251 253 256 185 160 288 189 164 269 289 207 196 203 266 181 324 216 270 213 237 264 238 232 275 287 205 265 221 273 235 280 286 307 323 252 249 344 327 240 155 140 159 202 198 233 217 171 273 251 275 218 319 172 301 288 198 252 228 248 320 349 244 330 276 164 266 211 227 327 232 242 131 244 227 211 212 226 278 230 152 283 293 172 194 265 220 239 213 165 197 253 226 209 163 261 161 245 198 212 227 225 259 157 258 248 192 262 230 319 283 285 313 221 182 250 185 269 292 243 260 274 242 249 169 244 166 278 186 231 209 193 186 314 230 183 209 304 237 283 243 286 274 307 303 251 167 225 224 303 133 155 179 292 303 237 183 216 217 296 258 282 164 230 152 277 163 251 267 215 254 128 267 212 319 272 246 208 231 265 146 160 202 286 136 206 233 271 225 194 242 216 249 248 179 242 215 308 248 278 217 186 356 215 197 332 300 332 237 232 275 199 253 242 237 186 208 157 205 236 213 213 239 235 313 355 138 227 174 168 296 157 160 205 212 306 172 170 185 186 317 176 225 233 321 146 183 284 206 285 329 234 258 279 251 165 188 253 289 273 253 256 249 229 206 196 348 211 199 296 268 274 192 328 199 338 297 338 173 218 246 208 199 192 238 213 357 347 315 314 249 265 263 249 232 201 288 263 289 235 195 260 256 246 189 303 152 358 279 236 271 244 189 292 367 250 239 275 274 213 228 259 179 224 198 218 205 246 199 162 161 223 250 267 267 281 283 286 194 177 261 236 176 171 217 202 234 218 231 224 280 213 282 163 263 281 119 219 216 318 211 251 268 195 326 226 255 284 237 236 211 295 251 245 214 192 315 164 242 255 215 225 276 350 276 267 254 228 237 340 168 220 323 166 176 249 247 213 240 265 200 232 192 278 285 177 288 244 143 234 242 245 261 217 221 292 265 252 131 207 228 313 281 327 259 246 157 231 230 248 232 188 267 213 203 204 318 236 246 235 221 231 236 231 216 180 217 261 243 192 210 206 338 212 181 264 231 249 268 271 210 329 268 261 295 221 236 226 162 368 215 289 207 208 218 208 242 192 275 293 363 323 164 277 214 231 245 222 270 225 210 231 249 229 271 239 252 170 267 233 270 188 218 294 181 212 209 167 242 394 222 261 250 172 174 224 298 264 233 305 298 242 211 156 296 183 237 165 183 177 129 251 348 295 183 269 250 226 221 254 173 340 275 189 222 203 290 364 225 287 231 259 308 245 190 213 190 174 270 162 231 158 264 190 241 265 206 206 221 186 240 198 228 196 224 216 319 201 200 266 248 307 183 268 181 245 247 291 261 347 225 280 266 209 131 181 245 216 176 314 193 201 237 338 265 300 231 278 259 184 282 225 319 248 293 350 197 205 206 236 218 262 183 204 113 194 269 238 269 276 329 286 224 289 230 354 294 332 235 192 279 219 175 334 258 147 235 295 155 188 255 237 229 179 170 214 281 201 175 275 296 193 259 295 242 268 245 300 223 292 261 241 250 138 253 201 201 163 183 220 209 263 271 242 240 194 244 243 322 286 194 201 301 212 162 147 208 324 263 182 297 347 202 225 224 286 180 282 234 172 219 303 229 222 291 264 193 285 262 197 262 255 294 229 324 184 217 250 240 275 205 219 315 303 186 249 215 245 151 227 233 272 234 234 184 318 295 200 211 254 184 250 239 258 197 200 245 317 195 220 156 188 221 319 209 178 202 179 165 218 217 201 266 187 256 257 219 243 161 319 251 192 241 234 265 202 236 243 365 174 220 179 203 241 305 312 119 267 267 268 166 284 226 282 237 186 261 216 234 208 269 288 272 264 225 248 348 174 235 279 255 154 192 301 261 280 112 174 206 252 218 200 218 269 234 191 271 211 189 242 301 224 149 255 225 267 184 197 196 243 188 294 271 203 266 256 207 261 250 188 210 221 228 171 229 132 229 223 166 254 285 219 242 163 243 227 315 168 211 353 141 250 158 240 270 279 253 299 160 227 214 243 211 196 291 251 174 229 200 228 216 325 275 185 215 231 191 259 115 252 212 264 156 275 188 225 258 255 235 250 284 264 283 191 237 235 178 266 222 201 244 268 235 186 362 241 259 190 233 223 335 170 248 190 270 168 340 149 256 211 239 278 145 175 364 262 299 222 249 210 313 232 292 198 203 306 205 215 278 261 290 315 224 312 221 231 285 221 236 205 176 268 187 234 291 264 234 178 179 203 226 228 272 175 330 185 330 230 266 225 188 222 335 272 240 235 199 267 318 279 252 269 259 166 164 256 233 174 272 255 200 369 212 246 162 262 285 208 179 308 209 307 250 268 293 201 280 218 317 278 342 319 189 208 175 165 275 217 288 286 188 245 205 249 318 235 220 203 246 247 188 284 201 214 249 165 198 238 323 212 273 205 248 209 226 237 241 292 290 217 214 198 247 252 303 204 189 291 261 215 249 264 226 214 171 243 178 209 274 235 196 264 254 197 312 273 254 205 234 222 243 259 254 189 202 207 279 195 186 255 272 253 271 163 198 247 232 231 261 239 224 271 251 262 361 191 436 146 233 188 306 224 198 322 284 223 166 227 203 255 219 250 233 267 209 255 265 279 212 205 239 162 218 284 251 146 289 191 206 187 269 217 282 325 274 322 270 133 247 183 256 156 287 247 361 243 252 226 278 188 261 268 206 292 262 161 234 277 227 263 272 275 288 240 314 248 215 218 220 274 199 165 252 275 291 321 197 258 211 187 322 322 269 221 272 264 196 270 245 169 246 154 354 285 185 249 248 148 173 319 225 154 308 147 230 326 212 256 277 267 175 195 284 244 290 152 288 190 294 305 232 224 346 259 233 297 186 132 181 177 196 173 236 199 316 199 253 282 246 294 290 238 173 182 296 213 338 290 190 239 150 201 148 155 237 209 241 261 188 269 248 179 272 221 255 259 188 293 230 262 194 315 250 233 208 253 230 305 213 166 297 205 203 244 324 191 261 296 278 183 214 250 207 194 283 286 282 257 212 198 232 153 229 250 224 309 283 175 237 281 330 174 243 291 188 249 336 309 198 267 230 303 236 251 209 259 203 401 218 166 265 253 261 260 289 252 114 347 188 204 183 242 197 267 227 387 204 210 198 234 264 339 198 298 272 246 176 328 163 236 340 183 253 278 240 159 342 161 238 309 229 251 247 230 273 214 297 209 194 242 286 171 275 184 241 233 289 301 177 286 291 244 210 285 189 175 302 251 252 248 218 229 299 211 262 288 253 226 234 382 243 159 325 185 150 242 204 184 313 251 204 198 288 125 202 206 190 256 239 275 253 119 207 205 348 309 337 268 248 294 248 225 349 291 346 258 227 238 278 170 199 237 267 193 266 266 239 238 142 274 297 264 235 280 306 231 296 216 359 174 322 228 165 143 355 340 290 167 228 232 210 242 181 257 230 202 172 253 234 267 267 238 286 287 399 267 229 270 276 124 218 182 165 247 237 196 194 215 269 222 288 303 223 145 250 227 215 354 208 225 241 253 175 242 258 182 218 238 205 252 305 220 178 173 221 261 240 252 239 252 359 263 224 246 204 261 292 276 155 176 236 270 171 162 245 266 192 223 226 342 352 255 224 318 293 276 273 149 277 162 189 180 251 304 294 228 194 282 220 250 189 157 239 264 307 214 289 271 212 268 296 245 179 230 258 203 282 282 199 187 222 244 261 322 287 241 289 173 186 231 251 215 246 252 235 235 196 187 240 300 210 152 240 278 186 219 290 194 247 253 184 222 276 356 219 159 243 204 184 285 205 260 243 275 321 264 259 299 288 182 234 220 293 192 185 247 259 226 214 312 247 266 193 208 272 245 209 275 231 317 207 218 135 229 257 272 181 179 187 286 137 218 254 254 189 313 258 278 238 233 185 229 228 224 273 226 218 242 246 228 238 269 182 359 239 225 240 273 169 254 186 258 198 266 286 229 208 198 261 185 337 189 156 189 221 266 283 213 170 287 270 193 238 197 132 307 190 269 240 252 179 235 295 177 136 251 297 231 244 276 235 294 299 272 186 229 204 224 292 259 190 250 313 265 314 180 200 216 262 340 219 314 316 196 248 214 315 205 260 172 222 354 229 211 301 298 244 195 215 311 253 301 197 165 270 176 259 291 203 167 367 247 230 326 231 279 264 240 141 177 206 220 285 177 344 158 217 236 262 173 201 205 200 181 242 271 156 349 176 316 172 288 270 185 181 195 95 225 261 212 186 172 364 206 242 234 178 172 224 170 219 152 283 189 207 211 245 239 233 260 307 254 217 142 210 252 231 238 203 270 218 185 192 232 202 185 277 229 273 253 142 251 219 221 212 228 206 280 245 266 312 220 210 220 233 155 314 266 239 219 197 275 151 208 231 182 206 200 277 306 250 221 296 166 223 234 257 275 293 242 243 173 181 241 282 207 352 246 231 183 263 221 384 252 200 241 285 222 234 263 187 281 240 182 266 221 204 257 202 290 252 216 271 249 252 241 318 218 254 182 268 217 179 238 236 173 294 335 261 294 347 273 297 333 230 332 246 173 216 256 231 309 305 217 225 220 246 193 206 278 297 104 283 163 305 239 315 212 223 312 267 254 190 290 216 177 277 299 273 147 278 211 255 222 272 255 239 282 173 191 250 250 236 220 224 248 185 251 201 203 257 312 195 198 307 229 225 235 267 269 174 199 287 236 256 357 260 211 218 225 240 254 252 273 306 184 298 253 255 265 267 284 244 222 169 241 213 246 218 161 337 283 293 224 248 224 238 238 253 277 286 166 182 229 177 305 215 220 295 244 234 246 245 350 174 197 229 250 181 241 268 249 279 227 235 245 271 292 255 289 289 221 255 263 192 297 300 220 315 291 204 282 232 266 304 216 229 180 204 252 200 219 276 149 187 236 186 136 202 281 329 197 231 343 198 321 333 188 290 219 210 296 269 191 171 266 184 287 268 216 204 257 207 280 266 229 234 274 218 179 366 242 359 310 259 284 240 165 240 244 215 196 244 161 253 226 251 233 268 222 175 258 285 281 294 308 321 225 148 144 252 243 230 269 193 224 290 349 182 282 196 265 275 300 316 247 256 116 205 156 169 282 236 282 250 244 167 324 282 187 195 259 178 205 335 200 163 216 257 208 207 318 272 339 198 206 203 330 222 287 235 242 176 260 250 197 202 272 281 159 183 237 229 281 187 133 311 181 184 253 193 219 251 178 180 214 288 195 244 236 292 189 148 271 271 167 310 201 262 340 184 166 291 319 230 192 201 300 266 323 254 275 228 207 227 259 230 198 361 197 258 263 196 217 229 212 179 233 323 184 177 259 211 263 191 254 166 234 191 232 204 280 187 272 219 313 318 361 230 253 273 227 252 321 192 216 175 207 305 244 297 347 201 328 185 239 282 215 244 164 187 200 200 227 211 221 190 245 201 292 288 206 211 260 190 274 243 204 262 252 297 306 176 252 180 220 137 165 322 218 189 201 302 130 179 212 248 249 357 205 217 215 160 239 176 153 150 243 206 234 191 195 224 241 189 239 200 210 264 158 269 365 138 206 236 260 241 264 165 200 177 313 225 241 291 202 218 274 157 283 296 258 248 323 291 225 321 202 244 357 201 338 215 195 245 174 247 247 239 265 204 272 303 267 290 236 354 226 186 195 291 187 250 264 162 262 232 218 221 191 300 192 224 191 195 192 279 203 250 184 271 217 191 207 179 244 335 262 236 310 260 254 309 302 225 214 315 199 212 214 199 317 223 283 275 320 229 189 273 262 272 182 208 272 209 215 208 272 269 272 257 220 282 241 214 225 265 250 270 182 291 123 188 250 242 175 267 283 265 232 229 216 178 332 297 205 231 248 270 219 239 217 180 221 186 186 167 323 170 294 235 218 248 205 262 292 188 266 189 184 286 192 254 221 273 199 309 259 309 258 205 239 167 257 174 182 235 268 264 175 297 274 257 322 231 243 261 224 233 281 290 249 209 335 342 212 260 182 268 258 242 243 131 249 246 245 211 259 303 185 249 263 245 282 264 223 345 248 295 280 210 157 262 183 283 223 191 246 183 238 179 176 284 297 230 269 271 273 222 228 123 161 219 233 211 285 267 183 223 262 286 227 236 237 141 246 244 200 224 301 225 232 205 211 215 303 256 299 169 245 256 219 148 285 183 271 287 223 228 250 284 263 218 272 173 260 140 272 202 285 284 184 244 197 178 270 203 292 152 136 224 233 152 279 209 225 326 253 230 279 199 267 331 253 260 239 317 356 288 282 191 296 254 203 242 332 188 160 241 253 187 268 233 244 278 187 201 239 199 215 252 264 283 255 224 245 278 175 234 206 247 260 259 239 238 218 199 238 230 278 217 280 255 228 244 233 201 164 221 252 235 256 185 227 222 179 170 204 169 251 254 222 233 179 318 265 197 194 194 178 252 277 211 207 194 162 268 190 245 190 257 174 324 282 249 172 288 193 218 174 155 247 289 200 251 200 178 346 177 342 199 105 263 251 150 235 369 221 256 210 173 158 221 177 206 185 165 253 219 335 292 255 300 215 286 213 146 182 255 301 172 322 222 326 314 241 336 236 297 213 232 290 325 163 237 226 226 235 297 207 264 208 212 254 214 304 277 239 211 246 224 159 229 219 244 237 200 208 250 195 200 256 135 220 315 215 213 285 265 201 192 241 265 304 272 261 199 236 237 254 238 192 244 227 303 344 203 133 206 260 160 269 215 253 280 230 264 353 298 252 178 268 233 243 263 232 230 216 206 229 238 237 218 341 257 301 149 209 301 217 370 252 235 268 135 281 260 219 271 293 195 186 358 224 260 277 234 285 183 186 228 179 229 268 278 264 253 259 318 217 233 158 230 226 174 281 212 245 220 288 245 254 219 164 255 215 265 288 190 198 214 272 152 272 229 334 140 299 132 285 255 248 170 263 204 316 268 217 277 203 297 180 370 225 206 285 173 175 260 248 240 199 279 309 193 298 222 302 103 214 259 312 222 213 131 232 296 256 139 304 204 194 251 234 253 156 266 172 164 258 277 236 283 291 319 200 151 267 275 292 182 272 315 318 163 210 280 156 263 161 315 159 216 253 207 166 193 282 252 167 256 222 275 281 238 301 213 275 226 228 175 235 254 260 249 274 183 201 260 184 306 190 239 211 189 186 292 251 248 227 236 219 294 243 320 167 346 266 258 276 303 153 177 254 212 214 196 351 202 286 257 294 277 254 199 270 248 287 257 227 210 276 255 279 326 201 169 169 278 208 223 348 252 346 296 281 286 191 247 188 232 260 221 234 193 263 164 213 210 144 254 215 210 266 245 237 261 219 266 288 277 193 255 326 319 203 229 277 287 221 270 221 212 270 325 294 233 196 259 147 181 291 228 293 178 279 292 154 251 340 214 321 249 215 258 299 171 273 232 240 300 233 261 225 267 210 331 228 193 254 348 197 267 196 174 260 253 196 254 318 271 227 264 202 232 321 265 179 300 178 291 244 239 182 213 255 249 232 199 274 265 258 221 228 257 185 123 254 218 130 278 257 238 208 309 220 244 145 230 229 243 292 247 320 191 311 196 205 285 258 164 342 197 260 204 164 265 205 293 215 290 270 166 215 194 259 257 196 228 196 270 224 260 179 247 238 257 291 293 264 229 273 274 204 268 311 178 222 301 282 311 123 262 351 336 261 234 298 281 275 144 238 222 207 336 161 176 239 233 259 207 145 255 257 178 224 187 169 244 264 330 231 320 207 281 284 267 177 173 287 177 271 207 261 194 292 197 157 181 300 189 266 273 207 196 227 229 326 251 217 323 170 217 301 210 275 278 330 250 224 247 234 316 276 173 195 227 306 219 344 211 316 236 222 169 140 247 264 174 241 165 195 255 245 199 249 272 210 174 293 241 186 216 280 307 165 226 208 261 248 291 152 273 313 281 284 279 207 215 252 111 191 341 146 170 316 268 206 223 218 262 251 209 267 185 256 186 290 220 180 248 196 247 184 185 208 160 249 208 239 255 211 229 237 320 319 257 252 211 161 247 189 378 301 296 261 177 259 227 215 157 229 258 306 161 252 161 299 312 190 253 261 327 270 196 291 262 278 222 197 119 259 240 337 172 258 209 180 139 235 295 189 204 177 253 187 183 268 209 329 161 274 221 292 355 240 256 226 175 267 278 182 258 272 211 292 148 186 169 294 213 343 160 245 231 258 233 342 162 238 180 219 245 283 250 181 250 140 382 195 253 227 301 223 200 182 235 288 325 221 172 225 232 110 208 292 211 241 275 238 290 174 279 291 208 299 202 207 253 204 164 194 253 297 211 225 196 291 320 292 297 218 146 366 217 220 256 218 300 266 245 350 143 220 287 184 123 197 414 237 237 183 206 208 335 259 234 314 229 262 149 220 217 182 202 174 341 223 236 228 288 234 368 177 289 193 165 239 185 276 316 306 174 218 250 248 236 301 224 235 173 253 304 221 169 168 308 209 260 180 267 223 230 205 270 162 236 280 158 236 291 257 241 237 213 325 219 291 306 266 205 190 193 192 186 178 262 177 192 175 200 167 199 199 177 262 258 251 211 269 238 286 220 200 290 304 240 171 238 263 192 240 211 264 295 190 244 235 230 278 240 280 245 315 223 256 196 265 312 278 222 232 179 283 251 210 189 287 203 261 308 293 249 265 349 222 231 268 213 267 195 245 282 186 208 248 296 250 218 205 212 255 248 313 266 171 253 235 334 242 278 295 292 280 215 228 308 265 318 238 208 264 219 225 273 204 235 250 299 245 209 344 218 181 238 227 194 314 209 221 206 195 291 263 330 206 231 331 270 210 191 245 134 277 249 322 252 231 190 256 279 264 152 201 217 257 275 186 226 239 302 169 131 208 153 266 333 192 210 331 267 261 268 205 245 202 240 176 231 227 278 213 135 272 209 257 280 324 262 265 220 192 173 249 187 196 299 304 226 226 365 268 164 200 319 242 218 216 182 256 215 272 217 236 233 228 233 256 121 184 203 223 235 330 247 217 175 171 215 195 220 221 270 153 131 252 315 275 264 251 259 313 276 159 230 265 245 147 280 148 218 173 234 220 241 278 196 177 221 117 156 204 309 302 260 262 315 269 314 285 254 254 193 171 232 192 230 292 206 261 292 263 192 188 184 210 177 261 165 309 268 304 250 235 240 150 271 230 229 198 163 282 212 140 283 252 336 279 230 314 197 141 324 227 275 241 204 243 197 214 290 203 230 220 351 177 303 281 238 229 287 281 265 287 194 309 150 194 179 217 148 233 267 228 271 226 266 256 175 219 183 231 203 178 241 151 236 242 232 145 144 225 257 214 264 232 272 239 134 270 190 265 197 336 147 191 258 226 196 350 382 187 233 117 166 216 312 221 218 184 247 299 214 275 273 234 278 274 159 243 248 297 347 253 233 246 256 191 191 202 209 280 268 296 233 204 183 259 281 210 275 235 285 267 317 228 342 240 316 119 178 190 262 228 215 332 216 147 293 156 233 238 310 286 184 209 301 262 284 177 206 250 313 293 125 314 291 252 251 290 290 307 227 273 307 303 320 259 155 243 253 218 202 237 146 211 272 271 269 245 181 213 260 297 210 298 226 223 251 248 291 178 188 185 173 171 240 242 208 345 212 196 285 168 267 209 185 306 239 336 329 191 152 278 220 213 199 93 290 273 239 239 255 225 276 268 276 245 370 251 185 297 297 230 239 236 174 195 307 294 253 187 290 331 258 247 263 217 234 347 226 160 263 296 273 242 232 242 189 342 255 280 234 217 324 190 268 149 241 146 272 204 237 244 195 197 251 163 237 228 239 313 206 258 260 214 221 261 221 232 223 218 239 237 294 292 195 196 277 196 268 302 279 272 171 219 294 245 210 176 213 247 272 145 227 236 219 242 244 237 190 235 249 330 259 196 157 265 227 207 277 255 201 245 159 337 293 188 197 220 246 216 221 246 264 314 244 190 181 177 314 223 313 246 208 184 255 160 251 180 309 215 284 220 232 293 157 179 311 191 206 301 205 289 242 251 285 184 247 228 260 219 239 172 267 321 213 198 231 331 298 215 263 278 194 189 149 218 194 242 261 293 214 209 207 269 201 210 233 257 279 204 247 209 311 271 165 314 279 247 294 170 241 312 227 199 127 329 246 219 169 293 236 173 248 288 243 332 283 253 276 234 365 244 315 224 310 192 218 227 244 204 197 223 288 228 311 210 268 290 276 270 241 265 241 187 207 218 261 243 166 228 254 310 330 180 278 238 210 190 270 242 208 260 219 156 290 261 229 267 205 152 230 219 259 287 248 264 301 268 283 270 222 191 253 197 197 222 242 173 280 281 168 238 266 242 276 264 177 287 201 183 183 225 163 258 306 167 257 210 147 285 199 231 236 234 218 338 334 218 267 163 262 162 215 152 218 300 281 312 227 208 280 230 319 174 217 275 191 229 198 219 277 230 278 258 223 181 231 178 316 253 264 261 225 163 189 237 251 233 245 319 204 232 228 169 232 222 313 171 234 161 196 270 245 201 131 311 203 215 304 178 309 187 252 214 160 266 207 293 321 272 209 263 198 246 205 355 224 223 312 257 270 240 254 231 263 149 278 163 189 238 27</t>
+  </si>
+  <si>
+    <t>MIE(0.5847973115617193, 1.4834965210442772, -7.976338728039691e-31, 1.8481364516664711)</t>
+  </si>
+  <si>
+    <t>1 1 3 2 1 0 2 2 2 1 2 0 0 1 1 0 2 1 1 1 0 0 0 0 0 0 2 2 2 1 2 0 2 1 0 4 0 1 2 3 2 2 1 2 0 2 3 1 4 1 3 2 0 1 0 0 2 0 1 1 3 1 2 1 1 1 2 0 1 2 0 0 0 0 0 2 1 0 0 5 0 3 0 3 2 2 3 3 3 2 1 1 0 1 1 1 1 1 2 1 0 1 1 1 3 2 2 1 1 1 0 2 3 1 1 1 2 0 1 2 0 2 0 4 2 1 1 1 3 1 2 1 1 2 1 1 1 1 1 2 2 3 1 0 3 0 2 0 0 2 0 0 1 4 0 1 1 1 3 2 1 2 1 2 1 1 0 2 0 1 0 0 1 1 2 1 2 0 2 2 0 2 2 1 2 0 4 1 1 1 1 1 0 0 1 0 0 1 2 2 2 0 1 2 1 0 1 0 0 2 0 2 0 0 1 0 3 0 2 1 2 0 1 0 3 0 2 3 0 1 3 1 2 2 0 2 1 2 1 1 2 0 1 1 3 0 1 1 1 2 0 1 1 2 2 1 2 2 1 2 0 1 1 0 0 2 3 0 0 0 1 2 1 2 1 0 2 1 3 3 2 1 0 1 1 2 2 1 0 2 1 2 0 1 1 2 3 2 2 5 3 0 1 0 1 1 1 2 0 2 1 0 2 1 0 0 0 0 1 1 2 3 2 1 1 1 1 0 1 2 3 1 0 2 0 1 2 0 0 0 0 0 0 2 3 0 3 1 1 1 0 0 1 2 2 1 1 3 1 0 2 1 1 2 0 2 3 0 0 3 1 4 0 0 0 3 0 0 1 0 2 0 2 2 4 1 2 2 0 0 2 2 0 0 2 3 1 0 1 1 0 2 2 0 1 2 2 0 1 2 2 1 0 3 2 2 2 0 2 2 1 0 2 1 1 2 1 2 0 2 2 3 0 2 1 0 1 1 1 1 0 3 2 3 2 1 0 2 0 2 1 0 1 3 1 0 2 0 1 1 2 0 2 2 2 0 0 4 4 1 1 2 3 2 1 2 0 2 2 1 0 1 2 0 0 1 0 1 1 2 1 0 0 3 1 2 1 3 2 1 3 2 2 0 1 3 1 2 0 1 2 1 3 1 2 0 0 0 2 3 2 0 1 0 1 0 1 2 1 3 1 2 1 3 1 0 2 1 2 2 2 1 1 1 1 2 0 1 2 0 1 1 2 1 1 0 2 3 1 1 2 2 1 0 2 1 3 2 3 0 3 2 1 1 1 1 1 1 1 0 3 1 3 1 1 1 0 0 1 1 3 1 0 2 0 1 1 3 0 0 0 2 2 4 0 1 1 4 3 1 3 0 2 1 3 1 2 1 1 1 1 3 1 0 1 1 2 1 0 2 0 2 1 0 2 3 2 0 2 0 2 0 1 2 2 2 3 1 0 0 0 1 0 3 3 0 2 0 1 0 1 1 1 3 2 2 1 2 1 1 1 1 1 0 0 2 2 1 2 2 3 1 1 1 1 1 1 1 0 0 2 1 4 0 3 1 2 3 0 1 2 1 1 1 2 1 0 2 1 4 0 0 3 3 3 1 1 1 1 0 1 2 2 2 3 1 3 0 0 0 1 1 0 3 3 2 1 2 0 2 1 2 0 1 1 3 2 2 2 4 2 2 2 2 1 1 0 1 2 0 1 2 0 3 1 2 4 1 2 4 4 0 2 2 0 0 0 3 3 0 2 0 1 2 2 1 2 5 3 3 0 1 3 0 1 2 1 1 3 0 3 0 1 1 1 0 2 2 0 3 1 3 1 0 2 0 3 2 5 1 0 2 1 1 2 2 0 1 1 2 0 0 1 2 0 2 1 3 2 2 2 2 1 1 1 2 1 1 2 2 3 1 1 1 0 1 2 0 2 3 0 1 2 2 3 1 1 1 1 1 0 1 2 0 1 1 2 1 1 1 1 1 0 0 4 1 2 0 1 3 3 2 1 4 0 2 2 1 0 3 2 1 2 0 0 2 2 0 2 0 2 0 1 2 2 0 2 0 2 1 1 2 1 1 3 1 3 0 1 1 1 1 0 1 2 2 2 1 0 1 2 1 3 1 3 0 0 1 2 1 2 1 1 1 3 2 4 1 1 1 1 2 0 3 2 2 0 1 2 0 1 1 1 1 1 1 2 1 1 1 3 1 3 1 0 1 0 2 1 1 1 1 1 3 1 2 1 0 1 2 2 1 2 0 4 3 1 0 3 2 0 2 3 1 0 1 0 1 2 1 0 1 0 2 1 2 2 3 1 1 0 1 3 2 2 2 0 2 1 1 1 1 1 2 3 1 1 1 0 2 3 1 2 0 3 1 1 1 0 1 4 1 1 2 0 2 2 2 1 2 0 1 2 0 2 1 0 2 1 0 1 2 0 1 0 1 1 1 4 2 1 1 1 1 2 1 0 2 0 1 0 2 2 1 2 3 1 0 1 1 1 1 2 3 2 1 2 1 2 0 0 3 2 1 0 1 2 2 1 1 2 3 3 0 1 2 1 2 0 0 3 1 3 0 2 1 1 0 3 1 1 2 2 1 3 0 1 1 2 1 1 3 2 0 2 2 4 3 0 1 0 2 4 2 0 0 2 1 0 2 1 2 1 2 2 2 1 0 3 3 2 3 2 2 1 4 0 1 3 3 1 2 1 3 0 1 0 1 2 1 1 0 0 1 2 3 3 1 2 2 3 2 2 2 1 2 3 3 2 0 2 2 1 1 4 0 1 1 0 0 1 1 0 3 0 0 1 1 0 1 2 2 3 1 2 1 3 1 3 1 1 1 1 1 0 5 2 3 1 2 2 1 2 1 3 0 0 1 0 0 1 1 0 0 1 1 2 2 1 2 1 0 3 1 1 2 1 0 4 2 2 3 1 0 2 1 0 0 2 1 1 3 4 0 3 1 3 2 1 1 1 2 2 1 1 1 1 2 0 2 3 2 1 0 0 1 0 1 0 2 2 1 0 3 2 0 2 3 1 1 1 2 0 1 3 1 4 2 4 0 1 2 2 2 2 2 1 3 1 3 3 3 2 1 2 0 2 1 0 1 1 2 2 1 3 2 0 1 3 1 1 1 2 2 3 1 0 0 3 0 0 0 2 0 1 0 0 0 2 1 1 4 1 1 2 0 0 1 2 3 1 2 1 0 1 2 1 1 2 2 0 2 2 3 0 1 1 2 2 0 0 1 4 2 2 3 0 0 1 0 1 1 1 0 2 0 2 2 4 1 2 2 0 3 3 2 1 2 1 1 0 1 1 1 3 2 0 1 1 2 3 1 3 0 0 1 1 0 1 1 0 3 0 1 1 1 1 2 0 2 1 0 0 2 2 2 1 2 3 0 5 0 3 0 3 1 1 3 0 1 2 0 1 0 1 0 1 1 2 4 1 1 3 3 3 3 2 0 3 1 3 2 2 1 2 0 1 1 2 3 1 1 1 0 1 1 2 2 1 0 2 2 0 2 2 2 2 2 1 2 1 1 1 1 3 2 1 1 1 1 3 2 3 0 2 1 1 1 2 0 1 2 0 1 1 1 3 4 4 1 2 3 2 2 1 1 1 2 3 2 3 2 1 1 1 1 0 1 1 0 0 2 2 2 2 1 1 0 1 2 0 3 1 0 1 2 0 2 2 1 0 2 0 0 0 2 2 2 1 1 0 0 2 2 0 2 0 0 3 0 2 1 2 1 2 2 2 3 0 0 1 0 1 2 1 1 2 4 0 2 1 2 4 0 2 1 1 1 4 2 1 2 2 1 1 0 1 2 1 1 2 2 1 2 2 1 2 2 2 3 1 0 1 0 2 0 2 1 1 2 2 3 3 0 1 2 2 1 0 2 0 1 1 1 1 2 2 4 1 0 2 1 4 2 1 1 2 0 0 3 1 1 0 1 2 2 1 1 0 2 2 0 1 2 2 2 1 0 2 2 2 4 0 3 1 0 1 1 1 1 1 2 3 1 0 1 2 0 1 0 3 0 1 1 2 2 0 1 1 1 2 2 1 1 0 1 2 1 1 0 3 0 2 1 0 1 0 0 3 2 0 1 0 1 1 1 0 4 3 1 0 1 1 1 1 1 3 4 4 2 3 1 1 1 1 2 2 2 3 1 0 1 2 1 0 2 3 0 0 0 2 1 2 0 2 3 0 0 0 3 0 2 1 0 0 2 1 3 0 1 1 2 3 1 2 1 0 1 2 2 3 2 1 1 3 2 1 1 4 0 1 1 1 2 0 1 2 2 4 0 0 0 2 0 0 1 1 2 4 2 1 3 4 4 2 3 0 0 0 1 1 2 1 1 1 1 3 1 2 0 2 0 0 2 0 0 1 0 1 2 1 1 1 2 1 0 3 4 1 1 2 2 0 2 0 1 1 2 0 2 2 1 1 0 1 4 0 2 0 3 3 1 0 3 1 1 0 1 1 1 1 3 0 1 1 3 1 3 0 0 1 1 4 2 1 1 1 0 3 2 0 2 3 2 1 1 2 3 1 1 1 0 1 0 2 0 1 1 2 1 2 2 1 1 3 1 2 1 2 1 3 2 1 1 1 0 0 0 0 4 1 3 2 2 0 1 2 3 0 1 0 1 2 2 2 2 2 0 0 1 1 2 1 0 1 2 1 2 1 1 1 2 2 2 1 3 1 1 3 2 2 1 1 1 2 4 2 0 2 3 0 0 3 2 2 1 1 0 0 1 1 2 1 2 1 1 1 1 0 2 1 2 3 2 2 0 1 2 0 1 1 0 1 2 0 1 2 0 0 3 0 2 3 1 2 1 1 2 1 1 2 1 2 2 2 2 2 0 2 2 1 2 1 1 0 0 3 1 3 3 1 2 3 2 0 0 2 0 0 0 2 2 0 1 1 1 2 1 2 1 0 2 1 1 1 0 1 0 1 1 1 0 1 1 1 3 1 1 0 2 1 3 2 1 1 1 1 1 3 3 1 1 0 0 2 1 1 0 2 1 1 0 1 4 0 1 1 1 1 2 2 1 2 3 3 2 2 1 2 0 3 1 1 0 1 2 0 3 4 3 0 2 2 1 1 3 1 1 1 1 1 1 0 1 0 2 0 1 2 1 1 2 1 1 3 2 3 1 0 2 1 1 0 3 0 1 1 2 1 2 0 2 1 2 0 1 3 2 1 1 4 1 2 1 2 1 1 2 1 3 1 0 2 0 2 3 2 1 0 1 3 4 1 0 1 2 2 1 1 0 1 2 2 4 1 1 0 1 2 0 2 4 0 3 1 1 3 2 1 0 2 1 2 1 1 1 2 2 1 1 1 2 1 3 1 1 2 1 0 2 2 2 1 3 2 2 3 2 0 1 1 0 1 2 1 2 2 4 1 0 3 2 0 1 0 2 2 1 3 2 3 3 3 1 1 1 1 1 3 1 0 1 0 1 3 1 1 0 2 2 3 1 0 1 2 1 3 4 3 1 0 1 3 0 1 1 1 1 2 1 1 2 2 1 1 2 2 0 2 3 2 1 0 1 2 3 0 1 2 1 1 1 0 0 2 0 0 1 2 1 0 3 2 0 1 2 2 2 1 2 3 1 1 0 2 1 1 4 1 0 3 1 1 3 2 2 0 2 1 2 1 2 0 0 1 1 1 0 1 1 3 2 1 2 1 1 2 2 3 4 1 3 2 1 1 1 2 0 0 3 0 0 2 2 1 0 2 0 2 0 2 2 1 3 2 1 3 0 1 2 0 1 2 1 2 0 1 1 0 4 1 2 3 1 1 1 1 2 1 1 1 2 2 2 2 1 2 1 1 2 2 0 0 1 0 2 1 1 1 0 2 1 0 2 0 0 2 1 1 0 1 1 2 2 2 1 0 0 1 0 2 1 3 1 1 0 3 1 2 2 2 4 0 0 1 1 0 1 1 0 2 2 1 2 0 3 0 1 3 0 3 0 4 2 1 2 1 2 2 0 2 0 1 0 1 0 0 0 2 2 0 0 3 0 1 2 1 1 1 2 1 1 1 1 2 2 1 0 0 3 2 2 3 0 1 0 3 1 2 2 1 0 2 2 1 0 2 3 0 1 2 2 1 0 2 1 1 2 2 1 2 3 5 1 0 1 1 2 4 5 0 2 0 1 2 1 1 2 0 0 0 0 2 1 2 1 2 2 2 0 2 1 0 4 2 1 2 2 2 2 2 2 0 1 3 1 0 2 3 1 2 1 1 3 2 1 3 1 1 0 2 1 1 0 1 1 2 1 0 0 0 1 1 0 2 0 3 2 0 2 1 2 2 1 3 1 2 1 2 2 1 0 1 2 2 2 2 1 1 2 1 0 4 1 2 2 0 1 2 0 0 2 2 0 3 3 2 3 0 2 1 2 0 2 0 0 1 3 2 1 1 2 1 3 1 2 2 1 3 2 3 1 1 0 1 3 2 0 2 0 0 0 1 1 1 3 2 0 1 1 4 1 1 2 1 3 2 1 2 3 1 2 3 1 0 0 3 3 1 0 0 1 1 1 0 1 3 3 1 0 1 0 2 2 0 1 3 2 1 0 0 0 2 1 0 0 0 1 0 1 0 2 1 0 1 2 0 0 0 0 3 0 2 2 1 2 1 3 1 2 1 1 2 1 0 1 0 0 2 0 4 0 2 1 1 1 2 1 2 1 2 0 3 2 4 1 0 2 0 1 2 3 1 1 3 1 1 1 0 1 2 3 1 2 1 1 2 3 0 2 2 0 1 3 2 3 1 1 0 0 2 3 1 2 2 1 1 1 0 2 2 1 0 1 1 2 2 2 0 1 1 1 2 4 2 4 1 0 3 1 2 2 2 1 2 3 1 1 2 1 1 1 1 1 1 3 1 4 0 1 1 1 2 1 2 1 2 1 2 1 1 1 3 2 2 1 1 0 3 1 1 1 1 3 2 1 1 0 1 1 0 0 1 1 0 0 1 1 1 2 1 1 0 2 0 0 0 0 3 2 2 1 1 1 0 0 1 2 1 3 2 1 3 2 2 1 2 1 3 2 1 3 1 1 1 2 2 1 1 1 1 2 1 1 1 2 2 1 0 1 0 1 3 1 1 1 2 2 0 1 2 3 1 1 2 3 2 0 2 3 0 0 1 1 0 1 2 1 2 1 1 2 1 3 3 1 0 3 0 2 1 0 2 3 2 0 2 1 2 2 0 1 0 1 1 0 2 1 1 3 3 3 2 1 1 2 0 3 1 1 0 2 1 1 0 1 0 1 1 1 0 3 0 2 3 2 1 2 2 1 0 2 1 1 1 0 2 1 1 2 1 1 3 1 2 2 2 0 0 2 1 1 2 1 2 0 1 3 2 1 3 3 0 1 2 1 1 1 2 1 2 2 4 2 2 1 0 1 2 3 0 0 4 3 1 0 1 2 2 0 0 1 1 1 1 2 1 2 1 2 1 2 1 1 3 1 1 2 0 1 0 1 2 0 0 1 0 0 1 2 0 1 1 2 0 0 1 1 0 0 2 3 2 1 2 1 3 3 2 2 1 0 0 2 0 2 2 3 2 1 2 1 1 1 2 0 3 2 0 0 0 2 0 2 1 2 0 1 3 3 1 2 1 3 0 2 1 2 1 1 1 0 2 1 2 0 1 0 3 0 2 2 0 4 2 1 0 0 2 3 0 1 1 1 3 1 0 1 1 1 1 1 1 1 0 1 0 2 3 1 0 2 1 2 3 1 2 2 2 1 1 0 1 0 3 1 1 0 3 2 2 3 1 2 1 2 0 4 1 1 0 3 3 1 1 2 0 2 3 2 3 1 2 3 1 2 3 1 2 1 1 1 0 1 1 3 1 2 1 3 0 2 1 3 2 0 2 2 0 1 2 3 0 2 0 3 0 1 0 1 2 1 0 1 2 3 4 0 2 2 0 2 2 2 1 1 0 1 1 1 2 3 1 0 2 1 2 1 1 1 4 2 0 1 1 2 3 1 1 0 1 2 2 0 0 4 1 1 1 1 2 0 1 0 1 2 1 3 1 3 2 0 2 1 1 0 0 0 1 2 3 0 1 2 2 1 4 0 1 2 0 0 3 1 0 2 2 1 3 1 1 1 3 2 2 1 1 3 2 3 1 1 1 2 3 0 1 2 1 2 0 3 2 1 2 1 0 0 2 0 0 2 2 2 2 3 2 3 2 1 3 2 2 3 1 0 0 1 2 2 3 1 0 1 0 1 1 1 0 3 1 1 0 0 2 1 3 2 2 0 2 0 2 2 2 0 2 0 1 1 0 1 0 0 1 2 1 0 3 2 1 1 1 3 0 1 0 1 1 1 2 2 1 1 1 2 0 2 2 1 2 1 1 3 1 1 2 2 0 1 0 1 1 2 2 0 2 1 3 1 2 1 2 2 5 2 1 1 3 2 1 3 1 2 2 1 0 2 1 1 0 0 2 2 0 2 2 1 1 1 2 1 1 1 1 1 1 1 1 0 1 1 0 0 0 1 1 2 2 1 1 1 1 0 2 1 1 1 1 2 2 0 1 1 2 1 3 1 3 1 2 1 2 1 2 4 1 1 2 3 0 1 2 0 0 1 1 2 0 2 0 0 1 2 0 0 1 2 3 2 2 2 1 2 1 3 2 2 2 1 0 2 1 2 2 0 1 0 2 2 1 2 1 2 0 2 2 2 0 2 2 1 1 1 2 0 3 3 0 2 2 0 1 2 2 1 1 2 1 1 1 0 0 2 2 0 1 1 1 1 1 2 1 1 1 1 0 2 2 0 1 2 2 1 0 1 1 2 3 0 4 2 2 2 3 0 1 0 0 0 2 1 0 0 1 2 3 3 2 0 3 1 1 1 1 2 0 2 2 1 1 1 0 2 2 0 2 1 0 3 1 2 1 2 3 0 0 2 2 1 2 1 3 0 0 2 1 2 0 1 2 3 2 2 1 4 2 1 1 2 1 0 2 2 1 3 2 0 0 0 3 2 3 0 2 1 0 0 1 1 3 1 2 1 1 1 3 2 3 1 1 2 1 1 1 2 0 3 0 0 2 1 2 2 1 2 1 0 1 2 2 1 0 2 1 1 1 1 2 1 2 1 2 4 0 2 0 1 0 2 1 2 2 1 2 1 1 1 0 2 1 3 1 1 1 1 2 2 2 1 0 1 1 1 2 2 2 0 1 2 4 3 3 0 1 1 1 2 0 1 1 0 0 2 2 2 1 1 0 2 2 0 0 2 1 2 3 1 2 0 2 1 1 1 1 1 2 2 2 1 1 3 4 2 3 2 1 1 2 0 0 1 1 1 2 1 0 1 2 1 0 3 1 2 0 0 1 0 0 0 2 1 2 1 2 2 1 4 3 1 2 2 2 1 1 3 0 2 0 0 1 0 0 3 2 1 1 2 1 1 4 2 2 2 3 0 0 2 2 2 2 1 1 1 3 2 2 1 2 2 0 2 1 1 2 2 2 2 3 1 2 2 0 1 1 2 2 2 2 1 1 2 3 2 2 2 2 0 0 0 1 1 2 0 2 1 2 3 1 1 2 2 2 1 0 0 0 1 3 2 0 0 1 2 2 1 2 3 1 1 2 2 0 2 0 1 0 1 1 1 2 1 2 0 2 1 1 1 1 2 0 1 3 2 1 1 2 1 2 1 2 2 1 1 2 2 0 3 1 1 2 1 1 1 2 1 1 3 1 0 2 2 0 1 1 0 1 0 0 1 1 2 1 1 2 0 2 2 1 0 1 2 1 1 3 1 0 0 2 0 0 2 2 2 2 2 3 0 2 1 1 0 2 3 1 3 2 1 1 1 1 2 0 2 0 1 3 2 0 3 4 0 1 1 1 0 1 1 3 4 2 2 2 2 1 3 2 0 0 1 2 3 2 3 2 3 4 3 5 0 1 1 2 1 3 2 2 1 1 2 2 2 1 1 0 1 1 1 1 3 0 2 1 0 2 3 1 3 1 0 1 3 1 1 3 1 1 4 1 2 0 2 2 0 3 1 1 4 1 3 2 2 2 1 1 0 2 0 0 2 0 2 2 0 1 1 1 2 1 1 1 1 2 2 2 1 2 1 2 1 0 2 1 3 1 2 1 2 1 3 2 0 1 2 1 2 1 2 1 1 3 3 1 1 2 2 2 1 2 1 1 1 2 3 1 1 1 3 2 0 1 1 2 2 2 2 1 3 0 1 3 2 2 0 1 0 1 2 1 2 0 1 0 2 3 4 2 2 1 2 3 1 2 2 1 2 3 1 1 1 0 3 0 1 1 1 2 1 2 3 2 0 3 2 0 1 2 3 3 1 0 1 2 1 2 1 2 1 1 1 1 0 1 1 2 2 3 2 0 1 1 1 3 0 1 0 2 1 0 2 1 1 1 1 0 1 0 0 1 3 2 0 1 2 2 2 1 3 0 0 1 1 1 2 2 1 1 3 1 3 2 0 1 1 1 1 3 2 0 1 1 2 1 1 1 2 1 2 0 1 1 0 2 1 1 1 2 1 1 1 1 2 0 1 1 2 1 3 1 3 0 2 2 2 2 2 1 0 1 2 2 0 1 1 1 0 1 1 2 1 1 1 2 2 1 2 1 0 1 1 0 2 3 3 0 2 1 1 1 4 0 2 2 3 2 0 1 1 1 0 2 2 1 2 0 0 6 1 2 2 2 1 0 2 2 4 0 2 0 3 2 0 0 4 1 1 1 0 1 1 2 2 1 3 2 1 0 2 1 2 2 1 0 1 0 1 1 4 2 0 3 1 2 2 0 1 1 1 3 2 1 0 0 3 2 2 2 1 2 1 0 1 1 1 2 3 2 2 3 1 2 2 1 2 1 2 2 3 2 2 2 3 1 1 0 3 1 2 2 1 2 0 1 1 1 0 1 0 1 1 0 1 0 3 1 4 4 1 0 2 3 0 3 2 1 0 2 0 2 2 1 1 3 1 3 2 2 0 2 2 2 0 1 0 0 2 3 0 1 2 2 0 1 0 1 2 1 0 3 1 1 3 0 1 2 0 2 2 0 2 1 1 2 0 1 0 0 2 2 0 1 3 1 1 0 1 2 2 1 1 3 1 1 2 2 2 2 1 3 2 2 1 2 2 2 1 2 1 1 0 2 2 0 1 1 0 1 1 0 1 1 2 0 2 0 1 1 1 1 2 1 3 1 2 2 1 2 2 0 3 1 2 2 3 1 1 1 1 1 0 1 0 2 3 1 3 3 1 1 2 2 4 2 1 2 2 1 2 2 3 1 2 0 1 1 2 1 2 1 2 2 1 2 0 1 1 1 0 1 2 1 1 1 3 1 3 1 2 1 3 2 2 1 0 1 2 1 0 1 1 0 3 2 1 0 0 4 0 3 4 1 1 2 1 3 1 1 0 1 1 3 3 1 0 1 2 1 1 3 0 1 1 1 1 2 1 1 2 2 0 0 1 0 2 0 1 1 4 1 3 1 3 2 1 2 3 2 1 0 2 0 1 1 1 1 0 2 1 1 0 0 1 0 1 1 2 1 1 1 1 2 2 2 1 0 1 2 0 2 1 1 0 0 3 2 1 2 3 2 1 1 1 1 2 0 0 2 2 0 1 1 1 1 0 2 2 3 3 0 2 0 0 1 2 1 1 1 3 2 0 2 1 0 1 1 1 1 0 2 2 1 2 0 2 1 0 3 2 0 0 2 1 1 4 1 2 1 1 1 1 2 1 2 0 0 2 4 1 2 0 1 0 1 2 2 0 2 1 1 0 3 0 3 1 1 0 2 0 2 2 2 1 2 3 3 1 2 1 1 0 1 2 1 0 1 3 1 2 2 2 0 2 2 1 1 1 1 1 1 1 1 1 3 1 0 0 0 1 1 0 0 2 2 2 1 0 2 1 3 0 3 2 3 1 3 1 3 2 0 2 1 0 0 2 2 2 1 2 1 1 2 1 2 2 1 1 1 2 1 2 1 1 3 1 2 2 0 0 0 3 1 2 2 3 2 1 0 2 3 2 2 3 0 0 1 0 2 2 0 1 2 3 2 0 0 3 1 2 2 1 0 1 1 0 1 4 1 1 1 0 1 1 1 1 2 1 1 0 2 1 0 2 1 1 1 3 1 0 1 0 2 1 0 3 3 0 1 0 1 1 2 3 0 2 0 1 2 1 1 0 0 0 0 2 2 1 1 1 3 2 2 0 0 2 1 0 2 1 1 1 4 2 0 0 2 1 0 3 1 3 1 1 2 0 1 2 0 2 0 2 4 1 2 1 1 1 1 2 4 2 3 2 0 0 1 2 1 2 0 1 0 1 2 2 2 1 2 4 2 1 1 1 1 1 0 2 2 0 2 1 1 1 1 1 0 3 4 3 0 2 2 0 3 1 3 1 1 1 3 1 0 2 2 0 3 2 2 0 0 2 2 1 3 2 0 1 1 2 3 1 1 1 1 2 2 3 2 0 0 1 2 2 2 1 0 0 2 0 0 2 0 1 3 3 1 1 1 0 1 1 1 3 2 0 0 1 1 1 1 0 0 1 3 2 1 3 1 0 2 2 0 0 1 1 1 2 1 0 1 5 1 1 1 1 4 1 2 2 1 2 2 0 0 2 1 1 2 0 1 1 2 2 2 1 0 1 0 1 3 3 1 0 1 1 2 0 2 0 1 2 2 2 0 0 3 0 2 1 3 2 3 2 3 2 2 1 1 1 2 2 1 5 1 0 2 1 3 1 1 3 4 1 1 1 1 2 1 1 1 1 2 2 2 1 1 1 0 2 2 1 1 1 2 1 4 0 0 3 2 1 1 2 2 0 2 0 2 1 3 1 2 0 2 0 2 3 0 1 1 1 0 4 1 2 3 2 1 1 0 2 2 1 1 0 1 1 2 1 1 2 3 1 0 1 0 2 2 3 1 1 2 2 2 1 0 1 1 3 1 2 2 1 0 1 2 3 1 1 0 0 1 1 1 1 2 1 1 0 3 1 1 1 3 2 1 4 0 1 2 1 1 1 0 1 0 1 1 0 2 1 2 1 2 1 1 2 0 1 4 1 1 1 1 0 2 1 1 2 1 2 0 0 0 2 1 2 2 1 1 0 3 0 1 0 1 0 1 2 2 1 1 1 1 2 3 1 2 2 2 2 1 1 2 0 0 2 0 1 2 1 1 2 3 0 1 2 3 1 1 1 2 0 1 3 1 1 1 2 0 0 2 2 1 1 2 1 5 5 5 1 1 1 1 2 2 1 0 1 1 0 1 2 2 1 1 1 2 2 2 3 0 2 2 3 2 2 1 1 1 4 1 1 1 3 1 1 1 1 2 2 3 3 1 2 3 2 1 2 1 3 0 1 0 3 0 2 2 2 2 2 1 1 2 1 1 1 0 2 2 0 1 0 2 2 1 0 3 1 0 3 1 2 2 1 0 1 1 1 0 0 1 0 2 0 0 1 2 2 1 1 1 2 1 1 2 0 1 1 1 1 5 1 3 1 1 2 0 0 2 1 3 1 0 0 1 1 3 1 2 3 1 1 2 3 0 1 0 3 1 1 1 0 1 1 2 2 2 1 0 1 2 3 0 0 0 0 2 3 1 1 1 0 0 3 1 2 1 4 2 1 1 0 3 2 1 3 2 2 0 4 5 2 2 1 0 2 2 2 3 1 3 1 2 1 1 1 1 2 2 2 1 3 0 2 1 3 2 1 2 3 2 1 1 0 3 2 2 2 1 1 0 2 1 1 2 0 2 0 3 2 2 2 0 1 1 2 2 1 2 0 0 1 1 3 1 1 1 2 3 2 2 1 0 1 2 1 2 0 0 0 2 2 1 1 2 3 1 3 0 1 1 2 0 2 3 3 0 1 2 3 2 2 2 0 2 1 1 1 1 1 1 2 2 1 2 1 1 1 3 2 2 2 1 0 0 1 2 1 1 2 3 1 0 1 1 3 1 2 4 2 1 1 1 1 3 0 2 3 1 2 1 3 3 1 1 1 2 0 2 2 1 2 1 1 0 2 1 2 1 0 2 2 1 0 1 1 1 2 2 2 5 1 3 3 1 2 1 0 3 2 0 3 2 2 1 1 0 1 3 1 1 1 1 1 2 1 2 1 0 1 1 3 2 4 3 2 2 2 1 1 1 1 2 2 3 2 3 1 1 0 1 1 3 0 1 3 2 2 1 1 4 2 3 2 1 1 2 2 3 1 2 0 2 2 1 0 2 3 2 2 3 2 2 1 2 3 1 1 1 2 1 1 2 0 0 1 1 1 0 0 3 2 1 0 1 3 2 1 2 0 1 2 2 1 0 1 0 1 2 1 3 4 0 4 0 2 3 1 0 3 0 1 0 3 1 1 2 1 2 0 1 2 1 2 2 1 2 1 2 2 0 1 2 3 1 1 1 1 2 3 2 1 0 3 1 2 1 1 0 0 2 2 2 3 2 2 0 2 1 2 1 2 1 1 1 3 2 3 0 1 2 0 1 1 2 1 0 1 1 2 0 1 1 1 3 1 1 2 1 1 1 1 2 2 1 2 1 0 2 2 2 1 1 1 2 2 0 3 3 3 1 1 0 2 1 3 3 1 1 0 1 0 4 2 2 1 2 1 3 1 0 1 2 1 3 1 0 1 1 1 1 2 2 0 4 1 2 0 1 3 0 2 1 1 0 2 1 1 1 2 1 2 1 5 2 3 2 1 3 0 0 0 2 2 1 3 1 2 2 3 1 0 1 1 4 2 2 3 3 2 2 3 1 4 2 0 1 3 2 2 0 1 3 1 2 0 2 2 2 0 2 0 1 1 2 2 3 1 1 2 2 2 1 0 2 0 3 1 2 1 1 3 0 3 2 3 1 0 2 0 1 0 2 1 2 0 3 3 1 1 2 1 1 2 2 1 1 0 0 1 0 3 1 0 2 3 2 1 1 3 1 3 2 1 2 2 1 1 1 1 0 2 0 3 3 1 2 0 3 2 1 2 0 0 1 2 1 1 1 2 2 2 1 2 1 2 1 1 0 2 1 0 0 1 1 1 0 1 2 2 0 1 1 0 0 4 1 1 1 0 2 2 1 1 1 0 1 2 1 0 2 0 2 4 1 0 2 1 0 1 2 1 4 1 1 4 2 0 0 1 1 1 2 1 2 4 2 1 1 2 0 2 1 3 2 2 0 1 0 0 1 2 0 0 1 1 2 0 4 1 0 0 1 2 4 3 1 2 1 1 1 3 1 0 2 1 3 1 1 1 1 0 0 1 2 2 1 0 0 0 3 0 1 3 1 2 2 1 2 1 0 3 1 1 2 1 0 3 1 4 2 1 1 1 0 1 3 2 1 1 1 1 2 2 1 0 3 0 1 2 2 3 0 0 1 0 1 0 1 2 1 2 3 2 1 0 2 0 1 2 2 1 2 2 0 1 1 1 3 1 2 1 2 1 1 1 3 0 0 2 1 2 2 1 1 3 1 1 1 2 2 4 3 2 1 2 1 1 2 1 3 1 2 3 0 0 1 2 2 1 1 0 1 2 1 3 1 1 2 1 3 0 0 1 1 1 1 2 2 2 1 0 4 1 1 0 0 1 1 1 0 1 1 3 1 0 2 1 0 1 1 1 2 2 2 1 0 1 2 1 2 0 3 1 0 2 0 1 0 1 1 1 1 1 1 0 0 1 3 1 1 0 1 1 1 2 3 2 2 1 3 3 2 1 1 0 1 2 1 2 1 2 1 1 1 1 1 2 0 1 2 2 1 1 2 1 1 3 1 0 0 0 2 1 0 2 0 1 3 0 1 1 0 1 1 2 3 1 0 0 3 0 3 2 0 0 3 2 2 1 3 0 3 1 1 2 2 2 0 0 1 2 1 1 0 0 1 1 2 3 1 2 0 2 3 1 1 1 1 1 1 3 0 2 3 1 3 1 3 1 0 2 1 2 1 1 2 1 1 2 1 1 1 3 2 1 1 1 2 1 1 0 1 3 4 1 1 0 1 0 1 2 2 1 1 1 2 1 3 1 1 4 1 2 3 3 0 2 1 1 2 1 0 1 0 2 2 0 0 3 1 1 3 1 1 1 1 1 3 1 1 2 4 2 1 1 0 1 2 3 1 4 2 2 3 0 2 1 1 2 2 1 2 1 0 0 1 2 1 2 1 2 1 1 1 4 4 1 1 3 0 1 0 1 1 1 2 1 2 3 2 1 1 1 2 3 2 1 2 1 0 3 2 1 2 2 0 0 3 2 1 2 0 2 1 2 2 1 3 2 1 0 1 1 0 2 0 2 2 0 0 0 1 5 2 1 1 0 1 1 1 4 2 0 1 2 2 1 2 2 0 1 3 3 0 2 2 1 1 2 1 2 0 2 3 1 2 1 1 0 1 2 0 1 2 0 1 1 2 2 2 1 0 0 2 1 0 1 2 2 1 1 0 1 3 0 1 2 1 1 2 1 3 2 1 2 1 0 0 2 3 2 2 2 2 3 1 2 2 0 2 2 0 0 2 1 1 0 2 2 2 2 2 3 1 2 1 0 1 1 2 4 1 1 1 4 1 1 0 1 0 1 2 4 1 0 4 3 2 1 0 0 1 1 1 2 0 2 0 3 2 1 2 1 1 2 1 1 0 2 2 1 0 3 2 3 0 1 1 0 1 2 3 0 2 1 1 0 2 0 1 1 0 2 3 1 1 1 0 3 0 2 0 0 5 2 3 2 1 0 1 3 1 2 1 1 2 1 1 0 1 2 1 1 1 2 2 2 0 1 2 2 5 1 1 1 2 1 2 4 1 0 0 2 2 3 0 2 4 2 3 1 0 1 2 0 1 1 3 1 0 3 3 1 2 3 3 2 1 0 2 2 3 4 2 0 2 1 0 1 0 1 1 0 2 2 0 0 1 2 1 1 1 1 1 1 1 2 0 1 0 0 1 2 0 1 3 2 1 2 2 0 0 2 1 1 2 0 0 1 2 2 1 3 1 2 1 2 2 4 3 2 1 0 0 0 2 1 2 0 4 3 1 1 1 1 1 0 0 1 1 1 2 1 2 0 1 2 1 2 1 1 1 3 0 2 0 1 2 1 5 1 0 0 0 2 2 0 0 1 1 3 2 1 0 4 0 1 1 2 1 2 3 1 3 1 4 0 0 0 1 1 2 2 2 2 3 2 0 0 2 1 3 0 2 1 2 2 1 1 1 0 1 4 1 3 1 4 1 0 1 0 1 2 2 1 0 2 1 1 3 5 2 1 1 0 2 2 1 1 1 1 2 2 2 2 2 1 0 2 1 0 2 3 1 1 1 2 1 1 0 1 2 4 2 2 1 2 2 3 1 1 2 0 3 3 2 4 2 2 0 1 2 1 1 0 2 0 0 4 0 1 2 1 0 1 2 2 1 2 0 2 2 1 2 0 4 2 2 2 2 4 2 0 2 0 3 2 1 2 1 1 1 1 1 0 0 2 2 1 3 1 2 1 1 1 3 2 1 0 1 0 1 3 2 3 1 1 2 3 3 2 0 1 2 1 3 0 4 2 2 3 0 3 4 1 1 0 1 1 2 2 1 1 0 3 0 1 1 2 1 2 1 1 1 1 2 2 0 2 1 3 1 1 3 2 1 0 1 3 1 1 1 2 1 1 1 1 2 0 1 1 1 1 2 1 0 3 0 1 0 1 1 2 1 3 1 3 1 1 0 3 0 1 2 3 0 1 3 3 0 2 2 1 1 3 2 3 1 2 1 1 2 1 0 1 2 1 1 2 1 2 0 2 2 1 1 2 1 1 0 0 1 2 4 0 1 0 1 0 0 0 0 2 0 2 4 2 0 2 3 1 0 1 2 0 3 2 0 1 1 4 1 2 1 1 0 1 0 1 1 2 2 1 0 3 1 2 0 3 1 2 1 0 0 0 2 0 1 0 2 3 1 3 1 1 4 2 0 3 2 2 1 1 2 1 1 1 1 0 3 0 2 2 2 2 0 0 2 1 2 1 0 0 2 2 2 2 2 2 1 3 0 3 2 2 3 0 2 1 0 1 3 2 3 1 2 0 4 3 1 1 3 0 0 1 0 3 2 1 1 3 0 3 3 2 1 6 2 2 1 3 2 1 0 2 0 1 2 1 3 1 0 1 4 3 1 2 2 1 0 2 1 0 1 1 0 3 0 2 1 1 2 0 2 2 1 0 1 2 2 4 0 3 3 2 2 3 2 0 0 0 0 1 1 3 1 2 1 2 1 2 2 1 1 0 3 1 1 2 2 1 2 1 1 0 0 1 1 1 1 2 1 2 0 2 0 0 1 3 2 1 0 2 1 1 1 2 0 0 1 1 0 2 2 1 2 1 1 1 0 2 2 2 2 0 1 1 2 3 1 1 2 2 2 1 1 0 1 2 1 1 0 1 4 1 0 1 2 1 0 3 0 2 1 2 0 1 3 1 3 0 0 1 2 1 2 0 3 1 1 2 1 1 0 1 0 1 2 0 0 1 1 2 2 1 2 1 3 1 2 0 1 0 0 1 2 1 0 1 1 2 1 3 1 0 3 2 2 2 0 1 2 1 2 2 4 1 0 2 1 1 2 1 1 3 1 1 1 3 1 1 2 0 0 3 2 1 2 1 1 2 1 0 1 1 1 0 1 1 1 3 0 3 0 1 2 3 0 1 3 1 0 1 1 1 3 1 1 2 2 3 1 2 3 1 1 2 3 1 2 0 1 1 2 1 1 0 1 0 1 3 1 1 1 3 1 0 2 0 0 0 2 0 1 2 1 2 1 3 2 4 0 2 0 1 0 1 2 2 1 1 1 1 0 1 1 0 1 1 1 2 0 2 0 1 2 3 1 0 1 1 1 0 1 4 1 2 1 3 1 1 2 2 1 1 1 0 3 2 0 0 1 2 1 0 1 2 2 0 1 2 1 2 1 2 1 1 1 3 1 1 2 2 3 0 1 0 2 1 0 0 2 1 1 1 2 1 0 0 3 1 4 2 2 4 2 3 0 0 1 0 0 2 1 1 0 2 0 0 1 0 0 0 0 1 2 1 2 2 1 2 2 2 1 1 1 2 2 1 1 2 1 0 1 3 2 1 1 0 1 4 1 1 0 0 1 0 1 1 1 1 3 1 1 2 0 3 1 1 1 0 2 4 2 3 1 2 0 1 3 0 1 0 1 3 3 1 0 1 2 1 1 1 0 1 1 0 1 2 0 1 0 2 1 0 2 3 1 1 3 0 1 0 0 0 0 2 0 0 0 1 1 2 1 1 0 1 2 1 2 1 2 2 4 1 4 2 0 1 1 1 2 0 3 2 1 1 1 3 2 2 0 3 1 2 1 1 0 1 2 0 1 1 3 2 1 0 3 2 1 1 0 1 2 1 2 2 1 3 2 1 0 0 2 3 0 0 0 0 3 1 2 0 2 3 2 2 0 3 3 0 0 1 2 0 1 2 2 1 0 1 2 0 1 5 0 1 0 1 1 3 1 1 0 1 2 2 1 0 2 1 2 1 2 0 2 1 1 1 2 1 1 2 2 2 0 1 1 1 1 0 2 0 1 1 1 1 1 1 2 1 1 1 1 1 0 2 1 1 1 0 1 2 0 2 1 2 1 4 0 1 0 1 3 1 4 3 1 0 0 1 3 3 2 2 1 2 0 0 2 2 3 0 2 1 1 0 0 0 1 2 1 2 1 0 2 1 2 0 2 2 1 1 1 4 3 2 0 2 0 0 0 1 3 0 1 3 1 0 3 3 0 0 3 0 2 0 2 2 1 0 0 2 0 0 3 0 1 0 2 1 2 2 1 0 2 2 1 2 1 0 2 0 0 0 1 1 2 0 1 3 0 1 2 1 1 0 2 1 2 3 1 2 1 0 2 2 0 1 1 1 2 2 0 1 1 1 1 0 2 2 3 3 3 1 0 2 3 0 1 1 1 1 1 2 0 1 1 0 2 1 2 3 1 1 1 1 2 1 2 2 3 1 1 3 1 2 1 2 1 1 0 0 2 1 0 2 4 1 2 2 1 2 2 0 1 2 0 2 1 0 2 1 2 0 0 2 3 3 3 0 2 2 2 1 3 2 0 1 4 3 2 0 2 4 2 2 1 2 2 2 1 0 1 2 2 2 1 1 2 1 1 1 3 2 1 2 1 2 1 0 1 3 1 1 1 1 1 1 2 1 2 3 1 0 2 3 1 1 1 0 1 1 2 1 2 1 0 0 0 3 2 1 1 1 2 1 2 1 1 2 1 2 0 1 1 1 1 3 2 1 3 1 1 0 3 0 0 1 0 1 3 0 2 2 1 2 2 1 1 1 0 0 2 3 2 0 1 2 1 2 2 0 3 1 4 2 1 2 0 2 1 1 1 1 1 1 1 1 0 2 3 5 2 0 1 1 0 1 3 2 2 2 1 1 1 1 0 2 4 2 2 3 1 2 3 1 2 2 1 0 1 2 3 0 1 1 1 1 1 2 0 1 0 0 2 1 1 1 4 0 3 1 2 2 4 1 1 0 3 2 2 2 3 1 2 1 2 1 1 1 2 2 3 1 0 2 1 0 0 3 1 1 0 2 2 1 1 1 0 3 1 3 2 1 0 2 1 1 2 1 1 1 3 2 0 0 2 0 1 1 2 0 3 0 0 1 1 2 1 1 2 3 2 1 1 1 0 1 2 2 2 1 1 1 1 0 0 2 0 3 0 2 4 0 2 2 2 1 1 4 1 2 1 0 1 1 0 2 2 1 0 1 0 2 2 1 3 0 0 1 2 0 1 1 2 1 3 0 2 0 1 1 1 4 2 3 2 1 0 0 3 2 1 1 3 0 1 1 1 0 2 0 1 1 2 2 1 0 2 1 4 1 1 2 0 2 1 1 2 1 2 2 2 1 2 0 0 2 1 1 1 2 1 0 1 3 2 1 2 2 3 1 0 2 2 1 0 3 0 2 2 1 1 2 2 1 2 1 0 2 1 0 0 0 3 0 2 2 1 1 0 1 1 0 2 1 2 1 1 2 1 2 3 2 1 2 1 2 1 3 3 1 2 1 0 1 0 3 1 5 2 0 2 3 0 1 1 2 2 1 3 0 1 2 3 1 1 2 1 3 1 2 1 1 0 0 2 1 0 2 1 1 2 3 0 3 3 0 1 0 2 1 1 0 3 1 2 0 2 2 0 2 1 2 2 2 2 1 0 3 0 1 2 2 2 1 3 2 2 2 2 2 0 2 1 0 3 0 1 2 3 2 3 3 1 0 0 2 3 1 1 2 4 0 2 2 2 2 2 0 1 3 1 1 1 1 1 1 0 1 3 1 3 2 1 4 1 0 2 1 2 1 3 2 0 1 1 1 0 1 0 0 3 1 3 1 2 3 1 2 0 1 3 3 0 2 1 1 0 3 0 1 1 0 0 1 0 2 1 0 1 1 1 1 1 1 3 3 0 0 1 2 1 1 1 1 1 1 1 0 2 2 1 0 1 2 2 2 1 1 0 2 3 4 2 1 0 1 1 1 1 1 1 2 0 2 1 2 1 3 2 2 2 1 1 2 1 1 3 2 0 1 1 2 1 4 0 0 2 2 0 1 2 2 2 4 1 0 1 0 1 0 1 2 1 1 0 2 2 0 2 2 0 1 0 1 2 1 0 2 0 4 1 0 1 0 0 1 2 2 1 2 2 2 0 2 1 2 1 2 2 2 0 2 1 2 1 0 2 2 0 1 1 0 1 3 2 0 0 1 1 0 1 2 3 3 2 1 3 1 1 1 0 3 1 1 1 2 2 0 1 1 2 2 1 2 1 3 1 1 2 1 1 1 0 1 1 3 2 2 0 3 2 0 2 3 1 2 2 2 1 2 1 0 1 3 1 1 3 1 2 2 1 3 2 0 3 2 2 4 1 2 3 0 1 1 2 1 0 2 1 3 2 1 2 3 1 0 2 2 0 1 2 2 2 1 1 2 0 2 1 2 1 2 1 2 0 3 0 1 0 3 0 3 2 2 1 3 0 0 0 0 3 2 3 1 0 2 0 0 2 1 1 1 0 1 1 1 2 3 1 0 1 1 3 1 0 2 0 1 0 2 2 3 3 1 0 2 1 1 2 1 3 4 1 2 2 1 0 0 1 2 3 2 2 0 3 3 1 1 0 3 2 1 3 0 1 1 1 1 1 0 0 1 2 3 3 1 2 2 0 1 1 0 1 2 4 0 1 1 1 1 2 2 1 0 3 1 0 2 3 2 2 3 1 2 3 2 1 2 3 1 1 2 2 0 0 1 3 2 1 1 1 1 1 2 1 2 1 2 1 1 0 3 1 2 1 1 1 0 1 1 1 0 4 0 3 1 4 1 3 4 2 1 1 1 0 2 2 3 0 2 1 3 3 3 0 1 1 1 1 1 0 3 1 2 0 1 0 3 0 1 1 0 1 2 2 6 1 1 1 3 1 2 0 2 0 1 0 1 2 1 1 1 2 2 1 2 1 1 2 1 1 1 0 2 2 1 0 1 2 2 0 1 2 1 2 1 2 3 3 1 0 2 1 1 1 1 1 1 2 2 2 1 0 1 2 1</t>
+  </si>
+  <si>
+    <t>GAM(0.15944038220208956, -1.800994078244708e-27, 0.8452581988026582)</t>
+  </si>
+  <si>
+    <t>0 2 1 1 1 1 1 0 1 1 0 2 0 1 0 0 0 1 0 0 1 2 0 0 0 0 0 0 1 1 0 1 0 0 1 0 0 0 1 0 2 0 1 0 1 1 0 0 0 0 2 1 1 0 0 1 3 1 0 0 0 1 1 0 0 2 0 0 0 1 2 0 0 0 0 0 1 0 0 0 1 0 0 0 0 1 0 1 1 1 0 1 0 0 0 0 0 1 0 1 0 0 1 2 0 0 0 1 0 0 1 0 0 2 0 0 0 1 1 1 0 0 0 2 2 1 0 1 0 1 0 1 0 0 0 1 0 1 0 1 0 0 0 1 2 0 0 0 2 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 1 1 0 0 1 0 0 0 2 0 1 0 0 0 1 0 1 2 0 0 1 0 0 0 0 0 1 1 0 0 0 0 2 1 1 0 0 0 0 0 0 1 0 0 1 1 0 0 0 0 0 1 0 2 1 0 0 0 1 0 0 0 0 0 0 1 0 1 0 1 1 0 1 0 0 1 2 0 0 1 0 0 1 0 1 0 0 0 0 1 0 0 0 1 2 0 0 2 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 2 1 0 0 2 1 0 0 0 0 0 0 0 1 1 0 1 0 0 2 2 0 1 0 1 0 0 1 0 0 1 0 3 0 0 0 0 0 0 0 0 0 1 0 0 1 1 0 0 0 2 1 1 1 1 0 0 1 1 0 0 0 0 1 0 0 0 1 1 0 0 0 0 0 0 0 0 1 1 0 1 1 2 0 0 0 0 1 1 0 0 1 0 0 0 1 0 1 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 1 1 0 0 2 1 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 1 1 1 0 0 0 0 0 0 1 0 2 0 0 0 2 1 2 0 2 1 0 0 0 1 1 0 0 0 0 1 1 0 3 0 2 0 1 2 0 0 1 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 1 0 0 1 2 0 1 0 1 0 1 0 1 1 1 0 0 0 2 0 0 0 0 1 0 1 0 1 0 1 0 0 0 0 2 1 1 1 1 1 0 0 1 0 1 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 1 1 0 0 1 1 0 0 0 0 0 2 1 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 1 3 0 2 1 1 0 0 0 1 0 0 1 0 1 1 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 3 1 1 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 2 1 0 2 0 0 2 0 0 1 1 1 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 1 1 0 2 0 0 3 0 1 0 0 0 0 0 0 0 0 0 2 0 0 2 1 0 1 0 1 2 0 0 0 0 0 2 1 0 0 0 1 0 0 0 0 0 0 0 0 1 2 1 0 0 0 0 1 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 1 0 0 2 0 0 0 0 2 0 1 0 1 0 0 0 0 0 1 0 0 0 1 1 1 0 0 0 0 0 0 0 0 0 0 0 1 0 1 1 0 0 0 0 0 0 0 0 0 1 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 1 1 1 0 0 0 1 1 0 0 0 0 1 1 1 0 0 0 0 2 0 0 0 0 0 0 1 1 0 1 0 0 1 0 1 0 0 1 0 2 0 0 0 0 0 0 0 0 0 0 1 1 2 0 0 0 1 1 0 0 0 0 0 0 1 0 1 0 1 1 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 1 0 0 2 0 1 0 0 0 0 1 0 1 1 2 0 0 2 0 0 2 0 1 1 0 0 2 1 1 0 0 0 0 1 0 0 0 0 0 0 2 2 0 1 0 0 0 0 0 2 0 0 2 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 1 0 0 3 1 1 0 0 1 1 1 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 1 2 1 1 1 0 1 0 0 2 0 0 2 0 0 1 0 1 0 0 1 0 0 2 1 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 1 1 1 1 1 0 1 0 1 1 0 0 0 0 0 0 1 0 1 0 1 0 1 0 0 0 0 0 0 1 1 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 1 1 0 0 0 0 0 2 0 0 0 0 0 2 0 1 1 0 0 0 0 0 0 1 0 1 0 0 0 0 1 0 0 0 0 2 0 0 1 0 0 1 0 0 0 0 0 2 0 0 0 0 0 0 0 1 1 1 3 1 0 0 0 0 0 0 0 0 0 1 1 1 0 0 0 0 0 0 0 0 0 0 2 0 0 0 3 1 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 1 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 1 1 1 1 1 1 0 1 0 1 1 0 0 0 0 2 3 1 0 1 1 0 1 0 0 2 0 1 0 1 1 0 0 0 1 1 0 0 1 1 0 0 0 1 1 0 0 0 0 1 0 1 0 0 0 0 1 0 0 0 0 1 0 0 1 0 0 0 2 1 0 0 0 2 0 0 0 3 0 1 0 0 0 0 0 0 0 1 0 0 1 0 0 1 1 0 0 0 1 0 0 2 0 0 1 0 2 1 3 1 0 0 1 1 0 2 0 0 1 1 1 0 0 0 0 0 2 0 0 2 0 0 0 1 1 0 0 0 0 0 1 0 0 1 0 0 0 0 0 1 1 1 1 0 0 0 4 1 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 1 0 0 0 1 1 0 0 1 0 0 1 0 1 1 1 0 1 0 0 1 1 1 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 1 0 0 1 1 1 0 1 0 0 0 2 0 0 1 0 0 0 1 0 0 0 1 0 0 1 1 1 2 0 1 1 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 1 0 1 0 0 1 0 1 0 1 2 0 1 0 0 1 1 0 0 1 0 1 0 1 0 1 0 0 0 1 0 1 0 1 0 1 0 0 0 0 0 1 0 1 0 0 0 1 2 0 0 1 0 0 1 1 1 0 0 0 0 1 1 2 1 1 1 0 0 0 0 0 0 0 0 1 1 0 1 0 1 0 1 1 3 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 1 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 1 0 0 1 1 0 0 2 0 0 0 0 0 1 0 0 0 1 1 0 1 0 3 0 1 1 0 0 1 0 0 0 0 0 0 0 0 0 1 1 0 2 0 2 1 0 0 0 0 0 2 0 0 1 0 0 0 0 1 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 1 1 0 1 1 0 1 0 0 1 2 0 0 0 0 0 0 0 1 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 2 1 2 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 2 1 0 1 1 0 0 0 1 0 0 0 2 1 0 1 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 1 1 0 0 0 1 0 0 1 0 1 2 1 1 1 0 0 0 1 0 2 0 0 0 0 0 0 0 0 0 0 1 1 0 2 2 0 0 0 0 1 2 1 0 0 1 1 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 1 2 1 0 0 1 2 0 1 0 0 0 1 1 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 1 0 1 1 0 0 0 0 1 3 1 0 0 0 1 1 0 0 0 0 0 0 0 1 0 0 2 1 0 1 3 1 1 1 0 0 0 1 2 0 1 0 1 1 0 2 0 1 0 0 0 0 0 1 0 0 0 1 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 1 1 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 2 1 1 1 0 0 0 0 1 0 0 0 0 2 0 0 0 0 0 1 0 1 1 0 0 1 0 1 1 0 0 0 2 0 1 0 2 0 0 0 0 1 1 0 0 2 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 2 2 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 1 0 0 0 1 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 1 0 1 0 0 1 0 1 2 1 0 0 0 0 0 1 1 1 1 1 0 0 0 1 0 0 0 0 1 0 0 2 1 0 0 0 0 0 0 0 0 1 0 0 2 0 0 1 0 1 0 0 2 0 1 0 0 1 0 0 0 0 2 0 1 0 0 1 0 0 0 0 0 0 1 0 0 0 1 0 1 0 0 0 1 0 0 0 1 1 0 1 1 1 1 0 0 0 0 0 0 0 1 0 1 0 0 1 1 0 0 1 0 0 0 1 0 0 0 0 1 0 1 1 0 0 0 0 0 0 0 0 2 1 0 2 0 0 0 0 0 0 0 1 0 2 0 0 0 1 2 0 1 0 1 0 0 0 0 0 1 2 0 0 1 0 0 0 2 0 0 0 2 0 0 1 0 0 0 0 0 2 0 0 0 0 1 1 0 1 0 1 0 0 0 0 0 0 0 0 0 0 1 0 2 1 0 0 0 1 1 1 0 2 0 0 2 0 0 1 1 0 0 0 0 0 1 0 0 0 1 0 1 1 0 1 0 0 1 0 0 0 0 2 1 0 3 0 0 1 1 0 0 1 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 1 0 0 2 0 1 0 1 0 1 2 0 0 1 0 0 0 0 1 1 1 0 1 0 0 0 1 0 0 0 1 0 1 1 0 0 0 0 1 1 2 2 1 0 1 0 0 0 0 0 0 0 1 1 0 1 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 1 0 0 0 0 1 0 0 0 1 1 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 1 1 0 3 0 0 1 1 0 1 0 0 1 0 1 1 0 0 0 0 0 0 0 0 0 2 0 2 0 1 0 0 0 0 0 0 0 0 0 0 1 1 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 1 2 2 0 0 0 1 0 0 1 1 1 1 0 0 1 0 0 0 0 0 1 0 0 0 1 0 0 1 0 0 0 0 0 0 0 1 1 0 1 0 0 2 0 2 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 1 2 0 0 0 0 1 0 0 2 0 0 0 0 0 1 0 0 0 1 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 2 0 0 1 0 0 0 1 0 0 0 1 0 1 0 0 0 1 0 1 1 0 0 0 1 0 1 0 0 0 1 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 1 0 1 0 0 0 1 0 1 0 1 0 0 0 0 0 0 0 1 0 1 0 0 1 1 0 0 1 1 2 0 0 0 1 0 0 0 1 0 0 0 1 0 1 0 1 0 0 0 0 0 1 0 1 0 1 0 0 0 0 1 0 0 0 2 0 1 1 0 1 0 0 0 1 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 1 1 0 1 0 0 0 1 1 0 3 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 1 1 0 0 0 0 0 0 0 0 0 1 0 1 0 1 0 1 0 0 1 1 0 1 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 1 0 1 0 0 0 0 0 1 0 0 0 0 0 1 0 0 2 0 0 1 0 0 0 0 1 1 0 0 0 2 0 0 0 0 0 2 0 0 1 0 0 0 0 0 0 0 0 1 0 2 1 1 0 0 0 0 0 0 0 0 1 1 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 2 0 0 1 1 0 0 1 1 0 0 0 0 0 1 2 0 0 2 0 0 2 0 1 2 0 0 0 0 1 1 0 0 1 1 0 0 0 0 0 1 0 0 0 0 0 1 1 2 0 1 0 0 1 0 0 1 0 0 3 0 0 0 0 0 1 0 1 0 0 3 0 0 1 1 0 0 0 1 1 2 0 0 0 0 1 0 0 0 0 3 0 1 2 0 0 0 0 2 0 0 0 0 0 1 2 1 1 0 0 0 0 0 0 1 1 1 0 1 1 0 0 1 3 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 1 1 1 0 2 0 0 0 0 0 1 0 0 0 0 1 0 1 0 1 2 2 1 1 0 1 2 0 0 0 2 1 0 1 1 0 0 1 1 1 0 1 1 0 0 0 0 0 3 1 1 0 0 0 1 0 1 0 2 0 0 0 0 0 0 0 0 1 2 0 0 0 1 0 0 0 0 2 0 0 0 1 0 1 1 1 0 0 1 0 1 0 0 0 0 0 2 0 0 0 0 1 0 0 0 0 0 0 4 1 0 1 0 0 0 1 0 1 1 1 0 0 1 0 1 0 0 2 0 0 0 0 1 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 2 1 0 0 1 0 1 2 0 0 1 0 0 1 0 0 0 1 0 0 0 1 1 0 1 0 0 1 0 1 1 0 1 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 1 0 1 0 1 0 1 0 1 0 1 1 0 1 3 0 0 1 0 1 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 1 0 0 0 1 0 1 0 0 0 2 0 0 1 0 0 1 0 2 0 1 0 0 0 0 1 1 0 1 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 2 2 0 0 0 0 0 0 1 2 0 0 0 0 0 1 1 2 0 0 0 0 1 0 0 1 0 0 2 0 0 1 0 2 0 1 0 1 0 0 0 0 0 0 1 0 0 1 1 2 0 1 0 0 1 0 1 0 1 1 0 0 0 0 0 0 1 1 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 2 2 0 0 0 0 0 0 1 0 0 0 2 0 1 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 1 0 1 1 1 0 1 0 1 0 0 0 1 1 0 2 0 1 1 1 1 0 0 0 0 0 0 0 2 0 0 1 0 0 2 0 0 0 0 0 0 1 0 1 1 0 0 0 0 0 1 1 0 0 0 0 1 1 0 0 0 0 0 0 1 0 0 3 0 0 0 0 0 1 1 0 0 0 1 0 0 0 0 0 2 2 1 0 1 0 1 0 1 0 1 1 0 1 0 1 0 0 1 0 0 0 1 0 1 0 1 1 0 1 0 0 0 0 0 0 0 0 1 0 0 1 0 0 1 1 1 1 0 2 1 0 0 0 0 0 0 0 1 1 1 0 0 0 0 0 0 1 1 0 2 2 1 1 0 1 0 2 0 0 0 1 1 0 0 1 0 0 0 0 1 0 0 1 0 2 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 1 2 0 0 0 0 1 1 0 2 0 3 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 1 1 0 0 1 0 1 1 1 1 0 2 0 0 0 1 1 0 1 3 2 0 0 0 1 0 0 1 0 1 0 0 1 1 1 0 1 0 0 0 0 0 3 0 0 0 0 0 0 1 0 2 1 0 1 0 1 0 0 2 0 0 1 0 1 0 1 1 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 1 1 0 1 0 0 0 0 0 1 1 1 0 2 0 0 0 1 2 1 1 0 0 0 1 0 0 0 1 0 0 1 1 2 1 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 2 0 0 1 1 0 0 1 2 0 0 0 1 1 1 0 0 1 0 1 0 1 1 0 2 0 0 1 0 1 0 0 0 0 1 2 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 1 1 0 0 1 1 1 0 0 0 2 0 1 1 0 1 1 0 0 1 2 0 1 0 1 1 0 0 0 1 1 0 1 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 1 0 1 0 0 0 2 1 1 0 0 1 1 1 0 0 0 0 0 0 0 1 2 0 0 0 0 0 0 0 0 0 2 0 0 1 0 1 0 0 0 0 1 0 1 1 1 1 0 1 3 0 0 0 1 0 1 0 0 0 2 0 1 0 0 1 0 0 0 0 1 0 1 2 0 1 0 1 1 0 1 0 0 0 0 1 0 1 0 0 0 2 0 0 1 0 1 1 1 0 0 0 0 1 0 1 0 1 0 0 0 0 1 1 0 1 0 0 0 0 0 0 1 0 0 1 1 0 1 2 0 0 1 0 0 1 0 3 0 0 0 0 1 0 0 1 0 0 0 2 1 0 0 1 1 0 1 2 2 0 0 0 0 0 0 3 0 0 1 0 1 0 0 1 0 0 0 1 0 1 0 0 0 1 0 1 0 0 1 0 1 1 0 0 1 0 0 1 0 0 0 0 1 1 0 0 0 0 1 0 0 0 0 0 1 0 1 0 0 1 2 0 1 1 0 0 1 0 0 0 1 0 2 0 2 0 3 1 0 0 0 0 0 1 1 0 0 0 0 1 0 0 0 1 2 0 0 0 1 0 1 1 0 1 0 0 0 0 0 1 0 0 0 0 1 0 2 0 0 0 0 0 0 0 2 2 0 0 1 0 0 2 1 1 0 2 3 0 1 0 0 1 2 1 0 1 0 0 0 1 1 0 1 0 0 1 0 0 1 1 2 0 1 0 1 0 1 0 0 1 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 1 1 0 0 0 0 0 1 1 2 1 0 0 0 0 0 0 0 0 0 2 0 0 1 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 1 0 1 0 0 0 0 0 3 0 0 0 0 2 0 1 0 1 1 0 0 0 1 0 0 1 0 1 0 1 0 1 0 1 2 1 0 0 0 0 0 1 2 0 0 0 1 1 3 2 1 0 0 0 0 0 0 1 0 1 1 1 1 1 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 1 1 0 1 2 1 0 0 1 1 0 0 0 0 1 1 2 0 0 1 0 1 1 1 1 1 2 1 0 0 1 0 0 0 0 3 0 1 0 0 1 0 0 1 0 1 0 0 0 0 1 0 0 1 0 1 0 0 1 2 1 0 0 1 0 0 0 0 1 0 0 0 0 0 0 1 0 2 0 0 0 0 0 0 0 1 0 0 0 0 0 1 1 0 1 1 0 1 0 1 1 0 1 1 2 0 0 0 1 0 0 1 0 0 0 0 1 0 1 0 0 0 0 1 0 0 1 0 0 1 0 1 1 1 0 0 2 2 0 0 0 0 0 0 0 1 0 0 0 1 1 2 1 1 3 0 1 0 0 1 1 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 1 0 1 0 0 1 0 0 0 1 1 0 1 0 0 1 0 0 0 0 1 1 0 1 1 0 0 2 1 0 0 1 1 1 1 2 1 1 0 2 0 1 0 0 2 1 0 0 0 3 0 0 0 0 0 2 1 1 1 0 1 0 2 1 0 0 1 0 0 1 0 1 0 0 0 0 0 1 0 0 0 0 1 1 0 0 1 0 0 0 1 0 0 0 1 0 0 1 0 1 2 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 1 2 0 2 1 1 1 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 1 1 0 2 0 1 1 2 0 0 0 0 1 0 0 0 0 0 0 1 1 0 0 1 0 0 0 0 0 1 0 0 2 2 0 0 0 1 0 0 0 0 1 0 0 0 0 0 1 0 1 2 0 0 0 1 0 0 0 0 2 0 0 0 1 0 2 1 0 0 0 1 0 0 0 0 1 2 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 1 0 1 0 1 1 0 0 0 1 0 1 1 0 1 0 1 1 0 2 0 0 0 0 1 0 0 0 0 0 2 0 0 0 0 1 0 1 1 0 0 1 2 1 0 0 1 0 0 1 1 0 0 0 0 1 0 1 0 1 1 0 1 0 0 2 0 1 0 0 1 0 0 0 0 3 0 0 0 1 0 0 0 0 0 1 0 0 0 2 0 0 0 1 1 0 0 0 0 0 1 0 0 0 0 0 0 1 2 0 1 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 1 1 1 0 0 0 0 1 0 2 0 0 0 0 0 0 0 1 0 1 0 0 1 0 0 0 0 1 0 0 0 0 0 0 2 0 0 0 0 1 0 1 0 1 1 1 0 0 0 0 0 0 0 0 0 1 1 0 2 0 0 0 0 0 0 2 0 1 2 0 1 0 0 0 0 0 0 0 0 0 0 2 0 0 0 3 0 0 0 1 0 0 1 0 1 0 0 0 0 0 0 1 0 0 0 0 2 0 0 0 1 2 0 0 0 0 1 1 0 1 0 0 2 0 0 2 0 1 0 0 0 0 0 1 1 0 0 0 0 0 0 1 0 1 0 0 2 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 3 1 0 0 0 0 0 0 1 0 2 0 0 2 0 0 0 0 0 0 0 0 1 1 0 0 2 0 0 0 1 0 0 1 0 0 0 0 1 0 0 1 1 1 0 1 0 0 1 0 1 1 0 1 0 0 1 0 2 0 0 0 0 1 0 1 1 0 0 0 0 0 0 0 1 0 0 1 0 0 0 2 0 0 0 0 0 0 0 0 0 0 1 1 0 3 2 2 1 0 0 0 0 0 0 0 0 0 1 1 0 0 1 0 0 0 0 0 1 0 0 0 0 0 2 0 0 0 0 1 0 1 0 2 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 1 1 0 0 2 0 1 0 0 1 0 0 0 0 0 1 0 1 1 0 0 0 0 0 1 2 0 1 0 1 2 1 0 0 0 1 0 0 0 1 0 0 0 0 1 0 1 1 0 2 1 0 0 1 1 1 0 1 0 1 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 1 1 1 0 0 1 1 1 0 0 0 0 0 0 0 0 2 0 0 1 0 0 0 1 1 0 1 0 0 0 0 1 1 0 0 0 0 0 0 1 1 1 0 0 0 0 0 1 2 0 0 1 0 0 0 0 0 3 0 0 1 0 1 1 2 1 0 2 0 0 1 1 0 0 0 1 0 0 0 1 1 0 1 1 0 0 0 0 0 0 0 0 2 1 1 0 2 1 0 0 0 0 0 0 1 2 0 0 0 0 0 0 1 0 1 1 1 1 0 1 0 0 1 2 0 0 1 1 0 0 0 0 0 0 2 3 0 1 0 0 1 1 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 1 0 0 0 2 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 2 0 0 0 0 0 1 0 0 0 1 0 1 2 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 1 1 0 1 0 0 1 0 0 0 0 0 0 1 0 0 0 0 1 1 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 2 0 1 0 0 1 0 1 1 0 1 0 0 0 0 1 0 0 0 0 0 0 1 0 0 1 0 2 0 0 1 0 2 0 0 0 1 1 1 0 0 2 1 0 0 0 0 0 1 0 1 0 1 1 0 1 0 0 2 0 0 0 0 1 0 0 2 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 1 0 0 1 1 0 0 0 1 0 0 0 0 1 1 0 0 0 0 0 1 0 0 1 0 0 1 0 1 0 1 0 1 0 0 0 0 0 3 1 0 1 0 2 0 1 0 0 1 0 0 0 0 1 0 2 1 0 0 0 1 0 1 0 1 1 0 0 1 0 0 1 1 0 1 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 2 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 1 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 2 0 0 1 1 0 0 0 0 0 1 0 0 2 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 3 0 0 0 2 0 0 2 0 1 1 0 0 1 1 0 1 0 1 1 0 1 0 1 0 1 0 0 2 0 0 2 0 1 1 1 2 0 1 0 0 1 0 0 0 0 0 1 1 1 1 1 2 0 0 1 0 1 0 0 0 0 0 0 1 0 0 0 0 1 0 1 1 0 0 0 2 1 1 0 1 0 0 0 1 1 1 0 0 0 0 0 0 2 0 1 0 0 0 1 0 2 1 0 0 0 0 2 1 0 0 1 1 1 1 1 1 2 1 0 1 0 0 0 0 0 1 0 0 0 1 0 0 0 0 1 0 0 0 0 1 0 0 0 0 1 0 0 1 0 0 1 1 0 1 1 0 0 0 1 0 0 1 1 0 1 0 1 0 0 1 2 1 0 1 0 0 1 0 0 1 1 1 0 0 0 0 0 0 0 1 0 1 0 0 0 1 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 1 2 0 0 0 0 0 0 0 1 2 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 2 0 0 0 0 1 0 0 0 0 0 1 0 1 0 0 4 0 1 0 0 0 1 0 0 0 1 0 0 0 1 2 0 0 2 1 0 1 0 2 1 0 0 1 0 0 1 0 0 0 0 0 0 1 2 0 0 1 0 0 0 0 1 0 1 0 0 0 0 0 0 0 1 0 0 0 1 0 2 1 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 2 0 0 0 0 1 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 2 0 1 1 1 1 0 1 2 0 1 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 3 2 2 1 0 1 0 0 1 0 0 1 0 3 2 0 0 0 2 0 1 2 0 0 0 0 0 0 0 0 1 0 2 0 2 1 0 0 0 0 0 0 2 1 0 0 0 0 0 0 0 0 0 1 2 1 1 1 0 1 0 0 0 0 1 1 0 1 1 0 0 0 0 0 1 0 0 1 0 0 0 1 0 0 0 0 1 0 0 1 4 1 0 0 0 0 0 0 1 0 1 1 0 1 1 1 0 0 1 0 5 1 1 1 0 1 0 0 0 1 0 0 3 0 1 1 0 0 0 0 1 0 2 2 0 0 1 0 0 0 0 1 0 0 0 0 1 0 0 1 0 0 0 2 0 0 2 0 0 2 1 0 0 0 0 0 0 1 0 1 0 1 1 0 0 0 0 0 0 0 2 1 0 0 0 0 0 0 0 0 0 0 0 1 1 1 0 1 1 2 0 0 0 0 0 0 0 0 0 1 1 0 1 0 2 0 0 1 1 2 0 0 1 0 0 0 0 0 0 1 1 1 2 0 0 1 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 1 0 1 1 0 0 0 0 1 0 0 2 0 1 1 2 0 1 0 0 1 0 1 0 0 1 0 0 0 0 1 1 0 1 0 0 0 0 0 0 0 0 2 1 0 0 0 1 0 0 0 1 0 0 2 0 1 0 0 0 0 0 0 1 0 0 1 0 1 1 0 0 0 0 0 1 0 1 1 1 0 2 1 0 0 0 0 0 0 0 0 2 0 0 0 1 1 1 0 0 0 0 0 0 0 1 1 0 2 0 1 0 0 0 0 0 0 0 1 1 0 0 0 0 0 1 0 0 1 0 0 0 1 0 1 1 0 0 1 0 0 1 0 0 0 0 0 0 0 1 1 2 0 0 0 1 1 0 0 0 0 2 0 2 0 1 0 0 2 0 0 1 0 0 0 1 0 1 1 1 0 0 0 0 0 0 1 1 0 0 0 0 1 0 1 0 0 1 0 2 0 0 0 0 0 1 0 1 1 0 0 0 1 0 0 1 0 0 1 0 0 1 0 0 1 0 1 1 0 1 0 0 0 0 0 1 0 0 0 0 1 1 0 1 0 0 0 0 1 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 1 0 0 0 0 1 0 1 0 1 0 2 1 1 1 0 0 0 1 0 2 1 0 0 2 0 1 1 0 0 0 0 1 0 0 0 0 0 0 0 1 1 0 1 0 0 0 0 0 1 0 0 0 1 0 0 1 1 0 2 1 1 2 0 2 0 0 0 3 0 0 2 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 1 1 0 0 0 1 0 1 0 0 0 1 0 2 0 0 2 0 0 0 0 0 0 1 1 1 0 0 0 0 1 0 1 0 1 0 0 0 0 1 0 1 2 0 0 0 1 0 0 1 1 0 1 0 1 0 0 0 1 0 0 0 0 0 1 0 1 1 0 2 1 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 1 0 0 0 3 0 0 0 0 1 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 2 0 1 0 0 0 1 0 1 0 1 2 0 0 1 1 2 0 0 0 2 0 0 1 0 0 0 0 0 0 1 2 0 0 0 0 0 0 1 0 1 0 1 0 0 0 0 0 0 0 0 1 1 2 0 2 1 0 0 1 0 1 0 2 2 0 1 0 0 0 0 0 1 0 1 0 0 1 3 0 0 0 0 1 0 0 0 0 0 0 0 1 0 1 1 2 0 0 1 1 0 0 0 1 0 0 0 1 0 0 0 0 0 1 1 0 0 1 0 0 1 0 0 1 0 0 0 1 1 0 0 0 1 0 0 0 0 0 1 0 1 0 0 0 1 0 0 0 0 1 0 0 0 1 0 0 0 2 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 1 1 0 0 1 2 0 0 0 0 0 2 1 0 0 0 1 1 0 0 0 0 0 0 1 0 0 2 0 0 0 0 2 0 1 0 0 0 0 1 1 0 0 1 0 0 0 0 0 0 0 1 0 2 0 0 0 1 0 0 0 1 3 1 0 1 1 0 1 0 0 1 0 0 0 0 0 0 0 1 1 0 0 0 0 1 0 0 1 0 0 0 0 0 1 0 1 1 0 0 0 1 0 0 0 1 0 0 0 0 0 1 1 1 1 1 0 0 1 0 0 0 0 1 0 0 0 1 1 2 0 0 0 0 0 0 1 0 1 1 1 0 1 0 2 0 1 0 1 0 0 1 0 0 1 0 0 0 0 1 0 0 0 0 0 1 0 2 1 2 0 0 1 0 0 0 0 1 1 0 0 0 0 0 1 1 0 0 1 1 1 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 2 1 0 2 0 0 0 1 0 1 1 1 1 0 1 0 1 0 1 0 0 1 2 1 0 0 0 2 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 1 1 0 1 3 0 0 1 2 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 1 1 1 0 0 2 0 0 0 1 0 0 1 1 0 1 0 0 0 1 0 0 1 1 0 0 1 0 1 1 0 1 1 0 0 0 0 0 1 0 0 1 0 0 0 2 1 0 1 0 0 0 1 1 1 1 1 1 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 1 0 1 0 1 0 0 0 1 2 0 1 2 0 0 0 1 0 0 0 0 0 0 0 1 1 0 0 1 0 2 2 0 0 0 0 0 0 2 1 0 0 0 1 0 0 1 0 0 0 0 0 1 0 0 1 0 0 0 1 1 0 1 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 2 0 2 0 0 0 1 0 0 1 0 1 0 1 0 0 0 0 0 0 1 0 1 1 1 0 2 2 0 0 0 2 0 0 0 0 0 0 1 0 0 0 0 1 1 1 0 0 0 0 1 1 0 0 1 0 0 0 1 0 1 2 0 0 0 0 0 0 1 0 1 0 0 3 0 0 0 0 0 0 0 0 0 0 0 1 0 2 0 0 0 0 1 0 1 2 0 1 3 0 0 1 0 3 1 0 0 1 0 0 1 2 0 0 0 0 1 0 0 0 1 1 0 1 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 1 1 1 2 1 1 0 0 0 1 0 0 1 0 1 0 1 0 1 0 2 0 0 2 0 0 0 1 0 2 0 0 0 0 0 0 1 0 0 1 0 0 0 0 1 0 0 1 1 2 0 0 0 0 0 0 1 1 0 1 0 0 1 1 1 0 1 1 0 0 1 0 0 0 0 0 1 0 1 0 1 0 0 1 0 0 0 0 1 1 0 0 0 0 0 0 1 0 0 1 0 0 0 0 1 1 0 0 2 0 1 0 1 1 0 0 0 0 0 0 1 2 0 0 0 0 0 1 0 0 0 0 0 0 0 2 1 0 0 0 0 0 0 0 0 0 1 1 0 0 0 1 0 1 0 0 0 0 3 1 1 1 1 0 1 1 0 0 1 0 1 2 0 0 0 1 0 0 0 0 1 0 0 1 0 1 1 1 0 0 1 0 1 0 1 2 0 0 0 1 1 0 0 2 0 1 0 0 1 2 1 0 0 0 2 0 0 1 0 2 0 0 1 0 1 0 1 0 1 0 0 0 0 1 3 0 2 0 1 0 0 0 0 1 0 1 0 0 0 1 0 1 1 0 0 0 0 0 1 0 0 0 0 0 0 0 1 1 1 0 0 1 0 2 2 1 1 0 1 0 0 0 0 0 0 1 1 1 0 1 0 0 0 0 0 0 1 0 0 0 0 2 0 0 0 3 0 1 0 0 1 1 1 0 0 2 0 1 2 1 1 2 0 2 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 2 0 0 1 1 0 1 0 0 0 1 0 0 1 2 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 1 0 1 1 1 1 1 3 1 0 0 0 0 0 1 0 0 2 0 0 1 0 0 0 0 0 0 0 1 0 1 0 0 0 1 1 0 1 0 1 1 0 0 0 2 1 0 1 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 2 0 1 0 0 0 0 1 1 0 0 0 1 0 0 0 0 1 0 0 0 1 0 1 1 0 0 0 0 0 0 0 0 1 1 0 0 1 1 1 0 0 0 1 0 1 0 1 0 0 0 2 0 0 0 1 0 1 0 2 0 1 0 0 0 0 1 1 0 2 1 0 0 0 0 1 1 0 0 0 1 0 1 0 1 1 0 0 0 0 0 1 0 0 0 2 1 1 0 0 0 0 0 0 0 0 2 0 0 0 0 1 1 1 0 0 0 0 0 1 0 0 0 0 1 0 0 1 0 1 1 1 0 0 0 0 0 0 0 0 2 1 1 0 1 0 1 1 0 0 0 0 0 0 1 0 0 0 0 1 1 2 0 1 1 0 0 1 2 1 1 0 1 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 2 0 1 1 1 0 0 2 0 0 0 1 2 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 2 0 0 1 0 1 0 0 1 0 0 0 0 1 0 0 0 1 2 0 0 0 1 0 0 2 1 0 0 1 0 0 1 0 1 1 1 0 0 0 0 0 0 1 1 1 1 0 0 0 0 0 0 1 0 0 1 0 1 0 0 0 0 1 1 0 0 0 0 1 1 0 0 1 0 0 0 2 0 1 0 0 0 0 1 1 0 0 0 0 0 0 0 1 0 0 2 0 2 0 0 0 1 1 0 1 0 0 0 0 1 1 0 1 0 0 0 0 0 0 0 0 2 0 0 0 1 0 1 0 1 0 0 0 0 1 0 0 0 0 0 0 1 1 0 1 0 1 1 0 1 0 0 0 1 0 0 1 1 1 0 0 0 1 0 0 0 1 0 1 0 0 0 0 1 0 0 0 1 1 0 0 1 0 0 0 0 0 1 0 0 0 0 0 1 0 1 1 0 1 1 1 1 0 0 0 0 0 1 0 2 0 0 0 1 0 1 0 1 1 2 0 0 0 0 2 1 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 1 0 1 0 0 2 0 0 0 2 0 1 0 0 1 0 0 1 0 0 1 2 0 0 0 0 1 2 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 1 1 0 1 0 1 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 1 0 2 0 1 0 0 0 0 2 1 0 1 0 3 0 1 0 0 0 0 0 0 1 0 1 0 1 0 0 1 0 1 0 0 0 0 0 1 0 1 0 1 0 0 2 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 1 1 0 1 0 1 1 0 0 1 0 2 1 1 1 0 1 0 1 0 0 2 0 1 0 2 1 1 1 0 0 0 0 0 1 2 0 0 0 1 0 2 0 0 1 0 1 1 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 1 1 2 0 0 0 1 0 1 0 1 0 0 0 0 0 0 0 0 1 1 1 0 0 1 0 0 0 1 0 0 0 1 0 0 0 0 0 1 2 0 1 0 0 0 1 0 0 1 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 1 1 0 0 1 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 2 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 1 0 1 2 1 0 0 3 0 0 1 1 0 1 0 1 0 0 0 1 0 1 0 0 1 0 0 0 0 0 1 0 0 1 0 1 0 0 0 0 0 2 0 1 0 0 0 1 2 0 1 0 0 0 0 0 0 0 1 1 1 1 0 2 1 0 0 0 0 0 0 1 0 0 0 3 1 0 0 1 0 1 0 2 1 0 0 0 0 1 0 0 1 0 0 1 0 0 0 0 0 1 0 2 0 1 0 0 1 0 0 0 0 1 0 0 3 0 1 1 1 1 0 0 0 1 1 1 0 2 0 0 0 0 0 0 0 0 1 0 0 0 0 1 1 0 2 0 0 0 1 1 0 0 1 0 1 1 1 0 0 0 0 0 1 0 1 0 0 1 0 1 1 0 0 0 0 0 1 1 1 0 0 3 1 0 0 0 1 0 0 0 0 1 1 0 1 0 0 1 2 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 1 1 0 1 3 1 1 2 1 0 1 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 1 1 0 0 0 0 0 1 1 0 0 1 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 1 0 0 0 1 0 2 0 1 0 1 0 0 0 0 0 0 0 0 1 1 0 1 1 0 0 0 1 0 0 2 0 1 0 0 1 0 1 0 0 0 1 0 1 1 1 1 0 0 0 2 2 0 1 1 0 0 0 1 2 2 3 1 0 1 0 1 0 2 0 0 0 0 0 0 0 0 2 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 2 0 2 1 0 2 1 1 1 1 0 0 0 1 0 1 0 0 1 0 0 1 0 0 0 0 1 1 0 1 0 1 1 0 0 0 0 0 2 1 0 2 0 0 3 0 0 0 2 0 0 0 0 0 0 0 1 1 0 1 0 0 1 0 0 0 1 1 0 1 0 2 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 1 0 1 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 3 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 1 0 0 0 1 1 0 1 0 0 1 1 0 1 0 1 1 0 0 0 2 1 1 1 0 0 0 0 0 0 0 0 1 1</t>
+  </si>
+  <si>
+    <t>JSU(-18.08128405732733, 10.622463024629198, -291.83880376349475, 156.783506646555)</t>
+  </si>
+  <si>
+    <t>177 90 77 125 68 202 133 81 169 98 121 142 123 111 135 154 105 59 156 163 158 85 185 196 118 117 77 51 134 70 128 111 107 139 143 58 147 105 114 102 90 129 80 105 92 136 126 144 152 127 72 104 103 131 227 109 161 163 115 106 113 66 136 80 59 87 143 194 107 135 247 120 91 170 91 90 79 127 50 192 170 161 78 184 173 210 114 92 105 111 167 105 110 124 126 108 132 66 206 39 73 154 101 98 120 131 156 131 114 145 165 117 162 153 134 138 72 68 174 138 105 181 95 118 109 122 82 79 120 28 134 69 107 110 108 111 77 19 207 62 86 186 137 143 103 82 120 120 134 160 49 77 90 139 132 141 93 153 215 142 236 173 57 159 82 77 134 186 160 131 128 171 107 146 224 131 106 146 121 171 115 147 95 178 156 77 164 233 165 232 125 114 149 66 157 157 188 87 114 105 79 173 154 139 80 151 171 68 114 101 121 139 102 84 110 126 143 113 67 96 134 126 97 121 132 141 145 177 186 177 105 89 126 68 145 142 136 138 92 65 88 76 71 73 133 160 70 109 162 148 115 127 137 85 98 125 178 156 139 167 135 135 100 123 151 124 176 77 139 163 104 94 67 73 115 81 114 87 162 129 62 86 107 134 159 132 103 175 100 151 82 65 106 162 157 201 123 110 52 131 93 120 54 159 130 170 93 123 167 143 95 127 170 104 165 158 110 168 159 72 224 85 129 101 175 135 49 161 114 218 74 93 232 202 126 174 42 117 169 117 105 114 50 110 228 119 37 173 130 94 73 125 61 175 88 151 84 143 171 129 137 203 218 120 116 86 78 126 148 143 74 189 210 84 106 28 111 141 67 131 119 130 97 95 124 138 164 145 64 123 154 158 155 71 173 167 135 64 132 201 100 82 158 131 205 107 136 78 30 146 86 78 147 46 138 114 90 157 74 59 129 117 151 132 159 151 39 35 53 119 70 184 87 85 117 84 61 82 152 184 114 159 49 165 153 90 104 61 80 146 138 72 139 97 124 152 78 155 103 108 124 134 144 195 137 133 50 90 116 116 134 102 114 51 80 137 124 150 112 87 94 138 147 128 141 113 155 135 136 116 102 96 113 110 79 136 117 149 74 126 113 110 71 108 68 75 121 146 150 87 186 152 173 113 173 129 64 19 174 189 153 91 110 87 174 54 124 141 107 166 190 233 203 145 181 93 63 131 111 141 141 62 130 128 132 109 167 163 100 128 109 35 132 151 159 156 163 98 151 80 114 154 181 171 180 175 106 162 160 128 175 131 109 126 114 134 166 167 114 82 121 158 121 200 75 109 101 173 140 130 128 168 146 117 64 101 53 126 161 191 59 103 162 151 112 71 126 79 176 66 143 164 148 144 134 38 103 179 56 139 153 154 136 54 138 135 127 116 200 132 152 129 159 88 241 171 126 188 129 79 139 82 109 36 144 100 110 96 91 134 157 119 81 164 138 93 168 51 145 121 44 37 130 157 192 135 164 129 95 129 111 115 186 85 159 99 82 80 168 184 139 127 209 125 117 164 168 179 119 155 186 185 154 9 221 85 137 146 84 115 100 122 164 144 198 89 10 172 130 127 114 62 125 138 252 84 73 162 88 119 94 194 136 128 85 142 94 245 105 112 141 217 101 162 224 185 101 153 163 122 123 154 82 100 125 189 40 87 238 112 119 226 161 176 146 62 120 112 107 97 169 79 77 124 122 153 126 207 111 104 258 103 159 104 99 82 139 174 59 86 182 161 62 53 128 97 164 172 93 182 95 77 218 84 127 154 108 105 117 74 211 186 178 119 146 126 119 173 124 57 114 153 112 126 104 65 152 154 206 136 67 89 181 179 157 164 108 181 117 151 108 183 96 87 119 179 127 232 151 123 96 141 53 54 61 147 171 206 92 127 128 120 111 87 137 124 92 120 247 140 243 180 109 184 175 126 68 155 80 73 135 90 216 117 198 98 161 89 138 87 256 124 156 113 148 153 113 104 126 221 230 117 125 230 138 53 201 169 142 91 92 126 144 69 142 114 134 125 124 109 145 172 148 198 111 193 141 154 145 51 82 83 155 102 190 83 137 143 82 106 142 128 134 102 175 131 136 154 143 297 137 146 127 97 98 105 159 82 105 93 177 122 90 156 174 184 182 92 59 78 121 213 48 203 149 155 83 151 148 122 63 29 177 123 87 163 94 66 175 113 72 144 146 176 65 220 121 132 167 119 85 133 62 99 65 51 197 58 125 88 117 169 114 182 148 43 104 106 93 77 120 108 77 61 122 54 176 176 82 123 118 103 85 141 129 91 169 129 27 138 166 175 197 234 143 216 137 181 198 67 114 151 149 111 173 111 151 112 54 79 189 82 174 113 157 227 182 135 146 151 209 111 140 137 105 128 151 71 140 128 73 96 117 206 113 88 144 157 130 115 36 116 154 191 106 92 92 62 172 203 133 158 153 152 91 120 99 144 144 156 98 191 206 125 188 152 150 142 191 139 103 128 84 146 100 126 51 160 135 98 97 202 106 141 149 112 90 121 53 106 137 162 117 206 101 102 103 26 133 154 119 88 194 142 124 172 104 148 205 125 103 95 119 85 222 128 109 88 170 115 110 132 134 65 43 111 209 125 34 105 87 98 114 130 117 142 144 143 85 104 191 93 66 91 114 128 155 147 74 101 94 153 93 115 80 119 126 109 214 83 99 206 105 63 153 178 112 166 109 143 236 169 156 151 139 184 134 144 122 186 98 113 118 128 246 137 86 183 113 99 98 152 124 123 203 137 163 76 128 58 72 112 155 141 167 170 95 105 170 166 98 164 136 73 157 120 99 89 128 150 82 157 129 104 148 190 124 145 117 154 129 151 161 107 131 112 181 59 104 61 124 106 126 108 133 91 213 133 98 34 103 218 91 89 137 169 168 144 178 94 154 107 98 106 85 154 206 213 113 144 99 148 119 116 141 197 66 119 201 142 140 133 44 106 108 102 46 81 91 153 134 159 224 149 86 69 194 92 75 143 143 91 170 182 188 110 77 171 185 115 109 97 117 125 123 112 205 146 179 171 39 175 111 131 220 184 139 155 157 178 206 126 68 46 142 176 209 153 102 113 191 131 122 117 232 169 165 95 159 98 196 182 126 182 125 154 188 131 131 130 63 118 170 57 260 68 150 109 77 208 145 195 110 160 114 69 98 105 171 185 144 37 88 134 114 170 196 71 156 123 187 89 166 126 136 128 103 164 58 121 153 128 119 154 128 219 152 179 153 131 150 213 149 78 114 64 205 172 98 98 160 85 89 103 167 119 114 96 112 137 108 122 96 121 119 155 170 144 111 40 127 162 77 204 87 109 80 71 72 109 127 85 67 163 120 253 108 62 109 94 151 113 189 170 142 178 159 119 122 153 158 81 99 134 162 152 129 108 82 127 132 94 117 185 78 231 167 79 134 121 162 130 84 120 105 65 140 103 151 100 188 201 135 195 69 49 174 139 118 72 122 202 120 150 59 83 179 161 159 152 159 128 92 163 86 79 129 139 101 108 108 128 129 150 94 86 55 148 129 75 120 173 85 47 169 101 147 96 106 120 130 130 146 126 46 131 138 171 115 116 58 143 124 69 122 41 49 95 132 170 179 180 185 116 113 63 101 158 157 129 42 196 105 157 103 99 83 87 117 150 32 86 112 106 154 163 106 119 27 89 139 144 22 149 143 115 140 141 248 116 168 141 174 105 67 153 71 131 154 159 116 92 155 125 93 111 146 113 88 206 135 140 79 162 98 113 167 108 47 56 112 133 243 151 149 153 116 96 189 132 82 166 130 187 108 138 53 198 75 107 205 108 156 106 121 110 135 90 116 135 117 245 74 145 128 126 146 99 152 144 141 82 141 145 75 73 82 96 81 70 174 138 143 138 109 109 151 164 130 93 182 95 122 189 190 116 133 109 88 160 124 168 170 88 217 103 115 140 152 136 148 51 117 104 103 78 76 126 224 84 191 220 187 192 152 102 165 108 170 111 110 146 96 151 49 53 76 160 127 187 99 75 114 236 133 209 106 117 123 85 89 91 120 41 137 152 125 180 179 201 75 175 167 187 45 124 128 110 135 181 136 109 133 148 128 129 120 216 112 92 132 139 130 98 165 215 149 107 160 201 107 150 132 176 100 160 116 74 89 130 161 160 43 106 89 94 112 111 115 129 131 149 119 156 226 152 93 85 171 158 140 141 114 125 155 84 122 109 147 42 132 76 149 140 222 167 194 123 210 29 163 183 179 139 164 103 76 75 143 77 155 87 119 69 106 177 39 148 77 98 155 161 186 116 69 110 116 108 153 56 175 122 165 169 60 149 112 177 168 80 133 150 125 131 216 94 106 153 97 61 127 134 83 103 64 112 107 64 97 150 172 67 61 154 52 111 163 111 156 76 221 129 29 196 84 181 120 63 69 102 73 102 132 105 131 152 237 122 98 229 107 139 108 141 123 95 146 104 127 78 140 139 177 153 152 194 155 120 107 65 132 59 130 175 60 131 101 117 97 233 178 145 98 109 167 113 137 102 68 118 166 106 120 65 124 149 175 124 107 96 146 110 94 89 168 53 242 83 140 98 124 145 112 119 66 141 201 168 79 79 97 154 115 74 102 136 117 182 144 67 174 118 170 128 98 101 116 160 125 127 191 93 145 116 146 112 106 114 129 161 96 117 113 66 128 157 86 190 92 212 56 141 76 105 161 140 110 134 129 101 211 99 183 136 94 197 84 168 174 131 139 106 144 141 160 155 68 135 196 122 121 87 125 51 159 162 137 89 131 171 71 146 101 162 129 82 142 73 130 145 125 149 166 163 175 161 117 71 113 147 172 110 86 88 125 99 111 148 181 71 149 90 148 91 98 149 172 209 168 187 135 140 125 88 111 95 192 118 106 99 70 78 164 81 197 108 225 196 123 44 83 149 101 125 174 61 187 56 150 55 118 135 130 136 184 155 82 150 147 135 135 94 98 76 75 96 108 105 162 118 178 163 74 104 167 95 167 99 86 124 128 69 192 130 219 117 62 132 110 170 126 157 117 100 164 83 132 120 145 79 127 78 98 88 59 150 133 142 223 172 71 139 98 118 143 96 76 94 146 161 179 211 177 169 121 146 106 153 89 154 51 85 94 196 145 65 158 125 112 73 109 52 53 193 39 202 101 133 143 60 118 165 108 131 146 80 179 171 113 97 166 97 127 94 78 194 137 152 144 146 148 113 185 93 79 99 86 194 142 121 145 170 28 160 115 105 199 128 82 79 162 135 197 130 131 96 89 150 128 169 85 111 77 182 74 167 140 138 220 133 73 148 218 145 98 146 202 148 148 61 213 66 166 159 258 91 152 98 112 144 191 92 64 139 151 145 150 89 84 63 220 59 147 107 67 108 122 138 112 111 135 147 133 106 95 122 75 149 129 95 161 127 103 86 147 114 103 83 120 132 61 73 94 105 155 176 172 95 151 181 121 185 179 99 97 137 132 165 135 113 160 216 87 105 79 148 77 152 30 138 126 117 117 135 139 157 213 129 149 181 138 148 151 95 151 139 125 173 95 107 69 96 128 99 65 106 111 93 163 144 85 100 196 119 137 173 107 93 120 158 153 54 63 64 137 139 52 113 150 147 152 180 122 95 78 115 142 90 104 131 70 53 86 56 132 49 121 127 57 128 247 72 165 96 112 118 131 71 99 152 127 207 126 75 125 117 150 135 111 187 116 70 105 180 124 165 244 135 53 121 131 41 60 113 161 112 217 150 81 119 96 85 164 153 106 136 160 74 113 138 222 196 220 118 150 108 141 142 173 89 56 145 147 128 132 97 77 178 161 151 177 130 83 154 144 141 108 118 208 108 152 71 78 124 116 158 150 160 104 115 90 101 71 90 90 74 79 186 202 103 142 166 125 90 166 97 140 116 94 154 146 180 79 106 104 105 121 71 136 183 154 168 192 154 104 99 84 114 96 113 207 153 211 116 90 128 142 96 58 151 196 77 152 145 137 81 122 101 85 138 178 126 173 136 122 85 244 65 198 142 231 182 93 135 81 98 77 83 159 142 170 135 62 92 209 150 116 144 187 141 210 73 79 163 225 165 139 158 118 88 143 152 163 171 125 150 123 137 113 157 72 110 110 150 141 113 120 134 177 155 110 161 166 86 150 152 119 104 107 68 123 188 78 139 96 163 144 113 136 113 169 108 88 173 112 72 171 206 116 141 132 130 84 122 137 98 183 218 158 182 146 155 70 152 109 164 93 117 55 182 131 87 145 106 36 108 69 169 85 131 135 61 104 77 193 125 220 188 111 179 129 151 95 154 73 198 116 141 205 174 117 115 65 161 203 70 135 103 131 88 238 151 150 64 130 99 90 153 50 97 155 148 68 111 139 148 95 81 166 120 135 134 134 136 101 202 176 133 201 164 131 141 60 170 194 119 123 47 47 147 148 52 104 193 90 113 118 156 56 156 149 135 126 193 121 96 113 96 65 159 128 123 131 85 113 139 129 141 170 130 116 151 53 180 97 58 54 132 139 165 179 217 151 114 128 212 138 144 177 122 84 111 133 189 95 117 137 60 50 40 100 151 82 88 111 87 160 162 118 156 137 139 186 120 112 137 66 79 133 93 81 138 77 112 108 156 144 159 104 117 121 209 96 166 190 28 126 118 80 49 97 72 106 60 53 171 136 73 145 154 146 152 143 164 140 141 133 146 64 93 189 169 72 131 186 121 123 113 116 137 136 209 123 157 83 89 120 164 107 116 124 81 124 84 77 169 71 257 121 185 109 204 204 106 170 89 156 111 136 105 213 75 170 230 148 83 45 215 140 82 157 156 131 188 103 97 148 142 167 81 161 164 127 158 108 129 248 152 47 129 125 144 118 76 147 123 133 92 126 145 197 196 87 177 179 86 134 77 34 139 97 241 157 167 134 152 76 93 177 25 124 161 202 74 74 123 70 143 121 95 162 108 139 85 137 118 138 141 90 92 72 165 137 110 104 165 129 164 58 74 99 73 138 119 141 112 46 110 41 101 151 218 66 216 106 156 76 154 49 124 100 172 53 76 117 92 202 141 102 35 135 70 121 94 62 119 239 149 161 112 73 134 184 117 88 132 138 136 97 165 162 186 181 88 208 169 142 115 109 230 121 92 211 75 131 142 108 165 107 125 87 130 93 164 78 83 135 163 89 126 214 125 176 153 132 77 109 100 163 130 102 129 83 113 78 130 111 48 63 150 113 103 37 40 96 104 138 111 41 149 104 191 178 123 102 97 69 113 80 149 81 110 87 153 162 161 78 151 116 141 157 152 128 123 161 118 97 176 116 114 115 105 113 152 93 106 140 155 122 147 126 226 158 80 152 159 107 112 121 81 112 179 135 61 166 157 125 94 122 145 124 101 124 69 86 122 70 95 100 128 167 39 123 188 197 121 84 209 42 77 107 67 143 117 117 200 152 192 108 157 84 124 168 146 114 117 133 180 126 64 141 184 127 120 95 51 95 143 117 99 102 49 78 116 127 147 124 126 102 145 113 129 86 161 126 147 214 156 135 95 192 239 53 116 157 135 154 111 103 109 191 66 119 83 96 131 102 50 169 62 132 84 104 111 122 45 62 53 212 176 111 128 168 101 90 51 144 134 118 56 118 110 116 154 100 90 150 83 93 92 169 81 140 132 72 179 195 104 94 101 57 78 148 214 190 83 82 91 132 93 7 114 46 67 94 188 104 62 158 117 111 109 147 154 117 143 83 76 192 149 128 91 188 55 159 144 138 115 60 77 112 153 144 154 81 131 74 157 105 161 103 136 121 249 109 146 168 98 157 130 138 132 107 120 170 76 89 176 196 88 130 94 60 70 168 121 80 102 184 108 111 67 117 98 64 112 120 124 121 44 119 160 200 119 74 89 157 183 83 84 132 55 95 87 160 120 176 125 135 104 175 147 171 105 149 165 121 58 90 143 66 124 152 157 154 104 61 165 95 109 128 85 124 107 187 94 111 217 120 113 177 50 134 124 133 144 74 100 158 125 97 138 126 154 152 152 91 130 175 121 167 154 151 133 135 154 68 152 40 103 243 102 67 158 149 74 205 176 61 132 127 110 191 84 77 106 148 239 104 82 74 49 149 110 89 72 85 116 126 130 126 104 202 99 181 131 222 128 83 94 166 183 135 156 142 193 83 138 173 143 74 149 72 48 121 170 74 135 180 82 87 191 127 202 65 101 80 135 125 113 101 80 125 123 124 197 94 204 112 133 139 64 153 128 81 114 124 129 172 96 188 163 117 121 79 86 73 117 91 106 140 100 108 109 79 116 131 119 83 117 136 184 89 132 127 51 234 27 59 102 105 113 192 239 68 140 135 135 183 114 84 102 89 181 159 184 90 192 92 93 97 125 161 188 119 147 81 130 120 193 208 90 125 201 213 69 154 154 92 109 85 118 139 169 82 166 142 159 66 134 95 116 123 161 77 159 88 66 150 137 129 70 83 104 82 117 158 65 64 74 109 51 161 74 9 105 158 64 145 81 150 151 101 91 101 66 93 53 159 25 99 119 40 98 72 124 167 68 207 108 164 62 174 88 68 156 217 120 124 81 91 97 115 97 116 94 160 132 134 184 218 84 197 161 148 119 125 85 112 231 70 68 105 109 162 103 149 146 111 93 119 96 119 88 95 136 24 134 72 284 89 129 183 166 151 115 106 152 93 132 64 96 66 122 73 145 167 100 81 172 150 116 89 126 135 150 128 102 41 113 112 94 156 99 130 151 149 132 75 63 135 133 71 167 114 162 141 80 54 88 115 116 86 152 152 124 203 172 122 70 195 134 142 118 31 94 66 120 65 216 172 100 116 95 97 74 182 67 105 121 114 132 141 129 158 105 37 152 132 131 101 102 88 118 131 149 142 128 107 78 142 147 144 53 126 104 101 79 167 162 110 98 153 107 103 112 120 163 177 204 104 80 137 175 122 211 152 99 166 156 134 122 134 226 108 162 176 199 156 43 205 96 94 92 108 131 164 96 161 97 109 97 87 121 87 124 179 123 145 147 165 66 121 110 125 117 170 167 28 160 168 151 54 107 88 110 109 61 182 37 115 161 70 115 46 109 166 159 125 144 184 137 78 110 129 126 153 91 133 144 136 89 163 200 158 72 141 151 186 107 82 208 153 113 99 40 98 137 92 138 165 128 123 127 153 124 116 104 116 100 101 181 106 115 126 146 126 81 74 112 130 201 125 130 72 170 99 198 153 194 232 91 54 82 133 139 135 120 100 110 98 134 101 152 164 138 163 71 76 55 136 97 142 158 141 103 94 203 156 113 190 73 62 111 102 109 124 83 115 156 157 135 75 140 115 88 84 63 211 190 82 159 209 123 104 93 131 157 133 113 67 177 93 67 174 234 114 86 206 136 152 117 77 186 184 137 93 141 65 69 60 103 165 146 180 108 120 81 215 221 108 45 127 146 140 124 99 186 85 124 121 164 66 140 122 142 199 139 175 183 221 111 135 62 123 124 211 185 92 40 128 83 167 108 105 162 176 114 136 113 146 95 97 153 164 132 96 149 88 146 136 59 149 81 83 165 140 148 45 69 83 82 167 128 180 79 189 195 207 125 181 142 86 115 111 135 162 150 159 172 78 147 145 103 63 85 129 88 105 104 140 92 155 130 106 68 180 135 91 133 116 160 130 143 140 166 83 192 111 124 190 60 95 41 106 96 94 51 162 123 150 123 130 211 107 101 56 76 85 62 155 127 119 88 156 147 139 75 170 66 114 129 57 109 170 118 80 97 121 97 136 133 45 110 132 39 86 81 107 185 67 126 91 92 98 204 189 105 43 88 125 98 91 118 124 37 175 65 117 114 102 132 107 158 163 74 172 193 152 145 100 103 178 166 158 91 148 182 154 140 149 76 146 105 117 129 123 147 169 101 152 84 83 53 163 132 129 57 145 162 67 96 119 120 180 74 109 77 92 108 97 70 123 113 121 141 159 208 142 136 137 161 69 116 146 119 177 78 119 111 158 194 49 104 225 143 94 149 103 111 126 131 113 76 147 82 152 82 59 150 120 197 97 189 96 84 117 93 195 73 145 187 160 115 86 35 104 91 132 132 124 108 99 127 50 153 119 92 86 118 138 143 127 156 94 145 182 220 82 53 128 127 129 78 128 179 60 131 173 171 98 146 40 197 117 130 173 195 117 91 118 138 129 59 178 92 246 49 191 57 119 149 100 85 104 190 116 76 187 123 90 216 167 116 231 131 128 148 123 158 102 90 100 113 144 116 162 132 82 115 106 146 157 143 159 102 95 124 127 148 128 192 200 124 70 100 160 174 142 95 185 73 85 62 160 143 151 101 114 110 212 113 171 159 181 136 154 158 105 159 230 109 137 138 107 104 75 62 108 146 127 93 92 72 110 137 92 97 155 125 167 199 130 127 215 128 76 87 117 142 79 144 203 188 130 131 103 132 139 96 113 103 91 80 207 64 130 167 191 138 152 170 81 61 105 146 120 117 105 82 99 142 150 82 167 80 122 109 154 172 103 109 98 118 108 144 112 171 162 165 122 98 92 130 99 156 264 145 97 196 159 129 130 168 108 133 106 147 214 162 120 106 157 116 92 167 65 135 130 107 166 126 180 206 77 97 177 120 188 127 89 109 163 88 149 165 136 90 134 160 67 129 63 133 131 93 204 146 200 99 180 16 95 209 115 121 209 142 76 136 57 178 128 107 57 98 80 142 147 98 152 112 136 218 153 119 145 94 143 138 120 134 137 188 117 168 119 89 138 122 106 220 149 106 93 157 123 97 152 137 92 73 120 171 125 99 108 138 87 107 89 108 245 223 88 144 38 107 130 46 166 133 110 54 89 73 168 114 184 199 118 108 142 161 94 124 128 125 61 192 191 129 206 113 96 121 75 59 174 100 120 96 158 131 124 128 128 81 131 113 178 54 165 110 90 84 99 161 81 89 151 113 77 36 97 210 116 129 22 132 141 138 129 164 66 94 122 171 152 132 178 117 67 214 84 82 118 141 66 112 159 122 105 102 135 68 199 126 144 114 162 139 150 63 97 100 155 133 71 154 99 133 184 120 121 173 108 89 159 130 109 111 196 156 194 39 174 64 79 97 128 205 182 114 153 137 32 63 68 90 90 111 88 97 78 129 95 100 174 157 25 134 102 29 78 141 136 107 63 121 56 181 84 132 111 131 205 132 108 132 101 108 119 99 113 53 129 166 185 104 136 115 136 130 112 143 110 136 90 210 158 65 70 149 95 152 255 79 208 118 150 126 117 207 199 160 195 131 123 112 129 147 160 150 112 138 88 115 104 92 158 177 74 178 105 26 53 74 130 111 174 113 135 132 225 102 190 130 127 70 60 183 162 206 110 133 202 102 135 212 96 86 107 97 154 176 249 155 134 62 109 131 120 195 89 132 123 130 116 132 67 90 110 101 68 65 136 76 136 146 99 143 155 75 126 80 69 73 137 189 63 125 75 89 133 100 78 114 36 178 82 227 128 85 98 71 158 52 80 72 84 202 106 170 55 227 66 93 140 84 146 76 81 95 72 191 128 99 135 116 277 33 73 116 136 152 108 184 188 171 140 140 161 155 77 65 151 139 74 75 152 104 112 18 138 133 154 135 159 153 64 168 83 75 35 77 156 211 83 149 61 95 185 76 104 185 81 127 82 146 124 178 75 75 102 106 121 116 137 85 82 97 86 194 81 53 168 81 127 45 65 124 88 231 144 128 112 156 205 84 142 85 46 125 198 200 188 129 158 133 151 151 152 64 101 138 142 103 53 160 98 146 61 165 134 228 91 97 128 110 116 207 99 43 21 165 123 133 183 123 134 140 72 127 150 81 160 120 119 52 180 128 217 132 133 109 124 111 98 109 173 137 149 109 102 124 108 83 185 147 130 162 92 94 152 110 164 144 72 47 111 113 104 86 82 89 181 161 164 115 150 82 106 109 106 112 105 175 118 78 143 198 120 128 146 146 99 171 172 171 147 89 50 256 139 112 130 111 37 145 145 241 94 120 118 149 130 142 114 166 146 156 97 113 77 129 170 151 134 137 85 143 121 181 126 91 103 176 72 158 79 88 129 141 161 193 160 183 178 176 127 97 126 100 104 104 96 154 108 137 146 162 135 111 146 74 221 182 135 53 71 104 49 112 204 87 128 62 60 58 152 156 106 98 175 125 128 109 47 74 109 134 123 138 132 156 110 154 104 142 152 158 124 182 150 98 126 176 98 131 181 157 59 106 159 102 157 148 143 66 108 137 193 119 140 159 195 100 130 101 202 134 95 138 83 99 126 96 116 150 92 83 165 90 173 142 112 134 203 105 136 174 104 40 89 115 195 161 234 142 146 104 87 150 109 91 195 140 74 101 158 165 127 75 166 108 59 118 132 79 91 168 121 172 61 152 105 76 157 97 112 99 57 96 149 58 19 162 108 76 127 59 154 116 214 125 203 157 106 72 197 45 166 152 73 89 113 193 115 49 176 29 96 171 199 137 133 110 118 153 145 93 104 113 148 71 62 114 154 64 74 134 144 121 119 184 197 95 78 70 131 132 109 91 79 135 190 127 72 193 134 123 150 34 149 45 141 51 199 96 122 142 98 126 126 112 160 147 87 13 55 103 85 97 127 126 132 195 153 125 200 125 152 139 67 135 192 89 111 146 139 151 124 116 175 80 162 170 139 171 159 140 91 188 84 124 79 239 191 197 118 186 153 172 111 139 141 132 144 72 111 175 133 38 68 75 105 157 114 195 146 160 172 49 129 129 48 138 155 136 83 125 114 119 119 90 142 81 168 110 162 78 117 126 144 55 186 148 130 116 144 201 108 158 108 127 74 142 114 129 85 167 151 142 194 63 96 115 118 153 161 103 97 90 154 54 78 162 142 136 135 104 148 135 186 195 148 107 112 98 151 48 196 70 104 77 150 208 128 72 55 151 159 91 28 123 57 106 57 140 199 146 106 138 113 104 118 146 140 143 90 91 132 212 165 172 107 150 123 109 76 142 85 95 63 153 153 123 132 169 132 118 180 174 130 154 108 96 169 103 184 144 139 105 104 100 125 63 83 133 102 103 97 109 94 150 83 111 154 121 102 78 168 94 132 119 117 119 147 104 137 112 205 154 104 157 87 169 95 123 102 124 106 116 178 91 131 147 197 94 156 107 44 162 172 198 101 144 133 104 143 136 68 86 132 137 164 111 76 71 105 182 150 169 116 147 219 73 80 94 118 135 76 158 146 105 88 126 202 115 101 90 123 128 58 57 94 137 184 141 83 191 102 129 101 174 131 123 119 128 135 124 131 141 172 159 67 172 182 108 176 81 90 141 74 96 169 172 169 171 132 129 93 168 34 149 80 120 88 103 89 167 147 121 167 101 168 133 149 108 29 110 151 111 131 150 164 180 164 143 172 78 56 126 84 99 108 58 180 176 93 89 86 147 85 128 159 49 30 67 122 157 146 92 202 187 155 94 200 126 118 111 128 96 80 152 146 159 206 141 96 131 123 58 149 139 111 112 183 145 169 60 129 119 47 144 160 117 175 116 91 141 162 82 161 206 66 132 167 162 197 131 157 96 164 96 115 98 126 119 46 119 156 108 40 100 111 108 178 118 172 143 196 140 134 112 69 62 109 145 117 78 159 81 40 110 222 86 166 101 130 123 189 160 36 174 74 137 115 87 82 81 156 212 102 51 168 117 129 134 57 118 108 87 164 102 55 134 113 175 135 106 193 128 136 96 143 177 234 121 109 54 197 138 84 121 71 85 97 136 136 125 130 186 140 95 220 97 116 117 104 131 83 81 127 130 218 43 181 30 143 143 95 117 130 140 169 127 150 135 72 102 200 88 182 65 101 191 118 193 139 136 145 130 121 138 78 145 95 146 109 107 127 111 191 141 45 135 156 40 103 77 102 162 87 89 131 108 42 67 141 142 68 112 76 148 78 170 187 75 184 165 113 44 152 63 96 168 126 131 173 113 145 125 99 128 179 178 80 131 105 89 124 130 109 173 98 117 83 158 137 176 135 103 116 126 146 151 118 119 151 135 140 97 97 146 163 56 183 81 162 193 140 101 161 96 119 48 130 113 138 82 96 114 126 166 139 87 155 73 107 113 94 156 95 148 129 189 123 80 108 193 122 134 163 111 62 100 179 150 106 72 149 216 103 175 153 169 189 76 168 132 119 173 149 80 99 166 137 160 133 78 71 134 111 105 148 204 107 75 143 93 98 154 78 133 104 164 208 173 149 97 112 126 116 104 118 118 153 151 126 182 95 117 91 104 137 76 154 169 168 193 88 86 71 156 20 97 146 95 213 129 97 135 102 143 169 77 144 125 123 175 181 144 152 51 75 122 138 95 143 152 100 118 214 161 160 148 118 128 99 90 114 250 134 85 96 101 57 152 168 125 157 131 83 55 189 102 144 144 139 81 92 143 82 126 96 187 195 203 161 116 133 141 128 144 102 101 166 136 156 145 101 158 118 103 84 153 121 131 186 160 152 112 156 121 92 141 115 19 170 151 136 154 87 81 104 113 71 61 106 102 63 204 125 150 135 175 150 143 225 157 228 82 116 109 149 163 75 178 146 201 155 125 109 104 145 161 72 201 89 89 129 128 156 180 118 111 162 77 168 154 125 160 166 119 134 194 31 165 90 98 66 170 204 144 105 71 108 118 127 242 159 124 62 71 125 103 174 102 158 76 112 175 163 83 146 83 128 131 118 172 99 123 213 106 82 161 98 200 99 86 128 127 72 104 133 114 36 120 120 163 197 63 96 187 128 233 118 75 108 105 138 140 81 252 76 78 216 92 132 85 219 121 99 123 120 167 115 132 76 71 112 127 187 126 161 65 89 44 77 175 126 194 137 134 123 111 128 134 110 87 107 123 115 100 52 138 127 63 117 177 77 89 75 153 180 71 158 172 53 130 130 112 111 145 102 83 101 147 184 109 95 165 185 145 272 69 98 119 146 44 114 142 107 155 168 152 97 173 204 218 134 163 94 82 147 150 158 207 163 81 177 153 161 150 106 135 136 118 88 115 149 160 149 133 222 80 48 118 146 99 179 120 70 157 136 158 63 87 124 89 96 109 152 131 181 75 85 85 136 136 161 97 106 180 117 129 107 113 79 95 83 65 119 100 126 89 146 206 134 111 95 171 110 111 101 109 172 167 149 85 55 124 84 160 135 97 161 118 146 114 104 170 161 196 82 147 140 85 49 130 172 99 126 128 126 119 195 152 91 90 33 150 128 134 137 123 198 116 128 142 185 16 127 121 109 172 82 174 51 165 132 108 109 156 192 95 63 194 166 107 119 154 195 165 170 74 122 147 122 103 86 143 91 172 105 143 105 132 203 159 131 93 178 82 114 159 182 97 119 104 91 203 156 111 116 144 198 210 197 82 107 67 169 71 143 121 184 36 129 196 143 175 107 119 104 64 75 186 72 159 91 167 177 156 102 145 73 121 167 166 123 55 80 230 159 100 98 111 91 102 128 140 104 61 115 155 66 43 47 147 153 225 142 127 165 147 127 132 211 50 117 119 67 136 66 156 196 92 127 161 172 99 113 94 152 74 113 104 171 175 136 153 100 120 118 165 41 139 105 127 136 85 107 118 101 113 115 114 151 99 144 132 118 159 224 132 126 29 137 81 107 118 124 134 151 211 93 122 89 82 132 139 110 144 131 172 118 94 140 142 102 81 101 84 142 160 88 83 68 124 71 172 171 104 155 147 44 133 110 116 131 97 75 134 145 149 193 148 103 94 192 148 121 91 154 109 93 186 163 66 66 105 56 166 109 176 118 148 162 159 140 43 109 115 117 130 45 80 166 154 159 108 139 158 86 142 134 115 135 147 160 63 130 85 41 114 111 121 150 102 93 196 155 143 184 135 62 136 133 180 108 119 130 103 76 81 83 148 95 195 118 138 223 151 142 154 165 178 100 155 115 89 122 90 131 162 165 139 98 92 142 146 105 89 107 105 139 117 88 166 114 123 123 105 165 169 127 101 184 182 151 175 116 104 61 141 148 175 159 137 163 121 70 127 142 161 142 135 109 136 169 178 185 131 204 131 155 103 110 82 274 148 134 172 159 97 171 138 143 88 107 59 140 66 193 131 78 133 150 180 63 97 241 149 178 78 133 117 149 157 146 131 68 162 127 76 173 112 106 183 223 167 90 94 159 86 178 195 150 108 92 189 168 102 56 87 181 140 124 91 98 51 140 249 56 153 169 128 55 184 157 138 149 63 141 161 62 136 123 45 95 174 125 152 222 126 122 171 132 249 182 231 174 110 120 155 79 129 70 119 104 85 222 104 170 102 56 64 123 42 102 79 104 63 172 163 124 66 118 105 122 143 67 133 106 116 80 61 224 148 108 184 149 177 32 132 117 104 143 73 69 115 106 164 146 169 144 149 125 244 159 31 149 63 162 140 118 189 131 95 193 116 169 127 96 45 103 131 124 184 30 62 160 155 109 124 143 159 116 262 137 75 164 162 125 108 186 191 152 264 149 180 116 122 142 136 172 121 112 111 156 117 122 123 227 131 58 86 159 125 152 173 101 135 131 112 132 99 122 96 164 138 161 40 157 112 72 139 130 155 123 108 107 94 79 177 91 151 159 186 100 99 133 129 158 128 76 156 115 159 57 58 107 115 92 72 135 137 85 201 217 213 117 102 178 164 128 162 131 181 68 12 135 157 117 159 165 132 94 132 138 118 127 132 83 179 219 156 119 52 131 45 85 116 123 76 110 166 68 121 165 116 196 131 181 76 172 145 148 111 135 151 114 148 169 143 158 92 136 136 218 154 210 97 69 181 73 186 89 136 204 126 135 140 172 175 87 66 117 97 219 209 108 151 248 73 137 85 180 135 120 102 149 154 230 116 71 122 110 182 97 123 187 109 65 73 172 102 115 104 122 60 76 83 132 124 180 128 124 79 155 120 152 141 262 161 87 127 215 271 11 110 115 96 125 131 206 184 69 121 106 91 154 170 182 142 89 118 124 102 109 187 72 90 193 166 96 124 100 228 92 202 79 150 215 211 124 78 95 142 114 98 89 125 130 18 91 89 138 129 161 81 61 151 158 160 133 111 146 191 86 139 117 110 60 90 117 143 168 111 123 178 92 186 126 158 194 114 132 140 123 152 145 101 113 171 143 140 156 114 107 92 176 84 137 190 184 81 120 158 191 155 144 129 118 185 147 95 77 154 110 126 119 244 120 147 103 137 117 150 155 102 135 81 121 48 115 174 190 124 193 131 200 150 140 99 67 167 124 82 110 243 114 80 65 106 64 260 167 92 149 145 125 144 127 133 75 218 57 113 114 81 154 118 220 92 180 122 163 102 144 40 127 146 84 99 120 145 160 140 100 53 170 110 164 86 151 111 98 161 105 128 157 130 110 87 216 120 86 98 113 138 84 94 172 131 114 175 162 144 146 114 99 129 175 134 99 113 193 84 62 81 145 110 72 124 118 48 71 103 77 236 132 144 136 85 84 140 106 143 160 82 133 65 106 136 77 94 71 72 170 216 209 129 89 194 206 113 80 209 117 72 150 206 135 87 121 35 130 126 142 173 166 89 113 199 40 212 112 107 103 142 101 68 68 86 96 122 124 58 187 156 47 134 127 112 126 139 43 156 134 202 88 72 146 115 140 97 177 120 101 134 100 170 126 127 150 171 155 187 125 147 135 185 138 216 223 127 104 165 164 97 77 115 15 211 109 158 132 123 94 88 110 130 133 87 164 158 159 169 55 64 125 160 96 146 122 108 93 88 160 19 128 126 99 85 111 168 104 124 107 174 95 193 112 96 226 145 226 105 123 101 197 87 104 209 97 97 110 181 129 153 73 63 119 93 121 75 131 169 105 139 25 152 103 97 153 107 159 244 60 96 123 127 113 129 247 141 176 82 114 121 130 191 92 116 201 149 51 155 80 73 80 94 34 62 171 125 71 110 143 157 232 185 61 84 169 77 138 103 93 154 178 74 113 95 158 119 135 137 178 133 133 238 190 112 59 90 66 60 107 102 205 77 141 63 105 179 144 144 143 97 97 146 96 119 100 72 147 209 79 187 109 115 74 180 123 136 35 144 116 145 62 152 176 153 179 75 105 146 181 118 104 166 82 82 133 229 181 172 110 165 202 96 120 104 109 119 96 161 202 100 124 116 146 65 133 40 153 170 155 121 184 64 133 160 140 61 92 115 177 216 134 162 99 148 87 196 131 69 166 114 76 34 139 212 100 174 127 74 163 158 125 167 100 156 143 77 89 199 122 111 130 267 59 136 157 59 40 107 139 116 101 112 143 135 114 85 113 146 94 125 111 107 31 115 122 152 194 169 184 70 121 58 196 126 209 104 97 125 43 188 120 146 135 152 135 171 197 138 127 77 143 86 25 192 90 44 112 134 135 73 57 73 91 192 126 143 101 112 191 196 139 190 109 106 85 180 70 94 116 58 141 46 113 61 274 78 132 127 131 137 142 68 118 126 72 175 53 154 115 161 119 118 150 57 178 111 60 148 216 170 113 69 184 149 145 186 69 105 146 77 69 131 122 105 41 128 135 146 139 131 74 150 103 77 125 156 167 106 50 138 98 104 208 144 213 171 124 85 97 110 127 50 108 143 130 143 68 82 132 126 132 106 121 108 70 124 134 140 84 82 166 162 175 134 41 135 146 134 121 184 200 110 70 156 71 141 143 160 124 101 83 183 82 216 95 34 142 134 113 229 68 92 152 172 205 105 104 52 181 165 88 120 62 119 118 174 32 217 137 124 127 156 107 195 82 52 88 173 80 164 173 121 86 84 185 42 171 125 84 51 138 78 128 169 149 82 125 104 62 116 187 140 99 163 88 160 112 107 145 80 75 116 159 129 114 117 133 167 149 59 201 108 70 123 60 118 134 106 95 79 119 127 108 189 141 130 58 85 70 77 130 129 153 103 146 127 133 131 125 101 116 73 158 206 156 62 169 80 198 100 175 115 139 142 109 75 154 168 169 200 99 224 78 64 218 154 211 123 124 108 112 136 193 123 134 150 93 138 137 155 120 123 94 113 154 72 173 57 21 154 109 225 138 130 87 30 123 171 170 144 63 120 81 71 90 117 110 174 141 210 184 129 58 172 141 104 129 103 195 247 130 107 113 65 157 138 136 174 181 24 101 132 101 95 70 201 83 94 120 104 138 80 133 87 178 184 109 167 189 114 171 97 156 113 133 90 160 83 161 102 145 84 159 158 133 97 102 80 97 167 138 77 96 145 210 172 149 206 87 112 114 111 137 109 120 143 86 97 52 159 183 103 106 79 218 108 99 189 196 114 119 145 161 120 177 135 89 129 110 142 109 92 121 124 173 86 173 126 226 159 187 68 158 89 123 151 79 136 93 95 100 177 140 67 113 85 214 138 140 111 145 123 120 158 80 78 244 188 200 183 76 170 124 128 146 137 96 93 153 139 80 146 173 127 49 134 103 85 143 105 93 197 88 114 111 152 142 113 145 204 102 140 75 119 100 83 177 203 83 145 76 108 142 100 133 85 118 64 164 163 115 100 140 144 147 138 59 107 69 94 151 77 78 95 101 100 128 141 217 178 111 59 142 106 110 122 152 29 224 88 99 124 136 100 159 92 109 63 42 136 157 23 158 157 100 134 101 65 161 152 66 110 72 107 138 165 125 116 97 78 81 147 130 182 258 165 49 53 79 151 129 120 87 87 94 100 76 112 74 121 135 109 118 118 147 44 111 141 114 104 143 119 173 197 85 140 167 142 138 170 214 96 123 122 204 163 109 128 101 105 181 156 177 101 63 148 64 139 185 129 155 86 104 67 141 95 130 209</t>
+  </si>
+  <si>
+    <t>MIE(0.29415453515703066, 1.9665586738289633, -2.3448808850455147e-31, 1.6048478145211562)</t>
+  </si>
+  <si>
+    <t>1 0 1 1 1 2 1 0 1 2 0 2 1 2 1 3 1 0 2 3 1 1 3 2 2 1 0 0 1 1 1 3 1 1 3 0 2 1 1 0 1 2 0 0 2 1 0 1 0 2 0 0 1 1 2 1 1 2 2 1 2 0 1 0 1 2 1 2 1 2 4 2 1 1 1 0 1 1 0 2 2 2 3 0 2 2 0 0 0 2 1 1 1 2 1 0 2 0 1 0 0 1 0 1 1 0 0 1 3 1 1 1 0 2 1 0 1 1 2 1 0 1 0 0 1 1 2 1 1 0 1 1 1 0 0 1 2 0 0 0 1 0 1 1 0 0 1 2 3 1 0 3 0 0 1 0 1 0 4 0 3 0 0 1 0 1 2 2 2 2 1 3 0 1 3 2 0 1 0 0 1 1 0 0 1 2 1 1 2 2 2 2 2 1 1 2 3 1 1 1 0 3 1 1 1 3 2 0 3 0 3 0 2 0 2 2 1 2 1 0 1 1 0 1 0 0 2 1 3 2 1 1 0 0 1 1 1 0 1 0 1 0 0 0 0 2 2 0 3 0 0 0 1 0 0 0 1 0 2 1 3 1 1 1 2 1 3 0 2 4 1 1 0 0 1 3 1 2 1 0 0 0 1 0 1 1 0 3 1 1 0 0 1 1 1 3 1 1 0 0 0 0 0 1 0 3 1 0 3 1 0 0 0 1 3 2 0 3 2 0 2 0 1 2 1 3 0 1 1 1 0 2 2 1 1 2 0 0 1 0 0 2 2 0 1 2 0 2 1 0 1 2 1 3 0 2 0 1 1 1 1 2 1 1 0 1 0 1 1 1 0 2 4 1 1 0 0 2 0 1 0 3 0 1 1 0 3 1 0 0 0 1 3 0 2 0 0 1 0 3 1 1 1 2 4 1 1 1 0 0 0 0 4 0 1 0 0 1 1 1 0 1 2 1 2 2 0 0 0 1 0 1 0 0 1 3 0 1 1 4 1 0 1 0 1 1 0 0 0 2 2 0 2 0 2 1 0 3 2 3 1 1 2 1 0 1 0 0 1 0 2 1 2 0 0 2 1 0 1 0 2 1 1 3 1 1 1 2 1 1 2 2 1 0 2 0 2 0 1 3 1 0 0 2 0 0 1 1 3 0 1 0 2 1 3 1 1 0 2 2 0 1 2 0 4 0 1 0 1 1 2 2 2 0 1 0 1 1 0 2 2 2 1 3 1 2 2 3 0 2 2 1 1 1 2 1 2 1 2 0 1 2 0 3 2 4 0 0 0 1 0 0 2 1 0 1 1 2 2 3 0 1 1 2 0 1 1 1 1 1 0 1 2 2 2 1 0 0 1 1 0 0 1 1 2 0 1 0 1 1 1 2 0 1 1 0 1 0 1 2 1 0 0 0 0 1 1 0 1 1 2 0 0 1 2 0 1 0 0 1 1 0 1 0 0 0 1 1 0 0 2 3 1 1 1 0 0 0 0 1 0 1 0 2 2 1 2 1 0 1 2 1 0 2 0 0 1 0 1 1 1 1 1 1 0 1 3 2 1 2 1 2 1 0 1 1 1 1 0 1 1 1 1 2 1 1 0 1 2 1 0 0 1 0 4 0 0 2 1 2 1 1 0 0 0 2 1 2 1 3 1 1 1 1 0 2 0 0 3 1 1 1 0 2 1 0 1 1 1 1 0 1 0 2 2 0 2 2 0 1 0 1 1 0 0 1 1 1 0 0 3 1 2 1 0 0 0 0 1 1 2 3 1 1 0 1 1 0 0 0 1 0 2 2 2 1 2 1 0 1 3 1 3 2 2 0 0 1 2 0 1 3 0 1 0 1 0 1 1 0 0 2 1 4 1 0 3 3 0 1 1 1 1 0 1 2 2 2 2 1 1 0 1 1 0 0 1 0 0 0 1 2 2 0 1 1 0 1 2 1 2 3 0 1 1 1 0 2 0 1 2 2 1 1 3 0 2 1 1 0 3 1 2 1 0 3 2 1 0 3 3 0 1 2 1 0 2 1 2 0 1 3 2 0 2 0 2 3 1 2 0 2 3 2 2 4 1 0 1 0 0 2 2 1 1 0 0 1 2 0 1 2 3 1 1 2 0 1 3 2 2 3 1 0 1 2 1 1 0 0 0 0 1 2 2 2 0 1 1 0 1 1 0 2 1 1 2 2 2 2 0 0 2 1 0 1 0 0 2 1 0 1 0 2 1 0 2 2 2 1 0 2 0 0 1 0 1 1 1 1 1 2 0 2 0 0 1 2 0 0 2 0 0 0 2 0 1 0 0 1 1 0 1 2 2 0 1 1 0 1 0 2 2 0 1 2 2 1 1 1 1 1 1 1 2 0 2 1 0 0 1 0 2 1 1 2 0 1 2 1 0 1 1 1 1 2 1 0 1 1 1 1 1 1 0 1 1 0 2 2 0 0 1 2 0 1 0 0 1 0 1 2 2 1 0 1 1 4 0 3 1 2 3 1 2 0 2 3 2 0 0 3 0 0 1 1 0 0 2 1 0 1 0 1 1 1 0 2 0 1 0 0 1 4 0 0 0 0 1 3 0 0 0 3 1 2 0 3 1 1 1 1 1 0 3 2 2 0 0 0 3 2 1 2 0 2 0 0 0 1 2 1 1 0 2 2 2 2 0 1 2 0 0 0 0 0 2 4 0 0 2 2 1 1 1 0 3 0 0 0 1 0 1 0 2 1 1 2 0 1 2 1 0 1 2 1 1 3 0 1 0 0 0 0 3 1 0 2 3 1 0 0 1 1 0 4 2 1 2 1 0 1 0 3 2 2 1 0 2 1 0 0 0 1 2 1 0 1 0 0 0 2 1 0 2 0 0 0 1 1 0 1 3 1 2 1 2 0 1 0 1 1 2 2 2 1 0 1 0 0 0 3 0 0 1 2 1 2 2 0 2 0 0 1 0 3 2 3 0 4 1 0 1 2 0 2 0 0 1 4 3 3 0 2 2 2 1 0 0 2 0 1 1 1 3 0 1 1 2 2 1 1 3 1 1 0 0 1 2 1 0 0 1 0 0 0 2 1 2 2 0 3 1 1 1 1 3 1 0 1 1 0 0 0 1 1 3 2 0 2 1 1 1 0 2 0 2 2 0 1 3 2 0 1 1 2 3 1 0 1 1 2 1 0 2 1 1 1 1 2 1 0 0 1 0 1 1 1 1 3 3 1 0 2 3 1 2 1 2 0 1 0 2 0 1 1 2 2 0 2 1 1 1 2 1 3 2 2 0 1 0 4 1 2 0 0 4 1 0 1 2 0 1 0 1 0 1 1 0 2 2 0 1 2 0 3 1 1 1 0 0 1 0 2 1 0 1 2 0 0 2 1 1 2 1 4 0 0 1 0 1 1 3 0 0 2 0 0 0 1 0 0 1 3 0 3 2 0 1 1 0 2 1 3 0 4 2 2 2 0 1 1 0 0 1 0 1 1 0 1 2 2 0 3 0 1 3 2 1 0 1 0 1 2 0 2 3 1 3 2 0 2 1 2 0 2 1 2 0 3 1 0 2 1 0 2 0 1 3 2 0 0 1 1 2 0 0 2 1 2 0 1 4 1 0 2 0 2 2 1 1 0 1 0 1 1 0 1 2 0 1 2 2 2 0 0 0 1 0 2 1 1 0 1 0 1 0 1 0 0 0 0 2 3 2 1 1 1 0 2 3 0 0 2 0 2 2 2 4 0 5 0 2 0 0 1 0 3 1 3 1 2 1 2 1 1 3 1 1 2 3 2 2 2 1 2 1 0 1 1 2 0 1 1 2 2 1 0 1 0 1 2 0 2 1 2 0 2 0 1 0 1 3 0 1 1 1 1 0 1 3 3 1 1 0 1 0 1 0 0 2 0 0 2 0 1 0 0 3 0 1 1 1 2 2 1 0 2 2 2 0 0 2 0 0 1 0 1 2 0 1 4 3 2 2 0 0 0 1 2 1 0 1 2 0 0 0 2 1 0 2 1 2 1 1 2 2 0 1 1 1 2 0 4 0 0 0 1 4 4 0 0 2 3 0 0 2 1 0 0 0 0 1 0 2 2 0 2 1 2 0 2 2 2 1 2 2 2 0 1 1 1 1 2 1 2 1 3 0 0 1 2 0 1 2 4 1 0 0 2 0 1 0 1 1 1 2 1 0 2 3 3 0 0 2 1 0 1 2 2 0 2 1 1 1 1 0 1 2 1 2 1 1 0 3 2 1 1 0 0 1 0 0 0 3 0 2 1 1 1 2 2 0 2 1 0 0 1 0 3 1 0 0 0 1 0 0 2 0 1 2 2 2 0 0 2 2 1 0 0 1 1 0 0 0 2 1 0 1 0 2 2 1 1 2 1 0 1 1 0 0 3 2 0 0 3 1 1 1 0 2 0 1 1 0 1 0 1 1 1 2 2 0 2 1 2 2 1 1 1 1 2 1 3 2 0 3 2 1 0 0 0 0 1 0 0 2 1 2 0 2 0 4 1 1 1 2 0 2 1 1 0 1 1 0 2 0 1 1 2 2 3 2 0 2 1 1 1 0 1 3 2 0 2 2 2 2 0 0 1 1 1 0 0 0 0 0 0 0 2 1 1 0 1 0 1 3 3 1 0 2 2 0 0 0 0 0 2 2 1 1 1 2 0 0 2 1 2 2 0 2 1 2 1 1 0 2 0 0 3 2 0 1 0 3 2 0 1 2 1 0 2 1 1 0 0 1 2 4 0 2 0 0 1 1 1 0 2 2 0 2 1 0 0 2 0 0 2 3 0 0 0 0 0 1 3 1 0 1 2 1 3 0 1 1 2 1 0 2 0 1 0 0 1 1 2 0 0 1 1 3 0 1 0 2 1 2 1 1 0 0 0 1 1 0 0 1 1 1 1 1 0 0 0 0 1 2 0 2 1 0 1 2 0 3 3 2 2 1 1 0 3 1 1 2 2 2 0 2 0 1 2 1 1 1 1 0 1 2 2 0 0 0 1 1 2 0 0 1 1 2 0 1 1 1 3 1 0 0 2 1 1 0 0 2 0 1 2 1 1 2 2 0 1 3 0 0 3 0 1 1 1 0 0 0 1 0 0 2 0 2 2 3 0 1 0 2 0 2 1 2 2 1 2 2 0 2 2 0 2 1 2 0 2 0 1 1 1 0 2 0 0 0 0 0 3 1 1 0 0 2 0 1 2 2 0 1 1 0 0 2 1 0 1 1 1 1 2 0 2 2 1 0 1 0 1 0 3 0 1 1 1 0 1 0 0 2 2 0 2 3 1 0 0 3 1 1 1 0 2 0 0 2 0 1 2 1 1 2 2 0 1 3 1 0 2 2 2 0 0 2 0 2 0 2 0 0 1 1 1 2 1 1 1 1 0 0 0 0 0 3 0 1 2 0 0 1 0 2 2 0 1 0 1 0 0 2 1 1 0 1 0 1 0 3 3 0 1 0 1 0 1 1 1 0 1 1 1 0 2 2 1 5 1 0 2 0 0 2 2 4 3 0 0 0 1 1 2 0 1 2 0 0 1 1 1 1 3 1 3 1 1 3 2 1 0 1 0 1 0 1 0 1 2 1 0 1 0 1 1 1 0 1 1 1 2 1 1 1 2 0 0 1 0 0 2 1 0 2 2 0 0 2 0 1 1 3 0 0 0 2 1 1 1 1 1 1 1 1 1 3 0 1 0 1 1 0 0 1 1 1 2 0 1 1 1 4 2 0 0 3 0 0 1 3 3 0 1 0 2 1 0 2 1 0 1 2 2 0 1 1 0 0 0 1 1 3 0 1 0 1 1 1 0 2 1 2 1 1 1 0 2 0 1 0 0 0 2 2 1 2 1 2 1 1 1 2 1 2 1 1 1 0 0 0 3 3 2 1 2 1 2 0 1 1 0 2 2 3 2 1 3 2 0 1 2 1 2 1 2 3 0 1 1 0 0 2 0 1 2 2 0 0 1 2 0 0 1 1 1 2 2 3 1 0 0 2 0 0 3 3 0 1 1 0 1 2 2 0 2 2 3 1 1 1 1 2 1 2 0 2 4 2 0 0 0 1 2 2 2 0 1 0 2 2 0 1 2 1 0 2 1 1 1 1 1 2 1 2 2 0 1 0 1 1 1 0 0 0 2 0 0 0 0 0 0 1 1 2 1 2 1 3 1 0 0 1 1 0 2 1 0 0 2 0 2 0 2 1 3 1 1 2 2 0 0 1 3 0 1 0 2 0 1 1 2 3 0 2 2 1 1 0 1 1 1 0 1 1 1 0 2 2 3 0 1 0 2 1 3 2 0 1 2 2 0 1 2 1 2 2 0 1 1 0 2 1 2 1 1 0 1 0 2 2 0 0 2 1 0 2 1 2 0 0 0 1 0 0 2 1 1 2 1 1 0 2 2 1 2 0 1 1 0 0 1 0 0 0 1 2 1 1 0 4 1 1 0 0 1 1 0 1 2 0 0 1 2 0 0 1 2 1 2 1 1 1 1 1 2 1 3 2 1 1 1 0 3 1 0 2 2 0 2 2 0 0 0 1 2 3 3 3 2 3 3 0 1 3 2 0 2 0 1 1 2 2 0 0 0 2 1 0 0 1 1 2 1 3 0 2 1 1 2 1 3 1 2 1 2 1 2 1 1 1 0 1 0 1 1 1 1 1 1 1 1 1 1 0 0 1 1 0 0 1 2 0 0 1 1 1 2 2 2 1 1 1 1 0 0 1 0 1 2 2 1 1 0 2 2 0 2 1 0 0 1 0 0 0 2 1 2 2 0 0 0 0 3 1 4 0 1 2 1 0 0 2 1 2 1 0 0 4 2 2 0 0 1 2 2 2 1 1 1 1 0 2 2 0 1 1 2 0 2 0 1 3 2 0 3 0 0 3 0 1 1 2 1 2 2 3 2 1 2 2 0 0 0 0 1 2 4 2 0 0 2 0 0 0 0 0 1 2 1 0 2 0 1 1 1 5 1 1 1 2 2 0 2 2 0 0 3 2 1 0 1 0 2 0 0 1 1 1 1 5 1 0 0 1 1 1 2 0 2 0 3 1 1 0 0 1 2 0 1 2 2 1 1 2 0 2 0 1 1 0 1 4 0 3 1 0 2 2 2 2 0 0 1 0 0 0 2 0 0 3 0 0 0 2 3 1 0 2 0 1 0 0 2 0 1 2 0 0 0 0 1 3 1 1 1 3 2 0 1 2 0 2 1 1 0 0 1 2 1 0 1 1 0 0 2 1 0 0 0 1 0 1 0 2 2 0 2 1 2 2 1 2 0 1 1 0 1 0 1 0 1 1 1 0 1 2 1 1 3 1 2 1 3 1 0 1 0 0 1 0 0 1 1 0 1 1 3 2 0 2 1 1 1 1 0 0 2 0 1 4 2 0 1 1 2 0 1 0 0 1 1 2 1 0 0 0 1 1 2 1 1 1 0 0 1 4 0 0 1 0 2 2 1 0 1 1 2 3 2 1 1 1 0 1 0 4 2 0 3 0 0 0 1 1 0 1 0 2 0 2 1 1 1 1 2 1 1 0 0 0 3 4 0 2 1 3 3 1 0 2 1 0 1 0 4 3 0 1 1 1 2 0 0 3 0 0 1 2 0 2 0 1 0 1 1 1 1 0 1 1 0 1 2 1 2 0 1 1 1 1 2 3 0 1 1 2 0 1 0 1 1 3 1 0 1 0 2 1 2 0 0 0 1 2 1 0 1 0 0 1 2 0 1 1 1 1 0 2 1 1 2 2 1 1 1 4 1 3 1 0 2 0 1 0 0 1 1 2 2 1 3 0 1 1 3 1 2 1 3 2 1 2 0 0 0 3 1 1 1 2 0 0 1 2 1 1 0 0 1 2 0 0 0 0 0 1 0 1 0 0 0 1 0 0 0 0 3 1 0 0 0 2 2 1 1 1 0 1 1 1 3 0 2 2 1 3 2 1 3 2 1 2 0 1 2 1 0 0 2 1 2 0 3 1 1 0 1 2 1 1 1 1 2 0 0 2 0 2 0 4 1 0 0 1 1 3 1 2 1 0 2 1 0 4 2 1 2 0 1 1 2 1 1 0 1 2 0 1 0 1 0 1 1 0 1 1 4 1 1 1 1 0 2 0 1 1 0 1 0 1 1 0 0 1 1 3 0 2 1 1 1 2 0 1 1 2 1 0 0 0 1 0 1 1 3 0 0 2 1 0 2 1 0 0 0 1 1 0 1 1 0 2 2 1 0 0 0 2 0 2 2 2 0 2 1 1 1 2 4 0 3 0 1 0 1 1 3 0 1 0 0 0 0 1 2 2 1 1 2 0 2 2 4 2 1 2 1 1 0 3 0 4 0 1 2 1 1 2 3 1 0 0 1 2 0 1 0 1 0 1 2 1 1 1 1 0 1 2 1 0 2 0 0 0 1 3 1 1 2 0 1 0 3 3 1 1 2 3 2 0 3 2 1 1 1 3 2 0 1 0 1 1 1 1 1 2 1 0 1 1 0 2 0 1 1 0 0 2 1 1 0 3 0 0 1 3 3 0 1 1 0 1 1 4 0 0 1 0 3 0 1 1 0 4 2 2 0 1 1 0 2 2 1 0 0 2 2 0 2 2 1 2 2 0 2 2 0 2 2 1 3 1 1 2 3 0 0 0 0 2 0 1 1 1 0 2 0 1 0 1 3 0 1 0 3 1 0 2 2 2 2 2 0 0 1 0 1 0 1 0 0 1 0 2 2 1 1 0 1 2 1 1 1 1 1 3 2 1 0 0 2 1 2 1 0 2 1 1 0 3 2 0 1 0 1 2 0 0 1 0 1 2 0 0 1 1 1 0 1 0 1 0 2 1 3 1 1 1 1 1 1 0 0 0 2 1 1 1 1 0 0 0 0 0 1 1 1 1 1 0 1 1 1 2 0 1 0 3 0 1 1 0 0 1 0 2 1 1 0 3 0 2 0 3 0 1 0 1 0 2 1 1 0 1 1 0 1 0 3 1 1 2 5 2 0 3 0 1 2 0 2 2 0 1 1 0 1 1 1 0 2 2 2 1 0 1 0 2 1 1 2 0 1 0 1 1 0 0 3 1 1 1 1 2 0 1 0 2 0 0 2 0 3 2 2 2 1 1 0 1 1 1 0 1 1 1 1 1 4 1 1 3 1 1 2 0 2 0 0 2 0 1 1 1 1 2 1 1 1 0 0 2 0 1 2 1 0 0 3 1 0 1 0 0 0 0 1 1 0 0 2 0 3 2 2 2 0 0 1 1 1 0 2 1 2 0 1 1 2 1 1 0 1 0 0 2 1 2 0 2 0 1 4 1 1 0 0 1 1 1 0 2 1 0 2 1 0 1 1 1 0 1 2 3 1 0 1 2 1 1 0 1 0 1 2 0 1 2 1 2 0 0 0 2 0 2 1 2 2 1 1 1 1 0 2 0 0 1 3 2 0 1 0 4 2 0 0 2 1 1 1 1 1 0 0 1 1 2 1 1 2 2 2 2 3 3 0 3 0 2 1 2 2 1 0 0 0 1 2 2 2 2 2 1 0 1 0 1 2 1 1 2 1 1 1 2 0 2 1 2 2 2 0 0 0 1 1 1 1 3 0 1 1 3 0 1 0 1 1 1 0 2 0 1 1 1 1 1 2 0 0 1 0 0 1 1 0 1 0 1 1 2 1 1 1 0 1 2 1 1 1 1 2 0 0 1 0 1 1 0 0 2 0 2 1 2 1 1 1 0 1 1 1 0 1 0 0 0 0 2 2 0 0 1 0 2 1 0 1 1 0 0 0 1 0 2 1 1 1 1 0 0 0 1 3 0 3 0 1 1 0 0 0 0 0 2 1 3 1 0 0 1 0 0 0 0 1 0 1 1 1 2 3 1 0 1 0 2 1 1 0 2 1 3 1 1 0 2 0 0 1 0 1 0 1 1 0 1 0 0 2 1 0 0 1 0 1 3 1 2 1 1 1 0 1 1 0 3 0 1 1 0 1 2 2 1 3 0 1 1 1 2 1 2 0 1 0 0 0 1 2 0 0 1 0 0 3 1 1 0 0 2 1 0 1 0 2 3 3 1 1 1 0 2 1 1 0 2 0 0 0 1 2 0 0 2 0 0 1 0 2 2 0 1 0 1 0 2 3 1 0 1 1 2 0 1 1 3 2 0 1 1 1 1 2 1 0 0 1 0 1 1 2 0 2 3 1 1 1 2 1 1 0 2 0 1 2 1 0 1 3 1 1 1 2 0 1 1 1 0 1 1 2 1 1 0 0 2 0 1 0 1 2 1 1 1 1 3 2 2 2 1 1 0 1 0 2 1 0 0 2 1 0 2 2 3 1 0 2 1 1 1 1 0 1 4 0 2 0 1 2 1 1 1 0 3 1 0 3 2 1 0 0 1 0 2 3 0 0 1 0 2 1 2 1 2 3 0 0 3 1 1 0 0 1 0 2 3 0 1 2 0 0 2 0 1 1 0 0 1 0 0 3 3 1 1 1 0 0 1 2 1 0 3 1 1 2 1 2 3 1 2 2 1 1 1 2 0 1 2 1 0 1 2 1 1 0 1 0 0 1 3 3 0 1 2 1 1 1 0 3 0 1 3 1 2 0 1 0 1 1 0 1 2 1 1 2 1 1 1 2 2 1 2 1 0 1 0 0 0 2 1 1 1 1 1 0 0 1 0 2 0 2 1 0 2 0 2 1 0 1 1 3 1 0 0 3 1 1 1 3 2 2 1 2 0 0 2 0 1 2 2 1 1 0 1 1 1 1 1 2 1 0 2 1 0 1 1 0 0 2 0 1 1 1 2 0 2 2 1 1 0 0 0 0 1 0 3 4 0 1 0 0 0 0 1 1 0 0 1 0 1 1 2 2 1 0 0 1 2 2 1 0 0 3 2 0 2 1 0 1 0 1 1 1 3 0 3 0 1 1 0 3 2 1 1 1 1 1 1 2 0 1 0 0 1 1 0 1 1 1 1 1 0 0 0 1 1 2 3 1 1 2 1 1 2 0 0 4 0 1 1 1 0 1 1 3 0 0 0 1 0 2 1 0 1 2 1 2 2 2 1 1 0 1 2 1 1 0 1 2 1 0 2 1 0 0 1 1 3 0 2 1 0 0 0 3 2 2 0 3 0 0 0 2 2 0 0 0 0 0 1 0 2 2 0 0 1 0 0 1 1 0 0 0 0 1 0 1 0 2 3 3 4 0 0 1 0 1 1 0 0 1 0 1 0 1 1 1 0 1 1 1 2 1 0 0 0 3 1 2 1 1 1 1 0 2 1 1 2 1 2 1 0 1 0 3 0 4 1 0 0 2 0 0 1 2 1 0 0 0 0 0 3 1 0 0 2 2 3 1 3 1 0 0 1 3 1 4 0 2 0 3 2 0 1 2 1 1 1 1 1 2 1 0 1 1 1 3 1 0 1 1 1 3 0 2 4 0 0 0 2 1 1 2 2 1 3 0 2 0 0 0 1 0 3 4 0 1 1 0 0 2 0 3 0 1 0 0 2 1 1 0 1 1 2 1 2 2 0 3 0 0 1 1 1 0 0 1 0 2 1 1 4 2 4 0 1 0 3 1 0 1 2 1 1 2 1 3 1 0 1 1 0 1 1 1 0 0 1 0 1 2 0 2 1 2 1 0 0 0 1 1 0 2 0 0 2 0 1 2 1 2 0 0 1 1 0 1 1 2 0 2 1 2 0 1 1 1 0 0 2 0 1 0 1 1 0 1 0 0 0 1 0 1 2 0 0 0 1 1 1 0 2 0 0 2 1 1 1 1 1 2 0 1 0 2 0 1 2 3 0 1 1 0 2 2 1 0 0 1 2 1 1 0 1 2 1 1 1 1 2 1 1 0 2 2 0 0 1 0 2 0 0 3 3 1 0 1 1 0 1 1 1 3 1 1 1 1 1 0 2 1 0 0 0 1 0 2 1 0 0 1 2 2 1 0 1 2 1 2 1 0 1 0 2 1 0 1 0 1 2 5 1 0 2 1 1 2 1 2 0 3 0 0 0 3 3 1 1 3 3 0 1 0 1 0 0 4 0 1 3 0 2 1 0 1 2 2 0 0 1 1 0 2 1 1 3 1 0 3 3 1 1 1 1 0 1 0 1 0 1 2 0 3 0 1 0 0 1 0 1 2 1 0 0 0 0 1 0 2 1 0 0 1 2 2 1 0 2 0 0 3 0 1 1 2 1 1 1 2 0 1 0 0 2 1 0 2 1 2 2 1 3 1 2 1 0 1 2 0 1 1 3 1 0 1 3 1 2 2 1 0 1 1 2 1 1 1 1 2 1 3 1 0 0 0 0 0 2 2 1 0 1 2 1 1 2 0 1 1 1 1 2 1 1 1 0 2 1 1 1 2 0 0 0 4 0 0 1 0 1 2 0 0 3 3 1 4 0 1 0 2 0 1 1 0 0 1 1 0 0 1 0 1 1 0 0 2 2 0 2 1 1 0 2 1 1 2 1 1 0 3 1 0 2 0 0 0 2 2 2 2 2 1 2 0 1 0 4 1 1 1 1 1 1 1 2 0 2 2 1 0 0 1 3 2 1 1 1 1 2 2 1 0 2 0 2 0 1 2 1 1 3 1 0 2 2 1 1 0 2 2 0 0 0 1 0 0 2 1 1 1 1 0 1 3 2 1 0 1 1 0 0 3 1 1 3 1 2 0 1 1 0 0 0 2 1 1 1 2 3 4 1 1 2 2 2 3 1 0 1 0 2 1 0 1 2 0 1 1 1 2 1 2 1 1 1 0 1 1 2 1 1 2 1 1 1 0 0 1 2 1 0 1 1 1 2 2 0 0 2 1 0 0 1 3 0 1 1 0 0 1 2 3 0 1 2 1 2 0 1 1 0 0 0 1 1 1 1 0 0 1 1 1 1 0 1 2 2 3 1 1 0 0 1 0 2 0 1 0 1 2 3 0 0 1 3 0 0 3 0 0 0 1 1 0 1 2 2 1 1 2 0 3 1 0 0 2 2 2 2 1 0 2 0 1 4 3 2 2 0 3 3 1 2 1 0 2 2 1 0 2 2 2 2 1 1 3 1 1 1 0 1 0 1 2 2 0 1 1 1 1 1 4 0 1 1 2 3 2 2 1 0 2 2 0 0 0 1 4 0 2 2 1 2 2 0 1 2 0 2 2 3 3 1 1 0 2 1 3 1 1 1 2 1 1 2 0 1 1 2 0 3 0 0 0 2 1 2 0 0 0 0 1 1 1 0 2 1 0 2 1 3 2 2 2 2 0 1 0 0 1 1 1 0 1 0 1 0 1 2 0 1 0 2 2 2 0 1 2 1 1 0 1 1 0 0 2 0 1 2 0 1 0 2 1 2 1 0 0 1 1 0 2 1 1 0 0 3 1 3 0 1 2 1 0 1 0 3 1 2 2 3 1 1 0 0 0 1 1 1 0 1 3 1 0 0 2 1 0 1 0 1 0 1 2 2 2 2 2 2 1 1 1 2 1 0 1 0 1 2 3 2 3 0 1 0 2 0 2 0 2 2 0 1 1 0 0 0 1 1 0 2 2 0 1 2 0 1 2 1 1 2 2 1 0 1 1 1 1 0 0 0 1 0 2 1 0 1 1 1 0 0 2 0 3 0 1 1 0 0 1 2 0 0 0 0 1 0 1 1 0 1 2 0 0 2 1 0 0 0 3 2 0 1 0 1 3 0 0 0 0 3 0 0 1 1 1 1 1 1 1 2 4 2 2 1 2 2 1 0 1 2 1 2 0 1 1 1 1 1 0 1 0 2 4 0 1 2 1 2 0 1 3 0 1 2 1 0 1 0 1 2 0 1 2 1 1 1 0 3 1 1 1 1 3 1 0 0 0 0 0 1 2 0 1 2 0 0 3 1 1 2 2 1 1 0 1 3 2 0 2 0 1 0 0 1 2 0 1 0 2 0 0 1 0 0 0 2 1 2 2 0 0 2 1 0 0 0 0 0 2 1 0 2 1 0 1 1 1 2 2 0 0 2 0 2 0 0 2 1 1 1 2 0 2 1 1 2 3 3 2 1 0 0 1 2 0 1 0 0 0 2 0 4 2 0 0 2 0 2 0 0 1 1 0 3 0 1 1 0 3 2 1 0 0 1 1 0 1 1 1 4 0 1 0 1 2 0 0 1 0 1 1 1 0 0 1 1 1 0 1 1 0 0 1 1 2 2 0 0 1 1 3 0 1 0 1 1 2 1 0 1 0 0 0 1 1 0 0 1 0 2 3 1 1 1 3 1 1 0 0 3 1 1 0 0 2 0 0 0 0 3 1 1 3 1 1 0 1 0 0 0 1 2 1 1 0 0 0 0 0 2 1 0 2 3 1 2 0 0 1 1 2 0 2 0 0 1 1 1 3 0 0 1 0 0 2 1 2 1 0 0 1 1 2 2 1 0 1 0 0 1 1 1 0 2 0 0 2 2 1 0 3 2 2 1 3 3 0 1 1 0 1 0 2 1 1 3 0 1 2 2 1 2 2 2 2 0 2 0 1 0 0 2 0 0 2 0 2 0 0 0 1 0 1 0 4 2 2 2 1 0 0 5 1 4 0 1 2 1 1 1 1 1 2 0 0 0 2 1 3 0 5 2 0 1 1 1 3 1 2 0 3 3 1 0 2 1 1 1 2 0 2 1 1 1 1 2 0 0 2 1 1 1 1 1 1 0 0 1 0 0 2 3 2 1 0 2 1 2 1 1 1 0 1 0 1 0 0 0 0 0 1 2 1 3 0 0 1 1 1 0 0 1 4 2 1 1 3 2 1 2 0 1 1 1 2 0 2 1 1 3 1 0 0 1 3 0 3 0 0 1 1 1 0 1 0 3 1 1 0 1 0 0 2 1 1 1 1 1 0 1 1 1 1 0 1 1 2 0 3 2 0 2 1 1 1 1 1 2 1 3 3 0 1 0 2 0 0 1 1 0 1 2 1 1 0 0 1 2 1 0 0 1 0 0 3 0 1 3 1 1 1 1 1 1 1 0 0 1 1 1 0 2 2 3 1 0 0 2 2 2 0 1 2 0 3 2 0 2 1 2 2 1 2 3 3 1 0 1 2 1 0 1 2 0 0 2 1 3 1 0 0 1 2 0 0 0 0 0 1 0 2 1 0 1 0 1 0 0 0 1 1 1 0 2 0 1 0 0 0 4 3 2 1 0 0 0 2 0 0 0 1 2 1 1 2 2 2 1 0 2 2 0 0 2 1 1 1 0 2 2 2 0 0 1 2 1 0 0 2 1 1 1 0 0 0 0 0 2 0 1 3 1 2 1 1 0 1 3 0 1 0 0 0 0 2 1 1 1 0 0 1 0 1 1 0 0 3 0 3 0 1 1 2 1 0 2 1 1 2 2 0 2 0 0 1 2 0 1 0 2 2 1 2 1 0 1 1 1 1 2 0 1 3 0 2 1 1 0 1 0 3 2 1 0 2 1 1 0 1 0 1 1 0 1 0 3 2 1 2 1 2 1 1 0 0 1 1 2 2 0 0 0 1 1 3 1 0 5 1 2 1 1 0 1 2 0 2 1 0 1 0 3 2 2 2 0 1 1 1 1 1 3 2 1 1 2 1 0 2 0 3 1 2 0 1 0 2 2 2 1 0 3 2 0 1 1 1 1 1 0 0 3 0 2 0 0 2 2 2 0 2 0 0 1 1 1 0 2 1 2 0 0 2 0 2 1 0 0 1 0 1 0 1 0 1 3 1 1 2 1 1 0 1 2 0 0 2 2 1 3 3 3 1 2 2 3 2 3 1 0 2 1 1 0 2 0 1 1 2 1 2 1 1 0 0 2 1 0 0 0 2 1 4 1 2 0 2 1 0 3 1 0 2 0 0 0 0 0 0 1 0 0 2 1 1 0 2 3 2 1 1 0 2 1 3 1 1 0 1 0 3 1 1 1 1 3 1 2 0 3 4 0 2 2 0 1 1 3 3 3 2 0 1 2 0 1 0 0 1 1 1 2 3 0 0 0 1 2 1 1 0 2 0 2 1 0 1 1 1 0 2 0 2 1 0 1 0 1 2 1 0 1 1 1 2 2 0 2 1 1 0 2 0 3 2 3 1 1 2 0 3 1 0 1 2 1 1 1 1 1 3 1 1 0 0 3 1 4 0 1 1 1 2 2 2 1 2 1 0 1 1 0 1 3 0 1 1 2 0 1 0 0 2 0 1 2 0 0 1 2 3 2 0 3 0 0 3 0 0 1 2 0 2 2 1 2 1 0 0 0 1 1 0 1 0 0 0 3 1 0 0 1 5 3 2 1 1 0 2 0 1 0 1 0 1 1 0 2 1 0 0 1 0 0 0 1 0 0 3 1 0 1 2 1 2 0 3 0 2 1 0 2 2 2 3 0 1 1 3 1 0 1 0 0 1 0 1 0 2 1 1 1 2 1 0 1 0 1 3 1 1 1 0 2 1 0 0 3 2 1 0 1 1 0 0 1 2 0 0 2 1 0 1 3 0 3 1 1 2 0 4 1 3 1 0 1 0 0 2 2 2 2 0 4 2 2 1 3 3 0 1 2 0 1 0 0 1 2 0 1 0 2 1 1 0 0 0 1 0 1 2 1 1 0 2 1 0 1 1 3 1 0 3 2 0 1 1 4 2 1 2 2 0 1 1 0 0 0 0 2 2 0 3 2 2 0 2 3 3 2 1 1 1 0 0 1 2 1 0 0 1 2 0 2 0 0 1 1 3 1 0 3 0 0 0 1 0 1 1 1 3 0 1 0 1 1 1 2 0 1 1 1 4 2 0 0 0 4 4 2 1 1 2 3 3 1 2 1 4 0 2 1 2 1 1 1 3 1 2 1 0 2 0 2 0 0 2 2 2 2 0 2 1 1 2 2 1 2 0 0 2 0 3 0 2 2 0 1 0 1 2 2 2 1 0 1 1 0 0 1 1 0 1 2 0 1 1 2 1 0 2 0 2 1 1 2 1 1 2 3 2 0 0 3 0 0 1 1 0 0 1 1 0 1 2 0 1 2 1 1 1 0 5 3 3 0 2 2 1 1 0 1 1 1 1 0 1 0 0 0 0 0 1 0 2 2 0 1 3 1 0 1 2 0 2 0 0 0 3 0 1 1 0 2 4 0 3 0 2 1 1 2 1 0 0 2 0 0 2 3 2 1 2 0 0 3 0 0 1 2 0 1 1 2 0 2 0 1 0 2 1 1 2 1 0 3 2 0 1 0 0 2 1 1 0 0 0 0 0 0 2 1 3 1 0 0 2 1 0 1 0 2 0 1 3 1 1 1 1 0 2 1 1 1 1 1 1 3 0 0 3 0 1 1 1 2 1 2 0 1 1 2 0 1 0 1 0 1 1 0 0 2 1 0 1 2 2 0 1 3 1 0 3 1 2 2 1 1 0 4 1 1 0 0 1 0 2 0 2 2 0 2 2 0 0 2 1 2 0 0 1 1 0 0 1 1 1 1 0 2 1 0 0 1 0 1 0 0 0 0 1 1 1 2 0 1 0 1 2 0 0 0 1 4 1 0 2 0 1 0 1 2 3 2 0 0 1 1 1 0 1 2 0 3 3 1 1 1 1 0 2 1 0 0 1 1 0 0 0 0 0 2 0 2 3 1 2 3 0 2 2 0 2 2 2 0 0 2 1 1 0 2 2 0 0 2 2 1 1 1 1 1 2 3 1 2 1 2 3 1 0 1 1 1 0 0 0 0 1 0 1 1 1 0 3 0 0 0 1 3 0 1 1 0 0 1 3 0 0 2 1 0 2 2 0 2 3 1 2 0 3 3 2 2 2 0 0 1 1 2 1 1 2 0 1 3 0 0 2 0 1 2 2 0 3 0 0 1 1 0 0 1 3 0 2 1 1 0 0 2 1 3 1 0 0 2 1 1 1 3 1 0 0 2 0 1 3 0 1 1 1 1 2 0 1 0 2 0 1 3 2 0 1 1 0 1 1 1 1 1 1 1 1 0 2 2 1 1 2 1 1 1 0 1 0 1 2 0 0 0 1 1 0 0 0 1 2 0 0 0 2 1 1 1 1 1 2 1 1 0 0 2 1 0 1 1 0 0 0 1 1 0 1 1 1 0 1 3 2 2 2 0 1 2 2 1 3 0 0 0 1 1 2 0 2 2 1 1 1 2 1 1 1 1 1 0 1 1 1 0 1 0 1 2 0 1 0 0 1 1 1 0 0 2 3 1 1 0 3 3 1 1 0 1 1 0 1 2 3 0 2 0 0 3 1 2 2 0 3 3 0 0 1 1 1 1 2 0 2 4 0 0 1 0 0 1 4 1 1 1 1 3 1 1 1 1 2 0 1 0 1 3 2 0 1 0 1 0 1 2 0 1 2 1 1 0 2 0 3 0 1 1 1 0 0 1 0 0 2 1 0 0 0 1 0 0 0 0 0 1 2 1 3 5 2 1 2 0 1 2 1 1 1 2 0 1 0 1 1 2 1 1 2 4 1 1 0 0 3 0 1 2 1 0 1 1 2 1 0 1 3 1 2 2 0 2 0 0 2 0 1 0 2 0 1 0 0 0 0 1 0 3 2 0 0 0 3 0 2 0 1 3 1 0 2 1 1 1 1 1 2 3 0 1 2 1 0 1 1 1 2 1 0 2 0 4 0 1 0 0 1 1 1 1 1 1 2 1 2 0 1 0 2 1 2 1 0 1 1 0 1 0 3 1 0 0 2 1 3 1 0 3 0 2 4 0 1 1 1 1 3 1 0 2 1 0 1 0 0 0 2 0 1 2 0 1 2 1 1 1 0 0 2 0 0 3 1 0 0 2 0 3 1 2 0 0 0 0 2 1 0 2 0 0 1 0 0 0 1 1 0 1 1 0 0 0 2 1 1 1 1 0 1 1 0 2 0 1 2 1 2 2 1 0 1 1 0 1 2 1 1 0 0 0 1 1 3 3 0 0 2 0 1 0 0 2 0 1 4 1 0 1 1 1 0 2 0 0 1 1 0 3 1 4 3 0 1 0 0 1 1 1 2 0 2 1 0 2 1 1 1 0 1 1 0 1 0 1 0 2 0 1 0 0 2 1 0 0 1 0 1 1 0 2 1 0 2 1 1 0 3 0 4 1 3 1 1 1 2 1 1 1 2 2 1 1 0 1 0 3 0 0 1 0 1 1 0 1 0 1 1 1 0 2 0 3 0 2 2 3 1 1 1 2 0 2 0 1 0 2 1 0 1 1 1 1 2 2 0 1 2 2 0 0 1 1 0 3 2 2 2 1 3 1 1 0 1 0 0 1 1 2 2 1 2 1 0 1 0 5 0 1 2 3 1 0 1 4 0 3 1 1 2 1 1 0 0 2 4 1 1 1 0 3 0 3 0 0 1 1 0 0 0 1 2 1 2 0 2 2 1 2 2 1 1 2 0 1 1 0 0 2 2 2 1 0 3 1 0 0 1 1 0 1 2 1 0 2 0 0 3 1 1 1 2 1 2 1 1 1 1 0 1 1 3 0 1 0 0 0 0 2 2 2 0 0 0 0 2 3 2 2 1 3 4 2 1 2 0 1 1 1 2 0 1 2 0 0 0 0 1 1 3 4 1 1 0 1 1 0 0 2 0 2 1 2 1 1 0 1 1 0 0 0 2 0 0 3 1 2 1 0 0 2 2 0 1 0 1 0 2 1 0 0 0 1 0 1 3 2 3 0 0 1 0 1 0 0 1 1 0 0 1 1 2 1 1 1 1 1 0 1 1 1 2 0 3 3 3 1 2 0 3 3 1 1 0 2 1 1 4 0 0 0 0 1 1 4 0 1 0 0 4 1 1 2 2 0 1 2 1 0 1 3 1 0 0 1 1 1 1 2 0 0 0 0 1 1 1 1 0 1 0 1 1 3 2 0 2 2 0 1 2 1 0 0 3 1 1 2 2 0 0 0 1 2 2 2 1 0 2 0 0 1 0 0 1 2 1 1 2 1 1 2 1 1 1 2 0 1 1 3 1 2 1 4 0 1 1 0 0 1 0 1 0 0 4 0 2 1 0 0 2 0 0 0 1 1 2 1 1 0 1 0 1 1 1 1 3 1 0 0 0 0 1 0 1 1 0 1 1 0 2 2 0 0 1 1 0 2 2 1 1 1 0 0 2 3 1 0 0 1 2 1 1 2 2 2 0 2 0 2 0 2 1 1 0 1 0 0 2 0 5 2 0 1 1 1 0 2 1 0 1 0 2 0 1 1 1 1 2 1 3 2 0 2 1 0 1 1 1 0 1 0 0 3 1 0 1 3 1 1 3 0 0 0 1 0 2 0 1 1 5 0 2 0 1 1 2 0 0 2 2 1 1 0 0 0 0 0 2 2 1 1 2 3 1 0 0 3 1 0 0 0 0 0 1 0 0 3 1 0 1 2 0 1 0 2 0 1 2 0 0 2 0 1 0 0 0 1 0 1 1 3 1 1 1 2 1 0 0 1 0 2 2 0 2 0 1 2 1 0 1 2 0 0 2 0 2 2 1 1 2 1 0 0 1 0 2 0 1 2 2 0 1 0 3 0 1 1 0 1 1 0 1 3 0 2 1 0 0 1 0 1 1 0 0 1 1 3 1 1 2 3 2 2 0 0 3 2 3 1 1 1 1 2 1 1 1 1 0 1 1 0 1 0 0 1 0 2 2 1 0 0 1 0 0 2 2 2 1 2 1 0 2 0 2 0 1 1 3 1 0 2 1 1 3 3 2 1 2 1 0 0 0 3 1 1 1 3 0 2 4 0 2 1 2 0 0 0 2 2 0 1 2 0 0 1 1 0 1 1 1 1 0 0 1 0 0 1 1 0 1 0 1 1 1 1 0 0 2 1 1 0 0 1 2 1 0 1 0 3 2 0 0 1 1 0 1 0 0 1 1 2 2 0 0 0 0 2 1 1 1 0 1 1 0 1 0 3 0 1 0 1 0 0 0 0 0 1 2 1 0 2 2 2 0 0 2 2 0 3 0 0 0 0 1 0 0 2 0 0 1 0 2 0 1 0 0 2 1 1 0 0 0 1 1 1 1 1 2 2 0 0 2 1 0 2 0 1 3 1 1 0 0 0 1 1 2 1 1 0 0 3 2 1 2 0 1 1 1 3 2 0 2 2 0 1 2 0 2 1 0 2 1 0 1 0 0 1 0 2 1 2 0 2 0 0 2 2 1 1 2 1 3 2 0 1 1 0 1 1 0 1 1 1 1 3 1 0 3 2 4 0 0 2 0 1 1 0 4 2 0 0 2 0 1 1 0 4 0 2 3 2 1 4 1 1 0 1 2 2 1 0 2 2 0 1 0 2 0 0 1 1 1 2 0 4 0 0 2 2 2 2 0 2 0 0 1 1 2 0 0 2 0 0 1 2 0 1 1 1 1 1 2 1 1 1 0 3 0 2 1 3 1 1 1 2 0 1 2 1 0 0 3 1 2 1 1 0 1 0 4 1 2 0 1 0 1 0 0 1 1 0 0 0 0 0 3 3 4 3 1 2 1 2 1 2 0 0 1 1 0 1 0 3 0 0 1 1 1 0 1 2 2 0 2 3 1 1 0 2 0 0 2 2 1 1 0 1 3 0 1 2 1 0 0 2 0 3 1 1 1 0 0 2 1 2 0 0 1 1 0 1 4 0 1 3 1 2 2 1 1 0 2 1 1 1 1 2 1 1 1 0 1 1 1 1 0 2 2 3 1 2 2 0 0 3 1 1 2 1 2 0 1 0 0 2 1 1 1 1 2 0 2 2 1 0 2 0 0 2 1 1 0 1 0 0 1 0 1 2 0 1 0 1 0 0 1 3 0 0 0 1 2 2 2 1 2 2 0 2 1 1 2 1 1 1 1 2 2 1 0 0 0 1 0 0 2 0 1 1 1 2 1 0 0 2 1 1 1 2 0 1 1 0 1 0 1 1 2 1 2 0 1 1 0 0 0 1 0 0 3 1 1 1 0 2 1 3 2 1 1 1 0 1 1 1 0 1 0 0 2 3 0 1 2 2 0 1 0 2 1 1 2 1 2 0 1 2 0 2 0 1 0 0 1 0 0 0 1 2 2 1 1 1 1 1 1 2 3 2 0 0 2 0 1 2 1 1 1 1 1 1 0 0 1 1 2 0 0 0 1 0 0 1 1 0 1 2 2 1 1 1 2 1 1 0 1 1 1 2 0 0 3 0 4 2 1 1 2 2 0 0 2 1 0 2 3 1 2 2 2 0 1 0 2 2 0 1 1 3 1 1 0 2 1 3 1 1 0 0 1 1 1 1 0 1 0 1 0 0 3 3 0 1 0 1 2 1 1 1 2 2 0 2 1 0 3 1 0 1 2 1 1 0 2 3 2 0 1 0 1 1 0 1 0 0 0 2 1 0 1 1 2 1 0 3 2 2 1 1 2 2 3 4 2 1 3 1 0 2 1 0 0 0 0 0 1 1 2 1 1 1 1 2 0 1 1 0 0 1 2 1 0 2 0 1 1 1 2 1 2 0 3 4 2 1 2 2 0 0 2 0 1 0 1 0 2 1 1 0 1 1 1 3 1 2 1 3 0</t>
   </si>
   <si>
     <t>J.Hurts</t>
@@ -764,16 +764,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>42</v>
+        <v>41.7</v>
       </c>
       <c r="C2">
-        <v>57.4</v>
+        <v>57.7</v>
       </c>
       <c r="D2">
         <v>0.6</v>
       </c>
       <c r="E2">
-        <v>-2.4</v>
+        <v>-2.3</v>
       </c>
       <c r="F2" t="s">
         <v>11</v>
@@ -782,7 +782,7 @@
         <v>12</v>
       </c>
       <c r="H2">
-        <v>40.2</v>
+        <v>40</v>
       </c>
       <c r="I2" t="s">
         <v>13</v>
@@ -791,10 +791,10 @@
         <v>14</v>
       </c>
       <c r="K2">
-        <v>3.91</v>
+        <v>3.99</v>
       </c>
       <c r="L2">
-        <v>4.61</v>
+        <v>4.69</v>
       </c>
     </row>
   </sheetData>
@@ -841,28 +841,28 @@
         <v>23</v>
       </c>
       <c r="B2">
-        <v>18.9</v>
+        <v>18.8</v>
       </c>
       <c r="C2">
-        <v>23.8</v>
+        <v>23.9</v>
       </c>
       <c r="D2">
         <v>35.1</v>
       </c>
       <c r="E2">
-        <v>241.26</v>
+        <v>241.33</v>
       </c>
       <c r="F2">
         <v>1.31</v>
       </c>
       <c r="G2">
-        <v>0.41</v>
+        <v>0.42</v>
       </c>
       <c r="H2">
-        <v>93.95999999999999</v>
+        <v>94.5</v>
       </c>
       <c r="I2">
-        <v>0.76</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -982,19 +982,19 @@
         <v>47</v>
       </c>
       <c r="C2">
-        <v>23.8</v>
+        <v>23.9</v>
       </c>
       <c r="D2">
         <v>35.1</v>
       </c>
       <c r="E2">
-        <v>241.26</v>
+        <v>241.33</v>
       </c>
       <c r="F2">
         <v>1.31</v>
       </c>
       <c r="G2">
-        <v>0.41</v>
+        <v>0.42</v>
       </c>
       <c r="H2">
         <v>0.03</v>
@@ -1003,7 +1003,7 @@
         <v>0.7</v>
       </c>
       <c r="J2">
-        <v>0.87</v>
+        <v>0.8</v>
       </c>
       <c r="K2">
         <v>0.01</v>
@@ -1012,7 +1012,7 @@
         <v>0.06</v>
       </c>
       <c r="M2">
-        <v>14.28</v>
+        <v>14.25</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -1153,10 +1153,10 @@
         <v>55</v>
       </c>
       <c r="C2">
-        <v>2.06</v>
+        <v>2.05</v>
       </c>
       <c r="D2">
-        <v>20.38</v>
+        <v>20.24</v>
       </c>
       <c r="E2">
         <v>0.11</v>
@@ -1168,19 +1168,19 @@
         <v>12.9</v>
       </c>
       <c r="H2">
-        <v>52.59</v>
+        <v>53.02</v>
       </c>
       <c r="I2">
-        <v>0.43</v>
+        <v>0.41</v>
       </c>
       <c r="J2">
         <v>0.01</v>
       </c>
       <c r="K2">
-        <v>12.2</v>
+        <v>12.14</v>
       </c>
       <c r="L2">
-        <v>10.13</v>
+        <v>10.09</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1194,31 +1194,31 @@
         <v>1.86</v>
       </c>
       <c r="D3">
-        <v>18.26</v>
+        <v>18.27</v>
       </c>
       <c r="E3">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="F3">
         <v>0.12</v>
       </c>
       <c r="G3">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="H3">
-        <v>28.38</v>
+        <v>28.47</v>
       </c>
       <c r="I3">
-        <v>0.22</v>
+        <v>0.23</v>
       </c>
       <c r="J3">
         <v>0.01</v>
       </c>
       <c r="K3">
-        <v>8.220000000000001</v>
+        <v>8.23</v>
       </c>
       <c r="L3">
-        <v>6.36</v>
+        <v>6.37</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1229,13 +1229,13 @@
         <v>57</v>
       </c>
       <c r="C4">
-        <v>3.46</v>
+        <v>3.49</v>
       </c>
       <c r="D4">
-        <v>34.76</v>
+        <v>34.87</v>
       </c>
       <c r="E4">
-        <v>0.18</v>
+        <v>0.19</v>
       </c>
       <c r="F4">
         <v>0.05</v>
@@ -1244,7 +1244,7 @@
         <v>0.1</v>
       </c>
       <c r="H4">
-        <v>0.52</v>
+        <v>0.54</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -1253,10 +1253,10 @@
         <v>0.01</v>
       </c>
       <c r="K4">
-        <v>8.039999999999999</v>
+        <v>8.130000000000001</v>
       </c>
       <c r="L4">
-        <v>4.58</v>
+        <v>4.64</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1267,16 +1267,16 @@
         <v>58</v>
       </c>
       <c r="C5">
-        <v>3.39</v>
+        <v>3.42</v>
       </c>
       <c r="D5">
-        <v>34.32</v>
+        <v>34.66</v>
       </c>
       <c r="E5">
         <v>0.19</v>
       </c>
       <c r="F5">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -1291,10 +1291,10 @@
         <v>0.01</v>
       </c>
       <c r="K5">
-        <v>7.89</v>
+        <v>7.93</v>
       </c>
       <c r="L5">
-        <v>4.5</v>
+        <v>4.51</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -1305,10 +1305,10 @@
         <v>59</v>
       </c>
       <c r="C6">
-        <v>2.66</v>
+        <v>2.62</v>
       </c>
       <c r="D6">
-        <v>27.5</v>
+        <v>27.21</v>
       </c>
       <c r="E6">
         <v>0.15</v>
@@ -1317,10 +1317,10 @@
         <v>0.04</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.44</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -1329,10 +1329,10 @@
         <v>0.01</v>
       </c>
       <c r="K6">
-        <v>6.25</v>
+        <v>6.26</v>
       </c>
       <c r="L6">
-        <v>3.59</v>
+        <v>3.64</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -1343,10 +1343,10 @@
         <v>60</v>
       </c>
       <c r="C7">
-        <v>2.6</v>
+        <v>2.59</v>
       </c>
       <c r="D7">
-        <v>26.32</v>
+        <v>26.04</v>
       </c>
       <c r="E7">
         <v>0.14</v>
@@ -1367,10 +1367,10 @@
         <v>0.01</v>
       </c>
       <c r="K7">
-        <v>6.21</v>
+        <v>6.18</v>
       </c>
       <c r="L7">
-        <v>3.61</v>
+        <v>3.59</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -1381,10 +1381,10 @@
         <v>61</v>
       </c>
       <c r="C8">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="D8">
-        <v>26.96</v>
+        <v>26.99</v>
       </c>
       <c r="E8">
         <v>0.15</v>
@@ -1393,22 +1393,22 @@
         <v>0.04</v>
       </c>
       <c r="G8">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="H8">
-        <v>0.46</v>
+        <v>0</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>6.17</v>
+        <v>6.15</v>
       </c>
       <c r="L8">
-        <v>3.59</v>
+        <v>3.53</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -1419,10 +1419,10 @@
         <v>62</v>
       </c>
       <c r="C9">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="D9">
-        <v>16.74</v>
+        <v>16.89</v>
       </c>
       <c r="E9">
         <v>0.09</v>
@@ -1440,13 +1440,13 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="K9">
         <v>3.86</v>
       </c>
       <c r="L9">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -1460,7 +1460,7 @@
         <v>1.21</v>
       </c>
       <c r="D10">
-        <v>11.97</v>
+        <v>12.07</v>
       </c>
       <c r="E10">
         <v>0.07000000000000001</v>
@@ -1481,7 +1481,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>2.78</v>
+        <v>2.79</v>
       </c>
       <c r="L10">
         <v>1.57</v>
@@ -1495,10 +1495,10 @@
         <v>64</v>
       </c>
       <c r="C11">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="D11">
-        <v>8.81</v>
+        <v>8.9</v>
       </c>
       <c r="E11">
         <v>0.05</v>
@@ -1510,19 +1510,19 @@
         <v>0.1</v>
       </c>
       <c r="H11">
-        <v>0.5</v>
+        <v>0.52</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>2.04</v>
+        <v>2.07</v>
       </c>
       <c r="L11">
-        <v>1.21</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -1533,10 +1533,10 @@
         <v>65</v>
       </c>
       <c r="C12">
-        <v>0.37</v>
+        <v>0.36</v>
       </c>
       <c r="D12">
-        <v>3.59</v>
+        <v>3.53</v>
       </c>
       <c r="E12">
         <v>0.02</v>
@@ -1548,7 +1548,7 @@
         <v>2</v>
       </c>
       <c r="H12">
-        <v>8.08</v>
+        <v>8.19</v>
       </c>
       <c r="I12">
         <v>0.07000000000000001</v>
@@ -1560,7 +1560,7 @@
         <v>2</v>
       </c>
       <c r="L12">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -1574,10 +1574,10 @@
         <v>0.48</v>
       </c>
       <c r="D13">
-        <v>4.69</v>
+        <v>4.77</v>
       </c>
       <c r="E13">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="F13">
         <v>0.01</v>
@@ -1586,7 +1586,7 @@
         <v>0.1</v>
       </c>
       <c r="H13">
-        <v>0.54</v>
+        <v>0.45</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -1595,10 +1595,10 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="L13">
-        <v>0.6899999999999999</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -1609,10 +1609,10 @@
         <v>67</v>
       </c>
       <c r="C14">
-        <v>0.32</v>
+        <v>0.31</v>
       </c>
       <c r="D14">
-        <v>3.23</v>
+        <v>3.18</v>
       </c>
       <c r="E14">
         <v>0.02</v>
@@ -1633,10 +1633,10 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.74</v>
+        <v>0.72</v>
       </c>
       <c r="L14">
-        <v>0.42</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -1650,7 +1650,7 @@
         <v>0.18</v>
       </c>
       <c r="D15">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="E15">
         <v>0.01</v>
@@ -1671,10 +1671,10 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.42</v>
+        <v>0.4</v>
       </c>
       <c r="L15">
-        <v>0.24</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -1688,7 +1688,7 @@
         <v>0.13</v>
       </c>
       <c r="D16">
-        <v>1.34</v>
+        <v>1.39</v>
       </c>
       <c r="E16">
         <v>0.01</v>
@@ -1709,7 +1709,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.3</v>
+        <v>0.32</v>
       </c>
       <c r="L16">
         <v>0.18</v>
@@ -1726,7 +1726,7 @@
         <v>0.06</v>
       </c>
       <c r="D17">
-        <v>0.57</v>
+        <v>0.62</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1738,7 +1738,7 @@
         <v>0.1</v>
       </c>
       <c r="H17">
-        <v>0.48</v>
+        <v>0.47</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1747,10 +1747,10 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.2</v>
+        <v>0.21</v>
       </c>
       <c r="L17">
-        <v>0.14</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1876,25 +1876,25 @@
         <v>79</v>
       </c>
       <c r="C2">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="D2">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="E2">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="F2">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="G2">
-        <v>0.39</v>
+        <v>0.38</v>
       </c>
       <c r="H2">
-        <v>0.6899999999999999</v>
+        <v>0.66</v>
       </c>
       <c r="I2">
-        <v>7.09</v>
+        <v>7.06</v>
       </c>
     </row>
   </sheetData>
@@ -1941,7 +1941,7 @@
         <v>23</v>
       </c>
       <c r="B2">
-        <v>21.3</v>
+        <v>21.1</v>
       </c>
       <c r="C2">
         <v>21.5</v>
@@ -1950,16 +1950,16 @@
         <v>31.5</v>
       </c>
       <c r="E2">
-        <v>238.08</v>
+        <v>237.67</v>
       </c>
       <c r="F2">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="G2">
-        <v>0.38</v>
+        <v>0.39</v>
       </c>
       <c r="H2">
-        <v>126.85</v>
+        <v>125.79</v>
       </c>
       <c r="I2">
         <v>1.05</v>
@@ -2088,13 +2088,13 @@
         <v>31.5</v>
       </c>
       <c r="E2">
-        <v>238.08</v>
+        <v>237.67</v>
       </c>
       <c r="F2">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="G2">
-        <v>0.38</v>
+        <v>0.39</v>
       </c>
       <c r="H2">
         <v>0.13</v>
@@ -2103,16 +2103,16 @@
         <v>7.7</v>
       </c>
       <c r="J2">
-        <v>33.03</v>
+        <v>32.79</v>
       </c>
       <c r="K2">
-        <v>0.28</v>
+        <v>0.29</v>
       </c>
       <c r="L2">
         <v>0.05</v>
       </c>
       <c r="M2">
-        <v>19.12</v>
+        <v>19.04</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -2144,7 +2144,7 @@
         <v>0.2</v>
       </c>
       <c r="J3">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="K3">
         <v>0.01</v>
@@ -2153,7 +2153,7 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.15</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -2253,10 +2253,10 @@
         <v>99</v>
       </c>
       <c r="C2">
-        <v>5.16</v>
+        <v>5.15</v>
       </c>
       <c r="D2">
-        <v>58.17</v>
+        <v>58.06</v>
       </c>
       <c r="E2">
         <v>0.34</v>
@@ -2277,10 +2277,10 @@
         <v>0.01</v>
       </c>
       <c r="K2">
-        <v>12.86</v>
+        <v>12.89</v>
       </c>
       <c r="L2">
-        <v>7.7</v>
+        <v>7.74</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -2291,13 +2291,13 @@
         <v>100</v>
       </c>
       <c r="C3">
-        <v>3.4</v>
+        <v>3.43</v>
       </c>
       <c r="D3">
-        <v>36.61</v>
+        <v>36.95</v>
       </c>
       <c r="E3">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="F3">
         <v>0.12</v>
@@ -2306,19 +2306,19 @@
         <v>5.2</v>
       </c>
       <c r="H3">
-        <v>24.69</v>
+        <v>24.58</v>
       </c>
       <c r="I3">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="J3">
         <v>0.01</v>
       </c>
       <c r="K3">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="L3">
-        <v>8.5</v>
+        <v>8.369999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -2329,10 +2329,10 @@
         <v>101</v>
       </c>
       <c r="C4">
-        <v>4.2</v>
+        <v>4.17</v>
       </c>
       <c r="D4">
-        <v>46.86</v>
+        <v>46.41</v>
       </c>
       <c r="E4">
         <v>0.27</v>
@@ -2353,10 +2353,10 @@
         <v>0.01</v>
       </c>
       <c r="K4">
-        <v>10.4</v>
+        <v>10.35</v>
       </c>
       <c r="L4">
-        <v>6.2</v>
+        <v>6.18</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -2367,10 +2367,10 @@
         <v>102</v>
       </c>
       <c r="C5">
-        <v>3.26</v>
+        <v>3.27</v>
       </c>
       <c r="D5">
-        <v>36.07</v>
+        <v>36.16</v>
       </c>
       <c r="E5">
         <v>0.21</v>
@@ -2382,19 +2382,19 @@
         <v>0.4</v>
       </c>
       <c r="H5">
-        <v>2.02</v>
+        <v>1.88</v>
       </c>
       <c r="I5">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="J5">
         <v>0.01</v>
       </c>
       <c r="K5">
-        <v>8.32</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="L5">
-        <v>5.06</v>
+        <v>5.03</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -2405,13 +2405,13 @@
         <v>103</v>
       </c>
       <c r="C6">
-        <v>2.73</v>
+        <v>2.7</v>
       </c>
       <c r="D6">
-        <v>30.86</v>
+        <v>30.7</v>
       </c>
       <c r="E6">
-        <v>0.19</v>
+        <v>0.17</v>
       </c>
       <c r="F6">
         <v>0.04</v>
@@ -2420,7 +2420,7 @@
         <v>0.1</v>
       </c>
       <c r="H6">
-        <v>0.3</v>
+        <v>0.35</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -2429,10 +2429,10 @@
         <v>0.01</v>
       </c>
       <c r="K6">
-        <v>6.91</v>
+        <v>6.82</v>
       </c>
       <c r="L6">
-        <v>4.18</v>
+        <v>4.11</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -2443,10 +2443,10 @@
         <v>104</v>
       </c>
       <c r="C7">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="D7">
-        <v>10.86</v>
+        <v>10.8</v>
       </c>
       <c r="E7">
         <v>0.06</v>
@@ -2458,7 +2458,7 @@
         <v>5.1</v>
       </c>
       <c r="H7">
-        <v>24.13</v>
+        <v>23.86</v>
       </c>
       <c r="I7">
         <v>0.2</v>
@@ -2467,10 +2467,10 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>5.92</v>
+        <v>5.83</v>
       </c>
       <c r="L7">
-        <v>4.91</v>
+        <v>4.82</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -2481,10 +2481,10 @@
         <v>105</v>
       </c>
       <c r="C8">
-        <v>0.52</v>
+        <v>0.53</v>
       </c>
       <c r="D8">
-        <v>5.73</v>
+        <v>5.68</v>
       </c>
       <c r="E8">
         <v>0.03</v>
@@ -2496,7 +2496,7 @@
         <v>4.4</v>
       </c>
       <c r="H8">
-        <v>20.86</v>
+        <v>20.85</v>
       </c>
       <c r="I8">
         <v>0.17</v>
@@ -2505,10 +2505,10 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>4.23</v>
+        <v>4.28</v>
       </c>
       <c r="L8">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -2534,7 +2534,7 @@
         <v>4.3</v>
       </c>
       <c r="H9">
-        <v>20.36</v>
+        <v>20.07</v>
       </c>
       <c r="I9">
         <v>0.16</v>
@@ -2543,10 +2543,10 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>2.9</v>
+        <v>2.84</v>
       </c>
       <c r="L9">
-        <v>2.9</v>
+        <v>2.84</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -2560,7 +2560,7 @@
         <v>0.68</v>
       </c>
       <c r="D10">
-        <v>7.32</v>
+        <v>7.24</v>
       </c>
       <c r="E10">
         <v>0.04</v>
@@ -2595,16 +2595,16 @@
         <v>108</v>
       </c>
       <c r="C11">
-        <v>0.34</v>
+        <v>0.35</v>
       </c>
       <c r="D11">
-        <v>3.64</v>
+        <v>3.65</v>
       </c>
       <c r="E11">
         <v>0.02</v>
       </c>
       <c r="F11">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -2636,7 +2636,7 @@
         <v>0.09</v>
       </c>
       <c r="D12">
-        <v>1.07</v>
+        <v>1.09</v>
       </c>
       <c r="E12">
         <v>0.01</v>
@@ -2657,10 +2657,10 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.23</v>
+        <v>0.24</v>
       </c>
       <c r="L12">
-        <v>0.14</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -2671,13 +2671,13 @@
         <v>110</v>
       </c>
       <c r="C13">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="D13">
-        <v>0.88</v>
+        <v>0.91</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -2695,10 +2695,10 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.2</v>
+        <v>0.21</v>
       </c>
       <c r="L13">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -2724,7 +2724,7 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.21</v>
+        <v>0.19</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -2786,13 +2786,13 @@
         <v>112</v>
       </c>
       <c r="C2">
-        <v>2.19</v>
+        <v>2.16</v>
       </c>
       <c r="D2">
-        <v>2.31</v>
+        <v>2.28</v>
       </c>
       <c r="E2">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="F2">
         <v>1.23</v>
@@ -2804,7 +2804,7 @@
         <v>0.64</v>
       </c>
       <c r="I2">
-        <v>7.26</v>
+        <v>7.23</v>
       </c>
     </row>
   </sheetData>
